--- a/output/layerCoordinates_right.xlsx
+++ b/output/layerCoordinates_right.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[(-0.3, 30.0), (-0.3, 29.86), (-5.672, 30.0), (-5.672, 29.86), (-0.3, 29.86), (-0.3, 29.74), (-5.672, 29.86), (-5.672, 29.74)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[(-0.3, 31.0), (-0.3, 30.85), (-5.585, 31.0), (-5.585, 30.85), (-0.3, 30.85), (-0.3, 30.73), (-5.585, 30.85), (-5.585, 30.72)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[(-0.3, 32.0), (-0.3, 31.8), (-5.304, 32.0), (-5.304, 31.8), (-0.3, 31.8), (-0.3, 31.68), (-5.304, 31.8), (-5.304, 31.61)]</t>
+          <t>[(-0.3, 32.0), (-0.3, 31.84), (0.0, 32.0), (0.0, 31.84), (0.0, 32.0), (0.0, 31.85), (-5.304, 32.0), (-5.304, 31.85), (-0.3, 31.84), (-0.3, 31.68), (0.0, 31.84), (0.0, 31.72), (0.0, 31.85), (0.0, 31.72), (-5.304, 31.85), (-5.304, 31.73)]</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[(-0.3, 33.0), (-0.3, 32.78), (-4.806, 33.0), (-4.806, 32.78), (-0.3, 32.78), (-0.3, 32.63), (-4.806, 32.78), (-4.806, 32.57)]</t>
+          <t>[(-0.3, 33.0), (-0.3, 32.81), (0.0, 33.0), (0.0, 32.81), (0.0, 33.0), (0.0, 32.83), (-4.806, 33.0), (-4.806, 32.83), (-0.3, 32.81), (-0.3, 32.63), (0.0, 32.81), (0.0, 32.67), (0.0, 32.83), (0.0, 32.67), (-4.806, 32.83), (-4.806, 32.68)]</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[(-0.3, 34.0), (-0.3, 33.8), (-3.873, 34.0), (-3.873, 33.8), (-0.3, 33.8), (-0.3, 33.62), (-3.873, 33.8), (-3.873, 33.61)]</t>
+          <t>[(-0.3, 34.0), (-0.3, 33.89), (0.0, 34.0), (0.0, 33.89), (0.0, 34.0), (0.0, 33.89), (-3.873, 34.0), (-3.873, 33.89), (-0.3, 33.89), (-0.3, 33.62), (0.0, 33.89), (0.0, 33.73), (0.0, 33.89), (0.0, 33.73), (-3.873, 33.89), (-3.873, 33.63)]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[(-0.3, 35.0), (-0.3, 34.85), (-2.676, 35.0), (-2.676, 34.85), (-0.3, 34.85), (-0.3, 34.7), (-2.676, 34.85), (-2.676, 34.7), (-0.3, 34.7), (-0.3, 34.57), (-2.676, 34.7), (-2.676, 34.57)]</t>
+          <t>[(-0.3, 35.0), (-0.3, 34.78), (0.0, 35.0), (0.0, 34.78), (0.0, 35.0), (0.0, 34.86), (-2.676, 35.0), (-2.676, 34.86), (-0.3, 34.78), (-0.3, 34.57), (0.0, 34.78), (0.0, 34.6), (0.0, 34.86), (0.0, 34.72), (-2.676, 34.86), (-2.676, 34.72)]</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 36.0), (-0.3, 35.78), (0.0, 36.0), (0.0, 35.78), (0.0, 36.0), (0.0, 35.76), (0.0, 36.0), (0.0, 35.76), (-0.3, 35.78), (-0.3, 35.57), (0.0, 35.78), (0.0, 35.6), (0.0, 35.76), (0.0, 35.6), (0.0, 35.76), (0.0, 35.52)]</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 37.0), (-0.3, 36.78), (0.0, 37.0), (0.0, 36.78), (0.0, 37.0), (0.0, 36.82), (0.0, 37.0), (0.0, 36.82), (-0.3, 36.78), (-0.3, 36.56), (0.0, 36.78), (0.0, 36.65), (0.0, 36.82), (0.0, 36.65), (0.0, 36.82), (0.0, 36.69)]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 39.0), (-0.3, 38.79), (0.0, 39.0), (0.0, 38.79), (0.0, 39.0), (0.0, 38.89), (0.0, 39.0), (0.0, 38.89), (-0.3, 38.79), (-0.3, 38.49), (0.0, 38.79), (0.0, 38.64), (0.0, 38.89), (0.0, 38.64), (0.0, 38.89), (0.0, 38.72)]</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 40.0), (-0.3, 39.74), (0.0, 40.0), (0.0, 39.74), (0.0, 40.0), (0.0, 39.81), (0.0, 40.0), (0.0, 39.81), (-0.3, 39.74), (-0.3, 39.48), (0.0, 39.74), (0.0, 39.63), (0.0, 39.81), (0.0, 39.63), (0.0, 39.81), (0.0, 39.7)]</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 41.0), (-0.3, 40.74), (0.0, 41.0), (0.0, 40.74), (0.0, 41.0), (0.0, 40.81), (0.0, 41.0), (0.0, 40.81), (-0.3, 40.74), (-0.3, 40.44), (0.0, 40.74), (0.0, 40.63), (0.0, 40.81), (0.0, 40.63), (0.0, 40.81), (0.0, 40.7)]</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 42.0), (-0.3, 41.76), (0.0, 42.0), (0.0, 41.76), (0.0, 42.0), (0.0, 41.81), (0.0, 42.0), (0.0, 41.81), (-0.3, 41.76), (-0.3, 41.46), (0.0, 41.76), (0.0, 41.63), (0.0, 41.81), (0.0, 41.63), (0.0, 41.81), (0.0, 41.69)]</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 43.0), (-0.3, 42.73), (0.0, 43.0), (0.0, 42.73), (0.0, 43.0), (0.0, 42.89), (0.0, 43.0), (0.0, 42.89), (-0.3, 42.73), (-0.3, 42.47), (0.0, 42.73), (0.0, 42.6), (0.0, 42.89), (0.0, 42.6), (0.0, 42.89), (0.0, 42.7)]</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 44.0), (-0.3, 43.73), (0.0, 44.0), (0.0, 43.73), (0.0, 44.0), (0.0, 43.8), (0.0, 44.0), (0.0, 43.8), (-0.3, 43.73), (-0.3, 43.46), (0.0, 43.73), (0.0, 43.6), (0.0, 43.8), (0.0, 43.6), (0.0, 43.8), (0.0, 43.67)]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 45.0), (-0.3, 44.71), (0.0, 45.0), (0.0, 44.71), (0.0, 45.0), (0.0, 44.79), (0.0, 45.0), (0.0, 44.79), (-0.3, 44.71), (-0.3, 44.43), (0.0, 44.71), (0.0, 44.58), (0.0, 44.79), (0.0, 44.58), (0.0, 44.79), (0.0, 44.64)]</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 46.0), (-0.3, 45.7), (0.0, 46.0), (0.0, 45.7), (0.0, 46.0), (0.0, 45.79), (0.0, 46.0), (0.0, 45.79), (-0.3, 45.7), (-0.3, 45.41), (0.0, 45.7), (0.0, 45.59), (0.0, 45.79), (0.0, 45.59), (0.0, 45.79), (0.0, 45.65)]</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 47.0), (-0.3, 46.72), (0.0, 47.0), (0.0, 46.72), (0.0, 47.0), (0.0, 46.8), (0.0, 47.0), (0.0, 46.8), (-0.3, 46.72), (-0.3, 46.44), (0.0, 46.72), (0.0, 46.61), (0.0, 46.8), (0.0, 46.61), (0.0, 46.8), (0.0, 46.64)]</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 48.0), (-0.3, 47.71), (0.0, 48.0), (0.0, 47.71), (0.0, 48.0), (0.0, 47.79), (0.0, 48.0), (0.0, 47.79), (-0.3, 47.71), (-0.3, 47.42), (0.0, 47.71), (0.0, 47.59), (0.0, 47.79), (0.0, 47.59), (0.0, 47.79), (0.0, 47.62)]</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 49.0), (-0.3, 48.71), (0.0, 49.0), (0.0, 48.71), (0.0, 49.0), (0.0, 48.79), (0.0, 49.0), (0.0, 48.79), (-0.3, 48.71), (-0.3, 48.43), (0.0, 48.71), (0.0, 48.58), (0.0, 48.79), (0.0, 48.58), (0.0, 48.79), (0.0, 48.63)]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 50.0), (-0.3, 49.71), (0.0, 50.0), (0.0, 49.71), (0.0, 50.0), (0.0, 49.79), (0.0, 50.0), (0.0, 49.79), (-0.3, 49.71), (-0.3, 49.42), (0.0, 49.71), (0.0, 49.58), (0.0, 49.79), (0.0, 49.58), (0.0, 49.79), (0.0, 49.61)]</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 51.0), (-0.3, 50.71), (0.0, 51.0), (0.0, 50.71), (0.0, 51.0), (0.0, 50.78), (0.0, 51.0), (0.0, 50.78), (-0.3, 50.71), (-0.3, 50.42), (0.0, 50.71), (0.0, 50.57), (0.0, 50.78), (0.0, 50.57), (0.0, 50.78), (0.0, 50.63)]</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 52.0), (-0.3, 51.7), (0.0, 52.0), (0.0, 51.7), (0.0, 52.0), (0.0, 51.79), (0.0, 52.0), (0.0, 51.79), (-0.3, 51.7), (-0.3, 51.41), (0.0, 51.7), (0.0, 51.59), (0.0, 51.79), (0.0, 51.59), (0.0, 51.79), (0.0, 51.67)]</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 53.0), (-0.3, 52.72), (0.0, 53.0), (0.0, 52.72), (0.0, 53.0), (0.0, 52.78), (0.0, 53.0), (0.0, 52.78), (-0.3, 52.72), (-0.3, 52.44), (0.0, 52.72), (0.0, 52.57), (0.0, 52.78), (0.0, 52.57), (0.0, 52.78), (0.0, 52.65)]</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 54.0), (-0.3, 53.72), (0.0, 54.0), (0.0, 53.72), (0.0, 54.0), (0.0, 53.79), (0.0, 54.0), (0.0, 53.79), (-0.3, 53.72), (-0.3, 53.45), (0.0, 53.72), (0.0, 53.59), (0.0, 53.79), (0.0, 53.59), (0.0, 53.79), (0.0, 53.67)]</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 55.0), (-0.3, 54.72), (0.0, 55.0), (0.0, 54.72), (0.0, 55.0), (0.0, 54.79), (0.0, 55.0), (0.0, 54.79), (-0.3, 54.72), (-0.3, 54.45), (0.0, 54.72), (0.0, 54.59), (0.0, 54.79), (0.0, 54.59), (0.0, 54.79), (0.0, 54.65)]</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 56.0), (-0.3, 55.73), (0.0, 56.0), (0.0, 55.73), (0.0, 56.0), (0.0, 55.81), (0.0, 56.0), (0.0, 55.81), (-0.3, 55.73), (-0.3, 55.46), (0.0, 55.73), (0.0, 55.62), (0.0, 55.81), (0.0, 55.62), (0.0, 55.81), (0.0, 55.67)]</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 57.0), (-0.3, 56.8), (0.0, 57.0), (0.0, 56.8), (0.0, 57.0), (0.0, 56.82), (0.0, 57.0), (0.0, 56.82), (-0.3, 56.8), (-0.3, 56.5), (0.0, 56.8), (0.0, 56.65), (0.0, 56.82), (0.0, 56.65), (0.0, 56.82), (0.0, 56.7)]</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 58.0), (-0.3, 57.8), (0.0, 58.0), (0.0, 57.8), (0.0, 58.0), (0.0, 57.89), (0.0, 58.0), (0.0, 57.89), (-0.3, 57.8), (-0.3, 57.5), (0.0, 57.8), (0.0, 57.65), (0.0, 57.89), (0.0, 57.65), (0.0, 57.89), (0.0, 57.72)]</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 74.0), (-0.3, 73.86), (0.0, 74.0), (0.0, 73.86), (0.0, 74.0), (0.0, 73.74), (0.0, 74.0), (0.0, 73.74), (-0.3, 73.86), (-0.3, 73.72), (0.0, 73.86), (0.0, 73.72), (0.0, 73.74), (0.0, 73.6), (0.0, 73.74), (0.0, 73.49), (-0.3, 73.72), (-0.3, 73.59), (0.0, 73.72), (0.0, 73.6), (0.0, 73.6), (0.0, 73.6), (0.0, 73.49), (0.0, 73.49)]</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 75.0), (-0.3, 74.77), (0.0, 75.0), (0.0, 74.77), (0.0, 75.0), (0.0, 74.78), (0.0, 75.0), (0.0, 74.69), (-0.3, 74.77), (-0.3, 74.65), (0.0, 74.77), (0.0, 74.55), (0.0, 74.78), (0.0, 74.56), (0.0, 74.69), (0.0, 74.38)]</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 76.0), (-0.3, 75.86), (0.0, 76.0), (0.0, 75.86), (0.0, 76.0), (0.0, 75.78), (0.0, 76.0), (0.0, 75.68), (-0.3, 75.86), (-0.3, 75.71), (0.0, 75.86), (0.0, 75.56), (0.0, 75.78), (0.0, 75.56), (0.0, 75.68), (0.0, 75.36)]</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 77.0), (-0.3, 76.89), (0.0, 77.0), (0.0, 76.89), (0.0, 77.0), (0.0, 76.7), (0.0, 77.0), (0.0, 76.7), (-0.3, 76.89), (-0.3, 76.74), (0.0, 76.89), (0.0, 76.59), (0.0, 76.7), (0.0, 76.59), (0.0, 76.7), (0.0, 76.41)]</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 109.0), (-0.3, 108.89), (0.0, 109.0), (0.0, 108.89), (0.0, 109.0), (0.0, 108.85), (0.0, 109.0), (0.0, 108.85), (-0.3, 108.89), (-0.3, 108.6), (0.0, 108.89), (0.0, 108.72), (0.0, 108.85), (0.0, 108.72), (0.0, 108.85), (0.0, 108.74)]</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 110.0), (-0.3, 109.81), (0.0, 110.0), (0.0, 109.81), (0.0, 110.0), (0.0, 109.88), (0.0, 110.0), (0.0, 109.88), (-0.3, 109.81), (-0.3, 109.63), (0.0, 109.81), (0.0, 109.65), (0.0, 109.88), (0.0, 109.76), (0.0, 109.88), (0.0, 109.76)]</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 111.0), (-0.3, 110.82), (0.0, 111.0), (0.0, 110.82), (0.0, 111.0), (0.0, 110.83), (0.0, 111.0), (0.0, 110.83), (-0.3, 110.82), (-0.3, 110.65), (0.0, 110.82), (0.0, 110.68), (0.0, 110.83), (0.0, 110.68), (0.0, 110.83), (0.0, 110.66)]</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 112.0), (-0.3, 111.81), (0.0, 112.0), (0.0, 111.81), (0.0, 112.0), (0.0, 111.82), (0.0, 112.0), (0.0, 111.82), (-0.3, 111.81), (-0.3, 111.62), (0.0, 111.81), (0.0, 111.65), (0.0, 111.82), (0.0, 111.65), (0.0, 111.82), (0.0, 111.64)]</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 113.0), (-0.3, 112.78), (0.0, 113.0), (0.0, 112.78), (0.0, 113.0), (0.0, 112.82), (0.0, 113.0), (0.0, 112.82), (-0.3, 112.78), (-0.3, 112.56), (0.0, 112.78), (0.0, 112.65), (0.0, 112.82), (0.0, 112.65), (0.0, 112.82), (0.0, 112.64)]</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 114.0), (-0.3, 113.79), (0.0, 114.0), (0.0, 113.79), (0.0, 114.0), (0.0, 113.82), (0.0, 114.0), (0.0, 113.82), (-0.3, 113.79), (-0.3, 113.59), (0.0, 113.79), (0.0, 113.64), (0.0, 113.82), (0.0, 113.64), (0.0, 113.82), (0.0, 113.65)]</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 115.0), (-0.3, 114.79), (0.0, 115.0), (0.0, 114.79), (0.0, 115.0), (0.0, 114.81), (0.0, 115.0), (0.0, 114.81), (-0.3, 114.79), (-0.3, 114.58), (0.0, 114.79), (0.0, 114.63), (0.0, 114.81), (0.0, 114.63), (0.0, 114.81), (0.0, 114.65)]</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 116.0), (-0.3, 115.79), (0.0, 116.0), (0.0, 115.79), (0.0, 116.0), (0.0, 115.87), (0.0, 116.0), (0.0, 115.87), (-0.3, 115.79), (-0.3, 115.58), (0.0, 115.79), (0.0, 115.62), (0.0, 115.87), (0.0, 115.74), (0.0, 115.87), (0.0, 115.74)]</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 117.0), (-0.3, 116.78), (0.0, 117.0), (0.0, 116.78), (0.0, 117.0), (0.0, 116.81), (0.0, 117.0), (0.0, 116.81), (-0.3, 116.78), (-0.3, 116.57), (0.0, 116.78), (0.0, 116.63), (0.0, 116.81), (0.0, 116.63), (0.0, 116.81), (0.0, 116.68)]</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 118.0), (-0.3, 117.79), (0.0, 118.0), (0.0, 117.79), (0.0, 118.0), (0.0, 117.82), (0.0, 118.0), (0.0, 117.82), (-0.3, 117.79), (-0.3, 117.59), (0.0, 117.79), (0.0, 117.64), (0.0, 117.82), (0.0, 117.64), (0.0, 117.82), (0.0, 117.69)]</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 119.0), (-0.3, 118.78), (0.0, 119.0), (0.0, 118.78), (0.0, 119.0), (0.0, 118.89), (0.0, 119.0), (0.0, 118.89), (-0.3, 118.78), (-0.3, 118.56), (0.0, 118.78), (0.0, 118.65), (0.0, 118.89), (0.0, 118.65), (0.0, 118.89), (0.0, 118.73)]</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 124.0), (-0.3, 123.75), (0.0, 124.0), (0.0, 123.75), (0.0, 124.0), (0.0, 123.89), (0.0, 124.0), (0.0, 123.89), (-0.3, 123.75), (-0.3, 123.51), (0.0, 123.75), (0.0, 123.62), (0.0, 123.89), (0.0, 123.62), (0.0, 123.89), (0.0, 123.75)]</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 126.0), (-0.3, 125.75), (0.0, 126.0), (0.0, 125.75), (0.0, 126.0), (0.0, 125.89), (0.0, 126.0), (0.0, 125.89), (-0.3, 125.75), (-0.3, 125.51), (0.0, 125.75), (0.0, 125.61), (0.0, 125.89), (0.0, 125.61), (0.0, 125.89), (0.0, 125.75)]</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 128.0), (-0.3, 127.75), (0.0, 128.0), (0.0, 127.75), (0.0, 128.0), (0.0, 127.89), (0.0, 128.0), (0.0, 127.89), (-0.3, 127.75), (-0.3, 127.5), (0.0, 127.75), (0.0, 127.62), (0.0, 127.89), (0.0, 127.62), (0.0, 127.89), (0.0, 127.73)]</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 129.0), (-0.3, 128.74), (0.0, 129.0), (0.0, 128.74), (0.0, 129.0), (0.0, 128.89), (0.0, 129.0), (0.0, 128.89), (-0.3, 128.74), (-0.3, 128.48), (0.0, 128.74), (0.0, 128.61), (0.0, 128.89), (0.0, 128.61), (0.0, 128.89), (0.0, 128.72)]</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 130.0), (-0.3, 129.73), (0.0, 130.0), (0.0, 129.73), (0.0, 130.0), (0.0, 129.89), (0.0, 130.0), (0.0, 129.89), (-0.3, 129.73), (-0.3, 129.47), (0.0, 129.73), (0.0, 129.59), (0.0, 129.89), (0.0, 129.59), (0.0, 129.89), (0.0, 129.7)]</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 131.0), (-0.3, 130.74), (0.0, 131.0), (0.0, 130.74), (0.0, 131.0), (0.0, 130.89), (0.0, 131.0), (0.0, 130.89), (-0.3, 130.74), (-0.3, 130.49), (0.0, 130.74), (0.0, 130.6), (0.0, 130.89), (0.0, 130.6), (0.0, 130.89), (0.0, 130.73)]</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 132.0), (-0.3, 131.73), (0.0, 132.0), (0.0, 131.73), (0.0, 132.0), (0.0, 131.88), (0.0, 132.0), (0.0, 131.88), (-0.3, 131.73), (-0.3, 131.46), (0.0, 131.73), (0.0, 131.58), (0.0, 131.88), (0.0, 131.58), (0.0, 131.88), (0.0, 131.7)]</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 133.0), (-0.3, 132.72), (0.0, 133.0), (0.0, 132.72), (0.0, 133.0), (0.0, 132.76), (0.0, 133.0), (0.0, 132.76), (-0.3, 132.72), (-0.3, 132.44), (0.0, 132.72), (0.0, 132.53), (0.0, 132.76), (0.0, 132.53), (0.0, 132.76), (0.0, 132.63)]</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 134.0), (-0.3, 133.7), (0.0, 134.0), (0.0, 133.7), (0.0, 134.0), (0.0, 133.83), (0.0, 134.0), (0.0, 133.83), (-0.3, 133.7), (-0.3, 133.41), (0.0, 133.7), (0.0, 133.53), (0.0, 133.83), (0.0, 133.53), (0.0, 133.83), (0.0, 133.68)]</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 135.0), (-0.3, 134.68), (0.0, 135.0), (0.0, 134.74), (0.0, 135.0), (0.0, 134.78), (0.0, 135.0), (0.0, 134.78), (-0.3, 134.68), (-0.3, 134.36), (0.0, 134.74), (0.0, 134.48), (0.0, 134.78), (0.0, 134.48), (0.0, 134.78), (0.0, 134.64)]</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 136.0), (-0.3, 135.68), (0.0, 136.0), (0.0, 135.76), (0.0, 136.0), (0.0, 135.81), (0.0, 136.0), (0.0, 135.81), (-0.3, 135.68), (-0.3, 135.36), (0.0, 135.76), (0.0, 135.52), (0.0, 135.81), (0.0, 135.51), (0.0, 135.81), (0.0, 135.68)]</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 137.0), (-0.3, 136.69), (0.0, 137.0), (0.0, 136.74), (0.0, 137.0), (0.0, 136.79), (0.0, 137.0), (0.0, 136.79), (-0.3, 136.69), (-0.3, 136.38), (0.0, 136.74), (0.0, 136.48), (0.0, 136.79), (0.0, 136.49), (0.0, 136.79), (0.0, 136.66)]</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 138.0), (-0.3, 137.71), (0.0, 138.0), (0.0, 137.71), (0.0, 138.0), (0.0, 137.85), (0.0, 138.0), (0.0, 137.85), (-0.3, 137.71), (-0.3, 137.43), (0.0, 137.71), (0.0, 137.55), (0.0, 137.85), (0.0, 137.55), (0.0, 137.85), (0.0, 137.69)]</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 139.0), (-0.3, 138.72), (0.0, 139.0), (0.0, 138.72), (0.0, 139.0), (0.0, 138.89), (0.0, 139.0), (0.0, 138.89), (-0.3, 138.72), (-0.3, 138.45), (0.0, 138.72), (0.0, 138.6), (0.0, 138.89), (0.0, 138.6), (0.0, 138.89), (0.0, 138.71)]</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 140.0), (-0.3, 139.75), (0.0, 140.0), (0.0, 139.75), (0.0, 140.0), (0.0, 139.89), (0.0, 140.0), (0.0, 139.89), (-0.3, 139.75), (-0.3, 139.5), (0.0, 139.75), (0.0, 139.63), (0.0, 139.89), (0.0, 139.63), (0.0, 139.89), (0.0, 139.74)]</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[(-0.3, 141.0), (-0.3, 140.74), (-2.69, 141.0), (-2.69, 140.74), (-0.3, 140.74), (-0.3, 140.54), (-2.69, 140.74), (-2.69, 140.48)]</t>
+          <t>[(-0.3, 141.0), (-0.3, 140.77), (0.0, 141.0), (0.0, 140.77), (0.0, 141.0), (0.0, 140.89), (-2.69, 141.0), (-2.69, 140.89), (-0.3, 140.77), (-0.3, 140.54), (0.0, 140.77), (0.0, 140.64), (0.0, 140.89), (0.0, 140.64), (-2.69, 140.89), (-2.69, 140.72)]</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[(-0.3, 142.0), (-0.3, 141.73), (-3.261, 142.0), (-3.261, 141.73), (-0.3, 141.73), (-0.3, 141.54), (-3.261, 141.73), (-3.261, 141.46)]</t>
+          <t>[(-0.3, 142.0), (-0.3, 141.77), (0.0, 142.0), (0.0, 141.77), (0.0, 142.0), (0.0, 141.82), (-3.261, 142.0), (-3.261, 141.82), (-0.3, 141.77), (-0.3, 141.54), (0.0, 141.77), (0.0, 141.64), (0.0, 141.82), (0.0, 141.64), (-3.261, 141.82), (-3.261, 141.7)]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[(-0.3, 143.0), (-0.3, 142.74), (-3.659, 143.0), (-3.659, 142.74), (-0.3, 142.74), (-0.3, 142.55), (-3.659, 142.74), (-3.659, 142.48)]</t>
+          <t>[(-0.3, 143.0), (-0.3, 142.77), (0.0, 143.0), (0.0, 142.77), (0.0, 143.0), (0.0, 142.82), (-3.659, 143.0), (-3.659, 142.82), (-0.3, 142.77), (-0.3, 142.55), (0.0, 142.77), (0.0, 142.64), (0.0, 142.82), (0.0, 142.64), (-3.659, 142.82), (-3.659, 142.71)]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[(-0.3, 144.0), (-0.3, 143.85), (-4.017, 144.0), (-4.017, 143.85), (-0.3, 143.85), (-0.3, 143.7), (-4.017, 143.85), (-4.017, 143.7), (-0.3, 143.7), (-0.3, 143.59), (-4.017, 143.7), (-4.017, 143.57)]</t>
+          <t>[(-0.3, 144.0), (-0.3, 143.79), (0.0, 144.0), (0.0, 143.79), (0.0, 144.0), (0.0, 143.89), (-4.017, 144.0), (-4.017, 143.89), (-0.3, 143.79), (-0.3, 143.59), (0.0, 143.79), (0.0, 143.63), (0.0, 143.89), (0.0, 143.63), (-4.017, 143.89), (-4.017, 143.71)]</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[(-0.3, 145.0), (-0.3, 144.81), (-4.438, 145.0), (-4.438, 144.81), (-0.3, 144.81), (-0.3, 144.64), (-4.438, 144.81), (-4.438, 144.62)]</t>
+          <t>[(-0.3, 145.0), (-0.3, 144.82), (0.0, 145.0), (0.0, 144.82), (0.0, 145.0), (0.0, 144.89), (-4.438, 145.0), (-4.438, 144.89), (-0.3, 144.82), (-0.3, 144.64), (0.0, 144.82), (0.0, 144.67), (0.0, 144.89), (0.0, 144.67), (-4.438, 144.89), (-4.438, 144.73)]</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[(-0.3, 146.0), (-0.3, 145.81), (-4.773, 146.0), (-4.773, 145.81), (-0.3, 145.81), (-0.3, 145.65), (-4.773, 145.81), (-4.773, 145.62)]</t>
+          <t>[(-0.3, 146.0), (-0.3, 145.82), (0.0, 146.0), (0.0, 145.82), (0.0, 146.0), (0.0, 145.83), (-4.773, 146.0), (-4.773, 145.83), (-0.3, 145.82), (-0.3, 145.65), (0.0, 145.82), (0.0, 145.67), (0.0, 145.83), (0.0, 145.67), (-4.773, 145.83), (-4.773, 145.72)]</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[(-0.3, 147.0), (-0.3, 146.79), (-5.091, 147.0), (-5.091, 146.79), (-0.3, 146.79), (-0.3, 146.61), (-5.091, 146.79), (-5.091, 146.58)]</t>
+          <t>[(-0.3, 147.0), (-0.3, 146.8), (0.0, 147.0), (0.0, 146.8), (0.0, 147.0), (0.0, 146.81), (-5.091, 147.0), (-5.091, 146.81), (-0.3, 146.8), (-0.3, 146.61), (0.0, 146.8), (0.0, 146.62), (0.0, 146.81), (0.0, 146.62), (-5.091, 146.81), (-5.091, 146.64)]</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[(-0.3, 148.0), (-0.3, 147.85), (-5.595, 148.0), (-5.595, 147.85), (-0.3, 147.85), (-0.3, 147.7), (-5.595, 147.85), (-5.595, 147.7), (-0.3, 147.7), (-0.3, 147.58), (-5.595, 147.7), (-5.595, 147.56)]</t>
+          <t>[(-0.3, 148.0), (-0.3, 147.79), (-5.595, 148.0), (-5.595, 147.79), (-0.3, 147.79), (-0.3, 147.58), (-5.595, 147.79), (-5.595, 147.63)]</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[(-0.3, 149.0), (-0.3, 148.85), (-6.265, 149.0), (-6.265, 148.85), (-0.3, 148.85), (-0.3, 148.7), (-6.265, 148.85), (-6.265, 148.7), (-0.3, 148.7), (-0.3, 148.57), (-6.265, 148.7), (-6.265, 148.55)]</t>
+          <t>[(-0.3, 149.0), (-0.3, 148.85), (-6.265, 149.0), (-6.265, 148.85), (-0.3, 148.85), (-0.3, 148.7), (-6.265, 148.85), (-6.265, 148.7), (-0.3, 148.7), (-0.3, 148.57), (-6.265, 148.7), (-6.265, 148.57)]</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[(-0.3, 150.0), (-0.3, 149.85), (-7.035, 150.0), (-7.035, 149.85), (-0.3, 149.85), (-0.3, 149.7), (-7.035, 149.85), (-7.035, 149.7), (-0.3, 149.7), (-0.3, 149.59), (-7.035, 149.7), (-7.035, 149.56)]</t>
+          <t>[(-0.3, 150.0), (-0.3, 149.79), (-7.035, 150.0), (-7.035, 149.79), (-0.3, 149.79), (-0.3, 149.59), (-7.035, 149.79), (-7.035, 149.65)]</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[(-0.3, 151.0), (-0.3, 150.79), (-7.802, 151.0), (-7.802, 150.79), (-0.3, 150.79), (-0.3, 150.61), (-7.802, 150.79), (-7.802, 150.58)]</t>
+          <t>[(-0.3, 151.0), (-0.3, 150.89), (-7.802, 151.0), (-7.802, 150.89), (-0.3, 150.89), (-0.3, 150.61), (-7.802, 150.89), (-7.802, 150.71)]</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[(-0.3, 152.0), (-0.3, 151.82), (-8.397, 152.0), (-8.397, 151.82), (-0.3, 151.82), (-0.3, 151.65), (-8.397, 151.82), (-8.397, 151.67)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[(-0.3, 160.0), (-0.3, 159.88), (-4.255, 160.0), (-4.255, 159.88), (-4.255, 160.0), (-4.255, 159.86), (-15.746, 160.0), (-15.746, 159.86), (-0.3, 159.88), (-0.3, 159.58), (-4.255, 159.88), (-4.255, 159.74), (-4.255, 159.86), (-4.255, 159.74), (-15.746, 159.86), (-15.746, 159.74)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 161.0), (-0.3, 160.87), (-11.329, 161.0), (-11.329, 160.87), (-0.3, 160.87), (-0.3, 160.57), (-11.329, 160.87), (-11.329, 160.74)]</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 164.0), (-0.3, 163.88), (-11.542, 164.0), (-11.542, 163.88), (-0.3, 163.88), (-0.3, 163.58), (-11.542, 163.88), (-11.542, 163.74)]</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 165.0), (-0.3, 164.88), (-11.467, 165.0), (-11.467, 164.88), (-0.3, 164.88), (-0.3, 164.58), (-11.467, 164.88), (-11.467, 164.74)]</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 172.0), (-0.3, 171.89), (-12.411, 172.0), (-12.411, 171.89), (-0.3, 171.89), (-0.3, 171.66), (-12.411, 171.89), (-12.411, 171.73)]</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 173.0), (-0.3, 172.85), (-11.985, 173.0), (-11.985, 172.85), (-0.3, 172.85), (-0.3, 172.71), (-11.985, 172.85), (-11.985, 172.71)]</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 174.0), (-0.3, 173.86), (-11.644, 174.0), (-11.644, 173.86), (-0.3, 173.86), (-0.3, 173.73), (-11.644, 173.86), (-11.644, 173.73)]</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 175.0), (-0.3, 174.87), (-11.37, 175.0), (-11.37, 174.87), (-0.3, 174.87), (-0.3, 174.75), (-11.37, 174.87), (-11.37, 174.75)]</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 176.0), (-0.3, 175.85), (-11.303, 176.0), (-11.303, 175.85), (-0.3, 175.85), (-0.3, 175.71), (-11.303, 175.85), (-11.303, 175.71)]</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 177.0), (-0.3, 176.85), (-11.322, 177.0), (-11.322, 176.85), (-0.3, 176.85), (-0.3, 176.71), (-11.322, 176.85), (-11.322, 176.71)]</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 178.0), (-0.3, 177.85), (-11.242, 178.0), (-11.242, 177.85), (-0.3, 177.85), (-0.3, 177.71), (-11.242, 177.85), (-11.242, 177.71)]</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 179.0), (-0.3, 178.84), (-10.974, 179.0), (-10.974, 178.66), (-0.3, 178.84), (-0.3, 178.68), (-10.974, 178.66), (-10.974, 178.32)]</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 180.0), (-0.3, 179.84), (-10.493, 180.0), (-10.493, 179.74), (-0.3, 179.84), (-0.3, 179.68), (-10.493, 179.74), (-10.493, 179.48)]</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 181.0), (-0.3, 180.83), (-9.811, 181.0), (-9.811, 180.72), (-0.3, 180.83), (-0.3, 180.66), (-9.811, 180.72), (-9.811, 180.44)]</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 182.0), (-0.3, 181.84), (-9.17, 182.0), (-9.17, 181.72), (-0.3, 181.84), (-0.3, 181.68), (-9.17, 181.72), (-9.17, 181.44)]</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 183.0), (-0.3, 182.76), (-8.644, 183.0), (-8.644, 182.76), (-0.3, 182.76), (-0.3, 182.63), (-8.644, 182.76), (-8.644, 182.46)]</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 184.0), (-0.3, 183.8), (-7.857, 184.0), (-7.857, 183.68), (-0.3, 183.8), (-0.3, 183.6), (-7.857, 183.68), (-7.857, 183.36)]</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 185.0), (-0.3, 184.82), (-6.888, 185.0), (-6.888, 184.7), (-0.3, 184.82), (-0.3, 184.64), (-6.888, 184.7), (-6.888, 184.4)]</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 186.0), (-0.3, 185.84), (-5.892, 186.0), (-5.892, 185.72), (-0.3, 185.84), (-0.3, 185.68), (-5.892, 185.72), (-5.892, 185.44)]</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 187.0), (-0.3, 186.84), (-4.905, 187.0), (-4.905, 186.7), (-0.3, 186.84), (-0.3, 186.68), (-4.905, 186.7), (-4.905, 186.4)]</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 188.0), (-0.3, 187.84), (-4.146, 188.0), (-4.146, 187.66), (-0.3, 187.84), (-0.3, 187.68), (-4.146, 187.66), (-4.146, 187.32)]</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[(-0.3, 189.0), (-0.3, 188.81), (-3.637, 189.0), (-3.637, 188.81), (-0.3, 188.81), (-0.3, 188.62), (-3.637, 188.81), (-3.637, 188.69)]</t>
+          <t>[(-0.3, 189.0), (-0.3, 188.81), (-3.637, 189.0), (-3.637, 188.66), (-0.3, 188.81), (-0.3, 188.62), (-3.637, 188.66), (-3.637, 188.32)]</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[(-0.3, 190.0), (-0.3, 189.89), (-3.053, 190.0), (-3.053, 189.89), (-0.3, 189.89), (-0.3, 189.67), (-3.053, 189.89), (-3.053, 189.75)]</t>
+          <t>[(-0.3, 190.0), (-0.3, 189.84), (-3.053, 190.0), (-3.053, 189.66), (-0.3, 189.84), (-0.3, 189.68), (-3.053, 189.66), (-3.053, 189.32)]</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[(-0.3, 191.0), (-0.3, 190.82), (-2.361, 191.0), (-2.361, 190.82), (-0.3, 190.82), (-0.3, 190.64), (-2.361, 190.82), (-2.361, 190.68)]</t>
+          <t>[(-0.3, 191.0), (-0.3, 190.82), (-2.361, 191.0), (-2.361, 190.68), (-0.3, 190.82), (-0.3, 190.64), (-2.361, 190.68), (-2.361, 190.36)]</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 192.0), (-0.3, 191.81), (0.0, 192.0), (0.0, 191.81), (0.0, 192.0), (0.0, 191.82), (0.0, 192.0), (0.0, 191.7), (-0.3, 191.81), (-0.3, 191.67), (0.0, 191.81), (0.0, 191.63), (0.0, 191.82), (0.0, 191.64), (0.0, 191.7), (0.0, 191.4)]</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 193.0), (-0.3, 192.82), (0.0, 193.0), (0.0, 192.82), (0.0, 193.0), (0.0, 192.82), (0.0, 193.0), (0.0, 192.72), (-0.3, 192.82), (-0.3, 192.67), (0.0, 192.82), (0.0, 192.64), (0.0, 192.82), (0.0, 192.64), (0.0, 192.72), (0.0, 192.44)]</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 194.0), (-0.3, 193.8), (0.0, 194.0), (0.0, 193.8), (0.0, 194.0), (0.0, 193.72), (0.0, 194.0), (0.0, 193.72), (-0.3, 193.8), (-0.3, 193.63), (0.0, 193.8), (0.0, 193.61), (0.0, 193.72), (0.0, 193.61), (0.0, 193.72), (0.0, 193.44)]</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 195.0), (-0.3, 194.8), (0.0, 195.0), (0.0, 194.8), (0.0, 195.0), (0.0, 194.77), (0.0, 195.0), (0.0, 194.77), (-0.3, 194.8), (-0.3, 194.6), (0.0, 194.8), (0.0, 194.63), (0.0, 194.77), (0.0, 194.63), (0.0, 194.77), (0.0, 194.47)]</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 196.0), (-0.3, 195.8), (0.0, 196.0), (0.0, 195.8), (0.0, 196.0), (0.0, 195.73), (0.0, 196.0), (0.0, 195.73), (-0.3, 195.8), (-0.3, 195.6), (0.0, 195.8), (0.0, 195.62), (0.0, 195.73), (0.0, 195.62), (0.0, 195.73), (0.0, 195.46)]</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 197.0), (-0.3, 196.8), (0.0, 197.0), (0.0, 196.8), (0.0, 197.0), (0.0, 196.75), (0.0, 197.0), (0.0, 196.75), (-0.3, 196.8), (-0.3, 196.6), (0.0, 196.8), (0.0, 196.62), (0.0, 196.75), (0.0, 196.62), (0.0, 196.75), (0.0, 196.45)]</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 198.0), (-0.3, 197.89), (0.0, 198.0), (0.0, 197.89), (0.0, 198.0), (0.0, 197.89), (0.0, 198.0), (0.0, 197.89), (-0.3, 197.89), (-0.3, 197.62), (0.0, 197.89), (0.0, 197.72), (0.0, 197.89), (0.0, 197.72), (0.0, 197.89), (0.0, 197.64)]</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>[(-0.3, 218.0), (-0.3, 217.89), (-6.083, 218.0), (-6.083, 217.89), (-6.083, 218.0), (-6.083, 217.75), (-9.456, 218.0), (-9.456, 217.75), (-0.3, 217.89), (-0.3, 217.73), (-6.083, 217.89), (-6.083, 217.64), (-6.083, 217.75), (-6.083, 217.64), (-9.456, 217.75), (-9.456, 217.51)]</t>
+          <t>[(-0.3, 218.0), (-0.3, 217.86), (-9.456, 218.0), (-9.456, 217.86), (-0.3, 217.86), (-0.3, 217.73), (-9.456, 217.86), (-9.456, 217.73)]</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>[(-0.3, 219.0), (-0.3, 218.89), (-7.801, 219.0), (-7.801, 218.89), (-7.801, 219.0), (-7.801, 218.72), (-11.196, 219.0), (-11.196, 218.72), (-0.3, 218.89), (-0.3, 218.72), (-7.801, 218.89), (-7.801, 218.59), (-7.801, 218.72), (-7.801, 218.59), (-11.196, 218.72), (-11.196, 218.44)]</t>
+          <t>[(-0.3, 219.0), (-0.3, 218.85), (-11.196, 219.0), (-11.196, 218.85), (-0.3, 218.85), (-0.3, 218.72), (-11.196, 218.85), (-11.196, 218.72)]</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>[(-0.3, 220.0), (-0.3, 219.86), (-9.188, 220.0), (-9.188, 219.86), (-9.188, 220.0), (-9.188, 219.71), (-12.555, 220.0), (-12.555, 219.71), (-0.3, 219.86), (-0.3, 219.69), (-9.188, 219.86), (-9.188, 219.56), (-9.188, 219.71), (-9.188, 219.56), (-12.555, 219.71), (-12.555, 219.42)]</t>
+          <t>[(-0.3, 220.0), (-0.3, 219.84), (-12.555, 220.0), (-12.555, 219.84), (-0.3, 219.84), (-0.3, 219.69), (-12.555, 219.84), (-12.555, 219.69)]</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>[(-0.3, 221.0), (-0.3, 220.76), (-10.073, 221.0), (-10.073, 220.76), (-10.073, 221.0), (-10.073, 220.76), (-13.47, 221.0), (-13.47, 220.76), (-0.3, 220.76), (-0.3, 220.53), (-10.073, 220.76), (-10.073, 220.64), (-10.073, 220.76), (-10.073, 220.64), (-13.47, 220.76), (-13.47, 220.53)]</t>
+          <t>[(-0.3, 221.0), (-0.3, 220.88), (-13.47, 221.0), (-13.47, 220.88), (-0.3, 220.88), (-0.3, 220.76), (-13.47, 220.88), (-13.47, 220.76), (-0.3, 220.76), (-0.3, 220.64), (-13.47, 220.76), (-13.47, 220.64), (-0.3, 220.64), (-0.3, 220.53), (-13.47, 220.64), (-13.47, 220.53)]</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[(-0.3, 243.0), (-0.3, 242.85), (-3.224, 243.0), (-3.224, 242.85), (-3.224, 243.0), (-3.224, 242.83), (-9.022, 243.0), (-9.022, 242.83), (-0.3, 242.85), (-0.3, 242.71), (-3.224, 242.85), (-3.224, 242.7), (-3.224, 242.83), (-3.224, 242.7), (-9.022, 242.83), (-9.022, 242.66)]</t>
+          <t>[(-0.3, 243.0), (-0.3, 242.82), (-9.022, 243.0), (-9.022, 242.82), (-0.3, 242.82), (-0.3, 242.71), (-9.022, 242.82), (-9.022, 242.64)]</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[(-0.3, 244.0), (-0.3, 243.83), (-3.053, 244.0), (-3.053, 243.83), (-3.053, 244.0), (-3.053, 243.77), (-9.943, 244.0), (-9.943, 243.77), (-0.3, 243.83), (-0.3, 243.67), (-3.053, 243.83), (-3.053, 243.66), (-3.053, 243.77), (-3.053, 243.66), (-9.943, 243.77), (-9.943, 243.47)]</t>
+          <t>[(-0.3, 244.0), (-0.3, 243.81), (-9.943, 244.0), (-9.943, 243.81), (-0.3, 243.81), (-0.3, 243.67), (-9.943, 243.81), (-9.943, 243.63)]</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>[(-0.3, 245.0), (-0.3, 244.83), (-2.817, 245.0), (-2.817, 244.83), (-2.817, 245.0), (-2.817, 244.83), (-9.696, 245.0), (-9.696, 244.73), (-0.3, 244.83), (-0.3, 244.69), (-2.817, 244.83), (-2.817, 244.66), (-2.817, 244.83), (-2.817, 244.66), (-9.696, 244.73), (-9.696, 244.46)]</t>
+          <t>[(-0.3, 245.0), (-0.3, 244.82), (-9.696, 245.0), (-9.696, 244.82), (-0.3, 244.82), (-0.3, 244.69), (-9.696, 244.82), (-9.696, 244.65)]</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>[(-0.3, 246.0), (-0.3, 245.84), (-2.868, 246.0), (-2.868, 245.84), (-2.868, 246.0), (-2.868, 245.81), (-9.652, 246.0), (-9.652, 245.81), (-0.3, 245.84), (-0.3, 245.73), (-2.868, 245.84), (-2.868, 245.68), (-2.868, 245.81), (-2.868, 245.68), (-9.652, 245.81), (-9.652, 245.51)]</t>
+          <t>[(-0.3, 246.0), (-0.3, 245.86), (-9.652, 246.0), (-9.652, 245.86), (-0.3, 245.86), (-0.3, 245.73), (-9.652, 245.86), (-9.652, 245.74)]</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[(-0.3, 250.0), (-0.3, 249.89), (-3.599, 250.0), (-3.599, 249.89), (-3.599, 250.0), (-3.599, 249.79), (-7.357, 250.0), (-7.357, 249.79), (-0.3, 249.89), (-0.3, 249.74), (-3.599, 249.89), (-3.599, 249.67), (-3.599, 249.79), (-3.599, 249.67), (-7.357, 249.79), (-7.357, 249.59)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[(-0.3, 251.0), (-0.3, 250.79), (-3.931, 251.0), (-3.931, 250.79), (-3.931, 251.0), (-3.931, 250.71), (-11.377, 251.0), (-11.377, 250.71), (-0.3, 250.79), (-0.3, 250.63), (-3.931, 250.79), (-3.931, 250.58), (-3.931, 250.71), (-3.931, 250.58), (-11.377, 250.71), (-11.377, 250.42)]</t>
+          <t>[(-0.3, 251.0), (-0.3, 250.81), (-11.377, 251.0), (-11.377, 250.81), (-0.3, 250.81), (-0.3, 250.63), (-11.377, 250.81), (-11.377, 250.69)]</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[(-0.3, 252.0), (-0.3, 251.85), (-4.19, 252.0), (-4.19, 251.85), (-4.19, 252.0), (-4.19, 251.85), (-7.959, 252.0), (-7.959, 251.85), (-0.3, 251.85), (-0.3, 251.7), (-4.19, 251.85), (-4.19, 251.7), (-4.19, 251.85), (-4.19, 251.7), (-7.959, 251.85), (-7.959, 251.7), (-0.3, 251.7), (-0.3, 251.55), (-4.19, 251.7), (-4.19, 251.56), (-4.19, 251.7), (-4.19, 251.56), (-7.959, 251.7), (-7.959, 251.56)]</t>
+          <t>[(-0.3, 252.0), (-0.3, 251.85), (-7.959, 252.0), (-7.959, 251.85), (-0.3, 251.85), (-0.3, 251.7), (-7.959, 251.85), (-7.959, 251.7), (-0.3, 251.7), (-0.3, 251.55), (-7.959, 251.7), (-7.959, 251.55)]</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[(-0.3, 253.0), (-0.3, 252.83), (-5.084, 253.0), (-5.084, 252.83), (-5.084, 253.0), (-5.084, 252.85), (-8.801, 253.0), (-8.801, 252.85), (-0.3, 252.83), (-0.3, 252.66), (-5.084, 252.83), (-5.084, 252.66), (-5.084, 252.85), (-5.084, 252.7), (-8.801, 252.85), (-8.801, 252.7), (-0.3, 252.66), (-0.3, 252.51), (-5.084, 252.66), (-5.084, 252.55), (-5.084, 252.7), (-5.084, 252.55), (-8.801, 252.7), (-8.801, 252.56)]</t>
+          <t>[(-0.3, 253.0), (-0.3, 252.82), (-8.801, 253.0), (-8.801, 252.82), (-0.3, 252.82), (-0.3, 252.64), (-8.801, 252.82), (-8.801, 252.64), (-0.3, 252.64), (-0.3, 252.51), (-8.801, 252.64), (-8.801, 252.47)]</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[(-0.3, 254.0), (-0.3, 253.79), (-5.837, 254.0), (-5.837, 253.79), (-5.837, 254.0), (-5.837, 253.82), (-9.608, 254.0), (-9.608, 253.82), (-0.3, 253.79), (-0.3, 253.59), (-5.837, 253.79), (-5.837, 253.64), (-5.837, 253.82), (-5.837, 253.64), (-9.608, 253.82), (-9.608, 253.65)]</t>
+          <t>[(-0.3, 254.0), (-0.3, 253.76), (-9.608, 254.0), (-9.608, 253.76), (-0.3, 253.76), (-0.3, 253.59), (-9.608, 253.76), (-9.608, 253.53)]</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[(-0.3, 255.0), (-0.3, 254.84), (-6.327, 255.0), (-6.327, 254.84), (-6.327, 255.0), (-6.327, 254.85), (-10.119, 255.0), (-10.119, 254.85), (-0.3, 254.84), (-0.3, 254.69), (-6.327, 254.84), (-6.327, 254.72), (-6.327, 254.85), (-6.327, 254.72), (-10.119, 254.85), (-10.119, 254.74)]</t>
+          <t>[(-0.3, 255.0), (-0.3, 254.83), (-10.119, 255.0), (-10.119, 254.83), (-0.3, 254.83), (-0.3, 254.69), (-10.119, 254.83), (-10.119, 254.67)]</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[(-0.3, 256.0), (-0.3, 255.84), (-6.895, 256.0), (-6.895, 255.84), (-6.895, 256.0), (-6.895, 255.84), (-10.601, 256.0), (-10.601, 255.84), (-0.3, 255.84), (-0.3, 255.69), (-6.895, 255.84), (-6.895, 255.7), (-6.895, 255.84), (-6.895, 255.7), (-10.601, 255.84), (-10.601, 255.69)]</t>
+          <t>[(-0.3, 256.0), (-0.3, 255.84), (-10.601, 256.0), (-10.601, 255.84), (-0.3, 255.84), (-0.3, 255.69), (-10.601, 255.84), (-10.601, 255.68)]</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[(-0.3, 257.0), (-0.3, 256.79), (-7.551, 257.0), (-7.551, 256.79), (-7.551, 257.0), (-7.551, 256.79), (-11.175, 257.0), (-11.175, 256.79), (-0.3, 256.79), (-0.3, 256.59), (-7.551, 256.79), (-7.551, 256.62), (-7.551, 256.79), (-7.551, 256.62), (-11.175, 256.79), (-11.175, 256.59)]</t>
+          <t>[(-0.3, 257.0), (-0.3, 256.85), (-11.175, 257.0), (-11.175, 256.85), (-0.3, 256.85), (-0.3, 256.7), (-11.175, 256.85), (-11.175, 256.7), (-0.3, 256.7), (-0.3, 256.59), (-11.175, 256.7), (-11.175, 256.55)]</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[(-0.3, 258.0), (-0.3, 257.78), (-8.147, 258.0), (-8.147, 257.78), (-8.147, 258.0), (-8.147, 257.82), (-11.826, 258.0), (-11.826, 257.82), (-0.3, 257.78), (-0.3, 257.57), (-8.147, 257.78), (-8.147, 257.65), (-8.147, 257.82), (-8.147, 257.65), (-11.826, 257.82), (-11.826, 257.69)]</t>
+          <t>[(-0.3, 258.0), (-0.3, 257.73), (-11.826, 258.0), (-11.826, 257.73), (-0.3, 257.73), (-0.3, 257.57), (-11.826, 257.73), (-11.826, 257.47)]</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[(-0.3, 259.0), (-0.3, 258.8), (-8.681, 259.0), (-8.681, 258.8), (-8.681, 259.0), (-8.681, 258.89), (-12.316, 259.0), (-12.316, 258.89), (-0.3, 258.8), (-0.3, 258.6), (-8.681, 258.8), (-8.681, 258.69), (-8.681, 258.89), (-8.681, 258.69), (-12.316, 258.89), (-12.316, 258.75)]</t>
+          <t>[(-0.3, 259.0), (-0.3, 258.76), (-12.316, 259.0), (-12.316, 258.76), (-0.3, 258.76), (-0.3, 258.6), (-12.316, 258.76), (-12.316, 258.53)]</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[(-0.3, 260.0), (-0.3, 259.76), (-8.606, 260.0), (-8.606, 259.76), (-8.606, 260.0), (-8.606, 259.82), (-12.32, 260.0), (-12.32, 259.82), (-0.3, 259.76), (-0.3, 259.53), (-8.606, 259.76), (-8.606, 259.65), (-8.606, 259.82), (-8.606, 259.65), (-12.32, 259.82), (-12.32, 259.71)]</t>
+          <t>[(-0.3, 260.0), (-0.3, 259.82), (-12.32, 260.0), (-12.32, 259.82), (-0.3, 259.82), (-0.3, 259.64), (-12.32, 259.82), (-12.32, 259.64), (-0.3, 259.64), (-0.3, 259.53), (-12.32, 259.64), (-12.32, 259.47)]</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[(-0.3, 261.0), (-0.3, 260.71), (-8.556, 261.0), (-8.556, 260.71), (-8.556, 261.0), (-8.556, 260.8), (-12.298, 261.0), (-12.298, 260.8), (-0.3, 260.71), (-0.3, 260.42), (-8.556, 260.71), (-8.556, 260.6), (-8.556, 260.8), (-8.556, 260.6), (-12.298, 260.8), (-12.298, 260.65)]</t>
+          <t>[(-0.3, 261.0), (-0.3, 260.78), (-12.298, 261.0), (-12.298, 260.78), (-0.3, 260.78), (-0.3, 260.56), (-12.298, 260.78), (-12.298, 260.56), (-0.3, 260.56), (-0.3, 260.42), (-12.298, 260.56), (-12.298, 260.34)]</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[(-0.3, 262.0), (-0.3, 261.67), (-8.125, 262.0), (-8.125, 261.74), (-8.125, 262.0), (-8.125, 261.83), (-12.034, 262.0), (-12.034, 261.83), (-0.3, 261.67), (-0.3, 261.34), (-8.125, 261.74), (-8.125, 261.48), (-8.125, 261.83), (-8.125, 261.66), (-12.034, 261.83), (-12.034, 261.66)]</t>
+          <t>[(-0.3, 262.0), (-0.3, 261.74), (-12.034, 262.0), (-12.034, 261.74), (-0.3, 261.74), (-0.3, 261.48), (-12.034, 261.74), (-12.034, 261.48), (-0.3, 261.48), (-0.3, 261.34), (-12.034, 261.48), (-12.034, 261.24)]</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[(-0.3, 263.0), (-0.3, 262.66), (-7.604, 263.0), (-7.604, 262.72), (-7.604, 263.0), (-7.604, 262.81), (-11.496, 263.0), (-11.496, 262.81), (-0.3, 262.66), (-0.3, 262.32), (-7.604, 262.72), (-7.604, 262.44), (-7.604, 262.81), (-7.604, 262.62), (-11.496, 262.81), (-11.496, 262.62)]</t>
+          <t>[(-0.3, 263.0), (-0.3, 262.75), (-11.496, 263.0), (-11.496, 262.75), (-0.3, 262.75), (-0.3, 262.5), (-11.496, 262.75), (-11.496, 262.5), (-0.3, 262.5), (-0.3, 262.33), (-11.496, 262.5), (-11.496, 262.27)]</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[(-0.3, 264.0), (-0.3, 263.7), (-6.979, 264.0), (-6.979, 263.7), (-6.979, 264.0), (-6.979, 263.84), (-10.837, 264.0), (-10.837, 263.84), (-0.3, 263.7), (-0.3, 263.41), (-6.979, 263.7), (-6.979, 263.52), (-6.979, 263.84), (-6.979, 263.68), (-10.837, 263.84), (-10.837, 263.68)]</t>
+          <t>[(-0.3, 264.0), (-0.3, 263.78), (-10.837, 264.0), (-10.837, 263.78), (-0.3, 263.78), (-0.3, 263.56), (-10.837, 263.78), (-10.837, 263.56), (-0.3, 263.56), (-0.3, 263.41), (-10.837, 263.56), (-10.837, 263.34)]</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 265.0), (-0.3, 264.71), (-10.352, 265.0), (-10.352, 264.71), (-0.3, 264.71), (-0.3, 264.55), (-10.352, 264.71), (-10.352, 264.42)]</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[(-0.3, 266.0), (-0.3, 265.75), (-6.725, 266.0), (-6.725, 265.75), (-6.725, 266.0), (-6.725, 265.82), (-10.403, 266.0), (-10.403, 265.82), (-0.3, 265.75), (-0.3, 265.5), (-6.725, 265.75), (-6.725, 265.64), (-6.725, 265.82), (-6.725, 265.64), (-10.403, 265.82), (-10.403, 265.7)]</t>
+          <t>[(-0.3, 266.0), (-0.3, 265.75), (-10.403, 266.0), (-10.403, 265.68), (-0.3, 265.75), (-0.3, 265.5), (-10.403, 265.68), (-10.403, 265.36)]</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[(-0.3, 267.0), (-0.3, 266.71), (-6.746, 267.0), (-6.746, 266.71), (-6.746, 267.0), (-6.746, 266.75), (-10.553, 267.0), (-10.553, 266.75), (-0.3, 266.71), (-0.3, 266.42), (-6.746, 266.71), (-6.746, 266.5), (-6.746, 266.75), (-6.746, 266.5), (-10.553, 266.75), (-10.553, 266.56)]</t>
+          <t>[(-0.3, 267.0), (-0.3, 266.71), (-10.553, 267.0), (-10.553, 266.64), (-0.3, 266.71), (-0.3, 266.42), (-10.553, 266.64), (-10.553, 266.28)]</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[(-0.3, 268.0), (-0.3, 267.8), (-6.694, 268.0), (-6.694, 267.8), (-6.694, 268.0), (-6.694, 267.83), (-10.486, 268.0), (-10.486, 267.83), (-0.3, 267.8), (-0.3, 267.6), (-6.694, 267.8), (-6.694, 267.6), (-6.694, 267.83), (-6.694, 267.66), (-10.486, 267.83), (-10.486, 267.66), (-0.3, 267.6), (-0.3, 267.4), (-6.694, 267.6), (-6.694, 267.49), (-6.694, 267.66), (-6.694, 267.49), (-10.486, 267.66), (-10.486, 267.54)]</t>
+          <t>[(-0.3, 268.0), (-0.3, 267.76), (-10.486, 268.0), (-10.486, 267.76), (-0.3, 267.76), (-0.3, 267.52), (-10.486, 267.76), (-10.486, 267.52), (-0.3, 267.52), (-0.3, 267.4), (-10.486, 267.52), (-10.486, 267.29)]</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[(-0.3, 269.0), (-0.3, 268.82), (-6.61, 269.0), (-6.61, 268.82), (-6.61, 269.0), (-6.61, 268.76), (-10.361, 269.0), (-10.361, 268.76), (-0.3, 268.82), (-0.3, 268.64), (-6.61, 268.82), (-6.61, 268.64), (-6.61, 268.76), (-6.61, 268.52), (-10.361, 268.76), (-10.361, 268.58), (-0.3, 268.64), (-0.3, 268.46), (-6.61, 268.64), (-6.61, 268.52), (-6.61, 268.52), (-6.61, 268.52), (-10.361, 268.58), (-10.361, 268.58)]</t>
+          <t>[(-0.3, 269.0), (-0.3, 268.73), (-10.361, 269.0), (-10.361, 268.67), (-0.3, 268.73), (-0.3, 268.46), (-10.361, 268.67), (-10.361, 268.34)]</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[(-0.3, 270.0), (-0.3, 269.77), (-5.972, 270.0), (-5.972, 269.77), (-5.972, 270.0), (-5.972, 269.8), (-9.945, 270.0), (-9.945, 269.8), (-0.3, 269.77), (-0.3, 269.55), (-5.972, 269.77), (-5.972, 269.61), (-5.972, 269.8), (-5.972, 269.61), (-9.945, 269.8), (-9.945, 269.67)]</t>
+          <t>[(-0.3, 270.0), (-0.3, 269.71), (-9.945, 270.0), (-9.945, 269.71), (-0.3, 269.71), (-0.3, 269.55), (-9.945, 269.71), (-9.945, 269.43)]</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[(-0.3, 271.0), (-0.3, 270.8), (-5.101, 271.0), (-5.101, 270.8), (-5.101, 271.0), (-5.101, 270.82), (-8.92, 271.0), (-8.92, 270.82), (-0.3, 270.8), (-0.3, 270.6), (-5.101, 270.8), (-5.101, 270.65), (-5.101, 270.82), (-5.101, 270.65), (-8.92, 270.82), (-8.92, 270.71)]</t>
+          <t>[(-0.3, 271.0), (-0.3, 270.72), (-8.92, 271.0), (-8.92, 270.72), (-0.3, 270.72), (-0.3, 270.6), (-8.92, 270.72), (-8.92, 270.44)]</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[(-0.3, 272.0), (-0.3, 271.8), (-4.282, 272.0), (-4.282, 271.8), (-4.282, 272.0), (-4.282, 271.89), (-7.976, 272.0), (-7.976, 271.89), (-0.3, 271.8), (-0.3, 271.61), (-4.282, 271.8), (-4.282, 271.68), (-4.282, 271.89), (-4.282, 271.68), (-7.976, 271.89), (-7.976, 271.74)]</t>
+          <t>[(-0.3, 272.0), (-0.3, 271.73), (-7.976, 272.0), (-7.976, 271.73), (-0.3, 271.73), (-0.3, 271.61), (-7.976, 271.73), (-7.976, 271.47)]</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[(-0.3, 273.0), (-0.3, 272.83), (-3.183, 273.0), (-3.183, 272.83), (-3.183, 273.0), (-3.183, 272.85), (-6.948, 273.0), (-6.948, 272.85), (-0.3, 272.83), (-0.3, 272.66), (-3.183, 272.83), (-3.183, 272.7), (-3.183, 272.85), (-3.183, 272.7), (-6.948, 272.85), (-6.948, 272.73)]</t>
+          <t>[(-0.3, 273.0), (-0.3, 272.83), (-6.948, 273.0), (-6.948, 272.83), (-0.3, 272.83), (-0.3, 272.66), (-6.948, 272.83), (-6.948, 272.53)]</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 274.0), (-0.3, 273.88), (-5.91, 274.0), (-5.91, 273.88), (-0.3, 273.88), (-0.3, 273.74), (-5.91, 273.88), (-5.91, 273.58)]</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[(-0.3, 275.0), (-0.3, 274.87), (-4.864, 275.0), (-4.864, 274.87), (-0.3, 274.87), (-0.3, 274.74), (-4.864, 274.87), (-4.864, 274.74), (-0.3, 274.74), (-0.3, 274.63), (-4.864, 274.74), (-4.864, 274.63)]</t>
+          <t>[(-0.3, 275.0), (-0.3, 274.74), (-4.864, 275.0), (-4.864, 274.74), (-0.3, 274.74), (-0.3, 274.63), (-4.864, 274.74), (-4.864, 274.48)]</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[(-0.3, 276.0), (-0.3, 275.8), (-4.198, 276.0), (-4.198, 275.8), (-0.3, 275.8), (-0.3, 275.62), (-4.198, 275.8), (-4.198, 275.6)]</t>
+          <t>[(-0.3, 276.0), (-0.3, 275.79), (0.0, 276.0), (0.0, 275.79), (0.0, 276.0), (0.0, 275.74), (-4.198, 276.0), (-4.198, 275.74), (-0.3, 275.79), (-0.3, 275.62), (0.0, 275.79), (0.0, 275.59), (0.0, 275.74), (0.0, 275.59), (-4.198, 275.74), (-4.198, 275.49)]</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[(-0.3, 277.0), (-0.3, 276.84), (-3.617, 277.0), (-3.617, 276.84), (-0.3, 276.84), (-0.3, 276.68), (-3.617, 276.84), (-3.617, 276.68), (-0.3, 276.68), (-0.3, 276.55), (-3.617, 276.68), (-3.617, 276.53)]</t>
+          <t>[(-0.3, 277.0), (-0.3, 276.85), (0.0, 277.0), (0.0, 276.85), (0.0, 277.0), (0.0, 276.73), (-3.617, 277.0), (-3.617, 276.73), (-0.3, 276.85), (-0.3, 276.7), (0.0, 276.85), (0.0, 276.7), (0.0, 276.73), (0.0, 276.55), (-3.617, 276.73), (-3.617, 276.47), (-0.3, 276.7), (-0.3, 276.55), (0.0, 276.7), (0.0, 276.55), (0.0, 276.55), (0.0, 276.55), (-3.617, 276.47), (-3.617, 276.47)]</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[(-0.3, 278.0), (-0.3, 277.82), (-3.264, 278.0), (-3.264, 277.82), (-0.3, 277.82), (-0.3, 277.64), (-3.264, 277.82), (-3.264, 277.64), (-0.3, 277.64), (-0.3, 277.5), (-3.264, 277.64), (-3.264, 277.46)]</t>
+          <t>[(-0.3, 278.0), (-0.3, 277.87), (0.0, 278.0), (0.0, 277.87), (0.0, 278.0), (0.0, 277.81), (-3.264, 278.0), (-3.264, 277.81), (-0.3, 277.87), (-0.3, 277.74), (0.0, 277.87), (0.0, 277.74), (0.0, 277.62), (0.0, 277.62), (-3.264, 277.81), (-3.264, 277.62), (-0.3, 277.74), (-0.3, 277.61), (0.0, 277.74), (0.0, 277.61), (0.0, 277.62), (0.0, 277.5), (-3.264, 277.62), (-3.264, 277.45), (-0.3, 277.61), (-0.3, 277.5), (0.0, 277.61), (0.0, 277.5), (0.0, 277.5), (0.0, 277.5), (-3.264, 277.45), (-3.264, 277.45)]</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[(-0.3, 279.0), (-0.3, 278.79), (-3.209, 279.0), (-3.209, 278.79), (-0.3, 278.79), (-0.3, 278.58), (-3.209, 278.79), (-3.209, 278.58), (-0.3, 278.58), (-0.3, 278.43), (-3.209, 278.58), (-3.209, 278.39)]</t>
+          <t>[(-0.3, 279.0), (-0.3, 278.85), (0.0, 279.0), (0.0, 278.85), (0.0, 279.0), (0.0, 278.84), (-3.209, 279.0), (-3.209, 278.84), (-0.3, 278.85), (-0.3, 278.7), (0.0, 278.85), (0.0, 278.7), (0.0, 278.68), (0.0, 278.68), (-3.209, 278.84), (-3.209, 278.68), (-0.3, 278.7), (-0.3, 278.55), (0.0, 278.7), (0.0, 278.55), (0.0, 278.68), (0.0, 278.52), (-3.209, 278.68), (-3.209, 278.52), (-0.3, 278.55), (-0.3, 278.43), (0.0, 278.55), (0.0, 278.41), (0.0, 278.52), (0.0, 278.41), (-3.209, 278.52), (-3.209, 278.36)]</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[(-0.3, 280.0), (-0.3, 279.76), (-3.332, 280.0), (-3.332, 279.76), (-0.3, 279.76), (-0.3, 279.52), (-3.332, 279.76), (-3.332, 279.52), (-0.3, 279.52), (-0.3, 279.36), (-3.332, 279.52), (-3.332, 279.29)]</t>
+          <t>[(-0.3, 280.0), (-0.3, 279.83), (0.0, 280.0), (0.0, 279.83), (0.0, 280.0), (0.0, 279.83), (-3.332, 280.0), (-3.332, 279.83), (-0.3, 279.83), (-0.3, 279.66), (0.0, 279.83), (0.0, 279.66), (0.0, 279.66), (0.0, 279.66), (-3.332, 279.83), (-3.332, 279.66), (-0.3, 279.66), (-0.3, 279.49), (0.0, 279.66), (0.0, 279.49), (0.0, 279.66), (0.0, 279.49), (-3.332, 279.66), (-3.332, 279.49), (-0.3, 279.49), (-0.3, 279.36), (0.0, 279.49), (0.0, 279.35), (0.0, 279.49), (0.0, 279.35), (-3.332, 279.49), (-3.332, 279.36)]</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[(-0.3, 281.0), (-0.3, 280.75), (-3.387, 281.0), (-3.387, 280.75), (-0.3, 280.75), (-0.3, 280.5), (-3.387, 280.75), (-3.387, 280.5), (-0.3, 280.5), (-0.3, 280.34), (-3.387, 280.5), (-3.387, 280.26)]</t>
+          <t>[(-0.3, 281.0), (-0.3, 280.83), (0.0, 281.0), (0.0, 280.83), (0.0, 281.0), (0.0, 280.77), (-3.387, 281.0), (-3.387, 280.77), (-0.3, 280.83), (-0.3, 280.66), (0.0, 280.83), (0.0, 280.66), (0.0, 280.54), (0.0, 280.54), (-3.387, 280.77), (-3.387, 280.54), (-0.3, 280.66), (-0.3, 280.49), (0.0, 280.66), (0.0, 280.49), (0.0, 280.54), (0.0, 280.33), (-3.387, 280.54), (-3.387, 280.43), (-0.3, 280.49), (-0.3, 280.34), (0.0, 280.49), (0.0, 280.33), (0.0, 280.33), (0.0, 280.33), (-3.387, 280.43), (-3.387, 280.43)]</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>[(-0.3, 282.0), (-0.3, 281.75), (-3.34, 282.0), (-3.34, 281.75), (-0.3, 281.75), (-0.3, 281.5), (-3.34, 281.75), (-3.34, 281.5), (-0.3, 281.5), (-0.3, 281.36), (-3.34, 281.5), (-3.34, 281.27)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[(-0.3, 283.0), (-0.3, 282.8), (-3.153, 283.0), (-3.153, 282.8), (-0.3, 282.8), (-0.3, 282.6), (-3.153, 282.8), (-3.153, 282.6), (-0.3, 282.6), (-0.3, 282.4), (-3.153, 282.6), (-3.153, 282.4), (-0.3, 282.4), (-0.3, 282.29), (-3.153, 282.4), (-3.153, 282.23)]</t>
+          <t>[(-0.3, 283.0), (-0.3, 282.76), (0.0, 283.0), (0.0, 282.76), (0.0, 283.0), (0.0, 282.7), (-3.153, 283.0), (-3.153, 282.84), (-0.3, 282.76), (-0.3, 282.52), (0.0, 282.76), (0.0, 282.52), (0.0, 282.7), (0.0, 282.4), (-3.153, 282.84), (-3.153, 282.68), (-0.3, 282.52), (-0.3, 282.29), (0.0, 282.52), (0.0, 282.39), (0.0, 282.4), (0.0, 282.4), (-3.153, 282.68), (-3.153, 282.68)]</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[(-0.3, 284.0), (-0.3, 283.75), (-2.809, 284.0), (-2.809, 283.75), (-0.3, 283.75), (-0.3, 283.5), (-2.809, 283.75), (-2.809, 283.5), (-0.3, 283.5), (-0.3, 283.36), (-2.809, 283.5), (-2.809, 283.27)]</t>
+          <t>[(-0.3, 284.0), (-0.3, 283.68), (0.0, 284.0), (0.0, 283.74), (0.0, 284.0), (0.0, 283.74), (-2.809, 284.0), (-2.809, 283.88), (-0.3, 283.68), (-0.3, 283.36), (0.0, 283.74), (0.0, 283.48), (0.0, 283.74), (0.0, 283.48), (-2.809, 283.88), (-2.809, 283.76)]</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>[(-0.3, 285.0), (-0.3, 284.77), (-2.587, 285.0), (-2.587, 284.77), (-0.3, 284.77), (-0.3, 284.54), (-2.587, 284.77), (-2.587, 284.54), (-0.3, 284.54), (-0.3, 284.4), (-2.587, 284.54), (-2.587, 284.33)]</t>
+          <t>[(-0.3, 285.0), (-0.3, 284.7), (0.0, 285.0), (0.0, 284.7), (0.0, 285.0), (0.0, 284.76), (-2.587, 285.0), (-2.587, 284.86), (-0.3, 284.7), (-0.3, 284.4), (0.0, 284.7), (0.0, 284.51), (0.0, 284.76), (0.0, 284.52), (-2.587, 284.86), (-2.587, 284.72)]</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>[(-0.3, 286.0), (-0.3, 285.77), (-2.332, 286.0), (-2.332, 285.77), (-0.3, 285.77), (-0.3, 285.54), (-2.332, 285.77), (-2.332, 285.54), (-0.3, 285.54), (-0.3, 285.4), (-2.332, 285.54), (-2.332, 285.33)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 288.0), (-0.3, 287.8), (0.0, 288.0), (0.0, 287.8), (0.0, 288.0), (0.0, 287.74), (0.0, 288.0), (0.0, 287.74), (-0.3, 287.8), (-0.3, 287.6), (0.0, 287.8), (0.0, 287.6), (0.0, 287.74), (0.0, 287.48), (0.0, 287.74), (0.0, 287.55), (-0.3, 287.6), (-0.3, 287.41), (0.0, 287.6), (0.0, 287.48), (0.0, 287.48), (0.0, 287.48), (0.0, 287.55), (0.0, 287.55)]</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 289.0), (-0.3, 288.85), (0.0, 289.0), (0.0, 288.85), (0.0, 289.0), (0.0, 288.71), (0.0, 289.0), (0.0, 288.62), (-0.3, 288.85), (-0.3, 288.7), (0.0, 288.85), (0.0, 288.7), (0.0, 288.42), (0.0, 288.42), (0.0, 288.62), (0.0, 288.24), (-0.3, 288.7), (-0.3, 288.55), (0.0, 288.7), (0.0, 288.55), (0.0, 288.42), (0.0, 288.42), (0.0, 288.24), (0.0, 288.24), (-0.3, 288.55), (-0.3, 288.42), (0.0, 288.55), (0.0, 288.42), (0.0, 288.42), (0.0, 288.42), (0.0, 288.24), (0.0, 288.24)]</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 290.0), (-0.3, 289.81), (0.0, 290.0), (0.0, 289.81), (0.0, 290.0), (0.0, 289.72), (0.0, 290.0), (0.0, 289.61), (-0.3, 289.81), (-0.3, 289.62), (0.0, 289.81), (0.0, 289.62), (0.0, 289.72), (0.0, 289.44), (0.0, 289.61), (0.0, 289.22), (-0.3, 289.62), (-0.3, 289.49), (0.0, 289.62), (0.0, 289.45), (0.0, 289.44), (0.0, 289.44), (0.0, 289.22), (0.0, 289.22)]</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>[(-0.3, 291.0), (-0.3, 290.8), (-2.383, 291.0), (-2.383, 290.8), (-0.3, 290.8), (-0.3, 290.61), (-2.383, 290.8), (-2.383, 290.66)]</t>
+          <t>[(-0.3, 291.0), (-0.3, 290.75), (0.0, 291.0), (0.0, 290.75), (0.0, 291.0), (0.0, 290.75), (-2.383, 291.0), (-2.383, 290.64), (-0.3, 290.75), (-0.3, 290.61), (0.0, 290.75), (0.0, 290.5), (0.0, 290.75), (0.0, 290.5), (-2.383, 290.64), (-2.383, 290.28)]</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 292.0), (-0.3, 291.89), (0.0, 292.0), (0.0, 291.89), (0.0, 292.0), (0.0, 291.84), (-2.517, 292.0), (-2.517, 291.71), (-0.3, 291.89), (-0.3, 291.73), (0.0, 291.89), (0.0, 291.67), (0.0, 291.84), (0.0, 291.68), (-2.517, 291.71), (-2.517, 291.42)]</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[(-0.3, 293.0), (-0.3, 292.84), (-2.637, 293.0), (-2.637, 292.84), (-0.3, 292.84), (-0.3, 292.69), (-2.637, 292.84), (-2.637, 292.71)]</t>
+          <t>[(-0.3, 293.0), (-0.3, 292.83), (0.0, 293.0), (0.0, 292.83), (0.0, 293.0), (0.0, 292.84), (-2.637, 293.0), (-2.637, 292.72), (-0.3, 292.83), (-0.3, 292.69), (0.0, 292.83), (0.0, 292.67), (0.0, 292.84), (0.0, 292.68), (-2.637, 292.72), (-2.637, 292.44)]</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>[(-0.3, 294.0), (-0.3, 293.84), (-2.775, 294.0), (-2.775, 293.84), (-0.3, 293.84), (-0.3, 293.68), (-2.775, 293.84), (-2.775, 293.71)]</t>
+          <t>[(-0.3, 294.0), (-0.3, 293.82), (0.0, 294.0), (0.0, 293.82), (0.0, 294.0), (0.0, 293.82), (-2.775, 294.0), (-2.775, 293.7), (-0.3, 293.82), (-0.3, 293.68), (0.0, 293.82), (0.0, 293.64), (0.0, 293.82), (0.0, 293.64), (-2.775, 293.7), (-2.775, 293.4)]</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[(-0.3, 295.0), (-0.3, 294.82), (-2.84, 295.0), (-2.84, 294.82), (-0.3, 294.82), (-0.3, 294.65), (-2.84, 294.82), (-2.84, 294.67)]</t>
+          <t>[(-0.3, 295.0), (-0.3, 294.81), (0.0, 295.0), (0.0, 294.81), (0.0, 295.0), (0.0, 294.82), (-2.84, 295.0), (-2.84, 294.68), (-0.3, 294.81), (-0.3, 294.65), (0.0, 294.81), (0.0, 294.63), (0.0, 294.82), (0.0, 294.64), (-2.84, 294.68), (-2.84, 294.36)]</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>[(-0.3, 296.0), (-0.3, 295.8), (-2.912, 296.0), (-2.912, 295.8), (-0.3, 295.8), (-0.3, 295.6), (-2.912, 295.8), (-2.912, 295.64)]</t>
+          <t>[(-0.3, 296.0), (-0.3, 295.77), (0.0, 296.0), (0.0, 295.77), (0.0, 296.0), (0.0, 295.78), (-2.912, 296.0), (-2.912, 295.68), (-0.3, 295.77), (-0.3, 295.6), (0.0, 295.77), (0.0, 295.55), (0.0, 295.78), (0.0, 295.56), (-2.912, 295.68), (-2.912, 295.36)]</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>[(-0.3, 297.0), (-0.3, 296.85), (-3.01, 297.0), (-3.01, 296.85), (-0.3, 296.85), (-0.3, 296.7), (-3.01, 296.85), (-3.01, 296.7), (-0.3, 296.7), (-0.3, 296.57), (-3.01, 296.7), (-3.01, 296.58)]</t>
+          <t>[(-0.3, 297.0), (-0.3, 296.85), (0.0, 297.0), (0.0, 296.85), (0.0, 297.0), (0.0, 296.71), (-3.01, 297.0), (-3.01, 296.71), (-0.3, 296.85), (-0.3, 296.7), (0.0, 296.85), (0.0, 296.7), (0.0, 296.71), (0.0, 296.56), (-3.01, 296.71), (-3.01, 296.43), (-0.3, 296.7), (-0.3, 296.57), (0.0, 296.7), (0.0, 296.56), (0.0, 296.56), (0.0, 296.56), (-3.01, 296.43), (-3.01, 296.43)]</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>[(-0.3, 298.0), (-0.3, 297.82), (-2.908, 298.0), (-2.908, 297.82), (-0.3, 297.82), (-0.3, 297.64), (-2.908, 297.82), (-2.908, 297.64), (-0.3, 297.64), (-0.3, 297.5), (-2.908, 297.64), (-2.908, 297.48)]</t>
+          <t>[(-0.3, 298.0), (-0.3, 297.75), (0.0, 298.0), (0.0, 297.75), (0.0, 298.0), (0.0, 297.72), (-2.908, 298.0), (-2.908, 297.72), (-0.3, 297.75), (-0.3, 297.5), (0.0, 297.75), (0.0, 297.56), (0.0, 297.72), (0.0, 297.56), (-2.908, 297.72), (-2.908, 297.45)]</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>[(-0.3, 299.0), (-0.3, 298.83), (-2.859, 299.0), (-2.859, 298.83), (-0.3, 298.83), (-0.3, 298.66), (-2.859, 298.83), (-2.859, 298.66), (-0.3, 298.66), (-0.3, 298.53), (-2.859, 298.66), (-2.859, 298.5)]</t>
+          <t>[(-0.3, 299.0), (-0.3, 298.84), (0.0, 299.0), (0.0, 298.84), (0.0, 299.0), (0.0, 298.85), (-2.859, 299.0), (-2.859, 298.85), (-0.3, 298.84), (-0.3, 298.68), (0.0, 298.84), (0.0, 298.68), (0.0, 298.85), (0.0, 298.7), (-2.859, 298.85), (-2.859, 298.7), (-0.3, 298.68), (-0.3, 298.53), (0.0, 298.68), (0.0, 298.55), (0.0, 298.7), (0.0, 298.55), (-2.859, 298.7), (-2.859, 298.56)]</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>[(-0.3, 300.0), (-0.3, 299.82), (-2.716, 300.0), (-2.716, 299.82), (-0.3, 299.82), (-0.3, 299.64), (-2.716, 299.82), (-2.716, 299.64), (-0.3, 299.64), (-0.3, 299.51), (-2.716, 299.64), (-2.716, 299.46)]</t>
+          <t>[(-0.3, 300.0), (-0.3, 299.83), (0.0, 300.0), (0.0, 299.83), (0.0, 300.0), (0.0, 299.76), (-2.716, 300.0), (-2.716, 299.76), (-0.3, 299.83), (-0.3, 299.66), (0.0, 299.83), (0.0, 299.66), (0.0, 299.76), (0.0, 299.53), (-2.716, 299.76), (-2.716, 299.6), (-0.3, 299.66), (-0.3, 299.51), (0.0, 299.66), (0.0, 299.53), (0.0, 299.53), (0.0, 299.53), (-2.716, 299.6), (-2.716, 299.6)]</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>[(-0.3, 301.0), (-0.3, 300.82), (-2.574, 301.0), (-2.574, 300.82), (-0.3, 300.82), (-0.3, 300.64), (-2.574, 300.82), (-2.574, 300.64), (-0.3, 300.64), (-0.3, 300.5), (-2.574, 300.64), (-2.574, 300.46)]</t>
+          <t>[(-0.3, 301.0), (-0.3, 300.83), (0.0, 301.0), (0.0, 300.83), (0.0, 301.0), (0.0, 300.77), (-2.574, 301.0), (-2.574, 300.77), (-0.3, 300.83), (-0.3, 300.66), (0.0, 300.83), (0.0, 300.66), (0.0, 300.77), (0.0, 300.54), (-2.574, 300.77), (-2.574, 300.6), (-0.3, 300.66), (-0.3, 300.5), (0.0, 300.66), (0.0, 300.54), (0.0, 300.54), (0.0, 300.54), (-2.574, 300.6), (-2.574, 300.6)]</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>[(-0.3, 302.0), (-0.3, 301.78), (-2.465, 302.0), (-2.465, 301.78), (-0.3, 301.78), (-0.3, 301.56), (-2.465, 301.78), (-2.465, 301.56), (-0.3, 301.56), (-0.3, 301.42), (-2.465, 301.56), (-2.465, 301.36)]</t>
+          <t>[(-0.3, 302.0), (-0.3, 301.8), (0.0, 302.0), (0.0, 301.8), (0.0, 302.0), (0.0, 301.74), (-2.465, 302.0), (-2.465, 301.74), (-0.3, 301.8), (-0.3, 301.6), (0.0, 301.8), (0.0, 301.6), (0.0, 301.74), (0.0, 301.49), (-2.465, 301.74), (-2.465, 301.57), (-0.3, 301.6), (-0.3, 301.42), (0.0, 301.6), (0.0, 301.49), (0.0, 301.49), (0.0, 301.49), (-2.465, 301.57), (-2.465, 301.57)]</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 303.0), (-0.3, 302.81), (0.0, 303.0), (0.0, 302.81), (0.0, 303.0), (0.0, 302.81), (0.0, 303.0), (0.0, 302.81), (-0.3, 302.81), (-0.3, 302.62), (0.0, 302.81), (0.0, 302.62), (0.0, 302.81), (0.0, 302.51), (0.0, 302.81), (0.0, 302.66), (-0.3, 302.62), (-0.3, 302.43), (0.0, 302.62), (0.0, 302.51), (0.0, 302.51), (0.0, 302.51), (0.0, 302.66), (0.0, 302.66)]</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 306.0), (-0.3, 305.75), (0.0, 306.0), (0.0, 305.75), (0.0, 306.0), (0.0, 305.89), (0.0, 306.0), (0.0, 305.89), (-0.3, 305.75), (-0.3, 305.51), (0.0, 305.75), (0.0, 305.6), (0.0, 305.89), (0.0, 305.6), (0.0, 305.89), (0.0, 305.75)]</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 308.0), (-0.3, 307.74), (0.0, 308.0), (0.0, 307.74), (0.0, 308.0), (0.0, 307.89), (0.0, 308.0), (0.0, 307.89), (-0.3, 307.74), (-0.3, 307.49), (0.0, 307.74), (0.0, 307.59), (0.0, 307.89), (0.0, 307.59), (0.0, 307.89), (0.0, 307.72)]</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 309.0), (-0.3, 308.71), (0.0, 309.0), (0.0, 308.71), (0.0, 309.0), (0.0, 308.87), (0.0, 309.0), (0.0, 308.87), (-0.3, 308.71), (-0.3, 308.43), (0.0, 308.71), (0.0, 308.57), (0.0, 308.87), (0.0, 308.57), (0.0, 308.87), (0.0, 308.72)]</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 313.0), (-0.3, 312.74), (0.0, 313.0), (0.0, 312.74), (0.0, 313.0), (0.0, 312.89), (0.0, 313.0), (0.0, 312.89), (-0.3, 312.74), (-0.3, 312.48), (0.0, 312.74), (0.0, 312.63), (0.0, 312.89), (0.0, 312.63), (0.0, 312.89), (0.0, 312.75)]</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 314.0), (-0.3, 313.66), (0.0, 314.0), (0.0, 313.74), (0.0, 314.0), (0.0, 313.74), (0.0, 314.0), (0.0, 313.85), (-0.3, 313.66), (-0.3, 313.32), (0.0, 313.74), (0.0, 313.48), (0.0, 313.74), (0.0, 313.48), (0.0, 313.85), (0.0, 313.7)]</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 316.0), (-0.3, 315.72), (0.0, 316.0), (0.0, 315.72), (0.0, 316.0), (0.0, 315.77), (0.0, 316.0), (0.0, 315.77), (-0.3, 315.72), (-0.3, 315.45), (0.0, 315.72), (0.0, 315.54), (0.0, 315.77), (0.0, 315.54), (0.0, 315.77), (0.0, 315.66)]</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 317.0), (-0.3, 316.81), (0.0, 317.0), (0.0, 316.81), (0.0, 317.0), (0.0, 316.75), (0.0, 317.0), (0.0, 316.75), (-0.3, 316.81), (-0.3, 316.62), (0.0, 316.81), (0.0, 316.62), (0.0, 316.75), (0.0, 316.51), (0.0, 316.75), (0.0, 316.6), (-0.3, 316.62), (-0.3, 316.43), (0.0, 316.62), (0.0, 316.51), (0.0, 316.51), (0.0, 316.51), (0.0, 316.6), (0.0, 316.6)]</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 318.0), (-0.3, 317.75), (0.0, 318.0), (0.0, 317.75), (0.0, 318.0), (0.0, 317.78), (0.0, 318.0), (0.0, 317.78), (-0.3, 317.75), (-0.3, 317.5), (0.0, 317.75), (0.0, 317.57), (0.0, 317.78), (0.0, 317.57), (0.0, 317.78), (0.0, 317.6)]</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 319.0), (-0.3, 318.75), (0.0, 319.0), (0.0, 318.75), (0.0, 319.0), (0.0, 318.84), (0.0, 319.0), (0.0, 318.84), (-0.3, 318.75), (-0.3, 318.51), (0.0, 318.75), (0.0, 318.56), (0.0, 318.84), (0.0, 318.68), (0.0, 318.84), (0.0, 318.68)]</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 320.0), (-0.3, 319.84), (0.0, 320.0), (0.0, 319.84), (0.0, 320.0), (0.0, 319.84), (0.0, 320.0), (0.0, 319.84), (-0.3, 319.84), (-0.3, 319.68), (0.0, 319.84), (0.0, 319.68), (0.0, 319.84), (0.0, 319.68), (0.0, 319.84), (0.0, 319.68), (-0.3, 319.68), (-0.3, 319.52), (0.0, 319.68), (0.0, 319.57), (0.0, 319.68), (0.0, 319.57), (0.0, 319.68), (0.0, 319.53)]</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 321.0), (-0.3, 320.75), (0.0, 321.0), (0.0, 320.75), (0.0, 321.0), (0.0, 320.85), (0.0, 321.0), (0.0, 320.85), (-0.3, 320.75), (-0.3, 320.51), (0.0, 320.75), (0.0, 320.56), (0.0, 320.85), (0.0, 320.7), (0.0, 320.85), (0.0, 320.7)]</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 322.0), (-0.3, 321.73), (0.0, 322.0), (0.0, 321.73), (0.0, 322.0), (0.0, 321.78), (0.0, 322.0), (0.0, 321.78), (-0.3, 321.73), (-0.3, 321.46), (0.0, 321.73), (0.0, 321.56), (0.0, 321.78), (0.0, 321.56), (0.0, 321.78), (0.0, 321.63)]</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 323.0), (-0.3, 322.72), (0.0, 323.0), (0.0, 322.72), (0.0, 323.0), (0.0, 322.86), (0.0, 323.0), (0.0, 322.86), (-0.3, 322.72), (-0.3, 322.45), (0.0, 322.72), (0.0, 322.61), (0.0, 322.86), (0.0, 322.72), (0.0, 322.86), (0.0, 322.72)]</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 324.0), (-0.3, 323.74), (0.0, 324.0), (0.0, 323.74), (0.0, 324.0), (0.0, 323.8), (0.0, 324.0), (0.0, 323.8), (-0.3, 323.74), (-0.3, 323.48), (0.0, 323.74), (0.0, 323.61), (0.0, 323.8), (0.0, 323.61), (0.0, 323.8), (0.0, 323.63)]</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 325.0), (-0.3, 324.73), (0.0, 325.0), (0.0, 324.73), (0.0, 325.0), (0.0, 324.8), (0.0, 325.0), (0.0, 324.8), (-0.3, 324.73), (-0.3, 324.46), (0.0, 324.73), (0.0, 324.61), (0.0, 324.8), (0.0, 324.61), (0.0, 324.8), (0.0, 324.62)]</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 326.0), (-0.3, 325.78), (0.0, 326.0), (0.0, 325.78), (0.0, 326.0), (0.0, 325.82), (0.0, 326.0), (0.0, 325.82), (-0.3, 325.78), (-0.3, 325.48), (0.0, 325.78), (0.0, 325.64), (0.0, 325.82), (0.0, 325.64), (0.0, 325.82), (0.0, 325.66)]</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 327.0), (-0.3, 326.75), (0.0, 327.0), (0.0, 326.75), (0.0, 327.0), (0.0, 326.81), (0.0, 327.0), (0.0, 326.81), (-0.3, 326.75), (-0.3, 326.51), (0.0, 326.75), (0.0, 326.62), (0.0, 326.81), (0.0, 326.62), (0.0, 326.81), (0.0, 326.66)]</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 328.0), (-0.3, 327.76), (0.0, 328.0), (0.0, 327.76), (0.0, 328.0), (0.0, 327.81), (0.0, 328.0), (0.0, 327.81), (-0.3, 327.76), (-0.3, 327.52), (0.0, 327.76), (0.0, 327.62), (0.0, 327.81), (0.0, 327.62), (0.0, 327.81), (0.0, 327.64)]</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 329.0), (-0.3, 328.82), (0.0, 329.0), (0.0, 328.82), (0.0, 329.0), (0.0, 328.81), (0.0, 329.0), (0.0, 328.81), (-0.3, 328.82), (-0.3, 328.64), (0.0, 328.82), (0.0, 328.67), (0.0, 328.81), (0.0, 328.67), (0.0, 328.81), (0.0, 328.62)]</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 331.0), (-0.3, 330.83), (0.0, 331.0), (0.0, 330.83), (0.0, 331.0), (0.0, 330.81), (0.0, 331.0), (0.0, 330.81), (-0.3, 330.83), (-0.3, 330.72), (0.0, 330.83), (0.0, 330.67), (0.0, 330.81), (0.0, 330.67), (0.0, 330.81), (0.0, 330.62)]</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 332.0), (-0.3, 331.8), (0.0, 332.0), (0.0, 331.8), (0.0, 332.0), (0.0, 331.86), (0.0, 332.0), (0.0, 331.86), (-0.3, 331.8), (-0.3, 331.62), (0.0, 331.8), (0.0, 331.61), (0.0, 331.86), (0.0, 331.72), (0.0, 331.86), (0.0, 331.72)]</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 333.0), (-0.3, 332.85), (0.0, 333.0), (0.0, 332.85), (0.0, 333.0), (0.0, 332.79), (0.0, 333.0), (0.0, 332.79), (-0.3, 332.85), (-0.3, 332.7), (0.0, 332.85), (0.0, 332.7), (0.0, 332.79), (0.0, 332.58), (0.0, 332.79), (0.0, 332.64), (-0.3, 332.7), (-0.3, 332.59), (0.0, 332.7), (0.0, 332.58), (0.0, 332.58), (0.0, 332.58), (0.0, 332.64), (0.0, 332.64)]</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 334.0), (-0.3, 333.84), (0.0, 334.0), (0.0, 333.84), (0.0, 334.0), (0.0, 333.78), (0.0, 334.0), (0.0, 333.78), (-0.3, 333.84), (-0.3, 333.68), (0.0, 333.84), (0.0, 333.68), (0.0, 333.78), (0.0, 333.57), (0.0, 333.78), (0.0, 333.65), (-0.3, 333.68), (-0.3, 333.54), (0.0, 333.68), (0.0, 333.57), (0.0, 333.57), (0.0, 333.57), (0.0, 333.65), (0.0, 333.65)]</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 335.0), (-0.3, 334.78), (0.0, 335.0), (0.0, 334.78), (0.0, 335.0), (0.0, 334.89), (0.0, 335.0), (0.0, 334.89), (-0.3, 334.78), (-0.3, 334.56), (0.0, 334.78), (0.0, 334.62), (0.0, 334.89), (0.0, 334.62), (0.0, 334.89), (0.0, 334.72)]</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 336.0), (-0.3, 335.85), (0.0, 336.0), (0.0, 335.85), (0.0, 336.0), (0.0, 335.78), (0.0, 336.0), (0.0, 335.78), (-0.3, 335.85), (-0.3, 335.7), (0.0, 335.85), (0.0, 335.7), (0.0, 335.78), (0.0, 335.57), (0.0, 335.78), (0.0, 335.66), (-0.3, 335.7), (-0.3, 335.55), (0.0, 335.7), (0.0, 335.57), (0.0, 335.57), (0.0, 335.57), (0.0, 335.66), (0.0, 335.66)]</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 337.0), (-0.3, 336.77), (0.0, 337.0), (0.0, 336.77), (0.0, 337.0), (0.0, 336.79), (0.0, 337.0), (0.0, 336.79), (-0.3, 336.77), (-0.3, 336.54), (0.0, 336.77), (0.0, 336.58), (0.0, 336.79), (0.0, 336.58), (0.0, 336.79), (0.0, 336.66)]</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 338.0), (-0.3, 337.85), (0.0, 338.0), (0.0, 337.85), (0.0, 338.0), (0.0, 337.79), (0.0, 338.0), (0.0, 337.79), (-0.3, 337.85), (-0.3, 337.7), (0.0, 337.85), (0.0, 337.7), (0.0, 337.79), (0.0, 337.58), (0.0, 337.79), (0.0, 337.67), (-0.3, 337.7), (-0.3, 337.55), (0.0, 337.7), (0.0, 337.58), (0.0, 337.58), (0.0, 337.58), (0.0, 337.67), (0.0, 337.67)]</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 339.0), (-0.3, 338.85), (0.0, 339.0), (0.0, 338.85), (0.0, 339.0), (0.0, 338.78), (0.0, 339.0), (0.0, 338.78), (-0.3, 338.85), (-0.3, 338.7), (0.0, 338.85), (0.0, 338.7), (0.0, 338.78), (0.0, 338.57), (0.0, 338.78), (0.0, 338.65), (-0.3, 338.7), (-0.3, 338.55), (0.0, 338.7), (0.0, 338.57), (0.0, 338.57), (0.0, 338.57), (0.0, 338.65), (0.0, 338.65)]</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 340.0), (-0.3, 339.77), (0.0, 340.0), (0.0, 339.77), (0.0, 340.0), (0.0, 339.79), (0.0, 340.0), (0.0, 339.79), (-0.3, 339.77), (-0.3, 339.54), (0.0, 339.77), (0.0, 339.59), (0.0, 339.79), (0.0, 339.59), (0.0, 339.79), (0.0, 339.68)]</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 341.0), (-0.3, 340.75), (0.0, 341.0), (0.0, 340.75), (0.0, 341.0), (0.0, 340.81), (0.0, 341.0), (0.0, 340.81), (-0.3, 340.75), (-0.3, 340.51), (0.0, 340.75), (0.0, 340.62), (0.0, 340.81), (0.0, 340.62), (0.0, 340.81), (0.0, 340.7)]</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 344.0), (-0.3, 343.78), (0.0, 344.0), (0.0, 343.78), (0.0, 344.0), (0.0, 343.81), (0.0, 344.0), (0.0, 343.81), (-0.3, 343.78), (-0.3, 343.56), (0.0, 343.78), (0.0, 343.63), (0.0, 343.81), (0.0, 343.63), (0.0, 343.81), (0.0, 343.7)]</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 345.0), (-0.3, 344.85), (0.0, 345.0), (0.0, 344.85), (0.0, 345.0), (0.0, 344.78), (0.0, 345.0), (0.0, 344.78), (-0.3, 344.85), (-0.3, 344.7), (0.0, 344.85), (0.0, 344.7), (0.0, 344.78), (0.0, 344.57), (0.0, 344.78), (0.0, 344.62), (-0.3, 344.7), (-0.3, 344.56), (0.0, 344.7), (0.0, 344.57), (0.0, 344.57), (0.0, 344.57), (0.0, 344.62), (0.0, 344.62)]</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 346.0), (-0.3, 345.87), (0.0, 346.0), (0.0, 345.87), (0.0, 346.0), (0.0, 345.81), (0.0, 346.0), (0.0, 345.81), (-0.3, 345.87), (-0.3, 345.74), (0.0, 345.87), (0.0, 345.74), (0.0, 345.62), (0.0, 345.62), (0.0, 345.81), (0.0, 345.62), (-0.3, 345.74), (-0.3, 345.61), (0.0, 345.74), (0.0, 345.61), (0.0, 345.62), (0.0, 345.5), (0.0, 345.62), (0.0, 345.45), (-0.3, 345.61), (-0.3, 345.5), (0.0, 345.61), (0.0, 345.5), (0.0, 345.5), (0.0, 345.5), (0.0, 345.45), (0.0, 345.45)]</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 347.0), (-0.3, 346.81), (0.0, 347.0), (0.0, 346.81), (0.0, 347.0), (0.0, 346.8), (0.0, 347.0), (0.0, 346.8), (-0.3, 346.81), (-0.3, 346.62), (0.0, 346.81), (0.0, 346.62), (0.0, 346.8), (0.0, 346.6), (0.0, 346.8), (0.0, 346.6), (-0.3, 346.62), (-0.3, 346.43), (0.0, 346.62), (0.0, 346.45), (0.0, 346.6), (0.0, 346.45), (0.0, 346.6), (0.0, 346.4)]</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 348.0), (-0.3, 347.71), (0.0, 348.0), (0.0, 347.71), (0.0, 348.0), (0.0, 347.83), (0.0, 348.0), (0.0, 347.83), (-0.3, 347.71), (-0.3, 347.43), (0.0, 347.71), (0.0, 347.53), (0.0, 347.83), (0.0, 347.66), (0.0, 347.83), (0.0, 347.66)]</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 349.0), (-0.3, 348.7), (0.0, 349.0), (0.0, 348.76), (0.0, 349.0), (0.0, 348.84), (0.0, 349.0), (0.0, 348.84), (-0.3, 348.7), (-0.3, 348.4), (0.0, 348.76), (0.0, 348.52), (0.0, 348.84), (0.0, 348.68), (0.0, 348.84), (0.0, 348.68)]</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 350.0), (-0.3, 349.73), (0.0, 350.0), (0.0, 349.73), (0.0, 350.0), (0.0, 349.78), (0.0, 350.0), (0.0, 349.78), (-0.3, 349.73), (-0.3, 349.46), (0.0, 349.73), (0.0, 349.61), (0.0, 349.78), (0.0, 349.61), (0.0, 349.78), (0.0, 349.57)]</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 351.0), (-0.3, 350.77), (0.0, 351.0), (0.0, 350.77), (0.0, 351.0), (0.0, 350.82), (0.0, 351.0), (0.0, 350.82), (-0.3, 350.77), (-0.3, 350.47), (0.0, 350.77), (0.0, 350.65), (0.0, 350.82), (0.0, 350.65), (0.0, 350.82), (0.0, 350.67)]</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 352.0), (-0.3, 351.77), (0.0, 352.0), (0.0, 351.77), (0.0, 352.0), (0.0, 351.82), (0.0, 352.0), (0.0, 351.82), (-0.3, 351.77), (-0.3, 351.47), (0.0, 351.77), (0.0, 351.64), (0.0, 351.82), (0.0, 351.64), (0.0, 351.82), (0.0, 351.67)]</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 353.0), (-0.3, 352.82), (0.0, 353.0), (0.0, 352.82), (0.0, 353.0), (0.0, 352.84), (0.0, 353.0), (0.0, 352.84), (-0.3, 352.82), (-0.3, 352.52), (0.0, 352.82), (0.0, 352.7), (0.0, 352.84), (0.0, 352.7), (0.0, 352.84), (0.0, 352.69)]</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 354.0), (-0.3, 353.81), (0.0, 354.0), (0.0, 353.81), (0.0, 354.0), (0.0, 353.84), (0.0, 354.0), (0.0, 353.84), (-0.3, 353.81), (-0.3, 353.51), (0.0, 353.81), (0.0, 353.69), (0.0, 353.84), (0.0, 353.69), (0.0, 353.84), (0.0, 353.69)]</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 358.0), (-0.3, 357.79), (0.0, 358.0), (0.0, 357.79), (0.0, 358.0), (0.0, 357.83), (0.0, 358.0), (0.0, 357.83), (-0.3, 357.79), (-0.3, 357.49), (0.0, 357.79), (0.0, 357.67), (0.0, 357.83), (0.0, 357.67), (0.0, 357.83), (0.0, 357.71)]</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 359.0), (-0.3, 358.7), (0.0, 359.0), (0.0, 358.7), (0.0, 359.0), (0.0, 358.78), (0.0, 359.0), (0.0, 358.78), (-0.3, 358.7), (-0.3, 358.4), (0.0, 358.7), (0.0, 358.56), (0.0, 358.78), (0.0, 358.56), (0.0, 358.78), (0.0, 358.66)]</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 360.0), (-0.3, 359.68), (0.0, 360.0), (0.0, 359.78), (0.0, 360.0), (0.0, 359.78), (0.0, 360.0), (0.0, 359.78), (-0.3, 359.68), (-0.3, 359.36), (0.0, 359.78), (0.0, 359.56), (0.0, 359.78), (0.0, 359.56), (0.0, 359.78), (0.0, 359.65)]</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 361.0), (-0.3, 360.67), (0.0, 361.0), (0.0, 360.76), (0.0, 361.0), (0.0, 360.75), (0.0, 361.0), (0.0, 360.75), (-0.3, 360.67), (-0.3, 360.34), (0.0, 360.76), (0.0, 360.52), (0.0, 360.75), (0.0, 360.51), (0.0, 360.75), (0.0, 360.62)]</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 362.0), (-0.3, 361.66), (0.0, 362.0), (0.0, 361.74), (0.0, 362.0), (0.0, 361.74), (0.0, 362.0), (0.0, 361.74), (-0.3, 361.66), (-0.3, 361.32), (0.0, 361.74), (0.0, 361.48), (0.0, 361.74), (0.0, 361.49), (0.0, 361.74), (0.0, 361.58)]</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 363.0), (-0.3, 362.7), (0.0, 363.0), (0.0, 362.7), (0.0, 363.0), (0.0, 362.77), (0.0, 363.0), (0.0, 362.77), (-0.3, 362.7), (-0.3, 362.41), (0.0, 362.7), (0.0, 362.54), (0.0, 362.77), (0.0, 362.54), (0.0, 362.77), (0.0, 362.64)]</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 364.0), (-0.3, 363.71), (0.0, 364.0), (0.0, 363.71), (0.0, 364.0), (0.0, 363.79), (0.0, 364.0), (0.0, 363.79), (-0.3, 363.71), (-0.3, 363.43), (0.0, 363.71), (0.0, 363.58), (0.0, 363.79), (0.0, 363.58), (0.0, 363.79), (0.0, 363.67)]</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 365.0), (-0.3, 364.75), (0.0, 365.0), (0.0, 364.75), (0.0, 365.0), (0.0, 364.81), (0.0, 365.0), (0.0, 364.81), (-0.3, 364.75), (-0.3, 364.5), (0.0, 364.75), (0.0, 364.63), (0.0, 364.81), (0.0, 364.63), (0.0, 364.81), (0.0, 364.7)]</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 369.0), (-0.3, 368.89), (0.0, 369.0), (0.0, 368.89), (0.0, 369.0), (0.0, 368.84), (0.0, 369.0), (0.0, 368.84), (-0.3, 368.89), (-0.3, 368.64), (0.0, 368.89), (0.0, 368.73), (0.0, 368.84), (0.0, 368.73), (0.0, 368.84), (0.0, 368.68)]</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 370.0), (-0.3, 369.84), (0.0, 370.0), (0.0, 369.84), (0.0, 370.0), (0.0, 369.81), (0.0, 370.0), (0.0, 369.81), (-0.3, 369.84), (-0.3, 369.7), (0.0, 369.84), (0.0, 369.68), (0.0, 369.81), (0.0, 369.68), (0.0, 369.81), (0.0, 369.51)]</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 371.0), (-0.3, 370.84), (0.0, 371.0), (0.0, 370.84), (0.0, 371.0), (0.0, 370.86), (0.0, 371.0), (0.0, 370.86), (-0.3, 370.84), (-0.3, 370.68), (0.0, 370.84), (0.0, 370.68), (0.0, 370.86), (0.0, 370.68), (0.0, 370.86), (0.0, 370.56)]</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 374.0), (-0.3, 373.85), (0.0, 374.0), (0.0, 373.85), (0.0, 374.0), (0.0, 373.89), (0.0, 374.0), (0.0, 373.89), (-0.3, 373.85), (-0.3, 373.7), (0.0, 373.85), (0.0, 373.74), (0.0, 373.89), (0.0, 373.74), (0.0, 373.89), (0.0, 373.66)]</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 375.0), (-0.3, 374.83), (0.0, 375.0), (0.0, 374.83), (0.0, 375.0), (0.0, 374.77), (0.0, 375.0), (0.0, 374.77), (-0.3, 374.83), (-0.3, 374.69), (0.0, 374.83), (0.0, 374.66), (0.0, 374.77), (0.0, 374.66), (0.0, 374.77), (0.0, 374.54)]</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 376.0), (-0.3, 375.83), (0.0, 376.0), (0.0, 375.83), (0.0, 376.0), (0.0, 375.81), (0.0, 376.0), (0.0, 375.81), (-0.3, 375.83), (-0.3, 375.67), (0.0, 375.83), (0.0, 375.67), (0.0, 375.81), (0.0, 375.67), (0.0, 375.81), (0.0, 375.51)]</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 377.0), (-0.3, 376.82), (0.0, 377.0), (0.0, 376.82), (0.0, 377.0), (0.0, 376.82), (0.0, 377.0), (0.0, 376.7), (-0.3, 376.82), (-0.3, 376.7), (0.0, 376.82), (0.0, 376.64), (0.0, 376.82), (0.0, 376.64), (0.0, 376.7), (0.0, 376.4)]</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 378.0), (-0.3, 377.89), (0.0, 378.0), (0.0, 377.89), (0.0, 378.0), (0.0, 377.84), (0.0, 378.0), (0.0, 377.72), (-0.3, 377.89), (-0.3, 377.75), (0.0, 377.89), (0.0, 377.67), (0.0, 377.84), (0.0, 377.68), (0.0, 377.72), (0.0, 377.44)]</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 379.0), (-0.3, 378.84), (0.0, 379.0), (0.0, 378.84), (0.0, 379.0), (0.0, 378.84), (0.0, 379.0), (0.0, 378.72), (-0.3, 378.84), (-0.3, 378.72), (0.0, 378.84), (0.0, 378.68), (0.0, 378.84), (0.0, 378.68), (0.0, 378.72), (0.0, 378.44)]</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 380.0), (-0.3, 379.83), (0.0, 380.0), (0.0, 379.83), (0.0, 380.0), (0.0, 379.83), (0.0, 380.0), (0.0, 379.72), (-0.3, 379.83), (-0.3, 379.72), (0.0, 379.83), (0.0, 379.66), (0.0, 379.83), (0.0, 379.66), (0.0, 379.72), (0.0, 379.44)]</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 381.0), (-0.3, 380.82), (0.0, 381.0), (0.0, 380.82), (0.0, 381.0), (0.0, 380.82), (0.0, 381.0), (0.0, 380.71), (-0.3, 380.82), (-0.3, 380.69), (0.0, 380.82), (0.0, 380.65), (0.0, 380.82), (0.0, 380.64), (0.0, 380.71), (0.0, 380.42)]</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>[(-0.3, 382.0), (-0.3, 381.88), (-2.403, 382.0), (-2.403, 381.88), (-0.3, 381.88), (-0.3, 381.76), (-2.403, 381.88), (-2.403, 381.76), (-0.3, 381.76), (-0.3, 381.65), (-2.403, 381.76), (-2.403, 381.65)]</t>
+          <t>[(-0.3, 382.0), (-0.3, 381.81), (0.0, 382.0), (0.0, 381.81), (0.0, 382.0), (0.0, 381.82), (-2.403, 382.0), (-2.403, 381.7), (-0.3, 381.81), (-0.3, 381.65), (0.0, 381.81), (0.0, 381.63), (0.0, 381.82), (0.0, 381.64), (-2.403, 381.7), (-2.403, 381.4)]</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>[(-0.3, 383.0), (-0.3, 382.86), (-2.438, 383.0), (-2.438, 382.86), (-0.3, 382.86), (-0.3, 382.72), (-2.438, 382.86), (-2.438, 382.72), (-0.3, 382.72), (-0.3, 382.61), (-2.438, 382.72), (-2.438, 382.61)]</t>
+          <t>[(-0.3, 383.0), (-0.3, 382.8), (-2.438, 383.0), (-2.438, 382.7), (-0.3, 382.8), (-0.3, 382.6), (-2.438, 382.7), (-2.438, 382.4)]</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 384.0), (-0.3, 383.85), (0.0, 384.0), (0.0, 383.85), (0.0, 384.0), (0.0, 383.78), (0.0, 384.0), (0.0, 383.7), (-0.3, 383.85), (-0.3, 383.7), (0.0, 383.85), (0.0, 383.7), (0.0, 383.78), (0.0, 383.56), (0.0, 383.7), (0.0, 383.4), (-0.3, 383.7), (-0.3, 383.57), (0.0, 383.7), (0.0, 383.55), (0.0, 383.56), (0.0, 383.56), (0.0, 383.4), (0.0, 383.4)]</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 385.0), (-0.3, 384.83), (0.0, 385.0), (0.0, 384.83), (0.0, 385.0), (0.0, 384.76), (0.0, 385.0), (0.0, 384.68), (-0.3, 384.83), (-0.3, 384.66), (0.0, 384.83), (0.0, 384.66), (0.0, 384.76), (0.0, 384.52), (0.0, 384.68), (0.0, 384.36), (-0.3, 384.66), (-0.3, 384.5), (0.0, 384.66), (0.0, 384.51), (0.0, 384.52), (0.0, 384.52), (0.0, 384.36), (0.0, 384.36)]</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 386.0), (-0.3, 385.8), (0.0, 386.0), (0.0, 385.8), (0.0, 386.0), (0.0, 385.79), (0.0, 386.0), (0.0, 385.79), (-0.3, 385.8), (-0.3, 385.6), (0.0, 385.8), (0.0, 385.6), (0.0, 385.79), (0.0, 385.58), (0.0, 385.79), (0.0, 385.58), (-0.3, 385.6), (-0.3, 385.41), (0.0, 385.6), (0.0, 385.46), (0.0, 385.58), (0.0, 385.46), (0.0, 385.58), (0.0, 385.37)]</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 387.0), (-0.3, 386.77), (0.0, 387.0), (0.0, 386.77), (0.0, 387.0), (0.0, 386.81), (0.0, 387.0), (0.0, 386.81), (-0.3, 386.77), (-0.3, 386.54), (0.0, 386.77), (0.0, 386.54), (0.0, 386.81), (0.0, 386.62), (0.0, 386.81), (0.0, 386.62), (-0.3, 386.54), (-0.3, 386.32), (0.0, 386.54), (0.0, 386.43), (0.0, 386.62), (0.0, 386.43), (0.0, 386.62), (0.0, 386.45)]</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 388.0), (-0.3, 387.64), (0.0, 388.0), (0.0, 387.72), (0.0, 388.0), (0.0, 387.71), (0.0, 388.0), (0.0, 387.71), (-0.3, 387.64), (-0.3, 387.28), (0.0, 387.72), (0.0, 387.44), (0.0, 387.71), (0.0, 387.43), (0.0, 387.71), (0.0, 387.54)]</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 389.0), (-0.3, 388.63), (0.0, 389.0), (0.0, 388.7), (0.0, 389.0), (0.0, 388.8), (0.0, 389.0), (0.0, 388.8), (-0.3, 388.63), (-0.3, 388.26), (0.0, 388.7), (0.0, 388.4), (0.0, 388.8), (0.0, 388.6), (0.0, 388.8), (0.0, 388.6)]</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 390.0), (-0.3, 389.75), (0.0, 390.0), (0.0, 389.75), (0.0, 390.0), (0.0, 389.79), (0.0, 390.0), (0.0, 389.79), (-0.3, 389.75), (-0.3, 389.5), (0.0, 389.75), (0.0, 389.5), (0.0, 389.79), (0.0, 389.58), (0.0, 389.79), (0.0, 389.58), (-0.3, 389.5), (-0.3, 389.25), (0.0, 389.5), (0.0, 389.39), (0.0, 389.58), (0.0, 389.39), (0.0, 389.58), (0.0, 389.44)]</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 391.0), (-0.3, 390.62), (0.0, 391.0), (0.0, 390.7), (0.0, 391.0), (0.0, 390.84), (0.0, 391.0), (0.0, 390.84), (-0.3, 390.62), (-0.3, 390.24), (0.0, 390.7), (0.0, 390.4), (0.0, 390.84), (0.0, 390.68), (0.0, 390.84), (0.0, 390.68)]</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 392.0), (-0.3, 391.62), (0.0, 392.0), (0.0, 391.69), (0.0, 392.0), (0.0, 391.79), (0.0, 392.0), (0.0, 391.79), (-0.3, 391.62), (-0.3, 391.24), (0.0, 391.69), (0.0, 391.38), (0.0, 391.79), (0.0, 391.58), (0.0, 391.79), (0.0, 391.58)]</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 393.0), (-0.3, 392.62), (0.0, 393.0), (0.0, 392.7), (0.0, 393.0), (0.0, 392.85), (0.0, 393.0), (0.0, 392.85), (-0.3, 392.62), (-0.3, 392.24), (0.0, 392.7), (0.0, 392.4), (0.0, 392.85), (0.0, 392.7), (0.0, 392.85), (0.0, 392.7)]</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 394.0), (-0.3, 393.72), (0.0, 394.0), (0.0, 393.72), (0.0, 394.0), (0.0, 393.76), (0.0, 394.0), (0.0, 393.76), (-0.3, 393.72), (-0.3, 393.44), (0.0, 393.72), (0.0, 393.44), (0.0, 393.76), (0.0, 393.52), (0.0, 393.76), (0.0, 393.52), (-0.3, 393.44), (-0.3, 393.17), (0.0, 393.44), (0.0, 393.3), (0.0, 393.52), (0.0, 393.3), (0.0, 393.52), (0.0, 393.4)]</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 395.0), (-0.3, 394.6), (0.0, 395.0), (0.0, 394.68), (0.0, 395.0), (0.0, 394.78), (0.0, 395.0), (0.0, 394.78), (-0.3, 394.6), (-0.3, 394.2), (0.0, 394.68), (0.0, 394.36), (0.0, 394.78), (0.0, 394.56), (0.0, 394.78), (0.0, 394.56)]</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 396.0), (-0.3, 395.62), (0.0, 396.0), (0.0, 395.7), (0.0, 396.0), (0.0, 395.85), (0.0, 396.0), (0.0, 395.85), (-0.3, 395.62), (-0.3, 395.24), (0.0, 395.7), (0.0, 395.4), (0.0, 395.85), (0.0, 395.7), (0.0, 395.85), (0.0, 395.7)]</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 397.0), (-0.3, 396.63), (0.0, 397.0), (0.0, 396.71), (0.0, 397.0), (0.0, 396.8), (0.0, 397.0), (0.0, 396.8), (-0.3, 396.63), (-0.3, 396.26), (0.0, 396.71), (0.0, 396.42), (0.0, 396.8), (0.0, 396.6), (0.0, 396.8), (0.0, 396.6)]</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 398.0), (-0.3, 397.62), (0.0, 398.0), (0.0, 397.72), (0.0, 398.0), (0.0, 397.81), (0.0, 398.0), (0.0, 397.81), (-0.3, 397.62), (-0.3, 397.24), (0.0, 397.72), (0.0, 397.44), (0.0, 397.81), (0.0, 397.62), (0.0, 397.81), (0.0, 397.62)]</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 399.0), (-0.3, 398.64), (0.0, 399.0), (0.0, 398.72), (0.0, 399.0), (0.0, 398.81), (0.0, 399.0), (0.0, 398.81), (-0.3, 398.64), (-0.3, 398.28), (0.0, 398.72), (0.0, 398.44), (0.0, 398.81), (0.0, 398.62), (0.0, 398.81), (0.0, 398.62)]</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 400.0), (-0.3, 399.63), (0.0, 400.0), (0.0, 399.74), (0.0, 400.0), (0.0, 399.82), (0.0, 400.0), (0.0, 399.82), (-0.3, 399.63), (-0.3, 399.26), (0.0, 399.74), (0.0, 399.48), (0.0, 399.82), (0.0, 399.64), (0.0, 399.82), (0.0, 399.64)]</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 401.0), (-0.3, 400.62), (0.0, 401.0), (0.0, 400.72), (0.0, 401.0), (0.0, 400.81), (0.0, 401.0), (0.0, 400.81), (-0.3, 400.62), (-0.3, 400.24), (0.0, 400.72), (0.0, 400.44), (0.0, 400.81), (0.0, 400.62), (0.0, 400.81), (0.0, 400.62)]</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 402.0), (-0.3, 401.58), (0.0, 402.0), (0.0, 401.67), (0.0, 402.0), (0.0, 401.78), (0.0, 402.0), (0.0, 401.78), (-0.3, 401.58), (-0.3, 401.16), (0.0, 401.67), (0.0, 401.34), (0.0, 401.78), (0.0, 401.56), (0.0, 401.78), (0.0, 401.56)]</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 403.0), (-0.3, 402.56), (0.0, 403.0), (0.0, 402.67), (0.0, 403.0), (0.0, 402.83), (0.0, 403.0), (0.0, 402.83), (-0.3, 402.56), (-0.3, 402.12), (0.0, 402.67), (0.0, 402.34), (0.0, 402.83), (0.0, 402.66), (0.0, 402.83), (0.0, 402.66)]</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 404.0), (-0.3, 403.52), (0.0, 404.0), (0.0, 403.62), (0.0, 404.0), (0.0, 403.81), (0.0, 404.0), (0.0, 403.81), (-0.3, 403.52), (-0.3, 403.04), (0.0, 403.62), (0.0, 403.24), (0.0, 403.81), (0.0, 403.62), (0.0, 403.81), (0.0, 403.62)]</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 405.0), (-0.3, 404.52), (0.0, 405.0), (0.0, 404.63), (0.0, 405.0), (0.0, 404.81), (0.0, 405.0), (0.0, 404.81), (-0.3, 404.52), (-0.3, 404.04), (0.0, 404.63), (0.0, 404.26), (0.0, 404.81), (0.0, 404.62), (0.0, 404.81), (0.0, 404.62)]</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 406.0), (-0.3, 405.57), (0.0, 406.0), (0.0, 405.68), (0.0, 406.0), (0.0, 405.84), (0.0, 406.0), (0.0, 405.84), (-0.3, 405.57), (-0.3, 405.14), (0.0, 405.68), (0.0, 405.36), (0.0, 405.84), (0.0, 405.68), (0.0, 405.84), (0.0, 405.68)]</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 407.0), (-0.3, 406.6), (0.0, 407.0), (0.0, 406.71), (0.0, 407.0), (0.0, 406.85), (0.0, 407.0), (0.0, 406.85), (-0.3, 406.6), (-0.3, 406.2), (0.0, 406.71), (0.0, 406.42), (0.0, 406.85), (0.0, 406.7), (0.0, 406.85), (0.0, 406.7)]</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 408.0), (-0.3, 407.64), (0.0, 408.0), (0.0, 407.75), (0.0, 408.0), (0.0, 407.83), (0.0, 408.0), (0.0, 407.83), (-0.3, 407.64), (-0.3, 407.28), (0.0, 407.75), (0.0, 407.5), (0.0, 407.83), (0.0, 407.66), (0.0, 407.83), (0.0, 407.66)]</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 409.0), (-0.3, 408.71), (0.0, 409.0), (0.0, 408.71), (0.0, 409.0), (0.0, 408.79), (0.0, 409.0), (0.0, 408.79), (-0.3, 408.71), (-0.3, 408.42), (0.0, 408.71), (0.0, 408.58), (0.0, 408.79), (0.0, 408.58), (0.0, 408.79), (0.0, 408.62)]</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 410.0), (-0.3, 409.76), (0.0, 410.0), (0.0, 409.86), (0.0, 410.0), (0.0, 409.85), (0.0, 410.0), (0.0, 409.85), (-0.3, 409.76), (-0.3, 409.52), (0.0, 409.86), (0.0, 409.72), (0.0, 409.85), (0.0, 409.72), (0.0, 409.85), (0.0, 409.7)]</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 413.0), (-0.3, 412.83), (0.0, 413.0), (0.0, 412.83), (0.0, 413.0), (0.0, 412.83), (0.0, 413.0), (0.0, 412.83), (-0.3, 412.83), (-0.3, 412.66), (0.0, 412.83), (0.0, 412.71), (0.0, 412.83), (0.0, 412.71), (0.0, 412.83), (0.0, 412.67)]</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 414.0), (-0.3, 413.82), (0.0, 414.0), (0.0, 413.82), (0.0, 414.0), (0.0, 413.8), (0.0, 414.0), (0.0, 413.8), (-0.3, 413.82), (-0.3, 413.65), (0.0, 413.82), (0.0, 413.69), (0.0, 413.8), (0.0, 413.69), (0.0, 413.8), (0.0, 413.5)]</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 415.0), (-0.3, 414.87), (0.0, 415.0), (0.0, 414.87), (0.0, 415.0), (0.0, 414.73), (0.0, 415.0), (0.0, 414.73), (-0.3, 414.87), (-0.3, 414.74), (0.0, 414.87), (0.0, 414.74), (0.0, 414.73), (0.0, 414.62), (0.0, 414.73), (0.0, 414.46), (-0.3, 414.74), (-0.3, 414.63), (0.0, 414.74), (0.0, 414.62), (0.0, 414.62), (0.0, 414.62), (0.0, 414.46), (0.0, 414.46)]</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 416.0), (-0.3, 415.89), (0.0, 416.0), (0.0, 415.89), (0.0, 416.0), (0.0, 415.81), (0.0, 416.0), (0.0, 415.81), (-0.3, 415.89), (-0.3, 415.72), (0.0, 415.89), (0.0, 415.65), (0.0, 415.81), (0.0, 415.65), (0.0, 415.81), (0.0, 415.51)]</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 417.0), (-0.3, 416.83), (0.0, 417.0), (0.0, 416.83), (0.0, 417.0), (0.0, 416.78), (0.0, 417.0), (0.0, 416.78), (-0.3, 416.83), (-0.3, 416.7), (0.0, 416.83), (0.0, 416.66), (0.0, 416.78), (0.0, 416.66), (0.0, 416.78), (0.0, 416.56)]</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 418.0), (-0.3, 417.85), (0.0, 418.0), (0.0, 417.85), (0.0, 418.0), (0.0, 417.89), (0.0, 418.0), (0.0, 417.89), (-0.3, 417.85), (-0.3, 417.73), (0.0, 417.85), (0.0, 417.71), (0.0, 417.89), (0.0, 417.71), (0.0, 417.89), (0.0, 417.59)]</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 419.0), (-0.3, 418.85), (0.0, 419.0), (0.0, 418.85), (0.0, 419.0), (0.0, 418.88), (0.0, 419.0), (0.0, 418.88), (-0.3, 418.85), (-0.3, 418.72), (0.0, 418.85), (0.0, 418.71), (0.0, 418.88), (0.0, 418.71), (0.0, 418.88), (0.0, 418.58)]</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 420.0), (-0.3, 419.84), (0.0, 420.0), (0.0, 419.84), (0.0, 420.0), (0.0, 419.87), (0.0, 420.0), (0.0, 419.87), (-0.3, 419.84), (-0.3, 419.72), (0.0, 419.84), (0.0, 419.69), (0.0, 419.87), (0.0, 419.69), (0.0, 419.87), (0.0, 419.57)]</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 421.0), (-0.3, 420.89), (0.0, 421.0), (0.0, 420.89), (0.0, 421.0), (0.0, 420.76), (0.0, 421.0), (0.0, 420.76), (-0.3, 420.89), (-0.3, 420.73), (0.0, 420.89), (0.0, 420.65), (0.0, 420.76), (0.0, 420.65), (0.0, 420.76), (0.0, 420.53)]</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 422.0), (-0.3, 421.89), (0.0, 422.0), (0.0, 421.89), (0.0, 422.0), (0.0, 421.78), (0.0, 422.0), (0.0, 421.78), (-0.3, 421.89), (-0.3, 421.74), (0.0, 421.89), (0.0, 421.65), (0.0, 421.78), (0.0, 421.65), (0.0, 421.78), (0.0, 421.48)]</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 423.0), (-0.3, 422.82), (0.0, 423.0), (0.0, 422.82), (0.0, 423.0), (0.0, 422.82), (0.0, 423.0), (0.0, 422.7), (-0.3, 422.82), (-0.3, 422.7), (0.0, 422.82), (0.0, 422.65), (0.0, 422.82), (0.0, 422.64), (0.0, 422.7), (0.0, 422.4)]</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 424.0), (-0.3, 423.89), (0.0, 424.0), (0.0, 423.89), (0.0, 424.0), (0.0, 423.84), (0.0, 424.0), (0.0, 423.68), (-0.3, 423.89), (-0.3, 423.75), (0.0, 423.89), (0.0, 423.67), (0.0, 423.84), (0.0, 423.68), (0.0, 423.68), (0.0, 423.36)]</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 426.0), (-0.3, 425.83), (0.0, 426.0), (0.0, 425.83), (0.0, 426.0), (0.0, 425.83), (0.0, 426.0), (0.0, 425.7), (-0.3, 425.83), (-0.3, 425.71), (0.0, 425.83), (0.0, 425.66), (0.0, 425.83), (0.0, 425.66), (0.0, 425.7), (0.0, 425.4)]</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 429.0), (-0.3, 428.83), (0.0, 429.0), (0.0, 428.83), (0.0, 429.0), (0.0, 428.83), (0.0, 429.0), (0.0, 428.6), (-0.3, 428.83), (-0.3, 428.71), (0.0, 428.83), (0.0, 428.66), (0.0, 428.83), (0.0, 428.66), (0.0, 428.6), (0.0, 428.2)]</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 430.0), (-0.3, 429.82), (0.0, 430.0), (0.0, 429.82), (0.0, 430.0), (0.0, 429.82), (0.0, 430.0), (0.0, 429.67), (-0.3, 429.82), (-0.3, 429.68), (0.0, 429.82), (0.0, 429.64), (0.0, 429.82), (0.0, 429.64), (0.0, 429.67), (0.0, 429.34)]</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 431.0), (-0.3, 430.8), (0.0, 431.0), (0.0, 430.8), (0.0, 431.0), (0.0, 430.8), (0.0, 431.0), (0.0, 430.68), (-0.3, 430.8), (-0.3, 430.66), (0.0, 430.8), (0.0, 430.61), (0.0, 430.8), (0.0, 430.6), (0.0, 430.68), (0.0, 430.36)]</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 432.0), (-0.3, 431.83), (0.0, 432.0), (0.0, 431.83), (0.0, 432.0), (0.0, 431.83), (0.0, 432.0), (0.0, 431.68), (-0.3, 431.83), (-0.3, 431.69), (0.0, 431.83), (0.0, 431.66), (0.0, 431.83), (0.0, 431.66), (0.0, 431.68), (0.0, 431.36)]</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 433.0), (-0.3, 432.84), (0.0, 433.0), (0.0, 432.84), (0.0, 433.0), (0.0, 432.84), (0.0, 433.0), (0.0, 432.84), (-0.3, 432.84), (-0.3, 432.73), (0.0, 432.84), (0.0, 432.68), (0.0, 432.84), (0.0, 432.68), (0.0, 432.84), (0.0, 432.54)]</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 434.0), (-0.3, 433.89), (0.0, 434.0), (0.0, 433.89), (0.0, 434.0), (0.0, 433.77), (0.0, 434.0), (0.0, 433.77), (-0.3, 433.89), (-0.3, 433.72), (0.0, 433.89), (0.0, 433.65), (0.0, 433.77), (0.0, 433.65), (0.0, 433.77), (0.0, 433.55)]</t>
         </is>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 435.0), (-0.3, 434.84), (0.0, 435.0), (0.0, 434.84), (0.0, 435.0), (0.0, 434.8), (0.0, 435.0), (0.0, 434.8), (-0.3, 434.84), (-0.3, 434.71), (0.0, 434.84), (0.0, 434.68), (0.0, 434.8), (0.0, 434.68), (0.0, 434.8), (0.0, 434.61)]</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 436.0), (-0.3, 435.83), (0.0, 436.0), (0.0, 435.83), (0.0, 436.0), (0.0, 435.78), (0.0, 436.0), (0.0, 435.78), (-0.3, 435.83), (-0.3, 435.68), (0.0, 435.83), (0.0, 435.66), (0.0, 435.78), (0.0, 435.66), (0.0, 435.78), (0.0, 435.57)]</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 437.0), (-0.3, 436.82), (0.0, 437.0), (0.0, 436.82), (0.0, 437.0), (0.0, 436.78), (0.0, 437.0), (0.0, 436.78), (-0.3, 436.82), (-0.3, 436.68), (0.0, 436.82), (0.0, 436.64), (0.0, 436.78), (0.0, 436.64), (0.0, 436.78), (0.0, 436.56)]</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 438.0), (-0.3, 437.82), (0.0, 438.0), (0.0, 437.82), (0.0, 438.0), (0.0, 437.77), (0.0, 438.0), (0.0, 437.77), (-0.3, 437.82), (-0.3, 437.69), (0.0, 437.82), (0.0, 437.65), (0.0, 437.77), (0.0, 437.65), (0.0, 437.77), (0.0, 437.55)]</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>[(-0.3, 439.0), (-0.3, 438.83), (-4.836, 439.0), (-4.836, 438.83), (-0.3, 438.83), (-0.3, 438.69), (-4.836, 438.83), (-4.836, 438.66)]</t>
+          <t>[(-0.3, 439.0), (-0.3, 438.84), (0.0, 439.0), (0.0, 438.84), (0.0, 439.0), (0.0, 438.83), (-4.836, 439.0), (-4.836, 438.83), (-0.3, 438.84), (-0.3, 438.69), (0.0, 438.84), (0.0, 438.71), (0.0, 438.83), (0.0, 438.71), (-4.836, 438.83), (-4.836, 438.67)]</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>[(-0.3, 440.0), (-0.3, 439.83), (-2.75, 440.0), (-2.75, 439.83), (-0.3, 439.83), (-0.3, 439.68), (-2.75, 439.83), (-2.75, 439.66)]</t>
+          <t>[(-0.3, 440.0), (-0.3, 439.83), (0.0, 440.0), (0.0, 439.83), (0.0, 440.0), (0.0, 439.81), (-2.75, 440.0), (-2.75, 439.81), (-0.3, 439.83), (-0.3, 439.68), (0.0, 439.83), (0.0, 439.67), (0.0, 439.81), (0.0, 439.67), (-2.75, 439.81), (-2.75, 439.63)]</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>[(-0.3, 441.0), (-0.3, 440.83), (-4.523, 441.0), (-4.523, 440.83), (-0.3, 440.83), (-0.3, 440.69), (-4.523, 440.83), (-4.523, 440.67)]</t>
+          <t>[(-0.3, 441.0), (-0.3, 440.81), (0.0, 441.0), (0.0, 440.81), (0.0, 441.0), (0.0, 440.79), (-4.523, 441.0), (-4.523, 440.79), (-0.3, 440.81), (-0.3, 440.69), (0.0, 440.81), (0.0, 440.63), (0.0, 440.79), (0.0, 440.63), (-4.523, 440.79), (-4.523, 440.58)]</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>[(-0.3, 442.0), (-0.3, 441.83), (-5.604, 442.0), (-5.604, 441.83), (-0.3, 441.83), (-0.3, 441.67), (-5.604, 441.83), (-5.604, 441.67)]</t>
+          <t>[(-0.3, 442.0), (-0.3, 441.8), (0.0, 442.0), (0.0, 441.8), (0.0, 442.0), (0.0, 441.79), (-5.604, 442.0), (-5.604, 441.79), (-0.3, 441.8), (-0.3, 441.67), (0.0, 441.8), (0.0, 441.61), (0.0, 441.79), (0.0, 441.61), (-5.604, 441.79), (-5.604, 441.58)]</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>[(-0.3, 443.0), (-0.3, 442.81), (-6.634, 443.0), (-6.634, 442.81), (-0.3, 442.81), (-0.3, 442.64), (-6.634, 442.81), (-6.634, 442.63)]</t>
+          <t>[(-0.3, 443.0), (-0.3, 442.82), (0.0, 443.0), (0.0, 442.82), (0.0, 443.0), (0.0, 442.82), (-6.634, 443.0), (-6.634, 442.82), (-0.3, 442.82), (-0.3, 442.64), (0.0, 442.82), (0.0, 442.65), (0.0, 442.82), (0.0, 442.65), (-6.634, 442.82), (-6.634, 442.67)]</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>[(-0.3, 444.0), (-0.3, 443.86), (-2.622, 444.0), (-2.622, 443.86), (-0.3, 443.86), (-0.3, 443.72), (-2.622, 443.86), (-2.622, 443.72), (-0.3, 443.72), (-0.3, 443.61), (-2.622, 443.72), (-2.622, 443.61)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>[(-0.3, 445.0), (-0.3, 444.87), (-3.713, 445.0), (-3.713, 444.87), (-0.3, 444.87), (-0.3, 444.74), (-3.713, 444.87), (-3.713, 444.74), (-0.3, 444.74), (-0.3, 444.63), (-3.713, 444.74), (-3.713, 444.62)]</t>
+          <t>[(-0.3, 445.0), (-0.3, 444.89), (-3.713, 445.0), (-3.713, 444.89), (-0.3, 444.89), (-0.3, 444.63), (-3.713, 444.89), (-3.713, 444.72)]</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>[(-0.3, 446.0), (-0.3, 445.83), (-5.03, 446.0), (-5.03, 445.83), (-0.3, 445.83), (-0.3, 445.66), (-5.03, 445.83), (-5.03, 445.66)]</t>
+          <t>[(-0.3, 446.0), (-0.3, 445.89), (-5.03, 446.0), (-5.03, 445.89), (-0.3, 445.89), (-0.3, 445.66), (-5.03, 445.89), (-5.03, 445.74)]</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>[(-0.3, 447.0), (-0.3, 446.8), (-5.47, 447.0), (-5.47, 446.8), (-0.3, 446.8), (-0.3, 446.61), (-5.47, 446.8), (-5.47, 446.63)]</t>
+          <t>[(-0.3, 447.0), (-0.3, 446.8), (-5.47, 447.0), (-5.47, 446.8), (-0.3, 446.8), (-0.3, 446.61), (-5.47, 446.8), (-5.47, 446.66)]</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>[(-0.3, 448.0), (-0.3, 447.86), (-5.501, 448.0), (-5.501, 447.86), (-0.3, 447.86), (-0.3, 447.56), (-5.501, 447.86), (-5.501, 447.7)]</t>
+          <t>[(-0.3, 448.0), (-0.3, 447.85), (-5.501, 448.0), (-5.501, 447.85), (-0.3, 447.85), (-0.3, 447.7), (-5.501, 447.85), (-5.501, 447.7), (-0.3, 447.7), (-0.3, 447.56), (-5.501, 447.7), (-5.501, 447.58)]</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>[(-0.3, 449.0), (-0.3, 448.85), (-8.746, 449.0), (-8.746, 448.85), (-0.3, 448.85), (-0.3, 448.7), (-8.746, 448.85), (-8.746, 448.7), (-0.3, 448.7), (-0.3, 448.55), (-8.746, 448.7), (-8.746, 448.56)]</t>
+          <t>[(-0.3, 449.0), (-0.3, 448.85), (-8.746, 449.0), (-8.746, 448.85), (-0.3, 448.85), (-0.3, 448.7), (-8.746, 448.85), (-8.746, 448.7), (-0.3, 448.7), (-0.3, 448.55), (-8.746, 448.7), (-8.746, 448.55)]</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>[(-0.3, 450.0), (-0.3, 449.79), (-7.23, 450.0), (-7.23, 449.79), (-0.3, 449.79), (-0.3, 449.58), (-7.23, 449.79), (-7.23, 449.64)]</t>
+          <t>[(-0.3, 450.0), (-0.3, 449.85), (-7.23, 450.0), (-7.23, 449.85), (-0.3, 449.85), (-0.3, 449.7), (-7.23, 449.85), (-7.23, 449.7), (-0.3, 449.7), (-0.3, 449.58), (-7.23, 449.7), (-7.23, 449.57)]</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>[(-0.3, 451.0), (-0.3, 450.81), (-6.067, 451.0), (-6.067, 450.81), (-0.3, 450.81), (-0.3, 450.62), (-6.067, 450.81), (-6.067, 450.65)]</t>
+          <t>[(-0.3, 451.0), (-0.3, 450.8), (-6.067, 451.0), (-6.067, 450.8), (-0.3, 450.8), (-0.3, 450.62), (-6.067, 450.8), (-6.067, 450.61)]</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>[(-0.3, 452.0), (-0.3, 451.82), (-6.353, 452.0), (-6.353, 451.82), (-0.3, 451.82), (-0.3, 451.65), (-6.353, 451.82), (-6.353, 451.69)]</t>
+          <t>[(-0.3, 452.0), (-0.3, 451.81), (-6.353, 452.0), (-6.353, 451.81), (-0.3, 451.81), (-0.3, 451.65), (-6.353, 451.81), (-6.353, 451.63)]</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>[(-0.3, 453.0), (-0.3, 452.84), (-6.671, 453.0), (-6.671, 452.84), (-0.3, 452.84), (-0.3, 452.68), (-6.671, 452.84), (-6.671, 452.71)]</t>
+          <t>[(-0.3, 453.0), (-0.3, 452.83), (-6.671, 453.0), (-6.671, 452.83), (-0.3, 452.83), (-0.3, 452.68), (-6.671, 452.83), (-6.671, 452.67)]</t>
         </is>
       </c>
     </row>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>[(-0.3, 454.0), (-0.3, 453.84), (-6.993, 454.0), (-6.993, 453.84), (-0.3, 453.84), (-0.3, 453.68), (-6.993, 453.84), (-6.993, 453.71)]</t>
+          <t>[(-0.3, 454.0), (-0.3, 453.83), (-6.993, 454.0), (-6.993, 453.83), (-0.3, 453.83), (-0.3, 453.68), (-6.993, 453.83), (-6.993, 453.67)]</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>[(-0.3, 455.0), (-0.3, 454.82), (-7.248, 455.0), (-7.248, 454.82), (-0.3, 454.82), (-0.3, 454.64), (-7.248, 454.82), (-7.248, 454.68)]</t>
+          <t>[(-0.3, 455.0), (-0.3, 454.81), (-7.248, 455.0), (-7.248, 454.81), (-0.3, 454.81), (-0.3, 454.64), (-7.248, 454.81), (-7.248, 454.63)]</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>[(-0.3, 456.0), (-0.3, 455.83), (-7.525, 456.0), (-7.525, 455.83), (-0.3, 455.83), (-0.3, 455.66), (-7.525, 455.83), (-7.525, 455.71)]</t>
+          <t>[(-0.3, 456.0), (-0.3, 455.81), (-7.525, 456.0), (-7.525, 455.81), (-0.3, 455.81), (-0.3, 455.66), (-7.525, 455.81), (-7.525, 455.62)]</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>[(-0.3, 457.0), (-0.3, 456.8), (-7.834, 457.0), (-7.834, 456.8), (-0.3, 456.8), (-0.3, 456.6), (-7.834, 456.8), (-7.834, 456.67)]</t>
+          <t>[(-0.3, 457.0), (-0.3, 456.79), (-7.834, 457.0), (-7.834, 456.79), (-0.3, 456.79), (-0.3, 456.6), (-7.834, 456.79), (-7.834, 456.58)]</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>[(-0.3, 458.0), (-0.3, 457.89), (-8.13, 458.0), (-8.13, 457.89), (-0.3, 457.89), (-0.3, 457.62), (-8.13, 457.89), (-8.13, 457.71)]</t>
+          <t>[(-0.3, 458.0), (-0.3, 457.8), (-8.13, 458.0), (-8.13, 457.8), (-0.3, 457.8), (-0.3, 457.62), (-8.13, 457.8), (-8.13, 457.6)]</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 459.0), (-0.3, 458.82), (-8.349, 459.0), (-8.349, 458.82), (-0.3, 458.82), (-0.3, 458.68), (-8.349, 458.82), (-8.349, 458.65)]</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>[(-0.3, 460.0), (-0.3, 459.84), (-8.559, 460.0), (-8.559, 459.84), (-0.3, 459.84), (-0.3, 459.68), (-8.559, 459.84), (-8.559, 459.71)]</t>
+          <t>[(-0.3, 460.0), (-0.3, 459.83), (-8.559, 460.0), (-8.559, 459.83), (-0.3, 459.83), (-0.3, 459.68), (-8.559, 459.83), (-8.559, 459.67)]</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>[(-0.3, 461.0), (-0.3, 460.81), (-8.777, 461.0), (-8.777, 460.81), (-0.3, 460.81), (-0.3, 460.67), (-8.777, 460.81), (-8.777, 460.63)]</t>
+          <t>[(-0.3, 461.0), (-0.3, 460.82), (-8.777, 461.0), (-8.777, 460.82), (-0.3, 460.82), (-0.3, 460.67), (-8.777, 460.82), (-8.777, 460.64)]</t>
         </is>
       </c>
     </row>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>[(-0.3, 464.0), (-0.3, 463.85), (-2.353, 464.0), (-2.353, 463.85), (-2.353, 464.0), (-2.353, 463.89), (-9.118, 464.0), (-9.118, 463.89), (-0.3, 463.85), (-0.3, 463.74), (-2.353, 463.85), (-2.353, 463.72), (-2.353, 463.89), (-2.353, 463.72), (-9.118, 463.89), (-9.118, 463.62)]</t>
+          <t>[(-0.3, 464.0), (-0.3, 463.86), (-9.118, 464.0), (-9.118, 463.86), (-0.3, 463.86), (-0.3, 463.74), (-9.118, 463.86), (-9.118, 463.74)]</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>[(-0.3, 465.0), (-0.3, 464.85), (-2.525, 465.0), (-2.525, 464.85), (-2.525, 465.0), (-2.525, 464.87), (-9.207, 465.0), (-9.207, 464.87), (-0.3, 464.85), (-0.3, 464.74), (-2.525, 464.85), (-2.525, 464.72), (-2.525, 464.87), (-2.525, 464.72), (-9.207, 464.87), (-9.207, 464.57)]</t>
+          <t>[(-0.3, 465.0), (-0.3, 464.86), (-9.207, 465.0), (-9.207, 464.86), (-0.3, 464.86), (-0.3, 464.74), (-9.207, 464.86), (-9.207, 464.74)]</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>[(-0.3, 469.0), (-0.3, 468.84), (-3.597, 469.0), (-3.597, 468.84), (-3.597, 469.0), (-3.597, 468.86), (-10.382, 469.0), (-10.382, 468.86), (-0.3, 468.84), (-0.3, 468.72), (-3.597, 468.84), (-3.597, 468.68), (-3.597, 468.86), (-3.597, 468.68), (-10.382, 468.86), (-10.382, 468.56)]</t>
+          <t>[(-0.3, 469.0), (-0.3, 468.85), (-10.382, 469.0), (-10.382, 468.85), (-0.3, 468.85), (-0.3, 468.72), (-10.382, 468.85), (-10.382, 468.72)]</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>[(-0.3, 471.0), (-0.3, 470.84), (-4.191, 471.0), (-4.191, 470.84), (-4.191, 471.0), (-4.191, 470.85), (-10.943, 471.0), (-10.943, 470.85), (-0.3, 470.84), (-0.3, 470.72), (-4.191, 470.84), (-4.191, 470.69), (-4.191, 470.85), (-4.191, 470.69), (-10.943, 470.85), (-10.943, 470.55)]</t>
+          <t>[(-0.3, 471.0), (-0.3, 470.85), (-10.943, 471.0), (-10.943, 470.85), (-0.3, 470.85), (-0.3, 470.72), (-10.943, 470.85), (-10.943, 470.72)]</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>[(-0.3, 472.0), (-0.3, 471.86), (-4.416, 472.0), (-4.416, 471.86), (-4.416, 472.0), (-4.416, 471.85), (-11.157, 472.0), (-11.157, 471.85), (-0.3, 471.86), (-0.3, 471.74), (-4.416, 471.86), (-4.416, 471.73), (-4.416, 471.85), (-4.416, 471.73), (-11.157, 471.85), (-11.157, 471.55)]</t>
+          <t>[(-0.3, 472.0), (-0.3, 471.86), (-11.157, 472.0), (-11.157, 471.86), (-0.3, 471.86), (-0.3, 471.74), (-11.157, 471.86), (-11.157, 471.74)]</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>[(-0.3, 475.0), (-0.3, 474.85), (-4.821, 475.0), (-4.821, 474.85), (-4.821, 475.0), (-4.821, 474.86), (-11.595, 475.0), (-11.595, 474.86), (-0.3, 474.85), (-0.3, 474.74), (-4.821, 474.85), (-4.821, 474.71), (-4.821, 474.86), (-4.821, 474.71), (-11.595, 474.86), (-11.595, 474.56)]</t>
+          <t>[(-0.3, 475.0), (-0.3, 474.86), (-11.595, 475.0), (-11.595, 474.86), (-0.3, 474.86), (-0.3, 474.74), (-11.595, 474.86), (-11.595, 474.74)]</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>[(-0.3, 476.0), (-0.3, 475.85), (-4.916, 476.0), (-4.916, 475.85), (-4.916, 476.0), (-4.916, 475.89), (-11.628, 476.0), (-11.628, 475.89), (-0.3, 475.85), (-0.3, 475.74), (-4.916, 475.85), (-4.916, 475.71), (-4.916, 475.89), (-4.916, 475.71), (-11.628, 475.89), (-11.628, 475.59)]</t>
+          <t>[(-0.3, 476.0), (-0.3, 475.86), (-11.628, 476.0), (-11.628, 475.86), (-0.3, 475.86), (-0.3, 475.74), (-11.628, 475.86), (-11.628, 475.74)]</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>[(-0.3, 482.0), (-0.3, 481.84), (-4.711, 482.0), (-4.711, 481.84), (-4.711, 482.0), (-4.711, 481.81), (-11.456, 482.0), (-11.456, 481.81), (-0.3, 481.84), (-0.3, 481.73), (-4.711, 481.84), (-4.711, 481.69), (-4.711, 481.81), (-4.711, 481.69), (-11.456, 481.81), (-11.456, 481.51)]</t>
+          <t>[(-0.3, 482.0), (-0.3, 481.86), (-11.456, 482.0), (-11.456, 481.86), (-0.3, 481.86), (-0.3, 481.73), (-11.456, 481.86), (-11.456, 481.73)]</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>[(-0.3, 483.0), (-0.3, 482.83), (-4.708, 483.0), (-4.708, 482.83), (-4.708, 483.0), (-4.708, 482.81), (-11.451, 483.0), (-11.451, 482.81), (-0.3, 482.83), (-0.3, 482.71), (-4.708, 482.83), (-4.708, 482.67), (-4.708, 482.81), (-4.708, 482.67), (-11.451, 482.81), (-11.451, 482.51)]</t>
+          <t>[(-0.3, 483.0), (-0.3, 482.85), (-11.451, 483.0), (-11.451, 482.85), (-0.3, 482.85), (-0.3, 482.71), (-11.451, 482.85), (-11.451, 482.71)]</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>[(-0.3, 484.0), (-0.3, 483.82), (-4.827, 484.0), (-4.827, 483.82), (-4.827, 484.0), (-4.827, 483.75), (-11.636, 484.0), (-11.636, 483.75), (-0.3, 483.82), (-0.3, 483.69), (-4.827, 483.82), (-4.827, 483.64), (-4.827, 483.75), (-4.827, 483.64), (-11.636, 483.75), (-11.636, 483.51)]</t>
+          <t>[(-0.3, 484.0), (-0.3, 483.84), (-11.636, 484.0), (-11.636, 483.84), (-0.3, 483.84), (-0.3, 483.69), (-11.636, 483.84), (-11.636, 483.69)]</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>[(-0.3, 485.0), (-0.3, 484.82), (-5.008, 485.0), (-5.008, 484.82), (-5.008, 485.0), (-5.008, 484.78), (-11.805, 485.0), (-11.805, 484.78), (-0.3, 484.82), (-0.3, 484.67), (-5.008, 484.82), (-5.008, 484.65), (-5.008, 484.78), (-5.008, 484.65), (-11.805, 484.78), (-11.805, 484.57)]</t>
+          <t>[(-0.3, 485.0), (-0.3, 484.83), (-11.805, 485.0), (-11.805, 484.83), (-0.3, 484.83), (-0.3, 484.67), (-11.805, 484.83), (-11.805, 484.67)]</t>
         </is>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>[(-0.3, 486.0), (-0.3, 485.85), (-5.129, 486.0), (-5.129, 485.85), (-5.129, 486.0), (-5.129, 485.73), (-12.005, 486.0), (-12.005, 485.73), (-0.3, 485.85), (-0.3, 485.7), (-5.129, 485.85), (-5.129, 485.7), (-5.129, 485.73), (-5.129, 485.58), (-12.005, 485.73), (-12.005, 485.46), (-0.3, 485.7), (-0.3, 485.58), (-5.129, 485.7), (-5.129, 485.58), (-5.129, 485.58), (-5.129, 485.58), (-12.005, 485.46), (-12.005, 485.46)]</t>
+          <t>[(-0.3, 486.0), (-0.3, 485.85), (-12.005, 486.0), (-12.005, 485.85), (-0.3, 485.85), (-0.3, 485.7), (-12.005, 485.85), (-12.005, 485.7), (-0.3, 485.7), (-0.3, 485.58), (-12.005, 485.7), (-12.005, 485.58)]</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>[(-0.3, 487.0), (-0.3, 486.82), (-5.221, 487.0), (-5.221, 486.82), (-5.221, 487.0), (-5.221, 486.81), (-11.995, 487.0), (-11.995, 486.81), (-0.3, 486.82), (-0.3, 486.64), (-5.221, 486.82), (-5.221, 486.64), (-5.221, 486.81), (-5.221, 486.62), (-11.995, 486.81), (-11.995, 486.62), (-0.3, 486.64), (-0.3, 486.48), (-5.221, 486.64), (-5.221, 486.5), (-5.221, 486.62), (-5.221, 486.5), (-11.995, 486.62), (-11.995, 486.45)]</t>
+          <t>[(-0.3, 487.0), (-0.3, 486.82), (-11.995, 487.0), (-11.995, 486.82), (-0.3, 486.82), (-0.3, 486.64), (-11.995, 486.82), (-11.995, 486.64), (-0.3, 486.64), (-0.3, 486.48), (-11.995, 486.64), (-11.995, 486.48)]</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>[(-0.3, 488.0), (-0.3, 487.7), (-5.246, 488.0), (-5.246, 487.7), (-5.246, 488.0), (-5.246, 487.83), (-12.042, 488.0), (-12.042, 487.83), (-0.3, 487.7), (-0.3, 487.41), (-5.246, 487.7), (-5.246, 487.52), (-5.246, 487.83), (-5.246, 487.66), (-12.042, 487.83), (-12.042, 487.66)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>[(-0.3, 489.0), (-0.3, 488.73), (-5.258, 489.0), (-5.258, 488.73), (-5.258, 489.0), (-5.258, 488.89), (-12.017, 489.0), (-12.017, 488.89), (-0.3, 488.73), (-0.3, 488.43), (-5.258, 488.73), (-5.258, 488.61), (-5.258, 488.89), (-5.258, 488.61), (-12.017, 488.89), (-12.017, 488.74)]</t>
+          <t>[(-0.3, 489.0), (-0.3, 488.85), (-12.017, 489.0), (-12.017, 488.85), (-0.3, 488.85), (-0.3, 488.7), (-12.017, 488.85), (-12.017, 488.7), (-0.3, 488.7), (-0.3, 488.55), (-12.017, 488.7), (-12.017, 488.55), (-0.3, 488.55), (-0.3, 488.43), (-12.017, 488.55), (-12.017, 488.43)]</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 490.0), (-0.3, 489.84), (-12.015, 490.0), (-12.015, 489.84), (-0.3, 489.84), (-0.3, 489.68), (-12.015, 489.84), (-12.015, 489.68), (-0.3, 489.68), (-0.3, 489.52), (-12.015, 489.68), (-12.015, 489.52), (-0.3, 489.52), (-0.3, 489.38), (-12.015, 489.52), (-12.015, 489.38)]</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>[(-0.3, 491.0), (-0.3, 490.66), (-5.197, 491.0), (-5.197, 490.78), (-5.197, 491.0), (-5.197, 490.85), (-12.024, 491.0), (-12.024, 490.85), (-0.3, 490.66), (-0.3, 490.32), (-5.197, 490.78), (-5.197, 490.56), (-5.197, 490.85), (-5.197, 490.55), (-12.024, 490.85), (-12.024, 490.68)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>[(-0.3, 492.0), (-0.3, 491.61), (-5.221, 492.0), (-5.221, 491.72), (-5.221, 492.0), (-5.221, 491.72), (-12.004, 492.0), (-12.004, 491.72), (-0.3, 491.61), (-0.3, 491.22), (-5.221, 491.72), (-5.221, 491.44), (-5.221, 491.72), (-5.221, 491.45), (-12.004, 491.72), (-12.004, 491.56)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>[(-0.3, 493.0), (-0.3, 492.55), (-5.159, 493.0), (-5.159, 492.68), (-5.159, 493.0), (-5.159, 492.79), (-11.984, 493.0), (-11.984, 492.79), (-0.3, 492.55), (-0.3, 492.1), (-5.159, 492.68), (-5.159, 492.36), (-5.159, 492.79), (-5.159, 492.58), (-11.984, 492.79), (-11.984, 492.58)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>[(-0.3, 494.0), (-0.3, 493.5), (-5.114, 494.0), (-5.114, 493.6), (-5.114, 494.0), (-5.114, 493.73), (-11.935, 494.0), (-11.935, 493.73), (-0.3, 493.5), (-0.3, 493.0), (-5.114, 493.6), (-5.114, 493.2), (-5.114, 493.73), (-5.114, 493.46), (-11.935, 493.73), (-11.935, 493.46)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>[(-0.3, 495.0), (-0.3, 494.5), (-5.078, 495.0), (-5.078, 494.58), (-5.078, 495.0), (-5.078, 494.79), (-11.886, 495.0), (-11.886, 494.79), (-0.3, 494.5), (-0.3, 494.0), (-5.078, 494.58), (-5.078, 494.16), (-5.078, 494.79), (-5.078, 494.58), (-11.886, 494.79), (-11.886, 494.58)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>[(-0.3, 499.0), (-0.3, 498.71), (-5.357, 499.0), (-5.357, 498.71), (-5.357, 499.0), (-5.357, 498.76), (-12.301, 499.0), (-12.301, 498.76), (-0.3, 498.71), (-0.3, 498.42), (-5.357, 498.71), (-5.357, 498.42), (-5.357, 498.76), (-5.357, 498.52), (-12.301, 498.76), (-12.301, 498.52), (-0.3, 498.42), (-0.3, 498.14), (-5.357, 498.42), (-5.357, 498.28), (-5.357, 498.52), (-5.357, 498.28), (-12.301, 498.52), (-12.301, 498.39)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>[(-0.3, 500.0), (-0.3, 499.72), (-5.533, 500.0), (-5.533, 499.72), (-5.533, 500.0), (-5.533, 499.66), (-12.507, 500.0), (-12.507, 499.76), (-0.3, 499.72), (-0.3, 499.44), (-5.533, 499.72), (-5.533, 499.44), (-5.533, 499.66), (-5.533, 499.32), (-12.507, 499.76), (-12.507, 499.52), (-0.3, 499.44), (-0.3, 499.17), (-5.533, 499.44), (-5.533, 499.33), (-5.533, 499.32), (-5.533, 499.32), (-12.507, 499.52), (-12.507, 499.52)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>[(-0.3, 501.0), (-0.3, 500.6), (-5.774, 501.0), (-5.774, 500.7), (-5.774, 501.0), (-5.774, 500.7), (-12.784, 501.0), (-12.784, 500.7), (-0.3, 500.6), (-0.3, 500.2), (-5.774, 500.7), (-5.774, 500.4), (-5.774, 500.7), (-5.774, 500.41), (-12.784, 500.7), (-12.784, 500.59)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>[(-0.3, 502.0), (-0.3, 501.65), (-5.857, 502.0), (-5.857, 501.77), (-5.857, 502.0), (-5.857, 501.77), (-12.779, 502.0), (-12.779, 501.87), (-0.3, 501.65), (-0.3, 501.3), (-5.857, 501.77), (-5.857, 501.54), (-5.857, 501.77), (-5.857, 501.54), (-12.779, 501.87), (-12.779, 501.74)]</t>
+          <t>[(-0.3, 502.0), (-0.3, 501.82), (-12.779, 502.0), (-12.779, 501.82), (-0.3, 501.82), (-0.3, 501.64), (-12.779, 501.82), (-12.779, 501.64), (-0.3, 501.64), (-0.3, 501.46), (-12.779, 501.64), (-12.779, 501.46), (-0.3, 501.46), (-0.3, 501.3), (-12.779, 501.46), (-12.779, 501.3)]</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>[(-0.3, 503.0), (-0.3, 502.68), (-5.904, 503.0), (-5.904, 502.77), (-5.904, 503.0), (-5.904, 502.77), (-12.805, 503.0), (-12.805, 502.87), (-0.3, 502.68), (-0.3, 502.36), (-5.904, 502.77), (-5.904, 502.54), (-5.904, 502.77), (-5.904, 502.54), (-12.805, 502.87), (-12.805, 502.74)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>[(-0.3, 504.0), (-0.3, 503.64), (-5.981, 504.0), (-5.981, 503.76), (-5.981, 504.0), (-5.981, 503.81), (-12.864, 504.0), (-12.864, 503.81), (-0.3, 503.64), (-0.3, 503.28), (-5.981, 503.76), (-5.981, 503.52), (-5.981, 503.81), (-5.981, 503.51), (-12.864, 503.81), (-12.864, 503.65)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>[(-0.3, 505.0), (-0.3, 504.66), (-5.857, 505.0), (-5.857, 504.74), (-5.857, 505.0), (-5.857, 504.74), (-12.727, 505.0), (-12.727, 504.84), (-0.3, 504.66), (-0.3, 504.32), (-5.857, 504.74), (-5.857, 504.48), (-5.857, 504.74), (-5.857, 504.48), (-12.727, 504.84), (-12.727, 504.68)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 507.0), (-0.3, 506.87), (-12.118, 507.0), (-12.118, 506.87), (-0.3, 506.87), (-0.3, 506.74), (-12.118, 506.87), (-12.118, 506.74), (-0.3, 506.74), (-0.3, 506.62), (-12.118, 506.74), (-12.118, 506.62)]</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 508.0), (-0.3, 507.85), (-11.663, 508.0), (-11.663, 507.85), (-0.3, 507.85), (-0.3, 507.72), (-11.663, 507.85), (-11.663, 507.72)]</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 509.0), (-0.3, 508.87), (-11.551, 509.0), (-11.551, 508.87), (-0.3, 508.87), (-0.3, 508.75), (-11.551, 508.87), (-11.551, 508.75)]</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 511.0), (-0.3, 510.86), (-11.402, 511.0), (-11.402, 510.86), (-0.3, 510.86), (-0.3, 510.73), (-11.402, 510.86), (-11.402, 510.73)]</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>[(-0.3, 512.0), (-0.3, 511.89), (-4.393, 512.0), (-4.393, 511.89), (-4.393, 512.0), (-4.393, 511.85), (-11.313, 512.0), (-11.313, 511.85), (-0.3, 511.89), (-0.3, 511.63), (-4.393, 511.89), (-4.393, 511.72), (-4.393, 511.85), (-4.393, 511.72), (-11.313, 511.85), (-11.313, 511.55)]</t>
+          <t>[(-0.3, 512.0), (-0.3, 511.87), (-11.313, 512.0), (-11.313, 511.87), (-0.3, 511.87), (-0.3, 511.74), (-11.313, 511.87), (-11.313, 511.74), (-0.3, 511.74), (-0.3, 511.63), (-11.313, 511.74), (-11.313, 511.63)]</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>[(-0.3, 513.0), (-0.3, 512.76), (-4.237, 513.0), (-4.237, 512.76), (-4.237, 513.0), (-4.237, 512.79), (-11.169, 513.0), (-11.169, 512.69), (-0.3, 512.76), (-0.3, 512.52), (-4.237, 512.76), (-4.237, 512.58), (-4.237, 512.79), (-4.237, 512.58), (-11.169, 512.69), (-11.169, 512.38)]</t>
+          <t>[(-0.3, 513.0), (-0.3, 512.84), (-11.169, 513.0), (-11.169, 512.84), (-0.3, 512.84), (-0.3, 512.68), (-11.169, 512.84), (-11.169, 512.68), (-0.3, 512.68), (-0.3, 512.52), (-11.169, 512.68), (-11.169, 512.52)]</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>[(-0.3, 514.0), (-0.3, 513.73), (-4.16, 514.0), (-4.16, 513.73), (-4.16, 514.0), (-4.16, 513.77), (-11.078, 514.0), (-11.078, 513.68), (-0.3, 513.73), (-0.3, 513.47), (-4.16, 513.73), (-4.16, 513.54), (-4.16, 513.77), (-4.16, 513.54), (-11.078, 513.68), (-11.078, 513.36)]</t>
+          <t>[(-0.3, 514.0), (-0.3, 513.86), (-11.078, 514.0), (-11.078, 513.86), (-0.3, 513.86), (-0.3, 513.72), (-11.078, 513.86), (-11.078, 513.72), (-0.3, 513.72), (-0.3, 513.58), (-11.078, 513.72), (-11.078, 513.58), (-0.3, 513.58), (-0.3, 513.47), (-11.078, 513.58), (-11.078, 513.47)]</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>[(-0.3, 515.0), (-0.3, 514.85), (-4.027, 515.0), (-4.027, 514.85), (-4.027, 515.0), (-4.027, 514.72), (-10.92, 515.0), (-10.92, 514.72), (-0.3, 514.85), (-0.3, 514.7), (-4.027, 514.85), (-4.027, 514.7), (-4.027, 514.72), (-4.027, 514.57), (-10.92, 514.72), (-10.92, 514.45), (-0.3, 514.7), (-0.3, 514.58), (-4.027, 514.7), (-4.027, 514.57), (-4.027, 514.57), (-4.027, 514.57), (-10.92, 514.45), (-10.92, 514.45)]</t>
+          <t>[(-0.3, 515.0), (-0.3, 514.85), (-10.92, 515.0), (-10.92, 514.85), (-0.3, 514.85), (-0.3, 514.7), (-10.92, 514.85), (-10.92, 514.7), (-0.3, 514.7), (-0.3, 514.58), (-10.92, 514.7), (-10.92, 514.58)]</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>[(-0.3, 516.0), (-0.3, 515.86), (-3.916, 516.0), (-3.916, 515.86), (-3.916, 516.0), (-3.916, 515.74), (-10.782, 516.0), (-10.782, 515.74), (-0.3, 515.86), (-0.3, 515.72), (-3.916, 515.86), (-3.916, 515.72), (-3.916, 515.74), (-3.916, 515.6), (-10.782, 515.74), (-10.782, 515.48), (-0.3, 515.72), (-0.3, 515.6), (-3.916, 515.72), (-3.916, 515.6), (-3.916, 515.6), (-3.916, 515.6), (-10.782, 515.48), (-10.782, 515.48)]</t>
+          <t>[(-0.3, 516.0), (-0.3, 515.86), (-10.782, 516.0), (-10.782, 515.86), (-0.3, 515.86), (-0.3, 515.72), (-10.782, 515.86), (-10.782, 515.72), (-0.3, 515.72), (-0.3, 515.6), (-10.782, 515.72), (-10.782, 515.6)]</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>[(-0.3, 517.0), (-0.3, 516.79), (-4.131, 517.0), (-4.131, 516.79), (-4.131, 517.0), (-4.131, 516.75), (-10.953, 517.0), (-10.953, 516.75), (-0.3, 516.79), (-0.3, 516.59), (-4.131, 516.79), (-4.131, 516.63), (-4.131, 516.75), (-4.131, 516.63), (-10.953, 516.75), (-10.953, 516.5)]</t>
+          <t>[(-0.3, 517.0), (-0.3, 516.86), (-10.953, 517.0), (-10.953, 516.86), (-0.3, 516.86), (-0.3, 516.72), (-10.953, 516.86), (-10.953, 516.72), (-0.3, 516.72), (-0.3, 516.59), (-10.953, 516.72), (-10.953, 516.59)]</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>[(-0.3, 518.0), (-0.3, 517.77), (-4.733, 518.0), (-4.733, 517.77), (-4.733, 518.0), (-4.733, 517.77), (-11.574, 518.0), (-11.574, 517.68), (-0.3, 517.77), (-0.3, 517.59), (-4.733, 517.77), (-4.733, 517.54), (-4.733, 517.77), (-4.733, 517.54), (-11.574, 517.68), (-11.574, 517.36)]</t>
+          <t>[(-0.3, 518.0), (-0.3, 517.86), (-11.574, 518.0), (-11.574, 517.86), (-0.3, 517.86), (-0.3, 517.72), (-11.574, 517.86), (-11.574, 517.72), (-0.3, 517.72), (-0.3, 517.59), (-11.574, 517.72), (-11.574, 517.59)]</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>[(-0.3, 519.0), (-0.3, 518.75), (-5.234, 519.0), (-5.234, 518.75), (-5.234, 519.0), (-5.234, 518.75), (-12.18, 519.0), (-12.18, 518.66), (-0.3, 518.75), (-0.3, 518.6), (-5.234, 518.75), (-5.234, 518.5), (-5.234, 518.75), (-5.234, 518.5), (-12.18, 518.66), (-12.18, 518.32)]</t>
+          <t>[(-0.3, 519.0), (-0.3, 518.86), (-12.18, 519.0), (-12.18, 518.86), (-0.3, 518.86), (-0.3, 518.72), (-12.18, 518.86), (-12.18, 518.72), (-0.3, 518.72), (-0.3, 518.6), (-12.18, 518.72), (-12.18, 518.6)]</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>[(-0.3, 520.0), (-0.3, 519.73), (-5.555, 520.0), (-5.555, 519.73), (-5.555, 520.0), (-5.555, 519.74), (-12.458, 520.0), (-12.458, 519.66), (-0.3, 519.73), (-0.3, 519.55), (-5.555, 519.73), (-5.555, 519.47), (-5.555, 519.74), (-5.555, 519.48), (-12.458, 519.66), (-12.458, 519.32)]</t>
+          <t>[(-0.3, 520.0), (-0.3, 519.85), (-12.458, 520.0), (-12.458, 519.85), (-0.3, 519.85), (-0.3, 519.7), (-12.458, 519.85), (-12.458, 519.7), (-0.3, 519.7), (-0.3, 519.55), (-12.458, 519.7), (-12.458, 519.55)]</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>[(-0.3, 521.0), (-0.3, 520.75), (-5.537, 521.0), (-5.537, 520.75), (-5.537, 521.0), (-5.537, 520.75), (-12.466, 521.0), (-12.466, 520.67), (-0.3, 520.75), (-0.3, 520.6), (-5.537, 520.75), (-5.537, 520.5), (-5.537, 520.75), (-5.537, 520.5), (-12.466, 520.67), (-12.466, 520.34)]</t>
+          <t>[(-0.3, 521.0), (-0.3, 520.86), (-12.466, 521.0), (-12.466, 520.86), (-0.3, 520.86), (-0.3, 520.72), (-12.466, 520.86), (-12.466, 520.72), (-0.3, 520.72), (-0.3, 520.6), (-12.466, 520.72), (-12.466, 520.6)]</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>[(-0.3, 522.0), (-0.3, 521.77), (-5.217, 522.0), (-5.217, 521.77), (-5.217, 522.0), (-5.217, 521.77), (-12.168, 522.0), (-12.168, 521.67), (-0.3, 521.77), (-0.3, 521.61), (-5.217, 521.77), (-5.217, 521.54), (-5.217, 521.77), (-5.217, 521.54), (-12.168, 521.67), (-12.168, 521.34)]</t>
+          <t>[(-0.3, 522.0), (-0.3, 521.86), (-12.168, 522.0), (-12.168, 521.86), (-0.3, 521.86), (-0.3, 521.72), (-12.168, 521.86), (-12.168, 521.72), (-0.3, 521.72), (-0.3, 521.61), (-12.168, 521.72), (-12.168, 521.61)]</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>[(-0.3, 523.0), (-0.3, 522.81), (-4.758, 523.0), (-4.758, 522.81), (-4.758, 523.0), (-4.758, 522.81), (-11.678, 523.0), (-11.678, 522.71), (-0.3, 522.81), (-0.3, 522.66), (-4.758, 522.81), (-4.758, 522.62), (-4.758, 522.81), (-4.758, 522.62), (-11.678, 522.71), (-11.678, 522.42)]</t>
+          <t>[(-0.3, 523.0), (-0.3, 522.83), (-11.678, 523.0), (-11.678, 522.83), (-0.3, 522.83), (-0.3, 522.66), (-11.678, 522.83), (-11.678, 522.66)]</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>[(-0.3, 524.0), (-0.3, 523.83), (-3.886, 524.0), (-3.886, 523.83), (-3.886, 524.0), (-3.886, 523.84), (-10.769, 524.0), (-10.769, 523.56), (-0.3, 523.83), (-0.3, 523.7), (-3.886, 523.83), (-3.886, 523.67), (-3.886, 523.84), (-3.886, 523.68), (-10.769, 523.56), (-10.769, 523.12)]</t>
+          <t>[(-0.3, 524.0), (-0.3, 523.85), (-10.769, 524.0), (-10.769, 523.85), (-0.3, 523.85), (-0.3, 523.7), (-10.769, 523.85), (-10.769, 523.7)]</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>[(-0.3, 525.0), (-0.3, 524.82), (-2.604, 525.0), (-2.604, 524.82), (-2.604, 525.0), (-2.604, 524.84), (-9.407, 525.0), (-9.407, 524.55), (-0.3, 524.82), (-0.3, 524.64), (-2.604, 524.82), (-2.604, 524.67), (-2.604, 524.84), (-2.604, 524.68), (-9.407, 524.55), (-9.407, 524.1)]</t>
+          <t>[(-0.3, 525.0), (-0.3, 524.82), (-9.407, 525.0), (-9.407, 524.82), (-0.3, 524.82), (-0.3, 524.64), (-9.407, 524.82), (-9.407, 524.64)]</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>[(-0.3, 526.0), (-0.3, 525.82), (-8.305, 526.0), (-8.305, 525.56), (-0.3, 525.82), (-0.3, 525.64), (-8.305, 525.56), (-8.305, 525.12)]</t>
+          <t>[(-0.3, 526.0), (-0.3, 525.82), (-8.305, 526.0), (-8.305, 525.82), (-0.3, 525.82), (-0.3, 525.65), (-8.305, 525.82), (-8.305, 525.71)]</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>[(-0.3, 527.0), (-0.3, 526.82), (-7.338, 527.0), (-7.338, 526.71), (-0.3, 526.82), (-0.3, 526.64), (-7.338, 526.71), (-7.338, 526.42)]</t>
+          <t>[(-0.3, 527.0), (-0.3, 526.89), (-7.338, 527.0), (-7.338, 526.89), (-0.3, 526.89), (-0.3, 526.64), (-7.338, 526.89), (-7.338, 526.73)]</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>[(-0.3, 528.0), (-0.3, 527.81), (-6.61, 528.0), (-6.61, 527.81), (-0.3, 527.81), (-0.3, 527.67), (-6.61, 527.81), (-6.61, 527.51)]</t>
+          <t>[(-0.3, 528.0), (-0.3, 527.83), (-6.61, 528.0), (-6.61, 527.83), (-0.3, 527.83), (-0.3, 527.67), (-6.61, 527.83), (-6.61, 527.71)]</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>[(-0.3, 529.0), (-0.3, 528.89), (-6.439, 529.0), (-6.439, 528.89), (-0.3, 528.89), (-0.3, 528.69), (-6.439, 528.89), (-6.439, 528.59)]</t>
+          <t>[(-0.3, 529.0), (-0.3, 528.84), (-6.439, 529.0), (-6.439, 528.84), (-0.3, 528.84), (-0.3, 528.69), (-6.439, 528.84), (-6.439, 528.69)]</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>[(-0.3, 530.0), (-0.3, 529.78), (-6.65, 530.0), (-6.65, 529.78), (-0.3, 529.78), (-0.3, 529.61), (-6.65, 529.78), (-6.65, 529.57)]</t>
+          <t>[(-0.3, 530.0), (-0.3, 529.79), (-6.65, 530.0), (-6.65, 529.79), (-0.3, 529.79), (-0.3, 529.61), (-6.65, 529.79), (-6.65, 529.58)]</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>[(-0.3, 531.0), (-0.3, 530.8), (-6.883, 531.0), (-6.883, 530.8), (-0.3, 530.8), (-0.3, 530.6), (-6.883, 530.8), (-6.883, 530.68)]</t>
+          <t>[(-0.3, 531.0), (-0.3, 530.78), (-6.883, 531.0), (-6.883, 530.78), (-0.3, 530.78), (-0.3, 530.6), (-6.883, 530.78), (-6.883, 530.56)]</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 532.0), (-0.3, 531.8), (-7.239, 532.0), (-7.239, 531.8), (-0.3, 531.8), (-0.3, 531.66), (-7.239, 531.8), (-7.239, 531.61)]</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>[(-0.3, 533.0), (-0.3, 532.84), (-8.053, 533.0), (-8.053, 532.84), (-0.3, 532.84), (-0.3, 532.68), (-8.053, 532.84), (-8.053, 532.72)]</t>
+          <t>[(-0.3, 533.0), (-0.3, 532.82), (-8.053, 533.0), (-8.053, 532.82), (-0.3, 532.82), (-0.3, 532.68), (-8.053, 532.82), (-8.053, 532.65)]</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>[(-0.3, 534.0), (-0.3, 533.85), (-8.848, 534.0), (-8.848, 533.85), (-0.3, 533.85), (-0.3, 533.73), (-8.848, 533.85), (-8.848, 533.72)]</t>
+          <t>[(-0.3, 534.0), (-0.3, 533.86), (-8.848, 534.0), (-8.848, 533.86), (-0.3, 533.86), (-0.3, 533.73), (-8.848, 533.86), (-8.848, 533.73)]</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>[(-0.3, 535.0), (-0.3, 534.85), (-9.776, 535.0), (-9.776, 534.85), (-0.3, 534.85), (-0.3, 534.74), (-9.776, 534.85), (-9.776, 534.7)]</t>
+          <t>[(-0.3, 535.0), (-0.3, 534.85), (-9.776, 535.0), (-9.776, 534.85), (-0.3, 534.85), (-0.3, 534.74), (-9.776, 534.85), (-9.776, 534.71)]</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 536.0), (-0.3, 535.89), (-7.123, 536.0), (-7.123, 535.89), (-0.3, 535.89), (-0.3, 535.75), (-7.123, 535.89), (-7.123, 535.69)]</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>[(-0.3, 537.0), (-0.3, 536.86), (-7.109, 537.0), (-7.109, 536.86), (-0.3, 536.86), (-0.3, 536.74), (-7.109, 536.86), (-7.109, 536.73)]</t>
+          <t>[(-0.3, 537.0), (-0.3, 536.89), (-7.109, 537.0), (-7.109, 536.89), (-0.3, 536.89), (-0.3, 536.74), (-7.109, 536.89), (-7.109, 536.69)]</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 538.0), (-0.3, 537.83), (-7.046, 538.0), (-7.046, 537.83), (-0.3, 537.83), (-0.3, 537.72), (-7.046, 537.83), (-7.046, 537.67)]</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>[(-0.3, 539.0), (-0.3, 538.85), (-6.982, 539.0), (-6.982, 538.85), (-0.3, 538.85), (-0.3, 538.71), (-6.982, 538.85), (-6.982, 538.7)]</t>
+          <t>[(-0.3, 539.0), (-0.3, 538.84), (-6.982, 539.0), (-6.982, 538.84), (-0.3, 538.84), (-0.3, 538.71), (-6.982, 538.84), (-6.982, 538.69)]</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>[(-0.3, 540.0), (-0.3, 539.85), (-6.919, 540.0), (-6.919, 539.85), (-0.3, 539.85), (-0.3, 539.74), (-6.919, 539.85), (-6.919, 539.7)]</t>
+          <t>[(-0.3, 540.0), (-0.3, 539.86), (-6.919, 540.0), (-6.919, 539.86), (-0.3, 539.86), (-0.3, 539.74), (-6.919, 539.86), (-6.919, 539.75)]</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>[(-0.3, 559.0), (-0.3, 558.86), (-7.618, 559.0), (-7.618, 558.86), (-0.3, 558.86), (-0.3, 558.73), (-7.618, 558.86), (-7.618, 558.75)]</t>
+          <t>[(-0.3, 559.0), (-0.3, 558.85), (-7.618, 559.0), (-7.618, 558.85), (-0.3, 558.85), (-0.3, 558.73), (-7.618, 558.85), (-7.618, 558.71)]</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>[(-0.3, 560.0), (-0.3, 559.82), (-7.298, 560.0), (-7.298, 559.82), (-0.3, 559.82), (-0.3, 559.64), (-7.298, 559.82), (-7.298, 559.69)]</t>
+          <t>[(-0.3, 560.0), (-0.3, 559.82), (-7.298, 560.0), (-7.298, 559.82), (-0.3, 559.82), (-0.3, 559.64), (-7.298, 559.82), (-7.298, 559.64)]</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>[(-0.3, 561.0), (-0.3, 560.82), (-7.039, 561.0), (-7.039, 560.82), (-0.3, 560.82), (-0.3, 560.65), (-7.039, 560.82), (-7.039, 560.69)]</t>
+          <t>[(-0.3, 561.0), (-0.3, 560.81), (-7.039, 561.0), (-7.039, 560.81), (-0.3, 560.81), (-0.3, 560.65), (-7.039, 560.81), (-7.039, 560.62)]</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>[(-0.3, 562.0), (-0.3, 561.89), (-6.683, 562.0), (-6.683, 561.89), (-0.3, 561.89), (-0.3, 561.61), (-6.683, 561.89), (-6.683, 561.72)]</t>
+          <t>[(-0.3, 562.0), (-0.3, 561.86), (-6.683, 562.0), (-6.683, 561.86), (-0.3, 561.86), (-0.3, 561.72), (-6.683, 561.86), (-6.683, 561.72), (-0.3, 561.72), (-0.3, 561.61), (-6.683, 561.72), (-6.683, 561.61)]</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 563.0), (-0.3, 562.86), (-6.372, 563.0), (-6.372, 562.86), (-0.3, 562.86), (-0.3, 562.72), (-6.372, 562.86), (-6.372, 562.72), (-0.3, 562.72), (-0.3, 562.6), (-6.372, 562.72), (-6.372, 562.59)]</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>[(-0.3, 564.0), (-0.3, 563.84), (-6.054, 564.0), (-6.054, 563.84), (-0.3, 563.84), (-0.3, 563.68), (-6.054, 563.84), (-6.054, 563.73)]</t>
+          <t>[(-0.3, 564.0), (-0.3, 563.83), (-6.054, 564.0), (-6.054, 563.83), (-0.3, 563.83), (-0.3, 563.68), (-6.054, 563.83), (-6.054, 563.66)]</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>[(-0.3, 565.0), (-0.3, 564.83), (-5.826, 565.0), (-5.826, 564.83), (-0.3, 564.83), (-0.3, 564.67), (-5.826, 564.83), (-5.826, 564.68)]</t>
+          <t>[(-0.3, 565.0), (-0.3, 564.82), (-5.826, 565.0), (-5.826, 564.82), (-0.3, 564.82), (-0.3, 564.67), (-5.826, 564.82), (-5.826, 564.64)]</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>[(-0.3, 567.0), (-0.3, 566.89), (-5.575, 567.0), (-5.575, 566.89), (-0.3, 566.89), (-0.3, 566.72), (-5.575, 566.89), (-5.575, 566.65)]</t>
+          <t>[(-0.3, 567.0), (-0.3, 566.85), (-5.575, 567.0), (-5.575, 566.85), (-0.3, 566.85), (-0.3, 566.72), (-5.575, 566.85), (-5.575, 566.73)]</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>[(-0.3, 568.0), (-0.3, 567.89), (-5.352, 568.0), (-5.352, 567.89), (-0.3, 567.89), (-0.3, 567.72), (-5.352, 567.89), (-5.352, 567.65)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>[(-0.3, 569.0), (-0.3, 568.89), (-5.076, 569.0), (-5.076, 568.89), (-0.3, 568.89), (-0.3, 568.75), (-5.076, 568.89), (-5.076, 568.62)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>[(-0.3, 570.0), (-0.3, 569.88), (-4.808, 570.0), (-4.808, 569.88), (-0.3, 569.88), (-0.3, 569.75), (-4.808, 569.88), (-4.808, 569.58)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>[(-0.3, 571.0), (-0.3, 570.87), (-4.475, 571.0), (-4.475, 570.87), (-0.3, 570.87), (-0.3, 570.73), (-4.475, 570.87), (-4.475, 570.57)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>[(-0.3, 572.0), (-0.3, 571.82), (-4.178, 572.0), (-4.178, 571.82), (-0.3, 571.82), (-0.3, 571.68), (-4.178, 571.82), (-4.178, 571.52)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>[(-0.3, 573.0), (-0.3, 572.88), (-3.883, 573.0), (-3.883, 572.88), (-0.3, 572.88), (-0.3, 572.69), (-3.883, 572.88), (-3.883, 572.58)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>[(-0.3, 574.0), (-0.3, 573.89), (-3.535, 574.0), (-3.535, 573.89), (-0.3, 573.89), (-0.3, 573.71), (-3.535, 573.89), (-3.535, 573.62)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>[(-0.3, 575.0), (-0.3, 574.89), (-3.088, 575.0), (-3.088, 574.89), (-0.3, 574.89), (-0.3, 574.74), (-3.088, 574.89), (-3.088, 574.69)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>[(-0.3, 576.0), (-0.3, 575.89), (-2.856, 576.0), (-2.856, 575.89), (-0.3, 575.89), (-0.3, 575.73), (-2.856, 575.89), (-2.856, 575.63)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>[(-0.3, 577.0), (-0.3, 576.79), (-2.574, 577.0), (-2.574, 576.79), (-0.3, 576.79), (-0.3, 576.65), (-2.574, 576.79), (-2.574, 576.59)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 578.0), (-0.3, 577.89), (0.0, 578.0), (0.0, 577.89), (-0.3, 577.89), (-0.3, 577.6), (0.0, 577.89), (0.0, 577.74)]</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 579.0), (-0.3, 578.84), (0.0, 579.0), (0.0, 578.84), (0.0, 579.0), (0.0, 578.87), (0.0, 579.0), (0.0, 578.87), (-0.3, 578.84), (-0.3, 578.68), (0.0, 578.84), (0.0, 578.68), (0.0, 578.87), (0.0, 578.57), (0.0, 578.87), (0.0, 578.73), (-0.3, 578.68), (-0.3, 578.53), (0.0, 578.68), (0.0, 578.57), (0.0, 578.57), (0.0, 578.57), (0.0, 578.73), (0.0, 578.73)]</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 580.0), (-0.3, 579.82), (0.0, 580.0), (0.0, 579.82), (0.0, 580.0), (0.0, 579.76), (0.0, 580.0), (0.0, 579.76), (-0.3, 579.82), (-0.3, 579.64), (0.0, 579.82), (0.0, 579.64), (0.0, 579.76), (0.0, 579.53), (0.0, 579.76), (0.0, 579.65), (-0.3, 579.64), (-0.3, 579.47), (0.0, 579.64), (0.0, 579.53), (0.0, 579.53), (0.0, 579.53), (0.0, 579.65), (0.0, 579.65)]</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 581.0), (-0.3, 580.81), (0.0, 581.0), (0.0, 580.81), (0.0, 581.0), (0.0, 580.74), (0.0, 581.0), (0.0, 580.74), (-0.3, 580.81), (-0.3, 580.62), (0.0, 580.81), (0.0, 580.62), (0.0, 580.74), (0.0, 580.49), (0.0, 580.74), (0.0, 580.58), (-0.3, 580.62), (-0.3, 580.45), (0.0, 580.62), (0.0, 580.49), (0.0, 580.49), (0.0, 580.49), (0.0, 580.58), (0.0, 580.58)]</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 582.0), (-0.3, 581.83), (0.0, 582.0), (0.0, 581.83), (0.0, 582.0), (0.0, 581.84), (0.0, 582.0), (0.0, 581.84), (-0.3, 581.83), (-0.3, 581.66), (0.0, 581.83), (0.0, 581.66), (0.0, 581.84), (0.0, 581.68), (0.0, 581.84), (0.0, 581.68), (-0.3, 581.66), (-0.3, 581.49), (0.0, 581.66), (0.0, 581.52), (0.0, 581.68), (0.0, 581.52), (0.0, 581.68), (0.0, 581.53)]</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>[(-0.3, 583.0), (-0.3, 582.82), (-2.817, 583.0), (-2.817, 582.82), (-0.3, 582.82), (-0.3, 582.64), (-2.817, 582.82), (-2.817, 582.64), (-0.3, 582.64), (-0.3, 582.51), (-2.817, 582.64), (-2.817, 582.47)]</t>
+          <t>[(-0.3, 583.0), (-0.3, 582.83), (0.0, 583.0), (0.0, 582.83), (0.0, 583.0), (0.0, 582.83), (-2.817, 583.0), (-2.817, 582.83), (-0.3, 582.83), (-0.3, 582.66), (0.0, 582.83), (0.0, 582.66), (0.0, 582.83), (0.0, 582.66), (-2.817, 582.83), (-2.817, 582.66), (-0.3, 582.66), (-0.3, 582.51), (0.0, 582.66), (0.0, 582.51), (0.0, 582.66), (0.0, 582.51), (-2.817, 582.66), (-2.817, 582.51)]</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>[(-0.3, 584.0), (-0.3, 583.8), (-3.503, 584.0), (-3.503, 583.8), (-0.3, 583.8), (-0.3, 583.6), (-3.503, 583.8), (-3.503, 583.6), (-0.3, 583.6), (-0.3, 583.48), (-3.503, 583.6), (-3.503, 583.42)]</t>
+          <t>[(-0.3, 584.0), (-0.3, 583.82), (0.0, 584.0), (0.0, 583.82), (0.0, 584.0), (0.0, 583.82), (-3.503, 584.0), (-3.503, 583.82), (-0.3, 583.82), (-0.3, 583.64), (0.0, 583.82), (0.0, 583.64), (0.0, 583.82), (0.0, 583.64), (-3.503, 583.82), (-3.503, 583.64), (-0.3, 583.64), (-0.3, 583.48), (0.0, 583.64), (0.0, 583.49), (0.0, 583.64), (0.0, 583.49), (-3.503, 583.64), (-3.503, 583.47)]</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>[(-0.3, 585.0), (-0.3, 584.81), (-4.21, 585.0), (-4.21, 584.81), (-0.3, 584.81), (-0.3, 584.62), (-4.21, 584.81), (-4.21, 584.62), (-0.3, 584.62), (-0.3, 584.49), (-4.21, 584.62), (-4.21, 584.44)]</t>
+          <t>[(-0.3, 585.0), (-0.3, 584.83), (0.0, 585.0), (0.0, 584.83), (0.0, 585.0), (0.0, 584.83), (-4.21, 585.0), (-4.21, 584.83), (-0.3, 584.83), (-0.3, 584.66), (0.0, 584.83), (0.0, 584.66), (0.0, 584.83), (0.0, 584.66), (-4.21, 584.83), (-4.21, 584.66), (-0.3, 584.66), (-0.3, 584.49), (0.0, 584.66), (0.0, 584.54), (0.0, 584.66), (0.0, 584.54), (-4.21, 584.66), (-4.21, 584.49)]</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>[(-0.3, 586.0), (-0.3, 585.86), (-4.773, 586.0), (-4.773, 585.86), (-0.3, 585.86), (-0.3, 585.72), (-4.773, 585.86), (-4.773, 585.72), (-0.3, 585.72), (-0.3, 585.58), (-4.773, 585.72), (-4.773, 585.58), (-0.3, 585.58), (-0.3, 585.45), (-4.773, 585.58), (-4.773, 585.45)]</t>
+          <t>[(-0.3, 586.0), (-0.3, 585.72), (0.0, 586.0), (0.0, 585.72), (0.0, 586.0), (0.0, 585.83), (-4.773, 586.0), (-4.773, 585.83), (-0.3, 585.72), (-0.3, 585.45), (0.0, 585.72), (0.0, 585.54), (0.0, 585.83), (0.0, 585.66), (-4.773, 585.83), (-4.773, 585.66)]</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>[(-0.3, 587.0), (-0.3, 586.81), (-5.262, 587.0), (-5.262, 586.81), (-0.3, 586.81), (-0.3, 586.62), (-5.262, 586.81), (-5.262, 586.62), (-0.3, 586.62), (-0.3, 586.46), (-5.262, 586.62), (-5.262, 586.44)]</t>
+          <t>[(-0.3, 587.0), (-0.3, 586.73), (0.0, 587.0), (0.0, 586.73), (0.0, 587.0), (0.0, 586.77), (-5.262, 587.0), (-5.262, 586.77), (-0.3, 586.73), (-0.3, 586.46), (0.0, 586.73), (0.0, 586.58), (0.0, 586.77), (0.0, 586.58), (-5.262, 586.77), (-5.262, 586.54)]</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>[(-0.3, 588.0), (-0.3, 587.83), (-5.703, 588.0), (-5.703, 587.83), (-0.3, 587.83), (-0.3, 587.66), (-5.703, 587.83), (-5.703, 587.66), (-0.3, 587.66), (-0.3, 587.52), (-5.703, 587.66), (-5.703, 587.5)]</t>
+          <t>[(-0.3, 588.0), (-0.3, 587.76), (0.0, 588.0), (0.0, 587.76), (0.0, 588.0), (0.0, 587.79), (-5.703, 588.0), (-5.703, 587.79), (-0.3, 587.76), (-0.3, 587.52), (0.0, 587.76), (0.0, 587.64), (0.0, 587.79), (0.0, 587.64), (-5.703, 587.79), (-5.703, 587.58)]</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>[(-0.3, 589.0), (-0.3, 588.84), (-6.002, 589.0), (-6.002, 588.84), (-0.3, 588.84), (-0.3, 588.68), (-6.002, 588.84), (-6.002, 588.68), (-0.3, 588.68), (-0.3, 588.57), (-6.002, 588.68), (-6.002, 588.53)]</t>
+          <t>[(-0.3, 589.0), (-0.3, 588.87), (0.0, 589.0), (0.0, 588.87), (0.0, 589.0), (0.0, 588.81), (-6.002, 589.0), (-6.002, 588.81), (-0.3, 588.87), (-0.3, 588.57), (0.0, 588.87), (0.0, 588.68), (0.0, 588.81), (0.0, 588.68), (-6.002, 588.81), (-6.002, 588.62)]</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>[(-0.3, 590.0), (-0.3, 589.85), (-6.096, 590.0), (-6.096, 589.85), (-0.3, 589.85), (-0.3, 589.7), (-6.096, 589.85), (-6.096, 589.7), (-0.3, 589.7), (-0.3, 589.56), (-6.096, 589.7), (-6.096, 589.57)]</t>
+          <t>[(-0.3, 590.0), (-0.3, 589.78), (0.0, 590.0), (0.0, 589.78), (0.0, 590.0), (0.0, 589.8), (-6.096, 590.0), (-6.096, 589.8), (-0.3, 589.78), (-0.3, 589.56), (0.0, 589.78), (0.0, 589.65), (0.0, 589.8), (0.0, 589.65), (-6.096, 589.8), (-6.096, 589.6)]</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>[(-0.3, 591.0), (-0.3, 590.8), (-6.187, 591.0), (-6.187, 590.8), (-0.3, 590.8), (-0.3, 590.61), (-6.187, 590.8), (-6.187, 590.63)]</t>
+          <t>[(-0.3, 591.0), (-0.3, 590.8), (0.0, 591.0), (0.0, 590.8), (0.0, 591.0), (0.0, 590.8), (-6.187, 591.0), (-6.187, 590.8), (-0.3, 590.8), (-0.3, 590.61), (0.0, 590.8), (0.0, 590.69), (0.0, 590.8), (0.0, 590.69), (-6.187, 590.8), (-6.187, 590.6)]</t>
         </is>
       </c>
     </row>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>[(-0.3, 592.0), (-0.3, 591.8), (-6.289, 592.0), (-6.289, 591.8), (-0.3, 591.8), (-0.3, 591.62), (-6.289, 591.8), (-6.289, 591.61)]</t>
+          <t>[(-0.3, 592.0), (-0.3, 591.81), (0.0, 592.0), (0.0, 591.81), (0.0, 592.0), (0.0, 591.81), (-6.289, 592.0), (-6.289, 591.81), (-0.3, 591.81), (-0.3, 591.62), (0.0, 591.81), (0.0, 591.7), (0.0, 591.81), (0.0, 591.7), (-6.289, 591.81), (-6.289, 591.62)]</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>[(-0.3, 593.0), (-0.3, 592.85), (-6.402, 593.0), (-6.402, 592.85), (-0.3, 592.85), (-0.3, 592.7), (-6.402, 592.85), (-6.402, 592.7), (-0.3, 592.7), (-0.3, 592.56), (-6.402, 592.7), (-6.402, 592.55)]</t>
+          <t>[(-0.3, 593.0), (-0.3, 592.78), (0.0, 593.0), (0.0, 592.78), (0.0, 593.0), (0.0, 592.79), (-6.402, 593.0), (-6.402, 592.79), (-0.3, 592.78), (-0.3, 592.56), (0.0, 592.78), (0.0, 592.66), (0.0, 592.79), (0.0, 592.66), (-6.402, 592.79), (-6.402, 592.59)]</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>[(-0.3, 594.0), (-0.3, 593.84), (-6.422, 594.0), (-6.422, 593.84), (-0.3, 593.84), (-0.3, 593.68), (-6.422, 593.84), (-6.422, 593.68), (-0.3, 593.68), (-0.3, 593.54), (-6.422, 593.68), (-6.422, 593.52)]</t>
+          <t>[(-0.3, 594.0), (-0.3, 593.77), (0.0, 594.0), (0.0, 593.77), (0.0, 594.0), (0.0, 593.77), (-6.422, 594.0), (-6.422, 593.77), (-0.3, 593.77), (-0.3, 593.54), (0.0, 593.77), (0.0, 593.61), (0.0, 593.77), (0.0, 593.61), (-6.422, 593.77), (-6.422, 593.55)]</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>[(-0.3, 595.0), (-0.3, 594.83), (-6.296, 595.0), (-6.296, 594.83), (-0.3, 594.83), (-0.3, 594.66), (-6.296, 594.83), (-6.296, 594.66), (-0.3, 594.66), (-0.3, 594.51), (-6.296, 594.66), (-6.296, 594.49)]</t>
+          <t>[(-0.3, 595.0), (-0.3, 594.75), (0.0, 595.0), (0.0, 594.75), (0.0, 595.0), (0.0, 594.76), (-6.296, 595.0), (-6.296, 594.76), (-0.3, 594.75), (-0.3, 594.51), (0.0, 594.75), (0.0, 594.58), (0.0, 594.76), (0.0, 594.58), (-6.296, 594.76), (-6.296, 594.53)]</t>
         </is>
       </c>
     </row>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>[(-0.3, 596.0), (-0.3, 595.78), (-6.131, 596.0), (-6.131, 595.78), (-0.3, 595.78), (-0.3, 595.61), (-6.131, 595.78), (-6.131, 595.56)]</t>
+          <t>[(-0.3, 596.0), (-0.3, 595.89), (0.0, 596.0), (0.0, 595.89), (0.0, 596.0), (0.0, 595.84), (-6.131, 596.0), (-6.131, 595.84), (-0.3, 595.89), (-0.3, 595.61), (0.0, 595.89), (0.0, 595.72), (0.0, 595.84), (0.0, 595.72), (-6.131, 595.84), (-6.131, 595.69)]</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>[(-0.3, 597.0), (-0.3, 596.8), (-6.058, 597.0), (-6.058, 596.8), (-0.3, 596.8), (-0.3, 596.61), (-6.058, 596.8), (-6.058, 596.64)]</t>
+          <t>[(-0.3, 597.0), (-0.3, 596.8), (0.0, 597.0), (0.0, 596.8), (0.0, 597.0), (0.0, 596.83), (-6.058, 597.0), (-6.058, 596.83), (-0.3, 596.8), (-0.3, 596.61), (0.0, 596.8), (0.0, 596.68), (0.0, 596.83), (0.0, 596.68), (-6.058, 596.83), (-6.058, 596.67)]</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>[(-0.3, 598.0), (-0.3, 597.83), (-6.146, 598.0), (-6.146, 597.83), (-0.3, 597.83), (-0.3, 597.53), (-6.146, 597.83), (-6.146, 597.71)]</t>
+          <t>[(-0.3, 598.0), (-0.3, 597.84), (0.0, 598.0), (0.0, 597.84), (0.0, 598.0), (0.0, 597.85), (-6.146, 598.0), (-6.146, 597.85), (-0.3, 597.84), (-0.3, 597.68), (0.0, 597.84), (0.0, 597.68), (0.0, 597.85), (0.0, 597.7), (-6.146, 597.85), (-6.146, 597.7), (-0.3, 597.68), (-0.3, 597.53), (0.0, 597.68), (0.0, 597.57), (0.0, 597.7), (0.0, 597.57), (-6.146, 597.7), (-6.146, 597.58)]</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>[(-0.3, 599.0), (-0.3, 598.82), (-6.221, 599.0), (-6.221, 598.82), (-0.3, 598.82), (-0.3, 598.64), (-6.221, 598.82), (-6.221, 598.64), (-0.3, 598.64), (-0.3, 598.48), (-6.221, 598.64), (-6.221, 598.53)]</t>
+          <t>[(-0.3, 599.0), (-0.3, 598.74), (0.0, 599.0), (0.0, 598.74), (0.0, 599.0), (0.0, 598.85), (-6.221, 599.0), (-6.221, 598.85), (-0.3, 598.74), (-0.3, 598.48), (0.0, 598.74), (0.0, 598.55), (0.0, 598.85), (0.0, 598.7), (-6.221, 598.85), (-6.221, 598.7)]</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>[(-0.3, 600.0), (-0.3, 599.72), (-6.222, 600.0), (-6.222, 599.72), (-0.3, 599.72), (-0.3, 599.45), (-6.222, 599.72), (-6.222, 599.57)]</t>
+          <t>[(-0.3, 600.0), (-0.3, 599.81), (0.0, 600.0), (0.0, 599.81), (0.0, 600.0), (0.0, 599.83), (-6.222, 600.0), (-6.222, 599.83), (-0.3, 599.81), (-0.3, 599.62), (0.0, 599.81), (0.0, 599.62), (0.0, 599.83), (0.0, 599.66), (-6.222, 599.83), (-6.222, 599.66), (-0.3, 599.62), (-0.3, 599.45), (0.0, 599.62), (0.0, 599.49), (0.0, 599.66), (0.0, 599.49), (-6.222, 599.66), (-6.222, 599.54)]</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>[(-0.3, 601.0), (-0.3, 600.76), (-6.155, 601.0), (-6.155, 600.76), (-0.3, 600.76), (-0.3, 600.46), (-6.155, 600.76), (-6.155, 600.63)]</t>
+          <t>[(-0.3, 601.0), (-0.3, 600.82), (0.0, 601.0), (0.0, 600.82), (0.0, 601.0), (0.0, 600.83), (-6.155, 601.0), (-6.155, 600.83), (-0.3, 600.82), (-0.3, 600.64), (0.0, 600.82), (0.0, 600.64), (0.0, 600.83), (0.0, 600.66), (-6.155, 600.83), (-6.155, 600.66), (-0.3, 600.64), (-0.3, 600.46), (0.0, 600.64), (0.0, 600.52), (0.0, 600.66), (0.0, 600.52), (-6.155, 600.66), (-6.155, 600.51)]</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>[(-0.3, 602.0), (-0.3, 601.74), (-6.006, 602.0), (-6.006, 601.86), (-0.3, 601.74), (-0.3, 601.48), (-6.006, 601.86), (-6.006, 601.72)]</t>
+          <t>[(-0.3, 602.0), (-0.3, 601.82), (0.0, 602.0), (0.0, 601.82), (0.0, 602.0), (0.0, 601.81), (-6.006, 602.0), (-6.006, 601.81), (-0.3, 601.82), (-0.3, 601.64), (0.0, 601.82), (0.0, 601.64), (0.0, 601.81), (0.0, 601.62), (-6.006, 601.81), (-6.006, 601.62), (-0.3, 601.64), (-0.3, 601.47), (0.0, 601.64), (0.0, 601.5), (0.0, 601.62), (0.0, 601.5), (-6.006, 601.62), (-6.006, 601.44)]</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>[(-0.3, 603.0), (-0.3, 602.76), (-5.889, 603.0), (-5.889, 602.88), (-0.3, 602.76), (-0.3, 602.52), (-5.889, 602.88), (-5.889, 602.76)]</t>
+          <t>[(-0.3, 603.0), (-0.3, 602.84), (0.0, 603.0), (0.0, 602.84), (0.0, 603.0), (0.0, 602.72), (-5.889, 603.0), (-5.889, 602.72), (-0.3, 602.84), (-0.3, 602.68), (0.0, 602.84), (0.0, 602.68), (0.0, 602.72), (0.0, 602.54), (-5.889, 602.72), (-5.889, 602.45), (-0.3, 602.68), (-0.3, 602.53), (0.0, 602.68), (0.0, 602.54), (0.0, 602.54), (0.0, 602.54), (-5.889, 602.45), (-5.889, 602.45)]</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 604.0), (-0.3, 603.84), (0.0, 604.0), (0.0, 603.84), (0.0, 604.0), (0.0, 603.72), (-5.788, 604.0), (-5.788, 603.72), (-0.3, 603.84), (-0.3, 603.68), (0.0, 603.84), (0.0, 603.68), (0.0, 603.72), (0.0, 603.55), (-5.788, 603.72), (-5.788, 603.44), (-0.3, 603.68), (-0.3, 603.53), (0.0, 603.68), (0.0, 603.55), (0.0, 603.55), (0.0, 603.55), (-5.788, 603.44), (-5.788, 603.44)]</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>[(-0.3, 605.0), (-0.3, 604.76), (-5.663, 605.0), (-5.663, 604.87), (-0.3, 604.76), (-0.3, 604.52), (-5.663, 604.87), (-5.663, 604.74)]</t>
+          <t>[(-0.3, 605.0), (-0.3, 604.83), (0.0, 605.0), (0.0, 604.83), (0.0, 605.0), (0.0, 604.84), (-5.663, 605.0), (-5.663, 604.84), (-0.3, 604.83), (-0.3, 604.66), (0.0, 604.83), (0.0, 604.66), (0.0, 604.84), (0.0, 604.68), (-5.663, 604.84), (-5.663, 604.68), (-0.3, 604.66), (-0.3, 604.51), (0.0, 604.66), (0.0, 604.52), (0.0, 604.68), (0.0, 604.52), (-5.663, 604.68), (-5.663, 604.52)]</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>[(-0.3, 606.0), (-0.3, 605.74), (-5.511, 606.0), (-5.511, 605.85), (-0.3, 605.74), (-0.3, 605.48), (-5.511, 605.85), (-5.511, 605.7)]</t>
+          <t>[(-0.3, 606.0), (-0.3, 605.83), (0.0, 606.0), (0.0, 605.83), (0.0, 606.0), (0.0, 605.84), (-5.511, 606.0), (-5.511, 605.84), (-0.3, 605.83), (-0.3, 605.66), (0.0, 605.83), (0.0, 605.66), (0.0, 605.84), (0.0, 605.68), (-5.511, 605.84), (-5.511, 605.68), (-0.3, 605.66), (-0.3, 605.49), (0.0, 605.66), (0.0, 605.52), (0.0, 605.68), (0.0, 605.52), (-5.511, 605.68), (-5.511, 605.53)]</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>[(-0.3, 607.0), (-0.3, 606.74), (-5.47, 607.0), (-5.47, 606.85), (-0.3, 606.74), (-0.3, 606.48), (-5.47, 606.85), (-5.47, 606.7)]</t>
+          <t>[(-0.3, 607.0), (-0.3, 606.82), (0.0, 607.0), (0.0, 606.82), (0.0, 607.0), (0.0, 606.83), (-5.47, 607.0), (-5.47, 606.83), (-0.3, 606.82), (-0.3, 606.64), (0.0, 606.82), (0.0, 606.64), (0.0, 606.83), (0.0, 606.66), (-5.47, 606.83), (-5.47, 606.66), (-0.3, 606.64), (-0.3, 606.48), (0.0, 606.64), (0.0, 606.51), (0.0, 606.66), (0.0, 606.51), (-5.47, 606.66), (-5.47, 606.5)]</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>[(-0.3, 608.0), (-0.3, 607.77), (-5.416, 608.0), (-5.416, 607.77), (-0.3, 607.77), (-0.3, 607.47), (-5.416, 607.77), (-5.416, 607.66)]</t>
+          <t>[(-0.3, 608.0), (-0.3, 607.82), (0.0, 608.0), (0.0, 607.82), (0.0, 608.0), (0.0, 607.84), (-5.416, 608.0), (-5.416, 607.84), (-0.3, 607.82), (-0.3, 607.64), (0.0, 607.82), (0.0, 607.64), (0.0, 607.84), (0.0, 607.68), (-5.416, 607.84), (-5.416, 607.68), (-0.3, 607.64), (-0.3, 607.47), (0.0, 607.64), (0.0, 607.52), (0.0, 607.68), (0.0, 607.52), (-5.416, 607.68), (-5.416, 607.54)]</t>
         </is>
       </c>
     </row>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>[(-0.3, 609.0), (-0.3, 608.81), (-5.474, 609.0), (-5.474, 608.81), (-0.3, 608.81), (-0.3, 608.51), (-5.474, 608.81), (-5.474, 608.67)]</t>
+          <t>[(-0.3, 609.0), (-0.3, 608.83), (0.0, 609.0), (0.0, 608.83), (0.0, 609.0), (0.0, 608.85), (-5.474, 609.0), (-5.474, 608.85), (-0.3, 608.83), (-0.3, 608.66), (0.0, 608.83), (0.0, 608.66), (0.0, 608.85), (0.0, 608.7), (-5.474, 608.85), (-5.474, 608.7), (-0.3, 608.66), (-0.3, 608.51), (0.0, 608.66), (0.0, 608.55), (0.0, 608.7), (0.0, 608.55), (-5.474, 608.7), (-5.474, 608.55)]</t>
         </is>
       </c>
     </row>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>[(-0.3, 610.0), (-0.3, 609.82), (-5.528, 610.0), (-5.528, 609.82), (-0.3, 609.82), (-0.3, 609.52), (-5.528, 609.82), (-5.528, 609.68)]</t>
+          <t>[(-0.3, 610.0), (-0.3, 609.84), (0.0, 610.0), (0.0, 609.84), (0.0, 610.0), (0.0, 609.76), (-5.528, 610.0), (-5.528, 609.76), (-0.3, 609.84), (-0.3, 609.68), (0.0, 609.84), (0.0, 609.68), (0.0, 609.76), (0.0, 609.53), (-5.528, 609.76), (-5.528, 609.58), (-0.3, 609.68), (-0.3, 609.52), (0.0, 609.68), (0.0, 609.53), (0.0, 609.53), (0.0, 609.53), (-5.528, 609.58), (-5.528, 609.58)]</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>[(-0.3, 611.0), (-0.3, 610.78), (-5.578, 611.0), (-5.578, 610.78), (-0.3, 610.78), (-0.3, 610.56), (-5.578, 610.78), (-5.578, 610.65)]</t>
+          <t>[(-0.3, 611.0), (-0.3, 610.78), (0.0, 611.0), (0.0, 610.78), (0.0, 611.0), (0.0, 610.87), (-5.578, 611.0), (-5.578, 610.87), (-0.3, 610.78), (-0.3, 610.56), (0.0, 610.78), (0.0, 610.63), (0.0, 610.87), (0.0, 610.74), (-5.578, 610.87), (-5.578, 610.74)]</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>[(-0.3, 612.0), (-0.3, 611.84), (-5.642, 612.0), (-5.642, 611.84), (-0.3, 611.84), (-0.3, 611.68), (-5.642, 611.84), (-5.642, 611.68), (-0.3, 611.68), (-0.3, 611.55), (-5.642, 611.68), (-5.642, 611.52)]</t>
+          <t>[(-0.3, 612.0), (-0.3, 611.85), (0.0, 612.0), (0.0, 611.85), (0.0, 612.0), (0.0, 611.84), (-5.642, 612.0), (-5.642, 611.84), (-0.3, 611.85), (-0.3, 611.55), (0.0, 611.85), (0.0, 611.7), (0.0, 611.84), (0.0, 611.7), (-5.642, 611.84), (-5.642, 611.68)]</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>[(-0.3, 613.0), (-0.3, 612.76), (-5.707, 613.0), (-5.707, 612.76), (-0.3, 612.76), (-0.3, 612.59), (-5.707, 612.76), (-5.707, 612.53)]</t>
+          <t>[(-0.3, 613.0), (-0.3, 612.89), (0.0, 613.0), (0.0, 612.89), (0.0, 613.0), (0.0, 612.84), (-5.707, 613.0), (-5.707, 612.84), (-0.3, 612.89), (-0.3, 612.59), (0.0, 612.89), (0.0, 612.72), (0.0, 612.84), (0.0, 612.72), (-5.707, 612.84), (-5.707, 612.68)]</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>[(-0.3, 614.0), (-0.3, 613.78), (-5.693, 614.0), (-5.693, 613.78), (-0.3, 613.78), (-0.3, 613.61), (-5.693, 613.78), (-5.693, 613.57)]</t>
+          <t>[(-0.3, 614.0), (-0.3, 613.89), (0.0, 614.0), (0.0, 613.89), (0.0, 614.0), (0.0, 613.87), (-5.693, 614.0), (-5.693, 613.87), (-0.3, 613.89), (-0.3, 613.61), (0.0, 613.89), (0.0, 613.75), (0.0, 613.87), (0.0, 613.75), (-5.693, 613.87), (-5.693, 613.75)]</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>[(-0.3, 615.0), (-0.3, 614.82), (-5.737, 615.0), (-5.737, 614.82), (-0.3, 614.82), (-0.3, 614.65), (-5.737, 614.82), (-5.737, 614.64)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>[(-0.3, 616.0), (-0.3, 615.83), (-5.754, 616.0), (-5.754, 615.83), (-0.3, 615.83), (-0.3, 615.72), (-5.754, 615.83), (-5.754, 615.67)]</t>
+          <t>[(-0.3, 616.0), (-0.3, 615.85), (0.0, 616.0), (0.0, 615.85), (0.0, 616.0), (0.0, 615.86), (-5.754, 616.0), (-5.754, 615.71), (-0.3, 615.85), (-0.3, 615.72), (0.0, 615.85), (0.0, 615.71), (0.0, 615.86), (0.0, 615.72), (-5.754, 615.71), (-5.754, 615.42)]</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>[(-0.3, 617.0), (-0.3, 616.82), (-5.745, 617.0), (-5.745, 616.82), (-0.3, 616.82), (-0.3, 616.69), (-5.745, 616.82), (-5.745, 616.64)]</t>
+          <t>[(-0.3, 617.0), (-0.3, 616.84), (0.0, 617.0), (0.0, 616.84), (0.0, 617.0), (0.0, 616.84), (-5.745, 617.0), (-5.745, 616.66), (-0.3, 616.84), (-0.3, 616.69), (0.0, 616.84), (0.0, 616.69), (0.0, 616.84), (0.0, 616.68), (-5.745, 616.66), (-5.745, 616.32)]</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>[(-0.3, 618.0), (-0.3, 617.85), (-5.566, 618.0), (-5.566, 617.85), (-0.3, 617.85), (-0.3, 617.72), (-5.566, 617.85), (-5.566, 617.7)]</t>
+          <t>[(-0.3, 618.0), (-0.3, 617.85), (0.0, 618.0), (0.0, 617.85), (0.0, 618.0), (0.0, 617.86), (-5.566, 618.0), (-5.566, 617.7), (-0.3, 617.85), (-0.3, 617.72), (0.0, 617.85), (0.0, 617.72), (0.0, 617.86), (0.0, 617.72), (-5.566, 617.7), (-5.566, 617.4)]</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 619.0), (-0.3, 618.85), (0.0, 619.0), (0.0, 618.85), (0.0, 619.0), (0.0, 618.86), (-5.428, 619.0), (-5.428, 618.71), (-0.3, 618.85), (-0.3, 618.72), (0.0, 618.85), (0.0, 618.72), (0.0, 618.86), (0.0, 618.72), (-5.428, 618.71), (-5.428, 618.42)]</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>[(-0.3, 620.0), (-0.3, 619.85), (-5.379, 620.0), (-5.379, 619.85), (-0.3, 619.85), (-0.3, 619.72), (-5.379, 619.85), (-5.379, 619.72)]</t>
+          <t>[(-0.3, 620.0), (-0.3, 619.84), (0.0, 620.0), (0.0, 619.84), (0.0, 620.0), (0.0, 619.84), (-5.379, 620.0), (-5.379, 619.74), (-0.3, 619.84), (-0.3, 619.72), (0.0, 619.84), (0.0, 619.68), (0.0, 619.84), (0.0, 619.68), (-5.379, 619.74), (-5.379, 619.48)]</t>
         </is>
       </c>
     </row>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 621.0), (-0.3, 620.86), (0.0, 621.0), (0.0, 620.86), (0.0, 621.0), (0.0, 620.88), (-5.488, 621.0), (-5.488, 620.88), (-0.3, 620.86), (-0.3, 620.74), (0.0, 620.86), (0.0, 620.73), (0.0, 620.88), (0.0, 620.73), (-5.488, 620.88), (-5.488, 620.58)]</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>[(-0.3, 622.0), (-0.3, 621.84), (-5.574, 622.0), (-5.574, 621.84), (-0.3, 621.84), (-0.3, 621.68), (-5.574, 621.84), (-5.574, 621.73)]</t>
+          <t>[(-0.3, 622.0), (-0.3, 621.84), (0.0, 622.0), (0.0, 621.84), (0.0, 622.0), (0.0, 621.89), (-5.574, 622.0), (-5.574, 621.89), (-0.3, 621.84), (-0.3, 621.68), (0.0, 621.84), (0.0, 621.7), (0.0, 621.89), (0.0, 621.7), (-5.574, 621.89), (-5.574, 621.61)]</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>[(-0.3, 623.0), (-0.3, 622.89), (-5.733, 623.0), (-5.733, 622.89), (-0.3, 622.89), (-0.3, 622.67), (-5.733, 622.89), (-5.733, 622.73)]</t>
+          <t>[(-0.3, 623.0), (-0.3, 622.82), (0.0, 623.0), (0.0, 622.82), (0.0, 623.0), (0.0, 622.78), (-5.733, 623.0), (-5.733, 622.78), (-0.3, 622.82), (-0.3, 622.67), (0.0, 622.82), (0.0, 622.64), (0.0, 622.78), (0.0, 622.64), (-5.733, 622.78), (-5.733, 622.56)]</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>[(-0.3, 624.0), (-0.3, 623.82), (-5.937, 624.0), (-5.937, 623.82), (-0.3, 623.82), (-0.3, 623.65), (-5.937, 623.82), (-5.937, 623.68)]</t>
+          <t>[(-0.3, 624.0), (-0.3, 623.8), (0.0, 624.0), (0.0, 623.8), (0.0, 624.0), (0.0, 623.75), (-5.937, 624.0), (-5.937, 623.75), (-0.3, 623.8), (-0.3, 623.65), (0.0, 623.8), (0.0, 623.61), (0.0, 623.75), (0.0, 623.61), (-5.937, 623.75), (-5.937, 623.51)]</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>[(-0.3, 625.0), (-0.3, 624.8), (-6.034, 625.0), (-6.034, 624.8), (-0.3, 624.8), (-0.3, 624.61), (-6.034, 624.8), (-6.034, 624.64)]</t>
+          <t>[(-0.3, 625.0), (-0.3, 624.86), (0.0, 625.0), (0.0, 624.86), (0.0, 625.0), (0.0, 624.74), (-6.034, 625.0), (-6.034, 624.74), (-0.3, 624.86), (-0.3, 624.72), (0.0, 624.86), (0.0, 624.72), (0.0, 624.74), (0.0, 624.59), (-6.034, 624.74), (-6.034, 624.49), (-0.3, 624.72), (-0.3, 624.61), (0.0, 624.72), (0.0, 624.59), (0.0, 624.59), (0.0, 624.59), (-6.034, 624.49), (-6.034, 624.49)]</t>
         </is>
       </c>
     </row>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>[(-0.3, 626.0), (-0.3, 625.78), (-6.25, 626.0), (-6.25, 625.78), (-0.3, 625.78), (-0.3, 625.57), (-6.25, 625.78), (-6.25, 625.6)]</t>
+          <t>[(-0.3, 626.0), (-0.3, 625.85), (0.0, 626.0), (0.0, 625.85), (0.0, 626.0), (0.0, 625.73), (-6.25, 626.0), (-6.25, 625.73), (-0.3, 625.85), (-0.3, 625.7), (0.0, 625.85), (0.0, 625.7), (0.0, 625.73), (0.0, 625.56), (-6.25, 625.73), (-6.25, 625.46), (-0.3, 625.7), (-0.3, 625.57), (0.0, 625.7), (0.0, 625.56), (0.0, 625.56), (0.0, 625.56), (-6.25, 625.46), (-6.25, 625.46)]</t>
         </is>
       </c>
     </row>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>[(-0.3, 627.0), (-0.3, 626.78), (-6.434, 627.0), (-6.434, 626.78), (-0.3, 626.78), (-0.3, 626.56), (-6.434, 626.78), (-6.434, 626.6)]</t>
+          <t>[(-0.3, 627.0), (-0.3, 626.73), (-6.434, 627.0), (-6.434, 626.73), (-0.3, 626.73), (-0.3, 626.56), (-6.434, 626.73), (-6.434, 626.46)]</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>[(-0.3, 628.0), (-0.3, 627.78), (-6.611, 628.0), (-6.611, 627.78), (-0.3, 627.78), (-0.3, 627.57), (-6.611, 627.78), (-6.611, 627.61)]</t>
+          <t>[(-0.3, 628.0), (-0.3, 627.72), (-6.611, 628.0), (-6.611, 627.72), (-0.3, 627.72), (-0.3, 627.57), (-6.611, 627.72), (-6.611, 627.44)]</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>[(-0.3, 629.0), (-0.3, 628.79), (-6.849, 629.0), (-6.849, 628.79), (-0.3, 628.79), (-0.3, 628.58), (-6.849, 628.79), (-6.849, 628.64)]</t>
+          <t>[(-0.3, 629.0), (-0.3, 628.72), (-6.849, 629.0), (-6.849, 628.72), (-0.3, 628.72), (-0.3, 628.58), (-6.849, 628.72), (-6.849, 628.45)]</t>
         </is>
       </c>
     </row>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>[(-0.3, 630.0), (-0.3, 629.77), (-7.077, 630.0), (-7.077, 629.77), (-0.3, 629.77), (-0.3, 629.54), (-7.077, 629.77), (-7.077, 629.6)]</t>
+          <t>[(-0.3, 630.0), (-0.3, 629.73), (-7.077, 630.0), (-7.077, 629.73), (-0.3, 629.73), (-0.3, 629.54), (-7.077, 629.73), (-7.077, 629.46)]</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>[(-0.3, 631.0), (-0.3, 630.81), (-7.33, 631.0), (-7.33, 630.81), (-0.3, 630.81), (-0.3, 630.62), (-7.33, 630.81), (-7.33, 630.64)]</t>
+          <t>[(-0.3, 631.0), (-0.3, 630.73), (-7.33, 631.0), (-7.33, 630.73), (-0.3, 630.73), (-0.3, 630.62), (-7.33, 630.73), (-7.33, 630.47)]</t>
         </is>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>[(-0.3, 632.0), (-0.3, 631.83), (-7.345, 632.0), (-7.345, 631.83), (-0.3, 631.83), (-0.3, 631.67), (-7.345, 631.83), (-7.345, 631.72)]</t>
+          <t>[(-0.3, 632.0), (-0.3, 631.78), (-7.345, 632.0), (-7.345, 631.78), (-0.3, 631.78), (-0.3, 631.67), (-7.345, 631.78), (-7.345, 631.57)]</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 633.0), (-0.3, 632.89), (-7.24, 633.0), (-7.24, 632.89), (-0.3, 632.89), (-0.3, 632.71), (-7.24, 632.89), (-7.24, 632.62)]</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(-0.3, 636.0), (-0.3, 635.89), (-6.963, 636.0), (-6.963, 635.89), (-0.3, 635.89), (-0.3, 635.75), (-6.963, 635.89), (-6.963, 635.59)]</t>
         </is>
       </c>
     </row>

--- a/output/layerCoordinates_right.xlsx
+++ b/output/layerCoordinates_right.xlsx
@@ -747,7 +747,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[(-0.3, 32.0), (-0.3, 31.84), (0.0, 32.0), (0.0, 31.84), (0.0, 32.0), (0.0, 31.85), (-5.304, 32.0), (-5.304, 31.85), (-0.3, 31.84), (-0.3, 31.68), (0.0, 31.84), (0.0, 31.72), (0.0, 31.85), (0.0, 31.72), (-5.304, 31.85), (-5.304, 31.73)]</t>
+          <t>[(0.3, 32.0), (0.3, 31.84), (3.048, 32.0), (3.048, 31.84), (3.048, 32.0), (3.048, 31.85), (9.854, 32.0), (9.854, 31.85), (0.3, 31.84), (0.3, 31.68), (3.048, 31.84), (3.048, 31.72), (3.048, 31.85), (3.048, 31.72), (9.854, 31.85), (9.854, 31.73)]</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[(-0.3, 33.0), (-0.3, 32.81), (0.0, 33.0), (0.0, 32.81), (0.0, 33.0), (0.0, 32.83), (-4.806, 33.0), (-4.806, 32.83), (-0.3, 32.81), (-0.3, 32.63), (0.0, 32.81), (0.0, 32.67), (0.0, 32.83), (0.0, 32.67), (-4.806, 32.83), (-4.806, 32.68)]</t>
+          <t>[(0.3, 33.0), (0.3, 32.81), (3.233, 33.0), (3.233, 32.81), (3.233, 33.0), (3.233, 32.83), (9.646, 33.0), (9.646, 32.83), (0.3, 32.81), (0.3, 32.63), (3.233, 32.81), (3.233, 32.67), (3.233, 32.83), (3.233, 32.67), (9.646, 32.83), (9.646, 32.68)]</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[(-0.3, 34.0), (-0.3, 33.89), (0.0, 34.0), (0.0, 33.89), (0.0, 34.0), (0.0, 33.89), (-3.873, 34.0), (-3.873, 33.89), (-0.3, 33.89), (-0.3, 33.62), (0.0, 33.89), (0.0, 33.73), (0.0, 33.89), (0.0, 33.73), (-3.873, 33.89), (-3.873, 33.63)]</t>
+          <t>[(0.3, 34.0), (0.3, 33.89), (3.417, 34.0), (3.417, 33.89), (3.417, 34.0), (3.417, 33.89), (9.666, 34.0), (9.666, 33.89), (0.3, 33.89), (0.3, 33.62), (3.417, 33.89), (3.417, 33.73), (3.417, 33.89), (3.417, 33.73), (9.666, 33.89), (9.666, 33.63)]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[(-0.3, 35.0), (-0.3, 34.78), (0.0, 35.0), (0.0, 34.78), (0.0, 35.0), (0.0, 34.86), (-2.676, 35.0), (-2.676, 34.86), (-0.3, 34.78), (-0.3, 34.57), (0.0, 34.78), (0.0, 34.6), (0.0, 34.86), (0.0, 34.72), (-2.676, 34.86), (-2.676, 34.72)]</t>
+          <t>[(0.3, 35.0), (0.3, 34.78), (3.455, 35.0), (3.455, 34.78), (3.455, 35.0), (3.455, 34.86), (9.825, 35.0), (9.825, 34.86), (0.3, 34.78), (0.3, 34.57), (3.455, 34.78), (3.455, 34.6), (3.455, 34.86), (3.455, 34.72), (9.825, 34.86), (9.825, 34.72)]</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[(-0.3, 36.0), (-0.3, 35.78), (0.0, 36.0), (0.0, 35.78), (0.0, 36.0), (0.0, 35.76), (0.0, 36.0), (0.0, 35.76), (-0.3, 35.78), (-0.3, 35.57), (0.0, 35.78), (0.0, 35.6), (0.0, 35.76), (0.0, 35.6), (0.0, 35.76), (0.0, 35.52)]</t>
+          <t>[(0.3, 36.0), (0.3, 35.78), (3.501, 36.0), (3.501, 35.78), (3.501, 36.0), (3.501, 35.76), (9.912, 36.0), (9.912, 35.76), (0.3, 35.78), (0.3, 35.57), (3.501, 35.78), (3.501, 35.6), (3.501, 35.76), (3.501, 35.6), (9.912, 35.76), (9.912, 35.52)]</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[(-0.3, 37.0), (-0.3, 36.78), (0.0, 37.0), (0.0, 36.78), (0.0, 37.0), (0.0, 36.82), (0.0, 37.0), (0.0, 36.82), (-0.3, 36.78), (-0.3, 36.56), (0.0, 36.78), (0.0, 36.65), (0.0, 36.82), (0.0, 36.65), (0.0, 36.82), (0.0, 36.69)]</t>
+          <t>[(0.3, 37.0), (0.3, 36.78), (3.543, 37.0), (3.543, 36.78), (3.543, 37.0), (3.543, 36.82), (10.008, 37.0), (10.008, 36.82), (0.3, 36.78), (0.3, 36.56), (3.543, 36.78), (3.543, 36.65), (3.543, 36.82), (3.543, 36.65), (10.008, 36.82), (10.008, 36.69)]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[(-0.3, 39.0), (-0.3, 38.79), (0.0, 39.0), (0.0, 38.79), (0.0, 39.0), (0.0, 38.89), (0.0, 39.0), (0.0, 38.89), (-0.3, 38.79), (-0.3, 38.49), (0.0, 38.79), (0.0, 38.64), (0.0, 38.89), (0.0, 38.64), (0.0, 38.89), (0.0, 38.72)]</t>
+          <t>[(0.3, 39.0), (0.3, 38.79), (3.576, 39.0), (3.576, 38.79), (3.576, 39.0), (3.576, 38.89), (10.09, 39.0), (10.09, 38.89), (0.3, 38.79), (0.3, 38.49), (3.576, 38.79), (3.576, 38.64), (3.576, 38.89), (3.576, 38.64), (10.09, 38.89), (10.09, 38.72)]</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[(-0.3, 40.0), (-0.3, 39.74), (0.0, 40.0), (0.0, 39.74), (0.0, 40.0), (0.0, 39.81), (0.0, 40.0), (0.0, 39.81), (-0.3, 39.74), (-0.3, 39.48), (0.0, 39.74), (0.0, 39.63), (0.0, 39.81), (0.0, 39.63), (0.0, 39.81), (0.0, 39.7)]</t>
+          <t>[(0.3, 40.0), (0.3, 39.74), (3.615, 40.0), (3.615, 39.74), (3.615, 40.0), (3.615, 39.81), (10.036, 40.0), (10.036, 39.81), (0.3, 39.74), (0.3, 39.48), (3.615, 39.74), (3.615, 39.63), (3.615, 39.81), (3.615, 39.63), (10.036, 39.81), (10.036, 39.7)]</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[(-0.3, 41.0), (-0.3, 40.74), (0.0, 41.0), (0.0, 40.74), (0.0, 41.0), (0.0, 40.81), (0.0, 41.0), (0.0, 40.81), (-0.3, 40.74), (-0.3, 40.44), (0.0, 40.74), (0.0, 40.63), (0.0, 40.81), (0.0, 40.63), (0.0, 40.81), (0.0, 40.7)]</t>
+          <t>[(0.3, 41.0), (0.3, 40.74), (3.594, 41.0), (3.594, 40.74), (3.594, 41.0), (3.594, 40.81), (10.071, 41.0), (10.071, 40.81), (0.3, 40.74), (0.3, 40.44), (3.594, 40.74), (3.594, 40.63), (3.594, 40.81), (3.594, 40.63), (10.071, 40.81), (10.071, 40.7)]</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[(-0.3, 42.0), (-0.3, 41.76), (0.0, 42.0), (0.0, 41.76), (0.0, 42.0), (0.0, 41.81), (0.0, 42.0), (0.0, 41.81), (-0.3, 41.76), (-0.3, 41.46), (0.0, 41.76), (0.0, 41.63), (0.0, 41.81), (0.0, 41.63), (0.0, 41.81), (0.0, 41.69)]</t>
+          <t>[(0.3, 42.0), (0.3, 41.76), (3.573, 42.0), (3.573, 41.76), (3.573, 42.0), (3.573, 41.81), (10.032, 42.0), (10.032, 41.81), (0.3, 41.76), (0.3, 41.46), (3.573, 41.76), (3.573, 41.63), (3.573, 41.81), (3.573, 41.63), (10.032, 41.81), (10.032, 41.69)]</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[(-0.3, 43.0), (-0.3, 42.73), (0.0, 43.0), (0.0, 42.73), (0.0, 43.0), (0.0, 42.89), (0.0, 43.0), (0.0, 42.89), (-0.3, 42.73), (-0.3, 42.47), (0.0, 42.73), (0.0, 42.6), (0.0, 42.89), (0.0, 42.6), (0.0, 42.89), (0.0, 42.7)]</t>
+          <t>[(0.3, 43.0), (0.3, 42.73), (3.565, 43.0), (3.565, 42.73), (3.565, 43.0), (3.565, 42.89), (10.038, 43.0), (10.038, 42.89), (0.3, 42.73), (0.3, 42.47), (3.565, 42.73), (3.565, 42.6), (3.565, 42.89), (3.565, 42.6), (10.038, 42.89), (10.038, 42.7)]</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[(-0.3, 44.0), (-0.3, 43.73), (0.0, 44.0), (0.0, 43.73), (0.0, 44.0), (0.0, 43.8), (0.0, 44.0), (0.0, 43.8), (-0.3, 43.73), (-0.3, 43.46), (0.0, 43.73), (0.0, 43.6), (0.0, 43.8), (0.0, 43.6), (0.0, 43.8), (0.0, 43.67)]</t>
+          <t>[(0.3, 44.0), (0.3, 43.73), (3.569, 44.0), (3.569, 43.73), (3.569, 44.0), (3.569, 43.8), (10.025, 44.0), (10.025, 43.8), (0.3, 43.73), (0.3, 43.46), (3.569, 43.73), (3.569, 43.6), (3.569, 43.8), (3.569, 43.6), (10.025, 43.8), (10.025, 43.67)]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[(-0.3, 45.0), (-0.3, 44.71), (0.0, 45.0), (0.0, 44.71), (0.0, 45.0), (0.0, 44.79), (0.0, 45.0), (0.0, 44.79), (-0.3, 44.71), (-0.3, 44.43), (0.0, 44.71), (0.0, 44.58), (0.0, 44.79), (0.0, 44.58), (0.0, 44.79), (0.0, 44.64)]</t>
+          <t>[(0.3, 45.0), (0.3, 44.71), (3.578, 45.0), (3.578, 44.71), (3.578, 45.0), (3.578, 44.79), (10.008, 45.0), (10.008, 44.79), (0.3, 44.71), (0.3, 44.43), (3.578, 44.71), (3.578, 44.58), (3.578, 44.79), (3.578, 44.58), (10.008, 44.79), (10.008, 44.64)]</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[(-0.3, 46.0), (-0.3, 45.7), (0.0, 46.0), (0.0, 45.7), (0.0, 46.0), (0.0, 45.79), (0.0, 46.0), (0.0, 45.79), (-0.3, 45.7), (-0.3, 45.41), (0.0, 45.7), (0.0, 45.59), (0.0, 45.79), (0.0, 45.59), (0.0, 45.79), (0.0, 45.65)]</t>
+          <t>[(0.3, 46.0), (0.3, 45.7), (3.588, 46.0), (3.588, 45.7), (3.588, 46.0), (3.588, 45.79), (10.079, 46.0), (10.079, 45.79), (0.3, 45.7), (0.3, 45.41), (3.588, 45.7), (3.588, 45.59), (3.588, 45.79), (3.588, 45.59), (10.079, 45.79), (10.079, 45.65)]</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[(-0.3, 47.0), (-0.3, 46.72), (0.0, 47.0), (0.0, 46.72), (0.0, 47.0), (0.0, 46.8), (0.0, 47.0), (0.0, 46.8), (-0.3, 46.72), (-0.3, 46.44), (0.0, 46.72), (0.0, 46.61), (0.0, 46.8), (0.0, 46.61), (0.0, 46.8), (0.0, 46.64)]</t>
+          <t>[(0.3, 47.0), (0.3, 46.72), (3.69, 47.0), (3.69, 46.72), (3.69, 47.0), (3.69, 46.8), (10.075, 47.0), (10.075, 46.8), (0.3, 46.72), (0.3, 46.44), (3.69, 46.72), (3.69, 46.61), (3.69, 46.8), (3.69, 46.61), (10.075, 46.8), (10.075, 46.64)]</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[(-0.3, 48.0), (-0.3, 47.71), (0.0, 48.0), (0.0, 47.71), (0.0, 48.0), (0.0, 47.79), (0.0, 48.0), (0.0, 47.79), (-0.3, 47.71), (-0.3, 47.42), (0.0, 47.71), (0.0, 47.59), (0.0, 47.79), (0.0, 47.59), (0.0, 47.79), (0.0, 47.62)]</t>
+          <t>[(0.3, 48.0), (0.3, 47.71), (3.68, 48.0), (3.68, 47.71), (3.68, 48.0), (3.68, 47.79), (10.077, 48.0), (10.077, 47.79), (0.3, 47.71), (0.3, 47.42), (3.68, 47.71), (3.68, 47.59), (3.68, 47.79), (3.68, 47.59), (10.077, 47.79), (10.077, 47.62)]</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[(-0.3, 49.0), (-0.3, 48.71), (0.0, 49.0), (0.0, 48.71), (0.0, 49.0), (0.0, 48.79), (0.0, 49.0), (0.0, 48.79), (-0.3, 48.71), (-0.3, 48.43), (0.0, 48.71), (0.0, 48.58), (0.0, 48.79), (0.0, 48.58), (0.0, 48.79), (0.0, 48.63)]</t>
+          <t>[(0.3, 49.0), (0.3, 48.71), (3.677, 49.0), (3.677, 48.71), (3.677, 49.0), (3.677, 48.79), (10.098, 49.0), (10.098, 48.79), (0.3, 48.71), (0.3, 48.43), (3.677, 48.71), (3.677, 48.58), (3.677, 48.79), (3.677, 48.58), (10.098, 48.79), (10.098, 48.63)]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[(-0.3, 50.0), (-0.3, 49.71), (0.0, 50.0), (0.0, 49.71), (0.0, 50.0), (0.0, 49.79), (0.0, 50.0), (0.0, 49.79), (-0.3, 49.71), (-0.3, 49.42), (0.0, 49.71), (0.0, 49.58), (0.0, 49.79), (0.0, 49.58), (0.0, 49.79), (0.0, 49.61)]</t>
+          <t>[(0.3, 50.0), (0.3, 49.71), (3.71, 50.0), (3.71, 49.71), (3.71, 50.0), (3.71, 49.79), (10.163, 50.0), (10.163, 49.79), (0.3, 49.71), (0.3, 49.42), (3.71, 49.71), (3.71, 49.58), (3.71, 49.79), (3.71, 49.58), (10.163, 49.79), (10.163, 49.61)]</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[(-0.3, 51.0), (-0.3, 50.71), (0.0, 51.0), (0.0, 50.71), (0.0, 51.0), (0.0, 50.78), (0.0, 51.0), (0.0, 50.78), (-0.3, 50.71), (-0.3, 50.42), (0.0, 50.71), (0.0, 50.57), (0.0, 50.78), (0.0, 50.57), (0.0, 50.78), (0.0, 50.63)]</t>
+          <t>[(0.3, 51.0), (0.3, 50.71), (3.725, 51.0), (3.725, 50.71), (3.725, 51.0), (3.725, 50.78), (10.161, 51.0), (10.161, 50.78), (0.3, 50.71), (0.3, 50.42), (3.725, 50.71), (3.725, 50.57), (3.725, 50.78), (3.725, 50.57), (10.161, 50.78), (10.161, 50.63)]</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[(-0.3, 52.0), (-0.3, 51.7), (0.0, 52.0), (0.0, 51.7), (0.0, 52.0), (0.0, 51.79), (0.0, 52.0), (0.0, 51.79), (-0.3, 51.7), (-0.3, 51.41), (0.0, 51.7), (0.0, 51.59), (0.0, 51.79), (0.0, 51.59), (0.0, 51.79), (0.0, 51.67)]</t>
+          <t>[(0.3, 52.0), (0.3, 51.7), (3.678, 52.0), (3.678, 51.7), (3.678, 52.0), (3.678, 51.79), (10.155, 52.0), (10.155, 51.79), (0.3, 51.7), (0.3, 51.41), (3.678, 51.7), (3.678, 51.59), (3.678, 51.79), (3.678, 51.59), (10.155, 51.79), (10.155, 51.67)]</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[(-0.3, 53.0), (-0.3, 52.72), (0.0, 53.0), (0.0, 52.72), (0.0, 53.0), (0.0, 52.78), (0.0, 53.0), (0.0, 52.78), (-0.3, 52.72), (-0.3, 52.44), (0.0, 52.72), (0.0, 52.57), (0.0, 52.78), (0.0, 52.57), (0.0, 52.78), (0.0, 52.65)]</t>
+          <t>[(0.3, 53.0), (0.3, 52.72), (3.669, 53.0), (3.669, 52.72), (3.669, 53.0), (3.669, 52.78), (10.171, 53.0), (10.171, 52.78), (0.3, 52.72), (0.3, 52.44), (3.669, 52.72), (3.669, 52.57), (3.669, 52.78), (3.669, 52.57), (10.171, 52.78), (10.171, 52.65)]</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[(-0.3, 54.0), (-0.3, 53.72), (0.0, 54.0), (0.0, 53.72), (0.0, 54.0), (0.0, 53.79), (0.0, 54.0), (0.0, 53.79), (-0.3, 53.72), (-0.3, 53.45), (0.0, 53.72), (0.0, 53.59), (0.0, 53.79), (0.0, 53.59), (0.0, 53.79), (0.0, 53.67)]</t>
+          <t>[(0.3, 54.0), (0.3, 53.72), (3.737, 54.0), (3.737, 53.72), (3.737, 54.0), (3.737, 53.79), (10.21, 54.0), (10.21, 53.79), (0.3, 53.72), (0.3, 53.45), (3.737, 53.72), (3.737, 53.59), (3.737, 53.79), (3.737, 53.59), (10.21, 53.79), (10.21, 53.67)]</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[(-0.3, 55.0), (-0.3, 54.72), (0.0, 55.0), (0.0, 54.72), (0.0, 55.0), (0.0, 54.79), (0.0, 55.0), (0.0, 54.79), (-0.3, 54.72), (-0.3, 54.45), (0.0, 54.72), (0.0, 54.59), (0.0, 54.79), (0.0, 54.59), (0.0, 54.79), (0.0, 54.65)]</t>
+          <t>[(0.3, 55.0), (0.3, 54.72), (3.764, 55.0), (3.764, 54.72), (3.764, 55.0), (3.764, 54.79), (10.263, 55.0), (10.263, 54.79), (0.3, 54.72), (0.3, 54.45), (3.764, 54.72), (3.764, 54.59), (3.764, 54.79), (3.764, 54.59), (10.263, 54.79), (10.263, 54.65)]</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[(-0.3, 56.0), (-0.3, 55.73), (0.0, 56.0), (0.0, 55.73), (0.0, 56.0), (0.0, 55.81), (0.0, 56.0), (0.0, 55.81), (-0.3, 55.73), (-0.3, 55.46), (0.0, 55.73), (0.0, 55.62), (0.0, 55.81), (0.0, 55.62), (0.0, 55.81), (0.0, 55.67)]</t>
+          <t>[(0.3, 56.0), (0.3, 55.73), (3.701, 56.0), (3.701, 55.73), (3.701, 56.0), (3.701, 55.81), (10.257, 56.0), (10.257, 55.81), (0.3, 55.73), (0.3, 55.46), (3.701, 55.73), (3.701, 55.62), (3.701, 55.81), (3.701, 55.62), (10.257, 55.81), (10.257, 55.67)]</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[(-0.3, 57.0), (-0.3, 56.8), (0.0, 57.0), (0.0, 56.8), (0.0, 57.0), (0.0, 56.82), (0.0, 57.0), (0.0, 56.82), (-0.3, 56.8), (-0.3, 56.5), (0.0, 56.8), (0.0, 56.65), (0.0, 56.82), (0.0, 56.65), (0.0, 56.82), (0.0, 56.7)]</t>
+          <t>[(0.3, 57.0), (0.3, 56.8), (3.712, 57.0), (3.712, 56.8), (3.712, 57.0), (3.712, 56.82), (10.244, 57.0), (10.244, 56.82), (0.3, 56.8), (0.3, 56.5), (3.712, 56.8), (3.712, 56.65), (3.712, 56.82), (3.712, 56.65), (10.244, 56.82), (10.244, 56.7)]</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[(-0.3, 58.0), (-0.3, 57.8), (0.0, 58.0), (0.0, 57.8), (0.0, 58.0), (0.0, 57.89), (0.0, 58.0), (0.0, 57.89), (-0.3, 57.8), (-0.3, 57.5), (0.0, 57.8), (0.0, 57.65), (0.0, 57.89), (0.0, 57.65), (0.0, 57.89), (0.0, 57.72)]</t>
+          <t>[(0.3, 58.0), (0.3, 57.8), (3.798, 58.0), (3.798, 57.8), (3.798, 58.0), (3.798, 57.89), (10.267, 58.0), (10.267, 57.89), (0.3, 57.8), (0.3, 57.5), (3.798, 57.8), (3.798, 57.65), (3.798, 57.89), (3.798, 57.65), (10.267, 57.89), (10.267, 57.72)]</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[(-0.3, 74.0), (-0.3, 73.86), (0.0, 74.0), (0.0, 73.86), (0.0, 74.0), (0.0, 73.74), (0.0, 74.0), (0.0, 73.74), (-0.3, 73.86), (-0.3, 73.72), (0.0, 73.86), (0.0, 73.72), (0.0, 73.74), (0.0, 73.6), (0.0, 73.74), (0.0, 73.49), (-0.3, 73.72), (-0.3, 73.59), (0.0, 73.72), (0.0, 73.6), (0.0, 73.6), (0.0, 73.6), (0.0, 73.49), (0.0, 73.49)]</t>
+          <t>[(0.3, 74.0), (0.3, 73.86), (6.342, 74.0), (6.342, 73.86), (6.342, 74.0), (6.342, 73.74), (9.862, 74.0), (9.862, 73.74), (0.3, 73.86), (0.3, 73.72), (6.342, 73.86), (6.342, 73.72), (6.342, 73.74), (6.342, 73.6), (9.862, 73.74), (9.862, 73.49), (0.3, 73.72), (0.3, 73.59), (6.342, 73.72), (6.342, 73.6), (6.342, 73.6), (6.342, 73.6), (9.862, 73.49), (9.862, 73.49)]</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[(-0.3, 75.0), (-0.3, 74.77), (0.0, 75.0), (0.0, 74.77), (0.0, 75.0), (0.0, 74.78), (0.0, 75.0), (0.0, 74.69), (-0.3, 74.77), (-0.3, 74.65), (0.0, 74.77), (0.0, 74.55), (0.0, 74.78), (0.0, 74.56), (0.0, 74.69), (0.0, 74.38)]</t>
+          <t>[(0.3, 75.0), (0.3, 74.77), (6.655, 75.0), (6.655, 74.77), (6.655, 75.0), (6.655, 74.78), (10.118, 75.0), (10.118, 74.69), (0.3, 74.77), (0.3, 74.65), (6.655, 74.77), (6.655, 74.55), (6.655, 74.78), (6.655, 74.56), (10.118, 74.69), (10.118, 74.38)]</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[(-0.3, 76.0), (-0.3, 75.86), (0.0, 76.0), (0.0, 75.86), (0.0, 76.0), (0.0, 75.78), (0.0, 76.0), (0.0, 75.68), (-0.3, 75.86), (-0.3, 75.71), (0.0, 75.86), (0.0, 75.56), (0.0, 75.78), (0.0, 75.56), (0.0, 75.68), (0.0, 75.36)]</t>
+          <t>[(0.3, 76.0), (0.3, 75.86), (6.902, 76.0), (6.902, 75.86), (6.902, 76.0), (6.902, 75.78), (10.384, 76.0), (10.384, 75.68), (0.3, 75.86), (0.3, 75.71), (6.902, 75.86), (6.902, 75.56), (6.902, 75.78), (6.902, 75.56), (10.384, 75.68), (10.384, 75.36)]</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[(-0.3, 77.0), (-0.3, 76.89), (0.0, 77.0), (0.0, 76.89), (0.0, 77.0), (0.0, 76.7), (0.0, 77.0), (0.0, 76.7), (-0.3, 76.89), (-0.3, 76.74), (0.0, 76.89), (0.0, 76.59), (0.0, 76.7), (0.0, 76.59), (0.0, 76.7), (0.0, 76.41)]</t>
+          <t>[(0.3, 77.0), (0.3, 76.89), (7.115, 77.0), (7.115, 76.89), (7.115, 77.0), (7.115, 76.7), (10.582, 77.0), (10.582, 76.7), (0.3, 76.89), (0.3, 76.74), (7.115, 76.89), (7.115, 76.59), (7.115, 76.7), (7.115, 76.59), (10.582, 76.7), (10.582, 76.41)]</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[(-0.3, 109.0), (-0.3, 108.89), (0.0, 109.0), (0.0, 108.89), (0.0, 109.0), (0.0, 108.85), (0.0, 109.0), (0.0, 108.85), (-0.3, 108.89), (-0.3, 108.6), (0.0, 108.89), (0.0, 108.72), (0.0, 108.85), (0.0, 108.72), (0.0, 108.85), (0.0, 108.74)]</t>
+          <t>[(0.3, 109.0), (0.3, 108.89), (6.177, 109.0), (6.177, 108.89), (6.177, 109.0), (6.177, 108.85), (9.632, 109.0), (9.632, 108.85), (0.3, 108.89), (0.3, 108.6), (6.177, 108.89), (6.177, 108.72), (6.177, 108.85), (6.177, 108.72), (9.632, 108.85), (9.632, 108.74)]</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[(-0.3, 110.0), (-0.3, 109.81), (0.0, 110.0), (0.0, 109.81), (0.0, 110.0), (0.0, 109.88), (0.0, 110.0), (0.0, 109.88), (-0.3, 109.81), (-0.3, 109.63), (0.0, 109.81), (0.0, 109.65), (0.0, 109.88), (0.0, 109.76), (0.0, 109.88), (0.0, 109.76)]</t>
+          <t>[(0.3, 110.0), (0.3, 109.81), (6.137, 110.0), (6.137, 109.81), (6.137, 110.0), (6.137, 109.88), (9.692, 110.0), (9.692, 109.88), (0.3, 109.81), (0.3, 109.63), (6.137, 109.81), (6.137, 109.65), (6.137, 109.88), (6.137, 109.76), (9.692, 109.88), (9.692, 109.76)]</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[(-0.3, 111.0), (-0.3, 110.82), (0.0, 111.0), (0.0, 110.82), (0.0, 111.0), (0.0, 110.83), (0.0, 111.0), (0.0, 110.83), (-0.3, 110.82), (-0.3, 110.65), (0.0, 110.82), (0.0, 110.68), (0.0, 110.83), (0.0, 110.68), (0.0, 110.83), (0.0, 110.66)]</t>
+          <t>[(0.3, 111.0), (0.3, 110.82), (6.312, 111.0), (6.312, 110.82), (6.312, 111.0), (6.312, 110.83), (9.813, 111.0), (9.813, 110.83), (0.3, 110.82), (0.3, 110.65), (6.312, 110.82), (6.312, 110.68), (6.312, 110.83), (6.312, 110.68), (9.813, 110.83), (9.813, 110.66)]</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[(-0.3, 112.0), (-0.3, 111.81), (0.0, 112.0), (0.0, 111.81), (0.0, 112.0), (0.0, 111.82), (0.0, 112.0), (0.0, 111.82), (-0.3, 111.81), (-0.3, 111.62), (0.0, 111.81), (0.0, 111.65), (0.0, 111.82), (0.0, 111.65), (0.0, 111.82), (0.0, 111.64)]</t>
+          <t>[(0.3, 112.0), (0.3, 111.81), (6.418, 112.0), (6.418, 111.81), (6.418, 112.0), (6.418, 111.82), (9.979, 112.0), (9.979, 111.82), (0.3, 111.81), (0.3, 111.62), (6.418, 111.81), (6.418, 111.65), (6.418, 111.82), (6.418, 111.65), (9.979, 111.82), (9.979, 111.64)]</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[(-0.3, 113.0), (-0.3, 112.78), (0.0, 113.0), (0.0, 112.78), (0.0, 113.0), (0.0, 112.82), (0.0, 113.0), (0.0, 112.82), (-0.3, 112.78), (-0.3, 112.56), (0.0, 112.78), (0.0, 112.65), (0.0, 112.82), (0.0, 112.65), (0.0, 112.82), (0.0, 112.64)]</t>
+          <t>[(0.3, 113.0), (0.3, 112.78), (6.512, 113.0), (6.512, 112.78), (6.512, 113.0), (6.512, 112.82), (10.147, 113.0), (10.147, 112.82), (0.3, 112.78), (0.3, 112.56), (6.512, 112.78), (6.512, 112.65), (6.512, 112.82), (6.512, 112.65), (10.147, 112.82), (10.147, 112.64)]</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[(-0.3, 114.0), (-0.3, 113.79), (0.0, 114.0), (0.0, 113.79), (0.0, 114.0), (0.0, 113.82), (0.0, 114.0), (0.0, 113.82), (-0.3, 113.79), (-0.3, 113.59), (0.0, 113.79), (0.0, 113.64), (0.0, 113.82), (0.0, 113.64), (0.0, 113.82), (0.0, 113.65)]</t>
+          <t>[(0.3, 114.0), (0.3, 113.79), (6.414, 114.0), (6.414, 113.79), (6.414, 114.0), (6.414, 113.82), (10.269, 114.0), (10.269, 113.82), (0.3, 113.79), (0.3, 113.59), (6.414, 113.79), (6.414, 113.64), (6.414, 113.82), (6.414, 113.64), (10.269, 113.82), (10.269, 113.65)]</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[(-0.3, 115.0), (-0.3, 114.79), (0.0, 115.0), (0.0, 114.79), (0.0, 115.0), (0.0, 114.81), (0.0, 115.0), (0.0, 114.81), (-0.3, 114.79), (-0.3, 114.58), (0.0, 114.79), (0.0, 114.63), (0.0, 114.81), (0.0, 114.63), (0.0, 114.81), (0.0, 114.65)]</t>
+          <t>[(0.3, 115.0), (0.3, 114.79), (6.03, 115.0), (6.03, 114.79), (6.03, 115.0), (6.03, 114.81), (10.434, 115.0), (10.434, 114.81), (0.3, 114.79), (0.3, 114.58), (6.03, 114.79), (6.03, 114.63), (6.03, 114.81), (6.03, 114.63), (10.434, 114.81), (10.434, 114.65)]</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[(-0.3, 116.0), (-0.3, 115.79), (0.0, 116.0), (0.0, 115.79), (0.0, 116.0), (0.0, 115.87), (0.0, 116.0), (0.0, 115.87), (-0.3, 115.79), (-0.3, 115.58), (0.0, 115.79), (0.0, 115.62), (0.0, 115.87), (0.0, 115.74), (0.0, 115.87), (0.0, 115.74)]</t>
+          <t>[(0.3, 116.0), (0.3, 115.79), (5.667, 116.0), (5.667, 115.79), (5.667, 116.0), (5.667, 115.87), (10.642, 116.0), (10.642, 115.87), (0.3, 115.79), (0.3, 115.58), (5.667, 115.79), (5.667, 115.62), (5.667, 115.87), (5.667, 115.74), (10.642, 115.87), (10.642, 115.74)]</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[(-0.3, 117.0), (-0.3, 116.78), (0.0, 117.0), (0.0, 116.78), (0.0, 117.0), (0.0, 116.81), (0.0, 117.0), (0.0, 116.81), (-0.3, 116.78), (-0.3, 116.57), (0.0, 116.78), (0.0, 116.63), (0.0, 116.81), (0.0, 116.63), (0.0, 116.81), (0.0, 116.68)]</t>
+          <t>[(0.3, 117.0), (0.3, 116.78), (5.54, 117.0), (5.54, 116.78), (5.54, 117.0), (5.54, 116.81), (10.72, 117.0), (10.72, 116.81), (0.3, 116.78), (0.3, 116.57), (5.54, 116.78), (5.54, 116.63), (5.54, 116.81), (5.54, 116.63), (10.72, 116.81), (10.72, 116.68)]</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[(-0.3, 118.0), (-0.3, 117.79), (0.0, 118.0), (0.0, 117.79), (0.0, 118.0), (0.0, 117.82), (0.0, 118.0), (0.0, 117.82), (-0.3, 117.79), (-0.3, 117.59), (0.0, 117.79), (0.0, 117.64), (0.0, 117.82), (0.0, 117.64), (0.0, 117.82), (0.0, 117.69)]</t>
+          <t>[(0.3, 118.0), (0.3, 117.79), (5.261, 118.0), (5.261, 117.79), (5.261, 118.0), (5.261, 117.82), (10.975, 118.0), (10.975, 117.82), (0.3, 117.79), (0.3, 117.59), (5.261, 117.79), (5.261, 117.64), (5.261, 117.82), (5.261, 117.64), (10.975, 117.82), (10.975, 117.69)]</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[(-0.3, 119.0), (-0.3, 118.78), (0.0, 119.0), (0.0, 118.78), (0.0, 119.0), (0.0, 118.89), (0.0, 119.0), (0.0, 118.89), (-0.3, 118.78), (-0.3, 118.56), (0.0, 118.78), (0.0, 118.65), (0.0, 118.89), (0.0, 118.65), (0.0, 118.89), (0.0, 118.73)]</t>
+          <t>[(0.3, 119.0), (0.3, 118.78), (4.898, 119.0), (4.898, 118.78), (4.898, 119.0), (4.898, 118.89), (11.175, 119.0), (11.175, 118.89), (0.3, 118.78), (0.3, 118.56), (4.898, 118.78), (4.898, 118.65), (4.898, 118.89), (4.898, 118.65), (11.175, 118.89), (11.175, 118.73)]</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[(-0.3, 124.0), (-0.3, 123.75), (0.0, 124.0), (0.0, 123.75), (0.0, 124.0), (0.0, 123.89), (0.0, 124.0), (0.0, 123.89), (-0.3, 123.75), (-0.3, 123.51), (0.0, 123.75), (0.0, 123.62), (0.0, 123.89), (0.0, 123.62), (0.0, 123.89), (0.0, 123.75)]</t>
+          <t>[(0.3, 124.0), (0.3, 123.75), (5.796, 124.0), (5.796, 123.75), (5.796, 124.0), (5.796, 123.89), (12.216, 124.0), (12.216, 123.89), (0.3, 123.75), (0.3, 123.51), (5.796, 123.75), (5.796, 123.62), (5.796, 123.89), (5.796, 123.62), (12.216, 123.89), (12.216, 123.75)]</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[(-0.3, 126.0), (-0.3, 125.75), (0.0, 126.0), (0.0, 125.75), (0.0, 126.0), (0.0, 125.89), (0.0, 126.0), (0.0, 125.89), (-0.3, 125.75), (-0.3, 125.51), (0.0, 125.75), (0.0, 125.61), (0.0, 125.89), (0.0, 125.61), (0.0, 125.89), (0.0, 125.75)]</t>
+          <t>[(0.3, 126.0), (0.3, 125.75), (6.036, 126.0), (6.036, 125.75), (6.036, 126.0), (6.036, 125.89), (12.476, 126.0), (12.476, 125.89), (0.3, 125.75), (0.3, 125.51), (6.036, 125.75), (6.036, 125.61), (6.036, 125.89), (6.036, 125.61), (12.476, 125.89), (12.476, 125.75)]</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[(-0.3, 128.0), (-0.3, 127.75), (0.0, 128.0), (0.0, 127.75), (0.0, 128.0), (0.0, 127.89), (0.0, 128.0), (0.0, 127.89), (-0.3, 127.75), (-0.3, 127.5), (0.0, 127.75), (0.0, 127.62), (0.0, 127.89), (0.0, 127.62), (0.0, 127.89), (0.0, 127.73)]</t>
+          <t>[(0.3, 128.0), (0.3, 127.75), (6.07, 128.0), (6.07, 127.75), (6.07, 128.0), (6.07, 127.89), (12.456, 128.0), (12.456, 127.89), (0.3, 127.75), (0.3, 127.5), (6.07, 127.75), (6.07, 127.62), (6.07, 127.89), (6.07, 127.62), (12.456, 127.89), (12.456, 127.73)]</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[(-0.3, 129.0), (-0.3, 128.74), (0.0, 129.0), (0.0, 128.74), (0.0, 129.0), (0.0, 128.89), (0.0, 129.0), (0.0, 128.89), (-0.3, 128.74), (-0.3, 128.48), (0.0, 128.74), (0.0, 128.61), (0.0, 128.89), (0.0, 128.61), (0.0, 128.89), (0.0, 128.72)]</t>
+          <t>[(0.3, 129.0), (0.3, 128.74), (5.914, 129.0), (5.914, 128.74), (5.914, 129.0), (5.914, 128.89), (12.388, 129.0), (12.388, 128.89), (0.3, 128.74), (0.3, 128.48), (5.914, 128.74), (5.914, 128.61), (5.914, 128.89), (5.914, 128.61), (12.388, 128.89), (12.388, 128.72)]</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[(-0.3, 130.0), (-0.3, 129.73), (0.0, 130.0), (0.0, 129.73), (0.0, 130.0), (0.0, 129.89), (0.0, 130.0), (0.0, 129.89), (-0.3, 129.73), (-0.3, 129.47), (0.0, 129.73), (0.0, 129.59), (0.0, 129.89), (0.0, 129.59), (0.0, 129.89), (0.0, 129.7)]</t>
+          <t>[(0.3, 130.0), (0.3, 129.73), (5.846, 130.0), (5.846, 129.73), (5.846, 130.0), (5.846, 129.89), (12.252, 130.0), (12.252, 129.89), (0.3, 129.73), (0.3, 129.47), (5.846, 129.73), (5.846, 129.59), (5.846, 129.89), (5.846, 129.59), (12.252, 129.89), (12.252, 129.7)]</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[(-0.3, 131.0), (-0.3, 130.74), (0.0, 131.0), (0.0, 130.74), (0.0, 131.0), (0.0, 130.89), (0.0, 131.0), (0.0, 130.89), (-0.3, 130.74), (-0.3, 130.49), (0.0, 130.74), (0.0, 130.6), (0.0, 130.89), (0.0, 130.6), (0.0, 130.89), (0.0, 130.73)]</t>
+          <t>[(0.3, 131.0), (0.3, 130.74), (5.814, 131.0), (5.814, 130.74), (5.814, 131.0), (5.814, 130.89), (12.193, 131.0), (12.193, 130.89), (0.3, 130.74), (0.3, 130.49), (5.814, 130.74), (5.814, 130.6), (5.814, 130.89), (5.814, 130.6), (12.193, 130.89), (12.193, 130.73)]</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[(-0.3, 132.0), (-0.3, 131.73), (0.0, 132.0), (0.0, 131.73), (0.0, 132.0), (0.0, 131.88), (0.0, 132.0), (0.0, 131.88), (-0.3, 131.73), (-0.3, 131.46), (0.0, 131.73), (0.0, 131.58), (0.0, 131.88), (0.0, 131.58), (0.0, 131.88), (0.0, 131.7)]</t>
+          <t>[(0.3, 132.0), (0.3, 131.73), (5.726, 132.0), (5.726, 131.73), (5.726, 132.0), (5.726, 131.88), (12.123, 132.0), (12.123, 131.88), (0.3, 131.73), (0.3, 131.46), (5.726, 131.73), (5.726, 131.58), (5.726, 131.88), (5.726, 131.58), (12.123, 131.88), (12.123, 131.7)]</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[(-0.3, 133.0), (-0.3, 132.72), (0.0, 133.0), (0.0, 132.72), (0.0, 133.0), (0.0, 132.76), (0.0, 133.0), (0.0, 132.76), (-0.3, 132.72), (-0.3, 132.44), (0.0, 132.72), (0.0, 132.53), (0.0, 132.76), (0.0, 132.53), (0.0, 132.76), (0.0, 132.63)]</t>
+          <t>[(0.3, 133.0), (0.3, 132.72), (5.463, 133.0), (5.463, 132.72), (5.463, 133.0), (5.463, 132.76), (11.91, 133.0), (11.91, 132.76), (0.3, 132.72), (0.3, 132.44), (5.463, 132.72), (5.463, 132.53), (5.463, 132.76), (5.463, 132.53), (11.91, 132.76), (11.91, 132.63)]</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[(-0.3, 134.0), (-0.3, 133.7), (0.0, 134.0), (0.0, 133.7), (0.0, 134.0), (0.0, 133.83), (0.0, 134.0), (0.0, 133.83), (-0.3, 133.7), (-0.3, 133.41), (0.0, 133.7), (0.0, 133.53), (0.0, 133.83), (0.0, 133.53), (0.0, 133.83), (0.0, 133.68)]</t>
+          <t>[(0.3, 134.0), (0.3, 133.7), (5.311, 134.0), (5.311, 133.7), (5.311, 134.0), (5.311, 133.83), (11.708, 134.0), (11.708, 133.83), (0.3, 133.7), (0.3, 133.41), (5.311, 133.7), (5.311, 133.53), (5.311, 133.83), (5.311, 133.53), (11.708, 133.83), (11.708, 133.68)]</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[(-0.3, 135.0), (-0.3, 134.68), (0.0, 135.0), (0.0, 134.74), (0.0, 135.0), (0.0, 134.78), (0.0, 135.0), (0.0, 134.78), (-0.3, 134.68), (-0.3, 134.36), (0.0, 134.74), (0.0, 134.48), (0.0, 134.78), (0.0, 134.48), (0.0, 134.78), (0.0, 134.64)]</t>
+          <t>[(0.3, 135.0), (0.3, 134.68), (5.048, 135.0), (5.048, 134.74), (5.048, 135.0), (5.048, 134.78), (11.396, 135.0), (11.396, 134.78), (0.3, 134.68), (0.3, 134.36), (5.048, 134.74), (5.048, 134.48), (5.048, 134.78), (5.048, 134.48), (11.396, 134.78), (11.396, 134.64)]</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[(-0.3, 136.0), (-0.3, 135.68), (0.0, 136.0), (0.0, 135.76), (0.0, 136.0), (0.0, 135.81), (0.0, 136.0), (0.0, 135.81), (-0.3, 135.68), (-0.3, 135.36), (0.0, 135.76), (0.0, 135.52), (0.0, 135.81), (0.0, 135.51), (0.0, 135.81), (0.0, 135.68)]</t>
+          <t>[(0.3, 136.0), (0.3, 135.68), (4.666, 136.0), (4.666, 135.76), (4.666, 136.0), (4.666, 135.81), (11.203, 136.0), (11.203, 135.81), (0.3, 135.68), (0.3, 135.36), (4.666, 135.76), (4.666, 135.52), (4.666, 135.81), (4.666, 135.51), (11.203, 135.81), (11.203, 135.68)]</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[(-0.3, 137.0), (-0.3, 136.69), (0.0, 137.0), (0.0, 136.74), (0.0, 137.0), (0.0, 136.79), (0.0, 137.0), (0.0, 136.79), (-0.3, 136.69), (-0.3, 136.38), (0.0, 136.74), (0.0, 136.48), (0.0, 136.79), (0.0, 136.49), (0.0, 136.79), (0.0, 136.66)]</t>
+          <t>[(0.3, 137.0), (0.3, 136.69), (4.81, 137.0), (4.81, 136.74), (4.81, 137.0), (4.81, 136.79), (11.248, 137.0), (11.248, 136.79), (0.3, 136.69), (0.3, 136.38), (4.81, 136.74), (4.81, 136.48), (4.81, 136.79), (4.81, 136.49), (11.248, 136.79), (11.248, 136.66)]</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[(-0.3, 138.0), (-0.3, 137.71), (0.0, 138.0), (0.0, 137.71), (0.0, 138.0), (0.0, 137.85), (0.0, 138.0), (0.0, 137.85), (-0.3, 137.71), (-0.3, 137.43), (0.0, 137.71), (0.0, 137.55), (0.0, 137.85), (0.0, 137.55), (0.0, 137.85), (0.0, 137.69)]</t>
+          <t>[(0.3, 138.0), (0.3, 137.71), (4.784, 138.0), (4.784, 137.71), (4.784, 138.0), (4.784, 137.85), (11.259, 138.0), (11.259, 137.85), (0.3, 137.71), (0.3, 137.43), (4.784, 137.71), (4.784, 137.55), (4.784, 137.85), (4.784, 137.55), (11.259, 137.85), (11.259, 137.69)]</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[(-0.3, 139.0), (-0.3, 138.72), (0.0, 139.0), (0.0, 138.72), (0.0, 139.0), (0.0, 138.89), (0.0, 139.0), (0.0, 138.89), (-0.3, 138.72), (-0.3, 138.45), (0.0, 138.72), (0.0, 138.6), (0.0, 138.89), (0.0, 138.6), (0.0, 138.89), (0.0, 138.71)]</t>
+          <t>[(0.3, 139.0), (0.3, 138.72), (4.716, 139.0), (4.716, 138.72), (4.716, 139.0), (4.716, 138.89), (11.24, 139.0), (11.24, 138.89), (0.3, 138.72), (0.3, 138.45), (4.716, 138.72), (4.716, 138.6), (4.716, 138.89), (4.716, 138.6), (11.24, 138.89), (11.24, 138.71)]</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[(-0.3, 140.0), (-0.3, 139.75), (0.0, 140.0), (0.0, 139.75), (0.0, 140.0), (0.0, 139.89), (0.0, 140.0), (0.0, 139.89), (-0.3, 139.75), (-0.3, 139.5), (0.0, 139.75), (0.0, 139.63), (0.0, 139.89), (0.0, 139.63), (0.0, 139.89), (0.0, 139.74)]</t>
+          <t>[(0.3, 140.0), (0.3, 139.75), (4.68, 140.0), (4.68, 139.75), (4.68, 140.0), (4.68, 139.89), (11.161, 140.0), (11.161, 139.89), (0.3, 139.75), (0.3, 139.5), (4.68, 139.75), (4.68, 139.63), (4.68, 139.89), (4.68, 139.63), (11.161, 139.89), (11.161, 139.74)]</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[(-0.3, 141.0), (-0.3, 140.77), (0.0, 141.0), (0.0, 140.77), (0.0, 141.0), (0.0, 140.89), (-2.69, 141.0), (-2.69, 140.89), (-0.3, 140.77), (-0.3, 140.54), (0.0, 140.77), (0.0, 140.64), (0.0, 140.89), (0.0, 140.64), (-2.69, 140.89), (-2.69, 140.72)]</t>
+          <t>[(0.3, 141.0), (0.3, 140.77), (4.572, 141.0), (4.572, 140.77), (4.572, 141.0), (4.572, 140.89), (11.034, 141.0), (11.034, 140.89), (0.3, 140.77), (0.3, 140.54), (4.572, 140.77), (4.572, 140.64), (4.572, 140.89), (4.572, 140.64), (11.034, 140.89), (11.034, 140.72)]</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[(-0.3, 142.0), (-0.3, 141.77), (0.0, 142.0), (0.0, 141.77), (0.0, 142.0), (0.0, 141.82), (-3.261, 142.0), (-3.261, 141.82), (-0.3, 141.77), (-0.3, 141.54), (0.0, 141.77), (0.0, 141.64), (0.0, 141.82), (0.0, 141.64), (-3.261, 141.82), (-3.261, 141.7)]</t>
+          <t>[(0.3, 142.0), (0.3, 141.77), (4.473, 142.0), (4.473, 141.77), (4.473, 142.0), (4.473, 141.82), (10.865, 142.0), (10.865, 141.82), (0.3, 141.77), (0.3, 141.54), (4.473, 141.77), (4.473, 141.64), (4.473, 141.82), (4.473, 141.64), (10.865, 141.82), (10.865, 141.7)]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[(-0.3, 143.0), (-0.3, 142.77), (0.0, 143.0), (0.0, 142.77), (0.0, 143.0), (0.0, 142.82), (-3.659, 143.0), (-3.659, 142.82), (-0.3, 142.77), (-0.3, 142.55), (0.0, 142.77), (0.0, 142.64), (0.0, 142.82), (0.0, 142.64), (-3.659, 142.82), (-3.659, 142.71)]</t>
+          <t>[(0.3, 143.0), (0.3, 142.77), (4.29, 143.0), (4.29, 142.77), (4.29, 143.0), (4.29, 142.82), (10.696, 143.0), (10.696, 142.82), (0.3, 142.77), (0.3, 142.55), (4.29, 142.77), (4.29, 142.64), (4.29, 142.82), (4.29, 142.64), (10.696, 142.82), (10.696, 142.71)]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[(-0.3, 144.0), (-0.3, 143.79), (0.0, 144.0), (0.0, 143.79), (0.0, 144.0), (0.0, 143.89), (-4.017, 144.0), (-4.017, 143.89), (-0.3, 143.79), (-0.3, 143.59), (0.0, 143.79), (0.0, 143.63), (0.0, 143.89), (0.0, 143.63), (-4.017, 143.89), (-4.017, 143.71)]</t>
+          <t>[(0.3, 144.0), (0.3, 143.79), (3.859, 144.0), (3.859, 143.79), (3.859, 144.0), (3.859, 143.89), (10.272, 144.0), (10.272, 143.89), (0.3, 143.79), (0.3, 143.59), (3.859, 143.79), (3.859, 143.63), (3.859, 143.89), (3.859, 143.63), (10.272, 143.89), (10.272, 143.71)]</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[(-0.3, 145.0), (-0.3, 144.82), (0.0, 145.0), (0.0, 144.82), (0.0, 145.0), (0.0, 144.89), (-4.438, 145.0), (-4.438, 144.89), (-0.3, 144.82), (-0.3, 144.64), (0.0, 144.82), (0.0, 144.67), (0.0, 144.89), (0.0, 144.67), (-4.438, 144.89), (-4.438, 144.73)]</t>
+          <t>[(0.3, 145.0), (0.3, 144.82), (3.465, 145.0), (3.465, 144.82), (3.465, 145.0), (3.465, 144.89), (9.88, 145.0), (9.88, 144.89), (0.3, 144.82), (0.3, 144.64), (3.465, 144.82), (3.465, 144.67), (3.465, 144.89), (3.465, 144.67), (9.88, 144.89), (9.88, 144.73)]</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[(-0.3, 146.0), (-0.3, 145.82), (0.0, 146.0), (0.0, 145.82), (0.0, 146.0), (0.0, 145.83), (-4.773, 146.0), (-4.773, 145.83), (-0.3, 145.82), (-0.3, 145.65), (0.0, 145.82), (0.0, 145.67), (0.0, 145.83), (0.0, 145.67), (-4.773, 145.83), (-4.773, 145.72)]</t>
+          <t>[(0.3, 146.0), (0.3, 145.82), (3.05, 146.0), (3.05, 145.82), (3.05, 146.0), (3.05, 145.83), (9.577, 146.0), (9.577, 145.83), (0.3, 145.82), (0.3, 145.65), (3.05, 145.82), (3.05, 145.67), (3.05, 145.83), (3.05, 145.67), (9.577, 145.83), (9.577, 145.72)]</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[(-0.3, 147.0), (-0.3, 146.8), (0.0, 147.0), (0.0, 146.8), (0.0, 147.0), (0.0, 146.81), (-5.091, 147.0), (-5.091, 146.81), (-0.3, 146.8), (-0.3, 146.61), (0.0, 146.8), (0.0, 146.62), (0.0, 146.81), (0.0, 146.62), (-5.091, 146.81), (-5.091, 146.64)]</t>
+          <t>[(0.3, 147.0), (0.3, 146.8), (2.713, 147.0), (2.713, 146.8), (2.713, 147.0), (2.713, 146.81), (9.326, 147.0), (9.326, 146.81), (0.3, 146.8), (0.3, 146.61), (2.713, 146.8), (2.713, 146.62), (2.713, 146.81), (2.713, 146.62), (9.326, 146.81), (9.326, 146.64)]</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[(-0.3, 148.0), (-0.3, 147.79), (-5.595, 148.0), (-5.595, 147.79), (-0.3, 147.79), (-0.3, 147.58), (-5.595, 147.79), (-5.595, 147.63)]</t>
+          <t>[(0.3, 148.0), (0.3, 147.79), (9.052, 148.0), (9.052, 147.79), (0.3, 147.79), (0.3, 147.58), (9.052, 147.79), (9.052, 147.63)]</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[(-0.3, 149.0), (-0.3, 148.85), (-6.265, 149.0), (-6.265, 148.85), (-0.3, 148.85), (-0.3, 148.7), (-6.265, 148.85), (-6.265, 148.7), (-0.3, 148.7), (-0.3, 148.57), (-6.265, 148.7), (-6.265, 148.57)]</t>
+          <t>[(0.3, 149.0), (0.3, 148.85), (8.741, 149.0), (8.741, 148.85), (0.3, 148.85), (0.3, 148.7), (8.741, 148.85), (8.741, 148.7), (0.3, 148.7), (0.3, 148.57), (8.741, 148.7), (8.741, 148.57)]</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[(-0.3, 150.0), (-0.3, 149.79), (-7.035, 150.0), (-7.035, 149.79), (-0.3, 149.79), (-0.3, 149.59), (-7.035, 149.79), (-7.035, 149.65)]</t>
+          <t>[(0.3, 150.0), (0.3, 149.79), (8.223, 150.0), (8.223, 149.79), (0.3, 149.79), (0.3, 149.59), (8.223, 149.79), (8.223, 149.65)]</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[(-0.3, 151.0), (-0.3, 150.89), (-7.802, 151.0), (-7.802, 150.89), (-0.3, 150.89), (-0.3, 150.61), (-7.802, 150.89), (-7.802, 150.71)]</t>
+          <t>[(0.3, 151.0), (0.3, 150.89), (7.794, 151.0), (7.794, 150.89), (0.3, 150.89), (0.3, 150.61), (7.794, 150.89), (7.794, 150.71)]</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[(-0.3, 161.0), (-0.3, 160.87), (-11.329, 161.0), (-11.329, 160.87), (-0.3, 160.87), (-0.3, 160.57), (-11.329, 160.87), (-11.329, 160.74)]</t>
+          <t>[(0.3, 161.0), (0.3, 160.87), (4.654, 161.0), (4.654, 160.87), (0.3, 160.87), (0.3, 160.57), (4.654, 160.87), (4.654, 160.74)]</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[(-0.3, 164.0), (-0.3, 163.88), (-11.542, 164.0), (-11.542, 163.88), (-0.3, 163.88), (-0.3, 163.58), (-11.542, 163.88), (-11.542, 163.74)]</t>
+          <t>[(0.3, 164.0), (0.3, 163.88), (4.435, 164.0), (4.435, 163.88), (0.3, 163.88), (0.3, 163.58), (4.435, 163.88), (4.435, 163.74)]</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[(-0.3, 165.0), (-0.3, 164.88), (-11.467, 165.0), (-11.467, 164.88), (-0.3, 164.88), (-0.3, 164.58), (-11.467, 164.88), (-11.467, 164.74)]</t>
+          <t>[(0.3, 165.0), (0.3, 164.88), (4.43, 165.0), (4.43, 164.88), (0.3, 164.88), (0.3, 164.58), (4.43, 164.88), (4.43, 164.74)]</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[(-0.3, 172.0), (-0.3, 171.89), (-12.411, 172.0), (-12.411, 171.89), (-0.3, 171.89), (-0.3, 171.66), (-12.411, 171.89), (-12.411, 171.73)]</t>
+          <t>[(0.3, 172.0), (0.3, 171.89), (2.669, 172.0), (2.669, 171.89), (0.3, 171.89), (0.3, 171.66), (2.669, 171.89), (2.669, 171.73)]</t>
         </is>
       </c>
     </row>
@@ -2155,61 +2155,37 @@
       <c r="A174" t="n">
         <v>47325</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>[(-0.3, 173.0), (-0.3, 172.85), (-11.985, 173.0), (-11.985, 172.85), (-0.3, 172.85), (-0.3, 172.71), (-11.985, 172.85), (-11.985, 172.71)]</t>
-        </is>
-      </c>
+      <c r="B174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
         <v>47350</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>[(-0.3, 174.0), (-0.3, 173.86), (-11.644, 174.0), (-11.644, 173.86), (-0.3, 173.86), (-0.3, 173.73), (-11.644, 173.86), (-11.644, 173.73)]</t>
-        </is>
-      </c>
+      <c r="B175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
         <v>47375</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>[(-0.3, 175.0), (-0.3, 174.87), (-11.37, 175.0), (-11.37, 174.87), (-0.3, 174.87), (-0.3, 174.75), (-11.37, 174.87), (-11.37, 174.75)]</t>
-        </is>
-      </c>
+      <c r="B176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
         <v>47400</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>[(-0.3, 176.0), (-0.3, 175.85), (-11.303, 176.0), (-11.303, 175.85), (-0.3, 175.85), (-0.3, 175.71), (-11.303, 175.85), (-11.303, 175.71)]</t>
-        </is>
-      </c>
+      <c r="B177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
         <v>47425</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>[(-0.3, 177.0), (-0.3, 176.85), (-11.322, 177.0), (-11.322, 176.85), (-0.3, 176.85), (-0.3, 176.71), (-11.322, 176.85), (-11.322, 176.71)]</t>
-        </is>
-      </c>
+      <c r="B178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
         <v>47450</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>[(-0.3, 178.0), (-0.3, 177.85), (-11.242, 178.0), (-11.242, 177.85), (-0.3, 177.85), (-0.3, 177.71), (-11.242, 177.85), (-11.242, 177.71)]</t>
-        </is>
-      </c>
+      <c r="B179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2217,7 +2193,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[(-0.3, 179.0), (-0.3, 178.84), (-10.974, 179.0), (-10.974, 178.66), (-0.3, 178.84), (-0.3, 178.68), (-10.974, 178.66), (-10.974, 178.32)]</t>
+          <t>[(0.3, 179.0), (0.3, 178.84), (6.464, 179.0), (6.464, 178.66), (0.3, 178.84), (0.3, 178.68), (6.464, 178.66), (6.464, 178.32)]</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2203,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[(-0.3, 180.0), (-0.3, 179.84), (-10.493, 180.0), (-10.493, 179.74), (-0.3, 179.84), (-0.3, 179.68), (-10.493, 179.74), (-10.493, 179.48)]</t>
+          <t>[(0.3, 180.0), (0.3, 179.84), (5.867, 180.0), (5.867, 179.74), (0.3, 179.84), (0.3, 179.68), (5.867, 179.74), (5.867, 179.48)]</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2213,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[(-0.3, 181.0), (-0.3, 180.83), (-9.811, 181.0), (-9.811, 180.72), (-0.3, 180.83), (-0.3, 180.66), (-9.811, 180.72), (-9.811, 180.44)]</t>
+          <t>[(0.3, 181.0), (0.3, 180.83), (5.663, 181.0), (5.663, 180.72), (0.3, 180.83), (0.3, 180.66), (5.663, 180.72), (5.663, 180.44)]</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2223,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[(-0.3, 182.0), (-0.3, 181.84), (-9.17, 182.0), (-9.17, 181.72), (-0.3, 181.84), (-0.3, 181.68), (-9.17, 181.72), (-9.17, 181.44)]</t>
+          <t>[(0.3, 182.0), (0.3, 181.84), (5.69, 182.0), (5.69, 181.72), (0.3, 181.84), (0.3, 181.68), (5.69, 181.72), (5.69, 181.44)]</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2233,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[(-0.3, 183.0), (-0.3, 182.76), (-8.644, 183.0), (-8.644, 182.76), (-0.3, 182.76), (-0.3, 182.63), (-8.644, 182.76), (-8.644, 182.46)]</t>
+          <t>[(0.3, 183.0), (0.3, 182.76), (5.585, 183.0), (5.585, 182.76), (0.3, 182.76), (0.3, 182.63), (5.585, 182.76), (5.585, 182.46)]</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2243,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[(-0.3, 184.0), (-0.3, 183.8), (-7.857, 184.0), (-7.857, 183.68), (-0.3, 183.8), (-0.3, 183.6), (-7.857, 183.68), (-7.857, 183.36)]</t>
+          <t>[(0.3, 184.0), (0.3, 183.8), (5.607, 184.0), (5.607, 183.68), (0.3, 183.8), (0.3, 183.6), (5.607, 183.68), (5.607, 183.36)]</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2253,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[(-0.3, 185.0), (-0.3, 184.82), (-6.888, 185.0), (-6.888, 184.7), (-0.3, 184.82), (-0.3, 184.64), (-6.888, 184.7), (-6.888, 184.4)]</t>
+          <t>[(0.3, 185.0), (0.3, 184.82), (5.812, 185.0), (5.812, 184.7), (0.3, 184.82), (0.3, 184.64), (5.812, 184.7), (5.812, 184.4)]</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2263,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[(-0.3, 186.0), (-0.3, 185.84), (-5.892, 186.0), (-5.892, 185.72), (-0.3, 185.84), (-0.3, 185.68), (-5.892, 185.72), (-5.892, 185.44)]</t>
+          <t>[(0.3, 186.0), (0.3, 185.84), (6.115, 186.0), (6.115, 185.72), (0.3, 185.84), (0.3, 185.68), (6.115, 185.72), (6.115, 185.44)]</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2273,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[(-0.3, 187.0), (-0.3, 186.84), (-4.905, 187.0), (-4.905, 186.7), (-0.3, 186.84), (-0.3, 186.68), (-4.905, 186.7), (-4.905, 186.4)]</t>
+          <t>[(0.3, 187.0), (0.3, 186.84), (6.464, 187.0), (6.464, 186.7), (0.3, 186.84), (0.3, 186.68), (6.464, 186.7), (6.464, 186.4)]</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2283,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[(-0.3, 188.0), (-0.3, 187.84), (-4.146, 188.0), (-4.146, 187.66), (-0.3, 187.84), (-0.3, 187.68), (-4.146, 187.66), (-4.146, 187.32)]</t>
+          <t>[(0.3, 188.0), (0.3, 187.84), (6.838, 188.0), (6.838, 187.66), (0.3, 187.84), (0.3, 187.68), (6.838, 187.66), (6.838, 187.32)]</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2293,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[(-0.3, 189.0), (-0.3, 188.81), (-3.637, 189.0), (-3.637, 188.66), (-0.3, 188.81), (-0.3, 188.62), (-3.637, 188.66), (-3.637, 188.32)]</t>
+          <t>[(0.3, 189.0), (0.3, 188.81), (7.264, 189.0), (7.264, 188.66), (0.3, 188.81), (0.3, 188.62), (7.264, 188.66), (7.264, 188.32)]</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2303,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[(-0.3, 190.0), (-0.3, 189.84), (-3.053, 190.0), (-3.053, 189.66), (-0.3, 189.84), (-0.3, 189.68), (-3.053, 189.66), (-3.053, 189.32)]</t>
+          <t>[(0.3, 190.0), (0.3, 189.84), (7.752, 190.0), (7.752, 189.66), (0.3, 189.84), (0.3, 189.68), (7.752, 189.66), (7.752, 189.32)]</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2313,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[(-0.3, 191.0), (-0.3, 190.82), (-2.361, 191.0), (-2.361, 190.68), (-0.3, 190.82), (-0.3, 190.64), (-2.361, 190.68), (-2.361, 190.36)]</t>
+          <t>[(0.3, 191.0), (0.3, 190.82), (8.501, 191.0), (8.501, 190.68), (0.3, 190.82), (0.3, 190.64), (8.501, 190.68), (8.501, 190.36)]</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2323,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[(-0.3, 192.0), (-0.3, 191.81), (0.0, 192.0), (0.0, 191.81), (0.0, 192.0), (0.0, 191.82), (0.0, 192.0), (0.0, 191.7), (-0.3, 191.81), (-0.3, 191.67), (0.0, 191.81), (0.0, 191.63), (0.0, 191.82), (0.0, 191.64), (0.0, 191.7), (0.0, 191.4)]</t>
+          <t>[(0.3, 192.0), (0.3, 191.81), (2.735, 192.0), (2.735, 191.81), (2.735, 192.0), (2.735, 191.82), (9.166, 192.0), (9.166, 191.7), (0.3, 191.81), (0.3, 191.67), (2.735, 191.81), (2.735, 191.63), (2.735, 191.82), (2.735, 191.64), (9.166, 191.7), (9.166, 191.4)]</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2333,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[(-0.3, 193.0), (-0.3, 192.82), (0.0, 193.0), (0.0, 192.82), (0.0, 193.0), (0.0, 192.82), (0.0, 193.0), (0.0, 192.72), (-0.3, 192.82), (-0.3, 192.67), (0.0, 192.82), (0.0, 192.64), (0.0, 192.82), (0.0, 192.64), (0.0, 192.72), (0.0, 192.44)]</t>
+          <t>[(0.3, 193.0), (0.3, 192.82), (3.212, 193.0), (3.212, 192.82), (3.212, 193.0), (3.212, 192.82), (9.641, 193.0), (9.641, 192.72), (0.3, 192.82), (0.3, 192.67), (3.212, 192.82), (3.212, 192.64), (3.212, 192.82), (3.212, 192.64), (9.641, 192.72), (9.641, 192.44)]</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2343,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[(-0.3, 194.0), (-0.3, 193.8), (0.0, 194.0), (0.0, 193.8), (0.0, 194.0), (0.0, 193.72), (0.0, 194.0), (0.0, 193.72), (-0.3, 193.8), (-0.3, 193.63), (0.0, 193.8), (0.0, 193.61), (0.0, 193.72), (0.0, 193.61), (0.0, 193.72), (0.0, 193.44)]</t>
+          <t>[(0.3, 194.0), (0.3, 193.8), (3.502, 194.0), (3.502, 193.8), (3.502, 194.0), (3.502, 193.72), (10.067, 194.0), (10.067, 193.72), (0.3, 193.8), (0.3, 193.63), (3.502, 193.8), (3.502, 193.61), (3.502, 193.72), (3.502, 193.61), (10.067, 193.72), (10.067, 193.44)]</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2353,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[(-0.3, 195.0), (-0.3, 194.8), (0.0, 195.0), (0.0, 194.8), (0.0, 195.0), (0.0, 194.77), (0.0, 195.0), (0.0, 194.77), (-0.3, 194.8), (-0.3, 194.6), (0.0, 194.8), (0.0, 194.63), (0.0, 194.77), (0.0, 194.63), (0.0, 194.77), (0.0, 194.47)]</t>
+          <t>[(0.3, 195.0), (0.3, 194.8), (3.889, 195.0), (3.889, 194.8), (3.889, 195.0), (3.889, 194.77), (10.2, 195.0), (10.2, 194.77), (0.3, 194.8), (0.3, 194.6), (3.889, 194.8), (3.889, 194.63), (3.889, 194.77), (3.889, 194.63), (10.2, 194.77), (10.2, 194.47)]</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2363,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[(-0.3, 196.0), (-0.3, 195.8), (0.0, 196.0), (0.0, 195.8), (0.0, 196.0), (0.0, 195.73), (0.0, 196.0), (0.0, 195.73), (-0.3, 195.8), (-0.3, 195.6), (0.0, 195.8), (0.0, 195.62), (0.0, 195.73), (0.0, 195.62), (0.0, 195.73), (0.0, 195.46)]</t>
+          <t>[(0.3, 196.0), (0.3, 195.8), (3.806, 196.0), (3.806, 195.8), (3.806, 196.0), (3.806, 195.73), (10.047, 196.0), (10.047, 195.73), (0.3, 195.8), (0.3, 195.6), (3.806, 195.8), (3.806, 195.62), (3.806, 195.73), (3.806, 195.62), (10.047, 195.73), (10.047, 195.46)]</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2373,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[(-0.3, 197.0), (-0.3, 196.8), (0.0, 197.0), (0.0, 196.8), (0.0, 197.0), (0.0, 196.75), (0.0, 197.0), (0.0, 196.75), (-0.3, 196.8), (-0.3, 196.6), (0.0, 196.8), (0.0, 196.62), (0.0, 196.75), (0.0, 196.62), (0.0, 196.75), (0.0, 196.45)]</t>
+          <t>[(0.3, 197.0), (0.3, 196.8), (3.768, 197.0), (3.768, 196.8), (3.768, 197.0), (3.768, 196.75), (10.031, 197.0), (10.031, 196.75), (0.3, 196.8), (0.3, 196.6), (3.768, 196.8), (3.768, 196.62), (3.768, 196.75), (3.768, 196.62), (10.031, 196.75), (10.031, 196.45)]</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2383,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[(-0.3, 198.0), (-0.3, 197.89), (0.0, 198.0), (0.0, 197.89), (0.0, 198.0), (0.0, 197.89), (0.0, 198.0), (0.0, 197.89), (-0.3, 197.89), (-0.3, 197.62), (0.0, 197.89), (0.0, 197.72), (0.0, 197.89), (0.0, 197.72), (0.0, 197.89), (0.0, 197.64)]</t>
+          <t>[(0.3, 198.0), (0.3, 197.89), (3.727, 198.0), (3.727, 197.89), (3.727, 198.0), (3.727, 197.89), (9.938, 198.0), (9.938, 197.89), (0.3, 197.89), (0.3, 197.62), (3.727, 197.89), (3.727, 197.72), (3.727, 197.89), (3.727, 197.72), (9.938, 197.89), (9.938, 197.64)]</t>
         </is>
       </c>
     </row>
@@ -2605,41 +2581,25 @@
       <c r="A219" t="n">
         <v>48450</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>[(-0.3, 218.0), (-0.3, 217.86), (-9.456, 218.0), (-9.456, 217.86), (-0.3, 217.86), (-0.3, 217.73), (-9.456, 217.86), (-9.456, 217.73)]</t>
-        </is>
-      </c>
+      <c r="B219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
         <v>48475</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>[(-0.3, 219.0), (-0.3, 218.85), (-11.196, 219.0), (-11.196, 218.85), (-0.3, 218.85), (-0.3, 218.72), (-11.196, 218.85), (-11.196, 218.72)]</t>
-        </is>
-      </c>
+      <c r="B220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
         <v>48500</v>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>[(-0.3, 220.0), (-0.3, 219.84), (-12.555, 220.0), (-12.555, 219.84), (-0.3, 219.84), (-0.3, 219.69), (-12.555, 219.84), (-12.555, 219.69)]</t>
-        </is>
-      </c>
+      <c r="B221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
         <v>48525</v>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>[(-0.3, 221.0), (-0.3, 220.88), (-13.47, 221.0), (-13.47, 220.88), (-0.3, 220.88), (-0.3, 220.76), (-13.47, 220.88), (-13.47, 220.76), (-0.3, 220.76), (-0.3, 220.64), (-13.47, 220.76), (-13.47, 220.64), (-0.3, 220.64), (-0.3, 220.53), (-13.47, 220.64), (-13.47, 220.53)]</t>
-        </is>
-      </c>
+      <c r="B222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -2857,7 +2817,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[(-0.3, 243.0), (-0.3, 242.82), (-9.022, 243.0), (-9.022, 242.82), (-0.3, 242.82), (-0.3, 242.71), (-9.022, 242.82), (-9.022, 242.64)]</t>
+          <t>[(0.3, 243.0), (0.3, 242.82), (5.037, 243.0), (5.037, 242.82), (0.3, 242.82), (0.3, 242.71), (5.037, 242.82), (5.037, 242.64)]</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2827,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[(-0.3, 244.0), (-0.3, 243.81), (-9.943, 244.0), (-9.943, 243.81), (-0.3, 243.81), (-0.3, 243.67), (-9.943, 243.81), (-9.943, 243.63)]</t>
+          <t>[(0.3, 244.0), (0.3, 243.81), (5.202, 244.0), (5.202, 243.81), (0.3, 243.81), (0.3, 243.67), (5.202, 243.81), (5.202, 243.63)]</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2837,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>[(-0.3, 245.0), (-0.3, 244.82), (-9.696, 245.0), (-9.696, 244.82), (-0.3, 244.82), (-0.3, 244.69), (-9.696, 244.82), (-9.696, 244.65)]</t>
+          <t>[(0.3, 245.0), (0.3, 244.82), (5.455, 245.0), (5.455, 244.82), (0.3, 244.82), (0.3, 244.69), (5.455, 244.82), (5.455, 244.65)]</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2847,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>[(-0.3, 246.0), (-0.3, 245.86), (-9.652, 246.0), (-9.652, 245.86), (-0.3, 245.86), (-0.3, 245.73), (-9.652, 245.86), (-9.652, 245.74)]</t>
+          <t>[(0.3, 246.0), (0.3, 245.86), (5.602, 246.0), (5.602, 245.86), (0.3, 245.86), (0.3, 245.73), (5.602, 245.86), (5.602, 245.74)]</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2897,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[(-0.3, 251.0), (-0.3, 250.81), (-11.377, 251.0), (-11.377, 250.81), (-0.3, 250.81), (-0.3, 250.63), (-11.377, 250.81), (-11.377, 250.69)]</t>
+          <t>[(0.3, 251.0), (0.3, 250.81), (4.418, 251.0), (4.418, 250.81), (0.3, 250.81), (0.3, 250.63), (4.418, 250.81), (4.418, 250.69)]</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2907,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[(-0.3, 252.0), (-0.3, 251.85), (-7.959, 252.0), (-7.959, 251.85), (-0.3, 251.85), (-0.3, 251.7), (-7.959, 251.85), (-7.959, 251.7), (-0.3, 251.7), (-0.3, 251.55), (-7.959, 251.7), (-7.959, 251.55)]</t>
+          <t>[(0.3, 252.0), (0.3, 251.85), (4.286, 252.0), (4.286, 251.85), (0.3, 251.85), (0.3, 251.7), (4.286, 251.85), (4.286, 251.7), (0.3, 251.7), (0.3, 251.55), (4.286, 251.7), (4.286, 251.55)]</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2917,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[(-0.3, 253.0), (-0.3, 252.82), (-8.801, 253.0), (-8.801, 252.82), (-0.3, 252.82), (-0.3, 252.64), (-8.801, 252.82), (-8.801, 252.64), (-0.3, 252.64), (-0.3, 252.51), (-8.801, 252.64), (-8.801, 252.47)]</t>
+          <t>[(0.3, 253.0), (0.3, 252.82), (4.114, 253.0), (4.114, 252.82), (0.3, 252.82), (0.3, 252.64), (4.114, 252.82), (4.114, 252.64), (0.3, 252.64), (0.3, 252.51), (4.114, 252.64), (4.114, 252.47)]</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2927,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[(-0.3, 254.0), (-0.3, 253.76), (-9.608, 254.0), (-9.608, 253.76), (-0.3, 253.76), (-0.3, 253.59), (-9.608, 253.76), (-9.608, 253.53)]</t>
+          <t>[(0.3, 254.0), (0.3, 253.76), (4.052, 254.0), (4.052, 253.76), (0.3, 253.76), (0.3, 253.59), (4.052, 253.76), (4.052, 253.53)]</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2937,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[(-0.3, 255.0), (-0.3, 254.83), (-10.119, 255.0), (-10.119, 254.83), (-0.3, 254.83), (-0.3, 254.69), (-10.119, 254.83), (-10.119, 254.67)]</t>
+          <t>[(0.3, 255.0), (0.3, 254.83), (4.079, 255.0), (4.079, 254.83), (0.3, 254.83), (0.3, 254.69), (4.079, 254.83), (4.079, 254.67)]</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2947,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[(-0.3, 256.0), (-0.3, 255.84), (-10.601, 256.0), (-10.601, 255.84), (-0.3, 255.84), (-0.3, 255.69), (-10.601, 255.84), (-10.601, 255.68)]</t>
+          <t>[(0.3, 256.0), (0.3, 255.84), (3.989, 256.0), (3.989, 255.84), (0.3, 255.84), (0.3, 255.69), (3.989, 255.84), (3.989, 255.68)]</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2957,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[(-0.3, 257.0), (-0.3, 256.85), (-11.175, 257.0), (-11.175, 256.85), (-0.3, 256.85), (-0.3, 256.7), (-11.175, 256.85), (-11.175, 256.7), (-0.3, 256.7), (-0.3, 256.59), (-11.175, 256.7), (-11.175, 256.55)]</t>
+          <t>[(0.3, 257.0), (0.3, 256.85), (3.707, 257.0), (3.707, 256.85), (0.3, 256.85), (0.3, 256.7), (3.707, 256.85), (3.707, 256.7), (0.3, 256.7), (0.3, 256.59), (3.707, 256.7), (3.707, 256.55)]</t>
         </is>
       </c>
     </row>
@@ -3007,7 +2967,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[(-0.3, 258.0), (-0.3, 257.73), (-11.826, 258.0), (-11.826, 257.73), (-0.3, 257.73), (-0.3, 257.57), (-11.826, 257.73), (-11.826, 257.47)]</t>
+          <t>[(0.3, 258.0), (0.3, 257.73), (3.225, 258.0), (3.225, 257.73), (0.3, 257.73), (0.3, 257.57), (3.225, 257.73), (3.225, 257.47)]</t>
         </is>
       </c>
     </row>
@@ -3017,7 +2977,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[(-0.3, 259.0), (-0.3, 258.76), (-12.316, 259.0), (-12.316, 258.76), (-0.3, 258.76), (-0.3, 258.6), (-12.316, 258.76), (-12.316, 258.53)]</t>
+          <t>[(0.3, 259.0), (0.3, 258.76), (2.933, 259.0), (2.933, 258.76), (0.3, 258.76), (0.3, 258.6), (2.933, 258.76), (2.933, 258.53)]</t>
         </is>
       </c>
     </row>
@@ -3027,7 +2987,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[(-0.3, 260.0), (-0.3, 259.82), (-12.32, 260.0), (-12.32, 259.82), (-0.3, 259.82), (-0.3, 259.64), (-12.32, 259.82), (-12.32, 259.64), (-0.3, 259.64), (-0.3, 259.53), (-12.32, 259.64), (-12.32, 259.47)]</t>
+          <t>[(0.3, 260.0), (0.3, 259.82), (2.833, 260.0), (2.833, 259.82), (0.3, 259.82), (0.3, 259.64), (2.833, 259.82), (2.833, 259.64), (0.3, 259.64), (0.3, 259.53), (2.833, 259.64), (2.833, 259.47)]</t>
         </is>
       </c>
     </row>
@@ -3037,7 +2997,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[(-0.3, 261.0), (-0.3, 260.78), (-12.298, 261.0), (-12.298, 260.78), (-0.3, 260.78), (-0.3, 260.56), (-12.298, 260.78), (-12.298, 260.56), (-0.3, 260.56), (-0.3, 260.42), (-12.298, 260.56), (-12.298, 260.34)]</t>
+          <t>[(0.3, 261.0), (0.3, 260.78), (2.992, 261.0), (2.992, 260.78), (0.3, 260.78), (0.3, 260.56), (2.992, 260.78), (2.992, 260.56), (0.3, 260.56), (0.3, 260.42), (2.992, 260.56), (2.992, 260.34)]</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3007,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[(-0.3, 262.0), (-0.3, 261.74), (-12.034, 262.0), (-12.034, 261.74), (-0.3, 261.74), (-0.3, 261.48), (-12.034, 261.74), (-12.034, 261.48), (-0.3, 261.48), (-0.3, 261.34), (-12.034, 261.48), (-12.034, 261.24)]</t>
+          <t>[(0.3, 262.0), (0.3, 261.74), (3.206, 262.0), (3.206, 261.74), (0.3, 261.74), (0.3, 261.48), (3.206, 261.74), (3.206, 261.48), (0.3, 261.48), (0.3, 261.34), (3.206, 261.48), (3.206, 261.24)]</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3017,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[(-0.3, 263.0), (-0.3, 262.75), (-11.496, 263.0), (-11.496, 262.75), (-0.3, 262.75), (-0.3, 262.5), (-11.496, 262.75), (-11.496, 262.5), (-0.3, 262.5), (-0.3, 262.33), (-11.496, 262.5), (-11.496, 262.27)]</t>
+          <t>[(0.3, 263.0), (0.3, 262.75), (3.452, 263.0), (3.452, 262.75), (0.3, 262.75), (0.3, 262.5), (3.452, 262.75), (3.452, 262.5), (0.3, 262.5), (0.3, 262.33), (3.452, 262.5), (3.452, 262.27)]</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3027,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[(-0.3, 264.0), (-0.3, 263.78), (-10.837, 264.0), (-10.837, 263.78), (-0.3, 263.78), (-0.3, 263.56), (-10.837, 263.78), (-10.837, 263.56), (-0.3, 263.56), (-0.3, 263.41), (-10.837, 263.56), (-10.837, 263.34)]</t>
+          <t>[(0.3, 264.0), (0.3, 263.78), (3.961, 264.0), (3.961, 263.78), (0.3, 263.78), (0.3, 263.56), (3.961, 263.78), (3.961, 263.56), (0.3, 263.56), (0.3, 263.41), (3.961, 263.56), (3.961, 263.34)]</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3037,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[(-0.3, 265.0), (-0.3, 264.71), (-10.352, 265.0), (-10.352, 264.71), (-0.3, 264.71), (-0.3, 264.55), (-10.352, 264.71), (-10.352, 264.42)]</t>
+          <t>[(0.3, 265.0), (0.3, 264.71), (4.429, 265.0), (4.429, 264.71), (0.3, 264.71), (0.3, 264.55), (4.429, 264.71), (4.429, 264.42)]</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3047,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[(-0.3, 266.0), (-0.3, 265.75), (-10.403, 266.0), (-10.403, 265.68), (-0.3, 265.75), (-0.3, 265.5), (-10.403, 265.68), (-10.403, 265.36)]</t>
+          <t>[(0.3, 266.0), (0.3, 265.75), (4.827, 266.0), (4.827, 265.68), (0.3, 265.75), (0.3, 265.5), (4.827, 265.68), (4.827, 265.36)]</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3057,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[(-0.3, 267.0), (-0.3, 266.71), (-10.553, 267.0), (-10.553, 266.64), (-0.3, 266.71), (-0.3, 266.42), (-10.553, 266.64), (-10.553, 266.28)]</t>
+          <t>[(0.3, 267.0), (0.3, 266.71), (5.255, 267.0), (5.255, 266.64), (0.3, 266.71), (0.3, 266.42), (5.255, 266.64), (5.255, 266.28)]</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3067,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[(-0.3, 268.0), (-0.3, 267.76), (-10.486, 268.0), (-10.486, 267.76), (-0.3, 267.76), (-0.3, 267.52), (-10.486, 267.76), (-10.486, 267.52), (-0.3, 267.52), (-0.3, 267.4), (-10.486, 267.52), (-10.486, 267.29)]</t>
+          <t>[(0.3, 268.0), (0.3, 267.76), (5.447, 268.0), (5.447, 267.76), (0.3, 267.76), (0.3, 267.52), (5.447, 267.76), (5.447, 267.52), (0.3, 267.52), (0.3, 267.4), (5.447, 267.52), (5.447, 267.29)]</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3077,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[(-0.3, 269.0), (-0.3, 268.73), (-10.361, 269.0), (-10.361, 268.67), (-0.3, 268.73), (-0.3, 268.46), (-10.361, 268.67), (-10.361, 268.34)]</t>
+          <t>[(0.3, 269.0), (0.3, 268.73), (5.649, 269.0), (5.649, 268.67), (0.3, 268.73), (0.3, 268.46), (5.649, 268.67), (5.649, 268.34)]</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3087,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[(-0.3, 270.0), (-0.3, 269.71), (-9.945, 270.0), (-9.945, 269.71), (-0.3, 269.71), (-0.3, 269.55), (-9.945, 269.71), (-9.945, 269.43)]</t>
+          <t>[(0.3, 270.0), (0.3, 269.71), (6.125, 270.0), (6.125, 269.71), (0.3, 269.71), (0.3, 269.55), (6.125, 269.71), (6.125, 269.43)]</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3097,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[(-0.3, 271.0), (-0.3, 270.72), (-8.92, 271.0), (-8.92, 270.72), (-0.3, 270.72), (-0.3, 270.6), (-8.92, 270.72), (-8.92, 270.44)]</t>
+          <t>[(0.3, 271.0), (0.3, 270.72), (6.764, 271.0), (6.764, 270.72), (0.3, 270.72), (0.3, 270.6), (6.764, 270.72), (6.764, 270.44)]</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3107,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[(-0.3, 272.0), (-0.3, 271.73), (-7.976, 272.0), (-7.976, 271.73), (-0.3, 271.73), (-0.3, 271.61), (-7.976, 271.73), (-7.976, 271.47)]</t>
+          <t>[(0.3, 272.0), (0.3, 271.73), (7.393, 272.0), (7.393, 271.73), (0.3, 271.73), (0.3, 271.61), (7.393, 271.73), (7.393, 271.47)]</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3117,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[(-0.3, 273.0), (-0.3, 272.83), (-6.948, 273.0), (-6.948, 272.83), (-0.3, 272.83), (-0.3, 272.66), (-6.948, 272.83), (-6.948, 272.53)]</t>
+          <t>[(0.3, 273.0), (0.3, 272.83), (8.097, 273.0), (8.097, 272.83), (0.3, 272.83), (0.3, 272.66), (8.097, 272.83), (8.097, 272.53)]</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3127,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[(-0.3, 274.0), (-0.3, 273.88), (-5.91, 274.0), (-5.91, 273.88), (-0.3, 273.88), (-0.3, 273.74), (-5.91, 273.88), (-5.91, 273.58)]</t>
+          <t>[(0.3, 274.0), (0.3, 273.88), (8.776, 274.0), (8.776, 273.88), (0.3, 273.88), (0.3, 273.74), (8.776, 273.88), (8.776, 273.58)]</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3137,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[(-0.3, 275.0), (-0.3, 274.74), (-4.864, 275.0), (-4.864, 274.74), (-0.3, 274.74), (-0.3, 274.63), (-4.864, 274.74), (-4.864, 274.48)]</t>
+          <t>[(0.3, 275.0), (0.3, 274.74), (9.236, 275.0), (9.236, 274.74), (0.3, 274.74), (0.3, 274.63), (9.236, 274.74), (9.236, 274.48)]</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3147,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[(-0.3, 276.0), (-0.3, 275.79), (0.0, 276.0), (0.0, 275.79), (0.0, 276.0), (0.0, 275.74), (-4.198, 276.0), (-4.198, 275.74), (-0.3, 275.79), (-0.3, 275.62), (0.0, 275.79), (0.0, 275.59), (0.0, 275.74), (0.0, 275.59), (-4.198, 275.74), (-4.198, 275.49)]</t>
+          <t>[(0.3, 276.0), (0.3, 275.79), (2.334, 276.0), (2.334, 275.79), (2.334, 276.0), (2.334, 275.74), (9.476, 276.0), (9.476, 275.74), (0.3, 275.79), (0.3, 275.62), (2.334, 275.79), (2.334, 275.59), (2.334, 275.74), (2.334, 275.59), (9.476, 275.74), (9.476, 275.49)]</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3157,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[(-0.3, 277.0), (-0.3, 276.85), (0.0, 277.0), (0.0, 276.85), (0.0, 277.0), (0.0, 276.73), (-3.617, 277.0), (-3.617, 276.73), (-0.3, 276.85), (-0.3, 276.7), (0.0, 276.85), (0.0, 276.7), (0.0, 276.73), (0.0, 276.55), (-3.617, 276.73), (-3.617, 276.47), (-0.3, 276.7), (-0.3, 276.55), (0.0, 276.7), (0.0, 276.55), (0.0, 276.55), (0.0, 276.55), (-3.617, 276.47), (-3.617, 276.47)]</t>
+          <t>[(0.3, 277.0), (0.3, 276.85), (2.511, 277.0), (2.511, 276.85), (2.511, 277.0), (2.511, 276.73), (9.744, 277.0), (9.744, 276.73), (0.3, 276.85), (0.3, 276.7), (2.511, 276.85), (2.511, 276.7), (2.511, 276.73), (2.511, 276.55), (9.744, 276.73), (9.744, 276.47), (0.3, 276.7), (0.3, 276.55), (2.511, 276.7), (2.511, 276.55), (2.511, 276.55), (2.511, 276.55), (9.744, 276.47), (9.744, 276.47)]</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3167,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[(-0.3, 278.0), (-0.3, 277.87), (0.0, 278.0), (0.0, 277.87), (0.0, 278.0), (0.0, 277.81), (-3.264, 278.0), (-3.264, 277.81), (-0.3, 277.87), (-0.3, 277.74), (0.0, 277.87), (0.0, 277.74), (0.0, 277.62), (0.0, 277.62), (-3.264, 277.81), (-3.264, 277.62), (-0.3, 277.74), (-0.3, 277.61), (0.0, 277.74), (0.0, 277.61), (0.0, 277.62), (0.0, 277.5), (-3.264, 277.62), (-3.264, 277.45), (-0.3, 277.61), (-0.3, 277.5), (0.0, 277.61), (0.0, 277.5), (0.0, 277.5), (0.0, 277.5), (-3.264, 277.45), (-3.264, 277.45)]</t>
+          <t>[(0.3, 278.0), (0.3, 277.87), (2.621, 278.0), (2.621, 277.87), (2.621, 278.0), (2.621, 277.81), (9.83, 278.0), (9.83, 277.81), (0.3, 277.87), (0.3, 277.74), (2.621, 277.87), (2.621, 277.74), (2.621, 277.81), (2.621, 277.62), (9.83, 277.81), (9.83, 277.62), (0.3, 277.74), (0.3, 277.61), (2.621, 277.74), (2.621, 277.61), (2.621, 277.62), (2.621, 277.5), (9.83, 277.62), (9.83, 277.45), (0.3, 277.61), (0.3, 277.5), (2.621, 277.61), (2.621, 277.5), (2.621, 277.5), (2.621, 277.5), (9.83, 277.45), (9.83, 277.45)]</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3177,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[(-0.3, 279.0), (-0.3, 278.85), (0.0, 279.0), (0.0, 278.85), (0.0, 279.0), (0.0, 278.84), (-3.209, 279.0), (-3.209, 278.84), (-0.3, 278.85), (-0.3, 278.7), (0.0, 278.85), (0.0, 278.7), (0.0, 278.68), (0.0, 278.68), (-3.209, 278.84), (-3.209, 278.68), (-0.3, 278.7), (-0.3, 278.55), (0.0, 278.7), (0.0, 278.55), (0.0, 278.68), (0.0, 278.52), (-3.209, 278.68), (-3.209, 278.52), (-0.3, 278.55), (-0.3, 278.43), (0.0, 278.55), (0.0, 278.41), (0.0, 278.52), (0.0, 278.41), (-3.209, 278.52), (-3.209, 278.36)]</t>
+          <t>[(0.3, 279.0), (0.3, 278.85), (2.546, 279.0), (2.546, 278.85), (2.546, 279.0), (2.546, 278.84), (9.8, 279.0), (9.8, 278.84), (0.3, 278.85), (0.3, 278.7), (2.546, 278.85), (2.546, 278.7), (2.546, 278.84), (2.546, 278.68), (9.8, 278.84), (9.8, 278.68), (0.3, 278.7), (0.3, 278.55), (2.546, 278.7), (2.546, 278.55), (2.546, 278.68), (2.546, 278.52), (9.8, 278.68), (9.8, 278.52), (0.3, 278.55), (0.3, 278.43), (2.546, 278.55), (2.546, 278.41), (2.546, 278.52), (2.546, 278.41), (9.8, 278.52), (9.8, 278.36)]</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3187,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[(-0.3, 280.0), (-0.3, 279.83), (0.0, 280.0), (0.0, 279.83), (0.0, 280.0), (0.0, 279.83), (-3.332, 280.0), (-3.332, 279.83), (-0.3, 279.83), (-0.3, 279.66), (0.0, 279.83), (0.0, 279.66), (0.0, 279.66), (0.0, 279.66), (-3.332, 279.83), (-3.332, 279.66), (-0.3, 279.66), (-0.3, 279.49), (0.0, 279.66), (0.0, 279.49), (0.0, 279.66), (0.0, 279.49), (-3.332, 279.66), (-3.332, 279.49), (-0.3, 279.49), (-0.3, 279.36), (0.0, 279.49), (0.0, 279.35), (0.0, 279.49), (0.0, 279.35), (-3.332, 279.49), (-3.332, 279.36)]</t>
+          <t>[(0.3, 280.0), (0.3, 279.83), (2.556, 280.0), (2.556, 279.83), (2.556, 280.0), (2.556, 279.83), (9.779, 280.0), (9.779, 279.83), (0.3, 279.83), (0.3, 279.66), (2.556, 279.83), (2.556, 279.66), (2.556, 279.83), (2.556, 279.66), (9.779, 279.83), (9.779, 279.66), (0.3, 279.66), (0.3, 279.49), (2.556, 279.66), (2.556, 279.49), (2.556, 279.66), (2.556, 279.49), (9.779, 279.66), (9.779, 279.49), (0.3, 279.49), (0.3, 279.36), (2.556, 279.49), (2.556, 279.35), (2.556, 279.49), (2.556, 279.35), (9.779, 279.49), (9.779, 279.36)]</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3197,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[(-0.3, 281.0), (-0.3, 280.83), (0.0, 281.0), (0.0, 280.83), (0.0, 281.0), (0.0, 280.77), (-3.387, 281.0), (-3.387, 280.77), (-0.3, 280.83), (-0.3, 280.66), (0.0, 280.83), (0.0, 280.66), (0.0, 280.54), (0.0, 280.54), (-3.387, 280.77), (-3.387, 280.54), (-0.3, 280.66), (-0.3, 280.49), (0.0, 280.66), (0.0, 280.49), (0.0, 280.54), (0.0, 280.33), (-3.387, 280.54), (-3.387, 280.43), (-0.3, 280.49), (-0.3, 280.34), (0.0, 280.49), (0.0, 280.33), (0.0, 280.33), (0.0, 280.33), (-3.387, 280.43), (-3.387, 280.43)]</t>
+          <t>[(0.3, 281.0), (0.3, 280.83), (2.482, 281.0), (2.482, 280.83), (2.482, 281.0), (2.482, 280.77), (9.709, 281.0), (9.709, 280.77), (0.3, 280.83), (0.3, 280.66), (2.482, 280.83), (2.482, 280.66), (2.482, 280.77), (2.482, 280.54), (9.709, 280.77), (9.709, 280.54), (0.3, 280.66), (0.3, 280.49), (2.482, 280.66), (2.482, 280.49), (2.482, 280.54), (2.482, 280.33), (9.709, 280.54), (9.709, 280.43), (0.3, 280.49), (0.3, 280.34), (2.482, 280.49), (2.482, 280.33), (2.482, 280.33), (2.482, 280.33), (9.709, 280.43), (9.709, 280.43)]</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3217,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[(-0.3, 283.0), (-0.3, 282.76), (0.0, 283.0), (0.0, 282.76), (0.0, 283.0), (0.0, 282.7), (-3.153, 283.0), (-3.153, 282.84), (-0.3, 282.76), (-0.3, 282.52), (0.0, 282.76), (0.0, 282.52), (0.0, 282.7), (0.0, 282.4), (-3.153, 282.84), (-3.153, 282.68), (-0.3, 282.52), (-0.3, 282.29), (0.0, 282.52), (0.0, 282.39), (0.0, 282.4), (0.0, 282.4), (-3.153, 282.68), (-3.153, 282.68)]</t>
+          <t>[(0.3, 283.0), (0.3, 282.76), (2.698, 283.0), (2.698, 282.76), (2.698, 283.0), (2.698, 282.7), (9.968, 283.0), (9.968, 282.84), (0.3, 282.76), (0.3, 282.52), (2.698, 282.76), (2.698, 282.52), (2.698, 282.7), (2.698, 282.4), (9.968, 282.84), (9.968, 282.68), (0.3, 282.52), (0.3, 282.29), (2.698, 282.52), (2.698, 282.39), (2.698, 282.4), (2.698, 282.4), (9.968, 282.68), (9.968, 282.68)]</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3227,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[(-0.3, 284.0), (-0.3, 283.68), (0.0, 284.0), (0.0, 283.74), (0.0, 284.0), (0.0, 283.74), (-2.809, 284.0), (-2.809, 283.88), (-0.3, 283.68), (-0.3, 283.36), (0.0, 283.74), (0.0, 283.48), (0.0, 283.74), (0.0, 283.48), (-2.809, 283.88), (-2.809, 283.76)]</t>
+          <t>[(0.3, 284.0), (0.3, 283.68), (3.062, 284.0), (3.062, 283.74), (3.062, 284.0), (3.062, 283.74), (10.196, 284.0), (10.196, 283.88), (0.3, 283.68), (0.3, 283.36), (3.062, 283.74), (3.062, 283.48), (3.062, 283.74), (3.062, 283.48), (10.196, 283.88), (10.196, 283.76)]</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3237,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>[(-0.3, 285.0), (-0.3, 284.7), (0.0, 285.0), (0.0, 284.7), (0.0, 285.0), (0.0, 284.76), (-2.587, 285.0), (-2.587, 284.86), (-0.3, 284.7), (-0.3, 284.4), (0.0, 284.7), (0.0, 284.51), (0.0, 284.76), (0.0, 284.52), (-2.587, 284.86), (-2.587, 284.72)]</t>
+          <t>[(0.3, 285.0), (0.3, 284.7), (3.23, 285.0), (3.23, 284.7), (3.23, 285.0), (3.23, 284.76), (10.247, 285.0), (10.247, 284.86), (0.3, 284.7), (0.3, 284.4), (3.23, 284.7), (3.23, 284.51), (3.23, 284.76), (3.23, 284.52), (10.247, 284.86), (10.247, 284.72)]</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3267,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>[(-0.3, 288.0), (-0.3, 287.8), (0.0, 288.0), (0.0, 287.8), (0.0, 288.0), (0.0, 287.74), (0.0, 288.0), (0.0, 287.74), (-0.3, 287.8), (-0.3, 287.6), (0.0, 287.8), (0.0, 287.6), (0.0, 287.74), (0.0, 287.48), (0.0, 287.74), (0.0, 287.55), (-0.3, 287.6), (-0.3, 287.41), (0.0, 287.6), (0.0, 287.48), (0.0, 287.48), (0.0, 287.48), (0.0, 287.55), (0.0, 287.55)]</t>
+          <t>[(0.3, 288.0), (0.3, 287.8), (3.579, 288.0), (3.579, 287.8), (3.579, 288.0), (3.579, 287.74), (10.829, 288.0), (10.829, 287.74), (0.3, 287.8), (0.3, 287.6), (3.579, 287.8), (3.579, 287.6), (3.579, 287.74), (3.579, 287.48), (10.829, 287.74), (10.829, 287.55), (0.3, 287.6), (0.3, 287.41), (3.579, 287.6), (3.579, 287.48), (3.579, 287.48), (3.579, 287.48), (10.829, 287.55), (10.829, 287.55)]</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3277,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>[(-0.3, 289.0), (-0.3, 288.85), (0.0, 289.0), (0.0, 288.85), (0.0, 289.0), (0.0, 288.71), (0.0, 289.0), (0.0, 288.62), (-0.3, 288.85), (-0.3, 288.7), (0.0, 288.85), (0.0, 288.7), (0.0, 288.42), (0.0, 288.42), (0.0, 288.62), (0.0, 288.24), (-0.3, 288.7), (-0.3, 288.55), (0.0, 288.7), (0.0, 288.55), (0.0, 288.42), (0.0, 288.42), (0.0, 288.24), (0.0, 288.24), (-0.3, 288.55), (-0.3, 288.42), (0.0, 288.55), (0.0, 288.42), (0.0, 288.42), (0.0, 288.42), (0.0, 288.24), (0.0, 288.24)]</t>
+          <t>[(0.3, 289.0), (0.3, 288.85), (3.676, 289.0), (3.676, 288.85), (3.676, 289.0), (3.676, 288.71), (10.918, 289.0), (10.918, 288.62), (0.3, 288.85), (0.3, 288.7), (3.676, 288.85), (3.676, 288.7), (3.676, 288.71), (3.676, 288.42), (10.918, 288.62), (10.918, 288.24), (0.3, 288.7), (0.3, 288.55), (3.676, 288.7), (3.676, 288.55), (3.676, 288.42), (3.676, 288.42), (10.918, 288.24), (10.918, 288.24), (0.3, 288.55), (0.3, 288.42), (3.676, 288.55), (3.676, 288.42), (3.676, 288.42), (3.676, 288.42), (10.918, 288.24), (10.918, 288.24)]</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3287,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>[(-0.3, 290.0), (-0.3, 289.81), (0.0, 290.0), (0.0, 289.81), (0.0, 290.0), (0.0, 289.72), (0.0, 290.0), (0.0, 289.61), (-0.3, 289.81), (-0.3, 289.62), (0.0, 289.81), (0.0, 289.62), (0.0, 289.72), (0.0, 289.44), (0.0, 289.61), (0.0, 289.22), (-0.3, 289.62), (-0.3, 289.49), (0.0, 289.62), (0.0, 289.45), (0.0, 289.44), (0.0, 289.44), (0.0, 289.22), (0.0, 289.22)]</t>
+          <t>[(0.3, 290.0), (0.3, 289.81), (3.634, 290.0), (3.634, 289.81), (3.634, 290.0), (3.634, 289.72), (10.797, 290.0), (10.797, 289.61), (0.3, 289.81), (0.3, 289.62), (3.634, 289.81), (3.634, 289.62), (3.634, 289.72), (3.634, 289.44), (10.797, 289.61), (10.797, 289.22), (0.3, 289.62), (0.3, 289.49), (3.634, 289.62), (3.634, 289.45), (3.634, 289.44), (3.634, 289.44), (10.797, 289.22), (10.797, 289.22)]</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3297,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>[(-0.3, 291.0), (-0.3, 290.75), (0.0, 291.0), (0.0, 290.75), (0.0, 291.0), (0.0, 290.75), (-2.383, 291.0), (-2.383, 290.64), (-0.3, 290.75), (-0.3, 290.61), (0.0, 290.75), (0.0, 290.5), (0.0, 290.75), (0.0, 290.5), (-2.383, 290.64), (-2.383, 290.28)]</t>
+          <t>[(0.3, 291.0), (0.3, 290.75), (3.47, 291.0), (3.47, 290.75), (3.47, 291.0), (3.47, 290.75), (10.586, 291.0), (10.586, 290.64), (0.3, 290.75), (0.3, 290.61), (3.47, 290.75), (3.47, 290.5), (3.47, 290.75), (3.47, 290.5), (10.586, 290.64), (10.586, 290.28)]</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3307,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>[(-0.3, 292.0), (-0.3, 291.89), (0.0, 292.0), (0.0, 291.89), (0.0, 292.0), (0.0, 291.84), (-2.517, 292.0), (-2.517, 291.71), (-0.3, 291.89), (-0.3, 291.73), (0.0, 291.89), (0.0, 291.67), (0.0, 291.84), (0.0, 291.68), (-2.517, 291.71), (-2.517, 291.42)]</t>
+          <t>[(0.3, 292.0), (0.3, 291.89), (3.363, 292.0), (3.363, 291.89), (3.363, 292.0), (3.363, 291.84), (10.444, 292.0), (10.444, 291.71), (0.3, 291.89), (0.3, 291.73), (3.363, 291.89), (3.363, 291.67), (3.363, 291.84), (3.363, 291.68), (10.444, 291.71), (10.444, 291.42)]</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3317,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[(-0.3, 293.0), (-0.3, 292.83), (0.0, 293.0), (0.0, 292.83), (0.0, 293.0), (0.0, 292.84), (-2.637, 293.0), (-2.637, 292.72), (-0.3, 292.83), (-0.3, 292.69), (0.0, 292.83), (0.0, 292.67), (0.0, 292.84), (0.0, 292.68), (-2.637, 292.72), (-2.637, 292.44)]</t>
+          <t>[(0.3, 293.0), (0.3, 292.83), (3.239, 293.0), (3.239, 292.83), (3.239, 293.0), (3.239, 292.84), (10.339, 293.0), (10.339, 292.72), (0.3, 292.83), (0.3, 292.69), (3.239, 292.83), (3.239, 292.67), (3.239, 292.84), (3.239, 292.68), (10.339, 292.72), (10.339, 292.44)]</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3327,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>[(-0.3, 294.0), (-0.3, 293.82), (0.0, 294.0), (0.0, 293.82), (0.0, 294.0), (0.0, 293.82), (-2.775, 294.0), (-2.775, 293.7), (-0.3, 293.82), (-0.3, 293.68), (0.0, 293.82), (0.0, 293.64), (0.0, 293.82), (0.0, 293.64), (-2.775, 293.7), (-2.775, 293.4)]</t>
+          <t>[(0.3, 294.0), (0.3, 293.82), (3.232, 294.0), (3.232, 293.82), (3.232, 294.0), (3.232, 293.82), (10.248, 294.0), (10.248, 293.7), (0.3, 293.82), (0.3, 293.68), (3.232, 293.82), (3.232, 293.64), (3.232, 293.82), (3.232, 293.64), (10.248, 293.7), (10.248, 293.4)]</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3337,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[(-0.3, 295.0), (-0.3, 294.81), (0.0, 295.0), (0.0, 294.81), (0.0, 295.0), (0.0, 294.82), (-2.84, 295.0), (-2.84, 294.68), (-0.3, 294.81), (-0.3, 294.65), (0.0, 294.81), (0.0, 294.63), (0.0, 294.82), (0.0, 294.64), (-2.84, 294.68), (-2.84, 294.36)]</t>
+          <t>[(0.3, 295.0), (0.3, 294.81), (3.079, 295.0), (3.079, 294.81), (3.079, 295.0), (3.079, 294.82), (10.201, 295.0), (10.201, 294.68), (0.3, 294.81), (0.3, 294.65), (3.079, 294.81), (3.079, 294.63), (3.079, 294.82), (3.079, 294.64), (10.201, 294.68), (10.201, 294.36)]</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3347,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>[(-0.3, 296.0), (-0.3, 295.77), (0.0, 296.0), (0.0, 295.77), (0.0, 296.0), (0.0, 295.78), (-2.912, 296.0), (-2.912, 295.68), (-0.3, 295.77), (-0.3, 295.6), (0.0, 295.77), (0.0, 295.55), (0.0, 295.78), (0.0, 295.56), (-2.912, 295.68), (-2.912, 295.36)]</t>
+          <t>[(0.3, 296.0), (0.3, 295.77), (3.014, 296.0), (3.014, 295.77), (3.014, 296.0), (3.014, 295.78), (10.132, 296.0), (10.132, 295.68), (0.3, 295.77), (0.3, 295.6), (3.014, 295.77), (3.014, 295.55), (3.014, 295.78), (3.014, 295.56), (10.132, 295.68), (10.132, 295.36)]</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3357,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>[(-0.3, 297.0), (-0.3, 296.85), (0.0, 297.0), (0.0, 296.85), (0.0, 297.0), (0.0, 296.71), (-3.01, 297.0), (-3.01, 296.71), (-0.3, 296.85), (-0.3, 296.7), (0.0, 296.85), (0.0, 296.7), (0.0, 296.71), (0.0, 296.56), (-3.01, 296.71), (-3.01, 296.43), (-0.3, 296.7), (-0.3, 296.57), (0.0, 296.7), (0.0, 296.56), (0.0, 296.56), (0.0, 296.56), (-3.01, 296.43), (-3.01, 296.43)]</t>
+          <t>[(0.3, 297.0), (0.3, 296.85), (2.96, 297.0), (2.96, 296.85), (2.96, 297.0), (2.96, 296.71), (10.109, 297.0), (10.109, 296.71), (0.3, 296.85), (0.3, 296.7), (2.96, 296.85), (2.96, 296.7), (2.96, 296.71), (2.96, 296.56), (10.109, 296.71), (10.109, 296.43), (0.3, 296.7), (0.3, 296.57), (2.96, 296.7), (2.96, 296.56), (2.96, 296.56), (2.96, 296.56), (10.109, 296.43), (10.109, 296.43)]</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3367,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>[(-0.3, 298.0), (-0.3, 297.75), (0.0, 298.0), (0.0, 297.75), (0.0, 298.0), (0.0, 297.72), (-2.908, 298.0), (-2.908, 297.72), (-0.3, 297.75), (-0.3, 297.5), (0.0, 297.75), (0.0, 297.56), (0.0, 297.72), (0.0, 297.56), (-2.908, 297.72), (-2.908, 297.45)]</t>
+          <t>[(0.3, 298.0), (0.3, 297.75), (2.938, 298.0), (2.938, 297.75), (2.938, 298.0), (2.938, 297.72), (10.185, 298.0), (10.185, 297.72), (0.3, 297.75), (0.3, 297.5), (2.938, 297.75), (2.938, 297.56), (2.938, 297.72), (2.938, 297.56), (10.185, 297.72), (10.185, 297.45)]</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3377,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>[(-0.3, 299.0), (-0.3, 298.84), (0.0, 299.0), (0.0, 298.84), (0.0, 299.0), (0.0, 298.85), (-2.859, 299.0), (-2.859, 298.85), (-0.3, 298.84), (-0.3, 298.68), (0.0, 298.84), (0.0, 298.68), (0.0, 298.85), (0.0, 298.7), (-2.859, 298.85), (-2.859, 298.7), (-0.3, 298.68), (-0.3, 298.53), (0.0, 298.68), (0.0, 298.55), (0.0, 298.7), (0.0, 298.55), (-2.859, 298.7), (-2.859, 298.56)]</t>
+          <t>[(0.3, 299.0), (0.3, 298.84), (2.987, 299.0), (2.987, 298.84), (2.987, 299.0), (2.987, 298.85), (10.292, 299.0), (10.292, 298.85), (0.3, 298.84), (0.3, 298.68), (2.987, 298.84), (2.987, 298.68), (2.987, 298.85), (2.987, 298.7), (10.292, 298.85), (10.292, 298.7), (0.3, 298.68), (0.3, 298.53), (2.987, 298.68), (2.987, 298.55), (2.987, 298.7), (2.987, 298.55), (10.292, 298.7), (10.292, 298.56)]</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3387,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>[(-0.3, 300.0), (-0.3, 299.83), (0.0, 300.0), (0.0, 299.83), (0.0, 300.0), (0.0, 299.76), (-2.716, 300.0), (-2.716, 299.76), (-0.3, 299.83), (-0.3, 299.66), (0.0, 299.83), (0.0, 299.66), (0.0, 299.76), (0.0, 299.53), (-2.716, 299.76), (-2.716, 299.6), (-0.3, 299.66), (-0.3, 299.51), (0.0, 299.66), (0.0, 299.53), (0.0, 299.53), (0.0, 299.53), (-2.716, 299.6), (-2.716, 299.6)]</t>
+          <t>[(0.3, 300.0), (0.3, 299.83), (3.18, 300.0), (3.18, 299.83), (3.18, 300.0), (3.18, 299.76), (10.429, 300.0), (10.429, 299.76), (0.3, 299.83), (0.3, 299.66), (3.18, 299.83), (3.18, 299.66), (3.18, 299.76), (3.18, 299.53), (10.429, 299.76), (10.429, 299.6), (0.3, 299.66), (0.3, 299.51), (3.18, 299.66), (3.18, 299.53), (3.18, 299.53), (3.18, 299.53), (10.429, 299.6), (10.429, 299.6)]</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3397,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>[(-0.3, 301.0), (-0.3, 300.83), (0.0, 301.0), (0.0, 300.83), (0.0, 301.0), (0.0, 300.77), (-2.574, 301.0), (-2.574, 300.77), (-0.3, 300.83), (-0.3, 300.66), (0.0, 300.83), (0.0, 300.66), (0.0, 300.77), (0.0, 300.54), (-2.574, 300.77), (-2.574, 300.6), (-0.3, 300.66), (-0.3, 300.5), (0.0, 300.66), (0.0, 300.54), (0.0, 300.54), (0.0, 300.54), (-2.574, 300.6), (-2.574, 300.6)]</t>
+          <t>[(0.3, 301.0), (0.3, 300.83), (3.307, 301.0), (3.307, 300.83), (3.307, 301.0), (3.307, 300.77), (10.541, 301.0), (10.541, 300.77), (0.3, 300.83), (0.3, 300.66), (3.307, 300.83), (3.307, 300.66), (3.307, 300.77), (3.307, 300.54), (10.541, 300.77), (10.541, 300.6), (0.3, 300.66), (0.3, 300.5), (3.307, 300.66), (3.307, 300.54), (3.307, 300.54), (3.307, 300.54), (10.541, 300.6), (10.541, 300.6)]</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3407,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>[(-0.3, 302.0), (-0.3, 301.8), (0.0, 302.0), (0.0, 301.8), (0.0, 302.0), (0.0, 301.74), (-2.465, 302.0), (-2.465, 301.74), (-0.3, 301.8), (-0.3, 301.6), (0.0, 301.8), (0.0, 301.6), (0.0, 301.74), (0.0, 301.49), (-2.465, 301.74), (-2.465, 301.57), (-0.3, 301.6), (-0.3, 301.42), (0.0, 301.6), (0.0, 301.49), (0.0, 301.49), (0.0, 301.49), (-2.465, 301.57), (-2.465, 301.57)]</t>
+          <t>[(0.3, 302.0), (0.3, 301.8), (3.423, 302.0), (3.423, 301.8), (3.423, 302.0), (3.423, 301.74), (10.533, 302.0), (10.533, 301.74), (0.3, 301.8), (0.3, 301.6), (3.423, 301.8), (3.423, 301.6), (3.423, 301.74), (3.423, 301.49), (10.533, 301.74), (10.533, 301.57), (0.3, 301.6), (0.3, 301.42), (3.423, 301.6), (3.423, 301.49), (3.423, 301.49), (3.423, 301.49), (10.533, 301.57), (10.533, 301.57)]</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3417,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[(-0.3, 303.0), (-0.3, 302.81), (0.0, 303.0), (0.0, 302.81), (0.0, 303.0), (0.0, 302.81), (0.0, 303.0), (0.0, 302.81), (-0.3, 302.81), (-0.3, 302.62), (0.0, 302.81), (0.0, 302.62), (0.0, 302.81), (0.0, 302.51), (0.0, 302.81), (0.0, 302.66), (-0.3, 302.62), (-0.3, 302.43), (0.0, 302.62), (0.0, 302.51), (0.0, 302.51), (0.0, 302.51), (0.0, 302.66), (0.0, 302.66)]</t>
+          <t>[(0.3, 303.0), (0.3, 302.81), (3.633, 303.0), (3.633, 302.81), (3.633, 303.0), (3.633, 302.81), (10.731, 303.0), (10.731, 302.81), (0.3, 302.81), (0.3, 302.62), (3.633, 302.81), (3.633, 302.62), (3.633, 302.81), (3.633, 302.51), (10.731, 302.81), (10.731, 302.66), (0.3, 302.62), (0.3, 302.43), (3.633, 302.62), (3.633, 302.51), (3.633, 302.51), (3.633, 302.51), (10.731, 302.66), (10.731, 302.66)]</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3447,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>[(-0.3, 306.0), (-0.3, 305.75), (0.0, 306.0), (0.0, 305.75), (0.0, 306.0), (0.0, 305.89), (0.0, 306.0), (0.0, 305.89), (-0.3, 305.75), (-0.3, 305.51), (0.0, 305.75), (0.0, 305.6), (0.0, 305.89), (0.0, 305.6), (0.0, 305.89), (0.0, 305.75)]</t>
+          <t>[(0.3, 306.0), (0.3, 305.75), (3.987, 306.0), (3.987, 305.75), (3.987, 306.0), (3.987, 305.89), (11.199, 306.0), (11.199, 305.89), (0.3, 305.75), (0.3, 305.51), (3.987, 305.75), (3.987, 305.6), (3.987, 305.89), (3.987, 305.6), (11.199, 305.89), (11.199, 305.75)]</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3467,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[(-0.3, 308.0), (-0.3, 307.74), (0.0, 308.0), (0.0, 307.74), (0.0, 308.0), (0.0, 307.89), (0.0, 308.0), (0.0, 307.89), (-0.3, 307.74), (-0.3, 307.49), (0.0, 307.74), (0.0, 307.59), (0.0, 307.89), (0.0, 307.59), (0.0, 307.89), (0.0, 307.72)]</t>
+          <t>[(0.3, 308.0), (0.3, 307.74), (4.2, 308.0), (4.2, 307.74), (4.2, 308.0), (4.2, 307.89), (11.38, 308.0), (11.38, 307.89), (0.3, 307.74), (0.3, 307.49), (4.2, 307.74), (4.2, 307.59), (4.2, 307.89), (4.2, 307.59), (11.38, 307.89), (11.38, 307.72)]</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3477,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[(-0.3, 309.0), (-0.3, 308.71), (0.0, 309.0), (0.0, 308.71), (0.0, 309.0), (0.0, 308.87), (0.0, 309.0), (0.0, 308.87), (-0.3, 308.71), (-0.3, 308.43), (0.0, 308.71), (0.0, 308.57), (0.0, 308.87), (0.0, 308.57), (0.0, 308.87), (0.0, 308.72)]</t>
+          <t>[(0.3, 309.0), (0.3, 308.71), (4.209, 309.0), (4.209, 308.71), (4.209, 309.0), (4.209, 308.87), (11.416, 309.0), (11.416, 308.87), (0.3, 308.71), (0.3, 308.43), (4.209, 308.71), (4.209, 308.57), (4.209, 308.87), (4.209, 308.57), (11.416, 308.87), (11.416, 308.72)]</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3517,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[(-0.3, 313.0), (-0.3, 312.74), (0.0, 313.0), (0.0, 312.74), (0.0, 313.0), (0.0, 312.89), (0.0, 313.0), (0.0, 312.89), (-0.3, 312.74), (-0.3, 312.48), (0.0, 312.74), (0.0, 312.63), (0.0, 312.89), (0.0, 312.63), (0.0, 312.89), (0.0, 312.75)]</t>
+          <t>[(0.3, 313.0), (0.3, 312.74), (4.512, 313.0), (4.512, 312.74), (4.512, 313.0), (4.512, 312.89), (11.664, 313.0), (11.664, 312.89), (0.3, 312.74), (0.3, 312.48), (4.512, 312.74), (4.512, 312.63), (4.512, 312.89), (4.512, 312.63), (11.664, 312.89), (11.664, 312.75)]</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3527,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>[(-0.3, 314.0), (-0.3, 313.66), (0.0, 314.0), (0.0, 313.74), (0.0, 314.0), (0.0, 313.74), (0.0, 314.0), (0.0, 313.85), (-0.3, 313.66), (-0.3, 313.32), (0.0, 313.74), (0.0, 313.48), (0.0, 313.74), (0.0, 313.48), (0.0, 313.85), (0.0, 313.7)]</t>
+          <t>[(0.3, 314.0), (0.3, 313.66), (4.383, 314.0), (4.383, 313.74), (4.383, 314.0), (4.383, 313.74), (11.56, 314.0), (11.56, 313.85), (0.3, 313.66), (0.3, 313.32), (4.383, 313.74), (4.383, 313.48), (4.383, 313.74), (4.383, 313.48), (11.56, 313.85), (11.56, 313.7)]</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3547,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>[(-0.3, 316.0), (-0.3, 315.72), (0.0, 316.0), (0.0, 315.72), (0.0, 316.0), (0.0, 315.77), (0.0, 316.0), (0.0, 315.77), (-0.3, 315.72), (-0.3, 315.45), (0.0, 315.72), (0.0, 315.54), (0.0, 315.77), (0.0, 315.54), (0.0, 315.77), (0.0, 315.66)]</t>
+          <t>[(0.3, 316.0), (0.3, 315.72), (4.129, 316.0), (4.129, 315.72), (4.129, 316.0), (4.129, 315.77), (11.157, 316.0), (11.157, 315.77), (0.3, 315.72), (0.3, 315.45), (4.129, 315.72), (4.129, 315.54), (4.129, 315.77), (4.129, 315.54), (11.157, 315.77), (11.157, 315.66)]</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3557,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>[(-0.3, 317.0), (-0.3, 316.81), (0.0, 317.0), (0.0, 316.81), (0.0, 317.0), (0.0, 316.75), (0.0, 317.0), (0.0, 316.75), (-0.3, 316.81), (-0.3, 316.62), (0.0, 316.81), (0.0, 316.62), (0.0, 316.75), (0.0, 316.51), (0.0, 316.75), (0.0, 316.6), (-0.3, 316.62), (-0.3, 316.43), (0.0, 316.62), (0.0, 316.51), (0.0, 316.51), (0.0, 316.51), (0.0, 316.6), (0.0, 316.6)]</t>
+          <t>[(0.3, 317.0), (0.3, 316.81), (4.011, 317.0), (4.011, 316.81), (4.011, 317.0), (4.011, 316.75), (10.917, 317.0), (10.917, 316.75), (0.3, 316.81), (0.3, 316.62), (4.011, 316.81), (4.011, 316.62), (4.011, 316.75), (4.011, 316.51), (10.917, 316.75), (10.917, 316.6), (0.3, 316.62), (0.3, 316.43), (4.011, 316.62), (4.011, 316.51), (4.011, 316.51), (4.011, 316.51), (10.917, 316.6), (10.917, 316.6)]</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3567,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>[(-0.3, 318.0), (-0.3, 317.75), (0.0, 318.0), (0.0, 317.75), (0.0, 318.0), (0.0, 317.78), (0.0, 318.0), (0.0, 317.78), (-0.3, 317.75), (-0.3, 317.5), (0.0, 317.75), (0.0, 317.57), (0.0, 317.78), (0.0, 317.57), (0.0, 317.78), (0.0, 317.6)]</t>
+          <t>[(0.3, 318.0), (0.3, 317.75), (3.772, 318.0), (3.772, 317.75), (3.772, 318.0), (3.772, 317.78), (10.741, 318.0), (10.741, 317.78), (0.3, 317.75), (0.3, 317.5), (3.772, 317.75), (3.772, 317.57), (3.772, 317.78), (3.772, 317.57), (10.741, 317.78), (10.741, 317.6)]</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3577,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>[(-0.3, 319.0), (-0.3, 318.75), (0.0, 319.0), (0.0, 318.75), (0.0, 319.0), (0.0, 318.84), (0.0, 319.0), (0.0, 318.84), (-0.3, 318.75), (-0.3, 318.51), (0.0, 318.75), (0.0, 318.56), (0.0, 318.84), (0.0, 318.68), (0.0, 318.84), (0.0, 318.68)]</t>
+          <t>[(0.3, 319.0), (0.3, 318.75), (3.685, 319.0), (3.685, 318.75), (3.685, 319.0), (3.685, 318.84), (10.728, 319.0), (10.728, 318.84), (0.3, 318.75), (0.3, 318.51), (3.685, 318.75), (3.685, 318.56), (3.685, 318.84), (3.685, 318.68), (10.728, 318.84), (10.728, 318.68)]</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3587,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[(-0.3, 320.0), (-0.3, 319.84), (0.0, 320.0), (0.0, 319.84), (0.0, 320.0), (0.0, 319.84), (0.0, 320.0), (0.0, 319.84), (-0.3, 319.84), (-0.3, 319.68), (0.0, 319.84), (0.0, 319.68), (0.0, 319.84), (0.0, 319.68), (0.0, 319.84), (0.0, 319.68), (-0.3, 319.68), (-0.3, 319.52), (0.0, 319.68), (0.0, 319.57), (0.0, 319.68), (0.0, 319.57), (0.0, 319.68), (0.0, 319.53)]</t>
+          <t>[(0.3, 320.0), (0.3, 319.84), (3.606, 320.0), (3.606, 319.84), (3.606, 320.0), (3.606, 319.84), (10.674, 320.0), (10.674, 319.84), (0.3, 319.84), (0.3, 319.68), (3.606, 319.84), (3.606, 319.68), (3.606, 319.84), (3.606, 319.68), (10.674, 319.84), (10.674, 319.68), (0.3, 319.68), (0.3, 319.52), (3.606, 319.68), (3.606, 319.57), (3.606, 319.68), (3.606, 319.57), (10.674, 319.68), (10.674, 319.53)]</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3597,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>[(-0.3, 321.0), (-0.3, 320.75), (0.0, 321.0), (0.0, 320.75), (0.0, 321.0), (0.0, 320.85), (0.0, 321.0), (0.0, 320.85), (-0.3, 320.75), (-0.3, 320.51), (0.0, 320.75), (0.0, 320.56), (0.0, 320.85), (0.0, 320.7), (0.0, 320.85), (0.0, 320.7)]</t>
+          <t>[(0.3, 321.0), (0.3, 320.75), (3.604, 321.0), (3.604, 320.75), (3.604, 321.0), (3.604, 320.85), (10.642, 321.0), (10.642, 320.85), (0.3, 320.75), (0.3, 320.51), (3.604, 320.75), (3.604, 320.56), (3.604, 320.85), (3.604, 320.7), (10.642, 320.85), (10.642, 320.7)]</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3607,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>[(-0.3, 322.0), (-0.3, 321.73), (0.0, 322.0), (0.0, 321.73), (0.0, 322.0), (0.0, 321.78), (0.0, 322.0), (0.0, 321.78), (-0.3, 321.73), (-0.3, 321.46), (0.0, 321.73), (0.0, 321.56), (0.0, 321.78), (0.0, 321.56), (0.0, 321.78), (0.0, 321.63)]</t>
+          <t>[(0.3, 322.0), (0.3, 321.73), (3.648, 322.0), (3.648, 321.73), (3.648, 322.0), (3.648, 321.78), (10.628, 322.0), (10.628, 321.78), (0.3, 321.73), (0.3, 321.46), (3.648, 321.73), (3.648, 321.56), (3.648, 321.78), (3.648, 321.56), (10.628, 321.78), (10.628, 321.63)]</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3617,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>[(-0.3, 323.0), (-0.3, 322.72), (0.0, 323.0), (0.0, 322.72), (0.0, 323.0), (0.0, 322.86), (0.0, 323.0), (0.0, 322.86), (-0.3, 322.72), (-0.3, 322.45), (0.0, 322.72), (0.0, 322.61), (0.0, 322.86), (0.0, 322.72), (0.0, 322.86), (0.0, 322.72)]</t>
+          <t>[(0.3, 323.0), (0.3, 322.72), (3.651, 323.0), (3.651, 322.72), (3.651, 323.0), (3.651, 322.86), (10.623, 323.0), (10.623, 322.86), (0.3, 322.72), (0.3, 322.45), (3.651, 322.72), (3.651, 322.61), (3.651, 322.86), (3.651, 322.72), (10.623, 322.86), (10.623, 322.72)]</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3627,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>[(-0.3, 324.0), (-0.3, 323.74), (0.0, 324.0), (0.0, 323.74), (0.0, 324.0), (0.0, 323.8), (0.0, 324.0), (0.0, 323.8), (-0.3, 323.74), (-0.3, 323.48), (0.0, 323.74), (0.0, 323.61), (0.0, 323.8), (0.0, 323.61), (0.0, 323.8), (0.0, 323.63)]</t>
+          <t>[(0.3, 324.0), (0.3, 323.74), (3.621, 324.0), (3.621, 323.74), (3.621, 324.0), (3.621, 323.8), (10.615, 324.0), (10.615, 323.8), (0.3, 323.74), (0.3, 323.48), (3.621, 323.74), (3.621, 323.61), (3.621, 323.8), (3.621, 323.61), (10.615, 323.8), (10.615, 323.63)]</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3637,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[(-0.3, 325.0), (-0.3, 324.73), (0.0, 325.0), (0.0, 324.73), (0.0, 325.0), (0.0, 324.8), (0.0, 325.0), (0.0, 324.8), (-0.3, 324.73), (-0.3, 324.46), (0.0, 324.73), (0.0, 324.61), (0.0, 324.8), (0.0, 324.61), (0.0, 324.8), (0.0, 324.62)]</t>
+          <t>[(0.3, 325.0), (0.3, 324.73), (3.549, 325.0), (3.549, 324.73), (3.549, 325.0), (3.549, 324.8), (10.578, 325.0), (10.578, 324.8), (0.3, 324.73), (0.3, 324.46), (3.549, 324.73), (3.549, 324.61), (3.549, 324.8), (3.549, 324.61), (10.578, 324.8), (10.578, 324.62)]</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3647,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>[(-0.3, 326.0), (-0.3, 325.78), (0.0, 326.0), (0.0, 325.78), (0.0, 326.0), (0.0, 325.82), (0.0, 326.0), (0.0, 325.82), (-0.3, 325.78), (-0.3, 325.48), (0.0, 325.78), (0.0, 325.64), (0.0, 325.82), (0.0, 325.64), (0.0, 325.82), (0.0, 325.66)]</t>
+          <t>[(0.3, 326.0), (0.3, 325.78), (3.519, 326.0), (3.519, 325.78), (3.519, 326.0), (3.519, 325.82), (10.547, 326.0), (10.547, 325.82), (0.3, 325.78), (0.3, 325.48), (3.519, 325.78), (3.519, 325.64), (3.519, 325.82), (3.519, 325.64), (10.547, 325.82), (10.547, 325.66)]</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3657,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>[(-0.3, 327.0), (-0.3, 326.75), (0.0, 327.0), (0.0, 326.75), (0.0, 327.0), (0.0, 326.81), (0.0, 327.0), (0.0, 326.81), (-0.3, 326.75), (-0.3, 326.51), (0.0, 326.75), (0.0, 326.62), (0.0, 326.81), (0.0, 326.62), (0.0, 326.81), (0.0, 326.66)]</t>
+          <t>[(0.3, 327.0), (0.3, 326.75), (3.479, 327.0), (3.479, 326.75), (3.479, 327.0), (3.479, 326.81), (10.523, 327.0), (10.523, 326.81), (0.3, 326.75), (0.3, 326.51), (3.479, 326.75), (3.479, 326.62), (3.479, 326.81), (3.479, 326.62), (10.523, 326.81), (10.523, 326.66)]</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3667,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>[(-0.3, 328.0), (-0.3, 327.76), (0.0, 328.0), (0.0, 327.76), (0.0, 328.0), (0.0, 327.81), (0.0, 328.0), (0.0, 327.81), (-0.3, 327.76), (-0.3, 327.52), (0.0, 327.76), (0.0, 327.62), (0.0, 327.81), (0.0, 327.62), (0.0, 327.81), (0.0, 327.64)]</t>
+          <t>[(0.3, 328.0), (0.3, 327.76), (3.437, 328.0), (3.437, 327.76), (3.437, 328.0), (3.437, 327.81), (10.443, 328.0), (10.443, 327.81), (0.3, 327.76), (0.3, 327.52), (3.437, 327.76), (3.437, 327.62), (3.437, 327.81), (3.437, 327.62), (10.443, 327.81), (10.443, 327.64)]</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3677,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>[(-0.3, 329.0), (-0.3, 328.82), (0.0, 329.0), (0.0, 328.82), (0.0, 329.0), (0.0, 328.81), (0.0, 329.0), (0.0, 328.81), (-0.3, 328.82), (-0.3, 328.64), (0.0, 328.82), (0.0, 328.67), (0.0, 328.81), (0.0, 328.67), (0.0, 328.81), (0.0, 328.62)]</t>
+          <t>[(0.3, 329.0), (0.3, 328.82), (3.353, 329.0), (3.353, 328.82), (3.353, 329.0), (3.353, 328.81), (10.37, 329.0), (10.37, 328.81), (0.3, 328.82), (0.3, 328.64), (3.353, 328.82), (3.353, 328.67), (3.353, 328.81), (3.353, 328.67), (10.37, 328.81), (10.37, 328.62)]</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3697,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>[(-0.3, 331.0), (-0.3, 330.83), (0.0, 331.0), (0.0, 330.83), (0.0, 331.0), (0.0, 330.81), (0.0, 331.0), (0.0, 330.81), (-0.3, 330.83), (-0.3, 330.72), (0.0, 330.83), (0.0, 330.67), (0.0, 330.81), (0.0, 330.67), (0.0, 330.81), (0.0, 330.62)]</t>
+          <t>[(0.3, 331.0), (0.3, 330.83), (3.135, 331.0), (3.135, 330.83), (3.135, 331.0), (3.135, 330.81), (10.237, 331.0), (10.237, 330.81), (0.3, 330.83), (0.3, 330.72), (3.135, 330.83), (3.135, 330.67), (3.135, 330.81), (3.135, 330.67), (10.237, 330.81), (10.237, 330.62)]</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3707,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>[(-0.3, 332.0), (-0.3, 331.8), (0.0, 332.0), (0.0, 331.8), (0.0, 332.0), (0.0, 331.86), (0.0, 332.0), (0.0, 331.86), (-0.3, 331.8), (-0.3, 331.62), (0.0, 331.8), (0.0, 331.61), (0.0, 331.86), (0.0, 331.72), (0.0, 331.86), (0.0, 331.72)]</t>
+          <t>[(0.3, 332.0), (0.3, 331.8), (3.172, 332.0), (3.172, 331.8), (3.172, 332.0), (3.172, 331.86), (10.192, 332.0), (10.192, 331.86), (0.3, 331.8), (0.3, 331.62), (3.172, 331.8), (3.172, 331.61), (3.172, 331.86), (3.172, 331.72), (10.192, 331.86), (10.192, 331.72)]</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3717,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>[(-0.3, 333.0), (-0.3, 332.85), (0.0, 333.0), (0.0, 332.85), (0.0, 333.0), (0.0, 332.79), (0.0, 333.0), (0.0, 332.79), (-0.3, 332.85), (-0.3, 332.7), (0.0, 332.85), (0.0, 332.7), (0.0, 332.79), (0.0, 332.58), (0.0, 332.79), (0.0, 332.64), (-0.3, 332.7), (-0.3, 332.59), (0.0, 332.7), (0.0, 332.58), (0.0, 332.58), (0.0, 332.58), (0.0, 332.64), (0.0, 332.64)]</t>
+          <t>[(0.3, 333.0), (0.3, 332.85), (3.37, 333.0), (3.37, 332.85), (3.37, 333.0), (3.37, 332.79), (10.283, 333.0), (10.283, 332.79), (0.3, 332.85), (0.3, 332.7), (3.37, 332.85), (3.37, 332.7), (3.37, 332.79), (3.37, 332.58), (10.283, 332.79), (10.283, 332.64), (0.3, 332.7), (0.3, 332.59), (3.37, 332.7), (3.37, 332.58), (3.37, 332.58), (3.37, 332.58), (10.283, 332.64), (10.283, 332.64)]</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3727,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[(-0.3, 334.0), (-0.3, 333.84), (0.0, 334.0), (0.0, 333.84), (0.0, 334.0), (0.0, 333.78), (0.0, 334.0), (0.0, 333.78), (-0.3, 333.84), (-0.3, 333.68), (0.0, 333.84), (0.0, 333.68), (0.0, 333.78), (0.0, 333.57), (0.0, 333.78), (0.0, 333.65), (-0.3, 333.68), (-0.3, 333.54), (0.0, 333.68), (0.0, 333.57), (0.0, 333.57), (0.0, 333.57), (0.0, 333.65), (0.0, 333.65)]</t>
+          <t>[(0.3, 334.0), (0.3, 333.84), (3.565, 334.0), (3.565, 333.84), (3.565, 334.0), (3.565, 333.78), (10.399, 334.0), (10.399, 333.78), (0.3, 333.84), (0.3, 333.68), (3.565, 333.84), (3.565, 333.68), (3.565, 333.78), (3.565, 333.57), (10.399, 333.78), (10.399, 333.65), (0.3, 333.68), (0.3, 333.54), (3.565, 333.68), (3.565, 333.57), (3.565, 333.57), (3.565, 333.57), (10.399, 333.65), (10.399, 333.65)]</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3737,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[(-0.3, 335.0), (-0.3, 334.78), (0.0, 335.0), (0.0, 334.78), (0.0, 335.0), (0.0, 334.89), (0.0, 335.0), (0.0, 334.89), (-0.3, 334.78), (-0.3, 334.56), (0.0, 334.78), (0.0, 334.62), (0.0, 334.89), (0.0, 334.62), (0.0, 334.89), (0.0, 334.72)]</t>
+          <t>[(0.3, 335.0), (0.3, 334.78), (3.711, 335.0), (3.711, 334.78), (3.711, 335.0), (3.711, 334.89), (10.58, 335.0), (10.58, 334.89), (0.3, 334.78), (0.3, 334.56), (3.711, 334.78), (3.711, 334.62), (3.711, 334.89), (3.711, 334.62), (10.58, 334.89), (10.58, 334.72)]</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3747,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>[(-0.3, 336.0), (-0.3, 335.85), (0.0, 336.0), (0.0, 335.85), (0.0, 336.0), (0.0, 335.78), (0.0, 336.0), (0.0, 335.78), (-0.3, 335.85), (-0.3, 335.7), (0.0, 335.85), (0.0, 335.7), (0.0, 335.78), (0.0, 335.57), (0.0, 335.78), (0.0, 335.66), (-0.3, 335.7), (-0.3, 335.55), (0.0, 335.7), (0.0, 335.57), (0.0, 335.57), (0.0, 335.57), (0.0, 335.66), (0.0, 335.66)]</t>
+          <t>[(0.3, 336.0), (0.3, 335.85), (3.815, 336.0), (3.815, 335.85), (3.815, 336.0), (3.815, 335.78), (10.735, 336.0), (10.735, 335.78), (0.3, 335.85), (0.3, 335.7), (3.815, 335.85), (3.815, 335.7), (3.815, 335.78), (3.815, 335.57), (10.735, 335.78), (10.735, 335.66), (0.3, 335.7), (0.3, 335.55), (3.815, 335.7), (3.815, 335.57), (3.815, 335.57), (3.815, 335.57), (10.735, 335.66), (10.735, 335.66)]</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3757,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[(-0.3, 337.0), (-0.3, 336.77), (0.0, 337.0), (0.0, 336.77), (0.0, 337.0), (0.0, 336.79), (0.0, 337.0), (0.0, 336.79), (-0.3, 336.77), (-0.3, 336.54), (0.0, 336.77), (0.0, 336.58), (0.0, 336.79), (0.0, 336.58), (0.0, 336.79), (0.0, 336.66)]</t>
+          <t>[(0.3, 337.0), (0.3, 336.77), (3.96, 337.0), (3.96, 336.77), (3.96, 337.0), (3.96, 336.79), (10.866, 337.0), (10.866, 336.79), (0.3, 336.77), (0.3, 336.54), (3.96, 336.77), (3.96, 336.58), (3.96, 336.79), (3.96, 336.58), (10.866, 336.79), (10.866, 336.66)]</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3767,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[(-0.3, 338.0), (-0.3, 337.85), (0.0, 338.0), (0.0, 337.85), (0.0, 338.0), (0.0, 337.79), (0.0, 338.0), (0.0, 337.79), (-0.3, 337.85), (-0.3, 337.7), (0.0, 337.85), (0.0, 337.7), (0.0, 337.79), (0.0, 337.58), (0.0, 337.79), (0.0, 337.67), (-0.3, 337.7), (-0.3, 337.55), (0.0, 337.7), (0.0, 337.58), (0.0, 337.58), (0.0, 337.58), (0.0, 337.67), (0.0, 337.67)]</t>
+          <t>[(0.3, 338.0), (0.3, 337.85), (4.13, 338.0), (4.13, 337.85), (4.13, 338.0), (4.13, 337.79), (11.031, 338.0), (11.031, 337.79), (0.3, 337.85), (0.3, 337.7), (4.13, 337.85), (4.13, 337.7), (4.13, 337.79), (4.13, 337.58), (11.031, 337.79), (11.031, 337.67), (0.3, 337.7), (0.3, 337.55), (4.13, 337.7), (4.13, 337.58), (4.13, 337.58), (4.13, 337.58), (11.031, 337.67), (11.031, 337.67)]</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3777,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>[(-0.3, 339.0), (-0.3, 338.85), (0.0, 339.0), (0.0, 338.85), (0.0, 339.0), (0.0, 338.78), (0.0, 339.0), (0.0, 338.78), (-0.3, 338.85), (-0.3, 338.7), (0.0, 338.85), (0.0, 338.7), (0.0, 338.78), (0.0, 338.57), (0.0, 338.78), (0.0, 338.65), (-0.3, 338.7), (-0.3, 338.55), (0.0, 338.7), (0.0, 338.57), (0.0, 338.57), (0.0, 338.57), (0.0, 338.65), (0.0, 338.65)]</t>
+          <t>[(0.3, 339.0), (0.3, 338.85), (4.233, 339.0), (4.233, 338.85), (4.233, 339.0), (4.233, 338.78), (11.118, 339.0), (11.118, 338.78), (0.3, 338.85), (0.3, 338.7), (4.233, 338.85), (4.233, 338.7), (4.233, 338.78), (4.233, 338.57), (11.118, 338.78), (11.118, 338.65), (0.3, 338.7), (0.3, 338.55), (4.233, 338.7), (4.233, 338.57), (4.233, 338.57), (4.233, 338.57), (11.118, 338.65), (11.118, 338.65)]</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3787,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>[(-0.3, 340.0), (-0.3, 339.77), (0.0, 340.0), (0.0, 339.77), (0.0, 340.0), (0.0, 339.79), (0.0, 340.0), (0.0, 339.79), (-0.3, 339.77), (-0.3, 339.54), (0.0, 339.77), (0.0, 339.59), (0.0, 339.79), (0.0, 339.59), (0.0, 339.79), (0.0, 339.68)]</t>
+          <t>[(0.3, 340.0), (0.3, 339.77), (4.411, 340.0), (4.411, 339.77), (4.411, 340.0), (4.411, 339.79), (11.35, 340.0), (11.35, 339.79), (0.3, 339.77), (0.3, 339.54), (4.411, 339.77), (4.411, 339.59), (4.411, 339.79), (4.411, 339.59), (11.35, 339.79), (11.35, 339.68)]</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3797,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[(-0.3, 341.0), (-0.3, 340.75), (0.0, 341.0), (0.0, 340.75), (0.0, 341.0), (0.0, 340.81), (0.0, 341.0), (0.0, 340.81), (-0.3, 340.75), (-0.3, 340.51), (0.0, 340.75), (0.0, 340.62), (0.0, 340.81), (0.0, 340.62), (0.0, 340.81), (0.0, 340.7)]</t>
+          <t>[(0.3, 341.0), (0.3, 340.75), (4.508, 341.0), (4.508, 340.75), (4.508, 341.0), (4.508, 340.81), (11.402, 341.0), (11.402, 340.81), (0.3, 340.75), (0.3, 340.51), (4.508, 340.75), (4.508, 340.62), (4.508, 340.81), (4.508, 340.62), (11.402, 340.81), (11.402, 340.7)]</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3827,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>[(-0.3, 344.0), (-0.3, 343.78), (0.0, 344.0), (0.0, 343.78), (0.0, 344.0), (0.0, 343.81), (0.0, 344.0), (0.0, 343.81), (-0.3, 343.78), (-0.3, 343.56), (0.0, 343.78), (0.0, 343.63), (0.0, 343.81), (0.0, 343.63), (0.0, 343.81), (0.0, 343.7)]</t>
+          <t>[(0.3, 344.0), (0.3, 343.78), (4.439, 344.0), (4.439, 343.78), (4.439, 344.0), (4.439, 343.81), (11.241, 344.0), (11.241, 343.81), (0.3, 343.78), (0.3, 343.56), (4.439, 343.78), (4.439, 343.63), (4.439, 343.81), (4.439, 343.63), (11.241, 343.81), (11.241, 343.7)]</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3837,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[(-0.3, 345.0), (-0.3, 344.85), (0.0, 345.0), (0.0, 344.85), (0.0, 345.0), (0.0, 344.78), (0.0, 345.0), (0.0, 344.78), (-0.3, 344.85), (-0.3, 344.7), (0.0, 344.85), (0.0, 344.7), (0.0, 344.78), (0.0, 344.57), (0.0, 344.78), (0.0, 344.62), (-0.3, 344.7), (-0.3, 344.56), (0.0, 344.7), (0.0, 344.57), (0.0, 344.57), (0.0, 344.57), (0.0, 344.62), (0.0, 344.62)]</t>
+          <t>[(0.3, 345.0), (0.3, 344.85), (4.277, 345.0), (4.277, 344.85), (4.277, 345.0), (4.277, 344.78), (11.099, 345.0), (11.099, 344.78), (0.3, 344.85), (0.3, 344.7), (4.277, 344.85), (4.277, 344.7), (4.277, 344.78), (4.277, 344.57), (11.099, 344.78), (11.099, 344.62), (0.3, 344.7), (0.3, 344.56), (4.277, 344.7), (4.277, 344.57), (4.277, 344.57), (4.277, 344.57), (11.099, 344.62), (11.099, 344.62)]</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3847,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>[(-0.3, 346.0), (-0.3, 345.87), (0.0, 346.0), (0.0, 345.87), (0.0, 346.0), (0.0, 345.81), (0.0, 346.0), (0.0, 345.81), (-0.3, 345.87), (-0.3, 345.74), (0.0, 345.87), (0.0, 345.74), (0.0, 345.62), (0.0, 345.62), (0.0, 345.81), (0.0, 345.62), (-0.3, 345.74), (-0.3, 345.61), (0.0, 345.74), (0.0, 345.61), (0.0, 345.62), (0.0, 345.5), (0.0, 345.62), (0.0, 345.45), (-0.3, 345.61), (-0.3, 345.5), (0.0, 345.61), (0.0, 345.5), (0.0, 345.5), (0.0, 345.5), (0.0, 345.45), (0.0, 345.45)]</t>
+          <t>[(0.3, 346.0), (0.3, 345.87), (4.095, 346.0), (4.095, 345.87), (4.095, 346.0), (4.095, 345.81), (10.887, 346.0), (10.887, 345.81), (0.3, 345.87), (0.3, 345.74), (4.095, 345.87), (4.095, 345.74), (4.095, 345.81), (4.095, 345.62), (10.887, 345.81), (10.887, 345.62), (0.3, 345.74), (0.3, 345.61), (4.095, 345.74), (4.095, 345.61), (4.095, 345.62), (4.095, 345.5), (10.887, 345.62), (10.887, 345.45), (0.3, 345.61), (0.3, 345.5), (4.095, 345.61), (4.095, 345.5), (4.095, 345.5), (4.095, 345.5), (10.887, 345.45), (10.887, 345.45)]</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3857,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[(-0.3, 347.0), (-0.3, 346.81), (0.0, 347.0), (0.0, 346.81), (0.0, 347.0), (0.0, 346.8), (0.0, 347.0), (0.0, 346.8), (-0.3, 346.81), (-0.3, 346.62), (0.0, 346.81), (0.0, 346.62), (0.0, 346.8), (0.0, 346.6), (0.0, 346.8), (0.0, 346.6), (-0.3, 346.62), (-0.3, 346.43), (0.0, 346.62), (0.0, 346.45), (0.0, 346.6), (0.0, 346.45), (0.0, 346.6), (0.0, 346.4)]</t>
+          <t>[(0.3, 347.0), (0.3, 346.81), (3.977, 347.0), (3.977, 346.81), (3.977, 347.0), (3.977, 346.8), (10.773, 347.0), (10.773, 346.8), (0.3, 346.81), (0.3, 346.62), (3.977, 346.81), (3.977, 346.62), (3.977, 346.8), (3.977, 346.6), (10.773, 346.8), (10.773, 346.6), (0.3, 346.62), (0.3, 346.43), (3.977, 346.62), (3.977, 346.45), (3.977, 346.6), (3.977, 346.45), (10.773, 346.6), (10.773, 346.4)]</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3867,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>[(-0.3, 348.0), (-0.3, 347.71), (0.0, 348.0), (0.0, 347.71), (0.0, 348.0), (0.0, 347.83), (0.0, 348.0), (0.0, 347.83), (-0.3, 347.71), (-0.3, 347.43), (0.0, 347.71), (0.0, 347.53), (0.0, 347.83), (0.0, 347.66), (0.0, 347.83), (0.0, 347.66)]</t>
+          <t>[(0.3, 348.0), (0.3, 347.71), (3.862, 348.0), (3.862, 347.71), (3.862, 348.0), (3.862, 347.83), (10.664, 348.0), (10.664, 347.83), (0.3, 347.71), (0.3, 347.43), (3.862, 347.71), (3.862, 347.53), (3.862, 347.83), (3.862, 347.66), (10.664, 347.83), (10.664, 347.66)]</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3877,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[(-0.3, 349.0), (-0.3, 348.7), (0.0, 349.0), (0.0, 348.76), (0.0, 349.0), (0.0, 348.84), (0.0, 349.0), (0.0, 348.84), (-0.3, 348.7), (-0.3, 348.4), (0.0, 348.76), (0.0, 348.52), (0.0, 348.84), (0.0, 348.68), (0.0, 348.84), (0.0, 348.68)]</t>
+          <t>[(0.3, 349.0), (0.3, 348.7), (3.777, 349.0), (3.777, 348.76), (3.777, 349.0), (3.777, 348.84), (10.611, 349.0), (10.611, 348.84), (0.3, 348.7), (0.3, 348.4), (3.777, 348.76), (3.777, 348.52), (3.777, 348.84), (3.777, 348.68), (10.611, 348.84), (10.611, 348.68)]</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3887,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[(-0.3, 350.0), (-0.3, 349.73), (0.0, 350.0), (0.0, 349.73), (0.0, 350.0), (0.0, 349.78), (0.0, 350.0), (0.0, 349.78), (-0.3, 349.73), (-0.3, 349.46), (0.0, 349.73), (0.0, 349.61), (0.0, 349.78), (0.0, 349.61), (0.0, 349.78), (0.0, 349.57)]</t>
+          <t>[(0.3, 350.0), (0.3, 349.73), (3.747, 350.0), (3.747, 349.73), (3.747, 350.0), (3.747, 349.78), (10.563, 350.0), (10.563, 349.78), (0.3, 349.73), (0.3, 349.46), (3.747, 349.73), (3.747, 349.61), (3.747, 349.78), (3.747, 349.61), (10.563, 349.78), (10.563, 349.57)]</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3897,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[(-0.3, 351.0), (-0.3, 350.77), (0.0, 351.0), (0.0, 350.77), (0.0, 351.0), (0.0, 350.82), (0.0, 351.0), (0.0, 350.82), (-0.3, 350.77), (-0.3, 350.47), (0.0, 350.77), (0.0, 350.65), (0.0, 350.82), (0.0, 350.65), (0.0, 350.82), (0.0, 350.67)]</t>
+          <t>[(0.3, 351.0), (0.3, 350.77), (3.731, 351.0), (3.731, 350.77), (3.731, 351.0), (3.731, 350.82), (10.501, 351.0), (10.501, 350.82), (0.3, 350.77), (0.3, 350.47), (3.731, 350.77), (3.731, 350.65), (3.731, 350.82), (3.731, 350.65), (10.501, 350.82), (10.501, 350.67)]</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3907,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[(-0.3, 352.0), (-0.3, 351.77), (0.0, 352.0), (0.0, 351.77), (0.0, 352.0), (0.0, 351.82), (0.0, 352.0), (0.0, 351.82), (-0.3, 351.77), (-0.3, 351.47), (0.0, 351.77), (0.0, 351.64), (0.0, 351.82), (0.0, 351.64), (0.0, 351.82), (0.0, 351.67)]</t>
+          <t>[(0.3, 352.0), (0.3, 351.77), (3.732, 352.0), (3.732, 351.77), (3.732, 352.0), (3.732, 351.82), (10.501, 352.0), (10.501, 351.82), (0.3, 351.77), (0.3, 351.47), (3.732, 351.77), (3.732, 351.64), (3.732, 351.82), (3.732, 351.64), (10.501, 351.82), (10.501, 351.67)]</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3917,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[(-0.3, 353.0), (-0.3, 352.82), (0.0, 353.0), (0.0, 352.82), (0.0, 353.0), (0.0, 352.84), (0.0, 353.0), (0.0, 352.84), (-0.3, 352.82), (-0.3, 352.52), (0.0, 352.82), (0.0, 352.7), (0.0, 352.84), (0.0, 352.7), (0.0, 352.84), (0.0, 352.69)]</t>
+          <t>[(0.3, 353.0), (0.3, 352.82), (3.714, 353.0), (3.714, 352.82), (3.714, 353.0), (3.714, 352.84), (10.521, 353.0), (10.521, 352.84), (0.3, 352.82), (0.3, 352.52), (3.714, 352.82), (3.714, 352.7), (3.714, 352.84), (3.714, 352.7), (10.521, 352.84), (10.521, 352.69)]</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3927,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[(-0.3, 354.0), (-0.3, 353.81), (0.0, 354.0), (0.0, 353.81), (0.0, 354.0), (0.0, 353.84), (0.0, 354.0), (0.0, 353.84), (-0.3, 353.81), (-0.3, 353.51), (0.0, 353.81), (0.0, 353.69), (0.0, 353.84), (0.0, 353.69), (0.0, 353.84), (0.0, 353.69)]</t>
+          <t>[(0.3, 354.0), (0.3, 353.81), (3.723, 354.0), (3.723, 353.81), (3.723, 354.0), (3.723, 353.84), (10.528, 354.0), (10.528, 353.84), (0.3, 353.81), (0.3, 353.51), (3.723, 353.81), (3.723, 353.69), (3.723, 353.84), (3.723, 353.69), (10.528, 353.84), (10.528, 353.69)]</t>
         </is>
       </c>
     </row>
@@ -4007,7 +3967,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[(-0.3, 358.0), (-0.3, 357.79), (0.0, 358.0), (0.0, 357.79), (0.0, 358.0), (0.0, 357.83), (0.0, 358.0), (0.0, 357.83), (-0.3, 357.79), (-0.3, 357.49), (0.0, 357.79), (0.0, 357.67), (0.0, 357.83), (0.0, 357.67), (0.0, 357.83), (0.0, 357.71)]</t>
+          <t>[(0.3, 358.0), (0.3, 357.79), (3.715, 358.0), (3.715, 357.79), (3.715, 358.0), (3.715, 357.83), (10.462, 358.0), (10.462, 357.83), (0.3, 357.79), (0.3, 357.49), (3.715, 357.79), (3.715, 357.67), (3.715, 357.83), (3.715, 357.67), (10.462, 357.83), (10.462, 357.71)]</t>
         </is>
       </c>
     </row>
@@ -4017,7 +3977,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[(-0.3, 359.0), (-0.3, 358.7), (0.0, 359.0), (0.0, 358.7), (0.0, 359.0), (0.0, 358.78), (0.0, 359.0), (0.0, 358.78), (-0.3, 358.7), (-0.3, 358.4), (0.0, 358.7), (0.0, 358.56), (0.0, 358.78), (0.0, 358.56), (0.0, 358.78), (0.0, 358.66)]</t>
+          <t>[(0.3, 359.0), (0.3, 358.7), (3.684, 359.0), (3.684, 358.7), (3.684, 359.0), (3.684, 358.78), (10.412, 359.0), (10.412, 358.78), (0.3, 358.7), (0.3, 358.4), (3.684, 358.7), (3.684, 358.56), (3.684, 358.78), (3.684, 358.56), (10.412, 358.78), (10.412, 358.66)]</t>
         </is>
       </c>
     </row>
@@ -4027,7 +3987,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>[(-0.3, 360.0), (-0.3, 359.68), (0.0, 360.0), (0.0, 359.78), (0.0, 360.0), (0.0, 359.78), (0.0, 360.0), (0.0, 359.78), (-0.3, 359.68), (-0.3, 359.36), (0.0, 359.78), (0.0, 359.56), (0.0, 359.78), (0.0, 359.56), (0.0, 359.78), (0.0, 359.65)]</t>
+          <t>[(0.3, 360.0), (0.3, 359.68), (3.664, 360.0), (3.664, 359.78), (3.664, 360.0), (3.664, 359.78), (10.376, 360.0), (10.376, 359.78), (0.3, 359.68), (0.3, 359.36), (3.664, 359.78), (3.664, 359.56), (3.664, 359.78), (3.664, 359.56), (10.376, 359.78), (10.376, 359.65)]</t>
         </is>
       </c>
     </row>
@@ -4037,7 +3997,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>[(-0.3, 361.0), (-0.3, 360.67), (0.0, 361.0), (0.0, 360.76), (0.0, 361.0), (0.0, 360.75), (0.0, 361.0), (0.0, 360.75), (-0.3, 360.67), (-0.3, 360.34), (0.0, 360.76), (0.0, 360.52), (0.0, 360.75), (0.0, 360.51), (0.0, 360.75), (0.0, 360.62)]</t>
+          <t>[(0.3, 361.0), (0.3, 360.67), (3.623, 361.0), (3.623, 360.76), (3.623, 361.0), (3.623, 360.75), (10.367, 361.0), (10.367, 360.75), (0.3, 360.67), (0.3, 360.34), (3.623, 360.76), (3.623, 360.52), (3.623, 360.75), (3.623, 360.51), (10.367, 360.75), (10.367, 360.62)]</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4007,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>[(-0.3, 362.0), (-0.3, 361.66), (0.0, 362.0), (0.0, 361.74), (0.0, 362.0), (0.0, 361.74), (0.0, 362.0), (0.0, 361.74), (-0.3, 361.66), (-0.3, 361.32), (0.0, 361.74), (0.0, 361.48), (0.0, 361.74), (0.0, 361.49), (0.0, 361.74), (0.0, 361.58)]</t>
+          <t>[(0.3, 362.0), (0.3, 361.66), (3.568, 362.0), (3.568, 361.74), (3.568, 362.0), (3.568, 361.74), (10.35, 362.0), (10.35, 361.74), (0.3, 361.66), (0.3, 361.32), (3.568, 361.74), (3.568, 361.48), (3.568, 361.74), (3.568, 361.49), (10.35, 361.74), (10.35, 361.58)]</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4017,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>[(-0.3, 363.0), (-0.3, 362.7), (0.0, 363.0), (0.0, 362.7), (0.0, 363.0), (0.0, 362.77), (0.0, 363.0), (0.0, 362.77), (-0.3, 362.7), (-0.3, 362.41), (0.0, 362.7), (0.0, 362.54), (0.0, 362.77), (0.0, 362.54), (0.0, 362.77), (0.0, 362.64)]</t>
+          <t>[(0.3, 363.0), (0.3, 362.7), (3.629, 363.0), (3.629, 362.7), (3.629, 363.0), (3.629, 362.77), (10.327, 363.0), (10.327, 362.77), (0.3, 362.7), (0.3, 362.41), (3.629, 362.7), (3.629, 362.54), (3.629, 362.77), (3.629, 362.54), (10.327, 362.77), (10.327, 362.64)]</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4027,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>[(-0.3, 364.0), (-0.3, 363.71), (0.0, 364.0), (0.0, 363.71), (0.0, 364.0), (0.0, 363.79), (0.0, 364.0), (0.0, 363.79), (-0.3, 363.71), (-0.3, 363.43), (0.0, 363.71), (0.0, 363.58), (0.0, 363.79), (0.0, 363.58), (0.0, 363.79), (0.0, 363.67)]</t>
+          <t>[(0.3, 364.0), (0.3, 363.71), (3.556, 364.0), (3.556, 363.71), (3.556, 364.0), (3.556, 363.79), (10.29, 364.0), (10.29, 363.79), (0.3, 363.71), (0.3, 363.43), (3.556, 363.71), (3.556, 363.58), (3.556, 363.79), (3.556, 363.58), (10.29, 363.79), (10.29, 363.67)]</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4037,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>[(-0.3, 365.0), (-0.3, 364.75), (0.0, 365.0), (0.0, 364.75), (0.0, 365.0), (0.0, 364.81), (0.0, 365.0), (0.0, 364.81), (-0.3, 364.75), (-0.3, 364.5), (0.0, 364.75), (0.0, 364.63), (0.0, 364.81), (0.0, 364.63), (0.0, 364.81), (0.0, 364.7)]</t>
+          <t>[(0.3, 365.0), (0.3, 364.75), (3.505, 365.0), (3.505, 364.75), (3.505, 365.0), (3.505, 364.81), (10.286, 365.0), (10.286, 364.81), (0.3, 364.75), (0.3, 364.5), (3.505, 364.75), (3.505, 364.63), (3.505, 364.81), (3.505, 364.63), (10.286, 364.81), (10.286, 364.7)]</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4077,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[(-0.3, 369.0), (-0.3, 368.89), (0.0, 369.0), (0.0, 368.89), (0.0, 369.0), (0.0, 368.84), (0.0, 369.0), (0.0, 368.84), (-0.3, 368.89), (-0.3, 368.64), (0.0, 368.89), (0.0, 368.73), (0.0, 368.84), (0.0, 368.73), (0.0, 368.84), (0.0, 368.68)]</t>
+          <t>[(0.3, 369.0), (0.3, 368.89), (3.463, 369.0), (3.463, 368.89), (3.463, 369.0), (3.463, 368.84), (10.235, 369.0), (10.235, 368.84), (0.3, 368.89), (0.3, 368.64), (3.463, 368.89), (3.463, 368.73), (3.463, 368.84), (3.463, 368.73), (10.235, 368.84), (10.235, 368.68)]</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4087,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>[(-0.3, 370.0), (-0.3, 369.84), (0.0, 370.0), (0.0, 369.84), (0.0, 370.0), (0.0, 369.81), (0.0, 370.0), (0.0, 369.81), (-0.3, 369.84), (-0.3, 369.7), (0.0, 369.84), (0.0, 369.68), (0.0, 369.81), (0.0, 369.68), (0.0, 369.81), (0.0, 369.51)]</t>
+          <t>[(0.3, 370.0), (0.3, 369.84), (3.443, 370.0), (3.443, 369.84), (3.443, 370.0), (3.443, 369.81), (10.18, 370.0), (10.18, 369.81), (0.3, 369.84), (0.3, 369.7), (3.443, 369.84), (3.443, 369.68), (3.443, 369.81), (3.443, 369.68), (10.18, 369.81), (10.18, 369.51)]</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4097,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>[(-0.3, 371.0), (-0.3, 370.84), (0.0, 371.0), (0.0, 370.84), (0.0, 371.0), (0.0, 370.86), (0.0, 371.0), (0.0, 370.86), (-0.3, 370.84), (-0.3, 370.68), (0.0, 370.84), (0.0, 370.68), (0.0, 370.86), (0.0, 370.68), (0.0, 370.86), (0.0, 370.56)]</t>
+          <t>[(0.3, 371.0), (0.3, 370.84), (3.454, 371.0), (3.454, 370.84), (3.454, 371.0), (3.454, 370.86), (10.138, 371.0), (10.138, 370.86), (0.3, 370.84), (0.3, 370.68), (3.454, 370.84), (3.454, 370.68), (3.454, 370.86), (3.454, 370.68), (10.138, 370.86), (10.138, 370.56)]</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4127,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>[(-0.3, 374.0), (-0.3, 373.85), (0.0, 374.0), (0.0, 373.85), (0.0, 374.0), (0.0, 373.89), (0.0, 374.0), (0.0, 373.89), (-0.3, 373.85), (-0.3, 373.7), (0.0, 373.85), (0.0, 373.74), (0.0, 373.89), (0.0, 373.74), (0.0, 373.89), (0.0, 373.66)]</t>
+          <t>[(0.3, 374.0), (0.3, 373.85), (4.464, 374.0), (4.464, 373.85), (4.464, 374.0), (4.464, 373.89), (11.12, 374.0), (11.12, 373.89), (0.3, 373.85), (0.3, 373.7), (4.464, 373.85), (4.464, 373.74), (4.464, 373.89), (4.464, 373.74), (11.12, 373.89), (11.12, 373.66)]</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4137,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>[(-0.3, 375.0), (-0.3, 374.83), (0.0, 375.0), (0.0, 374.83), (0.0, 375.0), (0.0, 374.77), (0.0, 375.0), (0.0, 374.77), (-0.3, 374.83), (-0.3, 374.69), (0.0, 374.83), (0.0, 374.66), (0.0, 374.77), (0.0, 374.66), (0.0, 374.77), (0.0, 374.54)]</t>
+          <t>[(0.3, 375.0), (0.3, 374.83), (5.037, 375.0), (5.037, 374.83), (5.037, 375.0), (5.037, 374.77), (11.653, 375.0), (11.653, 374.77), (0.3, 374.83), (0.3, 374.69), (5.037, 374.83), (5.037, 374.66), (5.037, 374.77), (5.037, 374.66), (11.653, 374.77), (11.653, 374.54)]</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4147,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>[(-0.3, 376.0), (-0.3, 375.83), (0.0, 376.0), (0.0, 375.83), (0.0, 376.0), (0.0, 375.81), (0.0, 376.0), (0.0, 375.81), (-0.3, 375.83), (-0.3, 375.67), (0.0, 375.83), (0.0, 375.67), (0.0, 375.81), (0.0, 375.67), (0.0, 375.81), (0.0, 375.51)]</t>
+          <t>[(0.3, 376.0), (0.3, 375.83), (5.246, 376.0), (5.246, 375.83), (5.246, 376.0), (5.246, 375.81), (11.832, 376.0), (11.832, 375.81), (0.3, 375.83), (0.3, 375.67), (5.246, 375.83), (5.246, 375.67), (5.246, 375.81), (5.246, 375.67), (11.832, 375.81), (11.832, 375.51)]</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4157,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>[(-0.3, 377.0), (-0.3, 376.82), (0.0, 377.0), (0.0, 376.82), (0.0, 377.0), (0.0, 376.82), (0.0, 377.0), (0.0, 376.7), (-0.3, 376.82), (-0.3, 376.7), (0.0, 376.82), (0.0, 376.64), (0.0, 376.82), (0.0, 376.64), (0.0, 376.7), (0.0, 376.4)]</t>
+          <t>[(0.3, 377.0), (0.3, 376.82), (4.982, 377.0), (4.982, 376.82), (4.982, 377.0), (4.982, 376.82), (11.638, 377.0), (11.638, 376.7), (0.3, 376.82), (0.3, 376.7), (4.982, 376.82), (4.982, 376.64), (4.982, 376.82), (4.982, 376.64), (11.638, 376.7), (11.638, 376.4)]</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4167,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>[(-0.3, 378.0), (-0.3, 377.89), (0.0, 378.0), (0.0, 377.89), (0.0, 378.0), (0.0, 377.84), (0.0, 378.0), (0.0, 377.72), (-0.3, 377.89), (-0.3, 377.75), (0.0, 377.89), (0.0, 377.67), (0.0, 377.84), (0.0, 377.68), (0.0, 377.72), (0.0, 377.44)]</t>
+          <t>[(0.3, 378.0), (0.3, 377.89), (4.465, 378.0), (4.465, 377.89), (4.465, 378.0), (4.465, 377.84), (11.087, 378.0), (11.087, 377.72), (0.3, 377.89), (0.3, 377.75), (4.465, 377.89), (4.465, 377.67), (4.465, 377.84), (4.465, 377.68), (11.087, 377.72), (11.087, 377.44)]</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4177,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>[(-0.3, 379.0), (-0.3, 378.84), (0.0, 379.0), (0.0, 378.84), (0.0, 379.0), (0.0, 378.84), (0.0, 379.0), (0.0, 378.72), (-0.3, 378.84), (-0.3, 378.72), (0.0, 378.84), (0.0, 378.68), (0.0, 378.84), (0.0, 378.68), (0.0, 378.72), (0.0, 378.44)]</t>
+          <t>[(0.3, 379.0), (0.3, 378.84), (3.864, 379.0), (3.864, 378.84), (3.864, 379.0), (3.864, 378.84), (10.554, 379.0), (10.554, 378.72), (0.3, 378.84), (0.3, 378.72), (3.864, 378.84), (3.864, 378.68), (3.864, 378.84), (3.864, 378.68), (10.554, 378.72), (10.554, 378.44)]</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4187,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>[(-0.3, 380.0), (-0.3, 379.83), (0.0, 380.0), (0.0, 379.83), (0.0, 380.0), (0.0, 379.83), (0.0, 380.0), (0.0, 379.72), (-0.3, 379.83), (-0.3, 379.72), (0.0, 379.83), (0.0, 379.66), (0.0, 379.83), (0.0, 379.66), (0.0, 379.72), (0.0, 379.44)]</t>
+          <t>[(0.3, 380.0), (0.3, 379.83), (3.153, 380.0), (3.153, 379.83), (3.153, 380.0), (3.153, 379.83), (9.788, 380.0), (9.788, 379.72), (0.3, 379.83), (0.3, 379.72), (3.153, 379.83), (3.153, 379.66), (3.153, 379.83), (3.153, 379.66), (9.788, 379.72), (9.788, 379.44)]</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4197,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>[(-0.3, 381.0), (-0.3, 380.82), (0.0, 381.0), (0.0, 380.82), (0.0, 381.0), (0.0, 380.82), (0.0, 381.0), (0.0, 380.71), (-0.3, 380.82), (-0.3, 380.69), (0.0, 380.82), (0.0, 380.65), (0.0, 380.82), (0.0, 380.64), (0.0, 380.71), (0.0, 380.42)]</t>
+          <t>[(0.3, 381.0), (0.3, 380.82), (2.603, 381.0), (2.603, 380.82), (2.603, 381.0), (2.603, 380.82), (9.191, 381.0), (9.191, 380.71), (0.3, 380.82), (0.3, 380.69), (2.603, 380.82), (2.603, 380.65), (2.603, 380.82), (2.603, 380.64), (9.191, 380.71), (9.191, 380.42)]</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4207,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>[(-0.3, 382.0), (-0.3, 381.81), (0.0, 382.0), (0.0, 381.81), (0.0, 382.0), (0.0, 381.82), (-2.403, 382.0), (-2.403, 381.7), (-0.3, 381.81), (-0.3, 381.65), (0.0, 381.81), (0.0, 381.63), (0.0, 381.82), (0.0, 381.64), (-2.403, 381.7), (-2.403, 381.4)]</t>
+          <t>[(0.3, 382.0), (0.3, 381.81), (2.336, 382.0), (2.336, 381.81), (2.336, 382.0), (2.336, 381.82), (8.952, 382.0), (8.952, 381.7), (0.3, 381.81), (0.3, 381.65), (2.336, 381.81), (2.336, 381.63), (2.336, 381.82), (2.336, 381.64), (8.952, 381.7), (8.952, 381.4)]</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4217,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>[(-0.3, 383.0), (-0.3, 382.8), (-2.438, 383.0), (-2.438, 382.7), (-0.3, 382.8), (-0.3, 382.6), (-2.438, 382.7), (-2.438, 382.4)]</t>
+          <t>[(0.3, 383.0), (0.3, 382.8), (9.001, 383.0), (9.001, 382.7), (0.3, 382.8), (0.3, 382.6), (9.001, 382.7), (9.001, 382.4)]</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4227,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>[(-0.3, 384.0), (-0.3, 383.85), (0.0, 384.0), (0.0, 383.85), (0.0, 384.0), (0.0, 383.78), (0.0, 384.0), (0.0, 383.7), (-0.3, 383.85), (-0.3, 383.7), (0.0, 383.85), (0.0, 383.7), (0.0, 383.78), (0.0, 383.56), (0.0, 383.7), (0.0, 383.4), (-0.3, 383.7), (-0.3, 383.57), (0.0, 383.7), (0.0, 383.55), (0.0, 383.56), (0.0, 383.56), (0.0, 383.4), (0.0, 383.4)]</t>
+          <t>[(0.3, 384.0), (0.3, 383.85), (2.53, 384.0), (2.53, 383.85), (2.53, 384.0), (2.53, 383.78), (9.167, 384.0), (9.167, 383.7), (0.3, 383.85), (0.3, 383.7), (2.53, 383.85), (2.53, 383.7), (2.53, 383.78), (2.53, 383.56), (9.167, 383.7), (9.167, 383.4), (0.3, 383.7), (0.3, 383.57), (2.53, 383.7), (2.53, 383.55), (2.53, 383.56), (2.53, 383.56), (9.167, 383.4), (9.167, 383.4)]</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4237,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>[(-0.3, 385.0), (-0.3, 384.83), (0.0, 385.0), (0.0, 384.83), (0.0, 385.0), (0.0, 384.76), (0.0, 385.0), (0.0, 384.68), (-0.3, 384.83), (-0.3, 384.66), (0.0, 384.83), (0.0, 384.66), (0.0, 384.76), (0.0, 384.52), (0.0, 384.68), (0.0, 384.36), (-0.3, 384.66), (-0.3, 384.5), (0.0, 384.66), (0.0, 384.51), (0.0, 384.52), (0.0, 384.52), (0.0, 384.36), (0.0, 384.36)]</t>
+          <t>[(0.3, 385.0), (0.3, 384.83), (2.82, 385.0), (2.82, 384.83), (2.82, 385.0), (2.82, 384.76), (9.468, 385.0), (9.468, 384.68), (0.3, 384.83), (0.3, 384.66), (2.82, 384.83), (2.82, 384.66), (2.82, 384.76), (2.82, 384.52), (9.468, 384.68), (9.468, 384.36), (0.3, 384.66), (0.3, 384.5), (2.82, 384.66), (2.82, 384.51), (2.82, 384.52), (2.82, 384.52), (9.468, 384.36), (9.468, 384.36)]</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4247,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>[(-0.3, 386.0), (-0.3, 385.8), (0.0, 386.0), (0.0, 385.8), (0.0, 386.0), (0.0, 385.79), (0.0, 386.0), (0.0, 385.79), (-0.3, 385.8), (-0.3, 385.6), (0.0, 385.8), (0.0, 385.6), (0.0, 385.79), (0.0, 385.58), (0.0, 385.79), (0.0, 385.58), (-0.3, 385.6), (-0.3, 385.41), (0.0, 385.6), (0.0, 385.46), (0.0, 385.58), (0.0, 385.46), (0.0, 385.58), (0.0, 385.37)]</t>
+          <t>[(0.3, 386.0), (0.3, 385.8), (3.061, 386.0), (3.061, 385.8), (3.061, 386.0), (3.061, 385.79), (9.669, 386.0), (9.669, 385.79), (0.3, 385.8), (0.3, 385.6), (3.061, 385.8), (3.061, 385.6), (3.061, 385.79), (3.061, 385.58), (9.669, 385.79), (9.669, 385.58), (0.3, 385.6), (0.3, 385.41), (3.061, 385.6), (3.061, 385.46), (3.061, 385.58), (3.061, 385.46), (9.669, 385.58), (9.669, 385.37)]</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4257,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>[(-0.3, 387.0), (-0.3, 386.77), (0.0, 387.0), (0.0, 386.77), (0.0, 387.0), (0.0, 386.81), (0.0, 387.0), (0.0, 386.81), (-0.3, 386.77), (-0.3, 386.54), (0.0, 386.77), (0.0, 386.54), (0.0, 386.81), (0.0, 386.62), (0.0, 386.81), (0.0, 386.62), (-0.3, 386.54), (-0.3, 386.32), (0.0, 386.54), (0.0, 386.43), (0.0, 386.62), (0.0, 386.43), (0.0, 386.62), (0.0, 386.45)]</t>
+          <t>[(0.3, 387.0), (0.3, 386.77), (3.187, 387.0), (3.187, 386.77), (3.187, 387.0), (3.187, 386.81), (9.883, 387.0), (9.883, 386.81), (0.3, 386.77), (0.3, 386.54), (3.187, 386.77), (3.187, 386.54), (3.187, 386.81), (3.187, 386.62), (9.883, 386.81), (9.883, 386.62), (0.3, 386.54), (0.3, 386.32), (3.187, 386.54), (3.187, 386.43), (3.187, 386.62), (3.187, 386.43), (9.883, 386.62), (9.883, 386.45)]</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4267,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>[(-0.3, 388.0), (-0.3, 387.64), (0.0, 388.0), (0.0, 387.72), (0.0, 388.0), (0.0, 387.71), (0.0, 388.0), (0.0, 387.71), (-0.3, 387.64), (-0.3, 387.28), (0.0, 387.72), (0.0, 387.44), (0.0, 387.71), (0.0, 387.43), (0.0, 387.71), (0.0, 387.54)]</t>
+          <t>[(0.3, 388.0), (0.3, 387.64), (3.289, 388.0), (3.289, 387.72), (3.289, 388.0), (3.289, 387.71), (9.983, 388.0), (9.983, 387.71), (0.3, 387.64), (0.3, 387.28), (3.289, 387.72), (3.289, 387.44), (3.289, 387.71), (3.289, 387.43), (9.983, 387.71), (9.983, 387.54)]</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4277,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>[(-0.3, 389.0), (-0.3, 388.63), (0.0, 389.0), (0.0, 388.7), (0.0, 389.0), (0.0, 388.8), (0.0, 389.0), (0.0, 388.8), (-0.3, 388.63), (-0.3, 388.26), (0.0, 388.7), (0.0, 388.4), (0.0, 388.8), (0.0, 388.6), (0.0, 388.8), (0.0, 388.6)]</t>
+          <t>[(0.3, 389.0), (0.3, 388.63), (3.318, 389.0), (3.318, 388.7), (3.318, 389.0), (3.318, 388.8), (10.06, 389.0), (10.06, 388.8), (0.3, 388.63), (0.3, 388.26), (3.318, 388.7), (3.318, 388.4), (3.318, 388.8), (3.318, 388.6), (10.06, 388.8), (10.06, 388.6)]</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4287,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>[(-0.3, 390.0), (-0.3, 389.75), (0.0, 390.0), (0.0, 389.75), (0.0, 390.0), (0.0, 389.79), (0.0, 390.0), (0.0, 389.79), (-0.3, 389.75), (-0.3, 389.5), (0.0, 389.75), (0.0, 389.5), (0.0, 389.79), (0.0, 389.58), (0.0, 389.79), (0.0, 389.58), (-0.3, 389.5), (-0.3, 389.25), (0.0, 389.5), (0.0, 389.39), (0.0, 389.58), (0.0, 389.39), (0.0, 389.58), (0.0, 389.44)]</t>
+          <t>[(0.3, 390.0), (0.3, 389.75), (3.391, 390.0), (3.391, 389.75), (3.391, 390.0), (3.391, 389.79), (10.114, 390.0), (10.114, 389.79), (0.3, 389.75), (0.3, 389.5), (3.391, 389.75), (3.391, 389.5), (3.391, 389.79), (3.391, 389.58), (10.114, 389.79), (10.114, 389.58), (0.3, 389.5), (0.3, 389.25), (3.391, 389.5), (3.391, 389.39), (3.391, 389.58), (3.391, 389.39), (10.114, 389.58), (10.114, 389.44)]</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4297,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>[(-0.3, 391.0), (-0.3, 390.62), (0.0, 391.0), (0.0, 390.7), (0.0, 391.0), (0.0, 390.84), (0.0, 391.0), (0.0, 390.84), (-0.3, 390.62), (-0.3, 390.24), (0.0, 390.7), (0.0, 390.4), (0.0, 390.84), (0.0, 390.68), (0.0, 390.84), (0.0, 390.68)]</t>
+          <t>[(0.3, 391.0), (0.3, 390.62), (3.416, 391.0), (3.416, 390.7), (3.416, 391.0), (3.416, 390.84), (10.144, 391.0), (10.144, 390.84), (0.3, 390.62), (0.3, 390.24), (3.416, 390.7), (3.416, 390.4), (3.416, 390.84), (3.416, 390.68), (10.144, 390.84), (10.144, 390.68)]</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4307,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>[(-0.3, 392.0), (-0.3, 391.62), (0.0, 392.0), (0.0, 391.69), (0.0, 392.0), (0.0, 391.79), (0.0, 392.0), (0.0, 391.79), (-0.3, 391.62), (-0.3, 391.24), (0.0, 391.69), (0.0, 391.38), (0.0, 391.79), (0.0, 391.58), (0.0, 391.79), (0.0, 391.58)]</t>
+          <t>[(0.3, 392.0), (0.3, 391.62), (3.475, 392.0), (3.475, 391.69), (3.475, 392.0), (3.475, 391.79), (10.193, 392.0), (10.193, 391.79), (0.3, 391.62), (0.3, 391.24), (3.475, 391.69), (3.475, 391.38), (3.475, 391.79), (3.475, 391.58), (10.193, 391.79), (10.193, 391.58)]</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4317,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>[(-0.3, 393.0), (-0.3, 392.62), (0.0, 393.0), (0.0, 392.7), (0.0, 393.0), (0.0, 392.85), (0.0, 393.0), (0.0, 392.85), (-0.3, 392.62), (-0.3, 392.24), (0.0, 392.7), (0.0, 392.4), (0.0, 392.85), (0.0, 392.7), (0.0, 392.85), (0.0, 392.7)]</t>
+          <t>[(0.3, 393.0), (0.3, 392.62), (3.523, 393.0), (3.523, 392.7), (3.523, 393.0), (3.523, 392.85), (10.289, 393.0), (10.289, 392.85), (0.3, 392.62), (0.3, 392.24), (3.523, 392.7), (3.523, 392.4), (3.523, 392.85), (3.523, 392.7), (10.289, 392.85), (10.289, 392.7)]</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4327,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>[(-0.3, 394.0), (-0.3, 393.72), (0.0, 394.0), (0.0, 393.72), (0.0, 394.0), (0.0, 393.76), (0.0, 394.0), (0.0, 393.76), (-0.3, 393.72), (-0.3, 393.44), (0.0, 393.72), (0.0, 393.44), (0.0, 393.76), (0.0, 393.52), (0.0, 393.76), (0.0, 393.52), (-0.3, 393.44), (-0.3, 393.17), (0.0, 393.44), (0.0, 393.3), (0.0, 393.52), (0.0, 393.3), (0.0, 393.52), (0.0, 393.4)]</t>
+          <t>[(0.3, 394.0), (0.3, 393.72), (3.553, 394.0), (3.553, 393.72), (3.553, 394.0), (3.553, 393.76), (10.294, 394.0), (10.294, 393.76), (0.3, 393.72), (0.3, 393.44), (3.553, 393.72), (3.553, 393.44), (3.553, 393.76), (3.553, 393.52), (10.294, 393.76), (10.294, 393.52), (0.3, 393.44), (0.3, 393.17), (3.553, 393.44), (3.553, 393.3), (3.553, 393.52), (3.553, 393.3), (10.294, 393.52), (10.294, 393.4)]</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4337,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>[(-0.3, 395.0), (-0.3, 394.6), (0.0, 395.0), (0.0, 394.68), (0.0, 395.0), (0.0, 394.78), (0.0, 395.0), (0.0, 394.78), (-0.3, 394.6), (-0.3, 394.2), (0.0, 394.68), (0.0, 394.36), (0.0, 394.78), (0.0, 394.56), (0.0, 394.78), (0.0, 394.56)]</t>
+          <t>[(0.3, 395.0), (0.3, 394.6), (3.619, 395.0), (3.619, 394.68), (3.619, 395.0), (3.619, 394.78), (10.359, 395.0), (10.359, 394.78), (0.3, 394.6), (0.3, 394.2), (3.619, 394.68), (3.619, 394.36), (3.619, 394.78), (3.619, 394.56), (10.359, 394.78), (10.359, 394.56)]</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4347,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>[(-0.3, 396.0), (-0.3, 395.62), (0.0, 396.0), (0.0, 395.7), (0.0, 396.0), (0.0, 395.85), (0.0, 396.0), (0.0, 395.85), (-0.3, 395.62), (-0.3, 395.24), (0.0, 395.7), (0.0, 395.4), (0.0, 395.85), (0.0, 395.7), (0.0, 395.85), (0.0, 395.7)]</t>
+          <t>[(0.3, 396.0), (0.3, 395.62), (3.732, 396.0), (3.732, 395.7), (3.732, 396.0), (3.732, 395.85), (10.377, 396.0), (10.377, 395.85), (0.3, 395.62), (0.3, 395.24), (3.732, 395.7), (3.732, 395.4), (3.732, 395.85), (3.732, 395.7), (10.377, 395.85), (10.377, 395.7)]</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4357,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>[(-0.3, 397.0), (-0.3, 396.63), (0.0, 397.0), (0.0, 396.71), (0.0, 397.0), (0.0, 396.8), (0.0, 397.0), (0.0, 396.8), (-0.3, 396.63), (-0.3, 396.26), (0.0, 396.71), (0.0, 396.42), (0.0, 396.8), (0.0, 396.6), (0.0, 396.8), (0.0, 396.6)]</t>
+          <t>[(0.3, 397.0), (0.3, 396.63), (3.831, 397.0), (3.831, 396.71), (3.831, 397.0), (3.831, 396.8), (10.46, 397.0), (10.46, 396.8), (0.3, 396.63), (0.3, 396.26), (3.831, 396.71), (3.831, 396.42), (3.831, 396.8), (3.831, 396.6), (10.46, 396.8), (10.46, 396.6)]</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4367,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>[(-0.3, 398.0), (-0.3, 397.62), (0.0, 398.0), (0.0, 397.72), (0.0, 398.0), (0.0, 397.81), (0.0, 398.0), (0.0, 397.81), (-0.3, 397.62), (-0.3, 397.24), (0.0, 397.72), (0.0, 397.44), (0.0, 397.81), (0.0, 397.62), (0.0, 397.81), (0.0, 397.62)]</t>
+          <t>[(0.3, 398.0), (0.3, 397.62), (3.841, 398.0), (3.841, 397.72), (3.841, 398.0), (3.841, 397.81), (10.549, 398.0), (10.549, 397.81), (0.3, 397.62), (0.3, 397.24), (3.841, 397.72), (3.841, 397.44), (3.841, 397.81), (3.841, 397.62), (10.549, 397.81), (10.549, 397.62)]</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4377,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>[(-0.3, 399.0), (-0.3, 398.64), (0.0, 399.0), (0.0, 398.72), (0.0, 399.0), (0.0, 398.81), (0.0, 399.0), (0.0, 398.81), (-0.3, 398.64), (-0.3, 398.28), (0.0, 398.72), (0.0, 398.44), (0.0, 398.81), (0.0, 398.62), (0.0, 398.81), (0.0, 398.62)]</t>
+          <t>[(0.3, 399.0), (0.3, 398.64), (3.915, 399.0), (3.915, 398.72), (3.915, 399.0), (3.915, 398.81), (10.615, 399.0), (10.615, 398.81), (0.3, 398.64), (0.3, 398.28), (3.915, 398.72), (3.915, 398.44), (3.915, 398.81), (3.915, 398.62), (10.615, 398.81), (10.615, 398.62)]</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4387,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>[(-0.3, 400.0), (-0.3, 399.63), (0.0, 400.0), (0.0, 399.74), (0.0, 400.0), (0.0, 399.82), (0.0, 400.0), (0.0, 399.82), (-0.3, 399.63), (-0.3, 399.26), (0.0, 399.74), (0.0, 399.48), (0.0, 399.82), (0.0, 399.64), (0.0, 399.82), (0.0, 399.64)]</t>
+          <t>[(0.3, 400.0), (0.3, 399.63), (3.973, 400.0), (3.973, 399.74), (3.973, 400.0), (3.973, 399.82), (10.684, 400.0), (10.684, 399.82), (0.3, 399.63), (0.3, 399.26), (3.973, 399.74), (3.973, 399.48), (3.973, 399.82), (3.973, 399.64), (10.684, 399.82), (10.684, 399.64)]</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4397,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>[(-0.3, 401.0), (-0.3, 400.62), (0.0, 401.0), (0.0, 400.72), (0.0, 401.0), (0.0, 400.81), (0.0, 401.0), (0.0, 400.81), (-0.3, 400.62), (-0.3, 400.24), (0.0, 400.72), (0.0, 400.44), (0.0, 400.81), (0.0, 400.62), (0.0, 400.81), (0.0, 400.62)]</t>
+          <t>[(0.3, 401.0), (0.3, 400.62), (4.03, 401.0), (4.03, 400.72), (4.03, 401.0), (4.03, 400.81), (10.741, 401.0), (10.741, 400.81), (0.3, 400.62), (0.3, 400.24), (4.03, 400.72), (4.03, 400.44), (4.03, 400.81), (4.03, 400.62), (10.741, 400.81), (10.741, 400.62)]</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4407,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>[(-0.3, 402.0), (-0.3, 401.58), (0.0, 402.0), (0.0, 401.67), (0.0, 402.0), (0.0, 401.78), (0.0, 402.0), (0.0, 401.78), (-0.3, 401.58), (-0.3, 401.16), (0.0, 401.67), (0.0, 401.34), (0.0, 401.78), (0.0, 401.56), (0.0, 401.78), (0.0, 401.56)]</t>
+          <t>[(0.3, 402.0), (0.3, 401.58), (4.09, 402.0), (4.09, 401.67), (4.09, 402.0), (4.09, 401.78), (10.786, 402.0), (10.786, 401.78), (0.3, 401.58), (0.3, 401.16), (4.09, 401.67), (4.09, 401.34), (4.09, 401.78), (4.09, 401.56), (10.786, 401.78), (10.786, 401.56)]</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4417,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>[(-0.3, 403.0), (-0.3, 402.56), (0.0, 403.0), (0.0, 402.67), (0.0, 403.0), (0.0, 402.83), (0.0, 403.0), (0.0, 402.83), (-0.3, 402.56), (-0.3, 402.12), (0.0, 402.67), (0.0, 402.34), (0.0, 402.83), (0.0, 402.66), (0.0, 402.83), (0.0, 402.66)]</t>
+          <t>[(0.3, 403.0), (0.3, 402.56), (4.145, 403.0), (4.145, 402.67), (4.145, 403.0), (4.145, 402.83), (10.897, 403.0), (10.897, 402.83), (0.3, 402.56), (0.3, 402.12), (4.145, 402.67), (4.145, 402.34), (4.145, 402.83), (4.145, 402.66), (10.897, 402.83), (10.897, 402.66)]</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4427,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>[(-0.3, 404.0), (-0.3, 403.52), (0.0, 404.0), (0.0, 403.62), (0.0, 404.0), (0.0, 403.81), (0.0, 404.0), (0.0, 403.81), (-0.3, 403.52), (-0.3, 403.04), (0.0, 403.62), (0.0, 403.24), (0.0, 403.81), (0.0, 403.62), (0.0, 403.81), (0.0, 403.62)]</t>
+          <t>[(0.3, 404.0), (0.3, 403.52), (4.211, 404.0), (4.211, 403.62), (4.211, 404.0), (4.211, 403.81), (10.928, 404.0), (10.928, 403.81), (0.3, 403.52), (0.3, 403.04), (4.211, 403.62), (4.211, 403.24), (4.211, 403.81), (4.211, 403.62), (10.928, 403.81), (10.928, 403.62)]</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4437,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>[(-0.3, 405.0), (-0.3, 404.52), (0.0, 405.0), (0.0, 404.63), (0.0, 405.0), (0.0, 404.81), (0.0, 405.0), (0.0, 404.81), (-0.3, 404.52), (-0.3, 404.04), (0.0, 404.63), (0.0, 404.26), (0.0, 404.81), (0.0, 404.62), (0.0, 404.81), (0.0, 404.62)]</t>
+          <t>[(0.3, 405.0), (0.3, 404.52), (4.264, 405.0), (4.264, 404.63), (4.264, 405.0), (4.264, 404.81), (10.962, 405.0), (10.962, 404.81), (0.3, 404.52), (0.3, 404.04), (4.264, 404.63), (4.264, 404.26), (4.264, 404.81), (4.264, 404.62), (10.962, 404.81), (10.962, 404.62)]</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4447,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>[(-0.3, 406.0), (-0.3, 405.57), (0.0, 406.0), (0.0, 405.68), (0.0, 406.0), (0.0, 405.84), (0.0, 406.0), (0.0, 405.84), (-0.3, 405.57), (-0.3, 405.14), (0.0, 405.68), (0.0, 405.36), (0.0, 405.84), (0.0, 405.68), (0.0, 405.84), (0.0, 405.68)]</t>
+          <t>[(0.3, 406.0), (0.3, 405.57), (4.299, 406.0), (4.299, 405.68), (4.299, 406.0), (4.299, 405.84), (11.032, 406.0), (11.032, 405.84), (0.3, 405.57), (0.3, 405.14), (4.299, 405.68), (4.299, 405.36), (4.299, 405.84), (4.299, 405.68), (11.032, 405.84), (11.032, 405.68)]</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4457,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>[(-0.3, 407.0), (-0.3, 406.6), (0.0, 407.0), (0.0, 406.71), (0.0, 407.0), (0.0, 406.85), (0.0, 407.0), (0.0, 406.85), (-0.3, 406.6), (-0.3, 406.2), (0.0, 406.71), (0.0, 406.42), (0.0, 406.85), (0.0, 406.7), (0.0, 406.85), (0.0, 406.7)]</t>
+          <t>[(0.3, 407.0), (0.3, 406.6), (4.344, 407.0), (4.344, 406.71), (4.344, 407.0), (4.344, 406.85), (11.063, 407.0), (11.063, 406.85), (0.3, 406.6), (0.3, 406.2), (4.344, 406.71), (4.344, 406.42), (4.344, 406.85), (4.344, 406.7), (11.063, 406.85), (11.063, 406.7)]</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4467,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>[(-0.3, 408.0), (-0.3, 407.64), (0.0, 408.0), (0.0, 407.75), (0.0, 408.0), (0.0, 407.83), (0.0, 408.0), (0.0, 407.83), (-0.3, 407.64), (-0.3, 407.28), (0.0, 407.75), (0.0, 407.5), (0.0, 407.83), (0.0, 407.66), (0.0, 407.83), (0.0, 407.66)]</t>
+          <t>[(0.3, 408.0), (0.3, 407.64), (4.28, 408.0), (4.28, 407.75), (4.28, 408.0), (4.28, 407.83), (10.988, 408.0), (10.988, 407.83), (0.3, 407.64), (0.3, 407.28), (4.28, 407.75), (4.28, 407.5), (4.28, 407.83), (4.28, 407.66), (10.988, 407.83), (10.988, 407.66)]</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4477,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>[(-0.3, 409.0), (-0.3, 408.71), (0.0, 409.0), (0.0, 408.71), (0.0, 409.0), (0.0, 408.79), (0.0, 409.0), (0.0, 408.79), (-0.3, 408.71), (-0.3, 408.42), (0.0, 408.71), (0.0, 408.58), (0.0, 408.79), (0.0, 408.58), (0.0, 408.79), (0.0, 408.62)]</t>
+          <t>[(0.3, 409.0), (0.3, 408.71), (4.186, 409.0), (4.186, 408.71), (4.186, 409.0), (4.186, 408.79), (10.852, 409.0), (10.852, 408.79), (0.3, 408.71), (0.3, 408.42), (4.186, 408.71), (4.186, 408.58), (4.186, 408.79), (4.186, 408.58), (10.852, 408.79), (10.852, 408.62)]</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4487,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>[(-0.3, 410.0), (-0.3, 409.76), (0.0, 410.0), (0.0, 409.86), (0.0, 410.0), (0.0, 409.85), (0.0, 410.0), (0.0, 409.85), (-0.3, 409.76), (-0.3, 409.52), (0.0, 409.86), (0.0, 409.72), (0.0, 409.85), (0.0, 409.72), (0.0, 409.85), (0.0, 409.7)]</t>
+          <t>[(0.3, 410.0), (0.3, 409.76), (4.012, 410.0), (4.012, 409.86), (4.012, 410.0), (4.012, 409.85), (10.748, 410.0), (10.748, 409.85), (0.3, 409.76), (0.3, 409.52), (4.012, 409.86), (4.012, 409.72), (4.012, 409.85), (4.012, 409.72), (10.748, 409.85), (10.748, 409.7)]</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4517,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>[(-0.3, 413.0), (-0.3, 412.83), (0.0, 413.0), (0.0, 412.83), (0.0, 413.0), (0.0, 412.83), (0.0, 413.0), (0.0, 412.83), (-0.3, 412.83), (-0.3, 412.66), (0.0, 412.83), (0.0, 412.71), (0.0, 412.83), (0.0, 412.71), (0.0, 412.83), (0.0, 412.67)]</t>
+          <t>[(0.3, 413.0), (0.3, 412.83), (3.331, 413.0), (3.331, 412.83), (3.331, 413.0), (3.331, 412.83), (10.254, 413.0), (10.254, 412.83), (0.3, 412.83), (0.3, 412.66), (3.331, 412.83), (3.331, 412.71), (3.331, 412.83), (3.331, 412.71), (10.254, 412.83), (10.254, 412.67)]</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4527,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>[(-0.3, 414.0), (-0.3, 413.82), (0.0, 414.0), (0.0, 413.82), (0.0, 414.0), (0.0, 413.8), (0.0, 414.0), (0.0, 413.8), (-0.3, 413.82), (-0.3, 413.65), (0.0, 413.82), (0.0, 413.69), (0.0, 413.8), (0.0, 413.69), (0.0, 413.8), (0.0, 413.5)]</t>
+          <t>[(0.3, 414.0), (0.3, 413.82), (3.32, 414.0), (3.32, 413.82), (3.32, 414.0), (3.32, 413.8), (10.037, 414.0), (10.037, 413.8), (0.3, 413.82), (0.3, 413.65), (3.32, 413.82), (3.32, 413.69), (3.32, 413.8), (3.32, 413.69), (10.037, 413.8), (10.037, 413.5)]</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4537,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>[(-0.3, 415.0), (-0.3, 414.87), (0.0, 415.0), (0.0, 414.87), (0.0, 415.0), (0.0, 414.73), (0.0, 415.0), (0.0, 414.73), (-0.3, 414.87), (-0.3, 414.74), (0.0, 414.87), (0.0, 414.74), (0.0, 414.73), (0.0, 414.62), (0.0, 414.73), (0.0, 414.46), (-0.3, 414.74), (-0.3, 414.63), (0.0, 414.74), (0.0, 414.62), (0.0, 414.62), (0.0, 414.62), (0.0, 414.46), (0.0, 414.46)]</t>
+          <t>[(0.3, 415.0), (0.3, 414.87), (3.147, 415.0), (3.147, 414.87), (3.147, 415.0), (3.147, 414.73), (9.826, 415.0), (9.826, 414.73), (0.3, 414.87), (0.3, 414.74), (3.147, 414.87), (3.147, 414.74), (3.147, 414.73), (3.147, 414.62), (9.826, 414.73), (9.826, 414.46), (0.3, 414.74), (0.3, 414.63), (3.147, 414.74), (3.147, 414.62), (3.147, 414.62), (3.147, 414.62), (9.826, 414.46), (9.826, 414.46)]</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4547,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>[(-0.3, 416.0), (-0.3, 415.89), (0.0, 416.0), (0.0, 415.89), (0.0, 416.0), (0.0, 415.81), (0.0, 416.0), (0.0, 415.81), (-0.3, 415.89), (-0.3, 415.72), (0.0, 415.89), (0.0, 415.65), (0.0, 415.81), (0.0, 415.65), (0.0, 415.81), (0.0, 415.51)]</t>
+          <t>[(0.3, 416.0), (0.3, 415.89), (2.944, 416.0), (2.944, 415.89), (2.944, 416.0), (2.944, 415.81), (9.666, 416.0), (9.666, 415.81), (0.3, 415.89), (0.3, 415.72), (2.944, 415.89), (2.944, 415.65), (2.944, 415.81), (2.944, 415.65), (9.666, 415.81), (9.666, 415.51)]</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4557,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>[(-0.3, 417.0), (-0.3, 416.83), (0.0, 417.0), (0.0, 416.83), (0.0, 417.0), (0.0, 416.78), (0.0, 417.0), (0.0, 416.78), (-0.3, 416.83), (-0.3, 416.7), (0.0, 416.83), (0.0, 416.66), (0.0, 416.78), (0.0, 416.66), (0.0, 416.78), (0.0, 416.56)]</t>
+          <t>[(0.3, 417.0), (0.3, 416.83), (2.95, 417.0), (2.95, 416.83), (2.95, 417.0), (2.95, 416.78), (9.532, 417.0), (9.532, 416.78), (0.3, 416.83), (0.3, 416.7), (2.95, 416.83), (2.95, 416.66), (2.95, 416.78), (2.95, 416.66), (9.532, 416.78), (9.532, 416.56)]</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4567,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>[(-0.3, 418.0), (-0.3, 417.85), (0.0, 418.0), (0.0, 417.85), (0.0, 418.0), (0.0, 417.89), (0.0, 418.0), (0.0, 417.89), (-0.3, 417.85), (-0.3, 417.73), (0.0, 417.85), (0.0, 417.71), (0.0, 417.89), (0.0, 417.71), (0.0, 417.89), (0.0, 417.59)]</t>
+          <t>[(0.3, 418.0), (0.3, 417.85), (3.085, 418.0), (3.085, 417.85), (3.085, 418.0), (3.085, 417.89), (9.74, 418.0), (9.74, 417.89), (0.3, 417.85), (0.3, 417.73), (3.085, 417.85), (3.085, 417.71), (3.085, 417.89), (3.085, 417.71), (9.74, 417.89), (9.74, 417.59)]</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4577,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>[(-0.3, 419.0), (-0.3, 418.85), (0.0, 419.0), (0.0, 418.85), (0.0, 419.0), (0.0, 418.88), (0.0, 419.0), (0.0, 418.88), (-0.3, 418.85), (-0.3, 418.72), (0.0, 418.85), (0.0, 418.71), (0.0, 418.88), (0.0, 418.71), (0.0, 418.88), (0.0, 418.58)]</t>
+          <t>[(0.3, 419.0), (0.3, 418.85), (3.261, 419.0), (3.261, 418.85), (3.261, 419.0), (3.261, 418.88), (9.885, 419.0), (9.885, 418.88), (0.3, 418.85), (0.3, 418.72), (3.261, 418.85), (3.261, 418.71), (3.261, 418.88), (3.261, 418.71), (9.885, 418.88), (9.885, 418.58)]</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4587,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>[(-0.3, 420.0), (-0.3, 419.84), (0.0, 420.0), (0.0, 419.84), (0.0, 420.0), (0.0, 419.87), (0.0, 420.0), (0.0, 419.87), (-0.3, 419.84), (-0.3, 419.72), (0.0, 419.84), (0.0, 419.69), (0.0, 419.87), (0.0, 419.69), (0.0, 419.87), (0.0, 419.57)]</t>
+          <t>[(0.3, 420.0), (0.3, 419.84), (3.444, 420.0), (3.444, 419.84), (3.444, 420.0), (3.444, 419.87), (10.072, 420.0), (10.072, 419.87), (0.3, 419.84), (0.3, 419.72), (3.444, 419.84), (3.444, 419.69), (3.444, 419.87), (3.444, 419.69), (10.072, 419.87), (10.072, 419.57)]</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4597,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>[(-0.3, 421.0), (-0.3, 420.89), (0.0, 421.0), (0.0, 420.89), (0.0, 421.0), (0.0, 420.76), (0.0, 421.0), (0.0, 420.76), (-0.3, 420.89), (-0.3, 420.73), (0.0, 420.89), (0.0, 420.65), (0.0, 420.76), (0.0, 420.65), (0.0, 420.76), (0.0, 420.53)]</t>
+          <t>[(0.3, 421.0), (0.3, 420.89), (3.596, 421.0), (3.596, 420.89), (3.596, 421.0), (3.596, 420.76), (10.259, 421.0), (10.259, 420.76), (0.3, 420.89), (0.3, 420.73), (3.596, 420.89), (3.596, 420.65), (3.596, 420.76), (3.596, 420.65), (10.259, 420.76), (10.259, 420.53)]</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4607,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>[(-0.3, 422.0), (-0.3, 421.89), (0.0, 422.0), (0.0, 421.89), (0.0, 422.0), (0.0, 421.78), (0.0, 422.0), (0.0, 421.78), (-0.3, 421.89), (-0.3, 421.74), (0.0, 421.89), (0.0, 421.65), (0.0, 421.78), (0.0, 421.65), (0.0, 421.78), (0.0, 421.48)]</t>
+          <t>[(0.3, 422.0), (0.3, 421.89), (3.659, 422.0), (3.659, 421.89), (3.659, 422.0), (3.659, 421.78), (10.693, 422.0), (10.693, 421.78), (0.3, 421.89), (0.3, 421.74), (3.659, 421.89), (3.659, 421.65), (3.659, 421.78), (3.659, 421.65), (10.693, 421.78), (10.693, 421.48)]</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4617,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>[(-0.3, 423.0), (-0.3, 422.82), (0.0, 423.0), (0.0, 422.82), (0.0, 423.0), (0.0, 422.82), (0.0, 423.0), (0.0, 422.7), (-0.3, 422.82), (-0.3, 422.7), (0.0, 422.82), (0.0, 422.65), (0.0, 422.82), (0.0, 422.64), (0.0, 422.7), (0.0, 422.4)]</t>
+          <t>[(0.3, 423.0), (0.3, 422.82), (3.71, 423.0), (3.71, 422.82), (3.71, 423.0), (3.71, 422.82), (12.723, 423.0), (12.723, 422.7), (0.3, 422.82), (0.3, 422.7), (3.71, 422.82), (3.71, 422.65), (3.71, 422.82), (3.71, 422.64), (12.723, 422.7), (12.723, 422.4)]</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4627,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>[(-0.3, 424.0), (-0.3, 423.89), (0.0, 424.0), (0.0, 423.89), (0.0, 424.0), (0.0, 423.84), (0.0, 424.0), (0.0, 423.68), (-0.3, 423.89), (-0.3, 423.75), (0.0, 423.89), (0.0, 423.67), (0.0, 423.84), (0.0, 423.68), (0.0, 423.68), (0.0, 423.36)]</t>
+          <t>[(0.3, 424.0), (0.3, 423.89), (3.875, 424.0), (3.875, 423.89), (3.875, 424.0), (3.875, 423.84), (13.879, 424.0), (13.879, 423.68), (0.3, 423.89), (0.3, 423.75), (3.875, 423.89), (3.875, 423.67), (3.875, 423.84), (3.875, 423.68), (13.879, 423.68), (13.879, 423.36)]</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4647,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>[(-0.3, 426.0), (-0.3, 425.83), (0.0, 426.0), (0.0, 425.83), (0.0, 426.0), (0.0, 425.83), (0.0, 426.0), (0.0, 425.7), (-0.3, 425.83), (-0.3, 425.71), (0.0, 425.83), (0.0, 425.66), (0.0, 425.83), (0.0, 425.66), (0.0, 425.7), (0.0, 425.4)]</t>
+          <t>[(0.3, 426.0), (0.3, 425.83), (4.12, 426.0), (4.12, 425.83), (4.12, 426.0), (4.12, 425.83), (13.679, 426.0), (13.679, 425.7), (0.3, 425.83), (0.3, 425.71), (4.12, 425.83), (4.12, 425.66), (4.12, 425.83), (4.12, 425.66), (13.679, 425.7), (13.679, 425.4)]</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4677,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>[(-0.3, 429.0), (-0.3, 428.83), (0.0, 429.0), (0.0, 428.83), (0.0, 429.0), (0.0, 428.83), (0.0, 429.0), (0.0, 428.6), (-0.3, 428.83), (-0.3, 428.71), (0.0, 428.83), (0.0, 428.66), (0.0, 428.83), (0.0, 428.66), (0.0, 428.6), (0.0, 428.2)]</t>
+          <t>[(0.3, 429.0), (0.3, 428.83), (4.525, 429.0), (4.525, 428.83), (4.525, 429.0), (4.525, 428.83), (16.098, 429.0), (16.098, 428.6), (0.3, 428.83), (0.3, 428.71), (4.525, 428.83), (4.525, 428.66), (4.525, 428.83), (4.525, 428.66), (16.098, 428.6), (16.098, 428.2)]</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4687,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>[(-0.3, 430.0), (-0.3, 429.82), (0.0, 430.0), (0.0, 429.82), (0.0, 430.0), (0.0, 429.82), (0.0, 430.0), (0.0, 429.67), (-0.3, 429.82), (-0.3, 429.68), (0.0, 429.82), (0.0, 429.64), (0.0, 429.82), (0.0, 429.64), (0.0, 429.67), (0.0, 429.34)]</t>
+          <t>[(0.3, 430.0), (0.3, 429.82), (4.498, 430.0), (4.498, 429.82), (4.498, 430.0), (4.498, 429.82), (15.169, 430.0), (15.169, 429.67), (0.3, 429.82), (0.3, 429.68), (4.498, 429.82), (4.498, 429.64), (4.498, 429.82), (4.498, 429.64), (15.169, 429.67), (15.169, 429.34)]</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4697,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>[(-0.3, 431.0), (-0.3, 430.8), (0.0, 431.0), (0.0, 430.8), (0.0, 431.0), (0.0, 430.8), (0.0, 431.0), (0.0, 430.68), (-0.3, 430.8), (-0.3, 430.66), (0.0, 430.8), (0.0, 430.61), (0.0, 430.8), (0.0, 430.6), (0.0, 430.68), (0.0, 430.36)]</t>
+          <t>[(0.3, 431.0), (0.3, 430.8), (4.508, 431.0), (4.508, 430.8), (4.508, 431.0), (4.508, 430.8), (14.618, 431.0), (14.618, 430.68), (0.3, 430.8), (0.3, 430.66), (4.508, 430.8), (4.508, 430.61), (4.508, 430.8), (4.508, 430.6), (14.618, 430.68), (14.618, 430.36)]</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4707,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>[(-0.3, 432.0), (-0.3, 431.83), (0.0, 432.0), (0.0, 431.83), (0.0, 432.0), (0.0, 431.83), (0.0, 432.0), (0.0, 431.68), (-0.3, 431.83), (-0.3, 431.69), (0.0, 431.83), (0.0, 431.66), (0.0, 431.83), (0.0, 431.66), (0.0, 431.68), (0.0, 431.36)]</t>
+          <t>[(0.3, 432.0), (0.3, 431.83), (4.454, 432.0), (4.454, 431.83), (4.454, 432.0), (4.454, 431.83), (13.86, 432.0), (13.86, 431.68), (0.3, 431.83), (0.3, 431.69), (4.454, 431.83), (4.454, 431.66), (4.454, 431.83), (4.454, 431.66), (13.86, 431.68), (13.86, 431.36)]</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4717,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>[(-0.3, 433.0), (-0.3, 432.84), (0.0, 433.0), (0.0, 432.84), (0.0, 433.0), (0.0, 432.84), (0.0, 433.0), (0.0, 432.84), (-0.3, 432.84), (-0.3, 432.73), (0.0, 432.84), (0.0, 432.68), (0.0, 432.84), (0.0, 432.68), (0.0, 432.84), (0.0, 432.54)]</t>
+          <t>[(0.3, 433.0), (0.3, 432.84), (4.298, 433.0), (4.298, 432.84), (4.298, 433.0), (4.298, 432.84), (11.103, 433.0), (11.103, 432.84), (0.3, 432.84), (0.3, 432.73), (4.298, 432.84), (4.298, 432.68), (4.298, 432.84), (4.298, 432.68), (11.103, 432.84), (11.103, 432.54)]</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4727,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>[(-0.3, 434.0), (-0.3, 433.89), (0.0, 434.0), (0.0, 433.89), (0.0, 434.0), (0.0, 433.77), (0.0, 434.0), (0.0, 433.77), (-0.3, 433.89), (-0.3, 433.72), (0.0, 433.89), (0.0, 433.65), (0.0, 433.77), (0.0, 433.65), (0.0, 433.77), (0.0, 433.55)]</t>
+          <t>[(0.3, 434.0), (0.3, 433.89), (3.992, 434.0), (3.992, 433.89), (3.992, 434.0), (3.992, 433.77), (10.131, 434.0), (10.131, 433.77), (0.3, 433.89), (0.3, 433.72), (3.992, 433.89), (3.992, 433.65), (3.992, 433.77), (3.992, 433.65), (10.131, 433.77), (10.131, 433.55)]</t>
         </is>
       </c>
     </row>
@@ -4777,7 +4737,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>[(-0.3, 435.0), (-0.3, 434.84), (0.0, 435.0), (0.0, 434.84), (0.0, 435.0), (0.0, 434.8), (0.0, 435.0), (0.0, 434.8), (-0.3, 434.84), (-0.3, 434.71), (0.0, 434.84), (0.0, 434.68), (0.0, 434.8), (0.0, 434.68), (0.0, 434.8), (0.0, 434.61)]</t>
+          <t>[(0.3, 435.0), (0.3, 434.84), (3.596, 435.0), (3.596, 434.84), (3.596, 435.0), (3.596, 434.8), (9.769, 435.0), (9.769, 434.8), (0.3, 434.84), (0.3, 434.71), (3.596, 434.84), (3.596, 434.68), (3.596, 434.8), (3.596, 434.68), (9.769, 434.8), (9.769, 434.61)]</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4747,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>[(-0.3, 436.0), (-0.3, 435.83), (0.0, 436.0), (0.0, 435.83), (0.0, 436.0), (0.0, 435.78), (0.0, 436.0), (0.0, 435.78), (-0.3, 435.83), (-0.3, 435.68), (0.0, 435.83), (0.0, 435.66), (0.0, 435.78), (0.0, 435.66), (0.0, 435.78), (0.0, 435.57)]</t>
+          <t>[(0.3, 436.0), (0.3, 435.83), (3.574, 436.0), (3.574, 435.83), (3.574, 436.0), (3.574, 435.78), (9.962, 436.0), (9.962, 435.78), (0.3, 435.83), (0.3, 435.68), (3.574, 435.83), (3.574, 435.66), (3.574, 435.78), (3.574, 435.66), (9.962, 435.78), (9.962, 435.57)]</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4757,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>[(-0.3, 437.0), (-0.3, 436.82), (0.0, 437.0), (0.0, 436.82), (0.0, 437.0), (0.0, 436.78), (0.0, 437.0), (0.0, 436.78), (-0.3, 436.82), (-0.3, 436.68), (0.0, 436.82), (0.0, 436.64), (0.0, 436.78), (0.0, 436.64), (0.0, 436.78), (0.0, 436.56)]</t>
+          <t>[(0.3, 437.0), (0.3, 436.82), (3.644, 437.0), (3.644, 436.82), (3.644, 437.0), (3.644, 436.78), (10.039, 437.0), (10.039, 436.78), (0.3, 436.82), (0.3, 436.68), (3.644, 436.82), (3.644, 436.64), (3.644, 436.78), (3.644, 436.64), (10.039, 436.78), (10.039, 436.56)]</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4767,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>[(-0.3, 438.0), (-0.3, 437.82), (0.0, 438.0), (0.0, 437.82), (0.0, 438.0), (0.0, 437.77), (0.0, 438.0), (0.0, 437.77), (-0.3, 437.82), (-0.3, 437.69), (0.0, 437.82), (0.0, 437.65), (0.0, 437.77), (0.0, 437.65), (0.0, 437.77), (0.0, 437.55)]</t>
+          <t>[(0.3, 438.0), (0.3, 437.82), (3.623, 438.0), (3.623, 437.82), (3.623, 438.0), (3.623, 437.77), (10.008, 438.0), (10.008, 437.77), (0.3, 437.82), (0.3, 437.69), (3.623, 437.82), (3.623, 437.65), (3.623, 437.77), (3.623, 437.65), (10.008, 437.77), (10.008, 437.55)]</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4777,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>[(-0.3, 439.0), (-0.3, 438.84), (0.0, 439.0), (0.0, 438.84), (0.0, 439.0), (0.0, 438.83), (-4.836, 439.0), (-4.836, 438.83), (-0.3, 438.84), (-0.3, 438.69), (0.0, 438.84), (0.0, 438.71), (0.0, 438.83), (0.0, 438.71), (-4.836, 438.83), (-4.836, 438.67)]</t>
+          <t>[(0.3, 439.0), (0.3, 438.84), (3.579, 439.0), (3.579, 438.84), (3.579, 439.0), (3.579, 438.83), (9.279, 439.0), (9.279, 438.83), (0.3, 438.84), (0.3, 438.69), (3.579, 438.84), (3.579, 438.71), (3.579, 438.83), (3.579, 438.71), (9.279, 438.83), (9.279, 438.67)]</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4787,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>[(-0.3, 440.0), (-0.3, 439.83), (0.0, 440.0), (0.0, 439.83), (0.0, 440.0), (0.0, 439.81), (-2.75, 440.0), (-2.75, 439.81), (-0.3, 439.83), (-0.3, 439.68), (0.0, 439.83), (0.0, 439.67), (0.0, 439.81), (0.0, 439.67), (-2.75, 439.81), (-2.75, 439.63)]</t>
+          <t>[(0.3, 440.0), (0.3, 439.83), (3.417, 440.0), (3.417, 439.83), (3.417, 440.0), (3.417, 439.81), (8.345, 440.0), (8.345, 439.81), (0.3, 439.83), (0.3, 439.68), (3.417, 439.83), (3.417, 439.67), (3.417, 439.81), (3.417, 439.67), (8.345, 439.81), (8.345, 439.63)]</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4797,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>[(-0.3, 441.0), (-0.3, 440.81), (0.0, 441.0), (0.0, 440.81), (0.0, 441.0), (0.0, 440.79), (-4.523, 441.0), (-4.523, 440.79), (-0.3, 440.81), (-0.3, 440.69), (0.0, 440.81), (0.0, 440.63), (0.0, 440.79), (0.0, 440.63), (-4.523, 440.79), (-4.523, 440.58)]</t>
+          <t>[(0.3, 441.0), (0.3, 440.81), (3.084, 441.0), (3.084, 440.81), (3.084, 441.0), (3.084, 440.79), (7.736, 441.0), (7.736, 440.79), (0.3, 440.81), (0.3, 440.69), (3.084, 440.81), (3.084, 440.63), (3.084, 440.79), (3.084, 440.63), (7.736, 440.79), (7.736, 440.58)]</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4807,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>[(-0.3, 442.0), (-0.3, 441.8), (0.0, 442.0), (0.0, 441.8), (0.0, 442.0), (0.0, 441.79), (-5.604, 442.0), (-5.604, 441.79), (-0.3, 441.8), (-0.3, 441.67), (0.0, 441.8), (0.0, 441.61), (0.0, 441.79), (0.0, 441.61), (-5.604, 441.79), (-5.604, 441.58)]</t>
+          <t>[(0.3, 442.0), (0.3, 441.8), (2.831, 442.0), (2.831, 441.8), (2.831, 442.0), (2.831, 441.79), (7.33, 442.0), (7.33, 441.79), (0.3, 441.8), (0.3, 441.67), (2.831, 441.8), (2.831, 441.61), (2.831, 441.79), (2.831, 441.61), (7.33, 441.79), (7.33, 441.58)]</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4817,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>[(-0.3, 443.0), (-0.3, 442.82), (0.0, 443.0), (0.0, 442.82), (0.0, 443.0), (0.0, 442.82), (-6.634, 443.0), (-6.634, 442.82), (-0.3, 442.82), (-0.3, 442.64), (0.0, 442.82), (0.0, 442.65), (0.0, 442.82), (0.0, 442.65), (-6.634, 442.82), (-6.634, 442.67)]</t>
+          <t>[(0.3, 443.0), (0.3, 442.82), (2.668, 443.0), (2.668, 442.82), (2.668, 443.0), (2.668, 442.82), (6.946, 443.0), (6.946, 442.82), (0.3, 442.82), (0.3, 442.64), (2.668, 442.82), (2.668, 442.65), (2.668, 442.82), (2.668, 442.65), (6.946, 442.82), (6.946, 442.67)]</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4837,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>[(-0.3, 445.0), (-0.3, 444.89), (-3.713, 445.0), (-3.713, 444.89), (-0.3, 444.89), (-0.3, 444.63), (-3.713, 444.89), (-3.713, 444.72)]</t>
+          <t>[(0.3, 445.0), (0.3, 444.89), (6.418, 445.0), (6.418, 444.89), (0.3, 444.89), (0.3, 444.63), (6.418, 444.89), (6.418, 444.72)]</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4847,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>[(-0.3, 446.0), (-0.3, 445.89), (-5.03, 446.0), (-5.03, 445.89), (-0.3, 445.89), (-0.3, 445.66), (-5.03, 445.89), (-5.03, 445.74)]</t>
+          <t>[(0.3, 446.0), (0.3, 445.89), (6.234, 446.0), (6.234, 445.89), (0.3, 445.89), (0.3, 445.66), (6.234, 445.89), (6.234, 445.74)]</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4857,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>[(-0.3, 447.0), (-0.3, 446.8), (-5.47, 447.0), (-5.47, 446.8), (-0.3, 446.8), (-0.3, 446.61), (-5.47, 446.8), (-5.47, 446.66)]</t>
+          <t>[(0.3, 447.0), (0.3, 446.8), (6.102, 447.0), (6.102, 446.8), (0.3, 446.8), (0.3, 446.61), (6.102, 446.8), (6.102, 446.66)]</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4867,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>[(-0.3, 448.0), (-0.3, 447.85), (-5.501, 448.0), (-5.501, 447.85), (-0.3, 447.85), (-0.3, 447.7), (-5.501, 447.85), (-5.501, 447.7), (-0.3, 447.7), (-0.3, 447.56), (-5.501, 447.7), (-5.501, 447.58)]</t>
+          <t>[(0.3, 448.0), (0.3, 447.85), (5.962, 448.0), (5.962, 447.85), (0.3, 447.85), (0.3, 447.7), (5.962, 447.85), (5.962, 447.7), (0.3, 447.7), (0.3, 447.56), (5.962, 447.7), (5.962, 447.58)]</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4877,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>[(-0.3, 449.0), (-0.3, 448.85), (-8.746, 449.0), (-8.746, 448.85), (-0.3, 448.85), (-0.3, 448.7), (-8.746, 448.85), (-8.746, 448.7), (-0.3, 448.7), (-0.3, 448.55), (-8.746, 448.7), (-8.746, 448.55)]</t>
+          <t>[(0.3, 449.0), (0.3, 448.85), (5.752, 449.0), (5.752, 448.85), (0.3, 448.85), (0.3, 448.7), (5.752, 448.85), (5.752, 448.7), (0.3, 448.7), (0.3, 448.55), (5.752, 448.7), (5.752, 448.55)]</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4887,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>[(-0.3, 450.0), (-0.3, 449.85), (-7.23, 450.0), (-7.23, 449.85), (-0.3, 449.85), (-0.3, 449.7), (-7.23, 449.85), (-7.23, 449.7), (-0.3, 449.7), (-0.3, 449.58), (-7.23, 449.7), (-7.23, 449.57)]</t>
+          <t>[(0.3, 450.0), (0.3, 449.85), (5.549, 450.0), (5.549, 449.85), (0.3, 449.85), (0.3, 449.7), (5.549, 449.85), (5.549, 449.7), (0.3, 449.7), (0.3, 449.58), (5.549, 449.7), (5.549, 449.57)]</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4897,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>[(-0.3, 451.0), (-0.3, 450.8), (-6.067, 451.0), (-6.067, 450.8), (-0.3, 450.8), (-0.3, 450.62), (-6.067, 450.8), (-6.067, 450.61)]</t>
+          <t>[(0.3, 451.0), (0.3, 450.8), (5.338, 451.0), (5.338, 450.8), (0.3, 450.8), (0.3, 450.62), (5.338, 450.8), (5.338, 450.61)]</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4907,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>[(-0.3, 452.0), (-0.3, 451.81), (-6.353, 452.0), (-6.353, 451.81), (-0.3, 451.81), (-0.3, 451.65), (-6.353, 451.81), (-6.353, 451.63)]</t>
+          <t>[(0.3, 452.0), (0.3, 451.81), (5.045, 452.0), (5.045, 451.81), (0.3, 451.81), (0.3, 451.65), (5.045, 451.81), (5.045, 451.63)]</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4917,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>[(-0.3, 453.0), (-0.3, 452.83), (-6.671, 453.0), (-6.671, 452.83), (-0.3, 452.83), (-0.3, 452.68), (-6.671, 452.83), (-6.671, 452.67)]</t>
+          <t>[(0.3, 453.0), (0.3, 452.83), (4.721, 453.0), (4.721, 452.83), (0.3, 452.83), (0.3, 452.68), (4.721, 452.83), (4.721, 452.67)]</t>
         </is>
       </c>
     </row>
@@ -4967,7 +4927,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>[(-0.3, 454.0), (-0.3, 453.83), (-6.993, 454.0), (-6.993, 453.83), (-0.3, 453.83), (-0.3, 453.68), (-6.993, 453.83), (-6.993, 453.67)]</t>
+          <t>[(0.3, 454.0), (0.3, 453.83), (4.434, 454.0), (4.434, 453.83), (0.3, 453.83), (0.3, 453.68), (4.434, 453.83), (4.434, 453.67)]</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4937,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>[(-0.3, 455.0), (-0.3, 454.81), (-7.248, 455.0), (-7.248, 454.81), (-0.3, 454.81), (-0.3, 454.64), (-7.248, 454.81), (-7.248, 454.63)]</t>
+          <t>[(0.3, 455.0), (0.3, 454.81), (4.163, 455.0), (4.163, 454.81), (0.3, 454.81), (0.3, 454.64), (4.163, 454.81), (4.163, 454.63)]</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4947,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>[(-0.3, 456.0), (-0.3, 455.81), (-7.525, 456.0), (-7.525, 455.81), (-0.3, 455.81), (-0.3, 455.66), (-7.525, 455.81), (-7.525, 455.62)]</t>
+          <t>[(0.3, 456.0), (0.3, 455.81), (3.87, 456.0), (3.87, 455.81), (0.3, 455.81), (0.3, 455.66), (3.87, 455.81), (3.87, 455.62)]</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4957,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>[(-0.3, 457.0), (-0.3, 456.79), (-7.834, 457.0), (-7.834, 456.79), (-0.3, 456.79), (-0.3, 456.6), (-7.834, 456.79), (-7.834, 456.58)]</t>
+          <t>[(0.3, 457.0), (0.3, 456.79), (3.593, 457.0), (3.593, 456.79), (0.3, 456.79), (0.3, 456.6), (3.593, 456.79), (3.593, 456.58)]</t>
         </is>
       </c>
     </row>
@@ -5007,7 +4967,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>[(-0.3, 458.0), (-0.3, 457.8), (-8.13, 458.0), (-8.13, 457.8), (-0.3, 457.8), (-0.3, 457.62), (-8.13, 457.8), (-8.13, 457.6)]</t>
+          <t>[(0.3, 458.0), (0.3, 457.8), (3.315, 458.0), (3.315, 457.8), (0.3, 457.8), (0.3, 457.62), (3.315, 457.8), (3.315, 457.6)]</t>
         </is>
       </c>
     </row>
@@ -5017,7 +4977,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>[(-0.3, 459.0), (-0.3, 458.82), (-8.349, 459.0), (-8.349, 458.82), (-0.3, 458.82), (-0.3, 458.68), (-8.349, 458.82), (-8.349, 458.65)]</t>
+          <t>[(0.3, 459.0), (0.3, 458.82), (3.089, 459.0), (3.089, 458.82), (0.3, 458.82), (0.3, 458.68), (3.089, 458.82), (3.089, 458.65)]</t>
         </is>
       </c>
     </row>
@@ -5027,7 +4987,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>[(-0.3, 460.0), (-0.3, 459.83), (-8.559, 460.0), (-8.559, 459.83), (-0.3, 459.83), (-0.3, 459.68), (-8.559, 459.83), (-8.559, 459.67)]</t>
+          <t>[(0.3, 460.0), (0.3, 459.83), (2.835, 460.0), (2.835, 459.83), (0.3, 459.83), (0.3, 459.68), (2.835, 459.83), (2.835, 459.67)]</t>
         </is>
       </c>
     </row>
@@ -5037,7 +4997,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>[(-0.3, 461.0), (-0.3, 460.82), (-8.777, 461.0), (-8.777, 460.82), (-0.3, 460.82), (-0.3, 460.67), (-8.777, 460.82), (-8.777, 460.64)]</t>
+          <t>[(0.3, 461.0), (0.3, 460.82), (2.64, 461.0), (2.64, 460.82), (0.3, 460.82), (0.3, 460.67), (2.64, 460.82), (2.64, 460.64)]</t>
         </is>
       </c>
     </row>
@@ -5065,21 +5025,13 @@
       <c r="A465" t="n">
         <v>54600</v>
       </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>[(-0.3, 464.0), (-0.3, 463.86), (-9.118, 464.0), (-9.118, 463.86), (-0.3, 463.86), (-0.3, 463.74), (-9.118, 463.86), (-9.118, 463.74)]</t>
-        </is>
-      </c>
+      <c r="B465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
         <v>54625</v>
       </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>[(-0.3, 465.0), (-0.3, 464.86), (-9.207, 465.0), (-9.207, 464.86), (-0.3, 464.86), (-0.3, 464.74), (-9.207, 464.86), (-9.207, 464.74)]</t>
-        </is>
-      </c>
+      <c r="B466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -5115,11 +5067,7 @@
       <c r="A470" t="n">
         <v>54725</v>
       </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>[(-0.3, 469.0), (-0.3, 468.85), (-10.382, 469.0), (-10.382, 468.85), (-0.3, 468.85), (-0.3, 468.72), (-10.382, 468.85), (-10.382, 468.72)]</t>
-        </is>
-      </c>
+      <c r="B470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -5135,21 +5083,13 @@
       <c r="A472" t="n">
         <v>54775</v>
       </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>[(-0.3, 471.0), (-0.3, 470.85), (-10.943, 471.0), (-10.943, 470.85), (-0.3, 470.85), (-0.3, 470.72), (-10.943, 470.85), (-10.943, 470.72)]</t>
-        </is>
-      </c>
+      <c r="B472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
         <v>54800</v>
       </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>[(-0.3, 472.0), (-0.3, 471.86), (-11.157, 472.0), (-11.157, 471.86), (-0.3, 471.86), (-0.3, 471.74), (-11.157, 471.86), (-11.157, 471.74)]</t>
-        </is>
-      </c>
+      <c r="B473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -5175,21 +5115,13 @@
       <c r="A476" t="n">
         <v>54875</v>
       </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>[(-0.3, 475.0), (-0.3, 474.86), (-11.595, 475.0), (-11.595, 474.86), (-0.3, 474.86), (-0.3, 474.74), (-11.595, 474.86), (-11.595, 474.74)]</t>
-        </is>
-      </c>
+      <c r="B476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
         <v>54900</v>
       </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>[(-0.3, 476.0), (-0.3, 475.86), (-11.628, 476.0), (-11.628, 475.86), (-0.3, 475.86), (-0.3, 475.74), (-11.628, 475.86), (-11.628, 475.74)]</t>
-        </is>
-      </c>
+      <c r="B477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -5245,61 +5177,37 @@
       <c r="A483" t="n">
         <v>55050</v>
       </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>[(-0.3, 482.0), (-0.3, 481.86), (-11.456, 482.0), (-11.456, 481.86), (-0.3, 481.86), (-0.3, 481.73), (-11.456, 481.86), (-11.456, 481.73)]</t>
-        </is>
-      </c>
+      <c r="B483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
         <v>55075</v>
       </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>[(-0.3, 483.0), (-0.3, 482.85), (-11.451, 483.0), (-11.451, 482.85), (-0.3, 482.85), (-0.3, 482.71), (-11.451, 482.85), (-11.451, 482.71)]</t>
-        </is>
-      </c>
+      <c r="B484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
         <v>55100</v>
       </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>[(-0.3, 484.0), (-0.3, 483.84), (-11.636, 484.0), (-11.636, 483.84), (-0.3, 483.84), (-0.3, 483.69), (-11.636, 483.84), (-11.636, 483.69)]</t>
-        </is>
-      </c>
+      <c r="B485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
         <v>55125</v>
       </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>[(-0.3, 485.0), (-0.3, 484.83), (-11.805, 485.0), (-11.805, 484.83), (-0.3, 484.83), (-0.3, 484.67), (-11.805, 484.83), (-11.805, 484.67)]</t>
-        </is>
-      </c>
+      <c r="B486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
         <v>55150</v>
       </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>[(-0.3, 486.0), (-0.3, 485.85), (-12.005, 486.0), (-12.005, 485.85), (-0.3, 485.85), (-0.3, 485.7), (-12.005, 485.85), (-12.005, 485.7), (-0.3, 485.7), (-0.3, 485.58), (-12.005, 485.7), (-12.005, 485.58)]</t>
-        </is>
-      </c>
+      <c r="B487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
         <v>55175</v>
       </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>[(-0.3, 487.0), (-0.3, 486.82), (-11.995, 487.0), (-11.995, 486.82), (-0.3, 486.82), (-0.3, 486.64), (-11.995, 486.82), (-11.995, 486.64), (-0.3, 486.64), (-0.3, 486.48), (-11.995, 486.64), (-11.995, 486.48)]</t>
-        </is>
-      </c>
+      <c r="B488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -5315,21 +5223,13 @@
       <c r="A490" t="n">
         <v>55225</v>
       </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>[(-0.3, 489.0), (-0.3, 488.85), (-12.017, 489.0), (-12.017, 488.85), (-0.3, 488.85), (-0.3, 488.7), (-12.017, 488.85), (-12.017, 488.7), (-0.3, 488.7), (-0.3, 488.55), (-12.017, 488.7), (-12.017, 488.55), (-0.3, 488.55), (-0.3, 488.43), (-12.017, 488.55), (-12.017, 488.43)]</t>
-        </is>
-      </c>
+      <c r="B490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
         <v>55250</v>
       </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>[(-0.3, 490.0), (-0.3, 489.84), (-12.015, 490.0), (-12.015, 489.84), (-0.3, 489.84), (-0.3, 489.68), (-12.015, 489.84), (-12.015, 489.68), (-0.3, 489.68), (-0.3, 489.52), (-12.015, 489.68), (-12.015, 489.52), (-0.3, 489.52), (-0.3, 489.38), (-12.015, 489.52), (-12.015, 489.38)]</t>
-        </is>
-      </c>
+      <c r="B491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -5445,11 +5345,7 @@
       <c r="A503" t="n">
         <v>55550</v>
       </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>[(-0.3, 502.0), (-0.3, 501.82), (-12.779, 502.0), (-12.779, 501.82), (-0.3, 501.82), (-0.3, 501.64), (-12.779, 501.82), (-12.779, 501.64), (-0.3, 501.64), (-0.3, 501.46), (-12.779, 501.64), (-12.779, 501.46), (-0.3, 501.46), (-0.3, 501.3), (-12.779, 501.46), (-12.779, 501.3)]</t>
-        </is>
-      </c>
+      <c r="B503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -5495,31 +5391,19 @@
       <c r="A508" t="n">
         <v>55675</v>
       </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>[(-0.3, 507.0), (-0.3, 506.87), (-12.118, 507.0), (-12.118, 506.87), (-0.3, 506.87), (-0.3, 506.74), (-12.118, 506.87), (-12.118, 506.74), (-0.3, 506.74), (-0.3, 506.62), (-12.118, 506.74), (-12.118, 506.62)]</t>
-        </is>
-      </c>
+      <c r="B508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
         <v>55700</v>
       </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>[(-0.3, 508.0), (-0.3, 507.85), (-11.663, 508.0), (-11.663, 507.85), (-0.3, 507.85), (-0.3, 507.72), (-11.663, 507.85), (-11.663, 507.72)]</t>
-        </is>
-      </c>
+      <c r="B509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
         <v>55725</v>
       </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>[(-0.3, 509.0), (-0.3, 508.87), (-11.551, 509.0), (-11.551, 508.87), (-0.3, 508.87), (-0.3, 508.75), (-11.551, 508.87), (-11.551, 508.75)]</t>
-        </is>
-      </c>
+      <c r="B510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -5535,151 +5419,91 @@
       <c r="A512" t="n">
         <v>55775</v>
       </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>[(-0.3, 511.0), (-0.3, 510.86), (-11.402, 511.0), (-11.402, 510.86), (-0.3, 510.86), (-0.3, 510.73), (-11.402, 510.86), (-11.402, 510.73)]</t>
-        </is>
-      </c>
+      <c r="B512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="n">
         <v>55800</v>
       </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>[(-0.3, 512.0), (-0.3, 511.87), (-11.313, 512.0), (-11.313, 511.87), (-0.3, 511.87), (-0.3, 511.74), (-11.313, 511.87), (-11.313, 511.74), (-0.3, 511.74), (-0.3, 511.63), (-11.313, 511.74), (-11.313, 511.63)]</t>
-        </is>
-      </c>
+      <c r="B513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
         <v>55825</v>
       </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>[(-0.3, 513.0), (-0.3, 512.84), (-11.169, 513.0), (-11.169, 512.84), (-0.3, 512.84), (-0.3, 512.68), (-11.169, 512.84), (-11.169, 512.68), (-0.3, 512.68), (-0.3, 512.52), (-11.169, 512.68), (-11.169, 512.52)]</t>
-        </is>
-      </c>
+      <c r="B514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
         <v>55850</v>
       </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>[(-0.3, 514.0), (-0.3, 513.86), (-11.078, 514.0), (-11.078, 513.86), (-0.3, 513.86), (-0.3, 513.72), (-11.078, 513.86), (-11.078, 513.72), (-0.3, 513.72), (-0.3, 513.58), (-11.078, 513.72), (-11.078, 513.58), (-0.3, 513.58), (-0.3, 513.47), (-11.078, 513.58), (-11.078, 513.47)]</t>
-        </is>
-      </c>
+      <c r="B515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="n">
         <v>55875</v>
       </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>[(-0.3, 515.0), (-0.3, 514.85), (-10.92, 515.0), (-10.92, 514.85), (-0.3, 514.85), (-0.3, 514.7), (-10.92, 514.85), (-10.92, 514.7), (-0.3, 514.7), (-0.3, 514.58), (-10.92, 514.7), (-10.92, 514.58)]</t>
-        </is>
-      </c>
+      <c r="B516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="n">
         <v>55900</v>
       </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>[(-0.3, 516.0), (-0.3, 515.86), (-10.782, 516.0), (-10.782, 515.86), (-0.3, 515.86), (-0.3, 515.72), (-10.782, 515.86), (-10.782, 515.72), (-0.3, 515.72), (-0.3, 515.6), (-10.782, 515.72), (-10.782, 515.6)]</t>
-        </is>
-      </c>
+      <c r="B517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
         <v>55925</v>
       </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>[(-0.3, 517.0), (-0.3, 516.86), (-10.953, 517.0), (-10.953, 516.86), (-0.3, 516.86), (-0.3, 516.72), (-10.953, 516.86), (-10.953, 516.72), (-0.3, 516.72), (-0.3, 516.59), (-10.953, 516.72), (-10.953, 516.59)]</t>
-        </is>
-      </c>
+      <c r="B518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="n">
         <v>55950</v>
       </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>[(-0.3, 518.0), (-0.3, 517.86), (-11.574, 518.0), (-11.574, 517.86), (-0.3, 517.86), (-0.3, 517.72), (-11.574, 517.86), (-11.574, 517.72), (-0.3, 517.72), (-0.3, 517.59), (-11.574, 517.72), (-11.574, 517.59)]</t>
-        </is>
-      </c>
+      <c r="B519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
         <v>55975</v>
       </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>[(-0.3, 519.0), (-0.3, 518.86), (-12.18, 519.0), (-12.18, 518.86), (-0.3, 518.86), (-0.3, 518.72), (-12.18, 518.86), (-12.18, 518.72), (-0.3, 518.72), (-0.3, 518.6), (-12.18, 518.72), (-12.18, 518.6)]</t>
-        </is>
-      </c>
+      <c r="B520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="n">
         <v>56000</v>
       </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>[(-0.3, 520.0), (-0.3, 519.85), (-12.458, 520.0), (-12.458, 519.85), (-0.3, 519.85), (-0.3, 519.7), (-12.458, 519.85), (-12.458, 519.7), (-0.3, 519.7), (-0.3, 519.55), (-12.458, 519.7), (-12.458, 519.55)]</t>
-        </is>
-      </c>
+      <c r="B521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
         <v>56025</v>
       </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>[(-0.3, 521.0), (-0.3, 520.86), (-12.466, 521.0), (-12.466, 520.86), (-0.3, 520.86), (-0.3, 520.72), (-12.466, 520.86), (-12.466, 520.72), (-0.3, 520.72), (-0.3, 520.6), (-12.466, 520.72), (-12.466, 520.6)]</t>
-        </is>
-      </c>
+      <c r="B522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
         <v>56050</v>
       </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>[(-0.3, 522.0), (-0.3, 521.86), (-12.168, 522.0), (-12.168, 521.86), (-0.3, 521.86), (-0.3, 521.72), (-12.168, 521.86), (-12.168, 521.72), (-0.3, 521.72), (-0.3, 521.61), (-12.168, 521.72), (-12.168, 521.61)]</t>
-        </is>
-      </c>
+      <c r="B523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
         <v>56075</v>
       </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>[(-0.3, 523.0), (-0.3, 522.83), (-11.678, 523.0), (-11.678, 522.83), (-0.3, 522.83), (-0.3, 522.66), (-11.678, 522.83), (-11.678, 522.66)]</t>
-        </is>
-      </c>
+      <c r="B524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="n">
         <v>56100</v>
       </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>[(-0.3, 524.0), (-0.3, 523.85), (-10.769, 524.0), (-10.769, 523.85), (-0.3, 523.85), (-0.3, 523.7), (-10.769, 523.85), (-10.769, 523.7)]</t>
-        </is>
-      </c>
+      <c r="B525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="n">
         <v>56125</v>
       </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>[(-0.3, 525.0), (-0.3, 524.82), (-9.407, 525.0), (-9.407, 524.82), (-0.3, 524.82), (-0.3, 524.64), (-9.407, 524.82), (-9.407, 524.64)]</t>
-        </is>
-      </c>
+      <c r="B526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -5687,7 +5511,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>[(-0.3, 526.0), (-0.3, 525.82), (-8.305, 526.0), (-8.305, 525.82), (-0.3, 525.82), (-0.3, 525.65), (-8.305, 525.82), (-8.305, 525.71)]</t>
+          <t>[(0.3, 526.0), (0.3, 525.82), (3.002, 526.0), (3.002, 525.82), (0.3, 525.82), (0.3, 525.65), (3.002, 525.82), (3.002, 525.71)]</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5521,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>[(-0.3, 527.0), (-0.3, 526.89), (-7.338, 527.0), (-7.338, 526.89), (-0.3, 526.89), (-0.3, 526.64), (-7.338, 526.89), (-7.338, 526.73)]</t>
+          <t>[(0.3, 527.0), (0.3, 526.89), (4.371, 527.0), (4.371, 526.89), (0.3, 526.89), (0.3, 526.64), (4.371, 526.89), (4.371, 526.73)]</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5531,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>[(-0.3, 528.0), (-0.3, 527.83), (-6.61, 528.0), (-6.61, 527.83), (-0.3, 527.83), (-0.3, 527.67), (-6.61, 527.83), (-6.61, 527.71)]</t>
+          <t>[(0.3, 528.0), (0.3, 527.83), (5.476, 528.0), (5.476, 527.83), (0.3, 527.83), (0.3, 527.67), (5.476, 527.83), (5.476, 527.71)]</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5541,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>[(-0.3, 529.0), (-0.3, 528.84), (-6.439, 529.0), (-6.439, 528.84), (-0.3, 528.84), (-0.3, 528.69), (-6.439, 528.84), (-6.439, 528.69)]</t>
+          <t>[(0.3, 529.0), (0.3, 528.84), (5.981, 529.0), (5.981, 528.84), (0.3, 528.84), (0.3, 528.69), (5.981, 528.84), (5.981, 528.69)]</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5551,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>[(-0.3, 530.0), (-0.3, 529.79), (-6.65, 530.0), (-6.65, 529.79), (-0.3, 529.79), (-0.3, 529.61), (-6.65, 529.79), (-6.65, 529.58)]</t>
+          <t>[(0.3, 530.0), (0.3, 529.79), (6.33, 530.0), (6.33, 529.79), (0.3, 529.79), (0.3, 529.61), (6.33, 529.79), (6.33, 529.58)]</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5561,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>[(-0.3, 531.0), (-0.3, 530.78), (-6.883, 531.0), (-6.883, 530.78), (-0.3, 530.78), (-0.3, 530.6), (-6.883, 530.78), (-6.883, 530.56)]</t>
+          <t>[(0.3, 531.0), (0.3, 530.78), (6.743, 531.0), (6.743, 530.78), (0.3, 530.78), (0.3, 530.6), (6.743, 530.78), (6.743, 530.56)]</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5571,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>[(-0.3, 532.0), (-0.3, 531.8), (-7.239, 532.0), (-7.239, 531.8), (-0.3, 531.8), (-0.3, 531.66), (-7.239, 531.8), (-7.239, 531.61)]</t>
+          <t>[(0.3, 532.0), (0.3, 531.8), (7.086, 532.0), (7.086, 531.8), (0.3, 531.8), (0.3, 531.66), (7.086, 531.8), (7.086, 531.61)]</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5581,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>[(-0.3, 533.0), (-0.3, 532.82), (-8.053, 533.0), (-8.053, 532.82), (-0.3, 532.82), (-0.3, 532.68), (-8.053, 532.82), (-8.053, 532.65)]</t>
+          <t>[(0.3, 533.0), (0.3, 532.82), (7.455, 533.0), (7.455, 532.82), (0.3, 532.82), (0.3, 532.68), (7.455, 532.82), (7.455, 532.65)]</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5591,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>[(-0.3, 534.0), (-0.3, 533.86), (-8.848, 534.0), (-8.848, 533.86), (-0.3, 533.86), (-0.3, 533.73), (-8.848, 533.86), (-8.848, 533.73)]</t>
+          <t>[(0.3, 534.0), (0.3, 533.86), (7.685, 534.0), (7.685, 533.86), (0.3, 533.86), (0.3, 533.73), (7.685, 533.86), (7.685, 533.73)]</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5601,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>[(-0.3, 535.0), (-0.3, 534.85), (-9.776, 535.0), (-9.776, 534.85), (-0.3, 534.85), (-0.3, 534.74), (-9.776, 534.85), (-9.776, 534.71)]</t>
+          <t>[(0.3, 535.0), (0.3, 534.85), (7.928, 535.0), (7.928, 534.85), (0.3, 534.85), (0.3, 534.74), (7.928, 534.85), (7.928, 534.71)]</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5611,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>[(-0.3, 536.0), (-0.3, 535.89), (-7.123, 536.0), (-7.123, 535.89), (-0.3, 535.89), (-0.3, 535.75), (-7.123, 535.89), (-7.123, 535.69)]</t>
+          <t>[(0.3, 536.0), (0.3, 535.89), (8.265, 536.0), (8.265, 535.89), (0.3, 535.89), (0.3, 535.75), (8.265, 535.89), (8.265, 535.69)]</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5621,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>[(-0.3, 537.0), (-0.3, 536.89), (-7.109, 537.0), (-7.109, 536.89), (-0.3, 536.89), (-0.3, 536.74), (-7.109, 536.89), (-7.109, 536.69)]</t>
+          <t>[(0.3, 537.0), (0.3, 536.89), (8.962, 537.0), (8.962, 536.89), (0.3, 536.89), (0.3, 536.74), (8.962, 536.89), (8.962, 536.69)]</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5631,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>[(-0.3, 538.0), (-0.3, 537.83), (-7.046, 538.0), (-7.046, 537.83), (-0.3, 537.83), (-0.3, 537.72), (-7.046, 537.83), (-7.046, 537.67)]</t>
+          <t>[(0.3, 538.0), (0.3, 537.83), (7.101, 538.0), (7.101, 537.83), (0.3, 537.83), (0.3, 537.72), (7.101, 537.83), (7.101, 537.67)]</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5641,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>[(-0.3, 539.0), (-0.3, 538.84), (-6.982, 539.0), (-6.982, 538.84), (-0.3, 538.84), (-0.3, 538.71), (-6.982, 538.84), (-6.982, 538.69)]</t>
+          <t>[(0.3, 539.0), (0.3, 538.84), (6.99, 539.0), (6.99, 538.84), (0.3, 538.84), (0.3, 538.71), (6.99, 538.84), (6.99, 538.69)]</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5651,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>[(-0.3, 540.0), (-0.3, 539.86), (-6.919, 540.0), (-6.919, 539.86), (-0.3, 539.86), (-0.3, 539.74), (-6.919, 539.86), (-6.919, 539.75)]</t>
+          <t>[(0.3, 540.0), (0.3, 539.86), (7.002, 540.0), (7.002, 539.86), (0.3, 539.86), (0.3, 539.74), (7.002, 539.86), (7.002, 539.75)]</t>
         </is>
       </c>
     </row>
@@ -6017,7 +5841,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>[(-0.3, 559.0), (-0.3, 558.85), (-7.618, 559.0), (-7.618, 558.85), (-0.3, 558.85), (-0.3, 558.73), (-7.618, 558.85), (-7.618, 558.71)]</t>
+          <t>[(0.3, 559.0), (0.3, 558.85), (7.064, 559.0), (7.064, 558.85), (0.3, 558.85), (0.3, 558.73), (7.064, 558.85), (7.064, 558.71)]</t>
         </is>
       </c>
     </row>
@@ -6027,7 +5851,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>[(-0.3, 560.0), (-0.3, 559.82), (-7.298, 560.0), (-7.298, 559.82), (-0.3, 559.82), (-0.3, 559.64), (-7.298, 559.82), (-7.298, 559.64)]</t>
+          <t>[(0.3, 560.0), (0.3, 559.82), (6.814, 560.0), (6.814, 559.82), (0.3, 559.82), (0.3, 559.64), (6.814, 559.82), (6.814, 559.64)]</t>
         </is>
       </c>
     </row>
@@ -6037,7 +5861,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>[(-0.3, 561.0), (-0.3, 560.81), (-7.039, 561.0), (-7.039, 560.81), (-0.3, 560.81), (-0.3, 560.65), (-7.039, 560.81), (-7.039, 560.62)]</t>
+          <t>[(0.3, 561.0), (0.3, 560.81), (6.472, 561.0), (6.472, 560.81), (0.3, 560.81), (0.3, 560.65), (6.472, 560.81), (6.472, 560.62)]</t>
         </is>
       </c>
     </row>
@@ -6047,7 +5871,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>[(-0.3, 562.0), (-0.3, 561.86), (-6.683, 562.0), (-6.683, 561.86), (-0.3, 561.86), (-0.3, 561.72), (-6.683, 561.86), (-6.683, 561.72), (-0.3, 561.72), (-0.3, 561.61), (-6.683, 561.72), (-6.683, 561.61)]</t>
+          <t>[(0.3, 562.0), (0.3, 561.86), (6.115, 562.0), (6.115, 561.86), (0.3, 561.86), (0.3, 561.72), (6.115, 561.86), (6.115, 561.72), (0.3, 561.72), (0.3, 561.61), (6.115, 561.72), (6.115, 561.61)]</t>
         </is>
       </c>
     </row>
@@ -6057,7 +5881,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>[(-0.3, 563.0), (-0.3, 562.86), (-6.372, 563.0), (-6.372, 562.86), (-0.3, 562.86), (-0.3, 562.72), (-6.372, 562.86), (-6.372, 562.72), (-0.3, 562.72), (-0.3, 562.6), (-6.372, 562.72), (-6.372, 562.59)]</t>
+          <t>[(0.3, 563.0), (0.3, 562.86), (5.843, 563.0), (5.843, 562.86), (0.3, 562.86), (0.3, 562.72), (5.843, 562.86), (5.843, 562.72), (0.3, 562.72), (0.3, 562.6), (5.843, 562.72), (5.843, 562.59)]</t>
         </is>
       </c>
     </row>
@@ -6067,7 +5891,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>[(-0.3, 564.0), (-0.3, 563.83), (-6.054, 564.0), (-6.054, 563.83), (-0.3, 563.83), (-0.3, 563.68), (-6.054, 563.83), (-6.054, 563.66)]</t>
+          <t>[(0.3, 564.0), (0.3, 563.83), (5.615, 564.0), (5.615, 563.83), (0.3, 563.83), (0.3, 563.68), (5.615, 563.83), (5.615, 563.66)]</t>
         </is>
       </c>
     </row>
@@ -6077,7 +5901,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>[(-0.3, 565.0), (-0.3, 564.82), (-5.826, 565.0), (-5.826, 564.82), (-0.3, 564.82), (-0.3, 564.67), (-5.826, 564.82), (-5.826, 564.64)]</t>
+          <t>[(0.3, 565.0), (0.3, 564.82), (5.49, 565.0), (5.49, 564.82), (0.3, 564.82), (0.3, 564.67), (5.49, 564.82), (5.49, 564.64)]</t>
         </is>
       </c>
     </row>
@@ -6087,7 +5911,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>[(-0.3, 566.0), (-0.3, 565.84), (-5.72, 566.0), (-5.72, 565.84), (-0.3, 565.84), (-0.3, 565.73), (-5.72, 565.84), (-5.72, 565.69)]</t>
+          <t>[(0.3, 566.0), (0.3, 565.84), (5.511, 566.0), (5.511, 565.84), (0.3, 565.84), (0.3, 565.73), (5.511, 565.84), (5.511, 565.69)]</t>
         </is>
       </c>
     </row>
@@ -6097,7 +5921,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>[(-0.3, 567.0), (-0.3, 566.85), (-5.575, 567.0), (-5.575, 566.85), (-0.3, 566.85), (-0.3, 566.72), (-5.575, 566.85), (-5.575, 566.73)]</t>
+          <t>[(0.3, 567.0), (0.3, 566.85), (5.588, 567.0), (5.588, 566.85), (0.3, 566.85), (0.3, 566.72), (5.588, 566.85), (5.588, 566.73)]</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6031,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>[(-0.3, 578.0), (-0.3, 577.89), (0.0, 578.0), (0.0, 577.89), (-0.3, 577.89), (-0.3, 577.6), (0.0, 577.89), (0.0, 577.74)]</t>
+          <t>[(0.3, 578.0), (0.3, 577.89), (8.864, 578.0), (8.864, 577.89), (0.3, 577.89), (0.3, 577.6), (8.864, 577.89), (8.864, 577.74)]</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6041,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>[(-0.3, 579.0), (-0.3, 578.84), (0.0, 579.0), (0.0, 578.84), (0.0, 579.0), (0.0, 578.87), (0.0, 579.0), (0.0, 578.87), (-0.3, 578.84), (-0.3, 578.68), (0.0, 578.84), (0.0, 578.68), (0.0, 578.87), (0.0, 578.57), (0.0, 578.87), (0.0, 578.73), (-0.3, 578.68), (-0.3, 578.53), (0.0, 578.68), (0.0, 578.57), (0.0, 578.57), (0.0, 578.57), (0.0, 578.73), (0.0, 578.73)]</t>
+          <t>[(0.3, 579.0), (0.3, 578.84), (2.473, 579.0), (2.473, 578.84), (2.473, 579.0), (2.473, 578.87), (9.07, 579.0), (9.07, 578.87), (0.3, 578.84), (0.3, 578.68), (2.473, 578.84), (2.473, 578.68), (2.473, 578.87), (2.473, 578.57), (9.07, 578.87), (9.07, 578.73), (0.3, 578.68), (0.3, 578.53), (2.473, 578.68), (2.473, 578.57), (2.473, 578.57), (2.473, 578.57), (9.07, 578.73), (9.07, 578.73)]</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6051,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>[(-0.3, 580.0), (-0.3, 579.82), (0.0, 580.0), (0.0, 579.82), (0.0, 580.0), (0.0, 579.76), (0.0, 580.0), (0.0, 579.76), (-0.3, 579.82), (-0.3, 579.64), (0.0, 579.82), (0.0, 579.64), (0.0, 579.76), (0.0, 579.53), (0.0, 579.76), (0.0, 579.65), (-0.3, 579.64), (-0.3, 579.47), (0.0, 579.64), (0.0, 579.53), (0.0, 579.53), (0.0, 579.53), (0.0, 579.65), (0.0, 579.65)]</t>
+          <t>[(0.3, 580.0), (0.3, 579.82), (2.681, 580.0), (2.681, 579.82), (2.681, 580.0), (2.681, 579.76), (9.233, 580.0), (9.233, 579.76), (0.3, 579.82), (0.3, 579.64), (2.681, 579.82), (2.681, 579.64), (2.681, 579.76), (2.681, 579.53), (9.233, 579.76), (9.233, 579.65), (0.3, 579.64), (0.3, 579.47), (2.681, 579.64), (2.681, 579.53), (2.681, 579.53), (2.681, 579.53), (9.233, 579.65), (9.233, 579.65)]</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6061,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>[(-0.3, 581.0), (-0.3, 580.81), (0.0, 581.0), (0.0, 580.81), (0.0, 581.0), (0.0, 580.74), (0.0, 581.0), (0.0, 580.74), (-0.3, 580.81), (-0.3, 580.62), (0.0, 580.81), (0.0, 580.62), (0.0, 580.74), (0.0, 580.49), (0.0, 580.74), (0.0, 580.58), (-0.3, 580.62), (-0.3, 580.45), (0.0, 580.62), (0.0, 580.49), (0.0, 580.49), (0.0, 580.49), (0.0, 580.58), (0.0, 580.58)]</t>
+          <t>[(0.3, 581.0), (0.3, 580.81), (2.791, 581.0), (2.791, 580.81), (2.791, 581.0), (2.791, 580.74), (9.376, 581.0), (9.376, 580.74), (0.3, 580.81), (0.3, 580.62), (2.791, 580.81), (2.791, 580.62), (2.791, 580.74), (2.791, 580.49), (9.376, 580.74), (9.376, 580.58), (0.3, 580.62), (0.3, 580.45), (2.791, 580.62), (2.791, 580.49), (2.791, 580.49), (2.791, 580.49), (9.376, 580.58), (9.376, 580.58)]</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6071,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>[(-0.3, 582.0), (-0.3, 581.83), (0.0, 582.0), (0.0, 581.83), (0.0, 582.0), (0.0, 581.84), (0.0, 582.0), (0.0, 581.84), (-0.3, 581.83), (-0.3, 581.66), (0.0, 581.83), (0.0, 581.66), (0.0, 581.84), (0.0, 581.68), (0.0, 581.84), (0.0, 581.68), (-0.3, 581.66), (-0.3, 581.49), (0.0, 581.66), (0.0, 581.52), (0.0, 581.68), (0.0, 581.52), (0.0, 581.68), (0.0, 581.53)]</t>
+          <t>[(0.3, 582.0), (0.3, 581.83), (2.886, 582.0), (2.886, 581.83), (2.886, 582.0), (2.886, 581.84), (9.415, 582.0), (9.415, 581.84), (0.3, 581.83), (0.3, 581.66), (2.886, 581.83), (2.886, 581.66), (2.886, 581.84), (2.886, 581.68), (9.415, 581.84), (9.415, 581.68), (0.3, 581.66), (0.3, 581.49), (2.886, 581.66), (2.886, 581.52), (2.886, 581.68), (2.886, 581.52), (9.415, 581.68), (9.415, 581.53)]</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6081,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>[(-0.3, 583.0), (-0.3, 582.83), (0.0, 583.0), (0.0, 582.83), (0.0, 583.0), (0.0, 582.83), (-2.817, 583.0), (-2.817, 582.83), (-0.3, 582.83), (-0.3, 582.66), (0.0, 582.83), (0.0, 582.66), (0.0, 582.83), (0.0, 582.66), (-2.817, 582.83), (-2.817, 582.66), (-0.3, 582.66), (-0.3, 582.51), (0.0, 582.66), (0.0, 582.51), (0.0, 582.66), (0.0, 582.51), (-2.817, 582.66), (-2.817, 582.51)]</t>
+          <t>[(0.3, 583.0), (0.3, 582.83), (2.849, 583.0), (2.849, 582.83), (2.849, 583.0), (2.849, 582.83), (9.417, 583.0), (9.417, 582.83), (0.3, 582.83), (0.3, 582.66), (2.849, 582.83), (2.849, 582.66), (2.849, 582.83), (2.849, 582.66), (9.417, 582.83), (9.417, 582.66), (0.3, 582.66), (0.3, 582.51), (2.849, 582.66), (2.849, 582.51), (2.849, 582.66), (2.849, 582.51), (9.417, 582.66), (9.417, 582.51)]</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6091,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>[(-0.3, 584.0), (-0.3, 583.82), (0.0, 584.0), (0.0, 583.82), (0.0, 584.0), (0.0, 583.82), (-3.503, 584.0), (-3.503, 583.82), (-0.3, 583.82), (-0.3, 583.64), (0.0, 583.82), (0.0, 583.64), (0.0, 583.82), (0.0, 583.64), (-3.503, 583.82), (-3.503, 583.64), (-0.3, 583.64), (-0.3, 583.48), (0.0, 583.64), (0.0, 583.49), (0.0, 583.64), (0.0, 583.49), (-3.503, 583.64), (-3.503, 583.47)]</t>
+          <t>[(0.3, 584.0), (0.3, 583.82), (2.843, 584.0), (2.843, 583.82), (2.843, 584.0), (2.843, 583.82), (9.408, 584.0), (9.408, 583.82), (0.3, 583.82), (0.3, 583.64), (2.843, 583.82), (2.843, 583.64), (2.843, 583.82), (2.843, 583.64), (9.408, 583.82), (9.408, 583.64), (0.3, 583.64), (0.3, 583.48), (2.843, 583.64), (2.843, 583.49), (2.843, 583.64), (2.843, 583.49), (9.408, 583.64), (9.408, 583.47)]</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6101,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>[(-0.3, 585.0), (-0.3, 584.83), (0.0, 585.0), (0.0, 584.83), (0.0, 585.0), (0.0, 584.83), (-4.21, 585.0), (-4.21, 584.83), (-0.3, 584.83), (-0.3, 584.66), (0.0, 584.83), (0.0, 584.66), (0.0, 584.83), (0.0, 584.66), (-4.21, 584.83), (-4.21, 584.66), (-0.3, 584.66), (-0.3, 584.49), (0.0, 584.66), (0.0, 584.54), (0.0, 584.66), (0.0, 584.54), (-4.21, 584.66), (-4.21, 584.49)]</t>
+          <t>[(0.3, 585.0), (0.3, 584.83), (2.894, 585.0), (2.894, 584.83), (2.894, 585.0), (2.894, 584.83), (9.484, 585.0), (9.484, 584.83), (0.3, 584.83), (0.3, 584.66), (2.894, 584.83), (2.894, 584.66), (2.894, 584.83), (2.894, 584.66), (9.484, 584.83), (9.484, 584.66), (0.3, 584.66), (0.3, 584.49), (2.894, 584.66), (2.894, 584.54), (2.894, 584.66), (2.894, 584.54), (9.484, 584.66), (9.484, 584.49)]</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6111,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>[(-0.3, 586.0), (-0.3, 585.72), (0.0, 586.0), (0.0, 585.72), (0.0, 586.0), (0.0, 585.83), (-4.773, 586.0), (-4.773, 585.83), (-0.3, 585.72), (-0.3, 585.45), (0.0, 585.72), (0.0, 585.54), (0.0, 585.83), (0.0, 585.66), (-4.773, 585.83), (-4.773, 585.66)]</t>
+          <t>[(0.3, 586.0), (0.3, 585.72), (2.904, 586.0), (2.904, 585.72), (2.904, 586.0), (2.904, 585.83), (9.624, 586.0), (9.624, 585.83), (0.3, 585.72), (0.3, 585.45), (2.904, 585.72), (2.904, 585.54), (2.904, 585.83), (2.904, 585.66), (9.624, 585.83), (9.624, 585.66)]</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6121,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>[(-0.3, 587.0), (-0.3, 586.73), (0.0, 587.0), (0.0, 586.73), (0.0, 587.0), (0.0, 586.77), (-5.262, 587.0), (-5.262, 586.77), (-0.3, 586.73), (-0.3, 586.46), (0.0, 586.73), (0.0, 586.58), (0.0, 586.77), (0.0, 586.58), (-5.262, 586.77), (-5.262, 586.54)]</t>
+          <t>[(0.3, 587.0), (0.3, 586.73), (2.936, 587.0), (2.936, 586.73), (2.936, 587.0), (2.936, 586.77), (9.828, 587.0), (9.828, 586.77), (0.3, 586.73), (0.3, 586.46), (2.936, 586.73), (2.936, 586.58), (2.936, 586.77), (2.936, 586.58), (9.828, 586.77), (9.828, 586.54)]</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6131,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>[(-0.3, 588.0), (-0.3, 587.76), (0.0, 588.0), (0.0, 587.76), (0.0, 588.0), (0.0, 587.79), (-5.703, 588.0), (-5.703, 587.79), (-0.3, 587.76), (-0.3, 587.52), (0.0, 587.76), (0.0, 587.64), (0.0, 587.79), (0.0, 587.64), (-5.703, 587.79), (-5.703, 587.58)]</t>
+          <t>[(0.3, 588.0), (0.3, 587.76), (2.885, 588.0), (2.885, 587.76), (2.885, 588.0), (2.885, 587.79), (9.993, 588.0), (9.993, 587.79), (0.3, 587.76), (0.3, 587.52), (2.885, 587.76), (2.885, 587.64), (2.885, 587.79), (2.885, 587.64), (9.993, 587.79), (9.993, 587.58)]</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6141,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>[(-0.3, 589.0), (-0.3, 588.87), (0.0, 589.0), (0.0, 588.87), (0.0, 589.0), (0.0, 588.81), (-6.002, 589.0), (-6.002, 588.81), (-0.3, 588.87), (-0.3, 588.57), (0.0, 588.87), (0.0, 588.68), (0.0, 588.81), (0.0, 588.68), (-6.002, 588.81), (-6.002, 588.62)]</t>
+          <t>[(0.3, 589.0), (0.3, 588.87), (2.761, 589.0), (2.761, 588.87), (2.761, 589.0), (2.761, 588.81), (9.966, 589.0), (9.966, 588.81), (0.3, 588.87), (0.3, 588.57), (2.761, 588.87), (2.761, 588.68), (2.761, 588.81), (2.761, 588.68), (9.966, 588.81), (9.966, 588.62)]</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6151,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>[(-0.3, 590.0), (-0.3, 589.78), (0.0, 590.0), (0.0, 589.78), (0.0, 590.0), (0.0, 589.8), (-6.096, 590.0), (-6.096, 589.8), (-0.3, 589.78), (-0.3, 589.56), (0.0, 589.78), (0.0, 589.65), (0.0, 589.8), (0.0, 589.65), (-6.096, 589.8), (-6.096, 589.6)]</t>
+          <t>[(0.3, 590.0), (0.3, 589.78), (2.596, 590.0), (2.596, 589.78), (2.596, 590.0), (2.596, 589.8), (9.752, 590.0), (9.752, 589.8), (0.3, 589.78), (0.3, 589.56), (2.596, 589.78), (2.596, 589.65), (2.596, 589.8), (2.596, 589.65), (9.752, 589.8), (9.752, 589.6)]</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6161,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>[(-0.3, 591.0), (-0.3, 590.8), (0.0, 591.0), (0.0, 590.8), (0.0, 591.0), (0.0, 590.8), (-6.187, 591.0), (-6.187, 590.8), (-0.3, 590.8), (-0.3, 590.61), (0.0, 590.8), (0.0, 590.69), (0.0, 590.8), (0.0, 590.69), (-6.187, 590.8), (-6.187, 590.6)]</t>
+          <t>[(0.3, 591.0), (0.3, 590.8), (2.495, 591.0), (2.495, 590.8), (2.495, 591.0), (2.495, 590.8), (9.682, 591.0), (9.682, 590.8), (0.3, 590.8), (0.3, 590.61), (2.495, 590.8), (2.495, 590.69), (2.495, 590.8), (2.495, 590.69), (9.682, 590.8), (9.682, 590.6)]</t>
         </is>
       </c>
     </row>
@@ -6347,7 +6171,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>[(-0.3, 592.0), (-0.3, 591.81), (0.0, 592.0), (0.0, 591.81), (0.0, 592.0), (0.0, 591.81), (-6.289, 592.0), (-6.289, 591.81), (-0.3, 591.81), (-0.3, 591.62), (0.0, 591.81), (0.0, 591.7), (0.0, 591.81), (0.0, 591.7), (-6.289, 591.81), (-6.289, 591.62)]</t>
+          <t>[(0.3, 592.0), (0.3, 591.81), (2.43, 592.0), (2.43, 591.81), (2.43, 592.0), (2.43, 591.81), (9.615, 592.0), (9.615, 591.81), (0.3, 591.81), (0.3, 591.62), (2.43, 591.81), (2.43, 591.7), (2.43, 591.81), (2.43, 591.7), (9.615, 591.81), (9.615, 591.62)]</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6181,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>[(-0.3, 593.0), (-0.3, 592.78), (0.0, 593.0), (0.0, 592.78), (0.0, 593.0), (0.0, 592.79), (-6.402, 593.0), (-6.402, 592.79), (-0.3, 592.78), (-0.3, 592.56), (0.0, 592.78), (0.0, 592.66), (0.0, 592.79), (0.0, 592.66), (-6.402, 592.79), (-6.402, 592.59)]</t>
+          <t>[(0.3, 593.0), (0.3, 592.78), (2.355, 593.0), (2.355, 592.78), (2.355, 593.0), (2.355, 592.79), (9.557, 593.0), (9.557, 592.79), (0.3, 592.78), (0.3, 592.56), (2.355, 592.78), (2.355, 592.66), (2.355, 592.79), (2.355, 592.66), (9.557, 592.79), (9.557, 592.59)]</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6191,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>[(-0.3, 594.0), (-0.3, 593.77), (0.0, 594.0), (0.0, 593.77), (0.0, 594.0), (0.0, 593.77), (-6.422, 594.0), (-6.422, 593.77), (-0.3, 593.77), (-0.3, 593.54), (0.0, 593.77), (0.0, 593.61), (0.0, 593.77), (0.0, 593.61), (-6.422, 593.77), (-6.422, 593.55)]</t>
+          <t>[(0.3, 594.0), (0.3, 593.77), (2.396, 594.0), (2.396, 593.77), (2.396, 594.0), (2.396, 593.77), (9.641, 594.0), (9.641, 593.77), (0.3, 593.77), (0.3, 593.54), (2.396, 593.77), (2.396, 593.61), (2.396, 593.77), (2.396, 593.61), (9.641, 593.77), (9.641, 593.55)]</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6201,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>[(-0.3, 595.0), (-0.3, 594.75), (0.0, 595.0), (0.0, 594.75), (0.0, 595.0), (0.0, 594.76), (-6.296, 595.0), (-6.296, 594.76), (-0.3, 594.75), (-0.3, 594.51), (0.0, 594.75), (0.0, 594.58), (0.0, 594.76), (0.0, 594.58), (-6.296, 594.76), (-6.296, 594.53)]</t>
+          <t>[(0.3, 595.0), (0.3, 594.75), (2.439, 595.0), (2.439, 594.75), (2.439, 595.0), (2.439, 594.76), (9.588, 595.0), (9.588, 594.76), (0.3, 594.75), (0.3, 594.51), (2.439, 594.75), (2.439, 594.58), (2.439, 594.76), (2.439, 594.58), (9.588, 594.76), (9.588, 594.53)]</t>
         </is>
       </c>
     </row>
@@ -6387,7 +6211,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>[(-0.3, 596.0), (-0.3, 595.89), (0.0, 596.0), (0.0, 595.89), (0.0, 596.0), (0.0, 595.84), (-6.131, 596.0), (-6.131, 595.84), (-0.3, 595.89), (-0.3, 595.61), (0.0, 595.89), (0.0, 595.72), (0.0, 595.84), (0.0, 595.72), (-6.131, 595.84), (-6.131, 595.69)]</t>
+          <t>[(0.3, 596.0), (0.3, 595.89), (2.623, 596.0), (2.623, 595.89), (2.623, 596.0), (2.623, 595.84), (9.741, 596.0), (9.741, 595.84), (0.3, 595.89), (0.3, 595.61), (2.623, 595.89), (2.623, 595.72), (2.623, 595.84), (2.623, 595.72), (9.741, 595.84), (9.741, 595.69)]</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6221,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>[(-0.3, 597.0), (-0.3, 596.8), (0.0, 597.0), (0.0, 596.8), (0.0, 597.0), (0.0, 596.83), (-6.058, 597.0), (-6.058, 596.83), (-0.3, 596.8), (-0.3, 596.61), (0.0, 596.8), (0.0, 596.68), (0.0, 596.83), (0.0, 596.68), (-6.058, 596.83), (-6.058, 596.67)]</t>
+          <t>[(0.3, 597.0), (0.3, 596.8), (2.634, 597.0), (2.634, 596.8), (2.634, 597.0), (2.634, 596.83), (9.74, 597.0), (9.74, 596.83), (0.3, 596.8), (0.3, 596.61), (2.634, 596.8), (2.634, 596.68), (2.634, 596.83), (2.634, 596.68), (9.74, 596.83), (9.74, 596.67)]</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6231,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>[(-0.3, 598.0), (-0.3, 597.84), (0.0, 598.0), (0.0, 597.84), (0.0, 598.0), (0.0, 597.85), (-6.146, 598.0), (-6.146, 597.85), (-0.3, 597.84), (-0.3, 597.68), (0.0, 597.84), (0.0, 597.68), (0.0, 597.85), (0.0, 597.7), (-6.146, 597.85), (-6.146, 597.7), (-0.3, 597.68), (-0.3, 597.53), (0.0, 597.68), (0.0, 597.57), (0.0, 597.7), (0.0, 597.57), (-6.146, 597.7), (-6.146, 597.58)]</t>
+          <t>[(0.3, 598.0), (0.3, 597.84), (2.518, 598.0), (2.518, 597.84), (2.518, 598.0), (2.518, 597.85), (9.64, 598.0), (9.64, 597.85), (0.3, 597.84), (0.3, 597.68), (2.518, 597.84), (2.518, 597.68), (2.518, 597.85), (2.518, 597.7), (9.64, 597.85), (9.64, 597.7), (0.3, 597.68), (0.3, 597.53), (2.518, 597.68), (2.518, 597.57), (2.518, 597.7), (2.518, 597.57), (9.64, 597.7), (9.64, 597.58)]</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6241,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>[(-0.3, 599.0), (-0.3, 598.74), (0.0, 599.0), (0.0, 598.74), (0.0, 599.0), (0.0, 598.85), (-6.221, 599.0), (-6.221, 598.85), (-0.3, 598.74), (-0.3, 598.48), (0.0, 598.74), (0.0, 598.55), (0.0, 598.85), (0.0, 598.7), (-6.221, 598.85), (-6.221, 598.7)]</t>
+          <t>[(0.3, 599.0), (0.3, 598.74), (2.447, 599.0), (2.447, 598.74), (2.447, 599.0), (2.447, 598.85), (9.593, 599.0), (9.593, 598.85), (0.3, 598.74), (0.3, 598.48), (2.447, 598.74), (2.447, 598.55), (2.447, 598.85), (2.447, 598.7), (9.593, 598.85), (9.593, 598.7)]</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6251,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>[(-0.3, 600.0), (-0.3, 599.81), (0.0, 600.0), (0.0, 599.81), (0.0, 600.0), (0.0, 599.83), (-6.222, 600.0), (-6.222, 599.83), (-0.3, 599.81), (-0.3, 599.62), (0.0, 599.81), (0.0, 599.62), (0.0, 599.83), (0.0, 599.66), (-6.222, 599.83), (-6.222, 599.66), (-0.3, 599.62), (-0.3, 599.45), (0.0, 599.62), (0.0, 599.49), (0.0, 599.66), (0.0, 599.49), (-6.222, 599.66), (-6.222, 599.54)]</t>
+          <t>[(0.3, 600.0), (0.3, 599.81), (2.519, 600.0), (2.519, 599.81), (2.519, 600.0), (2.519, 599.83), (9.627, 600.0), (9.627, 599.83), (0.3, 599.81), (0.3, 599.62), (2.519, 599.81), (2.519, 599.62), (2.519, 599.83), (2.519, 599.66), (9.627, 599.83), (9.627, 599.66), (0.3, 599.62), (0.3, 599.45), (2.519, 599.62), (2.519, 599.49), (2.519, 599.66), (2.519, 599.49), (9.627, 599.66), (9.627, 599.54)]</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6261,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>[(-0.3, 601.0), (-0.3, 600.82), (0.0, 601.0), (0.0, 600.82), (0.0, 601.0), (0.0, 600.83), (-6.155, 601.0), (-6.155, 600.83), (-0.3, 600.82), (-0.3, 600.64), (0.0, 600.82), (0.0, 600.64), (0.0, 600.83), (0.0, 600.66), (-6.155, 600.83), (-6.155, 600.66), (-0.3, 600.64), (-0.3, 600.46), (0.0, 600.64), (0.0, 600.52), (0.0, 600.66), (0.0, 600.52), (-6.155, 600.66), (-6.155, 600.51)]</t>
+          <t>[(0.3, 601.0), (0.3, 600.82), (2.565, 601.0), (2.565, 600.82), (2.565, 601.0), (2.565, 600.83), (9.698, 601.0), (9.698, 600.83), (0.3, 600.82), (0.3, 600.64), (2.565, 600.82), (2.565, 600.64), (2.565, 600.83), (2.565, 600.66), (9.698, 600.83), (9.698, 600.66), (0.3, 600.64), (0.3, 600.46), (2.565, 600.64), (2.565, 600.52), (2.565, 600.66), (2.565, 600.52), (9.698, 600.66), (9.698, 600.51)]</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6271,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>[(-0.3, 602.0), (-0.3, 601.82), (0.0, 602.0), (0.0, 601.82), (0.0, 602.0), (0.0, 601.81), (-6.006, 602.0), (-6.006, 601.81), (-0.3, 601.82), (-0.3, 601.64), (0.0, 601.82), (0.0, 601.64), (0.0, 601.81), (0.0, 601.62), (-6.006, 601.81), (-6.006, 601.62), (-0.3, 601.64), (-0.3, 601.47), (0.0, 601.64), (0.0, 601.5), (0.0, 601.62), (0.0, 601.5), (-6.006, 601.62), (-6.006, 601.44)]</t>
+          <t>[(0.3, 602.0), (0.3, 601.82), (2.607, 602.0), (2.607, 601.82), (2.607, 602.0), (2.607, 601.81), (9.852, 602.0), (9.852, 601.81), (0.3, 601.82), (0.3, 601.64), (2.607, 601.82), (2.607, 601.64), (2.607, 601.81), (2.607, 601.62), (9.852, 601.81), (9.852, 601.62), (0.3, 601.64), (0.3, 601.47), (2.607, 601.64), (2.607, 601.5), (2.607, 601.62), (2.607, 601.5), (9.852, 601.62), (9.852, 601.44)]</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6281,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>[(-0.3, 603.0), (-0.3, 602.84), (0.0, 603.0), (0.0, 602.84), (0.0, 603.0), (0.0, 602.72), (-5.889, 603.0), (-5.889, 602.72), (-0.3, 602.84), (-0.3, 602.68), (0.0, 602.84), (0.0, 602.68), (0.0, 602.72), (0.0, 602.54), (-5.889, 602.72), (-5.889, 602.45), (-0.3, 602.68), (-0.3, 602.53), (0.0, 602.68), (0.0, 602.54), (0.0, 602.54), (0.0, 602.54), (-5.889, 602.45), (-5.889, 602.45)]</t>
+          <t>[(0.3, 603.0), (0.3, 602.84), (2.704, 603.0), (2.704, 602.84), (2.704, 603.0), (2.704, 602.72), (9.986, 603.0), (9.986, 602.72), (0.3, 602.84), (0.3, 602.68), (2.704, 602.84), (2.704, 602.68), (2.704, 602.72), (2.704, 602.54), (9.986, 602.72), (9.986, 602.45), (0.3, 602.68), (0.3, 602.53), (2.704, 602.68), (2.704, 602.54), (2.704, 602.54), (2.704, 602.54), (9.986, 602.45), (9.986, 602.45)]</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6291,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>[(-0.3, 604.0), (-0.3, 603.84), (0.0, 604.0), (0.0, 603.84), (0.0, 604.0), (0.0, 603.72), (-5.788, 604.0), (-5.788, 603.72), (-0.3, 603.84), (-0.3, 603.68), (0.0, 603.84), (0.0, 603.68), (0.0, 603.72), (0.0, 603.55), (-5.788, 603.72), (-5.788, 603.44), (-0.3, 603.68), (-0.3, 603.53), (0.0, 603.68), (0.0, 603.55), (0.0, 603.55), (0.0, 603.55), (-5.788, 603.44), (-5.788, 603.44)]</t>
+          <t>[(0.3, 604.0), (0.3, 603.84), (2.787, 604.0), (2.787, 603.84), (2.787, 604.0), (2.787, 603.72), (10.065, 604.0), (10.065, 603.72), (0.3, 603.84), (0.3, 603.68), (2.787, 603.84), (2.787, 603.68), (2.787, 603.72), (2.787, 603.55), (10.065, 603.72), (10.065, 603.44), (0.3, 603.68), (0.3, 603.53), (2.787, 603.68), (2.787, 603.55), (2.787, 603.55), (2.787, 603.55), (10.065, 603.44), (10.065, 603.44)]</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6301,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>[(-0.3, 605.0), (-0.3, 604.83), (0.0, 605.0), (0.0, 604.83), (0.0, 605.0), (0.0, 604.84), (-5.663, 605.0), (-5.663, 604.84), (-0.3, 604.83), (-0.3, 604.66), (0.0, 604.83), (0.0, 604.66), (0.0, 604.84), (0.0, 604.68), (-5.663, 604.84), (-5.663, 604.68), (-0.3, 604.66), (-0.3, 604.51), (0.0, 604.66), (0.0, 604.52), (0.0, 604.68), (0.0, 604.52), (-5.663, 604.68), (-5.663, 604.52)]</t>
+          <t>[(0.3, 605.0), (0.3, 604.83), (2.917, 605.0), (2.917, 604.83), (2.917, 605.0), (2.917, 604.84), (10.061, 605.0), (10.061, 604.84), (0.3, 604.83), (0.3, 604.66), (2.917, 604.83), (2.917, 604.66), (2.917, 604.84), (2.917, 604.68), (10.061, 604.84), (10.061, 604.68), (0.3, 604.66), (0.3, 604.51), (2.917, 604.66), (2.917, 604.52), (2.917, 604.68), (2.917, 604.52), (10.061, 604.68), (10.061, 604.52)]</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6311,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>[(-0.3, 606.0), (-0.3, 605.83), (0.0, 606.0), (0.0, 605.83), (0.0, 606.0), (0.0, 605.84), (-5.511, 606.0), (-5.511, 605.84), (-0.3, 605.83), (-0.3, 605.66), (0.0, 605.83), (0.0, 605.66), (0.0, 605.84), (0.0, 605.68), (-5.511, 605.84), (-5.511, 605.68), (-0.3, 605.66), (-0.3, 605.49), (0.0, 605.66), (0.0, 605.52), (0.0, 605.68), (0.0, 605.52), (-5.511, 605.68), (-5.511, 605.53)]</t>
+          <t>[(0.3, 606.0), (0.3, 605.83), (3.068, 606.0), (3.068, 605.83), (3.068, 606.0), (3.068, 605.84), (10.178, 606.0), (10.178, 605.84), (0.3, 605.83), (0.3, 605.66), (3.068, 605.83), (3.068, 605.66), (3.068, 605.84), (3.068, 605.68), (10.178, 605.84), (10.178, 605.68), (0.3, 605.66), (0.3, 605.49), (3.068, 605.66), (3.068, 605.52), (3.068, 605.68), (3.068, 605.52), (10.178, 605.68), (10.178, 605.53)]</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6321,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>[(-0.3, 607.0), (-0.3, 606.82), (0.0, 607.0), (0.0, 606.82), (0.0, 607.0), (0.0, 606.83), (-5.47, 607.0), (-5.47, 606.83), (-0.3, 606.82), (-0.3, 606.64), (0.0, 606.82), (0.0, 606.64), (0.0, 606.83), (0.0, 606.66), (-5.47, 606.83), (-5.47, 606.66), (-0.3, 606.64), (-0.3, 606.48), (0.0, 606.64), (0.0, 606.51), (0.0, 606.66), (0.0, 606.51), (-5.47, 606.66), (-5.47, 606.5)]</t>
+          <t>[(0.3, 607.0), (0.3, 606.82), (3.15, 607.0), (3.15, 606.82), (3.15, 607.0), (3.15, 606.83), (10.293, 607.0), (10.293, 606.83), (0.3, 606.82), (0.3, 606.64), (3.15, 606.82), (3.15, 606.64), (3.15, 606.83), (3.15, 606.66), (10.293, 606.83), (10.293, 606.66), (0.3, 606.64), (0.3, 606.48), (3.15, 606.64), (3.15, 606.51), (3.15, 606.66), (3.15, 606.51), (10.293, 606.66), (10.293, 606.5)]</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6331,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>[(-0.3, 608.0), (-0.3, 607.82), (0.0, 608.0), (0.0, 607.82), (0.0, 608.0), (0.0, 607.84), (-5.416, 608.0), (-5.416, 607.84), (-0.3, 607.82), (-0.3, 607.64), (0.0, 607.82), (0.0, 607.64), (0.0, 607.84), (0.0, 607.68), (-5.416, 607.84), (-5.416, 607.68), (-0.3, 607.64), (-0.3, 607.47), (0.0, 607.64), (0.0, 607.52), (0.0, 607.68), (0.0, 607.52), (-5.416, 607.68), (-5.416, 607.54)]</t>
+          <t>[(0.3, 608.0), (0.3, 607.82), (3.188, 608.0), (3.188, 607.82), (3.188, 608.0), (3.188, 607.84), (10.333, 608.0), (10.333, 607.84), (0.3, 607.82), (0.3, 607.64), (3.188, 607.82), (3.188, 607.64), (3.188, 607.84), (3.188, 607.68), (10.333, 607.84), (10.333, 607.68), (0.3, 607.64), (0.3, 607.47), (3.188, 607.64), (3.188, 607.52), (3.188, 607.68), (3.188, 607.52), (10.333, 607.68), (10.333, 607.54)]</t>
         </is>
       </c>
     </row>
@@ -6517,7 +6341,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>[(-0.3, 609.0), (-0.3, 608.83), (0.0, 609.0), (0.0, 608.83), (0.0, 609.0), (0.0, 608.85), (-5.474, 609.0), (-5.474, 608.85), (-0.3, 608.83), (-0.3, 608.66), (0.0, 608.83), (0.0, 608.66), (0.0, 608.85), (0.0, 608.7), (-5.474, 608.85), (-5.474, 608.7), (-0.3, 608.66), (-0.3, 608.51), (0.0, 608.66), (0.0, 608.55), (0.0, 608.7), (0.0, 608.55), (-5.474, 608.7), (-5.474, 608.55)]</t>
+          <t>[(0.3, 609.0), (0.3, 608.83), (3.187, 609.0), (3.187, 608.83), (3.187, 609.0), (3.187, 608.85), (10.277, 609.0), (10.277, 608.85), (0.3, 608.83), (0.3, 608.66), (3.187, 608.83), (3.187, 608.66), (3.187, 608.85), (3.187, 608.7), (10.277, 608.85), (10.277, 608.7), (0.3, 608.66), (0.3, 608.51), (3.187, 608.66), (3.187, 608.55), (3.187, 608.7), (3.187, 608.55), (10.277, 608.7), (10.277, 608.55)]</t>
         </is>
       </c>
     </row>
@@ -6527,7 +6351,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>[(-0.3, 610.0), (-0.3, 609.84), (0.0, 610.0), (0.0, 609.84), (0.0, 610.0), (0.0, 609.76), (-5.528, 610.0), (-5.528, 609.76), (-0.3, 609.84), (-0.3, 609.68), (0.0, 609.84), (0.0, 609.68), (0.0, 609.76), (0.0, 609.53), (-5.528, 609.76), (-5.528, 609.58), (-0.3, 609.68), (-0.3, 609.52), (0.0, 609.68), (0.0, 609.53), (0.0, 609.53), (0.0, 609.53), (-5.528, 609.58), (-5.528, 609.58)]</t>
+          <t>[(0.3, 610.0), (0.3, 609.84), (3.104, 610.0), (3.104, 609.84), (3.104, 610.0), (3.104, 609.76), (10.237, 610.0), (10.237, 609.76), (0.3, 609.84), (0.3, 609.68), (3.104, 609.84), (3.104, 609.68), (3.104, 609.76), (3.104, 609.53), (10.237, 609.76), (10.237, 609.58), (0.3, 609.68), (0.3, 609.52), (3.104, 609.68), (3.104, 609.53), (3.104, 609.53), (3.104, 609.53), (10.237, 609.58), (10.237, 609.58)]</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6361,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>[(-0.3, 611.0), (-0.3, 610.78), (0.0, 611.0), (0.0, 610.78), (0.0, 611.0), (0.0, 610.87), (-5.578, 611.0), (-5.578, 610.87), (-0.3, 610.78), (-0.3, 610.56), (0.0, 610.78), (0.0, 610.63), (0.0, 610.87), (0.0, 610.74), (-5.578, 610.87), (-5.578, 610.74)]</t>
+          <t>[(0.3, 611.0), (0.3, 610.78), (3.107, 611.0), (3.107, 610.78), (3.107, 611.0), (3.107, 610.87), (10.221, 611.0), (10.221, 610.87), (0.3, 610.78), (0.3, 610.56), (3.107, 610.78), (3.107, 610.63), (3.107, 610.87), (3.107, 610.74), (10.221, 610.87), (10.221, 610.74)]</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6371,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>[(-0.3, 612.0), (-0.3, 611.85), (0.0, 612.0), (0.0, 611.85), (0.0, 612.0), (0.0, 611.84), (-5.642, 612.0), (-5.642, 611.84), (-0.3, 611.85), (-0.3, 611.55), (0.0, 611.85), (0.0, 611.7), (0.0, 611.84), (0.0, 611.7), (-5.642, 611.84), (-5.642, 611.68)]</t>
+          <t>[(0.3, 612.0), (0.3, 611.85), (3.11, 612.0), (3.11, 611.85), (3.11, 612.0), (3.11, 611.84), (10.223, 612.0), (10.223, 611.84), (0.3, 611.85), (0.3, 611.55), (3.11, 611.85), (3.11, 611.7), (3.11, 611.84), (3.11, 611.7), (10.223, 611.84), (10.223, 611.68)]</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6381,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>[(-0.3, 613.0), (-0.3, 612.89), (0.0, 613.0), (0.0, 612.89), (0.0, 613.0), (0.0, 612.84), (-5.707, 613.0), (-5.707, 612.84), (-0.3, 612.89), (-0.3, 612.59), (0.0, 612.89), (0.0, 612.72), (0.0, 612.84), (0.0, 612.72), (-5.707, 612.84), (-5.707, 612.68)]</t>
+          <t>[(0.3, 613.0), (0.3, 612.89), (3.053, 613.0), (3.053, 612.89), (3.053, 613.0), (3.053, 612.84), (10.2, 613.0), (10.2, 612.84), (0.3, 612.89), (0.3, 612.59), (3.053, 612.89), (3.053, 612.72), (3.053, 612.84), (3.053, 612.72), (10.2, 612.84), (10.2, 612.68)]</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6391,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>[(-0.3, 614.0), (-0.3, 613.89), (0.0, 614.0), (0.0, 613.89), (0.0, 614.0), (0.0, 613.87), (-5.693, 614.0), (-5.693, 613.87), (-0.3, 613.89), (-0.3, 613.61), (0.0, 613.89), (0.0, 613.75), (0.0, 613.87), (0.0, 613.75), (-5.693, 613.87), (-5.693, 613.75)]</t>
+          <t>[(0.3, 614.0), (0.3, 613.89), (3.035, 614.0), (3.035, 613.89), (3.035, 614.0), (3.035, 613.87), (10.152, 614.0), (10.152, 613.87), (0.3, 613.89), (0.3, 613.61), (3.035, 613.89), (3.035, 613.75), (3.035, 613.87), (3.035, 613.75), (10.152, 613.87), (10.152, 613.75)]</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6411,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>[(-0.3, 616.0), (-0.3, 615.85), (0.0, 616.0), (0.0, 615.85), (0.0, 616.0), (0.0, 615.86), (-5.754, 616.0), (-5.754, 615.71), (-0.3, 615.85), (-0.3, 615.72), (0.0, 615.85), (0.0, 615.71), (0.0, 615.86), (0.0, 615.72), (-5.754, 615.71), (-5.754, 615.42)]</t>
+          <t>[(0.3, 616.0), (0.3, 615.85), (2.865, 616.0), (2.865, 615.85), (2.865, 616.0), (2.865, 615.86), (10.083, 616.0), (10.083, 615.71), (0.3, 615.85), (0.3, 615.72), (2.865, 615.85), (2.865, 615.71), (2.865, 615.86), (2.865, 615.72), (10.083, 615.71), (10.083, 615.42)]</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6421,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>[(-0.3, 617.0), (-0.3, 616.84), (0.0, 617.0), (0.0, 616.84), (0.0, 617.0), (0.0, 616.84), (-5.745, 617.0), (-5.745, 616.66), (-0.3, 616.84), (-0.3, 616.69), (0.0, 616.84), (0.0, 616.69), (0.0, 616.84), (0.0, 616.68), (-5.745, 616.66), (-5.745, 616.32)]</t>
+          <t>[(0.3, 617.0), (0.3, 616.84), (2.993, 617.0), (2.993, 616.84), (2.993, 617.0), (2.993, 616.84), (10.141, 617.0), (10.141, 616.66), (0.3, 616.84), (0.3, 616.69), (2.993, 616.84), (2.993, 616.69), (2.993, 616.84), (2.993, 616.68), (10.141, 616.66), (10.141, 616.32)]</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6431,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>[(-0.3, 618.0), (-0.3, 617.85), (0.0, 618.0), (0.0, 617.85), (0.0, 618.0), (0.0, 617.86), (-5.566, 618.0), (-5.566, 617.7), (-0.3, 617.85), (-0.3, 617.72), (0.0, 617.85), (0.0, 617.72), (0.0, 617.86), (0.0, 617.72), (-5.566, 617.7), (-5.566, 617.4)]</t>
+          <t>[(0.3, 618.0), (0.3, 617.85), (3.171, 618.0), (3.171, 617.85), (3.171, 618.0), (3.171, 617.86), (10.282, 618.0), (10.282, 617.7), (0.3, 617.85), (0.3, 617.72), (3.171, 617.85), (3.171, 617.72), (3.171, 617.86), (3.171, 617.72), (10.282, 617.7), (10.282, 617.4)]</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6441,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>[(-0.3, 619.0), (-0.3, 618.85), (0.0, 619.0), (0.0, 618.85), (0.0, 619.0), (0.0, 618.86), (-5.428, 619.0), (-5.428, 618.71), (-0.3, 618.85), (-0.3, 618.72), (0.0, 618.85), (0.0, 618.72), (0.0, 618.86), (0.0, 618.72), (-5.428, 618.71), (-5.428, 618.42)]</t>
+          <t>[(0.3, 619.0), (0.3, 618.85), (3.328, 619.0), (3.328, 618.85), (3.328, 619.0), (3.328, 618.86), (10.401, 619.0), (10.401, 618.71), (0.3, 618.85), (0.3, 618.72), (3.328, 618.85), (3.328, 618.72), (3.328, 618.86), (3.328, 618.72), (10.401, 618.71), (10.401, 618.42)]</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6451,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>[(-0.3, 620.0), (-0.3, 619.84), (0.0, 620.0), (0.0, 619.84), (0.0, 620.0), (0.0, 619.84), (-5.379, 620.0), (-5.379, 619.74), (-0.3, 619.84), (-0.3, 619.72), (0.0, 619.84), (0.0, 619.68), (0.0, 619.84), (0.0, 619.68), (-5.379, 619.74), (-5.379, 619.48)]</t>
+          <t>[(0.3, 620.0), (0.3, 619.84), (3.327, 620.0), (3.327, 619.84), (3.327, 620.0), (3.327, 619.84), (10.545, 620.0), (10.545, 619.74), (0.3, 619.84), (0.3, 619.72), (3.327, 619.84), (3.327, 619.68), (3.327, 619.84), (3.327, 619.68), (10.545, 619.74), (10.545, 619.48)]</t>
         </is>
       </c>
     </row>
@@ -6637,7 +6461,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>[(-0.3, 621.0), (-0.3, 620.86), (0.0, 621.0), (0.0, 620.86), (0.0, 621.0), (0.0, 620.88), (-5.488, 621.0), (-5.488, 620.88), (-0.3, 620.86), (-0.3, 620.74), (0.0, 620.86), (0.0, 620.73), (0.0, 620.88), (0.0, 620.73), (-5.488, 620.88), (-5.488, 620.58)]</t>
+          <t>[(0.3, 621.0), (0.3, 620.86), (3.256, 621.0), (3.256, 620.86), (3.256, 621.0), (3.256, 620.88), (10.519, 621.0), (10.519, 620.88), (0.3, 620.86), (0.3, 620.74), (3.256, 620.86), (3.256, 620.73), (3.256, 620.88), (3.256, 620.73), (10.519, 620.88), (10.519, 620.58)]</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6471,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>[(-0.3, 622.0), (-0.3, 621.84), (0.0, 622.0), (0.0, 621.84), (0.0, 622.0), (0.0, 621.89), (-5.574, 622.0), (-5.574, 621.89), (-0.3, 621.84), (-0.3, 621.68), (0.0, 621.84), (0.0, 621.7), (0.0, 621.89), (0.0, 621.7), (-5.574, 621.89), (-5.574, 621.61)]</t>
+          <t>[(0.3, 622.0), (0.3, 621.84), (3.134, 622.0), (3.134, 621.84), (3.134, 622.0), (3.134, 621.89), (10.307, 622.0), (10.307, 621.89), (0.3, 621.84), (0.3, 621.68), (3.134, 621.84), (3.134, 621.7), (3.134, 621.89), (3.134, 621.7), (10.307, 621.89), (10.307, 621.61)]</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6481,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>[(-0.3, 623.0), (-0.3, 622.82), (0.0, 623.0), (0.0, 622.82), (0.0, 623.0), (0.0, 622.78), (-5.733, 623.0), (-5.733, 622.78), (-0.3, 622.82), (-0.3, 622.67), (0.0, 622.82), (0.0, 622.64), (0.0, 622.78), (0.0, 622.64), (-5.733, 622.78), (-5.733, 622.56)]</t>
+          <t>[(0.3, 623.0), (0.3, 622.82), (2.967, 623.0), (2.967, 622.82), (2.967, 623.0), (2.967, 622.78), (10.126, 623.0), (10.126, 622.78), (0.3, 622.82), (0.3, 622.67), (2.967, 622.82), (2.967, 622.64), (2.967, 622.78), (2.967, 622.64), (10.126, 622.78), (10.126, 622.56)]</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6491,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>[(-0.3, 624.0), (-0.3, 623.8), (0.0, 624.0), (0.0, 623.8), (0.0, 624.0), (0.0, 623.75), (-5.937, 624.0), (-5.937, 623.75), (-0.3, 623.8), (-0.3, 623.65), (0.0, 623.8), (0.0, 623.61), (0.0, 623.75), (0.0, 623.61), (-5.937, 623.75), (-5.937, 623.51)]</t>
+          <t>[(0.3, 624.0), (0.3, 623.8), (2.848, 624.0), (2.848, 623.8), (2.848, 624.0), (2.848, 623.75), (9.971, 624.0), (9.971, 623.75), (0.3, 623.8), (0.3, 623.65), (2.848, 623.8), (2.848, 623.61), (2.848, 623.75), (2.848, 623.61), (9.971, 623.75), (9.971, 623.51)]</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6501,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>[(-0.3, 625.0), (-0.3, 624.86), (0.0, 625.0), (0.0, 624.86), (0.0, 625.0), (0.0, 624.74), (-6.034, 625.0), (-6.034, 624.74), (-0.3, 624.86), (-0.3, 624.72), (0.0, 624.86), (0.0, 624.72), (0.0, 624.74), (0.0, 624.59), (-6.034, 624.74), (-6.034, 624.49), (-0.3, 624.72), (-0.3, 624.61), (0.0, 624.72), (0.0, 624.59), (0.0, 624.59), (0.0, 624.59), (-6.034, 624.49), (-6.034, 624.49)]</t>
+          <t>[(0.3, 625.0), (0.3, 624.86), (2.69, 625.0), (2.69, 624.86), (2.69, 625.0), (2.69, 624.74), (9.832, 625.0), (9.832, 624.74), (0.3, 624.86), (0.3, 624.72), (2.69, 624.86), (2.69, 624.72), (2.69, 624.74), (2.69, 624.59), (9.832, 624.74), (9.832, 624.49), (0.3, 624.72), (0.3, 624.61), (2.69, 624.72), (2.69, 624.59), (2.69, 624.59), (2.69, 624.59), (9.832, 624.49), (9.832, 624.49)]</t>
         </is>
       </c>
     </row>
@@ -6687,7 +6511,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>[(-0.3, 626.0), (-0.3, 625.85), (0.0, 626.0), (0.0, 625.85), (0.0, 626.0), (0.0, 625.73), (-6.25, 626.0), (-6.25, 625.73), (-0.3, 625.85), (-0.3, 625.7), (0.0, 625.85), (0.0, 625.7), (0.0, 625.73), (0.0, 625.56), (-6.25, 625.73), (-6.25, 625.46), (-0.3, 625.7), (-0.3, 625.57), (0.0, 625.7), (0.0, 625.56), (0.0, 625.56), (0.0, 625.56), (-6.25, 625.46), (-6.25, 625.46)]</t>
+          <t>[(0.3, 626.0), (0.3, 625.85), (2.411, 626.0), (2.411, 625.85), (2.411, 626.0), (2.411, 625.73), (9.637, 626.0), (9.637, 625.73), (0.3, 625.85), (0.3, 625.7), (2.411, 625.85), (2.411, 625.7), (2.411, 625.73), (2.411, 625.56), (9.637, 625.73), (9.637, 625.46), (0.3, 625.7), (0.3, 625.57), (2.411, 625.7), (2.411, 625.56), (2.411, 625.56), (2.411, 625.56), (9.637, 625.46), (9.637, 625.46)]</t>
         </is>
       </c>
     </row>
@@ -6697,7 +6521,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>[(-0.3, 627.0), (-0.3, 626.73), (-6.434, 627.0), (-6.434, 626.73), (-0.3, 626.73), (-0.3, 626.56), (-6.434, 626.73), (-6.434, 626.46)]</t>
+          <t>[(0.3, 627.0), (0.3, 626.73), (9.446, 627.0), (9.446, 626.73), (0.3, 626.73), (0.3, 626.56), (9.446, 626.73), (9.446, 626.46)]</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6531,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>[(-0.3, 628.0), (-0.3, 627.72), (-6.611, 628.0), (-6.611, 627.72), (-0.3, 627.72), (-0.3, 627.57), (-6.611, 627.72), (-6.611, 627.44)]</t>
+          <t>[(0.3, 628.0), (0.3, 627.72), (9.225, 628.0), (9.225, 627.72), (0.3, 627.72), (0.3, 627.57), (9.225, 627.72), (9.225, 627.44)]</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6541,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>[(-0.3, 629.0), (-0.3, 628.72), (-6.849, 629.0), (-6.849, 628.72), (-0.3, 628.72), (-0.3, 628.58), (-6.849, 628.72), (-6.849, 628.45)]</t>
+          <t>[(0.3, 629.0), (0.3, 628.72), (9.019, 629.0), (9.019, 628.72), (0.3, 628.72), (0.3, 628.58), (9.019, 628.72), (9.019, 628.45)]</t>
         </is>
       </c>
     </row>
@@ -6727,7 +6551,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>[(-0.3, 630.0), (-0.3, 629.73), (-7.077, 630.0), (-7.077, 629.73), (-0.3, 629.73), (-0.3, 629.54), (-7.077, 629.73), (-7.077, 629.46)]</t>
+          <t>[(0.3, 630.0), (0.3, 629.73), (8.776, 630.0), (8.776, 629.73), (0.3, 629.73), (0.3, 629.54), (8.776, 629.73), (8.776, 629.46)]</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6561,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>[(-0.3, 631.0), (-0.3, 630.73), (-7.33, 631.0), (-7.33, 630.73), (-0.3, 630.73), (-0.3, 630.62), (-7.33, 630.73), (-7.33, 630.47)]</t>
+          <t>[(0.3, 631.0), (0.3, 630.73), (8.501, 631.0), (8.501, 630.73), (0.3, 630.73), (0.3, 630.62), (8.501, 630.73), (8.501, 630.47)]</t>
         </is>
       </c>
     </row>
@@ -6747,7 +6571,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>[(-0.3, 632.0), (-0.3, 631.78), (-7.345, 632.0), (-7.345, 631.78), (-0.3, 631.78), (-0.3, 631.67), (-7.345, 631.78), (-7.345, 631.57)]</t>
+          <t>[(0.3, 632.0), (0.3, 631.78), (8.27, 632.0), (8.27, 631.78), (0.3, 631.78), (0.3, 631.67), (8.27, 631.78), (8.27, 631.57)]</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6581,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>[(-0.3, 633.0), (-0.3, 632.89), (-7.24, 633.0), (-7.24, 632.89), (-0.3, 632.89), (-0.3, 632.71), (-7.24, 632.89), (-7.24, 632.62)]</t>
+          <t>[(0.3, 633.0), (0.3, 632.89), (7.948, 633.0), (7.948, 632.89), (0.3, 632.89), (0.3, 632.71), (7.948, 632.89), (7.948, 632.62)]</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6611,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>[(-0.3, 636.0), (-0.3, 635.89), (-6.963, 636.0), (-6.963, 635.89), (-0.3, 635.89), (-0.3, 635.75), (-6.963, 635.89), (-6.963, 635.59)]</t>
+          <t>[(0.3, 636.0), (0.3, 635.89), (7.108, 636.0), (7.108, 635.89), (0.3, 635.89), (0.3, 635.75), (7.108, 635.89), (7.108, 635.59)]</t>
         </is>
       </c>
     </row>

--- a/output/layerCoordinates_right.xlsx
+++ b/output/layerCoordinates_right.xlsx
@@ -747,7 +747,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[(0.3, 32.0), (0.3, 31.84), (3.048, 32.0), (3.048, 31.84), (3.048, 32.0), (3.048, 31.85), (9.854, 32.0), (9.854, 31.85), (0.3, 31.84), (0.3, 31.68), (3.048, 31.84), (3.048, 31.72), (3.048, 31.85), (3.048, 31.72), (9.854, 31.85), (9.854, 31.73)]</t>
+          <t>[(0.3, 32.0), (0.3, 31.84), (3.048, 32.13776170848766), (3.048, 31.977761708487655), (3.048, 32.13776170848766), (3.048, 31.987761708487657), (9.854, 32.478957555637216), (9.854, 32.32895755563722), (0.3, 31.84), (0.3, 31.68), (3.048, 31.977761708487655), (3.048, 31.857761708487654), (3.048, 31.987761708487657), (3.048, 31.857761708487654), (9.854, 32.32895755563722), (9.854, 32.20895755563721)]</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[(0.3, 33.0), (0.3, 32.81), (3.233, 33.0), (3.233, 32.81), (3.233, 33.0), (3.233, 32.83), (9.646, 33.0), (9.646, 32.83), (0.3, 32.81), (0.3, 32.63), (3.233, 32.81), (3.233, 32.67), (3.233, 32.83), (3.233, 32.67), (9.646, 32.83), (9.646, 32.68)]</t>
+          <t>[(0.3, 33.0), (0.3, 32.81), (3.233, 33.127573250671816), (3.233, 32.93757325067182), (3.233, 33.127573250671816), (3.233, 32.957573250671814), (9.646, 33.40651196753453), (9.646, 33.236511967534526), (0.3, 32.81), (0.3, 32.63), (3.233, 32.93757325067182), (3.233, 32.79757325067182), (3.233, 32.957573250671814), (3.233, 32.79757325067182), (9.646, 33.236511967534526), (9.646, 33.08651196753453)]</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[(0.3, 34.0), (0.3, 33.89), (3.417, 34.0), (3.417, 33.89), (3.417, 34.0), (3.417, 33.89), (9.666, 34.0), (9.666, 33.89), (0.3, 33.89), (0.3, 33.62), (3.417, 33.89), (3.417, 33.73), (3.417, 33.89), (3.417, 33.73), (9.666, 33.89), (9.666, 33.63)]</t>
+          <t>[(0.3, 34.0), (0.3, 33.89), (3.417, 34.11489268592124), (3.417, 34.00489268592124), (3.417, 34.11489268592124), (3.417, 34.00489268592124), (9.666, 34.34523095808097), (9.666, 34.23523095808097), (0.3, 33.89), (0.3, 33.62), (3.417, 34.00489268592124), (3.417, 33.84489268592124), (3.417, 34.00489268592124), (3.417, 33.84489268592124), (9.666, 34.23523095808097), (9.666, 33.97523095808097)]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[(0.3, 35.0), (0.3, 34.78), (3.455, 35.0), (3.455, 34.78), (3.455, 35.0), (3.455, 34.86), (9.825, 35.0), (9.825, 34.86), (0.3, 34.78), (0.3, 34.57), (3.455, 34.78), (3.455, 34.6), (3.455, 34.86), (3.455, 34.72), (9.825, 34.86), (9.825, 34.72)]</t>
+          <t>[(0.3, 35.0), (0.3, 34.78), (3.455, 35.09535740993478), (3.455, 34.87535740993478), (3.455, 35.09535740993478), (3.455, 34.95535740993478), (9.825, 35.28788568292513), (9.825, 35.14788568292513), (0.3, 34.78), (0.3, 34.57), (3.455, 34.87535740993478), (3.455, 34.69535740993478), (3.455, 34.95535740993478), (3.455, 34.81535740993478), (9.825, 35.14788568292513), (9.825, 35.00788568292513)]</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[(0.3, 36.0), (0.3, 35.78), (3.501, 36.0), (3.501, 35.78), (3.501, 36.0), (3.501, 35.76), (9.912, 36.0), (9.912, 35.76), (0.3, 35.78), (0.3, 35.57), (3.501, 35.78), (3.501, 35.6), (3.501, 35.76), (3.501, 35.6), (9.912, 35.76), (9.912, 35.52)]</t>
+          <t>[(0.3, 36.0), (0.3, 35.78), (3.501, 36.0630018903962), (3.501, 35.8430018903962), (3.501, 36.0630018903962), (3.501, 35.8230018903962), (9.912, 36.18918280864989), (9.912, 35.94918280864989), (0.3, 35.78), (0.3, 35.57), (3.501, 35.8430018903962), (3.501, 35.6630018903962), (3.501, 35.8230018903962), (3.501, 35.6630018903962), (9.912, 35.94918280864989), (9.912, 35.70918280864989)]</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[(0.3, 37.0), (0.3, 36.78), (3.543, 37.0), (3.543, 36.78), (3.543, 37.0), (3.543, 36.82), (10.008, 37.0), (10.008, 36.82), (0.3, 36.78), (0.3, 36.56), (3.543, 36.78), (3.543, 36.65), (3.543, 36.82), (3.543, 36.65), (10.008, 36.82), (10.008, 36.69)]</t>
+          <t>[(0.3, 37.0), (0.3, 36.78), (3.543, 36.98275353188217), (3.543, 36.76275353188217), (3.543, 36.98275353188217), (3.543, 36.80275353188217), (10.008, 36.94837227490352), (10.008, 36.76837227490352), (0.3, 36.78), (0.3, 36.56), (3.543, 36.76275353188217), (3.543, 36.632753531882166), (3.543, 36.80275353188217), (3.543, 36.632753531882166), (10.008, 36.76837227490352), (10.008, 36.63837227490352)]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[(0.3, 39.0), (0.3, 38.79), (3.576, 39.0), (3.576, 38.79), (3.576, 39.0), (3.576, 38.89), (10.09, 39.0), (10.09, 38.89), (0.3, 38.79), (0.3, 38.49), (3.576, 38.79), (3.576, 38.64), (3.576, 38.89), (3.576, 38.64), (10.09, 38.89), (10.09, 38.72)]</t>
+          <t>[(0.3, 39.0), (0.3, 38.79), (3.576, 38.9181), (3.576, 38.7081), (3.576, 38.9181), (3.576, 38.8081), (10.09, 38.75525), (10.09, 38.64525), (0.3, 38.79), (0.3, 38.49), (3.576, 38.7081), (3.576, 38.5581), (3.576, 38.8081), (3.576, 38.5581), (10.09, 38.64525), (10.09, 38.475249999999996)]</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[(0.3, 40.0), (0.3, 39.74), (3.615, 40.0), (3.615, 39.74), (3.615, 40.0), (3.615, 39.81), (10.036, 40.0), (10.036, 39.81), (0.3, 39.74), (0.3, 39.48), (3.615, 39.74), (3.615, 39.63), (3.615, 39.81), (3.615, 39.63), (10.036, 39.81), (10.036, 39.7)]</t>
+          <t>[(0.3, 40.0), (0.3, 39.74), (3.615, 39.917125), (3.615, 39.657125), (3.615, 39.917125), (3.615, 39.727125), (10.036, 39.7566), (10.036, 39.5666), (0.3, 39.74), (0.3, 39.48), (3.615, 39.657125), (3.615, 39.547125), (3.615, 39.727125), (3.615, 39.547125), (10.036, 39.5666), (10.036, 39.4566)]</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[(0.3, 41.0), (0.3, 40.74), (3.594, 41.0), (3.594, 40.74), (3.594, 41.0), (3.594, 40.81), (10.071, 41.0), (10.071, 40.81), (0.3, 40.74), (0.3, 40.44), (3.594, 40.74), (3.594, 40.63), (3.594, 40.81), (3.594, 40.63), (10.071, 40.81), (10.071, 40.7)]</t>
+          <t>[(0.3, 41.0), (0.3, 40.74), (3.594, 40.91765), (3.594, 40.657650000000004), (3.594, 40.91765), (3.594, 40.727650000000004), (10.071, 40.755725), (10.071, 40.565725), (0.3, 40.74), (0.3, 40.44), (3.594, 40.657650000000004), (3.594, 40.547650000000004), (3.594, 40.727650000000004), (3.594, 40.547650000000004), (10.071, 40.565725), (10.071, 40.455725)]</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[(0.3, 42.0), (0.3, 41.76), (3.573, 42.0), (3.573, 41.76), (3.573, 42.0), (3.573, 41.81), (10.032, 42.0), (10.032, 41.81), (0.3, 41.76), (0.3, 41.46), (3.573, 41.76), (3.573, 41.63), (3.573, 41.81), (3.573, 41.63), (10.032, 41.81), (10.032, 41.69)]</t>
+          <t>[(0.3, 42.0), (0.3, 41.76), (3.573, 41.918175), (3.573, 41.678174999999996), (3.573, 41.918175), (3.573, 41.728175), (10.032, 41.7567), (10.032, 41.566700000000004), (0.3, 41.76), (0.3, 41.46), (3.573, 41.678174999999996), (3.573, 41.548175), (3.573, 41.728175), (3.573, 41.548175), (10.032, 41.566700000000004), (10.032, 41.4467)]</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[(0.3, 43.0), (0.3, 42.73), (3.565, 43.0), (3.565, 42.73), (3.565, 43.0), (3.565, 42.89), (10.038, 43.0), (10.038, 42.89), (0.3, 42.73), (0.3, 42.47), (3.565, 42.73), (3.565, 42.6), (3.565, 42.89), (3.565, 42.6), (10.038, 42.89), (10.038, 42.7)]</t>
+          <t>[(0.3, 43.0), (0.3, 42.73), (3.565, 42.918375), (3.565, 42.648374999999994), (3.565, 42.918375), (3.565, 42.808375), (10.038, 42.75655), (10.038, 42.64655), (0.3, 42.73), (0.3, 42.47), (3.565, 42.648374999999994), (3.565, 42.518375), (3.565, 42.808375), (3.565, 42.518375), (10.038, 42.64655), (10.038, 42.45655)]</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[(0.3, 44.0), (0.3, 43.73), (3.569, 44.0), (3.569, 43.73), (3.569, 44.0), (3.569, 43.8), (10.025, 44.0), (10.025, 43.8), (0.3, 43.73), (0.3, 43.46), (3.569, 43.73), (3.569, 43.6), (3.569, 43.8), (3.569, 43.6), (10.025, 43.8), (10.025, 43.67)]</t>
+          <t>[(0.3, 44.0), (0.3, 43.73), (3.569, 43.918275), (3.569, 43.648275), (3.569, 43.918275), (3.569, 43.718275), (10.025, 43.756875), (10.025, 43.556875), (0.3, 43.73), (0.3, 43.46), (3.569, 43.648275), (3.569, 43.518275), (3.569, 43.718275), (3.569, 43.518275), (10.025, 43.556875), (10.025, 43.426875)]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[(0.3, 45.0), (0.3, 44.71), (3.578, 45.0), (3.578, 44.71), (3.578, 45.0), (3.578, 44.79), (10.008, 45.0), (10.008, 44.79), (0.3, 44.71), (0.3, 44.43), (3.578, 44.71), (3.578, 44.58), (3.578, 44.79), (3.578, 44.58), (10.008, 44.79), (10.008, 44.64)]</t>
+          <t>[(0.3, 45.0), (0.3, 44.71), (3.578, 44.91805), (3.578, 44.62805), (3.578, 44.91805), (3.578, 44.70805), (10.008, 44.7573), (10.008, 44.5473), (0.3, 44.71), (0.3, 44.43), (3.578, 44.62805), (3.578, 44.49805), (3.578, 44.70805), (3.578, 44.49805), (10.008, 44.5473), (10.008, 44.3973)]</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[(0.3, 46.0), (0.3, 45.7), (3.588, 46.0), (3.588, 45.7), (3.588, 46.0), (3.588, 45.79), (10.079, 46.0), (10.079, 45.79), (0.3, 45.7), (0.3, 45.41), (3.588, 45.7), (3.588, 45.59), (3.588, 45.79), (3.588, 45.59), (10.079, 45.79), (10.079, 45.65)]</t>
+          <t>[(0.3, 46.0), (0.3, 45.7), (3.588, 45.9178), (3.588, 45.6178), (3.588, 45.9178), (3.588, 45.7078), (10.079, 45.755525), (10.079, 45.545525), (0.3, 45.7), (0.3, 45.41), (3.588, 45.6178), (3.588, 45.5078), (3.588, 45.7078), (3.588, 45.5078), (10.079, 45.545525), (10.079, 45.405525)]</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[(0.3, 47.0), (0.3, 46.72), (3.69, 47.0), (3.69, 46.72), (3.69, 47.0), (3.69, 46.8), (10.075, 47.0), (10.075, 46.8), (0.3, 46.72), (0.3, 46.44), (3.69, 46.72), (3.69, 46.61), (3.69, 46.8), (3.69, 46.61), (10.075, 46.8), (10.075, 46.64)]</t>
+          <t>[(0.3, 47.0), (0.3, 46.72), (3.69, 46.91525), (3.69, 46.63525), (3.69, 46.91525), (3.69, 46.71525), (10.075, 46.755625), (10.075, 46.555625), (0.3, 46.72), (0.3, 46.44), (3.69, 46.63525), (3.69, 46.52525), (3.69, 46.71525), (3.69, 46.52525), (10.075, 46.555625), (10.075, 46.395625)]</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[(0.3, 48.0), (0.3, 47.71), (3.68, 48.0), (3.68, 47.71), (3.68, 48.0), (3.68, 47.79), (10.077, 48.0), (10.077, 47.79), (0.3, 47.71), (0.3, 47.42), (3.68, 47.71), (3.68, 47.59), (3.68, 47.79), (3.68, 47.59), (10.077, 47.79), (10.077, 47.62)]</t>
+          <t>[(0.3, 48.0), (0.3, 47.71), (3.68, 47.9155), (3.68, 47.6255), (3.68, 47.9155), (3.68, 47.7055), (10.077, 47.755575), (10.077, 47.545575), (0.3, 47.71), (0.3, 47.42), (3.68, 47.6255), (3.68, 47.505500000000005), (3.68, 47.7055), (3.68, 47.505500000000005), (10.077, 47.545575), (10.077, 47.375575)]</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[(0.3, 49.0), (0.3, 48.71), (3.677, 49.0), (3.677, 48.71), (3.677, 49.0), (3.677, 48.79), (10.098, 49.0), (10.098, 48.79), (0.3, 48.71), (0.3, 48.43), (3.677, 48.71), (3.677, 48.58), (3.677, 48.79), (3.677, 48.58), (10.098, 48.79), (10.098, 48.63)]</t>
+          <t>[(0.3, 49.0), (0.3, 48.71), (3.677, 48.915575), (3.677, 48.625575), (3.677, 48.915575), (3.677, 48.705574999999996), (10.098, 48.75505), (10.098, 48.545049999999996), (0.3, 48.71), (0.3, 48.43), (3.677, 48.625575), (3.677, 48.495574999999995), (3.677, 48.705574999999996), (3.677, 48.495574999999995), (10.098, 48.545049999999996), (10.098, 48.38505)]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[(0.3, 50.0), (0.3, 49.71), (3.71, 50.0), (3.71, 49.71), (3.71, 50.0), (3.71, 49.79), (10.163, 50.0), (10.163, 49.79), (0.3, 49.71), (0.3, 49.42), (3.71, 49.71), (3.71, 49.58), (3.71, 49.79), (3.71, 49.58), (10.163, 49.79), (10.163, 49.61)]</t>
+          <t>[(0.3, 50.0), (0.3, 49.71), (3.71, 49.91475), (3.71, 49.62475), (3.71, 49.91475), (3.71, 49.70475), (10.163, 49.753425), (10.163, 49.543425), (0.3, 49.71), (0.3, 49.42), (3.71, 49.62475), (3.71, 49.494749999999996), (3.71, 49.70475), (3.71, 49.494749999999996), (10.163, 49.543425), (10.163, 49.363425)]</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[(0.3, 51.0), (0.3, 50.71), (3.725, 51.0), (3.725, 50.71), (3.725, 51.0), (3.725, 50.78), (10.161, 51.0), (10.161, 50.78), (0.3, 50.71), (0.3, 50.42), (3.725, 50.71), (3.725, 50.57), (3.725, 50.78), (3.725, 50.57), (10.161, 50.78), (10.161, 50.63)]</t>
+          <t>[(0.3, 51.0), (0.3, 50.71), (3.725, 50.914375), (3.725, 50.624375), (3.725, 50.914375), (3.725, 50.694375), (10.161, 50.753475), (10.161, 50.533475), (0.3, 50.71), (0.3, 50.42), (3.725, 50.624375), (3.725, 50.484375), (3.725, 50.694375), (3.725, 50.484375), (10.161, 50.533475), (10.161, 50.383475000000004)]</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[(0.3, 52.0), (0.3, 51.7), (3.678, 52.0), (3.678, 51.7), (3.678, 52.0), (3.678, 51.79), (10.155, 52.0), (10.155, 51.79), (0.3, 51.7), (0.3, 51.41), (3.678, 51.7), (3.678, 51.59), (3.678, 51.79), (3.678, 51.59), (10.155, 51.79), (10.155, 51.67)]</t>
+          <t>[(0.3, 52.0), (0.3, 51.7), (3.678, 51.91555), (3.678, 51.615550000000006), (3.678, 51.91555), (3.678, 51.70555), (10.155, 51.753625), (10.155, 51.543625), (0.3, 51.7), (0.3, 51.41), (3.678, 51.615550000000006), (3.678, 51.50555000000001), (3.678, 51.70555), (3.678, 51.50555000000001), (10.155, 51.543625), (10.155, 51.423625)]</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[(0.3, 53.0), (0.3, 52.72), (3.669, 53.0), (3.669, 52.72), (3.669, 53.0), (3.669, 52.78), (10.171, 53.0), (10.171, 52.78), (0.3, 52.72), (0.3, 52.44), (3.669, 52.72), (3.669, 52.57), (3.669, 52.78), (3.669, 52.57), (10.171, 52.78), (10.171, 52.65)]</t>
+          <t>[(0.3, 53.0), (0.3, 52.72), (3.669, 52.915775), (3.669, 52.635774999999995), (3.669, 52.915775), (3.669, 52.695775), (10.171, 52.753225), (10.171, 52.533225), (0.3, 52.72), (0.3, 52.44), (3.669, 52.635774999999995), (3.669, 52.485775), (3.669, 52.695775), (3.669, 52.485775), (10.171, 52.533225), (10.171, 52.403225)]</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[(0.3, 54.0), (0.3, 53.72), (3.737, 54.0), (3.737, 53.72), (3.737, 54.0), (3.737, 53.79), (10.21, 54.0), (10.21, 53.79), (0.3, 53.72), (0.3, 53.45), (3.737, 53.72), (3.737, 53.59), (3.737, 53.79), (3.737, 53.59), (10.21, 53.79), (10.21, 53.67)]</t>
+          <t>[(0.3, 54.0), (0.3, 53.72), (3.737, 53.914075), (3.737, 53.634074999999996), (3.737, 53.914075), (3.737, 53.704074999999996), (10.21, 53.75225), (10.21, 53.542249999999996), (0.3, 53.72), (0.3, 53.45), (3.737, 53.634074999999996), (3.737, 53.504075), (3.737, 53.704074999999996), (3.737, 53.504075), (10.21, 53.542249999999996), (10.21, 53.42225)]</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[(0.3, 55.0), (0.3, 54.72), (3.764, 55.0), (3.764, 54.72), (3.764, 55.0), (3.764, 54.79), (10.263, 55.0), (10.263, 54.79), (0.3, 54.72), (0.3, 54.45), (3.764, 54.72), (3.764, 54.59), (3.764, 54.79), (3.764, 54.59), (10.263, 54.79), (10.263, 54.65)]</t>
+          <t>[(0.3, 55.0), (0.3, 54.72), (3.764, 54.9134), (3.764, 54.6334), (3.764, 54.9134), (3.764, 54.7034), (10.263, 54.750925), (10.263, 54.540925), (0.3, 54.72), (0.3, 54.45), (3.764, 54.6334), (3.764, 54.503400000000006), (3.764, 54.7034), (3.764, 54.503400000000006), (10.263, 54.540925), (10.263, 54.400925)]</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[(0.3, 56.0), (0.3, 55.73), (3.701, 56.0), (3.701, 55.73), (3.701, 56.0), (3.701, 55.81), (10.257, 56.0), (10.257, 55.81), (0.3, 55.73), (0.3, 55.46), (3.701, 55.73), (3.701, 55.62), (3.701, 55.81), (3.701, 55.62), (10.257, 55.81), (10.257, 55.67)]</t>
+          <t>[(0.3, 56.0), (0.3, 55.73), (3.701, 55.914975), (3.701, 55.644974999999995), (3.701, 55.914975), (3.701, 55.724975), (10.257, 55.751075), (10.257, 55.561075), (0.3, 55.73), (0.3, 55.46), (3.701, 55.644974999999995), (3.701, 55.534974999999996), (3.701, 55.724975), (3.701, 55.534974999999996), (10.257, 55.561075), (10.257, 55.421075)]</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[(0.3, 57.0), (0.3, 56.8), (3.712, 57.0), (3.712, 56.8), (3.712, 57.0), (3.712, 56.82), (10.244, 57.0), (10.244, 56.82), (0.3, 56.8), (0.3, 56.5), (3.712, 56.8), (3.712, 56.65), (3.712, 56.82), (3.712, 56.65), (10.244, 56.82), (10.244, 56.7)]</t>
+          <t>[(0.3, 57.0), (0.3, 56.8), (3.712, 56.9147), (3.712, 56.7147), (3.712, 56.9147), (3.712, 56.734700000000004), (10.244, 56.7514), (10.244, 56.5714), (0.3, 56.8), (0.3, 56.5), (3.712, 56.7147), (3.712, 56.5647), (3.712, 56.734700000000004), (3.712, 56.5647), (10.244, 56.5714), (10.244, 56.4514)]</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[(0.3, 58.0), (0.3, 57.8), (3.798, 58.0), (3.798, 57.8), (3.798, 58.0), (3.798, 57.89), (10.267, 58.0), (10.267, 57.89), (0.3, 57.8), (0.3, 57.5), (3.798, 57.8), (3.798, 57.65), (3.798, 57.89), (3.798, 57.65), (10.267, 57.89), (10.267, 57.72)]</t>
+          <t>[(0.3, 58.0), (0.3, 57.8), (3.798, 57.91255), (3.798, 57.71255), (3.798, 57.91255), (3.798, 57.802550000000004), (10.267, 57.750825), (10.267, 57.640825), (0.3, 57.8), (0.3, 57.5), (3.798, 57.71255), (3.798, 57.56255), (3.798, 57.802550000000004), (3.798, 57.56255), (10.267, 57.640825), (10.267, 57.470825)]</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[(0.3, 74.0), (0.3, 73.86), (6.342, 74.0), (6.342, 73.86), (6.342, 74.0), (6.342, 73.74), (9.862, 74.0), (9.862, 73.74), (0.3, 73.86), (0.3, 73.72), (6.342, 73.86), (6.342, 73.72), (6.342, 73.74), (6.342, 73.6), (9.862, 73.74), (9.862, 73.49), (0.3, 73.72), (0.3, 73.59), (6.342, 73.72), (6.342, 73.6), (6.342, 73.6), (6.342, 73.6), (9.862, 73.49), (9.862, 73.49)]</t>
+          <t>[(0.3, 74.0), (0.3, 73.86), (6.342, 74.03251785948872), (6.342, 73.89251785948872), (6.342, 74.03251785948872), (6.342, 73.77251785948872), (9.862, 74.05146239199456), (9.862, 73.79146239199456), (0.3, 73.86), (0.3, 73.72), (6.342, 73.89251785948872), (6.342, 73.75251785948872), (6.342, 73.77251785948872), (6.342, 73.63251785948871), (9.862, 73.79146239199456), (9.862, 73.54146239199456), (0.3, 73.72), (0.3, 73.59), (6.342, 73.75251785948872), (6.342, 73.63251785948871), (6.342, 73.63251785948871), (6.342, 73.63251785948871), (9.862, 73.54146239199456), (9.862, 73.54146239199456)]</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[(0.3, 75.0), (0.3, 74.77), (6.655, 75.0), (6.655, 74.77), (6.655, 75.0), (6.655, 74.78), (10.118, 75.0), (10.118, 74.69), (0.3, 74.77), (0.3, 74.65), (6.655, 74.77), (6.655, 74.55), (6.655, 74.78), (6.655, 74.56), (10.118, 74.69), (10.118, 74.38)]</t>
+          <t>[(0.3, 75.0), (0.3, 74.77), (6.655, 75.16581809043385), (6.655, 74.93581809043384), (6.655, 75.16581809043385), (6.655, 74.94581809043385), (10.118, 75.25617655576389), (10.118, 74.94617655576388), (0.3, 74.77), (0.3, 74.65), (6.655, 74.93581809043384), (6.655, 74.71581809043384), (6.655, 74.94581809043385), (6.655, 74.72581809043385), (10.118, 74.94617655576388), (10.118, 74.63617655576388)]</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[(0.3, 76.0), (0.3, 75.86), (6.902, 76.0), (6.902, 75.86), (6.902, 76.0), (6.902, 75.78), (10.384, 76.0), (10.384, 75.68), (0.3, 75.86), (0.3, 75.71), (6.902, 75.86), (6.902, 75.56), (6.902, 75.78), (6.902, 75.56), (10.384, 75.68), (10.384, 75.36)]</t>
+          <t>[(0.3, 76.0), (0.3, 75.86), (6.902, 76.20576809776463), (6.902, 76.06576809776463), (6.902, 76.20576809776463), (6.902, 75.98576809776463), (10.384, 76.3142934713509), (10.384, 75.9942934713509), (0.3, 75.86), (0.3, 75.71), (6.902, 76.06576809776463), (6.902, 75.76576809776464), (6.902, 75.98576809776463), (6.902, 75.76576809776464), (10.384, 75.9942934713509), (10.384, 75.6742934713509)]</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[(0.3, 77.0), (0.3, 76.89), (7.115, 77.0), (7.115, 76.89), (7.115, 77.0), (7.115, 76.7), (10.582, 77.0), (10.582, 76.7), (0.3, 76.89), (0.3, 76.74), (7.115, 76.89), (7.115, 76.59), (7.115, 76.7), (7.115, 76.59), (10.582, 76.7), (10.582, 76.41)]</t>
+          <t>[(0.3, 77.0), (0.3, 76.89), (7.115, 77.2469929087422), (7.115, 77.1369929087422), (7.115, 77.2469929087422), (7.115, 76.9469929087422), (10.582, 77.37264579423146), (10.582, 77.07264579423146), (0.3, 76.89), (0.3, 76.74), (7.115, 77.1369929087422), (7.115, 76.8369929087422), (7.115, 76.9469929087422), (7.115, 76.8369929087422), (10.582, 77.07264579423146), (10.582, 76.78264579423146)]</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[(0.3, 109.0), (0.3, 108.89), (6.177, 109.0), (6.177, 108.89), (6.177, 109.0), (6.177, 108.85), (9.632, 109.0), (9.632, 108.85), (0.3, 108.89), (0.3, 108.6), (6.177, 108.89), (6.177, 108.72), (6.177, 108.85), (6.177, 108.72), (9.632, 108.85), (9.632, 108.74)]</t>
+          <t>[(0.3, 109.0), (0.3, 108.89), (6.177, 108.853075), (6.177, 108.743075), (6.177, 108.853075), (6.177, 108.703075), (9.632, 108.7667), (9.632, 108.6167), (0.3, 108.89), (0.3, 108.6), (6.177, 108.743075), (6.177, 108.573075), (6.177, 108.703075), (6.177, 108.573075), (9.632, 108.6167), (9.632, 108.5067)]</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[(0.3, 110.0), (0.3, 109.81), (6.137, 110.0), (6.137, 109.81), (6.137, 110.0), (6.137, 109.88), (9.692, 110.0), (9.692, 109.88), (0.3, 109.81), (0.3, 109.63), (6.137, 109.81), (6.137, 109.65), (6.137, 109.88), (6.137, 109.76), (9.692, 109.88), (9.692, 109.76)]</t>
+          <t>[(0.3, 110.0), (0.3, 109.81), (6.137, 109.854075), (6.137, 109.664075), (6.137, 109.854075), (6.137, 109.73407499999999), (9.692, 109.7652), (9.692, 109.64519999999999), (0.3, 109.81), (0.3, 109.63), (6.137, 109.664075), (6.137, 109.504075), (6.137, 109.73407499999999), (6.137, 109.614075), (9.692, 109.64519999999999), (9.692, 109.5252)]</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[(0.3, 111.0), (0.3, 110.82), (6.312, 111.0), (6.312, 110.82), (6.312, 111.0), (6.312, 110.83), (9.813, 111.0), (9.813, 110.83), (0.3, 110.82), (0.3, 110.65), (6.312, 110.82), (6.312, 110.68), (6.312, 110.83), (6.312, 110.68), (9.813, 110.83), (9.813, 110.66)]</t>
+          <t>[(0.3, 111.0), (0.3, 110.82), (6.312, 110.82593141403939), (6.312, 110.64593141403938), (6.312, 110.82593141403939), (6.312, 110.65593141403939), (9.813, 110.72456512670604), (9.813, 110.55456512670604), (0.3, 110.82), (0.3, 110.65), (6.312, 110.64593141403938), (6.312, 110.5059314140394), (6.312, 110.65593141403939), (6.312, 110.5059314140394), (9.813, 110.55456512670604), (9.813, 110.38456512670604)]</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[(0.3, 112.0), (0.3, 111.81), (6.418, 112.0), (6.418, 111.81), (6.418, 112.0), (6.418, 111.82), (9.979, 112.0), (9.979, 111.82), (0.3, 111.81), (0.3, 111.62), (6.418, 111.81), (6.418, 111.65), (6.418, 111.82), (6.418, 111.65), (9.979, 111.82), (9.979, 111.64)]</t>
+          <t>[(0.3, 112.0), (0.3, 111.81), (6.418, 111.79769728581367), (6.418, 111.60769728581367), (6.418, 111.79769728581367), (6.418, 111.61769728581366), (9.979, 111.67994639251233), (9.979, 111.49994639251233), (0.3, 111.81), (0.3, 111.62), (6.418, 111.60769728581367), (6.418, 111.44769728581367), (6.418, 111.61769728581366), (6.418, 111.44769728581367), (9.979, 111.49994639251233), (9.979, 111.31994639251234)]</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[(0.3, 113.0), (0.3, 112.78), (6.512, 113.0), (6.512, 112.78), (6.512, 113.0), (6.512, 112.82), (10.147, 113.0), (10.147, 112.82), (0.3, 112.78), (0.3, 112.56), (6.512, 112.78), (6.512, 112.65), (6.512, 112.82), (6.512, 112.65), (10.147, 112.82), (10.147, 112.64)]</t>
+          <t>[(0.3, 113.0), (0.3, 112.78), (6.512, 112.76903730300029), (6.512, 112.54903730300029), (6.512, 112.76903730300029), (6.512, 112.58903730300028), (10.147, 112.63388768877073), (10.147, 112.45388768877072), (0.3, 112.78), (0.3, 112.56), (6.512, 112.54903730300029), (6.512, 112.4190373030003), (6.512, 112.58903730300028), (6.512, 112.4190373030003), (10.147, 112.45388768877072), (10.147, 112.27388768877073)]</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[(0.3, 114.0), (0.3, 113.79), (6.414, 114.0), (6.414, 113.79), (6.414, 114.0), (6.414, 113.82), (10.269, 114.0), (10.269, 113.82), (0.3, 113.79), (0.3, 113.59), (6.414, 113.79), (6.414, 113.64), (6.414, 113.82), (6.414, 113.64), (10.269, 113.82), (10.269, 113.65)]</t>
+          <t>[(0.3, 114.0), (0.3, 113.79), (6.414, 113.74753234990945), (6.414, 113.53753234990945), (6.414, 113.74753234990945), (6.414, 113.56753234990944), (10.269, 113.58834641744313), (10.269, 113.40834641744313), (0.3, 113.79), (0.3, 113.59), (6.414, 113.53753234990945), (6.414, 113.38753234990945), (6.414, 113.56753234990944), (6.414, 113.38753234990945), (10.269, 113.40834641744313), (10.269, 113.23834641744314)]</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[(0.3, 115.0), (0.3, 114.79), (6.03, 115.0), (6.03, 114.79), (6.03, 115.0), (6.03, 114.81), (10.434, 115.0), (10.434, 114.81), (0.3, 114.79), (0.3, 114.58), (6.03, 114.79), (6.03, 114.63), (6.03, 114.81), (6.03, 114.63), (10.434, 114.81), (10.434, 114.65)]</t>
+          <t>[(0.3, 115.0), (0.3, 114.79), (6.03, 114.73981990154203), (6.03, 114.52981990154204), (6.03, 114.73981990154203), (6.03, 114.54981990154204), (10.434, 114.53984901958586), (10.434, 114.34984901958586), (0.3, 114.79), (0.3, 114.58), (6.03, 114.52981990154204), (6.03, 114.36981990154203), (6.03, 114.54981990154204), (6.03, 114.36981990154203), (10.434, 114.34984901958586), (10.434, 114.18984901958586)]</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[(0.3, 116.0), (0.3, 115.79), (5.667, 116.0), (5.667, 115.79), (5.667, 116.0), (5.667, 115.87), (10.642, 116.0), (10.642, 115.87), (0.3, 115.79), (0.3, 115.58), (5.667, 115.79), (5.667, 115.62), (5.667, 115.87), (5.667, 115.74), (10.642, 115.87), (10.642, 115.74)]</t>
+          <t>[(0.3, 116.0), (0.3, 115.79), (5.667, 115.73422653464053), (5.667, 115.52422653464053), (5.667, 115.73422653464053), (5.667, 115.60422653464053), (10.642, 115.4878648819177), (10.642, 115.3578648819177), (0.3, 115.79), (0.3, 115.58), (5.667, 115.52422653464053), (5.667, 115.35422653464053), (5.667, 115.60422653464053), (5.667, 115.47422653464052), (10.642, 115.3578648819177), (10.642, 115.2278648819177)]</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[(0.3, 117.0), (0.3, 116.78), (5.54, 117.0), (5.54, 116.78), (5.54, 117.0), (5.54, 116.81), (10.72, 117.0), (10.72, 116.81), (0.3, 116.78), (0.3, 116.57), (5.54, 116.78), (5.54, 116.63), (5.54, 116.81), (5.54, 116.63), (10.72, 116.81), (10.72, 116.68)]</t>
+          <t>[(0.3, 117.0), (0.3, 116.78), (5.54, 116.71896197202535), (5.54, 116.49896197202536), (5.54, 116.71896197202535), (5.54, 116.52896197202536), (10.72, 116.44114193673744), (10.72, 116.25114193673744), (0.3, 116.78), (0.3, 116.57), (5.54, 116.49896197202536), (5.54, 116.34896197202535), (5.54, 116.52896197202536), (5.54, 116.34896197202535), (10.72, 116.25114193673744), (10.72, 116.12114193673744)]</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[(0.3, 118.0), (0.3, 117.79), (5.261, 118.0), (5.261, 117.79), (5.261, 118.0), (5.261, 117.82), (10.975, 118.0), (10.975, 117.82), (0.3, 117.79), (0.3, 117.59), (5.261, 117.79), (5.261, 117.64), (5.261, 117.82), (5.261, 117.64), (10.975, 117.82), (10.975, 117.69)]</t>
+          <t>[(0.3, 118.0), (0.3, 117.79), (5.261, 117.7135196497374), (5.261, 117.50351964973741), (5.261, 117.7135196497374), (5.261, 117.5335196497374), (10.975, 117.38355619047508), (10.975, 117.20355619047507), (0.3, 117.79), (0.3, 117.59), (5.261, 117.50351964973741), (5.261, 117.35351964973741), (5.261, 117.5335196497374), (5.261, 117.35351964973741), (10.975, 117.20355619047507), (10.975, 117.07355619047507)]</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[(0.3, 119.0), (0.3, 118.78), (4.898, 119.0), (4.898, 118.78), (4.898, 119.0), (4.898, 118.89), (11.175, 119.0), (11.175, 118.89), (0.3, 118.78), (0.3, 118.56), (4.898, 118.78), (4.898, 118.65), (4.898, 118.89), (4.898, 118.65), (11.175, 118.89), (11.175, 118.73)]</t>
+          <t>[(0.3, 119.0), (0.3, 118.78), (4.898, 118.7155687593984), (4.898, 118.4955687593984), (4.898, 118.7155687593984), (4.898, 118.6055687593984), (11.175, 118.32727495834222), (11.175, 118.21727495834222), (0.3, 118.78), (0.3, 118.56), (4.898, 118.4955687593984), (4.898, 118.3655687593984), (4.898, 118.6055687593984), (4.898, 118.3655687593984), (11.175, 118.21727495834222), (11.175, 118.05727495834222)]</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[(0.3, 124.0), (0.3, 123.75), (5.796, 124.0), (5.796, 123.75), (5.796, 124.0), (5.796, 123.89), (12.216, 124.0), (12.216, 123.89), (0.3, 123.75), (0.3, 123.51), (5.796, 123.75), (5.796, 123.62), (5.796, 123.89), (5.796, 123.62), (12.216, 123.89), (12.216, 123.75)]</t>
+          <t>[(0.3, 124.0), (0.3, 123.75), (5.796, 123.61528), (5.796, 123.36528), (5.796, 123.61528), (5.796, 123.50528), (12.216, 123.16588), (12.216, 123.05588), (0.3, 123.75), (0.3, 123.51), (5.796, 123.36528), (5.796, 123.23528), (5.796, 123.50528), (5.796, 123.23528), (12.216, 123.05588), (12.216, 122.91588)]</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[(0.3, 126.0), (0.3, 125.75), (6.036, 126.0), (6.036, 125.75), (6.036, 126.0), (6.036, 125.89), (12.476, 126.0), (12.476, 125.89), (0.3, 125.75), (0.3, 125.51), (6.036, 125.75), (6.036, 125.61), (6.036, 125.89), (6.036, 125.61), (12.476, 125.89), (12.476, 125.75)]</t>
+          <t>[(0.3, 126.0), (0.3, 125.75), (6.036, 125.59848), (6.036, 125.34848), (6.036, 125.59848), (6.036, 125.48848), (12.476, 125.14768), (12.476, 125.03768), (0.3, 125.75), (0.3, 125.51), (6.036, 125.34848), (6.036, 125.20848), (6.036, 125.48848), (6.036, 125.20848), (12.476, 125.03768), (12.476, 124.89768)]</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[(0.3, 128.0), (0.3, 127.75), (6.07, 128.0), (6.07, 127.75), (6.07, 128.0), (6.07, 127.89), (12.456, 128.0), (12.456, 127.89), (0.3, 127.75), (0.3, 127.5), (6.07, 127.75), (6.07, 127.62), (6.07, 127.89), (6.07, 127.62), (12.456, 127.89), (12.456, 127.73)]</t>
+          <t>[(0.3, 128.0), (0.3, 127.75), (6.07, 127.5961), (6.07, 127.3461), (6.07, 127.5961), (6.07, 127.48610000000001), (12.456, 127.14908), (12.456, 127.03908), (0.3, 127.75), (0.3, 127.5), (6.07, 127.3461), (6.07, 127.21610000000001), (6.07, 127.48610000000001), (6.07, 127.21610000000001), (12.456, 127.03908), (12.456, 126.87908)]</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[(0.3, 129.0), (0.3, 128.74), (5.914, 129.0), (5.914, 128.74), (5.914, 129.0), (5.914, 128.89), (12.388, 129.0), (12.388, 128.89), (0.3, 128.74), (0.3, 128.48), (5.914, 128.74), (5.914, 128.61), (5.914, 128.89), (5.914, 128.61), (12.388, 128.89), (12.388, 128.72)]</t>
+          <t>[(0.3, 129.0), (0.3, 128.74), (5.914, 128.60702), (5.914, 128.34702000000001), (5.914, 128.60702), (5.914, 128.49702), (12.388, 128.15384), (12.388, 128.04384), (0.3, 128.74), (0.3, 128.48), (5.914, 128.34702000000001), (5.914, 128.21702000000002), (5.914, 128.49702), (5.914, 128.21702000000002), (12.388, 128.04384), (12.388, 127.87384)]</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[(0.3, 130.0), (0.3, 129.73), (5.846, 130.0), (5.846, 129.73), (5.846, 130.0), (5.846, 129.89), (12.252, 130.0), (12.252, 129.89), (0.3, 129.73), (0.3, 129.47), (5.846, 129.73), (5.846, 129.59), (5.846, 129.89), (5.846, 129.59), (12.252, 129.89), (12.252, 129.7)]</t>
+          <t>[(0.3, 130.0), (0.3, 129.73), (5.846, 129.61178), (5.846, 129.34178), (5.846, 129.61178), (5.846, 129.50178), (12.252, 129.16336), (12.252, 129.05336), (0.3, 129.73), (0.3, 129.47), (5.846, 129.34178), (5.846, 129.20178), (5.846, 129.50178), (5.846, 129.20178), (12.252, 129.05336), (12.252, 128.86336)]</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[(0.3, 131.0), (0.3, 130.74), (5.814, 131.0), (5.814, 130.74), (5.814, 131.0), (5.814, 130.89), (12.193, 131.0), (12.193, 130.89), (0.3, 130.74), (0.3, 130.49), (5.814, 130.74), (5.814, 130.6), (5.814, 130.89), (5.814, 130.6), (12.193, 130.89), (12.193, 130.73)]</t>
+          <t>[(0.3, 131.0), (0.3, 130.74), (5.814, 130.61402), (5.814, 130.35402000000002), (5.814, 130.61402), (5.814, 130.50402), (12.193, 130.16749), (12.193, 130.05748999999997), (0.3, 130.74), (0.3, 130.49), (5.814, 130.35402000000002), (5.814, 130.21402), (5.814, 130.50402), (5.814, 130.21402), (12.193, 130.05748999999997), (12.193, 129.89748999999998)]</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[(0.3, 132.0), (0.3, 131.73), (5.726, 132.0), (5.726, 131.73), (5.726, 132.0), (5.726, 131.88), (12.123, 132.0), (12.123, 131.88), (0.3, 131.73), (0.3, 131.46), (5.726, 131.73), (5.726, 131.58), (5.726, 131.88), (5.726, 131.58), (12.123, 131.88), (12.123, 131.7)]</t>
+          <t>[(0.3, 132.0), (0.3, 131.73), (5.726, 131.62018), (5.726, 131.35018), (5.726, 131.62018), (5.726, 131.50018), (12.123, 131.17239), (12.123, 131.05239), (0.3, 131.73), (0.3, 131.46), (5.726, 131.35018), (5.726, 131.20018000000002), (5.726, 131.50018), (5.726, 131.20018000000002), (12.123, 131.05239), (12.123, 130.87239)]</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[(0.3, 133.0), (0.3, 132.72), (5.463, 133.0), (5.463, 132.72), (5.463, 133.0), (5.463, 132.76), (11.91, 133.0), (11.91, 132.76), (0.3, 132.72), (0.3, 132.44), (5.463, 132.72), (5.463, 132.53), (5.463, 132.76), (5.463, 132.53), (11.91, 132.76), (11.91, 132.63)]</t>
+          <t>[(0.3, 133.0), (0.3, 132.72), (5.463, 132.63859), (5.463, 132.35859), (5.463, 132.63859), (5.463, 132.39858999999998), (11.91, 132.1873), (11.91, 131.94729999999998), (0.3, 132.72), (0.3, 132.44), (5.463, 132.35859), (5.463, 132.16859), (5.463, 132.39858999999998), (5.463, 132.16859), (11.91, 131.94729999999998), (11.91, 131.8173)]</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[(0.3, 134.0), (0.3, 133.7), (5.311, 134.0), (5.311, 133.7), (5.311, 134.0), (5.311, 133.83), (11.708, 134.0), (11.708, 133.83), (0.3, 133.7), (0.3, 133.41), (5.311, 133.7), (5.311, 133.53), (5.311, 133.83), (5.311, 133.53), (11.708, 133.83), (11.708, 133.68)]</t>
+          <t>[(0.3, 134.0), (0.3, 133.7), (5.311, 133.64923), (5.311, 133.34922999999998), (5.311, 133.64923), (5.311, 133.47923), (11.708, 133.20144), (11.708, 133.03144), (0.3, 133.7), (0.3, 133.41), (5.311, 133.34922999999998), (5.311, 133.17923), (5.311, 133.47923), (5.311, 133.17923), (11.708, 133.03144), (11.708, 132.88144)]</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[(0.3, 135.0), (0.3, 134.68), (5.048, 135.0), (5.048, 134.74), (5.048, 135.0), (5.048, 134.78), (11.396, 135.0), (11.396, 134.78), (0.3, 134.68), (0.3, 134.36), (5.048, 134.74), (5.048, 134.48), (5.048, 134.78), (5.048, 134.48), (11.396, 134.78), (11.396, 134.64)]</t>
+          <t>[(0.3, 135.0), (0.3, 134.68), (5.048, 134.66764), (5.048, 134.40764000000001), (5.048, 134.66764), (5.048, 134.44764), (11.396, 134.22328), (11.396, 134.00328), (0.3, 134.68), (0.3, 134.36), (5.048, 134.40764000000001), (5.048, 134.14764), (5.048, 134.44764), (5.048, 134.14764), (11.396, 134.00328), (11.396, 133.86327999999997)]</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[(0.3, 136.0), (0.3, 135.68), (4.666, 136.0), (4.666, 135.76), (4.666, 136.0), (4.666, 135.81), (11.203, 136.0), (11.203, 135.81), (0.3, 135.68), (0.3, 135.36), (4.666, 135.76), (4.666, 135.52), (4.666, 135.81), (4.666, 135.51), (11.203, 135.81), (11.203, 135.68)]</t>
+          <t>[(0.3, 136.0), (0.3, 135.68), (4.666, 135.69438), (4.666, 135.45438), (4.666, 135.69438), (4.666, 135.50438), (11.203, 135.23679), (11.203, 135.04679000000002), (0.3, 135.68), (0.3, 135.36), (4.666, 135.45438), (4.666, 135.21438), (4.666, 135.50438), (4.666, 135.20438), (11.203, 135.04679000000002), (11.203, 134.91679000000002)]</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[(0.3, 137.0), (0.3, 136.69), (4.81, 137.0), (4.81, 136.74), (4.81, 137.0), (4.81, 136.79), (11.248, 137.0), (11.248, 136.79), (0.3, 136.69), (0.3, 136.38), (4.81, 136.74), (4.81, 136.48), (4.81, 136.79), (4.81, 136.49), (11.248, 136.79), (11.248, 136.66)]</t>
+          <t>[(0.3, 137.0), (0.3, 136.69), (4.81, 136.6843), (4.81, 136.42430000000002), (4.81, 136.6843), (4.81, 136.4743), (11.248, 136.23364), (11.248, 136.02364), (0.3, 136.69), (0.3, 136.38), (4.81, 136.42430000000002), (4.81, 136.1643), (4.81, 136.4743), (4.81, 136.17430000000002), (11.248, 136.02364), (11.248, 135.89364)]</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[(0.3, 138.0), (0.3, 137.71), (4.784, 138.0), (4.784, 137.71), (4.784, 138.0), (4.784, 137.85), (11.259, 138.0), (11.259, 137.85), (0.3, 137.71), (0.3, 137.43), (4.784, 137.71), (4.784, 137.55), (4.784, 137.85), (4.784, 137.55), (11.259, 137.85), (11.259, 137.69)]</t>
+          <t>[(0.3, 138.0), (0.3, 137.71), (4.784, 137.68612), (4.784, 137.39612), (4.784, 137.68612), (4.784, 137.53611999999998), (11.259, 137.23287), (11.259, 137.08286999999999), (0.3, 137.71), (0.3, 137.43), (4.784, 137.39612), (4.784, 137.23612), (4.784, 137.53611999999998), (4.784, 137.23612), (11.259, 137.08286999999999), (11.259, 136.92287)]</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[(0.3, 139.0), (0.3, 138.72), (4.716, 139.0), (4.716, 138.72), (4.716, 139.0), (4.716, 138.89), (11.24, 139.0), (11.24, 138.89), (0.3, 138.72), (0.3, 138.45), (4.716, 138.72), (4.716, 138.6), (4.716, 138.89), (4.716, 138.6), (11.24, 138.89), (11.24, 138.71)]</t>
+          <t>[(0.3, 139.0), (0.3, 138.72), (4.716, 138.69088), (4.716, 138.41088), (4.716, 138.69088), (4.716, 138.58087999999998), (11.24, 138.2342), (11.24, 138.12419999999997), (0.3, 138.72), (0.3, 138.45), (4.716, 138.41088), (4.716, 138.29088), (4.716, 138.58087999999998), (4.716, 138.29088), (11.24, 138.12419999999997), (11.24, 137.9442)]</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[(0.3, 140.0), (0.3, 139.75), (4.68, 140.0), (4.68, 139.75), (4.68, 140.0), (4.68, 139.89), (11.161, 140.0), (11.161, 139.89), (0.3, 139.75), (0.3, 139.5), (4.68, 139.75), (4.68, 139.63), (4.68, 139.89), (4.68, 139.63), (11.161, 139.89), (11.161, 139.74)]</t>
+          <t>[(0.3, 140.0), (0.3, 139.75), (4.68, 139.69536994456638), (4.68, 139.44536994456638), (4.68, 139.69536994456638), (4.68, 139.58536994456637), (11.161, 139.24461483286197), (11.161, 139.13461483286196), (0.3, 139.75), (0.3, 139.5), (4.68, 139.44536994456638), (4.68, 139.32536994456638), (4.68, 139.58536994456637), (4.68, 139.32536994456638), (11.161, 139.13461483286196), (11.161, 138.98461483286198)]</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[(0.3, 141.0), (0.3, 140.77), (4.572, 141.0), (4.572, 140.77), (4.572, 141.0), (4.572, 140.89), (11.034, 141.0), (11.034, 140.89), (0.3, 140.77), (0.3, 140.54), (4.572, 140.77), (4.572, 140.64), (4.572, 140.89), (4.572, 140.64), (11.034, 140.89), (11.034, 140.72)]</t>
+          <t>[(0.3, 141.0), (0.3, 140.77), (4.572, 140.72045330809075), (4.572, 140.49045330809076), (4.572, 140.72045330809075), (4.572, 140.61045330809074), (11.034, 140.29759967440222), (11.034, 140.1875996744022), (0.3, 140.77), (0.3, 140.54), (4.572, 140.49045330809076), (4.572, 140.36045330809074), (4.572, 140.61045330809074), (4.572, 140.36045330809074), (11.034, 140.1875996744022), (11.034, 140.01759967440222)]</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[(0.3, 142.0), (0.3, 141.77), (4.473, 142.0), (4.473, 141.77), (4.473, 142.0), (4.473, 141.82), (10.865, 142.0), (10.865, 141.82), (0.3, 141.77), (0.3, 141.54), (4.473, 141.77), (4.473, 141.64), (4.473, 141.82), (4.473, 141.64), (10.865, 141.82), (10.865, 141.7)]</t>
+          <t>[(0.3, 142.0), (0.3, 141.77), (4.473, 141.74409628975897), (4.473, 141.51409628975898), (4.473, 141.74409628975897), (4.473, 141.56409628975896), (10.865, 141.35211533700058), (10.865, 141.17211533700058), (0.3, 141.77), (0.3, 141.54), (4.473, 141.51409628975898), (4.473, 141.38409628975896), (4.473, 141.56409628975896), (4.473, 141.38409628975896), (10.865, 141.17211533700058), (10.865, 141.05211533700057)]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[(0.3, 143.0), (0.3, 142.77), (4.29, 143.0), (4.29, 142.77), (4.29, 143.0), (4.29, 142.82), (10.696, 143.0), (10.696, 142.82), (0.3, 142.77), (0.3, 142.55), (4.29, 142.77), (4.29, 142.64), (4.29, 142.82), (4.29, 142.64), (10.696, 142.82), (10.696, 142.71)]</t>
+          <t>[(0.3, 143.0), (0.3, 142.77), (4.29, 142.77173051510584), (4.29, 142.54173051510585), (4.29, 142.77173051510584), (4.29, 142.59173051510584), (10.696, 142.40524071053642), (10.696, 142.2252407105364), (0.3, 142.77), (0.3, 142.55), (4.29, 142.54173051510585), (4.29, 142.41173051510583), (4.29, 142.59173051510584), (4.29, 142.41173051510583), (10.696, 142.2252407105364), (10.696, 142.11524071053643)]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[(0.3, 144.0), (0.3, 143.79), (3.859, 144.0), (3.859, 143.79), (3.859, 144.0), (3.859, 143.89), (10.272, 144.0), (10.272, 143.89), (0.3, 143.79), (0.3, 143.59), (3.859, 143.79), (3.859, 143.63), (3.859, 143.89), (3.859, 143.63), (10.272, 143.89), (10.272, 143.71)]</t>
+          <t>[(0.3, 144.0), (0.3, 143.79), (3.859, 143.81102736427493), (3.859, 143.60102736427493), (3.859, 143.81102736427493), (3.859, 143.70102736427492), (10.272, 143.47051555958126), (10.272, 143.36051555958124), (0.3, 143.79), (0.3, 143.59), (3.859, 143.60102736427493), (3.859, 143.44102736427493), (3.859, 143.70102736427492), (3.859, 143.44102736427493), (10.272, 143.36051555958124), (10.272, 143.18051555958127)]</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[(0.3, 145.0), (0.3, 144.82), (3.465, 145.0), (3.465, 144.82), (3.465, 145.0), (3.465, 144.89), (9.88, 145.0), (9.88, 144.89), (0.3, 144.82), (0.3, 144.64), (3.465, 144.82), (3.465, 144.67), (3.465, 144.89), (3.465, 144.67), (9.88, 144.89), (9.88, 144.73)]</t>
+          <t>[(0.3, 145.0), (0.3, 144.82), (3.465, 144.84496616312202), (3.465, 144.66496616312202), (3.465, 144.84496616312202), (3.465, 144.734966163122), (9.88, 144.53073486341515), (9.88, 144.42073486341513), (0.3, 144.82), (0.3, 144.64), (3.465, 144.66496616312202), (3.465, 144.514966163122), (3.465, 144.734966163122), (3.465, 144.514966163122), (9.88, 144.42073486341513), (9.88, 144.26073486341514)]</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[(0.3, 146.0), (0.3, 145.82), (3.05, 146.0), (3.05, 145.82), (3.05, 146.0), (3.05, 145.83), (9.577, 146.0), (9.577, 145.83), (0.3, 145.82), (0.3, 145.65), (3.05, 145.82), (3.05, 145.67), (3.05, 145.83), (3.05, 145.67), (9.577, 145.83), (9.577, 145.72)]</t>
+          <t>[(0.3, 146.0), (0.3, 145.82), (3.05, 145.8766059779669), (3.05, 145.6966059779669), (3.05, 145.8766059779669), (3.05, 145.70660597796692), (9.577, 145.58373587549053), (9.577, 145.41373587549054), (0.3, 145.82), (0.3, 145.65), (3.05, 145.6966059779669), (3.05, 145.5466059779669), (3.05, 145.70660597796692), (3.05, 145.5466059779669), (9.577, 145.41373587549054), (9.577, 145.30373587549053)]</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[(0.3, 147.0), (0.3, 146.8), (2.713, 147.0), (2.713, 146.8), (2.713, 147.0), (2.713, 146.81), (9.326, 147.0), (9.326, 146.81), (0.3, 146.8), (0.3, 146.61), (2.713, 146.8), (2.713, 146.62), (2.713, 146.81), (2.713, 146.62), (9.326, 146.81), (9.326, 146.64)]</t>
+          <t>[(0.3, 147.0), (0.3, 146.8), (2.713, 146.90165270214138), (2.713, 146.7016527021414), (2.713, 146.90165270214138), (2.713, 146.71165270214138), (9.326, 146.63212486097314), (9.326, 146.44212486097314), (0.3, 146.8), (0.3, 146.61), (2.713, 146.7016527021414), (2.713, 146.52165270214138), (2.713, 146.71165270214138), (2.713, 146.52165270214138), (9.326, 146.44212486097314), (9.326, 146.27212486097312)]</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[(0.3, 148.0), (0.3, 147.79), (9.052, 148.0), (9.052, 147.79), (0.3, 147.79), (0.3, 147.58), (9.052, 147.79), (9.052, 147.63)]</t>
+          <t>[(0.3, 148.0), (0.3, 147.79), (9.052, 147.67929179106048), (9.052, 147.46929179106047), (0.3, 147.79), (0.3, 147.58), (9.052, 147.46929179106047), (9.052, 147.30929179106047)]</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[(0.3, 149.0), (0.3, 148.85), (8.741, 149.0), (8.741, 148.85), (0.3, 148.85), (0.3, 148.7), (8.741, 148.85), (8.741, 148.7), (0.3, 148.7), (0.3, 148.57), (8.741, 148.7), (8.741, 148.57)]</t>
+          <t>[(0.3, 149.0), (0.3, 148.85), (8.741, 148.72540827928233), (8.741, 148.57540827928233), (0.3, 148.85), (0.3, 148.7), (8.741, 148.57540827928233), (8.741, 148.42540827928232), (0.3, 148.7), (0.3, 148.57), (8.741, 148.42540827928232), (8.741, 148.29540827928233)]</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[(0.3, 150.0), (0.3, 149.79), (8.223, 150.0), (8.223, 149.79), (0.3, 149.79), (0.3, 149.59), (8.223, 149.79), (8.223, 149.65)]</t>
+          <t>[(0.3, 150.0), (0.3, 149.79), (8.223, 149.7748487142593), (8.223, 149.56484871425928), (0.3, 149.79), (0.3, 149.59), (8.223, 149.56484871425928), (8.223, 149.4248487142593)]</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[(0.3, 151.0), (0.3, 150.89), (7.794, 151.0), (7.794, 150.89), (0.3, 150.89), (0.3, 150.61), (7.794, 150.89), (7.794, 150.71)]</t>
+          <t>[(0.3, 151.0), (0.3, 150.89), (7.794, 150.81265), (7.794, 150.70264999999998), (0.3, 150.89), (0.3, 150.61), (7.794, 150.70264999999998), (7.794, 150.52265)]</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[(0.3, 161.0), (0.3, 160.87), (4.654, 161.0), (4.654, 160.87), (0.3, 160.87), (0.3, 160.57), (4.654, 160.87), (4.654, 160.74)]</t>
+          <t>[(0.3, 161.0), (0.3, 160.87), (4.654, 160.89115), (4.654, 160.76115000000001), (0.3, 160.87), (0.3, 160.57), (4.654, 160.76115000000001), (4.654, 160.63115000000002)]</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[(0.3, 164.0), (0.3, 163.88), (4.435, 164.0), (4.435, 163.88), (0.3, 163.88), (0.3, 163.58), (4.435, 163.88), (4.435, 163.74)]</t>
+          <t>[(0.3, 164.0), (0.3, 163.88), (4.435, 163.896625), (4.435, 163.776625), (0.3, 163.88), (0.3, 163.58), (4.435, 163.776625), (4.435, 163.636625)]</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[(0.3, 165.0), (0.3, 164.88), (4.43, 165.0), (4.43, 164.88), (0.3, 164.88), (0.3, 164.58), (4.43, 164.88), (4.43, 164.74)]</t>
+          <t>[(0.3, 165.0), (0.3, 164.88), (4.43, 164.89675), (4.43, 164.77675), (0.3, 164.88), (0.3, 164.58), (4.43, 164.77675), (4.43, 164.63675)]</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[(0.3, 172.0), (0.3, 171.89), (2.669, 172.0), (2.669, 171.89), (0.3, 171.89), (0.3, 171.66), (2.669, 171.89), (2.669, 171.73)]</t>
+          <t>[(0.3, 172.0), (0.3, 171.89), (2.669, 171.99302374191387), (2.669, 171.88302374191386), (0.3, 171.89), (0.3, 171.66), (2.669, 171.88302374191386), (2.669, 171.72302374191386)]</t>
         </is>
       </c>
     </row>
@@ -2155,37 +2155,61 @@
       <c r="A174" t="n">
         <v>47325</v>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
         <v>47350</v>
       </c>
-      <c r="B175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
         <v>47375</v>
       </c>
-      <c r="B176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
         <v>47400</v>
       </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
         <v>47425</v>
       </c>
-      <c r="B178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
         <v>47450</v>
       </c>
-      <c r="B179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2193,7 +2217,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[(0.3, 179.0), (0.3, 178.84), (6.464, 179.0), (6.464, 178.66), (0.3, 178.84), (0.3, 178.68), (6.464, 178.66), (6.464, 178.32)]</t>
+          <t>[(0.3, 179.0), (0.3, 178.84), (6.464, 179.35660438127363), (6.464, 179.01660438127362), (0.3, 178.84), (0.3, 178.68), (6.464, 179.01660438127362), (6.464, 178.67660438127362)]</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2227,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[(0.3, 180.0), (0.3, 179.84), (5.867, 180.0), (5.867, 179.74), (0.3, 179.84), (0.3, 179.68), (5.867, 179.74), (5.867, 179.48)]</t>
+          <t>[(0.3, 180.0), (0.3, 179.84), (5.867, 180.33402), (5.867, 180.07402000000002), (0.3, 179.84), (0.3, 179.68), (5.867, 180.07402000000002), (5.867, 179.81402)]</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2237,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[(0.3, 181.0), (0.3, 180.83), (5.663, 181.0), (5.663, 180.72), (0.3, 180.83), (0.3, 180.66), (5.663, 180.72), (5.663, 180.44)]</t>
+          <t>[(0.3, 181.0), (0.3, 180.83), (5.663, 181.32178), (5.663, 181.04178), (0.3, 180.83), (0.3, 180.66), (5.663, 181.04178), (5.663, 180.76178)]</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2247,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[(0.3, 182.0), (0.3, 181.84), (5.69, 182.0), (5.69, 181.72), (0.3, 181.84), (0.3, 181.68), (5.69, 181.72), (5.69, 181.44)]</t>
+          <t>[(0.3, 182.0), (0.3, 181.84), (5.69, 182.3234), (5.69, 182.0434), (0.3, 181.84), (0.3, 181.68), (5.69, 182.0434), (5.69, 181.7634)]</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2257,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[(0.3, 183.0), (0.3, 182.76), (5.585, 183.0), (5.585, 182.76), (0.3, 182.76), (0.3, 182.63), (5.585, 182.76), (5.585, 182.46)]</t>
+          <t>[(0.3, 183.0), (0.3, 182.76), (5.585, 183.3171), (5.585, 183.0771), (0.3, 182.76), (0.3, 182.63), (5.585, 183.0771), (5.585, 182.77710000000002)]</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2267,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[(0.3, 184.0), (0.3, 183.8), (5.607, 184.0), (5.607, 183.68), (0.3, 183.8), (0.3, 183.6), (5.607, 183.68), (5.607, 183.36)]</t>
+          <t>[(0.3, 184.0), (0.3, 183.8), (5.607, 184.31842), (5.607, 183.99842), (0.3, 183.8), (0.3, 183.6), (5.607, 183.99842), (5.607, 183.67842000000002)]</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2277,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[(0.3, 185.0), (0.3, 184.82), (5.812, 185.0), (5.812, 184.7), (0.3, 184.82), (0.3, 184.64), (5.812, 184.7), (5.812, 184.4)]</t>
+          <t>[(0.3, 185.0), (0.3, 184.82), (5.812, 185.33072), (5.812, 185.03072), (0.3, 184.82), (0.3, 184.64), (5.812, 185.03072), (5.812, 184.73072000000002)]</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2287,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[(0.3, 186.0), (0.3, 185.84), (6.115, 186.0), (6.115, 185.72), (0.3, 185.84), (0.3, 185.68), (6.115, 185.72), (6.115, 185.44)]</t>
+          <t>[(0.3, 186.0), (0.3, 185.84), (6.115, 186.3489), (6.115, 186.06889999999999), (0.3, 185.84), (0.3, 185.68), (6.115, 186.06889999999999), (6.115, 185.78889999999998)]</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2297,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[(0.3, 187.0), (0.3, 186.84), (6.464, 187.0), (6.464, 186.7), (0.3, 186.84), (0.3, 186.68), (6.464, 186.7), (6.464, 186.4)]</t>
+          <t>[(0.3, 187.0), (0.3, 186.84), (6.464, 187.36984), (6.464, 187.06984), (0.3, 186.84), (0.3, 186.68), (6.464, 187.06984), (6.464, 186.76984000000002)]</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2307,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[(0.3, 188.0), (0.3, 187.84), (6.838, 188.0), (6.838, 187.66), (0.3, 187.84), (0.3, 187.68), (6.838, 187.66), (6.838, 187.32)]</t>
+          <t>[(0.3, 188.0), (0.3, 187.84), (6.838, 188.39228), (6.838, 188.05228), (0.3, 187.84), (0.3, 187.68), (6.838, 188.05228), (6.838, 187.71228)]</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2317,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[(0.3, 189.0), (0.3, 188.81), (7.264, 189.0), (7.264, 188.66), (0.3, 188.81), (0.3, 188.62), (7.264, 188.66), (7.264, 188.32)]</t>
+          <t>[(0.3, 189.0), (0.3, 188.81), (7.264, 189.41784), (7.264, 189.07784), (0.3, 188.81), (0.3, 188.62), (7.264, 189.07784), (7.264, 188.73784)]</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2327,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[(0.3, 190.0), (0.3, 189.84), (7.752, 190.0), (7.752, 189.66), (0.3, 189.84), (0.3, 189.68), (7.752, 189.66), (7.752, 189.32)]</t>
+          <t>[(0.3, 190.0), (0.3, 189.84), (7.752, 190.44712), (7.752, 190.10712), (0.3, 189.84), (0.3, 189.68), (7.752, 190.10712), (7.752, 189.76712)]</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2337,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[(0.3, 191.0), (0.3, 190.82), (8.501, 191.0), (8.501, 190.68), (0.3, 190.82), (0.3, 190.64), (8.501, 190.68), (8.501, 190.36)]</t>
+          <t>[(0.3, 191.0), (0.3, 190.82), (8.501, 191.4703160099799), (8.501, 191.15031600997992), (0.3, 190.82), (0.3, 190.64), (8.501, 191.15031600997992), (8.501, 190.83031600997992)]</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2347,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[(0.3, 192.0), (0.3, 191.81), (2.735, 192.0), (2.735, 191.81), (2.735, 192.0), (2.735, 191.82), (9.166, 192.0), (9.166, 191.7), (0.3, 191.81), (0.3, 191.67), (2.735, 191.81), (2.735, 191.63), (2.735, 191.82), (2.735, 191.64), (9.166, 191.7), (9.166, 191.4)]</t>
+          <t>[(0.3, 192.0), (0.3, 191.81), (2.735, 192.12604414893528), (2.735, 191.93604414893528), (2.735, 192.12604414893528), (2.735, 191.94604414893527), (9.166, 192.4589352872526), (9.166, 192.15893528725258), (0.3, 191.81), (0.3, 191.67), (2.735, 191.93604414893528), (2.735, 191.75604414893527), (2.735, 191.94604414893527), (2.735, 191.76604414893526), (9.166, 192.15893528725258), (9.166, 191.8589352872526)]</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2357,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[(0.3, 193.0), (0.3, 192.82), (3.212, 193.0), (3.212, 192.82), (3.212, 193.0), (3.212, 192.82), (9.641, 193.0), (9.641, 192.72), (0.3, 192.82), (0.3, 192.67), (3.212, 192.82), (3.212, 192.64), (3.212, 192.82), (3.212, 192.64), (9.641, 192.72), (9.641, 192.44)]</t>
+          <t>[(0.3, 193.0), (0.3, 192.82), (3.212, 193.13447151382653), (3.212, 192.95447151382652), (3.212, 193.13447151382653), (3.212, 192.95447151382652), (9.641, 193.43135247618596), (9.641, 193.15135247618596), (0.3, 192.82), (0.3, 192.67), (3.212, 192.95447151382652), (3.212, 192.7744715138265), (3.212, 192.95447151382652), (3.212, 192.7744715138265), (9.641, 193.15135247618596), (9.641, 192.87135247618596)]</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2367,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[(0.3, 194.0), (0.3, 193.8), (3.502, 194.0), (3.502, 193.8), (3.502, 194.0), (3.502, 193.72), (10.067, 194.0), (10.067, 193.72), (0.3, 193.8), (0.3, 193.63), (3.502, 193.8), (3.502, 193.61), (3.502, 193.72), (3.502, 193.61), (10.067, 193.72), (10.067, 193.44)]</t>
+          <t>[(0.3, 194.0), (0.3, 193.8), (3.502, 194.1299797404855), (3.502, 193.92997974048552), (3.502, 194.1299797404855), (3.502, 193.8499797404855), (10.067, 194.39647474244907), (10.067, 194.11647474244907), (0.3, 193.8), (0.3, 193.63), (3.502, 193.92997974048552), (3.502, 193.73997974048552), (3.502, 193.8499797404855), (3.502, 193.73997974048552), (10.067, 194.11647474244907), (10.067, 193.83647474244907)]</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2377,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[(0.3, 195.0), (0.3, 194.8), (3.889, 195.0), (3.889, 194.8), (3.889, 195.0), (3.889, 194.77), (10.2, 195.0), (10.2, 194.77), (0.3, 194.8), (0.3, 194.6), (3.889, 194.8), (3.889, 194.63), (3.889, 194.77), (3.889, 194.63), (10.2, 194.77), (10.2, 194.47)]</t>
+          <t>[(0.3, 195.0), (0.3, 194.8), (3.889, 195.125644400038), (3.889, 194.925644400038), (3.889, 195.125644400038), (3.889, 194.895644400038), (10.2, 195.3465810979036), (10.2, 195.1165810979036), (0.3, 194.8), (0.3, 194.6), (3.889, 194.925644400038), (3.889, 194.755644400038), (3.889, 194.895644400038), (3.889, 194.755644400038), (10.2, 195.1165810979036), (10.2, 194.8165810979036)]</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2387,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[(0.3, 196.0), (0.3, 195.8), (3.806, 196.0), (3.806, 195.8), (3.806, 196.0), (3.806, 195.73), (10.047, 196.0), (10.047, 195.73), (0.3, 195.8), (0.3, 195.6), (3.806, 195.8), (3.806, 195.62), (3.806, 195.73), (3.806, 195.62), (10.047, 195.73), (10.047, 195.46)]</t>
+          <t>[(0.3, 196.0), (0.3, 195.8), (3.806, 196.10315733714754), (3.806, 195.90315733714755), (3.806, 196.10315733714754), (3.806, 195.83315733714753), (10.047, 196.28678681265748), (10.047, 196.01678681265747), (0.3, 195.8), (0.3, 195.6), (3.806, 195.90315733714755), (3.806, 195.72315733714754), (3.806, 195.83315733714753), (3.806, 195.72315733714754), (10.047, 196.01678681265747), (10.047, 195.7467868126575)]</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2397,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[(0.3, 197.0), (0.3, 196.8), (3.768, 197.0), (3.768, 196.8), (3.768, 197.0), (3.768, 196.75), (10.031, 197.0), (10.031, 196.75), (0.3, 196.8), (0.3, 196.6), (3.768, 196.8), (3.768, 196.62), (3.768, 196.75), (3.768, 196.62), (10.031, 196.75), (10.031, 196.45)]</t>
+          <t>[(0.3, 197.0), (0.3, 196.8), (3.768, 197.06866144909952), (3.768, 196.86866144909953), (3.768, 197.06866144909952), (3.768, 196.81866144909952), (10.031, 197.19265990807017), (10.031, 196.94265990807017), (0.3, 196.8), (0.3, 196.6), (3.768, 196.86866144909953), (3.768, 196.68866144909953), (3.768, 196.81866144909952), (3.768, 196.68866144909953), (10.031, 196.94265990807017), (10.031, 196.64265990807016)]</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2407,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[(0.3, 198.0), (0.3, 197.89), (3.727, 198.0), (3.727, 197.89), (3.727, 198.0), (3.727, 197.89), (9.938, 198.0), (9.938, 197.89), (0.3, 197.89), (0.3, 197.62), (3.727, 197.89), (3.727, 197.72), (3.727, 197.89), (3.727, 197.72), (9.938, 197.89), (9.938, 197.64)]</t>
+          <t>[(0.3, 198.0), (0.3, 197.89), (3.727, 197.98217470763092), (3.727, 197.8721747076309), (3.727, 197.98217470763092), (3.727, 197.8721747076309), (9.938, 197.94986864083654), (9.938, 197.83986864083653), (0.3, 197.89), (0.3, 197.62), (3.727, 197.8721747076309), (3.727, 197.70217470763092), (3.727, 197.8721747076309), (3.727, 197.70217470763092), (9.938, 197.83986864083653), (9.938, 197.58986864083653)]</t>
         </is>
       </c>
     </row>
@@ -2581,25 +2605,41 @@
       <c r="A219" t="n">
         <v>48450</v>
       </c>
-      <c r="B219" t="inlineStr"/>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
         <v>48475</v>
       </c>
-      <c r="B220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
         <v>48500</v>
       </c>
-      <c r="B221" t="inlineStr"/>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
         <v>48525</v>
       </c>
-      <c r="B222" t="inlineStr"/>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -2817,7 +2857,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[(0.3, 243.0), (0.3, 242.82), (5.037, 243.0), (5.037, 242.82), (0.3, 242.82), (0.3, 242.71), (5.037, 242.82), (5.037, 242.64)]</t>
+          <t>[(0.3, 243.0), (0.3, 242.82), (5.037, 243.03882731333533), (5.037, 242.85882731333533), (0.3, 242.82), (0.3, 242.71), (5.037, 242.85882731333533), (5.037, 242.67882731333532)]</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2867,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[(0.3, 244.0), (0.3, 243.81), (5.202, 244.0), (5.202, 243.81), (0.3, 243.81), (0.3, 243.67), (5.202, 243.81), (5.202, 243.63)]</t>
+          <t>[(0.3, 244.0), (0.3, 243.81), (5.202, 243.9386862698044), (5.202, 243.7486862698044), (0.3, 243.81), (0.3, 243.67), (5.202, 243.7486862698044), (5.202, 243.5686862698044)]</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2877,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>[(0.3, 245.0), (0.3, 244.82), (5.455, 245.0), (5.455, 244.82), (0.3, 244.82), (0.3, 244.69), (5.455, 244.82), (5.455, 244.65)]</t>
+          <t>[(0.3, 245.0), (0.3, 244.82), (5.455, 244.84061065703938), (5.455, 244.66061065703937), (0.3, 244.82), (0.3, 244.69), (5.455, 244.66061065703937), (5.455, 244.49061065703938)]</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2887,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>[(0.3, 246.0), (0.3, 245.86), (5.602, 246.0), (5.602, 245.86), (0.3, 245.86), (0.3, 245.73), (5.602, 245.86), (5.602, 245.74)]</t>
+          <t>[(0.3, 246.0), (0.3, 245.86), (5.602, 245.75694127481955), (5.602, 245.61694127481957), (0.3, 245.86), (0.3, 245.73), (5.602, 245.61694127481957), (5.602, 245.49694127481956)]</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2937,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[(0.3, 251.0), (0.3, 250.81), (4.418, 251.0), (4.418, 250.81), (0.3, 250.81), (0.3, 250.63), (4.418, 250.81), (4.418, 250.69)]</t>
+          <t>[(0.3, 251.0), (0.3, 250.81), (4.418, 250.71174), (4.418, 250.52174), (0.3, 250.81), (0.3, 250.63), (4.418, 250.52174), (4.418, 250.40174)]</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2947,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[(0.3, 252.0), (0.3, 251.85), (4.286, 252.0), (4.286, 251.85), (0.3, 251.85), (0.3, 251.7), (4.286, 251.85), (4.286, 251.7), (0.3, 251.7), (0.3, 251.55), (4.286, 251.7), (4.286, 251.55)]</t>
+          <t>[(0.3, 252.0), (0.3, 251.85), (4.286, 251.79324970714305), (4.286, 251.64324970714304), (0.3, 251.85), (0.3, 251.7), (4.286, 251.64324970714304), (4.286, 251.49324970714304), (0.3, 251.7), (0.3, 251.55), (4.286, 251.49324970714304), (4.286, 251.34324970714306)]</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2957,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[(0.3, 253.0), (0.3, 252.82), (4.114, 253.0), (4.114, 252.82), (0.3, 252.82), (0.3, 252.64), (4.114, 252.82), (4.114, 252.64), (0.3, 252.64), (0.3, 252.51), (4.114, 252.64), (4.114, 252.47)]</t>
+          <t>[(0.3, 253.0), (0.3, 252.82), (4.114, 252.88038638175723), (4.114, 252.70038638175723), (0.3, 252.82), (0.3, 252.64), (4.114, 252.70038638175723), (4.114, 252.52038638175722), (0.3, 252.64), (0.3, 252.51), (4.114, 252.52038638175722), (4.114, 252.35038638175723)]</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2967,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[(0.3, 254.0), (0.3, 253.76), (4.052, 254.0), (4.052, 253.76), (0.3, 253.76), (0.3, 253.59), (4.052, 253.76), (4.052, 253.53)]</t>
+          <t>[(0.3, 254.0), (0.3, 253.76), (4.052, 253.95927453730454), (4.052, 253.71927453730453), (0.3, 253.76), (0.3, 253.59), (4.052, 253.71927453730453), (4.052, 253.48927453730454)]</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2977,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[(0.3, 255.0), (0.3, 254.83), (4.079, 255.0), (4.079, 254.83), (0.3, 254.83), (0.3, 254.69), (4.079, 254.83), (4.079, 254.67)]</t>
+          <t>[(0.3, 255.0), (0.3, 254.83), (4.079, 255.01783690193162), (4.079, 254.84783690193163), (0.3, 254.83), (0.3, 254.69), (4.079, 254.84783690193163), (4.079, 254.6878369019316)]</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2987,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[(0.3, 256.0), (0.3, 255.84), (3.989, 256.0), (3.989, 255.84), (0.3, 255.84), (0.3, 255.69), (3.989, 255.84), (3.989, 255.68)]</t>
+          <t>[(0.3, 256.0), (0.3, 255.84), (3.989, 256.0544031602437), (3.989, 255.8944031602437), (0.3, 255.84), (0.3, 255.69), (3.989, 255.8944031602437), (3.989, 255.73440316024372)]</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2997,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[(0.3, 257.0), (0.3, 256.85), (3.707, 257.0), (3.707, 256.85), (0.3, 256.85), (0.3, 256.7), (3.707, 256.85), (3.707, 256.7), (0.3, 256.7), (0.3, 256.59), (3.707, 256.7), (3.707, 256.55)]</t>
+          <t>[(0.3, 257.0), (0.3, 256.85), (3.707, 257.08440772686345), (3.707, 256.93440772686347), (0.3, 256.85), (0.3, 256.7), (3.707, 256.93440772686347), (3.707, 256.78440772686344), (0.3, 256.7), (0.3, 256.59), (3.707, 256.78440772686344), (3.707, 256.63440772686346)]</t>
         </is>
       </c>
     </row>
@@ -2967,7 +3007,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[(0.3, 258.0), (0.3, 257.73), (3.225, 258.0), (3.225, 257.73), (0.3, 257.73), (0.3, 257.57), (3.225, 257.73), (3.225, 257.47)]</t>
+          <t>[(0.3, 258.0), (0.3, 257.73), (3.225, 258.10179640495915), (3.225, 257.83179640495916), (0.3, 257.73), (0.3, 257.57), (3.225, 257.83179640495916), (3.225, 257.5717964049592)]</t>
         </is>
       </c>
     </row>
@@ -2977,7 +3017,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[(0.3, 259.0), (0.3, 258.76), (2.933, 259.0), (2.933, 258.76), (0.3, 258.76), (0.3, 258.6), (2.933, 258.76), (2.933, 258.53)]</t>
+          <t>[(0.3, 259.0), (0.3, 258.76), (2.933, 259.1180362956505), (2.933, 258.8780362956505), (0.3, 258.76), (0.3, 258.6), (2.933, 258.8780362956505), (2.933, 258.64803629565046)]</t>
         </is>
       </c>
     </row>
@@ -2987,7 +3027,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[(0.3, 260.0), (0.3, 259.82), (2.833, 260.0), (2.833, 259.82), (0.3, 259.82), (0.3, 259.64), (2.833, 259.82), (2.833, 259.64), (0.3, 259.64), (0.3, 259.53), (2.833, 259.64), (2.833, 259.47)]</t>
+          <t>[(0.3, 260.0), (0.3, 259.82), (2.833, 260.13895272784157), (2.833, 259.95895272784156), (0.3, 259.82), (0.3, 259.64), (2.833, 259.95895272784156), (2.833, 259.77895272784156), (0.3, 259.64), (0.3, 259.53), (2.833, 259.77895272784156), (2.833, 259.6089527278416)]</t>
         </is>
       </c>
     </row>
@@ -2997,7 +3037,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[(0.3, 261.0), (0.3, 260.78), (2.992, 261.0), (2.992, 260.78), (0.3, 260.78), (0.3, 260.56), (2.992, 260.78), (2.992, 260.56), (0.3, 260.56), (0.3, 260.42), (2.992, 260.56), (2.992, 260.34)]</t>
+          <t>[(0.3, 261.0), (0.3, 260.78), (2.992, 261.1746687338811), (2.992, 260.9546687338811), (0.3, 260.78), (0.3, 260.56), (2.992, 260.9546687338811), (2.992, 260.7346687338811), (0.3, 260.56), (0.3, 260.42), (2.992, 260.7346687338811), (2.992, 260.5146687338811)]</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3047,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[(0.3, 262.0), (0.3, 261.74), (3.206, 262.0), (3.206, 261.74), (0.3, 261.74), (0.3, 261.48), (3.206, 261.74), (3.206, 261.48), (0.3, 261.48), (0.3, 261.34), (3.206, 261.48), (3.206, 261.24)]</t>
+          <t>[(0.3, 262.0), (0.3, 261.74), (3.206, 262.20342), (3.206, 261.94342), (0.3, 261.74), (0.3, 261.48), (3.206, 261.94342), (3.206, 261.68342), (0.3, 261.48), (0.3, 261.34), (3.206, 261.68342), (3.206, 261.44342)]</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3057,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[(0.3, 263.0), (0.3, 262.75), (3.452, 263.0), (3.452, 262.75), (0.3, 262.75), (0.3, 262.5), (3.452, 262.75), (3.452, 262.5), (0.3, 262.5), (0.3, 262.33), (3.452, 262.5), (3.452, 262.27)]</t>
+          <t>[(0.3, 263.0), (0.3, 262.75), (3.452, 263.22064), (3.452, 262.97064), (0.3, 262.75), (0.3, 262.5), (3.452, 262.97064), (3.452, 262.72064), (0.3, 262.5), (0.3, 262.33), (3.452, 262.72064), (3.452, 262.49064)]</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3067,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[(0.3, 264.0), (0.3, 263.78), (3.961, 264.0), (3.961, 263.78), (0.3, 263.78), (0.3, 263.56), (3.961, 263.78), (3.961, 263.56), (0.3, 263.56), (0.3, 263.41), (3.961, 263.56), (3.961, 263.34)]</t>
+          <t>[(0.3, 264.0), (0.3, 263.78), (3.961, 264.25627), (3.961, 264.03626999999994), (0.3, 263.78), (0.3, 263.56), (3.961, 264.03626999999994), (3.961, 263.81627), (0.3, 263.56), (0.3, 263.41), (3.961, 263.81627), (3.961, 263.59626999999995)]</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3077,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[(0.3, 265.0), (0.3, 264.71), (4.429, 265.0), (4.429, 264.71), (0.3, 264.71), (0.3, 264.55), (4.429, 264.71), (4.429, 264.42)]</t>
+          <t>[(0.3, 265.0), (0.3, 264.71), (4.429, 265.28903), (4.429, 264.99903), (0.3, 264.71), (0.3, 264.55), (4.429, 264.99903), (4.429, 264.70903000000004)]</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3087,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[(0.3, 266.0), (0.3, 265.75), (4.827, 266.0), (4.827, 265.68), (0.3, 265.75), (0.3, 265.5), (4.827, 265.68), (4.827, 265.36)]</t>
+          <t>[(0.3, 266.0), (0.3, 265.75), (4.827, 266.31689), (4.827, 265.99689), (0.3, 265.75), (0.3, 265.5), (4.827, 265.99689), (4.827, 265.67689)]</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3097,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[(0.3, 267.0), (0.3, 266.71), (5.255, 267.0), (5.255, 266.64), (0.3, 266.71), (0.3, 266.42), (5.255, 266.64), (5.255, 266.28)]</t>
+          <t>[(0.3, 267.0), (0.3, 266.71), (5.255, 267.34685), (5.255, 266.98685), (0.3, 266.71), (0.3, 266.42), (5.255, 266.98685), (5.255, 266.62685)]</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3107,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[(0.3, 268.0), (0.3, 267.76), (5.447, 268.0), (5.447, 267.76), (0.3, 267.76), (0.3, 267.52), (5.447, 267.76), (5.447, 267.52), (0.3, 267.52), (0.3, 267.4), (5.447, 267.52), (5.447, 267.29)]</t>
+          <t>[(0.3, 268.0), (0.3, 267.76), (5.447, 268.36029), (5.447, 268.12029), (0.3, 267.76), (0.3, 267.52), (5.447, 268.12029), (5.447, 267.88029), (0.3, 267.52), (0.3, 267.4), (5.447, 267.88029), (5.447, 267.65029000000004)]</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3117,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[(0.3, 269.0), (0.3, 268.73), (5.649, 269.0), (5.649, 268.67), (0.3, 268.73), (0.3, 268.46), (5.649, 268.67), (5.649, 268.34)]</t>
+          <t>[(0.3, 269.0), (0.3, 268.73), (5.649, 269.37443), (5.649, 269.04443000000003), (0.3, 268.73), (0.3, 268.46), (5.649, 269.04443000000003), (5.649, 268.71443)]</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3127,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[(0.3, 270.0), (0.3, 269.71), (6.125, 270.0), (6.125, 269.71), (0.3, 269.71), (0.3, 269.55), (6.125, 269.71), (6.125, 269.43)]</t>
+          <t>[(0.3, 270.0), (0.3, 269.71), (6.125, 270.40775), (6.125, 270.11775), (0.3, 269.71), (0.3, 269.55), (6.125, 270.11775), (6.125, 269.83775)]</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3137,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[(0.3, 271.0), (0.3, 270.72), (6.764, 271.0), (6.764, 270.72), (0.3, 270.72), (0.3, 270.6), (6.764, 270.72), (6.764, 270.44)]</t>
+          <t>[(0.3, 271.0), (0.3, 270.72), (6.764, 271.45248), (6.764, 271.17248), (0.3, 270.72), (0.3, 270.6), (6.764, 271.17248), (6.764, 270.89248)]</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3147,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[(0.3, 272.0), (0.3, 271.73), (7.393, 272.0), (7.393, 271.73), (0.3, 271.73), (0.3, 271.61), (7.393, 271.73), (7.393, 271.47)]</t>
+          <t>[(0.3, 272.0), (0.3, 271.73), (7.393, 272.49651), (7.393, 272.22651), (0.3, 271.73), (0.3, 271.61), (7.393, 272.22651), (7.393, 271.96651)]</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3157,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[(0.3, 273.0), (0.3, 272.83), (8.097, 273.0), (8.097, 272.83), (0.3, 272.83), (0.3, 272.66), (8.097, 272.83), (8.097, 272.53)]</t>
+          <t>[(0.3, 273.0), (0.3, 272.83), (8.097, 273.5168571276517), (8.097, 273.3468571276517), (0.3, 272.83), (0.3, 272.66), (8.097, 273.3468571276517), (8.097, 273.04685712765166)]</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3167,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[(0.3, 274.0), (0.3, 273.88), (8.776, 274.0), (8.776, 273.88), (0.3, 273.88), (0.3, 273.74), (8.776, 273.88), (8.776, 273.58)]</t>
+          <t>[(0.3, 274.0), (0.3, 273.88), (8.776, 274.5039261086885), (8.776, 274.3839261086885), (0.3, 273.88), (0.3, 273.74), (8.776, 274.3839261086885), (8.776, 274.0839261086885)]</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3177,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[(0.3, 275.0), (0.3, 274.74), (9.236, 275.0), (9.236, 274.74), (0.3, 274.74), (0.3, 274.63), (9.236, 274.74), (9.236, 274.48)]</t>
+          <t>[(0.3, 275.0), (0.3, 274.74), (9.236, 275.4701886858177), (9.236, 275.2101886858177), (0.3, 274.74), (0.3, 274.63), (9.236, 275.2101886858177), (9.236, 274.9501886858177)]</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3187,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[(0.3, 276.0), (0.3, 275.79), (2.334, 276.0), (2.334, 275.79), (2.334, 276.0), (2.334, 275.74), (9.476, 276.0), (9.476, 275.74), (0.3, 275.79), (0.3, 275.62), (2.334, 275.79), (2.334, 275.59), (2.334, 275.74), (2.334, 275.59), (9.476, 275.74), (9.476, 275.49)]</t>
+          <t>[(0.3, 276.0), (0.3, 275.79), (2.334, 276.093119403545), (2.334, 275.88311940354504), (2.334, 276.093119403545), (2.334, 275.833119403545), (9.476, 276.420090288559), (9.476, 276.160090288559), (0.3, 275.79), (0.3, 275.62), (2.334, 275.88311940354504), (2.334, 275.683119403545), (2.334, 275.833119403545), (2.334, 275.683119403545), (9.476, 276.160090288559), (9.476, 275.910090288559)]</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3197,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[(0.3, 277.0), (0.3, 276.85), (2.511, 277.0), (2.511, 276.85), (2.511, 277.0), (2.511, 276.73), (9.744, 277.0), (9.744, 276.73), (0.3, 276.85), (0.3, 276.7), (2.511, 276.85), (2.511, 276.7), (2.511, 276.73), (2.511, 276.55), (9.744, 276.73), (9.744, 276.47), (0.3, 276.7), (0.3, 276.55), (2.511, 276.7), (2.511, 276.55), (2.511, 276.55), (2.511, 276.55), (9.744, 276.47), (9.744, 276.47)]</t>
+          <t>[(0.3, 277.0), (0.3, 276.85), (2.511, 277.08610845666044), (2.511, 276.93610845666046), (2.511, 277.08610845666044), (2.511, 276.81610845666046), (9.744, 277.3678011147451), (9.744, 277.0978011147451), (0.3, 276.85), (0.3, 276.7), (2.511, 276.93610845666046), (2.511, 276.78610845666043), (2.511, 276.81610845666046), (2.511, 276.63610845666045), (9.744, 277.0978011147451), (9.744, 276.8378011147451), (0.3, 276.7), (0.3, 276.55), (2.511, 276.78610845666043), (2.511, 276.63610845666045), (2.511, 276.63610845666045), (2.511, 276.63610845666045), (9.744, 276.8378011147451), (9.744, 276.8378011147451)]</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3207,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[(0.3, 278.0), (0.3, 277.87), (2.621, 278.0), (2.621, 277.87), (2.621, 278.0), (2.621, 277.81), (9.83, 278.0), (9.83, 277.81), (0.3, 277.87), (0.3, 277.74), (2.621, 277.87), (2.621, 277.74), (2.621, 277.81), (2.621, 277.62), (9.83, 277.81), (9.83, 277.62), (0.3, 277.74), (0.3, 277.61), (2.621, 277.74), (2.621, 277.61), (2.621, 277.62), (2.621, 277.5), (9.83, 277.62), (9.83, 277.45), (0.3, 277.61), (0.3, 277.5), (2.621, 277.61), (2.621, 277.5), (2.621, 277.5), (2.621, 277.5), (9.83, 277.45), (9.83, 277.45)]</t>
+          <t>[(0.3, 278.0), (0.3, 277.87), (2.621, 278.0745262485419), (2.621, 277.9445262485419), (2.621, 278.0745262485419), (2.621, 277.8845262485419), (9.83, 278.30600394166487), (9.83, 278.11600394166487), (0.3, 277.87), (0.3, 277.74), (2.621, 277.9445262485419), (2.621, 277.8145262485419), (2.621, 277.8845262485419), (2.621, 277.6945262485419), (9.83, 278.11600394166487), (9.83, 277.9260039416649), (0.3, 277.74), (0.3, 277.61), (2.621, 277.8145262485419), (2.621, 277.6845262485419), (2.621, 277.6945262485419), (2.621, 277.5745262485419), (9.83, 277.9260039416649), (9.83, 277.75600394166486), (0.3, 277.61), (0.3, 277.5), (2.621, 277.6845262485419), (2.621, 277.5745262485419), (2.621, 277.5745262485419), (2.621, 277.5745262485419), (9.83, 277.75600394166486), (9.83, 277.75600394166486)]</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3217,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[(0.3, 279.0), (0.3, 278.85), (2.546, 279.0), (2.546, 278.85), (2.546, 279.0), (2.546, 278.84), (9.8, 279.0), (9.8, 278.84), (0.3, 278.85), (0.3, 278.7), (2.546, 278.85), (2.546, 278.7), (2.546, 278.84), (2.546, 278.68), (9.8, 278.84), (9.8, 278.68), (0.3, 278.7), (0.3, 278.55), (2.546, 278.7), (2.546, 278.55), (2.546, 278.68), (2.546, 278.52), (9.8, 278.68), (9.8, 278.52), (0.3, 278.55), (0.3, 278.43), (2.546, 278.55), (2.546, 278.41), (2.546, 278.52), (2.546, 278.41), (9.8, 278.52), (9.8, 278.36)]</t>
+          <t>[(0.3, 279.0), (0.3, 278.85), (2.546, 279.0567645172165), (2.546, 278.9067645172165), (2.546, 279.0567645172165), (2.546, 278.89676451721647), (9.8, 279.24009924913474), (9.8, 279.0800992491347), (0.3, 278.85), (0.3, 278.7), (2.546, 278.9067645172165), (2.546, 278.7567645172165), (2.546, 278.89676451721647), (2.546, 278.7367645172165), (9.8, 279.0800992491347), (9.8, 278.92009924913475), (0.3, 278.7), (0.3, 278.55), (2.546, 278.7567645172165), (2.546, 278.6067645172165), (2.546, 278.7367645172165), (2.546, 278.5767645172165), (9.8, 278.92009924913475), (9.8, 278.7600992491347), (0.3, 278.55), (0.3, 278.43), (2.546, 278.6067645172165), (2.546, 278.4667645172165), (2.546, 278.5767645172165), (2.546, 278.4667645172165), (9.8, 278.7600992491347), (9.8, 278.60009924913476)]</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3227,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[(0.3, 280.0), (0.3, 279.83), (2.556, 280.0), (2.556, 279.83), (2.556, 280.0), (2.556, 279.83), (9.779, 280.0), (9.779, 279.83), (0.3, 279.83), (0.3, 279.66), (2.556, 279.83), (2.556, 279.66), (2.556, 279.83), (2.556, 279.66), (9.779, 279.83), (9.779, 279.66), (0.3, 279.66), (0.3, 279.49), (2.556, 279.66), (2.556, 279.49), (2.556, 279.66), (2.556, 279.49), (9.779, 279.66), (9.779, 279.49), (0.3, 279.49), (0.3, 279.36), (2.556, 279.49), (2.556, 279.35), (2.556, 279.49), (2.556, 279.35), (9.779, 279.49), (9.779, 279.36)]</t>
+          <t>[(0.3, 280.0), (0.3, 279.83), (2.556, 280.0181735580508), (2.556, 279.8481735580508), (2.556, 280.0181735580508), (2.556, 279.8481735580508), (9.779, 280.07635955530304), (9.779, 279.906359555303), (0.3, 279.83), (0.3, 279.66), (2.556, 279.8481735580508), (2.556, 279.67817355805084), (2.556, 279.8481735580508), (2.556, 279.67817355805084), (9.779, 279.906359555303), (9.779, 279.73635955530307), (0.3, 279.66), (0.3, 279.49), (2.556, 279.67817355805084), (2.556, 279.5081735580508), (2.556, 279.67817355805084), (2.556, 279.5081735580508), (9.779, 279.73635955530307), (9.779, 279.56635955530305), (0.3, 279.49), (0.3, 279.36), (2.556, 279.5081735580508), (2.556, 279.36817355805084), (2.556, 279.5081735580508), (2.556, 279.36817355805084), (9.779, 279.56635955530305), (9.779, 279.43635955530306)]</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3237,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[(0.3, 281.0), (0.3, 280.83), (2.482, 281.0), (2.482, 280.83), (2.482, 281.0), (2.482, 280.77), (9.709, 281.0), (9.709, 280.77), (0.3, 280.83), (0.3, 280.66), (2.482, 280.83), (2.482, 280.66), (2.482, 280.77), (2.482, 280.54), (9.709, 280.77), (9.709, 280.54), (0.3, 280.66), (0.3, 280.49), (2.482, 280.66), (2.482, 280.49), (2.482, 280.54), (2.482, 280.33), (9.709, 280.54), (9.709, 280.43), (0.3, 280.49), (0.3, 280.34), (2.482, 280.49), (2.482, 280.33), (2.482, 280.33), (2.482, 280.33), (9.709, 280.43), (9.709, 280.43)]</t>
+          <t>[(0.3, 281.0), (0.3, 280.83), (2.482, 280.9790633717504), (2.482, 280.80906337175037), (2.482, 280.9790633717504), (2.482, 280.74906337175037), (9.709, 280.9097191864342), (9.709, 280.67971918643417), (0.3, 280.83), (0.3, 280.66), (2.482, 280.80906337175037), (2.482, 280.6390633717504), (2.482, 280.74906337175037), (2.482, 280.5190633717504), (9.709, 280.67971918643417), (9.709, 280.4497191864342), (0.3, 280.66), (0.3, 280.49), (2.482, 280.6390633717504), (2.482, 280.4690633717504), (2.482, 280.5190633717504), (2.482, 280.30906337175037), (9.709, 280.4497191864342), (9.709, 280.3397191864342), (0.3, 280.49), (0.3, 280.34), (2.482, 280.4690633717504), (2.482, 280.30906337175037), (2.482, 280.30906337175037), (2.482, 280.30906337175037), (9.709, 280.3397191864342), (9.709, 280.3397191864342)]</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3257,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[(0.3, 283.0), (0.3, 282.76), (2.698, 283.0), (2.698, 282.76), (2.698, 283.0), (2.698, 282.7), (9.968, 283.0), (9.968, 282.84), (0.3, 282.76), (0.3, 282.52), (2.698, 282.76), (2.698, 282.52), (2.698, 282.7), (2.698, 282.4), (9.968, 282.84), (9.968, 282.68), (0.3, 282.52), (0.3, 282.29), (2.698, 282.52), (2.698, 282.39), (2.698, 282.4), (2.698, 282.4), (9.968, 282.68), (9.968, 282.68)]</t>
+          <t>[(0.3, 283.0), (0.3, 282.76), (2.698, 282.86465651671637), (2.698, 282.62465651671636), (2.698, 282.86465651671637), (2.698, 282.56465651671635), (9.968, 282.4543366153518), (9.968, 282.29433661535177), (0.3, 282.76), (0.3, 282.52), (2.698, 282.62465651671636), (2.698, 282.38465651671635), (2.698, 282.56465651671635), (2.698, 282.26465651671634), (9.968, 282.29433661535177), (9.968, 282.1343366153518), (0.3, 282.52), (0.3, 282.29), (2.698, 282.38465651671635), (2.698, 282.25465651671635), (2.698, 282.26465651671634), (2.698, 282.26465651671634), (9.968, 282.1343366153518), (9.968, 282.1343366153518)]</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3267,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[(0.3, 284.0), (0.3, 283.68), (3.062, 284.0), (3.062, 283.74), (3.062, 284.0), (3.062, 283.74), (10.196, 284.0), (10.196, 283.88), (0.3, 283.68), (0.3, 283.36), (3.062, 283.74), (3.062, 283.48), (3.062, 283.74), (3.062, 283.48), (10.196, 283.88), (10.196, 283.76)]</t>
+          <t>[(0.3, 284.0), (0.3, 283.68), (3.062, 283.80666), (3.062, 283.54666000000003), (3.062, 283.80666), (3.062, 283.54666000000003), (10.196, 283.30728), (10.196, 283.18728), (0.3, 283.68), (0.3, 283.36), (3.062, 283.54666000000003), (3.062, 283.28666000000004), (3.062, 283.54666000000003), (3.062, 283.28666000000004), (10.196, 283.18728), (10.196, 283.06728)]</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3277,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>[(0.3, 285.0), (0.3, 284.7), (3.23, 285.0), (3.23, 284.7), (3.23, 285.0), (3.23, 284.76), (10.247, 285.0), (10.247, 284.86), (0.3, 284.7), (0.3, 284.4), (3.23, 284.7), (3.23, 284.51), (3.23, 284.76), (3.23, 284.52), (10.247, 284.86), (10.247, 284.72)]</t>
+          <t>[(0.3, 285.0), (0.3, 284.7), (3.23, 284.7949), (3.23, 284.4949), (3.23, 284.7949), (3.23, 284.5549), (10.247, 284.30371), (10.247, 284.16371000000004), (0.3, 284.7), (0.3, 284.4), (3.23, 284.4949), (3.23, 284.3049), (3.23, 284.5549), (3.23, 284.31489999999997), (10.247, 284.16371000000004), (10.247, 284.02371000000005)]</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3307,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>[(0.3, 288.0), (0.3, 287.8), (3.579, 288.0), (3.579, 287.8), (3.579, 288.0), (3.579, 287.74), (10.829, 288.0), (10.829, 287.74), (0.3, 287.8), (0.3, 287.6), (3.579, 287.8), (3.579, 287.6), (3.579, 287.74), (3.579, 287.48), (10.829, 287.74), (10.829, 287.55), (0.3, 287.6), (0.3, 287.41), (3.579, 287.6), (3.579, 287.48), (3.579, 287.48), (3.579, 287.48), (10.829, 287.55), (10.829, 287.55)]</t>
+          <t>[(0.3, 288.0), (0.3, 287.8), (3.579, 287.90542636437993), (3.579, 287.70542636437995), (3.579, 287.90542636437993), (3.579, 287.64542636437994), (10.829, 287.6963202776933), (10.829, 287.4363202776933), (0.3, 287.8), (0.3, 287.6), (3.579, 287.70542636437995), (3.579, 287.50542636437996), (3.579, 287.64542636437994), (3.579, 287.38542636437995), (10.829, 287.4363202776933), (10.829, 287.2463202776933), (0.3, 287.6), (0.3, 287.41), (3.579, 287.50542636437996), (3.579, 287.38542636437995), (3.579, 287.38542636437995), (3.579, 287.38542636437995), (10.829, 287.2463202776933), (10.829, 287.2463202776933)]</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3317,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>[(0.3, 289.0), (0.3, 288.85), (3.676, 289.0), (3.676, 288.85), (3.676, 289.0), (3.676, 288.71), (10.918, 289.0), (10.918, 288.62), (0.3, 288.85), (0.3, 288.7), (3.676, 288.85), (3.676, 288.7), (3.676, 288.71), (3.676, 288.42), (10.918, 288.62), (10.918, 288.24), (0.3, 288.7), (0.3, 288.55), (3.676, 288.7), (3.676, 288.55), (3.676, 288.42), (3.676, 288.42), (10.918, 288.24), (10.918, 288.24), (0.3, 288.55), (0.3, 288.42), (3.676, 288.55), (3.676, 288.42), (3.676, 288.42), (3.676, 288.42), (10.918, 288.24), (10.918, 288.24)]</t>
+          <t>[(0.3, 289.0), (0.3, 288.85), (3.676, 289.03055837675424), (3.676, 288.88055837675427), (3.676, 289.03055837675424), (3.676, 288.7405583767542), (10.918, 289.0961104396851), (10.918, 288.7161104396851), (0.3, 288.85), (0.3, 288.7), (3.676, 288.88055837675427), (3.676, 288.73055837675423), (3.676, 288.7405583767542), (3.676, 288.45055837675426), (10.918, 288.7161104396851), (10.918, 288.3361104396851), (0.3, 288.7), (0.3, 288.55), (3.676, 288.73055837675423), (3.676, 288.58055837675425), (3.676, 288.45055837675426), (3.676, 288.45055837675426), (10.918, 288.3361104396851), (10.918, 288.3361104396851), (0.3, 288.55), (0.3, 288.42), (3.676, 288.58055837675425), (3.676, 288.45055837675426), (3.676, 288.45055837675426), (3.676, 288.45055837675426), (10.918, 288.3361104396851), (10.918, 288.3361104396851)]</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3327,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>[(0.3, 290.0), (0.3, 289.81), (3.634, 290.0), (3.634, 289.81), (3.634, 290.0), (3.634, 289.72), (10.797, 290.0), (10.797, 289.61), (0.3, 289.81), (0.3, 289.62), (3.634, 289.81), (3.634, 289.62), (3.634, 289.72), (3.634, 289.44), (10.797, 289.61), (10.797, 289.22), (0.3, 289.62), (0.3, 289.49), (3.634, 289.62), (3.634, 289.45), (3.634, 289.44), (3.634, 289.44), (10.797, 289.22), (10.797, 289.22)]</t>
+          <t>[(0.3, 290.0), (0.3, 289.81), (3.634, 290.1202027199028), (3.634, 289.9302027199028), (3.634, 290.1202027199028), (3.634, 289.84020271990283), (10.797, 290.37845469430704), (10.797, 289.98845469430705), (0.3, 289.81), (0.3, 289.62), (3.634, 289.9302027199028), (3.634, 289.7402027199028), (3.634, 289.84020271990283), (3.634, 289.5602027199028), (10.797, 289.98845469430705), (10.797, 289.59845469430707), (0.3, 289.62), (0.3, 289.49), (3.634, 289.7402027199028), (3.634, 289.5702027199028), (3.634, 289.5602027199028), (3.634, 289.5602027199028), (10.797, 289.59845469430707), (10.797, 289.59845469430707)]</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3337,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>[(0.3, 291.0), (0.3, 290.75), (3.47, 291.0), (3.47, 290.75), (3.47, 291.0), (3.47, 290.75), (10.586, 291.0), (10.586, 290.64), (0.3, 290.75), (0.3, 290.61), (3.47, 290.75), (3.47, 290.5), (3.47, 290.75), (3.47, 290.5), (10.586, 290.64), (10.586, 290.28)]</t>
+          <t>[(0.3, 291.0), (0.3, 290.75), (3.47, 291.1998861208171), (3.47, 290.9498861208171), (3.47, 291.1998861208171), (3.47, 290.9498861208171), (10.586, 291.6485894759384), (10.586, 291.2885894759384), (0.3, 290.75), (0.3, 290.61), (3.47, 290.9498861208171), (3.47, 290.6998861208171), (3.47, 290.9498861208171), (3.47, 290.6998861208171), (10.586, 291.2885894759384), (10.586, 290.9285894759384)]</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3347,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>[(0.3, 292.0), (0.3, 291.89), (3.363, 292.0), (3.363, 291.89), (3.363, 292.0), (3.363, 291.84), (10.444, 292.0), (10.444, 291.71), (0.3, 291.89), (0.3, 291.73), (3.363, 291.89), (3.363, 291.67), (3.363, 291.84), (3.363, 291.68), (10.444, 291.71), (10.444, 291.42)]</t>
+          <t>[(0.3, 292.0), (0.3, 291.89), (3.363, 292.21441), (3.363, 292.10441), (3.363, 292.21441), (3.363, 292.05440999999996), (10.444, 292.71008), (10.444, 292.42008), (0.3, 291.89), (0.3, 291.73), (3.363, 292.10441), (3.363, 291.88441), (3.363, 292.05440999999996), (3.363, 291.89441), (10.444, 292.42008), (10.444, 292.13008)]</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3357,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[(0.3, 293.0), (0.3, 292.83), (3.239, 293.0), (3.239, 292.83), (3.239, 293.0), (3.239, 292.84), (10.339, 293.0), (10.339, 292.72), (0.3, 292.83), (0.3, 292.69), (3.239, 292.83), (3.239, 292.67), (3.239, 292.84), (3.239, 292.68), (10.339, 292.72), (10.339, 292.44)]</t>
+          <t>[(0.3, 293.0), (0.3, 292.83), (3.239, 293.20573), (3.239, 293.03573), (3.239, 293.20573), (3.239, 293.04573), (10.339, 293.70273), (10.339, 293.42273), (0.3, 292.83), (0.3, 292.69), (3.239, 293.03573), (3.239, 292.87573000000003), (3.239, 293.04573), (3.239, 292.88573), (10.339, 293.42273), (10.339, 293.14273)]</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3367,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>[(0.3, 294.0), (0.3, 293.82), (3.232, 294.0), (3.232, 293.82), (3.232, 294.0), (3.232, 293.82), (10.248, 294.0), (10.248, 293.7), (0.3, 293.82), (0.3, 293.68), (3.232, 293.82), (3.232, 293.64), (3.232, 293.82), (3.232, 293.64), (10.248, 293.7), (10.248, 293.4)]</t>
+          <t>[(0.3, 294.0), (0.3, 293.82), (3.232, 294.20524), (3.232, 294.02524), (3.232, 294.20524), (3.232, 294.02524), (10.248, 294.69636), (10.248, 294.39636), (0.3, 293.82), (0.3, 293.68), (3.232, 294.02524), (3.232, 293.84524), (3.232, 294.02524), (3.232, 293.84524), (10.248, 294.39636), (10.248, 294.09636)]</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3377,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[(0.3, 295.0), (0.3, 294.81), (3.079, 295.0), (3.079, 294.81), (3.079, 295.0), (3.079, 294.82), (10.201, 295.0), (10.201, 294.68), (0.3, 294.81), (0.3, 294.65), (3.079, 294.81), (3.079, 294.63), (3.079, 294.82), (3.079, 294.64), (10.201, 294.68), (10.201, 294.36)]</t>
+          <t>[(0.3, 295.0), (0.3, 294.81), (3.079, 295.19453), (3.079, 295.00453), (3.079, 295.19453), (3.079, 295.01453), (10.201, 295.69307), (10.201, 295.37307), (0.3, 294.81), (0.3, 294.65), (3.079, 295.00453), (3.079, 294.82453), (3.079, 295.01453), (3.079, 294.83453), (10.201, 295.37307), (10.201, 295.05307)]</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3387,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>[(0.3, 296.0), (0.3, 295.77), (3.014, 296.0), (3.014, 295.77), (3.014, 296.0), (3.014, 295.78), (10.132, 296.0), (10.132, 295.68), (0.3, 295.77), (0.3, 295.6), (3.014, 295.77), (3.014, 295.55), (3.014, 295.78), (3.014, 295.56), (10.132, 295.68), (10.132, 295.36)]</t>
+          <t>[(0.3, 296.0), (0.3, 295.77), (3.014, 296.16372228346904), (3.014, 295.933722283469), (3.014, 296.16372228346904), (3.014, 295.943722283469), (10.132, 296.5931162457877), (10.132, 296.2731162457877), (0.3, 295.77), (0.3, 295.6), (3.014, 295.933722283469), (3.014, 295.71372228346905), (3.014, 295.943722283469), (3.014, 295.72372228346904), (10.132, 296.2731162457877), (10.132, 295.9531162457877)]</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3397,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>[(0.3, 297.0), (0.3, 296.85), (2.96, 297.0), (2.96, 296.85), (2.96, 297.0), (2.96, 296.71), (10.109, 297.0), (10.109, 296.71), (0.3, 296.85), (0.3, 296.7), (2.96, 296.85), (2.96, 296.7), (2.96, 296.71), (2.96, 296.56), (10.109, 296.71), (10.109, 296.43), (0.3, 296.7), (0.3, 296.57), (2.96, 296.7), (2.96, 296.56), (2.96, 296.56), (2.96, 296.56), (10.109, 296.43), (10.109, 296.43)]</t>
+          <t>[(0.3, 297.0), (0.3, 296.85), (2.96, 297.09292660444135), (2.96, 296.94292660444137), (2.96, 297.09292660444135), (2.96, 296.8029266044413), (10.109, 297.34267558758086), (10.109, 297.05267558758084), (0.3, 296.85), (0.3, 296.7), (2.96, 296.94292660444137), (2.96, 296.79292660444133), (2.96, 296.8029266044413), (2.96, 296.65292660444135), (10.109, 297.05267558758084), (10.109, 296.77267558758086), (0.3, 296.7), (0.3, 296.57), (2.96, 296.79292660444133), (2.96, 296.65292660444135), (2.96, 296.65292660444135), (2.96, 296.65292660444135), (10.109, 296.77267558758086), (10.109, 296.77267558758086)]</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3407,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>[(0.3, 298.0), (0.3, 297.75), (2.938, 298.0), (2.938, 297.75), (2.938, 298.0), (2.938, 297.72), (10.185, 298.0), (10.185, 297.72), (0.3, 297.75), (0.3, 297.5), (2.938, 297.75), (2.938, 297.56), (2.938, 297.72), (2.938, 297.56), (10.185, 297.72), (10.185, 297.45)]</t>
+          <t>[(0.3, 298.0), (0.3, 297.75), (2.938, 298.0251785001486), (2.938, 297.7751785001486), (2.938, 298.0251785001486), (2.938, 297.74517850014865), (10.185, 298.094347791497), (10.185, 297.814347791497), (0.3, 297.75), (0.3, 297.5), (2.938, 297.7751785001486), (2.938, 297.58517850014863), (2.938, 297.74517850014865), (2.938, 297.58517850014863), (10.185, 297.814347791497), (10.185, 297.544347791497)]</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3417,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>[(0.3, 299.0), (0.3, 298.84), (2.987, 299.0), (2.987, 298.84), (2.987, 299.0), (2.987, 298.85), (10.292, 299.0), (10.292, 298.85), (0.3, 298.84), (0.3, 298.68), (2.987, 298.84), (2.987, 298.68), (2.987, 298.85), (2.987, 298.7), (10.292, 298.85), (10.292, 298.7), (0.3, 298.68), (0.3, 298.53), (2.987, 298.68), (2.987, 298.55), (2.987, 298.7), (2.987, 298.55), (10.292, 298.7), (10.292, 298.56)]</t>
+          <t>[(0.3, 299.0), (0.3, 298.84), (2.987, 298.9772197221904), (2.987, 298.8172197221904), (2.987, 298.9772197221904), (2.987, 298.8272197221904), (10.292, 298.91528822632176), (10.292, 298.7652882263218), (0.3, 298.84), (0.3, 298.68), (2.987, 298.8172197221904), (2.987, 298.6572197221904), (2.987, 298.8272197221904), (2.987, 298.6772197221904), (10.292, 298.7652882263218), (10.292, 298.61528822632175), (0.3, 298.68), (0.3, 298.53), (2.987, 298.6572197221904), (2.987, 298.5272197221904), (2.987, 298.6772197221904), (2.987, 298.5272197221904), (10.292, 298.61528822632175), (10.292, 298.47528822632177)]</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3427,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>[(0.3, 300.0), (0.3, 299.83), (3.18, 300.0), (3.18, 299.83), (3.18, 300.0), (3.18, 299.76), (10.429, 300.0), (10.429, 299.76), (0.3, 299.83), (0.3, 299.66), (3.18, 299.83), (3.18, 299.66), (3.18, 299.76), (3.18, 299.53), (10.429, 299.76), (10.429, 299.6), (0.3, 299.66), (0.3, 299.51), (3.18, 299.66), (3.18, 299.53), (3.18, 299.53), (3.18, 299.53), (10.429, 299.6), (10.429, 299.6)]</t>
+          <t>[(0.3, 300.0), (0.3, 299.83), (3.18, 299.9364598661667), (3.18, 299.76645986616666), (3.18, 299.9364598661667), (3.18, 299.69645986616666), (10.429, 299.7765284668063), (10.429, 299.5365284668063), (0.3, 299.83), (0.3, 299.66), (3.18, 299.76645986616666), (3.18, 299.5964598661667), (3.18, 299.69645986616666), (3.18, 299.46645986616664), (10.429, 299.5365284668063), (10.429, 299.37652846680635), (0.3, 299.66), (0.3, 299.51), (3.18, 299.5964598661667), (3.18, 299.46645986616664), (3.18, 299.46645986616664), (3.18, 299.46645986616664), (10.429, 299.37652846680635), (10.429, 299.37652846680635)]</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3437,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>[(0.3, 301.0), (0.3, 300.83), (3.307, 301.0), (3.307, 300.83), (3.307, 301.0), (3.307, 300.77), (10.541, 301.0), (10.541, 300.77), (0.3, 300.83), (0.3, 300.66), (3.307, 300.83), (3.307, 300.66), (3.307, 300.77), (3.307, 300.54), (10.541, 300.77), (10.541, 300.6), (0.3, 300.66), (0.3, 300.5), (3.307, 300.66), (3.307, 300.54), (3.307, 300.54), (3.307, 300.54), (10.541, 300.6), (10.541, 300.6)]</t>
+          <t>[(0.3, 301.0), (0.3, 300.83), (3.307, 300.892809070455), (3.307, 300.72280907045496), (3.307, 300.892809070455), (3.307, 300.66280907045495), (10.541, 300.6349377088558), (10.541, 300.40493770885575), (0.3, 300.83), (0.3, 300.66), (3.307, 300.72280907045496), (3.307, 300.552809070455), (3.307, 300.66280907045495), (3.307, 300.432809070455), (10.541, 300.40493770885575), (10.541, 300.2349377088558), (0.3, 300.66), (0.3, 300.5), (3.307, 300.552809070455), (3.307, 300.432809070455), (3.307, 300.432809070455), (3.307, 300.432809070455), (10.541, 300.2349377088558), (10.541, 300.2349377088558)]</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3447,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>[(0.3, 302.0), (0.3, 301.8), (3.423, 302.0), (3.423, 301.8), (3.423, 302.0), (3.423, 301.74), (10.533, 302.0), (10.533, 301.74), (0.3, 301.8), (0.3, 301.6), (3.423, 301.8), (3.423, 301.6), (3.423, 301.74), (3.423, 301.49), (10.533, 301.74), (10.533, 301.57), (0.3, 301.6), (0.3, 301.42), (3.423, 301.6), (3.423, 301.49), (3.423, 301.49), (3.423, 301.49), (10.533, 301.57), (10.533, 301.57)]</t>
+          <t>[(0.3, 302.0), (0.3, 301.8), (3.423, 301.84624933863205), (3.423, 301.64624933863206), (3.423, 301.84624933863205), (3.423, 301.58624933863206), (10.533, 301.49621180986935), (10.533, 301.23621180986936), (0.3, 301.8), (0.3, 301.6), (3.423, 301.64624933863206), (3.423, 301.4462493386321), (3.423, 301.58624933863206), (3.423, 301.33624933863206), (10.533, 301.23621180986936), (10.533, 301.06621180986934), (0.3, 301.6), (0.3, 301.42), (3.423, 301.4462493386321), (3.423, 301.33624933863206), (3.423, 301.33624933863206), (3.423, 301.33624933863206), (10.533, 301.06621180986934), (10.533, 301.06621180986934)]</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3457,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[(0.3, 303.0), (0.3, 302.81), (3.633, 303.0), (3.633, 302.81), (3.633, 303.0), (3.633, 302.81), (10.731, 303.0), (10.731, 302.81), (0.3, 302.81), (0.3, 302.62), (3.633, 302.81), (3.633, 302.62), (3.633, 302.81), (3.633, 302.51), (10.731, 302.81), (10.731, 302.66), (0.3, 302.62), (0.3, 302.43), (3.633, 302.62), (3.633, 302.51), (3.633, 302.51), (3.633, 302.51), (10.731, 302.66), (10.731, 302.66)]</t>
+          <t>[(0.3, 303.0), (0.3, 302.81), (3.633, 302.7906332498596), (3.633, 302.6006332498596), (3.633, 302.7906332498596), (3.633, 302.6006332498596), (10.731, 302.34476310509604), (10.731, 302.15476310509604), (0.3, 302.81), (0.3, 302.62), (3.633, 302.6006332498596), (3.633, 302.4106332498596), (3.633, 302.6006332498596), (3.633, 302.3006332498596), (10.731, 302.15476310509604), (10.731, 302.00476310509606), (0.3, 302.62), (0.3, 302.43), (3.633, 302.4106332498596), (3.633, 302.3006332498596), (3.633, 302.3006332498596), (3.633, 302.3006332498596), (10.731, 302.00476310509606), (10.731, 302.00476310509606)]</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3487,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>[(0.3, 306.0), (0.3, 305.75), (3.987, 306.0), (3.987, 305.75), (3.987, 306.0), (3.987, 305.89), (11.199, 306.0), (11.199, 305.89), (0.3, 305.75), (0.3, 305.51), (3.987, 305.75), (3.987, 305.6), (3.987, 305.89), (3.987, 305.6), (11.199, 305.89), (11.199, 305.75)]</t>
+          <t>[(0.3, 306.0), (0.3, 305.75), (3.987, 305.74191), (3.987, 305.49191), (3.987, 305.74191), (3.987, 305.63191), (11.199, 305.23707), (11.199, 305.12707), (0.3, 305.75), (0.3, 305.51), (3.987, 305.49191), (3.987, 305.34191000000004), (3.987, 305.63191), (3.987, 305.34191000000004), (11.199, 305.12707), (11.199, 304.98707)]</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3507,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[(0.3, 308.0), (0.3, 307.74), (4.2, 308.0), (4.2, 307.74), (4.2, 308.0), (4.2, 307.89), (11.38, 308.0), (11.38, 307.89), (0.3, 307.74), (0.3, 307.49), (4.2, 307.74), (4.2, 307.59), (4.2, 307.89), (4.2, 307.59), (11.38, 307.89), (11.38, 307.72)]</t>
+          <t>[(0.3, 308.0), (0.3, 307.74), (4.2, 307.727), (4.2, 307.467), (4.2, 307.727), (4.2, 307.61699999999996), (11.38, 307.2244), (11.38, 307.1144), (0.3, 307.74), (0.3, 307.49), (4.2, 307.467), (4.2, 307.31699999999995), (4.2, 307.61699999999996), (4.2, 307.31699999999995), (11.38, 307.1144), (11.38, 306.94440000000003)]</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3517,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[(0.3, 309.0), (0.3, 308.71), (4.209, 309.0), (4.209, 308.71), (4.209, 309.0), (4.209, 308.87), (11.416, 309.0), (11.416, 308.87), (0.3, 308.71), (0.3, 308.43), (4.209, 308.71), (4.209, 308.57), (4.209, 308.87), (4.209, 308.57), (11.416, 308.87), (11.416, 308.72)]</t>
+          <t>[(0.3, 309.0), (0.3, 308.71), (4.209, 308.72637), (4.209, 308.43636999999995), (4.209, 308.72637), (4.209, 308.59637), (11.416, 308.22188), (11.416, 308.09188), (0.3, 308.71), (0.3, 308.43), (4.209, 308.43636999999995), (4.209, 308.29636999999997), (4.209, 308.59637), (4.209, 308.29636999999997), (11.416, 308.09188), (11.416, 307.94188)]</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3557,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[(0.3, 313.0), (0.3, 312.74), (4.512, 313.0), (4.512, 312.74), (4.512, 313.0), (4.512, 312.89), (11.664, 313.0), (11.664, 312.89), (0.3, 312.74), (0.3, 312.48), (4.512, 312.74), (4.512, 312.63), (4.512, 312.89), (4.512, 312.63), (11.664, 312.89), (11.664, 312.75)]</t>
+          <t>[(0.3, 313.0), (0.3, 312.74), (4.512, 312.70516), (4.512, 312.44516), (4.512, 312.70516), (4.512, 312.59515999999996), (11.664, 312.20452), (11.664, 312.09452), (0.3, 312.74), (0.3, 312.48), (4.512, 312.44516), (4.512, 312.33516), (4.512, 312.59515999999996), (4.512, 312.33516), (11.664, 312.09452), (11.664, 311.95452)]</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3567,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>[(0.3, 314.0), (0.3, 313.66), (4.383, 314.0), (4.383, 313.74), (4.383, 314.0), (4.383, 313.74), (11.56, 314.0), (11.56, 313.85), (0.3, 313.66), (0.3, 313.32), (4.383, 313.74), (4.383, 313.48), (4.383, 313.74), (4.383, 313.48), (11.56, 313.85), (11.56, 313.7)]</t>
+          <t>[(0.3, 314.0), (0.3, 313.66), (4.383, 313.71419), (4.383, 313.45419), (4.383, 313.71419), (4.383, 313.45419), (11.56, 313.2118), (11.56, 313.0618), (0.3, 313.66), (0.3, 313.32), (4.383, 313.45419), (4.383, 313.19419), (4.383, 313.45419), (4.383, 313.19419), (11.56, 313.0618), (11.56, 312.91179999999997)]</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3587,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>[(0.3, 316.0), (0.3, 315.72), (4.129, 316.0), (4.129, 315.72), (4.129, 316.0), (4.129, 315.77), (11.157, 316.0), (11.157, 315.77), (0.3, 315.72), (0.3, 315.45), (4.129, 315.72), (4.129, 315.54), (4.129, 315.77), (4.129, 315.54), (11.157, 315.77), (11.157, 315.66)]</t>
+          <t>[(0.3, 316.0), (0.3, 315.72), (4.129, 315.7809244729484), (4.129, 315.50092447294844), (4.129, 315.7809244729484), (4.129, 315.5509244729484), (11.157, 315.3788187523638), (11.157, 315.1488187523638), (0.3, 315.72), (0.3, 315.45), (4.129, 315.50092447294844), (4.129, 315.32092447294843), (4.129, 315.5509244729484), (4.129, 315.32092447294843), (11.157, 315.1488187523638), (11.157, 315.03881875236385)]</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3597,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>[(0.3, 317.0), (0.3, 316.81), (4.011, 317.0), (4.011, 316.81), (4.011, 317.0), (4.011, 316.75), (10.917, 317.0), (10.917, 316.75), (0.3, 316.81), (0.3, 316.62), (4.011, 316.81), (4.011, 316.62), (4.011, 316.75), (4.011, 316.51), (10.917, 316.75), (10.917, 316.6), (0.3, 316.62), (0.3, 316.43), (4.011, 316.62), (4.011, 316.51), (4.011, 316.51), (4.011, 316.51), (10.917, 316.6), (10.917, 316.6)]</t>
+          <t>[(0.3, 317.0), (0.3, 316.81), (4.011, 316.82217892030485), (4.011, 316.63217892030485), (4.011, 316.82217892030485), (4.011, 316.57217892030485), (10.917, 316.49126208484944), (10.917, 316.24126208484944), (0.3, 316.81), (0.3, 316.62), (4.011, 316.63217892030485), (4.011, 316.44217892030485), (4.011, 316.57217892030485), (4.011, 316.33217892030484), (10.917, 316.24126208484944), (10.917, 316.09126208484946), (0.3, 316.62), (0.3, 316.43), (4.011, 316.44217892030485), (4.011, 316.33217892030484), (4.011, 316.33217892030484), (4.011, 316.33217892030484), (10.917, 316.09126208484946), (10.917, 316.09126208484946)]</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3607,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>[(0.3, 318.0), (0.3, 317.75), (3.772, 318.0), (3.772, 317.75), (3.772, 318.0), (3.772, 317.78), (10.741, 318.0), (10.741, 317.78), (0.3, 317.75), (0.3, 317.5), (3.772, 317.75), (3.772, 317.57), (3.772, 317.78), (3.772, 317.57), (10.741, 317.78), (10.741, 317.6)]</t>
+          <t>[(0.3, 318.0), (0.3, 317.75), (3.772, 317.86591214541335), (3.772, 317.61591214541335), (3.772, 317.86591214541335), (3.772, 317.6459121454133), (10.741, 317.5967709418954), (10.741, 317.37677094189536), (0.3, 317.75), (0.3, 317.5), (3.772, 317.61591214541335), (3.772, 317.43591214541334), (3.772, 317.6459121454133), (3.772, 317.43591214541334), (10.741, 317.37677094189536), (10.741, 317.1967709418954)]</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3617,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>[(0.3, 319.0), (0.3, 318.75), (3.685, 319.0), (3.685, 318.75), (3.685, 319.0), (3.685, 318.84), (10.728, 319.0), (10.728, 318.84), (0.3, 318.75), (0.3, 318.51), (3.685, 318.75), (3.685, 318.56), (3.685, 318.84), (3.685, 318.68), (10.728, 318.84), (10.728, 318.68)]</t>
+          <t>[(0.3, 319.0), (0.3, 318.75), (3.685, 318.9007441731708), (3.685, 318.6507441731708), (3.685, 318.9007441731708), (3.685, 318.74074417317075), (10.728, 318.69422754440916), (10.728, 318.53422754440913), (0.3, 318.75), (0.3, 318.51), (3.685, 318.6507441731708), (3.685, 318.4607441731708), (3.685, 318.74074417317075), (3.685, 318.5807441731708), (10.728, 318.53422754440913), (10.728, 318.37422754440917)]</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3627,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[(0.3, 320.0), (0.3, 319.84), (3.606, 320.0), (3.606, 319.84), (3.606, 320.0), (3.606, 319.84), (10.674, 320.0), (10.674, 319.84), (0.3, 319.84), (0.3, 319.68), (3.606, 319.84), (3.606, 319.68), (3.606, 319.84), (3.606, 319.68), (10.674, 319.84), (10.674, 319.68), (0.3, 319.68), (0.3, 319.52), (3.606, 319.68), (3.606, 319.57), (3.606, 319.68), (3.606, 319.57), (10.674, 319.68), (10.674, 319.53)]</t>
+          <t>[(0.3, 320.0), (0.3, 319.84), (3.606, 319.91735), (3.606, 319.75735), (3.606, 319.91735), (3.606, 319.75735), (10.674, 319.74065), (10.674, 319.58065), (0.3, 319.84), (0.3, 319.68), (3.606, 319.75735), (3.606, 319.59735), (3.606, 319.75735), (3.606, 319.59735), (10.674, 319.58065), (10.674, 319.42065), (0.3, 319.68), (0.3, 319.52), (3.606, 319.59735), (3.606, 319.48735), (3.606, 319.59735), (3.606, 319.48735), (10.674, 319.42065), (10.674, 319.27065)]</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3637,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>[(0.3, 321.0), (0.3, 320.75), (3.604, 321.0), (3.604, 320.75), (3.604, 321.0), (3.604, 320.85), (10.642, 321.0), (10.642, 320.85), (0.3, 320.75), (0.3, 320.51), (3.604, 320.75), (3.604, 320.56), (3.604, 320.85), (3.604, 320.7), (10.642, 320.85), (10.642, 320.7)]</t>
+          <t>[(0.3, 321.0), (0.3, 320.75), (3.604, 320.9174), (3.604, 320.6674), (3.604, 320.9174), (3.604, 320.7674), (10.642, 320.74145), (10.642, 320.59145), (0.3, 320.75), (0.3, 320.51), (3.604, 320.6674), (3.604, 320.4774), (3.604, 320.7674), (3.604, 320.6174), (10.642, 320.59145), (10.642, 320.44145)]</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3647,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>[(0.3, 322.0), (0.3, 321.73), (3.648, 322.0), (3.648, 321.73), (3.648, 322.0), (3.648, 321.78), (10.628, 322.0), (10.628, 321.78), (0.3, 321.73), (0.3, 321.46), (3.648, 321.73), (3.648, 321.56), (3.648, 321.78), (3.648, 321.56), (10.628, 321.78), (10.628, 321.63)]</t>
+          <t>[(0.3, 322.0), (0.3, 321.73), (3.648, 321.9163), (3.648, 321.6463), (3.648, 321.9163), (3.648, 321.69629999999995), (10.628, 321.7418), (10.628, 321.5218), (0.3, 321.73), (0.3, 321.46), (3.648, 321.6463), (3.648, 321.4763), (3.648, 321.69629999999995), (3.648, 321.4763), (10.628, 321.5218), (10.628, 321.3718)]</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3657,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>[(0.3, 323.0), (0.3, 322.72), (3.651, 323.0), (3.651, 322.72), (3.651, 323.0), (3.651, 322.86), (10.623, 323.0), (10.623, 322.86), (0.3, 322.72), (0.3, 322.45), (3.651, 322.72), (3.651, 322.61), (3.651, 322.86), (3.651, 322.72), (10.623, 322.86), (10.623, 322.72)]</t>
+          <t>[(0.3, 323.0), (0.3, 322.72), (3.651, 322.916225), (3.651, 322.636225), (3.651, 322.916225), (3.651, 322.776225), (10.623, 322.741925), (10.623, 322.601925), (0.3, 322.72), (0.3, 322.45), (3.651, 322.636225), (3.651, 322.526225), (3.651, 322.776225), (3.651, 322.636225), (10.623, 322.601925), (10.623, 322.461925)]</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3667,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>[(0.3, 324.0), (0.3, 323.74), (3.621, 324.0), (3.621, 323.74), (3.621, 324.0), (3.621, 323.8), (10.615, 324.0), (10.615, 323.8), (0.3, 323.74), (0.3, 323.48), (3.621, 323.74), (3.621, 323.61), (3.621, 323.8), (3.621, 323.61), (10.615, 323.8), (10.615, 323.63)]</t>
+          <t>[(0.3, 324.0), (0.3, 323.74), (3.621, 323.916975), (3.621, 323.656975), (3.621, 323.916975), (3.621, 323.716975), (10.615, 323.742125), (10.615, 323.542125), (0.3, 323.74), (0.3, 323.48), (3.621, 323.656975), (3.621, 323.526975), (3.621, 323.716975), (3.621, 323.526975), (10.615, 323.542125), (10.615, 323.372125)]</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3677,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[(0.3, 325.0), (0.3, 324.73), (3.549, 325.0), (3.549, 324.73), (3.549, 325.0), (3.549, 324.8), (10.578, 325.0), (10.578, 324.8), (0.3, 324.73), (0.3, 324.46), (3.549, 324.73), (3.549, 324.61), (3.549, 324.8), (3.549, 324.61), (10.578, 324.8), (10.578, 324.62)]</t>
+          <t>[(0.3, 325.0), (0.3, 324.73), (3.549, 324.918775), (3.549, 324.648775), (3.549, 324.918775), (3.549, 324.718775), (10.578, 324.74305), (10.578, 324.54305), (0.3, 324.73), (0.3, 324.46), (3.549, 324.648775), (3.549, 324.528775), (3.549, 324.718775), (3.549, 324.528775), (10.578, 324.54305), (10.578, 324.36305)]</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3687,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>[(0.3, 326.0), (0.3, 325.78), (3.519, 326.0), (3.519, 325.78), (3.519, 326.0), (3.519, 325.82), (10.547, 326.0), (10.547, 325.82), (0.3, 325.78), (0.3, 325.48), (3.519, 325.78), (3.519, 325.64), (3.519, 325.82), (3.519, 325.64), (10.547, 325.82), (10.547, 325.66)]</t>
+          <t>[(0.3, 326.0), (0.3, 325.78), (3.519, 325.919525), (3.519, 325.699525), (3.519, 325.919525), (3.519, 325.739525), (10.547, 325.743825), (10.547, 325.563825), (0.3, 325.78), (0.3, 325.48), (3.519, 325.699525), (3.519, 325.559525), (3.519, 325.739525), (3.519, 325.559525), (10.547, 325.563825), (10.547, 325.40382500000004)]</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3697,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>[(0.3, 327.0), (0.3, 326.75), (3.479, 327.0), (3.479, 326.75), (3.479, 327.0), (3.479, 326.81), (10.523, 327.0), (10.523, 326.81), (0.3, 326.75), (0.3, 326.51), (3.479, 326.75), (3.479, 326.62), (3.479, 326.81), (3.479, 326.62), (10.523, 326.81), (10.523, 326.66)]</t>
+          <t>[(0.3, 327.0), (0.3, 326.75), (3.479, 326.920525), (3.479, 326.670525), (3.479, 326.920525), (3.479, 326.730525), (10.523, 326.744425), (10.523, 326.554425), (0.3, 326.75), (0.3, 326.51), (3.479, 326.670525), (3.479, 326.540525), (3.479, 326.730525), (3.479, 326.540525), (10.523, 326.554425), (10.523, 326.404425)]</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3707,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>[(0.3, 328.0), (0.3, 327.76), (3.437, 328.0), (3.437, 327.76), (3.437, 328.0), (3.437, 327.81), (10.443, 328.0), (10.443, 327.81), (0.3, 327.76), (0.3, 327.52), (3.437, 327.76), (3.437, 327.62), (3.437, 327.81), (3.437, 327.62), (10.443, 327.81), (10.443, 327.64)]</t>
+          <t>[(0.3, 328.0), (0.3, 327.76), (3.437, 327.921575), (3.437, 327.681575), (3.437, 327.921575), (3.437, 327.731575), (10.443, 327.746425), (10.443, 327.556425), (0.3, 327.76), (0.3, 327.52), (3.437, 327.681575), (3.437, 327.541575), (3.437, 327.731575), (3.437, 327.541575), (10.443, 327.556425), (10.443, 327.386425)]</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3717,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>[(0.3, 329.0), (0.3, 328.82), (3.353, 329.0), (3.353, 328.82), (3.353, 329.0), (3.353, 328.81), (10.37, 329.0), (10.37, 328.81), (0.3, 328.82), (0.3, 328.64), (3.353, 328.82), (3.353, 328.67), (3.353, 328.81), (3.353, 328.67), (10.37, 328.81), (10.37, 328.62)]</t>
+          <t>[(0.3, 329.0), (0.3, 328.82), (3.353, 328.923675), (3.353, 328.743675), (3.353, 328.923675), (3.353, 328.733675), (10.37, 328.74825), (10.37, 328.55825), (0.3, 328.82), (0.3, 328.64), (3.353, 328.743675), (3.353, 328.593675), (3.353, 328.733675), (3.353, 328.593675), (10.37, 328.55825), (10.37, 328.36825)]</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3737,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>[(0.3, 331.0), (0.3, 330.83), (3.135, 331.0), (3.135, 330.83), (3.135, 331.0), (3.135, 330.81), (10.237, 331.0), (10.237, 330.81), (0.3, 330.83), (0.3, 330.72), (3.135, 330.83), (3.135, 330.67), (3.135, 330.81), (3.135, 330.67), (10.237, 330.81), (10.237, 330.62)]</t>
+          <t>[(0.3, 331.0), (0.3, 330.83), (3.135, 330.9124679779202), (3.135, 330.74246797792017), (3.135, 330.9124679779202), (3.135, 330.7224679779202), (10.237, 330.6931902280752), (10.237, 330.5031902280752), (0.3, 330.83), (0.3, 330.72), (3.135, 330.74246797792017), (3.135, 330.5824679779202), (3.135, 330.7224679779202), (3.135, 330.5824679779202), (10.237, 330.5031902280752), (10.237, 330.3131902280752)]</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3747,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>[(0.3, 332.0), (0.3, 331.8), (3.172, 332.0), (3.172, 331.8), (3.172, 332.0), (3.172, 331.86), (10.192, 332.0), (10.192, 331.86), (0.3, 331.8), (0.3, 331.62), (3.172, 331.8), (3.172, 331.61), (3.172, 331.86), (3.172, 331.72), (10.192, 331.86), (10.192, 331.72)]</t>
+          <t>[(0.3, 332.0), (0.3, 331.8), (3.172, 331.8832787096867), (3.172, 331.6832787096867), (3.172, 331.8832787096867), (3.172, 331.7432787096867), (10.192, 331.59797806275105), (10.192, 331.45797806275107), (0.3, 331.8), (0.3, 331.62), (3.172, 331.6832787096867), (3.172, 331.4932787096867), (3.172, 331.7432787096867), (3.172, 331.6032787096867), (10.192, 331.45797806275107), (10.192, 331.3179780627511)]</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3757,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>[(0.3, 333.0), (0.3, 332.85), (3.37, 333.0), (3.37, 332.85), (3.37, 333.0), (3.37, 332.79), (10.283, 333.0), (10.283, 332.79), (0.3, 332.85), (0.3, 332.7), (3.37, 332.85), (3.37, 332.7), (3.37, 332.79), (3.37, 332.58), (10.283, 332.79), (10.283, 332.64), (0.3, 332.7), (0.3, 332.59), (3.37, 332.7), (3.37, 332.58), (3.37, 332.58), (3.37, 332.58), (10.283, 332.64), (10.283, 332.64)]</t>
+          <t>[(0.3, 333.0), (0.3, 332.85), (3.37, 332.84525129961287), (3.37, 332.6952512996129), (3.37, 332.84525129961287), (3.37, 332.6352512996129), (10.283, 332.4967894866565), (10.283, 332.2867894866565), (0.3, 332.85), (0.3, 332.7), (3.37, 332.6952512996129), (3.37, 332.54525129961286), (3.37, 332.6352512996129), (3.37, 332.42525129961285), (10.283, 332.2867894866565), (10.283, 332.1367894866565), (0.3, 332.7), (0.3, 332.59), (3.37, 332.54525129961286), (3.37, 332.42525129961285), (3.37, 332.42525129961285), (3.37, 332.42525129961285), (10.283, 332.1367894866565), (10.283, 332.1367894866565)]</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3767,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[(0.3, 334.0), (0.3, 333.84), (3.565, 334.0), (3.565, 333.84), (3.565, 334.0), (3.565, 333.78), (10.399, 334.0), (10.399, 333.78), (0.3, 333.84), (0.3, 333.68), (3.565, 333.84), (3.565, 333.68), (3.565, 333.78), (3.565, 333.57), (10.399, 333.78), (10.399, 333.65), (0.3, 333.68), (0.3, 333.54), (3.565, 333.68), (3.565, 333.57), (3.565, 333.57), (3.565, 333.57), (10.399, 333.65), (10.399, 333.65)]</t>
+          <t>[(0.3, 334.0), (0.3, 333.84), (3.565, 333.80353721914247), (3.565, 333.64353721914244), (3.565, 333.80353721914247), (3.565, 333.58353721914244), (10.399, 333.39231925761703), (10.399, 333.172319257617), (0.3, 333.84), (0.3, 333.68), (3.565, 333.64353721914244), (3.565, 333.4835372191425), (3.565, 333.58353721914244), (3.565, 333.37353721914246), (10.399, 333.172319257617), (10.399, 333.042319257617), (0.3, 333.68), (0.3, 333.54), (3.565, 333.4835372191425), (3.565, 333.37353721914246), (3.565, 333.37353721914246), (3.565, 333.37353721914246), (10.399, 333.042319257617), (10.399, 333.042319257617)]</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3777,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[(0.3, 335.0), (0.3, 334.78), (3.711, 335.0), (3.711, 334.78), (3.711, 335.0), (3.711, 334.89), (10.58, 335.0), (10.58, 334.89), (0.3, 334.78), (0.3, 334.56), (3.711, 334.78), (3.711, 334.62), (3.711, 334.89), (3.711, 334.62), (10.58, 334.89), (10.58, 334.72)]</t>
+          <t>[(0.3, 335.0), (0.3, 334.78), (3.711, 334.7614415065691), (3.711, 334.5414415065691), (3.711, 334.7614415065691), (3.711, 334.6514415065691), (10.58, 334.28103743404574), (10.58, 334.17103743404573), (0.3, 334.78), (0.3, 334.56), (3.711, 334.5414415065691), (3.711, 334.3814415065691), (3.711, 334.6514415065691), (3.711, 334.3814415065691), (10.58, 334.17103743404573), (10.58, 334.00103743404577)]</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3787,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>[(0.3, 336.0), (0.3, 335.85), (3.815, 336.0), (3.815, 335.85), (3.815, 336.0), (3.815, 335.78), (10.735, 336.0), (10.735, 335.78), (0.3, 335.85), (0.3, 335.7), (3.815, 335.85), (3.815, 335.7), (3.815, 335.78), (3.815, 335.57), (10.735, 335.78), (10.735, 335.66), (0.3, 335.7), (0.3, 335.55), (3.815, 335.7), (3.815, 335.57), (3.815, 335.57), (3.815, 335.57), (10.735, 335.66), (10.735, 335.66)]</t>
+          <t>[(0.3, 336.0), (0.3, 335.85), (3.815, 335.75395), (3.815, 335.60395), (3.815, 335.75395), (3.815, 335.53394999999995), (10.735, 335.26955), (10.735, 335.04954999999995), (0.3, 335.85), (0.3, 335.7), (3.815, 335.60395), (3.815, 335.45394999999996), (3.815, 335.53394999999995), (3.815, 335.32394999999997), (10.735, 335.04954999999995), (10.735, 334.92955), (0.3, 335.7), (0.3, 335.55), (3.815, 335.45394999999996), (3.815, 335.32394999999997), (3.815, 335.32394999999997), (3.815, 335.32394999999997), (10.735, 334.92955), (10.735, 334.92955)]</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3797,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[(0.3, 337.0), (0.3, 336.77), (3.96, 337.0), (3.96, 336.77), (3.96, 337.0), (3.96, 336.79), (10.866, 337.0), (10.866, 336.79), (0.3, 336.77), (0.3, 336.54), (3.96, 336.77), (3.96, 336.58), (3.96, 336.79), (3.96, 336.58), (10.866, 336.79), (10.866, 336.66)]</t>
+          <t>[(0.3, 337.0), (0.3, 336.77), (3.96, 336.7438), (3.96, 336.5138), (3.96, 336.7438), (3.96, 336.53380000000004), (10.866, 336.26038), (10.866, 336.05038), (0.3, 336.77), (0.3, 336.54), (3.96, 336.5138), (3.96, 336.3238), (3.96, 336.53380000000004), (3.96, 336.3238), (10.866, 336.05038), (10.866, 335.92038)]</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3807,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[(0.3, 338.0), (0.3, 337.85), (4.13, 338.0), (4.13, 337.85), (4.13, 338.0), (4.13, 337.79), (11.031, 338.0), (11.031, 337.79), (0.3, 337.85), (0.3, 337.7), (4.13, 337.85), (4.13, 337.7), (4.13, 337.79), (4.13, 337.58), (11.031, 337.79), (11.031, 337.67), (0.3, 337.7), (0.3, 337.55), (4.13, 337.7), (4.13, 337.58), (4.13, 337.58), (4.13, 337.58), (11.031, 337.67), (11.031, 337.67)]</t>
+          <t>[(0.3, 338.0), (0.3, 337.85), (4.13, 337.7319), (4.13, 337.5819), (4.13, 337.7319), (4.13, 337.5219), (11.031, 337.24883), (11.031, 337.03883), (0.3, 337.85), (0.3, 337.7), (4.13, 337.5819), (4.13, 337.4319), (4.13, 337.5219), (4.13, 337.3119), (11.031, 337.03883), (11.031, 336.91883), (0.3, 337.7), (0.3, 337.55), (4.13, 337.4319), (4.13, 337.3119), (4.13, 337.3119), (4.13, 337.3119), (11.031, 336.91883), (11.031, 336.91883)]</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3817,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>[(0.3, 339.0), (0.3, 338.85), (4.233, 339.0), (4.233, 338.85), (4.233, 339.0), (4.233, 338.78), (11.118, 339.0), (11.118, 338.78), (0.3, 338.85), (0.3, 338.7), (4.233, 338.85), (4.233, 338.7), (4.233, 338.78), (4.233, 338.57), (11.118, 338.78), (11.118, 338.65), (0.3, 338.7), (0.3, 338.55), (4.233, 338.7), (4.233, 338.57), (4.233, 338.57), (4.233, 338.57), (11.118, 338.65), (11.118, 338.65)]</t>
+          <t>[(0.3, 339.0), (0.3, 338.85), (4.233, 338.72469), (4.233, 338.57469000000003), (4.233, 338.72469), (4.233, 338.50469), (11.118, 338.24274), (11.118, 338.02274), (0.3, 338.85), (0.3, 338.7), (4.233, 338.57469000000003), (4.233, 338.42469), (4.233, 338.50469), (4.233, 338.29469), (11.118, 338.02274), (11.118, 337.89274), (0.3, 338.7), (0.3, 338.55), (4.233, 338.42469), (4.233, 338.29469), (4.233, 338.29469), (4.233, 338.29469), (11.118, 337.89274), (11.118, 337.89274)]</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3827,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>[(0.3, 340.0), (0.3, 339.77), (4.411, 340.0), (4.411, 339.77), (4.411, 340.0), (4.411, 339.79), (11.35, 340.0), (11.35, 339.79), (0.3, 339.77), (0.3, 339.54), (4.411, 339.77), (4.411, 339.59), (4.411, 339.79), (4.411, 339.59), (11.35, 339.79), (11.35, 339.68)]</t>
+          <t>[(0.3, 340.0), (0.3, 339.77), (4.411, 339.71223), (4.411, 339.48222999999996), (4.411, 339.71223), (4.411, 339.50223), (11.35, 339.2265), (11.35, 339.0165), (0.3, 339.77), (0.3, 339.54), (4.411, 339.48222999999996), (4.411, 339.30222999999995), (4.411, 339.50223), (4.411, 339.30222999999995), (11.35, 339.0165), (11.35, 338.9065)]</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3837,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[(0.3, 341.0), (0.3, 340.75), (4.508, 341.0), (4.508, 340.75), (4.508, 341.0), (4.508, 340.81), (11.402, 341.0), (11.402, 340.81), (0.3, 340.75), (0.3, 340.51), (4.508, 340.75), (4.508, 340.62), (4.508, 340.81), (4.508, 340.62), (11.402, 340.81), (11.402, 340.7)]</t>
+          <t>[(0.3, 341.0), (0.3, 340.75), (4.508, 340.70544), (4.508, 340.45544), (4.508, 340.70544), (4.508, 340.51544), (11.402, 340.22286), (11.402, 340.03286), (0.3, 340.75), (0.3, 340.51), (4.508, 340.45544), (4.508, 340.32544), (4.508, 340.51544), (4.508, 340.32544), (11.402, 340.03286), (11.402, 339.92286)]</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3867,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>[(0.3, 344.0), (0.3, 343.78), (4.439, 344.0), (4.439, 343.78), (4.439, 344.0), (4.439, 343.81), (11.241, 344.0), (11.241, 343.81), (0.3, 343.78), (0.3, 343.56), (4.439, 343.78), (4.439, 343.63), (4.439, 343.81), (4.439, 343.63), (11.241, 343.81), (11.241, 343.7)]</t>
+          <t>[(0.3, 344.0), (0.3, 343.78), (4.439, 343.774464057998), (4.439, 343.55446405799796), (4.439, 343.774464057998), (4.439, 343.584464057998), (11.241, 343.4038200673004), (11.241, 343.2138200673004), (0.3, 343.78), (0.3, 343.56), (4.439, 343.55446405799796), (4.439, 343.404464057998), (4.439, 343.584464057998), (4.439, 343.404464057998), (11.241, 343.2138200673004), (11.241, 343.1038200673004)]</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3877,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[(0.3, 345.0), (0.3, 344.85), (4.277, 345.0), (4.277, 344.85), (4.277, 345.0), (4.277, 344.78), (11.099, 345.0), (11.099, 344.78), (0.3, 344.85), (0.3, 344.7), (4.277, 344.85), (4.277, 344.7), (4.277, 344.78), (4.277, 344.57), (11.099, 344.78), (11.099, 344.62), (0.3, 344.7), (0.3, 344.56), (4.277, 344.7), (4.277, 344.57), (4.277, 344.57), (4.277, 344.57), (11.099, 344.62), (11.099, 344.62)]</t>
+          <t>[(0.3, 345.0), (0.3, 344.85), (4.277, 344.82212940032736), (4.277, 344.6721294003274), (4.277, 344.82212940032736), (4.277, 344.6021294003273), (11.099, 344.51701669452734), (11.099, 344.2970166945273), (0.3, 344.85), (0.3, 344.7), (4.277, 344.6721294003274), (4.277, 344.52212940032734), (4.277, 344.6021294003273), (4.277, 344.39212940032735), (11.099, 344.2970166945273), (11.099, 344.13701669452735), (0.3, 344.7), (0.3, 344.56), (4.277, 344.52212940032734), (4.277, 344.39212940032735), (4.277, 344.39212940032735), (4.277, 344.39212940032735), (11.099, 344.13701669452735), (11.099, 344.13701669452735)]</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3887,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>[(0.3, 346.0), (0.3, 345.87), (4.095, 346.0), (4.095, 345.87), (4.095, 346.0), (4.095, 345.81), (10.887, 346.0), (10.887, 345.81), (0.3, 345.87), (0.3, 345.74), (4.095, 345.87), (4.095, 345.74), (4.095, 345.81), (4.095, 345.62), (10.887, 345.81), (10.887, 345.62), (0.3, 345.74), (0.3, 345.61), (4.095, 345.74), (4.095, 345.61), (4.095, 345.62), (4.095, 345.5), (10.887, 345.62), (10.887, 345.45), (0.3, 345.61), (0.3, 345.5), (4.095, 345.61), (4.095, 345.5), (4.095, 345.5), (4.095, 345.5), (10.887, 345.45), (10.887, 345.45)]</t>
+          <t>[(0.3, 346.0), (0.3, 345.87), (4.095, 345.8673298640091), (4.095, 345.7373298640091), (4.095, 345.8673298640091), (4.095, 345.6773298640091), (10.887, 345.62988702773765), (10.887, 345.43988702773765), (0.3, 345.87), (0.3, 345.74), (4.095, 345.7373298640091), (4.095, 345.6073298640091), (4.095, 345.6773298640091), (4.095, 345.4873298640091), (10.887, 345.43988702773765), (10.887, 345.24988702773766), (0.3, 345.74), (0.3, 345.61), (4.095, 345.6073298640091), (4.095, 345.4773298640091), (4.095, 345.4873298640091), (4.095, 345.3673298640091), (10.887, 345.24988702773766), (10.887, 345.07988702773764), (0.3, 345.61), (0.3, 345.5), (4.095, 345.4773298640091), (4.095, 345.3673298640091), (4.095, 345.3673298640091), (4.095, 345.3673298640091), (10.887, 345.07988702773764), (10.887, 345.07988702773764)]</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3897,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[(0.3, 347.0), (0.3, 346.81), (3.977, 347.0), (3.977, 346.81), (3.977, 347.0), (3.977, 346.8), (10.773, 347.0), (10.773, 346.8), (0.3, 346.81), (0.3, 346.62), (3.977, 346.81), (3.977, 346.62), (3.977, 346.8), (3.977, 346.6), (10.773, 346.8), (10.773, 346.6), (0.3, 346.62), (0.3, 346.43), (3.977, 346.62), (3.977, 346.45), (3.977, 346.6), (3.977, 346.45), (10.773, 346.6), (10.773, 346.4)]</t>
+          <t>[(0.3, 347.0), (0.3, 346.81), (3.977, 346.9073632518632), (3.977, 346.7173632518632), (3.977, 346.9073632518632), (3.977, 346.7073632518632), (10.773, 346.73614776632127), (10.773, 346.5361477663213), (0.3, 346.81), (0.3, 346.62), (3.977, 346.7173632518632), (3.977, 346.5273632518632), (3.977, 346.7073632518632), (3.977, 346.50736325186324), (10.773, 346.5361477663213), (10.773, 346.3361477663213), (0.3, 346.62), (0.3, 346.43), (3.977, 346.5273632518632), (3.977, 346.3573632518632), (3.977, 346.50736325186324), (3.977, 346.3573632518632), (10.773, 346.3361477663213), (10.773, 346.13614776632124)]</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3907,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>[(0.3, 348.0), (0.3, 347.71), (3.862, 348.0), (3.862, 347.71), (3.862, 348.0), (3.862, 347.83), (10.664, 348.0), (10.664, 347.83), (0.3, 347.71), (0.3, 347.43), (3.862, 347.71), (3.862, 347.53), (3.862, 347.83), (3.862, 347.66), (10.664, 347.83), (10.664, 347.66)]</t>
+          <t>[(0.3, 348.0), (0.3, 347.71), (3.862, 347.91095), (3.862, 347.62095), (3.862, 347.91095), (3.862, 347.74095), (10.664, 347.7409), (10.664, 347.5709), (0.3, 347.71), (0.3, 347.43), (3.862, 347.62095), (3.862, 347.44095), (3.862, 347.74095), (3.862, 347.57095000000004), (10.664, 347.5709), (10.664, 347.40090000000004)]</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3917,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[(0.3, 349.0), (0.3, 348.7), (3.777, 349.0), (3.777, 348.76), (3.777, 349.0), (3.777, 348.84), (10.611, 349.0), (10.611, 348.84), (0.3, 348.7), (0.3, 348.4), (3.777, 348.76), (3.777, 348.52), (3.777, 348.84), (3.777, 348.68), (10.611, 348.84), (10.611, 348.68)]</t>
+          <t>[(0.3, 349.0), (0.3, 348.7), (3.777, 348.913075), (3.777, 348.673075), (3.777, 348.913075), (3.777, 348.75307499999997), (10.611, 348.742225), (10.611, 348.582225), (0.3, 348.7), (0.3, 348.4), (3.777, 348.673075), (3.777, 348.433075), (3.777, 348.75307499999997), (3.777, 348.593075), (10.611, 348.582225), (10.611, 348.422225)]</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3927,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[(0.3, 350.0), (0.3, 349.73), (3.747, 350.0), (3.747, 349.73), (3.747, 350.0), (3.747, 349.78), (10.563, 350.0), (10.563, 349.78), (0.3, 349.73), (0.3, 349.46), (3.747, 349.73), (3.747, 349.61), (3.747, 349.78), (3.747, 349.61), (10.563, 349.78), (10.563, 349.57)]</t>
+          <t>[(0.3, 350.0), (0.3, 349.73), (3.747, 349.913825), (3.747, 349.643825), (3.747, 349.913825), (3.747, 349.69382499999995), (10.563, 349.743425), (10.563, 349.523425), (0.3, 349.73), (0.3, 349.46), (3.747, 349.643825), (3.747, 349.523825), (3.747, 349.69382499999995), (3.747, 349.523825), (10.563, 349.523425), (10.563, 349.313425)]</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3937,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[(0.3, 351.0), (0.3, 350.77), (3.731, 351.0), (3.731, 350.77), (3.731, 351.0), (3.731, 350.82), (10.501, 351.0), (10.501, 350.82), (0.3, 350.77), (0.3, 350.47), (3.731, 350.77), (3.731, 350.65), (3.731, 350.82), (3.731, 350.65), (10.501, 350.82), (10.501, 350.67)]</t>
+          <t>[(0.3, 351.0), (0.3, 350.77), (3.731, 350.914225), (3.731, 350.68422499999997), (3.731, 350.914225), (3.731, 350.734225), (10.501, 350.744975), (10.501, 350.564975), (0.3, 350.77), (0.3, 350.47), (3.731, 350.68422499999997), (3.731, 350.56422499999996), (3.731, 350.734225), (3.731, 350.56422499999996), (10.501, 350.564975), (10.501, 350.414975)]</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3947,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[(0.3, 352.0), (0.3, 351.77), (3.732, 352.0), (3.732, 351.77), (3.732, 352.0), (3.732, 351.82), (10.501, 352.0), (10.501, 351.82), (0.3, 351.77), (0.3, 351.47), (3.732, 351.77), (3.732, 351.64), (3.732, 351.82), (3.732, 351.64), (10.501, 351.82), (10.501, 351.67)]</t>
+          <t>[(0.3, 352.0), (0.3, 351.77), (3.732, 351.9142), (3.732, 351.6842), (3.732, 351.9142), (3.732, 351.7342), (10.501, 351.744975), (10.501, 351.564975), (0.3, 351.77), (0.3, 351.47), (3.732, 351.6842), (3.732, 351.5542), (3.732, 351.7342), (3.732, 351.5542), (10.501, 351.564975), (10.501, 351.414975)]</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3957,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[(0.3, 353.0), (0.3, 352.82), (3.714, 353.0), (3.714, 352.82), (3.714, 353.0), (3.714, 352.84), (10.521, 353.0), (10.521, 352.84), (0.3, 352.82), (0.3, 352.52), (3.714, 352.82), (3.714, 352.7), (3.714, 352.84), (3.714, 352.7), (10.521, 352.84), (10.521, 352.69)]</t>
+          <t>[(0.3, 353.0), (0.3, 352.82), (3.714, 352.91465), (3.714, 352.73465), (3.714, 352.91465), (3.714, 352.75464999999997), (10.521, 352.744475), (10.521, 352.584475), (0.3, 352.82), (0.3, 352.52), (3.714, 352.73465), (3.714, 352.61465), (3.714, 352.75464999999997), (3.714, 352.61465), (10.521, 352.584475), (10.521, 352.434475)]</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3967,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[(0.3, 354.0), (0.3, 353.81), (3.723, 354.0), (3.723, 353.81), (3.723, 354.0), (3.723, 353.84), (10.528, 354.0), (10.528, 353.84), (0.3, 353.81), (0.3, 353.51), (3.723, 353.81), (3.723, 353.69), (3.723, 353.84), (3.723, 353.69), (10.528, 353.84), (10.528, 353.69)]</t>
+          <t>[(0.3, 354.0), (0.3, 353.81), (3.723, 353.914425), (3.723, 353.724425), (3.723, 353.914425), (3.723, 353.75442499999997), (10.528, 353.7443), (10.528, 353.5843), (0.3, 353.81), (0.3, 353.51), (3.723, 353.724425), (3.723, 353.604425), (3.723, 353.75442499999997), (3.723, 353.604425), (10.528, 353.5843), (10.528, 353.4343)]</t>
         </is>
       </c>
     </row>
@@ -3967,7 +4007,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[(0.3, 358.0), (0.3, 357.79), (3.715, 358.0), (3.715, 357.79), (3.715, 358.0), (3.715, 357.83), (10.462, 358.0), (10.462, 357.83), (0.3, 357.79), (0.3, 357.49), (3.715, 357.79), (3.715, 357.67), (3.715, 357.83), (3.715, 357.67), (10.462, 357.83), (10.462, 357.71)]</t>
+          <t>[(0.3, 358.0), (0.3, 357.79), (3.715, 357.914625), (3.715, 357.704625), (3.715, 357.914625), (3.715, 357.744625), (10.462, 357.74595), (10.462, 357.57595), (0.3, 357.79), (0.3, 357.49), (3.715, 357.704625), (3.715, 357.584625), (3.715, 357.744625), (3.715, 357.584625), (10.462, 357.57595), (10.462, 357.45595)]</t>
         </is>
       </c>
     </row>
@@ -3977,7 +4017,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[(0.3, 359.0), (0.3, 358.7), (3.684, 359.0), (3.684, 358.7), (3.684, 359.0), (3.684, 358.78), (10.412, 359.0), (10.412, 358.78), (0.3, 358.7), (0.3, 358.4), (3.684, 358.7), (3.684, 358.56), (3.684, 358.78), (3.684, 358.56), (10.412, 358.78), (10.412, 358.66)]</t>
+          <t>[(0.3, 359.0), (0.3, 358.7), (3.684, 358.9154), (3.684, 358.61539999999997), (3.684, 358.9154), (3.684, 358.69539999999995), (10.412, 358.7472), (10.412, 358.5272), (0.3, 358.7), (0.3, 358.4), (3.684, 358.61539999999997), (3.684, 358.4754), (3.684, 358.69539999999995), (3.684, 358.4754), (10.412, 358.5272), (10.412, 358.40720000000005)]</t>
         </is>
       </c>
     </row>
@@ -3987,7 +4027,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>[(0.3, 360.0), (0.3, 359.68), (3.664, 360.0), (3.664, 359.78), (3.664, 360.0), (3.664, 359.78), (10.376, 360.0), (10.376, 359.78), (0.3, 359.68), (0.3, 359.36), (3.664, 359.78), (3.664, 359.56), (3.664, 359.78), (3.664, 359.56), (10.376, 359.78), (10.376, 359.65)]</t>
+          <t>[(0.3, 360.0), (0.3, 359.68), (3.664, 359.9159), (3.664, 359.6959), (3.664, 359.9159), (3.664, 359.6959), (10.376, 359.7481), (10.376, 359.5281), (0.3, 359.68), (0.3, 359.36), (3.664, 359.6959), (3.664, 359.4759), (3.664, 359.6959), (3.664, 359.4759), (10.376, 359.5281), (10.376, 359.3981)]</t>
         </is>
       </c>
     </row>
@@ -3997,7 +4037,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>[(0.3, 361.0), (0.3, 360.67), (3.623, 361.0), (3.623, 360.76), (3.623, 361.0), (3.623, 360.75), (10.367, 361.0), (10.367, 360.75), (0.3, 360.67), (0.3, 360.34), (3.623, 360.76), (3.623, 360.52), (3.623, 360.75), (3.623, 360.51), (10.367, 360.75), (10.367, 360.62)]</t>
+          <t>[(0.3, 361.0), (0.3, 360.67), (3.623, 360.916925), (3.623, 360.676925), (3.623, 360.916925), (3.623, 360.666925), (10.367, 360.748325), (10.367, 360.498325), (0.3, 360.67), (0.3, 360.34), (3.623, 360.676925), (3.623, 360.436925), (3.623, 360.666925), (3.623, 360.426925), (10.367, 360.498325), (10.367, 360.368325)]</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4047,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>[(0.3, 362.0), (0.3, 361.66), (3.568, 362.0), (3.568, 361.74), (3.568, 362.0), (3.568, 361.74), (10.35, 362.0), (10.35, 361.74), (0.3, 361.66), (0.3, 361.32), (3.568, 361.74), (3.568, 361.48), (3.568, 361.74), (3.568, 361.49), (10.35, 361.74), (10.35, 361.58)]</t>
+          <t>[(0.3, 362.0), (0.3, 361.66), (3.568, 361.9183), (3.568, 361.6583), (3.568, 361.9183), (3.568, 361.6583), (10.35, 361.74875), (10.35, 361.48875), (0.3, 361.66), (0.3, 361.32), (3.568, 361.6583), (3.568, 361.3983), (3.568, 361.6583), (3.568, 361.4083), (10.35, 361.48875), (10.35, 361.32874999999996)]</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4057,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>[(0.3, 363.0), (0.3, 362.7), (3.629, 363.0), (3.629, 362.7), (3.629, 363.0), (3.629, 362.77), (10.327, 363.0), (10.327, 362.77), (0.3, 362.7), (0.3, 362.41), (3.629, 362.7), (3.629, 362.54), (3.629, 362.77), (3.629, 362.54), (10.327, 362.77), (10.327, 362.64)]</t>
+          <t>[(0.3, 363.0), (0.3, 362.7), (3.629, 362.916775), (3.629, 362.61677499999996), (3.629, 362.916775), (3.629, 362.68677499999995), (10.327, 362.749325), (10.327, 362.519325), (0.3, 362.7), (0.3, 362.41), (3.629, 362.61677499999996), (3.629, 362.456775), (3.629, 362.68677499999995), (3.629, 362.456775), (10.327, 362.519325), (10.327, 362.389325)]</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4067,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>[(0.3, 364.0), (0.3, 363.71), (3.556, 364.0), (3.556, 363.71), (3.556, 364.0), (3.556, 363.79), (10.29, 364.0), (10.29, 363.79), (0.3, 363.71), (0.3, 363.43), (3.556, 363.71), (3.556, 363.58), (3.556, 363.79), (3.556, 363.58), (10.29, 363.79), (10.29, 363.67)]</t>
+          <t>[(0.3, 364.0), (0.3, 363.71), (3.556, 363.9186), (3.556, 363.6286), (3.556, 363.9186), (3.556, 363.70860000000005), (10.29, 363.75025), (10.29, 363.54025), (0.3, 363.71), (0.3, 363.43), (3.556, 363.6286), (3.556, 363.4986), (3.556, 363.70860000000005), (3.556, 363.4986), (10.29, 363.54025), (10.29, 363.42025)]</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4077,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>[(0.3, 365.0), (0.3, 364.75), (3.505, 365.0), (3.505, 364.75), (3.505, 365.0), (3.505, 364.81), (10.286, 365.0), (10.286, 364.81), (0.3, 364.75), (0.3, 364.5), (3.505, 364.75), (3.505, 364.63), (3.505, 364.81), (3.505, 364.63), (10.286, 364.81), (10.286, 364.7)]</t>
+          <t>[(0.3, 365.0), (0.3, 364.75), (3.505, 364.919875), (3.505, 364.669875), (3.505, 364.919875), (3.505, 364.729875), (10.286, 364.75035), (10.286, 364.56035), (0.3, 364.75), (0.3, 364.5), (3.505, 364.669875), (3.505, 364.549875), (3.505, 364.729875), (3.505, 364.549875), (10.286, 364.56035), (10.286, 364.45035)]</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4117,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[(0.3, 369.0), (0.3, 368.89), (3.463, 369.0), (3.463, 368.89), (3.463, 369.0), (3.463, 368.84), (10.235, 369.0), (10.235, 368.84), (0.3, 368.89), (0.3, 368.64), (3.463, 368.89), (3.463, 368.73), (3.463, 368.84), (3.463, 368.73), (10.235, 368.84), (10.235, 368.68)]</t>
+          <t>[(0.3, 369.0), (0.3, 368.89), (3.463, 368.9665994838519), (3.463, 368.8565994838519), (3.463, 368.9665994838519), (3.463, 368.80659948385187), (10.235, 368.89508879926296), (10.235, 368.73508879926294), (0.3, 368.89), (0.3, 368.64), (3.463, 368.8565994838519), (3.463, 368.6965994838519), (3.463, 368.80659948385187), (3.463, 368.6965994838519), (10.235, 368.73508879926294), (10.235, 368.57508879926297)]</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4127,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>[(0.3, 370.0), (0.3, 369.84), (3.443, 370.0), (3.443, 369.84), (3.443, 370.0), (3.443, 369.81), (10.18, 370.0), (10.18, 369.81), (0.3, 369.84), (0.3, 369.7), (3.443, 369.84), (3.443, 369.68), (3.443, 369.81), (3.443, 369.68), (10.18, 369.81), (10.18, 369.51)]</t>
+          <t>[(0.3, 370.0), (0.3, 369.84), (3.443, 370.045385679022), (3.443, 369.88538567902197), (3.443, 370.045385679022), (3.443, 369.855385679022), (10.18, 370.1426695859807), (10.18, 369.9526695859807), (0.3, 369.84), (0.3, 369.7), (3.443, 369.88538567902197), (3.443, 369.725385679022), (3.443, 369.855385679022), (3.443, 369.725385679022), (10.18, 369.9526695859807), (10.18, 369.6526695859807)]</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4137,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>[(0.3, 371.0), (0.3, 370.84), (3.454, 371.0), (3.454, 370.84), (3.454, 371.0), (3.454, 370.86), (10.138, 371.0), (10.138, 370.86), (0.3, 370.84), (0.3, 370.68), (3.454, 370.84), (3.454, 370.68), (3.454, 370.86), (3.454, 370.68), (10.138, 370.86), (10.138, 370.56)]</t>
+          <t>[(0.3, 371.0), (0.3, 370.84), (3.454, 371.09688563052697), (3.454, 370.93688563052694), (3.454, 371.09688563052697), (3.454, 370.956885630527), (10.138, 371.30220698577176), (10.138, 371.1622069857718), (0.3, 370.84), (0.3, 370.68), (3.454, 370.93688563052694), (3.454, 370.776885630527), (3.454, 370.956885630527), (3.454, 370.776885630527), (10.138, 371.1622069857718), (10.138, 370.86220698577176)]</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4167,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>[(0.3, 374.0), (0.3, 373.85), (4.464, 374.0), (4.464, 373.85), (4.464, 374.0), (4.464, 373.89), (11.12, 374.0), (11.12, 373.89), (0.3, 373.85), (0.3, 373.7), (4.464, 373.85), (4.464, 373.74), (4.464, 373.89), (4.464, 373.74), (11.12, 373.89), (11.12, 373.66)]</t>
+          <t>[(0.3, 374.0), (0.3, 373.85), (4.464, 374.2515819491015), (4.464, 374.1015819491015), (4.464, 374.2515819491015), (4.464, 374.14158194910146), (11.12, 374.6537263903165), (11.12, 374.54372639031646), (0.3, 373.85), (0.3, 373.7), (4.464, 374.1015819491015), (4.464, 373.9915819491015), (4.464, 374.14158194910146), (4.464, 373.9915819491015), (11.12, 374.54372639031646), (11.12, 374.3137263903165)]</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4177,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>[(0.3, 375.0), (0.3, 374.83), (5.037, 375.0), (5.037, 374.83), (5.037, 375.0), (5.037, 374.77), (11.653, 375.0), (11.653, 374.77), (0.3, 374.83), (0.3, 374.69), (5.037, 374.83), (5.037, 374.66), (5.037, 374.77), (5.037, 374.66), (11.653, 374.77), (11.653, 374.54)]</t>
+          <t>[(0.3, 375.0), (0.3, 374.83), (5.037, 375.33159), (5.037, 375.16159), (5.037, 375.33159), (5.037, 375.10159), (11.653, 375.79471), (11.653, 375.56471), (0.3, 374.83), (0.3, 374.69), (5.037, 375.16159), (5.037, 374.99159000000003), (5.037, 375.10159), (5.037, 374.99159000000003), (11.653, 375.56471), (11.653, 375.33471000000003)]</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4187,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>[(0.3, 376.0), (0.3, 375.83), (5.246, 376.0), (5.246, 375.83), (5.246, 376.0), (5.246, 375.81), (11.832, 376.0), (11.832, 375.81), (0.3, 375.83), (0.3, 375.67), (5.246, 375.83), (5.246, 375.67), (5.246, 375.81), (5.246, 375.67), (11.832, 375.81), (11.832, 375.51)]</t>
+          <t>[(0.3, 376.0), (0.3, 375.83), (5.246, 376.34622), (5.246, 376.17622), (5.246, 376.34622), (5.246, 376.15622), (11.832, 376.80724), (11.832, 376.61724), (0.3, 375.83), (0.3, 375.67), (5.246, 376.17622), (5.246, 376.01622000000003), (5.246, 376.15622), (5.246, 376.01622000000003), (11.832, 376.61724), (11.832, 376.31723999999997)]</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4197,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>[(0.3, 377.0), (0.3, 376.82), (4.982, 377.0), (4.982, 376.82), (4.982, 377.0), (4.982, 376.82), (11.638, 377.0), (11.638, 376.7), (0.3, 376.82), (0.3, 376.7), (4.982, 376.82), (4.982, 376.64), (4.982, 376.82), (4.982, 376.64), (11.638, 376.7), (11.638, 376.4)]</t>
+          <t>[(0.3, 377.0), (0.3, 376.82), (4.982, 377.32774), (4.982, 377.14774), (4.982, 377.32774), (4.982, 377.14774), (11.638, 377.79366), (11.638, 377.49366), (0.3, 376.82), (0.3, 376.7), (4.982, 377.14774), (4.982, 376.96774), (4.982, 377.14774), (4.982, 376.96774), (11.638, 377.49366), (11.638, 377.19365999999997)]</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4207,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>[(0.3, 378.0), (0.3, 377.89), (4.465, 378.0), (4.465, 377.89), (4.465, 378.0), (4.465, 377.84), (11.087, 378.0), (11.087, 377.72), (0.3, 377.89), (0.3, 377.75), (4.465, 377.89), (4.465, 377.67), (4.465, 377.84), (4.465, 377.68), (11.087, 377.72), (11.087, 377.44)]</t>
+          <t>[(0.3, 378.0), (0.3, 377.89), (4.465, 378.29155), (4.465, 378.18154999999996), (4.465, 378.29155), (4.465, 378.13154999999995), (11.087, 378.75509), (11.087, 378.47509), (0.3, 377.89), (0.3, 377.75), (4.465, 378.18154999999996), (4.465, 377.96155), (4.465, 378.13154999999995), (4.465, 377.97155), (11.087, 378.47509), (11.087, 378.19509)]</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4217,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>[(0.3, 379.0), (0.3, 378.84), (3.864, 379.0), (3.864, 378.84), (3.864, 379.0), (3.864, 378.84), (10.554, 379.0), (10.554, 378.72), (0.3, 378.84), (0.3, 378.72), (3.864, 378.84), (3.864, 378.68), (3.864, 378.84), (3.864, 378.68), (10.554, 378.72), (10.554, 378.44)]</t>
+          <t>[(0.3, 379.0), (0.3, 378.84), (3.864, 379.24948), (3.864, 379.08948), (3.864, 379.24948), (3.864, 379.08948), (10.554, 379.71778), (10.554, 379.43778000000003), (0.3, 378.84), (0.3, 378.72), (3.864, 379.08948), (3.864, 378.92948), (3.864, 379.08948), (3.864, 378.92948), (10.554, 379.43778000000003), (10.554, 379.15778)]</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4227,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>[(0.3, 380.0), (0.3, 379.83), (3.153, 380.0), (3.153, 379.83), (3.153, 380.0), (3.153, 379.83), (9.788, 380.0), (9.788, 379.72), (0.3, 379.83), (0.3, 379.72), (3.153, 379.83), (3.153, 379.66), (3.153, 379.83), (3.153, 379.66), (9.788, 379.72), (9.788, 379.44)]</t>
+          <t>[(0.3, 380.0), (0.3, 379.83), (3.153, 380.19971), (3.153, 380.02970999999997), (3.153, 380.19971), (3.153, 380.02970999999997), (9.788, 380.66416), (9.788, 380.38416), (0.3, 379.83), (0.3, 379.72), (3.153, 380.02970999999997), (3.153, 379.85971), (3.153, 380.02970999999997), (3.153, 379.85971), (9.788, 380.38416), (9.788, 380.10416)]</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4237,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>[(0.3, 381.0), (0.3, 380.82), (2.603, 381.0), (2.603, 380.82), (2.603, 381.0), (2.603, 380.82), (9.191, 381.0), (9.191, 380.71), (0.3, 380.82), (0.3, 380.69), (2.603, 380.82), (2.603, 380.65), (2.603, 380.82), (2.603, 380.64), (9.191, 380.71), (9.191, 380.42)]</t>
+          <t>[(0.3, 381.0), (0.3, 380.82), (2.603, 381.16121), (2.603, 380.98121), (2.603, 381.16121), (2.603, 380.98121), (9.191, 381.62237), (9.191, 381.33236999999997), (0.3, 380.82), (0.3, 380.69), (2.603, 380.98121), (2.603, 380.81120999999996), (2.603, 380.98121), (2.603, 380.80120999999997), (9.191, 381.33236999999997), (9.191, 381.04237)]</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4247,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>[(0.3, 382.0), (0.3, 381.81), (2.336, 382.0), (2.336, 381.81), (2.336, 382.0), (2.336, 381.82), (8.952, 382.0), (8.952, 381.7), (0.3, 381.81), (0.3, 381.65), (2.336, 381.81), (2.336, 381.63), (2.336, 381.82), (2.336, 381.64), (8.952, 381.7), (8.952, 381.4)]</t>
+          <t>[(0.3, 382.0), (0.3, 381.81), (2.336, 382.13720883857377), (2.336, 381.9472088385738), (2.336, 382.13720883857377), (2.336, 381.95720883857376), (8.952, 382.5830701725639), (8.952, 382.2830701725639), (0.3, 381.81), (0.3, 381.65), (2.336, 381.9472088385738), (2.336, 381.76720883857377), (2.336, 381.95720883857376), (2.336, 381.77720883857376), (8.952, 382.2830701725639), (8.952, 381.9830701725639)]</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4257,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>[(0.3, 383.0), (0.3, 382.8), (9.001, 383.0), (9.001, 382.7), (0.3, 382.8), (0.3, 382.6), (9.001, 382.7), (9.001, 382.4)]</t>
+          <t>[(0.3, 383.0), (0.3, 382.8), (9.001, 383.50023245019224), (9.001, 383.20023245019223), (0.3, 382.8), (0.3, 382.6), (9.001, 383.20023245019223), (9.001, 382.9002324501922)]</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4267,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>[(0.3, 384.0), (0.3, 383.85), (2.53, 384.0), (2.53, 383.85), (2.53, 384.0), (2.53, 383.78), (9.167, 384.0), (9.167, 383.7), (0.3, 383.85), (0.3, 383.7), (2.53, 383.85), (2.53, 383.7), (2.53, 383.78), (2.53, 383.56), (9.167, 383.7), (9.167, 383.4), (0.3, 383.7), (0.3, 383.57), (2.53, 383.7), (2.53, 383.55), (2.53, 383.56), (2.53, 383.56), (9.167, 383.4), (9.167, 383.4)]</t>
+          <t>[(0.3, 384.0), (0.3, 383.85), (2.53, 384.1061287653768), (2.53, 383.95612876537683), (2.53, 384.1061287653768), (2.53, 383.8861287653768), (9.167, 384.42199271865286), (9.167, 384.12199271865285), (0.3, 383.85), (0.3, 383.7), (2.53, 383.95612876537683), (2.53, 383.8061287653768), (2.53, 383.8861287653768), (2.53, 383.6661287653768), (9.167, 384.12199271865285), (9.167, 383.82199271865284), (0.3, 383.7), (0.3, 383.57), (2.53, 383.8061287653768), (2.53, 383.6561287653768), (2.53, 383.6661287653768), (2.53, 383.6661287653768), (9.167, 383.82199271865284), (9.167, 383.82199271865284)]</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4277,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>[(0.3, 385.0), (0.3, 384.83), (2.82, 385.0), (2.82, 384.83), (2.82, 385.0), (2.82, 384.76), (9.468, 385.0), (9.468, 384.68), (0.3, 384.83), (0.3, 384.66), (2.82, 384.83), (2.82, 384.66), (2.82, 384.76), (2.82, 384.52), (9.468, 384.68), (9.468, 384.36), (0.3, 384.66), (0.3, 384.5), (2.82, 384.66), (2.82, 384.51), (2.82, 384.52), (2.82, 384.52), (9.468, 384.36), (9.468, 384.36)]</t>
+          <t>[(0.3, 385.0), (0.3, 384.83), (2.82, 385.09498226409306), (2.82, 384.92498226409305), (2.82, 385.09498226409306), (2.82, 384.85498226409305), (9.468, 385.34555452270047), (9.468, 385.0255545227005), (0.3, 384.83), (0.3, 384.66), (2.82, 384.92498226409305), (2.82, 384.7549822640931), (2.82, 384.85498226409305), (2.82, 384.61498226409304), (9.468, 385.0255545227005), (9.468, 384.7055545227005), (0.3, 384.66), (0.3, 384.5), (2.82, 384.7549822640931), (2.82, 384.60498226409305), (2.82, 384.61498226409304), (2.82, 384.61498226409304), (9.468, 384.7055545227005), (9.468, 384.7055545227005)]</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4287,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>[(0.3, 386.0), (0.3, 385.8), (3.061, 386.0), (3.061, 385.8), (3.061, 386.0), (3.061, 385.79), (9.669, 386.0), (9.669, 385.79), (0.3, 385.8), (0.3, 385.6), (3.061, 385.8), (3.061, 385.6), (3.061, 385.79), (3.061, 385.58), (9.669, 385.79), (9.669, 385.58), (0.3, 385.6), (0.3, 385.41), (3.061, 385.6), (3.061, 385.46), (3.061, 385.58), (3.061, 385.46), (9.669, 385.58), (9.669, 385.37)]</t>
+          <t>[(0.3, 386.0), (0.3, 385.8), (3.061, 386.07673198546877), (3.061, 385.8767319854688), (3.061, 386.07673198546877), (3.061, 385.8667319854688), (9.669, 386.26037738929995), (9.669, 386.05037738929997), (0.3, 385.8), (0.3, 385.6), (3.061, 385.8767319854688), (3.061, 385.6767319854688), (3.061, 385.8667319854688), (3.061, 385.65673198546875), (9.669, 386.05037738929997), (9.669, 385.84037738929993), (0.3, 385.6), (0.3, 385.41), (3.061, 385.6767319854688), (3.061, 385.53673198546875), (3.061, 385.65673198546875), (3.061, 385.53673198546875), (9.669, 385.84037738929993), (9.669, 385.63037738929995)]</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4297,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>[(0.3, 387.0), (0.3, 386.77), (3.187, 387.0), (3.187, 386.77), (3.187, 387.0), (3.187, 386.81), (9.883, 387.0), (9.883, 386.81), (0.3, 386.77), (0.3, 386.54), (3.187, 386.77), (3.187, 386.54), (3.187, 386.81), (3.187, 386.62), (9.883, 386.81), (9.883, 386.62), (0.3, 386.54), (0.3, 386.32), (3.187, 386.54), (3.187, 386.43), (3.187, 386.62), (3.187, 386.43), (9.883, 386.62), (9.883, 386.45)]</t>
+          <t>[(0.3, 387.0), (0.3, 386.77), (3.187, 387.02035024925055), (3.187, 386.79035024925054), (3.187, 387.02035024925055), (3.187, 386.83035024925056), (9.883, 387.067549857488), (9.883, 386.877549857488), (0.3, 386.77), (0.3, 386.54), (3.187, 386.79035024925054), (3.187, 386.5603502492506), (3.187, 386.83035024925056), (3.187, 386.64035024925056), (9.883, 386.877549857488), (9.883, 386.687549857488), (0.3, 386.54), (0.3, 386.32), (3.187, 386.5603502492506), (3.187, 386.45035024925056), (3.187, 386.64035024925056), (3.187, 386.45035024925056), (9.883, 386.687549857488), (9.883, 386.517549857488)]</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4307,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>[(0.3, 388.0), (0.3, 387.64), (3.289, 388.0), (3.289, 387.72), (3.289, 388.0), (3.289, 387.71), (9.983, 388.0), (9.983, 387.71), (0.3, 387.64), (0.3, 387.28), (3.289, 387.72), (3.289, 387.44), (3.289, 387.71), (3.289, 387.43), (9.983, 387.71), (9.983, 387.54)]</t>
+          <t>[(0.3, 388.0), (0.3, 387.64), (3.289, 387.9463442396986), (3.289, 387.6663442396986), (3.289, 387.9463442396986), (3.289, 387.65634423969857), (9.983, 387.8261797500842), (9.983, 387.53617975008416), (0.3, 387.64), (0.3, 387.28), (3.289, 387.6663442396986), (3.289, 387.3863442396986), (3.289, 387.65634423969857), (3.289, 387.3763442396986), (9.983, 387.53617975008416), (9.983, 387.3661797500842)]</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4317,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>[(0.3, 389.0), (0.3, 388.63), (3.318, 389.0), (3.318, 388.7), (3.318, 389.0), (3.318, 388.8), (10.06, 389.0), (10.06, 388.8), (0.3, 388.63), (0.3, 388.26), (3.318, 388.7), (3.318, 388.4), (3.318, 388.8), (3.318, 388.6), (10.06, 388.8), (10.06, 388.6)]</t>
+          <t>[(0.3, 389.0), (0.3, 388.63), (3.318, 388.92455), (3.318, 388.62455), (3.318, 388.92455), (3.318, 388.72455), (10.06, 388.756), (10.06, 388.556), (0.3, 388.63), (0.3, 388.26), (3.318, 388.62455), (3.318, 388.32455), (3.318, 388.72455), (3.318, 388.52455000000003), (10.06, 388.556), (10.06, 388.356)]</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4327,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>[(0.3, 390.0), (0.3, 389.75), (3.391, 390.0), (3.391, 389.75), (3.391, 390.0), (3.391, 389.79), (10.114, 390.0), (10.114, 389.79), (0.3, 389.75), (0.3, 389.5), (3.391, 389.75), (3.391, 389.5), (3.391, 389.79), (3.391, 389.58), (10.114, 389.79), (10.114, 389.58), (0.3, 389.5), (0.3, 389.25), (3.391, 389.5), (3.391, 389.39), (3.391, 389.58), (3.391, 389.39), (10.114, 389.58), (10.114, 389.44)]</t>
+          <t>[(0.3, 390.0), (0.3, 389.75), (3.391, 389.922725), (3.391, 389.672725), (3.391, 389.922725), (3.391, 389.71272500000003), (10.114, 389.75465), (10.114, 389.54465000000005), (0.3, 389.75), (0.3, 389.5), (3.391, 389.672725), (3.391, 389.422725), (3.391, 389.71272500000003), (3.391, 389.502725), (10.114, 389.54465000000005), (10.114, 389.33465), (0.3, 389.5), (0.3, 389.25), (3.391, 389.422725), (3.391, 389.312725), (3.391, 389.502725), (3.391, 389.312725), (10.114, 389.33465), (10.114, 389.19465)]</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4337,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>[(0.3, 391.0), (0.3, 390.62), (3.416, 391.0), (3.416, 390.7), (3.416, 391.0), (3.416, 390.84), (10.144, 391.0), (10.144, 390.84), (0.3, 390.62), (0.3, 390.24), (3.416, 390.7), (3.416, 390.4), (3.416, 390.84), (3.416, 390.68), (10.144, 390.84), (10.144, 390.68)]</t>
+          <t>[(0.3, 391.0), (0.3, 390.62), (3.416, 390.9221), (3.416, 390.6221), (3.416, 390.9221), (3.416, 390.7621), (10.144, 390.7539), (10.144, 390.59389999999996), (0.3, 390.62), (0.3, 390.24), (3.416, 390.6221), (3.416, 390.3221), (3.416, 390.7621), (3.416, 390.6021), (10.144, 390.59389999999996), (10.144, 390.4339)]</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4347,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>[(0.3, 392.0), (0.3, 391.62), (3.475, 392.0), (3.475, 391.69), (3.475, 392.0), (3.475, 391.79), (10.193, 392.0), (10.193, 391.79), (0.3, 391.62), (0.3, 391.24), (3.475, 391.69), (3.475, 391.38), (3.475, 391.79), (3.475, 391.58), (10.193, 391.79), (10.193, 391.58)]</t>
+          <t>[(0.3, 392.0), (0.3, 391.62), (3.475, 391.920625), (3.475, 391.61062499999997), (3.475, 391.920625), (3.475, 391.710625), (10.193, 391.752675), (10.193, 391.54267500000003), (0.3, 391.62), (0.3, 391.24), (3.475, 391.61062499999997), (3.475, 391.30062499999997), (3.475, 391.710625), (3.475, 391.50062499999996), (10.193, 391.54267500000003), (10.193, 391.332675)]</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4357,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>[(0.3, 393.0), (0.3, 392.62), (3.523, 393.0), (3.523, 392.7), (3.523, 393.0), (3.523, 392.85), (10.289, 393.0), (10.289, 392.85), (0.3, 392.62), (0.3, 392.24), (3.523, 392.7), (3.523, 392.4), (3.523, 392.85), (3.523, 392.7), (10.289, 392.85), (10.289, 392.7)]</t>
+          <t>[(0.3, 393.0), (0.3, 392.62), (3.523, 392.919425), (3.523, 392.619425), (3.523, 392.919425), (3.523, 392.769425), (10.289, 392.750275), (10.289, 392.600275), (0.3, 392.62), (0.3, 392.24), (3.523, 392.619425), (3.523, 392.31942499999997), (3.523, 392.769425), (3.523, 392.619425), (10.289, 392.600275), (10.289, 392.450275)]</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4367,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>[(0.3, 394.0), (0.3, 393.72), (3.553, 394.0), (3.553, 393.72), (3.553, 394.0), (3.553, 393.76), (10.294, 394.0), (10.294, 393.76), (0.3, 393.72), (0.3, 393.44), (3.553, 393.72), (3.553, 393.44), (3.553, 393.76), (3.553, 393.52), (10.294, 393.76), (10.294, 393.52), (0.3, 393.44), (0.3, 393.17), (3.553, 393.44), (3.553, 393.3), (3.553, 393.52), (3.553, 393.3), (10.294, 393.52), (10.294, 393.4)]</t>
+          <t>[(0.3, 394.0), (0.3, 393.72), (3.553, 393.918675), (3.553, 393.63867500000003), (3.553, 393.918675), (3.553, 393.678675), (10.294, 393.75015), (10.294, 393.51015), (0.3, 393.72), (0.3, 393.44), (3.553, 393.63867500000003), (3.553, 393.358675), (3.553, 393.678675), (3.553, 393.438675), (10.294, 393.51015), (10.294, 393.27015), (0.3, 393.44), (0.3, 393.17), (3.553, 393.358675), (3.553, 393.218675), (3.553, 393.438675), (3.553, 393.218675), (10.294, 393.27015), (10.294, 393.15015)]</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4377,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>[(0.3, 395.0), (0.3, 394.6), (3.619, 395.0), (3.619, 394.68), (3.619, 395.0), (3.619, 394.78), (10.359, 395.0), (10.359, 394.78), (0.3, 394.6), (0.3, 394.2), (3.619, 394.68), (3.619, 394.36), (3.619, 394.78), (3.619, 394.56), (10.359, 394.78), (10.359, 394.56)]</t>
+          <t>[(0.3, 395.0), (0.3, 394.6), (3.619, 394.917025), (3.619, 394.59702500000003), (3.619, 394.917025), (3.619, 394.697025), (10.359, 394.748525), (10.359, 394.52852499999995), (0.3, 394.6), (0.3, 394.2), (3.619, 394.59702500000003), (3.619, 394.27702500000004), (3.619, 394.697025), (3.619, 394.477025), (10.359, 394.52852499999995), (10.359, 394.308525)]</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4387,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>[(0.3, 396.0), (0.3, 395.62), (3.732, 396.0), (3.732, 395.7), (3.732, 396.0), (3.732, 395.85), (10.377, 396.0), (10.377, 395.85), (0.3, 395.62), (0.3, 395.24), (3.732, 395.7), (3.732, 395.4), (3.732, 395.85), (3.732, 395.7), (10.377, 395.85), (10.377, 395.7)]</t>
+          <t>[(0.3, 396.0), (0.3, 395.62), (3.732, 395.9142), (3.732, 395.6142), (3.732, 395.9142), (3.732, 395.7642), (10.377, 395.748075), (10.377, 395.598075), (0.3, 395.62), (0.3, 395.24), (3.732, 395.6142), (3.732, 395.31419999999997), (3.732, 395.7642), (3.732, 395.6142), (10.377, 395.598075), (10.377, 395.44807499999996)]</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4397,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>[(0.3, 397.0), (0.3, 396.63), (3.831, 397.0), (3.831, 396.71), (3.831, 397.0), (3.831, 396.8), (10.46, 397.0), (10.46, 396.8), (0.3, 396.63), (0.3, 396.26), (3.831, 396.71), (3.831, 396.42), (3.831, 396.8), (3.831, 396.6), (10.46, 396.8), (10.46, 396.6)]</t>
+          <t>[(0.3, 397.0), (0.3, 396.63), (3.831, 396.911725), (3.831, 396.62172499999997), (3.831, 396.911725), (3.831, 396.711725), (10.46, 396.746), (10.46, 396.546), (0.3, 396.63), (0.3, 396.26), (3.831, 396.62172499999997), (3.831, 396.331725), (3.831, 396.711725), (3.831, 396.511725), (10.46, 396.546), (10.46, 396.346)]</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4407,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>[(0.3, 398.0), (0.3, 397.62), (3.841, 398.0), (3.841, 397.72), (3.841, 398.0), (3.841, 397.81), (10.549, 398.0), (10.549, 397.81), (0.3, 397.62), (0.3, 397.24), (3.841, 397.72), (3.841, 397.44), (3.841, 397.81), (3.841, 397.62), (10.549, 397.81), (10.549, 397.62)]</t>
+          <t>[(0.3, 398.0), (0.3, 397.62), (3.841, 397.911475), (3.841, 397.631475), (3.841, 397.911475), (3.841, 397.721475), (10.549, 397.743775), (10.549, 397.55377500000003), (0.3, 397.62), (0.3, 397.24), (3.841, 397.631475), (3.841, 397.351475), (3.841, 397.721475), (3.841, 397.531475), (10.549, 397.55377500000003), (10.549, 397.36377500000003)]</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4417,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>[(0.3, 399.0), (0.3, 398.64), (3.915, 399.0), (3.915, 398.72), (3.915, 399.0), (3.915, 398.81), (10.615, 399.0), (10.615, 398.81), (0.3, 398.64), (0.3, 398.28), (3.915, 398.72), (3.915, 398.44), (3.915, 398.81), (3.915, 398.62), (10.615, 398.81), (10.615, 398.62)]</t>
+          <t>[(0.3, 399.0), (0.3, 398.64), (3.915, 398.909625), (3.915, 398.62962500000003), (3.915, 398.909625), (3.915, 398.719625), (10.615, 398.742125), (10.615, 398.552125), (0.3, 398.64), (0.3, 398.28), (3.915, 398.62962500000003), (3.915, 398.349625), (3.915, 398.719625), (3.915, 398.529625), (10.615, 398.552125), (10.615, 398.362125)]</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4427,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>[(0.3, 400.0), (0.3, 399.63), (3.973, 400.0), (3.973, 399.74), (3.973, 400.0), (3.973, 399.82), (10.684, 400.0), (10.684, 399.82), (0.3, 399.63), (0.3, 399.26), (3.973, 399.74), (3.973, 399.48), (3.973, 399.82), (3.973, 399.64), (10.684, 399.82), (10.684, 399.64)]</t>
+          <t>[(0.3, 400.0), (0.3, 399.63), (3.973, 399.908175), (3.973, 399.64817500000004), (3.973, 399.908175), (3.973, 399.728175), (10.684, 399.7404), (10.684, 399.5604), (0.3, 399.63), (0.3, 399.26), (3.973, 399.64817500000004), (3.973, 399.38817500000005), (3.973, 399.728175), (3.973, 399.548175), (10.684, 399.5604), (10.684, 399.3804)]</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4437,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>[(0.3, 401.0), (0.3, 400.62), (4.03, 401.0), (4.03, 400.72), (4.03, 401.0), (4.03, 400.81), (10.741, 401.0), (10.741, 400.81), (0.3, 400.62), (0.3, 400.24), (4.03, 400.72), (4.03, 400.44), (4.03, 400.81), (4.03, 400.62), (10.741, 400.81), (10.741, 400.62)]</t>
+          <t>[(0.3, 401.0), (0.3, 400.62), (4.03, 400.90675), (4.03, 400.62675), (4.03, 400.90675), (4.03, 400.71675), (10.741, 400.738975), (10.741, 400.548975), (0.3, 400.62), (0.3, 400.24), (4.03, 400.62675), (4.03, 400.34675), (4.03, 400.71675), (4.03, 400.52675), (10.741, 400.548975), (10.741, 400.358975)]</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4447,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>[(0.3, 402.0), (0.3, 401.58), (4.09, 402.0), (4.09, 401.67), (4.09, 402.0), (4.09, 401.78), (10.786, 402.0), (10.786, 401.78), (0.3, 401.58), (0.3, 401.16), (4.09, 401.67), (4.09, 401.34), (4.09, 401.78), (4.09, 401.56), (10.786, 401.78), (10.786, 401.56)]</t>
+          <t>[(0.3, 402.0), (0.3, 401.58), (4.09, 401.90525), (4.09, 401.57525000000004), (4.09, 401.90525), (4.09, 401.68525), (10.786, 401.73785), (10.786, 401.51784999999995), (0.3, 401.58), (0.3, 401.16), (4.09, 401.57525000000004), (4.09, 401.24525), (4.09, 401.68525), (4.09, 401.46525), (10.786, 401.51784999999995), (10.786, 401.29785)]</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4457,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>[(0.3, 403.0), (0.3, 402.56), (4.145, 403.0), (4.145, 402.67), (4.145, 403.0), (4.145, 402.83), (10.897, 403.0), (10.897, 402.83), (0.3, 402.56), (0.3, 402.12), (4.145, 402.67), (4.145, 402.34), (4.145, 402.83), (4.145, 402.66), (10.897, 402.83), (10.897, 402.66)]</t>
+          <t>[(0.3, 403.0), (0.3, 402.56), (4.145, 402.903875), (4.145, 402.57387500000004), (4.145, 402.903875), (4.145, 402.733875), (10.897, 402.735075), (10.897, 402.565075), (0.3, 402.56), (0.3, 402.12), (4.145, 402.57387500000004), (4.145, 402.243875), (4.145, 402.733875), (4.145, 402.56387500000005), (10.897, 402.565075), (10.897, 402.395075)]</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4467,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>[(0.3, 404.0), (0.3, 403.52), (4.211, 404.0), (4.211, 403.62), (4.211, 404.0), (4.211, 403.81), (10.928, 404.0), (10.928, 403.81), (0.3, 403.52), (0.3, 403.04), (4.211, 403.62), (4.211, 403.24), (4.211, 403.81), (4.211, 403.62), (10.928, 403.81), (10.928, 403.62)]</t>
+          <t>[(0.3, 404.0), (0.3, 403.52), (4.211, 403.902225), (4.211, 403.522225), (4.211, 403.902225), (4.211, 403.712225), (10.928, 403.7343), (10.928, 403.5443), (0.3, 403.52), (0.3, 403.04), (4.211, 403.522225), (4.211, 403.142225), (4.211, 403.712225), (4.211, 403.522225), (10.928, 403.5443), (10.928, 403.3543)]</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4477,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>[(0.3, 405.0), (0.3, 404.52), (4.264, 405.0), (4.264, 404.63), (4.264, 405.0), (4.264, 404.81), (10.962, 405.0), (10.962, 404.81), (0.3, 404.52), (0.3, 404.04), (4.264, 404.63), (4.264, 404.26), (4.264, 404.81), (4.264, 404.62), (10.962, 404.81), (10.962, 404.62)]</t>
+          <t>[(0.3, 405.0), (0.3, 404.52), (4.264, 404.9009), (4.264, 404.5309), (4.264, 404.9009), (4.264, 404.7109), (10.962, 404.73345), (10.962, 404.54345), (0.3, 404.52), (0.3, 404.04), (4.264, 404.5309), (4.264, 404.16089999999997), (4.264, 404.7109), (4.264, 404.5209), (10.962, 404.54345), (10.962, 404.35345)]</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4487,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>[(0.3, 406.0), (0.3, 405.57), (4.299, 406.0), (4.299, 405.68), (4.299, 406.0), (4.299, 405.84), (11.032, 406.0), (11.032, 405.84), (0.3, 405.57), (0.3, 405.14), (4.299, 405.68), (4.299, 405.36), (4.299, 405.84), (4.299, 405.68), (11.032, 405.84), (11.032, 405.68)]</t>
+          <t>[(0.3, 406.0), (0.3, 405.57), (4.299, 405.900025), (4.299, 405.58002500000003), (4.299, 405.900025), (4.299, 405.740025), (11.032, 405.7317), (11.032, 405.57169999999996), (0.3, 405.57), (0.3, 405.14), (4.299, 405.58002500000003), (4.299, 405.26002500000004), (4.299, 405.740025), (4.299, 405.58002500000003), (11.032, 405.57169999999996), (11.032, 405.4117)]</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4497,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>[(0.3, 407.0), (0.3, 406.6), (4.344, 407.0), (4.344, 406.71), (4.344, 407.0), (4.344, 406.85), (11.063, 407.0), (11.063, 406.85), (0.3, 406.6), (0.3, 406.2), (4.344, 406.71), (4.344, 406.42), (4.344, 406.85), (4.344, 406.7), (11.063, 406.85), (11.063, 406.7)]</t>
+          <t>[(0.3, 407.0), (0.3, 406.6), (4.344, 406.8989), (4.344, 406.6089), (4.344, 406.8989), (4.344, 406.74890000000005), (11.063, 406.730925), (11.063, 406.58092500000004), (0.3, 406.6), (0.3, 406.2), (4.344, 406.6089), (4.344, 406.31890000000004), (4.344, 406.74890000000005), (4.344, 406.5989), (11.063, 406.58092500000004), (11.063, 406.430925)]</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4507,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>[(0.3, 408.0), (0.3, 407.64), (4.28, 408.0), (4.28, 407.75), (4.28, 408.0), (4.28, 407.83), (10.988, 408.0), (10.988, 407.83), (0.3, 407.64), (0.3, 407.28), (4.28, 407.75), (4.28, 407.5), (4.28, 407.83), (4.28, 407.66), (10.988, 407.83), (10.988, 407.66)]</t>
+          <t>[(0.3, 408.0), (0.3, 407.64), (4.28, 407.9005), (4.28, 407.6505), (4.28, 407.9005), (4.28, 407.7305), (10.988, 407.7328), (10.988, 407.5628), (0.3, 407.64), (0.3, 407.28), (4.28, 407.6505), (4.28, 407.4005), (4.28, 407.7305), (4.28, 407.56050000000005), (10.988, 407.5628), (10.988, 407.3928)]</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4517,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>[(0.3, 409.0), (0.3, 408.71), (4.186, 409.0), (4.186, 408.71), (4.186, 409.0), (4.186, 408.79), (10.852, 409.0), (10.852, 408.79), (0.3, 408.71), (0.3, 408.42), (4.186, 408.71), (4.186, 408.58), (4.186, 408.79), (4.186, 408.58), (10.852, 408.79), (10.852, 408.62)]</t>
+          <t>[(0.3, 409.0), (0.3, 408.71), (4.186, 408.90285), (4.186, 408.61285), (4.186, 408.90285), (4.186, 408.69285), (10.852, 408.7362), (10.852, 408.5262), (0.3, 408.71), (0.3, 408.42), (4.186, 408.61285), (4.186, 408.48285), (4.186, 408.69285), (4.186, 408.48285), (10.852, 408.5262), (10.852, 408.3562)]</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4527,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>[(0.3, 410.0), (0.3, 409.76), (4.012, 410.0), (4.012, 409.86), (4.012, 410.0), (4.012, 409.85), (10.748, 410.0), (10.748, 409.85), (0.3, 409.76), (0.3, 409.52), (4.012, 409.86), (4.012, 409.72), (4.012, 409.85), (4.012, 409.72), (10.748, 409.85), (10.748, 409.7)]</t>
+          <t>[(0.3, 410.0), (0.3, 409.76), (4.012, 409.9072), (4.012, 409.7672), (4.012, 409.9072), (4.012, 409.7572), (10.748, 409.7388), (10.748, 409.58880000000005), (0.3, 409.76), (0.3, 409.52), (4.012, 409.7672), (4.012, 409.6272), (4.012, 409.7572), (4.012, 409.6272), (10.748, 409.58880000000005), (10.748, 409.4388)]</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4557,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>[(0.3, 413.0), (0.3, 412.83), (3.331, 413.0), (3.331, 412.83), (3.331, 413.0), (3.331, 412.83), (10.254, 413.0), (10.254, 412.83), (0.3, 412.83), (0.3, 412.66), (3.331, 412.83), (3.331, 412.71), (3.331, 412.83), (3.331, 412.71), (10.254, 412.83), (10.254, 412.67)]</t>
+          <t>[(0.3, 413.0), (0.3, 412.83), (3.331, 412.95854408488174), (3.331, 412.7885440848817), (3.331, 412.95854408488174), (3.331, 412.7885440848817), (10.254, 412.8638560939995), (10.254, 412.6938560939995), (0.3, 412.83), (0.3, 412.66), (3.331, 412.7885440848817), (3.331, 412.6685440848817), (3.331, 412.7885440848817), (3.331, 412.6685440848817), (10.254, 412.6938560939995), (10.254, 412.53385609399953)]</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4567,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>[(0.3, 414.0), (0.3, 413.82), (3.32, 414.0), (3.32, 413.82), (3.32, 414.0), (3.32, 413.8), (10.037, 414.0), (10.037, 413.8), (0.3, 413.82), (0.3, 413.65), (3.32, 413.82), (3.32, 413.69), (3.32, 413.8), (3.32, 413.69), (10.037, 413.8), (10.037, 413.5)]</t>
+          <t>[(0.3, 414.0), (0.3, 413.82), (3.32, 414.03419453525), (3.32, 413.85419453525), (3.32, 414.03419453525), (3.32, 413.83419453525), (10.037, 414.1102490694468), (10.037, 413.9102490694468), (0.3, 413.82), (0.3, 413.65), (3.32, 413.85419453525), (3.32, 413.72419453525), (3.32, 413.83419453525), (3.32, 413.72419453525), (10.037, 413.9102490694468), (10.037, 413.6102490694468)]</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4577,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>[(0.3, 415.0), (0.3, 414.87), (3.147, 415.0), (3.147, 414.87), (3.147, 415.0), (3.147, 414.73), (9.826, 415.0), (9.826, 414.73), (0.3, 414.87), (0.3, 414.74), (3.147, 414.87), (3.147, 414.74), (3.147, 414.73), (3.147, 414.62), (9.826, 414.73), (9.826, 414.46), (0.3, 414.74), (0.3, 414.63), (3.147, 414.74), (3.147, 414.62), (3.147, 414.62), (3.147, 414.62), (9.826, 414.46), (9.826, 414.46)]</t>
+          <t>[(0.3, 415.0), (0.3, 414.87), (3.147, 415.07828001346167), (3.147, 414.94828001346167), (3.147, 415.07828001346167), (3.147, 414.8082800134617), (9.826, 415.2619232203146), (9.826, 414.9919232203146), (0.3, 414.87), (0.3, 414.74), (3.147, 414.94828001346167), (3.147, 414.8182800134617), (3.147, 414.8082800134617), (3.147, 414.69828001346167), (9.826, 414.9919232203146), (9.826, 414.7219232203146), (0.3, 414.74), (0.3, 414.63), (3.147, 414.8182800134617), (3.147, 414.69828001346167), (3.147, 414.69828001346167), (3.147, 414.69828001346167), (9.826, 414.7219232203146), (9.826, 414.7219232203146)]</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4587,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>[(0.3, 416.0), (0.3, 415.89), (2.944, 416.0), (2.944, 415.89), (2.944, 416.0), (2.944, 415.81), (9.666, 416.0), (9.666, 415.81), (0.3, 415.89), (0.3, 415.72), (2.944, 415.89), (2.944, 415.65), (2.944, 415.81), (2.944, 415.65), (9.666, 415.81), (9.666, 415.51)]</t>
+          <t>[(0.3, 416.0), (0.3, 415.89), (2.944, 416.0872673833827), (2.944, 415.9772673833827), (2.944, 416.0872673833827), (2.944, 415.8972673833827), (9.666, 416.30913249348043), (9.666, 416.11913249348044), (0.3, 415.89), (0.3, 415.72), (2.944, 415.9772673833827), (2.944, 415.7372673833827), (2.944, 415.8972673833827), (2.944, 415.7372673833827), (9.666, 416.11913249348044), (9.666, 415.8191324934804)]</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4597,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>[(0.3, 417.0), (0.3, 416.83), (2.95, 417.0), (2.95, 416.83), (2.95, 417.0), (2.95, 416.78), (9.532, 417.0), (9.532, 416.78), (0.3, 416.83), (0.3, 416.7), (2.95, 416.83), (2.95, 416.66), (2.95, 416.78), (2.95, 416.66), (9.532, 416.78), (9.532, 416.56)]</t>
+          <t>[(0.3, 417.0), (0.3, 416.83), (2.95, 417.10206745910835), (2.95, 416.93206745910834), (2.95, 417.10206745910835), (2.95, 416.8820674591083), (9.532, 417.3555799179202), (9.532, 417.13557991792015), (0.3, 416.83), (0.3, 416.7), (2.95, 416.93206745910834), (2.95, 416.7620674591084), (2.95, 416.8820674591083), (2.95, 416.7620674591084), (9.532, 417.13557991792015), (9.532, 416.9155799179202)]</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4607,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>[(0.3, 418.0), (0.3, 417.85), (3.085, 418.0), (3.085, 417.85), (3.085, 418.0), (3.085, 417.89), (9.74, 418.0), (9.74, 417.89), (0.3, 417.85), (0.3, 417.73), (3.085, 417.85), (3.085, 417.71), (3.085, 417.89), (3.085, 417.71), (9.74, 417.89), (9.74, 417.59)]</t>
+          <t>[(0.3, 418.0), (0.3, 417.85), (3.085, 418.1226130404869), (3.085, 417.9726130404869), (3.085, 418.1226130404869), (3.085, 418.0126130404869), (9.74, 418.4156075770902), (9.74, 418.3056075770902), (0.3, 417.85), (0.3, 417.73), (3.085, 417.9726130404869), (3.085, 417.8326130404869), (3.085, 418.0126130404869), (3.085, 417.8326130404869), (9.74, 418.3056075770902), (9.74, 418.0056075770902)]</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4617,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>[(0.3, 419.0), (0.3, 418.85), (3.261, 419.0), (3.261, 418.85), (3.261, 419.0), (3.261, 418.88), (9.885, 419.0), (9.885, 418.88), (0.3, 418.85), (0.3, 418.72), (3.261, 418.85), (3.261, 418.71), (3.261, 418.88), (3.261, 418.71), (9.885, 418.88), (9.885, 418.58)]</t>
+          <t>[(0.3, 419.0), (0.3, 418.85), (3.261, 419.14667737061666), (3.261, 418.9966773706167), (3.261, 419.14667737061666), (3.261, 419.02667737061665), (9.885, 419.47480668603873), (9.885, 419.3548066860387), (0.3, 418.85), (0.3, 418.72), (3.261, 418.9966773706167), (3.261, 418.85667737061664), (3.261, 419.02667737061665), (3.261, 418.85667737061664), (9.885, 419.3548066860387), (9.885, 419.0548066860387)]</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4627,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>[(0.3, 420.0), (0.3, 419.84), (3.444, 420.0), (3.444, 419.84), (3.444, 420.0), (3.444, 419.87), (10.072, 420.0), (10.072, 419.87), (0.3, 419.84), (0.3, 419.72), (3.444, 419.84), (3.444, 419.69), (3.444, 419.87), (3.444, 419.69), (10.072, 419.87), (10.072, 419.57)]</t>
+          <t>[(0.3, 420.0), (0.3, 419.84), (3.444, 420.173066619025), (3.444, 420.013066619025), (3.444, 420.173066619025), (3.444, 420.043066619025), (10.072, 420.53791571282204), (10.072, 420.40791571282205), (0.3, 419.84), (0.3, 419.72), (3.444, 420.013066619025), (3.444, 419.863066619025), (3.444, 420.043066619025), (3.444, 419.863066619025), (10.072, 420.40791571282205), (10.072, 420.10791571282203)]</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4637,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>[(0.3, 421.0), (0.3, 420.89), (3.596, 421.0), (3.596, 420.89), (3.596, 421.0), (3.596, 420.76), (10.259, 421.0), (10.259, 420.76), (0.3, 420.89), (0.3, 420.73), (3.596, 420.89), (3.596, 420.65), (3.596, 420.76), (3.596, 420.65), (10.259, 420.76), (10.259, 420.53)]</t>
+          <t>[(0.3, 421.0), (0.3, 420.89), (3.596, 421.1995953401297), (3.596, 421.0895953401297), (3.596, 421.1995953401297), (3.596, 420.9595953401297), (10.259, 421.60308555593184), (10.259, 421.36308555593183), (0.3, 420.89), (0.3, 420.73), (3.596, 421.0895953401297), (3.596, 420.84959534012967), (3.596, 420.9595953401297), (3.596, 420.84959534012967), (10.259, 421.36308555593183), (10.259, 421.1330855559318)]</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4647,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>[(0.3, 422.0), (0.3, 421.89), (3.659, 422.0), (3.659, 421.89), (3.659, 422.0), (3.659, 421.78), (10.693, 422.0), (10.693, 421.78), (0.3, 421.89), (0.3, 421.74), (3.659, 421.89), (3.659, 421.65), (3.659, 421.78), (3.659, 421.65), (10.693, 421.78), (10.693, 421.48)]</t>
+          <t>[(0.3, 422.0), (0.3, 421.89), (3.659, 422.22191919647366), (3.659, 422.11191919647365), (3.659, 422.22191919647366), (3.659, 422.00191919647364), (10.693, 422.68663477491833), (10.693, 422.4666347749183), (0.3, 421.89), (0.3, 421.74), (3.659, 422.11191919647365), (3.659, 421.87191919647364), (3.659, 422.00191919647364), (3.659, 421.87191919647364), (10.693, 422.4666347749183), (10.693, 422.16663477491835)]</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4657,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>[(0.3, 423.0), (0.3, 422.82), (3.71, 423.0), (3.71, 422.82), (3.71, 423.0), (3.71, 422.82), (12.723, 423.0), (12.723, 422.7), (0.3, 422.82), (0.3, 422.7), (3.71, 422.82), (3.71, 422.65), (3.71, 422.82), (3.71, 422.64), (12.723, 422.7), (12.723, 422.4)]</t>
+          <t>[(0.3, 423.0), (0.3, 422.82), (3.71, 423.2387), (3.71, 423.0587), (3.71, 423.2387), (3.71, 423.0587), (12.723, 423.86961), (12.723, 423.56961), (0.3, 422.82), (0.3, 422.7), (3.71, 423.0587), (3.71, 422.8887), (3.71, 423.0587), (3.71, 422.8787), (12.723, 423.56961), (12.723, 423.26961)]</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4667,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>[(0.3, 424.0), (0.3, 423.89), (3.875, 424.0), (3.875, 423.89), (3.875, 424.0), (3.875, 423.84), (13.879, 424.0), (13.879, 423.68), (0.3, 423.89), (0.3, 423.75), (3.875, 423.89), (3.875, 423.67), (3.875, 423.84), (3.875, 423.68), (13.879, 423.68), (13.879, 423.36)]</t>
+          <t>[(0.3, 424.0), (0.3, 423.89), (3.875, 424.25025), (3.875, 424.14025), (3.875, 424.25025), (3.875, 424.09024999999997), (13.879, 424.95053), (13.879, 424.63053), (0.3, 423.89), (0.3, 423.75), (3.875, 424.14025), (3.875, 423.92025), (3.875, 424.09024999999997), (3.875, 423.93025), (13.879, 424.63053), (13.879, 424.31053)]</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4687,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>[(0.3, 426.0), (0.3, 425.83), (4.12, 426.0), (4.12, 425.83), (4.12, 426.0), (4.12, 425.83), (13.679, 426.0), (13.679, 425.7), (0.3, 425.83), (0.3, 425.71), (4.12, 425.83), (4.12, 425.66), (4.12, 425.83), (4.12, 425.66), (13.679, 425.7), (13.679, 425.4)]</t>
+          <t>[(0.3, 426.0), (0.3, 425.83), (4.12, 426.2674), (4.12, 426.0974), (4.12, 426.2674), (4.12, 426.0974), (13.679, 426.93653), (13.679, 426.63653), (0.3, 425.83), (0.3, 425.71), (4.12, 426.0974), (4.12, 425.92740000000003), (4.12, 426.0974), (4.12, 425.92740000000003), (13.679, 426.63653), (13.679, 426.33653)]</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4717,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>[(0.3, 429.0), (0.3, 428.83), (4.525, 429.0), (4.525, 428.83), (4.525, 429.0), (4.525, 428.83), (16.098, 429.0), (16.098, 428.6), (0.3, 428.83), (0.3, 428.71), (4.525, 428.83), (4.525, 428.66), (4.525, 428.83), (4.525, 428.66), (16.098, 428.6), (16.098, 428.2)]</t>
+          <t>[(0.3, 429.0), (0.3, 428.83), (4.525, 429.29575), (4.525, 429.12575), (4.525, 429.29575), (4.525, 429.12575), (16.098, 430.10586), (16.098, 429.70586000000003), (0.3, 428.83), (0.3, 428.71), (4.525, 429.12575), (4.525, 428.95575), (4.525, 429.12575), (4.525, 428.95575), (16.098, 429.70586000000003), (16.098, 429.30586)]</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4727,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>[(0.3, 430.0), (0.3, 429.82), (4.498, 430.0), (4.498, 429.82), (4.498, 430.0), (4.498, 429.82), (15.169, 430.0), (15.169, 429.67), (0.3, 429.82), (0.3, 429.68), (4.498, 429.82), (4.498, 429.64), (4.498, 429.82), (4.498, 429.64), (15.169, 429.67), (15.169, 429.34)]</t>
+          <t>[(0.3, 430.0), (0.3, 429.82), (4.498, 430.29386), (4.498, 430.11386), (4.498, 430.29386), (4.498, 430.11386), (15.169, 431.04083), (15.169, 430.71083000000004), (0.3, 429.82), (0.3, 429.68), (4.498, 430.11386), (4.498, 429.93386), (4.498, 430.11386), (4.498, 429.93386), (15.169, 430.71083000000004), (15.169, 430.38083)]</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4737,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>[(0.3, 431.0), (0.3, 430.8), (4.508, 431.0), (4.508, 430.8), (4.508, 431.0), (4.508, 430.8), (14.618, 431.0), (14.618, 430.68), (0.3, 430.8), (0.3, 430.66), (4.508, 430.8), (4.508, 430.61), (4.508, 430.8), (4.508, 430.6), (14.618, 430.68), (14.618, 430.36)]</t>
+          <t>[(0.3, 431.0), (0.3, 430.8), (4.508, 431.29456), (4.508, 431.09456), (4.508, 431.29456), (4.508, 431.09456), (14.618, 432.00226), (14.618, 431.68226), (0.3, 430.8), (0.3, 430.66), (4.508, 431.09456), (4.508, 430.90456), (4.508, 431.09456), (4.508, 430.89456), (14.618, 431.68226), (14.618, 431.36226)]</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4747,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>[(0.3, 432.0), (0.3, 431.83), (4.454, 432.0), (4.454, 431.83), (4.454, 432.0), (4.454, 431.83), (13.86, 432.0), (13.86, 431.68), (0.3, 431.83), (0.3, 431.69), (4.454, 431.83), (4.454, 431.66), (4.454, 431.83), (4.454, 431.66), (13.86, 431.68), (13.86, 431.36)]</t>
+          <t>[(0.3, 432.0), (0.3, 431.83), (4.454, 432.29078), (4.454, 432.12077999999997), (4.454, 432.29078), (4.454, 432.12077999999997), (13.86, 432.9492), (13.86, 432.6292), (0.3, 431.83), (0.3, 431.69), (4.454, 432.12077999999997), (4.454, 431.95078), (4.454, 432.12077999999997), (4.454, 431.95078), (13.86, 432.6292), (13.86, 432.30920000000003)]</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4757,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>[(0.3, 433.0), (0.3, 432.84), (4.298, 433.0), (4.298, 432.84), (4.298, 433.0), (4.298, 432.84), (11.103, 433.0), (11.103, 432.84), (0.3, 432.84), (0.3, 432.73), (4.298, 432.84), (4.298, 432.68), (4.298, 432.84), (4.298, 432.68), (11.103, 432.84), (11.103, 432.54)]</t>
+          <t>[(0.3, 433.0), (0.3, 432.84), (4.298, 433.27986), (4.298, 433.11985999999996), (4.298, 433.27986), (4.298, 433.11985999999996), (11.103, 433.75621), (11.103, 433.59621), (0.3, 432.84), (0.3, 432.73), (4.298, 433.11985999999996), (4.298, 432.95986), (4.298, 433.11985999999996), (4.298, 432.95986), (11.103, 433.59621), (11.103, 433.29621000000003)]</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4767,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>[(0.3, 434.0), (0.3, 433.89), (3.992, 434.0), (3.992, 433.89), (3.992, 434.0), (3.992, 433.77), (10.131, 434.0), (10.131, 433.77), (0.3, 433.89), (0.3, 433.72), (3.992, 433.89), (3.992, 433.65), (3.992, 433.77), (3.992, 433.65), (10.131, 433.77), (10.131, 433.55)]</t>
+          <t>[(0.3, 434.0), (0.3, 433.89), (3.992, 434.2564938634355), (3.992, 434.14649386343547), (3.992, 434.2564938634355), (3.992, 434.02649386343546), (10.131, 434.68298785791825), (10.131, 434.45298785791823), (0.3, 433.89), (0.3, 433.72), (3.992, 434.14649386343547), (3.992, 433.90649386343546), (3.992, 434.02649386343546), (3.992, 433.90649386343546), (10.131, 434.45298785791823), (10.131, 434.23298785791826)]</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4777,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>[(0.3, 435.0), (0.3, 434.84), (3.596, 435.0), (3.596, 434.84), (3.596, 435.0), (3.596, 434.8), (9.769, 435.0), (9.769, 434.8), (0.3, 434.84), (0.3, 434.71), (3.596, 434.84), (3.596, 434.68), (3.596, 434.8), (3.596, 434.68), (9.769, 434.8), (9.769, 434.61)]</t>
+          <t>[(0.3, 435.0), (0.3, 434.84), (3.596, 435.210820971324), (3.596, 435.05082097132396), (3.596, 435.210820971324), (3.596, 435.010820971324), (9.769, 435.6056625538431), (9.769, 435.4056625538431), (0.3, 434.84), (0.3, 434.71), (3.596, 435.05082097132396), (3.596, 434.890820971324), (3.596, 435.010820971324), (3.596, 434.890820971324), (9.769, 435.4056625538431), (9.769, 435.2156625538431)]</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4787,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>[(0.3, 436.0), (0.3, 435.83), (3.574, 436.0), (3.574, 435.83), (3.574, 436.0), (3.574, 435.78), (9.962, 436.0), (9.962, 435.78), (0.3, 435.83), (0.3, 435.68), (3.574, 435.83), (3.574, 435.66), (3.574, 435.78), (3.574, 435.66), (9.962, 435.78), (9.962, 435.57)]</t>
+          <t>[(0.3, 436.0), (0.3, 435.83), (3.574, 436.1913733843473), (3.574, 436.02137338434727), (3.574, 436.1913733843473), (3.574, 435.97137338434726), (9.962, 436.56476775796074), (9.962, 436.3447677579607), (0.3, 435.83), (0.3, 435.68), (3.574, 436.02137338434727), (3.574, 435.8513733843473), (3.574, 435.97137338434726), (3.574, 435.8513733843473), (9.962, 436.3447677579607), (9.962, 436.13476775796073)]</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4797,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>[(0.3, 437.0), (0.3, 436.82), (3.644, 437.0), (3.644, 436.82), (3.644, 437.0), (3.644, 436.78), (10.039, 437.0), (10.039, 436.78), (0.3, 436.82), (0.3, 436.68), (3.644, 436.82), (3.644, 436.64), (3.644, 436.78), (3.644, 436.64), (10.039, 436.78), (10.039, 436.56)]</t>
+          <t>[(0.3, 437.0), (0.3, 436.82), (3.644, 437.1770389347463), (3.644, 436.9970389347463), (3.644, 437.1770389347463), (3.644, 436.95703893474627), (10.039, 437.5156047205425), (10.039, 437.2956047205425), (0.3, 436.82), (0.3, 436.68), (3.644, 436.9970389347463), (3.644, 436.8170389347463), (3.644, 436.95703893474627), (3.644, 436.8170389347463), (10.039, 437.2956047205425), (10.039, 437.0756047205425)]</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4807,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>[(0.3, 438.0), (0.3, 437.82), (3.623, 438.0), (3.623, 437.82), (3.623, 438.0), (3.623, 437.77), (10.008, 438.0), (10.008, 437.77), (0.3, 437.82), (0.3, 437.69), (3.623, 437.82), (3.623, 437.65), (3.623, 437.77), (3.623, 437.65), (10.008, 437.77), (10.008, 437.55)]</t>
+          <t>[(0.3, 438.0), (0.3, 437.82), (3.623, 438.1576167390144), (3.623, 437.97761673901437), (3.623, 438.1576167390144), (3.623, 437.92761673901435), (10.008, 438.46047044909756), (10.008, 438.23047044909754), (0.3, 437.82), (0.3, 437.69), (3.623, 437.97761673901437), (3.623, 437.80761673901435), (3.623, 437.92761673901435), (3.623, 437.80761673901435), (10.008, 438.23047044909754), (10.008, 438.01047044909757)]</t>
         </is>
       </c>
     </row>
@@ -4777,7 +4817,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>[(0.3, 439.0), (0.3, 438.84), (3.579, 439.0), (3.579, 438.84), (3.579, 439.0), (3.579, 438.83), (9.279, 439.0), (9.279, 438.83), (0.3, 438.84), (0.3, 438.69), (3.579, 438.84), (3.579, 438.71), (3.579, 438.83), (3.579, 438.71), (9.279, 438.83), (9.279, 438.67)]</t>
+          <t>[(0.3, 439.0), (0.3, 438.84), (3.579, 439.13746176914253), (3.579, 438.9774617691425), (3.579, 439.13746176914253), (3.579, 438.9674617691425), (9.279, 439.3764163541113), (9.279, 439.2064163541113), (0.3, 438.84), (0.3, 438.69), (3.579, 438.9774617691425), (3.579, 438.8474617691425), (3.579, 438.9674617691425), (3.579, 438.8474617691425), (9.279, 439.2064163541113), (9.279, 439.04641635411133)]</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4827,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>[(0.3, 440.0), (0.3, 439.83), (3.417, 440.0), (3.417, 439.83), (3.417, 440.0), (3.417, 439.81), (8.345, 440.0), (8.345, 439.81), (0.3, 439.83), (0.3, 439.68), (3.417, 439.83), (3.417, 439.67), (3.417, 439.81), (3.417, 439.67), (8.345, 439.81), (8.345, 439.63)]</t>
+          <t>[(0.3, 440.0), (0.3, 439.83), (3.417, 440.11349512218413), (3.417, 439.9434951221841), (3.417, 440.11349512218413), (3.417, 439.92349512218414), (8.345, 440.2929317478253), (8.345, 440.1029317478253), (0.3, 439.83), (0.3, 439.68), (3.417, 439.9434951221841), (3.417, 439.78349512218415), (3.417, 439.92349512218414), (3.417, 439.78349512218415), (8.345, 440.1029317478253), (8.345, 439.9229317478253)]</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4837,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>[(0.3, 441.0), (0.3, 440.81), (3.084, 441.0), (3.084, 440.81), (3.084, 441.0), (3.084, 440.79), (7.736, 441.0), (7.736, 440.79), (0.3, 440.81), (0.3, 440.69), (3.084, 440.81), (3.084, 440.63), (3.084, 440.79), (3.084, 440.63), (7.736, 440.79), (7.736, 440.58)]</t>
+          <t>[(0.3, 441.0), (0.3, 440.81), (3.084, 441.08602963359505), (3.084, 440.89602963359505), (3.084, 441.08602963359505), (3.084, 440.87602963359507), (7.736, 441.22978317363965), (7.736, 441.01978317363967), (0.3, 440.81), (0.3, 440.69), (3.084, 440.89602963359505), (3.084, 440.71602963359504), (3.084, 440.87602963359507), (3.084, 440.71602963359504), (7.736, 441.01978317363967), (7.736, 440.80978317363963)]</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4847,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>[(0.3, 442.0), (0.3, 441.8), (2.831, 442.0), (2.831, 441.8), (2.831, 442.0), (2.831, 441.79), (7.33, 442.0), (7.33, 441.79), (0.3, 441.8), (0.3, 441.67), (2.831, 441.8), (2.831, 441.61), (2.831, 441.79), (2.831, 441.61), (7.33, 441.79), (7.33, 441.58)]</t>
+          <t>[(0.3, 442.0), (0.3, 441.8), (2.831, 442.0642652405057), (2.831, 441.8642652405057), (2.831, 442.0642652405057), (2.831, 441.8542652405057), (7.33, 442.17850045071316), (7.33, 441.9685004507132), (0.3, 441.8), (0.3, 441.67), (2.831, 441.8642652405057), (2.831, 441.6742652405057), (2.831, 441.8542652405057), (2.831, 441.6742652405057), (7.33, 441.9685004507132), (7.33, 441.75850045071314)]</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4857,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>[(0.3, 443.0), (0.3, 442.82), (2.668, 443.0), (2.668, 442.82), (2.668, 443.0), (2.668, 442.82), (6.946, 443.0), (6.946, 442.82), (0.3, 442.82), (0.3, 442.64), (2.668, 442.82), (2.668, 442.65), (2.668, 442.82), (2.668, 442.65), (6.946, 442.82), (6.946, 442.67)]</t>
+          <t>[(0.3, 443.0), (0.3, 442.82), (2.668, 443.004203417854), (2.668, 442.824203417854), (2.668, 443.004203417854), (2.668, 442.824203417854), (6.946, 443.01179726142647), (6.946, 442.83179726142646), (0.3, 442.82), (0.3, 442.64), (2.668, 442.824203417854), (2.668, 442.654203417854), (2.668, 442.824203417854), (2.668, 442.654203417854), (6.946, 442.83179726142646), (6.946, 442.6817972614265)]</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4877,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>[(0.3, 445.0), (0.3, 444.89), (6.418, 445.0), (6.418, 444.89), (0.3, 444.89), (0.3, 444.63), (6.418, 444.89), (6.418, 444.72)]</t>
+          <t>[(0.3, 445.0), (0.3, 444.89), (6.418, 444.84705), (6.418, 444.73705), (0.3, 444.89), (0.3, 444.63), (6.418, 444.73705), (6.418, 444.56705000000005)]</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4887,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>[(0.3, 446.0), (0.3, 445.89), (6.234, 446.0), (6.234, 445.89), (0.3, 445.89), (0.3, 445.66), (6.234, 445.89), (6.234, 445.74)]</t>
+          <t>[(0.3, 446.0), (0.3, 445.89), (6.234, 445.85165), (6.234, 445.74165), (0.3, 445.89), (0.3, 445.66), (6.234, 445.74165), (6.234, 445.59165)]</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4897,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>[(0.3, 447.0), (0.3, 446.8), (6.102, 447.0), (6.102, 446.8), (0.3, 446.8), (0.3, 446.61), (6.102, 446.8), (6.102, 446.66)]</t>
+          <t>[(0.3, 447.0), (0.3, 446.8), (6.102, 446.85495), (6.102, 446.65495), (0.3, 446.8), (0.3, 446.61), (6.102, 446.65495), (6.102, 446.51495)]</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4907,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>[(0.3, 448.0), (0.3, 447.85), (5.962, 448.0), (5.962, 447.85), (0.3, 447.85), (0.3, 447.7), (5.962, 447.85), (5.962, 447.7), (0.3, 447.7), (0.3, 447.56), (5.962, 447.7), (5.962, 447.58)]</t>
+          <t>[(0.3, 448.0), (0.3, 447.85), (5.962, 447.85845), (5.962, 447.70845), (0.3, 447.85), (0.3, 447.7), (5.962, 447.70845), (5.962, 447.55845), (0.3, 447.7), (0.3, 447.56), (5.962, 447.55845), (5.962, 447.43845)]</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4917,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>[(0.3, 449.0), (0.3, 448.85), (5.752, 449.0), (5.752, 448.85), (0.3, 448.85), (0.3, 448.7), (5.752, 448.85), (5.752, 448.7), (0.3, 448.7), (0.3, 448.55), (5.752, 448.7), (5.752, 448.55)]</t>
+          <t>[(0.3, 449.0), (0.3, 448.85), (5.752, 448.8637), (5.752, 448.7137), (0.3, 448.85), (0.3, 448.7), (5.752, 448.7137), (5.752, 448.5637), (0.3, 448.7), (0.3, 448.55), (5.752, 448.5637), (5.752, 448.4137)]</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4927,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>[(0.3, 450.0), (0.3, 449.85), (5.549, 450.0), (5.549, 449.85), (0.3, 449.85), (0.3, 449.7), (5.549, 449.85), (5.549, 449.7), (0.3, 449.7), (0.3, 449.58), (5.549, 449.7), (5.549, 449.57)]</t>
+          <t>[(0.3, 450.0), (0.3, 449.85), (5.549, 449.868775), (5.549, 449.71877500000005), (0.3, 449.85), (0.3, 449.7), (5.549, 449.71877500000005), (5.549, 449.568775), (0.3, 449.7), (0.3, 449.58), (5.549, 449.568775), (5.549, 449.438775)]</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4937,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>[(0.3, 451.0), (0.3, 450.8), (5.338, 451.0), (5.338, 450.8), (0.3, 450.8), (0.3, 450.62), (5.338, 450.8), (5.338, 450.61)]</t>
+          <t>[(0.3, 451.0), (0.3, 450.8), (5.338, 450.87405), (5.338, 450.67405), (0.3, 450.8), (0.3, 450.62), (5.338, 450.67405), (5.338, 450.48405)]</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4947,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>[(0.3, 452.0), (0.3, 451.81), (5.045, 452.0), (5.045, 451.81), (0.3, 451.81), (0.3, 451.65), (5.045, 451.81), (5.045, 451.63)]</t>
+          <t>[(0.3, 452.0), (0.3, 451.81), (5.045, 451.881375), (5.045, 451.691375), (0.3, 451.81), (0.3, 451.65), (5.045, 451.691375), (5.045, 451.511375)]</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4957,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>[(0.3, 453.0), (0.3, 452.83), (4.721, 453.0), (4.721, 452.83), (0.3, 452.83), (0.3, 452.68), (4.721, 452.83), (4.721, 452.67)]</t>
+          <t>[(0.3, 453.0), (0.3, 452.83), (4.721, 452.889475), (4.721, 452.719475), (0.3, 452.83), (0.3, 452.68), (4.721, 452.719475), (4.721, 452.559475)]</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4967,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>[(0.3, 454.0), (0.3, 453.83), (4.434, 454.0), (4.434, 453.83), (0.3, 453.83), (0.3, 453.68), (4.434, 453.83), (4.434, 453.67)]</t>
+          <t>[(0.3, 454.0), (0.3, 453.83), (4.434, 453.89665), (4.434, 453.72665), (0.3, 453.83), (0.3, 453.68), (4.434, 453.72665), (4.434, 453.56665000000004)]</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4977,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>[(0.3, 455.0), (0.3, 454.81), (4.163, 455.0), (4.163, 454.81), (0.3, 454.81), (0.3, 454.64), (4.163, 454.81), (4.163, 454.63)]</t>
+          <t>[(0.3, 455.0), (0.3, 454.81), (4.163, 454.903425), (4.163, 454.71342500000003), (0.3, 454.81), (0.3, 454.64), (4.163, 454.71342500000003), (4.163, 454.533425)]</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4987,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>[(0.3, 456.0), (0.3, 455.81), (3.87, 456.0), (3.87, 455.81), (0.3, 455.81), (0.3, 455.66), (3.87, 455.81), (3.87, 455.62)]</t>
+          <t>[(0.3, 456.0), (0.3, 455.81), (3.87, 455.91075), (3.87, 455.72075), (0.3, 455.81), (0.3, 455.66), (3.87, 455.72075), (3.87, 455.53075)]</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4997,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>[(0.3, 457.0), (0.3, 456.79), (3.593, 457.0), (3.593, 456.79), (0.3, 456.79), (0.3, 456.6), (3.593, 456.79), (3.593, 456.58)]</t>
+          <t>[(0.3, 457.0), (0.3, 456.79), (3.593, 456.917675), (3.593, 456.707675), (0.3, 456.79), (0.3, 456.6), (3.593, 456.707675), (3.593, 456.49767499999996)]</t>
         </is>
       </c>
     </row>
@@ -4967,7 +5007,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>[(0.3, 458.0), (0.3, 457.8), (3.315, 458.0), (3.315, 457.8), (0.3, 457.8), (0.3, 457.62), (3.315, 457.8), (3.315, 457.6)]</t>
+          <t>[(0.3, 458.0), (0.3, 457.8), (3.315, 457.924625), (3.315, 457.724625), (0.3, 457.8), (0.3, 457.62), (3.315, 457.724625), (3.315, 457.524625)]</t>
         </is>
       </c>
     </row>
@@ -4977,7 +5017,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>[(0.3, 459.0), (0.3, 458.82), (3.089, 459.0), (3.089, 458.82), (0.3, 458.82), (0.3, 458.68), (3.089, 458.82), (3.089, 458.65)]</t>
+          <t>[(0.3, 459.0), (0.3, 458.82), (3.089, 458.930275), (3.089, 458.750275), (0.3, 458.82), (0.3, 458.68), (3.089, 458.750275), (3.089, 458.580275)]</t>
         </is>
       </c>
     </row>
@@ -4987,7 +5027,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>[(0.3, 460.0), (0.3, 459.83), (2.835, 460.0), (2.835, 459.83), (0.3, 459.83), (0.3, 459.68), (2.835, 459.83), (2.835, 459.67)]</t>
+          <t>[(0.3, 460.0), (0.3, 459.83), (2.835, 459.936625), (2.835, 459.766625), (0.3, 459.83), (0.3, 459.68), (2.835, 459.766625), (2.835, 459.606625)]</t>
         </is>
       </c>
     </row>
@@ -4997,7 +5037,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>[(0.3, 461.0), (0.3, 460.82), (2.64, 461.0), (2.64, 460.82), (0.3, 460.82), (0.3, 460.67), (2.64, 460.82), (2.64, 460.64)]</t>
+          <t>[(0.3, 461.0), (0.3, 460.82), (2.64, 460.9302994065223), (2.64, 460.7502994065223), (0.3, 460.82), (0.3, 460.67), (2.64, 460.7502994065223), (2.64, 460.5702994065223)]</t>
         </is>
       </c>
     </row>
@@ -5025,13 +5065,21 @@
       <c r="A465" t="n">
         <v>54600</v>
       </c>
-      <c r="B465" t="inlineStr"/>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
         <v>54625</v>
       </c>
-      <c r="B466" t="inlineStr"/>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -5067,7 +5115,11 @@
       <c r="A470" t="n">
         <v>54725</v>
       </c>
-      <c r="B470" t="inlineStr"/>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -5083,13 +5135,21 @@
       <c r="A472" t="n">
         <v>54775</v>
       </c>
-      <c r="B472" t="inlineStr"/>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
         <v>54800</v>
       </c>
-      <c r="B473" t="inlineStr"/>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -5115,13 +5175,21 @@
       <c r="A476" t="n">
         <v>54875</v>
       </c>
-      <c r="B476" t="inlineStr"/>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
         <v>54900</v>
       </c>
-      <c r="B477" t="inlineStr"/>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -5177,37 +5245,61 @@
       <c r="A483" t="n">
         <v>55050</v>
       </c>
-      <c r="B483" t="inlineStr"/>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
         <v>55075</v>
       </c>
-      <c r="B484" t="inlineStr"/>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
         <v>55100</v>
       </c>
-      <c r="B485" t="inlineStr"/>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
         <v>55125</v>
       </c>
-      <c r="B486" t="inlineStr"/>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
         <v>55150</v>
       </c>
-      <c r="B487" t="inlineStr"/>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
         <v>55175</v>
       </c>
-      <c r="B488" t="inlineStr"/>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -5223,13 +5315,21 @@
       <c r="A490" t="n">
         <v>55225</v>
       </c>
-      <c r="B490" t="inlineStr"/>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
         <v>55250</v>
       </c>
-      <c r="B491" t="inlineStr"/>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -5345,7 +5445,11 @@
       <c r="A503" t="n">
         <v>55550</v>
       </c>
-      <c r="B503" t="inlineStr"/>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -5391,19 +5495,31 @@
       <c r="A508" t="n">
         <v>55675</v>
       </c>
-      <c r="B508" t="inlineStr"/>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
         <v>55700</v>
       </c>
-      <c r="B509" t="inlineStr"/>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
         <v>55725</v>
       </c>
-      <c r="B510" t="inlineStr"/>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -5419,91 +5535,151 @@
       <c r="A512" t="n">
         <v>55775</v>
       </c>
-      <c r="B512" t="inlineStr"/>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
         <v>55800</v>
       </c>
-      <c r="B513" t="inlineStr"/>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
         <v>55825</v>
       </c>
-      <c r="B514" t="inlineStr"/>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
         <v>55850</v>
       </c>
-      <c r="B515" t="inlineStr"/>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
         <v>55875</v>
       </c>
-      <c r="B516" t="inlineStr"/>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
         <v>55900</v>
       </c>
-      <c r="B517" t="inlineStr"/>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
         <v>55925</v>
       </c>
-      <c r="B518" t="inlineStr"/>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
         <v>55950</v>
       </c>
-      <c r="B519" t="inlineStr"/>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
         <v>55975</v>
       </c>
-      <c r="B520" t="inlineStr"/>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
         <v>56000</v>
       </c>
-      <c r="B521" t="inlineStr"/>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
         <v>56025</v>
       </c>
-      <c r="B522" t="inlineStr"/>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
         <v>56050</v>
       </c>
-      <c r="B523" t="inlineStr"/>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
         <v>56075</v>
       </c>
-      <c r="B524" t="inlineStr"/>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
         <v>56100</v>
       </c>
-      <c r="B525" t="inlineStr"/>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
         <v>56125</v>
       </c>
-      <c r="B526" t="inlineStr"/>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -5511,7 +5687,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>[(0.3, 526.0), (0.3, 525.82), (3.002, 526.0), (3.002, 525.82), (0.3, 525.82), (0.3, 525.65), (3.002, 525.82), (3.002, 525.71)]</t>
+          <t>[(0.3, 526.0), (0.3, 525.82), (3.002, 525.8150668190923), (3.002, 525.6350668190923), (0.3, 525.82), (0.3, 525.65), (3.002, 525.6350668190923), (3.002, 525.5250668190923)]</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5697,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>[(0.3, 527.0), (0.3, 526.89), (4.371, 527.0), (4.371, 526.89), (0.3, 526.89), (0.3, 526.64), (4.371, 526.89), (4.371, 526.73)]</t>
+          <t>[(0.3, 527.0), (0.3, 526.89), (4.371, 526.7649861104829), (4.371, 526.6549861104829), (0.3, 526.89), (0.3, 526.64), (4.371, 526.6549861104829), (4.371, 526.494986110483)]</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5707,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>[(0.3, 528.0), (0.3, 527.83), (5.476, 528.0), (5.476, 527.83), (0.3, 527.83), (0.3, 527.67), (5.476, 527.83), (5.476, 527.71)]</t>
+          <t>[(0.3, 528.0), (0.3, 527.83), (5.476, 527.7566529443455), (5.476, 527.5866529443456), (0.3, 527.83), (0.3, 527.67), (5.476, 527.5866529443456), (5.476, 527.4666529443456)]</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5717,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>[(0.3, 529.0), (0.3, 528.84), (5.981, 529.0), (5.981, 528.84), (0.3, 528.84), (0.3, 528.69), (5.981, 528.84), (5.981, 528.69)]</t>
+          <t>[(0.3, 529.0), (0.3, 528.84), (5.981, 528.7937784786319), (5.981, 528.6337784786319), (0.3, 528.84), (0.3, 528.69), (5.981, 528.6337784786319), (5.981, 528.483778478632)]</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5727,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>[(0.3, 530.0), (0.3, 529.79), (6.33, 530.0), (6.33, 529.79), (0.3, 529.79), (0.3, 529.61), (6.33, 529.79), (6.33, 529.58)]</t>
+          <t>[(0.3, 530.0), (0.3, 529.79), (6.33, 529.8457168464569), (6.33, 529.6357168464568), (0.3, 529.79), (0.3, 529.61), (6.33, 529.6357168464568), (6.33, 529.4257168464569)]</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5737,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>[(0.3, 531.0), (0.3, 530.78), (6.743, 531.0), (6.743, 530.78), (0.3, 530.78), (0.3, 530.6), (6.743, 530.78), (6.743, 530.56)]</t>
+          <t>[(0.3, 531.0), (0.3, 530.78), (6.743, 530.838925), (6.743, 530.618925), (0.3, 530.78), (0.3, 530.6), (6.743, 530.618925), (6.743, 530.398925)]</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5747,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>[(0.3, 532.0), (0.3, 531.8), (7.086, 532.0), (7.086, 531.8), (0.3, 531.8), (0.3, 531.66), (7.086, 531.8), (7.086, 531.61)]</t>
+          <t>[(0.3, 532.0), (0.3, 531.8), (7.086, 531.83035), (7.086, 531.6303499999999), (0.3, 531.8), (0.3, 531.66), (7.086, 531.6303499999999), (7.086, 531.44035)]</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5757,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>[(0.3, 533.0), (0.3, 532.82), (7.455, 533.0), (7.455, 532.82), (0.3, 532.82), (0.3, 532.68), (7.455, 532.82), (7.455, 532.65)]</t>
+          <t>[(0.3, 533.0), (0.3, 532.82), (7.455, 532.821125), (7.455, 532.6411250000001), (0.3, 532.82), (0.3, 532.68), (7.455, 532.6411250000001), (7.455, 532.471125)]</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5767,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>[(0.3, 534.0), (0.3, 533.86), (7.685, 534.0), (7.685, 533.86), (0.3, 533.86), (0.3, 533.73), (7.685, 533.86), (7.685, 533.73)]</t>
+          <t>[(0.3, 534.0), (0.3, 533.86), (7.685, 533.815375), (7.685, 533.675375), (0.3, 533.86), (0.3, 533.73), (7.685, 533.675375), (7.685, 533.545375)]</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5777,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>[(0.3, 535.0), (0.3, 534.85), (7.928, 535.0), (7.928, 534.85), (0.3, 534.85), (0.3, 534.74), (7.928, 534.85), (7.928, 534.71)]</t>
+          <t>[(0.3, 535.0), (0.3, 534.85), (7.928, 534.8093), (7.928, 534.6593), (0.3, 534.85), (0.3, 534.74), (7.928, 534.6593), (7.928, 534.5193)]</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5787,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>[(0.3, 536.0), (0.3, 535.89), (8.265, 536.0), (8.265, 535.89), (0.3, 535.89), (0.3, 535.75), (8.265, 535.89), (8.265, 535.69)]</t>
+          <t>[(0.3, 536.0), (0.3, 535.89), (8.265, 535.800875), (8.265, 535.690875), (0.3, 535.89), (0.3, 535.75), (8.265, 535.690875), (8.265, 535.4908750000001)]</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5797,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>[(0.3, 537.0), (0.3, 536.89), (8.962, 537.0), (8.962, 536.89), (0.3, 536.89), (0.3, 536.74), (8.962, 536.89), (8.962, 536.69)]</t>
+          <t>[(0.3, 537.0), (0.3, 536.89), (8.962, 536.78345), (8.962, 536.67345), (0.3, 536.89), (0.3, 536.74), (8.962, 536.67345), (8.962, 536.4734500000001)]</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5807,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>[(0.3, 538.0), (0.3, 537.83), (7.101, 538.0), (7.101, 537.83), (0.3, 537.83), (0.3, 537.72), (7.101, 537.83), (7.101, 537.67)]</t>
+          <t>[(0.3, 538.0), (0.3, 537.83), (7.101, 537.829975), (7.101, 537.659975), (0.3, 537.83), (0.3, 537.72), (7.101, 537.659975), (7.101, 537.499975)]</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5817,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>[(0.3, 539.0), (0.3, 538.84), (6.99, 539.0), (6.99, 538.84), (0.3, 538.84), (0.3, 538.71), (6.99, 538.84), (6.99, 538.69)]</t>
+          <t>[(0.3, 539.0), (0.3, 538.84), (6.99, 538.83275), (6.99, 538.6727500000001), (0.3, 538.84), (0.3, 538.71), (6.99, 538.6727500000001), (6.99, 538.5227500000001)]</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5827,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>[(0.3, 540.0), (0.3, 539.86), (7.002, 540.0), (7.002, 539.86), (0.3, 539.86), (0.3, 539.74), (7.002, 539.86), (7.002, 539.75)]</t>
+          <t>[(0.3, 540.0), (0.3, 539.86), (7.002, 539.83245), (7.002, 539.69245), (0.3, 539.86), (0.3, 539.74), (7.002, 539.69245), (7.002, 539.58245)]</t>
         </is>
       </c>
     </row>
@@ -5841,7 +6017,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>[(0.3, 559.0), (0.3, 558.85), (7.064, 559.0), (7.064, 558.85), (0.3, 558.85), (0.3, 558.73), (7.064, 558.85), (7.064, 558.71)]</t>
+          <t>[(0.3, 559.0), (0.3, 558.85), (7.064, 558.8309), (7.064, 558.6809000000001), (0.3, 558.85), (0.3, 558.73), (7.064, 558.6809000000001), (7.064, 558.5409000000001)]</t>
         </is>
       </c>
     </row>
@@ -5851,7 +6027,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>[(0.3, 560.0), (0.3, 559.82), (6.814, 560.0), (6.814, 559.82), (0.3, 559.82), (0.3, 559.64), (6.814, 559.82), (6.814, 559.64)]</t>
+          <t>[(0.3, 560.0), (0.3, 559.82), (6.814, 559.83715), (6.814, 559.65715), (0.3, 559.82), (0.3, 559.64), (6.814, 559.65715), (6.814, 559.4771499999999)]</t>
         </is>
       </c>
     </row>
@@ -5861,7 +6037,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>[(0.3, 561.0), (0.3, 560.81), (6.472, 561.0), (6.472, 560.81), (0.3, 560.81), (0.3, 560.65), (6.472, 560.81), (6.472, 560.62)]</t>
+          <t>[(0.3, 561.0), (0.3, 560.81), (6.472, 560.8457), (6.472, 560.6556999999999), (0.3, 560.81), (0.3, 560.65), (6.472, 560.6556999999999), (6.472, 560.4657)]</t>
         </is>
       </c>
     </row>
@@ -5871,7 +6047,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>[(0.3, 562.0), (0.3, 561.86), (6.115, 562.0), (6.115, 561.86), (0.3, 561.86), (0.3, 561.72), (6.115, 561.86), (6.115, 561.72), (0.3, 561.72), (0.3, 561.61), (6.115, 561.72), (6.115, 561.61)]</t>
+          <t>[(0.3, 562.0), (0.3, 561.86), (6.115, 561.854625), (6.115, 561.7146250000001), (0.3, 561.86), (0.3, 561.72), (6.115, 561.7146250000001), (6.115, 561.5746250000001), (0.3, 561.72), (0.3, 561.61), (6.115, 561.5746250000001), (6.115, 561.4646250000001)]</t>
         </is>
       </c>
     </row>
@@ -5881,7 +6057,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>[(0.3, 563.0), (0.3, 562.86), (5.843, 563.0), (5.843, 562.86), (0.3, 562.86), (0.3, 562.72), (5.843, 562.86), (5.843, 562.72), (0.3, 562.72), (0.3, 562.6), (5.843, 562.72), (5.843, 562.59)]</t>
+          <t>[(0.3, 563.0), (0.3, 562.86), (5.843, 562.861425), (5.843, 562.7214250000001), (0.3, 562.86), (0.3, 562.72), (5.843, 562.7214250000001), (5.843, 562.5814250000001), (0.3, 562.72), (0.3, 562.6), (5.843, 562.5814250000001), (5.843, 562.4514250000001)]</t>
         </is>
       </c>
     </row>
@@ -5891,7 +6067,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>[(0.3, 564.0), (0.3, 563.83), (5.615, 564.0), (5.615, 563.83), (0.3, 563.83), (0.3, 563.68), (5.615, 563.83), (5.615, 563.66)]</t>
+          <t>[(0.3, 564.0), (0.3, 563.83), (5.615, 563.867125), (5.615, 563.697125), (0.3, 563.83), (0.3, 563.68), (5.615, 563.697125), (5.615, 563.527125)]</t>
         </is>
       </c>
     </row>
@@ -5901,7 +6077,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>[(0.3, 565.0), (0.3, 564.82), (5.49, 565.0), (5.49, 564.82), (0.3, 564.82), (0.3, 564.67), (5.49, 564.82), (5.49, 564.64)]</t>
+          <t>[(0.3, 565.0), (0.3, 564.82), (5.49, 564.8689830172738), (5.49, 564.6889830172738), (0.3, 564.82), (0.3, 564.67), (5.49, 564.6889830172738), (5.49, 564.5089830172737)]</t>
         </is>
       </c>
     </row>
@@ -5911,7 +6087,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>[(0.3, 566.0), (0.3, 565.84), (5.511, 566.0), (5.511, 565.84), (0.3, 565.84), (0.3, 565.73), (5.511, 565.84), (5.511, 565.69)]</t>
+          <t>[(0.3, 566.0), (0.3, 565.84), (5.511, 565.8235877760726), (5.511, 565.6635877760726), (0.3, 565.84), (0.3, 565.73), (5.511, 565.6635877760726), (5.511, 565.5135877760727)]</t>
         </is>
       </c>
     </row>
@@ -5921,7 +6097,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>[(0.3, 567.0), (0.3, 566.85), (5.588, 567.0), (5.588, 566.85), (0.3, 566.85), (0.3, 566.72), (5.588, 566.85), (5.588, 566.73)]</t>
+          <t>[(0.3, 567.0), (0.3, 566.85), (5.588, 566.7754529712985), (5.588, 566.6254529712985), (0.3, 566.85), (0.3, 566.72), (5.588, 566.6254529712985), (5.588, 566.5054529712985)]</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6207,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>[(0.3, 578.0), (0.3, 577.89), (8.864, 578.0), (8.864, 577.89), (0.3, 577.89), (0.3, 577.6), (8.864, 577.89), (8.864, 577.74)]</t>
+          <t>[(0.3, 578.0), (0.3, 577.89), (8.864, 577.40052), (8.864, 577.29052), (0.3, 577.89), (0.3, 577.6), (8.864, 577.29052), (8.864, 577.14052)]</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6217,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>[(0.3, 579.0), (0.3, 578.84), (2.473, 579.0), (2.473, 578.84), (2.473, 579.0), (2.473, 578.87), (9.07, 579.0), (9.07, 578.87), (0.3, 578.84), (0.3, 578.68), (2.473, 578.84), (2.473, 578.68), (2.473, 578.87), (2.473, 578.57), (9.07, 578.87), (9.07, 578.73), (0.3, 578.68), (0.3, 578.53), (2.473, 578.68), (2.473, 578.57), (2.473, 578.57), (2.473, 578.57), (9.07, 578.73), (9.07, 578.73)]</t>
+          <t>[(0.3, 579.0), (0.3, 578.84), (2.473, 578.8533139063451), (2.473, 578.6933139063451), (2.473, 578.8533139063451), (2.473, 578.7233139063451), (9.07, 578.4079903169103), (9.07, 578.2779903169103), (0.3, 578.84), (0.3, 578.68), (2.473, 578.6933139063451), (2.473, 578.533313906345), (2.473, 578.7233139063451), (2.473, 578.4233139063451), (9.07, 578.2779903169103), (9.07, 578.1379903169103), (0.3, 578.68), (0.3, 578.53), (2.473, 578.533313906345), (2.473, 578.4233139063451), (2.473, 578.4233139063451), (2.473, 578.4233139063451), (9.07, 578.1379903169103), (9.07, 578.1379903169103)]</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6227,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>[(0.3, 580.0), (0.3, 579.82), (2.681, 580.0), (2.681, 579.82), (2.681, 580.0), (2.681, 579.76), (9.233, 580.0), (9.233, 579.76), (0.3, 579.82), (0.3, 579.64), (2.681, 579.82), (2.681, 579.64), (2.681, 579.76), (2.681, 579.53), (9.233, 579.76), (9.233, 579.65), (0.3, 579.64), (0.3, 579.47), (2.681, 579.64), (2.681, 579.53), (2.681, 579.53), (2.681, 579.53), (9.233, 579.65), (9.233, 579.65)]</t>
+          <t>[(0.3, 580.0), (0.3, 579.82), (2.681, 579.8597727648288), (2.681, 579.6797727648288), (2.681, 579.8597727648288), (2.681, 579.6197727648288), (9.233, 579.4738975674992), (9.233, 579.2338975674992), (0.3, 579.82), (0.3, 579.64), (2.681, 579.6797727648288), (2.681, 579.4997727648288), (2.681, 579.6197727648288), (2.681, 579.3897727648288), (9.233, 579.2338975674992), (9.233, 579.1238975674992), (0.3, 579.64), (0.3, 579.47), (2.681, 579.4997727648288), (2.681, 579.3897727648288), (2.681, 579.3897727648288), (2.681, 579.3897727648288), (9.233, 579.1238975674992), (9.233, 579.1238975674992)]</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6237,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>[(0.3, 581.0), (0.3, 580.81), (2.791, 581.0), (2.791, 580.81), (2.791, 581.0), (2.791, 580.74), (9.376, 581.0), (9.376, 580.74), (0.3, 580.81), (0.3, 580.62), (2.791, 580.81), (2.791, 580.62), (2.791, 580.74), (2.791, 580.49), (9.376, 580.74), (9.376, 580.58), (0.3, 580.62), (0.3, 580.45), (2.791, 580.62), (2.791, 580.49), (2.791, 580.49), (2.791, 580.49), (9.376, 580.58), (9.376, 580.58)]</t>
+          <t>[(0.3, 581.0), (0.3, 580.81), (2.791, 580.8747411435255), (2.791, 580.6847411435255), (2.791, 580.8747411435255), (2.791, 580.6147411435255), (9.376, 580.5436172696258), (9.376, 580.2836172696258), (0.3, 580.81), (0.3, 580.62), (2.791, 580.6847411435255), (2.791, 580.4947411435255), (2.791, 580.6147411435255), (2.791, 580.3647411435255), (9.376, 580.2836172696258), (9.376, 580.1236172696258), (0.3, 580.62), (0.3, 580.45), (2.791, 580.4947411435255), (2.791, 580.3647411435255), (2.791, 580.3647411435255), (2.791, 580.3647411435255), (9.376, 580.1236172696258), (9.376, 580.1236172696258)]</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6247,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>[(0.3, 582.0), (0.3, 581.83), (2.886, 582.0), (2.886, 581.83), (2.886, 582.0), (2.886, 581.84), (9.415, 582.0), (9.415, 581.84), (0.3, 581.83), (0.3, 581.66), (2.886, 581.83), (2.886, 581.66), (2.886, 581.84), (2.886, 581.68), (9.415, 581.84), (9.415, 581.68), (0.3, 581.66), (0.3, 581.49), (2.886, 581.66), (2.886, 581.52), (2.886, 581.68), (2.886, 581.52), (9.415, 581.68), (9.415, 581.53)]</t>
+          <t>[(0.3, 582.0), (0.3, 581.83), (2.886, 581.8922287779682), (2.886, 581.7222287779682), (2.886, 581.8922287779682), (2.886, 581.7322287779682), (9.415, 581.6201335310052), (9.415, 581.4601335310052), (0.3, 581.83), (0.3, 581.66), (2.886, 581.7222287779682), (2.886, 581.5522287779681), (2.886, 581.7322287779682), (2.886, 581.5722287779681), (9.415, 581.4601335310052), (9.415, 581.3001335310051), (0.3, 581.66), (0.3, 581.49), (2.886, 581.5522287779681), (2.886, 581.4122287779682), (2.886, 581.5722287779681), (2.886, 581.4122287779682), (9.415, 581.3001335310051), (9.415, 581.1501335310052)]</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6257,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>[(0.3, 583.0), (0.3, 582.83), (2.849, 583.0), (2.849, 582.83), (2.849, 583.0), (2.849, 582.83), (9.417, 583.0), (9.417, 582.83), (0.3, 582.83), (0.3, 582.66), (2.849, 582.83), (2.849, 582.66), (2.849, 582.83), (2.849, 582.66), (9.417, 582.83), (9.417, 582.66), (0.3, 582.66), (0.3, 582.51), (2.849, 582.66), (2.849, 582.51), (2.849, 582.66), (2.849, 582.51), (9.417, 582.66), (9.417, 582.51)]</t>
+          <t>[(0.3, 583.0), (0.3, 582.83), (2.849, 582.9157168579135), (2.849, 582.7457168579135), (2.849, 582.9157168579135), (2.849, 582.7457168579135), (9.417, 582.6985447601403), (9.417, 582.5285447601403), (0.3, 582.83), (0.3, 582.66), (2.849, 582.7457168579135), (2.849, 582.5757168579134), (2.849, 582.7457168579135), (2.849, 582.5757168579134), (9.417, 582.5285447601403), (9.417, 582.3585447601403), (0.3, 582.66), (0.3, 582.51), (2.849, 582.5757168579134), (2.849, 582.4257168579135), (2.849, 582.5757168579134), (2.849, 582.4257168579135), (9.417, 582.3585447601403), (9.417, 582.2085447601403)]</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6267,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>[(0.3, 584.0), (0.3, 583.82), (2.843, 584.0), (2.843, 583.82), (2.843, 584.0), (2.843, 583.82), (9.408, 584.0), (9.408, 583.82), (0.3, 583.82), (0.3, 583.64), (2.843, 583.82), (2.843, 583.64), (2.843, 583.82), (2.843, 583.64), (9.408, 583.82), (9.408, 583.64), (0.3, 583.64), (0.3, 583.48), (2.843, 583.64), (2.843, 583.49), (2.843, 583.64), (2.843, 583.49), (9.408, 583.64), (9.408, 583.47)]</t>
+          <t>[(0.3, 584.0), (0.3, 583.82), (2.843, 583.936425), (2.843, 583.756425), (2.843, 583.936425), (2.843, 583.756425), (9.408, 583.7723), (9.408, 583.5923), (0.3, 583.82), (0.3, 583.64), (2.843, 583.756425), (2.843, 583.576425), (2.843, 583.756425), (2.843, 583.576425), (9.408, 583.5923), (9.408, 583.4123), (0.3, 583.64), (0.3, 583.48), (2.843, 583.576425), (2.843, 583.426425), (2.843, 583.576425), (2.843, 583.426425), (9.408, 583.4123), (9.408, 583.2423)]</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6277,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>[(0.3, 585.0), (0.3, 584.83), (2.894, 585.0), (2.894, 584.83), (2.894, 585.0), (2.894, 584.83), (9.484, 585.0), (9.484, 584.83), (0.3, 584.83), (0.3, 584.66), (2.894, 584.83), (2.894, 584.66), (2.894, 584.83), (2.894, 584.66), (9.484, 584.83), (9.484, 584.66), (0.3, 584.66), (0.3, 584.49), (2.894, 584.66), (2.894, 584.54), (2.894, 584.66), (2.894, 584.54), (9.484, 584.66), (9.484, 584.49)]</t>
+          <t>[(0.3, 585.0), (0.3, 584.83), (2.894, 584.93515), (2.894, 584.7651500000001), (2.894, 584.93515), (2.894, 584.7651500000001), (9.484, 584.7704), (9.484, 584.6004), (0.3, 584.83), (0.3, 584.66), (2.894, 584.7651500000001), (2.894, 584.59515), (2.894, 584.7651500000001), (2.894, 584.59515), (9.484, 584.6004), (9.484, 584.4304), (0.3, 584.66), (0.3, 584.49), (2.894, 584.59515), (2.894, 584.47515), (2.894, 584.59515), (2.894, 584.47515), (9.484, 584.4304), (9.484, 584.2604)]</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6287,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>[(0.3, 586.0), (0.3, 585.72), (2.904, 586.0), (2.904, 585.72), (2.904, 586.0), (2.904, 585.83), (9.624, 586.0), (9.624, 585.83), (0.3, 585.72), (0.3, 585.45), (2.904, 585.72), (2.904, 585.54), (2.904, 585.83), (2.904, 585.66), (9.624, 585.83), (9.624, 585.66)]</t>
+          <t>[(0.3, 586.0), (0.3, 585.72), (2.904, 585.9349), (2.904, 585.6549), (2.904, 585.9349), (2.904, 585.7649), (9.624, 585.7669), (9.624, 585.5969), (0.3, 585.72), (0.3, 585.45), (2.904, 585.6549), (2.904, 585.4748999999999), (2.904, 585.7649), (2.904, 585.5948999999999), (9.624, 585.5969), (9.624, 585.4268999999999)]</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6297,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>[(0.3, 587.0), (0.3, 586.73), (2.936, 587.0), (2.936, 586.73), (2.936, 587.0), (2.936, 586.77), (9.828, 587.0), (9.828, 586.77), (0.3, 586.73), (0.3, 586.46), (2.936, 586.73), (2.936, 586.58), (2.936, 586.77), (2.936, 586.58), (9.828, 586.77), (9.828, 586.54)]</t>
+          <t>[(0.3, 587.0), (0.3, 586.73), (2.936, 586.9341), (2.936, 586.6641), (2.936, 586.9341), (2.936, 586.7040999999999), (9.828, 586.7618), (9.828, 586.5318), (0.3, 586.73), (0.3, 586.46), (2.936, 586.6641), (2.936, 586.5141), (2.936, 586.7040999999999), (2.936, 586.5141), (9.828, 586.5318), (9.828, 586.3018)]</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6307,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>[(0.3, 588.0), (0.3, 587.76), (2.885, 588.0), (2.885, 587.76), (2.885, 588.0), (2.885, 587.79), (9.993, 588.0), (9.993, 587.79), (0.3, 587.76), (0.3, 587.52), (2.885, 587.76), (2.885, 587.64), (2.885, 587.79), (2.885, 587.64), (9.993, 587.79), (9.993, 587.58)]</t>
+          <t>[(0.3, 588.0), (0.3, 587.76), (2.885, 587.935375), (2.885, 587.695375), (2.885, 587.935375), (2.885, 587.725375), (9.993, 587.757675), (9.993, 587.5476749999999), (0.3, 587.76), (0.3, 587.52), (2.885, 587.695375), (2.885, 587.575375), (2.885, 587.725375), (2.885, 587.575375), (9.993, 587.5476749999999), (9.993, 587.337675)]</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6317,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>[(0.3, 589.0), (0.3, 588.87), (2.761, 589.0), (2.761, 588.87), (2.761, 589.0), (2.761, 588.81), (9.966, 589.0), (9.966, 588.81), (0.3, 588.87), (0.3, 588.57), (2.761, 588.87), (2.761, 588.68), (2.761, 588.81), (2.761, 588.68), (9.966, 588.81), (9.966, 588.62)]</t>
+          <t>[(0.3, 589.0), (0.3, 588.87), (2.761, 588.938475), (2.761, 588.808475), (2.761, 588.938475), (2.761, 588.748475), (9.966, 588.75835), (9.966, 588.5683499999999), (0.3, 588.87), (0.3, 588.57), (2.761, 588.808475), (2.761, 588.618475), (2.761, 588.748475), (2.761, 588.618475), (9.966, 588.5683499999999), (9.966, 588.37835)]</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6327,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>[(0.3, 590.0), (0.3, 589.78), (2.596, 590.0), (2.596, 589.78), (2.596, 590.0), (2.596, 589.8), (9.752, 590.0), (9.752, 589.8), (0.3, 589.78), (0.3, 589.56), (2.596, 589.78), (2.596, 589.65), (2.596, 589.8), (2.596, 589.65), (9.752, 589.8), (9.752, 589.6)]</t>
+          <t>[(0.3, 590.0), (0.3, 589.78), (2.596, 589.9426), (2.596, 589.7225999999999), (2.596, 589.9426), (2.596, 589.7425999999999), (9.752, 589.7637), (9.752, 589.5636999999999), (0.3, 589.78), (0.3, 589.56), (2.596, 589.7225999999999), (2.596, 589.5926), (2.596, 589.7425999999999), (2.596, 589.5926), (9.752, 589.5636999999999), (9.752, 589.3637)]</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6337,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>[(0.3, 591.0), (0.3, 590.8), (2.495, 591.0), (2.495, 590.8), (2.495, 591.0), (2.495, 590.8), (9.682, 591.0), (9.682, 590.8), (0.3, 590.8), (0.3, 590.61), (2.495, 590.8), (2.495, 590.69), (2.495, 590.8), (2.495, 590.69), (9.682, 590.8), (9.682, 590.6)]</t>
+          <t>[(0.3, 591.0), (0.3, 590.8), (2.495, 590.945125), (2.495, 590.7451249999999), (2.495, 590.945125), (2.495, 590.7451249999999), (9.682, 590.76545), (9.682, 590.5654499999999), (0.3, 590.8), (0.3, 590.61), (2.495, 590.7451249999999), (2.495, 590.635125), (2.495, 590.7451249999999), (2.495, 590.635125), (9.682, 590.5654499999999), (9.682, 590.36545)]</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6347,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>[(0.3, 592.0), (0.3, 591.81), (2.43, 592.0), (2.43, 591.81), (2.43, 592.0), (2.43, 591.81), (9.615, 592.0), (9.615, 591.81), (0.3, 591.81), (0.3, 591.62), (2.43, 591.81), (2.43, 591.7), (2.43, 591.81), (2.43, 591.7), (9.615, 591.81), (9.615, 591.62)]</t>
+          <t>[(0.3, 592.0), (0.3, 591.81), (2.43, 591.94675), (2.43, 591.7567499999999), (2.43, 591.94675), (2.43, 591.7567499999999), (9.615, 591.767125), (9.615, 591.5771249999999), (0.3, 591.81), (0.3, 591.62), (2.43, 591.7567499999999), (2.43, 591.64675), (2.43, 591.7567499999999), (2.43, 591.64675), (9.615, 591.5771249999999), (9.615, 591.387125)]</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6357,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>[(0.3, 593.0), (0.3, 592.78), (2.355, 593.0), (2.355, 592.78), (2.355, 593.0), (2.355, 592.79), (9.557, 593.0), (9.557, 592.79), (0.3, 592.78), (0.3, 592.56), (2.355, 592.78), (2.355, 592.66), (2.355, 592.79), (2.355, 592.66), (9.557, 592.79), (9.557, 592.59)]</t>
+          <t>[(0.3, 593.0), (0.3, 592.78), (2.355, 592.948625), (2.355, 592.728625), (2.355, 592.948625), (2.355, 592.738625), (9.557, 592.768575), (9.557, 592.558575), (0.3, 592.78), (0.3, 592.56), (2.355, 592.728625), (2.355, 592.608625), (2.355, 592.738625), (2.355, 592.608625), (9.557, 592.558575), (9.557, 592.3585750000001)]</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6367,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>[(0.3, 594.0), (0.3, 593.77), (2.396, 594.0), (2.396, 593.77), (2.396, 594.0), (2.396, 593.77), (9.641, 594.0), (9.641, 593.77), (0.3, 593.77), (0.3, 593.54), (2.396, 593.77), (2.396, 593.61), (2.396, 593.77), (2.396, 593.61), (9.641, 593.77), (9.641, 593.55)]</t>
+          <t>[(0.3, 594.0), (0.3, 593.77), (2.396, 593.9476), (2.396, 593.7176), (2.396, 593.9476), (2.396, 593.7176), (9.641, 593.766475), (9.641, 593.536475), (0.3, 593.77), (0.3, 593.54), (2.396, 593.7176), (2.396, 593.5576), (2.396, 593.7176), (2.396, 593.5576), (9.641, 593.536475), (9.641, 593.316475)]</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6377,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>[(0.3, 595.0), (0.3, 594.75), (2.439, 595.0), (2.439, 594.75), (2.439, 595.0), (2.439, 594.76), (9.588, 595.0), (9.588, 594.76), (0.3, 594.75), (0.3, 594.51), (2.439, 594.75), (2.439, 594.58), (2.439, 594.76), (2.439, 594.58), (9.588, 594.76), (9.588, 594.53)]</t>
+          <t>[(0.3, 595.0), (0.3, 594.75), (2.439, 594.946525), (2.439, 594.696525), (2.439, 594.946525), (2.439, 594.7065249999999), (9.588, 594.7678), (9.588, 594.5278), (0.3, 594.75), (0.3, 594.51), (2.439, 594.696525), (2.439, 594.526525), (2.439, 594.7065249999999), (2.439, 594.526525), (9.588, 594.5278), (9.588, 594.2977999999999)]</t>
         </is>
       </c>
     </row>
@@ -6211,7 +6387,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>[(0.3, 596.0), (0.3, 595.89), (2.623, 596.0), (2.623, 595.89), (2.623, 596.0), (2.623, 595.84), (9.741, 596.0), (9.741, 595.84), (0.3, 595.89), (0.3, 595.61), (2.623, 595.89), (2.623, 595.72), (2.623, 595.84), (2.623, 595.72), (9.741, 595.84), (9.741, 595.69)]</t>
+          <t>[(0.3, 596.0), (0.3, 595.89), (2.623, 595.941925), (2.623, 595.831925), (2.623, 595.941925), (2.623, 595.781925), (9.741, 595.763975), (9.741, 595.603975), (0.3, 595.89), (0.3, 595.61), (2.623, 595.831925), (2.623, 595.661925), (2.623, 595.781925), (2.623, 595.661925), (9.741, 595.603975), (9.741, 595.453975)]</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6397,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>[(0.3, 597.0), (0.3, 596.8), (2.634, 597.0), (2.634, 596.8), (2.634, 597.0), (2.634, 596.83), (9.74, 597.0), (9.74, 596.83), (0.3, 596.8), (0.3, 596.61), (2.634, 596.8), (2.634, 596.68), (2.634, 596.83), (2.634, 596.68), (9.74, 596.83), (9.74, 596.67)]</t>
+          <t>[(0.3, 597.0), (0.3, 596.8), (2.634, 596.94165), (2.634, 596.7416499999999), (2.634, 596.94165), (2.634, 596.77165), (9.74, 596.764), (9.74, 596.594), (0.3, 596.8), (0.3, 596.61), (2.634, 596.7416499999999), (2.634, 596.6216499999999), (2.634, 596.77165), (2.634, 596.6216499999999), (9.74, 596.594), (9.74, 596.434)]</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6407,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>[(0.3, 598.0), (0.3, 597.84), (2.518, 598.0), (2.518, 597.84), (2.518, 598.0), (2.518, 597.85), (9.64, 598.0), (9.64, 597.85), (0.3, 597.84), (0.3, 597.68), (2.518, 597.84), (2.518, 597.68), (2.518, 597.85), (2.518, 597.7), (9.64, 597.85), (9.64, 597.7), (0.3, 597.68), (0.3, 597.53), (2.518, 597.68), (2.518, 597.57), (2.518, 597.7), (2.518, 597.57), (9.64, 597.7), (9.64, 597.58)]</t>
+          <t>[(0.3, 598.0), (0.3, 597.84), (2.518, 597.94455), (2.518, 597.7845500000001), (2.518, 597.94455), (2.518, 597.7945500000001), (9.64, 597.7665), (9.64, 597.6165), (0.3, 597.84), (0.3, 597.68), (2.518, 597.7845500000001), (2.518, 597.62455), (2.518, 597.7945500000001), (2.518, 597.6445500000001), (9.64, 597.6165), (9.64, 597.4665), (0.3, 597.68), (0.3, 597.53), (2.518, 597.62455), (2.518, 597.5145500000001), (2.518, 597.6445500000001), (2.518, 597.5145500000001), (9.64, 597.4665), (9.64, 597.3465)]</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6417,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>[(0.3, 599.0), (0.3, 598.74), (2.447, 599.0), (2.447, 598.74), (2.447, 599.0), (2.447, 598.85), (9.593, 599.0), (9.593, 598.85), (0.3, 598.74), (0.3, 598.48), (2.447, 598.74), (2.447, 598.55), (2.447, 598.85), (2.447, 598.7), (9.593, 598.85), (9.593, 598.7)]</t>
+          <t>[(0.3, 599.0), (0.3, 598.74), (2.447, 598.946325), (2.447, 598.686325), (2.447, 598.946325), (2.447, 598.796325), (9.593, 598.767675), (9.593, 598.6176750000001), (0.3, 598.74), (0.3, 598.48), (2.447, 598.686325), (2.447, 598.496325), (2.447, 598.796325), (2.447, 598.646325), (9.593, 598.6176750000001), (9.593, 598.4676750000001)]</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6427,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>[(0.3, 600.0), (0.3, 599.81), (2.519, 600.0), (2.519, 599.81), (2.519, 600.0), (2.519, 599.83), (9.627, 600.0), (9.627, 599.83), (0.3, 599.81), (0.3, 599.62), (2.519, 599.81), (2.519, 599.62), (2.519, 599.83), (2.519, 599.66), (9.627, 599.83), (9.627, 599.66), (0.3, 599.62), (0.3, 599.45), (2.519, 599.62), (2.519, 599.49), (2.519, 599.66), (2.519, 599.49), (9.627, 599.66), (9.627, 599.54)]</t>
+          <t>[(0.3, 600.0), (0.3, 599.81), (2.519, 599.944525), (2.519, 599.754525), (2.519, 599.944525), (2.519, 599.774525), (9.627, 599.766825), (9.627, 599.5968250000001), (0.3, 599.81), (0.3, 599.62), (2.519, 599.754525), (2.519, 599.564525), (2.519, 599.774525), (2.519, 599.604525), (9.627, 599.5968250000001), (9.627, 599.426825), (0.3, 599.62), (0.3, 599.45), (2.519, 599.564525), (2.519, 599.434525), (2.519, 599.604525), (2.519, 599.434525), (9.627, 599.426825), (9.627, 599.306825)]</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6437,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>[(0.3, 601.0), (0.3, 600.82), (2.565, 601.0), (2.565, 600.82), (2.565, 601.0), (2.565, 600.83), (9.698, 601.0), (9.698, 600.83), (0.3, 600.82), (0.3, 600.64), (2.565, 600.82), (2.565, 600.64), (2.565, 600.83), (2.565, 600.66), (9.698, 600.83), (9.698, 600.66), (0.3, 600.64), (0.3, 600.46), (2.565, 600.64), (2.565, 600.52), (2.565, 600.66), (2.565, 600.52), (9.698, 600.66), (9.698, 600.51)]</t>
+          <t>[(0.3, 601.0), (0.3, 600.82), (2.565, 600.943375), (2.565, 600.763375), (2.565, 600.943375), (2.565, 600.773375), (9.698, 600.76505), (9.698, 600.59505), (0.3, 600.82), (0.3, 600.64), (2.565, 600.763375), (2.565, 600.5833749999999), (2.565, 600.773375), (2.565, 600.6033749999999), (9.698, 600.59505), (9.698, 600.4250499999999), (0.3, 600.64), (0.3, 600.46), (2.565, 600.5833749999999), (2.565, 600.4633749999999), (2.565, 600.6033749999999), (2.565, 600.4633749999999), (9.698, 600.4250499999999), (9.698, 600.27505)]</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6447,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>[(0.3, 602.0), (0.3, 601.82), (2.607, 602.0), (2.607, 601.82), (2.607, 602.0), (2.607, 601.81), (9.852, 602.0), (9.852, 601.81), (0.3, 601.82), (0.3, 601.64), (2.607, 601.82), (2.607, 601.64), (2.607, 601.81), (2.607, 601.62), (9.852, 601.81), (9.852, 601.62), (0.3, 601.64), (0.3, 601.47), (2.607, 601.64), (2.607, 601.5), (2.607, 601.62), (2.607, 601.5), (9.852, 601.62), (9.852, 601.44)]</t>
+          <t>[(0.3, 602.0), (0.3, 601.82), (2.607, 601.942325), (2.607, 601.762325), (2.607, 601.942325), (2.607, 601.7523249999999), (9.852, 601.7612), (9.852, 601.5712), (0.3, 601.82), (0.3, 601.64), (2.607, 601.762325), (2.607, 601.582325), (2.607, 601.7523249999999), (2.607, 601.562325), (9.852, 601.5712), (9.852, 601.3812), (0.3, 601.64), (0.3, 601.47), (2.607, 601.582325), (2.607, 601.442325), (2.607, 601.562325), (2.607, 601.442325), (9.852, 601.3812), (9.852, 601.2012000000001)]</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6457,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>[(0.3, 603.0), (0.3, 602.84), (2.704, 603.0), (2.704, 602.84), (2.704, 603.0), (2.704, 602.72), (9.986, 603.0), (9.986, 602.72), (0.3, 602.84), (0.3, 602.68), (2.704, 602.84), (2.704, 602.68), (2.704, 602.72), (2.704, 602.54), (9.986, 602.72), (9.986, 602.45), (0.3, 602.68), (0.3, 602.53), (2.704, 602.68), (2.704, 602.54), (2.704, 602.54), (2.704, 602.54), (9.986, 602.45), (9.986, 602.45)]</t>
+          <t>[(0.3, 603.0), (0.3, 602.84), (2.704, 602.9399), (2.704, 602.7799), (2.704, 602.9399), (2.704, 602.6599), (9.986, 602.75785), (9.986, 602.47785), (0.3, 602.84), (0.3, 602.68), (2.704, 602.7799), (2.704, 602.6198999999999), (2.704, 602.6599), (2.704, 602.4798999999999), (9.986, 602.47785), (9.986, 602.20785), (0.3, 602.68), (0.3, 602.53), (2.704, 602.6198999999999), (2.704, 602.4798999999999), (2.704, 602.4798999999999), (2.704, 602.4798999999999), (9.986, 602.20785), (9.986, 602.20785)]</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6467,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>[(0.3, 604.0), (0.3, 603.84), (2.787, 604.0), (2.787, 603.84), (2.787, 604.0), (2.787, 603.72), (10.065, 604.0), (10.065, 603.72), (0.3, 603.84), (0.3, 603.68), (2.787, 603.84), (2.787, 603.68), (2.787, 603.72), (2.787, 603.55), (10.065, 603.72), (10.065, 603.44), (0.3, 603.68), (0.3, 603.53), (2.787, 603.68), (2.787, 603.55), (2.787, 603.55), (2.787, 603.55), (10.065, 603.44), (10.065, 603.44)]</t>
+          <t>[(0.3, 604.0), (0.3, 603.84), (2.787, 603.937825), (2.787, 603.777825), (2.787, 603.937825), (2.787, 603.657825), (10.065, 603.755875), (10.065, 603.475875), (0.3, 603.84), (0.3, 603.68), (2.787, 603.777825), (2.787, 603.6178249999999), (2.787, 603.657825), (2.787, 603.4878249999999), (10.065, 603.475875), (10.065, 603.195875), (0.3, 603.68), (0.3, 603.53), (2.787, 603.6178249999999), (2.787, 603.4878249999999), (2.787, 603.4878249999999), (2.787, 603.4878249999999), (10.065, 603.195875), (10.065, 603.195875)]</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6477,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>[(0.3, 605.0), (0.3, 604.83), (2.917, 605.0), (2.917, 604.83), (2.917, 605.0), (2.917, 604.84), (10.061, 605.0), (10.061, 604.84), (0.3, 604.83), (0.3, 604.66), (2.917, 604.83), (2.917, 604.66), (2.917, 604.84), (2.917, 604.68), (10.061, 604.84), (10.061, 604.68), (0.3, 604.66), (0.3, 604.51), (2.917, 604.66), (2.917, 604.52), (2.917, 604.68), (2.917, 604.52), (10.061, 604.68), (10.061, 604.52)]</t>
+          <t>[(0.3, 605.0), (0.3, 604.83), (2.917, 604.934575), (2.917, 604.764575), (2.917, 604.934575), (2.917, 604.774575), (10.061, 604.755975), (10.061, 604.5959750000001), (0.3, 604.83), (0.3, 604.66), (2.917, 604.764575), (2.917, 604.594575), (2.917, 604.774575), (2.917, 604.614575), (10.061, 604.5959750000001), (10.061, 604.435975), (0.3, 604.66), (0.3, 604.51), (2.917, 604.594575), (2.917, 604.454575), (2.917, 604.614575), (2.917, 604.454575), (10.061, 604.435975), (10.061, 604.275975)]</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6487,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>[(0.3, 606.0), (0.3, 605.83), (3.068, 606.0), (3.068, 605.83), (3.068, 606.0), (3.068, 605.84), (10.178, 606.0), (10.178, 605.84), (0.3, 605.83), (0.3, 605.66), (3.068, 605.83), (3.068, 605.66), (3.068, 605.84), (3.068, 605.68), (10.178, 605.84), (10.178, 605.68), (0.3, 605.66), (0.3, 605.49), (3.068, 605.66), (3.068, 605.52), (3.068, 605.68), (3.068, 605.52), (10.178, 605.68), (10.178, 605.53)]</t>
+          <t>[(0.3, 606.0), (0.3, 605.83), (3.068, 605.9308), (3.068, 605.7608), (3.068, 605.9308), (3.068, 605.7708), (10.178, 605.75305), (10.178, 605.5930500000001), (0.3, 605.83), (0.3, 605.66), (3.068, 605.7608), (3.068, 605.5908), (3.068, 605.7708), (3.068, 605.6107999999999), (10.178, 605.5930500000001), (10.178, 605.43305), (0.3, 605.66), (0.3, 605.49), (3.068, 605.5908), (3.068, 605.4508), (3.068, 605.6107999999999), (3.068, 605.4508), (10.178, 605.43305), (10.178, 605.28305)]</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6497,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>[(0.3, 607.0), (0.3, 606.82), (3.15, 607.0), (3.15, 606.82), (3.15, 607.0), (3.15, 606.83), (10.293, 607.0), (10.293, 606.83), (0.3, 606.82), (0.3, 606.64), (3.15, 606.82), (3.15, 606.64), (3.15, 606.83), (3.15, 606.66), (10.293, 606.83), (10.293, 606.66), (0.3, 606.64), (0.3, 606.48), (3.15, 606.64), (3.15, 606.51), (3.15, 606.66), (3.15, 606.51), (10.293, 606.66), (10.293, 606.5)]</t>
+          <t>[(0.3, 607.0), (0.3, 606.82), (3.15, 606.92875), (3.15, 606.7487500000001), (3.15, 606.92875), (3.15, 606.7587500000001), (10.293, 606.750175), (10.293, 606.580175), (0.3, 606.82), (0.3, 606.64), (3.15, 606.7487500000001), (3.15, 606.56875), (3.15, 606.7587500000001), (3.15, 606.58875), (10.293, 606.580175), (10.293, 606.410175), (0.3, 606.64), (0.3, 606.48), (3.15, 606.56875), (3.15, 606.43875), (3.15, 606.58875), (3.15, 606.43875), (10.293, 606.410175), (10.293, 606.250175)]</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6507,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>[(0.3, 608.0), (0.3, 607.82), (3.188, 608.0), (3.188, 607.82), (3.188, 608.0), (3.188, 607.84), (10.333, 608.0), (10.333, 607.84), (0.3, 607.82), (0.3, 607.64), (3.188, 607.82), (3.188, 607.64), (3.188, 607.84), (3.188, 607.68), (10.333, 607.84), (10.333, 607.68), (0.3, 607.64), (0.3, 607.47), (3.188, 607.64), (3.188, 607.52), (3.188, 607.68), (3.188, 607.52), (10.333, 607.68), (10.333, 607.54)]</t>
+          <t>[(0.3, 608.0), (0.3, 607.82), (3.188, 607.9278), (3.188, 607.7478000000001), (3.188, 607.9278), (3.188, 607.7678000000001), (10.333, 607.749175), (10.333, 607.5891750000001), (0.3, 607.82), (0.3, 607.64), (3.188, 607.7478000000001), (3.188, 607.5678), (3.188, 607.7678000000001), (3.188, 607.6078), (10.333, 607.5891750000001), (10.333, 607.429175), (0.3, 607.64), (0.3, 607.47), (3.188, 607.5678), (3.188, 607.4478), (3.188, 607.6078), (3.188, 607.4478), (10.333, 607.429175), (10.333, 607.289175)]</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6517,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>[(0.3, 609.0), (0.3, 608.83), (3.187, 609.0), (3.187, 608.83), (3.187, 609.0), (3.187, 608.85), (10.277, 609.0), (10.277, 608.85), (0.3, 608.83), (0.3, 608.66), (3.187, 608.83), (3.187, 608.66), (3.187, 608.85), (3.187, 608.7), (10.277, 608.85), (10.277, 608.7), (0.3, 608.66), (0.3, 608.51), (3.187, 608.66), (3.187, 608.55), (3.187, 608.7), (3.187, 608.55), (10.277, 608.7), (10.277, 608.55)]</t>
+          <t>[(0.3, 609.0), (0.3, 608.83), (3.187, 608.927825), (3.187, 608.757825), (3.187, 608.927825), (3.187, 608.777825), (10.277, 608.750575), (10.277, 608.600575), (0.3, 608.83), (0.3, 608.66), (3.187, 608.757825), (3.187, 608.587825), (3.187, 608.777825), (3.187, 608.627825), (10.277, 608.600575), (10.277, 608.4505750000001), (0.3, 608.66), (0.3, 608.51), (3.187, 608.587825), (3.187, 608.4778249999999), (3.187, 608.627825), (3.187, 608.4778249999999), (10.277, 608.4505750000001), (10.277, 608.300575)]</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6527,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>[(0.3, 610.0), (0.3, 609.84), (3.104, 610.0), (3.104, 609.84), (3.104, 610.0), (3.104, 609.76), (10.237, 610.0), (10.237, 609.76), (0.3, 609.84), (0.3, 609.68), (3.104, 609.84), (3.104, 609.68), (3.104, 609.76), (3.104, 609.53), (10.237, 609.76), (10.237, 609.58), (0.3, 609.68), (0.3, 609.52), (3.104, 609.68), (3.104, 609.53), (3.104, 609.53), (3.104, 609.53), (10.237, 609.58), (10.237, 609.58)]</t>
+          <t>[(0.3, 610.0), (0.3, 609.84), (3.104, 609.9299), (3.104, 609.7699), (3.104, 609.9299), (3.104, 609.6899), (10.237, 609.751575), (10.237, 609.511575), (0.3, 609.84), (0.3, 609.68), (3.104, 609.7699), (3.104, 609.6098999999999), (3.104, 609.6899), (3.104, 609.4599), (10.237, 609.511575), (10.237, 609.331575), (0.3, 609.68), (0.3, 609.52), (3.104, 609.6098999999999), (3.104, 609.4599), (3.104, 609.4599), (3.104, 609.4599), (10.237, 609.331575), (10.237, 609.331575)]</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6537,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>[(0.3, 611.0), (0.3, 610.78), (3.107, 611.0), (3.107, 610.78), (3.107, 611.0), (3.107, 610.87), (10.221, 611.0), (10.221, 610.87), (0.3, 610.78), (0.3, 610.56), (3.107, 610.78), (3.107, 610.63), (3.107, 610.87), (3.107, 610.74), (10.221, 610.87), (10.221, 610.74)]</t>
+          <t>[(0.3, 611.0), (0.3, 610.78), (3.107, 610.929825), (3.107, 610.709825), (3.107, 610.929825), (3.107, 610.799825), (10.221, 610.751975), (10.221, 610.621975), (0.3, 610.78), (0.3, 610.56), (3.107, 610.709825), (3.107, 610.559825), (3.107, 610.799825), (3.107, 610.6698250000001), (10.221, 610.621975), (10.221, 610.491975)]</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6547,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>[(0.3, 612.0), (0.3, 611.85), (3.11, 612.0), (3.11, 611.85), (3.11, 612.0), (3.11, 611.84), (10.223, 612.0), (10.223, 611.84), (0.3, 611.85), (0.3, 611.55), (3.11, 611.85), (3.11, 611.7), (3.11, 611.84), (3.11, 611.7), (10.223, 611.84), (10.223, 611.68)]</t>
+          <t>[(0.3, 612.0), (0.3, 611.85), (3.11, 611.92975), (3.11, 611.77975), (3.11, 611.92975), (3.11, 611.76975), (10.223, 611.751925), (10.223, 611.5919250000001), (0.3, 611.85), (0.3, 611.55), (3.11, 611.77975), (3.11, 611.6297500000001), (3.11, 611.76975), (3.11, 611.6297500000001), (10.223, 611.5919250000001), (10.223, 611.431925)]</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6557,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>[(0.3, 613.0), (0.3, 612.89), (3.053, 613.0), (3.053, 612.89), (3.053, 613.0), (3.053, 612.84), (10.2, 613.0), (10.2, 612.84), (0.3, 612.89), (0.3, 612.59), (3.053, 612.89), (3.053, 612.72), (3.053, 612.84), (3.053, 612.72), (10.2, 612.84), (10.2, 612.68)]</t>
+          <t>[(0.3, 613.0), (0.3, 612.89), (3.053, 612.931175), (3.053, 612.821175), (3.053, 612.931175), (3.053, 612.7711750000001), (10.2, 612.7525), (10.2, 612.5925000000001), (0.3, 612.89), (0.3, 612.59), (3.053, 612.821175), (3.053, 612.6511750000001), (3.053, 612.7711750000001), (3.053, 612.6511750000001), (10.2, 612.5925000000001), (10.2, 612.4325)]</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6567,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>[(0.3, 614.0), (0.3, 613.89), (3.035, 614.0), (3.035, 613.89), (3.035, 614.0), (3.035, 613.87), (10.152, 614.0), (10.152, 613.87), (0.3, 613.89), (0.3, 613.61), (3.035, 613.89), (3.035, 613.75), (3.035, 613.87), (3.035, 613.75), (10.152, 613.87), (10.152, 613.75)]</t>
+          <t>[(0.3, 614.0), (0.3, 613.89), (3.035, 613.931625), (3.035, 613.821625), (3.035, 613.931625), (3.035, 613.8016250000001), (10.152, 613.7537), (10.152, 613.6237), (0.3, 613.89), (0.3, 613.61), (3.035, 613.821625), (3.035, 613.681625), (3.035, 613.8016250000001), (3.035, 613.681625), (10.152, 613.6237), (10.152, 613.5037)]</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6587,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>[(0.3, 616.0), (0.3, 615.85), (2.865, 616.0), (2.865, 615.85), (2.865, 616.0), (2.865, 615.86), (10.083, 616.0), (10.083, 615.71), (0.3, 615.85), (0.3, 615.72), (2.865, 615.85), (2.865, 615.71), (2.865, 615.86), (2.865, 615.72), (10.083, 615.71), (10.083, 615.42)]</t>
+          <t>[(0.3, 616.0), (0.3, 615.85), (2.865, 616.0427588311173), (2.865, 615.8927588311174), (2.865, 616.0427588311173), (2.865, 615.9027588311174), (10.083, 616.1630836821913), (10.083, 615.8730836821913), (0.3, 615.85), (0.3, 615.72), (2.865, 615.8927588311174), (2.865, 615.7527588311174), (2.865, 615.9027588311174), (2.865, 615.7627588311174), (10.083, 615.8730836821913), (10.083, 615.5830836821913)]</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6597,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>[(0.3, 617.0), (0.3, 616.84), (2.993, 617.0), (2.993, 616.84), (2.993, 617.0), (2.993, 616.84), (10.141, 617.0), (10.141, 616.66), (0.3, 616.84), (0.3, 616.69), (2.993, 616.84), (2.993, 616.69), (2.993, 616.84), (2.993, 616.68), (10.141, 616.66), (10.141, 616.32)]</t>
+          <t>[(0.3, 617.0), (0.3, 616.84), (2.993, 617.0709813794667), (2.993, 616.9109813794668), (2.993, 617.0709813794667), (2.993, 616.9109813794668), (10.141, 617.2593864668888), (10.141, 616.9193864668888), (0.3, 616.84), (0.3, 616.69), (2.993, 616.9109813794668), (2.993, 616.7609813794668), (2.993, 616.9109813794668), (2.993, 616.7509813794667), (10.141, 616.9193864668888), (10.141, 616.5793864668889)]</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6607,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>[(0.3, 618.0), (0.3, 617.85), (3.171, 618.0), (3.171, 617.85), (3.171, 618.0), (3.171, 617.86), (10.282, 618.0), (10.282, 617.7), (0.3, 617.85), (0.3, 617.72), (3.171, 617.85), (3.171, 617.72), (3.171, 617.86), (3.171, 617.72), (10.282, 617.7), (10.282, 617.4)]</t>
+          <t>[(0.3, 618.0), (0.3, 617.85), (3.171, 618.081518932978), (3.171, 617.9315189329781), (3.171, 618.081518932978), (3.171, 617.941518932978), (10.282, 618.2834280700057), (10.282, 617.9834280700057), (0.3, 617.85), (0.3, 617.72), (3.171, 617.9315189329781), (3.171, 617.8015189329781), (3.171, 617.941518932978), (3.171, 617.8015189329781), (10.282, 617.9834280700057), (10.282, 617.6834280700057)]</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6617,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>[(0.3, 619.0), (0.3, 618.85), (3.328, 619.0), (3.328, 618.85), (3.328, 619.0), (3.328, 618.86), (10.401, 619.0), (10.401, 618.71), (0.3, 618.85), (0.3, 618.72), (3.328, 618.85), (3.328, 618.72), (3.328, 618.86), (3.328, 618.72), (10.401, 618.71), (10.401, 618.42)]</t>
+          <t>[(0.3, 619.0), (0.3, 618.85), (3.328, 619.0921423350144), (3.328, 618.9421423350144), (3.328, 619.0921423350144), (3.328, 618.9521423350144), (10.401, 619.3073744141282), (10.401, 619.0173744141282), (0.3, 618.85), (0.3, 618.72), (3.328, 618.9421423350144), (3.328, 618.8121423350144), (3.328, 618.9521423350144), (3.328, 618.8121423350144), (10.401, 619.0173744141282), (10.401, 618.7273744141281)]</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6627,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>[(0.3, 620.0), (0.3, 619.84), (3.327, 620.0), (3.327, 619.84), (3.327, 620.0), (3.327, 619.84), (10.545, 620.0), (10.545, 619.74), (0.3, 619.84), (0.3, 619.72), (3.327, 619.84), (3.327, 619.68), (3.327, 619.84), (3.327, 619.68), (10.545, 619.74), (10.545, 619.48)]</t>
+          <t>[(0.3, 620.0), (0.3, 619.84), (3.327, 620.0982754259521), (3.327, 619.9382754259522), (3.327, 620.0982754259521), (3.327, 619.9382754259522), (10.545, 620.3326170263891), (10.545, 620.0726170263891), (0.3, 619.84), (0.3, 619.72), (3.327, 619.9382754259522), (3.327, 619.7782754259521), (3.327, 619.9382754259522), (3.327, 619.7782754259521), (10.545, 620.0726170263891), (10.545, 619.8126170263891)]</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6637,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>[(0.3, 621.0), (0.3, 620.86), (3.256, 621.0), (3.256, 620.86), (3.256, 621.0), (3.256, 620.88), (10.519, 621.0), (10.519, 620.88), (0.3, 620.86), (0.3, 620.74), (3.256, 620.86), (3.256, 620.73), (3.256, 620.88), (3.256, 620.73), (10.519, 620.88), (10.519, 620.58)]</t>
+          <t>[(0.3, 621.0), (0.3, 620.86), (3.256, 621.1019892723141), (3.256, 620.9619892723141), (3.256, 621.1019892723141), (3.256, 620.9819892723141), (10.519, 621.3525806406553), (10.519, 621.2325806406553), (0.3, 620.86), (0.3, 620.74), (3.256, 620.9619892723141), (3.256, 620.8319892723141), (3.256, 620.9819892723141), (3.256, 620.8319892723141), (10.519, 621.2325806406553), (10.519, 620.9325806406554)]</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6647,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>[(0.3, 622.0), (0.3, 621.84), (3.134, 622.0), (3.134, 621.84), (3.134, 622.0), (3.134, 621.89), (10.307, 622.0), (10.307, 621.89), (0.3, 621.84), (0.3, 621.68), (3.134, 621.84), (3.134, 621.7), (3.134, 621.89), (3.134, 621.7), (10.307, 621.89), (10.307, 621.61)]</t>
+          <t>[(0.3, 622.0), (0.3, 621.84), (3.134, 622.09919), (3.134, 621.93919), (3.134, 622.09919), (3.134, 621.98919), (10.307, 622.350245), (10.307, 622.240245), (0.3, 621.84), (0.3, 621.68), (3.134, 621.93919), (3.134, 621.7991900000001), (3.134, 621.98919), (3.134, 621.7991900000001), (10.307, 622.240245), (10.307, 621.960245)]</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6657,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>[(0.3, 623.0), (0.3, 622.82), (2.967, 623.0), (2.967, 622.82), (2.967, 623.0), (2.967, 622.78), (10.126, 623.0), (10.126, 622.78), (0.3, 622.82), (0.3, 622.67), (2.967, 622.82), (2.967, 622.64), (2.967, 622.78), (2.967, 622.64), (10.126, 622.78), (10.126, 622.56)]</t>
+          <t>[(0.3, 623.0), (0.3, 622.82), (2.967, 623.093345), (2.967, 622.913345), (2.967, 623.093345), (2.967, 622.873345), (10.126, 623.34391), (10.126, 623.12391), (0.3, 622.82), (0.3, 622.67), (2.967, 622.913345), (2.967, 622.733345), (2.967, 622.873345), (2.967, 622.733345), (10.126, 623.12391), (10.126, 622.90391)]</t>
         </is>
       </c>
     </row>
@@ -6491,7 +6667,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>[(0.3, 624.0), (0.3, 623.8), (2.848, 624.0), (2.848, 623.8), (2.848, 624.0), (2.848, 623.75), (9.971, 624.0), (9.971, 623.75), (0.3, 623.8), (0.3, 623.65), (2.848, 623.8), (2.848, 623.61), (2.848, 623.75), (2.848, 623.61), (9.971, 623.75), (9.971, 623.51)]</t>
+          <t>[(0.3, 624.0), (0.3, 623.8), (2.848, 624.08918), (2.848, 623.88918), (2.848, 624.08918), (2.848, 623.83918), (9.971, 624.338485), (9.971, 624.088485), (0.3, 623.8), (0.3, 623.65), (2.848, 623.88918), (2.848, 623.6991800000001), (2.848, 623.83918), (2.848, 623.6991800000001), (9.971, 624.088485), (9.971, 623.848485)]</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6677,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>[(0.3, 625.0), (0.3, 624.86), (2.69, 625.0), (2.69, 624.86), (2.69, 625.0), (2.69, 624.74), (9.832, 625.0), (9.832, 624.74), (0.3, 624.86), (0.3, 624.72), (2.69, 624.86), (2.69, 624.72), (2.69, 624.74), (2.69, 624.59), (9.832, 624.74), (9.832, 624.49), (0.3, 624.72), (0.3, 624.61), (2.69, 624.72), (2.69, 624.59), (2.69, 624.59), (2.69, 624.59), (9.832, 624.49), (9.832, 624.49)]</t>
+          <t>[(0.3, 625.0), (0.3, 624.86), (2.69, 625.08365), (2.69, 624.94365), (2.69, 625.08365), (2.69, 624.82365), (9.832, 625.33362), (9.832, 625.07362), (0.3, 624.86), (0.3, 624.72), (2.69, 624.94365), (2.69, 624.8036500000001), (2.69, 624.82365), (2.69, 624.6736500000001), (9.832, 625.07362), (9.832, 624.82362), (0.3, 624.72), (0.3, 624.61), (2.69, 624.8036500000001), (2.69, 624.6736500000001), (2.69, 624.6736500000001), (2.69, 624.6736500000001), (9.832, 624.82362), (9.832, 624.82362)]</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6687,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>[(0.3, 626.0), (0.3, 625.85), (2.411, 626.0), (2.411, 625.85), (2.411, 626.0), (2.411, 625.73), (9.637, 626.0), (9.637, 625.73), (0.3, 625.85), (0.3, 625.7), (2.411, 625.85), (2.411, 625.7), (2.411, 625.73), (2.411, 625.56), (9.637, 625.73), (9.637, 625.46), (0.3, 625.7), (0.3, 625.57), (2.411, 625.7), (2.411, 625.56), (2.411, 625.56), (2.411, 625.56), (9.637, 625.46), (9.637, 625.46)]</t>
+          <t>[(0.3, 626.0), (0.3, 625.85), (2.411, 626.073885), (2.411, 625.923885), (2.411, 626.073885), (2.411, 625.803885), (9.637, 626.326795), (9.637, 626.056795), (0.3, 625.85), (0.3, 625.7), (2.411, 625.923885), (2.411, 625.7738850000001), (2.411, 625.803885), (2.411, 625.633885), (9.637, 626.056795), (9.637, 625.786795), (0.3, 625.7), (0.3, 625.57), (2.411, 625.7738850000001), (2.411, 625.633885), (2.411, 625.633885), (2.411, 625.633885), (9.637, 625.786795), (9.637, 625.786795)]</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6697,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>[(0.3, 627.0), (0.3, 626.73), (9.446, 627.0), (9.446, 626.73), (0.3, 626.73), (0.3, 626.56), (9.446, 626.73), (9.446, 626.46)]</t>
+          <t>[(0.3, 627.0), (0.3, 626.73), (9.446, 627.32011), (9.446, 627.05011), (0.3, 626.73), (0.3, 626.56), (9.446, 627.05011), (9.446, 626.78011)]</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6707,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>[(0.3, 628.0), (0.3, 627.72), (9.225, 628.0), (9.225, 627.72), (0.3, 627.72), (0.3, 627.57), (9.225, 627.72), (9.225, 627.44)]</t>
+          <t>[(0.3, 628.0), (0.3, 627.72), (9.225, 628.312375), (9.225, 628.032375), (0.3, 627.72), (0.3, 627.57), (9.225, 628.032375), (9.225, 627.752375)]</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6717,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>[(0.3, 629.0), (0.3, 628.72), (9.019, 629.0), (9.019, 628.72), (0.3, 628.72), (0.3, 628.58), (9.019, 628.72), (9.019, 628.45)]</t>
+          <t>[(0.3, 629.0), (0.3, 628.72), (9.019, 629.305165), (9.019, 629.025165), (0.3, 628.72), (0.3, 628.58), (9.019, 629.025165), (9.019, 628.755165)]</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6727,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>[(0.3, 630.0), (0.3, 629.73), (8.776, 630.0), (8.776, 629.73), (0.3, 629.73), (0.3, 629.54), (8.776, 629.73), (8.776, 629.46)]</t>
+          <t>[(0.3, 630.0), (0.3, 629.73), (8.776, 630.29666), (8.776, 630.02666), (0.3, 629.73), (0.3, 629.54), (8.776, 630.02666), (8.776, 629.75666)]</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6737,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>[(0.3, 631.0), (0.3, 630.73), (8.501, 631.0), (8.501, 630.73), (0.3, 630.73), (0.3, 630.62), (8.501, 630.73), (8.501, 630.47)]</t>
+          <t>[(0.3, 631.0), (0.3, 630.73), (8.501, 631.287035), (8.501, 631.017035), (0.3, 630.73), (0.3, 630.62), (8.501, 631.017035), (8.501, 630.757035)]</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6747,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>[(0.3, 632.0), (0.3, 631.78), (8.27, 632.0), (8.27, 631.78), (0.3, 631.78), (0.3, 631.67), (8.27, 631.78), (8.27, 631.57)]</t>
+          <t>[(0.3, 632.0), (0.3, 631.78), (8.27, 632.27895), (8.27, 632.05895), (0.3, 631.78), (0.3, 631.67), (8.27, 632.05895), (8.27, 631.8489500000001)]</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6757,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>[(0.3, 633.0), (0.3, 632.89), (7.948, 633.0), (7.948, 632.89), (0.3, 632.89), (0.3, 632.71), (7.948, 632.89), (7.948, 632.62)]</t>
+          <t>[(0.3, 633.0), (0.3, 632.89), (7.948, 633.26768), (7.948, 633.15768), (0.3, 632.89), (0.3, 632.71), (7.948, 633.15768), (7.948, 632.88768)]</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6787,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>[(0.3, 636.0), (0.3, 635.89), (7.108, 636.0), (7.108, 635.89), (0.3, 635.89), (0.3, 635.75), (7.108, 635.89), (7.108, 635.59)]</t>
+          <t>[(0.3, 636.0), (0.3, 635.89), (7.108, 636.23828), (7.108, 636.12828), (0.3, 635.89), (0.3, 635.75), (7.108, 636.12828), (7.108, 635.8282800000001)]</t>
         </is>
       </c>
     </row>

--- a/output/layerCoordinates_right.xlsx
+++ b/output/layerCoordinates_right.xlsx
@@ -427,7 +427,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 0.0), (2.0, -0.13), (12.665, -0.2636375309866117), (12.665, -0.3936375309866117), (2.0, -0.13), (2.0, -0.25), (12.665, -0.3936375309866117), (12.665, -0.5136375309866117)]</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 1.0), (2.0, 0.87), (12.484, 0.7959973327945052), (12.484, 0.6659973327945052), (2.0, 0.87), (2.0, 0.75), (12.484, 0.6659973327945052), (12.484, 0.5459973327945052)]</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 2.0), (2.0, 1.87), (12.61, 1.8198281889921069), (12.61, 1.689828188992107), (2.0, 1.87), (2.0, 1.75), (12.61, 1.689828188992107), (12.61, 1.5698281889921069)]</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 3.0), (2.0, 2.87), (12.582, 2.8271252213710065), (12.582, 2.6971252213710066), (2.0, 2.87), (2.0, 2.75), (12.582, 2.6971252213710066), (12.582, 2.5771252213710065)]</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 4.0), (2.0, 3.87), (12.09, 3.8179612055480217), (12.09, 3.6879612055480218), (2.0, 3.87), (2.0, 3.75), (12.09, 3.6879612055480218), (12.09, 3.5679612055480217)]</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 5.0), (2.0, 4.87), (10.09, 4.800038200452552), (10.09, 4.670038200452552), (2.0, 4.87), (2.0, 4.75), (10.09, 4.670038200452552), (10.09, 4.550038200452552)]</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 6.0), (2.0, 5.87), (9.535, 5.827799017513884), (9.535, 5.697799017513884), (2.0, 5.87), (2.0, 5.75), (9.535, 5.697799017513884), (9.535, 5.577799017513884)]</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 7.0), (2.0, 6.87), (9.488, 6.870602759209219), (9.488, 6.740602759209219), (2.0, 6.87), (2.0, 6.75), (9.488, 6.740602759209219), (9.488, 6.620602759209219)]</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 8.0), (2.0, 7.87), (13.004, 7.760882009632637), (13.004, 7.6308820096326375), (2.0, 7.87), (2.0, 7.75), (13.004, 7.6308820096326375), (13.004, 7.510882009632637)]</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 9.0), (2.0, 8.87), (12.934, 8.758075461741425), (12.934, 8.628075461741425), (2.0, 8.87), (2.0, 8.75), (12.934, 8.628075461741425), (12.934, 8.508075461741425)]</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 10.0), (2.0, 9.87), (12.906, 9.744376136041568), (12.906, 9.614376136041567), (2.0, 9.87), (2.0, 9.75), (12.906, 9.614376136041567), (12.906, 9.494376136041568)]</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 11.0), (2.0, 10.87), (12.893, 10.828459932024174), (12.893, 10.698459932024173), (2.0, 10.87), (2.0, 10.75), (12.893, 10.698459932024173), (12.893, 10.578459932024174)]</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 12.0), (2.0, 11.87), (12.828, 11.821377967064173), (12.828, 11.691377967064172), (2.0, 11.87), (2.0, 11.75), (12.828, 11.691377967064172), (12.828, 11.571377967064173)]</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 13.0), (2.0, 12.87), (12.849, 12.905055903432663), (12.849, 12.775055903432662), (2.0, 12.87), (2.0, 12.75), (12.849, 12.775055903432662), (12.849, 12.655055903432663)]</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 14.0), (2.0, 13.87), (12.85, 13.978326580608687), (12.85, 13.848326580608687), (2.0, 13.87), (2.0, 13.75), (12.85, 13.848326580608687), (12.85, 13.728326580608687)]</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 15.0), (2.0, 14.87), (12.84, 15.017619353619356), (12.84, 14.887619353619355), (2.0, 14.87), (2.0, 14.75), (12.84, 14.887619353619355), (12.84, 14.767619353619356)]</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 16.0), (2.0, 15.87), (12.775, 16.164317989268568), (12.775, 16.034317989268565), (2.0, 15.87), (2.0, 15.75), (12.775, 16.034317989268565), (12.775, 15.914317989268568)]</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 17.0), (2.0, 16.87), (12.807, 17.28882552440885), (12.807, 17.15882552440885), (2.0, 16.87), (2.0, 16.75), (12.807, 17.15882552440885), (12.807, 17.03882552440885)]</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 18.0), (2.0, 17.87), (13.117, 18.25857162482236), (13.117, 18.12857162482236), (2.0, 17.87), (2.0, 17.75), (13.117, 18.12857162482236), (13.117, 18.00857162482236)]</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 19.0), (2.0, 18.87), (13.157, 19.472522986529093), (13.157, 19.342522986529094), (2.0, 18.87), (2.0, 18.75), (13.157, 19.342522986529094), (13.157, 19.222522986529093)]</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 20.0), (2.0, 19.87), (9.729, 20.43322492795389), (9.729, 20.30322492795389), (2.0, 19.87), (2.0, 19.75), (9.729, 20.30322492795389), (9.729, 20.18322492795389)]</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(2.0, 21.0), (2.0, 20.87), (9.787, 21.487903865155474), (9.787, 21.357903865155475), (2.0, 20.87), (2.0, 20.75), (9.787, 21.357903865155475), (9.787, 21.237903865155474)]</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(1.72, 22.0), (1.72, 21.87), (9.931, 22.5345361), (9.931, 22.4045361), (1.72, 21.87), (1.72, 21.75), (9.931, 22.4045361), (9.931, 22.2845361)]</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(1.15, 24.0), (1.15, 23.89), (9.715, 24.59955), (9.715, 24.48955), (1.15, 23.89), (1.15, 23.75), (9.715, 24.48955), (9.715, 24.289550000000002)]</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.87, 25.0), (0.87, 24.89), (9.351, 25.59367), (9.351, 25.48367), (0.87, 24.89), (0.87, 24.75), (9.351, 25.48367), (9.351, 25.19367)]</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.58, 26.0), (0.58, 25.89), (9.41, 26.6181), (9.41, 26.5081), (0.58, 25.89), (0.58, 25.75), (9.41, 26.5081), (9.41, 26.298099999999998)]</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 28.0), (0.3, 27.87), (3.127, 28.19789), (3.127, 28.067890000000002), (3.127, 28.19789), (3.127, 28.05789), (10.007, 28.67949), (10.007, 28.53949), (0.3, 27.87), (0.3, 27.75), (3.127, 28.067890000000002), (3.127, 27.94789), (3.127, 28.05789), (3.127, 27.94789), (10.007, 28.53949), (10.007, 28.40949)]</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 30.0), (0.3, 29.86), (3.411, 30.19724745172028), (3.411, 30.05724745172028), (3.411, 30.19724745172028), (3.411, 30.06724745172028), (10.294, 30.633651890868688), (10.294, 30.50365189086869), (0.3, 29.86), (0.3, 29.74), (3.411, 30.05724745172028), (3.411, 29.94724745172028), (3.411, 30.06724745172028), (3.411, 29.94724745172028), (10.294, 30.50365189086869), (10.294, 30.383651890868688)]</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 31.0), (0.3, 30.86), (3.192, 31.16417140338496), (3.192, 31.02417140338496), (3.192, 31.16417140338496), (3.192, 31.03417140338496), (10.131, 31.55808059013746), (10.131, 31.428080590137462), (0.3, 30.86), (0.3, 30.73), (3.192, 31.02417140338496), (3.192, 30.91417140338496), (3.192, 31.03417140338496), (3.192, 30.91417140338496), (10.131, 31.428080590137462), (10.131, 31.30808059013746)]</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[(0.3, 36.0), (0.3, 35.78), (3.501, 36.0630018903962), (3.501, 35.8430018903962), (3.501, 36.0630018903962), (3.501, 35.8230018903962), (9.912, 36.18918280864989), (9.912, 35.94918280864989), (0.3, 35.78), (0.3, 35.57), (3.501, 35.8430018903962), (3.501, 35.6630018903962), (3.501, 35.8230018903962), (3.501, 35.6630018903962), (9.912, 35.94918280864989), (9.912, 35.70918280864989)]</t>
+          <t>[(0.3, 36.0), (0.3, 35.85), (3.501, 36.0630018903962), (3.501, 35.9130018903962), (3.501, 36.0630018903962), (3.501, 35.8130018903962), (9.912, 36.18918280864989), (9.912, 35.93918280864989), (0.3, 35.85), (0.3, 35.7), (3.501, 35.9130018903962), (3.501, 35.763001890396204), (3.501, 35.8130018903962), (3.501, 35.653001890396204), (9.912, 35.93918280864989), (9.912, 35.69918280864989), (0.3, 35.7), (0.3, 35.57), (3.501, 35.763001890396204), (3.501, 35.653001890396204), (3.501, 35.653001890396204), (3.501, 35.653001890396204), (9.912, 35.69918280864989), (9.912, 35.69918280864989)]</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 38.0), (0.3, 37.82), (3.574, 37.91815), (3.574, 37.73815), (3.574, 37.91815), (3.574, 37.80815), (10.081, 37.755475), (10.081, 37.645475), (0.3, 37.82), (0.3, 37.52), (3.574, 37.73815), (3.574, 37.608149999999995), (3.574, 37.80815), (3.574, 37.608149999999995), (10.081, 37.645475), (10.081, 37.505475)]</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[(0.3, 42.0), (0.3, 41.76), (3.573, 41.918175), (3.573, 41.678174999999996), (3.573, 41.918175), (3.573, 41.728175), (10.032, 41.7567), (10.032, 41.566700000000004), (0.3, 41.76), (0.3, 41.46), (3.573, 41.678174999999996), (3.573, 41.548175), (3.573, 41.728175), (3.573, 41.548175), (10.032, 41.566700000000004), (10.032, 41.4467)]</t>
+          <t>[(0.3, 42.0), (0.3, 41.76), (3.573, 41.918175), (3.573, 41.678174999999996), (3.573, 41.918175), (3.573, 41.728175), (10.032, 41.7567), (10.032, 41.566700000000004), (0.3, 41.76), (0.3, 41.46), (3.573, 41.678174999999996), (3.573, 41.548175), (3.573, 41.728175), (3.573, 41.548175), (10.032, 41.566700000000004), (10.032, 41.456700000000005)]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[(0.3, 45.0), (0.3, 44.71), (3.578, 44.91805), (3.578, 44.62805), (3.578, 44.91805), (3.578, 44.70805), (10.008, 44.7573), (10.008, 44.5473), (0.3, 44.71), (0.3, 44.43), (3.578, 44.62805), (3.578, 44.49805), (3.578, 44.70805), (3.578, 44.49805), (10.008, 44.5473), (10.008, 44.3973)]</t>
+          <t>[(0.3, 45.0), (0.3, 44.71), (3.578, 44.91805), (3.578, 44.62805), (3.578, 44.91805), (3.578, 44.70805), (10.008, 44.7573), (10.008, 44.5473), (0.3, 44.71), (0.3, 44.43), (3.578, 44.62805), (3.578, 44.49805), (3.578, 44.70805), (3.578, 44.49805), (10.008, 44.5473), (10.008, 44.4073)]</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[(0.3, 48.0), (0.3, 47.71), (3.68, 47.9155), (3.68, 47.6255), (3.68, 47.9155), (3.68, 47.7055), (10.077, 47.755575), (10.077, 47.545575), (0.3, 47.71), (0.3, 47.42), (3.68, 47.6255), (3.68, 47.505500000000005), (3.68, 47.7055), (3.68, 47.505500000000005), (10.077, 47.545575), (10.077, 47.375575)]</t>
+          <t>[(0.3, 48.0), (0.3, 47.71), (3.68, 47.9155), (3.68, 47.6255), (3.68, 47.9155), (3.68, 47.7755), (10.077, 47.755575), (10.077, 47.615575), (0.3, 47.71), (0.3, 47.42), (3.68, 47.6255), (3.68, 47.505500000000005), (3.68, 47.7755), (3.68, 47.6355), (10.077, 47.615575), (10.077, 47.475575)]</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[(0.3, 49.0), (0.3, 48.71), (3.677, 48.915575), (3.677, 48.625575), (3.677, 48.915575), (3.677, 48.705574999999996), (10.098, 48.75505), (10.098, 48.545049999999996), (0.3, 48.71), (0.3, 48.43), (3.677, 48.625575), (3.677, 48.495574999999995), (3.677, 48.705574999999996), (3.677, 48.495574999999995), (10.098, 48.545049999999996), (10.098, 48.38505)]</t>
+          <t>[(0.3, 49.0), (0.3, 48.71), (3.677, 48.915575), (3.677, 48.625575), (3.677, 48.915575), (3.677, 48.705574999999996), (10.098, 48.75505), (10.098, 48.545049999999996), (0.3, 48.71), (0.3, 48.43), (3.677, 48.625575), (3.677, 48.495574999999995), (3.677, 48.705574999999996), (3.677, 48.495574999999995), (10.098, 48.545049999999996), (10.098, 48.39505)]</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[(0.3, 51.0), (0.3, 50.71), (3.725, 50.914375), (3.725, 50.624375), (3.725, 50.914375), (3.725, 50.694375), (10.161, 50.753475), (10.161, 50.533475), (0.3, 50.71), (0.3, 50.42), (3.725, 50.624375), (3.725, 50.484375), (3.725, 50.694375), (3.725, 50.484375), (10.161, 50.533475), (10.161, 50.383475000000004)]</t>
+          <t>[(0.3, 51.0), (0.3, 50.71), (3.725, 50.914375), (3.725, 50.624375), (3.725, 50.914375), (3.725, 50.704375), (10.161, 50.753475), (10.161, 50.543475), (0.3, 50.71), (0.3, 50.42), (3.725, 50.624375), (3.725, 50.494375), (3.725, 50.704375), (3.725, 50.494375), (10.161, 50.543475), (10.161, 50.383475000000004)]</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[(0.3, 52.0), (0.3, 51.7), (3.678, 51.91555), (3.678, 51.615550000000006), (3.678, 51.91555), (3.678, 51.70555), (10.155, 51.753625), (10.155, 51.543625), (0.3, 51.7), (0.3, 51.41), (3.678, 51.615550000000006), (3.678, 51.50555000000001), (3.678, 51.70555), (3.678, 51.50555000000001), (10.155, 51.543625), (10.155, 51.423625)]</t>
+          <t>[(0.3, 52.0), (0.3, 51.7), (3.678, 51.91555), (3.678, 51.615550000000006), (3.678, 51.91555), (3.678, 51.70555), (10.155, 51.753625), (10.155, 51.543625), (0.3, 51.7), (0.3, 51.41), (3.678, 51.615550000000006), (3.678, 51.50555000000001), (3.678, 51.70555), (3.678, 51.50555000000001), (10.155, 51.543625), (10.155, 51.413624999999996)]</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[(0.3, 54.0), (0.3, 53.72), (3.737, 53.914075), (3.737, 53.634074999999996), (3.737, 53.914075), (3.737, 53.704074999999996), (10.21, 53.75225), (10.21, 53.542249999999996), (0.3, 53.72), (0.3, 53.45), (3.737, 53.634074999999996), (3.737, 53.504075), (3.737, 53.704074999999996), (3.737, 53.504075), (10.21, 53.542249999999996), (10.21, 53.42225)]</t>
+          <t>[(0.3, 54.0), (0.3, 53.72), (3.737, 53.914075), (3.737, 53.634074999999996), (3.737, 53.914075), (3.737, 53.714074999999994), (10.21, 53.75225), (10.21, 53.552249999999994), (0.3, 53.72), (0.3, 53.45), (3.737, 53.634074999999996), (3.737, 53.514075), (3.737, 53.714074999999994), (3.737, 53.514075), (10.21, 53.552249999999994), (10.21, 53.42225)]</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[(0.3, 55.0), (0.3, 54.72), (3.764, 54.9134), (3.764, 54.6334), (3.764, 54.9134), (3.764, 54.7034), (10.263, 54.750925), (10.263, 54.540925), (0.3, 54.72), (0.3, 54.45), (3.764, 54.6334), (3.764, 54.503400000000006), (3.764, 54.7034), (3.764, 54.503400000000006), (10.263, 54.540925), (10.263, 54.400925)]</t>
+          <t>[(0.3, 55.0), (0.3, 54.72), (3.764, 54.9134), (3.764, 54.6334), (3.764, 54.9134), (3.764, 54.7034), (10.263, 54.750925), (10.263, 54.540925), (0.3, 54.72), (0.3, 54.45), (3.764, 54.6334), (3.764, 54.503400000000006), (3.764, 54.7034), (3.764, 54.503400000000006), (10.263, 54.540925), (10.263, 54.390925)]</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[(0.3, 56.0), (0.3, 55.73), (3.701, 55.914975), (3.701, 55.644974999999995), (3.701, 55.914975), (3.701, 55.724975), (10.257, 55.751075), (10.257, 55.561075), (0.3, 55.73), (0.3, 55.46), (3.701, 55.644974999999995), (3.701, 55.534974999999996), (3.701, 55.724975), (3.701, 55.534974999999996), (10.257, 55.561075), (10.257, 55.421075)]</t>
+          <t>[(0.3, 56.0), (0.3, 55.76), (3.701, 55.914975), (3.701, 55.674974999999996), (3.701, 55.914975), (3.701, 55.724975), (10.257, 55.751075), (10.257, 55.561075), (0.3, 55.76), (0.3, 55.46), (3.701, 55.674974999999996), (3.701, 55.544975), (3.701, 55.724975), (3.701, 55.544975), (10.257, 55.561075), (10.257, 55.431075)]</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[(0.3, 57.0), (0.3, 56.8), (3.712, 56.9147), (3.712, 56.7147), (3.712, 56.9147), (3.712, 56.734700000000004), (10.244, 56.7514), (10.244, 56.5714), (0.3, 56.8), (0.3, 56.5), (3.712, 56.7147), (3.712, 56.5647), (3.712, 56.734700000000004), (3.712, 56.5647), (10.244, 56.5714), (10.244, 56.4514)]</t>
+          <t>[(0.3, 57.0), (0.3, 56.8), (3.712, 56.9147), (3.712, 56.7147), (3.712, 56.9147), (3.712, 56.734700000000004), (10.244, 56.7514), (10.244, 56.5714), (0.3, 56.8), (0.3, 56.5), (3.712, 56.7147), (3.712, 56.5647), (3.712, 56.734700000000004), (3.712, 56.5647), (10.244, 56.5714), (10.244, 56.4614)]</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[(0.3, 58.0), (0.3, 57.8), (3.798, 57.91255), (3.798, 57.71255), (3.798, 57.91255), (3.798, 57.802550000000004), (10.267, 57.750825), (10.267, 57.640825), (0.3, 57.8), (0.3, 57.5), (3.798, 57.71255), (3.798, 57.56255), (3.798, 57.802550000000004), (3.798, 57.56255), (10.267, 57.640825), (10.267, 57.470825)]</t>
+          <t>[(0.3, 58.0), (0.3, 57.75), (3.798, 57.91255), (3.798, 57.66255), (3.798, 57.91255), (3.798, 57.802550000000004), (10.267, 57.750825), (10.267, 57.640825), (0.3, 57.75), (0.3, 57.5), (3.798, 57.66255), (3.798, 57.552550000000004), (3.798, 57.802550000000004), (3.798, 57.552550000000004), (10.267, 57.640825), (10.267, 57.470825)]</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 60.0), (0.3, 59.85), (3.788, 59.9128), (3.788, 59.7628), (3.788, 59.9128), (3.788, 59.7728), (10.299, 59.750025), (10.299, 59.610025), (0.3, 59.85), (0.3, 59.55), (3.788, 59.7628), (3.788, 59.642799999999994), (3.788, 59.7728), (3.788, 59.642799999999994), (10.299, 59.610025), (10.299, 59.500025)]</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 61.0), (0.3, 60.89), (3.805, 60.912375), (3.805, 60.802375), (3.805, 60.912375), (3.805, 60.772375), (10.314, 60.74965), (10.314, 60.60965), (0.3, 60.89), (0.3, 60.6), (3.805, 60.802375), (3.805, 60.652375), (3.805, 60.772375), (3.805, 60.652375), (10.314, 60.60965), (10.314, 60.49965)]</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 62.0), (0.3, 61.86), (3.851, 61.911225), (3.851, 61.771225), (3.851, 61.911225), (3.851, 61.781225), (10.351, 61.748725), (10.351, 61.618725), (0.3, 61.86), (0.3, 61.56), (3.851, 61.771225), (3.851, 61.661225), (3.851, 61.781225), (3.851, 61.661225), (10.351, 61.618725), (10.351, 61.498725)]</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 63.0), (0.3, 62.87), (3.857, 62.911075), (3.857, 62.781074999999994), (3.857, 62.911075), (3.857, 62.781074999999994), (10.352, 62.7487), (10.352, 62.6187), (0.3, 62.87), (0.3, 62.57), (3.857, 62.781074999999994), (3.857, 62.661075), (3.857, 62.781074999999994), (3.857, 62.661075), (10.352, 62.6187), (10.352, 62.4987)]</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 69.0), (0.3, 68.76), (4.781, 68.887975), (4.781, 68.747975), (4.781, 68.887975), (4.781, 68.747975), (10.02, 68.757), (10.02, 68.617), (0.3, 68.76), (0.3, 68.52), (4.781, 68.747975), (4.781, 68.607975), (4.781, 68.747975), (4.781, 68.617975), (10.02, 68.617), (10.02, 68.507)]</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 70.0), (0.3, 69.76), (5.027, 69.881825), (5.027, 69.761825), (5.027, 69.881825), (5.027, 69.75182500000001), (9.937, 69.759075), (9.937, 69.629075), (0.3, 69.76), (0.3, 69.52), (5.027, 69.761825), (5.027, 69.64182500000001), (5.027, 69.75182500000001), (5.027, 69.631825), (9.937, 69.629075), (9.937, 69.509075)]</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 71.0), (0.3, 70.76), (5.335, 70.874125), (5.335, 70.754125), (5.335, 70.874125), (5.335, 70.74412500000001), (9.799, 70.762525), (9.799, 70.632525), (0.3, 70.76), (0.3, 70.52), (5.335, 70.754125), (5.335, 70.63412500000001), (5.335, 70.74412500000001), (5.335, 70.624125), (9.799, 70.632525), (9.799, 70.512525)]</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 72.0), (0.3, 71.86), (5.665, 71.865875), (5.665, 71.725875), (5.665, 71.865875), (5.665, 71.73587500000001), (9.721, 71.764475), (9.721, 71.63447500000001), (0.3, 71.86), (0.3, 71.56), (5.665, 71.725875), (5.665, 71.615875), (5.665, 71.73587500000001), (5.665, 71.615875), (9.721, 71.63447500000001), (9.721, 71.514475)]</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 73.0), (0.3, 72.89), (6.02, 72.887784865322), (6.02, 72.777784865322), (6.02, 72.887784865322), (6.02, 72.75778486532201), (9.668, 72.81621828991896), (9.668, 72.68621828991897), (0.3, 72.89), (0.3, 72.59), (6.02, 72.777784865322), (6.02, 72.637784865322), (6.02, 72.75778486532201), (6.02, 72.637784865322), (9.668, 72.68621828991897), (9.668, 72.56621828991896)]</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[(0.3, 77.0), (0.3, 76.89), (7.115, 77.2469929087422), (7.115, 77.1369929087422), (7.115, 77.2469929087422), (7.115, 76.9469929087422), (10.582, 77.37264579423146), (10.582, 77.07264579423146), (0.3, 76.89), (0.3, 76.74), (7.115, 77.1369929087422), (7.115, 76.8369929087422), (7.115, 76.9469929087422), (7.115, 76.8369929087422), (10.582, 77.07264579423146), (10.582, 76.78264579423146)]</t>
+          <t>[(0.3, 77.0), (0.3, 76.89), (7.115, 77.2469929087422), (7.115, 77.1369929087422), (7.115, 77.2469929087422), (7.115, 76.9569929087422), (10.582, 77.37264579423146), (10.582, 77.08264579423145), (0.3, 76.89), (0.3, 76.74), (7.115, 77.1369929087422), (7.115, 76.8369929087422), (7.115, 76.9569929087422), (7.115, 76.8369929087422), (10.582, 77.08264579423145), (10.582, 76.79264579423146)]</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 78.0), (0.3, 77.89), (7.277, 78.28827247518993), (7.277, 78.17827247518993), (7.277, 78.28827247518993), (7.277, 78.01827247518993), (10.758, 78.43209883123639), (10.758, 78.16209883123639), (0.3, 77.89), (0.3, 77.75), (7.277, 78.17827247518993), (7.277, 77.87827247518993), (7.277, 78.01827247518993), (7.277, 77.87827247518993), (10.758, 78.16209883123639), (10.758, 77.89209883123638)]</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 79.0), (0.3, 78.89), (7.361, 79.3275777235332), (7.361, 79.2175777235332), (7.361, 79.3275777235332), (7.361, 79.1075777235332), (10.865, 79.49013718299506), (10.865, 79.27013718299506), (0.3, 78.89), (0.3, 78.75), (7.361, 79.2175777235332), (7.361, 78.9975777235332), (7.361, 79.1075777235332), (7.361, 78.9975777235332), (10.865, 79.27013718299506), (10.865, 79.06013718299505)]</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 80.0), (0.3, 79.89), (7.368, 80.3637725713118), (7.368, 80.2537725713118), (7.368, 80.3637725713118), (7.368, 80.1437725713118), (10.878, 80.54442363601247), (10.878, 80.32442363601247), (0.3, 79.89), (0.3, 79.75), (7.368, 80.2537725713118), (7.368, 80.0237725713118), (7.368, 80.1437725713118), (7.368, 80.0237725713118), (10.878, 80.32442363601247), (10.878, 80.11442363601246)]</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 81.0), (0.3, 80.89), (7.318, 81.39681554432175), (7.318, 81.28681554432175), (7.318, 81.39681554432175), (7.318, 81.18681554432176), (10.805, 81.59397938060701), (10.805, 81.38397938060702), (0.3, 80.89), (0.3, 80.75), (7.318, 81.28681554432175), (7.318, 81.07681554432176), (7.318, 81.18681554432176), (7.318, 81.07681554432176), (10.805, 81.38397938060702), (10.805, 81.18397938060701)]</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 82.0), (0.3, 81.89), (7.162, 82.41172), (7.162, 82.30172), (7.162, 82.41172), (7.162, 82.24172), (10.656, 82.62136), (10.656, 82.45136), (0.3, 81.89), (0.3, 81.75), (7.162, 82.30172), (7.162, 82.07172), (7.162, 82.24172), (7.162, 82.07172), (10.656, 82.45136), (10.656, 82.15136)]</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 83.0), (0.3, 82.89), (6.907, 83.39642), (6.907, 83.28642), (6.907, 83.39642), (6.907, 83.22642), (10.419, 83.60714), (10.419, 83.43714), (0.3, 82.89), (0.3, 82.75), (6.907, 83.28642), (6.907, 83.06642000000001), (6.907, 83.22642), (6.907, 83.06642000000001), (10.419, 83.43714), (10.419, 83.13714)]</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 84.0), (0.3, 83.89), (6.722, 84.38532), (6.722, 84.27532), (6.722, 84.38532), (6.722, 84.20531999999999), (10.272, 84.59832), (10.272, 84.41832), (0.3, 83.89), (0.3, 83.75), (6.722, 84.27532), (6.722, 84.06532), (6.722, 84.20531999999999), (6.722, 84.06532), (10.272, 84.41832), (10.272, 84.11832)]</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 86.0), (0.3, 85.89), (6.576, 86.37656), (6.576, 86.26656), (6.576, 86.37656), (6.576, 86.23656), (10.059, 86.58554), (10.059, 86.44554), (0.3, 85.89), (0.3, 85.75), (6.576, 86.26656), (6.576, 86.06656), (6.576, 86.23656), (6.576, 86.06656), (10.059, 86.44554), (10.059, 86.14554)]</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 87.0), (0.3, 86.86), (6.48, 87.3708), (6.48, 87.2308), (6.48, 87.3708), (6.48, 87.2608), (9.998, 87.58188), (9.998, 87.47188), (0.3, 86.86), (0.3, 86.75), (6.48, 87.2308), (6.48, 87.1008), (6.48, 87.2608), (6.48, 87.1008), (9.998, 87.47188), (9.998, 87.19188)]</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 88.0), (0.3, 87.86), (6.635, 88.3801), (6.635, 88.2401), (6.635, 88.3801), (6.635, 88.2701), (9.953, 88.57918), (9.953, 88.46918), (0.3, 87.86), (0.3, 87.75), (6.635, 88.2401), (6.635, 88.1101), (6.635, 88.2701), (6.635, 88.1101), (9.953, 88.46918), (9.953, 88.16918)]</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 90.0), (0.3, 89.87), (6.313, 90.36078), (6.313, 90.23078000000001), (6.313, 90.36078), (6.313, 90.25078), (9.848, 90.57288), (9.848, 90.46288), (0.3, 89.87), (0.3, 89.75), (6.313, 90.23078000000001), (6.313, 90.11078), (6.313, 90.25078), (6.313, 90.11078), (9.848, 90.46288), (9.848, 90.21288)]</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 93.0), (0.3, 92.86), (6.389, 93.36534), (6.389, 93.22534), (6.389, 93.36534), (6.389, 93.25534), (9.862, 93.57372), (9.862, 93.46372), (0.3, 92.86), (0.3, 92.75), (6.389, 93.22534), (6.389, 93.09534000000001), (6.389, 93.25534), (6.389, 93.09534000000001), (9.862, 93.46372), (9.862, 93.17371999999999)]</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 94.0), (0.3, 93.86), (6.389, 94.36534), (6.389, 94.22534), (6.389, 94.36534), (6.389, 94.25534), (9.879, 94.57474), (9.879, 94.46474), (0.3, 93.86), (0.3, 93.75), (6.389, 94.22534), (6.389, 94.10534), (6.389, 94.25534), (6.389, 94.10534), (9.879, 94.46474), (9.879, 94.18474)]</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 95.0), (0.3, 94.87), (6.432, 95.36792), (6.432, 95.23792), (6.432, 95.36792), (6.432, 95.25792), (9.887, 95.57522), (9.887, 95.46522), (0.3, 94.87), (0.3, 94.75), (6.432, 95.23792), (6.432, 95.11792), (6.432, 95.25792), (6.432, 95.11792), (9.887, 95.46522), (9.887, 95.20522)]</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 96.0), (0.3, 95.87), (6.457, 96.36942), (6.457, 96.23942000000001), (6.457, 96.36942), (6.457, 96.25942), (9.98, 96.5808), (9.98, 96.4708), (0.3, 95.87), (0.3, 95.75), (6.457, 96.23942000000001), (6.457, 96.11942), (6.457, 96.25942), (6.457, 96.11942), (9.98, 96.4708), (9.98, 96.21079999999999)]</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 97.0), (0.3, 96.87), (6.56, 97.35607754594919), (6.56, 97.2260775459492), (6.56, 97.35607754594919), (6.56, 97.24607754594919), (10.044, 97.55425233350303), (10.044, 97.44425233350303), (0.3, 96.87), (0.3, 96.75), (6.56, 97.2260775459492), (6.56, 97.10607754594919), (6.56, 97.24607754594919), (6.56, 97.10607754594919), (10.044, 97.44425233350303), (10.044, 97.20425233350304)]</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 98.0), (0.3, 97.87), (6.652, 98.28646344144879), (6.652, 98.15646344144879), (6.652, 98.28646344144879), (6.652, 98.15646344144879), (10.169, 98.44507363092855), (10.169, 98.31507363092855), (0.3, 97.87), (0.3, 97.75), (6.652, 98.15646344144879), (6.652, 98.03646344144879), (6.652, 98.15646344144879), (6.652, 98.03646344144879), (10.169, 98.31507363092855), (10.169, 98.19507363092855)]</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 99.0), (0.3, 98.87), (6.722, 99.2139482914535), (6.722, 99.08394829145351), (6.722, 99.2139482914535), (6.722, 99.08394829145351), (10.092, 99.3262195063707), (10.092, 99.19621950637071), (0.3, 98.87), (0.3, 98.75), (6.722, 99.08394829145351), (6.722, 98.9639482914535), (6.722, 99.08394829145351), (6.722, 98.9639482914535), (10.092, 99.19621950637071), (10.092, 99.0762195063707)]</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 100.0), (0.3, 99.87), (6.445, 100.16363106494077), (6.445, 100.03363106494078), (6.445, 100.16363106494077), (6.445, 100.03363106494078), (9.929, 100.25640415367205), (9.929, 100.12640415367206), (0.3, 99.87), (0.3, 99.75), (6.445, 100.03363106494078), (6.445, 99.91363106494077), (6.445, 100.03363106494078), (6.445, 99.91363106494077), (9.929, 100.12640415367206), (9.929, 100.00640415367205)]</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 101.0), (0.3, 100.87), (6.237, 101.15543056905152), (6.237, 101.02543056905152), (6.237, 101.15543056905152), (6.237, 101.02543056905152), (9.711, 101.24637983583357), (9.711, 101.11637983583357), (0.3, 100.87), (0.3, 100.75), (6.237, 101.02543056905152), (6.237, 100.90543056905152), (6.237, 101.02543056905152), (6.237, 100.90543056905152), (9.711, 101.11637983583357), (9.711, 100.99637983583357)]</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 102.0), (0.3, 101.87), (6.118, 102.14970669949908), (6.118, 102.01970669949908), (6.118, 102.14970669949908), (6.118, 102.03970669949908), (9.615, 102.23969025538568), (9.615, 102.12969025538568), (0.3, 101.87), (0.3, 101.75), (6.118, 102.01970669949908), (6.118, 101.89970669949908), (6.118, 102.03970669949908), (6.118, 101.89970669949908), (9.615, 102.12969025538568), (9.615, 101.89969025538568)]</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 103.0), (0.3, 102.86), (6.068, 103.1458340830487), (6.068, 103.0058340830487), (6.068, 103.1458340830487), (6.068, 103.0358340830487), (9.584, 103.23473017112069), (9.584, 103.12473017112069), (0.3, 102.86), (0.3, 102.75), (6.068, 103.0058340830487), (6.068, 102.88583408304869), (6.068, 103.0358340830487), (6.068, 102.88583408304869), (9.584, 103.12473017112069), (9.584, 102.83473017112068)]</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 106.0), (0.3, 105.89), (6.128, 105.8543), (6.128, 105.7443), (6.128, 105.8543), (6.128, 105.7243), (9.617, 105.767075), (9.617, 105.63707500000001), (0.3, 105.89), (0.3, 105.66), (6.128, 105.7443), (6.128, 105.6043), (6.128, 105.7243), (6.128, 105.6043), (9.617, 105.63707500000001), (9.617, 105.517075)]</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 107.0), (0.3, 106.89), (6.097, 106.855075), (6.097, 106.745075), (6.097, 106.855075), (6.097, 106.725075), (9.605, 106.767375), (9.605, 106.637375), (0.3, 106.89), (0.3, 106.6), (6.097, 106.745075), (6.097, 106.605075), (6.097, 106.725075), (6.097, 106.605075), (9.605, 106.637375), (9.605, 106.517375)]</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 108.0), (0.3, 107.86), (6.117, 107.854575), (6.117, 107.714575), (6.117, 107.854575), (6.117, 107.724575), (9.599, 107.767525), (9.599, 107.63752500000001), (0.3, 107.86), (0.3, 107.56), (6.117, 107.714575), (6.117, 107.604575), (6.117, 107.724575), (6.117, 107.604575), (9.599, 107.63752500000001), (9.599, 107.517525)]</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[(0.3, 112.0), (0.3, 111.81), (6.418, 111.79769728581367), (6.418, 111.60769728581367), (6.418, 111.79769728581367), (6.418, 111.61769728581366), (9.979, 111.67994639251233), (9.979, 111.49994639251233), (0.3, 111.81), (0.3, 111.62), (6.418, 111.60769728581367), (6.418, 111.44769728581367), (6.418, 111.61769728581366), (6.418, 111.44769728581367), (9.979, 111.49994639251233), (9.979, 111.31994639251234)]</t>
+          <t>[(0.3, 112.0), (0.3, 111.81), (6.418, 111.79769728581367), (6.418, 111.60769728581367), (6.418, 111.79769728581367), (6.418, 111.61769728581366), (9.979, 111.67994639251233), (9.979, 111.49994639251233), (0.3, 111.81), (0.3, 111.62), (6.418, 111.60769728581367), (6.418, 111.45769728581367), (6.418, 111.61769728581366), (6.418, 111.45769728581367), (9.979, 111.49994639251233), (9.979, 111.32994639251234)]</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[(0.3, 113.0), (0.3, 112.78), (6.512, 112.76903730300029), (6.512, 112.54903730300029), (6.512, 112.76903730300029), (6.512, 112.58903730300028), (10.147, 112.63388768877073), (10.147, 112.45388768877072), (0.3, 112.78), (0.3, 112.56), (6.512, 112.54903730300029), (6.512, 112.4190373030003), (6.512, 112.58903730300028), (6.512, 112.4190373030003), (10.147, 112.45388768877072), (10.147, 112.27388768877073)]</t>
+          <t>[(0.3, 113.0), (0.3, 112.78), (6.512, 112.76903730300029), (6.512, 112.54903730300029), (6.512, 112.76903730300029), (6.512, 112.57903730300029), (10.147, 112.63388768877073), (10.147, 112.44388768877073), (0.3, 112.78), (0.3, 112.56), (6.512, 112.54903730300029), (6.512, 112.4190373030003), (6.512, 112.57903730300029), (6.512, 112.4190373030003), (10.147, 112.44388768877073), (10.147, 112.26388768877072)]</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[(0.3, 118.0), (0.3, 117.79), (5.261, 117.7135196497374), (5.261, 117.50351964973741), (5.261, 117.7135196497374), (5.261, 117.5335196497374), (10.975, 117.38355619047508), (10.975, 117.20355619047507), (0.3, 117.79), (0.3, 117.59), (5.261, 117.50351964973741), (5.261, 117.35351964973741), (5.261, 117.5335196497374), (5.261, 117.35351964973741), (10.975, 117.20355619047507), (10.975, 117.07355619047507)]</t>
+          <t>[(0.3, 118.0), (0.3, 117.79), (5.261, 117.7135196497374), (5.261, 117.50351964973741), (5.261, 117.7135196497374), (5.261, 117.5335196497374), (10.975, 117.38355619047508), (10.975, 117.20355619047507), (0.3, 117.79), (0.3, 117.59), (5.261, 117.50351964973741), (5.261, 117.35351964973741), (5.261, 117.5335196497374), (5.261, 117.35351964973741), (10.975, 117.20355619047507), (10.975, 117.08355619047508)]</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[(0.3, 119.0), (0.3, 118.78), (4.898, 118.7155687593984), (4.898, 118.4955687593984), (4.898, 118.7155687593984), (4.898, 118.6055687593984), (11.175, 118.32727495834222), (11.175, 118.21727495834222), (0.3, 118.78), (0.3, 118.56), (4.898, 118.4955687593984), (4.898, 118.3655687593984), (4.898, 118.6055687593984), (4.898, 118.3655687593984), (11.175, 118.21727495834222), (11.175, 118.05727495834222)]</t>
+          <t>[(0.3, 119.0), (0.3, 118.78), (4.898, 118.7155687593984), (4.898, 118.4955687593984), (4.898, 118.7155687593984), (4.898, 118.6055687593984), (11.175, 118.32727495834222), (11.175, 118.21727495834222), (0.3, 118.78), (0.3, 118.56), (4.898, 118.4955687593984), (4.898, 118.3655687593984), (4.898, 118.6055687593984), (4.898, 118.3655687593984), (11.175, 118.21727495834222), (11.175, 118.04727495834221)]</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 120.0), (0.3, 119.77), (4.833, 119.7009441407986), (4.833, 119.4709441407986), (4.833, 119.7009441407986), (4.833, 119.5909441407986), (11.337, 119.27185538980679), (11.337, 119.16185538980679), (0.3, 119.77), (0.3, 119.55), (4.833, 119.4709441407986), (4.833, 119.3509441407986), (4.833, 119.5909441407986), (4.833, 119.3509441407986), (11.337, 119.16185538980679), (11.337, 119.02185538980679)]</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 121.0), (0.3, 120.77), (5.013, 120.67009), (5.013, 120.44009), (5.013, 120.67009), (5.013, 120.56009), (11.533, 120.21369), (11.533, 120.10369), (0.3, 120.77), (0.3, 120.54), (5.013, 120.44009), (5.013, 120.33009), (5.013, 120.56009), (5.013, 120.33009), (11.533, 120.10369), (11.533, 119.96369)]</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 122.0), (0.3, 121.77), (5.383, 121.64419), (5.383, 121.41418999999999), (5.383, 121.64419), (5.383, 121.53419), (11.857, 121.19101), (11.857, 121.08101), (0.3, 121.77), (0.3, 121.55), (5.383, 121.41418999999999), (5.383, 121.27418999999999), (5.383, 121.53419), (5.383, 121.27418999999999), (11.857, 121.08101), (11.857, 120.94101)]</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 123.0), (0.3, 122.75), (5.656, 122.62508), (5.656, 122.37508), (5.656, 122.62508), (5.656, 122.51508), (12.127, 122.17211), (12.127, 122.06211), (0.3, 122.75), (0.3, 122.5), (5.656, 122.37508), (5.656, 122.26508), (5.656, 122.51508), (5.656, 122.26508), (12.127, 122.06211), (12.127, 121.92211)]</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 125.0), (0.3, 124.74), (5.888, 124.60884), (5.888, 124.34884), (5.888, 124.60884), (5.888, 124.49884), (12.284, 124.16112), (12.284, 124.05112), (0.3, 124.74), (0.3, 124.49), (5.888, 124.34884), (5.888, 124.22884), (5.888, 124.49884), (5.888, 124.22884), (12.284, 124.05112), (12.284, 123.91112)]</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 127.0), (0.3, 126.75), (6.098, 126.59414), (6.098, 126.34414), (6.098, 126.59414), (6.098, 126.48414), (12.528, 126.14404), (12.528, 126.03404), (0.3, 126.75), (0.3, 126.5), (6.098, 126.34414), (6.098, 126.20414), (6.098, 126.48414), (6.098, 126.20414), (12.528, 126.03404), (12.528, 125.89404)]</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[(0.3, 133.0), (0.3, 132.72), (5.463, 132.63859), (5.463, 132.35859), (5.463, 132.63859), (5.463, 132.39858999999998), (11.91, 132.1873), (11.91, 131.94729999999998), (0.3, 132.72), (0.3, 132.44), (5.463, 132.35859), (5.463, 132.16859), (5.463, 132.39858999999998), (5.463, 132.16859), (11.91, 131.94729999999998), (11.91, 131.8173)]</t>
+          <t>[(0.3, 133.0), (0.3, 132.72), (5.463, 132.63859), (5.463, 132.35859), (5.463, 132.63859), (5.463, 132.40859), (11.91, 132.1873), (11.91, 131.9573), (0.3, 132.72), (0.3, 132.44), (5.463, 132.35859), (5.463, 132.17858999999999), (5.463, 132.40859), (5.463, 132.17858999999999), (11.91, 131.9573), (11.91, 131.82729999999998)]</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[(0.3, 134.0), (0.3, 133.7), (5.311, 133.64923), (5.311, 133.34922999999998), (5.311, 133.64923), (5.311, 133.47923), (11.708, 133.20144), (11.708, 133.03144), (0.3, 133.7), (0.3, 133.41), (5.311, 133.34922999999998), (5.311, 133.17923), (5.311, 133.47923), (5.311, 133.17923), (11.708, 133.03144), (11.708, 132.88144)]</t>
+          <t>[(0.3, 134.0), (0.3, 133.7), (5.311, 133.64923), (5.311, 133.34922999999998), (5.311, 133.64923), (5.311, 133.46922999999998), (11.708, 133.20144), (11.708, 133.02143999999998), (0.3, 133.7), (0.3, 133.41), (5.311, 133.34922999999998), (5.311, 133.16923), (5.311, 133.46922999999998), (5.311, 133.16923), (11.708, 133.02143999999998), (11.708, 132.87143999999998)]</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[(0.3, 135.0), (0.3, 134.68), (5.048, 134.66764), (5.048, 134.40764000000001), (5.048, 134.66764), (5.048, 134.44764), (11.396, 134.22328), (11.396, 134.00328), (0.3, 134.68), (0.3, 134.36), (5.048, 134.40764000000001), (5.048, 134.14764), (5.048, 134.44764), (5.048, 134.14764), (11.396, 134.00328), (11.396, 133.86327999999997)]</t>
+          <t>[(0.3, 135.0), (0.3, 134.68), (5.048, 134.66764), (5.048, 134.40764000000001), (5.048, 134.66764), (5.048, 134.45764), (11.396, 134.22328), (11.396, 134.01327999999998), (0.3, 134.68), (0.3, 134.36), (5.048, 134.40764000000001), (5.048, 134.14764), (5.048, 134.45764), (5.048, 134.15764000000001), (11.396, 134.01327999999998), (11.396, 133.86327999999997)]</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[(0.3, 136.0), (0.3, 135.68), (4.666, 135.69438), (4.666, 135.45438), (4.666, 135.69438), (4.666, 135.50438), (11.203, 135.23679), (11.203, 135.04679000000002), (0.3, 135.68), (0.3, 135.36), (4.666, 135.45438), (4.666, 135.21438), (4.666, 135.50438), (4.666, 135.20438), (11.203, 135.04679000000002), (11.203, 134.91679000000002)]</t>
+          <t>[(0.3, 136.0), (0.3, 135.68), (4.666, 135.69438), (4.666, 135.44438), (4.666, 135.69438), (4.666, 135.49438), (11.203, 135.23679), (11.203, 135.03679000000002), (0.3, 135.68), (0.3, 135.36), (4.666, 135.44438), (4.666, 135.19438), (4.666, 135.49438), (4.666, 135.19438), (11.203, 135.03679000000002), (11.203, 134.90679)]</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[(0.3, 137.0), (0.3, 136.69), (4.81, 136.6843), (4.81, 136.42430000000002), (4.81, 136.6843), (4.81, 136.4743), (11.248, 136.23364), (11.248, 136.02364), (0.3, 136.69), (0.3, 136.38), (4.81, 136.42430000000002), (4.81, 136.1643), (4.81, 136.4743), (4.81, 136.17430000000002), (11.248, 136.02364), (11.248, 135.89364)]</t>
+          <t>[(0.3, 137.0), (0.3, 136.69), (4.81, 136.6843), (4.81, 136.42430000000002), (4.81, 136.6843), (4.81, 136.4743), (11.248, 136.23364), (11.248, 136.02364), (0.3, 136.69), (0.3, 136.38), (4.81, 136.42430000000002), (4.81, 136.1643), (4.81, 136.4743), (4.81, 136.17430000000002), (11.248, 136.02364), (11.248, 135.88364)]</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[(0.3, 139.0), (0.3, 138.72), (4.716, 138.69088), (4.716, 138.41088), (4.716, 138.69088), (4.716, 138.58087999999998), (11.24, 138.2342), (11.24, 138.12419999999997), (0.3, 138.72), (0.3, 138.45), (4.716, 138.41088), (4.716, 138.29088), (4.716, 138.58087999999998), (4.716, 138.29088), (11.24, 138.12419999999997), (11.24, 137.9442)]</t>
+          <t>[(0.3, 139.0), (0.3, 138.72), (4.716, 138.69088), (4.716, 138.41088), (4.716, 138.69088), (4.716, 138.58087999999998), (11.24, 138.2342), (11.24, 138.12419999999997), (0.3, 138.72), (0.3, 138.45), (4.716, 138.41088), (4.716, 138.28088), (4.716, 138.58087999999998), (4.716, 138.28088), (11.24, 138.12419999999997), (11.24, 137.9442)]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[(0.3, 143.0), (0.3, 142.77), (4.29, 142.77173051510584), (4.29, 142.54173051510585), (4.29, 142.77173051510584), (4.29, 142.59173051510584), (10.696, 142.40524071053642), (10.696, 142.2252407105364), (0.3, 142.77), (0.3, 142.55), (4.29, 142.54173051510585), (4.29, 142.41173051510583), (4.29, 142.59173051510584), (4.29, 142.41173051510583), (10.696, 142.2252407105364), (10.696, 142.11524071053643)]</t>
+          <t>[(0.3, 143.0), (0.3, 142.77), (4.29, 142.77173051510584), (4.29, 142.54173051510585), (4.29, 142.77173051510584), (4.29, 142.66173051510583), (10.696, 142.40524071053642), (10.696, 142.2952407105364), (0.3, 142.77), (0.3, 142.55), (4.29, 142.54173051510585), (4.29, 142.40173051510584), (4.29, 142.66173051510583), (4.29, 142.40173051510584), (10.696, 142.2952407105364), (10.696, 142.11524071053643)]</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[(0.3, 145.0), (0.3, 144.82), (3.465, 144.84496616312202), (3.465, 144.66496616312202), (3.465, 144.84496616312202), (3.465, 144.734966163122), (9.88, 144.53073486341515), (9.88, 144.42073486341513), (0.3, 144.82), (0.3, 144.64), (3.465, 144.66496616312202), (3.465, 144.514966163122), (3.465, 144.734966163122), (3.465, 144.514966163122), (9.88, 144.42073486341513), (9.88, 144.26073486341514)]</t>
+          <t>[(0.3, 145.0), (0.3, 144.82), (3.465, 144.84496616312202), (3.465, 144.66496616312202), (3.465, 144.84496616312202), (3.465, 144.67496616312204), (9.88, 144.53073486341515), (9.88, 144.36073486341516), (0.3, 144.82), (0.3, 144.64), (3.465, 144.66496616312202), (3.465, 144.514966163122), (3.465, 144.67496616312204), (3.465, 144.514966163122), (9.88, 144.36073486341516), (9.88, 144.25073486341515)]</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 152.0), (0.3, 151.89), (7.363, 151.823425), (7.363, 151.71342499999997), (0.3, 151.89), (0.3, 151.65), (7.363, 151.71342499999997), (7.363, 151.573425)]</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 155.0), (0.3, 154.86), (6.062, 154.85595), (6.062, 154.71595000000002), (0.3, 154.86), (0.3, 154.73), (6.062, 154.71595000000002), (6.062, 154.60595)]</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 158.0), (0.3, 157.87), (6.571, 157.843225), (6.571, 157.713225), (0.3, 157.87), (0.3, 157.75), (6.571, 157.713225), (6.571, 157.593225)]</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 159.0), (0.3, 158.89), (7.282, 158.82545), (7.282, 158.71544999999998), (0.3, 158.89), (0.3, 158.68), (7.282, 158.71544999999998), (7.282, 158.57545)]</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 160.0), (0.3, 159.88), (8.105, 159.804875), (8.105, 159.684875), (0.3, 159.88), (0.3, 159.58), (8.105, 159.684875), (8.105, 159.554875)]</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[(0.3, 161.0), (0.3, 160.87), (4.654, 160.89115), (4.654, 160.76115000000001), (0.3, 160.87), (0.3, 160.57), (4.654, 160.76115000000001), (4.654, 160.63115000000002)]</t>
+          <t>[(0.3, 161.0), (0.3, 160.87), (4.654, 160.89115), (4.654, 160.76115000000001), (0.3, 160.87), (0.3, 160.57), (4.654, 160.76115000000001), (4.654, 160.64115)]</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 162.0), (0.3, 161.89), (4.591, 161.892725), (4.591, 161.782725), (0.3, 161.89), (0.3, 161.62), (4.591, 161.782725), (4.591, 161.642725)]</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 163.0), (0.3, 162.89), (4.475, 162.895625), (4.475, 162.78562499999998), (0.3, 162.89), (0.3, 162.62), (4.475, 162.78562499999998), (4.475, 162.645625)]</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[(0.3, 165.0), (0.3, 164.88), (4.43, 164.89675), (4.43, 164.77675), (0.3, 164.88), (0.3, 164.58), (4.43, 164.77675), (4.43, 164.63675)]</t>
+          <t>[(0.3, 165.0), (0.3, 164.88), (4.43, 164.89675), (4.43, 164.77675), (0.3, 164.88), (0.3, 164.58), (4.43, 164.77675), (4.43, 164.64675)]</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 166.0), (0.3, 165.89), (4.405, 165.897375), (4.405, 165.787375), (0.3, 165.89), (0.3, 165.68), (4.405, 165.787375), (4.405, 165.647375)]</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 167.0), (0.3, 166.87), (4.303, 166.899925), (4.303, 166.769925), (0.3, 166.87), (0.3, 166.75), (4.303, 166.769925), (4.303, 166.649925)]</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 168.0), (0.3, 167.86), (4.037, 167.906575), (4.037, 167.76657500000002), (0.3, 167.86), (0.3, 167.74), (4.037, 167.76657500000002), (4.037, 167.656575)]</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 169.0), (0.3, 168.87), (3.687, 168.915325), (3.687, 168.785325), (0.3, 168.87), (0.3, 168.75), (3.687, 168.785325), (3.687, 168.665325)]</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 170.0), (0.3, 169.87), (3.409, 169.922275), (3.409, 169.79227500000002), (0.3, 169.87), (0.3, 169.75), (3.409, 169.79227500000002), (3.409, 169.672275)]</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 171.0), (0.3, 170.89), (3.063, 170.930925), (3.063, 170.820925), (0.3, 170.89), (0.3, 170.67), (3.063, 170.820925), (3.063, 170.680925)]</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[(0.3, 197.0), (0.3, 196.8), (3.768, 197.06866144909952), (3.768, 196.86866144909953), (3.768, 197.06866144909952), (3.768, 196.81866144909952), (10.031, 197.19265990807017), (10.031, 196.94265990807017), (0.3, 196.8), (0.3, 196.6), (3.768, 196.86866144909953), (3.768, 196.68866144909953), (3.768, 196.81866144909952), (3.768, 196.68866144909953), (10.031, 196.94265990807017), (10.031, 196.64265990807016)]</t>
+          <t>[(0.3, 197.0), (0.3, 196.8), (3.768, 197.06866144909952), (3.768, 196.86866144909953), (3.768, 197.06866144909952), (3.768, 196.81866144909952), (10.031, 197.19265990807017), (10.031, 196.94265990807017), (0.3, 196.8), (0.3, 196.6), (3.768, 196.86866144909953), (3.768, 196.69866144909952), (3.768, 196.81866144909952), (3.768, 196.69866144909952), (10.031, 196.94265990807017), (10.031, 196.64265990807016)]</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[(0.3, 198.0), (0.3, 197.89), (3.727, 197.98217470763092), (3.727, 197.8721747076309), (3.727, 197.98217470763092), (3.727, 197.8721747076309), (9.938, 197.94986864083654), (9.938, 197.83986864083653), (0.3, 197.89), (0.3, 197.62), (3.727, 197.8721747076309), (3.727, 197.70217470763092), (3.727, 197.8721747076309), (3.727, 197.70217470763092), (9.938, 197.83986864083653), (9.938, 197.58986864083653)]</t>
+          <t>[(0.3, 198.0), (0.3, 197.89), (3.727, 197.98217470763092), (3.727, 197.8721747076309), (3.727, 197.98217470763092), (3.727, 197.8721747076309), (9.938, 197.94986864083654), (9.938, 197.83986864083653), (0.3, 197.89), (0.3, 197.62), (3.727, 197.8721747076309), (3.727, 197.70217470763092), (3.727, 197.8721747076309), (3.727, 197.70217470763092), (9.938, 197.83986864083653), (9.938, 197.57986864083654)]</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 199.0), (0.3, 198.89), (3.683, 198.915425), (3.683, 198.80542499999999), (3.683, 198.915425), (3.683, 198.785425), (9.911, 198.759725), (9.911, 198.629725), (0.3, 198.89), (0.3, 198.61), (3.683, 198.80542499999999), (3.683, 198.665425), (3.683, 198.785425), (3.683, 198.665425), (9.911, 198.629725), (9.911, 198.509725)]</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 200.0), (0.3, 199.89), (3.598, 199.91755), (3.598, 199.80755), (3.598, 199.91755), (3.598, 199.78755), (9.909, 199.759775), (9.909, 199.629775), (0.3, 199.89), (0.3, 199.61), (3.598, 199.80755), (3.598, 199.66755), (3.598, 199.78755), (3.598, 199.66755), (9.909, 199.629775), (9.909, 199.509775)]</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 201.0), (0.3, 200.89), (3.606, 200.91735), (3.606, 200.80734999999999), (3.606, 200.91735), (3.606, 200.78735), (9.852, 200.7612), (9.852, 200.6312), (0.3, 200.89), (0.3, 200.61), (3.606, 200.80734999999999), (3.606, 200.66735), (3.606, 200.78735), (3.606, 200.66735), (9.852, 200.6312), (9.852, 200.5112)]</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 202.0), (0.3, 201.89), (3.547, 201.918825), (3.547, 201.80882499999998), (3.547, 201.918825), (3.547, 201.788825), (9.827, 201.761825), (9.827, 201.631825), (0.3, 201.89), (0.3, 201.63), (3.547, 201.80882499999998), (3.547, 201.668825), (3.547, 201.788825), (3.547, 201.668825), (9.827, 201.631825), (9.827, 201.511825)]</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 203.0), (0.3, 202.89), (3.538, 202.91905), (3.538, 202.80904999999998), (3.538, 202.91905), (3.538, 202.78905), (9.806, 202.76235), (9.806, 202.63235), (0.3, 202.89), (0.3, 202.63), (3.538, 202.80904999999998), (3.538, 202.66905), (3.538, 202.78905), (3.538, 202.66905), (9.806, 202.63235), (9.806, 202.51235)]</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 204.0), (0.3, 203.89), (3.559, 203.918525), (3.559, 203.80852499999997), (3.559, 203.918525), (3.559, 203.788525), (9.749, 203.763775), (9.749, 203.633775), (0.3, 203.89), (0.3, 203.64), (3.559, 203.80852499999997), (3.559, 203.668525), (3.559, 203.788525), (3.559, 203.668525), (9.749, 203.633775), (9.749, 203.513775)]</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 205.0), (0.3, 204.89), (3.474, 204.92065), (3.474, 204.81064999999998), (3.474, 204.92065), (3.474, 204.79065), (9.705, 204.764875), (9.705, 204.634875), (0.3, 204.89), (0.3, 204.65), (3.474, 204.81064999999998), (3.474, 204.67065), (3.474, 204.79065), (3.474, 204.67065), (9.705, 204.634875), (9.705, 204.514875)]</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 206.0), (0.3, 205.89), (3.407, 205.922325), (3.407, 205.812325), (3.407, 205.922325), (3.407, 205.792325), (9.622, 205.76695), (9.622, 205.63695), (0.3, 205.89), (0.3, 205.65), (3.407, 205.812325), (3.407, 205.672325), (3.407, 205.792325), (3.407, 205.672325), (9.622, 205.63695), (9.622, 205.51695)]</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 207.0), (0.3, 206.89), (3.3, 206.925), (3.3, 206.815), (3.3, 206.925), (3.3, 206.79500000000002), (9.545, 206.768875), (9.545, 206.638875), (0.3, 206.89), (0.3, 206.64), (3.3, 206.815), (3.3, 206.675), (3.3, 206.79500000000002), (3.3, 206.675), (9.545, 206.638875), (9.545, 206.518875)]</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 208.0), (0.3, 207.89), (3.179, 207.928025), (3.179, 207.81802499999998), (3.179, 207.928025), (3.179, 207.798025), (9.411, 207.772225), (9.411, 207.642225), (0.3, 207.89), (0.3, 207.65), (3.179, 207.81802499999998), (3.179, 207.678025), (3.179, 207.798025), (3.179, 207.678025), (9.411, 207.642225), (9.411, 207.522225)]</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 209.0), (0.3, 208.89), (3.11, 208.92975), (3.11, 208.81975), (3.11, 208.92975), (3.11, 208.79975000000002), (9.304, 208.7749), (9.304, 208.6449), (0.3, 208.89), (0.3, 208.66), (3.11, 208.81975), (3.11, 208.67975), (3.11, 208.79975000000002), (3.11, 208.67975), (9.304, 208.6449), (9.304, 208.5249)]</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 210.0), (0.3, 209.89), (2.924, 209.9344), (2.924, 209.8244), (2.924, 209.9344), (2.924, 209.80440000000002), (9.214, 209.77715), (9.214, 209.64715), (0.3, 209.89), (0.3, 209.67), (2.924, 209.8244), (2.924, 209.6844), (2.924, 209.80440000000002), (2.924, 209.6844), (9.214, 209.64715), (9.214, 209.52715)]</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 213.0), (0.3, 212.87), (8.976, 212.74371136169236), (8.976, 212.61371136169237), (0.3, 212.87), (0.3, 212.75), (8.976, 212.61371136169237), (8.976, 212.49371136169236)]</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 214.0), (0.3, 213.87), (8.512, 213.73310834283706), (8.512, 213.60310834283706), (0.3, 213.87), (0.3, 213.75), (8.512, 213.60310834283706), (8.512, 213.48310834283706)]</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 215.0), (0.3, 214.87), (7.429, 214.7472024527006), (7.429, 214.6172024527006), (0.3, 214.87), (0.3, 214.75), (7.429, 214.6172024527006), (7.429, 214.4972024527006)]</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 216.0), (0.3, 215.87), (5.868, 215.78882977100554), (5.868, 215.65882977100554), (0.3, 215.87), (0.3, 215.75), (5.868, 215.65882977100554), (5.868, 215.53882977100554)]</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 217.0), (0.3, 216.87), (4.059, 216.76995621880002), (4.059, 216.63995621880002), (0.3, 216.87), (0.3, 216.75), (4.059, 216.63995621880002), (4.059, 216.51995621880002)]</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 234.0), (0.3, 233.87), (2.657, 234.04652704819648), (2.657, 233.91652704819649), (0.3, 233.87), (0.3, 233.75), (2.657, 233.91652704819649), (2.657, 233.79652704819648)]</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 235.0), (0.3, 234.87), (3.886, 235.15215451297036), (3.886, 235.02215451297036), (0.3, 234.87), (0.3, 234.75), (3.886, 235.02215451297036), (3.886, 234.90215451297036)]</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 236.0), (0.3, 235.87), (5.622, 236.3375752509839), (5.622, 236.2075752509839), (0.3, 235.87), (0.3, 235.75), (5.622, 236.2075752509839), (5.622, 236.0875752509839)]</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 237.0), (0.3, 236.89), (7.587, 237.51009), (7.587, 237.40008999999998), (0.3, 236.89), (0.3, 236.75), (7.587, 237.40008999999998), (7.587, 237.20009)]</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 238.0), (0.3, 237.87), (7.256, 238.48692), (7.256, 238.35692), (0.3, 237.87), (0.3, 237.75), (7.256, 238.35692), (7.256, 238.23692)]</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 239.0), (0.3, 238.87), (6.142, 239.40894), (6.142, 239.27894), (0.3, 238.87), (0.3, 238.75), (6.142, 239.27894), (6.142, 239.15894)]</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 240.0), (0.3, 239.87), (5.235, 240.34545), (5.235, 240.21545), (0.3, 239.87), (0.3, 239.75), (5.235, 240.21545), (5.235, 240.09545)]</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 241.0), (0.3, 240.87), (4.934, 241.23149974480717), (4.934, 241.10149974480717), (0.3, 240.87), (0.3, 240.75), (4.934, 241.10149974480717), (4.934, 240.98149974480717)]</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 242.0), (0.3, 241.89), (4.86, 242.1320429426674), (4.86, 242.02204294266738), (0.3, 241.89), (0.3, 241.75), (4.86, 242.02204294266738), (4.86, 241.7920429426674)]</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[(0.3, 243.0), (0.3, 242.82), (5.037, 243.03882731333533), (5.037, 242.85882731333533), (0.3, 242.82), (0.3, 242.71), (5.037, 242.85882731333533), (5.037, 242.67882731333532)]</t>
+          <t>[(0.3, 243.0), (0.3, 242.82), (5.037, 243.03882731333533), (5.037, 242.85882731333533), (0.3, 242.82), (0.3, 242.71), (5.037, 242.85882731333533), (5.037, 242.68882731333534)]</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 247.0), (0.3, 246.87), (5.433, 246.68808654562298), (5.433, 246.55808654562298), (0.3, 246.87), (0.3, 246.75), (5.433, 246.55808654562298), (5.433, 246.43808654562298)]</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 248.0), (0.3, 247.87), (5.325, 247.64825), (5.325, 247.51825), (0.3, 247.87), (0.3, 247.75), (5.325, 247.51825), (5.325, 247.39825)]</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 249.0), (0.3, 248.87), (5.008, 248.67044), (5.008, 248.54044000000002), (0.3, 248.87), (0.3, 248.75), (5.008, 248.54044000000002), (5.008, 248.42044)]</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 250.0), (0.3, 249.86), (4.707, 249.69151), (4.707, 249.55151), (0.3, 249.86), (0.3, 249.74), (4.707, 249.55151), (4.707, 249.44151)]</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[(0.3, 255.0), (0.3, 254.83), (4.079, 255.01783690193162), (4.079, 254.84783690193163), (0.3, 254.83), (0.3, 254.69), (4.079, 254.84783690193163), (4.079, 254.6878369019316)]</t>
+          <t>[(0.3, 255.0), (0.3, 254.83), (4.079, 255.01783690193162), (4.079, 254.84783690193163), (0.3, 254.83), (0.3, 254.69), (4.079, 254.84783690193163), (4.079, 254.6778369019316)]</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[(0.3, 257.0), (0.3, 256.85), (3.707, 257.08440772686345), (3.707, 256.93440772686347), (0.3, 256.85), (0.3, 256.7), (3.707, 256.93440772686347), (3.707, 256.78440772686344), (0.3, 256.7), (0.3, 256.59), (3.707, 256.78440772686344), (3.707, 256.63440772686346)]</t>
+          <t>[(0.3, 257.0), (0.3, 256.85), (3.707, 257.08440772686345), (3.707, 256.93440772686347), (0.3, 256.85), (0.3, 256.7), (3.707, 256.93440772686347), (3.707, 256.78440772686344), (0.3, 256.7), (0.3, 256.59), (3.707, 256.78440772686344), (3.707, 256.64440772686345)]</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[(0.3, 261.0), (0.3, 260.78), (2.992, 261.1746687338811), (2.992, 260.9546687338811), (0.3, 260.78), (0.3, 260.56), (2.992, 260.9546687338811), (2.992, 260.7346687338811), (0.3, 260.56), (0.3, 260.42), (2.992, 260.7346687338811), (2.992, 260.5146687338811)]</t>
+          <t>[(0.3, 261.0), (0.3, 260.77), (2.992, 261.1746687338811), (2.992, 260.9446687338811), (0.3, 260.77), (0.3, 260.54), (2.992, 260.9446687338811), (2.992, 260.7146687338811), (0.3, 260.54), (0.3, 260.42), (2.992, 260.7146687338811), (2.992, 260.5046687338811)]</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[(0.3, 262.0), (0.3, 261.74), (3.206, 262.20342), (3.206, 261.94342), (0.3, 261.74), (0.3, 261.48), (3.206, 261.94342), (3.206, 261.68342), (0.3, 261.48), (0.3, 261.34), (3.206, 261.68342), (3.206, 261.44342)]</t>
+          <t>[(0.3, 262.0), (0.3, 261.75), (3.206, 262.20342), (3.206, 261.95342), (0.3, 261.75), (0.3, 261.5), (3.206, 261.95342), (3.206, 261.70342), (0.3, 261.5), (0.3, 261.34), (3.206, 261.70342), (3.206, 261.45342)]</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[(0.3, 270.0), (0.3, 269.71), (6.125, 270.40775), (6.125, 270.11775), (0.3, 269.71), (0.3, 269.55), (6.125, 270.11775), (6.125, 269.83775)]</t>
+          <t>[(0.3, 270.0), (0.3, 269.72), (6.125, 270.40775), (6.125, 270.12775000000005), (0.3, 269.72), (0.3, 269.55), (6.125, 270.12775000000005), (6.125, 269.84775)]</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[(0.3, 277.0), (0.3, 276.85), (2.511, 277.08610845666044), (2.511, 276.93610845666046), (2.511, 277.08610845666044), (2.511, 276.81610845666046), (9.744, 277.3678011147451), (9.744, 277.0978011147451), (0.3, 276.85), (0.3, 276.7), (2.511, 276.93610845666046), (2.511, 276.78610845666043), (2.511, 276.81610845666046), (2.511, 276.63610845666045), (9.744, 277.0978011147451), (9.744, 276.8378011147451), (0.3, 276.7), (0.3, 276.55), (2.511, 276.78610845666043), (2.511, 276.63610845666045), (2.511, 276.63610845666045), (2.511, 276.63610845666045), (9.744, 276.8378011147451), (9.744, 276.8378011147451)]</t>
+          <t>[(0.3, 277.0), (0.3, 276.84), (2.511, 277.08610845666044), (2.511, 276.9261084566604), (2.511, 277.08610845666044), (2.511, 276.81610845666046), (9.744, 277.3678011147451), (9.744, 277.0978011147451), (0.3, 276.84), (0.3, 276.68), (2.511, 276.9261084566604), (2.511, 276.76610845666045), (2.511, 276.81610845666046), (2.511, 276.62610845666046), (9.744, 277.0978011147451), (9.744, 276.8378011147451), (0.3, 276.68), (0.3, 276.55), (2.511, 276.76610845666045), (2.511, 276.62610845666046), (2.511, 276.62610845666046), (2.511, 276.62610845666046), (9.744, 276.8378011147451), (9.744, 276.8378011147451)]</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[(0.3, 279.0), (0.3, 278.85), (2.546, 279.0567645172165), (2.546, 278.9067645172165), (2.546, 279.0567645172165), (2.546, 278.89676451721647), (9.8, 279.24009924913474), (9.8, 279.0800992491347), (0.3, 278.85), (0.3, 278.7), (2.546, 278.9067645172165), (2.546, 278.7567645172165), (2.546, 278.89676451721647), (2.546, 278.7367645172165), (9.8, 279.0800992491347), (9.8, 278.92009924913475), (0.3, 278.7), (0.3, 278.55), (2.546, 278.7567645172165), (2.546, 278.6067645172165), (2.546, 278.7367645172165), (2.546, 278.5767645172165), (9.8, 278.92009924913475), (9.8, 278.7600992491347), (0.3, 278.55), (0.3, 278.43), (2.546, 278.6067645172165), (2.546, 278.4667645172165), (2.546, 278.5767645172165), (2.546, 278.4667645172165), (9.8, 278.7600992491347), (9.8, 278.60009924913476)]</t>
+          <t>[(0.3, 279.0), (0.3, 278.85), (2.546, 279.0567645172165), (2.546, 278.9067645172165), (2.546, 279.0567645172165), (2.546, 278.83676451721647), (9.8, 279.24009924913474), (9.8, 279.0200992491347), (0.3, 278.85), (0.3, 278.7), (2.546, 278.9067645172165), (2.546, 278.7567645172165), (2.546, 278.83676451721647), (2.546, 278.6167645172165), (9.8, 279.0200992491347), (9.8, 278.80009924913475), (0.3, 278.7), (0.3, 278.55), (2.546, 278.7567645172165), (2.546, 278.6067645172165), (2.546, 278.6167645172165), (2.546, 278.4667645172165), (9.8, 278.80009924913475), (9.8, 278.59009924913477), (0.3, 278.55), (0.3, 278.43), (2.546, 278.6067645172165), (2.546, 278.4667645172165), (2.546, 278.4667645172165), (2.546, 278.4667645172165), (9.8, 278.59009924913477), (9.8, 278.59009924913477)]</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[(0.3, 284.0), (0.3, 283.68), (3.062, 283.80666), (3.062, 283.54666000000003), (3.062, 283.80666), (3.062, 283.54666000000003), (10.196, 283.30728), (10.196, 283.18728), (0.3, 283.68), (0.3, 283.36), (3.062, 283.54666000000003), (3.062, 283.28666000000004), (3.062, 283.54666000000003), (3.062, 283.28666000000004), (10.196, 283.18728), (10.196, 283.06728)]</t>
+          <t>[(0.3, 284.0), (0.3, 283.68), (3.062, 283.80666), (3.062, 283.53666000000004), (3.062, 283.80666), (3.062, 283.53666000000004), (10.196, 283.30728), (10.196, 283.18728), (0.3, 283.68), (0.3, 283.36), (3.062, 283.53666000000004), (3.062, 283.26666), (3.062, 283.53666000000004), (3.062, 283.26666), (10.196, 283.18728), (10.196, 283.06728)]</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 286.0), (0.3, 285.7), (3.492, 285.77656), (3.492, 285.47656), (3.492, 285.77656), (3.492, 285.54656), (10.58, 285.2804), (10.58, 285.1604), (0.3, 285.7), (0.3, 285.4), (3.492, 285.47656), (3.492, 285.31656000000004), (3.492, 285.54656), (3.492, 285.31656000000004), (10.58, 285.1604), (10.58, 285.0404)]</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 287.0), (0.3, 286.71), (3.58, 286.7704), (3.58, 286.4804), (3.58, 286.7704), (3.58, 286.55039999999997), (10.78, 286.2664), (10.78, 286.14639999999997), (0.3, 286.71), (0.3, 286.42), (3.58, 286.4804), (3.58, 286.3204), (3.58, 286.55039999999997), (3.58, 286.3304), (10.78, 286.14639999999997), (10.78, 286.02639999999997)]</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[(0.3, 293.0), (0.3, 292.83), (3.239, 293.20573), (3.239, 293.03573), (3.239, 293.20573), (3.239, 293.04573), (10.339, 293.70273), (10.339, 293.42273), (0.3, 292.83), (0.3, 292.69), (3.239, 293.03573), (3.239, 292.87573000000003), (3.239, 293.04573), (3.239, 292.88573), (10.339, 293.42273), (10.339, 293.14273)]</t>
+          <t>[(0.3, 293.0), (0.3, 292.83), (3.239, 293.20573), (3.239, 293.03573), (3.239, 293.20573), (3.239, 293.03573), (10.339, 293.70273), (10.339, 293.42273), (0.3, 292.83), (0.3, 292.69), (3.239, 293.03573), (3.239, 292.86573000000004), (3.239, 293.03573), (3.239, 292.86573000000004), (10.339, 293.42273), (10.339, 293.14273)]</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[(0.3, 295.0), (0.3, 294.81), (3.079, 295.19453), (3.079, 295.00453), (3.079, 295.19453), (3.079, 295.01453), (10.201, 295.69307), (10.201, 295.37307), (0.3, 294.81), (0.3, 294.65), (3.079, 295.00453), (3.079, 294.82453), (3.079, 295.01453), (3.079, 294.83453), (10.201, 295.37307), (10.201, 295.05307)]</t>
+          <t>[(0.3, 295.0), (0.3, 294.81), (3.079, 295.19453), (3.079, 295.00453), (3.079, 295.19453), (3.079, 295.00453), (10.201, 295.69307), (10.201, 295.37307), (0.3, 294.81), (0.3, 294.65), (3.079, 295.00453), (3.079, 294.81453), (3.079, 295.00453), (3.079, 294.81453), (10.201, 295.37307), (10.201, 295.05307)]</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>[(0.3, 296.0), (0.3, 295.77), (3.014, 296.16372228346904), (3.014, 295.933722283469), (3.014, 296.16372228346904), (3.014, 295.943722283469), (10.132, 296.5931162457877), (10.132, 296.2731162457877), (0.3, 295.77), (0.3, 295.6), (3.014, 295.933722283469), (3.014, 295.71372228346905), (3.014, 295.943722283469), (3.014, 295.72372228346904), (10.132, 296.2731162457877), (10.132, 295.9531162457877)]</t>
+          <t>[(0.3, 296.0), (0.3, 295.78), (3.014, 296.16372228346904), (3.014, 295.943722283469), (3.014, 296.16372228346904), (3.014, 295.943722283469), (10.132, 296.5931162457877), (10.132, 296.2731162457877), (0.3, 295.78), (0.3, 295.6), (3.014, 295.943722283469), (3.014, 295.72372228346904), (3.014, 295.943722283469), (3.014, 295.72372228346904), (10.132, 296.2731162457877), (10.132, 295.9531162457877)]</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>[(0.3, 297.0), (0.3, 296.85), (2.96, 297.09292660444135), (2.96, 296.94292660444137), (2.96, 297.09292660444135), (2.96, 296.8029266044413), (10.109, 297.34267558758086), (10.109, 297.05267558758084), (0.3, 296.85), (0.3, 296.7), (2.96, 296.94292660444137), (2.96, 296.79292660444133), (2.96, 296.8029266044413), (2.96, 296.65292660444135), (10.109, 297.05267558758084), (10.109, 296.77267558758086), (0.3, 296.7), (0.3, 296.57), (2.96, 296.79292660444133), (2.96, 296.65292660444135), (2.96, 296.65292660444135), (2.96, 296.65292660444135), (10.109, 296.77267558758086), (10.109, 296.77267558758086)]</t>
+          <t>[(0.3, 297.0), (0.3, 296.85), (2.96, 297.09292660444135), (2.96, 296.94292660444137), (2.96, 297.09292660444135), (2.96, 296.8029266044413), (10.109, 297.34267558758086), (10.109, 297.05267558758084), (0.3, 296.85), (0.3, 296.7), (2.96, 296.94292660444137), (2.96, 296.79292660444133), (2.96, 296.8029266044413), (2.96, 296.65292660444135), (10.109, 297.05267558758084), (10.109, 296.7626755875809), (0.3, 296.7), (0.3, 296.57), (2.96, 296.79292660444133), (2.96, 296.65292660444135), (2.96, 296.65292660444135), (2.96, 296.65292660444135), (10.109, 296.7626755875809), (10.109, 296.7626755875809)]</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>[(0.3, 301.0), (0.3, 300.83), (3.307, 300.892809070455), (3.307, 300.72280907045496), (3.307, 300.892809070455), (3.307, 300.66280907045495), (10.541, 300.6349377088558), (10.541, 300.40493770885575), (0.3, 300.83), (0.3, 300.66), (3.307, 300.72280907045496), (3.307, 300.552809070455), (3.307, 300.66280907045495), (3.307, 300.432809070455), (10.541, 300.40493770885575), (10.541, 300.2349377088558), (0.3, 300.66), (0.3, 300.5), (3.307, 300.552809070455), (3.307, 300.432809070455), (3.307, 300.432809070455), (3.307, 300.432809070455), (10.541, 300.2349377088558), (10.541, 300.2349377088558)]</t>
+          <t>[(0.3, 301.0), (0.3, 300.83), (3.307, 300.892809070455), (3.307, 300.72280907045496), (3.307, 300.892809070455), (3.307, 300.66280907045495), (10.541, 300.6349377088558), (10.541, 300.40493770885575), (0.3, 300.83), (0.3, 300.66), (3.307, 300.72280907045496), (3.307, 300.552809070455), (3.307, 300.66280907045495), (3.307, 300.432809070455), (10.541, 300.40493770885575), (10.541, 300.22493770885575), (0.3, 300.66), (0.3, 300.5), (3.307, 300.552809070455), (3.307, 300.432809070455), (3.307, 300.432809070455), (3.307, 300.432809070455), (10.541, 300.22493770885575), (10.541, 300.22493770885575)]</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 304.0), (0.3, 303.74), (3.773, 303.75689), (3.773, 303.49689), (3.773, 303.75689), (3.773, 303.64689), (10.998, 303.25114), (10.998, 303.14114), (0.3, 303.74), (0.3, 303.48), (3.773, 303.49689), (3.773, 303.35689), (3.773, 303.64689), (3.773, 303.35689), (10.998, 303.14114), (10.998, 303.00114)]</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 305.0), (0.3, 304.76), (3.89, 304.7487), (3.89, 304.5087), (3.89, 304.7487), (3.89, 304.6387), (11.114, 304.24302), (11.114, 304.13302), (0.3, 304.76), (0.3, 304.52), (3.89, 304.5087), (3.89, 304.3787), (3.89, 304.6387), (3.89, 304.3787), (11.114, 304.13302), (11.114, 303.99302)]</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>[(0.3, 306.0), (0.3, 305.75), (3.987, 305.74191), (3.987, 305.49191), (3.987, 305.74191), (3.987, 305.63191), (11.199, 305.23707), (11.199, 305.12707), (0.3, 305.75), (0.3, 305.51), (3.987, 305.49191), (3.987, 305.34191000000004), (3.987, 305.63191), (3.987, 305.34191000000004), (11.199, 305.12707), (11.199, 304.98707)]</t>
+          <t>[(0.3, 306.0), (0.3, 305.75), (3.987, 305.74191), (3.987, 305.49191), (3.987, 305.74191), (3.987, 305.63191), (11.199, 305.23707), (11.199, 305.12707), (0.3, 305.75), (0.3, 305.51), (3.987, 305.49191), (3.987, 305.34191000000004), (3.987, 305.63191), (3.987, 305.34191000000004), (11.199, 305.12707), (11.199, 304.97707)]</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 307.0), (0.3, 306.75), (4.097, 306.73421), (4.097, 306.48421), (4.097, 306.73421), (4.097, 306.62421), (11.306, 306.22958), (11.306, 306.11958), (0.3, 306.75), (0.3, 306.5), (4.097, 306.48421), (4.097, 306.33421000000004), (4.097, 306.62421), (4.097, 306.33421000000004), (11.306, 306.11958), (11.306, 305.97958)]</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[(0.3, 308.0), (0.3, 307.74), (4.2, 307.727), (4.2, 307.467), (4.2, 307.727), (4.2, 307.61699999999996), (11.38, 307.2244), (11.38, 307.1144), (0.3, 307.74), (0.3, 307.49), (4.2, 307.467), (4.2, 307.31699999999995), (4.2, 307.61699999999996), (4.2, 307.31699999999995), (11.38, 307.1144), (11.38, 306.94440000000003)]</t>
+          <t>[(0.3, 308.0), (0.3, 307.74), (4.2, 307.727), (4.2, 307.467), (4.2, 307.727), (4.2, 307.61699999999996), (11.38, 307.2244), (11.38, 307.1144), (0.3, 307.74), (0.3, 307.49), (4.2, 307.467), (4.2, 307.327), (4.2, 307.61699999999996), (4.2, 307.327), (11.38, 307.1144), (11.38, 306.94440000000003)]</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[(0.3, 309.0), (0.3, 308.71), (4.209, 308.72637), (4.209, 308.43636999999995), (4.209, 308.72637), (4.209, 308.59637), (11.416, 308.22188), (11.416, 308.09188), (0.3, 308.71), (0.3, 308.43), (4.209, 308.43636999999995), (4.209, 308.29636999999997), (4.209, 308.59637), (4.209, 308.29636999999997), (11.416, 308.09188), (11.416, 307.94188)]</t>
+          <t>[(0.3, 309.0), (0.3, 308.71), (4.209, 308.72637), (4.209, 308.43636999999995), (4.209, 308.72637), (4.209, 308.59637), (11.416, 308.22188), (11.416, 308.09188), (0.3, 308.71), (0.3, 308.43), (4.209, 308.43636999999995), (4.209, 308.29636999999997), (4.209, 308.59637), (4.209, 308.29636999999997), (11.416, 308.09188), (11.416, 307.93188)]</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 310.0), (0.3, 309.77), (4.296, 309.72028), (4.296, 309.49028), (4.296, 309.72028), (4.296, 309.61028), (11.548, 309.21264), (11.548, 309.10264), (0.3, 309.77), (0.3, 309.47), (4.296, 309.49028), (4.296, 309.36028), (4.296, 309.61028), (4.296, 309.36028), (11.548, 309.10264), (11.548, 308.96264)]</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 311.0), (0.3, 310.72), (4.37, 310.7151), (4.37, 310.43510000000003), (4.37, 310.7151), (4.37, 310.6051), (11.586, 310.20998), (11.586, 310.09997999999996), (0.3, 310.72), (0.3, 310.44), (4.37, 310.43510000000003), (4.37, 310.3051), (4.37, 310.6051), (4.37, 310.3051), (11.586, 310.09997999999996), (11.586, 309.95998)]</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 312.0), (0.3, 311.73), (4.435, 311.71055), (4.435, 311.44055000000003), (4.435, 311.71055), (4.435, 311.59055), (11.609, 311.20837), (11.609, 311.08837), (0.3, 311.73), (0.3, 311.46), (4.435, 311.44055000000003), (4.435, 311.29055), (4.435, 311.59055), (4.435, 311.29055), (11.609, 311.08837), (11.609, 310.95837)]</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[(0.3, 313.0), (0.3, 312.74), (4.512, 312.70516), (4.512, 312.44516), (4.512, 312.70516), (4.512, 312.59515999999996), (11.664, 312.20452), (11.664, 312.09452), (0.3, 312.74), (0.3, 312.48), (4.512, 312.44516), (4.512, 312.33516), (4.512, 312.59515999999996), (4.512, 312.33516), (11.664, 312.09452), (11.664, 311.95452)]</t>
+          <t>[(0.3, 313.0), (0.3, 312.74), (4.512, 312.70516), (4.512, 312.44516), (4.512, 312.70516), (4.512, 312.59515999999996), (11.664, 312.20452), (11.664, 312.09452), (0.3, 312.74), (0.3, 312.48), (4.512, 312.44516), (4.512, 312.32516), (4.512, 312.59515999999996), (4.512, 312.32516), (11.664, 312.09452), (11.664, 311.95452)]</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>[(0.3, 314.0), (0.3, 313.66), (4.383, 313.71419), (4.383, 313.45419), (4.383, 313.71419), (4.383, 313.45419), (11.56, 313.2118), (11.56, 313.0618), (0.3, 313.66), (0.3, 313.32), (4.383, 313.45419), (4.383, 313.19419), (4.383, 313.45419), (4.383, 313.19419), (11.56, 313.0618), (11.56, 312.91179999999997)]</t>
+          <t>[(0.3, 314.0), (0.3, 313.66), (4.383, 313.71419), (4.383, 313.45419), (4.383, 313.71419), (4.383, 313.45419), (11.56, 313.2118), (11.56, 313.05179999999996), (0.3, 313.66), (0.3, 313.32), (4.383, 313.45419), (4.383, 313.19419), (4.383, 313.45419), (4.383, 313.19419), (11.56, 313.05179999999996), (11.56, 312.8918)]</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 315.0), (0.3, 314.73), (4.155, 314.74359494560684), (4.155, 314.47359494560686), (4.155, 314.74359494560684), (4.155, 314.63359494560683), (11.354, 314.264772640399), (11.354, 314.15477264039896), (0.3, 314.73), (0.3, 314.46), (4.155, 314.47359494560686), (4.155, 314.35359494560686), (4.155, 314.63359494560683), (4.155, 314.35359494560686), (11.354, 314.15477264039896), (11.354, 314.014772640399)]</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>[(0.3, 317.0), (0.3, 316.81), (4.011, 316.82217892030485), (4.011, 316.63217892030485), (4.011, 316.82217892030485), (4.011, 316.57217892030485), (10.917, 316.49126208484944), (10.917, 316.24126208484944), (0.3, 316.81), (0.3, 316.62), (4.011, 316.63217892030485), (4.011, 316.44217892030485), (4.011, 316.57217892030485), (4.011, 316.33217892030484), (10.917, 316.24126208484944), (10.917, 316.09126208484946), (0.3, 316.62), (0.3, 316.43), (4.011, 316.44217892030485), (4.011, 316.33217892030484), (4.011, 316.33217892030484), (4.011, 316.33217892030484), (10.917, 316.09126208484946), (10.917, 316.09126208484946)]</t>
+          <t>[(0.3, 317.0), (0.3, 316.81), (4.011, 316.82217892030485), (4.011, 316.63217892030485), (4.011, 316.82217892030485), (4.011, 316.57217892030485), (10.917, 316.49126208484944), (10.917, 316.24126208484944), (0.3, 316.81), (0.3, 316.62), (4.011, 316.63217892030485), (4.011, 316.44217892030485), (4.011, 316.57217892030485), (4.011, 316.32217892030485), (10.917, 316.24126208484944), (10.917, 316.09126208484946), (0.3, 316.62), (0.3, 316.43), (4.011, 316.44217892030485), (4.011, 316.32217892030485), (4.011, 316.32217892030485), (4.011, 316.32217892030485), (10.917, 316.09126208484946), (10.917, 316.09126208484946)]</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>[(0.3, 318.0), (0.3, 317.75), (3.772, 317.86591214541335), (3.772, 317.61591214541335), (3.772, 317.86591214541335), (3.772, 317.6459121454133), (10.741, 317.5967709418954), (10.741, 317.37677094189536), (0.3, 317.75), (0.3, 317.5), (3.772, 317.61591214541335), (3.772, 317.43591214541334), (3.772, 317.6459121454133), (3.772, 317.43591214541334), (10.741, 317.37677094189536), (10.741, 317.1967709418954)]</t>
+          <t>[(0.3, 318.0), (0.3, 317.75), (3.772, 317.86591214541335), (3.772, 317.61591214541335), (3.772, 317.86591214541335), (3.772, 317.65591214541337), (10.741, 317.5967709418954), (10.741, 317.3867709418954), (0.3, 317.75), (0.3, 317.5), (3.772, 317.61591214541335), (3.772, 317.44591214541333), (3.772, 317.65591214541337), (3.772, 317.44591214541333), (10.741, 317.3867709418954), (10.741, 317.1967709418954)]</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[(0.3, 320.0), (0.3, 319.84), (3.606, 319.91735), (3.606, 319.75735), (3.606, 319.91735), (3.606, 319.75735), (10.674, 319.74065), (10.674, 319.58065), (0.3, 319.84), (0.3, 319.68), (3.606, 319.75735), (3.606, 319.59735), (3.606, 319.75735), (3.606, 319.59735), (10.674, 319.58065), (10.674, 319.42065), (0.3, 319.68), (0.3, 319.52), (3.606, 319.59735), (3.606, 319.48735), (3.606, 319.59735), (3.606, 319.48735), (10.674, 319.42065), (10.674, 319.27065)]</t>
+          <t>[(0.3, 320.0), (0.3, 319.84), (3.606, 319.91735), (3.606, 319.75735), (3.606, 319.91735), (3.606, 319.75735), (10.674, 319.74065), (10.674, 319.58065), (0.3, 319.84), (0.3, 319.68), (3.606, 319.75735), (3.606, 319.59735), (3.606, 319.75735), (3.606, 319.59735), (10.674, 319.58065), (10.674, 319.42065), (0.3, 319.68), (0.3, 319.52), (3.606, 319.59735), (3.606, 319.48735), (3.606, 319.59735), (3.606, 319.48735), (10.674, 319.42065), (10.674, 319.28065000000004)]</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>[(0.3, 322.0), (0.3, 321.73), (3.648, 321.9163), (3.648, 321.6463), (3.648, 321.9163), (3.648, 321.69629999999995), (10.628, 321.7418), (10.628, 321.5218), (0.3, 321.73), (0.3, 321.46), (3.648, 321.6463), (3.648, 321.4763), (3.648, 321.69629999999995), (3.648, 321.4763), (10.628, 321.5218), (10.628, 321.3718)]</t>
+          <t>[(0.3, 322.0), (0.3, 321.73), (3.648, 321.9163), (3.648, 321.6463), (3.648, 321.9163), (3.648, 321.69629999999995), (10.628, 321.7418), (10.628, 321.5218), (0.3, 321.73), (0.3, 321.46), (3.648, 321.6463), (3.648, 321.48629999999997), (3.648, 321.69629999999995), (3.648, 321.48629999999997), (10.628, 321.5218), (10.628, 321.3718)]</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>[(0.3, 323.0), (0.3, 322.72), (3.651, 322.916225), (3.651, 322.636225), (3.651, 322.916225), (3.651, 322.776225), (10.623, 322.741925), (10.623, 322.601925), (0.3, 322.72), (0.3, 322.45), (3.651, 322.636225), (3.651, 322.526225), (3.651, 322.776225), (3.651, 322.636225), (10.623, 322.601925), (10.623, 322.461925)]</t>
+          <t>[(0.3, 323.0), (0.3, 322.72), (3.651, 322.916225), (3.651, 322.636225), (3.651, 322.916225), (3.651, 322.716225), (10.623, 322.741925), (10.623, 322.541925), (0.3, 322.72), (0.3, 322.45), (3.651, 322.636225), (3.651, 322.526225), (3.651, 322.716225), (3.651, 322.526225), (10.623, 322.541925), (10.623, 322.361925)]</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>[(0.3, 324.0), (0.3, 323.74), (3.621, 323.916975), (3.621, 323.656975), (3.621, 323.916975), (3.621, 323.716975), (10.615, 323.742125), (10.615, 323.542125), (0.3, 323.74), (0.3, 323.48), (3.621, 323.656975), (3.621, 323.526975), (3.621, 323.716975), (3.621, 323.526975), (10.615, 323.542125), (10.615, 323.372125)]</t>
+          <t>[(0.3, 324.0), (0.3, 323.74), (3.621, 323.916975), (3.621, 323.656975), (3.621, 323.916975), (3.621, 323.716975), (10.615, 323.742125), (10.615, 323.542125), (0.3, 323.74), (0.3, 323.48), (3.621, 323.656975), (3.621, 323.516975), (3.621, 323.716975), (3.621, 323.516975), (10.615, 323.542125), (10.615, 323.372125)]</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[(0.3, 325.0), (0.3, 324.73), (3.549, 324.918775), (3.549, 324.648775), (3.549, 324.918775), (3.549, 324.718775), (10.578, 324.74305), (10.578, 324.54305), (0.3, 324.73), (0.3, 324.46), (3.549, 324.648775), (3.549, 324.528775), (3.549, 324.718775), (3.549, 324.528775), (10.578, 324.54305), (10.578, 324.36305)]</t>
+          <t>[(0.3, 325.0), (0.3, 324.73), (3.549, 324.918775), (3.549, 324.648775), (3.549, 324.918775), (3.549, 324.788775), (10.578, 324.74305), (10.578, 324.61305), (0.3, 324.73), (0.3, 324.46), (3.549, 324.648775), (3.549, 324.538775), (3.549, 324.788775), (3.549, 324.658775), (10.578, 324.61305), (10.578, 324.48305)]</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>[(0.3, 328.0), (0.3, 327.76), (3.437, 327.921575), (3.437, 327.681575), (3.437, 327.921575), (3.437, 327.731575), (10.443, 327.746425), (10.443, 327.556425), (0.3, 327.76), (0.3, 327.52), (3.437, 327.681575), (3.437, 327.541575), (3.437, 327.731575), (3.437, 327.541575), (10.443, 327.556425), (10.443, 327.386425)]</t>
+          <t>[(0.3, 328.0), (0.3, 327.76), (3.437, 327.921575), (3.437, 327.681575), (3.437, 327.921575), (3.437, 327.791575), (10.443, 327.746425), (10.443, 327.616425), (0.3, 327.76), (0.3, 327.52), (3.437, 327.681575), (3.437, 327.541575), (3.437, 327.791575), (3.437, 327.661575), (10.443, 327.616425), (10.443, 327.486425)]</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>[(0.3, 331.0), (0.3, 330.83), (3.135, 330.9124679779202), (3.135, 330.74246797792017), (3.135, 330.9124679779202), (3.135, 330.7224679779202), (10.237, 330.6931902280752), (10.237, 330.5031902280752), (0.3, 330.83), (0.3, 330.72), (3.135, 330.74246797792017), (3.135, 330.5824679779202), (3.135, 330.7224679779202), (3.135, 330.5824679779202), (10.237, 330.5031902280752), (10.237, 330.3131902280752)]</t>
+          <t>[(0.3, 331.0), (0.3, 330.83), (3.135, 330.9124679779202), (3.135, 330.74246797792017), (3.135, 330.9124679779202), (3.135, 330.7124679779202), (10.237, 330.6931902280752), (10.237, 330.4931902280752), (0.3, 330.83), (0.3, 330.72), (3.135, 330.74246797792017), (3.135, 330.5824679779202), (3.135, 330.7124679779202), (3.135, 330.5824679779202), (10.237, 330.4931902280752), (10.237, 330.3031902280752)]</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>[(0.3, 332.0), (0.3, 331.8), (3.172, 331.8832787096867), (3.172, 331.6832787096867), (3.172, 331.8832787096867), (3.172, 331.7432787096867), (10.192, 331.59797806275105), (10.192, 331.45797806275107), (0.3, 331.8), (0.3, 331.62), (3.172, 331.6832787096867), (3.172, 331.4932787096867), (3.172, 331.7432787096867), (3.172, 331.6032787096867), (10.192, 331.45797806275107), (10.192, 331.3179780627511)]</t>
+          <t>[(0.3, 332.0), (0.3, 331.86), (3.172, 331.8832787096867), (3.172, 331.7432787096867), (3.172, 331.8832787096867), (3.172, 331.7432787096867), (10.192, 331.59797806275105), (10.192, 331.45797806275107), (0.3, 331.86), (0.3, 331.72), (3.172, 331.7432787096867), (3.172, 331.6032787096867), (3.172, 331.7432787096867), (3.172, 331.6032787096867), (10.192, 331.45797806275107), (10.192, 331.3179780627511), (0.3, 331.72), (0.3, 331.61), (3.172, 331.6032787096867), (3.172, 331.4932787096867), (3.172, 331.6032787096867), (3.172, 331.4932787096867), (10.192, 331.3179780627511), (10.192, 331.20797806275107)]</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>[(0.3, 333.0), (0.3, 332.85), (3.37, 332.84525129961287), (3.37, 332.6952512996129), (3.37, 332.84525129961287), (3.37, 332.6352512996129), (10.283, 332.4967894866565), (10.283, 332.2867894866565), (0.3, 332.85), (0.3, 332.7), (3.37, 332.6952512996129), (3.37, 332.54525129961286), (3.37, 332.6352512996129), (3.37, 332.42525129961285), (10.283, 332.2867894866565), (10.283, 332.1367894866565), (0.3, 332.7), (0.3, 332.59), (3.37, 332.54525129961286), (3.37, 332.42525129961285), (3.37, 332.42525129961285), (3.37, 332.42525129961285), (10.283, 332.1367894866565), (10.283, 332.1367894866565)]</t>
+          <t>[(0.3, 333.0), (0.3, 332.85), (3.37, 332.84525129961287), (3.37, 332.6952512996129), (3.37, 332.84525129961287), (3.37, 332.6352512996129), (10.283, 332.4967894866565), (10.283, 332.2867894866565), (0.3, 332.85), (0.3, 332.7), (3.37, 332.6952512996129), (3.37, 332.54525129961286), (3.37, 332.6352512996129), (3.37, 332.42525129961285), (10.283, 332.2867894866565), (10.283, 332.1367894866565), (0.3, 332.7), (0.3, 332.58), (3.37, 332.54525129961286), (3.37, 332.42525129961285), (3.37, 332.42525129961285), (3.37, 332.42525129961285), (10.283, 332.1367894866565), (10.283, 332.1367894866565)]</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[(0.3, 334.0), (0.3, 333.84), (3.565, 333.80353721914247), (3.565, 333.64353721914244), (3.565, 333.80353721914247), (3.565, 333.58353721914244), (10.399, 333.39231925761703), (10.399, 333.172319257617), (0.3, 333.84), (0.3, 333.68), (3.565, 333.64353721914244), (3.565, 333.4835372191425), (3.565, 333.58353721914244), (3.565, 333.37353721914246), (10.399, 333.172319257617), (10.399, 333.042319257617), (0.3, 333.68), (0.3, 333.54), (3.565, 333.4835372191425), (3.565, 333.37353721914246), (3.565, 333.37353721914246), (3.565, 333.37353721914246), (10.399, 333.042319257617), (10.399, 333.042319257617)]</t>
+          <t>[(0.3, 334.0), (0.3, 333.84), (3.565, 333.80353721914247), (3.565, 333.64353721914244), (3.565, 333.80353721914247), (3.565, 333.58353721914244), (10.399, 333.39231925761703), (10.399, 333.172319257617), (0.3, 333.84), (0.3, 333.68), (3.565, 333.64353721914244), (3.565, 333.4835372191425), (3.565, 333.58353721914244), (3.565, 333.37353721914246), (10.399, 333.172319257617), (10.399, 333.032319257617), (0.3, 333.68), (0.3, 333.53), (3.565, 333.4835372191425), (3.565, 333.37353721914246), (3.565, 333.37353721914246), (3.565, 333.37353721914246), (10.399, 333.032319257617), (10.399, 333.032319257617)]</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[(0.3, 335.0), (0.3, 334.78), (3.711, 334.7614415065691), (3.711, 334.5414415065691), (3.711, 334.7614415065691), (3.711, 334.6514415065691), (10.58, 334.28103743404574), (10.58, 334.17103743404573), (0.3, 334.78), (0.3, 334.56), (3.711, 334.5414415065691), (3.711, 334.3814415065691), (3.711, 334.6514415065691), (3.711, 334.3814415065691), (10.58, 334.17103743404573), (10.58, 334.00103743404577)]</t>
+          <t>[(0.3, 335.0), (0.3, 334.78), (3.711, 334.7614415065691), (3.711, 334.5414415065691), (3.711, 334.7614415065691), (3.711, 334.6514415065691), (10.58, 334.28103743404574), (10.58, 334.17103743404573), (0.3, 334.78), (0.3, 334.56), (3.711, 334.5414415065691), (3.711, 334.3714415065691), (3.711, 334.6514415065691), (3.711, 334.3714415065691), (10.58, 334.17103743404573), (10.58, 333.9910374340457)]</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>[(0.3, 336.0), (0.3, 335.85), (3.815, 335.75395), (3.815, 335.60395), (3.815, 335.75395), (3.815, 335.53394999999995), (10.735, 335.26955), (10.735, 335.04954999999995), (0.3, 335.85), (0.3, 335.7), (3.815, 335.60395), (3.815, 335.45394999999996), (3.815, 335.53394999999995), (3.815, 335.32394999999997), (10.735, 335.04954999999995), (10.735, 334.92955), (0.3, 335.7), (0.3, 335.55), (3.815, 335.45394999999996), (3.815, 335.32394999999997), (3.815, 335.32394999999997), (3.815, 335.32394999999997), (10.735, 334.92955), (10.735, 334.92955)]</t>
+          <t>[(0.3, 336.0), (0.3, 335.84), (3.815, 335.75395), (3.815, 335.59394999999995), (3.815, 335.75395), (3.815, 335.53394999999995), (10.735, 335.26955), (10.735, 335.04954999999995), (0.3, 335.84), (0.3, 335.68), (3.815, 335.59394999999995), (3.815, 335.43395), (3.815, 335.53394999999995), (3.815, 335.31395), (10.735, 335.04954999999995), (10.735, 334.91954999999996), (0.3, 335.68), (0.3, 335.54), (3.815, 335.43395), (3.815, 335.31395), (3.815, 335.31395), (3.815, 335.31395), (10.735, 334.91954999999996), (10.735, 334.91954999999996)]</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[(0.3, 337.0), (0.3, 336.77), (3.96, 336.7438), (3.96, 336.5138), (3.96, 336.7438), (3.96, 336.53380000000004), (10.866, 336.26038), (10.866, 336.05038), (0.3, 336.77), (0.3, 336.54), (3.96, 336.5138), (3.96, 336.3238), (3.96, 336.53380000000004), (3.96, 336.3238), (10.866, 336.05038), (10.866, 335.92038)]</t>
+          <t>[(0.3, 337.0), (0.3, 336.84), (3.96, 336.7438), (3.96, 336.5838), (3.96, 336.7438), (3.96, 336.5238), (10.866, 336.26038), (10.866, 336.04037999999997), (0.3, 336.84), (0.3, 336.68), (3.96, 336.5838), (3.96, 336.4238), (3.96, 336.5238), (3.96, 336.3138), (10.866, 336.04037999999997), (10.866, 335.91038), (0.3, 336.68), (0.3, 336.52), (3.96, 336.4238), (3.96, 336.3138), (3.96, 336.3138), (3.96, 336.3138), (10.866, 335.91038), (10.866, 335.91038)]</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[(0.3, 338.0), (0.3, 337.85), (4.13, 337.7319), (4.13, 337.5819), (4.13, 337.7319), (4.13, 337.5219), (11.031, 337.24883), (11.031, 337.03883), (0.3, 337.85), (0.3, 337.7), (4.13, 337.5819), (4.13, 337.4319), (4.13, 337.5219), (4.13, 337.3119), (11.031, 337.03883), (11.031, 336.91883), (0.3, 337.7), (0.3, 337.55), (4.13, 337.4319), (4.13, 337.3119), (4.13, 337.3119), (4.13, 337.3119), (11.031, 336.91883), (11.031, 336.91883)]</t>
+          <t>[(0.3, 338.0), (0.3, 337.84), (4.13, 337.7319), (4.13, 337.57189999999997), (4.13, 337.7319), (4.13, 337.51189999999997), (11.031, 337.24883), (11.031, 337.02882999999997), (0.3, 337.84), (0.3, 337.68), (4.13, 337.57189999999997), (4.13, 337.4119), (4.13, 337.51189999999997), (4.13, 337.3019), (11.031, 337.02882999999997), (11.031, 336.90883), (0.3, 337.68), (0.3, 337.53), (4.13, 337.4119), (4.13, 337.3019), (4.13, 337.3019), (4.13, 337.3019), (11.031, 336.90883), (11.031, 336.90883)]</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>[(0.3, 339.0), (0.3, 338.85), (4.233, 338.72469), (4.233, 338.57469000000003), (4.233, 338.72469), (4.233, 338.50469), (11.118, 338.24274), (11.118, 338.02274), (0.3, 338.85), (0.3, 338.7), (4.233, 338.57469000000003), (4.233, 338.42469), (4.233, 338.50469), (4.233, 338.29469), (11.118, 338.02274), (11.118, 337.89274), (0.3, 338.7), (0.3, 338.55), (4.233, 338.42469), (4.233, 338.29469), (4.233, 338.29469), (4.233, 338.29469), (11.118, 337.89274), (11.118, 337.89274)]</t>
+          <t>[(0.3, 339.0), (0.3, 338.84), (4.233, 338.72469), (4.233, 338.56469), (4.233, 338.72469), (4.233, 338.49469), (11.118, 338.24274), (11.118, 338.01274), (0.3, 338.84), (0.3, 338.68), (4.233, 338.56469), (4.233, 338.40469), (4.233, 338.49469), (4.233, 338.27469), (11.118, 338.01274), (11.118, 337.88274), (0.3, 338.68), (0.3, 338.53), (4.233, 338.40469), (4.233, 338.27469), (4.233, 338.27469), (4.233, 338.27469), (11.118, 337.88274), (11.118, 337.88274)]</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>[(0.3, 340.0), (0.3, 339.77), (4.411, 339.71223), (4.411, 339.48222999999996), (4.411, 339.71223), (4.411, 339.50223), (11.35, 339.2265), (11.35, 339.0165), (0.3, 339.77), (0.3, 339.54), (4.411, 339.48222999999996), (4.411, 339.30222999999995), (4.411, 339.50223), (4.411, 339.30222999999995), (11.35, 339.0165), (11.35, 338.9065)]</t>
+          <t>[(0.3, 340.0), (0.3, 339.76), (4.411, 339.71223), (4.411, 339.47222999999997), (4.411, 339.71223), (4.411, 339.50223), (11.35, 339.2265), (11.35, 339.0165), (0.3, 339.76), (0.3, 339.52), (4.411, 339.47222999999997), (4.411, 339.29222999999996), (4.411, 339.50223), (4.411, 339.29222999999996), (11.35, 339.0165), (11.35, 338.8865)]</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[(0.3, 341.0), (0.3, 340.75), (4.508, 340.70544), (4.508, 340.45544), (4.508, 340.70544), (4.508, 340.51544), (11.402, 340.22286), (11.402, 340.03286), (0.3, 340.75), (0.3, 340.51), (4.508, 340.45544), (4.508, 340.32544), (4.508, 340.51544), (4.508, 340.32544), (11.402, 340.03286), (11.402, 339.92286)]</t>
+          <t>[(0.3, 341.0), (0.3, 340.74), (4.508, 340.70544), (4.508, 340.44544), (4.508, 340.70544), (4.508, 340.50544), (11.402, 340.22286), (11.402, 340.02286000000004), (0.3, 340.74), (0.3, 340.49), (4.508, 340.44544), (4.508, 340.30544000000003), (4.508, 340.50544), (4.508, 340.30544000000003), (11.402, 340.02286000000004), (11.402, 339.90286000000003)]</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 342.0), (0.3, 341.79), (4.689, 341.69277), (4.689, 341.48277), (4.689, 341.69277), (4.689, 341.58277), (11.534, 341.21362), (11.534, 341.10362), (0.3, 341.79), (0.3, 341.59), (4.689, 341.48277), (4.689, 341.33277), (4.689, 341.58277), (4.689, 341.33277), (11.534, 341.10362), (11.534, 340.94362)]</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 343.0), (0.3, 342.8), (4.619, 342.7224780439515), (4.619, 342.52247804395154), (4.619, 342.7224780439515), (4.619, 342.6124780439515), (11.398, 342.2868861615591), (11.398, 342.1768861615591), (0.3, 342.8), (0.3, 342.61), (4.619, 342.52247804395154), (4.619, 342.38247804395155), (4.619, 342.6124780439515), (4.619, 342.38247804395155), (11.398, 342.1768861615591), (11.398, 342.0368861615591)]</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>[(0.3, 344.0), (0.3, 343.78), (4.439, 343.774464057998), (4.439, 343.55446405799796), (4.439, 343.774464057998), (4.439, 343.584464057998), (11.241, 343.4038200673004), (11.241, 343.2138200673004), (0.3, 343.78), (0.3, 343.56), (4.439, 343.55446405799796), (4.439, 343.404464057998), (4.439, 343.584464057998), (4.439, 343.404464057998), (11.241, 343.2138200673004), (11.241, 343.1038200673004)]</t>
+          <t>[(0.3, 344.0), (0.3, 343.77), (4.439, 343.774464057998), (4.439, 343.54446405799797), (4.439, 343.774464057998), (4.439, 343.574464057998), (11.241, 343.4038200673004), (11.241, 343.2038200673004), (0.3, 343.77), (0.3, 343.54), (4.439, 343.54446405799797), (4.439, 343.384464057998), (4.439, 343.574464057998), (4.439, 343.384464057998), (11.241, 343.2038200673004), (11.241, 343.0838200673004)]</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[(0.3, 345.0), (0.3, 344.85), (4.277, 344.82212940032736), (4.277, 344.6721294003274), (4.277, 344.82212940032736), (4.277, 344.6021294003273), (11.099, 344.51701669452734), (11.099, 344.2970166945273), (0.3, 344.85), (0.3, 344.7), (4.277, 344.6721294003274), (4.277, 344.52212940032734), (4.277, 344.6021294003273), (4.277, 344.39212940032735), (11.099, 344.2970166945273), (11.099, 344.13701669452735), (0.3, 344.7), (0.3, 344.56), (4.277, 344.52212940032734), (4.277, 344.39212940032735), (4.277, 344.39212940032735), (4.277, 344.39212940032735), (11.099, 344.13701669452735), (11.099, 344.13701669452735)]</t>
+          <t>[(0.3, 345.0), (0.3, 344.85), (4.277, 344.82212940032736), (4.277, 344.6721294003274), (4.277, 344.82212940032736), (4.277, 344.59212940032734), (11.099, 344.51701669452734), (11.099, 344.2870166945273), (0.3, 344.85), (0.3, 344.7), (4.277, 344.6721294003274), (4.277, 344.52212940032734), (4.277, 344.59212940032734), (4.277, 344.37212940032737), (11.099, 344.2870166945273), (11.099, 344.11701669452736), (0.3, 344.7), (0.3, 344.55), (4.277, 344.52212940032734), (4.277, 344.37212940032737), (4.277, 344.37212940032737), (4.277, 344.37212940032737), (11.099, 344.11701669452736), (11.099, 344.11701669452736)]</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>[(0.3, 346.0), (0.3, 345.87), (4.095, 345.8673298640091), (4.095, 345.7373298640091), (4.095, 345.8673298640091), (4.095, 345.6773298640091), (10.887, 345.62988702773765), (10.887, 345.43988702773765), (0.3, 345.87), (0.3, 345.74), (4.095, 345.7373298640091), (4.095, 345.6073298640091), (4.095, 345.6773298640091), (4.095, 345.4873298640091), (10.887, 345.43988702773765), (10.887, 345.24988702773766), (0.3, 345.74), (0.3, 345.61), (4.095, 345.6073298640091), (4.095, 345.4773298640091), (4.095, 345.4873298640091), (4.095, 345.3673298640091), (10.887, 345.24988702773766), (10.887, 345.07988702773764), (0.3, 345.61), (0.3, 345.5), (4.095, 345.4773298640091), (4.095, 345.3673298640091), (4.095, 345.3673298640091), (4.095, 345.3673298640091), (10.887, 345.07988702773764), (10.887, 345.07988702773764)]</t>
+          <t>[(0.3, 346.0), (0.3, 345.82), (4.095, 345.8673298640091), (4.095, 345.6873298640091), (4.095, 345.8673298640091), (4.095, 345.6773298640091), (10.887, 345.62988702773765), (10.887, 345.43988702773765), (0.3, 345.82), (0.3, 345.64), (4.095, 345.6873298640091), (4.095, 345.5073298640091), (4.095, 345.6773298640091), (4.095, 345.4873298640091), (10.887, 345.43988702773765), (10.887, 345.24988702773766), (0.3, 345.64), (0.3, 345.48), (4.095, 345.5073298640091), (4.095, 345.3473298640091), (4.095, 345.4873298640091), (4.095, 345.3473298640091), (10.887, 345.24988702773766), (10.887, 345.06988702773765)]</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[(0.3, 347.0), (0.3, 346.81), (3.977, 346.9073632518632), (3.977, 346.7173632518632), (3.977, 346.9073632518632), (3.977, 346.7073632518632), (10.773, 346.73614776632127), (10.773, 346.5361477663213), (0.3, 346.81), (0.3, 346.62), (3.977, 346.7173632518632), (3.977, 346.5273632518632), (3.977, 346.7073632518632), (3.977, 346.50736325186324), (10.773, 346.5361477663213), (10.773, 346.3361477663213), (0.3, 346.62), (0.3, 346.43), (3.977, 346.5273632518632), (3.977, 346.3573632518632), (3.977, 346.50736325186324), (3.977, 346.3573632518632), (10.773, 346.3361477663213), (10.773, 346.13614776632124)]</t>
+          <t>[(0.3, 347.0), (0.3, 346.85), (3.977, 346.9073632518632), (3.977, 346.75736325186324), (3.977, 346.9073632518632), (3.977, 346.69736325186324), (10.773, 346.73614776632127), (10.773, 346.5261477663213), (0.3, 346.85), (0.3, 346.7), (3.977, 346.75736325186324), (3.977, 346.6073632518632), (3.977, 346.69736325186324), (3.977, 346.4873632518632), (10.773, 346.5261477663213), (10.773, 346.31614776632125), (0.3, 346.7), (0.3, 346.55), (3.977, 346.6073632518632), (3.977, 346.4573632518632), (3.977, 346.4873632518632), (3.977, 346.3473632518632), (10.773, 346.31614776632125), (10.773, 346.12614776632125), (0.3, 346.55), (0.3, 346.42), (3.977, 346.4573632518632), (3.977, 346.3473632518632), (3.977, 346.3473632518632), (3.977, 346.3473632518632), (10.773, 346.12614776632125), (10.773, 346.12614776632125)]</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>[(0.3, 348.0), (0.3, 347.71), (3.862, 347.91095), (3.862, 347.62095), (3.862, 347.91095), (3.862, 347.74095), (10.664, 347.7409), (10.664, 347.5709), (0.3, 347.71), (0.3, 347.43), (3.862, 347.62095), (3.862, 347.44095), (3.862, 347.74095), (3.862, 347.57095000000004), (10.664, 347.5709), (10.664, 347.40090000000004)]</t>
+          <t>[(0.3, 348.0), (0.3, 347.7), (3.862, 347.91095), (3.862, 347.61095), (3.862, 347.91095), (3.862, 347.73095), (10.664, 347.7409), (10.664, 347.5609), (0.3, 347.7), (0.3, 347.41), (3.862, 347.61095), (3.862, 347.42095), (3.862, 347.73095), (3.862, 347.55095), (10.664, 347.5609), (10.664, 347.3809)]</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[(0.3, 349.0), (0.3, 348.7), (3.777, 348.913075), (3.777, 348.673075), (3.777, 348.913075), (3.777, 348.75307499999997), (10.611, 348.742225), (10.611, 348.582225), (0.3, 348.7), (0.3, 348.4), (3.777, 348.673075), (3.777, 348.433075), (3.777, 348.75307499999997), (3.777, 348.593075), (10.611, 348.582225), (10.611, 348.422225)]</t>
+          <t>[(0.3, 349.0), (0.3, 348.69), (3.777, 348.913075), (3.777, 348.673075), (3.777, 348.913075), (3.777, 348.75307499999997), (10.611, 348.742225), (10.611, 348.582225), (0.3, 348.69), (0.3, 348.38), (3.777, 348.673075), (3.777, 348.433075), (3.777, 348.75307499999997), (3.777, 348.593075), (10.611, 348.582225), (10.611, 348.422225)]</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[(0.3, 350.0), (0.3, 349.73), (3.747, 349.913825), (3.747, 349.643825), (3.747, 349.913825), (3.747, 349.69382499999995), (10.563, 349.743425), (10.563, 349.523425), (0.3, 349.73), (0.3, 349.46), (3.747, 349.643825), (3.747, 349.523825), (3.747, 349.69382499999995), (3.747, 349.523825), (10.563, 349.523425), (10.563, 349.313425)]</t>
+          <t>[(0.3, 350.0), (0.3, 349.72), (3.747, 349.913825), (3.747, 349.633825), (3.747, 349.913825), (3.747, 349.69382499999995), (10.563, 349.743425), (10.563, 349.523425), (0.3, 349.72), (0.3, 349.45), (3.747, 349.633825), (3.747, 349.513825), (3.747, 349.69382499999995), (3.747, 349.513825), (10.563, 349.523425), (10.563, 349.303425)]</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[(0.3, 351.0), (0.3, 350.77), (3.731, 350.914225), (3.731, 350.68422499999997), (3.731, 350.914225), (3.731, 350.734225), (10.501, 350.744975), (10.501, 350.564975), (0.3, 350.77), (0.3, 350.47), (3.731, 350.68422499999997), (3.731, 350.56422499999996), (3.731, 350.734225), (3.731, 350.56422499999996), (10.501, 350.564975), (10.501, 350.414975)]</t>
+          <t>[(0.3, 351.0), (0.3, 350.76), (3.731, 350.914225), (3.731, 350.674225), (3.731, 350.914225), (3.731, 350.734225), (10.501, 350.744975), (10.501, 350.564975), (0.3, 350.76), (0.3, 350.46), (3.731, 350.674225), (3.731, 350.554225), (3.731, 350.734225), (3.731, 350.554225), (10.501, 350.564975), (10.501, 350.40497500000004)]</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[(0.3, 352.0), (0.3, 351.77), (3.732, 351.9142), (3.732, 351.6842), (3.732, 351.9142), (3.732, 351.7342), (10.501, 351.744975), (10.501, 351.564975), (0.3, 351.77), (0.3, 351.47), (3.732, 351.6842), (3.732, 351.5542), (3.732, 351.7342), (3.732, 351.5542), (10.501, 351.564975), (10.501, 351.414975)]</t>
+          <t>[(0.3, 352.0), (0.3, 351.76), (3.732, 351.9142), (3.732, 351.6742), (3.732, 351.9142), (3.732, 351.7242), (10.501, 351.744975), (10.501, 351.554975), (0.3, 351.76), (0.3, 351.46), (3.732, 351.6742), (3.732, 351.5442), (3.732, 351.7242), (3.732, 351.5442), (10.501, 351.554975), (10.501, 351.414975)]</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[(0.3, 353.0), (0.3, 352.82), (3.714, 352.91465), (3.714, 352.73465), (3.714, 352.91465), (3.714, 352.75464999999997), (10.521, 352.744475), (10.521, 352.584475), (0.3, 352.82), (0.3, 352.52), (3.714, 352.73465), (3.714, 352.61465), (3.714, 352.75464999999997), (3.714, 352.61465), (10.521, 352.584475), (10.521, 352.434475)]</t>
+          <t>[(0.3, 353.0), (0.3, 352.81), (3.714, 352.91465), (3.714, 352.72465), (3.714, 352.91465), (3.714, 352.75464999999997), (10.521, 352.744475), (10.521, 352.584475), (0.3, 352.81), (0.3, 352.51), (3.714, 352.72465), (3.714, 352.61465), (3.714, 352.75464999999997), (3.714, 352.61465), (10.521, 352.584475), (10.521, 352.42447500000003)]</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[(0.3, 354.0), (0.3, 353.81), (3.723, 353.914425), (3.723, 353.724425), (3.723, 353.914425), (3.723, 353.75442499999997), (10.528, 353.7443), (10.528, 353.5843), (0.3, 353.81), (0.3, 353.51), (3.723, 353.724425), (3.723, 353.604425), (3.723, 353.75442499999997), (3.723, 353.604425), (10.528, 353.5843), (10.528, 353.4343)]</t>
+          <t>[(0.3, 354.0), (0.3, 353.8), (3.723, 353.914425), (3.723, 353.714425), (3.723, 353.914425), (3.723, 353.75442499999997), (10.528, 353.7443), (10.528, 353.5843), (0.3, 353.8), (0.3, 353.5), (3.723, 353.714425), (3.723, 353.604425), (3.723, 353.75442499999997), (3.723, 353.604425), (10.528, 353.5843), (10.528, 353.4243)]</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 356.0), (0.3, 355.88), (3.724, 355.9144), (3.724, 355.7944), (3.724, 355.9144), (3.724, 355.7744), (10.546, 355.74385), (10.546, 355.60385), (0.3, 355.88), (0.3, 355.58), (3.724, 355.7944), (3.724, 355.6544), (3.724, 355.7744), (3.724, 355.6544), (10.546, 355.60385), (10.546, 355.49385)]</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 357.0), (0.3, 356.87), (3.758, 356.91355), (3.758, 356.78355), (3.758, 356.91355), (3.758, 356.77355), (10.506, 356.74485), (10.506, 356.60485), (0.3, 356.87), (0.3, 356.57), (3.758, 356.78355), (3.758, 356.65355), (3.758, 356.77355), (3.758, 356.65355), (10.506, 356.60485), (10.506, 356.49485)]</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[(0.3, 358.0), (0.3, 357.79), (3.715, 357.914625), (3.715, 357.704625), (3.715, 357.914625), (3.715, 357.744625), (10.462, 357.74595), (10.462, 357.57595), (0.3, 357.79), (0.3, 357.49), (3.715, 357.704625), (3.715, 357.584625), (3.715, 357.744625), (3.715, 357.584625), (10.462, 357.57595), (10.462, 357.45595)]</t>
+          <t>[(0.3, 358.0), (0.3, 357.78), (3.715, 357.914625), (3.715, 357.694625), (3.715, 357.914625), (3.715, 357.744625), (10.462, 357.74595), (10.462, 357.57595), (0.3, 357.78), (0.3, 357.48), (3.715, 357.694625), (3.715, 357.574625), (3.715, 357.744625), (3.715, 357.574625), (10.462, 357.57595), (10.462, 357.45595)]</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[(0.3, 359.0), (0.3, 358.7), (3.684, 358.9154), (3.684, 358.61539999999997), (3.684, 358.9154), (3.684, 358.69539999999995), (10.412, 358.7472), (10.412, 358.5272), (0.3, 358.7), (0.3, 358.4), (3.684, 358.61539999999997), (3.684, 358.4754), (3.684, 358.69539999999995), (3.684, 358.4754), (10.412, 358.5272), (10.412, 358.40720000000005)]</t>
+          <t>[(0.3, 359.0), (0.3, 358.7), (3.684, 358.9154), (3.684, 358.69539999999995), (3.684, 358.9154), (3.684, 358.69539999999995), (10.412, 358.7472), (10.412, 358.5272), (0.3, 358.7), (0.3, 358.4), (3.684, 358.69539999999995), (3.684, 358.4754), (3.684, 358.69539999999995), (3.684, 358.4754), (10.412, 358.5272), (10.412, 358.3972)]</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>[(0.3, 360.0), (0.3, 359.68), (3.664, 359.9159), (3.664, 359.6959), (3.664, 359.9159), (3.664, 359.6959), (10.376, 359.7481), (10.376, 359.5281), (0.3, 359.68), (0.3, 359.36), (3.664, 359.6959), (3.664, 359.4759), (3.664, 359.6959), (3.664, 359.4759), (10.376, 359.5281), (10.376, 359.3981)]</t>
+          <t>[(0.3, 360.0), (0.3, 359.68), (3.664, 359.9159), (3.664, 359.6959), (3.664, 359.9159), (3.664, 359.6959), (10.376, 359.7481), (10.376, 359.5281), (0.3, 359.68), (0.3, 359.36), (3.664, 359.6959), (3.664, 359.4759), (3.664, 359.6959), (3.664, 359.4759), (10.376, 359.5281), (10.376, 359.3881)]</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>[(0.3, 362.0), (0.3, 361.66), (3.568, 361.9183), (3.568, 361.6583), (3.568, 361.9183), (3.568, 361.6583), (10.35, 361.74875), (10.35, 361.48875), (0.3, 361.66), (0.3, 361.32), (3.568, 361.6583), (3.568, 361.3983), (3.568, 361.6583), (3.568, 361.4083), (10.35, 361.48875), (10.35, 361.32874999999996)]</t>
+          <t>[(0.3, 362.0), (0.3, 361.66), (3.568, 361.9183), (3.568, 361.6583), (3.568, 361.9183), (3.568, 361.6583), (10.35, 361.74875), (10.35, 361.48875), (0.3, 361.66), (0.3, 361.32), (3.568, 361.6583), (3.568, 361.3983), (3.568, 361.6583), (3.568, 361.3983), (10.35, 361.48875), (10.35, 361.32874999999996)]</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>[(0.3, 363.0), (0.3, 362.7), (3.629, 362.916775), (3.629, 362.61677499999996), (3.629, 362.916775), (3.629, 362.68677499999995), (10.327, 362.749325), (10.327, 362.519325), (0.3, 362.7), (0.3, 362.41), (3.629, 362.61677499999996), (3.629, 362.456775), (3.629, 362.68677499999995), (3.629, 362.456775), (10.327, 362.519325), (10.327, 362.389325)]</t>
+          <t>[(0.3, 363.0), (0.3, 362.7), (3.629, 362.916775), (3.629, 362.61677499999996), (3.629, 362.916775), (3.629, 362.68677499999995), (10.327, 362.749325), (10.327, 362.519325), (0.3, 362.7), (0.3, 362.41), (3.629, 362.61677499999996), (3.629, 362.456775), (3.629, 362.68677499999995), (3.629, 362.456775), (10.327, 362.519325), (10.327, 362.379325)]</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>[(0.3, 364.0), (0.3, 363.71), (3.556, 363.9186), (3.556, 363.6286), (3.556, 363.9186), (3.556, 363.70860000000005), (10.29, 363.75025), (10.29, 363.54025), (0.3, 363.71), (0.3, 363.43), (3.556, 363.6286), (3.556, 363.4986), (3.556, 363.70860000000005), (3.556, 363.4986), (10.29, 363.54025), (10.29, 363.42025)]</t>
+          <t>[(0.3, 364.0), (0.3, 363.71), (3.556, 363.9186), (3.556, 363.6286), (3.556, 363.9186), (3.556, 363.70860000000005), (10.29, 363.75025), (10.29, 363.54025), (0.3, 363.71), (0.3, 363.43), (3.556, 363.6286), (3.556, 363.4986), (3.556, 363.70860000000005), (3.556, 363.4986), (10.29, 363.54025), (10.29, 363.41025)]</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 366.0), (0.3, 365.82), (3.474, 365.92065), (3.474, 365.74065), (3.474, 365.92065), (3.474, 365.81065), (10.255, 365.751125), (10.255, 365.641125), (0.3, 365.82), (0.3, 365.52), (3.474, 365.74065), (3.474, 365.58065000000005), (3.474, 365.81065), (3.474, 365.58065000000005), (10.255, 365.641125), (10.255, 365.501125)]</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[(0.3, 369.0), (0.3, 368.89), (3.463, 368.9665994838519), (3.463, 368.8565994838519), (3.463, 368.9665994838519), (3.463, 368.80659948385187), (10.235, 368.89508879926296), (10.235, 368.73508879926294), (0.3, 368.89), (0.3, 368.64), (3.463, 368.8565994838519), (3.463, 368.6965994838519), (3.463, 368.80659948385187), (3.463, 368.6965994838519), (10.235, 368.73508879926294), (10.235, 368.57508879926297)]</t>
+          <t>[(0.3, 369.0), (0.3, 368.89), (3.463, 368.9665994838519), (3.463, 368.8565994838519), (3.463, 368.9665994838519), (3.463, 368.80659948385187), (10.235, 368.89508879926296), (10.235, 368.73508879926294), (0.3, 368.89), (0.3, 368.64), (3.463, 368.8565994838519), (3.463, 368.6865994838519), (3.463, 368.80659948385187), (3.463, 368.6865994838519), (10.235, 368.73508879926294), (10.235, 368.57508879926297)]</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>[(0.3, 371.0), (0.3, 370.84), (3.454, 371.09688563052697), (3.454, 370.93688563052694), (3.454, 371.09688563052697), (3.454, 370.956885630527), (10.138, 371.30220698577176), (10.138, 371.1622069857718), (0.3, 370.84), (0.3, 370.68), (3.454, 370.93688563052694), (3.454, 370.776885630527), (3.454, 370.956885630527), (3.454, 370.776885630527), (10.138, 371.1622069857718), (10.138, 370.86220698577176)]</t>
+          <t>[(0.3, 371.0), (0.3, 370.84), (3.454, 371.09688563052697), (3.454, 370.93688563052694), (3.454, 371.09688563052697), (3.454, 370.956885630527), (10.138, 371.30220698577176), (10.138, 371.1622069857718), (0.3, 370.84), (0.3, 370.68), (3.454, 370.93688563052694), (3.454, 370.78688563052697), (3.454, 370.956885630527), (3.454, 370.78688563052697), (10.138, 371.1622069857718), (10.138, 370.86220698577176)]</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>[(0.3, 379.0), (0.3, 378.84), (3.864, 379.24948), (3.864, 379.08948), (3.864, 379.24948), (3.864, 379.08948), (10.554, 379.71778), (10.554, 379.43778000000003), (0.3, 378.84), (0.3, 378.72), (3.864, 379.08948), (3.864, 378.92948), (3.864, 379.08948), (3.864, 378.92948), (10.554, 379.43778000000003), (10.554, 379.15778)]</t>
+          <t>[(0.3, 379.0), (0.3, 378.83), (3.864, 379.24948), (3.864, 379.07948), (3.864, 379.24948), (3.864, 379.08948), (10.554, 379.71778), (10.554, 379.43778000000003), (0.3, 378.83), (0.3, 378.72), (3.864, 379.07948), (3.864, 378.91948), (3.864, 379.08948), (3.864, 378.92948), (10.554, 379.43778000000003), (10.554, 379.15778)]</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>[(0.3, 380.0), (0.3, 379.83), (3.153, 380.19971), (3.153, 380.02970999999997), (3.153, 380.19971), (3.153, 380.02970999999997), (9.788, 380.66416), (9.788, 380.38416), (0.3, 379.83), (0.3, 379.72), (3.153, 380.02970999999997), (3.153, 379.85971), (3.153, 380.02970999999997), (3.153, 379.85971), (9.788, 380.38416), (9.788, 380.10416)]</t>
+          <t>[(0.3, 380.0), (0.3, 379.83), (3.153, 380.19971), (3.153, 380.02970999999997), (3.153, 380.19971), (3.153, 380.03970999999996), (9.788, 380.66416), (9.788, 380.38416), (0.3, 379.83), (0.3, 379.72), (3.153, 380.02970999999997), (3.153, 379.86971), (3.153, 380.03970999999996), (3.153, 379.87971), (9.788, 380.38416), (9.788, 380.10416)]</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>[(0.3, 392.0), (0.3, 391.62), (3.475, 391.920625), (3.475, 391.61062499999997), (3.475, 391.920625), (3.475, 391.710625), (10.193, 391.752675), (10.193, 391.54267500000003), (0.3, 391.62), (0.3, 391.24), (3.475, 391.61062499999997), (3.475, 391.30062499999997), (3.475, 391.710625), (3.475, 391.50062499999996), (10.193, 391.54267500000003), (10.193, 391.332675)]</t>
+          <t>[(0.3, 392.0), (0.3, 391.74), (3.475, 391.920625), (3.475, 391.660625), (3.475, 391.920625), (3.475, 391.710625), (10.193, 391.752675), (10.193, 391.54267500000003), (0.3, 391.74), (0.3, 391.48), (3.475, 391.660625), (3.475, 391.400625), (3.475, 391.710625), (3.475, 391.50062499999996), (10.193, 391.54267500000003), (10.193, 391.332675), (0.3, 391.48), (0.3, 391.24), (3.475, 391.400625), (3.475, 391.290625), (3.475, 391.50062499999996), (3.475, 391.290625), (10.193, 391.332675), (10.193, 391.182675)]</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>[(0.3, 395.0), (0.3, 394.6), (3.619, 394.917025), (3.619, 394.59702500000003), (3.619, 394.917025), (3.619, 394.697025), (10.359, 394.748525), (10.359, 394.52852499999995), (0.3, 394.6), (0.3, 394.2), (3.619, 394.59702500000003), (3.619, 394.27702500000004), (3.619, 394.697025), (3.619, 394.477025), (10.359, 394.52852499999995), (10.359, 394.308525)]</t>
+          <t>[(0.3, 395.0), (0.3, 394.6), (3.619, 394.917025), (3.619, 394.59702500000003), (3.619, 394.917025), (3.619, 394.70702500000004), (10.359, 394.748525), (10.359, 394.538525), (0.3, 394.6), (0.3, 394.2), (3.619, 394.59702500000003), (3.619, 394.27702500000004), (3.619, 394.70702500000004), (3.619, 394.497025), (10.359, 394.538525), (10.359, 394.32852499999996)]</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>[(0.3, 400.0), (0.3, 399.63), (3.973, 399.908175), (3.973, 399.64817500000004), (3.973, 399.908175), (3.973, 399.728175), (10.684, 399.7404), (10.684, 399.5604), (0.3, 399.63), (0.3, 399.26), (3.973, 399.64817500000004), (3.973, 399.38817500000005), (3.973, 399.728175), (3.973, 399.548175), (10.684, 399.5604), (10.684, 399.3804)]</t>
+          <t>[(0.3, 400.0), (0.3, 399.63), (3.973, 399.908175), (3.973, 399.63817500000005), (3.973, 399.908175), (3.973, 399.728175), (10.684, 399.7404), (10.684, 399.5604), (0.3, 399.63), (0.3, 399.26), (3.973, 399.63817500000005), (3.973, 399.368175), (3.973, 399.728175), (3.973, 399.548175), (10.684, 399.5604), (10.684, 399.3804)]</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>[(0.3, 403.0), (0.3, 402.56), (4.145, 402.903875), (4.145, 402.57387500000004), (4.145, 402.903875), (4.145, 402.733875), (10.897, 402.735075), (10.897, 402.565075), (0.3, 402.56), (0.3, 402.12), (4.145, 402.57387500000004), (4.145, 402.243875), (4.145, 402.733875), (4.145, 402.56387500000005), (10.897, 402.565075), (10.897, 402.395075)]</t>
+          <t>[(0.3, 403.0), (0.3, 402.56), (4.145, 402.903875), (4.145, 402.56387500000005), (4.145, 402.903875), (4.145, 402.733875), (10.897, 402.735075), (10.897, 402.565075), (0.3, 402.56), (0.3, 402.12), (4.145, 402.56387500000005), (4.145, 402.223875), (4.145, 402.733875), (4.145, 402.56387500000005), (10.897, 402.565075), (10.897, 402.395075)]</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 411.0), (0.3, 410.88), (3.816, 410.9121), (3.816, 410.7921), (3.816, 410.9121), (3.816, 410.7821), (10.604, 410.7424), (10.604, 410.6124), (0.3, 410.88), (0.3, 410.58), (3.816, 410.7921), (3.816, 410.6621), (3.816, 410.7821), (3.816, 410.6621), (10.604, 410.6124), (10.604, 410.4924)]</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 412.0), (0.3, 411.89), (3.68, 411.9155), (3.68, 411.8055), (3.68, 411.9155), (3.68, 411.7855), (10.422, 411.74695), (10.422, 411.61695000000003), (0.3, 411.89), (0.3, 411.61), (3.68, 411.8055), (3.68, 411.6655), (3.68, 411.7855), (3.68, 411.6655), (10.422, 411.61695000000003), (10.422, 411.49695)]</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 425.0), (0.3, 424.89), (4.003, 425.25921), (4.003, 425.14921), (4.003, 425.25921), (4.003, 425.09920999999997), (14.677, 426.00639), (14.677, 425.62639), (0.3, 424.89), (0.3, 424.75), (4.003, 425.14921), (4.003, 424.94921), (4.003, 425.09920999999997), (4.003, 424.93921), (14.677, 425.62639), (14.677, 425.24639)]</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>[(0.3, 431.0), (0.3, 430.8), (4.508, 431.29456), (4.508, 431.09456), (4.508, 431.29456), (4.508, 431.09456), (14.618, 432.00226), (14.618, 431.68226), (0.3, 430.8), (0.3, 430.66), (4.508, 431.09456), (4.508, 430.90456), (4.508, 431.09456), (4.508, 430.89456), (14.618, 431.68226), (14.618, 431.36226)]</t>
+          <t>[(0.3, 431.0), (0.3, 430.81), (4.508, 431.29456), (4.508, 431.10456), (4.508, 431.29456), (4.508, 431.10456), (14.618, 432.00226), (14.618, 431.68226), (0.3, 430.81), (0.3, 430.66), (4.508, 431.10456), (4.508, 430.91456), (4.508, 431.10456), (4.508, 430.91456), (14.618, 431.68226), (14.618, 431.36226)]</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>[(0.3, 433.0), (0.3, 432.84), (4.298, 433.27986), (4.298, 433.11985999999996), (4.298, 433.27986), (4.298, 433.11985999999996), (11.103, 433.75621), (11.103, 433.59621), (0.3, 432.84), (0.3, 432.73), (4.298, 433.11985999999996), (4.298, 432.95986), (4.298, 433.11985999999996), (4.298, 432.95986), (11.103, 433.59621), (11.103, 433.29621000000003)]</t>
+          <t>[(0.3, 433.0), (0.3, 432.84), (4.298, 433.27986), (4.298, 433.11985999999996), (4.298, 433.27986), (4.298, 433.10985999999997), (11.103, 433.75621), (11.103, 433.58621), (0.3, 432.84), (0.3, 432.73), (4.298, 433.11985999999996), (4.298, 432.95986), (4.298, 433.10985999999997), (4.298, 432.95986), (11.103, 433.58621), (11.103, 433.28621)]</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>[(0.3, 434.0), (0.3, 433.89), (3.992, 434.2564938634355), (3.992, 434.14649386343547), (3.992, 434.2564938634355), (3.992, 434.02649386343546), (10.131, 434.68298785791825), (10.131, 434.45298785791823), (0.3, 433.89), (0.3, 433.72), (3.992, 434.14649386343547), (3.992, 433.90649386343546), (3.992, 434.02649386343546), (3.992, 433.90649386343546), (10.131, 434.45298785791823), (10.131, 434.23298785791826)]</t>
+          <t>[(0.3, 434.0), (0.3, 433.83), (3.992, 434.2564938634355), (3.992, 434.08649386343546), (3.992, 434.2564938634355), (3.992, 434.02649386343546), (10.131, 434.68298785791825), (10.131, 434.45298785791823), (0.3, 433.83), (0.3, 433.72), (3.992, 434.08649386343546), (3.992, 433.9164938634355), (3.992, 434.02649386343546), (3.992, 433.9164938634355), (10.131, 434.45298785791823), (10.131, 434.23298785791826)]</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>[(0.3, 436.0), (0.3, 435.83), (3.574, 436.1913733843473), (3.574, 436.02137338434727), (3.574, 436.1913733843473), (3.574, 435.97137338434726), (9.962, 436.56476775796074), (9.962, 436.3447677579607), (0.3, 435.83), (0.3, 435.68), (3.574, 436.02137338434727), (3.574, 435.8513733843473), (3.574, 435.97137338434726), (3.574, 435.8513733843473), (9.962, 436.3447677579607), (9.962, 436.13476775796073)]</t>
+          <t>[(0.3, 436.0), (0.3, 435.82), (3.574, 436.1913733843473), (3.574, 436.0113733843473), (3.574, 436.1913733843473), (3.574, 435.97137338434726), (9.962, 436.56476775796074), (9.962, 436.3447677579607), (0.3, 435.82), (0.3, 435.68), (3.574, 436.0113733843473), (3.574, 435.84137338434726), (3.574, 435.97137338434726), (3.574, 435.84137338434726), (9.962, 436.3447677579607), (9.962, 436.13476775796073)]</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>[(0.3, 440.0), (0.3, 439.83), (3.417, 440.11349512218413), (3.417, 439.9434951221841), (3.417, 440.11349512218413), (3.417, 439.92349512218414), (8.345, 440.2929317478253), (8.345, 440.1029317478253), (0.3, 439.83), (0.3, 439.68), (3.417, 439.9434951221841), (3.417, 439.78349512218415), (3.417, 439.92349512218414), (3.417, 439.78349512218415), (8.345, 440.1029317478253), (8.345, 439.9229317478253)]</t>
+          <t>[(0.3, 440.0), (0.3, 439.84), (3.417, 440.11349512218413), (3.417, 439.9534951221841), (3.417, 440.11349512218413), (3.417, 439.92349512218414), (8.345, 440.2929317478253), (8.345, 440.1029317478253), (0.3, 439.84), (0.3, 439.68), (3.417, 439.9534951221841), (3.417, 439.79349512218414), (3.417, 439.92349512218414), (3.417, 439.79349512218414), (8.345, 440.1029317478253), (8.345, 439.9229317478253)]</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>[(0.3, 442.0), (0.3, 441.8), (2.831, 442.0642652405057), (2.831, 441.8642652405057), (2.831, 442.0642652405057), (2.831, 441.8542652405057), (7.33, 442.17850045071316), (7.33, 441.9685004507132), (0.3, 441.8), (0.3, 441.67), (2.831, 441.8642652405057), (2.831, 441.6742652405057), (2.831, 441.8542652405057), (2.831, 441.6742652405057), (7.33, 441.9685004507132), (7.33, 441.75850045071314)]</t>
+          <t>[(0.3, 442.0), (0.3, 441.81), (2.831, 442.0642652405057), (2.831, 441.8742652405057), (2.831, 442.0642652405057), (2.831, 441.8542652405057), (7.33, 442.17850045071316), (7.33, 441.9685004507132), (0.3, 441.81), (0.3, 441.67), (2.831, 441.8742652405057), (2.831, 441.6842652405057), (2.831, 441.8542652405057), (2.831, 441.6842652405057), (7.33, 441.9685004507132), (7.33, 441.75850045071314)]</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>[(0.3, 443.0), (0.3, 442.82), (2.668, 443.004203417854), (2.668, 442.824203417854), (2.668, 443.004203417854), (2.668, 442.824203417854), (6.946, 443.01179726142647), (6.946, 442.83179726142646), (0.3, 442.82), (0.3, 442.64), (2.668, 442.824203417854), (2.668, 442.654203417854), (2.668, 442.824203417854), (2.668, 442.654203417854), (6.946, 442.83179726142646), (6.946, 442.6817972614265)]</t>
+          <t>[(0.3, 443.0), (0.3, 442.82), (2.668, 443.004203417854), (2.668, 442.824203417854), (2.668, 443.004203417854), (2.668, 442.834203417854), (6.946, 443.01179726142647), (6.946, 442.84179726142645), (0.3, 442.82), (0.3, 442.64), (2.668, 442.824203417854), (2.668, 442.664203417854), (2.668, 442.834203417854), (2.668, 442.664203417854), (6.946, 442.84179726142645), (6.946, 442.6817972614265)]</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>[(0.3, 445.0), (0.3, 444.89), (6.418, 444.84705), (6.418, 444.73705), (0.3, 444.89), (0.3, 444.63), (6.418, 444.73705), (6.418, 444.56705000000005)]</t>
+          <t>[(0.3, 445.0), (0.3, 444.89), (6.418, 444.84705), (6.418, 444.73705), (0.3, 444.89), (0.3, 444.63), (6.418, 444.73705), (6.418, 444.55705)]</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>[(0.3, 460.0), (0.3, 459.83), (2.835, 459.936625), (2.835, 459.766625), (0.3, 459.83), (0.3, 459.68), (2.835, 459.766625), (2.835, 459.606625)]</t>
+          <t>[(0.3, 460.0), (0.3, 459.83), (2.835, 459.936625), (2.835, 459.766625), (0.3, 459.83), (0.3, 459.68), (2.835, 459.766625), (2.835, 459.596625)]</t>
         </is>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 462.0), (0.3, 461.87), (2.481, 461.91721234048936), (2.481, 461.78721234048936), (0.3, 461.87), (0.3, 461.75), (2.481, 461.78721234048936), (2.481, 461.66721234048936)]</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 463.0), (0.3, 462.87), (2.403, 462.90298739360526), (2.403, 462.77298739360526), (0.3, 462.87), (0.3, 462.75), (2.403, 462.77298739360526), (2.403, 462.65298739360526)]</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>[(0.3, 526.0), (0.3, 525.82), (3.002, 525.8150668190923), (3.002, 525.6350668190923), (0.3, 525.82), (0.3, 525.65), (3.002, 525.6350668190923), (3.002, 525.5250668190923)]</t>
+          <t>[(0.3, 526.0), (0.3, 525.82), (3.002, 525.8150668190923), (3.002, 525.6350668190923), (0.3, 525.82), (0.3, 525.65), (3.002, 525.6350668190923), (3.002, 525.5150668190923)]</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>[(0.3, 527.0), (0.3, 526.89), (4.371, 526.7649861104829), (4.371, 526.6549861104829), (0.3, 526.89), (0.3, 526.64), (4.371, 526.6549861104829), (4.371, 526.494986110483)]</t>
+          <t>[(0.3, 527.0), (0.3, 526.89), (4.371, 526.7649861104829), (4.371, 526.6549861104829), (0.3, 526.89), (0.3, 526.64), (4.371, 526.6549861104829), (4.371, 526.484986110483)]</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>[(0.3, 528.0), (0.3, 527.83), (5.476, 527.7566529443455), (5.476, 527.5866529443456), (0.3, 527.83), (0.3, 527.67), (5.476, 527.5866529443456), (5.476, 527.4666529443456)]</t>
+          <t>[(0.3, 528.0), (0.3, 527.83), (5.476, 527.7566529443455), (5.476, 527.5866529443456), (0.3, 527.83), (0.3, 527.67), (5.476, 527.5866529443456), (5.476, 527.4566529443456)]</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>[(0.3, 531.0), (0.3, 530.78), (6.743, 530.838925), (6.743, 530.618925), (0.3, 530.78), (0.3, 530.6), (6.743, 530.618925), (6.743, 530.398925)]</t>
+          <t>[(0.3, 531.0), (0.3, 530.78), (6.743, 530.838925), (6.743, 530.618925), (0.3, 530.78), (0.3, 530.6), (6.743, 530.618925), (6.743, 530.4089250000001)]</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>[(0.3, 537.0), (0.3, 536.89), (8.962, 536.78345), (8.962, 536.67345), (0.3, 536.89), (0.3, 536.74), (8.962, 536.67345), (8.962, 536.4734500000001)]</t>
+          <t>[(0.3, 537.0), (0.3, 536.89), (8.962, 536.78345), (8.962, 536.67345), (0.3, 536.89), (0.3, 536.74), (8.962, 536.67345), (8.962, 536.46345)]</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 541.0), (0.3, 540.87), (6.992, 540.8327), (6.992, 540.7027), (0.3, 540.87), (0.3, 540.75), (6.992, 540.7027), (6.992, 540.5827)]</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 542.0), (0.3, 541.87), (6.938, 541.83405), (6.938, 541.70405), (0.3, 541.87), (0.3, 541.75), (6.938, 541.70405), (6.938, 541.58405)]</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 543.0), (0.3, 542.87), (6.902, 542.83495), (6.902, 542.70495), (0.3, 542.87), (0.3, 542.75), (6.902, 542.70495), (6.902, 542.58495)]</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 544.0), (0.3, 543.87), (6.852, 543.8362), (6.852, 543.7062), (0.3, 543.87), (0.3, 543.75), (6.852, 543.7062), (6.852, 543.5862)]</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 545.0), (0.3, 544.87), (6.77, 544.83825), (6.77, 544.70825), (0.3, 544.87), (0.3, 544.75), (6.77, 544.70825), (6.77, 544.58825)]</t>
         </is>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 546.0), (0.3, 545.87), (6.697, 545.840075), (6.697, 545.710075), (0.3, 545.87), (0.3, 545.75), (6.697, 545.710075), (6.697, 545.590075)]</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 547.0), (0.3, 546.87), (6.661, 546.840975), (6.661, 546.710975), (0.3, 546.87), (0.3, 546.75), (6.661, 546.710975), (6.661, 546.590975)]</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 548.0), (0.3, 547.87), (6.638, 547.84155), (6.638, 547.71155), (0.3, 547.87), (0.3, 547.75), (6.638, 547.71155), (6.638, 547.59155)]</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 549.0), (0.3, 548.87), (6.665, 548.840875), (6.665, 548.710875), (0.3, 548.87), (0.3, 548.75), (6.665, 548.710875), (6.665, 548.590875)]</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 550.0), (0.3, 549.87), (6.711, 549.839725), (6.711, 549.709725), (0.3, 549.87), (0.3, 549.75), (6.711, 549.709725), (6.711, 549.589725)]</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 551.0), (0.3, 550.87), (6.767, 550.838325), (6.767, 550.7083250000001), (0.3, 550.87), (0.3, 550.75), (6.767, 550.7083250000001), (6.767, 550.588325)]</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 552.0), (0.3, 551.87), (6.898, 551.83505), (6.898, 551.70505), (0.3, 551.87), (0.3, 551.75), (6.898, 551.70505), (6.898, 551.58505)]</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 553.0), (0.3, 552.87), (7.006, 552.83235), (7.006, 552.70235), (0.3, 552.87), (0.3, 552.75), (7.006, 552.70235), (7.006, 552.58235)]</t>
         </is>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 554.0), (0.3, 553.87), (7.094, 553.83015), (7.094, 553.70015), (0.3, 553.87), (0.3, 553.75), (7.094, 553.70015), (7.094, 553.58015)]</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 555.0), (0.3, 554.87), (9.577, 554.768075), (9.577, 554.638075), (0.3, 554.87), (0.3, 554.75), (9.577, 554.638075), (9.577, 554.518075)]</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 556.0), (0.3, 555.87), (8.574, 555.79315), (8.574, 555.66315), (0.3, 555.87), (0.3, 555.75), (8.574, 555.66315), (8.574, 555.54315)]</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 557.0), (0.3, 556.87), (7.832, 556.8117), (7.832, 556.6817), (0.3, 556.87), (0.3, 556.75), (7.832, 556.6817), (7.832, 556.5617)]</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 558.0), (0.3, 557.87), (7.29, 557.82525), (7.29, 557.69525), (0.3, 557.87), (0.3, 557.75), (7.29, 557.69525), (7.29, 557.57525)]</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>[(0.3, 559.0), (0.3, 558.85), (7.064, 558.8309), (7.064, 558.6809000000001), (0.3, 558.85), (0.3, 558.73), (7.064, 558.6809000000001), (7.064, 558.5409000000001)]</t>
+          <t>[(0.3, 559.0), (0.3, 558.87), (7.064, 558.8309), (7.064, 558.7009), (0.3, 558.87), (0.3, 558.75), (7.064, 558.7009), (7.064, 558.5809)]</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>[(0.3, 560.0), (0.3, 559.82), (6.814, 559.83715), (6.814, 559.65715), (0.3, 559.82), (0.3, 559.64), (6.814, 559.65715), (6.814, 559.4771499999999)]</t>
+          <t>[(0.3, 560.0), (0.3, 559.85), (6.814, 559.83715), (6.814, 559.68715), (0.3, 559.85), (0.3, 559.7), (6.814, 559.68715), (6.814, 559.53715)]</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>[(0.3, 561.0), (0.3, 560.81), (6.472, 560.8457), (6.472, 560.6556999999999), (0.3, 560.81), (0.3, 560.65), (6.472, 560.6556999999999), (6.472, 560.4657)]</t>
+          <t>[(0.3, 561.0), (0.3, 560.8), (6.472, 560.8457), (6.472, 560.6456999999999), (0.3, 560.8), (0.3, 560.63), (6.472, 560.6456999999999), (6.472, 560.4557)]</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>[(0.3, 562.0), (0.3, 561.86), (6.115, 561.854625), (6.115, 561.7146250000001), (0.3, 561.86), (0.3, 561.72), (6.115, 561.7146250000001), (6.115, 561.5746250000001), (0.3, 561.72), (0.3, 561.61), (6.115, 561.5746250000001), (6.115, 561.4646250000001)]</t>
+          <t>[(0.3, 562.0), (0.3, 561.82), (6.115, 561.854625), (6.115, 561.6746250000001), (0.3, 561.82), (0.3, 561.64), (6.115, 561.6746250000001), (6.115, 561.494625), (0.3, 561.64), (0.3, 561.48), (6.115, 561.494625), (6.115, 561.3346250000001)]</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>[(0.3, 563.0), (0.3, 562.86), (5.843, 562.861425), (5.843, 562.7214250000001), (0.3, 562.86), (0.3, 562.72), (5.843, 562.7214250000001), (5.843, 562.5814250000001), (0.3, 562.72), (0.3, 562.6), (5.843, 562.5814250000001), (5.843, 562.4514250000001)]</t>
+          <t>[(0.3, 563.0), (0.3, 562.83), (5.843, 562.861425), (5.843, 562.6914250000001), (0.3, 562.83), (0.3, 562.66), (5.843, 562.6914250000001), (5.843, 562.521425), (0.3, 562.66), (0.3, 562.49), (5.843, 562.521425), (5.843, 562.3514250000001), (0.3, 562.49), (0.3, 562.36), (5.843, 562.3514250000001), (5.843, 562.2014250000001)]</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>[(0.3, 564.0), (0.3, 563.83), (5.615, 563.867125), (5.615, 563.697125), (0.3, 563.83), (0.3, 563.68), (5.615, 563.697125), (5.615, 563.527125)]</t>
+          <t>[(0.3, 564.0), (0.3, 563.84), (5.615, 563.867125), (5.615, 563.707125), (0.3, 563.84), (0.3, 563.68), (5.615, 563.707125), (5.615, 563.5471249999999), (0.3, 563.68), (0.3, 563.52), (5.615, 563.5471249999999), (5.615, 563.387125), (0.3, 563.52), (0.3, 563.38), (5.615, 563.387125), (5.615, 563.227125)]</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>[(0.3, 565.0), (0.3, 564.82), (5.49, 564.8689830172738), (5.49, 564.6889830172738), (0.3, 564.82), (0.3, 564.67), (5.49, 564.6889830172738), (5.49, 564.5089830172737)]</t>
+          <t>[(0.3, 565.0), (0.3, 564.83), (5.49, 564.8689830172738), (5.49, 564.6989830172738), (0.3, 564.83), (0.3, 564.66), (5.49, 564.6989830172738), (5.49, 564.5289830172737), (0.3, 564.66), (0.3, 564.49), (5.49, 564.5289830172737), (5.49, 564.3589830172738), (0.3, 564.49), (0.3, 564.38), (5.49, 564.3589830172738), (5.49, 564.2089830172738)]</t>
         </is>
       </c>
     </row>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>[(0.3, 566.0), (0.3, 565.84), (5.511, 565.8235877760726), (5.511, 565.6635877760726), (0.3, 565.84), (0.3, 565.73), (5.511, 565.6635877760726), (5.511, 565.5135877760727)]</t>
+          <t>[(0.3, 566.0), (0.3, 565.8), (5.511, 565.8235877760726), (5.511, 565.6235877760726), (0.3, 565.8), (0.3, 565.6), (5.511, 565.6235877760726), (5.511, 565.4235877760726), (0.3, 565.6), (0.3, 565.46), (5.511, 565.4235877760726), (5.511, 565.2435877760726)]</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>[(0.3, 567.0), (0.3, 566.85), (5.588, 566.7754529712985), (5.588, 566.6254529712985), (0.3, 566.85), (0.3, 566.72), (5.588, 566.6254529712985), (5.588, 566.5054529712985)]</t>
+          <t>[(0.3, 567.0), (0.3, 566.86), (5.588, 566.7754529712985), (5.588, 566.6354529712985), (0.3, 566.86), (0.3, 566.72), (5.588, 566.6354529712985), (5.588, 566.4954529712985), (0.3, 566.72), (0.3, 566.58), (5.588, 566.4954529712985), (5.588, 566.3554529712985), (0.3, 566.58), (0.3, 566.47), (5.588, 566.3554529712985), (5.588, 566.2454529712985)]</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 568.0), (0.3, 567.83), (5.73, 567.7226725155696), (5.73, 567.5526725155696), (0.3, 567.83), (0.3, 567.66), (5.73, 567.5526725155696), (5.73, 567.3826725155695), (0.3, 567.66), (0.3, 567.49), (5.73, 567.3826725155695), (5.73, 567.2626725155695)]</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 569.0), (0.3, 568.76), (5.958, 568.6623141777807), (5.958, 568.4223141777807), (0.3, 568.76), (0.3, 568.53), (5.958, 568.4223141777807), (5.958, 568.2823141777807)]</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 570.0), (0.3, 569.85), (6.291, 569.590859097721), (6.291, 569.440859097721), (0.3, 569.85), (0.3, 569.55), (6.291, 569.440859097721), (6.291, 569.310859097721)]</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 571.0), (0.3, 570.85), (6.665, 570.55445), (6.665, 570.40445), (0.3, 570.85), (0.3, 570.55), (6.665, 570.40445), (6.665, 570.2244499999999)]</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 572.0), (0.3, 571.82), (6.998, 571.53114), (6.998, 571.3511400000001), (0.3, 571.82), (0.3, 571.52), (6.998, 571.3511400000001), (6.998, 571.20114)]</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 573.0), (0.3, 572.85), (7.267, 572.51231), (7.267, 572.36231), (0.3, 572.85), (0.3, 572.55), (7.267, 572.36231), (7.267, 572.22231)]</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 574.0), (0.3, 573.88), (7.56, 573.4918), (7.56, 573.3718), (0.3, 573.88), (0.3, 573.58), (7.56, 573.3718), (7.56, 573.2318)]</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 575.0), (0.3, 574.89), (7.986, 574.46198), (7.986, 574.35198), (0.3, 574.89), (0.3, 574.64), (7.986, 574.35198), (7.986, 574.21198)]</t>
         </is>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 576.0), (0.3, 575.89), (8.253, 575.44329), (8.253, 575.33329), (0.3, 575.89), (0.3, 575.64), (8.253, 575.33329), (8.253, 575.19329)]</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 577.0), (0.3, 576.88), (8.553, 576.42229), (8.553, 576.30229), (0.3, 576.88), (0.3, 576.58), (8.553, 576.30229), (8.553, 576.17229)]</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>[(0.3, 578.0), (0.3, 577.89), (8.864, 577.40052), (8.864, 577.29052), (0.3, 577.89), (0.3, 577.6), (8.864, 577.29052), (8.864, 577.14052)]</t>
+          <t>[(0.3, 578.0), (0.3, 577.85), (8.864, 577.40052), (8.864, 577.25052), (0.3, 577.85), (0.3, 577.55), (8.864, 577.25052), (8.864, 577.0905200000001)]</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>[(0.3, 579.0), (0.3, 578.84), (2.473, 578.8533139063451), (2.473, 578.6933139063451), (2.473, 578.8533139063451), (2.473, 578.7233139063451), (9.07, 578.4079903169103), (9.07, 578.2779903169103), (0.3, 578.84), (0.3, 578.68), (2.473, 578.6933139063451), (2.473, 578.533313906345), (2.473, 578.7233139063451), (2.473, 578.4233139063451), (9.07, 578.2779903169103), (9.07, 578.1379903169103), (0.3, 578.68), (0.3, 578.53), (2.473, 578.533313906345), (2.473, 578.4233139063451), (2.473, 578.4233139063451), (2.473, 578.4233139063451), (9.07, 578.1379903169103), (9.07, 578.1379903169103)]</t>
+          <t>[(0.3, 579.0), (0.3, 578.83), (2.473, 578.8533139063451), (2.473, 578.6833139063451), (2.473, 578.8533139063451), (2.473, 578.6933139063451), (9.07, 578.4079903169103), (9.07, 578.2479903169103), (0.3, 578.83), (0.3, 578.66), (2.473, 578.6833139063451), (2.473, 578.513313906345), (2.473, 578.6933139063451), (2.473, 578.393313906345), (9.07, 578.2479903169103), (9.07, 578.1079903169103), (0.3, 578.66), (0.3, 578.5), (2.473, 578.513313906345), (2.473, 578.393313906345), (2.473, 578.393313906345), (2.473, 578.393313906345), (9.07, 578.1079903169103), (9.07, 578.1079903169103)]</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>[(0.3, 580.0), (0.3, 579.82), (2.681, 579.8597727648288), (2.681, 579.6797727648288), (2.681, 579.8597727648288), (2.681, 579.6197727648288), (9.233, 579.4738975674992), (9.233, 579.2338975674992), (0.3, 579.82), (0.3, 579.64), (2.681, 579.6797727648288), (2.681, 579.4997727648288), (2.681, 579.6197727648288), (2.681, 579.3897727648288), (9.233, 579.2338975674992), (9.233, 579.1238975674992), (0.3, 579.64), (0.3, 579.47), (2.681, 579.4997727648288), (2.681, 579.3897727648288), (2.681, 579.3897727648288), (2.681, 579.3897727648288), (9.233, 579.1238975674992), (9.233, 579.1238975674992)]</t>
+          <t>[(0.3, 580.0), (0.3, 579.82), (2.681, 579.8597727648288), (2.681, 579.6797727648288), (2.681, 579.8597727648288), (2.681, 579.6197727648288), (9.233, 579.4738975674992), (9.233, 579.2338975674992), (0.3, 579.82), (0.3, 579.64), (2.681, 579.6797727648288), (2.681, 579.4997727648288), (2.681, 579.6197727648288), (2.681, 579.3797727648288), (9.233, 579.2338975674992), (9.233, 579.1138975674992), (0.3, 579.64), (0.3, 579.46), (2.681, 579.4997727648288), (2.681, 579.3797727648288), (2.681, 579.3797727648288), (2.681, 579.3797727648288), (9.233, 579.1138975674992), (9.233, 579.1138975674992)]</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>[(0.3, 583.0), (0.3, 582.83), (2.849, 582.9157168579135), (2.849, 582.7457168579135), (2.849, 582.9157168579135), (2.849, 582.7457168579135), (9.417, 582.6985447601403), (9.417, 582.5285447601403), (0.3, 582.83), (0.3, 582.66), (2.849, 582.7457168579135), (2.849, 582.5757168579134), (2.849, 582.7457168579135), (2.849, 582.5757168579134), (9.417, 582.5285447601403), (9.417, 582.3585447601403), (0.3, 582.66), (0.3, 582.51), (2.849, 582.5757168579134), (2.849, 582.4257168579135), (2.849, 582.5757168579134), (2.849, 582.4257168579135), (9.417, 582.3585447601403), (9.417, 582.2085447601403)]</t>
+          <t>[(0.3, 583.0), (0.3, 582.83), (2.849, 582.9157168579135), (2.849, 582.7457168579135), (2.849, 582.9157168579135), (2.849, 582.7457168579135), (9.417, 582.6985447601403), (9.417, 582.5285447601403), (0.3, 582.83), (0.3, 582.66), (2.849, 582.7457168579135), (2.849, 582.5757168579134), (2.849, 582.7457168579135), (2.849, 582.5757168579134), (9.417, 582.5285447601403), (9.417, 582.3585447601403), (0.3, 582.66), (0.3, 582.51), (2.849, 582.5757168579134), (2.849, 582.4357168579135), (2.849, 582.5757168579134), (2.849, 582.4357168579135), (9.417, 582.3585447601403), (9.417, 582.2085447601403)]</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>[(0.3, 587.0), (0.3, 586.73), (2.936, 586.9341), (2.936, 586.6641), (2.936, 586.9341), (2.936, 586.7040999999999), (9.828, 586.7618), (9.828, 586.5318), (0.3, 586.73), (0.3, 586.46), (2.936, 586.6641), (2.936, 586.5141), (2.936, 586.7040999999999), (2.936, 586.5141), (9.828, 586.5318), (9.828, 586.3018)]</t>
+          <t>[(0.3, 587.0), (0.3, 586.73), (2.936, 586.9341), (2.936, 586.6641), (2.936, 586.9341), (2.936, 586.7841), (9.828, 586.7618), (9.828, 586.6118), (0.3, 586.73), (0.3, 586.46), (2.936, 586.6641), (2.936, 586.5141), (2.936, 586.7841), (2.936, 586.6341), (9.828, 586.6118), (9.828, 586.4618)]</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>[(0.3, 590.0), (0.3, 589.78), (2.596, 589.9426), (2.596, 589.7225999999999), (2.596, 589.9426), (2.596, 589.7425999999999), (9.752, 589.7637), (9.752, 589.5636999999999), (0.3, 589.78), (0.3, 589.56), (2.596, 589.7225999999999), (2.596, 589.5926), (2.596, 589.7425999999999), (2.596, 589.5926), (9.752, 589.5636999999999), (9.752, 589.3637)]</t>
+          <t>[(0.3, 590.0), (0.3, 589.78), (2.596, 589.9426), (2.596, 589.7225999999999), (2.596, 589.9426), (2.596, 589.7425999999999), (9.752, 589.7637), (9.752, 589.5636999999999), (0.3, 589.78), (0.3, 589.56), (2.596, 589.7225999999999), (2.596, 589.6025999999999), (2.596, 589.7425999999999), (2.596, 589.6025999999999), (9.752, 589.5636999999999), (9.752, 589.3637)]</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>[(0.3, 591.0), (0.3, 590.8), (2.495, 590.945125), (2.495, 590.7451249999999), (2.495, 590.945125), (2.495, 590.7451249999999), (9.682, 590.76545), (9.682, 590.5654499999999), (0.3, 590.8), (0.3, 590.61), (2.495, 590.7451249999999), (2.495, 590.635125), (2.495, 590.7451249999999), (2.495, 590.635125), (9.682, 590.5654499999999), (9.682, 590.36545)]</t>
+          <t>[(0.3, 591.0), (0.3, 590.89), (2.495, 590.945125), (2.495, 590.835125), (2.495, 590.945125), (2.495, 590.835125), (9.682, 590.76545), (9.682, 590.65545), (0.3, 590.89), (0.3, 590.61), (2.495, 590.835125), (2.495, 590.645125), (2.495, 590.835125), (2.495, 590.645125), (9.682, 590.65545), (9.682, 590.36545)]</t>
         </is>
       </c>
     </row>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>[(0.3, 592.0), (0.3, 591.81), (2.43, 591.94675), (2.43, 591.7567499999999), (2.43, 591.94675), (2.43, 591.7567499999999), (9.615, 591.767125), (9.615, 591.5771249999999), (0.3, 591.81), (0.3, 591.62), (2.43, 591.7567499999999), (2.43, 591.64675), (2.43, 591.7567499999999), (2.43, 591.64675), (9.615, 591.5771249999999), (9.615, 591.387125)]</t>
+          <t>[(0.3, 592.0), (0.3, 591.81), (2.43, 591.94675), (2.43, 591.7567499999999), (2.43, 591.94675), (2.43, 591.8367499999999), (9.615, 591.767125), (9.615, 591.657125), (0.3, 591.81), (0.3, 591.62), (2.43, 591.7567499999999), (2.43, 591.64675), (2.43, 591.8367499999999), (2.43, 591.64675), (9.615, 591.657125), (9.615, 591.377125)]</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>[(0.3, 595.0), (0.3, 594.75), (2.439, 594.946525), (2.439, 594.696525), (2.439, 594.946525), (2.439, 594.7065249999999), (9.588, 594.7678), (9.588, 594.5278), (0.3, 594.75), (0.3, 594.51), (2.439, 594.696525), (2.439, 594.526525), (2.439, 594.7065249999999), (2.439, 594.526525), (9.588, 594.5278), (9.588, 594.2977999999999)]</t>
+          <t>[(0.3, 595.0), (0.3, 594.75), (2.439, 594.946525), (2.439, 594.696525), (2.439, 594.946525), (2.439, 594.7165249999999), (9.588, 594.7678), (9.588, 594.5378), (0.3, 594.75), (0.3, 594.51), (2.439, 594.696525), (2.439, 594.536525), (2.439, 594.7165249999999), (2.439, 594.536525), (9.588, 594.5378), (9.588, 594.3077999999999)]</t>
         </is>
       </c>
     </row>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>[(0.3, 596.0), (0.3, 595.89), (2.623, 595.941925), (2.623, 595.831925), (2.623, 595.941925), (2.623, 595.781925), (9.741, 595.763975), (9.741, 595.603975), (0.3, 595.89), (0.3, 595.61), (2.623, 595.831925), (2.623, 595.661925), (2.623, 595.781925), (2.623, 595.661925), (9.741, 595.603975), (9.741, 595.453975)]</t>
+          <t>[(0.3, 596.0), (0.3, 595.89), (2.623, 595.941925), (2.623, 595.831925), (2.623, 595.941925), (2.623, 595.781925), (9.741, 595.763975), (9.741, 595.603975), (0.3, 595.89), (0.3, 595.61), (2.623, 595.831925), (2.623, 595.651925), (2.623, 595.781925), (2.623, 595.651925), (9.741, 595.603975), (9.741, 595.453975)]</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>[(0.3, 598.0), (0.3, 597.84), (2.518, 597.94455), (2.518, 597.7845500000001), (2.518, 597.94455), (2.518, 597.7945500000001), (9.64, 597.7665), (9.64, 597.6165), (0.3, 597.84), (0.3, 597.68), (2.518, 597.7845500000001), (2.518, 597.62455), (2.518, 597.7945500000001), (2.518, 597.6445500000001), (9.64, 597.6165), (9.64, 597.4665), (0.3, 597.68), (0.3, 597.53), (2.518, 597.62455), (2.518, 597.5145500000001), (2.518, 597.6445500000001), (2.518, 597.5145500000001), (9.64, 597.4665), (9.64, 597.3465)]</t>
+          <t>[(0.3, 598.0), (0.3, 597.76), (2.518, 597.94455), (2.518, 597.70455), (2.518, 597.94455), (2.518, 597.7945500000001), (9.64, 597.7665), (9.64, 597.6165), (0.3, 597.76), (0.3, 597.53), (2.518, 597.70455), (2.518, 597.5245500000001), (2.518, 597.7945500000001), (2.518, 597.6445500000001), (9.64, 597.6165), (9.64, 597.4665)]</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>[(0.3, 602.0), (0.3, 601.82), (2.607, 601.942325), (2.607, 601.762325), (2.607, 601.942325), (2.607, 601.7523249999999), (9.852, 601.7612), (9.852, 601.5712), (0.3, 601.82), (0.3, 601.64), (2.607, 601.762325), (2.607, 601.582325), (2.607, 601.7523249999999), (2.607, 601.562325), (9.852, 601.5712), (9.852, 601.3812), (0.3, 601.64), (0.3, 601.47), (2.607, 601.582325), (2.607, 601.442325), (2.607, 601.562325), (2.607, 601.442325), (9.852, 601.3812), (9.852, 601.2012000000001)]</t>
+          <t>[(0.3, 602.0), (0.3, 601.82), (2.607, 601.942325), (2.607, 601.762325), (2.607, 601.942325), (2.607, 601.7523249999999), (9.852, 601.7612), (9.852, 601.5712), (0.3, 601.82), (0.3, 601.64), (2.607, 601.762325), (2.607, 601.582325), (2.607, 601.7523249999999), (2.607, 601.562325), (9.852, 601.5712), (9.852, 601.3812), (0.3, 601.64), (0.3, 601.47), (2.607, 601.582325), (2.607, 601.452325), (2.607, 601.562325), (2.607, 601.452325), (9.852, 601.3812), (9.852, 601.2012000000001)]</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>[(0.3, 603.0), (0.3, 602.84), (2.704, 602.9399), (2.704, 602.7799), (2.704, 602.9399), (2.704, 602.6599), (9.986, 602.75785), (9.986, 602.47785), (0.3, 602.84), (0.3, 602.68), (2.704, 602.7799), (2.704, 602.6198999999999), (2.704, 602.6599), (2.704, 602.4798999999999), (9.986, 602.47785), (9.986, 602.20785), (0.3, 602.68), (0.3, 602.53), (2.704, 602.6198999999999), (2.704, 602.4798999999999), (2.704, 602.4798999999999), (2.704, 602.4798999999999), (9.986, 602.20785), (9.986, 602.20785)]</t>
+          <t>[(0.3, 603.0), (0.3, 602.88), (2.704, 602.9399), (2.704, 602.8199), (2.704, 602.9399), (2.704, 602.6599), (9.986, 602.75785), (9.986, 602.47785), (0.3, 602.88), (0.3, 602.76), (2.704, 602.8199), (2.704, 602.6999), (2.704, 602.6599), (2.704, 602.4698999999999), (9.986, 602.47785), (9.986, 602.19785), (0.3, 602.76), (0.3, 602.64), (2.704, 602.6999), (2.704, 602.5799), (2.704, 602.4698999999999), (2.704, 602.4698999999999), (9.986, 602.19785), (9.986, 602.19785), (0.3, 602.64), (0.3, 602.53), (2.704, 602.5799), (2.704, 602.4698999999999), (2.704, 602.4698999999999), (2.704, 602.4698999999999), (9.986, 602.19785), (9.986, 602.19785)]</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>[(0.3, 611.0), (0.3, 610.78), (3.107, 610.929825), (3.107, 610.709825), (3.107, 610.929825), (3.107, 610.799825), (10.221, 610.751975), (10.221, 610.621975), (0.3, 610.78), (0.3, 610.56), (3.107, 610.709825), (3.107, 610.559825), (3.107, 610.799825), (3.107, 610.6698250000001), (10.221, 610.621975), (10.221, 610.491975)]</t>
+          <t>[(0.3, 611.0), (0.3, 610.78), (3.107, 610.929825), (3.107, 610.709825), (3.107, 610.929825), (3.107, 610.739825), (10.221, 610.751975), (10.221, 610.561975), (0.3, 610.78), (0.3, 610.56), (3.107, 610.709825), (3.107, 610.569825), (3.107, 610.739825), (3.107, 610.569825), (10.221, 610.561975), (10.221, 610.371975)]</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>[(0.3, 612.0), (0.3, 611.85), (3.11, 611.92975), (3.11, 611.77975), (3.11, 611.92975), (3.11, 611.76975), (10.223, 611.751925), (10.223, 611.5919250000001), (0.3, 611.85), (0.3, 611.55), (3.11, 611.77975), (3.11, 611.6297500000001), (3.11, 611.76975), (3.11, 611.6297500000001), (10.223, 611.5919250000001), (10.223, 611.431925)]</t>
+          <t>[(0.3, 612.0), (0.3, 611.85), (3.11, 611.92975), (3.11, 611.77975), (3.11, 611.92975), (3.11, 611.76975), (10.223, 611.751925), (10.223, 611.5919250000001), (0.3, 611.85), (0.3, 611.55), (3.11, 611.77975), (3.11, 611.63975), (3.11, 611.76975), (3.11, 611.63975), (10.223, 611.5919250000001), (10.223, 611.431925)]</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>[(0.3, 613.0), (0.3, 612.89), (3.053, 612.931175), (3.053, 612.821175), (3.053, 612.931175), (3.053, 612.7711750000001), (10.2, 612.7525), (10.2, 612.5925000000001), (0.3, 612.89), (0.3, 612.59), (3.053, 612.821175), (3.053, 612.6511750000001), (3.053, 612.7711750000001), (3.053, 612.6511750000001), (10.2, 612.5925000000001), (10.2, 612.4325)]</t>
+          <t>[(0.3, 613.0), (0.3, 612.89), (3.053, 612.931175), (3.053, 612.821175), (3.053, 612.931175), (3.053, 612.7711750000001), (10.2, 612.7525), (10.2, 612.5925000000001), (0.3, 612.89), (0.3, 612.59), (3.053, 612.821175), (3.053, 612.6511750000001), (3.053, 612.7711750000001), (3.053, 612.6511750000001), (10.2, 612.5925000000001), (10.2, 612.4425000000001)]</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 615.0), (0.3, 614.89), (2.954, 614.9778924708714), (2.954, 614.8678924708714), (2.954, 614.9778924708714), (2.954, 614.8678924708714), (10.073, 614.9185919810953), (10.073, 614.8085919810953), (0.3, 614.89), (0.3, 614.65), (2.954, 614.8678924708714), (2.954, 614.7278924708714), (2.954, 614.8678924708714), (2.954, 614.7278924708714), (10.073, 614.8085919810953), (10.073, 614.5785919810953)]</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>[(0.3, 616.0), (0.3, 615.85), (2.865, 616.0427588311173), (2.865, 615.8927588311174), (2.865, 616.0427588311173), (2.865, 615.9027588311174), (10.083, 616.1630836821913), (10.083, 615.8730836821913), (0.3, 615.85), (0.3, 615.72), (2.865, 615.8927588311174), (2.865, 615.7527588311174), (2.865, 615.9027588311174), (2.865, 615.7627588311174), (10.083, 615.8730836821913), (10.083, 615.5830836821913)]</t>
+          <t>[(0.3, 616.0), (0.3, 615.85), (2.865, 616.0427588311173), (2.865, 615.8927588311174), (2.865, 616.0427588311173), (2.865, 615.9027588311174), (10.083, 616.1630836821913), (10.083, 615.8830836821913), (0.3, 615.85), (0.3, 615.72), (2.865, 615.8927588311174), (2.865, 615.7627588311174), (2.865, 615.9027588311174), (2.865, 615.7627588311174), (10.083, 615.8830836821913), (10.083, 615.6030836821914)]</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>[(0.3, 619.0), (0.3, 618.85), (3.328, 619.0921423350144), (3.328, 618.9421423350144), (3.328, 619.0921423350144), (3.328, 618.9521423350144), (10.401, 619.3073744141282), (10.401, 619.0173744141282), (0.3, 618.85), (0.3, 618.72), (3.328, 618.9421423350144), (3.328, 618.8121423350144), (3.328, 618.9521423350144), (3.328, 618.8121423350144), (10.401, 619.0173744141282), (10.401, 618.7273744141281)]</t>
+          <t>[(0.3, 619.0), (0.3, 618.85), (3.328, 619.0921423350144), (3.328, 618.9421423350144), (3.328, 619.0921423350144), (3.328, 618.9521423350144), (10.401, 619.3073744141282), (10.401, 619.0173744141282), (0.3, 618.85), (0.3, 618.72), (3.328, 618.9421423350144), (3.328, 618.8021423350144), (3.328, 618.9521423350144), (3.328, 618.8121423350144), (10.401, 619.0173744141282), (10.401, 618.7273744141281)]</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>[(0.3, 620.0), (0.3, 619.84), (3.327, 620.0982754259521), (3.327, 619.9382754259522), (3.327, 620.0982754259521), (3.327, 619.9382754259522), (10.545, 620.3326170263891), (10.545, 620.0726170263891), (0.3, 619.84), (0.3, 619.72), (3.327, 619.9382754259522), (3.327, 619.7782754259521), (3.327, 619.9382754259522), (3.327, 619.7782754259521), (10.545, 620.0726170263891), (10.545, 619.8126170263891)]</t>
+          <t>[(0.3, 620.0), (0.3, 619.83), (3.327, 620.0982754259521), (3.327, 619.9282754259522), (3.327, 620.0982754259521), (3.327, 619.9382754259522), (10.545, 620.3326170263891), (10.545, 620.0726170263891), (0.3, 619.83), (0.3, 619.72), (3.327, 619.9282754259522), (3.327, 619.7682754259521), (3.327, 619.9382754259522), (3.327, 619.7782754259521), (10.545, 620.0726170263891), (10.545, 619.8126170263891)]</t>
         </is>
       </c>
     </row>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>[(0.3, 621.0), (0.3, 620.86), (3.256, 621.1019892723141), (3.256, 620.9619892723141), (3.256, 621.1019892723141), (3.256, 620.9819892723141), (10.519, 621.3525806406553), (10.519, 621.2325806406553), (0.3, 620.86), (0.3, 620.74), (3.256, 620.9619892723141), (3.256, 620.8319892723141), (3.256, 620.9819892723141), (3.256, 620.8319892723141), (10.519, 621.2325806406553), (10.519, 620.9325806406554)]</t>
+          <t>[(0.3, 621.0), (0.3, 620.86), (3.256, 621.1019892723141), (3.256, 620.9619892723141), (3.256, 621.1019892723141), (3.256, 620.9919892723141), (10.519, 621.3525806406553), (10.519, 621.2425806406553), (0.3, 620.86), (0.3, 620.74), (3.256, 620.9619892723141), (3.256, 620.8319892723141), (3.256, 620.9919892723141), (3.256, 620.8319892723141), (10.519, 621.2425806406553), (10.519, 620.9425806406554)]</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>[(0.3, 624.0), (0.3, 623.8), (2.848, 624.08918), (2.848, 623.88918), (2.848, 624.08918), (2.848, 623.83918), (9.971, 624.338485), (9.971, 624.088485), (0.3, 623.8), (0.3, 623.65), (2.848, 623.88918), (2.848, 623.6991800000001), (2.848, 623.83918), (2.848, 623.6991800000001), (9.971, 624.088485), (9.971, 623.848485)]</t>
+          <t>[(0.3, 624.0), (0.3, 623.81), (2.848, 624.08918), (2.848, 623.89918), (2.848, 624.08918), (2.848, 623.84918), (9.971, 624.338485), (9.971, 624.098485), (0.3, 623.81), (0.3, 623.65), (2.848, 623.89918), (2.848, 623.7091800000001), (2.848, 623.84918), (2.848, 623.7091800000001), (9.971, 624.098485), (9.971, 623.858485)]</t>
         </is>
       </c>
     </row>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 634.0), (0.3, 633.89), (7.674, 634.25809), (7.674, 634.14809), (0.3, 633.89), (0.3, 633.75), (7.674, 634.14809), (7.674, 633.88809)]</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 635.0), (0.3, 634.89), (7.402, 635.24857), (7.402, 635.13857), (0.3, 634.89), (0.3, 634.75), (7.402, 635.13857), (7.402, 634.88857)]</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 637.0), (0.3, 636.87), (6.407, 637.213745), (6.407, 637.083745), (0.3, 636.87), (0.3, 636.75), (6.407, 637.083745), (6.407, 636.963745)]</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 638.0), (0.3, 637.87), (5.825, 638.193375), (5.825, 638.063375), (0.3, 637.87), (0.3, 637.75), (5.825, 638.063375), (5.825, 637.943375)]</t>
         </is>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 639.0), (0.3, 638.87), (5.138, 639.16933), (5.138, 639.03933), (0.3, 638.87), (0.3, 638.75), (5.138, 639.03933), (5.138, 638.91933)]</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 640.0), (0.3, 639.87), (4.619, 640.1282743), (4.619, 639.9982743), (0.3, 639.87), (0.3, 639.75), (4.619, 639.9982743), (4.619, 639.8782743)]</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 641.0), (0.3, 640.87), (4.396, 641.0999424), (4.396, 640.9699424), (0.3, 640.87), (0.3, 640.75), (4.396, 640.9699424), (4.396, 640.8499424)]</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.3, 641.6355600000002), (0.3, 641.5055600000002), (4.405, 641.7137192000001), (4.405, 641.5837192000001), (0.3, 641.5055600000002), (0.3, 641.3855600000002), (4.405, 641.5837192000001), (4.405, 641.4637192000001)]</t>
         </is>
       </c>
     </row>

--- a/output/layerCoordinates_right.xlsx
+++ b/output/layerCoordinates_right.xlsx
@@ -427,7 +427,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>[(2.0, 0.0), (2.0, -0.13), (12.665, -0.2636375309866117), (12.665, -0.3936375309866117), (2.0, -0.13), (2.0, -0.25), (12.665, -0.3936375309866117), (12.665, -0.5136375309866117)]</t>
+          <t>[(1.99999999999293, 0.0), (1.99999999999293, -0.13), (12.665, -0.2636375309867865), (12.665, -0.3936375309867865), (1.99999999999293, -0.13), (1.99999999999293, -0.25), (12.665, -0.3936375309867865), (12.665, -0.5136375309867864)]</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[(2.0, 1.0), (2.0, 0.87), (12.484, 0.7959973327945052), (12.484, 0.6659973327945052), (2.0, 0.87), (2.0, 0.75), (12.484, 0.6659973327945052), (12.484, 0.5459973327945052)]</t>
+          <t>[(1.99999999999293, 1.0), (1.99999999999293, 0.87), (12.484, 0.7959973327943677), (12.484, 0.6659973327943677), (1.99999999999293, 0.87), (1.99999999999293, 0.75), (12.484, 0.6659973327943677), (12.484, 0.5459973327943677)]</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[(2.0, 2.0), (2.0, 1.87), (12.61, 1.8198281889921069), (12.61, 1.689828188992107), (2.0, 1.87), (2.0, 1.75), (12.61, 1.689828188992107), (12.61, 1.5698281889921069)]</t>
+          <t>[(1.99999999999412, 2.0), (1.99999999999412, 1.87), (12.61, 1.8198281889920072), (12.61, 1.6898281889920073), (1.99999999999412, 1.87), (1.99999999999412, 1.75), (12.61, 1.6898281889920073), (12.61, 1.5698281889920072)]</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[(2.0, 3.0), (2.0, 2.87), (12.582, 2.8271252213710065), (12.582, 2.6971252213710066), (2.0, 2.87), (2.0, 2.75), (12.582, 2.6971252213710066), (12.582, 2.5771252213710065)]</t>
+          <t>[(1.99999999999293, 3.0), (1.99999999999293, 2.87), (12.582, 2.827125221370891), (12.582, 2.697125221370891), (1.99999999999293, 2.87), (1.99999999999293, 2.75), (12.582, 2.697125221370891), (12.582, 2.577125221370891)]</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[(2.0, 4.0), (2.0, 3.87), (12.09, 3.8179612055480217), (12.09, 3.6879612055480218), (2.0, 3.87), (2.0, 3.75), (12.09, 3.6879612055480218), (12.09, 3.5679612055480217)]</t>
+          <t>[(1.99999999999412, 4.0), (1.99999999999412, 3.87), (12.09, 3.817961205547916), (12.09, 3.687961205547916), (1.99999999999412, 3.87), (1.99999999999412, 3.75), (12.09, 3.687961205547916), (12.09, 3.567961205547916)]</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[(2.0, 5.0), (2.0, 4.87), (10.09, 4.800038200452552), (10.09, 4.670038200452552), (2.0, 4.87), (2.0, 4.75), (10.09, 4.670038200452552), (10.09, 4.550038200452552)]</t>
+          <t>[(1.99999999999293, 5.0), (1.99999999999293, 4.87), (10.09, 4.800038200452377), (10.09, 4.670038200452377), (1.99999999999293, 4.87), (1.99999999999293, 4.75), (10.09, 4.670038200452377), (10.09, 4.550038200452377)]</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[(2.0, 6.0), (2.0, 5.87), (9.535, 5.827799017513884), (9.535, 5.697799017513884), (2.0, 5.87), (2.0, 5.75), (9.535, 5.697799017513884), (9.535, 5.577799017513884)]</t>
+          <t>[(2.00000000000788, 6.0), (2.00000000000788, 5.87), (9.535, 5.827799017514064), (9.535, 5.697799017514064), (2.00000000000788, 5.87), (2.00000000000788, 5.75), (9.535, 5.697799017514064), (9.535, 5.577799017514064)]</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[(2.0, 7.0), (2.0, 6.87), (9.488, 6.870602759209219), (9.488, 6.740602759209219), (2.0, 6.87), (2.0, 6.75), (9.488, 6.740602759209219), (9.488, 6.620602759209219)]</t>
+          <t>[(1.99999999999293, 7.0), (1.99999999999293, 6.87), (9.488, 6.870602759209097), (9.488, 6.7406027592090965), (1.99999999999293, 6.87), (1.99999999999293, 6.75), (9.488, 6.7406027592090965), (9.488, 6.620602759209097)]</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[(2.0, 8.0), (2.0, 7.87), (13.004, 7.760882009632637), (13.004, 7.6308820096326375), (2.0, 7.87), (2.0, 7.75), (13.004, 7.6308820096326375), (13.004, 7.510882009632637)]</t>
+          <t>[(1.99999999999293, 8.0), (1.99999999999293, 7.87), (13.004, 7.760882009632484), (13.004, 7.630882009632484), (1.99999999999293, 7.87), (1.99999999999293, 7.75), (13.004, 7.630882009632484), (13.004, 7.510882009632484)]</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[(2.0, 9.0), (2.0, 8.87), (12.934, 8.758075461741425), (12.934, 8.628075461741425), (2.0, 8.87), (2.0, 8.75), (12.934, 8.628075461741425), (12.934, 8.508075461741425)]</t>
+          <t>[(1.99999999999412, 9.0), (1.99999999999412, 8.87), (12.934, 8.758075461741294), (12.934, 8.628075461741293), (1.99999999999412, 8.87), (1.99999999999412, 8.75), (12.934, 8.628075461741293), (12.934, 8.508075461741294)]</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[(2.0, 10.0), (2.0, 9.87), (12.906, 9.744376136041568), (12.906, 9.614376136041567), (2.0, 9.87), (2.0, 9.75), (12.906, 9.614376136041567), (12.906, 9.494376136041568)]</t>
+          <t>[(1.99999999999293, 10.0), (1.99999999999293, 9.87), (12.906, 9.744376136041401), (12.906, 9.6143761360414), (1.99999999999293, 9.87), (1.99999999999293, 9.75), (12.906, 9.6143761360414), (12.906, 9.494376136041401)]</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[(2.0, 11.0), (2.0, 10.87), (12.893, 10.828459932024174), (12.893, 10.698459932024173), (2.0, 10.87), (2.0, 10.75), (12.893, 10.698459932024173), (12.893, 10.578459932024174)]</t>
+          <t>[(1.99999999999412, 11.0), (1.99999999999412, 10.87), (12.893, 10.828459932024082), (12.893, 10.69845993202408), (1.99999999999412, 10.87), (1.99999999999412, 10.75), (12.893, 10.69845993202408), (12.893, 10.578459932024082)]</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[(2.0, 12.0), (2.0, 11.87), (12.828, 11.821377967064173), (12.828, 11.691377967064172), (2.0, 11.87), (2.0, 11.75), (12.828, 11.691377967064172), (12.828, 11.571377967064173)]</t>
+          <t>[(1.99999999999412, 12.0), (1.99999999999412, 11.87), (12.828, 11.821377967064077), (12.828, 11.691377967064076), (1.99999999999412, 11.87), (1.99999999999412, 11.75), (12.828, 11.691377967064076), (12.828, 11.571377967064077)]</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[(2.0, 13.0), (2.0, 12.87), (12.849, 12.905055903432663), (12.849, 12.775055903432662), (2.0, 12.87), (2.0, 12.75), (12.849, 12.775055903432662), (12.849, 12.655055903432663)]</t>
+          <t>[(1.99999999999293, 13.0), (1.99999999999293, 12.87), (12.849, 12.9050559034326), (12.849, 12.7750559034326), (1.99999999999293, 12.87), (1.99999999999293, 12.75), (12.849, 12.7750559034326), (12.849, 12.6550559034326)]</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[(2.0, 14.0), (2.0, 13.87), (12.85, 13.978326580608687), (12.85, 13.848326580608687), (2.0, 13.87), (2.0, 13.75), (12.85, 13.848326580608687), (12.85, 13.728326580608687)]</t>
+          <t>[(1.99999999999412, 14.0), (1.99999999999412, 13.87), (12.85, 13.978326580608675), (12.85, 13.848326580608674), (1.99999999999412, 13.87), (1.99999999999412, 13.75), (12.85, 13.848326580608674), (12.85, 13.728326580608675)]</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[(2.0, 15.0), (2.0, 14.87), (12.84, 15.017619353619356), (12.84, 14.887619353619355), (2.0, 14.87), (2.0, 14.75), (12.84, 14.887619353619355), (12.84, 14.767619353619356)]</t>
+          <t>[(1.99999999999293, 15.0), (1.99999999999293, 14.87), (12.84, 15.017619353619368), (12.84, 14.887619353619368), (1.99999999999293, 14.87), (1.99999999999293, 14.75), (12.84, 14.887619353619368), (12.84, 14.767619353619368)]</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[(2.0, 16.0), (2.0, 15.87), (12.775, 16.164317989268568), (12.775, 16.034317989268565), (2.0, 15.87), (2.0, 15.75), (12.775, 16.034317989268565), (12.775, 15.914317989268568)]</t>
+          <t>[(1.99988516071667, 16.0), (1.99988516071667, 15.87), (12.775, 16.16431974055953), (12.775, 16.03431974055953), (1.99988516071667, 15.87), (1.99988516071667, 15.75), (12.775, 16.03431974055953), (12.775, 15.914319740559531)]</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[(2.0, 17.0), (2.0, 16.87), (12.807, 17.28882552440885), (12.807, 17.15882552440885), (2.0, 16.87), (2.0, 16.75), (12.807, 17.15882552440885), (12.807, 17.03882552440885)]</t>
+          <t>[(2.00039196126071, 17.0), (2.00039196126071, 16.87), (12.807, 17.288815048937703), (12.807, 17.158815048937704), (2.00039196126071, 16.87), (2.00039196126071, 16.75), (12.807, 17.158815048937704), (12.807, 17.038815048937703)]</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[(2.0, 18.0), (2.0, 17.87), (13.117, 18.25857162482236), (13.117, 18.12857162482236), (2.0, 17.87), (2.0, 17.75), (13.117, 18.12857162482236), (13.117, 18.00857162482236)]</t>
+          <t>[(2.00065094787844, 18.0), (2.00065094787844, 17.87), (13.117, 18.258556484348254), (13.117, 18.128556484348255), (2.00065094787844, 17.87), (2.00065094787844, 17.75), (13.117, 18.128556484348255), (13.117, 18.008556484348254)]</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[(2.0, 19.0), (2.0, 18.87), (13.157, 19.472522986529093), (13.157, 19.342522986529094), (2.0, 18.87), (2.0, 18.75), (13.157, 19.342522986529094), (13.157, 19.222522986529093)]</t>
+          <t>[(2.00070601933591, 19.0), (2.00070601933591, 18.87), (13.157, 19.472493085089177), (13.157, 19.342493085089178), (2.00070601933591, 18.87), (2.00070601933591, 18.75), (13.157, 19.342493085089178), (13.157, 19.222493085089177)]</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[(2.0, 20.0), (2.0, 19.87), (9.729, 20.43322492795389), (9.729, 20.30322492795389), (2.0, 19.87), (2.0, 19.75), (9.729, 20.30322492795389), (9.729, 20.18322492795389)]</t>
+          <t>[(2.00044275291547, 20.0), (2.00044275291547, 19.87), (9.729, 20.433200110823613), (9.729, 20.303200110823614), (2.00044275291547, 19.87), (2.00044275291547, 19.75), (9.729, 20.303200110823614), (9.729, 20.183200110823613)]</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[(2.0, 21.0), (2.0, 20.87), (9.787, 21.487903865155474), (9.787, 21.357903865155475), (2.0, 20.87), (2.0, 20.75), (9.787, 21.357903865155475), (9.787, 21.237903865155474)]</t>
+          <t>[(2.00000000000117, 21.0), (2.00000000000117, 20.87), (9.787, 21.487903865155403), (9.787, 21.357903865155404), (2.00000000000117, 20.87), (2.00000000000117, 20.75), (9.787, 21.357903865155404), (9.787, 21.237903865155403)]</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[(1.72, 22.0), (1.72, 21.87), (9.931, 22.5345361), (9.931, 22.4045361), (1.72, 21.87), (1.72, 21.75), (9.931, 22.4045361), (9.931, 22.2845361)]</t>
+          <t>[(1.71699625490697, 22.0), (1.71699625490697, 21.87), (9.931, 22.534731643805557), (9.931, 22.404731643805558), (1.71699625490697, 21.87), (1.71699625490697, 21.75), (9.931, 22.404731643805558), (9.931, 22.284731643805557)]</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[(1.15, 24.0), (1.15, 23.89), (9.715, 24.59955), (9.715, 24.48955), (1.15, 23.89), (1.15, 23.75), (9.715, 24.48955), (9.715, 24.289550000000002)]</t>
+          <t>[(1.1499969137986, 24.0), (1.1499969137986, 23.88), (9.715, 24.5995502160341), (9.715, 24.3495502160341), (1.1499969137986, 23.88), (1.1499969137986, 23.76), (9.715, 24.3495502160341), (9.715, 24.0995502160341)]</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[(0.87, 25.0), (0.87, 24.89), (9.351, 25.59367), (9.351, 25.48367), (0.87, 24.89), (0.87, 24.75), (9.351, 25.48367), (9.351, 25.19367)]</t>
+          <t>[(0.866561087373475, 25.0), (0.866561087373475, 24.89), (9.351, 25.593910723883855), (9.351, 25.483910723883856), (0.866561087373475, 24.89), (0.866561087373475, 24.75), (9.351, 25.483910723883856), (9.351, 25.193910723883857)]</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[(0.58, 26.0), (0.58, 25.89), (9.41, 26.6181), (9.41, 26.5081), (0.58, 25.89), (0.58, 25.75), (9.41, 26.5081), (9.41, 26.298099999999998)]</t>
+          <t>[(0.583999999998517, 26.0), (0.583999999998517, 25.88), (9.41, 26.617820000000105), (9.41, 26.357820000000103), (0.583999999998517, 25.88), (0.583999999998517, 25.76), (9.41, 26.357820000000103), (9.41, 26.097820000000105)]</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.299997961464745, 27.0), (0.299997961464745, 26.87), (2.881, 27.18067014269747), (2.881, 27.05067014269747), (2.881, 27.18067014269747), (2.881, 27.060670142697468), (9.82, 27.66640014269747), (9.82, 27.42640014269747), (0.299997961464745, 26.87), (0.299997961464745, 26.75), (2.881, 27.05067014269747), (2.881, 26.93067014269747), (2.881, 27.060670142697468), (2.881, 26.94067014269747), (9.82, 27.42640014269747), (9.82, 27.18640014269747)]</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[(0.3, 28.0), (0.3, 27.87), (3.127, 28.19789), (3.127, 28.067890000000002), (3.127, 28.19789), (3.127, 28.05789), (10.007, 28.67949), (10.007, 28.53949), (0.3, 27.87), (0.3, 27.75), (3.127, 28.067890000000002), (3.127, 27.94789), (3.127, 28.05789), (3.127, 27.94789), (10.007, 28.53949), (10.007, 28.40949)]</t>
+          <t>[(0.300000000001262, 28.0), (0.300000000001262, 27.87), (3.127, 28.197889999999912), (3.127, 28.067889999999913), (3.127, 28.197889999999912), (3.127, 28.07788999999991), (10.007, 28.679489999999912), (10.007, 28.449489999999912), (0.300000000001262, 27.87), (0.300000000001262, 27.75), (3.127, 28.067889999999913), (3.127, 27.947889999999912), (3.127, 28.07788999999991), (3.127, 27.957889999999914), (10.007, 28.449489999999912), (10.007, 28.21948999999991)]</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.299999999998216, 29.0), (0.299999999998216, 28.87), (3.307, 29.210490000000124), (3.307, 29.080490000000125), (3.307, 29.210490000000124), (3.307, 29.090490000000123), (10.224, 29.694680000000126), (10.224, 29.454680000000128), (0.299999999998216, 28.87), (0.299999999998216, 28.75), (3.307, 29.080490000000125), (3.307, 28.960490000000124), (3.307, 29.090490000000123), (3.307, 28.970490000000126), (10.224, 29.454680000000128), (10.224, 29.214680000000126)]</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[(0.3, 30.0), (0.3, 29.86), (3.411, 30.19724745172028), (3.411, 30.05724745172028), (3.411, 30.19724745172028), (3.411, 30.06724745172028), (10.294, 30.633651890868688), (10.294, 30.50365189086869), (0.3, 29.86), (0.3, 29.74), (3.411, 30.05724745172028), (3.411, 29.94724745172028), (3.411, 30.06724745172028), (3.411, 29.94724745172028), (10.294, 30.50365189086869), (10.294, 30.383651890868688)]</t>
+          <t>[(0.300000000011259, 30.0), (0.300000000011259, 29.86), (3.411, 30.19724745171957), (3.411, 30.05724745171957), (3.411, 30.19724745171957), (3.411, 30.06724745171957), (10.294, 30.633651890867974), (10.294, 30.503651890867975), (0.300000000011259, 29.86), (0.300000000011259, 29.74), (3.411, 30.05724745171957), (3.411, 29.94724745171957), (3.411, 30.06724745171957), (3.411, 29.94724745171957), (10.294, 30.503651890867975), (10.294, 30.203651890867974)]</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[(0.3, 31.0), (0.3, 30.86), (3.192, 31.16417140338496), (3.192, 31.02417140338496), (3.192, 31.16417140338496), (3.192, 31.03417140338496), (10.131, 31.55808059013746), (10.131, 31.428080590137462), (0.3, 30.86), (0.3, 30.73), (3.192, 31.02417140338496), (3.192, 30.91417140338496), (3.192, 31.03417140338496), (3.192, 30.91417140338496), (10.131, 31.428080590137462), (10.131, 31.30808059013746)]</t>
+          <t>[(0.300000000097712, 31.0), (0.300000000097712, 30.86), (3.192, 31.164171403379413), (3.192, 31.024171403379412), (3.192, 31.164171403379413), (3.192, 31.024171403379412), (10.131, 31.558080590131915), (10.131, 31.418080590131915), (0.300000000097712, 30.86), (0.300000000097712, 30.73), (3.192, 31.024171403379412), (3.192, 30.914171403379413), (3.192, 31.024171403379412), (3.192, 30.914171403379413), (10.131, 31.418080590131915), (10.131, 31.118080590131914)]</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[(0.3, 32.0), (0.3, 31.84), (3.048, 32.13776170848766), (3.048, 31.977761708487655), (3.048, 32.13776170848766), (3.048, 31.987761708487657), (9.854, 32.478957555637216), (9.854, 32.32895755563722), (0.3, 31.84), (0.3, 31.68), (3.048, 31.977761708487655), (3.048, 31.857761708487654), (3.048, 31.987761708487657), (3.048, 31.857761708487654), (9.854, 32.32895755563722), (9.854, 32.20895755563721)]</t>
+          <t>[(0.300000000103515, 32.0), (0.300000000103515, 31.84), (3.048, 32.137761708482465), (3.048, 31.977761708482465), (3.048, 32.137761708482465), (3.048, 31.977761708482465), (9.854, 32.47895755563202), (9.854, 32.318957555632025), (0.300000000103515, 31.84), (0.300000000103515, 31.68), (3.048, 31.977761708482465), (3.048, 31.857761708482464), (3.048, 31.977761708482465), (3.048, 31.857761708482464), (9.854, 32.318957555632025), (9.854, 32.01895755563202)]</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[(0.3, 33.0), (0.3, 32.81), (3.233, 33.127573250671816), (3.233, 32.93757325067182), (3.233, 33.127573250671816), (3.233, 32.957573250671814), (9.646, 33.40651196753453), (9.646, 33.236511967534526), (0.3, 32.81), (0.3, 32.63), (3.233, 32.93757325067182), (3.233, 32.79757325067182), (3.233, 32.957573250671814), (3.233, 32.79757325067182), (9.646, 33.236511967534526), (9.646, 33.08651196753453)]</t>
+          <t>[(0.300000000013087, 33.0), (0.300000000013087, 32.81), (3.233, 33.12757325067125), (3.233, 32.93757325067125), (3.233, 33.12757325067125), (3.233, 32.917573250671246), (9.646, 33.40651196753396), (9.646, 33.19651196753396), (0.300000000013087, 32.81), (0.300000000013087, 32.63), (3.233, 32.93757325067125), (3.233, 32.79757325067125), (3.233, 32.917573250671246), (3.233, 32.79757325067125), (9.646, 33.19651196753396), (9.646, 32.89651196753396)]</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[(0.3, 34.0), (0.3, 33.89), (3.417, 34.11489268592124), (3.417, 34.00489268592124), (3.417, 34.11489268592124), (3.417, 34.00489268592124), (9.666, 34.34523095808097), (9.666, 34.23523095808097), (0.3, 33.89), (0.3, 33.62), (3.417, 34.00489268592124), (3.417, 33.84489268592124), (3.417, 34.00489268592124), (3.417, 33.84489268592124), (9.666, 34.23523095808097), (9.666, 33.97523095808097)]</t>
+          <t>[(0.300000000000589, 34.0), (0.300000000000589, 33.89), (3.417, 34.11489268592122), (3.417, 34.00489268592122), (3.417, 34.11489268592122), (3.417, 33.97489268592122), (9.666, 34.34523095808095), (9.666, 34.065230958080946), (0.300000000000589, 33.89), (0.300000000000589, 33.62), (3.417, 34.00489268592122), (3.417, 33.84489268592122), (3.417, 33.97489268592122), (3.417, 33.83489268592122), (9.666, 34.065230958080946), (9.666, 33.785230958080945)]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[(0.3, 35.0), (0.3, 34.78), (3.455, 35.09535740993478), (3.455, 34.87535740993478), (3.455, 35.09535740993478), (3.455, 34.95535740993478), (9.825, 35.28788568292513), (9.825, 35.14788568292513), (0.3, 34.78), (0.3, 34.57), (3.455, 34.87535740993478), (3.455, 34.69535740993478), (3.455, 34.95535740993478), (3.455, 34.81535740993478), (9.825, 35.14788568292513), (9.825, 35.00788568292513)]</t>
+          <t>[(0.300000000070149, 35.0), (0.300000000070149, 34.78), (3.455, 35.09535740993266), (3.455, 34.87535740993266), (3.455, 35.09535740993266), (3.455, 34.89535740993266), (9.825, 35.28788568292301), (9.825, 34.987885682923014), (0.300000000070149, 34.78), (0.300000000070149, 34.57), (3.455, 34.87535740993266), (3.455, 34.69535740993266), (3.455, 34.89535740993266), (3.455, 34.69535740993266), (9.825, 34.987885682923014), (9.825, 34.68788568292301)]</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[(0.3, 36.0), (0.3, 35.85), (3.501, 36.0630018903962), (3.501, 35.9130018903962), (3.501, 36.0630018903962), (3.501, 35.8130018903962), (9.912, 36.18918280864989), (9.912, 35.93918280864989), (0.3, 35.85), (0.3, 35.7), (3.501, 35.9130018903962), (3.501, 35.763001890396204), (3.501, 35.8130018903962), (3.501, 35.653001890396204), (9.912, 35.93918280864989), (9.912, 35.69918280864989), (0.3, 35.7), (0.3, 35.57), (3.501, 35.763001890396204), (3.501, 35.653001890396204), (3.501, 35.653001890396204), (3.501, 35.653001890396204), (9.912, 35.69918280864989), (9.912, 35.69918280864989)]</t>
+          <t>[(0.29999999999778, 36.0), (0.29999999999778, 35.85), (3.501, 36.063001890396244), (3.501, 35.913001890396245), (3.501, 36.063001890396244), (3.501, 35.86300189039624), (9.912, 36.18918280864993), (9.912, 35.84918280864993), (0.29999999999778, 35.85), (0.29999999999778, 35.7), (3.501, 35.913001890396245), (3.501, 35.76300189039625), (3.501, 35.86300189039624), (3.501, 35.663001890396245), (9.912, 35.84918280864993), (9.912, 35.50918280864993), (0.29999999999778, 35.7), (0.29999999999778, 35.57), (3.501, 35.76300189039625), (3.501, 35.65300189039625), (3.501, 35.663001890396245), (3.501, 35.663001890396245), (9.912, 35.50918280864993), (9.912, 35.50918280864993)]</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[(0.3, 37.0), (0.3, 36.78), (3.543, 36.98275353188217), (3.543, 36.76275353188217), (3.543, 36.98275353188217), (3.543, 36.80275353188217), (10.008, 36.94837227490352), (10.008, 36.76837227490352), (0.3, 36.78), (0.3, 36.56), (3.543, 36.76275353188217), (3.543, 36.632753531882166), (3.543, 36.80275353188217), (3.543, 36.632753531882166), (10.008, 36.76837227490352), (10.008, 36.63837227490352)]</t>
+          <t>[(0.299999999994413, 37.0), (0.299999999994413, 36.78), (3.543, 36.98275353188214), (3.543, 36.76275353188214), (3.543, 36.98275353188214), (3.543, 36.782753531882136), (10.008, 36.948372274903484), (10.008, 36.74837227490348), (0.299999999994413, 36.78), (0.299999999994413, 36.56), (3.543, 36.76275353188214), (3.543, 36.63275353188214), (3.543, 36.782753531882136), (3.543, 36.63275353188214), (10.008, 36.74837227490348), (10.008, 36.448372274903484)]</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[(0.3, 38.0), (0.3, 37.82), (3.574, 37.91815), (3.574, 37.73815), (3.574, 37.91815), (3.574, 37.80815), (10.081, 37.755475), (10.081, 37.645475), (0.3, 37.82), (0.3, 37.52), (3.574, 37.73815), (3.574, 37.608149999999995), (3.574, 37.80815), (3.574, 37.608149999999995), (10.081, 37.645475), (10.081, 37.505475)]</t>
+          <t>[(0.29999999999778, 38.0), (0.29999999999778, 37.82), (3.574, 37.91814999999995), (3.574, 37.73814999999995), (3.574, 37.91814999999995), (3.574, 37.718149999999945), (10.081, 37.75547499999995), (10.081, 37.555474999999944), (0.29999999999778, 37.82), (0.29999999999778, 37.52), (3.574, 37.73814999999995), (3.574, 37.608149999999945), (3.574, 37.718149999999945), (3.574, 37.608149999999945), (10.081, 37.555474999999944), (10.081, 37.36547499999995)]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[(0.3, 39.0), (0.3, 38.79), (3.576, 38.9181), (3.576, 38.7081), (3.576, 38.9181), (3.576, 38.8081), (10.09, 38.75525), (10.09, 38.64525), (0.3, 38.79), (0.3, 38.49), (3.576, 38.7081), (3.576, 38.5581), (3.576, 38.8081), (3.576, 38.5581), (10.09, 38.64525), (10.09, 38.475249999999996)]</t>
+          <t>[(0.29999999999778, 39.0), (0.29999999999778, 38.79), (3.576, 38.918099999999946), (3.576, 38.708099999999945), (3.576, 38.918099999999946), (3.576, 38.678099999999944), (10.09, 38.75524999999995), (10.09, 38.515249999999945), (0.29999999999778, 38.79), (0.29999999999778, 38.49), (3.576, 38.708099999999945), (3.576, 38.558099999999946), (3.576, 38.678099999999944), (3.576, 38.558099999999946), (10.09, 38.515249999999945), (10.09, 38.28524999999995)]</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[(0.3, 40.0), (0.3, 39.74), (3.615, 39.917125), (3.615, 39.657125), (3.615, 39.917125), (3.615, 39.727125), (10.036, 39.7566), (10.036, 39.5666), (0.3, 39.74), (0.3, 39.48), (3.615, 39.657125), (3.615, 39.547125), (3.615, 39.727125), (3.615, 39.547125), (10.036, 39.5666), (10.036, 39.4566)]</t>
+          <t>[(0.299999999991045, 40.0), (0.299999999991045, 39.74), (3.615, 39.91712499999978), (3.615, 39.65712499999978), (3.615, 39.91712499999978), (3.615, 39.66712499999978), (10.036, 39.75659999999978), (10.036, 39.50659999999978), (0.299999999991045, 39.74), (0.299999999991045, 39.48), (3.615, 39.65712499999978), (3.615, 39.54712499999978), (3.615, 39.66712499999978), (3.615, 39.54712499999978), (10.036, 39.50659999999978), (10.036, 39.26659999999978)]</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[(0.3, 41.0), (0.3, 40.74), (3.594, 40.91765), (3.594, 40.657650000000004), (3.594, 40.91765), (3.594, 40.727650000000004), (10.071, 40.755725), (10.071, 40.565725), (0.3, 40.74), (0.3, 40.44), (3.594, 40.657650000000004), (3.594, 40.547650000000004), (3.594, 40.727650000000004), (3.594, 40.547650000000004), (10.071, 40.565725), (10.071, 40.455725)]</t>
+          <t>[(0.29999999999778, 41.0), (0.29999999999778, 40.74), (3.594, 40.917649999999945), (3.594, 40.65764999999995), (3.594, 40.917649999999945), (3.594, 40.667649999999945), (10.071, 40.75572499999994), (10.071, 40.50572499999994), (0.29999999999778, 40.74), (0.29999999999778, 40.44), (3.594, 40.65764999999995), (3.594, 40.54764999999995), (3.594, 40.667649999999945), (3.594, 40.54764999999995), (10.071, 40.50572499999994), (10.071, 40.26572499999994)]</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[(0.3, 42.0), (0.3, 41.76), (3.573, 41.918175), (3.573, 41.678174999999996), (3.573, 41.918175), (3.573, 41.728175), (10.032, 41.7567), (10.032, 41.566700000000004), (0.3, 41.76), (0.3, 41.46), (3.573, 41.678174999999996), (3.573, 41.548175), (3.573, 41.728175), (3.573, 41.548175), (10.032, 41.566700000000004), (10.032, 41.456700000000005)]</t>
+          <t>[(0.29999999999778, 42.0), (0.29999999999778, 41.76), (3.573, 41.91817499999994), (3.573, 41.67817499999994), (3.573, 41.91817499999994), (3.573, 41.66817499999994), (10.032, 41.756699999999945), (10.032, 41.506699999999945), (0.29999999999778, 41.76), (0.29999999999778, 41.46), (3.573, 41.67817499999994), (3.573, 41.548174999999944), (3.573, 41.66817499999994), (3.573, 41.548174999999944), (10.032, 41.506699999999945), (10.032, 41.26669999999994)]</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[(0.3, 43.0), (0.3, 42.73), (3.565, 42.918375), (3.565, 42.648374999999994), (3.565, 42.918375), (3.565, 42.808375), (10.038, 42.75655), (10.038, 42.64655), (0.3, 42.73), (0.3, 42.47), (3.565, 42.648374999999994), (3.565, 42.518375), (3.565, 42.808375), (3.565, 42.518375), (10.038, 42.64655), (10.038, 42.45655)]</t>
+          <t>[(0.299999999991045, 43.0), (0.299999999991045, 42.73), (3.565, 42.91837499999978), (3.565, 42.648374999999774), (3.565, 42.91837499999978), (3.565, 42.66837499999978), (10.038, 42.75654999999978), (10.038, 42.50654999999978), (0.299999999991045, 42.73), (0.299999999991045, 42.47), (3.565, 42.648374999999774), (3.565, 42.51837499999978), (3.565, 42.66837499999978), (3.565, 42.51837499999978), (10.038, 42.50654999999978), (10.038, 42.266549999999775)]</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[(0.3, 44.0), (0.3, 43.73), (3.569, 43.918275), (3.569, 43.648275), (3.569, 43.918275), (3.569, 43.718275), (10.025, 43.756875), (10.025, 43.556875), (0.3, 43.73), (0.3, 43.46), (3.569, 43.648275), (3.569, 43.518275), (3.569, 43.718275), (3.569, 43.518275), (10.025, 43.556875), (10.025, 43.426875)]</t>
+          <t>[(0.29999999999778, 44.0), (0.29999999999778, 43.73), (3.569, 43.918274999999944), (3.569, 43.64827499999994), (3.569, 43.918274999999944), (3.569, 43.658274999999946), (10.025, 43.756874999999944), (10.025, 43.496874999999946), (0.29999999999778, 43.73), (0.29999999999778, 43.46), (3.569, 43.64827499999994), (3.569, 43.518274999999946), (3.569, 43.658274999999946), (3.569, 43.518274999999946), (10.025, 43.496874999999946), (10.025, 43.23687499999994)]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[(0.3, 45.0), (0.3, 44.71), (3.578, 44.91805), (3.578, 44.62805), (3.578, 44.91805), (3.578, 44.70805), (10.008, 44.7573), (10.008, 44.5473), (0.3, 44.71), (0.3, 44.43), (3.578, 44.62805), (3.578, 44.49805), (3.578, 44.70805), (3.578, 44.49805), (10.008, 44.5473), (10.008, 44.4073)]</t>
+          <t>[(0.29999999999778, 45.0), (0.29999999999778, 44.71), (3.578, 44.918049999999944), (3.578, 44.628049999999945), (3.578, 44.918049999999944), (3.578, 44.64804999999994), (10.008, 44.757299999999944), (10.008, 44.48729999999994), (0.29999999999778, 44.71), (0.29999999999778, 44.43), (3.578, 44.628049999999945), (3.578, 44.49804999999994), (3.578, 44.64804999999994), (3.578, 44.49804999999994), (10.008, 44.48729999999994), (10.008, 44.217299999999945)]</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[(0.3, 46.0), (0.3, 45.7), (3.588, 45.9178), (3.588, 45.6178), (3.588, 45.9178), (3.588, 45.7078), (10.079, 45.755525), (10.079, 45.545525), (0.3, 45.7), (0.3, 45.41), (3.588, 45.6178), (3.588, 45.5078), (3.588, 45.7078), (3.588, 45.5078), (10.079, 45.545525), (10.079, 45.405525)]</t>
+          <t>[(0.299999999991045, 46.0), (0.299999999991045, 45.7), (3.588, 45.91779999999978), (3.588, 45.61779999999978), (3.588, 45.91779999999978), (3.588, 45.647799999999776), (10.079, 45.75552499999978), (10.079, 45.485524999999775), (0.299999999991045, 45.7), (0.299999999991045, 45.41), (3.588, 45.61779999999978), (3.588, 45.50779999999978), (3.588, 45.647799999999776), (3.588, 45.50779999999978), (10.079, 45.485524999999775), (10.079, 45.21552499999978)]</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[(0.3, 47.0), (0.3, 46.72), (3.69, 46.91525), (3.69, 46.63525), (3.69, 46.91525), (3.69, 46.71525), (10.075, 46.755625), (10.075, 46.555625), (0.3, 46.72), (0.3, 46.44), (3.69, 46.63525), (3.69, 46.52525), (3.69, 46.71525), (3.69, 46.52525), (10.075, 46.555625), (10.075, 46.395625)]</t>
+          <t>[(0.299999999994413, 47.0), (0.299999999994413, 46.72), (3.69, 46.91524999999986), (3.69, 46.63524999999986), (3.69, 46.91524999999986), (3.69, 46.63524999999986), (10.075, 46.75562499999986), (10.075, 46.47562499999986), (0.299999999994413, 46.72), (0.299999999994413, 46.44), (3.69, 46.63524999999986), (3.69, 46.52524999999986), (3.69, 46.63524999999986), (3.69, 46.52524999999986), (10.075, 46.47562499999986), (10.075, 46.20562499999986)]</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[(0.3, 48.0), (0.3, 47.71), (3.68, 47.9155), (3.68, 47.6255), (3.68, 47.9155), (3.68, 47.7755), (10.077, 47.755575), (10.077, 47.615575), (0.3, 47.71), (0.3, 47.42), (3.68, 47.6255), (3.68, 47.505500000000005), (3.68, 47.7755), (3.68, 47.6355), (10.077, 47.615575), (10.077, 47.475575)]</t>
+          <t>[(0.299999999994413, 48.0), (0.299999999994413, 47.71), (3.68, 47.91549999999986), (3.68, 47.62549999999986), (3.68, 47.91549999999986), (3.68, 47.62549999999986), (10.077, 47.75557499999986), (10.077, 47.46557499999986), (0.299999999994413, 47.71), (0.299999999994413, 47.42), (3.68, 47.62549999999986), (3.68, 47.50549999999986), (3.68, 47.62549999999986), (3.68, 47.50549999999986), (10.077, 47.46557499999986), (10.077, 47.17557499999986)]</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[(0.3, 49.0), (0.3, 48.71), (3.677, 48.915575), (3.677, 48.625575), (3.677, 48.915575), (3.677, 48.705574999999996), (10.098, 48.75505), (10.098, 48.545049999999996), (0.3, 48.71), (0.3, 48.43), (3.677, 48.625575), (3.677, 48.495574999999995), (3.677, 48.705574999999996), (3.677, 48.495574999999995), (10.098, 48.545049999999996), (10.098, 48.39505)]</t>
+          <t>[(0.299999999994413, 49.0), (0.299999999994413, 48.71), (3.677, 48.91557499999986), (3.677, 48.62557499999986), (3.677, 48.91557499999986), (3.677, 48.63557499999986), (10.098, 48.75504999999986), (10.098, 48.47504999999986), (0.299999999994413, 48.71), (0.299999999994413, 48.43), (3.677, 48.62557499999986), (3.677, 48.49557499999986), (3.677, 48.63557499999986), (3.677, 48.49557499999986), (10.098, 48.47504999999986), (10.098, 48.205049999999865)]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[(0.3, 50.0), (0.3, 49.71), (3.71, 49.91475), (3.71, 49.62475), (3.71, 49.91475), (3.71, 49.70475), (10.163, 49.753425), (10.163, 49.543425), (0.3, 49.71), (0.3, 49.42), (3.71, 49.62475), (3.71, 49.494749999999996), (3.71, 49.70475), (3.71, 49.494749999999996), (10.163, 49.543425), (10.163, 49.363425)]</t>
+          <t>[(0.299999999994413, 50.0), (0.299999999994413, 49.71), (3.71, 49.91474999999986), (3.71, 49.624749999999864), (3.71, 49.91474999999986), (3.71, 49.624749999999864), (10.163, 49.75342499999986), (10.163, 49.46342499999986), (0.299999999994413, 49.71), (0.299999999994413, 49.42), (3.71, 49.624749999999864), (3.71, 49.49474999999986), (3.71, 49.624749999999864), (3.71, 49.49474999999986), (10.163, 49.46342499999986), (10.163, 49.17342499999986)]</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[(0.3, 51.0), (0.3, 50.71), (3.725, 50.914375), (3.725, 50.624375), (3.725, 50.914375), (3.725, 50.704375), (10.161, 50.753475), (10.161, 50.543475), (0.3, 50.71), (0.3, 50.42), (3.725, 50.624375), (3.725, 50.494375), (3.725, 50.704375), (3.725, 50.494375), (10.161, 50.543475), (10.161, 50.383475000000004)]</t>
+          <t>[(0.299999999994413, 51.0), (0.299999999994413, 50.71), (3.725, 50.91437499999986), (3.725, 50.62437499999986), (3.725, 50.91437499999986), (3.725, 50.63437499999986), (10.161, 50.75347499999986), (10.161, 50.47347499999986), (0.299999999994413, 50.71), (0.299999999994413, 50.42), (3.725, 50.62437499999986), (3.725, 50.494374999999856), (3.725, 50.63437499999986), (3.725, 50.494374999999856), (10.161, 50.47347499999986), (10.161, 50.19347499999986)]</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[(0.3, 52.0), (0.3, 51.7), (3.678, 51.91555), (3.678, 51.615550000000006), (3.678, 51.91555), (3.678, 51.70555), (10.155, 51.753625), (10.155, 51.543625), (0.3, 51.7), (0.3, 51.41), (3.678, 51.615550000000006), (3.678, 51.50555000000001), (3.678, 51.70555), (3.678, 51.50555000000001), (10.155, 51.543625), (10.155, 51.413624999999996)]</t>
+          <t>[(0.29999999999778, 52.0), (0.29999999999778, 51.7), (3.678, 51.915549999999946), (3.678, 51.61554999999995), (3.678, 51.915549999999946), (3.678, 51.64554999999994), (10.155, 51.75362499999994), (10.155, 51.48362499999994), (0.29999999999778, 51.7), (0.29999999999778, 51.41), (3.678, 51.61554999999995), (3.678, 51.50554999999995), (3.678, 51.64554999999994), (3.678, 51.50554999999995), (10.155, 51.48362499999994), (10.155, 51.22362499999994)]</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[(0.3, 53.0), (0.3, 52.72), (3.669, 52.915775), (3.669, 52.635774999999995), (3.669, 52.915775), (3.669, 52.695775), (10.171, 52.753225), (10.171, 52.533225), (0.3, 52.72), (0.3, 52.44), (3.669, 52.635774999999995), (3.669, 52.485775), (3.669, 52.695775), (3.669, 52.485775), (10.171, 52.533225), (10.171, 52.403225)]</t>
+          <t>[(0.29999999999778, 53.0), (0.29999999999778, 52.72), (3.669, 52.91577499999995), (3.669, 52.635774999999946), (3.669, 52.91577499999995), (3.669, 52.645774999999944), (10.171, 52.753224999999944), (10.171, 52.48322499999994), (0.29999999999778, 52.72), (0.29999999999778, 52.44), (3.669, 52.635774999999946), (3.669, 52.48577499999995), (3.669, 52.645774999999944), (3.669, 52.48577499999995), (10.171, 52.48322499999994), (10.171, 52.213224999999944)]</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[(0.3, 54.0), (0.3, 53.72), (3.737, 53.914075), (3.737, 53.634074999999996), (3.737, 53.914075), (3.737, 53.714074999999994), (10.21, 53.75225), (10.21, 53.552249999999994), (0.3, 53.72), (0.3, 53.45), (3.737, 53.634074999999996), (3.737, 53.514075), (3.737, 53.714074999999994), (3.737, 53.514075), (10.21, 53.552249999999994), (10.21, 53.42225)]</t>
+          <t>[(0.299999999991045, 54.0), (0.299999999991045, 53.72), (3.737, 53.91407499999978), (3.737, 53.634074999999775), (3.737, 53.91407499999978), (3.737, 53.65407499999978), (10.21, 53.752249999999776), (10.21, 53.49224999999978), (0.299999999991045, 53.72), (0.299999999991045, 53.45), (3.737, 53.634074999999775), (3.737, 53.51407499999978), (3.737, 53.65407499999978), (3.737, 53.51407499999978), (10.21, 53.49224999999978), (10.21, 53.23224999999977)]</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[(0.3, 55.0), (0.3, 54.72), (3.764, 54.9134), (3.764, 54.6334), (3.764, 54.9134), (3.764, 54.7034), (10.263, 54.750925), (10.263, 54.540925), (0.3, 54.72), (0.3, 54.45), (3.764, 54.6334), (3.764, 54.503400000000006), (3.764, 54.7034), (3.764, 54.503400000000006), (10.263, 54.540925), (10.263, 54.390925)]</t>
+          <t>[(0.29999999999778, 55.0), (0.29999999999778, 54.72), (3.764, 54.913399999999946), (3.764, 54.633399999999945), (3.764, 54.913399999999946), (3.764, 54.633399999999945), (10.263, 54.750924999999945), (10.263, 54.470924999999944), (0.29999999999778, 54.72), (0.29999999999778, 54.45), (3.764, 54.633399999999945), (3.764, 54.50339999999995), (3.764, 54.633399999999945), (3.764, 54.50339999999995), (10.263, 54.470924999999944), (10.263, 54.20092499999995)]</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[(0.3, 56.0), (0.3, 55.76), (3.701, 55.914975), (3.701, 55.674974999999996), (3.701, 55.914975), (3.701, 55.724975), (10.257, 55.751075), (10.257, 55.561075), (0.3, 55.76), (0.3, 55.46), (3.701, 55.674974999999996), (3.701, 55.544975), (3.701, 55.724975), (3.701, 55.544975), (10.257, 55.561075), (10.257, 55.431075)]</t>
+          <t>[(0.300000000001148, 56.0), (0.300000000001148, 55.76), (3.701, 55.91497500000003), (3.701, 55.674975000000025), (3.701, 55.91497500000003), (3.701, 55.65497500000003), (10.257, 55.75107500000003), (10.257, 55.49107500000003), (0.300000000001148, 55.76), (0.300000000001148, 55.46), (3.701, 55.674975000000025), (3.701, 55.54497500000003), (3.701, 55.65497500000003), (3.701, 55.54497500000003), (10.257, 55.49107500000003), (10.257, 55.24107500000003)]</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[(0.3, 57.0), (0.3, 56.8), (3.712, 56.9147), (3.712, 56.7147), (3.712, 56.9147), (3.712, 56.734700000000004), (10.244, 56.7514), (10.244, 56.5714), (0.3, 56.8), (0.3, 56.5), (3.712, 56.7147), (3.712, 56.5647), (3.712, 56.734700000000004), (3.712, 56.5647), (10.244, 56.5714), (10.244, 56.4614)]</t>
+          <t>[(0.299999999994413, 57.0), (0.299999999994413, 56.8), (3.712, 56.91469999999986), (3.712, 56.71469999999986), (3.712, 56.91469999999986), (3.712, 56.67469999999986), (10.244, 56.75139999999986), (10.244, 56.51139999999986), (0.299999999994413, 56.8), (0.299999999994413, 56.5), (3.712, 56.71469999999986), (3.712, 56.56469999999986), (3.712, 56.67469999999986), (3.712, 56.56469999999986), (10.244, 56.51139999999986), (10.244, 56.271399999999865)]</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[(0.3, 58.0), (0.3, 57.75), (3.798, 57.91255), (3.798, 57.66255), (3.798, 57.91255), (3.798, 57.802550000000004), (10.267, 57.750825), (10.267, 57.640825), (0.3, 57.75), (0.3, 57.5), (3.798, 57.66255), (3.798, 57.552550000000004), (3.798, 57.802550000000004), (3.798, 57.552550000000004), (10.267, 57.640825), (10.267, 57.470825)]</t>
+          <t>[(0.29999999999778, 58.0), (0.29999999999778, 57.75), (3.798, 57.912549999999946), (3.798, 57.662549999999946), (3.798, 57.912549999999946), (3.798, 57.672549999999944), (10.267, 57.75082499999994), (10.267, 57.51082499999994), (0.29999999999778, 57.75), (0.29999999999778, 57.5), (3.798, 57.662549999999946), (3.798, 57.55254999999995), (3.798, 57.672549999999944), (3.798, 57.55254999999995), (10.267, 57.51082499999994), (10.267, 57.28082499999994)]</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.29999999999778, 59.0), (0.29999999999778, 58.82), (3.805, 58.91237499999995), (3.805, 58.73237499999995), (3.805, 58.91237499999995), (3.805, 58.79237499999995), (10.228, 58.751799999999946), (10.228, 58.63179999999995), (0.29999999999778, 58.82), (0.29999999999778, 58.52), (3.805, 58.73237499999995), (3.805, 58.61237499999995), (3.805, 58.79237499999995), (3.805, 58.61237499999995), (10.228, 58.63179999999995), (10.228, 58.331799999999944)]</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[(0.3, 60.0), (0.3, 59.85), (3.788, 59.9128), (3.788, 59.7628), (3.788, 59.9128), (3.788, 59.7728), (10.299, 59.750025), (10.299, 59.610025), (0.3, 59.85), (0.3, 59.55), (3.788, 59.7628), (3.788, 59.642799999999994), (3.788, 59.7728), (3.788, 59.642799999999994), (10.299, 59.610025), (10.299, 59.500025)]</t>
+          <t>[(0.299999999994413, 60.0), (0.299999999994413, 59.85), (3.788, 59.91279999999986), (3.788, 59.762799999999864), (3.788, 59.91279999999986), (3.788, 59.80279999999986), (10.299, 59.75002499999986), (10.299, 59.64002499999986), (0.299999999994413, 59.85), (0.299999999994413, 59.55), (3.788, 59.762799999999864), (3.788, 59.64279999999986), (3.788, 59.80279999999986), (3.788, 59.64279999999986), (10.299, 59.64002499999986), (10.299, 59.35002499999986)]</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[(0.3, 61.0), (0.3, 60.89), (3.805, 60.912375), (3.805, 60.802375), (3.805, 60.912375), (3.805, 60.772375), (10.314, 60.74965), (10.314, 60.60965), (0.3, 60.89), (0.3, 60.6), (3.805, 60.802375), (3.805, 60.652375), (3.805, 60.772375), (3.805, 60.652375), (10.314, 60.60965), (10.314, 60.49965)]</t>
+          <t>[(0.29999999999778, 61.0), (0.29999999999778, 60.89), (3.805, 60.91237499999995), (3.805, 60.80237499999995), (3.805, 60.91237499999995), (3.805, 60.80237499999995), (10.314, 60.749649999999946), (10.314, 60.639649999999946), (0.29999999999778, 60.89), (0.29999999999778, 60.6), (3.805, 60.80237499999995), (3.805, 60.65237499999995), (3.805, 60.80237499999995), (3.805, 60.65237499999995), (10.314, 60.639649999999946), (10.314, 60.36964999999994)]</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[(0.3, 62.0), (0.3, 61.86), (3.851, 61.911225), (3.851, 61.771225), (3.851, 61.911225), (3.851, 61.781225), (10.351, 61.748725), (10.351, 61.618725), (0.3, 61.86), (0.3, 61.56), (3.851, 61.771225), (3.851, 61.661225), (3.851, 61.781225), (3.851, 61.661225), (10.351, 61.618725), (10.351, 61.498725)]</t>
+          <t>[(0.299999999994413, 62.0), (0.299999999994413, 61.86), (3.851, 61.91122499999986), (3.851, 61.77122499999986), (3.851, 61.91122499999986), (3.851, 61.80122499999986), (10.351, 61.74872499999986), (10.351, 61.63872499999986), (0.299999999994413, 61.86), (0.299999999994413, 61.56), (3.851, 61.77122499999986), (3.851, 61.66122499999986), (3.851, 61.80122499999986), (3.851, 61.66122499999986), (10.351, 61.63872499999986), (10.351, 61.368724999999856)]</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[(0.3, 63.0), (0.3, 62.87), (3.857, 62.911075), (3.857, 62.781074999999994), (3.857, 62.911075), (3.857, 62.781074999999994), (10.352, 62.7487), (10.352, 62.6187), (0.3, 62.87), (0.3, 62.57), (3.857, 62.781074999999994), (3.857, 62.661075), (3.857, 62.781074999999994), (3.857, 62.661075), (10.352, 62.6187), (10.352, 62.4987)]</t>
+          <t>[(0.29999999999778, 63.0), (0.29999999999778, 62.87), (3.857, 62.91107499999995), (3.857, 62.781074999999944), (3.857, 62.91107499999995), (3.857, 62.80107499999995), (10.352, 62.74869999999994), (10.352, 62.63869999999994), (0.29999999999778, 62.87), (0.29999999999778, 62.57), (3.857, 62.781074999999944), (3.857, 62.66107499999995), (3.857, 62.80107499999995), (3.857, 62.66107499999995), (10.352, 62.63869999999994), (10.352, 62.348699999999944)]</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.299999999994413, 64.0), (0.299999999994413, 63.82), (3.848, 63.91129999999986), (3.848, 63.73129999999986), (3.848, 63.91129999999986), (3.848, 63.78129999999986), (10.313, 63.74967499999986), (10.313, 63.61967499999986), (0.299999999994413, 63.82), (0.299999999994413, 63.52), (3.848, 63.73129999999986), (3.848, 63.611299999999865), (3.848, 63.78129999999986), (3.848, 63.611299999999865), (10.313, 63.61967499999986), (10.313, 63.31967499999986)]</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.299999999994413, 65.0), (0.299999999994413, 64.82), (4.012, 64.90719999999986), (4.012, 64.72719999999985), (4.012, 64.90719999999986), (4.012, 64.79719999999986), (10.294, 64.75014999999986), (10.294, 64.64014999999986), (0.299999999994413, 64.82), (0.299999999994413, 64.52), (4.012, 64.72719999999985), (4.012, 64.61719999999985), (4.012, 64.79719999999986), (4.012, 64.61719999999985), (10.294, 64.64014999999986), (10.294, 64.34014999999987)]</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.299999999994413, 66.0), (0.299999999994413, 65.76), (4.182, 65.90294999999986), (4.182, 65.76294999999986), (4.182, 65.90294999999986), (4.182, 65.79294999999986), (10.244, 65.75139999999986), (10.244, 65.64139999999986), (0.299999999994413, 65.76), (0.299999999994413, 65.52), (4.182, 65.76294999999986), (4.182, 65.62294999999986), (4.182, 65.79294999999986), (4.182, 65.62294999999986), (10.244, 65.64139999999986), (10.244, 65.34139999999987)]</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.29999999999778, 67.0), (0.29999999999778, 66.74), (4.448, 66.89629999999994), (4.448, 66.75629999999994), (4.448, 66.89629999999994), (4.448, 66.78629999999994), (10.189, 66.75277499999994), (10.189, 66.64277499999994), (0.29999999999778, 66.74), (0.29999999999778, 66.48), (4.448, 66.75629999999994), (4.448, 66.61629999999994), (4.448, 66.78629999999994), (4.448, 66.61629999999994), (10.189, 66.64277499999994), (10.189, 66.35277499999994)]</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.299999999994413, 68.0), (0.299999999994413, 67.76), (4.625, 67.89187499999986), (4.625, 67.75187499999986), (4.625, 67.89187499999986), (4.625, 67.78187499999986), (10.135, 67.75412499999986), (10.135, 67.64412499999986), (0.299999999994413, 67.76), (0.299999999994413, 67.52), (4.625, 67.75187499999986), (4.625, 67.61187499999986), (4.625, 67.78187499999986), (4.625, 67.61187499999986), (10.135, 67.64412499999986), (10.135, 67.35412499999985)]</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[(0.3, 69.0), (0.3, 68.76), (4.781, 68.887975), (4.781, 68.747975), (4.781, 68.887975), (4.781, 68.747975), (10.02, 68.757), (10.02, 68.617), (0.3, 68.76), (0.3, 68.52), (4.781, 68.747975), (4.781, 68.607975), (4.781, 68.747975), (4.781, 68.617975), (10.02, 68.617), (10.02, 68.507)]</t>
+          <t>[(0.299999999994413, 69.0), (0.299999999994413, 68.76), (4.781, 68.88797499999986), (4.781, 68.74797499999985), (4.781, 68.88797499999986), (4.781, 68.77797499999986), (10.02, 68.75699999999986), (10.02, 68.64699999999986), (0.299999999994413, 68.76), (0.299999999994413, 68.52), (4.781, 68.74797499999985), (4.781, 68.60797499999985), (4.781, 68.77797499999986), (4.781, 68.61797499999986), (10.02, 68.64699999999986), (10.02, 68.35699999999986)]</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[(0.3, 70.0), (0.3, 69.76), (5.027, 69.881825), (5.027, 69.761825), (5.027, 69.881825), (5.027, 69.75182500000001), (9.937, 69.759075), (9.937, 69.629075), (0.3, 69.76), (0.3, 69.52), (5.027, 69.761825), (5.027, 69.64182500000001), (5.027, 69.75182500000001), (5.027, 69.631825), (9.937, 69.629075), (9.937, 69.509075)]</t>
+          <t>[(0.299999999994413, 70.0), (0.299999999994413, 69.76), (5.027, 69.88182499999986), (5.027, 69.76182499999986), (5.027, 69.88182499999986), (5.027, 69.77182499999986), (9.937, 69.75907499999985), (9.937, 69.64907499999985), (0.299999999994413, 69.76), (0.299999999994413, 69.52), (5.027, 69.76182499999986), (5.027, 69.64182499999987), (5.027, 69.77182499999986), (5.027, 69.63182499999986), (9.937, 69.64907499999985), (9.937, 69.35907499999985)]</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[(0.3, 71.0), (0.3, 70.76), (5.335, 70.874125), (5.335, 70.754125), (5.335, 70.874125), (5.335, 70.74412500000001), (9.799, 70.762525), (9.799, 70.632525), (0.3, 70.76), (0.3, 70.52), (5.335, 70.754125), (5.335, 70.63412500000001), (5.335, 70.74412500000001), (5.335, 70.624125), (9.799, 70.632525), (9.799, 70.512525)]</t>
+          <t>[(0.299999999994413, 71.0), (0.299999999994413, 70.76), (5.335, 70.87412499999986), (5.335, 70.75412499999986), (5.335, 70.87412499999986), (5.335, 70.76412499999986), (9.799, 70.76252499999985), (9.799, 70.65252499999986), (0.299999999994413, 70.76), (0.299999999994413, 70.52), (5.335, 70.75412499999986), (5.335, 70.63412499999987), (5.335, 70.76412499999986), (5.335, 70.62412499999986), (9.799, 70.65252499999986), (9.799, 70.38252499999986)]</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[(0.3, 72.0), (0.3, 71.86), (5.665, 71.865875), (5.665, 71.725875), (5.665, 71.865875), (5.665, 71.73587500000001), (9.721, 71.764475), (9.721, 71.63447500000001), (0.3, 71.86), (0.3, 71.56), (5.665, 71.725875), (5.665, 71.615875), (5.665, 71.73587500000001), (5.665, 71.615875), (9.721, 71.63447500000001), (9.721, 71.514475)]</t>
+          <t>[(0.29999999999778, 72.0), (0.29999999999778, 71.86), (5.665, 71.86587499999995), (5.665, 71.72587499999995), (5.665, 71.86587499999995), (5.665, 71.75587499999995), (9.721, 71.76447499999995), (9.721, 71.65447499999995), (0.29999999999778, 71.86), (0.29999999999778, 71.56), (5.665, 71.72587499999995), (5.665, 71.61587499999995), (5.665, 71.75587499999995), (5.665, 71.61587499999995), (9.721, 71.65447499999995), (9.721, 71.36447499999994)]</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[(0.3, 73.0), (0.3, 72.89), (6.02, 72.887784865322), (6.02, 72.777784865322), (6.02, 72.887784865322), (6.02, 72.75778486532201), (9.668, 72.81621828991896), (9.668, 72.68621828991897), (0.3, 72.89), (0.3, 72.59), (6.02, 72.777784865322), (6.02, 72.637784865322), (6.02, 72.75778486532201), (6.02, 72.637784865322), (9.668, 72.68621828991897), (9.668, 72.56621828991896)]</t>
+          <t>[(0.29999999999778, 73.0), (0.29999999999778, 72.89), (6.02, 72.88778486532196), (6.02, 72.77778486532196), (6.02, 72.88778486532196), (6.02, 72.75778486532197), (9.668, 72.81621828991892), (9.668, 72.68621828991893), (0.29999999999778, 72.89), (0.29999999999778, 72.59), (6.02, 72.77778486532196), (6.02, 72.63778486532196), (6.02, 72.75778486532197), (6.02, 72.63778486532196), (9.668, 72.68621828991893), (9.668, 72.38621828991892)]</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[(0.3, 74.0), (0.3, 73.86), (6.342, 74.03251785948872), (6.342, 73.89251785948872), (6.342, 74.03251785948872), (6.342, 73.77251785948872), (9.862, 74.05146239199456), (9.862, 73.79146239199456), (0.3, 73.86), (0.3, 73.72), (6.342, 73.89251785948872), (6.342, 73.75251785948872), (6.342, 73.77251785948872), (6.342, 73.63251785948871), (9.862, 73.79146239199456), (9.862, 73.54146239199456), (0.3, 73.72), (0.3, 73.59), (6.342, 73.75251785948872), (6.342, 73.63251785948871), (6.342, 73.63251785948871), (6.342, 73.63251785948871), (9.862, 73.54146239199456), (9.862, 73.54146239199456)]</t>
+          <t>[(0.29999999999778, 74.0), (0.29999999999778, 73.86), (6.342, 74.03251785948873), (6.342, 73.89251785948873), (6.342, 74.03251785948873), (6.342, 73.83251785948873), (9.862, 74.05146239199458), (9.862, 73.70146239199458), (0.29999999999778, 73.86), (0.29999999999778, 73.72), (6.342, 73.89251785948873), (6.342, 73.75251785948873), (6.342, 73.83251785948873), (6.342, 73.63251785948873), (9.862, 73.70146239199458), (9.862, 73.35146239199457), (0.29999999999778, 73.72), (0.29999999999778, 73.59), (6.342, 73.75251785948873), (6.342, 73.63251785948873), (6.342, 73.63251785948873), (6.342, 73.63251785948873), (9.862, 73.35146239199457), (9.862, 73.35146239199457)]</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[(0.3, 75.0), (0.3, 74.77), (6.655, 75.16581809043385), (6.655, 74.93581809043384), (6.655, 75.16581809043385), (6.655, 74.94581809043385), (10.118, 75.25617655576389), (10.118, 74.94617655576388), (0.3, 74.77), (0.3, 74.65), (6.655, 74.93581809043384), (6.655, 74.71581809043384), (6.655, 74.94581809043385), (6.655, 74.72581809043385), (10.118, 74.94617655576388), (10.118, 74.63617655576388)]</t>
+          <t>[(0.299999999995624, 75.0), (0.299999999995624, 74.77), (6.655, 75.16581809043396), (6.655, 74.93581809043395), (6.655, 75.16581809043396), (6.655, 74.94581809043396), (10.118, 75.256176555764), (10.118, 74.856176555764), (0.299999999995624, 74.77), (0.299999999995624, 74.65), (6.655, 74.93581809043395), (6.655, 74.71581809043396), (6.655, 74.94581809043396), (6.655, 74.72581809043396), (10.118, 74.856176555764), (10.118, 74.456176555764)]</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[(0.3, 76.0), (0.3, 75.86), (6.902, 76.20576809776463), (6.902, 76.06576809776463), (6.902, 76.20576809776463), (6.902, 75.98576809776463), (10.384, 76.3142934713509), (10.384, 75.9942934713509), (0.3, 75.86), (0.3, 75.71), (6.902, 76.06576809776463), (6.902, 75.76576809776464), (6.902, 75.98576809776463), (6.902, 75.76576809776464), (10.384, 75.9942934713509), (10.384, 75.6742934713509)]</t>
+          <t>[(0.300000000001985, 76.0), (0.300000000001985, 75.86), (6.902, 76.20576809776458), (6.902, 76.06576809776458), (6.902, 76.20576809776458), (6.902, 75.98576809776458), (10.384, 76.31429347135082), (10.384, 75.89429347135082), (0.300000000001985, 75.86), (0.300000000001985, 75.71), (6.902, 76.06576809776458), (6.902, 75.76576809776458), (6.902, 75.98576809776458), (6.902, 75.76576809776458), (10.384, 75.89429347135082), (10.384, 75.47429347135082)]</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[(0.3, 77.0), (0.3, 76.89), (7.115, 77.2469929087422), (7.115, 77.1369929087422), (7.115, 77.2469929087422), (7.115, 76.9569929087422), (10.582, 77.37264579423146), (10.582, 77.08264579423145), (0.3, 76.89), (0.3, 76.74), (7.115, 77.1369929087422), (7.115, 76.8369929087422), (7.115, 76.9569929087422), (7.115, 76.8369929087422), (10.582, 77.08264579423145), (10.582, 76.79264579423146)]</t>
+          <t>[(0.300000000035618, 77.0), (0.300000000035618, 76.89), (7.115, 77.24699290874092), (7.115, 77.13699290874092), (7.115, 77.24699290874092), (7.115, 77.04699290874092), (10.582, 77.37264579423017), (10.582, 76.99264579423017), (0.300000000035618, 76.89), (0.300000000035618, 76.74), (7.115, 77.13699290874092), (7.115, 76.83699290874092), (7.115, 77.04699290874092), (7.115, 76.84699290874092), (10.582, 76.99264579423017), (10.582, 76.61264579423016)]</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[(0.3, 78.0), (0.3, 77.89), (7.277, 78.28827247518993), (7.277, 78.17827247518993), (7.277, 78.28827247518993), (7.277, 78.01827247518993), (10.758, 78.43209883123639), (10.758, 78.16209883123639), (0.3, 77.89), (0.3, 77.75), (7.277, 78.17827247518993), (7.277, 77.87827247518993), (7.277, 78.01827247518993), (7.277, 77.87827247518993), (10.758, 78.16209883123639), (10.758, 77.89209883123638)]</t>
+          <t>[(0.300000000094991, 78.0), (0.300000000094991, 77.89), (7.277, 78.288272475186), (7.277, 78.178272475186), (7.277, 78.288272475186), (7.277, 78.088272475186), (10.758, 78.43209883123247), (10.758, 78.07209883123247), (0.300000000094991, 77.89), (0.300000000094991, 77.75), (7.277, 78.178272475186), (7.277, 77.87827247518601), (7.277, 78.088272475186), (7.277, 77.888272475186), (10.758, 78.07209883123247), (10.758, 77.71209883123247)]</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[(0.3, 79.0), (0.3, 78.89), (7.361, 79.3275777235332), (7.361, 79.2175777235332), (7.361, 79.3275777235332), (7.361, 79.1075777235332), (10.865, 79.49013718299506), (10.865, 79.27013718299506), (0.3, 78.89), (0.3, 78.75), (7.361, 79.2175777235332), (7.361, 78.9975777235332), (7.361, 79.1075777235332), (7.361, 78.9975777235332), (10.865, 79.27013718299506), (10.865, 79.06013718299505)]</t>
+          <t>[(0.300000000159503, 79.0), (0.300000000159503, 78.89), (7.361, 79.32757772352579), (7.361, 79.21757772352579), (7.361, 79.32757772352579), (7.361, 79.1675777235258), (10.8000000000098, 79.48712166790106), (10.8000000000098, 79.18712166790107), (0.300000000159503, 78.89), (0.300000000159503, 78.75), (7.361, 79.21757772352579), (7.361, 78.9975777235258), (7.361, 79.1675777235258), (7.361, 79.0075777235258), (10.8000000000098, 79.18712166790107), (10.8000000000098, 78.88712166790107)]</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[(0.3, 80.0), (0.3, 79.89), (7.368, 80.3637725713118), (7.368, 80.2537725713118), (7.368, 80.3637725713118), (7.368, 80.1437725713118), (10.878, 80.54442363601247), (10.878, 80.32442363601247), (0.3, 79.89), (0.3, 79.75), (7.368, 80.2537725713118), (7.368, 80.0237725713118), (7.368, 80.1437725713118), (7.368, 80.0237725713118), (10.878, 80.32442363601247), (10.878, 80.11442363601246)]</t>
+          <t>[(0.300000000058679, 80.0), (0.300000000058679, 79.89), (7.368, 80.36377257130877), (7.368, 80.25377257130877), (7.368, 80.36377257130877), (7.368, 80.19377257130877), (10.7999999999972, 80.54040916790484), (10.7999999999972, 80.24040916790484), (0.300000000058679, 79.89), (0.300000000058679, 79.75), (7.368, 80.25377257130877), (7.368, 80.02377257130877), (7.368, 80.19377257130877), (7.368, 80.02377257130877), (10.7999999999972, 80.24040916790484), (10.7999999999972, 79.94040916790485)]</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[(0.3, 81.0), (0.3, 80.89), (7.318, 81.39681554432175), (7.318, 81.28681554432175), (7.318, 81.39681554432175), (7.318, 81.18681554432176), (10.805, 81.59397938060701), (10.805, 81.38397938060702), (0.3, 80.89), (0.3, 80.75), (7.318, 81.28681554432175), (7.318, 81.07681554432176), (7.318, 81.18681554432176), (7.318, 81.07681554432176), (10.805, 81.38397938060702), (10.805, 81.18397938060701)]</t>
+          <t>[(0.30000000000976, 81.0), (0.30000000000976, 80.89), (7.318, 81.3968155443212), (7.318, 81.2868155443212), (7.318, 81.3968155443212), (7.318, 81.2368155443212), (10.7999999999929, 81.59369666790705), (10.7999999999929, 81.29369666790706), (0.30000000000976, 80.89), (0.30000000000976, 80.75), (7.318, 81.2868155443212), (7.318, 81.0768155443212), (7.318, 81.2368155443212), (7.318, 81.0768155443212), (10.7999999999929, 81.29369666790706), (10.7999999999929, 80.99369666790706)]</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[(0.3, 82.0), (0.3, 81.89), (7.162, 82.41172), (7.162, 82.30172), (7.162, 82.41172), (7.162, 82.24172), (10.656, 82.62136), (10.656, 82.45136), (0.3, 81.89), (0.3, 81.75), (7.162, 82.30172), (7.162, 82.07172), (7.162, 82.24172), (7.162, 82.07172), (10.656, 82.45136), (10.656, 82.15136)]</t>
+          <t>[(0.299999999996575, 82.0), (0.299999999996575, 81.89), (7.162, 82.4117200000002), (7.162, 82.3017200000002), (7.162, 82.4117200000002), (7.162, 82.2417200000002), (10.656, 82.62136000000021), (10.656, 82.29136000000021), (0.299999999996575, 81.89), (0.299999999996575, 81.75), (7.162, 82.3017200000002), (7.162, 82.0717200000002), (7.162, 82.2417200000002), (7.162, 82.0717200000002), (10.656, 82.29136000000021), (10.656, 81.96136000000021)]</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[(0.3, 83.0), (0.3, 82.89), (6.907, 83.39642), (6.907, 83.28642), (6.907, 83.39642), (6.907, 83.22642), (10.419, 83.60714), (10.419, 83.43714), (0.3, 82.89), (0.3, 82.75), (6.907, 83.28642), (6.907, 83.06642000000001), (6.907, 83.22642), (6.907, 83.06642000000001), (10.419, 83.43714), (10.419, 83.13714)]</t>
+          <t>[(0.300000000002671, 83.0), (0.300000000002671, 82.89), (6.907, 83.39641999999984), (6.907, 83.28641999999984), (6.907, 83.39641999999984), (6.907, 83.23641999999984), (10.419, 83.60713999999984), (10.419, 83.27713999999985), (0.300000000002671, 82.89), (0.300000000002671, 82.75), (6.907, 83.28641999999984), (6.907, 83.06641999999984), (6.907, 83.23641999999984), (6.907, 83.07641999999984), (10.419, 83.27713999999985), (10.419, 82.94713999999985)]</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[(0.3, 84.0), (0.3, 83.89), (6.722, 84.38532), (6.722, 84.27532), (6.722, 84.38532), (6.722, 84.20531999999999), (10.272, 84.59832), (10.272, 84.41832), (0.3, 83.89), (0.3, 83.75), (6.722, 84.27532), (6.722, 84.06532), (6.722, 84.20531999999999), (6.722, 84.06532), (10.272, 84.41832), (10.272, 84.11832)]</t>
+          <t>[(0.299999999997408, 84.0), (0.299999999997408, 83.89), (6.722, 84.38532000000015), (6.722, 84.27532000000015), (6.722, 84.38532000000015), (6.722, 84.22532000000015), (10.272, 84.59832000000016), (10.272, 84.25832000000015), (0.299999999997408, 83.89), (0.299999999997408, 83.75), (6.722, 84.27532000000015), (6.722, 84.06532000000016), (6.722, 84.22532000000015), (6.722, 84.06532000000016), (10.272, 84.25832000000015), (10.272, 83.91832000000015)]</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[(0.3, 86.0), (0.3, 85.89), (6.576, 86.37656), (6.576, 86.26656), (6.576, 86.37656), (6.576, 86.23656), (10.059, 86.58554), (10.059, 86.44554), (0.3, 85.89), (0.3, 85.75), (6.576, 86.26656), (6.576, 86.06656), (6.576, 86.23656), (6.576, 86.06656), (10.059, 86.44554), (10.059, 86.14554)]</t>
+          <t>[(0.299999999999467, 86.0), (0.299999999999467, 85.89), (6.576, 86.37656000000003), (6.576, 86.26656000000003), (6.576, 86.37656000000003), (6.576, 86.21656000000003), (10.059, 86.58554000000004), (10.059, 86.26554000000004), (0.299999999999467, 85.89), (0.299999999999467, 85.75), (6.576, 86.26656000000003), (6.576, 86.06656000000002), (6.576, 86.21656000000003), (6.576, 86.05656000000003), (10.059, 86.26554000000004), (10.059, 85.94554000000004)]</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[(0.3, 87.0), (0.3, 86.86), (6.48, 87.3708), (6.48, 87.2308), (6.48, 87.3708), (6.48, 87.2608), (9.998, 87.58188), (9.998, 87.47188), (0.3, 86.86), (0.3, 86.75), (6.48, 87.2308), (6.48, 87.1008), (6.48, 87.2608), (6.48, 87.1008), (9.998, 87.47188), (9.998, 87.19188)]</t>
+          <t>[(0.300000000002703, 87.0), (0.300000000002703, 86.86), (6.48, 87.37079999999983), (6.48, 87.23079999999983), (6.48, 87.37079999999983), (6.48, 87.23079999999983), (9.998, 87.58187999999984), (9.998, 87.29187999999984), (0.300000000002703, 86.86), (0.300000000002703, 86.75), (6.48, 87.23079999999983), (6.48, 87.10079999999984), (6.48, 87.23079999999983), (6.48, 87.09079999999983), (9.998, 87.29187999999984), (9.998, 87.00187999999984)]</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[(0.3, 88.0), (0.3, 87.86), (6.635, 88.3801), (6.635, 88.2401), (6.635, 88.3801), (6.635, 88.2701), (9.953, 88.57918), (9.953, 88.46918), (0.3, 87.86), (0.3, 87.75), (6.635, 88.2401), (6.635, 88.1101), (6.635, 88.2701), (6.635, 88.1101), (9.953, 88.46918), (9.953, 88.16918)]</t>
+          <t>[(0.300000000001779, 88.0), (0.300000000001779, 87.86), (6.635, 88.3800999999999), (6.635, 88.2400999999999), (6.635, 88.3800999999999), (6.635, 88.2400999999999), (9.953, 88.5791799999999), (9.953, 88.2791799999999), (0.300000000001779, 87.86), (0.300000000001779, 87.75), (6.635, 88.2400999999999), (6.635, 88.1100999999999), (6.635, 88.2400999999999), (6.635, 88.1000999999999), (9.953, 88.2791799999999), (9.953, 87.9791799999999)]</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[(0.3, 90.0), (0.3, 89.87), (6.313, 90.36078), (6.313, 90.23078000000001), (6.313, 90.36078), (6.313, 90.25078), (9.848, 90.57288), (9.848, 90.46288), (0.3, 89.87), (0.3, 89.75), (6.313, 90.23078000000001), (6.313, 90.11078), (6.313, 90.25078), (6.313, 90.11078), (9.848, 90.46288), (9.848, 90.21288)]</t>
+          <t>[(0.300000000000641, 90.0), (0.300000000000641, 89.87), (6.313, 90.36077999999996), (6.313, 90.23077999999997), (6.313, 90.36077999999996), (6.313, 90.24077999999996), (9.848, 90.57287999999996), (9.848, 90.29287999999995), (0.300000000000641, 89.87), (0.300000000000641, 89.75), (6.313, 90.23077999999997), (6.313, 90.11077999999996), (6.313, 90.24077999999996), (6.313, 90.12077999999997), (9.848, 90.29287999999995), (9.848, 90.01287999999995)]</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[(0.3, 93.0), (0.3, 92.86), (6.389, 93.36534), (6.389, 93.22534), (6.389, 93.36534), (6.389, 93.25534), (9.862, 93.57372), (9.862, 93.46372), (0.3, 92.86), (0.3, 92.75), (6.389, 93.22534), (6.389, 93.09534000000001), (6.389, 93.25534), (6.389, 93.09534000000001), (9.862, 93.46372), (9.862, 93.17371999999999)]</t>
+          <t>[(0.299999999999156, 93.0), (0.299999999999156, 92.86), (6.389, 93.36534000000005), (6.389, 93.22534000000005), (6.389, 93.36534000000005), (6.389, 93.22534000000005), (9.862, 93.57372000000005), (9.862, 93.27372000000005), (0.299999999999156, 92.86), (0.299999999999156, 92.75), (6.389, 93.22534000000005), (6.389, 93.09534000000005), (6.389, 93.22534000000005), (6.389, 93.08534000000004), (9.862, 93.27372000000005), (9.862, 92.97372000000006)]</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[(0.3, 94.0), (0.3, 93.86), (6.389, 94.36534), (6.389, 94.22534), (6.389, 94.36534), (6.389, 94.25534), (9.879, 94.57474), (9.879, 94.46474), (0.3, 93.86), (0.3, 93.75), (6.389, 94.22534), (6.389, 94.10534), (6.389, 94.25534), (6.389, 94.10534), (9.879, 94.46474), (9.879, 94.18474)]</t>
+          <t>[(0.29999999999871, 94.0), (0.29999999999871, 93.86), (6.389, 94.36534000000007), (6.389, 94.22534000000007), (6.389, 94.36534000000007), (6.389, 94.23534000000008), (9.879, 94.57474000000008), (9.879, 94.28474000000007), (0.29999999999871, 93.86), (0.29999999999871, 93.75), (6.389, 94.22534000000007), (6.389, 94.10534000000007), (6.389, 94.23534000000008), (6.389, 94.10534000000007), (9.879, 94.28474000000007), (9.879, 93.99474000000008)]</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[(0.3, 95.0), (0.3, 94.87), (6.432, 95.36792), (6.432, 95.23792), (6.432, 95.36792), (6.432, 95.25792), (9.887, 95.57522), (9.887, 95.46522), (0.3, 94.87), (0.3, 94.75), (6.432, 95.23792), (6.432, 95.11792), (6.432, 95.25792), (6.432, 95.11792), (9.887, 95.46522), (9.887, 95.20522)]</t>
+          <t>[(0.300000000001064, 95.0), (0.300000000001064, 94.87), (6.432, 95.36791999999994), (6.432, 95.23791999999995), (6.432, 95.36791999999994), (6.432, 95.24791999999994), (9.887, 95.57521999999993), (9.887, 95.29521999999993), (0.300000000001064, 94.87), (0.300000000001064, 94.75), (6.432, 95.23791999999995), (6.432, 95.11791999999994), (6.432, 95.24791999999994), (6.432, 95.12791999999995), (9.887, 95.29521999999993), (9.887, 95.01521999999993)]</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[(0.3, 96.0), (0.3, 95.87), (6.457, 96.36942), (6.457, 96.23942000000001), (6.457, 96.36942), (6.457, 96.25942), (9.98, 96.5808), (9.98, 96.4708), (0.3, 95.87), (0.3, 95.75), (6.457, 96.23942000000001), (6.457, 96.11942), (6.457, 96.25942), (6.457, 96.11942), (9.98, 96.4708), (9.98, 96.21079999999999)]</t>
+          <t>[(0.299999999999618, 96.0), (0.299999999999618, 95.87), (6.457, 96.36942000000002), (6.457, 96.23942000000002), (6.457, 96.36942000000002), (6.457, 96.24942000000001), (9.98, 96.58080000000002), (9.98, 96.30080000000002), (0.299999999999618, 95.87), (0.299999999999618, 95.75), (6.457, 96.23942000000002), (6.457, 96.11942000000002), (6.457, 96.24942000000001), (6.457, 96.12942000000002), (9.98, 96.30080000000002), (9.98, 96.02080000000002)]</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[(0.3, 97.0), (0.3, 96.87), (6.56, 97.35607754594919), (6.56, 97.2260775459492), (6.56, 97.35607754594919), (6.56, 97.24607754594919), (10.044, 97.55425233350303), (10.044, 97.44425233350303), (0.3, 96.87), (0.3, 96.75), (6.56, 97.2260775459492), (6.56, 97.10607754594919), (6.56, 97.24607754594919), (6.56, 97.10607754594919), (10.044, 97.44425233350303), (10.044, 97.20425233350304)]</t>
+          <t>[(0.300000000087984, 97.0), (0.300000000087984, 96.87), (6.56, 97.35607754594419), (6.56, 97.2260775459442), (6.56, 97.35607754594419), (6.56, 97.23607754594418), (10.044, 97.55425233349801), (10.044, 97.28425233349802), (0.300000000087984, 96.87), (0.300000000087984, 96.75), (6.56, 97.2260775459442), (6.56, 97.10607754594419), (6.56, 97.23607754594418), (6.56, 97.1160775459442), (10.044, 97.28425233349802), (10.044, 97.014252333498)]</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[(0.3, 98.0), (0.3, 97.87), (6.652, 98.28646344144879), (6.652, 98.15646344144879), (6.652, 98.28646344144879), (6.652, 98.15646344144879), (10.169, 98.44507363092855), (10.169, 98.31507363092855), (0.3, 97.87), (0.3, 97.75), (6.652, 98.15646344144879), (6.652, 98.03646344144879), (6.652, 98.15646344144879), (6.652, 98.03646344144879), (10.169, 98.31507363092855), (10.169, 98.19507363092855)]</t>
+          <t>[(0.30000000002776, 98.0), (0.30000000002776, 97.87), (6.652, 98.28646344144754), (6.652, 98.15646344144754), (6.652, 98.28646344144754), (6.652, 98.16646344144753), (10.169, 98.4450736309273), (10.169, 98.32507363092729), (0.30000000002776, 97.87), (0.30000000002776, 97.75), (6.652, 98.15646344144754), (6.652, 98.03646344144754), (6.652, 98.16646344144753), (6.652, 98.03646344144754), (10.169, 98.32507363092729), (10.169, 98.0250736309273)]</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[(0.3, 99.0), (0.3, 98.87), (6.722, 99.2139482914535), (6.722, 99.08394829145351), (6.722, 99.2139482914535), (6.722, 99.08394829145351), (10.092, 99.3262195063707), (10.092, 99.19621950637071), (0.3, 98.87), (0.3, 98.75), (6.722, 99.08394829145351), (6.722, 98.9639482914535), (6.722, 99.08394829145351), (6.722, 98.9639482914535), (10.092, 99.19621950637071), (10.092, 99.0762195063707)]</t>
+          <t>[(0.30000000000277, 99.0), (0.30000000000277, 98.87), (6.722, 99.2139482914534), (6.722, 99.08394829145341), (6.722, 99.2139482914534), (6.722, 99.1039482914534), (10.092, 99.3262195063706), (10.092, 99.2162195063706), (0.30000000000277, 98.87), (0.30000000000277, 98.75), (6.722, 99.08394829145341), (6.722, 98.9639482914534), (6.722, 99.1039482914534), (6.722, 98.9639482914534), (10.092, 99.2162195063706), (10.092, 98.9562195063706)]</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[(0.3, 100.0), (0.3, 99.87), (6.445, 100.16363106494077), (6.445, 100.03363106494078), (6.445, 100.16363106494077), (6.445, 100.03363106494078), (9.929, 100.25640415367205), (9.929, 100.12640415367206), (0.3, 99.87), (0.3, 99.75), (6.445, 100.03363106494078), (6.445, 99.91363106494077), (6.445, 100.03363106494078), (6.445, 99.91363106494077), (9.929, 100.12640415367206), (9.929, 100.00640415367205)]</t>
+          <t>[(0.300000000010577, 100.0), (0.300000000010577, 99.87), (6.445, 100.1636310649405), (6.445, 100.03363106494051), (6.445, 100.1636310649405), (6.445, 100.0536310649405), (9.929, 100.25640415367177), (9.929, 100.14640415367177), (0.300000000010577, 99.87), (0.300000000010577, 99.75), (6.445, 100.03363106494051), (6.445, 99.9136310649405), (6.445, 100.0536310649405), (6.445, 99.9136310649405), (9.929, 100.14640415367177), (9.929, 99.90640415367177)]</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[(0.3, 101.0), (0.3, 100.87), (6.237, 101.15543056905152), (6.237, 101.02543056905152), (6.237, 101.15543056905152), (6.237, 101.02543056905152), (9.711, 101.24637983583357), (9.711, 101.11637983583357), (0.3, 100.87), (0.3, 100.75), (6.237, 101.02543056905152), (6.237, 100.90543056905152), (6.237, 101.02543056905152), (6.237, 100.90543056905152), (9.711, 101.11637983583357), (9.711, 100.99637983583357)]</t>
+          <t>[(0.300000000055869, 101.0), (0.300000000055869, 100.87), (6.237, 101.15543056905005), (6.237, 101.02543056905006), (6.237, 101.15543056905005), (6.237, 101.03543056905005), (9.711, 101.2463798358321), (9.711, 101.1263798358321), (0.300000000055869, 100.87), (0.300000000055869, 100.75), (6.237, 101.02543056905006), (6.237, 100.90543056905005), (6.237, 101.03543056905005), (6.237, 100.90543056905005), (9.711, 101.1263798358321), (9.711, 100.8263798358321)]</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[(0.3, 102.0), (0.3, 101.87), (6.118, 102.14970669949908), (6.118, 102.01970669949908), (6.118, 102.14970669949908), (6.118, 102.03970669949908), (9.615, 102.23969025538568), (9.615, 102.12969025538568), (0.3, 101.87), (0.3, 101.75), (6.118, 102.01970669949908), (6.118, 101.89970669949908), (6.118, 102.03970669949908), (6.118, 101.89970669949908), (9.615, 102.12969025538568), (9.615, 101.89969025538568)]</t>
+          <t>[(0.300000000134832, 102.0), (0.300000000134832, 101.87), (6.118, 102.14970669949561), (6.118, 102.01970669949561), (6.118, 102.14970669949561), (6.118, 102.0297066994956), (9.615, 102.2396902553822), (9.615, 101.9796902553822), (0.300000000134832, 101.87), (0.300000000134832, 101.75), (6.118, 102.01970669949561), (6.118, 101.89970669949561), (6.118, 102.0297066994956), (6.118, 101.90970669949562), (9.615, 101.9796902553822), (9.615, 101.7196902553822)]</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[(0.3, 103.0), (0.3, 102.86), (6.068, 103.1458340830487), (6.068, 103.0058340830487), (6.068, 103.1458340830487), (6.068, 103.0358340830487), (9.584, 103.23473017112069), (9.584, 103.12473017112069), (0.3, 102.86), (0.3, 102.75), (6.068, 103.0058340830487), (6.068, 102.88583408304869), (6.068, 103.0358340830487), (6.068, 102.88583408304869), (9.584, 103.12473017112069), (9.584, 102.83473017112068)]</t>
+          <t>[(0.300000000110513, 103.0), (0.300000000110513, 102.86), (6.068, 103.14583408304591), (6.068, 103.00583408304591), (6.068, 103.14583408304591), (6.068, 103.01583408304592), (9.584, 103.2347301711179), (9.584, 102.9347301711179), (0.300000000110513, 102.86), (0.300000000110513, 102.75), (6.068, 103.00583408304591), (6.068, 102.8858340830459), (6.068, 103.01583408304592), (6.068, 102.8858340830459), (9.584, 102.9347301711179), (9.584, 102.63473017111791)]</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[(0.3, 106.0), (0.3, 105.89), (6.128, 105.8543), (6.128, 105.7443), (6.128, 105.8543), (6.128, 105.7243), (9.617, 105.767075), (9.617, 105.63707500000001), (0.3, 105.89), (0.3, 105.66), (6.128, 105.7443), (6.128, 105.6043), (6.128, 105.7243), (6.128, 105.6043), (9.617, 105.63707500000001), (9.617, 105.517075)]</t>
+          <t>[(0.300000000000174, 106.0), (0.300000000000174, 105.89), (6.128, 105.85430000000001), (6.128, 105.74430000000001), (6.128, 105.85430000000001), (6.128, 105.74430000000001), (9.617, 105.767075), (9.617, 105.657075), (0.300000000000174, 105.89), (0.300000000000174, 105.66), (6.128, 105.74430000000001), (6.128, 105.60430000000001), (6.128, 105.74430000000001), (6.128, 105.60430000000001), (9.617, 105.657075), (9.617, 105.407075)]</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[(0.3, 107.0), (0.3, 106.89), (6.097, 106.855075), (6.097, 106.745075), (6.097, 106.855075), (6.097, 106.725075), (9.605, 106.767375), (9.605, 106.637375), (0.3, 106.89), (0.3, 106.6), (6.097, 106.745075), (6.097, 106.605075), (6.097, 106.725075), (6.097, 106.605075), (9.605, 106.637375), (9.605, 106.517375)]</t>
+          <t>[(0.299999999996536, 107.0), (0.299999999996536, 106.89), (6.097, 106.85507499999991), (6.097, 106.74507499999991), (6.097, 106.85507499999991), (6.097, 106.74507499999991), (9.605, 106.76737499999992), (9.605, 106.65737499999992), (0.299999999996536, 106.89), (0.299999999996536, 106.6), (6.097, 106.74507499999991), (6.097, 106.60507499999991), (6.097, 106.74507499999991), (6.097, 106.60507499999991), (9.605, 106.65737499999992), (9.605, 106.40737499999992)]</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[(0.3, 108.0), (0.3, 107.86), (6.117, 107.854575), (6.117, 107.714575), (6.117, 107.854575), (6.117, 107.724575), (9.599, 107.767525), (9.599, 107.63752500000001), (0.3, 107.86), (0.3, 107.56), (6.117, 107.714575), (6.117, 107.604575), (6.117, 107.724575), (6.117, 107.604575), (9.599, 107.63752500000001), (9.599, 107.517525)]</t>
+          <t>[(0.300000000000174, 108.0), (0.300000000000174, 107.86), (6.117, 107.85457500000001), (6.117, 107.71457500000001), (6.117, 107.85457500000001), (6.117, 107.74457500000001), (9.599, 107.767525), (9.599, 107.657525), (0.300000000000174, 107.86), (0.300000000000174, 107.56), (6.117, 107.71457500000001), (6.117, 107.60457500000001), (6.117, 107.74457500000001), (6.117, 107.60457500000001), (9.599, 107.657525), (9.599, 107.38752500000001)]</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[(0.3, 109.0), (0.3, 108.89), (6.177, 108.853075), (6.177, 108.743075), (6.177, 108.853075), (6.177, 108.703075), (9.632, 108.7667), (9.632, 108.6167), (0.3, 108.89), (0.3, 108.6), (6.177, 108.743075), (6.177, 108.573075), (6.177, 108.703075), (6.177, 108.573075), (9.632, 108.6167), (9.632, 108.5067)]</t>
+          <t>[(0.299999999996536, 109.0), (0.299999999996536, 108.89), (6.177, 108.85307499999992), (6.177, 108.74307499999992), (6.177, 108.85307499999992), (6.177, 108.70307499999991), (9.632, 108.76669999999991), (9.632, 108.61669999999991), (0.299999999996536, 108.89), (0.299999999996536, 108.6), (6.177, 108.74307499999992), (6.177, 108.57307499999992), (6.177, 108.70307499999991), (6.177, 108.57307499999992), (9.632, 108.61669999999991), (9.632, 108.31669999999991)]</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[(0.3, 110.0), (0.3, 109.81), (6.137, 109.854075), (6.137, 109.664075), (6.137, 109.854075), (6.137, 109.73407499999999), (9.692, 109.7652), (9.692, 109.64519999999999), (0.3, 109.81), (0.3, 109.63), (6.137, 109.664075), (6.137, 109.504075), (6.137, 109.73407499999999), (6.137, 109.614075), (9.692, 109.64519999999999), (9.692, 109.5252)]</t>
+          <t>[(0.300000000000174, 110.0), (0.300000000000174, 109.81), (6.137, 109.85407500000001), (6.137, 109.66407500000001), (6.137, 109.85407500000001), (6.137, 109.61407500000001), (9.692, 109.76520000000001), (9.692, 109.52520000000001), (0.300000000000174, 109.81), (0.300000000000174, 109.63), (6.137, 109.66407500000001), (6.137, 109.50407500000001), (6.137, 109.61407500000001), (6.137, 109.50407500000001), (9.692, 109.52520000000001), (9.692, 109.2252)]</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[(0.3, 111.0), (0.3, 110.82), (6.312, 110.82593141403939), (6.312, 110.64593141403938), (6.312, 110.82593141403939), (6.312, 110.65593141403939), (9.813, 110.72456512670604), (9.813, 110.55456512670604), (0.3, 110.82), (0.3, 110.65), (6.312, 110.64593141403938), (6.312, 110.5059314140394), (6.312, 110.65593141403939), (6.312, 110.5059314140394), (9.813, 110.55456512670604), (9.813, 110.38456512670604)]</t>
+          <t>[(0.300000000108038, 111.0), (0.300000000108038, 110.82), (6.312, 110.82593141404251), (6.312, 110.64593141404251), (6.312, 110.82593141404251), (6.312, 110.66593141404252), (9.813, 110.72456512670918), (9.813, 110.46456512670918), (0.300000000108038, 110.82), (0.300000000108038, 110.65), (6.312, 110.64593141404251), (6.312, 110.50593141404252), (6.312, 110.66593141404252), (6.312, 110.50593141404252), (9.813, 110.46456512670918), (9.813, 110.20456512670918)]</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[(0.3, 112.0), (0.3, 111.81), (6.418, 111.79769728581367), (6.418, 111.60769728581367), (6.418, 111.79769728581367), (6.418, 111.61769728581366), (9.979, 111.67994639251233), (9.979, 111.49994639251233), (0.3, 111.81), (0.3, 111.62), (6.418, 111.60769728581367), (6.418, 111.45769728581367), (6.418, 111.61769728581366), (6.418, 111.45769728581367), (9.979, 111.49994639251233), (9.979, 111.32994639251234)]</t>
+          <t>[(0.300000000002292, 112.0), (0.300000000002292, 111.81), (6.418, 111.79769728581374), (6.418, 111.60769728581374), (6.418, 111.79769728581374), (6.418, 111.62769728581374), (9.979, 111.67994639251242), (9.979, 111.40994639251242), (0.300000000002292, 111.81), (0.300000000002292, 111.62), (6.418, 111.60769728581374), (6.418, 111.45769728581374), (6.418, 111.62769728581374), (6.418, 111.45769728581374), (9.979, 111.40994639251242), (9.979, 111.13994639251241)]</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[(0.3, 113.0), (0.3, 112.78), (6.512, 112.76903730300029), (6.512, 112.54903730300029), (6.512, 112.76903730300029), (6.512, 112.57903730300029), (10.147, 112.63388768877073), (10.147, 112.44388768877073), (0.3, 112.78), (0.3, 112.56), (6.512, 112.54903730300029), (6.512, 112.4190373030003), (6.512, 112.57903730300029), (6.512, 112.4190373030003), (10.147, 112.44388768877073), (10.147, 112.26388768877072)]</t>
+          <t>[(0.300000000032186, 113.0), (0.300000000032186, 112.78), (6.512, 112.76903730300148), (6.512, 112.54903730300148), (6.512, 112.76903730300148), (6.512, 112.58903730300148), (10.147, 112.63388768877194), (10.147, 112.35388768877193), (0.300000000032186, 112.78), (0.300000000032186, 112.56), (6.512, 112.54903730300148), (6.512, 112.41903730300149), (6.512, 112.58903730300148), (6.512, 112.40903730300148), (10.147, 112.35388768877193), (10.147, 112.07388768877193)]</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[(0.3, 114.0), (0.3, 113.79), (6.414, 113.74753234990945), (6.414, 113.53753234990945), (6.414, 113.74753234990945), (6.414, 113.56753234990944), (10.269, 113.58834641744313), (10.269, 113.40834641744313), (0.3, 113.79), (0.3, 113.59), (6.414, 113.53753234990945), (6.414, 113.38753234990945), (6.414, 113.56753234990944), (6.414, 113.38753234990945), (10.269, 113.40834641744313), (10.269, 113.23834641744314)]</t>
+          <t>[(0.300000000043829, 114.0), (0.300000000043829, 113.79), (6.414, 113.74753234991127), (6.414, 113.53753234991127), (6.414, 113.74753234991127), (6.414, 113.50753234991127), (10.269, 113.58834641744494), (10.269, 113.34834641744494), (0.300000000043829, 113.79), (0.300000000043829, 113.59), (6.414, 113.53753234991127), (6.414, 113.38753234991127), (6.414, 113.50753234991127), (6.414, 113.38753234991127), (10.269, 113.34834641744494), (10.269, 113.04834641744493)]</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[(0.3, 115.0), (0.3, 114.79), (6.03, 114.73981990154203), (6.03, 114.52981990154204), (6.03, 114.73981990154203), (6.03, 114.54981990154204), (10.434, 114.53984901958586), (10.434, 114.34984901958586), (0.3, 114.79), (0.3, 114.58), (6.03, 114.52981990154204), (6.03, 114.36981990154203), (6.03, 114.54981990154204), (6.03, 114.36981990154203), (10.434, 114.34984901958586), (10.434, 114.18984901958586)]</t>
+          <t>[(0.300000000003786, 115.0), (0.300000000003786, 114.79), (6.03, 114.7398199015422), (6.03, 114.52981990154221), (6.03, 114.7398199015422), (6.03, 114.49981990154221), (10.434, 114.53984901958603), (10.434, 114.29984901958603), (0.300000000003786, 114.79), (0.300000000003786, 114.58), (6.03, 114.52981990154221), (6.03, 114.3698199015422), (6.03, 114.49981990154221), (6.03, 114.3698199015422), (10.434, 114.29984901958603), (10.434, 113.99984901958602)]</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[(0.3, 116.0), (0.3, 115.79), (5.667, 115.73422653464053), (5.667, 115.52422653464053), (5.667, 115.73422653464053), (5.667, 115.60422653464053), (10.642, 115.4878648819177), (10.642, 115.3578648819177), (0.3, 115.79), (0.3, 115.58), (5.667, 115.52422653464053), (5.667, 115.35422653464053), (5.667, 115.60422653464053), (5.667, 115.47422653464052), (10.642, 115.3578648819177), (10.642, 115.2278648819177)]</t>
+          <t>[(0.300000000101338, 116.0), (0.300000000101338, 115.79), (5.667, 115.73422653464554), (5.667, 115.52422653464555), (5.667, 115.73422653464554), (5.667, 115.47422653464554), (10.642, 115.48786488192272), (10.642, 115.22786488192271), (0.300000000101338, 115.79), (0.300000000101338, 115.58), (5.667, 115.52422653464555), (5.667, 115.35422653464555), (5.667, 115.47422653464554), (5.667, 115.35422653464555), (10.642, 115.22786488192271), (10.642, 114.92786488192272)]</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[(0.3, 117.0), (0.3, 116.78), (5.54, 116.71896197202535), (5.54, 116.49896197202536), (5.54, 116.71896197202535), (5.54, 116.52896197202536), (10.72, 116.44114193673744), (10.72, 116.25114193673744), (0.3, 116.78), (0.3, 116.57), (5.54, 116.49896197202536), (5.54, 116.34896197202535), (5.54, 116.52896197202536), (5.54, 116.34896197202535), (10.72, 116.25114193673744), (10.72, 116.12114193673744)]</t>
+          <t>[(0.300000000007032, 117.0), (0.300000000007032, 116.78), (5.54, 116.71896197202572), (5.54, 116.49896197202573), (5.54, 116.71896197202572), (5.54, 116.45896197202572), (10.72, 116.44114193673782), (10.72, 116.18114193673782), (0.300000000007032, 116.78), (0.300000000007032, 116.57), (5.54, 116.49896197202573), (5.54, 116.34896197202572), (5.54, 116.45896197202572), (5.54, 116.34896197202572), (10.72, 116.18114193673782), (10.72, 115.93114193673782)]</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[(0.3, 118.0), (0.3, 117.79), (5.261, 117.7135196497374), (5.261, 117.50351964973741), (5.261, 117.7135196497374), (5.261, 117.5335196497374), (10.975, 117.38355619047508), (10.975, 117.20355619047507), (0.3, 117.79), (0.3, 117.59), (5.261, 117.50351964973741), (5.261, 117.35351964973741), (5.261, 117.5335196497374), (5.261, 117.35351964973741), (10.975, 117.20355619047507), (10.975, 117.08355619047508)]</t>
+          <t>[(0.30000000003951, 118.0), (0.30000000003951, 117.79), (5.261, 117.7135196497397), (5.261, 117.5035196497397), (5.261, 117.7135196497397), (5.261, 117.4635196497397), (10.8000000000009, 117.39366182669903), (10.8000000000009, 117.14366182669903), (0.30000000003951, 117.79), (0.30000000003951, 117.59), (5.261, 117.5035196497397), (5.261, 117.3535196497397), (5.261, 117.4635196497397), (5.261, 117.3535196497397), (10.8000000000009, 117.14366182669903), (10.8000000000009, 116.89366182669903)]</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[(0.3, 119.0), (0.3, 118.78), (4.898, 118.7155687593984), (4.898, 118.4955687593984), (4.898, 118.7155687593984), (4.898, 118.6055687593984), (11.175, 118.32727495834222), (11.175, 118.21727495834222), (0.3, 118.78), (0.3, 118.56), (4.898, 118.4955687593984), (4.898, 118.3655687593984), (4.898, 118.6055687593984), (4.898, 118.3655687593984), (11.175, 118.21727495834222), (11.175, 118.04727495834221)]</t>
+          <t>[(0.300000000046213, 119.0), (0.300000000046213, 118.78), (4.898, 118.71556875940125), (4.898, 118.49556875940125), (4.898, 118.71556875940125), (4.898, 118.52556875940125), (10.800000000003, 118.35047237357446), (10.800000000003, 118.16047237357446), (0.300000000046213, 118.78), (0.300000000046213, 118.56), (4.898, 118.49556875940125), (4.898, 118.36556875940126), (4.898, 118.52556875940125), (4.898, 118.36556875940126), (10.800000000003, 118.16047237357446), (10.800000000003, 117.86047237357447)]</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[(0.3, 120.0), (0.3, 119.77), (4.833, 119.7009441407986), (4.833, 119.4709441407986), (4.833, 119.7009441407986), (4.833, 119.5909441407986), (11.337, 119.27185538980679), (11.337, 119.16185538980679), (0.3, 119.77), (0.3, 119.55), (4.833, 119.4709441407986), (4.833, 119.3509441407986), (4.833, 119.5909441407986), (4.833, 119.3509441407986), (11.337, 119.16185538980679), (11.337, 119.02185538980679)]</t>
+          <t>[(0.30000000000698, 120.0), (0.30000000000698, 119.77), (4.833, 119.70094414079907), (4.833, 119.47094414079906), (4.833, 119.70094414079907), (4.833, 119.46094414079907), (10.8000000000025, 119.3072829204471), (10.8000000000025, 119.0672829204471), (0.30000000000698, 119.77), (0.30000000000698, 119.55), (4.833, 119.47094414079906), (4.833, 119.35094414079907), (4.833, 119.46094414079907), (4.833, 119.35094414079907), (10.8000000000025, 119.0672829204471), (10.8000000000025, 118.8372829204471)]</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[(0.3, 121.0), (0.3, 120.77), (5.013, 120.67009), (5.013, 120.44009), (5.013, 120.67009), (5.013, 120.56009), (11.533, 120.21369), (11.533, 120.10369), (0.3, 120.77), (0.3, 120.54), (5.013, 120.44009), (5.013, 120.33009), (5.013, 120.56009), (5.013, 120.33009), (11.533, 120.10369), (11.533, 119.96369)]</t>
+          <t>[(0.299999999999173, 121.0), (0.299999999999173, 120.77), (5.013, 120.67008999999995), (5.013, 120.44008999999994), (5.013, 120.67008999999995), (5.013, 120.44008999999994), (10.8000000000019, 120.26499999999982), (10.8000000000019, 120.03499999999981), (0.299999999999173, 120.77), (0.299999999999173, 120.54), (5.013, 120.44008999999994), (5.013, 120.33008999999994), (5.013, 120.44008999999994), (5.013, 120.33008999999994), (10.8000000000019, 120.03499999999981), (10.8000000000019, 119.81499999999981)]</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[(0.3, 122.0), (0.3, 121.77), (5.383, 121.64419), (5.383, 121.41418999999999), (5.383, 121.64419), (5.383, 121.53419), (11.857, 121.19101), (11.857, 121.08101), (0.3, 121.77), (0.3, 121.55), (5.383, 121.41418999999999), (5.383, 121.27418999999999), (5.383, 121.53419), (5.383, 121.27418999999999), (11.857, 121.08101), (11.857, 120.94101)]</t>
+          <t>[(0.29999999999991, 122.0), (0.29999999999991, 121.78), (5.383, 121.64419), (5.383, 121.42419), (5.383, 121.64419), (5.383, 121.39419), (10.7999999999938, 121.26500000000043), (10.7999999999938, 121.01500000000043), (0.29999999999991, 121.78), (0.29999999999991, 121.56), (5.383, 121.42419), (5.383, 121.27418999999999), (5.383, 121.39419), (5.383, 121.27418999999999), (10.7999999999938, 121.01500000000043), (10.7999999999938, 120.76500000000043)]</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[(0.3, 123.0), (0.3, 122.75), (5.656, 122.62508), (5.656, 122.37508), (5.656, 122.62508), (5.656, 122.51508), (12.127, 122.17211), (12.127, 122.06211), (0.3, 122.75), (0.3, 122.5), (5.656, 122.37508), (5.656, 122.26508), (5.656, 122.51508), (5.656, 122.26508), (12.127, 122.06211), (12.127, 121.92211)]</t>
+          <t>[(0.299999999999543, 123.0), (0.299999999999543, 122.75), (5.656, 122.62507999999997), (5.656, 122.37507999999997), (5.656, 122.62507999999997), (5.656, 122.41507999999997), (10.7999999999953, 122.2650000000003), (10.7999999999953, 122.0550000000003), (0.299999999999543, 122.75), (0.299999999999543, 122.5), (5.656, 122.37507999999997), (5.656, 122.26507999999997), (5.656, 122.41507999999997), (5.656, 122.26507999999997), (10.7999999999953, 122.0550000000003), (10.7999999999953, 121.7550000000003)]</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[(0.3, 124.0), (0.3, 123.75), (5.796, 123.61528), (5.796, 123.36528), (5.796, 123.61528), (5.796, 123.50528), (12.216, 123.16588), (12.216, 123.05588), (0.3, 123.75), (0.3, 123.51), (5.796, 123.36528), (5.796, 123.23528), (5.796, 123.50528), (5.796, 123.23528), (12.216, 123.05588), (12.216, 122.91588)]</t>
+          <t>[(0.300000000005624, 124.0), (0.300000000005624, 123.75), (5.796, 123.6152800000004), (5.796, 123.3652800000004), (5.796, 123.6152800000004), (5.796, 123.3452800000004), (10.7999999999981, 123.26500000000053), (10.7999999999981, 122.99500000000053), (0.300000000005624, 123.75), (0.300000000005624, 123.51), (5.796, 123.3652800000004), (5.796, 123.2352800000004), (5.796, 123.3452800000004), (5.796, 123.2352800000004), (10.7999999999981, 122.99500000000053), (10.7999999999981, 122.72500000000052)]</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[(0.3, 125.0), (0.3, 124.74), (5.888, 124.60884), (5.888, 124.34884), (5.888, 124.60884), (5.888, 124.49884), (12.284, 124.16112), (12.284, 124.05112), (0.3, 124.74), (0.3, 124.49), (5.888, 124.34884), (5.888, 124.22884), (5.888, 124.49884), (5.888, 124.22884), (12.284, 124.05112), (12.284, 123.91112)]</t>
+          <t>[(0.3000000000001, 125.0), (0.3000000000001, 124.74), (5.888, 124.60884), (5.888, 124.34884), (5.888, 124.60884), (5.888, 124.33884), (10.8000000000036, 124.26499999999976), (10.8000000000036, 123.99499999999976), (0.3000000000001, 124.74), (0.3000000000001, 124.49), (5.888, 124.34884), (5.888, 124.22884), (5.888, 124.33884), (5.888, 124.22884), (10.8000000000036, 123.99499999999976), (10.8000000000036, 123.73499999999976)]</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[(0.3, 126.0), (0.3, 125.75), (6.036, 125.59848), (6.036, 125.34848), (6.036, 125.59848), (6.036, 125.48848), (12.476, 125.14768), (12.476, 125.03768), (0.3, 125.75), (0.3, 125.51), (6.036, 125.34848), (6.036, 125.20848), (6.036, 125.48848), (6.036, 125.20848), (12.476, 125.03768), (12.476, 124.89768)]</t>
+          <t>[(0.299999999995223, 126.0), (0.299999999995223, 125.75), (6.036, 125.59847999999967), (6.036, 125.34847999999967), (6.036, 125.59847999999967), (6.036, 125.31847999999967), (10.8000000000064, 125.26499999999922), (10.8000000000064, 124.98499999999922), (0.299999999995223, 125.75), (0.299999999995223, 125.51), (6.036, 125.34847999999967), (6.036, 125.20847999999967), (6.036, 125.31847999999967), (6.036, 125.20847999999967), (10.8000000000064, 124.98499999999922), (10.8000000000064, 124.70499999999922)]</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[(0.3, 127.0), (0.3, 126.75), (6.098, 126.59414), (6.098, 126.34414), (6.098, 126.59414), (6.098, 126.48414), (12.528, 126.14404), (12.528, 126.03404), (0.3, 126.75), (0.3, 126.5), (6.098, 126.34414), (6.098, 126.20414), (6.098, 126.48414), (6.098, 126.20414), (12.528, 126.03404), (12.528, 125.89404)]</t>
+          <t>[(0.299999999995636, 127.0), (0.299999999995636, 126.75), (6.098, 126.5941399999997), (6.098, 126.3441399999997), (6.098, 126.5941399999997), (6.098, 126.3141399999997), (10.7999999999915, 126.26500000000028), (10.7999999999915, 125.98500000000028), (0.299999999995636, 126.75), (0.299999999995636, 126.5), (6.098, 126.3441399999997), (6.098, 126.2041399999997), (6.098, 126.3141399999997), (6.098, 126.2041399999997), (10.7999999999915, 125.98500000000028), (10.7999999999915, 125.71500000000029)]</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[(0.3, 128.0), (0.3, 127.75), (6.07, 127.5961), (6.07, 127.3461), (6.07, 127.5961), (6.07, 127.48610000000001), (12.456, 127.14908), (12.456, 127.03908), (0.3, 127.75), (0.3, 127.5), (6.07, 127.3461), (6.07, 127.21610000000001), (6.07, 127.48610000000001), (6.07, 127.21610000000001), (12.456, 127.03908), (12.456, 126.87908)]</t>
+          <t>[(0.300000000004285, 128.0), (0.300000000004285, 127.75), (6.07, 127.5961000000003), (6.07, 127.3461000000003), (6.07, 127.5961000000003), (6.07, 127.40610000000031), (10.799999999997, 127.26500000000051), (10.799999999997, 126.9750000000005), (0.300000000004285, 127.75), (0.300000000004285, 127.5), (6.07, 127.3461000000003), (6.07, 127.21610000000031), (6.07, 127.40610000000031), (6.07, 127.21610000000031), (10.799999999997, 126.9750000000005), (10.799999999997, 126.68500000000051)]</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[(0.3, 129.0), (0.3, 128.74), (5.914, 128.60702), (5.914, 128.34702000000001), (5.914, 128.60702), (5.914, 128.49702), (12.388, 128.15384), (12.388, 128.04384), (0.3, 128.74), (0.3, 128.48), (5.914, 128.34702000000001), (5.914, 128.21702000000002), (5.914, 128.49702), (5.914, 128.21702000000002), (12.388, 128.04384), (12.388, 127.87384)]</t>
+          <t>[(0.300000000004724, 129.0), (0.300000000004724, 128.74), (5.914, 128.60702000000032), (5.914, 128.34702000000033), (5.914, 128.60702000000032), (5.914, 128.32702000000032), (10.7999999999976, 128.2650000000005), (10.7999999999976, 127.9850000000005), (0.300000000004724, 128.74), (0.300000000004724, 128.48), (5.914, 128.34702000000033), (5.914, 128.21702000000033), (5.914, 128.32702000000032), (5.914, 128.21702000000033), (10.7999999999976, 127.9850000000005), (10.7999999999976, 127.68500000000049)]</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[(0.3, 130.0), (0.3, 129.73), (5.846, 129.61178), (5.846, 129.34178), (5.846, 129.61178), (5.846, 129.50178), (12.252, 129.16336), (12.252, 129.05336), (0.3, 129.73), (0.3, 129.47), (5.846, 129.34178), (5.846, 129.20178), (5.846, 129.50178), (5.846, 129.20178), (12.252, 129.05336), (12.252, 128.86336)]</t>
+          <t>[(0.300000000003322, 130.0), (0.300000000003322, 129.73), (5.846, 129.61178000000024), (5.846, 129.34178000000023), (5.846, 129.61178000000024), (5.846, 129.31178000000023), (10.8000000000072, 129.26499999999973), (10.8000000000072, 128.96499999999972), (0.300000000003322, 129.73), (0.300000000003322, 129.47), (5.846, 129.34178000000023), (5.846, 129.20178000000024), (5.846, 129.31178000000023), (5.846, 129.20178000000024), (10.8000000000072, 128.96499999999972), (10.8000000000072, 128.67499999999973)]</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[(0.3, 131.0), (0.3, 130.74), (5.814, 130.61402), (5.814, 130.35402000000002), (5.814, 130.61402), (5.814, 130.50402), (12.193, 130.16749), (12.193, 130.05748999999997), (0.3, 130.74), (0.3, 130.49), (5.814, 130.35402000000002), (5.814, 130.21402), (5.814, 130.50402), (5.814, 130.21402), (12.193, 130.05748999999997), (12.193, 129.89748999999998)]</t>
+          <t>[(0.29999999999056, 131.0), (0.29999999999056, 130.74), (5.814, 130.61401999999933), (5.814, 130.35401999999934), (5.814, 130.61401999999933), (5.814, 130.33401999999933), (10.7999999999925, 130.26499999999987), (10.7999999999925, 129.98499999999987), (0.29999999999056, 130.74), (0.29999999999056, 130.49), (5.814, 130.35401999999934), (5.814, 130.21401999999932), (5.814, 130.33401999999933), (5.814, 130.21401999999932), (10.7999999999925, 129.98499999999987), (10.7999999999925, 129.70499999999987)]</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[(0.3, 132.0), (0.3, 131.73), (5.726, 131.62018), (5.726, 131.35018), (5.726, 131.62018), (5.726, 131.50018), (12.123, 131.17239), (12.123, 131.05239), (0.3, 131.73), (0.3, 131.46), (5.726, 131.35018), (5.726, 131.20018000000002), (5.726, 131.50018), (5.726, 131.20018000000002), (12.123, 131.05239), (12.123, 130.87239)]</t>
+          <t>[(0.299999999994877, 132.0), (0.299999999994877, 131.73), (5.726, 131.62017999999964), (5.726, 131.35017999999963), (5.726, 131.62017999999964), (5.726, 131.33017999999964), (10.8000000000005, 131.26499999999962), (10.8000000000005, 130.97499999999962), (0.299999999994877, 131.73), (0.299999999994877, 131.46), (5.726, 131.35017999999963), (5.726, 131.20017999999965), (5.726, 131.33017999999964), (5.726, 131.20017999999965), (10.8000000000005, 130.97499999999962), (10.8000000000005, 130.6849999999996)]</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[(0.3, 133.0), (0.3, 132.72), (5.463, 132.63859), (5.463, 132.35859), (5.463, 132.63859), (5.463, 132.40859), (11.91, 132.1873), (11.91, 131.9573), (0.3, 132.72), (0.3, 132.44), (5.463, 132.35859), (5.463, 132.17858999999999), (5.463, 132.40859), (5.463, 132.17858999999999), (11.91, 131.9573), (11.91, 131.82729999999998)]</t>
+          <t>[(0.300000000007903, 133.0), (0.300000000007903, 132.72), (5.463, 132.63859000000056), (5.463, 132.35859000000056), (5.463, 132.63859000000056), (5.463, 132.40859000000057), (10.8000000000006, 132.2650000000005), (10.8000000000006, 131.9450000000005), (0.300000000007903, 132.72), (0.300000000007903, 132.44), (5.463, 132.35859000000056), (5.463, 132.17859000000055), (5.463, 132.40859000000057), (5.463, 132.17859000000055), (10.8000000000006, 131.9450000000005), (10.8000000000006, 131.6250000000005)]</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[(0.3, 134.0), (0.3, 133.7), (5.311, 133.64923), (5.311, 133.34922999999998), (5.311, 133.64923), (5.311, 133.46922999999998), (11.708, 133.20144), (11.708, 133.02143999999998), (0.3, 133.7), (0.3, 133.41), (5.311, 133.34922999999998), (5.311, 133.16923), (5.311, 133.46922999999998), (5.311, 133.16923), (11.708, 133.02143999999998), (11.708, 132.87143999999998)]</t>
+          <t>[(0.299999999994272, 134.0), (0.299999999994272, 133.7), (5.311, 133.6492299999996), (5.311, 133.34922999999958), (5.311, 133.6492299999996), (5.311, 133.3592299999996), (10.7999999999911, 133.2650000000002), (10.7999999999911, 132.97500000000022), (0.299999999994272, 133.7), (0.299999999994272, 133.41), (5.311, 133.34922999999958), (5.311, 133.1692299999996), (5.311, 133.3592299999996), (5.311, 133.1692299999996), (10.7999999999911, 132.97500000000022), (10.7999999999911, 132.6850000000002)]</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[(0.3, 135.0), (0.3, 134.68), (5.048, 134.66764), (5.048, 134.40764000000001), (5.048, 134.66764), (5.048, 134.45764), (11.396, 134.22328), (11.396, 134.01327999999998), (0.3, 134.68), (0.3, 134.36), (5.048, 134.40764000000001), (5.048, 134.14764), (5.048, 134.45764), (5.048, 134.15764000000001), (11.396, 134.01327999999998), (11.396, 133.86327999999997)]</t>
+          <t>[(0.300000000008756, 135.0), (0.300000000008756, 134.68), (5.048, 134.6676400000006), (5.048, 134.4076400000006), (5.048, 134.6676400000006), (5.048, 134.4676400000006), (10.8000000000083, 134.26500000000004), (10.8000000000083, 134.06500000000005), (0.300000000008756, 134.68), (0.300000000008756, 134.36), (5.048, 134.4076400000006), (5.048, 134.1476400000006), (5.048, 134.4676400000006), (5.048, 134.2676400000006), (10.8000000000083, 134.06500000000005), (10.8000000000083, 133.86500000000004)]</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[(0.3, 136.0), (0.3, 135.68), (4.666, 135.69438), (4.666, 135.44438), (4.666, 135.69438), (4.666, 135.49438), (11.203, 135.23679), (11.203, 135.03679000000002), (0.3, 135.68), (0.3, 135.36), (4.666, 135.44438), (4.666, 135.19438), (4.666, 135.49438), (4.666, 135.19438), (11.203, 135.03679000000002), (11.203, 134.90679)]</t>
+          <t>[(0.299999999998261, 136.0), (0.299999999998261, 135.68), (4.666, 135.69437999999988), (4.666, 135.44437999999988), (4.666, 135.69437999999988), (4.666, 135.51437999999987), (10.8000000000052, 135.2649999999995), (10.8000000000052, 135.0849999999995), (0.299999999998261, 135.68), (0.299999999998261, 135.36), (4.666, 135.44437999999988), (4.666, 135.19437999999988), (4.666, 135.51437999999987), (4.666, 135.33437999999987), (10.8000000000052, 135.0849999999995), (10.8000000000052, 134.9049999999995)]</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[(0.3, 137.0), (0.3, 136.69), (4.81, 136.6843), (4.81, 136.42430000000002), (4.81, 136.6843), (4.81, 136.4743), (11.248, 136.23364), (11.248, 136.02364), (0.3, 136.69), (0.3, 136.38), (4.81, 136.42430000000002), (4.81, 136.1643), (4.81, 136.4743), (4.81, 136.17430000000002), (11.248, 136.02364), (11.248, 135.88364)]</t>
+          <t>[(0.299999999996779, 137.0), (0.299999999996779, 136.69), (4.81, 136.68429999999978), (4.81, 136.4242999999998), (4.81, 136.68429999999978), (4.81, 136.49429999999978), (10.7999999999975, 136.26499999999996), (10.7999999999975, 136.07499999999996), (0.299999999996779, 136.69), (0.299999999996779, 136.38), (4.81, 136.4242999999998), (4.81, 136.16429999999977), (4.81, 136.49429999999978), (4.81, 136.30429999999978), (10.7999999999975, 136.07499999999996), (10.7999999999975, 135.88499999999996)]</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[(0.3, 138.0), (0.3, 137.71), (4.784, 137.68612), (4.784, 137.39612), (4.784, 137.68612), (4.784, 137.53611999999998), (11.259, 137.23287), (11.259, 137.08286999999999), (0.3, 137.71), (0.3, 137.43), (4.784, 137.39612), (4.784, 137.23612), (4.784, 137.53611999999998), (4.784, 137.23612), (11.259, 137.08286999999999), (11.259, 136.92287)]</t>
+          <t>[(0.299999999998572, 138.0), (0.299999999998572, 137.71), (4.784, 137.6861199999999), (4.784, 137.3961199999999), (4.784, 137.6861199999999), (4.784, 137.4161199999999), (10.8000000000055, 137.2649999999995), (10.8000000000055, 136.9949999999995), (0.299999999998572, 137.71), (0.299999999998572, 137.43), (4.784, 137.3961199999999), (4.784, 137.23611999999991), (4.784, 137.4161199999999), (4.784, 137.23611999999991), (10.8000000000055, 136.9949999999995), (10.8000000000055, 136.7349999999995)]</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[(0.3, 139.0), (0.3, 138.72), (4.716, 138.69088), (4.716, 138.41088), (4.716, 138.69088), (4.716, 138.58087999999998), (11.24, 138.2342), (11.24, 138.12419999999997), (0.3, 138.72), (0.3, 138.45), (4.716, 138.41088), (4.716, 138.28088), (4.716, 138.58087999999998), (4.716, 138.28088), (11.24, 138.12419999999997), (11.24, 137.9442)]</t>
+          <t>[(0.299999999997755, 139.0), (0.299999999997755, 138.72), (4.716, 138.69087999999985), (4.716, 138.41087999999985), (4.716, 138.69087999999985), (4.716, 138.43087999999986), (10.7999999999947, 138.2650000000002), (10.7999999999947, 138.00500000000022), (0.299999999997755, 138.72), (0.299999999997755, 138.45), (4.716, 138.41087999999985), (4.716, 138.28087999999985), (4.716, 138.43087999999986), (4.716, 138.28087999999985), (10.7999999999947, 138.00500000000022), (10.7999999999947, 137.75500000000022)]</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[(0.3, 140.0), (0.3, 139.75), (4.68, 139.69536994456638), (4.68, 139.44536994456638), (4.68, 139.69536994456638), (4.68, 139.58536994456637), (11.161, 139.24461483286197), (11.161, 139.13461483286196), (0.3, 139.75), (0.3, 139.5), (4.68, 139.44536994456638), (4.68, 139.32536994456638), (4.68, 139.58536994456637), (4.68, 139.32536994456638), (11.161, 139.13461483286196), (11.161, 138.98461483286198)]</t>
+          <t>[(0.300000000028918, 140.0), (0.300000000028918, 139.75), (4.68, 139.6953699445684), (4.68, 139.4453699445684), (4.68, 139.6953699445684), (4.68, 139.4553699445684), (10.8000000000061, 139.2697224698525), (10.8000000000061, 139.0297224698525), (0.300000000028918, 139.75), (0.300000000028918, 139.5), (4.68, 139.4453699445684), (4.68, 139.3253699445684), (4.68, 139.4553699445684), (4.68, 139.3253699445684), (10.8000000000061, 139.0297224698525), (10.8000000000061, 138.7897224698525)]</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[(0.3, 141.0), (0.3, 140.77), (4.572, 140.72045330809075), (4.572, 140.49045330809076), (4.572, 140.72045330809075), (4.572, 140.61045330809074), (11.034, 140.29759967440222), (11.034, 140.1875996744022), (0.3, 140.77), (0.3, 140.54), (4.572, 140.49045330809076), (4.572, 140.36045330809074), (4.572, 140.61045330809074), (4.572, 140.36045330809074), (11.034, 140.1875996744022), (11.034, 140.01759967440222)]</t>
+          <t>[(0.300000000048554, 141.0), (0.300000000048554, 140.77), (4.572, 140.72045330809394), (4.572, 140.49045330809395), (4.572, 140.72045330809394), (4.572, 140.47045330809394), (10.7999999999886, 140.31291192297982), (10.7999999999886, 140.06291192297982), (0.300000000048554, 140.77), (0.300000000048554, 140.54), (4.572, 140.49045330809395), (4.572, 140.36045330809392), (4.572, 140.47045330809394), (4.572, 140.36045330809392), (10.7999999999886, 140.06291192297982), (10.7999999999886, 139.8229119229798)]</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[(0.3, 142.0), (0.3, 141.77), (4.473, 141.74409628975897), (4.473, 141.51409628975898), (4.473, 141.74409628975897), (4.473, 141.56409628975896), (10.865, 141.35211533700058), (10.865, 141.17211533700058), (0.3, 141.77), (0.3, 141.54), (4.473, 141.51409628975898), (4.473, 141.38409628975896), (4.473, 141.56409628975896), (4.473, 141.38409628975896), (10.865, 141.17211533700058), (10.865, 141.05211533700057)]</t>
+          <t>[(0.300000000007764, 142.0), (0.300000000007764, 141.77), (4.473, 141.74409628975943), (4.473, 141.51409628975944), (4.473, 141.74409628975943), (4.473, 141.49409628975943), (10.800000000008, 141.3561013761009), (10.800000000008, 141.1061013761009), (0.300000000007764, 141.77), (0.300000000007764, 141.54), (4.473, 141.51409628975944), (4.473, 141.3840962897594), (4.473, 141.49409628975943), (4.473, 141.3840962897594), (10.800000000008, 141.1061013761009), (10.800000000008, 140.8661013761009)]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[(0.3, 143.0), (0.3, 142.77), (4.29, 142.77173051510584), (4.29, 142.54173051510585), (4.29, 142.77173051510584), (4.29, 142.66173051510583), (10.696, 142.40524071053642), (10.696, 142.2952407105364), (0.3, 142.77), (0.3, 142.55), (4.29, 142.54173051510585), (4.29, 142.40173051510584), (4.29, 142.66173051510583), (4.29, 142.40173051510584), (10.696, 142.2952407105364), (10.696, 142.11524071053643)]</t>
+          <t>[(0.300000000136927, 143.0), (0.300000000136927, 142.77), (4.29, 142.7717305151137), (4.29, 142.5417305151137), (4.29, 142.7717305151137), (4.29, 142.53173051511368), (10.696, 142.40524071054426), (10.696, 142.16524071054425), (0.300000000136927, 142.77), (0.300000000136927, 142.55), (4.29, 142.5417305151137), (4.29, 142.40173051511368), (4.29, 142.53173051511368), (4.29, 142.40173051511368), (10.696, 142.16524071054425), (10.696, 141.92524071054427)]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[(0.3, 144.0), (0.3, 143.79), (3.859, 143.81102736427493), (3.859, 143.60102736427493), (3.859, 143.81102736427493), (3.859, 143.70102736427492), (10.272, 143.47051555958126), (10.272, 143.36051555958124), (0.3, 143.79), (0.3, 143.59), (3.859, 143.60102736427493), (3.859, 143.44102736427493), (3.859, 143.70102736427492), (3.859, 143.44102736427493), (10.272, 143.36051555958124), (10.272, 143.18051555958127)]</t>
+          <t>[(0.300000000013215, 144.0), (0.300000000013215, 143.79), (3.859, 143.81102736427565), (3.859, 143.60102736427564), (3.859, 143.81102736427565), (3.859, 143.57102736427564), (10.272, 143.47051555958197), (10.272, 143.23051555958196), (0.300000000013215, 143.79), (0.300000000013215, 143.59), (3.859, 143.60102736427564), (3.859, 143.44102736427564), (3.859, 143.57102736427564), (3.859, 143.44102736427564), (10.272, 143.23051555958196), (10.272, 142.99051555958198)]</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[(0.3, 145.0), (0.3, 144.82), (3.465, 144.84496616312202), (3.465, 144.66496616312202), (3.465, 144.84496616312202), (3.465, 144.67496616312204), (9.88, 144.53073486341515), (9.88, 144.36073486341516), (0.3, 144.82), (0.3, 144.64), (3.465, 144.66496616312202), (3.465, 144.514966163122), (3.465, 144.67496616312204), (3.465, 144.514966163122), (9.88, 144.36073486341516), (9.88, 144.25073486341515)]</t>
+          <t>[(0.30000000002376, 145.0), (0.30000000002376, 144.82), (3.465, 144.8449661631232), (3.465, 144.66496616312318), (3.465, 144.8449661631232), (3.465, 144.6749661631232), (9.88, 144.5307348634163), (9.88, 144.36073486341633), (0.30000000002376, 144.82), (0.30000000002376, 144.64), (3.465, 144.66496616312318), (3.465, 144.51496616312318), (3.465, 144.6749661631232), (3.465, 144.51496616312318), (9.88, 144.36073486341633), (9.88, 144.06073486341631)]</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[(0.3, 146.0), (0.3, 145.82), (3.05, 145.8766059779669), (3.05, 145.6966059779669), (3.05, 145.8766059779669), (3.05, 145.70660597796692), (9.577, 145.58373587549053), (9.577, 145.41373587549054), (0.3, 145.82), (0.3, 145.65), (3.05, 145.6966059779669), (3.05, 145.5466059779669), (3.05, 145.70660597796692), (3.05, 145.5466059779669), (9.577, 145.41373587549054), (9.577, 145.30373587549053)]</t>
+          <t>[(0.300000000058881, 146.0), (0.300000000058881, 145.82), (3.05, 145.87660597796955), (3.05, 145.69660597796954), (3.05, 145.87660597796955), (3.05, 145.70660597796956), (9.577, 145.58373587549318), (9.577, 145.4137358754932), (0.300000000058881, 145.82), (0.300000000058881, 145.65), (3.05, 145.69660597796954), (3.05, 145.54660597796953), (3.05, 145.70660597796956), (3.05, 145.54660597796953), (9.577, 145.4137358754932), (9.577, 145.11373587549318)]</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[(0.3, 147.0), (0.3, 146.8), (2.713, 146.90165270214138), (2.713, 146.7016527021414), (2.713, 146.90165270214138), (2.713, 146.71165270214138), (9.326, 146.63212486097314), (9.326, 146.44212486097314), (0.3, 146.8), (0.3, 146.61), (2.713, 146.7016527021414), (2.713, 146.52165270214138), (2.713, 146.71165270214138), (2.713, 146.52165270214138), (9.326, 146.44212486097314), (9.326, 146.27212486097312)]</t>
+          <t>[(0.299999999998987, 147.0), (0.299999999998987, 146.8), (2.713, 146.90165270214135), (2.713, 146.70165270214136), (2.713, 146.90165270214135), (2.713, 146.65165270214135), (9.326, 146.6321248609731), (9.326, 146.3821248609731), (0.299999999998987, 146.8), (0.299999999998987, 146.61), (2.713, 146.70165270214136), (2.713, 146.52165270214135), (2.713, 146.65165270214135), (2.713, 146.52165270214135), (9.326, 146.3821248609731), (9.326, 146.0821248609731)]</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[(0.3, 148.0), (0.3, 147.79), (9.052, 147.67929179106048), (9.052, 147.46929179106047), (0.3, 147.79), (0.3, 147.58), (9.052, 147.46929179106047), (9.052, 147.30929179106047)]</t>
+          <t>[(0.300000000133495, 148.0), (0.300000000133495, 147.72), (9.052, 147.67929179106537), (9.052, 147.39929179106537), (0.300000000133495, 147.72), (0.300000000133495, 147.58), (9.052, 147.39929179106537), (9.052, 147.11929179106536)]</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[(0.3, 149.0), (0.3, 148.85), (8.741, 148.72540827928233), (8.741, 148.57540827928233), (0.3, 148.85), (0.3, 148.7), (8.741, 148.57540827928233), (8.741, 148.42540827928232), (0.3, 148.7), (0.3, 148.57), (8.741, 148.42540827928232), (8.741, 148.29540827928233)]</t>
+          <t>[(0.300000000016485, 149.0), (0.300000000016485, 148.85), (8.741, 148.72540827928287), (8.741, 148.57540827928287), (0.300000000016485, 148.85), (0.300000000016485, 148.7), (8.741, 148.57540827928287), (8.741, 148.42540827928286), (0.300000000016485, 148.7), (0.300000000016485, 148.57), (8.741, 148.42540827928286), (8.741, 148.29540827928287)]</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[(0.3, 150.0), (0.3, 149.79), (8.223, 149.7748487142593), (8.223, 149.56484871425928), (0.3, 149.79), (0.3, 149.59), (8.223, 149.56484871425928), (8.223, 149.4248487142593)]</t>
+          <t>[(0.300000000023411, 150.0), (0.300000000023411, 149.79), (8.223, 149.77484871425995), (8.223, 149.56484871425994), (0.300000000023411, 149.79), (0.300000000023411, 149.59), (8.223, 149.56484871425994), (8.223, 149.42484871425995)]</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[(0.3, 151.0), (0.3, 150.89), (7.794, 150.81265), (7.794, 150.70264999999998), (0.3, 150.89), (0.3, 150.61), (7.794, 150.70264999999998), (7.794, 150.52265)]</t>
+          <t>[(0.300000000003251, 151.0), (0.300000000003251, 150.89), (7.794, 150.81265000000008), (7.794, 150.70265000000006), (0.300000000003251, 150.89), (0.300000000003251, 150.61), (7.794, 150.70265000000006), (7.794, 150.52265000000008)]</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[(0.3, 152.0), (0.3, 151.89), (7.363, 151.823425), (7.363, 151.71342499999997), (0.3, 151.89), (0.3, 151.65), (7.363, 151.71342499999997), (7.363, 151.573425)]</t>
+          <t>[(0.300000000004276, 152.0), (0.300000000004276, 151.89), (7.363, 151.8234250000001), (7.363, 151.7134250000001), (0.300000000004276, 151.89), (0.300000000004276, 151.65), (7.363, 151.7134250000001), (7.363, 151.5734250000001)]</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[(0.3, 155.0), (0.3, 154.86), (6.062, 154.85595), (6.062, 154.71595000000002), (0.3, 154.86), (0.3, 154.73), (6.062, 154.71595000000002), (6.062, 154.60595)]</t>
+          <t>[(0.300000000003251, 155.0), (0.300000000003251, 154.86), (6.062, 154.8559500000001), (6.062, 154.7159500000001), (0.300000000003251, 154.86), (0.300000000003251, 154.73), (6.062, 154.7159500000001), (6.062, 154.6059500000001)]</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[(0.3, 158.0), (0.3, 157.87), (6.571, 157.843225), (6.571, 157.713225), (0.3, 157.87), (0.3, 157.75), (6.571, 157.713225), (6.571, 157.593225)]</t>
+          <t>[(0.300000000003251, 158.0), (0.300000000003251, 157.87), (6.571, 157.84322500000007), (6.571, 157.71322500000008), (0.300000000003251, 157.87), (0.300000000003251, 157.75), (6.571, 157.71322500000008), (6.571, 157.59322500000007)]</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[(0.3, 159.0), (0.3, 158.89), (7.282, 158.82545), (7.282, 158.71544999999998), (0.3, 158.89), (0.3, 158.68), (7.282, 158.71544999999998), (7.282, 158.57545)]</t>
+          <t>[(0.300000000004276, 159.0), (0.300000000004276, 158.89), (7.282, 158.8254500000001), (7.282, 158.7154500000001), (0.300000000004276, 158.89), (0.300000000004276, 158.68), (7.282, 158.7154500000001), (7.282, 158.5754500000001)]</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[(0.3, 160.0), (0.3, 159.88), (8.105, 159.804875), (8.105, 159.684875), (0.3, 159.88), (0.3, 159.58), (8.105, 159.684875), (8.105, 159.554875)]</t>
+          <t>[(0.300000000004276, 160.0), (0.300000000004276, 159.88), (8.105, 159.8048750000001), (8.105, 159.6848750000001), (0.300000000004276, 159.88), (0.300000000004276, 159.58), (8.105, 159.6848750000001), (8.105, 159.5548750000001)]</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[(0.3, 161.0), (0.3, 160.87), (4.654, 160.89115), (4.654, 160.76115000000001), (0.3, 160.87), (0.3, 160.57), (4.654, 160.76115000000001), (4.654, 160.64115)]</t>
+          <t>[(0.300000000018238, 161.0), (0.300000000018238, 160.87), (4.654, 160.89115000000047), (4.654, 160.76115000000047), (0.300000000018238, 160.87), (0.300000000018238, 160.57), (4.654, 160.76115000000047), (4.654, 160.64115000000047)]</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[(0.3, 162.0), (0.3, 161.89), (4.591, 161.892725), (4.591, 161.782725), (0.3, 161.89), (0.3, 161.62), (4.591, 161.782725), (4.591, 161.642725)]</t>
+          <t>[(0.300000000003251, 162.0), (0.300000000003251, 161.89), (4.591, 161.89272500000007), (4.591, 161.78272500000006), (0.300000000003251, 161.89), (0.300000000003251, 161.62), (4.591, 161.78272500000006), (4.591, 161.64272500000007)]</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[(0.3, 163.0), (0.3, 162.89), (4.475, 162.895625), (4.475, 162.78562499999998), (0.3, 162.89), (0.3, 162.62), (4.475, 162.78562499999998), (4.475, 162.645625)]</t>
+          <t>[(0.300000000015546, 163.0), (0.300000000015546, 162.89), (4.475, 162.8956250000004), (4.475, 162.78562500000038), (0.300000000015546, 162.89), (0.300000000015546, 162.62), (4.475, 162.78562500000038), (4.475, 162.6456250000004)]</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[(0.3, 164.0), (0.3, 163.88), (4.435, 163.896625), (4.435, 163.776625), (0.3, 163.88), (0.3, 163.58), (4.435, 163.776625), (4.435, 163.636625)]</t>
+          <t>[(0.299999999998385, 164.0), (0.299999999998385, 163.88), (4.435, 163.89662499999997), (4.435, 163.77662499999997), (0.299999999998385, 163.88), (0.299999999998385, 163.58), (4.435, 163.77662499999997), (4.435, 163.63662499999998)]</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[(0.3, 165.0), (0.3, 164.88), (4.43, 164.89675), (4.43, 164.77675), (0.3, 164.88), (0.3, 164.58), (4.43, 164.77675), (4.43, 164.64675)]</t>
+          <t>[(0.300000000000252, 165.0), (0.300000000000252, 164.88), (4.43, 164.89675), (4.43, 164.77675), (0.300000000000252, 164.88), (0.300000000000252, 164.58), (4.43, 164.77675), (4.43, 164.64675)]</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[(0.3, 166.0), (0.3, 165.89), (4.405, 165.897375), (4.405, 165.787375), (0.3, 165.89), (0.3, 165.68), (4.405, 165.787375), (4.405, 165.647375)]</t>
+          <t>[(0.299999999994399, 166.0), (0.299999999994399, 165.89), (4.405, 165.89737499999987), (4.405, 165.78737499999986), (0.299999999994399, 165.89), (0.299999999994399, 165.68), (4.405, 165.78737499999986), (4.405, 165.64737499999987)]</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[(0.3, 167.0), (0.3, 166.87), (4.303, 166.899925), (4.303, 166.769925), (0.3, 166.87), (0.3, 166.75), (4.303, 166.769925), (4.303, 166.649925)]</t>
+          <t>[(0.29999999999931, 167.0), (0.29999999999931, 166.87), (4.303, 166.899925), (4.303, 166.769925), (0.29999999999931, 166.87), (0.29999999999931, 166.75), (4.303, 166.769925), (4.303, 166.649925)]</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[(0.3, 168.0), (0.3, 167.86), (4.037, 167.906575), (4.037, 167.76657500000002), (0.3, 167.86), (0.3, 167.74), (4.037, 167.76657500000002), (4.037, 167.656575)]</t>
+          <t>[(0.299999999995238, 168.0), (0.299999999995238, 167.86), (4.037, 167.9065749999999), (4.037, 167.7665749999999), (0.299999999995238, 167.86), (0.299999999995238, 167.73), (4.037, 167.7665749999999), (4.037, 167.6565749999999)]</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[(0.3, 169.0), (0.3, 168.87), (3.687, 168.915325), (3.687, 168.785325), (0.3, 168.87), (0.3, 168.75), (3.687, 168.785325), (3.687, 168.665325)]</t>
+          <t>[(0.299999999992807, 169.0), (0.299999999992807, 168.87), (3.687, 168.91532499999983), (3.687, 168.78532499999983), (0.299999999992807, 168.87), (0.299999999992807, 168.75), (3.687, 168.78532499999983), (3.687, 168.66532499999983)]</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>[(0.3, 170.0), (0.3, 169.87), (3.409, 169.922275), (3.409, 169.79227500000002), (0.3, 169.87), (0.3, 169.75), (3.409, 169.79227500000002), (3.409, 169.672275)]</t>
+          <t>[(0.299999999992807, 170.0), (0.299999999992807, 169.87), (3.409, 169.92227499999981), (3.409, 169.79227499999982), (0.299999999992807, 169.87), (0.299999999992807, 169.75), (3.409, 169.79227499999982), (3.409, 169.67227499999981)]</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[(0.3, 171.0), (0.3, 170.89), (3.063, 170.930925), (3.063, 170.820925), (0.3, 170.89), (0.3, 170.67), (3.063, 170.820925), (3.063, 170.680925)]</t>
+          <t>[(0.299999999992807, 171.0), (0.299999999992807, 170.89), (3.063, 170.93092499999983), (3.063, 170.82092499999982), (0.299999999992807, 170.89), (0.299999999992807, 170.67), (3.063, 170.82092499999982), (3.063, 170.68092499999983)]</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[(0.3, 172.0), (0.3, 171.89), (2.669, 171.99302374191387), (2.669, 171.88302374191386), (0.3, 171.89), (0.3, 171.66), (2.669, 171.88302374191386), (2.669, 171.72302374191386)]</t>
+          <t>[(0.299999999991723, 172.0), (0.299999999991723, 171.89), (2.669, 171.99302374191385), (2.669, 171.88302374191383), (0.299999999991723, 171.89), (0.299999999991723, 171.66), (2.669, 171.88302374191383), (2.669, 171.72302374191383)]</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[(0.3, 179.0), (0.3, 178.84), (6.464, 179.35660438127363), (6.464, 179.01660438127362), (0.3, 178.84), (0.3, 178.68), (6.464, 179.01660438127362), (6.464, 178.67660438127362)]</t>
+          <t>[(0.300000000015687, 179.0), (0.300000000015687, 178.84), (6.464, 179.35660438127272), (6.464, 179.0166043812727), (0.300000000015687, 178.84), (0.300000000015687, 178.68), (6.464, 179.0166043812727), (6.464, 178.6766043812727)]</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[(0.3, 180.0), (0.3, 179.84), (5.867, 180.33402), (5.867, 180.07402000000002), (0.3, 179.84), (0.3, 179.68), (5.867, 180.07402000000002), (5.867, 179.81402)]</t>
+          <t>[(0.299999999998688, 180.0), (0.299999999998688, 179.84), (5.867, 180.33402000000007), (5.867, 180.07402000000008), (0.299999999998688, 179.84), (0.299999999998688, 179.68), (5.867, 180.07402000000008), (5.867, 179.81402000000006)]</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[(0.3, 181.0), (0.3, 180.83), (5.663, 181.32178), (5.663, 181.04178), (0.3, 180.83), (0.3, 180.66), (5.663, 181.04178), (5.663, 180.76178)]</t>
+          <t>[(0.299999999994209, 181.0), (0.299999999994209, 180.83), (5.663, 181.32178000000036), (5.663, 181.04178000000036), (0.299999999994209, 180.83), (0.299999999994209, 180.66), (5.663, 181.04178000000036), (5.663, 180.76178000000036)]</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[(0.3, 182.0), (0.3, 181.84), (5.69, 182.3234), (5.69, 182.0434), (0.3, 181.84), (0.3, 181.68), (5.69, 182.0434), (5.69, 181.7634)]</t>
+          <t>[(0.30000000000151, 182.0), (0.30000000000151, 181.84), (5.69, 182.3233999999999), (5.69, 182.0433999999999), (0.30000000000151, 181.84), (0.30000000000151, 181.68), (5.69, 182.0433999999999), (5.69, 181.7633999999999)]</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[(0.3, 183.0), (0.3, 182.76), (5.585, 183.3171), (5.585, 183.0771), (0.3, 182.76), (0.3, 182.63), (5.585, 183.0771), (5.585, 182.77710000000002)]</t>
+          <t>[(0.299999999993821, 183.0), (0.299999999993821, 182.76), (5.585, 183.31710000000038), (5.585, 183.07710000000037), (0.299999999993821, 182.76), (0.299999999993821, 182.63), (5.585, 183.07710000000037), (5.585, 182.7771000000004)]</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[(0.3, 184.0), (0.3, 183.8), (5.607, 184.31842), (5.607, 183.99842), (0.3, 183.8), (0.3, 183.6), (5.607, 183.99842), (5.607, 183.67842000000002)]</t>
+          <t>[(0.300000000001122, 184.0), (0.300000000001122, 183.8), (5.607, 184.31841999999995), (5.607, 183.99841999999995), (0.300000000001122, 183.8), (0.300000000001122, 183.6), (5.607, 183.99841999999995), (5.607, 183.67841999999996)]</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[(0.3, 185.0), (0.3, 184.82), (5.812, 185.33072), (5.812, 185.03072), (0.3, 184.82), (0.3, 184.64), (5.812, 185.03072), (5.812, 184.73072000000002)]</t>
+          <t>[(0.299999999993799, 185.0), (0.299999999993799, 184.82), (5.812, 185.33072000000038), (5.812, 185.03072000000037), (0.299999999993799, 184.82), (0.299999999993799, 184.64), (5.812, 185.03072000000037), (5.812, 184.7307200000004)]</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[(0.3, 186.0), (0.3, 185.84), (6.115, 186.3489), (6.115, 186.06889999999999), (0.3, 185.84), (0.3, 185.68), (6.115, 186.06889999999999), (6.115, 185.78889999999998)]</t>
+          <t>[(0.299999999998043, 186.0), (0.299999999998043, 185.84), (6.115, 186.34890000000013), (6.115, 186.06890000000013), (0.299999999998043, 185.84), (0.299999999998043, 185.68), (6.115, 186.06890000000013), (6.115, 185.78890000000013)]</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[(0.3, 187.0), (0.3, 186.84), (6.464, 187.36984), (6.464, 187.06984), (0.3, 186.84), (0.3, 186.68), (6.464, 187.06984), (6.464, 186.76984000000002)]</t>
+          <t>[(0.300000000007436, 187.0), (0.300000000007436, 186.84), (6.464, 187.36983999999956), (6.464, 187.06983999999954), (0.300000000007436, 186.84), (0.300000000007436, 186.68), (6.464, 187.06983999999954), (6.464, 186.76983999999956)]</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[(0.3, 188.0), (0.3, 187.84), (6.838, 188.39228), (6.838, 188.05228), (0.3, 187.84), (0.3, 187.68), (6.838, 188.05228), (6.838, 187.71228)]</t>
+          <t>[(0.300000000002328, 188.0), (0.300000000002328, 187.84), (6.838, 188.39227999999986), (6.838, 188.05227999999985), (0.300000000002328, 187.84), (0.300000000002328, 187.68), (6.838, 188.05227999999985), (6.838, 187.71227999999985)]</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[(0.3, 189.0), (0.3, 188.81), (7.264, 189.41784), (7.264, 189.07784), (0.3, 188.81), (0.3, 188.62), (7.264, 189.07784), (7.264, 188.73784)]</t>
+          <t>[(0.300000000003006, 189.0), (0.300000000003006, 188.81), (7.264, 189.4178399999998), (7.264, 189.0778399999998), (0.300000000003006, 188.81), (0.300000000003006, 188.62), (7.264, 189.0778399999998), (7.264, 188.7378399999998)]</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[(0.3, 190.0), (0.3, 189.84), (7.752, 190.44712), (7.752, 190.10712), (0.3, 189.84), (0.3, 189.68), (7.752, 190.10712), (7.752, 189.76712)]</t>
+          <t>[(0.299999999997219, 190.0), (0.299999999997219, 189.84), (7.752, 190.44712000000015), (7.752, 190.10712000000015), (0.299999999997219, 189.84), (0.299999999997219, 189.68), (7.752, 190.10712000000015), (7.752, 189.76712000000015)]</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[(0.3, 191.0), (0.3, 190.82), (8.501, 191.4703160099799), (8.501, 191.15031600997992), (0.3, 190.82), (0.3, 190.64), (8.501, 191.15031600997992), (8.501, 190.83031600997992)]</t>
+          <t>[(0.300000000002333, 191.0), (0.300000000002333, 190.82), (8.501, 191.47031600997977), (8.501, 191.15031600997978), (0.300000000002333, 190.82), (0.300000000002333, 190.64), (8.501, 191.15031600997978), (8.501, 190.83031600997978)]</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[(0.3, 192.0), (0.3, 191.81), (2.735, 192.12604414893528), (2.735, 191.93604414893528), (2.735, 192.12604414893528), (2.735, 191.94604414893527), (9.166, 192.4589352872526), (9.166, 192.15893528725258), (0.3, 191.81), (0.3, 191.67), (2.735, 191.93604414893528), (2.735, 191.75604414893527), (2.735, 191.94604414893527), (2.735, 191.76604414893526), (9.166, 192.15893528725258), (9.166, 191.8589352872526)]</t>
+          <t>[(0.300000000141323, 192.0), (0.300000000141323, 191.81), (2.735, 192.12604414892795), (2.735, 191.93604414892795), (2.735, 192.12604414892795), (2.735, 191.94604414892794), (9.166, 192.45893528724528), (9.166, 192.0689352872453), (0.300000000141323, 191.81), (0.300000000141323, 191.67), (2.735, 191.93604414892795), (2.735, 191.75604414892794), (2.735, 191.94604414892794), (2.735, 191.76604414892793), (9.166, 192.0689352872453), (9.166, 191.67893528724528)]</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[(0.3, 193.0), (0.3, 192.82), (3.212, 193.13447151382653), (3.212, 192.95447151382652), (3.212, 193.13447151382653), (3.212, 192.95447151382652), (9.641, 193.43135247618596), (9.641, 193.15135247618596), (0.3, 192.82), (0.3, 192.67), (3.212, 192.95447151382652), (3.212, 192.7744715138265), (3.212, 192.95447151382652), (3.212, 192.7744715138265), (9.641, 193.15135247618596), (9.641, 192.87135247618596)]</t>
+          <t>[(0.299999999999156, 193.0), (0.299999999999156, 192.82), (3.212, 193.13447151382655), (3.212, 192.95447151382655), (3.212, 193.13447151382655), (3.212, 192.95447151382655), (9.641, 193.431352476186), (9.641, 193.051352476186), (0.299999999999156, 192.82), (0.299999999999156, 192.67), (3.212, 192.95447151382655), (3.212, 192.77447151382654), (3.212, 192.95447151382655), (3.212, 192.77447151382654), (9.641, 193.051352476186), (9.641, 192.671352476186)]</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[(0.3, 194.0), (0.3, 193.8), (3.502, 194.1299797404855), (3.502, 193.92997974048552), (3.502, 194.1299797404855), (3.502, 193.8499797404855), (10.067, 194.39647474244907), (10.067, 194.11647474244907), (0.3, 193.8), (0.3, 193.63), (3.502, 193.92997974048552), (3.502, 193.73997974048552), (3.502, 193.8499797404855), (3.502, 193.73997974048552), (10.067, 194.11647474244907), (10.067, 193.83647474244907)]</t>
+          <t>[(0.300000000036432, 194.0), (0.300000000036432, 193.8), (3.502, 194.12997974048403), (3.502, 193.92997974048404), (3.502, 194.12997974048403), (3.502, 193.92997974048404), (10.067, 194.3964747424476), (10.067, 194.0164747424476), (0.300000000036432, 193.8), (0.300000000036432, 193.63), (3.502, 193.92997974048404), (3.502, 193.73997974048405), (3.502, 193.92997974048404), (3.502, 193.72997974048403), (10.067, 194.0164747424476), (10.067, 193.6364747424476)]</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[(0.3, 195.0), (0.3, 194.8), (3.889, 195.125644400038), (3.889, 194.925644400038), (3.889, 195.125644400038), (3.889, 194.895644400038), (10.2, 195.3465810979036), (10.2, 195.1165810979036), (0.3, 194.8), (0.3, 194.6), (3.889, 194.925644400038), (3.889, 194.755644400038), (3.889, 194.895644400038), (3.889, 194.755644400038), (10.2, 195.1165810979036), (10.2, 194.8165810979036)]</t>
+          <t>[(0.300000000122004, 195.0), (0.300000000122004, 194.8), (3.889, 195.1256444000337), (3.889, 194.92564440003372), (3.889, 195.1256444000337), (3.889, 194.9456444000337), (10.2, 195.34658109789933), (10.2, 194.98658109789932), (0.300000000122004, 194.8), (0.300000000122004, 194.6), (3.889, 194.92564440003372), (3.889, 194.7556444000337), (3.889, 194.9456444000337), (3.889, 194.7656444000337), (10.2, 194.98658109789932), (10.2, 194.62658109789933)]</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[(0.3, 196.0), (0.3, 195.8), (3.806, 196.10315733714754), (3.806, 195.90315733714755), (3.806, 196.10315733714754), (3.806, 195.83315733714753), (10.047, 196.28678681265748), (10.047, 196.01678681265747), (0.3, 195.8), (0.3, 195.6), (3.806, 195.90315733714755), (3.806, 195.72315733714754), (3.806, 195.83315733714753), (3.806, 195.72315733714754), (10.047, 196.01678681265747), (10.047, 195.7467868126575)]</t>
+          <t>[(0.300000000018771, 196.0), (0.300000000018771, 195.8), (3.806, 196.103157337147), (3.806, 195.903157337147), (3.806, 196.103157337147), (3.806, 195.913157337147), (10.047, 196.2867868126569), (10.047, 195.9267868126569), (0.300000000018771, 195.8), (0.300000000018771, 195.6), (3.806, 195.903157337147), (3.806, 195.723157337147), (3.806, 195.913157337147), (3.806, 195.723157337147), (10.047, 195.9267868126569), (10.047, 195.56678681265691)]</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[(0.3, 197.0), (0.3, 196.8), (3.768, 197.06866144909952), (3.768, 196.86866144909953), (3.768, 197.06866144909952), (3.768, 196.81866144909952), (10.031, 197.19265990807017), (10.031, 196.94265990807017), (0.3, 196.8), (0.3, 196.6), (3.768, 196.86866144909953), (3.768, 196.69866144909952), (3.768, 196.81866144909952), (3.768, 196.69866144909952), (10.031, 196.94265990807017), (10.031, 196.64265990807016)]</t>
+          <t>[(0.299999999999559, 197.0), (0.299999999999559, 196.8), (3.768, 197.06866144909952), (3.768, 196.86866144909953), (3.768, 197.06866144909952), (3.768, 196.88866144909952), (10.031, 197.19265990807017), (10.031, 196.82265990807016), (0.299999999999559, 196.8), (0.299999999999559, 196.6), (3.768, 196.86866144909953), (3.768, 196.69866144909952), (3.768, 196.88866144909952), (3.768, 196.7086614490995), (10.031, 196.82265990807016), (10.031, 196.45265990807016)]</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[(0.3, 198.0), (0.3, 197.89), (3.727, 197.98217470763092), (3.727, 197.8721747076309), (3.727, 197.98217470763092), (3.727, 197.8721747076309), (9.938, 197.94986864083654), (9.938, 197.83986864083653), (0.3, 197.89), (0.3, 197.62), (3.727, 197.8721747076309), (3.727, 197.70217470763092), (3.727, 197.8721747076309), (3.727, 197.70217470763092), (9.938, 197.83986864083653), (9.938, 197.57986864083654)]</t>
+          <t>[(0.299999999999559, 198.0), (0.299999999999559, 197.89), (3.727, 197.98217470763092), (3.727, 197.8721747076309), (3.727, 197.98217470763092), (3.727, 197.84217470763093), (9.938, 197.94986864083654), (9.938, 197.66986864083654), (0.299999999999559, 197.89), (0.299999999999559, 197.62), (3.727, 197.8721747076309), (3.727, 197.70217470763092), (3.727, 197.84217470763093), (3.727, 197.70217470763092), (9.938, 197.66986864083654), (9.938, 197.38986864083654)]</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[(0.3, 199.0), (0.3, 198.89), (3.683, 198.915425), (3.683, 198.80542499999999), (3.683, 198.915425), (3.683, 198.785425), (9.911, 198.759725), (9.911, 198.629725), (0.3, 198.89), (0.3, 198.61), (3.683, 198.80542499999999), (3.683, 198.665425), (3.683, 198.785425), (3.683, 198.665425), (9.911, 198.629725), (9.911, 198.509725)]</t>
+          <t>[(0.299999999997471, 199.0), (0.299999999997471, 198.89), (3.683, 198.91542499999994), (3.683, 198.80542499999993), (3.683, 198.91542499999994), (3.683, 198.80542499999993), (9.911, 198.75972499999995), (9.911, 198.64972499999993), (0.299999999997471, 198.89), (0.299999999997471, 198.61), (3.683, 198.80542499999993), (3.683, 198.66542499999994), (3.683, 198.80542499999993), (3.683, 198.66542499999994), (9.911, 198.64972499999993), (9.911, 198.37972499999995)]</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[(0.3, 200.0), (0.3, 199.89), (3.598, 199.91755), (3.598, 199.80755), (3.598, 199.91755), (3.598, 199.78755), (9.909, 199.759775), (9.909, 199.629775), (0.3, 199.89), (0.3, 199.61), (3.598, 199.80755), (3.598, 199.66755), (3.598, 199.78755), (3.598, 199.66755), (9.909, 199.629775), (9.909, 199.509775)]</t>
+          <t>[(0.299999999997471, 200.0), (0.299999999997471, 199.89), (3.598, 199.91754999999995), (3.598, 199.80754999999994), (3.598, 199.91754999999995), (3.598, 199.79754999999994), (9.909, 199.75977499999993), (9.909, 199.63977499999993), (0.299999999997471, 199.89), (0.299999999997471, 199.61), (3.598, 199.80754999999994), (3.598, 199.66754999999995), (3.598, 199.79754999999994), (3.598, 199.66754999999995), (9.909, 199.63977499999993), (9.909, 199.33977499999995)]</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>[(0.3, 201.0), (0.3, 200.89), (3.606, 200.91735), (3.606, 200.80734999999999), (3.606, 200.91735), (3.606, 200.78735), (9.852, 200.7612), (9.852, 200.6312), (0.3, 200.89), (0.3, 200.61), (3.606, 200.80734999999999), (3.606, 200.66735), (3.606, 200.78735), (3.606, 200.66735), (9.852, 200.6312), (9.852, 200.5112)]</t>
+          <t>[(0.299999999999559, 201.0), (0.299999999999559, 200.89), (3.606, 200.91735), (3.606, 200.80734999999999), (3.606, 200.91735), (3.606, 200.80734999999999), (9.852, 200.7612), (9.852, 200.6512), (0.299999999999559, 200.89), (0.299999999999559, 200.61), (3.606, 200.80734999999999), (3.606, 200.66735), (3.606, 200.80734999999999), (3.606, 200.66735), (9.852, 200.6512), (9.852, 200.3612)]</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>[(0.3, 202.0), (0.3, 201.89), (3.547, 201.918825), (3.547, 201.80882499999998), (3.547, 201.918825), (3.547, 201.788825), (9.827, 201.761825), (9.827, 201.631825), (0.3, 201.89), (0.3, 201.63), (3.547, 201.80882499999998), (3.547, 201.668825), (3.547, 201.788825), (3.547, 201.668825), (9.827, 201.631825), (9.827, 201.511825)]</t>
+          <t>[(0.299999999999559, 202.0), (0.299999999999559, 201.89), (3.547, 201.918825), (3.547, 201.80882499999998), (3.547, 201.918825), (3.547, 201.80882499999998), (9.827, 201.761825), (9.827, 201.65182499999997), (0.299999999999559, 201.89), (0.299999999999559, 201.63), (3.547, 201.80882499999998), (3.547, 201.668825), (3.547, 201.80882499999998), (3.547, 201.668825), (9.827, 201.65182499999997), (9.827, 201.381825)]</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>[(0.3, 203.0), (0.3, 202.89), (3.538, 202.91905), (3.538, 202.80904999999998), (3.538, 202.91905), (3.538, 202.78905), (9.806, 202.76235), (9.806, 202.63235), (0.3, 202.89), (0.3, 202.63), (3.538, 202.80904999999998), (3.538, 202.66905), (3.538, 202.78905), (3.538, 202.66905), (9.806, 202.63235), (9.806, 202.51235)]</t>
+          <t>[(0.299999999999559, 203.0), (0.299999999999559, 202.89), (3.538, 202.91905), (3.538, 202.80904999999998), (3.538, 202.91905), (3.538, 202.80904999999998), (9.806, 202.76235), (9.806, 202.65234999999998), (0.299999999999559, 202.89), (0.299999999999559, 202.63), (3.538, 202.80904999999998), (3.538, 202.66905), (3.538, 202.80904999999998), (3.538, 202.66905), (9.806, 202.65234999999998), (9.806, 202.37235)]</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>[(0.3, 204.0), (0.3, 203.89), (3.559, 203.918525), (3.559, 203.80852499999997), (3.559, 203.918525), (3.559, 203.788525), (9.749, 203.763775), (9.749, 203.633775), (0.3, 203.89), (0.3, 203.64), (3.559, 203.80852499999997), (3.559, 203.668525), (3.559, 203.788525), (3.559, 203.668525), (9.749, 203.633775), (9.749, 203.513775)]</t>
+          <t>[(0.299999999999559, 204.0), (0.299999999999559, 203.89), (3.559, 203.918525), (3.559, 203.80852499999997), (3.559, 203.918525), (3.559, 203.80852499999997), (9.749, 203.76377499999998), (9.749, 203.65377499999997), (0.299999999999559, 203.89), (0.299999999999559, 203.64), (3.559, 203.80852499999997), (3.559, 203.668525), (3.559, 203.80852499999997), (3.559, 203.668525), (9.749, 203.65377499999997), (9.749, 203.38377499999999)]</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[(0.3, 205.0), (0.3, 204.89), (3.474, 204.92065), (3.474, 204.81064999999998), (3.474, 204.92065), (3.474, 204.79065), (9.705, 204.764875), (9.705, 204.634875), (0.3, 204.89), (0.3, 204.65), (3.474, 204.81064999999998), (3.474, 204.67065), (3.474, 204.79065), (3.474, 204.67065), (9.705, 204.634875), (9.705, 204.514875)]</t>
+          <t>[(0.299999999999559, 205.0), (0.299999999999559, 204.89), (3.474, 204.92065), (3.474, 204.81064999999998), (3.474, 204.92065), (3.474, 204.81064999999998), (9.705, 204.764875), (9.705, 204.65487499999998), (0.299999999999559, 204.89), (0.299999999999559, 204.65), (3.474, 204.81064999999998), (3.474, 204.67065), (3.474, 204.81064999999998), (3.474, 204.67065), (9.705, 204.65487499999998), (9.705, 204.40487499999998)]</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>[(0.3, 206.0), (0.3, 205.89), (3.407, 205.922325), (3.407, 205.812325), (3.407, 205.922325), (3.407, 205.792325), (9.622, 205.76695), (9.622, 205.63695), (0.3, 205.89), (0.3, 205.65), (3.407, 205.812325), (3.407, 205.672325), (3.407, 205.792325), (3.407, 205.672325), (9.622, 205.63695), (9.622, 205.51695)]</t>
+          <t>[(0.299999999999559, 206.0), (0.299999999999559, 205.89), (3.407, 205.922325), (3.407, 205.812325), (3.407, 205.922325), (3.407, 205.812325), (9.622, 205.76694999999998), (9.622, 205.65694999999997), (0.299999999999559, 205.89), (0.299999999999559, 205.65), (3.407, 205.812325), (3.407, 205.672325), (3.407, 205.812325), (3.407, 205.672325), (9.622, 205.65694999999997), (9.622, 205.38694999999998)]</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>[(0.3, 207.0), (0.3, 206.89), (3.3, 206.925), (3.3, 206.815), (3.3, 206.925), (3.3, 206.79500000000002), (9.545, 206.768875), (9.545, 206.638875), (0.3, 206.89), (0.3, 206.64), (3.3, 206.815), (3.3, 206.675), (3.3, 206.79500000000002), (3.3, 206.675), (9.545, 206.638875), (9.545, 206.518875)]</t>
+          <t>[(0.299999999999559, 207.0), (0.299999999999559, 206.89), (3.3, 206.92499999999998), (3.3, 206.81499999999997), (3.3, 206.92499999999998), (3.3, 206.81499999999997), (9.545, 206.76887499999998), (9.545, 206.65887499999997), (0.299999999999559, 206.89), (0.299999999999559, 206.64), (3.3, 206.81499999999997), (3.3, 206.67499999999998), (3.3, 206.81499999999997), (3.3, 206.67499999999998), (9.545, 206.65887499999997), (9.545, 206.35887499999998)]</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>[(0.3, 208.0), (0.3, 207.89), (3.179, 207.928025), (3.179, 207.81802499999998), (3.179, 207.928025), (3.179, 207.798025), (9.411, 207.772225), (9.411, 207.642225), (0.3, 207.89), (0.3, 207.65), (3.179, 207.81802499999998), (3.179, 207.678025), (3.179, 207.798025), (3.179, 207.678025), (9.411, 207.642225), (9.411, 207.522225)]</t>
+          <t>[(0.299999999999559, 208.0), (0.299999999999559, 207.89), (3.179, 207.928025), (3.179, 207.81802499999998), (3.179, 207.928025), (3.179, 207.81802499999998), (9.411, 207.772225), (9.411, 207.66222499999998), (0.299999999999559, 207.89), (0.299999999999559, 207.65), (3.179, 207.81802499999998), (3.179, 207.678025), (3.179, 207.81802499999998), (3.179, 207.678025), (9.411, 207.66222499999998), (9.411, 207.392225)]</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>[(0.3, 209.0), (0.3, 208.89), (3.11, 208.92975), (3.11, 208.81975), (3.11, 208.92975), (3.11, 208.79975000000002), (9.304, 208.7749), (9.304, 208.6449), (0.3, 208.89), (0.3, 208.66), (3.11, 208.81975), (3.11, 208.67975), (3.11, 208.79975000000002), (3.11, 208.67975), (9.304, 208.6449), (9.304, 208.5249)]</t>
+          <t>[(0.299999999999559, 209.0), (0.299999999999559, 208.89), (3.11, 208.92974999999998), (3.11, 208.81974999999997), (3.11, 208.92974999999998), (3.11, 208.81974999999997), (9.304, 208.7749), (9.304, 208.6649), (0.299999999999559, 208.89), (0.299999999999559, 208.66), (3.11, 208.81974999999997), (3.11, 208.67974999999998), (3.11, 208.81974999999997), (3.11, 208.67974999999998), (9.304, 208.6649), (9.304, 208.38490000000002)]</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>[(0.3, 210.0), (0.3, 209.89), (2.924, 209.9344), (2.924, 209.8244), (2.924, 209.9344), (2.924, 209.80440000000002), (9.214, 209.77715), (9.214, 209.64715), (0.3, 209.89), (0.3, 209.67), (2.924, 209.8244), (2.924, 209.6844), (2.924, 209.80440000000002), (2.924, 209.6844), (9.214, 209.64715), (9.214, 209.52715)]</t>
+          <t>[(0.299999999999559, 210.0), (0.299999999999559, 209.89), (2.924, 209.93439999999998), (2.924, 209.82439999999997), (2.924, 209.93439999999998), (2.924, 209.82439999999997), (9.214, 209.77714999999998), (9.214, 209.66714999999996), (0.299999999999559, 209.89), (0.299999999999559, 209.67), (2.924, 209.82439999999997), (2.924, 209.68439999999998), (2.924, 209.82439999999997), (2.924, 209.68439999999998), (9.214, 209.66714999999996), (9.214, 209.40714999999997)]</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[(0.3, 213.0), (0.3, 212.87), (8.976, 212.74371136169236), (8.976, 212.61371136169237), (0.3, 212.87), (0.3, 212.75), (8.976, 212.61371136169237), (8.976, 212.49371136169236)]</t>
+          <t>[(0.300000000027713, 213.0), (0.300000000027713, 212.86), (8.976, 212.74371136169316), (8.976, 212.60371136169317), (0.300000000027713, 212.86), (0.300000000027713, 212.75), (8.976, 212.60371136169317), (8.976, 212.48371136169317)]</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>[(0.3, 214.0), (0.3, 213.87), (8.512, 213.73310834283706), (8.512, 213.60310834283706), (0.3, 213.87), (0.3, 213.75), (8.512, 213.60310834283706), (8.512, 213.48310834283706)]</t>
+          <t>[(0.300000000001953, 214.0), (0.300000000001953, 213.87), (8.512, 213.73310834283714), (8.512, 213.60310834283715), (0.300000000001953, 213.87), (0.300000000001953, 213.75), (8.512, 213.60310834283715), (8.512, 213.48310834283714)]</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>[(0.3, 215.0), (0.3, 214.87), (7.429, 214.7472024527006), (7.429, 214.6172024527006), (0.3, 214.87), (0.3, 214.75), (7.429, 214.6172024527006), (7.429, 214.4972024527006)]</t>
+          <t>[(0.300000000075161, 215.0), (0.300000000075161, 214.87), (7.429, 214.74720245270328), (7.429, 214.61720245270328), (0.300000000075161, 214.87), (0.300000000075161, 214.75), (7.429, 214.61720245270328), (7.429, 214.49720245270328)]</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>[(0.3, 216.0), (0.3, 215.87), (5.868, 215.78882977100554), (5.868, 215.65882977100554), (0.3, 215.87), (0.3, 215.75), (5.868, 215.65882977100554), (5.868, 215.53882977100554)]</t>
+          <t>[(0.300000000034574, 216.0), (0.300000000034574, 215.87), (5.868, 215.78882977100685), (5.868, 215.65882977100685), (0.300000000034574, 215.87), (0.300000000034574, 215.75), (5.868, 215.65882977100685), (5.868, 215.53882977100685)]</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>[(0.3, 217.0), (0.3, 216.87), (4.059, 216.76995621880002), (4.059, 216.63995621880002), (0.3, 216.87), (0.3, 216.75), (4.059, 216.63995621880002), (4.059, 216.51995621880002)]</t>
+          <t>[(0.299999999997386, 217.0), (0.299999999997386, 216.87), (4.059, 216.76995621879985), (4.059, 216.63995621879985), (0.299999999997386, 216.87), (0.299999999997386, 216.75), (4.059, 216.63995621879985), (4.059, 216.51995621879985)]</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>[(0.3, 234.0), (0.3, 233.87), (2.657, 234.04652704819648), (2.657, 233.91652704819649), (0.3, 233.87), (0.3, 233.75), (2.657, 233.91652704819649), (2.657, 233.79652704819648)]</t>
+          <t>[(0.300000000002969, 234.0), (0.300000000002969, 233.87), (2.657, 234.04652704819642), (2.657, 233.91652704819643), (0.300000000002969, 233.87), (0.300000000002969, 233.75), (2.657, 233.91652704819643), (2.657, 233.79652704819642)]</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>[(0.3, 235.0), (0.3, 234.87), (3.886, 235.15215451297036), (3.886, 235.02215451297036), (0.3, 234.87), (0.3, 234.75), (3.886, 235.02215451297036), (3.886, 234.90215451297036)]</t>
+          <t>[(0.300000000050712, 235.0), (0.300000000050712, 234.87), (3.886, 235.1521545129682), (3.886, 235.0221545129682), (0.300000000050712, 234.87), (0.300000000050712, 234.75), (3.886, 235.0221545129682), (3.886, 234.9021545129682)]</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>[(0.3, 236.0), (0.3, 235.87), (5.622, 236.3375752509839), (5.622, 236.2075752509839), (0.3, 235.87), (0.3, 235.75), (5.622, 236.2075752509839), (5.622, 236.0875752509839)]</t>
+          <t>[(0.300000000088384, 236.0), (0.300000000088384, 235.87), (5.622, 236.3375752509783), (5.622, 236.2075752509783), (0.300000000088384, 235.87), (0.300000000088384, 235.75), (5.622, 236.2075752509783), (5.622, 236.0875752509783)]</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>[(0.3, 237.0), (0.3, 236.89), (7.587, 237.51009), (7.587, 237.40008999999998), (0.3, 236.89), (0.3, 236.75), (7.587, 237.40008999999998), (7.587, 237.20009)]</t>
+          <t>[(0.300000000005366, 237.0), (0.300000000005366, 236.89), (7.587, 237.51008999999962), (7.587, 237.4000899999996), (0.300000000005366, 236.89), (0.300000000005366, 236.75), (7.587, 237.4000899999996), (7.587, 237.20008999999962)]</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[(0.3, 238.0), (0.3, 237.87), (7.256, 238.48692), (7.256, 238.35692), (0.3, 237.87), (0.3, 237.75), (7.256, 238.35692), (7.256, 238.23692)]</t>
+          <t>[(0.299999999999214, 238.0), (0.299999999999214, 237.87), (7.256, 238.48692000000005), (7.256, 238.35692000000006), (0.299999999999214, 237.87), (0.299999999999214, 237.75), (7.256, 238.35692000000006), (7.256, 238.23692000000005)]</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>[(0.3, 239.0), (0.3, 238.87), (6.142, 239.40894), (6.142, 239.27894), (0.3, 238.87), (0.3, 238.75), (6.142, 239.27894), (6.142, 239.15894)]</t>
+          <t>[(0.300000000003921, 239.0), (0.300000000003921, 238.87), (6.142, 239.40893999999972), (6.142, 239.27893999999972), (0.300000000003921, 238.87), (0.300000000003921, 238.75), (6.142, 239.27893999999972), (6.142, 239.15893999999972)]</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>[(0.3, 240.0), (0.3, 239.87), (5.235, 240.34545), (5.235, 240.21545), (0.3, 239.87), (0.3, 239.75), (5.235, 240.21545), (5.235, 240.09545)]</t>
+          <t>[(0.2999999999998, 240.0), (0.2999999999998, 239.87), (5.235, 240.34545000000003), (5.235, 240.21545000000003), (0.2999999999998, 239.87), (0.2999999999998, 239.75), (5.235, 240.21545000000003), (5.235, 240.09545000000003)]</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>[(0.3, 241.0), (0.3, 240.87), (4.934, 241.23149974480717), (4.934, 241.10149974480717), (0.3, 240.87), (0.3, 240.75), (4.934, 241.10149974480717), (4.934, 240.98149974480717)]</t>
+          <t>[(0.300000000003242, 241.0), (0.300000000003242, 240.87), (4.934, 241.231499744807), (4.934, 241.101499744807), (0.300000000003242, 240.87), (0.300000000003242, 240.75), (4.934, 241.101499744807), (4.934, 240.981499744807)]</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[(0.3, 242.0), (0.3, 241.89), (4.86, 242.1320429426674), (4.86, 242.02204294266738), (0.3, 241.89), (0.3, 241.75), (4.86, 242.02204294266738), (4.86, 241.7920429426674)]</t>
+          <t>[(0.300000000162364, 242.0), (0.300000000162364, 241.89), (4.86, 242.1320429426627), (4.86, 242.0220429426627), (0.300000000162364, 241.89), (0.300000000162364, 241.75), (4.86, 242.0220429426627), (4.86, 241.7920429426627)]</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[(0.3, 243.0), (0.3, 242.82), (5.037, 243.03882731333533), (5.037, 242.85882731333533), (0.3, 242.82), (0.3, 242.71), (5.037, 242.85882731333533), (5.037, 242.68882731333534)]</t>
+          <t>[(0.299999999994472, 243.0), (0.299999999994472, 242.82), (5.037, 243.0388273133354), (5.037, 242.85882731333538), (0.299999999994472, 242.82), (0.299999999994472, 242.71), (5.037, 242.85882731333538), (5.037, 242.6888273133354)]</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[(0.3, 244.0), (0.3, 243.81), (5.202, 243.9386862698044), (5.202, 243.7486862698044), (0.3, 243.81), (0.3, 243.67), (5.202, 243.7486862698044), (5.202, 243.5686862698044)]</t>
+          <t>[(0.299999999994472, 244.0), (0.299999999994472, 243.81), (5.202, 243.93868626980435), (5.202, 243.74868626980435), (0.299999999994472, 243.81), (0.299999999994472, 243.67), (5.202, 243.74868626980435), (5.202, 243.56868626980435)]</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>[(0.3, 245.0), (0.3, 244.82), (5.455, 244.84061065703938), (5.455, 244.66061065703937), (0.3, 244.82), (0.3, 244.69), (5.455, 244.66061065703937), (5.455, 244.49061065703938)]</t>
+          <t>[(0.300000000013031, 245.0), (0.300000000013031, 244.82), (5.455, 244.84061065703978), (5.455, 244.66061065703977), (0.300000000013031, 244.82), (0.300000000013031, 244.69), (5.455, 244.66061065703977), (5.455, 244.49061065703978)]</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>[(0.3, 246.0), (0.3, 245.86), (5.602, 245.75694127481955), (5.602, 245.61694127481957), (0.3, 245.86), (0.3, 245.73), (5.602, 245.61694127481957), (5.602, 245.49694127481956)]</t>
+          <t>[(0.300000000021405, 246.0), (0.300000000021405, 245.86), (5.602, 245.75694127482055), (5.602, 245.61694127482056), (0.300000000021405, 245.86), (0.300000000021405, 245.73), (5.602, 245.61694127482056), (5.602, 245.49694127482056)]</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>[(0.3, 247.0), (0.3, 246.87), (5.433, 246.68808654562298), (5.433, 246.55808654562298), (0.3, 246.87), (0.3, 246.75), (5.433, 246.55808654562298), (5.433, 246.43808654562298)]</t>
+          <t>[(0.300000000063715, 247.0), (0.300000000063715, 246.87), (5.433, 246.68808654562685), (5.433, 246.55808654562685), (0.300000000063715, 246.87), (0.300000000063715, 246.75), (5.433, 246.55808654562685), (5.433, 246.43808654562685)]</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>[(0.3, 248.0), (0.3, 247.87), (5.325, 247.64825), (5.325, 247.51825), (0.3, 247.87), (0.3, 247.75), (5.325, 247.51825), (5.325, 247.39825)]</t>
+          <t>[(0.30000000000184, 248.0), (0.30000000000184, 247.87), (5.325, 247.64825000000013), (5.325, 247.51825000000014), (0.30000000000184, 247.87), (0.30000000000184, 247.75), (5.325, 247.51825000000014), (5.325, 247.39825000000013)]</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>[(0.3, 249.0), (0.3, 248.87), (5.008, 248.67044), (5.008, 248.54044000000002), (0.3, 248.87), (0.3, 248.75), (5.008, 248.54044000000002), (5.008, 248.42044)]</t>
+          <t>[(0.29999999999998, 249.0), (0.29999999999998, 248.87), (5.008, 248.67043999999999), (5.008, 248.54044), (0.29999999999998, 248.87), (0.29999999999998, 248.75), (5.008, 248.54044), (5.008, 248.42043999999999)]</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[(0.3, 250.0), (0.3, 249.86), (4.707, 249.69151), (4.707, 249.55151), (0.3, 249.86), (0.3, 249.74), (4.707, 249.55151), (4.707, 249.44151)]</t>
+          <t>[(0.299999999999738, 250.0), (0.299999999999738, 249.86), (4.707, 249.69151), (4.707, 249.55151), (0.299999999999738, 249.86), (0.299999999999738, 249.74), (4.707, 249.55151), (4.707, 249.44151)]</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[(0.3, 251.0), (0.3, 250.81), (4.418, 250.71174), (4.418, 250.52174), (0.3, 250.81), (0.3, 250.63), (4.418, 250.52174), (4.418, 250.40174)]</t>
+          <t>[(0.299999999994727, 251.0), (0.299999999994727, 250.81), (4.418, 250.71173999999962), (4.418, 250.52173999999962), (0.299999999994727, 250.81), (0.299999999994727, 250.63), (4.418, 250.52173999999962), (4.418, 250.40173999999962)]</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[(0.3, 252.0), (0.3, 251.85), (4.286, 251.79324970714305), (4.286, 251.64324970714304), (0.3, 251.85), (0.3, 251.7), (4.286, 251.64324970714304), (4.286, 251.49324970714304), (0.3, 251.7), (0.3, 251.55), (4.286, 251.49324970714304), (4.286, 251.34324970714306)]</t>
+          <t>[(0.300000000048272, 252.0), (0.300000000048272, 251.85), (4.286, 251.79324970714555), (4.286, 251.64324970714554), (0.300000000048272, 251.85), (0.300000000048272, 251.7), (4.286, 251.64324970714554), (4.286, 251.49324970714554), (0.300000000048272, 251.7), (0.300000000048272, 251.55), (4.286, 251.49324970714554), (4.286, 251.34324970714556)]</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[(0.3, 253.0), (0.3, 252.82), (4.114, 252.88038638175723), (4.114, 252.70038638175723), (0.3, 252.82), (0.3, 252.64), (4.114, 252.70038638175723), (4.114, 252.52038638175722), (0.3, 252.64), (0.3, 252.51), (4.114, 252.52038638175722), (4.114, 252.35038638175723)]</t>
+          <t>[(0.30000000013711, 253.0), (0.30000000013711, 252.82), (4.114, 252.88038638176155), (4.114, 252.70038638176155), (0.30000000013711, 252.82), (0.30000000013711, 252.64), (4.114, 252.70038638176155), (4.114, 252.52038638176154), (0.30000000013711, 252.64), (0.30000000013711, 252.51), (4.114, 252.52038638176154), (4.114, 252.35038638176155)]</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[(0.3, 254.0), (0.3, 253.76), (4.052, 253.95927453730454), (4.052, 253.71927453730453), (0.3, 253.76), (0.3, 253.59), (4.052, 253.71927453730453), (4.052, 253.48927453730454)]</t>
+          <t>[(0.300000000074139, 254.0), (0.300000000074139, 253.76), (4.052, 253.95927453730533), (4.052, 253.71927453730532), (0.300000000074139, 253.76), (0.300000000074139, 253.59), (4.052, 253.71927453730532), (4.052, 253.48927453730533)]</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[(0.3, 255.0), (0.3, 254.83), (4.079, 255.01783690193162), (4.079, 254.84783690193163), (0.3, 254.83), (0.3, 254.69), (4.079, 254.84783690193163), (4.079, 254.6778369019316)]</t>
+          <t>[(0.300000000044036, 255.0), (0.300000000044036, 254.83), (4.079, 255.0178369019314), (4.079, 254.8478369019314), (0.300000000044036, 254.83), (0.300000000044036, 254.69), (4.079, 254.8478369019314), (4.079, 254.67783690193139)]</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[(0.3, 256.0), (0.3, 255.84), (3.989, 256.0544031602437), (3.989, 255.8944031602437), (0.3, 255.84), (0.3, 255.69), (3.989, 255.8944031602437), (3.989, 255.73440316024372)]</t>
+          <t>[(0.300000000078161, 256.0), (0.300000000078161, 255.84), (3.989, 256.05440316024254), (3.989, 255.89440316024255), (0.300000000078161, 255.84), (0.300000000078161, 255.69), (3.989, 255.89440316024255), (3.989, 255.73440316024255)]</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[(0.3, 257.0), (0.3, 256.85), (3.707, 257.08440772686345), (3.707, 256.93440772686347), (0.3, 256.85), (0.3, 256.7), (3.707, 256.93440772686347), (3.707, 256.78440772686344), (0.3, 256.7), (0.3, 256.59), (3.707, 256.78440772686344), (3.707, 256.64440772686345)]</t>
+          <t>[(0.300000000142084, 257.0), (0.300000000142084, 256.85), (3.707, 257.0844077268599), (3.707, 256.93440772685994), (0.300000000142084, 256.85), (0.300000000142084, 256.7), (3.707, 256.93440772685994), (3.707, 256.7844077268599), (0.300000000142084, 256.7), (0.300000000142084, 256.59), (3.707, 256.7844077268599), (3.707, 256.6444077268599)]</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[(0.3, 258.0), (0.3, 257.73), (3.225, 258.10179640495915), (3.225, 257.83179640495916), (0.3, 257.73), (0.3, 257.57), (3.225, 257.83179640495916), (3.225, 257.5717964049592)]</t>
+          <t>[(0.300000000095168, 258.0), (0.300000000095168, 257.73), (3.225, 258.1017964049558), (3.225, 257.8317964049558), (0.300000000095168, 257.73), (0.300000000095168, 257.57), (3.225, 257.8317964049558), (3.225, 257.5717964049558)]</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[(0.3, 259.0), (0.3, 258.76), (2.933, 259.1180362956505), (2.933, 258.8780362956505), (0.3, 258.76), (0.3, 258.6), (2.933, 258.8780362956505), (2.933, 258.64803629565046)]</t>
+          <t>[(0.300000000038944, 259.0), (0.300000000038944, 258.76), (2.933, 259.1180362956488), (2.933, 258.87803629564877), (0.300000000038944, 258.76), (0.300000000038944, 258.6), (2.933, 258.87803629564877), (2.933, 258.64803629564875)]</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[(0.3, 260.0), (0.3, 259.82), (2.833, 260.13895272784157), (2.833, 259.95895272784156), (0.3, 259.82), (0.3, 259.64), (2.833, 259.95895272784156), (2.833, 259.77895272784156), (0.3, 259.64), (0.3, 259.53), (2.833, 259.77895272784156), (2.833, 259.6089527278416)]</t>
+          <t>[(0.300000000017287, 260.0), (0.300000000017287, 259.82), (2.833, 260.13895272784066), (2.833, 259.95895272784065), (0.300000000017287, 259.82), (0.300000000017287, 259.64), (2.833, 259.95895272784065), (2.833, 259.77895272784065), (0.300000000017287, 259.64), (0.300000000017287, 259.53), (2.833, 259.77895272784065), (2.833, 259.6089527278407)]</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[(0.3, 261.0), (0.3, 260.77), (2.992, 261.1746687338811), (2.992, 260.9446687338811), (0.3, 260.77), (0.3, 260.54), (2.992, 260.9446687338811), (2.992, 260.7146687338811), (0.3, 260.54), (0.3, 260.42), (2.992, 260.7146687338811), (2.992, 260.5046687338811)]</t>
+          <t>[(0.299999999994597, 261.0), (0.299999999994597, 260.77), (2.992, 261.17466873388145), (2.992, 260.94466873388143), (0.299999999994597, 260.77), (0.299999999994597, 260.54), (2.992, 260.94466873388143), (2.992, 260.71466873388147), (0.299999999994597, 260.54), (0.299999999994597, 260.42), (2.992, 260.71466873388147), (2.992, 260.50466873388143)]</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[(0.3, 262.0), (0.3, 261.75), (3.206, 262.20342), (3.206, 261.95342), (0.3, 261.75), (0.3, 261.5), (3.206, 261.95342), (3.206, 261.70342), (0.3, 261.5), (0.3, 261.34), (3.206, 261.70342), (3.206, 261.45342)]</t>
+          <t>[(0.300000000003449, 262.0), (0.300000000003449, 261.75), (3.206, 262.20341999999977), (3.206, 261.95341999999977), (0.300000000003449, 261.75), (0.300000000003449, 261.5), (3.206, 261.95341999999977), (3.206, 261.70341999999977), (0.300000000003449, 261.5), (0.300000000003449, 261.34), (3.206, 261.70341999999977), (3.206, 261.45341999999977)]</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[(0.3, 263.0), (0.3, 262.75), (3.452, 263.22064), (3.452, 262.97064), (0.3, 262.75), (0.3, 262.5), (3.452, 262.97064), (3.452, 262.72064), (0.3, 262.5), (0.3, 262.33), (3.452, 262.72064), (3.452, 262.49064)]</t>
+          <t>[(0.300000000002442, 263.0), (0.300000000002442, 262.75), (3.452, 263.22063999999983), (3.452, 262.97063999999983), (0.300000000002442, 262.75), (0.300000000002442, 262.5), (3.452, 262.97063999999983), (3.452, 262.72063999999983), (0.300000000002442, 262.5), (0.300000000002442, 262.33), (3.452, 262.72063999999983), (3.452, 262.4906399999998)]</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[(0.3, 264.0), (0.3, 263.78), (3.961, 264.25627), (3.961, 264.03626999999994), (0.3, 263.78), (0.3, 263.56), (3.961, 264.03626999999994), (3.961, 263.81627), (0.3, 263.56), (0.3, 263.41), (3.961, 263.81627), (3.961, 263.59626999999995)]</t>
+          <t>[(0.300000000000919, 264.0), (0.300000000000919, 263.78), (3.961, 264.2562699999999), (3.961, 264.0362699999999), (0.300000000000919, 263.78), (0.300000000000919, 263.56), (3.961, 264.0362699999999), (3.961, 263.8162699999999), (0.300000000000919, 263.56), (0.300000000000919, 263.41), (3.961, 263.8162699999999), (3.961, 263.5962699999999)]</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[(0.3, 265.0), (0.3, 264.71), (4.429, 265.28903), (4.429, 264.99903), (0.3, 264.71), (0.3, 264.55), (4.429, 264.99903), (4.429, 264.70903000000004)]</t>
+          <t>[(0.300000000007065, 265.0), (0.300000000007065, 264.71), (4.429, 265.2890299999995), (4.429, 264.9990299999995), (0.300000000007065, 264.71), (0.300000000007065, 264.55), (4.429, 264.9990299999995), (4.429, 264.70902999999953)]</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[(0.3, 266.0), (0.3, 265.75), (4.827, 266.31689), (4.827, 265.99689), (0.3, 265.75), (0.3, 265.5), (4.827, 265.99689), (4.827, 265.67689)]</t>
+          <t>[(0.299999999999714, 266.0), (0.299999999999714, 265.75), (4.827, 266.31689), (4.827, 265.99689), (0.299999999999714, 265.75), (0.299999999999714, 265.5), (4.827, 265.99689), (4.827, 265.67689)]</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[(0.3, 267.0), (0.3, 266.71), (5.255, 267.34685), (5.255, 266.98685), (0.3, 266.71), (0.3, 266.42), (5.255, 266.98685), (5.255, 266.62685)]</t>
+          <t>[(0.300000000004976, 267.0), (0.300000000004976, 266.71), (5.255, 267.3468499999997), (5.255, 266.98684999999966), (0.300000000004976, 266.71), (0.300000000004976, 266.42), (5.255, 266.98684999999966), (5.255, 266.62684999999965)]</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[(0.3, 268.0), (0.3, 267.76), (5.447, 268.36029), (5.447, 268.12029), (0.3, 267.76), (0.3, 267.52), (5.447, 268.12029), (5.447, 267.88029), (0.3, 267.52), (0.3, 267.4), (5.447, 267.88029), (5.447, 267.65029000000004)]</t>
+          <t>[(0.299999999999178, 268.0), (0.299999999999178, 267.76), (5.447, 268.3602900000001), (5.447, 268.12029000000007), (0.299999999999178, 267.76), (0.299999999999178, 267.52), (5.447, 268.12029000000007), (5.447, 267.88029000000006), (0.299999999999178, 267.52), (0.299999999999178, 267.4), (5.447, 267.88029000000006), (5.447, 267.6502900000001)]</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[(0.3, 269.0), (0.3, 268.73), (5.649, 269.37443), (5.649, 269.04443000000003), (0.3, 268.73), (0.3, 268.46), (5.649, 269.04443000000003), (5.649, 268.71443)]</t>
+          <t>[(0.299999999996058, 269.0), (0.299999999996058, 268.73), (5.649, 269.3744300000003), (5.649, 269.0444300000003), (0.299999999996058, 268.73), (0.299999999996058, 268.46), (5.649, 269.0444300000003), (5.649, 268.7144300000003)]</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[(0.3, 270.0), (0.3, 269.72), (6.125, 270.40775), (6.125, 270.12775000000005), (0.3, 269.72), (0.3, 269.55), (6.125, 270.12775000000005), (6.125, 269.84775)]</t>
+          <t>[(0.300000000003499, 270.0), (0.300000000003499, 269.72), (6.125, 270.40774999999974), (6.125, 270.12774999999976), (0.300000000003499, 269.72), (0.300000000003499, 269.55), (6.125, 270.12774999999976), (6.125, 269.84774999999973)]</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[(0.3, 271.0), (0.3, 270.72), (6.764, 271.45248), (6.764, 271.17248), (0.3, 270.72), (0.3, 270.6), (6.764, 271.17248), (6.764, 270.89248)]</t>
+          <t>[(0.29999999999453, 271.0), (0.29999999999453, 270.72), (6.764, 271.4524800000004), (6.764, 271.1724800000004), (0.29999999999453, 270.72), (0.29999999999453, 270.6), (6.764, 271.1724800000004), (6.764, 270.8924800000004)]</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[(0.3, 272.0), (0.3, 271.73), (7.393, 272.49651), (7.393, 272.22651), (0.3, 271.73), (0.3, 271.61), (7.393, 272.22651), (7.393, 271.96651)]</t>
+          <t>[(0.300000000008907, 272.0), (0.300000000008907, 271.73), (7.393, 272.4965099999994), (7.393, 272.2265099999994), (0.300000000008907, 271.73), (0.300000000008907, 271.61), (7.393, 272.2265099999994), (7.393, 271.9665099999994)]</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[(0.3, 273.0), (0.3, 272.83), (8.097, 273.5168571276517), (8.097, 273.3468571276517), (0.3, 272.83), (0.3, 272.66), (8.097, 273.3468571276517), (8.097, 273.04685712765166)]</t>
+          <t>[(0.300000000114099, 273.0), (0.300000000114099, 272.83), (8.097, 273.51685712764413), (8.097, 273.3468571276441), (0.300000000114099, 272.83), (0.300000000114099, 272.66), (8.097, 273.3468571276441), (8.097, 273.0468571276441)]</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[(0.3, 274.0), (0.3, 273.88), (8.776, 274.5039261086885), (8.776, 274.3839261086885), (0.3, 273.88), (0.3, 273.74), (8.776, 274.3839261086885), (8.776, 274.0839261086885)]</t>
+          <t>[(0.300000000066429, 274.0), (0.300000000066429, 273.88), (8.776, 274.5039261086846), (8.776, 274.3839261086846), (0.300000000066429, 273.88), (0.300000000066429, 273.74), (8.776, 274.3839261086846), (8.776, 274.0839261086846)]</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[(0.3, 275.0), (0.3, 274.74), (9.236, 275.4701886858177), (9.236, 275.2101886858177), (0.3, 274.74), (0.3, 274.63), (9.236, 275.2101886858177), (9.236, 274.9501886858177)]</t>
+          <t>[(0.300000000044292, 275.0), (0.300000000044292, 274.74), (9.236, 275.47018868581534), (9.236, 275.21018868581535), (0.300000000044292, 274.74), (0.300000000044292, 274.63), (9.236, 275.21018868581535), (9.236, 274.95018868581536)]</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[(0.3, 276.0), (0.3, 275.79), (2.334, 276.093119403545), (2.334, 275.88311940354504), (2.334, 276.093119403545), (2.334, 275.833119403545), (9.476, 276.420090288559), (9.476, 276.160090288559), (0.3, 275.79), (0.3, 275.62), (2.334, 275.88311940354504), (2.334, 275.683119403545), (2.334, 275.833119403545), (2.334, 275.683119403545), (9.476, 276.160090288559), (9.476, 275.910090288559)]</t>
+          <t>[(0.300000000002684, 276.0), (0.300000000002684, 275.79), (2.334, 276.0931194035449), (2.334, 275.8831194035449), (2.334, 276.0931194035449), (2.334, 275.8331194035449), (9.476, 276.42009028855887), (9.476, 276.1600902885589), (0.300000000002684, 275.79), (0.300000000002684, 275.62), (2.334, 275.8831194035449), (2.334, 275.6831194035449), (2.334, 275.8331194035449), (2.334, 275.6831194035449), (9.476, 276.1600902885589), (9.476, 275.9100902885589)]</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[(0.3, 277.0), (0.3, 276.84), (2.511, 277.08610845666044), (2.511, 276.9261084566604), (2.511, 277.08610845666044), (2.511, 276.81610845666046), (9.744, 277.3678011147451), (9.744, 277.0978011147451), (0.3, 276.84), (0.3, 276.68), (2.511, 276.9261084566604), (2.511, 276.76610845666045), (2.511, 276.81610845666046), (2.511, 276.62610845666046), (9.744, 277.0978011147451), (9.744, 276.8378011147451), (0.3, 276.68), (0.3, 276.55), (2.511, 276.76610845666045), (2.511, 276.62610845666046), (2.511, 276.62610845666046), (2.511, 276.62610845666046), (9.744, 276.8378011147451), (9.744, 276.8378011147451)]</t>
+          <t>[(0.300000000003912, 277.0), (0.300000000003912, 276.84), (2.511, 277.0861084566603), (2.511, 276.9261084566603), (2.511, 277.0861084566603), (2.511, 276.81610845666034), (9.744, 277.36780111474496), (9.744, 277.097801114745), (0.300000000003912, 276.84), (0.300000000003912, 276.68), (2.511, 276.9261084566603), (2.511, 276.76610845666033), (2.511, 276.81610845666034), (2.511, 276.62610845666035), (9.744, 277.097801114745), (9.744, 276.837801114745), (0.300000000003912, 276.68), (0.300000000003912, 276.55), (2.511, 276.76610845666033), (2.511, 276.62610845666035), (2.511, 276.62610845666035), (2.511, 276.62610845666035), (9.744, 276.837801114745), (9.744, 276.837801114745)]</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[(0.3, 278.0), (0.3, 277.87), (2.621, 278.0745262485419), (2.621, 277.9445262485419), (2.621, 278.0745262485419), (2.621, 277.8845262485419), (9.83, 278.30600394166487), (9.83, 278.11600394166487), (0.3, 277.87), (0.3, 277.74), (2.621, 277.9445262485419), (2.621, 277.8145262485419), (2.621, 277.8845262485419), (2.621, 277.6945262485419), (9.83, 278.11600394166487), (9.83, 277.9260039416649), (0.3, 277.74), (0.3, 277.61), (2.621, 277.8145262485419), (2.621, 277.6845262485419), (2.621, 277.6945262485419), (2.621, 277.5745262485419), (9.83, 277.9260039416649), (9.83, 277.75600394166486), (0.3, 277.61), (0.3, 277.5), (2.621, 277.6845262485419), (2.621, 277.5745262485419), (2.621, 277.5745262485419), (2.621, 277.5745262485419), (9.83, 277.75600394166486), (9.83, 277.75600394166486)]</t>
+          <t>[(0.300000000011987, 278.0), (0.300000000011987, 277.87), (2.621, 278.07452624854153), (2.621, 277.94452624854154), (2.621, 278.07452624854153), (2.621, 277.88452624854153), (9.83, 278.3060039416645), (9.83, 278.11600394166453), (0.300000000011987, 277.87), (0.300000000011987, 277.74), (2.621, 277.94452624854154), (2.621, 277.81452624854154), (2.621, 277.88452624854153), (2.621, 277.69452624854154), (9.83, 278.11600394166453), (9.83, 277.92600394166453), (0.300000000011987, 277.74), (0.300000000011987, 277.61), (2.621, 277.81452624854154), (2.621, 277.68452624854154), (2.621, 277.69452624854154), (2.621, 277.57452624854153), (9.83, 277.92600394166453), (9.83, 277.7560039416645), (0.300000000011987, 277.61), (0.300000000011987, 277.5), (2.621, 277.68452624854154), (2.621, 277.57452624854153), (2.621, 277.57452624854153), (2.621, 277.57452624854153), (9.83, 277.7560039416645), (9.83, 277.7560039416645)]</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[(0.3, 279.0), (0.3, 278.85), (2.546, 279.0567645172165), (2.546, 278.9067645172165), (2.546, 279.0567645172165), (2.546, 278.83676451721647), (9.8, 279.24009924913474), (9.8, 279.0200992491347), (0.3, 278.85), (0.3, 278.7), (2.546, 278.9067645172165), (2.546, 278.7567645172165), (2.546, 278.83676451721647), (2.546, 278.6167645172165), (9.8, 279.0200992491347), (9.8, 278.80009924913475), (0.3, 278.7), (0.3, 278.55), (2.546, 278.7567645172165), (2.546, 278.6067645172165), (2.546, 278.6167645172165), (2.546, 278.4667645172165), (9.8, 278.80009924913475), (9.8, 278.59009924913477), (0.3, 278.55), (0.3, 278.43), (2.546, 278.6067645172165), (2.546, 278.4667645172165), (2.546, 278.4667645172165), (2.546, 278.4667645172165), (9.8, 278.59009924913477), (9.8, 278.59009924913477)]</t>
+          <t>[(0.300000000035279, 279.0), (0.300000000035279, 278.85), (2.546, 279.0567645172156), (2.546, 278.9067645172156), (2.546, 279.0567645172156), (2.546, 278.83676451721556), (9.8, 279.24009924913383), (9.8, 279.0200992491338), (0.300000000035279, 278.85), (0.300000000035279, 278.7), (2.546, 278.9067645172156), (2.546, 278.7567645172156), (2.546, 278.83676451721556), (2.546, 278.6167645172156), (9.8, 279.0200992491338), (9.8, 278.80009924913384), (0.300000000035279, 278.7), (0.300000000035279, 278.55), (2.546, 278.7567645172156), (2.546, 278.6067645172156), (2.546, 278.6167645172156), (2.546, 278.4667645172156), (9.8, 278.80009924913384), (9.8, 278.59009924913386), (0.300000000035279, 278.55), (0.300000000035279, 278.43), (2.546, 278.6067645172156), (2.546, 278.4667645172156), (2.546, 278.4667645172156), (2.546, 278.4667645172156), (9.8, 278.59009924913386), (9.8, 278.59009924913386)]</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[(0.3, 280.0), (0.3, 279.83), (2.556, 280.0181735580508), (2.556, 279.8481735580508), (2.556, 280.0181735580508), (2.556, 279.8481735580508), (9.779, 280.07635955530304), (9.779, 279.906359555303), (0.3, 279.83), (0.3, 279.66), (2.556, 279.8481735580508), (2.556, 279.67817355805084), (2.556, 279.8481735580508), (2.556, 279.67817355805084), (9.779, 279.906359555303), (9.779, 279.73635955530307), (0.3, 279.66), (0.3, 279.49), (2.556, 279.67817355805084), (2.556, 279.5081735580508), (2.556, 279.67817355805084), (2.556, 279.5081735580508), (9.779, 279.73635955530307), (9.779, 279.56635955530305), (0.3, 279.49), (0.3, 279.36), (2.556, 279.5081735580508), (2.556, 279.36817355805084), (2.556, 279.5081735580508), (2.556, 279.36817355805084), (9.779, 279.56635955530305), (9.779, 279.43635955530306)]</t>
+          <t>[(0.29999999999737, 280.0), (0.29999999999737, 279.83), (2.556, 280.0181735580508), (2.556, 279.8481735580508), (2.556, 280.0181735580508), (2.556, 279.8481735580508), (9.779, 280.0763595553031), (9.779, 279.9063595553031), (0.29999999999737, 279.83), (0.29999999999737, 279.66), (2.556, 279.8481735580508), (2.556, 279.67817355805084), (2.556, 279.8481735580508), (2.556, 279.67817355805084), (9.779, 279.9063595553031), (9.779, 279.7363595553031), (0.29999999999737, 279.66), (0.29999999999737, 279.49), (2.556, 279.67817355805084), (2.556, 279.5081735580508), (2.556, 279.67817355805084), (2.556, 279.5081735580508), (9.779, 279.7363595553031), (9.779, 279.5663595553031), (0.29999999999737, 279.49), (0.29999999999737, 279.36), (2.556, 279.5081735580508), (2.556, 279.36817355805084), (2.556, 279.5081735580508), (2.556, 279.36817355805084), (9.779, 279.5663595553031), (9.779, 279.4363595553031)]</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[(0.3, 281.0), (0.3, 280.83), (2.482, 280.9790633717504), (2.482, 280.80906337175037), (2.482, 280.9790633717504), (2.482, 280.74906337175037), (9.709, 280.9097191864342), (9.709, 280.67971918643417), (0.3, 280.83), (0.3, 280.66), (2.482, 280.80906337175037), (2.482, 280.6390633717504), (2.482, 280.74906337175037), (2.482, 280.5190633717504), (9.709, 280.67971918643417), (9.709, 280.4497191864342), (0.3, 280.66), (0.3, 280.49), (2.482, 280.6390633717504), (2.482, 280.4690633717504), (2.482, 280.5190633717504), (2.482, 280.30906337175037), (9.709, 280.4497191864342), (9.709, 280.3397191864342), (0.3, 280.49), (0.3, 280.34), (2.482, 280.4690633717504), (2.482, 280.30906337175037), (2.482, 280.30906337175037), (2.482, 280.30906337175037), (9.709, 280.3397191864342), (9.709, 280.3397191864342)]</t>
+          <t>[(0.300000000011106, 281.0), (0.300000000011106, 280.83), (2.482, 280.9790633717505), (2.482, 280.8090633717505), (2.482, 280.9790633717505), (2.482, 280.7490633717505), (9.709, 280.9097191864343), (9.709, 280.6797191864343), (0.300000000011106, 280.83), (0.300000000011106, 280.66), (2.482, 280.8090633717505), (2.482, 280.6390633717505), (2.482, 280.7490633717505), (2.482, 280.5190633717505), (9.709, 280.6797191864343), (9.709, 280.4497191864343), (0.300000000011106, 280.66), (0.300000000011106, 280.49), (2.482, 280.6390633717505), (2.482, 280.4690633717505), (2.482, 280.5190633717505), (2.482, 280.3090633717505), (9.709, 280.4497191864343), (9.709, 280.3397191864343), (0.300000000011106, 280.49), (0.300000000011106, 280.34), (2.482, 280.4690633717505), (2.482, 280.3090633717505), (2.482, 280.3090633717505), (2.482, 280.3090633717505), (9.709, 280.3397191864343), (9.709, 280.3397191864343)]</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[(0.3, 283.0), (0.3, 282.76), (2.698, 282.86465651671637), (2.698, 282.62465651671636), (2.698, 282.86465651671637), (2.698, 282.56465651671635), (9.968, 282.4543366153518), (9.968, 282.29433661535177), (0.3, 282.76), (0.3, 282.52), (2.698, 282.62465651671636), (2.698, 282.38465651671635), (2.698, 282.56465651671635), (2.698, 282.26465651671634), (9.968, 282.29433661535177), (9.968, 282.1343366153518), (0.3, 282.52), (0.3, 282.29), (2.698, 282.38465651671635), (2.698, 282.25465651671635), (2.698, 282.26465651671634), (2.698, 282.26465651671634), (9.968, 282.1343366153518), (9.968, 282.1343366153518)]</t>
+          <t>[(0.300000000026271, 283.0), (0.300000000026271, 282.76), (2.698, 282.86465651671784), (2.698, 282.62465651671783), (2.698, 282.86465651671784), (2.698, 282.56465651671783), (9.968, 282.45433661535327), (9.968, 282.29433661535325), (0.300000000026271, 282.76), (0.300000000026271, 282.52), (2.698, 282.62465651671783), (2.698, 282.3846565167178), (2.698, 282.56465651671783), (2.698, 282.2646565167178), (9.968, 282.29433661535325), (9.968, 282.1343366153533), (0.300000000026271, 282.52), (0.300000000026271, 282.29), (2.698, 282.3846565167178), (2.698, 282.25465651671783), (2.698, 282.2646565167178), (2.698, 282.2646565167178), (9.968, 282.1343366153533), (9.968, 282.1343366153533)]</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[(0.3, 284.0), (0.3, 283.68), (3.062, 283.80666), (3.062, 283.53666000000004), (3.062, 283.80666), (3.062, 283.53666000000004), (10.196, 283.30728), (10.196, 283.18728), (0.3, 283.68), (0.3, 283.36), (3.062, 283.53666000000004), (3.062, 283.26666), (3.062, 283.53666000000004), (3.062, 283.26666), (10.196, 283.18728), (10.196, 283.06728)]</t>
+          <t>[(0.300000000009642, 284.0), (0.300000000009642, 283.68), (3.062, 283.80666000000065), (3.062, 283.53666000000067), (3.062, 283.80666000000065), (3.062, 283.53666000000067), (10.196, 283.3072800000007), (10.196, 283.18728000000067), (0.300000000009642, 283.68), (0.300000000009642, 283.36), (3.062, 283.53666000000067), (3.062, 283.2666600000006), (3.062, 283.53666000000067), (3.062, 283.2666600000006), (10.196, 283.18728000000067), (10.196, 283.06728000000066)]</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>[(0.3, 285.0), (0.3, 284.7), (3.23, 284.7949), (3.23, 284.4949), (3.23, 284.7949), (3.23, 284.5549), (10.247, 284.30371), (10.247, 284.16371000000004), (0.3, 284.7), (0.3, 284.4), (3.23, 284.4949), (3.23, 284.3049), (3.23, 284.5549), (3.23, 284.31489999999997), (10.247, 284.16371000000004), (10.247, 284.02371000000005)]</t>
+          <t>[(0.299999999989387, 285.0), (0.299999999989387, 284.7), (3.23, 284.79489999999925), (3.23, 284.49489999999923), (3.23, 284.79489999999925), (3.23, 284.55489999999924), (10.247, 284.3037099999993), (10.247, 284.1637099999993), (0.299999999989387, 284.7), (0.299999999989387, 284.4), (3.23, 284.49489999999923), (3.23, 284.30489999999924), (3.23, 284.55489999999924), (3.23, 284.3148999999992), (10.247, 284.1637099999993), (10.247, 284.0237099999993)]</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>[(0.3, 286.0), (0.3, 285.7), (3.492, 285.77656), (3.492, 285.47656), (3.492, 285.77656), (3.492, 285.54656), (10.58, 285.2804), (10.58, 285.1604), (0.3, 285.7), (0.3, 285.4), (3.492, 285.47656), (3.492, 285.31656000000004), (3.492, 285.54656), (3.492, 285.31656000000004), (10.58, 285.1604), (10.58, 285.0404)]</t>
+          <t>[(0.300000000005302, 286.0), (0.300000000005302, 285.7), (3.492, 285.77656000000036), (3.492, 285.47656000000035), (3.492, 285.77656000000036), (3.492, 285.54656000000034), (10.58, 285.2804000000004), (10.58, 285.1604000000004), (0.300000000005302, 285.7), (0.300000000005302, 285.4), (3.492, 285.47656000000035), (3.492, 285.3165600000004), (3.492, 285.54656000000034), (3.492, 285.3165600000004), (10.58, 285.1604000000004), (10.58, 285.0404000000004)]</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>[(0.3, 287.0), (0.3, 286.71), (3.58, 286.7704), (3.58, 286.4804), (3.58, 286.7704), (3.58, 286.55039999999997), (10.78, 286.2664), (10.78, 286.14639999999997), (0.3, 286.71), (0.3, 286.42), (3.58, 286.4804), (3.58, 286.3204), (3.58, 286.55039999999997), (3.58, 286.3304), (10.78, 286.14639999999997), (10.78, 286.02639999999997)]</t>
+          <t>[(0.300000000016207, 287.0), (0.300000000016207, 286.71), (3.58, 286.77040000000113), (3.58, 286.4804000000011), (3.58, 286.77040000000113), (3.58, 286.5504000000011), (10.78, 286.2664000000011), (10.78, 286.1464000000011), (0.300000000016207, 286.71), (0.300000000016207, 286.42), (3.58, 286.4804000000011), (3.58, 286.32040000000114), (3.58, 286.5504000000011), (3.58, 286.33040000000113), (10.78, 286.1464000000011), (10.78, 286.0264000000011)]</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>[(0.3, 288.0), (0.3, 287.8), (3.579, 287.90542636437993), (3.579, 287.70542636437995), (3.579, 287.90542636437993), (3.579, 287.64542636437994), (10.829, 287.6963202776933), (10.829, 287.4363202776933), (0.3, 287.8), (0.3, 287.6), (3.579, 287.70542636437995), (3.579, 287.50542636437996), (3.579, 287.64542636437994), (3.579, 287.38542636437995), (10.829, 287.4363202776933), (10.829, 287.2463202776933), (0.3, 287.6), (0.3, 287.41), (3.579, 287.50542636437996), (3.579, 287.38542636437995), (3.579, 287.38542636437995), (3.579, 287.38542636437995), (10.829, 287.2463202776933), (10.829, 287.2463202776933)]</t>
+          <t>[(0.300000000062607, 288.0), (0.300000000062607, 287.8), (3.579, 287.90542636438175), (3.579, 287.70542636438176), (3.579, 287.90542636438175), (3.579, 287.64542636438176), (10.829, 287.6963202776951), (10.829, 287.43632027769513), (0.300000000062607, 287.8), (0.300000000062607, 287.6), (3.579, 287.70542636438176), (3.579, 287.5054263643818), (3.579, 287.64542636438176), (3.579, 287.3854263643818), (10.829, 287.43632027769513), (10.829, 287.24632027769513), (0.300000000062607, 287.6), (0.300000000062607, 287.41), (3.579, 287.5054263643818), (3.579, 287.3854263643818), (3.579, 287.3854263643818), (3.579, 287.3854263643818), (10.829, 287.24632027769513), (10.829, 287.24632027769513)]</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>[(0.3, 289.0), (0.3, 288.85), (3.676, 289.03055837675424), (3.676, 288.88055837675427), (3.676, 289.03055837675424), (3.676, 288.7405583767542), (10.918, 289.0961104396851), (10.918, 288.7161104396851), (0.3, 288.85), (0.3, 288.7), (3.676, 288.88055837675427), (3.676, 288.73055837675423), (3.676, 288.7405583767542), (3.676, 288.45055837675426), (10.918, 288.7161104396851), (10.918, 288.3361104396851), (0.3, 288.7), (0.3, 288.55), (3.676, 288.73055837675423), (3.676, 288.58055837675425), (3.676, 288.45055837675426), (3.676, 288.45055837675426), (10.918, 288.3361104396851), (10.918, 288.3361104396851), (0.3, 288.55), (0.3, 288.42), (3.676, 288.58055837675425), (3.676, 288.45055837675426), (3.676, 288.45055837675426), (3.676, 288.45055837675426), (10.918, 288.3361104396851), (10.918, 288.3361104396851)]</t>
+          <t>[(0.300000000092998, 289.0), (0.300000000092998, 288.85), (3.676, 289.03055837675345), (3.676, 288.88055837675347), (3.676, 289.03055837675345), (3.676, 288.7405583767534), (10.918, 289.09611043968425), (10.918, 288.71611043968426), (0.300000000092998, 288.85), (0.300000000092998, 288.7), (3.676, 288.88055837675347), (3.676, 288.73055837675344), (3.676, 288.7405583767534), (3.676, 288.45055837675346), (10.918, 288.71611043968426), (10.918, 288.33611043968426), (0.300000000092998, 288.7), (0.300000000092998, 288.55), (3.676, 288.73055837675344), (3.676, 288.58055837675346), (3.676, 288.45055837675346), (3.676, 288.45055837675346), (10.918, 288.33611043968426), (10.918, 288.33611043968426), (0.300000000092998, 288.55), (0.300000000092998, 288.42), (3.676, 288.58055837675346), (3.676, 288.45055837675346), (3.676, 288.45055837675346), (3.676, 288.45055837675346), (10.918, 288.33611043968426), (10.918, 288.33611043968426)]</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>[(0.3, 290.0), (0.3, 289.81), (3.634, 290.1202027199028), (3.634, 289.9302027199028), (3.634, 290.1202027199028), (3.634, 289.84020271990283), (10.797, 290.37845469430704), (10.797, 289.98845469430705), (0.3, 289.81), (0.3, 289.62), (3.634, 289.9302027199028), (3.634, 289.7402027199028), (3.634, 289.84020271990283), (3.634, 289.5602027199028), (10.797, 289.98845469430705), (10.797, 289.59845469430707), (0.3, 289.62), (0.3, 289.49), (3.634, 289.7402027199028), (3.634, 289.5702027199028), (3.634, 289.5602027199028), (3.634, 289.5602027199028), (10.797, 289.59845469430707), (10.797, 289.59845469430707)]</t>
+          <t>[(0.300000000107445, 290.0), (0.300000000107445, 289.81), (3.634, 290.12020271989894), (3.634, 289.93020271989894), (3.634, 290.12020271989894), (3.634, 289.84020271989897), (10.797, 290.3784546943032), (10.797, 289.9884546943032), (0.300000000107445, 289.81), (0.300000000107445, 289.62), (3.634, 289.93020271989894), (3.634, 289.74020271989895), (3.634, 289.84020271989897), (3.634, 289.56020271989894), (10.797, 289.9884546943032), (10.797, 289.5984546943032), (0.300000000107445, 289.62), (0.300000000107445, 289.49), (3.634, 289.74020271989895), (3.634, 289.57020271989893), (3.634, 289.56020271989894), (3.634, 289.56020271989894), (10.797, 289.5984546943032), (10.797, 289.5984546943032)]</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>[(0.3, 291.0), (0.3, 290.75), (3.47, 291.1998861208171), (3.47, 290.9498861208171), (3.47, 291.1998861208171), (3.47, 290.9498861208171), (10.586, 291.6485894759384), (10.586, 291.2885894759384), (0.3, 290.75), (0.3, 290.61), (3.47, 290.9498861208171), (3.47, 290.6998861208171), (3.47, 290.9498861208171), (3.47, 290.6998861208171), (10.586, 291.2885894759384), (10.586, 290.9285894759384)]</t>
+          <t>[(0.300000000112641, 291.0), (0.300000000112641, 290.75), (3.47, 291.19988612081), (3.47, 290.94988612081), (3.47, 291.19988612081), (3.47, 290.94988612081), (10.586, 291.6485894759313), (10.586, 291.2885894759313), (0.300000000112641, 290.75), (0.300000000112641, 290.61), (3.47, 290.94988612081), (3.47, 290.69988612081), (3.47, 290.94988612081), (3.47, 290.69988612081), (10.586, 291.2885894759313), (10.586, 290.9285894759313)]</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>[(0.3, 292.0), (0.3, 291.89), (3.363, 292.21441), (3.363, 292.10441), (3.363, 292.21441), (3.363, 292.05440999999996), (10.444, 292.71008), (10.444, 292.42008), (0.3, 291.89), (0.3, 291.73), (3.363, 292.10441), (3.363, 291.88441), (3.363, 292.05440999999996), (3.363, 291.89441), (10.444, 292.42008), (10.444, 292.13008)]</t>
+          <t>[(0.300000000006342, 292.0), (0.300000000006342, 291.89), (3.363, 292.21440999999953), (3.363, 292.1044099999995), (3.363, 292.21440999999953), (3.363, 292.0544099999995), (10.444, 292.71007999999955), (10.444, 292.42007999999953), (0.300000000006342, 291.89), (0.300000000006342, 291.73), (3.363, 292.1044099999995), (3.363, 291.88440999999955), (3.363, 292.0544099999995), (3.363, 291.89440999999954), (10.444, 292.42007999999953), (10.444, 292.13007999999957)]</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[(0.3, 293.0), (0.3, 292.83), (3.239, 293.20573), (3.239, 293.03573), (3.239, 293.20573), (3.239, 293.03573), (10.339, 293.70273), (10.339, 293.42273), (0.3, 292.83), (0.3, 292.69), (3.239, 293.03573), (3.239, 292.86573000000004), (3.239, 293.03573), (3.239, 292.86573000000004), (10.339, 293.42273), (10.339, 293.14273)]</t>
+          <t>[(0.299999999991311, 293.0), (0.299999999991311, 292.83), (3.239, 293.2057300000006), (3.239, 293.03573000000057), (3.239, 293.2057300000006), (3.239, 293.03573000000057), (10.339, 293.7027300000006), (10.339, 293.4227300000006), (0.299999999991311, 292.83), (0.299999999991311, 292.69), (3.239, 293.03573000000057), (3.239, 292.8657300000006), (3.239, 293.03573000000057), (3.239, 292.8657300000006), (10.339, 293.4227300000006), (10.339, 293.1427300000006)]</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>[(0.3, 294.0), (0.3, 293.82), (3.232, 294.20524), (3.232, 294.02524), (3.232, 294.20524), (3.232, 294.02524), (10.248, 294.69636), (10.248, 294.39636), (0.3, 293.82), (0.3, 293.68), (3.232, 294.02524), (3.232, 293.84524), (3.232, 294.02524), (3.232, 293.84524), (10.248, 294.39636), (10.248, 294.09636)]</t>
+          <t>[(0.300000000000441, 294.0), (0.300000000000441, 293.82), (3.232, 294.20523999999995), (3.232, 294.02523999999994), (3.232, 294.20523999999995), (3.232, 294.02523999999994), (10.248, 294.69635999999997), (10.248, 294.39635999999996), (0.300000000000441, 293.82), (0.300000000000441, 293.68), (3.232, 294.02523999999994), (3.232, 293.84523999999993), (3.232, 294.02523999999994), (3.232, 293.84523999999993), (10.248, 294.39635999999996), (10.248, 294.09635999999995)]</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[(0.3, 295.0), (0.3, 294.81), (3.079, 295.19453), (3.079, 295.00453), (3.079, 295.19453), (3.079, 295.00453), (10.201, 295.69307), (10.201, 295.37307), (0.3, 294.81), (0.3, 294.65), (3.079, 295.00453), (3.079, 294.81453), (3.079, 295.00453), (3.079, 294.81453), (10.201, 295.37307), (10.201, 295.05307)]</t>
+          <t>[(0.300000000000273, 295.0), (0.300000000000273, 294.81), (3.079, 295.19453), (3.079, 295.00453), (3.079, 295.19453), (3.079, 295.00453), (10.201, 295.69307), (10.201, 295.37307), (0.300000000000273, 294.81), (0.300000000000273, 294.65), (3.079, 295.00453), (3.079, 294.81453), (3.079, 295.00453), (3.079, 294.81453), (10.201, 295.37307), (10.201, 295.05307)]</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>[(0.3, 296.0), (0.3, 295.78), (3.014, 296.16372228346904), (3.014, 295.943722283469), (3.014, 296.16372228346904), (3.014, 295.943722283469), (10.132, 296.5931162457877), (10.132, 296.2731162457877), (0.3, 295.78), (0.3, 295.6), (3.014, 295.943722283469), (3.014, 295.72372228346904), (3.014, 295.943722283469), (3.014, 295.72372228346904), (10.132, 296.2731162457877), (10.132, 295.9531162457877)]</t>
+          <t>[(0.300000000115793, 296.0), (0.300000000115793, 295.78), (3.014, 296.16372228346205), (3.014, 295.943722283462), (3.014, 296.16372228346205), (3.014, 295.943722283462), (10.132, 296.5931162457807), (10.132, 296.2731162457807), (0.300000000115793, 295.78), (0.300000000115793, 295.6), (3.014, 295.943722283462), (3.014, 295.72372228346205), (3.014, 295.943722283462), (3.014, 295.72372228346205), (10.132, 296.2731162457807), (10.132, 295.95311624578073)]</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>[(0.3, 297.0), (0.3, 296.85), (2.96, 297.09292660444135), (2.96, 296.94292660444137), (2.96, 297.09292660444135), (2.96, 296.8029266044413), (10.109, 297.34267558758086), (10.109, 297.05267558758084), (0.3, 296.85), (0.3, 296.7), (2.96, 296.94292660444137), (2.96, 296.79292660444133), (2.96, 296.8029266044413), (2.96, 296.65292660444135), (10.109, 297.05267558758084), (10.109, 296.7626755875809), (0.3, 296.7), (0.3, 296.57), (2.96, 296.79292660444133), (2.96, 296.65292660444135), (2.96, 296.65292660444135), (2.96, 296.65292660444135), (10.109, 296.7626755875809), (10.109, 296.7626755875809)]</t>
+          <t>[(0.300000000006553, 297.0), (0.300000000006553, 296.85), (2.96, 297.0929266044411), (2.96, 296.94292660444114), (2.96, 297.0929266044411), (2.96, 296.8029266044411), (10.109, 297.34267558758063), (10.109, 297.0526755875806), (0.300000000006553, 296.85), (0.300000000006553, 296.7), (2.96, 296.94292660444114), (2.96, 296.7929266044411), (2.96, 296.8029266044411), (2.96, 296.6529266044411), (10.109, 297.0526755875806), (10.109, 296.76267558758065), (0.300000000006553, 296.7), (0.300000000006553, 296.57), (2.96, 296.7929266044411), (2.96, 296.6529266044411), (2.96, 296.6529266044411), (2.96, 296.6529266044411), (10.109, 296.76267558758065), (10.109, 296.76267558758065)]</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>[(0.3, 298.0), (0.3, 297.75), (2.938, 298.0251785001486), (2.938, 297.7751785001486), (2.938, 298.0251785001486), (2.938, 297.74517850014865), (10.185, 298.094347791497), (10.185, 297.814347791497), (0.3, 297.75), (0.3, 297.5), (2.938, 297.7751785001486), (2.938, 297.58517850014863), (2.938, 297.74517850014865), (2.938, 297.58517850014863), (10.185, 297.814347791497), (10.185, 297.544347791497)]</t>
+          <t>[(0.299999999989882, 298.0), (0.299999999989882, 297.75), (2.938, 298.02517850014874), (2.938, 297.77517850014874), (2.938, 298.02517850014874), (2.938, 297.74517850014877), (10.185, 298.0943477914971), (10.185, 297.81434779149714), (0.299999999989882, 297.75), (0.299999999989882, 297.5), (2.938, 297.77517850014874), (2.938, 297.58517850014874), (2.938, 297.74517850014877), (2.938, 297.58517850014874), (10.185, 297.81434779149714), (10.185, 297.5443477914971)]</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>[(0.3, 299.0), (0.3, 298.84), (2.987, 298.9772197221904), (2.987, 298.8172197221904), (2.987, 298.9772197221904), (2.987, 298.8272197221904), (10.292, 298.91528822632176), (10.292, 298.7652882263218), (0.3, 298.84), (0.3, 298.68), (2.987, 298.8172197221904), (2.987, 298.6572197221904), (2.987, 298.8272197221904), (2.987, 298.6772197221904), (10.292, 298.7652882263218), (10.292, 298.61528822632175), (0.3, 298.68), (0.3, 298.53), (2.987, 298.6572197221904), (2.987, 298.5272197221904), (2.987, 298.6772197221904), (2.987, 298.5272197221904), (10.292, 298.61528822632175), (10.292, 298.47528822632177)]</t>
+          <t>[(0.300000000154161, 299.0), (0.300000000154161, 298.84), (2.987, 298.9772197221917), (2.987, 298.8172197221917), (2.987, 298.9772197221917), (2.987, 298.8272197221917), (10.292, 298.91528822632307), (10.292, 298.7652882263231), (0.300000000154161, 298.84), (0.300000000154161, 298.68), (2.987, 298.8172197221917), (2.987, 298.6572197221917), (2.987, 298.8272197221917), (2.987, 298.6772197221917), (10.292, 298.7652882263231), (10.292, 298.61528822632306), (0.300000000154161, 298.68), (0.300000000154161, 298.53), (2.987, 298.6572197221917), (2.987, 298.5272197221917), (2.987, 298.6772197221917), (2.987, 298.5272197221917), (10.292, 298.61528822632306), (10.292, 298.4752882263231)]</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>[(0.3, 300.0), (0.3, 299.83), (3.18, 299.9364598661667), (3.18, 299.76645986616666), (3.18, 299.9364598661667), (3.18, 299.69645986616666), (10.429, 299.7765284668063), (10.429, 299.5365284668063), (0.3, 299.83), (0.3, 299.66), (3.18, 299.76645986616666), (3.18, 299.5964598661667), (3.18, 299.69645986616666), (3.18, 299.46645986616664), (10.429, 299.5365284668063), (10.429, 299.37652846680635), (0.3, 299.66), (0.3, 299.51), (3.18, 299.5964598661667), (3.18, 299.46645986616664), (3.18, 299.46645986616664), (3.18, 299.46645986616664), (10.429, 299.37652846680635), (10.429, 299.37652846680635)]</t>
+          <t>[(0.300000000008328, 300.0), (0.300000000008328, 299.83), (3.18, 299.93645986616684), (3.18, 299.7664598661668), (3.18, 299.93645986616684), (3.18, 299.69645986616683), (10.429, 299.7765284668065), (10.429, 299.5365284668065), (0.300000000008328, 299.83), (0.300000000008328, 299.66), (3.18, 299.7664598661668), (3.18, 299.59645986616687), (3.18, 299.69645986616683), (3.18, 299.4664598661668), (10.429, 299.5365284668065), (10.429, 299.3765284668065), (0.300000000008328, 299.66), (0.300000000008328, 299.51), (3.18, 299.59645986616687), (3.18, 299.4664598661668), (3.18, 299.4664598661668), (3.18, 299.4664598661668), (10.429, 299.3765284668065), (10.429, 299.3765284668065)]</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>[(0.3, 301.0), (0.3, 300.83), (3.307, 300.892809070455), (3.307, 300.72280907045496), (3.307, 300.892809070455), (3.307, 300.66280907045495), (10.541, 300.6349377088558), (10.541, 300.40493770885575), (0.3, 300.83), (0.3, 300.66), (3.307, 300.72280907045496), (3.307, 300.552809070455), (3.307, 300.66280907045495), (3.307, 300.432809070455), (10.541, 300.40493770885575), (10.541, 300.22493770885575), (0.3, 300.66), (0.3, 300.5), (3.307, 300.552809070455), (3.307, 300.432809070455), (3.307, 300.432809070455), (3.307, 300.432809070455), (10.541, 300.22493770885575), (10.541, 300.22493770885575)]</t>
+          <t>[(0.30000000014493, 301.0), (0.30000000014493, 300.83), (3.307, 300.89280907046015), (3.307, 300.72280907046013), (3.307, 300.89280907046015), (3.307, 300.6628090704601), (10.541, 300.6349377088609), (10.541, 300.40493770886087), (0.30000000014493, 300.83), (0.30000000014493, 300.66), (3.307, 300.72280907046013), (3.307, 300.55280907046017), (3.307, 300.6628090704601), (3.307, 300.43280907046017), (10.541, 300.40493770886087), (10.541, 300.22493770886086), (0.30000000014493, 300.66), (0.30000000014493, 300.5), (3.307, 300.55280907046017), (3.307, 300.43280907046017), (3.307, 300.43280907046017), (3.307, 300.43280907046017), (10.541, 300.22493770886086), (10.541, 300.22493770886086)]</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>[(0.3, 302.0), (0.3, 301.8), (3.423, 301.84624933863205), (3.423, 301.64624933863206), (3.423, 301.84624933863205), (3.423, 301.58624933863206), (10.533, 301.49621180986935), (10.533, 301.23621180986936), (0.3, 301.8), (0.3, 301.6), (3.423, 301.64624933863206), (3.423, 301.4462493386321), (3.423, 301.58624933863206), (3.423, 301.33624933863206), (10.533, 301.23621180986936), (10.533, 301.06621180986934), (0.3, 301.6), (0.3, 301.42), (3.423, 301.4462493386321), (3.423, 301.33624933863206), (3.423, 301.33624933863206), (3.423, 301.33624933863206), (10.533, 301.06621180986934), (10.533, 301.06621180986934)]</t>
+          <t>[(0.300000000016253, 302.0), (0.300000000016253, 301.8), (3.423, 301.84624933863284), (3.423, 301.64624933863286), (3.423, 301.84624933863284), (3.423, 301.58624933863285), (10.533, 301.49621180987015), (10.533, 301.23621180987016), (0.300000000016253, 301.8), (0.300000000016253, 301.6), (3.423, 301.64624933863286), (3.423, 301.44624933863287), (3.423, 301.58624933863285), (3.423, 301.33624933863285), (10.533, 301.23621180987016), (10.533, 301.06621180987014), (0.300000000016253, 301.6), (0.300000000016253, 301.42), (3.423, 301.44624933863287), (3.423, 301.33624933863285), (3.423, 301.33624933863285), (3.423, 301.33624933863285), (10.533, 301.06621180987014), (10.533, 301.06621180987014)]</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[(0.3, 303.0), (0.3, 302.81), (3.633, 302.7906332498596), (3.633, 302.6006332498596), (3.633, 302.7906332498596), (3.633, 302.6006332498596), (10.731, 302.34476310509604), (10.731, 302.15476310509604), (0.3, 302.81), (0.3, 302.62), (3.633, 302.6006332498596), (3.633, 302.4106332498596), (3.633, 302.6006332498596), (3.633, 302.3006332498596), (10.731, 302.15476310509604), (10.731, 302.00476310509606), (0.3, 302.62), (0.3, 302.43), (3.633, 302.4106332498596), (3.633, 302.3006332498596), (3.633, 302.3006332498596), (3.633, 302.3006332498596), (10.731, 302.00476310509606), (10.731, 302.00476310509606)]</t>
+          <t>[(0.300000000017934, 303.0), (0.300000000017934, 302.81), (3.633, 302.7906332498607), (3.633, 302.6006332498607), (3.633, 302.7906332498607), (3.633, 302.6006332498607), (10.731, 302.3447631050972), (10.731, 302.1547631050972), (0.300000000017934, 302.81), (0.300000000017934, 302.62), (3.633, 302.6006332498607), (3.633, 302.4106332498607), (3.633, 302.6006332498607), (3.633, 302.3006332498607), (10.731, 302.1547631050972), (10.731, 302.0047631050972), (0.300000000017934, 302.62), (0.300000000017934, 302.43), (3.633, 302.4106332498607), (3.633, 302.3006332498607), (3.633, 302.3006332498607), (3.633, 302.3006332498607), (10.731, 302.0047631050972), (10.731, 302.0047631050972)]</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>[(0.3, 304.0), (0.3, 303.74), (3.773, 303.75689), (3.773, 303.49689), (3.773, 303.75689), (3.773, 303.64689), (10.998, 303.25114), (10.998, 303.14114), (0.3, 303.74), (0.3, 303.48), (3.773, 303.49689), (3.773, 303.35689), (3.773, 303.64689), (3.773, 303.35689), (10.998, 303.14114), (10.998, 303.00114)]</t>
+          <t>[(0.299999999999891, 304.0), (0.299999999999891, 303.74), (3.773, 303.75689), (3.773, 303.49689), (3.773, 303.75689), (3.773, 303.64689), (10.998, 303.25113999999996), (10.998, 303.14113999999995), (0.299999999999891, 303.74), (0.299999999999891, 303.48), (3.773, 303.49689), (3.773, 303.35689), (3.773, 303.64689), (3.773, 303.35689), (10.998, 303.14113999999995), (10.998, 303.00113999999996)]</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>[(0.3, 305.0), (0.3, 304.76), (3.89, 304.7487), (3.89, 304.5087), (3.89, 304.7487), (3.89, 304.6387), (11.114, 304.24302), (11.114, 304.13302), (0.3, 304.76), (0.3, 304.52), (3.89, 304.5087), (3.89, 304.3787), (3.89, 304.6387), (3.89, 304.3787), (11.114, 304.13302), (11.114, 303.99302)]</t>
+          <t>[(0.300000000006539, 305.0), (0.300000000006539, 304.75), (3.89, 304.74870000000044), (3.89, 304.49870000000044), (3.89, 304.74870000000044), (3.89, 304.6387000000004), (11.114, 304.24302000000046), (11.114, 304.13302000000044), (0.300000000006539, 304.75), (0.300000000006539, 304.51), (3.89, 304.49870000000044), (3.89, 304.37870000000044), (3.89, 304.6387000000004), (3.89, 304.37870000000044), (11.114, 304.13302000000044), (11.114, 303.99302000000046)]</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>[(0.3, 306.0), (0.3, 305.75), (3.987, 305.74191), (3.987, 305.49191), (3.987, 305.74191), (3.987, 305.63191), (11.199, 305.23707), (11.199, 305.12707), (0.3, 305.75), (0.3, 305.51), (3.987, 305.49191), (3.987, 305.34191000000004), (3.987, 305.63191), (3.987, 305.34191000000004), (11.199, 305.12707), (11.199, 304.97707)]</t>
+          <t>[(0.299999999992413, 306.0), (0.299999999992413, 305.75), (3.987, 305.74190999999945), (3.987, 305.49190999999945), (3.987, 305.74190999999945), (3.987, 305.63190999999944), (11.199, 305.23706999999945), (11.199, 305.12706999999943), (0.299999999992413, 305.75), (0.299999999992413, 305.51), (3.987, 305.49190999999945), (3.987, 305.3419099999995), (3.987, 305.63190999999944), (3.987, 305.3419099999995), (11.199, 305.12706999999943), (11.199, 304.97706999999946)]</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>[(0.3, 307.0), (0.3, 306.75), (4.097, 306.73421), (4.097, 306.48421), (4.097, 306.73421), (4.097, 306.62421), (11.306, 306.22958), (11.306, 306.11958), (0.3, 306.75), (0.3, 306.5), (4.097, 306.48421), (4.097, 306.33421000000004), (4.097, 306.62421), (4.097, 306.33421000000004), (11.306, 306.11958), (11.306, 305.97958)]</t>
+          <t>[(0.300000000008175, 307.0), (0.300000000008175, 306.75), (4.097, 306.7342100000006), (4.097, 306.4842100000006), (4.097, 306.7342100000006), (4.097, 306.6242100000006), (11.306, 306.22958000000057), (11.306, 306.11958000000055), (0.300000000008175, 306.75), (0.300000000008175, 306.5), (4.097, 306.4842100000006), (4.097, 306.3342100000006), (4.097, 306.6242100000006), (4.097, 306.3342100000006), (11.306, 306.11958000000055), (11.306, 305.97958000000057)]</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[(0.3, 308.0), (0.3, 307.74), (4.2, 307.727), (4.2, 307.467), (4.2, 307.727), (4.2, 307.61699999999996), (11.38, 307.2244), (11.38, 307.1144), (0.3, 307.74), (0.3, 307.49), (4.2, 307.467), (4.2, 307.327), (4.2, 307.61699999999996), (4.2, 307.327), (11.38, 307.1144), (11.38, 306.94440000000003)]</t>
+          <t>[(0.299999999997508, 308.0), (0.299999999997508, 307.74), (4.2, 307.7269999999998), (4.2, 307.4669999999998), (4.2, 307.7269999999998), (4.2, 307.6169999999998), (11.38, 307.22439999999983), (11.38, 307.1143999999998), (0.299999999997508, 307.74), (0.299999999997508, 307.49), (4.2, 307.4669999999998), (4.2, 307.3269999999998), (4.2, 307.6169999999998), (4.2, 307.3269999999998), (11.38, 307.1143999999998), (11.38, 306.94439999999986)]</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[(0.3, 309.0), (0.3, 308.71), (4.209, 308.72637), (4.209, 308.43636999999995), (4.209, 308.72637), (4.209, 308.59637), (11.416, 308.22188), (11.416, 308.09188), (0.3, 308.71), (0.3, 308.43), (4.209, 308.43636999999995), (4.209, 308.29636999999997), (4.209, 308.59637), (4.209, 308.29636999999997), (11.416, 308.09188), (11.416, 307.93188)]</t>
+          <t>[(0.300000000005322, 309.0), (0.300000000005322, 308.71), (4.209, 308.7263700000004), (4.209, 308.43637000000035), (4.209, 308.7263700000004), (4.209, 308.5963700000004), (11.416, 308.2218800000004), (11.416, 308.0918800000004), (0.300000000005322, 308.71), (0.300000000005322, 308.43), (4.209, 308.43637000000035), (4.209, 308.29637000000037), (4.209, 308.5963700000004), (4.209, 308.29637000000037), (11.416, 308.0918800000004), (11.416, 307.9318800000004)]</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>[(0.3, 310.0), (0.3, 309.77), (4.296, 309.72028), (4.296, 309.49028), (4.296, 309.72028), (4.296, 309.61028), (11.548, 309.21264), (11.548, 309.10264), (0.3, 309.77), (0.3, 309.47), (4.296, 309.49028), (4.296, 309.36028), (4.296, 309.61028), (4.296, 309.36028), (11.548, 309.10264), (11.548, 308.96264)]</t>
+          <t>[(0.299999999995064, 310.0), (0.299999999995064, 309.77), (4.296, 309.72027999999966), (4.296, 309.49027999999964), (4.296, 309.72027999999966), (4.296, 309.61027999999965), (11.548, 309.2126399999997), (11.548, 309.10263999999967), (0.299999999995064, 309.77), (0.299999999995064, 309.47), (4.296, 309.49027999999964), (4.296, 309.36027999999965), (4.296, 309.61027999999965), (4.296, 309.36027999999965), (11.548, 309.10263999999967), (11.548, 308.9626399999997)]</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>[(0.3, 311.0), (0.3, 310.72), (4.37, 310.7151), (4.37, 310.43510000000003), (4.37, 310.7151), (4.37, 310.6051), (11.586, 310.20998), (11.586, 310.09997999999996), (0.3, 310.72), (0.3, 310.44), (4.37, 310.43510000000003), (4.37, 310.3051), (4.37, 310.6051), (4.37, 310.3051), (11.586, 310.09997999999996), (11.586, 309.95998)]</t>
+          <t>[(0.300000000001698, 311.0), (0.300000000001698, 310.72), (4.37, 310.7151000000001), (4.37, 310.43510000000015), (4.37, 310.7151000000001), (4.37, 310.6051000000001), (11.586, 310.20998000000014), (11.586, 310.09998000000013), (0.300000000001698, 310.72), (0.300000000001698, 310.44), (4.37, 310.43510000000015), (4.37, 310.3051000000001), (4.37, 310.6051000000001), (4.37, 310.3051000000001), (11.586, 310.09998000000013), (11.586, 309.95998000000014)]</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>[(0.3, 312.0), (0.3, 311.73), (4.435, 311.71055), (4.435, 311.44055000000003), (4.435, 311.71055), (4.435, 311.59055), (11.609, 311.20837), (11.609, 311.08837), (0.3, 311.73), (0.3, 311.46), (4.435, 311.44055000000003), (4.435, 311.29055), (4.435, 311.59055), (4.435, 311.29055), (11.609, 311.08837), (11.609, 310.95837)]</t>
+          <t>[(0.29999999999268, 312.0), (0.29999999999268, 311.73), (4.435, 311.7105499999995), (4.435, 311.4405499999995), (4.435, 311.7105499999995), (4.435, 311.5905499999995), (11.609, 311.2083699999995), (11.609, 311.0883699999995), (0.29999999999268, 311.73), (0.29999999999268, 311.46), (4.435, 311.4405499999995), (4.435, 311.2905499999995), (4.435, 311.5905499999995), (4.435, 311.2905499999995), (11.609, 311.0883699999995), (11.609, 310.9583699999995)]</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[(0.3, 313.0), (0.3, 312.74), (4.512, 312.70516), (4.512, 312.44516), (4.512, 312.70516), (4.512, 312.59515999999996), (11.664, 312.20452), (11.664, 312.09452), (0.3, 312.74), (0.3, 312.48), (4.512, 312.44516), (4.512, 312.32516), (4.512, 312.59515999999996), (4.512, 312.32516), (11.664, 312.09452), (11.664, 311.95452)]</t>
+          <t>[(0.299999999993275, 313.0), (0.299999999993275, 312.74), (4.512, 312.7051599999995), (4.512, 312.44515999999953), (4.512, 312.7051599999995), (4.512, 312.5951599999995), (11.664, 312.20451999999955), (11.664, 312.09451999999953), (0.299999999993275, 312.74), (0.299999999993275, 312.48), (4.512, 312.44515999999953), (4.512, 312.3251599999995), (4.512, 312.5951599999995), (4.512, 312.3251599999995), (11.664, 312.09451999999953), (11.664, 311.95451999999955)]</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>[(0.3, 314.0), (0.3, 313.66), (4.383, 313.71419), (4.383, 313.45419), (4.383, 313.71419), (4.383, 313.45419), (11.56, 313.2118), (11.56, 313.05179999999996), (0.3, 313.66), (0.3, 313.32), (4.383, 313.45419), (4.383, 313.19419), (4.383, 313.45419), (4.383, 313.19419), (11.56, 313.05179999999996), (11.56, 312.8918)]</t>
+          <t>[(0.300000000005852, 314.0), (0.300000000005852, 313.66), (4.383, 313.71419000000043), (4.383, 313.45419000000044), (4.383, 313.71419000000043), (4.383, 313.45419000000044), (11.56, 313.21180000000044), (11.56, 313.0518000000004), (0.300000000005852, 313.66), (0.300000000005852, 313.32), (4.383, 313.45419000000044), (4.383, 313.19419000000045), (4.383, 313.45419000000044), (4.383, 313.19419000000045), (11.56, 313.0518000000004), (11.56, 312.89180000000044)]</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>[(0.3, 315.0), (0.3, 314.73), (4.155, 314.74359494560684), (4.155, 314.47359494560686), (4.155, 314.74359494560684), (4.155, 314.63359494560683), (11.354, 314.264772640399), (11.354, 314.15477264039896), (0.3, 314.73), (0.3, 314.46), (4.155, 314.47359494560686), (4.155, 314.35359494560686), (4.155, 314.63359494560683), (4.155, 314.35359494560686), (11.354, 314.15477264039896), (11.354, 314.014772640399)]</t>
+          <t>[(0.300000000025836, 315.0), (0.300000000025836, 314.73), (4.155, 314.74359494560855), (4.155, 314.47359494560857), (4.155, 314.74359494560855), (4.155, 314.63359494560854), (11.354, 314.2647726404007), (11.354, 314.15477264040067), (0.300000000025836, 314.73), (0.300000000025836, 314.46), (4.155, 314.47359494560857), (4.155, 314.35359494560856), (4.155, 314.63359494560854), (4.155, 314.35359494560856), (11.354, 314.15477264040067), (11.354, 314.0147726404007)]</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>[(0.3, 316.0), (0.3, 315.72), (4.129, 315.7809244729484), (4.129, 315.50092447294844), (4.129, 315.7809244729484), (4.129, 315.5509244729484), (11.157, 315.3788187523638), (11.157, 315.1488187523638), (0.3, 315.72), (0.3, 315.45), (4.129, 315.50092447294844), (4.129, 315.32092447294843), (4.129, 315.5509244729484), (4.129, 315.32092447294843), (11.157, 315.1488187523638), (11.157, 315.03881875236385)]</t>
+          <t>[(0.300000000009593, 316.0), (0.300000000009593, 315.72), (4.129, 315.780924472949), (4.129, 315.500924472949), (4.129, 315.780924472949), (4.129, 315.55092447294896), (11.157, 315.3788187523644), (11.157, 315.1488187523644), (0.300000000009593, 315.72), (0.300000000009593, 315.45), (4.129, 315.500924472949), (4.129, 315.320924472949), (4.129, 315.55092447294896), (4.129, 315.320924472949), (11.157, 315.1488187523644), (11.157, 315.0388187523644)]</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>[(0.3, 317.0), (0.3, 316.81), (4.011, 316.82217892030485), (4.011, 316.63217892030485), (4.011, 316.82217892030485), (4.011, 316.57217892030485), (10.917, 316.49126208484944), (10.917, 316.24126208484944), (0.3, 316.81), (0.3, 316.62), (4.011, 316.63217892030485), (4.011, 316.44217892030485), (4.011, 316.57217892030485), (4.011, 316.32217892030485), (10.917, 316.24126208484944), (10.917, 316.09126208484946), (0.3, 316.62), (0.3, 316.43), (4.011, 316.44217892030485), (4.011, 316.32217892030485), (4.011, 316.32217892030485), (4.011, 316.32217892030485), (10.917, 316.09126208484946), (10.917, 316.09126208484946)]</t>
+          <t>[(0.300000000133233, 317.0), (0.300000000133233, 316.81), (4.011, 316.8221789203112), (4.011, 316.6321789203112), (4.011, 316.8221789203112), (4.011, 316.5721789203112), (10.917, 316.4912620848558), (10.917, 316.2412620848558), (0.300000000133233, 316.81), (0.300000000133233, 316.62), (4.011, 316.6321789203112), (4.011, 316.4421789203112), (4.011, 316.5721789203112), (4.011, 316.3221789203112), (10.917, 316.2412620848558), (10.917, 316.0912620848558), (0.300000000133233, 316.62), (0.300000000133233, 316.43), (4.011, 316.4421789203112), (4.011, 316.3221789203112), (4.011, 316.3221789203112), (4.011, 316.3221789203112), (10.917, 316.0912620848558), (10.917, 316.0912620848558)]</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>[(0.3, 318.0), (0.3, 317.75), (3.772, 317.86591214541335), (3.772, 317.61591214541335), (3.772, 317.86591214541335), (3.772, 317.65591214541337), (10.741, 317.5967709418954), (10.741, 317.3867709418954), (0.3, 317.75), (0.3, 317.5), (3.772, 317.61591214541335), (3.772, 317.44591214541333), (3.772, 317.65591214541337), (3.772, 317.44591214541333), (10.741, 317.3867709418954), (10.741, 317.1967709418954)]</t>
+          <t>[(0.300000000007291, 318.0), (0.300000000007291, 317.75), (3.772, 317.86591214541363), (3.772, 317.61591214541363), (3.772, 317.86591214541363), (3.772, 317.65591214541365), (10.741, 317.59677094189567), (10.741, 317.3867709418957), (0.300000000007291, 317.75), (0.300000000007291, 317.5), (3.772, 317.61591214541363), (3.772, 317.4459121454136), (3.772, 317.65591214541365), (3.772, 317.4459121454136), (10.741, 317.3867709418957), (10.741, 317.1967709418957)]</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>[(0.3, 319.0), (0.3, 318.75), (3.685, 318.9007441731708), (3.685, 318.6507441731708), (3.685, 318.9007441731708), (3.685, 318.74074417317075), (10.728, 318.69422754440916), (10.728, 318.53422754440913), (0.3, 318.75), (0.3, 318.51), (3.685, 318.6507441731708), (3.685, 318.4607441731708), (3.685, 318.74074417317075), (3.685, 318.5807441731708), (10.728, 318.53422754440913), (10.728, 318.37422754440917)]</t>
+          <t>[(0.300000000077055, 319.0), (0.300000000077055, 318.75), (3.685, 318.90074417317305), (3.685, 318.65074417317305), (3.685, 318.90074417317305), (3.685, 318.740744173173), (10.728, 318.6942275444114), (10.728, 318.53422754441135), (0.300000000077055, 318.75), (0.300000000077055, 318.51), (3.685, 318.65074417317305), (3.685, 318.46074417317305), (3.685, 318.740744173173), (3.685, 318.58074417317306), (10.728, 318.53422754441135), (10.728, 318.3742275444114)]</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[(0.3, 320.0), (0.3, 319.84), (3.606, 319.91735), (3.606, 319.75735), (3.606, 319.91735), (3.606, 319.75735), (10.674, 319.74065), (10.674, 319.58065), (0.3, 319.84), (0.3, 319.68), (3.606, 319.75735), (3.606, 319.59735), (3.606, 319.75735), (3.606, 319.59735), (10.674, 319.58065), (10.674, 319.42065), (0.3, 319.68), (0.3, 319.52), (3.606, 319.59735), (3.606, 319.48735), (3.606, 319.59735), (3.606, 319.48735), (10.674, 319.42065), (10.674, 319.28065000000004)]</t>
+          <t>[(0.299999999997057, 320.0), (0.299999999997057, 319.84), (3.606, 319.91734999999994), (3.606, 319.7573499999999), (3.606, 319.91734999999994), (3.606, 319.7573499999999), (10.674, 319.7406499999999), (10.674, 319.5806499999999), (0.299999999997057, 319.84), (0.299999999997057, 319.68), (3.606, 319.7573499999999), (3.606, 319.59734999999995), (3.606, 319.7573499999999), (3.606, 319.59734999999995), (10.674, 319.5806499999999), (10.674, 319.4206499999999), (0.299999999997057, 319.68), (0.299999999997057, 319.52), (3.606, 319.59734999999995), (3.606, 319.48734999999994), (3.606, 319.59734999999995), (3.606, 319.48734999999994), (10.674, 319.4206499999999), (10.674, 319.2806499999999)]</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>[(0.3, 321.0), (0.3, 320.75), (3.604, 320.9174), (3.604, 320.6674), (3.604, 320.9174), (3.604, 320.7674), (10.642, 320.74145), (10.642, 320.59145), (0.3, 320.75), (0.3, 320.51), (3.604, 320.6674), (3.604, 320.4774), (3.604, 320.7674), (3.604, 320.6174), (10.642, 320.59145), (10.642, 320.44145)]</t>
+          <t>[(0.299999999997057, 321.0), (0.299999999997057, 320.75), (3.604, 320.91739999999993), (3.604, 320.66739999999993), (3.604, 320.91739999999993), (3.604, 320.76739999999995), (10.642, 320.74144999999993), (10.642, 320.59144999999995), (0.299999999997057, 320.75), (0.299999999997057, 320.5), (3.604, 320.66739999999993), (3.604, 320.47739999999993), (3.604, 320.76739999999995), (3.604, 320.6173999999999), (10.642, 320.59144999999995), (10.642, 320.4414499999999)]</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>[(0.3, 322.0), (0.3, 321.73), (3.648, 321.9163), (3.648, 321.6463), (3.648, 321.9163), (3.648, 321.69629999999995), (10.628, 321.7418), (10.628, 321.5218), (0.3, 321.73), (0.3, 321.46), (3.648, 321.6463), (3.648, 321.48629999999997), (3.648, 321.69629999999995), (3.648, 321.48629999999997), (10.628, 321.5218), (10.628, 321.3718)]</t>
+          <t>[(0.299999999997057, 322.0), (0.299999999997057, 321.73), (3.648, 321.9162999999999), (3.648, 321.64629999999994), (3.648, 321.9162999999999), (3.648, 321.6962999999999), (10.628, 321.7417999999999), (10.628, 321.52179999999987), (0.299999999997057, 321.73), (0.299999999997057, 321.46), (3.648, 321.64629999999994), (3.648, 321.4862999999999), (3.648, 321.6962999999999), (3.648, 321.4862999999999), (10.628, 321.52179999999987), (10.628, 321.3717999999999)]</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>[(0.3, 323.0), (0.3, 322.72), (3.651, 322.916225), (3.651, 322.636225), (3.651, 322.916225), (3.651, 322.716225), (10.623, 322.741925), (10.623, 322.541925), (0.3, 322.72), (0.3, 322.45), (3.651, 322.636225), (3.651, 322.526225), (3.651, 322.716225), (3.651, 322.526225), (10.623, 322.541925), (10.623, 322.361925)]</t>
+          <t>[(0.299999999997057, 323.0), (0.299999999997057, 322.72), (3.651, 322.91622499999994), (3.651, 322.63622499999997), (3.651, 322.91622499999994), (3.651, 322.71622499999995), (10.623, 322.7419249999999), (10.623, 322.54192499999994), (0.299999999997057, 322.72), (0.299999999997057, 322.45), (3.651, 322.63622499999997), (3.651, 322.52622499999995), (3.651, 322.71622499999995), (3.651, 322.52622499999995), (10.623, 322.54192499999994), (10.623, 322.3619249999999)]</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>[(0.3, 324.0), (0.3, 323.74), (3.621, 323.916975), (3.621, 323.656975), (3.621, 323.916975), (3.621, 323.716975), (10.615, 323.742125), (10.615, 323.542125), (0.3, 323.74), (0.3, 323.48), (3.621, 323.656975), (3.621, 323.516975), (3.621, 323.716975), (3.621, 323.516975), (10.615, 323.542125), (10.615, 323.372125)]</t>
+          <t>[(0.299999999997057, 324.0), (0.299999999997057, 323.74), (3.621, 323.9169749999999), (3.621, 323.65697499999993), (3.621, 323.9169749999999), (3.621, 323.71697499999993), (10.615, 323.74212499999993), (10.615, 323.54212499999994), (0.299999999997057, 323.74), (0.299999999997057, 323.48), (3.621, 323.65697499999993), (3.621, 323.51697499999995), (3.621, 323.71697499999993), (3.621, 323.51697499999995), (10.615, 323.54212499999994), (10.615, 323.3721249999999)]</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[(0.3, 325.0), (0.3, 324.73), (3.549, 324.918775), (3.549, 324.648775), (3.549, 324.918775), (3.549, 324.788775), (10.578, 324.74305), (10.578, 324.61305), (0.3, 324.73), (0.3, 324.46), (3.549, 324.648775), (3.549, 324.538775), (3.549, 324.788775), (3.549, 324.658775), (10.578, 324.61305), (10.578, 324.48305)]</t>
+          <t>[(0.299999999996887, 325.0), (0.299999999996887, 324.73), (3.549, 324.9187749999999), (3.549, 324.64877499999994), (3.549, 324.9187749999999), (3.549, 324.78877499999993), (10.578, 324.7430499999999), (10.578, 324.61304999999993), (0.299999999996887, 324.73), (0.299999999996887, 324.46), (3.549, 324.64877499999994), (3.549, 324.53877499999993), (3.549, 324.78877499999993), (3.549, 324.65877499999993), (10.578, 324.61304999999993), (10.578, 324.48304999999993)]</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>[(0.3, 326.0), (0.3, 325.78), (3.519, 325.919525), (3.519, 325.699525), (3.519, 325.919525), (3.519, 325.739525), (10.547, 325.743825), (10.547, 325.563825), (0.3, 325.78), (0.3, 325.48), (3.519, 325.699525), (3.519, 325.559525), (3.519, 325.739525), (3.519, 325.559525), (10.547, 325.563825), (10.547, 325.40382500000004)]</t>
+          <t>[(0.299999999996887, 326.0), (0.299999999996887, 325.78), (3.519, 325.9195249999999), (3.519, 325.6995249999999), (3.519, 325.9195249999999), (3.519, 325.7395249999999), (10.547, 325.7438249999999), (10.547, 325.5638249999999), (0.299999999996887, 325.78), (0.299999999996887, 325.48), (3.519, 325.6995249999999), (3.519, 325.5595249999999), (3.519, 325.7395249999999), (3.519, 325.5595249999999), (10.547, 325.5638249999999), (10.547, 325.4038249999999)]</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>[(0.3, 327.0), (0.3, 326.75), (3.479, 326.920525), (3.479, 326.670525), (3.479, 326.920525), (3.479, 326.730525), (10.523, 326.744425), (10.523, 326.554425), (0.3, 326.75), (0.3, 326.51), (3.479, 326.670525), (3.479, 326.540525), (3.479, 326.730525), (3.479, 326.540525), (10.523, 326.554425), (10.523, 326.404425)]</t>
+          <t>[(0.299999999996887, 327.0), (0.299999999996887, 326.75), (3.479, 326.92052499999994), (3.479, 326.67052499999994), (3.479, 326.92052499999994), (3.479, 326.73052499999994), (10.523, 326.7444249999999), (10.523, 326.5544249999999), (0.299999999996887, 326.75), (0.299999999996887, 326.51), (3.479, 326.67052499999994), (3.479, 326.54052499999995), (3.479, 326.73052499999994), (3.479, 326.54052499999995), (10.523, 326.5544249999999), (10.523, 326.40442499999995)]</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>[(0.3, 328.0), (0.3, 327.76), (3.437, 327.921575), (3.437, 327.681575), (3.437, 327.921575), (3.437, 327.791575), (10.443, 327.746425), (10.443, 327.616425), (0.3, 327.76), (0.3, 327.52), (3.437, 327.681575), (3.437, 327.541575), (3.437, 327.791575), (3.437, 327.661575), (10.443, 327.616425), (10.443, 327.486425)]</t>
+          <t>[(0.299999999997057, 328.0), (0.299999999997057, 327.76), (3.437, 327.9215749999999), (3.437, 327.6815749999999), (3.437, 327.9215749999999), (3.437, 327.7915749999999), (10.443, 327.74642499999993), (10.443, 327.61642499999994), (0.299999999997057, 327.76), (0.299999999997057, 327.52), (3.437, 327.6815749999999), (3.437, 327.5415749999999), (3.437, 327.7915749999999), (3.437, 327.6615749999999), (10.443, 327.61642499999994), (10.443, 327.48642499999994)]</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>[(0.3, 329.0), (0.3, 328.82), (3.353, 328.923675), (3.353, 328.743675), (3.353, 328.923675), (3.353, 328.733675), (10.37, 328.74825), (10.37, 328.55825), (0.3, 328.82), (0.3, 328.64), (3.353, 328.743675), (3.353, 328.593675), (3.353, 328.733675), (3.353, 328.593675), (10.37, 328.55825), (10.37, 328.36825)]</t>
+          <t>[(0.299999999997057, 329.0), (0.299999999997057, 328.82), (3.353, 328.92367499999995), (3.353, 328.74367499999994), (3.353, 328.92367499999995), (3.353, 328.73367499999995), (10.37, 328.7482499999999), (10.37, 328.55824999999993), (0.299999999997057, 328.82), (0.299999999997057, 328.64), (3.353, 328.74367499999994), (3.353, 328.59367499999996), (3.353, 328.73367499999995), (3.353, 328.59367499999996), (10.37, 328.55824999999993), (10.37, 328.36824999999993)]</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>[(0.3, 331.0), (0.3, 330.83), (3.135, 330.9124679779202), (3.135, 330.74246797792017), (3.135, 330.9124679779202), (3.135, 330.7124679779202), (10.237, 330.6931902280752), (10.237, 330.4931902280752), (0.3, 330.83), (0.3, 330.72), (3.135, 330.74246797792017), (3.135, 330.5824679779202), (3.135, 330.7124679779202), (3.135, 330.5824679779202), (10.237, 330.4931902280752), (10.237, 330.3031902280752)]</t>
+          <t>[(0.300000000000668, 331.0), (0.300000000000668, 330.83), (3.135, 330.91246797792024), (3.135, 330.7424679779202), (3.135, 330.91246797792024), (3.135, 330.7524679779202), (10.237, 330.6931902280752), (10.237, 330.4031902280752), (0.300000000000668, 330.83), (0.300000000000668, 330.72), (3.135, 330.7424679779202), (3.135, 330.58246797792026), (3.135, 330.7524679779202), (3.135, 330.59246797792025), (10.237, 330.4031902280752), (10.237, 330.1131902280752)]</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>[(0.3, 332.0), (0.3, 331.86), (3.172, 331.8832787096867), (3.172, 331.7432787096867), (3.172, 331.8832787096867), (3.172, 331.7432787096867), (10.192, 331.59797806275105), (10.192, 331.45797806275107), (0.3, 331.86), (0.3, 331.72), (3.172, 331.7432787096867), (3.172, 331.6032787096867), (3.172, 331.7432787096867), (3.172, 331.6032787096867), (10.192, 331.45797806275107), (10.192, 331.3179780627511), (0.3, 331.72), (0.3, 331.61), (3.172, 331.6032787096867), (3.172, 331.4932787096867), (3.172, 331.6032787096867), (3.172, 331.4932787096867), (10.192, 331.3179780627511), (10.192, 331.20797806275107)]</t>
+          <t>[(0.300000000051862, 332.0), (0.300000000051862, 331.86), (3.172, 331.8832787096888), (3.172, 331.7432787096888), (3.172, 331.8832787096888), (3.172, 331.6032787096888), (10.192, 331.59797806275316), (10.192, 331.3179780627532), (0.300000000051862, 331.86), (0.300000000051862, 331.72), (3.172, 331.7432787096888), (3.172, 331.6032787096888), (3.172, 331.6032787096888), (3.172, 331.4932787096888), (10.192, 331.3179780627532), (10.192, 331.0179780627532), (0.300000000051862, 331.72), (0.300000000051862, 331.61), (3.172, 331.6032787096888), (3.172, 331.4932787096888), (3.172, 331.4932787096888), (3.172, 331.4932787096888), (10.192, 331.0179780627532), (10.192, 331.0179780627532)]</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>[(0.3, 333.0), (0.3, 332.85), (3.37, 332.84525129961287), (3.37, 332.6952512996129), (3.37, 332.84525129961287), (3.37, 332.6352512996129), (10.283, 332.4967894866565), (10.283, 332.2867894866565), (0.3, 332.85), (0.3, 332.7), (3.37, 332.6952512996129), (3.37, 332.54525129961286), (3.37, 332.6352512996129), (3.37, 332.42525129961285), (10.283, 332.2867894866565), (10.283, 332.1367894866565), (0.3, 332.7), (0.3, 332.58), (3.37, 332.54525129961286), (3.37, 332.42525129961285), (3.37, 332.42525129961285), (3.37, 332.42525129961285), (10.283, 332.1367894866565), (10.283, 332.1367894866565)]</t>
+          <t>[(0.299999999990555, 333.0), (0.299999999990555, 332.85), (3.37, 332.8452512996124), (3.37, 332.69525129961244), (3.37, 332.8452512996124), (3.37, 332.56525129961244), (10.283, 332.49678948665604), (10.283, 332.21678948665607), (0.299999999990555, 332.85), (0.299999999990555, 332.7), (3.37, 332.69525129961244), (3.37, 332.5452512996124), (3.37, 332.56525129961244), (3.37, 332.4252512996124), (10.283, 332.21678948665607), (10.283, 331.94678948665603), (0.299999999990555, 332.7), (0.299999999990555, 332.58), (3.37, 332.5452512996124), (3.37, 332.4252512996124), (3.37, 332.4252512996124), (3.37, 332.4252512996124), (10.283, 331.94678948665603), (10.283, 331.94678948665603)]</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[(0.3, 334.0), (0.3, 333.84), (3.565, 333.80353721914247), (3.565, 333.64353721914244), (3.565, 333.80353721914247), (3.565, 333.58353721914244), (10.399, 333.39231925761703), (10.399, 333.172319257617), (0.3, 333.84), (0.3, 333.68), (3.565, 333.64353721914244), (3.565, 333.4835372191425), (3.565, 333.58353721914244), (3.565, 333.37353721914246), (10.399, 333.172319257617), (10.399, 333.032319257617), (0.3, 333.68), (0.3, 333.53), (3.565, 333.4835372191425), (3.565, 333.37353721914246), (3.565, 333.37353721914246), (3.565, 333.37353721914246), (10.399, 333.032319257617), (10.399, 333.032319257617)]</t>
+          <t>[(0.300000000065475, 334.0), (0.300000000065475, 333.84), (3.565, 333.8035372191464), (3.565, 333.64353721914637), (3.565, 333.8035372191464), (3.565, 333.5235372191464), (10.399, 333.39231925762095), (10.399, 333.112319257621), (0.300000000065475, 333.84), (0.300000000065475, 333.68), (3.565, 333.64353721914637), (3.565, 333.4835372191464), (3.565, 333.5235372191464), (3.565, 333.3735372191464), (10.399, 333.112319257621), (10.399, 332.84231925762094), (0.300000000065475, 333.68), (0.300000000065475, 333.53), (3.565, 333.4835372191464), (3.565, 333.3735372191464), (3.565, 333.3735372191464), (3.565, 333.3735372191464), (10.399, 332.84231925762094), (10.399, 332.84231925762094)]</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[(0.3, 335.0), (0.3, 334.78), (3.711, 334.7614415065691), (3.711, 334.5414415065691), (3.711, 334.7614415065691), (3.711, 334.6514415065691), (10.58, 334.28103743404574), (10.58, 334.17103743404573), (0.3, 334.78), (0.3, 334.56), (3.711, 334.5414415065691), (3.711, 334.3714415065691), (3.711, 334.6514415065691), (3.711, 334.3714415065691), (10.58, 334.17103743404573), (10.58, 333.9910374340457)]</t>
+          <t>[(0.300000000000077, 335.0), (0.300000000000077, 334.78), (3.711, 334.7614415065691), (3.711, 334.5414415065691), (3.711, 334.7614415065691), (3.711, 334.5214415065691), (10.58, 334.2810374340458), (10.58, 334.0410374340458), (0.300000000000077, 334.78), (0.300000000000077, 334.56), (3.711, 334.5414415065691), (3.711, 334.3714415065691), (3.711, 334.5214415065691), (3.711, 334.3714415065691), (10.58, 334.0410374340458), (10.58, 333.8010374340458)]</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>[(0.3, 336.0), (0.3, 335.84), (3.815, 335.75395), (3.815, 335.59394999999995), (3.815, 335.75395), (3.815, 335.53394999999995), (10.735, 335.26955), (10.735, 335.04954999999995), (0.3, 335.84), (0.3, 335.68), (3.815, 335.59394999999995), (3.815, 335.43395), (3.815, 335.53394999999995), (3.815, 335.31395), (10.735, 335.04954999999995), (10.735, 334.91954999999996), (0.3, 335.68), (0.3, 335.54), (3.815, 335.43395), (3.815, 335.31395), (3.815, 335.31395), (3.815, 335.31395), (10.735, 334.91954999999996), (10.735, 334.91954999999996)]</t>
+          <t>[(0.299999999997502, 336.0), (0.299999999997502, 335.84), (3.815, 335.7539499999998), (3.815, 335.5939499999998), (3.815, 335.7539499999998), (3.815, 335.4839499999998), (10.735, 335.2695499999998), (10.735, 334.99954999999983), (0.299999999997502, 335.84), (0.299999999997502, 335.68), (3.815, 335.5939499999998), (3.815, 335.4339499999998), (3.815, 335.4839499999998), (3.815, 335.3139499999998), (10.735, 334.99954999999983), (10.735, 334.7295499999998), (0.299999999997502, 335.68), (0.299999999997502, 335.54), (3.815, 335.4339499999998), (3.815, 335.3139499999998), (3.815, 335.3139499999998), (3.815, 335.3139499999998), (10.735, 334.7295499999998), (10.735, 334.7295499999998)]</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[(0.3, 337.0), (0.3, 336.84), (3.96, 336.7438), (3.96, 336.5838), (3.96, 336.7438), (3.96, 336.5238), (10.866, 336.26038), (10.866, 336.04037999999997), (0.3, 336.84), (0.3, 336.68), (3.96, 336.5838), (3.96, 336.4238), (3.96, 336.5238), (3.96, 336.3138), (10.866, 336.04037999999997), (10.866, 335.91038), (0.3, 336.68), (0.3, 336.52), (3.96, 336.4238), (3.96, 336.3138), (3.96, 336.3138), (3.96, 336.3138), (10.866, 335.91038), (10.866, 335.91038)]</t>
+          <t>[(0.300000000001543, 337.0), (0.300000000001543, 336.84), (3.96, 336.74380000000014), (3.96, 336.5838000000001), (3.96, 336.74380000000014), (3.96, 336.46380000000016), (10.800000000004, 336.2649999999998), (10.800000000004, 335.98499999999984), (0.300000000001543, 336.84), (0.300000000001543, 336.68), (3.96, 336.5838000000001), (3.96, 336.42380000000014), (3.96, 336.46380000000016), (3.96, 336.3138000000001), (10.800000000004, 335.98499999999984), (10.800000000004, 335.7149999999998), (0.300000000001543, 336.68), (0.300000000001543, 336.52), (3.96, 336.42380000000014), (3.96, 336.3138000000001), (3.96, 336.3138000000001), (3.96, 336.3138000000001), (10.800000000004, 335.7149999999998), (10.800000000004, 335.7149999999998)]</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[(0.3, 338.0), (0.3, 337.84), (4.13, 337.7319), (4.13, 337.57189999999997), (4.13, 337.7319), (4.13, 337.51189999999997), (11.031, 337.24883), (11.031, 337.02882999999997), (0.3, 337.84), (0.3, 337.68), (4.13, 337.57189999999997), (4.13, 337.4119), (4.13, 337.51189999999997), (4.13, 337.3019), (11.031, 337.02882999999997), (11.031, 336.90883), (0.3, 337.68), (0.3, 337.53), (4.13, 337.4119), (4.13, 337.3019), (4.13, 337.3019), (4.13, 337.3019), (11.031, 336.90883), (11.031, 336.90883)]</t>
+          <t>[(0.300000000003093, 338.0), (0.300000000003093, 337.84), (4.13, 337.7319000000002), (4.13, 337.5719000000002), (4.13, 337.7319000000002), (4.13, 337.45190000000025), (10.8000000000055, 337.2649999999998), (10.8000000000055, 336.98499999999984), (0.300000000003093, 337.84), (0.300000000003093, 337.68), (4.13, 337.5719000000002), (4.13, 337.41190000000023), (4.13, 337.45190000000025), (4.13, 337.3019000000002), (10.8000000000055, 336.98499999999984), (10.8000000000055, 336.7149999999998), (0.300000000003093, 337.68), (0.300000000003093, 337.53), (4.13, 337.41190000000023), (4.13, 337.3019000000002), (4.13, 337.3019000000002), (4.13, 337.3019000000002), (10.8000000000055, 336.7149999999998), (10.8000000000055, 336.7149999999998)]</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>[(0.3, 339.0), (0.3, 338.84), (4.233, 338.72469), (4.233, 338.56469), (4.233, 338.72469), (4.233, 338.49469), (11.118, 338.24274), (11.118, 338.01274), (0.3, 338.84), (0.3, 338.68), (4.233, 338.56469), (4.233, 338.40469), (4.233, 338.49469), (4.233, 338.27469), (11.118, 338.01274), (11.118, 337.88274), (0.3, 338.68), (0.3, 338.53), (4.233, 338.40469), (4.233, 338.27469), (4.233, 338.27469), (4.233, 338.27469), (11.118, 337.88274), (11.118, 337.88274)]</t>
+          <t>[(0.299999999997504, 339.0), (0.299999999997504, 338.84), (4.233, 338.72468999999984), (4.233, 338.5646899999998), (4.233, 338.72468999999984), (4.233, 338.4346899999998), (10.7999999999995, 338.2649999999999), (10.7999999999995, 337.97499999999985), (0.299999999997504, 338.84), (0.299999999997504, 338.68), (4.233, 338.5646899999998), (4.233, 338.40468999999985), (4.233, 338.4346899999998), (4.233, 338.27468999999985), (10.7999999999995, 337.97499999999985), (10.7999999999995, 337.6849999999999), (0.299999999997504, 338.68), (0.299999999997504, 338.53), (4.233, 338.40468999999985), (4.233, 338.27468999999985), (4.233, 338.27468999999985), (4.233, 338.27468999999985), (10.7999999999995, 337.6849999999999), (10.7999999999995, 337.6849999999999)]</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>[(0.3, 340.0), (0.3, 339.76), (4.411, 339.71223), (4.411, 339.47222999999997), (4.411, 339.71223), (4.411, 339.50223), (11.35, 339.2265), (11.35, 339.0165), (0.3, 339.76), (0.3, 339.52), (4.411, 339.47222999999997), (4.411, 339.29222999999996), (4.411, 339.50223), (4.411, 339.29222999999996), (11.35, 339.0165), (11.35, 338.8865)]</t>
+          <t>[(0.29999999999671, 340.0), (0.29999999999671, 339.76), (4.411, 339.71222999999975), (4.411, 339.47222999999974), (4.411, 339.71222999999975), (4.411, 339.42222999999973), (10.7999999999994, 339.2649999999998), (10.7999999999994, 338.9749999999998), (0.29999999999671, 339.76), (0.29999999999671, 339.52), (4.411, 339.47222999999974), (4.411, 339.29222999999973), (4.411, 339.42222999999973), (4.411, 339.29222999999973), (10.7999999999994, 338.9749999999998), (10.7999999999994, 338.6949999999998)]</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[(0.3, 341.0), (0.3, 340.74), (4.508, 340.70544), (4.508, 340.44544), (4.508, 340.70544), (4.508, 340.50544), (11.402, 340.22286), (11.402, 340.02286000000004), (0.3, 340.74), (0.3, 340.49), (4.508, 340.44544), (4.508, 340.30544000000003), (4.508, 340.50544), (4.508, 340.30544000000003), (11.402, 340.02286000000004), (11.402, 339.90286000000003)]</t>
+          <t>[(0.299999999996582, 341.0), (0.299999999996582, 340.74), (4.508, 340.7054399999998), (4.508, 340.4454399999998), (4.508, 340.7054399999998), (4.508, 340.4254399999998), (10.8000000000006, 340.2649999999997), (10.8000000000006, 339.98499999999973), (0.299999999996582, 340.74), (0.299999999996582, 340.49), (4.508, 340.4454399999998), (4.508, 340.3054399999998), (4.508, 340.4254399999998), (4.508, 340.3054399999998), (10.8000000000006, 339.98499999999973), (10.8000000000006, 339.7149999999997)]</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>[(0.3, 342.0), (0.3, 341.79), (4.689, 341.69277), (4.689, 341.48277), (4.689, 341.69277), (4.689, 341.58277), (11.534, 341.21362), (11.534, 341.10362), (0.3, 341.79), (0.3, 341.59), (4.689, 341.48277), (4.689, 341.33277), (4.689, 341.58277), (4.689, 341.33277), (11.534, 341.10362), (11.534, 340.94362)]</t>
+          <t>[(0.299999999997892, 342.0), (0.299999999997892, 341.79), (4.689, 341.6927699999998), (4.689, 341.48276999999985), (4.689, 341.6927699999998), (4.689, 341.48276999999985), (10.7999999999951, 341.2650000000002), (10.7999999999951, 341.05500000000023), (0.299999999997892, 341.79), (0.299999999997892, 341.59), (4.689, 341.48276999999985), (4.689, 341.3327699999998), (4.689, 341.48276999999985), (4.689, 341.3327699999998), (10.7999999999951, 341.05500000000023), (10.7999999999951, 340.7550000000002)]</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>[(0.3, 343.0), (0.3, 342.8), (4.619, 342.7224780439515), (4.619, 342.52247804395154), (4.619, 342.7224780439515), (4.619, 342.6124780439515), (11.398, 342.2868861615591), (11.398, 342.1768861615591), (0.3, 342.8), (0.3, 342.61), (4.619, 342.52247804395154), (4.619, 342.38247804395155), (4.619, 342.6124780439515), (4.619, 342.38247804395155), (11.398, 342.1768861615591), (11.398, 342.0368861615591)]</t>
+          <t>[(0.300000000078153, 343.0), (0.300000000078153, 342.8), (4.619, 342.7224780439565), (4.619, 342.52247804395654), (4.619, 342.7224780439565), (4.619, 342.5424780439565), (10.7999999999926, 342.325311290001), (10.7999999999926, 342.145311290001), (0.300000000078153, 342.8), (0.300000000078153, 342.61), (4.619, 342.52247804395654), (4.619, 342.38247804395655), (4.619, 342.5424780439565), (4.619, 342.38247804395655), (10.7999999999926, 342.145311290001), (10.7999999999926, 341.845311290001)]</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>[(0.3, 344.0), (0.3, 343.77), (4.439, 343.774464057998), (4.439, 343.54446405799797), (4.439, 343.774464057998), (4.439, 343.574464057998), (11.241, 343.4038200673004), (11.241, 343.2038200673004), (0.3, 343.77), (0.3, 343.54), (4.439, 343.54446405799797), (4.439, 343.384464057998), (4.439, 343.574464057998), (4.439, 343.384464057998), (11.241, 343.2038200673004), (11.241, 343.0838200673004)]</t>
+          <t>[(0.300000000003621, 344.0), (0.300000000003621, 343.77), (4.439, 343.7744640579982), (4.439, 343.5444640579982), (4.439, 343.7744640579982), (4.439, 343.50446405799823), (10.8000000000066, 343.4278503524954), (10.8000000000066, 343.1578503524954), (0.300000000003621, 343.77), (0.300000000003621, 343.54), (4.439, 343.5444640579982), (4.439, 343.38446405799823), (4.439, 343.50446405799823), (4.439, 343.38446405799823), (10.8000000000066, 343.1578503524954), (10.8000000000066, 342.8878503524954)]</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[(0.3, 345.0), (0.3, 344.85), (4.277, 344.82212940032736), (4.277, 344.6721294003274), (4.277, 344.82212940032736), (4.277, 344.59212940032734), (11.099, 344.51701669452734), (11.099, 344.2870166945273), (0.3, 344.85), (0.3, 344.7), (4.277, 344.6721294003274), (4.277, 344.52212940032734), (4.277, 344.59212940032734), (4.277, 344.37212940032737), (11.099, 344.2870166945273), (11.099, 344.11701669452736), (0.3, 344.7), (0.3, 344.55), (4.277, 344.52212940032734), (4.277, 344.37212940032737), (4.277, 344.37212940032737), (4.277, 344.37212940032737), (11.099, 344.11701669452736), (11.099, 344.11701669452736)]</t>
+          <t>[(0.300000000118611, 345.0), (0.300000000118611, 344.85), (4.277, 344.82212940033264), (4.277, 344.67212940033266), (4.277, 344.82212940033264), (4.277, 344.6021294003326), (10.8000000000109, 344.53038941500034), (10.8000000000109, 344.23038941500033), (0.300000000118611, 344.85), (0.300000000118611, 344.7), (4.277, 344.67212940033266), (4.277, 344.52212940033263), (4.277, 344.6021294003326), (4.277, 344.38212940033264), (10.8000000000109, 344.23038941500033), (10.8000000000109, 343.9303894150003), (0.300000000118611, 344.7), (0.300000000118611, 344.55), (4.277, 344.52212940033263), (4.277, 344.37212940033265), (4.277, 344.38212940033264), (4.277, 344.38212940033264), (10.8000000000109, 343.9303894150003), (10.8000000000109, 343.9303894150003)]</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>[(0.3, 346.0), (0.3, 345.82), (4.095, 345.8673298640091), (4.095, 345.6873298640091), (4.095, 345.8673298640091), (4.095, 345.6773298640091), (10.887, 345.62988702773765), (10.887, 345.43988702773765), (0.3, 345.82), (0.3, 345.64), (4.095, 345.6873298640091), (4.095, 345.5073298640091), (4.095, 345.6773298640091), (4.095, 345.4873298640091), (10.887, 345.43988702773765), (10.887, 345.24988702773766), (0.3, 345.64), (0.3, 345.48), (4.095, 345.5073298640091), (4.095, 345.3473298640091), (4.095, 345.4873298640091), (4.095, 345.3473298640091), (10.887, 345.24988702773766), (10.887, 345.06988702773765)]</t>
+          <t>[(0.300000000003649, 346.0), (0.300000000003649, 345.82), (4.095, 345.8673298640092), (4.095, 345.6873298640092), (4.095, 345.8673298640092), (4.095, 345.6073298640092), (10.799999999997, 345.6329284774958), (10.799999999997, 345.2529284774958), (0.300000000003649, 345.82), (0.300000000003649, 345.64), (4.095, 345.6873298640092), (4.095, 345.5073298640092), (4.095, 345.6073298640092), (4.095, 345.3473298640092), (10.799999999997, 345.2529284774958), (10.799999999997, 344.8729284774958), (0.300000000003649, 345.64), (0.300000000003649, 345.48), (4.095, 345.5073298640092), (4.095, 345.3473298640092), (4.095, 345.3473298640092), (4.095, 345.3473298640092), (10.799999999997, 344.8729284774958), (10.799999999997, 344.8729284774958)]</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[(0.3, 347.0), (0.3, 346.85), (3.977, 346.9073632518632), (3.977, 346.75736325186324), (3.977, 346.9073632518632), (3.977, 346.69736325186324), (10.773, 346.73614776632127), (10.773, 346.5261477663213), (0.3, 346.85), (0.3, 346.7), (3.977, 346.75736325186324), (3.977, 346.6073632518632), (3.977, 346.69736325186324), (3.977, 346.4873632518632), (10.773, 346.5261477663213), (10.773, 346.31614776632125), (0.3, 346.7), (0.3, 346.55), (3.977, 346.6073632518632), (3.977, 346.4573632518632), (3.977, 346.4873632518632), (3.977, 346.3473632518632), (10.773, 346.31614776632125), (10.773, 346.12614776632125), (0.3, 346.55), (0.3, 346.42), (3.977, 346.4573632518632), (3.977, 346.3473632518632), (3.977, 346.3473632518632), (3.977, 346.3473632518632), (10.773, 346.12614776632125), (10.773, 346.12614776632125)]</t>
+          <t>[(0.299999647942088, 347.0), (0.299999647942088, 346.85), (3.977, 346.9073632429936), (3.977, 346.7573632429936), (3.977, 346.9073632429936), (3.977, 346.6273632429936), (10.773, 346.7361477574517), (10.773, 346.3361477574517), (0.299999647942088, 346.85), (0.299999647942088, 346.7), (3.977, 346.7573632429936), (3.977, 346.6073632429936), (3.977, 346.6273632429936), (3.977, 346.3473632429936), (10.773, 346.3361477574517), (10.773, 345.9361477574517), (0.299999647942088, 346.7), (0.299999647942088, 346.55), (3.977, 346.6073632429936), (3.977, 346.4573632429936), (3.977, 346.3473632429936), (3.977, 346.3473632429936), (10.773, 345.9361477574517), (10.773, 345.9361477574517), (0.299999647942088, 346.55), (0.299999647942088, 346.42), (3.977, 346.4573632429936), (3.977, 346.3473632429936), (3.977, 346.3473632429936), (3.977, 346.3473632429936), (10.773, 345.9361477574517), (10.773, 345.9361477574517)]</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>[(0.3, 348.0), (0.3, 347.7), (3.862, 347.91095), (3.862, 347.61095), (3.862, 347.91095), (3.862, 347.73095), (10.664, 347.7409), (10.664, 347.5609), (0.3, 347.7), (0.3, 347.41), (3.862, 347.61095), (3.862, 347.42095), (3.862, 347.73095), (3.862, 347.55095), (10.664, 347.5609), (10.664, 347.3809)]</t>
+          <t>[(0.300000000003108, 348.0), (0.300000000003108, 347.7), (3.862, 347.91095000000007), (3.862, 347.61095000000006), (3.862, 347.91095000000007), (3.862, 347.67095000000006), (10.664, 347.74090000000007), (10.664, 347.38090000000005), (0.300000000003108, 347.7), (0.300000000003108, 347.41), (3.862, 347.61095000000006), (3.862, 347.42095000000006), (3.862, 347.67095000000006), (3.862, 347.43095000000005), (10.664, 347.38090000000005), (10.664, 347.02090000000004)]</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[(0.3, 349.0), (0.3, 348.69), (3.777, 348.913075), (3.777, 348.673075), (3.777, 348.913075), (3.777, 348.75307499999997), (10.611, 348.742225), (10.611, 348.582225), (0.3, 348.69), (0.3, 348.38), (3.777, 348.673075), (3.777, 348.433075), (3.777, 348.75307499999997), (3.777, 348.593075), (10.611, 348.582225), (10.611, 348.422225)]</t>
+          <t>[(0.300000000005302, 349.0), (0.300000000005302, 348.69), (3.777, 348.9130750000001), (3.777, 348.6730750000001), (3.777, 348.9130750000001), (3.777, 348.6730750000001), (10.611, 348.74222500000013), (10.611, 348.41222500000015), (0.300000000005302, 348.69), (0.300000000005302, 348.38), (3.777, 348.6730750000001), (3.777, 348.4330750000001), (3.777, 348.6730750000001), (3.777, 348.4330750000001), (10.611, 348.41222500000015), (10.611, 348.0822250000001)]</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[(0.3, 350.0), (0.3, 349.72), (3.747, 349.913825), (3.747, 349.633825), (3.747, 349.913825), (3.747, 349.69382499999995), (10.563, 349.743425), (10.563, 349.523425), (0.3, 349.72), (0.3, 349.45), (3.747, 349.633825), (3.747, 349.513825), (3.747, 349.69382499999995), (3.747, 349.513825), (10.563, 349.523425), (10.563, 349.303425)]</t>
+          <t>[(0.300000000003108, 350.0), (0.300000000003108, 349.72), (3.747, 349.9138250000001), (3.747, 349.6338250000001), (3.747, 349.9138250000001), (3.747, 349.7138250000001), (10.563, 349.74342500000006), (10.563, 349.42342500000007), (0.300000000003108, 349.72), (0.300000000003108, 349.45), (3.747, 349.6338250000001), (3.747, 349.5138250000001), (3.747, 349.7138250000001), (3.747, 349.5138250000001), (10.563, 349.42342500000007), (10.563, 349.1034250000001)]</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[(0.3, 351.0), (0.3, 350.76), (3.731, 350.914225), (3.731, 350.674225), (3.731, 350.914225), (3.731, 350.734225), (10.501, 350.744975), (10.501, 350.564975), (0.3, 350.76), (0.3, 350.46), (3.731, 350.674225), (3.731, 350.554225), (3.731, 350.734225), (3.731, 350.554225), (10.501, 350.564975), (10.501, 350.40497500000004)]</t>
+          <t>[(0.300000000003108, 351.0), (0.300000000003108, 350.75), (3.731, 350.9142250000001), (3.731, 350.6642250000001), (3.731, 350.9142250000001), (3.731, 350.6842250000001), (10.501, 350.74497500000007), (10.501, 350.51497500000005), (0.300000000003108, 350.75), (0.300000000003108, 350.45), (3.731, 350.6642250000001), (3.731, 350.5542250000001), (3.731, 350.6842250000001), (3.731, 350.5542250000001), (10.501, 350.51497500000005), (10.501, 350.2149750000001)]</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[(0.3, 352.0), (0.3, 351.76), (3.732, 351.9142), (3.732, 351.6742), (3.732, 351.9142), (3.732, 351.7242), (10.501, 351.744975), (10.501, 351.554975), (0.3, 351.76), (0.3, 351.46), (3.732, 351.6742), (3.732, 351.5442), (3.732, 351.7242), (3.732, 351.5442), (10.501, 351.554975), (10.501, 351.414975)]</t>
+          <t>[(0.300000000003108, 352.0), (0.300000000003108, 351.76), (3.732, 351.91420000000005), (3.732, 351.67420000000004), (3.732, 351.91420000000005), (3.732, 351.65420000000006), (10.501, 351.74497500000007), (10.501, 351.4849750000001), (0.300000000003108, 351.76), (0.300000000003108, 351.46), (3.732, 351.67420000000004), (3.732, 351.54420000000005), (3.732, 351.65420000000006), (3.732, 351.54420000000005), (10.501, 351.4849750000001), (10.501, 351.2249750000001)]</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[(0.3, 353.0), (0.3, 352.81), (3.714, 352.91465), (3.714, 352.72465), (3.714, 352.91465), (3.714, 352.75464999999997), (10.521, 352.744475), (10.521, 352.584475), (0.3, 352.81), (0.3, 352.51), (3.714, 352.72465), (3.714, 352.61465), (3.714, 352.75464999999997), (3.714, 352.61465), (10.521, 352.584475), (10.521, 352.42447500000003)]</t>
+          <t>[(0.300000000003108, 353.0), (0.300000000003108, 352.81), (3.714, 352.91465000000005), (3.714, 352.72465000000005), (3.714, 352.91465000000005), (3.714, 352.7646500000001), (10.521, 352.7444750000001), (10.521, 352.4844750000001), (0.300000000003108, 352.81), (0.300000000003108, 352.51), (3.714, 352.72465000000005), (3.714, 352.61465000000004), (3.714, 352.7646500000001), (3.714, 352.61465000000004), (10.521, 352.4844750000001), (10.521, 352.2244750000001)]</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[(0.3, 354.0), (0.3, 353.8), (3.723, 353.914425), (3.723, 353.714425), (3.723, 353.914425), (3.723, 353.75442499999997), (10.528, 353.7443), (10.528, 353.5843), (0.3, 353.8), (0.3, 353.5), (3.723, 353.714425), (3.723, 353.604425), (3.723, 353.75442499999997), (3.723, 353.604425), (10.528, 353.5843), (10.528, 353.4243)]</t>
+          <t>[(0.300000000003108, 354.0), (0.300000000003108, 353.8), (3.723, 353.91442500000005), (3.723, 353.71442500000006), (3.723, 353.91442500000005), (3.723, 353.754425), (10.528, 353.74430000000007), (10.528, 353.4843000000001), (0.300000000003108, 353.8), (0.300000000003108, 353.5), (3.723, 353.71442500000006), (3.723, 353.60442500000005), (3.723, 353.754425), (3.723, 353.59442500000006), (10.528, 353.4843000000001), (10.528, 353.2243000000001)]</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.300000000003108, 355.0), (0.300000000003108, 354.84), (3.728, 354.9143000000001), (3.728, 354.75430000000006), (3.728, 354.9143000000001), (3.728, 354.7843000000001), (10.515, 354.7446250000001), (10.515, 354.6146250000001), (0.300000000003108, 354.84), (0.300000000003108, 354.54), (3.728, 354.75430000000006), (3.728, 354.62430000000006), (3.728, 354.7843000000001), (3.728, 354.62430000000006), (10.515, 354.6146250000001), (10.515, 354.3146250000001)]</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>[(0.3, 356.0), (0.3, 355.88), (3.724, 355.9144), (3.724, 355.7944), (3.724, 355.9144), (3.724, 355.7744), (10.546, 355.74385), (10.546, 355.60385), (0.3, 355.88), (0.3, 355.58), (3.724, 355.7944), (3.724, 355.6544), (3.724, 355.7744), (3.724, 355.6544), (10.546, 355.60385), (10.546, 355.49385)]</t>
+          <t>[(0.300000000003108, 356.0), (0.300000000003108, 355.88), (3.724, 355.91440000000006), (3.724, 355.79440000000005), (3.724, 355.91440000000006), (3.724, 355.78440000000006), (10.546, 355.74385000000007), (10.546, 355.61385000000007), (0.300000000003108, 355.88), (0.300000000003108, 355.58), (3.724, 355.79440000000005), (3.724, 355.65440000000007), (3.724, 355.78440000000006), (3.724, 355.65440000000007), (10.546, 355.61385000000007), (10.546, 355.31385000000006)]</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>[(0.3, 357.0), (0.3, 356.87), (3.758, 356.91355), (3.758, 356.78355), (3.758, 356.91355), (3.758, 356.77355), (10.506, 356.74485), (10.506, 356.60485), (0.3, 356.87), (0.3, 356.57), (3.758, 356.78355), (3.758, 356.65355), (3.758, 356.77355), (3.758, 356.65355), (10.506, 356.60485), (10.506, 356.49485)]</t>
+          <t>[(0.300000000003108, 357.0), (0.300000000003108, 356.87), (3.758, 356.9135500000001), (3.758, 356.7835500000001), (3.758, 356.9135500000001), (3.758, 356.8035500000001), (10.506, 356.7448500000001), (10.506, 356.6348500000001), (0.300000000003108, 356.87), (0.300000000003108, 356.57), (3.758, 356.7835500000001), (3.758, 356.6535500000001), (3.758, 356.8035500000001), (3.758, 356.6535500000001), (10.506, 356.6348500000001), (10.506, 356.3448500000001)]</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[(0.3, 358.0), (0.3, 357.78), (3.715, 357.914625), (3.715, 357.694625), (3.715, 357.914625), (3.715, 357.744625), (10.462, 357.74595), (10.462, 357.57595), (0.3, 357.78), (0.3, 357.48), (3.715, 357.694625), (3.715, 357.574625), (3.715, 357.744625), (3.715, 357.574625), (10.462, 357.57595), (10.462, 357.45595)]</t>
+          <t>[(0.300000000003108, 358.0), (0.300000000003108, 357.78), (3.715, 357.91462500000006), (3.715, 357.69462500000003), (3.715, 357.91462500000006), (3.715, 357.73462500000005), (10.462, 357.74595000000005), (10.462, 357.56595000000004), (0.300000000003108, 357.78), (0.300000000003108, 357.48), (3.715, 357.69462500000003), (3.715, 357.5746250000001), (3.715, 357.73462500000005), (3.715, 357.5746250000001), (10.462, 357.56595000000004), (10.462, 357.26595000000003)]</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[(0.3, 359.0), (0.3, 358.7), (3.684, 358.9154), (3.684, 358.69539999999995), (3.684, 358.9154), (3.684, 358.69539999999995), (10.412, 358.7472), (10.412, 358.5272), (0.3, 358.7), (0.3, 358.4), (3.684, 358.69539999999995), (3.684, 358.4754), (3.684, 358.69539999999995), (3.684, 358.4754), (10.412, 358.5272), (10.412, 358.3972)]</t>
+          <t>[(0.300000000003108, 359.0), (0.300000000003108, 358.7), (3.684, 358.9154000000001), (3.684, 358.69540000000006), (3.684, 358.9154000000001), (3.684, 358.6454000000001), (10.412, 358.7472000000001), (10.412, 358.4772000000001), (0.300000000003108, 358.7), (0.300000000003108, 358.4), (3.684, 358.69540000000006), (3.684, 358.4754000000001), (3.684, 358.6454000000001), (3.684, 358.4754000000001), (10.412, 358.4772000000001), (10.412, 358.20720000000006)]</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>[(0.3, 360.0), (0.3, 359.68), (3.664, 359.9159), (3.664, 359.6959), (3.664, 359.9159), (3.664, 359.6959), (10.376, 359.7481), (10.376, 359.5281), (0.3, 359.68), (0.3, 359.36), (3.664, 359.6959), (3.664, 359.4759), (3.664, 359.6959), (3.664, 359.4759), (10.376, 359.5281), (10.376, 359.3881)]</t>
+          <t>[(0.300000000003108, 360.0), (0.300000000003108, 359.68), (3.664, 359.9159000000001), (3.664, 359.69590000000005), (3.664, 359.9159000000001), (3.664, 359.6359000000001), (10.376, 359.7481000000001), (10.376, 359.4681000000001), (0.300000000003108, 359.68), (0.300000000003108, 359.36), (3.664, 359.69590000000005), (3.664, 359.4759000000001), (3.664, 359.6359000000001), (3.664, 359.4759000000001), (10.376, 359.4681000000001), (10.376, 359.19810000000007)]</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>[(0.3, 361.0), (0.3, 360.67), (3.623, 360.916925), (3.623, 360.676925), (3.623, 360.916925), (3.623, 360.666925), (10.367, 360.748325), (10.367, 360.498325), (0.3, 360.67), (0.3, 360.34), (3.623, 360.676925), (3.623, 360.436925), (3.623, 360.666925), (3.623, 360.426925), (10.367, 360.498325), (10.367, 360.368325)]</t>
+          <t>[(0.300000000003108, 361.0), (0.300000000003108, 360.67), (3.623, 360.9169250000001), (3.623, 360.6769250000001), (3.623, 360.9169250000001), (3.623, 360.7269250000001), (10.367, 360.7483250000001), (10.367, 360.5583250000001), (0.300000000003108, 360.67), (0.300000000003108, 360.34), (3.623, 360.6769250000001), (3.623, 360.4369250000001), (3.623, 360.7269250000001), (3.623, 360.5369250000001), (10.367, 360.5583250000001), (10.367, 360.3683250000001)]</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>[(0.3, 362.0), (0.3, 361.66), (3.568, 361.9183), (3.568, 361.6583), (3.568, 361.9183), (3.568, 361.6583), (10.35, 361.74875), (10.35, 361.48875), (0.3, 361.66), (0.3, 361.32), (3.568, 361.6583), (3.568, 361.3983), (3.568, 361.6583), (3.568, 361.3983), (10.35, 361.48875), (10.35, 361.32874999999996)]</t>
+          <t>[(0.300000000003108, 362.0), (0.300000000003108, 361.66), (3.568, 361.9183000000001), (3.568, 361.6583000000001), (3.568, 361.9183000000001), (3.568, 361.6583000000001), (10.35, 361.7487500000001), (10.35, 361.4487500000001), (0.300000000003108, 361.66), (0.300000000003108, 361.32), (3.568, 361.6583000000001), (3.568, 361.3983000000001), (3.568, 361.6583000000001), (3.568, 361.3983000000001), (10.35, 361.4487500000001), (10.35, 361.14875000000006)]</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>[(0.3, 363.0), (0.3, 362.7), (3.629, 362.916775), (3.629, 362.61677499999996), (3.629, 362.916775), (3.629, 362.68677499999995), (10.327, 362.749325), (10.327, 362.519325), (0.3, 362.7), (0.3, 362.41), (3.629, 362.61677499999996), (3.629, 362.456775), (3.629, 362.68677499999995), (3.629, 362.456775), (10.327, 362.519325), (10.327, 362.379325)]</t>
+          <t>[(0.300000000003108, 363.0), (0.300000000003108, 362.7), (3.629, 362.9167750000001), (3.629, 362.6167750000001), (3.629, 362.9167750000001), (3.629, 362.6367750000001), (10.327, 362.74932500000006), (10.327, 362.4693250000001), (0.300000000003108, 362.7), (0.300000000003108, 362.41), (3.629, 362.6167750000001), (3.629, 362.4567750000001), (3.629, 362.6367750000001), (3.629, 362.4567750000001), (10.327, 362.4693250000001), (10.327, 362.18932500000005)]</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>[(0.3, 364.0), (0.3, 363.71), (3.556, 363.9186), (3.556, 363.6286), (3.556, 363.9186), (3.556, 363.70860000000005), (10.29, 363.75025), (10.29, 363.54025), (0.3, 363.71), (0.3, 363.43), (3.556, 363.6286), (3.556, 363.4986), (3.556, 363.70860000000005), (3.556, 363.4986), (10.29, 363.54025), (10.29, 363.41025)]</t>
+          <t>[(0.300000000003108, 364.0), (0.300000000003108, 363.71), (3.556, 363.9186000000001), (3.556, 363.62860000000006), (3.556, 363.9186000000001), (3.556, 363.6486000000001), (10.29, 363.75025000000005), (10.29, 363.48025000000007), (0.300000000003108, 363.71), (0.300000000003108, 363.43), (3.556, 363.62860000000006), (3.556, 363.49860000000007), (3.556, 363.6486000000001), (3.556, 363.49860000000007), (10.29, 363.48025000000007), (10.29, 363.2202500000001)]</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>[(0.3, 365.0), (0.3, 364.75), (3.505, 364.919875), (3.505, 364.669875), (3.505, 364.919875), (3.505, 364.729875), (10.286, 364.75035), (10.286, 364.56035), (0.3, 364.75), (0.3, 364.5), (3.505, 364.669875), (3.505, 364.549875), (3.505, 364.729875), (3.505, 364.549875), (10.286, 364.56035), (10.286, 364.45035)]</t>
+          <t>[(0.300000000003108, 365.0), (0.300000000003108, 364.75), (3.505, 364.9198750000001), (3.505, 364.6698750000001), (3.505, 364.9198750000001), (3.505, 364.6698750000001), (10.286, 364.7503500000001), (10.286, 364.5003500000001), (0.300000000003108, 364.75), (0.300000000003108, 364.5), (3.505, 364.6698750000001), (3.505, 364.5498750000001), (3.505, 364.6698750000001), (3.505, 364.5498750000001), (10.286, 364.5003500000001), (10.286, 364.2603500000001)]</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>[(0.3, 366.0), (0.3, 365.82), (3.474, 365.92065), (3.474, 365.74065), (3.474, 365.92065), (3.474, 365.81065), (10.255, 365.751125), (10.255, 365.641125), (0.3, 365.82), (0.3, 365.52), (3.474, 365.74065), (3.474, 365.58065000000005), (3.474, 365.81065), (3.474, 365.58065000000005), (10.255, 365.641125), (10.255, 365.501125)]</t>
+          <t>[(0.300000000003108, 366.0), (0.300000000003108, 365.82), (3.474, 365.9206500000001), (3.474, 365.7406500000001), (3.474, 365.9206500000001), (3.474, 365.70065000000005), (10.255, 365.75112500000006), (10.255, 365.53112500000003), (0.300000000003108, 365.82), (0.300000000003108, 365.52), (3.474, 365.7406500000001), (3.474, 365.5806500000001), (3.474, 365.70065000000005), (3.474, 365.5806500000001), (10.255, 365.53112500000003), (10.255, 365.32112500000005)]</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.300000000005302, 367.0), (0.300000000005302, 366.87), (3.43, 366.92175000000015), (3.43, 366.79175000000015), (3.43, 366.92175000000015), (3.43, 366.81175000000013), (10.231, 366.75172500000014), (10.231, 366.6417250000001), (0.300000000005302, 366.87), (0.300000000005302, 366.57), (3.43, 366.79175000000015), (3.43, 366.6417500000002), (3.43, 366.81175000000013), (3.43, 366.6417500000002), (10.231, 366.6417250000001), (10.231, 366.37172500000014)]</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.300000000003108, 368.0), (0.300000000003108, 367.85), (3.452, 367.92120000000006), (3.452, 367.7712000000001), (3.452, 367.92120000000006), (3.452, 367.81120000000004), (10.242, 367.7514500000001), (10.242, 367.6414500000001), (0.300000000003108, 367.85), (0.300000000003108, 367.55), (3.452, 367.7712000000001), (3.452, 367.62120000000004), (3.452, 367.81120000000004), (3.452, 367.62120000000004), (10.242, 367.6414500000001), (10.242, 367.3614500000001)]</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[(0.3, 369.0), (0.3, 368.89), (3.463, 368.9665994838519), (3.463, 368.8565994838519), (3.463, 368.9665994838519), (3.463, 368.80659948385187), (10.235, 368.89508879926296), (10.235, 368.73508879926294), (0.3, 368.89), (0.3, 368.64), (3.463, 368.8565994838519), (3.463, 368.6865994838519), (3.463, 368.80659948385187), (3.463, 368.6865994838519), (10.235, 368.73508879926294), (10.235, 368.57508879926297)]</t>
+          <t>[(0.300000000005302, 369.0), (0.300000000005302, 368.89), (3.463, 368.96659948385195), (3.463, 368.85659948385194), (3.463, 368.96659948385195), (3.463, 368.82659948385196), (10.235, 368.895088799263), (10.235, 368.63508879926303), (0.300000000005302, 368.89), (0.300000000005302, 368.64), (3.463, 368.85659948385194), (3.463, 368.686599483852), (3.463, 368.82659948385196), (3.463, 368.686599483852), (10.235, 368.63508879926303), (10.235, 368.37508879926304)]</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>[(0.3, 370.0), (0.3, 369.84), (3.443, 370.045385679022), (3.443, 369.88538567902197), (3.443, 370.045385679022), (3.443, 369.855385679022), (10.18, 370.1426695859807), (10.18, 369.9526695859807), (0.3, 369.84), (0.3, 369.7), (3.443, 369.88538567902197), (3.443, 369.725385679022), (3.443, 369.855385679022), (3.443, 369.725385679022), (10.18, 369.9526695859807), (10.18, 369.6526695859807)]</t>
+          <t>[(0.300000000003108, 370.0), (0.300000000003108, 369.84), (3.443, 370.04538567902193), (3.443, 369.8853856790219), (3.443, 370.04538567902193), (3.443, 369.8853856790219), (10.18, 370.1426695859806), (10.18, 369.80266958598065), (0.300000000003108, 369.84), (0.300000000003108, 369.7), (3.443, 369.8853856790219), (3.443, 369.72538567902194), (3.443, 369.8853856790219), (3.443, 369.72538567902194), (10.18, 369.80266958598065), (10.18, 369.4626695859806)]</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>[(0.3, 371.0), (0.3, 370.84), (3.454, 371.09688563052697), (3.454, 370.93688563052694), (3.454, 371.09688563052697), (3.454, 370.956885630527), (10.138, 371.30220698577176), (10.138, 371.1622069857718), (0.3, 370.84), (0.3, 370.68), (3.454, 370.93688563052694), (3.454, 370.78688563052697), (3.454, 370.956885630527), (3.454, 370.78688563052697), (10.138, 371.1622069857718), (10.138, 370.86220698577176)]</t>
+          <t>[(0.299999999986802, 371.0), (0.299999999986802, 370.84), (3.454, 371.09688563052737), (3.454, 370.93688563052734), (3.454, 371.09688563052737), (3.454, 370.93688563052734), (10.138, 371.30220698577216), (10.138, 370.98220698577217), (0.299999999986802, 370.84), (0.299999999986802, 370.68), (3.454, 370.93688563052734), (3.454, 370.78688563052737), (3.454, 370.93688563052734), (3.454, 370.7768856305274), (10.138, 370.98220698577217), (10.138, 370.6622069857722)]</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.300000000070581, 373.0), (0.300000000070581, 372.86), (3.863, 373.17999682956383), (3.863, 373.03999682956385), (3.863, 373.17999682956383), (3.863, 373.05999682956383), (10.519, 373.51624687098973), (10.519, 373.2762468709897), (0.300000000070581, 372.86), (0.300000000070581, 372.74), (3.863, 373.03999682956385), (3.863, 372.92999682956383), (3.863, 373.05999682956383), (3.863, 372.9399968295638), (10.519, 373.2762468709897), (10.519, 373.0362468709897)]</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>[(0.3, 374.0), (0.3, 373.85), (4.464, 374.2515819491015), (4.464, 374.1015819491015), (4.464, 374.2515819491015), (4.464, 374.14158194910146), (11.12, 374.6537263903165), (11.12, 374.54372639031646), (0.3, 373.85), (0.3, 373.7), (4.464, 374.1015819491015), (4.464, 373.9915819491015), (4.464, 374.14158194910146), (4.464, 373.9915819491015), (11.12, 374.54372639031646), (11.12, 374.3137263903165)]</t>
+          <t>[(0.300000000012383, 374.0), (0.300000000012383, 373.86), (4.464, 374.25158194910074), (4.464, 374.11158194910075), (4.464, 374.25158194910074), (4.464, 374.13158194910073), (10.8000000000135, 374.63439252295046), (10.8000000000135, 374.39439252295045), (0.300000000012383, 373.86), (0.300000000012383, 373.74), (4.464, 374.11158194910075), (4.464, 374.00158194910074), (4.464, 374.13158194910073), (4.464, 374.01158194910073), (10.8000000000135, 374.39439252295045), (10.8000000000135, 374.15439252295045)]</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>[(0.3, 375.0), (0.3, 374.83), (5.037, 375.33159), (5.037, 375.16159), (5.037, 375.33159), (5.037, 375.10159), (11.653, 375.79471), (11.653, 375.56471), (0.3, 374.83), (0.3, 374.69), (5.037, 375.16159), (5.037, 374.99159000000003), (5.037, 375.10159), (5.037, 374.99159000000003), (11.653, 375.56471), (11.653, 375.33471000000003)]</t>
+          <t>[(0.300000000001349, 375.0), (0.300000000001349, 374.85), (5.037, 375.3315899999999), (5.037, 375.1815899999999), (5.037, 375.3315899999999), (5.037, 375.1815899999999), (10.7999999999936, 375.73499999999945), (10.7999999999936, 375.46499999999946), (0.300000000001349, 374.85), (0.300000000001349, 374.73), (5.037, 375.1815899999999), (5.037, 375.0315899999999), (5.037, 375.1815899999999), (5.037, 375.0315899999999), (10.7999999999936, 375.46499999999946), (10.7999999999936, 375.1949999999994)]</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>[(0.3, 376.0), (0.3, 375.83), (5.246, 376.34622), (5.246, 376.17622), (5.246, 376.34622), (5.246, 376.15622), (11.832, 376.80724), (11.832, 376.61724), (0.3, 375.83), (0.3, 375.67), (5.246, 376.17622), (5.246, 376.01622000000003), (5.246, 376.15622), (5.246, 376.01622000000003), (11.832, 376.61724), (11.832, 376.31723999999997)]</t>
+          <t>[(0.300000000005591, 376.0), (0.300000000005591, 375.86), (5.246, 376.3462199999996), (5.246, 376.20621999999963), (5.246, 376.3462199999996), (5.246, 376.20621999999963), (10.800000000004, 376.7349999999999), (10.800000000004, 376.4549999999999), (0.300000000005591, 375.86), (0.300000000005591, 375.73), (5.246, 376.20621999999963), (5.246, 376.07621999999964), (5.246, 376.20621999999963), (5.246, 376.06621999999965), (10.800000000004, 376.4549999999999), (10.800000000004, 376.1749999999999)]</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>[(0.3, 377.0), (0.3, 376.82), (4.982, 377.32774), (4.982, 377.14774), (4.982, 377.32774), (4.982, 377.14774), (11.638, 377.79366), (11.638, 377.49366), (0.3, 376.82), (0.3, 376.7), (4.982, 377.14774), (4.982, 376.96774), (4.982, 377.14774), (4.982, 376.96774), (11.638, 377.49366), (11.638, 377.19365999999997)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>[(0.3, 378.0), (0.3, 377.89), (4.465, 378.29155), (4.465, 378.18154999999996), (4.465, 378.29155), (4.465, 378.13154999999995), (11.087, 378.75509), (11.087, 378.47509), (0.3, 377.89), (0.3, 377.75), (4.465, 378.18154999999996), (4.465, 377.96155), (4.465, 378.13154999999995), (4.465, 377.97155), (11.087, 378.47509), (11.087, 378.19509)]</t>
+          <t>[(0.299999999999062, 378.0), (0.299999999999062, 377.87), (4.465, 378.2915500000001), (4.465, 378.1615500000001), (4.465, 378.2915500000001), (4.465, 378.1715500000001), (10.800000000001, 378.7350000000001), (10.800000000001, 378.41500000000013), (0.299999999999062, 377.87), (0.299999999999062, 377.75), (4.465, 378.1615500000001), (4.465, 378.0415500000001), (4.465, 378.1715500000001), (4.465, 378.0515500000001), (10.800000000001, 378.41500000000013), (10.800000000001, 378.09500000000014)]</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>[(0.3, 379.0), (0.3, 378.83), (3.864, 379.24948), (3.864, 379.07948), (3.864, 379.24948), (3.864, 379.08948), (10.554, 379.71778), (10.554, 379.43778000000003), (0.3, 378.83), (0.3, 378.72), (3.864, 379.07948), (3.864, 378.91948), (3.864, 379.08948), (3.864, 378.92948), (10.554, 379.43778000000003), (10.554, 379.15778)]</t>
+          <t>[(0.300000000001148, 379.0), (0.300000000001148, 378.87), (3.864, 379.2494799999999), (3.864, 379.1194799999999), (3.864, 379.2494799999999), (3.864, 379.1294799999999), (10.554, 379.71777999999995), (10.554, 379.39777999999995), (0.300000000001148, 378.87), (0.300000000001148, 378.75), (3.864, 379.1194799999999), (3.864, 378.9994799999999), (3.864, 379.1294799999999), (3.864, 379.0094799999999), (10.554, 379.39777999999995), (10.554, 379.07777999999996)]</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>[(0.3, 380.0), (0.3, 379.83), (3.153, 380.19971), (3.153, 380.02970999999997), (3.153, 380.19971), (3.153, 380.03970999999996), (9.788, 380.66416), (9.788, 380.38416), (0.3, 379.83), (0.3, 379.72), (3.153, 380.02970999999997), (3.153, 379.86971), (3.153, 380.03970999999996), (3.153, 379.87971), (9.788, 380.38416), (9.788, 380.10416)]</t>
+          <t>[(0.300000000003266, 380.0), (0.300000000003266, 379.87), (3.153, 380.19970999999975), (3.153, 380.06970999999976), (3.153, 380.19970999999975), (3.153, 380.07970999999975), (9.788, 380.66415999999975), (9.788, 380.34415999999976), (0.300000000003266, 379.87), (0.300000000003266, 379.75), (3.153, 380.06970999999976), (3.153, 379.94970999999975), (3.153, 380.07970999999975), (3.153, 379.95970999999975), (9.788, 380.34415999999976), (9.788, 380.02415999999977)]</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>[(0.3, 381.0), (0.3, 380.82), (2.603, 381.16121), (2.603, 380.98121), (2.603, 381.16121), (2.603, 380.98121), (9.191, 381.62237), (9.191, 381.33236999999997), (0.3, 380.82), (0.3, 380.69), (2.603, 380.98121), (2.603, 380.81120999999996), (2.603, 380.98121), (2.603, 380.80120999999997), (9.191, 381.33236999999997), (9.191, 381.04237)]</t>
+          <t>[(0.300000000006076, 381.0), (0.300000000006076, 380.87), (2.603, 381.1612099999996), (2.603, 381.0312099999996), (2.603, 381.1612099999996), (2.603, 381.0412099999996), (9.191, 381.6223699999996), (9.191, 381.3023699999996), (0.300000000006076, 380.87), (0.300000000006076, 380.75), (2.603, 381.0312099999996), (2.603, 380.9112099999996), (2.603, 381.0412099999996), (2.603, 380.9212099999996), (9.191, 381.3023699999996), (9.191, 380.9823699999996)]</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>[(0.3, 382.0), (0.3, 381.81), (2.336, 382.13720883857377), (2.336, 381.9472088385738), (2.336, 382.13720883857377), (2.336, 381.95720883857376), (8.952, 382.5830701725639), (8.952, 382.2830701725639), (0.3, 381.81), (0.3, 381.65), (2.336, 381.9472088385738), (2.336, 381.76720883857377), (2.336, 381.95720883857376), (2.336, 381.77720883857376), (8.952, 382.2830701725639), (8.952, 381.9830701725639)]</t>
+          <t>[(0.300000000012698, 382.0), (0.300000000012698, 381.87), (2.336, 382.1372088385729), (2.336, 382.0072088385729), (2.336, 382.1372088385729), (2.336, 382.0172088385729), (8.952, 382.58307017256305), (8.952, 382.26307017256306), (0.300000000012698, 381.87), (0.300000000012698, 381.75), (2.336, 382.0072088385729), (2.336, 381.8872088385729), (2.336, 382.0172088385729), (2.336, 381.8972088385729), (8.952, 382.26307017256306), (8.952, 381.94307017256307)]</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>[(0.3, 383.0), (0.3, 382.8), (9.001, 383.50023245019224), (9.001, 383.20023245019223), (0.3, 382.8), (0.3, 382.6), (9.001, 383.20023245019223), (9.001, 382.9002324501922)]</t>
+          <t>[(0.300000000148598, 383.0), (0.300000000148598, 382.88), (9.001, 383.50023245018366), (9.001, 383.20023245018365), (0.300000000148598, 382.88), (0.300000000148598, 382.76), (9.001, 383.20023245018365), (9.001, 382.90023245018364)]</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>[(0.3, 384.0), (0.3, 383.85), (2.53, 384.1061287653768), (2.53, 383.95612876537683), (2.53, 384.1061287653768), (2.53, 383.8861287653768), (9.167, 384.42199271865286), (9.167, 384.12199271865285), (0.3, 383.85), (0.3, 383.7), (2.53, 383.95612876537683), (2.53, 383.8061287653768), (2.53, 383.8861287653768), (2.53, 383.6661287653768), (9.167, 384.12199271865285), (9.167, 383.82199271865284), (0.3, 383.7), (0.3, 383.57), (2.53, 383.8061287653768), (2.53, 383.6561287653768), (2.53, 383.6661287653768), (2.53, 383.6661287653768), (9.167, 383.82199271865284), (9.167, 383.82199271865284)]</t>
+          <t>[(0.300000000077761, 384.0), (0.300000000077761, 383.86), (2.53, 384.10612876537306), (2.53, 383.96612876537307), (2.53, 384.10612876537306), (2.53, 383.96612876537307), (9.167, 384.42199271864916), (9.167, 384.11199271864916), (0.300000000077761, 383.86), (0.300000000077761, 383.75), (2.53, 383.96612876537307), (2.53, 383.8361287653731), (2.53, 383.96612876537307), (2.53, 383.8261287653731), (9.167, 384.11199271864916), (9.167, 383.80199271864916)]</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>[(0.3, 385.0), (0.3, 384.83), (2.82, 385.09498226409306), (2.82, 384.92498226409305), (2.82, 385.09498226409306), (2.82, 384.85498226409305), (9.468, 385.34555452270047), (9.468, 385.0255545227005), (0.3, 384.83), (0.3, 384.66), (2.82, 384.92498226409305), (2.82, 384.7549822640931), (2.82, 384.85498226409305), (2.82, 384.61498226409304), (9.468, 385.0255545227005), (9.468, 384.7055545227005), (0.3, 384.66), (0.3, 384.5), (2.82, 384.7549822640931), (2.82, 384.60498226409305), (2.82, 384.61498226409304), (2.82, 384.61498226409304), (9.468, 384.7055545227005), (9.468, 384.7055545227005)]</t>
+          <t>[(0.300000000014416, 385.0), (0.300000000014416, 384.85), (2.82, 385.0949822640925), (2.82, 384.9449822640925), (2.82, 385.0949822640925), (2.82, 384.9549822640925), (9.468, 385.3455545226999), (9.468, 385.0255545226999), (0.300000000014416, 384.85), (0.300000000014416, 384.7), (2.82, 384.9449822640925), (2.82, 384.8049822640925), (2.82, 384.9549822640925), (2.82, 384.8149822640925), (9.468, 385.0255545226999), (9.468, 384.7055545226999)]</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>[(0.3, 386.0), (0.3, 385.8), (3.061, 386.07673198546877), (3.061, 385.8767319854688), (3.061, 386.07673198546877), (3.061, 385.8667319854688), (9.669, 386.26037738929995), (9.669, 386.05037738929997), (0.3, 385.8), (0.3, 385.6), (3.061, 385.8767319854688), (3.061, 385.6767319854688), (3.061, 385.8667319854688), (3.061, 385.65673198546875), (9.669, 386.05037738929997), (9.669, 385.84037738929993), (0.3, 385.6), (0.3, 385.41), (3.061, 385.6767319854688), (3.061, 385.53673198546875), (3.061, 385.65673198546875), (3.061, 385.53673198546875), (9.669, 385.84037738929993), (9.669, 385.63037738929995)]</t>
+          <t>[(0.300000000000748, 386.0), (0.300000000000748, 385.81), (3.061, 386.07673198546877), (3.061, 385.88673198546877), (3.061, 386.07673198546877), (3.061, 385.91673198546874), (9.669, 386.2603773892999), (9.669, 385.9603773892999), (0.300000000000748, 385.81), (0.300000000000748, 385.63), (3.061, 385.88673198546877), (3.061, 385.7567319854688), (3.061, 385.91673198546874), (3.061, 385.7567319854688), (9.669, 385.9603773892999), (9.669, 385.66037738929987)]</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>[(0.3, 387.0), (0.3, 386.77), (3.187, 387.02035024925055), (3.187, 386.79035024925054), (3.187, 387.02035024925055), (3.187, 386.83035024925056), (9.883, 387.067549857488), (9.883, 386.877549857488), (0.3, 386.77), (0.3, 386.54), (3.187, 386.79035024925054), (3.187, 386.5603502492506), (3.187, 386.83035024925056), (3.187, 386.64035024925056), (9.883, 386.877549857488), (9.883, 386.687549857488), (0.3, 386.54), (0.3, 386.32), (3.187, 386.5603502492506), (3.187, 386.45035024925056), (3.187, 386.64035024925056), (3.187, 386.45035024925056), (9.883, 386.687549857488), (9.883, 386.517549857488)]</t>
+          <t>[(0.300000000017481, 387.0), (0.300000000017481, 386.77), (3.187, 387.02035024925044), (3.187, 386.7903502492504), (3.187, 387.02035024925044), (3.187, 386.8003502492504), (9.883, 387.0675498574879), (9.883, 386.8475498574879), (0.300000000017481, 386.77), (0.300000000017481, 386.55), (3.187, 386.7903502492504), (3.187, 386.6703502492504), (3.187, 386.8003502492504), (3.187, 386.6703502492504), (9.883, 386.8475498574879), (9.883, 386.5475498574879)]</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>[(0.3, 388.0), (0.3, 387.64), (3.289, 387.9463442396986), (3.289, 387.6663442396986), (3.289, 387.9463442396986), (3.289, 387.65634423969857), (9.983, 387.8261797500842), (9.983, 387.53617975008416), (0.3, 387.64), (0.3, 387.28), (3.289, 387.6663442396986), (3.289, 387.3863442396986), (3.289, 387.65634423969857), (3.289, 387.3763442396986), (9.983, 387.53617975008416), (9.983, 387.3661797500842)]</t>
+          <t>[(0.300000000003057, 388.0), (0.300000000003057, 387.82), (3.289, 387.94634423969865), (3.289, 387.76634423969864), (3.289, 387.94634423969865), (3.289, 387.73634423969867), (9.983, 387.82617975008424), (9.983, 387.61617975008426), (0.300000000003057, 387.82), (0.300000000003057, 387.52), (3.289, 387.76634423969864), (3.289, 387.61634423969866), (3.289, 387.73634423969867), (3.289, 387.61634423969866), (9.983, 387.61617975008426), (9.983, 387.4161797500842)]</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>[(0.3, 389.0), (0.3, 388.63), (3.318, 388.92455), (3.318, 388.62455), (3.318, 388.92455), (3.318, 388.72455), (10.06, 388.756), (10.06, 388.556), (0.3, 388.63), (0.3, 388.26), (3.318, 388.62455), (3.318, 388.32455), (3.318, 388.72455), (3.318, 388.52455000000003), (10.06, 388.556), (10.06, 388.356)]</t>
+          <t>[(0.300000000003057, 389.0), (0.300000000003057, 388.82), (3.318, 388.92455000000007), (3.318, 388.74455000000006), (3.318, 388.92455000000007), (3.318, 388.69455000000005), (10.06, 388.7560000000001), (10.06, 388.52600000000007), (0.300000000003057, 388.82), (0.300000000003057, 388.52), (3.318, 388.74455000000006), (3.318, 388.5845500000001), (3.318, 388.69455000000005), (3.318, 388.5845500000001), (10.06, 388.52600000000007), (10.06, 388.2960000000001)]</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>[(0.3, 390.0), (0.3, 389.75), (3.391, 389.922725), (3.391, 389.672725), (3.391, 389.922725), (3.391, 389.71272500000003), (10.114, 389.75465), (10.114, 389.54465000000005), (0.3, 389.75), (0.3, 389.5), (3.391, 389.672725), (3.391, 389.422725), (3.391, 389.71272500000003), (3.391, 389.502725), (10.114, 389.54465000000005), (10.114, 389.33465), (0.3, 389.5), (0.3, 389.25), (3.391, 389.422725), (3.391, 389.312725), (3.391, 389.502725), (3.391, 389.312725), (10.114, 389.33465), (10.114, 389.19465)]</t>
+          <t>[(0.300000000003057, 390.0), (0.300000000003057, 389.75), (3.391, 389.92272500000007), (3.391, 389.67272500000007), (3.391, 389.92272500000007), (3.391, 389.67272500000007), (10.114, 389.7546500000001), (10.114, 389.5046500000001), (0.300000000003057, 389.75), (0.300000000003057, 389.51), (3.391, 389.67272500000007), (3.391, 389.56272500000006), (3.391, 389.67272500000007), (3.391, 389.56272500000006), (10.114, 389.5046500000001), (10.114, 389.2646500000001)]</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>[(0.3, 391.0), (0.3, 390.62), (3.416, 390.9221), (3.416, 390.6221), (3.416, 390.9221), (3.416, 390.7621), (10.144, 390.7539), (10.144, 390.59389999999996), (0.3, 390.62), (0.3, 390.24), (3.416, 390.6221), (3.416, 390.3221), (3.416, 390.7621), (3.416, 390.6021), (10.144, 390.59389999999996), (10.144, 390.4339)]</t>
+          <t>[(0.300000000003057, 391.0), (0.300000000003057, 390.79), (3.416, 390.92210000000006), (3.416, 390.7121000000001), (3.416, 390.92210000000006), (3.416, 390.70210000000003), (10.144, 390.7539000000001), (10.144, 390.5339000000001), (0.300000000003057, 390.79), (0.300000000003057, 390.49), (3.416, 390.7121000000001), (3.416, 390.56210000000004), (3.416, 390.70210000000003), (3.416, 390.56210000000004), (10.144, 390.5339000000001), (10.144, 390.2339000000001)]</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>[(0.3, 392.0), (0.3, 391.74), (3.475, 391.920625), (3.475, 391.660625), (3.475, 391.920625), (3.475, 391.710625), (10.193, 391.752675), (10.193, 391.54267500000003), (0.3, 391.74), (0.3, 391.48), (3.475, 391.660625), (3.475, 391.400625), (3.475, 391.710625), (3.475, 391.50062499999996), (10.193, 391.54267500000003), (10.193, 391.332675), (0.3, 391.48), (0.3, 391.24), (3.475, 391.400625), (3.475, 391.290625), (3.475, 391.50062499999996), (3.475, 391.290625), (10.193, 391.332675), (10.193, 391.182675)]</t>
+          <t>[(0.300000000003057, 392.0), (0.300000000003057, 391.75), (3.475, 391.9206250000001), (3.475, 391.6706250000001), (3.475, 391.9206250000001), (3.475, 391.6706250000001), (10.193, 391.75267500000007), (10.193, 391.50267500000007), (0.300000000003057, 391.75), (0.300000000003057, 391.5), (3.475, 391.6706250000001), (3.475, 391.5506250000001), (3.475, 391.6706250000001), (3.475, 391.5506250000001), (10.193, 391.50267500000007), (10.193, 391.25267500000007)]</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>[(0.3, 393.0), (0.3, 392.62), (3.523, 392.919425), (3.523, 392.619425), (3.523, 392.919425), (3.523, 392.769425), (10.289, 392.750275), (10.289, 392.600275), (0.3, 392.62), (0.3, 392.24), (3.523, 392.619425), (3.523, 392.31942499999997), (3.523, 392.769425), (3.523, 392.619425), (10.289, 392.600275), (10.289, 392.450275)]</t>
+          <t>[(0.300000000003057, 393.0), (0.300000000003057, 392.79), (3.523, 392.9194250000001), (3.523, 392.7094250000001), (3.523, 392.9194250000001), (3.523, 392.7094250000001), (10.289, 392.7502750000001), (10.289, 392.5402750000001), (0.300000000003057, 392.79), (0.300000000003057, 392.49), (3.523, 392.7094250000001), (3.523, 392.5794250000001), (3.523, 392.7094250000001), (3.523, 392.5794250000001), (10.289, 392.5402750000001), (10.289, 392.2402750000001)]</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>[(0.3, 394.0), (0.3, 393.72), (3.553, 393.918675), (3.553, 393.63867500000003), (3.553, 393.918675), (3.553, 393.678675), (10.294, 393.75015), (10.294, 393.51015), (0.3, 393.72), (0.3, 393.44), (3.553, 393.63867500000003), (3.553, 393.358675), (3.553, 393.678675), (3.553, 393.438675), (10.294, 393.51015), (10.294, 393.27015), (0.3, 393.44), (0.3, 393.17), (3.553, 393.358675), (3.553, 393.218675), (3.553, 393.438675), (3.553, 393.218675), (10.294, 393.27015), (10.294, 393.15015)]</t>
+          <t>[(0.300000000003057, 394.0), (0.300000000003057, 393.71), (3.553, 393.91867500000006), (3.553, 393.62867500000004), (3.553, 393.91867500000006), (3.553, 393.6486750000001), (10.294, 393.7501500000001), (10.294, 393.4801500000001), (0.300000000003057, 393.71), (0.300000000003057, 393.43), (3.553, 393.62867500000004), (3.553, 393.47867500000007), (3.553, 393.6486750000001), (3.553, 393.47867500000007), (10.294, 393.4801500000001), (10.294, 393.21015000000006)]</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>[(0.3, 395.0), (0.3, 394.6), (3.619, 394.917025), (3.619, 394.59702500000003), (3.619, 394.917025), (3.619, 394.70702500000004), (10.359, 394.748525), (10.359, 394.538525), (0.3, 394.6), (0.3, 394.2), (3.619, 394.59702500000003), (3.619, 394.27702500000004), (3.619, 394.70702500000004), (3.619, 394.497025), (10.359, 394.538525), (10.359, 394.32852499999996)]</t>
+          <t>[(0.300000000003057, 395.0), (0.300000000003057, 394.73), (3.619, 394.9170250000001), (3.619, 394.6470250000001), (3.619, 394.9170250000001), (3.619, 394.6570250000001), (10.359, 394.7485250000001), (10.359, 394.4885250000001), (0.300000000003057, 394.73), (0.300000000003057, 394.47), (3.619, 394.6470250000001), (3.619, 394.5370250000001), (3.619, 394.6570250000001), (3.619, 394.5370250000001), (10.359, 394.4885250000001), (10.359, 394.2385250000001)]</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>[(0.3, 396.0), (0.3, 395.62), (3.732, 395.9142), (3.732, 395.6142), (3.732, 395.9142), (3.732, 395.7642), (10.377, 395.748075), (10.377, 395.598075), (0.3, 395.62), (0.3, 395.24), (3.732, 395.6142), (3.732, 395.31419999999997), (3.732, 395.7642), (3.732, 395.6142), (10.377, 395.598075), (10.377, 395.44807499999996)]</t>
+          <t>[(0.300000000003057, 396.0), (0.300000000003057, 395.79), (3.732, 395.91420000000005), (3.732, 395.70420000000007), (3.732, 395.91420000000005), (3.732, 395.71420000000006), (10.377, 395.7480750000001), (10.377, 395.5480750000001), (0.300000000003057, 395.79), (0.300000000003057, 395.49), (3.732, 395.70420000000007), (3.732, 395.5742000000001), (3.732, 395.71420000000006), (3.732, 395.5742000000001), (10.377, 395.5480750000001), (10.377, 395.2480750000001)]</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>[(0.3, 397.0), (0.3, 396.63), (3.831, 396.911725), (3.831, 396.62172499999997), (3.831, 396.911725), (3.831, 396.711725), (10.46, 396.746), (10.46, 396.546), (0.3, 396.63), (0.3, 396.26), (3.831, 396.62172499999997), (3.831, 396.331725), (3.831, 396.711725), (3.831, 396.511725), (10.46, 396.546), (10.46, 396.346)]</t>
+          <t>[(0.300000000003057, 397.0), (0.300000000003057, 396.81), (3.831, 396.9117250000001), (3.831, 396.7217250000001), (3.831, 396.9117250000001), (3.831, 396.7417250000001), (10.46, 396.7460000000001), (10.46, 396.5760000000001), (0.300000000003057, 396.81), (0.300000000003057, 396.51), (3.831, 396.7217250000001), (3.831, 396.5917250000001), (3.831, 396.7417250000001), (3.831, 396.5917250000001), (10.46, 396.5760000000001), (10.46, 396.27600000000007)]</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>[(0.3, 398.0), (0.3, 397.62), (3.841, 397.911475), (3.841, 397.631475), (3.841, 397.911475), (3.841, 397.721475), (10.549, 397.743775), (10.549, 397.55377500000003), (0.3, 397.62), (0.3, 397.24), (3.841, 397.631475), (3.841, 397.351475), (3.841, 397.721475), (3.841, 397.531475), (10.549, 397.55377500000003), (10.549, 397.36377500000003)]</t>
+          <t>[(0.300000000003057, 398.0), (0.300000000003057, 397.81), (3.841, 397.91147500000005), (3.841, 397.72147500000005), (3.841, 397.91147500000005), (3.841, 397.7614750000001), (10.549, 397.7437750000001), (10.549, 397.5937750000001), (0.300000000003057, 397.81), (0.300000000003057, 397.51), (3.841, 397.72147500000005), (3.841, 397.61147500000004), (3.841, 397.7614750000001), (3.841, 397.61147500000004), (10.549, 397.5937750000001), (10.549, 397.2937750000001)]</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>[(0.3, 399.0), (0.3, 398.64), (3.915, 398.909625), (3.915, 398.62962500000003), (3.915, 398.909625), (3.915, 398.719625), (10.615, 398.742125), (10.615, 398.552125), (0.3, 398.64), (0.3, 398.28), (3.915, 398.62962500000003), (3.915, 398.349625), (3.915, 398.719625), (3.915, 398.529625), (10.615, 398.552125), (10.615, 398.362125)]</t>
+          <t>[(0.300000000001489, 399.0), (0.300000000001489, 398.83), (3.915, 398.90962500000006), (3.915, 398.73962500000005), (3.915, 398.90962500000006), (3.915, 398.7596250000001), (10.615, 398.74212500000004), (10.615, 398.59212500000007), (0.300000000001489, 398.83), (0.300000000001489, 398.53), (3.915, 398.73962500000005), (3.915, 398.59962500000006), (3.915, 398.7596250000001), (3.915, 398.59962500000006), (10.615, 398.59212500000007), (10.615, 398.29212500000006)]</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>[(0.3, 400.0), (0.3, 399.63), (3.973, 399.908175), (3.973, 399.63817500000005), (3.973, 399.908175), (3.973, 399.728175), (10.684, 399.7404), (10.684, 399.5604), (0.3, 399.63), (0.3, 399.26), (3.973, 399.63817500000005), (3.973, 399.368175), (3.973, 399.728175), (3.973, 399.548175), (10.684, 399.5604), (10.684, 399.3804)]</t>
+          <t>[(0.300000000003121, 400.0), (0.300000000003121, 399.76), (3.973, 399.9081750000001), (3.973, 399.7681750000001), (3.973, 399.9081750000001), (3.973, 399.7781750000001), (10.684, 399.7404000000001), (10.684, 399.6104000000001), (0.300000000003121, 399.76), (0.300000000003121, 399.52), (3.973, 399.7681750000001), (3.973, 399.6281750000001), (3.973, 399.7781750000001), (3.973, 399.6281750000001), (10.684, 399.6104000000001), (10.684, 399.3104000000001)]</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>[(0.3, 401.0), (0.3, 400.62), (4.03, 400.90675), (4.03, 400.62675), (4.03, 400.90675), (4.03, 400.71675), (10.741, 400.738975), (10.741, 400.548975), (0.3, 400.62), (0.3, 400.24), (4.03, 400.62675), (4.03, 400.34675), (4.03, 400.71675), (4.03, 400.52675), (10.741, 400.548975), (10.741, 400.358975)]</t>
+          <t>[(0.29999999999285, 401.0), (0.29999999999285, 400.8), (4.03, 400.9067499999998), (4.03, 400.70674999999983), (4.03, 400.9067499999998), (4.03, 400.7367499999998), (10.741, 400.7389749999998), (10.741, 400.5689749999998), (0.29999999999285, 400.8), (0.29999999999285, 400.5), (4.03, 400.70674999999983), (4.03, 400.5967499999998), (4.03, 400.7367499999998), (4.03, 400.5967499999998), (10.741, 400.5689749999998), (10.741, 400.2689749999998)]</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>[(0.3, 402.0), (0.3, 401.58), (4.09, 401.90525), (4.09, 401.57525000000004), (4.09, 401.90525), (4.09, 401.68525), (10.786, 401.73785), (10.786, 401.51784999999995), (0.3, 401.58), (0.3, 401.16), (4.09, 401.57525000000004), (4.09, 401.24525), (4.09, 401.68525), (4.09, 401.46525), (10.786, 401.51784999999995), (10.786, 401.29785)]</t>
+          <t>[(0.299999999999146, 402.0), (0.299999999999146, 401.7), (4.09, 401.90524999999997), (4.09, 401.60524999999996), (4.09, 401.90524999999997), (4.09, 401.63525), (10.786, 401.73785), (10.786, 401.46785), (0.299999999999146, 401.7), (0.299999999999146, 401.41), (4.09, 401.60524999999996), (4.09, 401.47524999999996), (4.09, 401.63525), (4.09, 401.47524999999996), (10.786, 401.46785), (10.786, 401.19784999999996)]</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>[(0.3, 403.0), (0.3, 402.56), (4.145, 402.903875), (4.145, 402.56387500000005), (4.145, 402.903875), (4.145, 402.733875), (10.897, 402.735075), (10.897, 402.565075), (0.3, 402.56), (0.3, 402.12), (4.145, 402.56387500000005), (4.145, 402.223875), (4.145, 402.733875), (4.145, 402.56387500000005), (10.897, 402.565075), (10.897, 402.395075)]</t>
+          <t>[(0.300000000005918, 403.0), (0.300000000005918, 402.67), (4.145, 402.90387500000014), (4.145, 402.6738750000001), (4.145, 402.90387500000014), (4.145, 402.6738750000001), (10.8000000000032, 402.73750000000007), (10.8000000000032, 402.4175000000001), (0.300000000005918, 402.67), (0.300000000005918, 402.34), (4.145, 402.6738750000001), (4.145, 402.44387500000016), (4.145, 402.6738750000001), (4.145, 402.44387500000016), (10.8000000000032, 402.4175000000001), (10.8000000000032, 402.0975000000001)]</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>[(0.3, 404.0), (0.3, 403.52), (4.211, 403.902225), (4.211, 403.522225), (4.211, 403.902225), (4.211, 403.712225), (10.928, 403.7343), (10.928, 403.5443), (0.3, 403.52), (0.3, 403.04), (4.211, 403.522225), (4.211, 403.142225), (4.211, 403.712225), (4.211, 403.522225), (10.928, 403.5443), (10.928, 403.3543)]</t>
+          <t>[(0.300000000004419, 404.0), (0.300000000004419, 403.62), (4.211, 403.9022250000001), (4.211, 403.6122250000001), (4.211, 403.9022250000001), (4.211, 403.6122250000001), (10.8000000000032, 403.7375), (10.8000000000032, 403.3675), (0.300000000004419, 403.62), (0.300000000004419, 403.24), (4.211, 403.6122250000001), (4.211, 403.3222250000001), (4.211, 403.6122250000001), (4.211, 403.3222250000001), (10.8000000000032, 403.3675), (10.8000000000032, 402.9975)]</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>[(0.3, 405.0), (0.3, 404.52), (4.264, 404.9009), (4.264, 404.5309), (4.264, 404.9009), (4.264, 404.7109), (10.962, 404.73345), (10.962, 404.54345), (0.3, 404.52), (0.3, 404.04), (4.264, 404.5309), (4.264, 404.16089999999997), (4.264, 404.7109), (4.264, 404.5209), (10.962, 404.54345), (10.962, 404.35345)]</t>
+          <t>[(0.300000000004935, 405.0), (0.300000000004935, 404.6), (4.264, 404.90090000000015), (4.264, 404.61090000000013), (4.264, 404.90090000000015), (4.264, 404.61090000000013), (10.8000000000032, 404.73750000000007), (10.8000000000032, 404.37750000000005), (0.300000000004935, 404.6), (0.300000000004935, 404.2), (4.264, 404.61090000000013), (4.264, 404.32090000000017), (4.264, 404.61090000000013), (4.264, 404.32090000000017), (10.8000000000032, 404.37750000000005), (10.8000000000032, 404.01750000000004)]</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>[(0.3, 406.0), (0.3, 405.57), (4.299, 405.900025), (4.299, 405.58002500000003), (4.299, 405.900025), (4.299, 405.740025), (11.032, 405.7317), (11.032, 405.57169999999996), (0.3, 405.57), (0.3, 405.14), (4.299, 405.58002500000003), (4.299, 405.26002500000004), (4.299, 405.740025), (4.299, 405.58002500000003), (11.032, 405.57169999999996), (11.032, 405.4117)]</t>
+          <t>[(0.300000000004419, 406.0), (0.300000000004419, 405.64), (4.299, 405.9000250000001), (4.299, 405.6400250000001), (4.299, 405.9000250000001), (4.299, 405.6400250000001), (10.8000000000027, 405.73750000000007), (10.8000000000027, 405.4175000000001), (0.300000000004419, 405.64), (0.300000000004419, 405.28), (4.299, 405.6400250000001), (4.299, 405.3800250000001), (4.299, 405.6400250000001), (4.299, 405.3800250000001), (10.8000000000027, 405.4175000000001), (10.8000000000027, 405.0975000000001)]</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>[(0.3, 407.0), (0.3, 406.6), (4.344, 406.8989), (4.344, 406.6089), (4.344, 406.8989), (4.344, 406.74890000000005), (11.063, 406.730925), (11.063, 406.58092500000004), (0.3, 406.6), (0.3, 406.2), (4.344, 406.6089), (4.344, 406.31890000000004), (4.344, 406.74890000000005), (4.344, 406.5989), (11.063, 406.58092500000004), (11.063, 406.430925)]</t>
+          <t>[(0.300000000004419, 407.0), (0.300000000004419, 406.66), (4.344, 406.8989000000001), (4.344, 406.6589000000001), (4.344, 406.8989000000001), (4.344, 406.6589000000001), (10.8000000000032, 406.7375), (10.8000000000032, 406.4075), (0.300000000004419, 406.66), (0.300000000004419, 406.32), (4.344, 406.6589000000001), (4.344, 406.41890000000006), (4.344, 406.6589000000001), (4.344, 406.41890000000006), (10.8000000000032, 406.4075), (10.8000000000032, 406.0775)]</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>[(0.3, 408.0), (0.3, 407.64), (4.28, 407.9005), (4.28, 407.6505), (4.28, 407.9005), (4.28, 407.7305), (10.988, 407.7328), (10.988, 407.5628), (0.3, 407.64), (0.3, 407.28), (4.28, 407.6505), (4.28, 407.4005), (4.28, 407.7305), (4.28, 407.56050000000005), (10.988, 407.5628), (10.988, 407.3928)]</t>
+          <t>[(0.300000000004419, 408.0), (0.300000000004419, 407.68), (4.28, 407.90050000000014), (4.28, 407.69050000000016), (4.28, 407.90050000000014), (4.28, 407.62050000000016), (10.8000000000027, 407.73750000000007), (10.8000000000027, 407.4575000000001), (0.300000000004419, 407.68), (0.300000000004419, 407.36), (4.28, 407.69050000000016), (4.28, 407.4805000000001), (4.28, 407.62050000000016), (4.28, 407.4805000000001), (10.8000000000027, 407.4575000000001), (10.8000000000027, 407.17750000000007)]</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>[(0.3, 409.0), (0.3, 408.71), (4.186, 408.90285), (4.186, 408.61285), (4.186, 408.90285), (4.186, 408.69285), (10.852, 408.7362), (10.852, 408.5262), (0.3, 408.71), (0.3, 408.42), (4.186, 408.61285), (4.186, 408.48285), (4.186, 408.69285), (4.186, 408.48285), (10.852, 408.5262), (10.852, 408.3562)]</t>
+          <t>[(0.300000000004419, 409.0), (0.300000000004419, 408.78), (4.186, 408.9028500000001), (4.186, 408.6828500000001), (4.186, 408.9028500000001), (4.186, 408.69285000000013), (10.8000000000032, 408.7375), (10.8000000000032, 408.52750000000003), (0.300000000004419, 408.78), (0.300000000004419, 408.48), (4.186, 408.6828500000001), (4.186, 408.5428500000001), (4.186, 408.69285000000013), (4.186, 408.5428500000001), (10.8000000000032, 408.52750000000003), (10.8000000000032, 408.2275)]</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>[(0.3, 410.0), (0.3, 409.76), (4.012, 409.9072), (4.012, 409.7672), (4.012, 409.9072), (4.012, 409.7572), (10.748, 409.7388), (10.748, 409.58880000000005), (0.3, 409.76), (0.3, 409.52), (4.012, 409.7672), (4.012, 409.6272), (4.012, 409.7572), (4.012, 409.6272), (10.748, 409.58880000000005), (10.748, 409.4388)]</t>
+          <t>[(0.300000000004419, 410.0), (0.300000000004419, 409.78), (4.012, 409.9072000000001), (4.012, 409.7872000000001), (4.012, 409.9072000000001), (4.012, 409.7872000000001), (10.748, 409.7388000000001), (10.748, 409.50880000000006), (0.300000000004419, 409.78), (0.300000000004419, 409.56), (4.012, 409.7872000000001), (4.012, 409.6672000000001), (4.012, 409.7872000000001), (4.012, 409.6672000000001), (10.748, 409.50880000000006), (10.748, 409.2788000000001)]</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>[(0.3, 411.0), (0.3, 410.88), (3.816, 410.9121), (3.816, 410.7921), (3.816, 410.9121), (3.816, 410.7821), (10.604, 410.7424), (10.604, 410.6124), (0.3, 410.88), (0.3, 410.58), (3.816, 410.7921), (3.816, 410.6621), (3.816, 410.7821), (3.816, 410.6621), (10.604, 410.6124), (10.604, 410.4924)]</t>
+          <t>[(0.300000000004419, 411.0), (0.300000000004419, 410.89), (3.816, 410.9121000000001), (3.816, 410.8021000000001), (3.816, 410.9121000000001), (3.816, 410.8021000000001), (10.604, 410.7424000000001), (10.604, 410.6324000000001), (0.300000000004419, 410.89), (0.300000000004419, 410.59), (3.816, 410.8021000000001), (3.816, 410.6621000000001), (3.816, 410.8021000000001), (3.816, 410.6621000000001), (10.604, 410.6324000000001), (10.604, 410.3424000000001)]</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>[(0.3, 412.0), (0.3, 411.89), (3.68, 411.9155), (3.68, 411.8055), (3.68, 411.9155), (3.68, 411.7855), (10.422, 411.74695), (10.422, 411.61695000000003), (0.3, 411.89), (0.3, 411.61), (3.68, 411.8055), (3.68, 411.6655), (3.68, 411.7855), (3.68, 411.6655), (10.422, 411.61695000000003), (10.422, 411.49695)]</t>
+          <t>[(0.300000000004419, 412.0), (0.300000000004419, 411.89), (3.68, 411.9155000000001), (3.68, 411.8055000000001), (3.68, 411.9155000000001), (3.68, 411.8055000000001), (10.422, 411.7469500000001), (10.422, 411.63695000000007), (0.300000000004419, 411.89), (0.300000000004419, 411.62), (3.68, 411.8055000000001), (3.68, 411.6655000000001), (3.68, 411.8055000000001), (3.68, 411.6655000000001), (10.422, 411.63695000000007), (10.422, 411.33695000000006)]</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>[(0.3, 413.0), (0.3, 412.83), (3.331, 412.95854408488174), (3.331, 412.7885440848817), (3.331, 412.95854408488174), (3.331, 412.7885440848817), (10.254, 412.8638560939995), (10.254, 412.6938560939995), (0.3, 412.83), (0.3, 412.66), (3.331, 412.7885440848817), (3.331, 412.6685440848817), (3.331, 412.7885440848817), (3.331, 412.6685440848817), (10.254, 412.6938560939995), (10.254, 412.53385609399953)]</t>
+          <t>[(0.300000000004419, 413.0), (0.300000000004419, 412.83), (3.331, 412.9585440848818), (3.331, 412.7885440848818), (3.331, 412.9585440848818), (3.331, 412.8185440848818), (10.254, 412.8638560939996), (10.254, 412.6038560939996), (0.300000000004419, 412.83), (0.300000000004419, 412.67), (3.331, 412.7885440848818), (3.331, 412.6785440848818), (3.331, 412.8185440848818), (3.331, 412.6785440848818), (10.254, 412.6038560939996), (10.254, 412.3438560939996)]</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>[(0.3, 414.0), (0.3, 413.82), (3.32, 414.03419453525), (3.32, 413.85419453525), (3.32, 414.03419453525), (3.32, 413.83419453525), (10.037, 414.1102490694468), (10.037, 413.9102490694468), (0.3, 413.82), (0.3, 413.65), (3.32, 413.85419453525), (3.32, 413.72419453525), (3.32, 413.83419453525), (3.32, 413.72419453525), (10.037, 413.9102490694468), (10.037, 413.6102490694468)]</t>
+          <t>[(0.30000000001934, 414.0), (0.30000000001934, 413.83), (3.32, 414.0341945352498), (3.32, 413.8641945352498), (3.32, 414.0341945352498), (3.32, 413.88419453524983), (10.037, 414.1102490694466), (10.037, 413.7702490694466), (0.30000000001934, 413.83), (0.30000000001934, 413.66), (3.32, 413.8641945352498), (3.32, 413.7341945352498), (3.32, 413.88419453524983), (3.32, 413.7341945352498), (10.037, 413.7702490694466), (10.037, 413.4302490694466)]</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>[(0.3, 415.0), (0.3, 414.87), (3.147, 415.07828001346167), (3.147, 414.94828001346167), (3.147, 415.07828001346167), (3.147, 414.8082800134617), (9.826, 415.2619232203146), (9.826, 414.9919232203146), (0.3, 414.87), (0.3, 414.74), (3.147, 414.94828001346167), (3.147, 414.8182800134617), (3.147, 414.8082800134617), (3.147, 414.69828001346167), (9.826, 414.9919232203146), (9.826, 414.7219232203146), (0.3, 414.74), (0.3, 414.63), (3.147, 414.8182800134617), (3.147, 414.69828001346167), (3.147, 414.69828001346167), (3.147, 414.69828001346167), (9.826, 414.7219232203146), (9.826, 414.7219232203146)]</t>
+          <t>[(0.299999999998494, 415.0), (0.299999999998494, 414.81), (3.147, 415.07828001346167), (3.147, 414.88828001346167), (3.147, 415.07828001346167), (3.147, 414.89828001346166), (9.826, 415.2619232203146), (9.826, 414.9019232203146), (0.299999999998494, 414.81), (0.299999999998494, 414.64), (3.147, 414.88828001346167), (3.147, 414.70828001346166), (3.147, 414.89828001346166), (3.147, 414.71828001346165), (9.826, 414.9019232203146), (9.826, 414.5419232203146)]</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>[(0.3, 416.0), (0.3, 415.89), (2.944, 416.0872673833827), (2.944, 415.9772673833827), (2.944, 416.0872673833827), (2.944, 415.8972673833827), (9.666, 416.30913249348043), (9.666, 416.11913249348044), (0.3, 415.89), (0.3, 415.72), (2.944, 415.9772673833827), (2.944, 415.7372673833827), (2.944, 415.8972673833827), (2.944, 415.7372673833827), (9.666, 416.11913249348044), (9.666, 415.8191324934804)]</t>
+          <t>[(0.300000000119995, 416.0), (0.300000000119995, 415.89), (2.944, 416.08726738337873), (2.944, 415.9772673833787), (2.944, 416.08726738337873), (2.944, 415.9172673833787), (9.666, 416.3091324934765), (9.666, 415.96913249347654), (0.300000000119995, 415.89), (0.300000000119995, 415.73), (2.944, 415.9772673833787), (2.944, 415.74726738337876), (2.944, 415.9172673833787), (2.944, 415.74726738337876), (9.666, 415.96913249347654), (9.666, 415.6291324934765)]</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>[(0.3, 417.0), (0.3, 416.83), (2.95, 417.10206745910835), (2.95, 416.93206745910834), (2.95, 417.10206745910835), (2.95, 416.8820674591083), (9.532, 417.3555799179202), (9.532, 417.13557991792015), (0.3, 416.83), (0.3, 416.7), (2.95, 416.93206745910834), (2.95, 416.7620674591084), (2.95, 416.8820674591083), (2.95, 416.7620674591084), (9.532, 417.13557991792015), (9.532, 416.9155799179202)]</t>
+          <t>[(0.300000000038611, 417.0), (0.300000000038611, 416.83), (2.95, 417.1020674591069), (2.95, 416.93206745910686), (2.95, 417.1020674591069), (2.95, 416.94206745910685), (9.532, 417.35557991791865), (9.532, 417.04557991791864), (0.300000000038611, 416.83), (0.300000000038611, 416.71), (2.95, 416.93206745910686), (2.95, 416.7720674591069), (2.95, 416.94206745910685), (2.95, 416.7820674591069), (9.532, 417.04557991791864), (9.532, 416.73557991791864)]</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>[(0.3, 418.0), (0.3, 417.85), (3.085, 418.1226130404869), (3.085, 417.9726130404869), (3.085, 418.1226130404869), (3.085, 418.0126130404869), (9.74, 418.4156075770902), (9.74, 418.3056075770902), (0.3, 417.85), (0.3, 417.73), (3.085, 417.9726130404869), (3.085, 417.8326130404869), (3.085, 418.0126130404869), (3.085, 417.8326130404869), (9.74, 418.3056075770902), (9.74, 418.0056075770902)]</t>
+          <t>[(0.300000000149617, 418.0), (0.300000000149617, 417.85), (3.085, 418.1226130404803), (3.085, 417.9726130404803), (3.085, 418.1226130404803), (3.085, 417.9826130404803), (9.74, 418.4156075770836), (9.74, 418.1156075770836), (0.300000000149617, 417.85), (0.300000000149617, 417.74), (3.085, 417.9726130404803), (3.085, 417.84261304048033), (3.085, 417.9826130404803), (3.085, 417.84261304048033), (9.74, 418.1156075770836), (9.74, 417.8156075770836)]</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>[(0.3, 419.0), (0.3, 418.85), (3.261, 419.14667737061666), (3.261, 418.9966773706167), (3.261, 419.14667737061666), (3.261, 419.02667737061665), (9.885, 419.47480668603873), (9.885, 419.3548066860387), (0.3, 418.85), (0.3, 418.72), (3.261, 418.9966773706167), (3.261, 418.85667737061664), (3.261, 419.02667737061665), (3.261, 418.85667737061664), (9.885, 419.3548066860387), (9.885, 419.0548066860387)]</t>
+          <t>[(0.300000000018904, 419.0), (0.300000000018904, 418.85), (3.261, 419.14667737061575), (3.261, 418.99667737061577), (3.261, 419.14667737061575), (3.261, 419.00667737061576), (9.885, 419.4748066860378), (9.885, 419.1748066860378), (0.300000000018904, 418.85), (0.300000000018904, 418.73), (3.261, 418.99667737061577), (3.261, 418.8666773706158), (3.261, 419.00667737061576), (3.261, 418.8666773706158), (9.885, 419.1748066860378), (9.885, 418.8748066860378)]</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>[(0.3, 420.0), (0.3, 419.84), (3.444, 420.173066619025), (3.444, 420.013066619025), (3.444, 420.173066619025), (3.444, 420.043066619025), (10.072, 420.53791571282204), (10.072, 420.40791571282205), (0.3, 419.84), (0.3, 419.72), (3.444, 420.013066619025), (3.444, 419.863066619025), (3.444, 420.043066619025), (3.444, 419.863066619025), (10.072, 420.40791571282205), (10.072, 420.10791571282203)]</t>
+          <t>[(0.300000000157206, 420.0), (0.300000000157206, 419.84), (3.444, 420.17306661901637), (3.444, 420.01306661901634), (3.444, 420.17306661901637), (3.444, 420.01306661901634), (10.072, 420.53791571281334), (10.072, 420.22791571281334), (0.300000000157206, 419.84), (0.300000000157206, 419.73), (3.444, 420.01306661901634), (3.444, 419.86306661901637), (3.444, 420.01306661901634), (3.444, 419.8530666190164), (10.072, 420.22791571281334), (10.072, 419.91791571281334)]</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>[(0.3, 421.0), (0.3, 420.89), (3.596, 421.1995953401297), (3.596, 421.0895953401297), (3.596, 421.1995953401297), (3.596, 420.9595953401297), (10.259, 421.60308555593184), (10.259, 421.36308555593183), (0.3, 420.89), (0.3, 420.73), (3.596, 421.0895953401297), (3.596, 420.84959534012967), (3.596, 420.9595953401297), (3.596, 420.84959534012967), (10.259, 421.36308555593183), (10.259, 421.1330855559318)]</t>
+          <t>[(0.299999999996219, 421.0), (0.299999999996219, 420.89), (3.596, 421.1995953401299), (3.596, 421.0895953401299), (3.596, 421.1995953401299), (3.596, 420.9695953401299), (10.259, 421.60308555593207), (10.259, 421.37308555593205), (0.299999999996219, 420.89), (0.299999999996219, 420.73), (3.596, 421.0895953401299), (3.596, 420.8495953401299), (3.596, 420.9695953401299), (3.596, 420.8495953401299), (10.259, 421.37308555593205), (10.259, 421.1430855559321)]</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>[(0.3, 422.0), (0.3, 421.89), (3.659, 422.22191919647366), (3.659, 422.11191919647365), (3.659, 422.22191919647366), (3.659, 422.00191919647364), (10.693, 422.68663477491833), (10.693, 422.4666347749183), (0.3, 421.89), (0.3, 421.74), (3.659, 422.11191919647365), (3.659, 421.87191919647364), (3.659, 422.00191919647364), (3.659, 421.87191919647364), (10.693, 422.4666347749183), (10.693, 422.16663477491835)]</t>
+          <t>[(0.299999999990819, 422.0), (0.299999999990819, 421.89), (3.659, 422.2219191964743), (3.659, 422.1119191964743), (3.659, 422.2219191964743), (3.659, 422.00191919647426), (10.693, 422.68663477491896), (10.693, 422.46663477491893), (0.299999999990819, 421.89), (0.299999999990819, 421.75), (3.659, 422.1119191964743), (3.659, 421.87191919647427), (3.659, 422.00191919647426), (3.659, 421.87191919647427), (10.693, 422.46663477491893), (10.693, 422.166634774919)]</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>[(0.3, 423.0), (0.3, 422.82), (3.71, 423.2387), (3.71, 423.0587), (3.71, 423.2387), (3.71, 423.0587), (12.723, 423.86961), (12.723, 423.56961), (0.3, 422.82), (0.3, 422.7), (3.71, 423.0587), (3.71, 422.8887), (3.71, 423.0587), (3.71, 422.8787), (12.723, 423.56961), (12.723, 423.26961)]</t>
+          <t>[(0.299999999996281, 423.0), (0.299999999996281, 422.82), (3.71, 423.2387000000003), (3.71, 423.0587000000003), (3.71, 423.2387000000003), (3.71, 423.0587000000003), (12.723, 423.86961000000025), (12.723, 423.4696100000003), (0.299999999996281, 422.82), (0.299999999996281, 422.71), (3.71, 423.0587000000003), (3.71, 422.88870000000026), (3.71, 423.0587000000003), (3.71, 422.87870000000026), (12.723, 423.4696100000003), (12.723, 423.06961000000024)]</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>[(0.3, 424.0), (0.3, 423.89), (3.875, 424.25025), (3.875, 424.14025), (3.875, 424.25025), (3.875, 424.09024999999997), (13.879, 424.95053), (13.879, 424.63053), (0.3, 423.89), (0.3, 423.75), (3.875, 424.14025), (3.875, 423.92025), (3.875, 424.09024999999997), (3.875, 423.93025), (13.879, 424.63053), (13.879, 424.31053)]</t>
+          <t>[(0.299999999999207, 424.0), (0.299999999999207, 423.89), (3.875, 424.25025000000005), (3.875, 424.14025000000004), (3.875, 424.25025000000005), (3.875, 424.09025), (13.879, 424.9505300000001), (13.879, 424.53053000000006), (0.299999999999207, 423.89), (0.299999999999207, 423.75), (3.875, 424.14025000000004), (3.875, 423.92025000000007), (3.875, 424.09025), (3.875, 423.93025000000006), (13.879, 424.53053000000006), (13.879, 424.1105300000001)]</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>[(0.3, 425.0), (0.3, 424.89), (4.003, 425.25921), (4.003, 425.14921), (4.003, 425.25921), (4.003, 425.09920999999997), (14.677, 426.00639), (14.677, 425.62639), (0.3, 424.89), (0.3, 424.75), (4.003, 425.14921), (4.003, 424.94921), (4.003, 425.09920999999997), (4.003, 424.93921), (14.677, 425.62639), (14.677, 425.24639)]</t>
+          <t>[(0.300000000004089, 425.0), (0.300000000004089, 424.89), (4.003, 425.2592099999997), (4.003, 425.1492099999997), (4.003, 425.2592099999997), (4.003, 425.0992099999997), (14.6434624162476, 426.00404236913704), (14.6434624162476, 425.524042369137), (0.300000000004089, 424.89), (0.300000000004089, 424.75), (4.003, 425.1492099999997), (4.003, 424.9492099999997), (4.003, 425.0992099999997), (4.003, 424.9392099999997), (14.6434624162476, 425.524042369137), (14.6434624162476, 425.04404236913706)]</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>[(0.3, 426.0), (0.3, 425.83), (4.12, 426.2674), (4.12, 426.0974), (4.12, 426.2674), (4.12, 426.0974), (13.679, 426.93653), (13.679, 426.63653), (0.3, 425.83), (0.3, 425.71), (4.12, 426.0974), (4.12, 425.92740000000003), (4.12, 426.0974), (4.12, 425.92740000000003), (13.679, 426.63653), (13.679, 426.33653)]</t>
+          <t>[(0.299999999993094, 426.0), (0.299999999993094, 425.83), (4.12, 426.26740000000046), (4.12, 426.09740000000045), (4.12, 426.26740000000046), (4.12, 426.10740000000044), (10.7999999999948, 426.7350000000001), (10.7999999999948, 426.4350000000001), (0.299999999993094, 425.83), (0.299999999993094, 425.72), (4.12, 426.09740000000045), (4.12, 425.9374000000005), (4.12, 426.10740000000044), (4.12, 425.94740000000047), (10.7999999999948, 426.4350000000001), (10.7999999999948, 426.1350000000001)]</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>[(0.3, 429.0), (0.3, 428.83), (4.525, 429.29575), (4.525, 429.12575), (4.525, 429.29575), (4.525, 429.12575), (16.098, 430.10586), (16.098, 429.70586000000003), (0.3, 428.83), (0.3, 428.71), (4.525, 429.12575), (4.525, 428.95575), (4.525, 429.12575), (4.525, 428.95575), (16.098, 429.70586000000003), (16.098, 429.30586)]</t>
+          <t>[(0.29999999999805, 429.0), (0.29999999999805, 428.83), (4.525, 429.2957500000001), (4.525, 429.1257500000001), (4.525, 429.2957500000001), (4.525, 429.1257500000001), (14.3870884155753, 429.9860961890904), (14.3870884155753, 429.5460961890904), (0.29999999999805, 428.83), (0.29999999999805, 428.71), (4.525, 429.1257500000001), (4.525, 428.95575000000014), (4.525, 429.1257500000001), (4.525, 428.95575000000014), (14.3870884155753, 429.5460961890904), (14.3870884155753, 429.1060961890904)]</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>[(0.3, 430.0), (0.3, 429.82), (4.498, 430.29386), (4.498, 430.11386), (4.498, 430.29386), (4.498, 430.11386), (15.169, 431.04083), (15.169, 430.71083000000004), (0.3, 429.82), (0.3, 429.68), (4.498, 430.11386), (4.498, 429.93386), (4.498, 430.11386), (4.498, 429.93386), (15.169, 430.71083000000004), (15.169, 430.38083)]</t>
+          <t>[(0.300000000001445, 430.0), (0.300000000001445, 429.82), (4.498, 430.2938599999999), (4.498, 430.1138599999999), (4.498, 430.2938599999999), (4.498, 430.1138599999999), (14.3020535306136, 430.98014374714285), (14.3020535306136, 430.58014374714287), (0.300000000001445, 429.82), (0.300000000001445, 429.69), (4.498, 430.1138599999999), (4.498, 429.93385999999987), (4.498, 430.1138599999999), (4.498, 429.93385999999987), (14.3020535306136, 430.58014374714287), (14.3020535306136, 430.18014374714284)]</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>[(0.3, 431.0), (0.3, 430.81), (4.508, 431.29456), (4.508, 431.10456), (4.508, 431.29456), (4.508, 431.10456), (14.618, 432.00226), (14.618, 431.68226), (0.3, 430.81), (0.3, 430.66), (4.508, 431.10456), (4.508, 430.91456), (4.508, 431.10456), (4.508, 430.91456), (14.618, 431.68226), (14.618, 431.36226)]</t>
+          <t>[(0.300000000005125, 431.0), (0.300000000005125, 430.81), (4.508, 431.29455999999965), (4.508, 431.10455999999965), (4.508, 431.29455999999965), (4.508, 431.10455999999965), (14.299999999924, 431.97999999999433), (14.299999999924, 431.57999999999436), (0.300000000005125, 430.81), (0.300000000005125, 430.67), (4.508, 431.10455999999965), (4.508, 430.91455999999965), (4.508, 431.10455999999965), (4.508, 430.91455999999965), (14.299999999924, 431.57999999999436), (14.299999999924, 431.1799999999943)]</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>[(0.3, 432.0), (0.3, 431.83), (4.454, 432.29078), (4.454, 432.12077999999997), (4.454, 432.29078), (4.454, 432.12077999999997), (13.86, 432.9492), (13.86, 432.6292), (0.3, 431.83), (0.3, 431.69), (4.454, 432.12077999999997), (4.454, 431.95078), (4.454, 432.12077999999997), (4.454, 431.95078), (13.86, 432.6292), (13.86, 432.30920000000003)]</t>
+          <t>[(0.300000000001729, 432.0), (0.300000000001729, 431.83), (4.454, 432.29077999999987), (4.454, 432.12077999999985), (4.454, 432.29077999999987), (4.454, 432.12077999999985), (13.86, 432.9491999999999), (13.86, 432.5391999999999), (0.300000000001729, 431.83), (0.300000000001729, 431.69), (4.454, 432.12077999999985), (4.454, 431.9507799999999), (4.454, 432.12077999999985), (4.454, 431.9507799999999), (13.86, 432.5391999999999), (13.86, 432.1291999999999)]</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>[(0.3, 433.0), (0.3, 432.84), (4.298, 433.27986), (4.298, 433.11985999999996), (4.298, 433.27986), (4.298, 433.10985999999997), (11.103, 433.75621), (11.103, 433.58621), (0.3, 432.84), (0.3, 432.73), (4.298, 433.11985999999996), (4.298, 432.95986), (4.298, 433.10985999999997), (4.298, 432.95986), (11.103, 433.58621), (11.103, 433.28621)]</t>
+          <t>[(0.30000000000466, 433.0), (0.30000000000466, 432.84), (4.298, 433.2798599999997), (4.298, 433.1198599999997), (4.298, 433.2798599999997), (4.298, 433.1098599999997), (11.103, 433.75620999999967), (11.103, 433.58620999999965), (0.30000000000466, 432.84), (0.30000000000466, 432.73), (4.298, 433.1198599999997), (4.298, 432.9598599999997), (4.298, 433.1098599999997), (4.298, 432.9598599999997), (11.103, 433.58620999999965), (11.103, 433.28620999999964)]</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>[(0.3, 434.0), (0.3, 433.83), (3.992, 434.2564938634355), (3.992, 434.08649386343546), (3.992, 434.2564938634355), (3.992, 434.02649386343546), (10.131, 434.68298785791825), (10.131, 434.45298785791823), (0.3, 433.83), (0.3, 433.72), (3.992, 434.08649386343546), (3.992, 433.9164938634355), (3.992, 434.02649386343546), (3.992, 433.9164938634355), (10.131, 434.45298785791823), (10.131, 434.23298785791826)]</t>
+          <t>[(0.300000000046146, 434.0), (0.300000000046146, 433.83), (3.992, 434.25649386343224), (3.992, 434.0864938634322), (3.992, 434.25649386343224), (3.992, 434.0264938634322), (10.131, 434.682987857915), (10.131, 434.452987857915), (0.300000000046146, 433.83), (0.300000000046146, 433.72), (3.992, 434.0864938634322), (3.992, 433.91649386343227), (3.992, 434.0264938634322), (3.992, 433.91649386343227), (10.131, 434.452987857915), (10.131, 434.232987857915)]</t>
         </is>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>[(0.3, 435.0), (0.3, 434.84), (3.596, 435.210820971324), (3.596, 435.05082097132396), (3.596, 435.210820971324), (3.596, 435.010820971324), (9.769, 435.6056625538431), (9.769, 435.4056625538431), (0.3, 434.84), (0.3, 434.71), (3.596, 435.05082097132396), (3.596, 434.890820971324), (3.596, 435.010820971324), (3.596, 434.890820971324), (9.769, 435.4056625538431), (9.769, 435.2156625538431)]</t>
+          <t>[(0.300000000043094, 435.0), (0.300000000043094, 434.84), (3.596, 435.21082097132125), (3.596, 435.05082097132123), (3.596, 435.21082097132125), (3.596, 435.02082097132126), (9.769, 435.6056625538404), (9.769, 435.4156625538404), (0.300000000043094, 434.84), (0.300000000043094, 434.72), (3.596, 435.05082097132123), (3.596, 434.89082097132126), (3.596, 435.02082097132126), (3.596, 434.89082097132126), (9.769, 435.4156625538404), (9.769, 435.2256625538404)]</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>[(0.3, 436.0), (0.3, 435.82), (3.574, 436.1913733843473), (3.574, 436.0113733843473), (3.574, 436.1913733843473), (3.574, 435.97137338434726), (9.962, 436.56476775796074), (9.962, 436.3447677579607), (0.3, 435.82), (0.3, 435.68), (3.574, 436.0113733843473), (3.574, 435.84137338434726), (3.574, 435.97137338434726), (3.574, 435.84137338434726), (9.962, 436.3447677579607), (9.962, 436.13476775796073)]</t>
+          <t>[(0.300000000086018, 436.0), (0.300000000086018, 435.82), (3.574, 436.1913733843423), (3.574, 436.0113733843423), (3.574, 436.1913733843423), (3.574, 435.97137338434226), (9.962, 436.56476775795574), (9.962, 436.3447677579557), (0.300000000086018, 435.82), (0.300000000086018, 435.68), (3.574, 436.0113733843423), (3.574, 435.84137338434226), (3.574, 435.97137338434226), (3.574, 435.84137338434226), (9.962, 436.3447677579557), (9.962, 436.13476775795573)]</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>[(0.3, 437.0), (0.3, 436.82), (3.644, 437.1770389347463), (3.644, 436.9970389347463), (3.644, 437.1770389347463), (3.644, 436.95703893474627), (10.039, 437.5156047205425), (10.039, 437.2956047205425), (0.3, 436.82), (0.3, 436.68), (3.644, 436.9970389347463), (3.644, 436.8170389347463), (3.644, 436.95703893474627), (3.644, 436.8170389347463), (10.039, 437.2956047205425), (10.039, 437.0756047205425)]</t>
+          <t>[(0.300000000038335, 437.0), (0.300000000038335, 436.82), (3.644, 437.17703893474425), (3.644, 436.99703893474424), (3.644, 437.17703893474425), (3.644, 436.9570389347442), (10.039, 437.51560472054047), (10.039, 437.29560472054044), (0.300000000038335, 436.82), (0.300000000038335, 436.68), (3.644, 436.99703893474424), (3.644, 436.81703893474423), (3.644, 436.9570389347442), (3.644, 436.81703893474423), (10.039, 437.29560472054044), (10.039, 437.07560472054047)]</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>[(0.3, 438.0), (0.3, 437.82), (3.623, 438.1576167390144), (3.623, 437.97761673901437), (3.623, 438.1576167390144), (3.623, 437.92761673901435), (10.008, 438.46047044909756), (10.008, 438.23047044909754), (0.3, 437.82), (0.3, 437.69), (3.623, 437.97761673901437), (3.623, 437.80761673901435), (3.623, 437.92761673901435), (3.623, 437.80761673901435), (10.008, 438.23047044909754), (10.008, 438.01047044909757)]</t>
+          <t>[(0.300000000098514, 438.0), (0.300000000098514, 437.82), (3.623, 438.15761673900965), (3.623, 437.97761673900965), (3.623, 438.15761673900965), (3.623, 437.92761673900964), (10.008, 438.4604704490929), (10.008, 438.2304704490929), (0.300000000098514, 437.82), (0.300000000098514, 437.69), (3.623, 437.97761673900965), (3.623, 437.80761673900963), (3.623, 437.92761673900964), (3.623, 437.80761673900963), (10.008, 438.2304704490929), (10.008, 438.0104704490929)]</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>[(0.3, 439.0), (0.3, 438.84), (3.579, 439.13746176914253), (3.579, 438.9774617691425), (3.579, 439.13746176914253), (3.579, 438.9674617691425), (9.279, 439.3764163541113), (9.279, 439.2064163541113), (0.3, 438.84), (0.3, 438.69), (3.579, 438.9774617691425), (3.579, 438.8474617691425), (3.579, 438.9674617691425), (3.579, 438.8474617691425), (9.279, 439.2064163541113), (9.279, 439.04641635411133)]</t>
+          <t>[(0.300000000020862, 439.0), (0.300000000020862, 438.84), (3.579, 439.1374617691417), (3.579, 438.97746176914166), (3.579, 439.1374617691417), (3.579, 438.96746176914166), (9.279, 439.3764163541104), (9.279, 439.2064163541104), (0.300000000020862, 438.84), (0.300000000020862, 438.69), (3.579, 438.97746176914166), (3.579, 438.84746176914166), (3.579, 438.96746176914166), (3.579, 438.84746176914166), (9.279, 439.2064163541104), (9.279, 439.0464163541104)]</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>[(0.3, 440.0), (0.3, 439.84), (3.417, 440.11349512218413), (3.417, 439.9534951221841), (3.417, 440.11349512218413), (3.417, 439.92349512218414), (8.345, 440.2929317478253), (8.345, 440.1029317478253), (0.3, 439.84), (0.3, 439.68), (3.417, 439.9534951221841), (3.417, 439.79349512218414), (3.417, 439.92349512218414), (3.417, 439.79349512218414), (8.345, 440.1029317478253), (8.345, 439.9229317478253)]</t>
+          <t>[(0.300000000116015, 440.0), (0.300000000116015, 439.84), (3.417, 440.1134951221799), (3.417, 439.9534951221799), (3.417, 440.1134951221799), (3.417, 439.92349512217993), (8.345, 440.29293174782106), (8.345, 440.10293174782106), (0.300000000116015, 439.84), (0.300000000116015, 439.68), (3.417, 439.9534951221799), (3.417, 439.79349512217993), (3.417, 439.92349512217993), (3.417, 439.79349512217993), (8.345, 440.10293174782106), (8.345, 439.92293174782105)]</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>[(0.3, 441.0), (0.3, 440.81), (3.084, 441.08602963359505), (3.084, 440.89602963359505), (3.084, 441.08602963359505), (3.084, 440.87602963359507), (7.736, 441.22978317363965), (7.736, 441.01978317363967), (0.3, 440.81), (0.3, 440.69), (3.084, 440.89602963359505), (3.084, 440.71602963359504), (3.084, 440.87602963359507), (3.084, 440.71602963359504), (7.736, 441.01978317363967), (7.736, 440.80978317363963)]</t>
+          <t>[(0.300000000017975, 441.0), (0.300000000017975, 440.81), (3.084, 441.0860296335945), (3.084, 440.8960296335945), (3.084, 441.0860296335945), (3.084, 440.8760296335945), (7.736, 441.2297831736391), (7.736, 441.0197831736391), (0.300000000017975, 440.81), (0.300000000017975, 440.69), (3.084, 440.8960296335945), (3.084, 440.7160296335945), (3.084, 440.8760296335945), (3.084, 440.7160296335945), (7.736, 441.0197831736391), (7.736, 440.80978317363906)]</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>[(0.3, 442.0), (0.3, 441.81), (2.831, 442.0642652405057), (2.831, 441.8742652405057), (2.831, 442.0642652405057), (2.831, 441.8542652405057), (7.33, 442.17850045071316), (7.33, 441.9685004507132), (0.3, 441.81), (0.3, 441.67), (2.831, 441.8742652405057), (2.831, 441.6842652405057), (2.831, 441.8542652405057), (2.831, 441.6842652405057), (7.33, 441.9685004507132), (7.33, 441.75850045071314)]</t>
+          <t>[(0.300000000119974, 442.0), (0.300000000119974, 441.81), (2.831, 442.06426524050266), (2.831, 441.87426524050267), (2.831, 442.06426524050266), (2.831, 441.8542652405027), (7.33, 442.1785004507101), (7.33, 441.9685004507101), (0.300000000119974, 441.81), (0.300000000119974, 441.67), (2.831, 441.87426524050267), (2.831, 441.68426524050267), (2.831, 441.8542652405027), (2.831, 441.68426524050267), (7.33, 441.9685004507101), (7.33, 441.7585004507101)]</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>[(0.3, 443.0), (0.3, 442.82), (2.668, 443.004203417854), (2.668, 442.824203417854), (2.668, 443.004203417854), (2.668, 442.834203417854), (6.946, 443.01179726142647), (6.946, 442.84179726142645), (0.3, 442.82), (0.3, 442.64), (2.668, 442.824203417854), (2.668, 442.664203417854), (2.668, 442.834203417854), (2.668, 442.664203417854), (6.946, 442.84179726142645), (6.946, 442.6817972614265)]</t>
+          <t>[(0.300000000006756, 443.0), (0.300000000006756, 442.82), (2.668, 443.004203417854), (2.668, 442.824203417854), (2.668, 443.004203417854), (2.668, 442.834203417854), (6.946, 443.0117972614264), (6.946, 442.8417972614264), (0.300000000006756, 442.82), (0.300000000006756, 442.64), (2.668, 442.824203417854), (2.668, 442.664203417854), (2.668, 442.834203417854), (2.668, 442.664203417854), (6.946, 442.8417972614264), (6.946, 442.6817972614264)]</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>[(0.3, 445.0), (0.3, 444.89), (6.418, 444.84705), (6.418, 444.73705), (0.3, 444.89), (0.3, 444.63), (6.418, 444.73705), (6.418, 444.55705)]</t>
+          <t>[(0.299999999993056, 445.0), (0.299999999993056, 444.89), (6.418, 444.84704999999985), (6.418, 444.73704999999984), (0.299999999993056, 444.89), (0.299999999993056, 444.63), (6.418, 444.73704999999984), (6.418, 444.55704999999983)]</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>[(0.3, 446.0), (0.3, 445.89), (6.234, 445.85165), (6.234, 445.74165), (0.3, 445.89), (0.3, 445.66), (6.234, 445.74165), (6.234, 445.59165)]</t>
+          <t>[(0.300000000006756, 446.0), (0.300000000006756, 445.89), (6.234, 445.8516500000002), (6.234, 445.74165000000016), (0.300000000006756, 445.89), (0.300000000006756, 445.66), (6.234, 445.74165000000016), (6.234, 445.5916500000002)]</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>[(0.3, 447.0), (0.3, 446.8), (6.102, 446.85495), (6.102, 446.65495), (0.3, 446.8), (0.3, 446.61), (6.102, 446.65495), (6.102, 446.51495)]</t>
+          <t>[(0.300000000008999, 447.0), (0.300000000008999, 446.8), (6.102, 446.8549500000002), (6.102, 446.6549500000002), (0.300000000008999, 446.8), (0.300000000008999, 446.61), (6.102, 446.6549500000002), (6.102, 446.5149500000002)]</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>[(0.3, 448.0), (0.3, 447.85), (5.962, 447.85845), (5.962, 447.70845), (0.3, 447.85), (0.3, 447.7), (5.962, 447.70845), (5.962, 447.55845), (0.3, 447.7), (0.3, 447.56), (5.962, 447.55845), (5.962, 447.43845)]</t>
+          <t>[(0.299999999993056, 448.0), (0.299999999993056, 447.85), (5.962, 447.85844999999983), (5.962, 447.70844999999986), (0.299999999993056, 447.85), (0.299999999993056, 447.7), (5.962, 447.70844999999986), (5.962, 447.5584499999998), (0.299999999993056, 447.7), (0.299999999993056, 447.56), (5.962, 447.5584499999998), (5.962, 447.4384499999998)]</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>[(0.3, 449.0), (0.3, 448.85), (5.752, 448.8637), (5.752, 448.7137), (0.3, 448.85), (0.3, 448.7), (5.752, 448.7137), (5.752, 448.5637), (0.3, 448.7), (0.3, 448.55), (5.752, 448.5637), (5.752, 448.4137)]</t>
+          <t>[(0.300000000006756, 449.0), (0.300000000006756, 448.85), (5.752, 448.86370000000016), (5.752, 448.7137000000002), (0.300000000006756, 448.85), (0.300000000006756, 448.7), (5.752, 448.7137000000002), (5.752, 448.56370000000015), (0.300000000006756, 448.7), (0.300000000006756, 448.55), (5.752, 448.56370000000015), (5.752, 448.4137000000002)]</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>[(0.3, 450.0), (0.3, 449.85), (5.549, 449.868775), (5.549, 449.71877500000005), (0.3, 449.85), (0.3, 449.7), (5.549, 449.71877500000005), (5.549, 449.568775), (0.3, 449.7), (0.3, 449.58), (5.549, 449.568775), (5.549, 449.438775)]</t>
+          <t>[(0.300000000008999, 450.0), (0.300000000008999, 449.85), (5.549, 449.8687750000002), (5.549, 449.7187750000002), (0.300000000008999, 449.85), (0.300000000008999, 449.7), (5.549, 449.7187750000002), (5.549, 449.5687750000002), (0.300000000008999, 449.7), (0.300000000008999, 449.58), (5.549, 449.5687750000002), (5.549, 449.4387750000002)]</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>[(0.3, 451.0), (0.3, 450.8), (5.338, 450.87405), (5.338, 450.67405), (0.3, 450.8), (0.3, 450.62), (5.338, 450.67405), (5.338, 450.48405)]</t>
+          <t>[(0.299999999993056, 451.0), (0.299999999993056, 450.8), (5.338, 450.87404999999984), (5.338, 450.67404999999985), (0.299999999993056, 450.8), (0.299999999993056, 450.62), (5.338, 450.67404999999985), (5.338, 450.48404999999985)]</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>[(0.3, 452.0), (0.3, 451.81), (5.045, 451.881375), (5.045, 451.691375), (0.3, 451.81), (0.3, 451.65), (5.045, 451.691375), (5.045, 451.511375)]</t>
+          <t>[(0.300000000006756, 452.0), (0.300000000006756, 451.81), (5.045, 451.88137500000016), (5.045, 451.69137500000016), (0.300000000006756, 451.81), (0.300000000006756, 451.65), (5.045, 451.69137500000016), (5.045, 451.51137500000016)]</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>[(0.3, 453.0), (0.3, 452.83), (4.721, 452.889475), (4.721, 452.719475), (0.3, 452.83), (0.3, 452.68), (4.721, 452.719475), (4.721, 452.559475)]</t>
+          <t>[(0.300000000008999, 453.0), (0.300000000008999, 452.83), (4.721, 452.88947500000023), (4.721, 452.7194750000002), (0.300000000008999, 452.83), (0.300000000008999, 452.68), (4.721, 452.7194750000002), (4.721, 452.55947500000025)]</t>
         </is>
       </c>
     </row>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>[(0.3, 454.0), (0.3, 453.83), (4.434, 453.89665), (4.434, 453.72665), (0.3, 453.83), (0.3, 453.68), (4.434, 453.72665), (4.434, 453.56665000000004)]</t>
+          <t>[(0.300000000006756, 454.0), (0.300000000006756, 453.83), (4.434, 453.8966500000002), (4.434, 453.7266500000002), (0.300000000006756, 453.83), (0.300000000006756, 453.68), (4.434, 453.7266500000002), (4.434, 453.5666500000002)]</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>[(0.3, 455.0), (0.3, 454.81), (4.163, 454.903425), (4.163, 454.71342500000003), (0.3, 454.81), (0.3, 454.64), (4.163, 454.71342500000003), (4.163, 454.533425)]</t>
+          <t>[(0.300000000008999, 455.0), (0.300000000008999, 454.81), (4.163, 454.9034250000002), (4.163, 454.7134250000002), (0.300000000008999, 454.81), (0.300000000008999, 454.64), (4.163, 454.7134250000002), (4.163, 454.5334250000002)]</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>[(0.3, 456.0), (0.3, 455.81), (3.87, 455.91075), (3.87, 455.72075), (0.3, 455.81), (0.3, 455.66), (3.87, 455.72075), (3.87, 455.53075)]</t>
+          <t>[(0.299999999990813, 456.0), (0.299999999990813, 455.81), (3.87, 455.9107499999998), (3.87, 455.7207499999998), (0.299999999990813, 455.81), (0.299999999990813, 455.66), (3.87, 455.7207499999998), (3.87, 455.5307499999998)]</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>[(0.3, 457.0), (0.3, 456.79), (3.593, 456.917675), (3.593, 456.707675), (0.3, 456.79), (0.3, 456.6), (3.593, 456.707675), (3.593, 456.49767499999996)]</t>
+          <t>[(0.300000000006756, 457.0), (0.300000000006756, 456.79), (3.593, 456.91767500000014), (3.593, 456.70767500000017), (0.300000000006756, 456.79), (0.300000000006756, 456.6), (3.593, 456.70767500000017), (3.593, 456.49767500000013)]</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>[(0.3, 458.0), (0.3, 457.8), (3.315, 457.924625), (3.315, 457.724625), (0.3, 457.8), (0.3, 457.62), (3.315, 457.724625), (3.315, 457.524625)]</t>
+          <t>[(0.300000000008999, 458.0), (0.300000000008999, 457.8), (3.315, 457.9246250000002), (3.315, 457.72462500000023), (0.300000000008999, 457.8), (0.300000000008999, 457.62), (3.315, 457.72462500000023), (3.315, 457.52462500000024)]</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>[(0.3, 459.0), (0.3, 458.82), (3.089, 458.930275), (3.089, 458.750275), (0.3, 458.82), (0.3, 458.68), (3.089, 458.750275), (3.089, 458.580275)]</t>
+          <t>[(0.299999999993056, 459.0), (0.299999999993056, 458.82), (3.089, 458.9302749999998), (3.089, 458.7502749999998), (0.299999999993056, 458.82), (0.299999999993056, 458.67), (3.089, 458.7502749999998), (3.089, 458.5802749999998)]</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>[(0.3, 460.0), (0.3, 459.83), (2.835, 459.936625), (2.835, 459.766625), (0.3, 459.83), (0.3, 459.68), (2.835, 459.766625), (2.835, 459.596625)]</t>
+          <t>[(0.300000000006756, 460.0), (0.300000000006756, 459.83), (2.835, 459.93662500000016), (2.835, 459.76662500000015), (0.300000000006756, 459.83), (0.300000000006756, 459.68), (2.835, 459.76662500000015), (2.835, 459.5966250000002)]</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>[(0.3, 461.0), (0.3, 460.82), (2.64, 460.9302994065223), (2.64, 460.7502994065223), (0.3, 460.82), (0.3, 460.67), (2.64, 460.7502994065223), (2.64, 460.5702994065223)]</t>
+          <t>[(0.299999999993138, 461.0), (0.299999999993138, 460.82), (2.64, 460.93029940652207), (2.64, 460.75029940652206), (0.299999999993138, 460.82), (0.299999999993138, 460.67), (2.64, 460.75029940652206), (2.64, 460.57029940652205)]</t>
         </is>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>[(0.3, 462.0), (0.3, 461.87), (2.481, 461.91721234048936), (2.481, 461.78721234048936), (0.3, 461.87), (0.3, 461.75), (2.481, 461.78721234048936), (2.481, 461.66721234048936)]</t>
+          <t>[(0.300000000006246, 462.0), (0.300000000006246, 461.87), (2.481, 461.9172123404896), (2.481, 461.7872123404896), (0.300000000006246, 461.87), (0.300000000006246, 461.75), (2.481, 461.7872123404896), (2.481, 461.6672123404896)]</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>[(0.3, 463.0), (0.3, 462.87), (2.403, 462.90298739360526), (2.403, 462.77298739360526), (0.3, 462.87), (0.3, 462.75), (2.403, 462.77298739360526), (2.403, 462.65298739360526)]</t>
+          <t>[(0.300000000022583, 463.0), (0.300000000022583, 462.87), (2.403, 462.90298739360634), (2.403, 462.77298739360634), (0.300000000022583, 462.87), (0.300000000022583, 462.75), (2.403, 462.77298739360634), (2.403, 462.65298739360634)]</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>[(0.3, 526.0), (0.3, 525.82), (3.002, 525.8150668190923), (3.002, 525.6350668190923), (0.3, 525.82), (0.3, 525.65), (3.002, 525.6350668190923), (3.002, 525.5150668190923)]</t>
+          <t>[(0.300000000025091, 526.0), (0.300000000025091, 525.82), (3.002, 525.815066819094), (3.002, 525.635066819094), (0.300000000025091, 525.82), (0.300000000025091, 525.65), (3.002, 525.635066819094), (3.002, 525.515066819094)]</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>[(0.3, 527.0), (0.3, 526.89), (4.371, 526.7649861104829), (4.371, 526.6549861104829), (0.3, 526.89), (0.3, 526.64), (4.371, 526.6549861104829), (4.371, 526.484986110483)]</t>
+          <t>[(0.300000000009559, 527.0), (0.300000000009559, 526.89), (4.371, 526.7649861104834), (4.371, 526.6549861104834), (0.300000000009559, 526.89), (0.300000000009559, 526.64), (4.371, 526.6549861104834), (4.371, 526.4849861104834)]</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>[(0.3, 528.0), (0.3, 527.83), (5.476, 527.7566529443455), (5.476, 527.5866529443456), (0.3, 527.83), (0.3, 527.67), (5.476, 527.5866529443456), (5.476, 527.4566529443456)]</t>
+          <t>[(0.30000000005935, 528.0), (0.30000000005935, 527.83), (5.476, 527.7566529443484), (5.476, 527.5866529443484), (0.30000000005935, 527.83), (0.30000000005935, 527.67), (5.476, 527.5866529443484), (5.476, 527.4566529443484)]</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>[(0.3, 529.0), (0.3, 528.84), (5.981, 528.7937784786319), (5.981, 528.6337784786319), (0.3, 528.84), (0.3, 528.69), (5.981, 528.6337784786319), (5.981, 528.483778478632)]</t>
+          <t>[(0.300000000011506, 529.0), (0.300000000011506, 528.84), (5.981, 528.7937784786322), (5.981, 528.6337784786323), (0.300000000011506, 528.84), (0.300000000011506, 528.69), (5.981, 528.6337784786323), (5.981, 528.4837784786323)]</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>[(0.3, 530.0), (0.3, 529.79), (6.33, 529.8457168464569), (6.33, 529.6357168464568), (0.3, 529.79), (0.3, 529.61), (6.33, 529.6357168464568), (6.33, 529.4257168464569)]</t>
+          <t>[(0.300000000149223, 530.0), (0.300000000149223, 529.79), (6.33, 529.8457168464607), (6.33, 529.6357168464607), (0.300000000149223, 529.79), (0.300000000149223, 529.61), (6.33, 529.6357168464607), (6.33, 529.4257168464608)]</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>[(0.3, 531.0), (0.3, 530.78), (6.743, 530.838925), (6.743, 530.618925), (0.3, 530.78), (0.3, 530.6), (6.743, 530.618925), (6.743, 530.4089250000001)]</t>
+          <t>[(0.300000000008061, 531.0), (0.300000000008061, 530.78), (6.743, 530.8389250000002), (6.743, 530.6189250000002), (0.300000000008061, 530.78), (0.300000000008061, 530.61), (6.743, 530.6189250000002), (6.743, 530.4089250000003)]</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>[(0.3, 532.0), (0.3, 531.8), (7.086, 531.83035), (7.086, 531.6303499999999), (0.3, 531.8), (0.3, 531.66), (7.086, 531.6303499999999), (7.086, 531.44035)]</t>
+          <t>[(0.300000000007116, 532.0), (0.300000000007116, 531.8), (7.086, 531.8303500000002), (7.086, 531.6303500000001), (0.300000000007116, 531.8), (0.300000000007116, 531.66), (7.086, 531.6303500000001), (7.086, 531.4403500000002)]</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>[(0.3, 533.0), (0.3, 532.82), (7.455, 532.821125), (7.455, 532.6411250000001), (0.3, 532.82), (0.3, 532.68), (7.455, 532.6411250000001), (7.455, 532.471125)]</t>
+          <t>[(0.300000000008061, 533.0), (0.300000000008061, 532.82), (7.455, 532.8211250000002), (7.455, 532.6411250000002), (0.300000000008061, 532.82), (0.300000000008061, 532.68), (7.455, 532.6411250000002), (7.455, 532.4711250000001)]</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>[(0.3, 534.0), (0.3, 533.86), (7.685, 533.815375), (7.685, 533.675375), (0.3, 533.86), (0.3, 533.73), (7.685, 533.675375), (7.685, 533.545375)]</t>
+          <t>[(0.300000000008061, 534.0), (0.300000000008061, 533.86), (7.685, 533.8153750000002), (7.685, 533.6753750000003), (0.300000000008061, 533.86), (0.300000000008061, 533.73), (7.685, 533.6753750000003), (7.685, 533.5453750000003)]</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>[(0.3, 535.0), (0.3, 534.85), (7.928, 534.8093), (7.928, 534.6593), (0.3, 534.85), (0.3, 534.74), (7.928, 534.6593), (7.928, 534.5193)]</t>
+          <t>[(0.300000000009005, 535.0), (0.300000000009005, 534.85), (7.928, 534.8093000000002), (7.928, 534.6593000000003), (0.300000000009005, 534.85), (0.300000000009005, 534.74), (7.928, 534.6593000000003), (7.928, 534.5193000000003)]</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>[(0.3, 536.0), (0.3, 535.89), (8.265, 535.800875), (8.265, 535.690875), (0.3, 535.89), (0.3, 535.75), (8.265, 535.690875), (8.265, 535.4908750000001)]</t>
+          <t>[(0.300000000007116, 536.0), (0.300000000007116, 535.89), (8.265, 535.8008750000001), (8.265, 535.6908750000001), (0.300000000007116, 535.89), (0.300000000007116, 535.75), (8.265, 535.6908750000001), (8.265, 535.4908750000002)]</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>[(0.3, 537.0), (0.3, 536.89), (8.962, 536.78345), (8.962, 536.67345), (0.3, 536.89), (0.3, 536.74), (8.962, 536.67345), (8.962, 536.46345)]</t>
+          <t>[(0.300000000007116, 537.0), (0.300000000007116, 536.89), (8.962, 536.7834500000001), (8.962, 536.6734500000001), (0.300000000007116, 536.89), (0.300000000007116, 536.74), (8.962, 536.6734500000001), (8.962, 536.4634500000001)]</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>[(0.3, 538.0), (0.3, 537.83), (7.101, 537.829975), (7.101, 537.659975), (0.3, 537.83), (0.3, 537.72), (7.101, 537.659975), (7.101, 537.499975)]</t>
+          <t>[(0.300000000008061, 538.0), (0.300000000008061, 537.83), (7.101, 537.8299750000002), (7.101, 537.6599750000003), (0.300000000008061, 537.83), (0.300000000008061, 537.72), (7.101, 537.6599750000003), (7.101, 537.4999750000002)]</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>[(0.3, 539.0), (0.3, 538.84), (6.99, 538.83275), (6.99, 538.6727500000001), (0.3, 538.84), (0.3, 538.71), (6.99, 538.6727500000001), (6.99, 538.5227500000001)]</t>
+          <t>[(0.300000000007116, 539.0), (0.300000000007116, 538.84), (6.99, 538.8327500000001), (6.99, 538.6727500000002), (0.300000000007116, 538.84), (0.300000000007116, 538.71), (6.99, 538.6727500000002), (6.99, 538.5227500000002)]</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>[(0.3, 540.0), (0.3, 539.86), (7.002, 539.83245), (7.002, 539.69245), (0.3, 539.86), (0.3, 539.74), (7.002, 539.69245), (7.002, 539.58245)]</t>
+          <t>[(0.300000000008061, 540.0), (0.300000000008061, 539.86), (7.002, 539.8324500000002), (7.002, 539.6924500000002), (0.300000000008061, 539.86), (0.300000000008061, 539.74), (7.002, 539.6924500000002), (7.002, 539.5824500000002)]</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>[(0.3, 541.0), (0.3, 540.87), (6.992, 540.8327), (6.992, 540.7027), (0.3, 540.87), (0.3, 540.75), (6.992, 540.7027), (6.992, 540.5827)]</t>
+          <t>[(0.300000000008061, 541.0), (0.300000000008061, 540.87), (6.992, 540.8327000000002), (6.992, 540.7027000000002), (0.300000000008061, 540.87), (0.300000000008061, 540.75), (6.992, 540.7027000000002), (6.992, 540.5827000000002)]</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>[(0.3, 542.0), (0.3, 541.87), (6.938, 541.83405), (6.938, 541.70405), (0.3, 541.87), (0.3, 541.75), (6.938, 541.70405), (6.938, 541.58405)]</t>
+          <t>[(0.300000000009005, 542.0), (0.300000000009005, 541.87), (6.938, 541.8340500000003), (6.938, 541.7040500000003), (0.300000000009005, 541.87), (0.300000000009005, 541.75), (6.938, 541.7040500000003), (6.938, 541.5840500000003)]</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>[(0.3, 543.0), (0.3, 542.87), (6.902, 542.83495), (6.902, 542.70495), (0.3, 542.87), (0.3, 542.75), (6.902, 542.70495), (6.902, 542.58495)]</t>
+          <t>[(0.300000000008061, 543.0), (0.300000000008061, 542.87), (6.902, 542.8349500000002), (6.902, 542.7049500000002), (0.300000000008061, 542.87), (0.300000000008061, 542.75), (6.902, 542.7049500000002), (6.902, 542.5849500000002)]</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>[(0.3, 544.0), (0.3, 543.87), (6.852, 543.8362), (6.852, 543.7062), (0.3, 543.87), (0.3, 543.75), (6.852, 543.7062), (6.852, 543.5862)]</t>
+          <t>[(0.300000000007116, 544.0), (0.300000000007116, 543.87), (6.852, 543.8362000000002), (6.852, 543.7062000000002), (0.300000000007116, 543.87), (0.300000000007116, 543.75), (6.852, 543.7062000000002), (6.852, 543.5862000000002)]</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>[(0.3, 545.0), (0.3, 544.87), (6.77, 544.83825), (6.77, 544.70825), (0.3, 544.87), (0.3, 544.75), (6.77, 544.70825), (6.77, 544.58825)]</t>
+          <t>[(0.300000000008061, 545.0), (0.300000000008061, 544.87), (6.77, 544.8382500000002), (6.77, 544.7082500000002), (0.300000000008061, 544.87), (0.300000000008061, 544.75), (6.77, 544.7082500000002), (6.77, 544.5882500000002)]</t>
         </is>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>[(0.3, 546.0), (0.3, 545.87), (6.697, 545.840075), (6.697, 545.710075), (0.3, 545.87), (0.3, 545.75), (6.697, 545.710075), (6.697, 545.590075)]</t>
+          <t>[(0.300000000007116, 546.0), (0.300000000007116, 545.87), (6.697, 545.8400750000002), (6.697, 545.7100750000002), (0.300000000007116, 545.87), (0.300000000007116, 545.75), (6.697, 545.7100750000002), (6.697, 545.5900750000002)]</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>[(0.3, 547.0), (0.3, 546.87), (6.661, 546.840975), (6.661, 546.710975), (0.3, 546.87), (0.3, 546.75), (6.661, 546.710975), (6.661, 546.590975)]</t>
+          <t>[(0.300000000008061, 547.0), (0.300000000008061, 546.87), (6.661, 546.8409750000002), (6.661, 546.7109750000002), (0.300000000008061, 546.87), (0.300000000008061, 546.75), (6.661, 546.7109750000002), (6.661, 546.5909750000002)]</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>[(0.3, 548.0), (0.3, 547.87), (6.638, 547.84155), (6.638, 547.71155), (0.3, 547.87), (0.3, 547.75), (6.638, 547.71155), (6.638, 547.59155)]</t>
+          <t>[(0.300000000008061, 548.0), (0.300000000008061, 547.87), (6.638, 547.8415500000002), (6.638, 547.7115500000002), (0.300000000008061, 547.87), (0.300000000008061, 547.75), (6.638, 547.7115500000002), (6.638, 547.5915500000002)]</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>[(0.3, 549.0), (0.3, 548.87), (6.665, 548.840875), (6.665, 548.710875), (0.3, 548.87), (0.3, 548.75), (6.665, 548.710875), (6.665, 548.590875)]</t>
+          <t>[(0.300000000009005, 549.0), (0.300000000009005, 548.87), (6.665, 548.8408750000002), (6.665, 548.7108750000002), (0.300000000009005, 548.87), (0.300000000009005, 548.75), (6.665, 548.7108750000002), (6.665, 548.5908750000002)]</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>[(0.3, 550.0), (0.3, 549.87), (6.711, 549.839725), (6.711, 549.709725), (0.3, 549.87), (0.3, 549.75), (6.711, 549.709725), (6.711, 549.589725)]</t>
+          <t>[(0.300000000008061, 550.0), (0.300000000008061, 549.87), (6.711, 549.8397250000002), (6.711, 549.7097250000002), (0.300000000008061, 549.87), (0.300000000008061, 549.75), (6.711, 549.7097250000002), (6.711, 549.5897250000002)]</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>[(0.3, 551.0), (0.3, 550.87), (6.767, 550.838325), (6.767, 550.7083250000001), (0.3, 550.87), (0.3, 550.75), (6.767, 550.7083250000001), (6.767, 550.588325)]</t>
+          <t>[(0.300000000007116, 551.0), (0.300000000007116, 550.87), (6.767, 550.8383250000002), (6.767, 550.7083250000002), (0.300000000007116, 550.87), (0.300000000007116, 550.75), (6.767, 550.7083250000002), (6.767, 550.5883250000002)]</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>[(0.3, 552.0), (0.3, 551.87), (6.898, 551.83505), (6.898, 551.70505), (0.3, 551.87), (0.3, 551.75), (6.898, 551.70505), (6.898, 551.58505)]</t>
+          <t>[(0.299999999991846, 552.0), (0.299999999991846, 551.87), (6.898, 551.8350499999998), (6.898, 551.7050499999998), (0.299999999991846, 551.87), (0.299999999991846, 551.75), (6.898, 551.7050499999998), (6.898, 551.5850499999998)]</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>[(0.3, 553.0), (0.3, 552.87), (7.006, 552.83235), (7.006, 552.70235), (0.3, 552.87), (0.3, 552.75), (7.006, 552.70235), (7.006, 552.58235)]</t>
+          <t>[(0.300000000007116, 553.0), (0.300000000007116, 552.87), (7.006, 552.8323500000001), (7.006, 552.7023500000001), (0.300000000007116, 552.87), (0.300000000007116, 552.75), (7.006, 552.7023500000001), (7.006, 552.5823500000001)]</t>
         </is>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>[(0.3, 554.0), (0.3, 553.87), (7.094, 553.83015), (7.094, 553.70015), (0.3, 553.87), (0.3, 553.75), (7.094, 553.70015), (7.094, 553.58015)]</t>
+          <t>[(0.300000000008061, 554.0), (0.300000000008061, 553.87), (7.094, 553.8301500000002), (7.094, 553.7001500000002), (0.300000000008061, 553.87), (0.300000000008061, 553.75), (7.094, 553.7001500000002), (7.094, 553.5801500000002)]</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>[(0.3, 555.0), (0.3, 554.87), (9.577, 554.768075), (9.577, 554.638075), (0.3, 554.87), (0.3, 554.75), (9.577, 554.638075), (9.577, 554.518075)]</t>
+          <t>[(0.300000000008061, 555.0), (0.300000000008061, 554.87), (9.577, 554.7680750000002), (9.577, 554.6380750000002), (0.300000000008061, 554.87), (0.300000000008061, 554.75), (9.577, 554.6380750000002), (9.577, 554.5180750000002)]</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>[(0.3, 556.0), (0.3, 555.87), (8.574, 555.79315), (8.574, 555.66315), (0.3, 555.87), (0.3, 555.75), (8.574, 555.66315), (8.574, 555.54315)]</t>
+          <t>[(0.300000000008061, 556.0), (0.300000000008061, 555.87), (8.574, 555.7931500000002), (8.574, 555.6631500000002), (0.300000000008061, 555.87), (0.300000000008061, 555.75), (8.574, 555.6631500000002), (8.574, 555.5431500000002)]</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>[(0.3, 557.0), (0.3, 556.87), (7.832, 556.8117), (7.832, 556.6817), (0.3, 556.87), (0.3, 556.75), (7.832, 556.6817), (7.832, 556.5617)]</t>
+          <t>[(0.300000000008061, 557.0), (0.300000000008061, 556.87), (7.832, 556.8117000000002), (7.832, 556.6817000000002), (0.300000000008061, 556.87), (0.300000000008061, 556.75), (7.832, 556.6817000000002), (7.832, 556.5617000000002)]</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>[(0.3, 558.0), (0.3, 557.87), (7.29, 557.82525), (7.29, 557.69525), (0.3, 557.87), (0.3, 557.75), (7.29, 557.69525), (7.29, 557.57525)]</t>
+          <t>[(0.300000000007116, 558.0), (0.300000000007116, 557.87), (7.29, 557.8252500000002), (7.29, 557.6952500000002), (0.300000000007116, 557.87), (0.300000000007116, 557.75), (7.29, 557.6952500000002), (7.29, 557.5752500000002)]</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>[(0.3, 559.0), (0.3, 558.87), (7.064, 558.8309), (7.064, 558.7009), (0.3, 558.87), (0.3, 558.75), (7.064, 558.7009), (7.064, 558.5809)]</t>
+          <t>[(0.300000000008061, 559.0), (0.300000000008061, 558.87), (7.064, 558.8309000000002), (7.064, 558.7009000000002), (0.300000000008061, 558.87), (0.300000000008061, 558.75), (7.064, 558.7009000000002), (7.064, 558.5809000000002)]</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>[(0.3, 560.0), (0.3, 559.85), (6.814, 559.83715), (6.814, 559.68715), (0.3, 559.85), (0.3, 559.7), (6.814, 559.68715), (6.814, 559.53715)]</t>
+          <t>[(0.300000000007116, 560.0), (0.300000000007116, 559.85), (6.814, 559.8371500000002), (6.814, 559.6871500000002), (0.300000000007116, 559.85), (0.300000000007116, 559.7), (6.814, 559.6871500000002), (6.814, 559.5371500000002)]</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>[(0.3, 561.0), (0.3, 560.8), (6.472, 560.8457), (6.472, 560.6456999999999), (0.3, 560.8), (0.3, 560.63), (6.472, 560.6456999999999), (6.472, 560.4557)]</t>
+          <t>[(0.300000000008061, 561.0), (0.300000000008061, 560.8), (6.472, 560.8457000000002), (6.472, 560.6457000000001), (0.300000000008061, 560.8), (0.300000000008061, 560.63), (6.472, 560.6457000000001), (6.472, 560.4557000000002)]</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>[(0.3, 562.0), (0.3, 561.82), (6.115, 561.854625), (6.115, 561.6746250000001), (0.3, 561.82), (0.3, 561.64), (6.115, 561.6746250000001), (6.115, 561.494625), (0.3, 561.64), (0.3, 561.48), (6.115, 561.494625), (6.115, 561.3346250000001)]</t>
+          <t>[(0.300000000008061, 562.0), (0.300000000008061, 561.82), (6.115, 561.8546250000002), (6.115, 561.6746250000002), (0.300000000008061, 561.82), (0.300000000008061, 561.64), (6.115, 561.6746250000002), (6.115, 561.4946250000002), (0.300000000008061, 561.64), (0.300000000008061, 561.48), (6.115, 561.4946250000002), (6.115, 561.3346250000002)]</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>[(0.3, 563.0), (0.3, 562.83), (5.843, 562.861425), (5.843, 562.6914250000001), (0.3, 562.83), (0.3, 562.66), (5.843, 562.6914250000001), (5.843, 562.521425), (0.3, 562.66), (0.3, 562.49), (5.843, 562.521425), (5.843, 562.3514250000001), (0.3, 562.49), (0.3, 562.36), (5.843, 562.3514250000001), (5.843, 562.2014250000001)]</t>
+          <t>[(0.300000000009005, 563.0), (0.300000000009005, 562.83), (5.843, 562.8614250000003), (5.843, 562.6914250000003), (0.300000000009005, 562.83), (0.300000000009005, 562.66), (5.843, 562.6914250000003), (5.843, 562.5214250000002), (0.300000000009005, 562.66), (0.300000000009005, 562.49), (5.843, 562.5214250000002), (5.843, 562.3514250000003), (0.300000000009005, 562.49), (0.300000000009005, 562.36), (5.843, 562.3514250000003), (5.843, 562.2014250000003)]</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>[(0.3, 564.0), (0.3, 563.84), (5.615, 563.867125), (5.615, 563.707125), (0.3, 563.84), (0.3, 563.68), (5.615, 563.707125), (5.615, 563.5471249999999), (0.3, 563.68), (0.3, 563.52), (5.615, 563.5471249999999), (5.615, 563.387125), (0.3, 563.52), (0.3, 563.38), (5.615, 563.387125), (5.615, 563.227125)]</t>
+          <t>[(0.300000000008061, 564.0), (0.300000000008061, 563.84), (5.615, 563.8671250000002), (5.615, 563.7071250000002), (0.300000000008061, 563.84), (0.300000000008061, 563.68), (5.615, 563.7071250000002), (5.615, 563.5471250000002), (0.300000000008061, 563.68), (0.300000000008061, 563.52), (5.615, 563.5471250000002), (5.615, 563.3871250000002), (0.300000000008061, 563.52), (0.300000000008061, 563.38), (5.615, 563.3871250000002), (5.615, 563.2271250000002)]</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>[(0.3, 565.0), (0.3, 564.83), (5.49, 564.8689830172738), (5.49, 564.6989830172738), (0.3, 564.83), (0.3, 564.66), (5.49, 564.6989830172738), (5.49, 564.5289830172737), (0.3, 564.66), (0.3, 564.49), (5.49, 564.5289830172737), (5.49, 564.3589830172738), (0.3, 564.49), (0.3, 564.38), (5.49, 564.3589830172738), (5.49, 564.2089830172738)]</t>
+          <t>[(0.299999242838936, 565.0), (0.299999242838936, 564.83), (5.49, 564.8689829981598), (5.49, 564.6989829981599), (0.299999242838936, 564.83), (0.299999242838936, 564.66), (5.49, 564.6989829981599), (5.49, 564.5289829981598), (0.299999242838936, 564.66), (0.299999242838936, 564.49), (5.49, 564.5289829981598), (5.49, 564.3589829981598), (0.299999242838936, 564.49), (0.299999242838936, 564.38), (5.49, 564.3589829981598), (5.49, 564.2089829981599)]</t>
         </is>
       </c>
     </row>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>[(0.3, 566.0), (0.3, 565.8), (5.511, 565.8235877760726), (5.511, 565.6235877760726), (0.3, 565.8), (0.3, 565.6), (5.511, 565.6235877760726), (5.511, 565.4235877760726), (0.3, 565.6), (0.3, 565.46), (5.511, 565.4235877760726), (5.511, 565.2435877760726)]</t>
+          <t>[(0.300000000091171, 566.0), (0.300000000091171, 565.8), (5.511, 565.8235877760757), (5.511, 565.6235877760756), (0.300000000091171, 565.8), (0.300000000091171, 565.6), (5.511, 565.6235877760756), (5.511, 565.4235877760757), (0.300000000091171, 565.6), (0.300000000091171, 565.46), (5.511, 565.4235877760757), (5.511, 565.2435877760756)]</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>[(0.3, 567.0), (0.3, 566.86), (5.588, 566.7754529712985), (5.588, 566.6354529712985), (0.3, 566.86), (0.3, 566.72), (5.588, 566.6354529712985), (5.588, 566.4954529712985), (0.3, 566.72), (0.3, 566.58), (5.588, 566.4954529712985), (5.588, 566.3554529712985), (0.3, 566.58), (0.3, 566.47), (5.588, 566.3554529712985), (5.588, 566.2454529712985)]</t>
+          <t>[(0.300000000032854, 567.0), (0.300000000032854, 566.86), (5.588, 566.7754529712998), (5.588, 566.6354529712999), (0.300000000032854, 566.86), (0.300000000032854, 566.72), (5.588, 566.6354529712999), (5.588, 566.4954529712999), (0.300000000032854, 566.72), (0.300000000032854, 566.58), (5.588, 566.4954529712999), (5.588, 566.3554529712999), (0.300000000032854, 566.58), (0.300000000032854, 566.47), (5.588, 566.3554529712999), (5.588, 566.2454529712999)]</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>[(0.3, 568.0), (0.3, 567.83), (5.73, 567.7226725155696), (5.73, 567.5526725155696), (0.3, 567.83), (0.3, 567.66), (5.73, 567.5526725155696), (5.73, 567.3826725155695), (0.3, 567.66), (0.3, 567.49), (5.73, 567.3826725155695), (5.73, 567.2626725155695)]</t>
+          <t>[(0.300000000001034, 568.0), (0.300000000001034, 567.83), (5.73, 567.7226725155697), (5.73, 567.5526725155697), (0.300000000001034, 567.83), (0.300000000001034, 567.66), (5.73, 567.5526725155697), (5.73, 567.3826725155697), (0.300000000001034, 567.66), (0.300000000001034, 567.49), (5.73, 567.3826725155697), (5.73, 567.2626725155696)]</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>[(0.3, 569.0), (0.3, 568.76), (5.958, 568.6623141777807), (5.958, 568.4223141777807), (0.3, 568.76), (0.3, 568.53), (5.958, 568.4223141777807), (5.958, 568.2823141777807)]</t>
+          <t>[(0.300000000008547, 569.0), (0.300000000008547, 568.76), (5.958, 568.6623141777812), (5.958, 568.4223141777812), (0.300000000008547, 568.76), (0.300000000008547, 568.53), (5.958, 568.4223141777812), (5.958, 568.2823141777812)]</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>[(0.3, 570.0), (0.3, 569.85), (6.291, 569.590859097721), (6.291, 569.440859097721), (0.3, 569.85), (0.3, 569.55), (6.291, 569.440859097721), (6.291, 569.310859097721)]</t>
+          <t>[(0.300000000116335, 570.0), (0.300000000116335, 569.85), (6.291, 569.590859097729), (6.291, 569.440859097729), (0.300000000116335, 569.85), (0.300000000116335, 569.55), (6.291, 569.440859097729), (6.291, 569.310859097729)]</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>[(0.3, 571.0), (0.3, 570.85), (6.665, 570.55445), (6.665, 570.40445), (0.3, 570.85), (0.3, 570.55), (6.665, 570.40445), (6.665, 570.2244499999999)]</t>
+          <t>[(0.300000000000165, 571.0), (0.300000000000165, 570.85), (6.665, 570.55445), (6.665, 570.40445), (0.300000000000165, 570.85), (0.300000000000165, 570.55), (6.665, 570.40445), (6.665, 570.2244499999999)]</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>[(0.3, 572.0), (0.3, 571.82), (6.998, 571.53114), (6.998, 571.3511400000001), (0.3, 571.82), (0.3, 571.52), (6.998, 571.3511400000001), (6.998, 571.20114)]</t>
+          <t>[(0.300000000004786, 572.0), (0.300000000004786, 571.82), (6.998, 571.5311400000004), (6.998, 571.3511400000004), (0.300000000004786, 571.82), (0.300000000004786, 571.52), (6.998, 571.3511400000004), (6.998, 571.2011400000004)]</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>[(0.3, 573.0), (0.3, 572.85), (7.267, 572.51231), (7.267, 572.36231), (0.3, 572.85), (0.3, 572.55), (7.267, 572.36231), (7.267, 572.22231)]</t>
+          <t>[(0.299999999993981, 573.0), (0.299999999993981, 572.85), (7.267, 572.5123099999996), (7.267, 572.3623099999996), (0.299999999993981, 572.85), (0.299999999993981, 572.55), (7.267, 572.3623099999996), (7.267, 572.2223099999997)]</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>[(0.3, 574.0), (0.3, 573.88), (7.56, 573.4918), (7.56, 573.3718), (0.3, 573.88), (0.3, 573.58), (7.56, 573.3718), (7.56, 573.2318)]</t>
+          <t>[(0.300000000001166, 574.0), (0.300000000001166, 573.88), (7.56, 573.4918000000001), (7.56, 573.3718000000001), (0.300000000001166, 573.88), (0.300000000001166, 573.58), (7.56, 573.3718000000001), (7.56, 573.2318000000001)]</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>[(0.3, 575.0), (0.3, 574.89), (7.986, 574.46198), (7.986, 574.35198), (0.3, 574.89), (0.3, 574.64), (7.986, 574.35198), (7.986, 574.21198)]</t>
+          <t>[(0.299999999993189, 575.0), (0.299999999993189, 574.89), (7.986, 574.4619799999995), (7.986, 574.3519799999995), (0.299999999993189, 574.89), (0.299999999993189, 574.64), (7.986, 574.3519799999995), (7.986, 574.2119799999995)]</t>
         </is>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>[(0.3, 576.0), (0.3, 575.89), (8.253, 575.44329), (8.253, 575.33329), (0.3, 575.89), (0.3, 575.64), (8.253, 575.33329), (8.253, 575.19329)]</t>
+          <t>[(0.30000000000075, 576.0), (0.30000000000075, 575.89), (8.253, 575.44329), (8.253, 575.33329), (0.30000000000075, 575.89), (0.30000000000075, 575.64), (8.253, 575.33329), (8.253, 575.19329)]</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>[(0.3, 577.0), (0.3, 576.88), (8.553, 576.42229), (8.553, 576.30229), (0.3, 576.88), (0.3, 576.58), (8.553, 576.30229), (8.553, 576.17229)]</t>
+          <t>[(0.299999999997656, 577.0), (0.299999999997656, 576.88), (8.553, 576.4222899999999), (8.553, 576.3022899999999), (0.299999999997656, 576.88), (0.299999999997656, 576.58), (8.553, 576.3022899999999), (8.553, 576.1722899999999)]</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>[(0.3, 578.0), (0.3, 577.85), (8.864, 577.40052), (8.864, 577.25052), (0.3, 577.85), (0.3, 577.55), (8.864, 577.25052), (8.864, 577.0905200000001)]</t>
+          <t>[(0.299999999997822, 578.0), (0.299999999997822, 577.83), (8.864, 577.4005199999998), (8.864, 577.2305199999998), (0.299999999997822, 577.83), (0.299999999997822, 577.66), (8.864, 577.2305199999998), (8.864, 577.0605199999998), (0.299999999997822, 577.66), (0.299999999997822, 577.55), (8.864, 577.0605199999998), (8.864, 576.9005199999998)]</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>[(0.3, 579.0), (0.3, 578.83), (2.473, 578.8533139063451), (2.473, 578.6833139063451), (2.473, 578.8533139063451), (2.473, 578.6933139063451), (9.07, 578.4079903169103), (9.07, 578.2479903169103), (0.3, 578.83), (0.3, 578.66), (2.473, 578.6833139063451), (2.473, 578.513313906345), (2.473, 578.6933139063451), (2.473, 578.393313906345), (9.07, 578.2479903169103), (9.07, 578.1079903169103), (0.3, 578.66), (0.3, 578.5), (2.473, 578.513313906345), (2.473, 578.393313906345), (2.473, 578.393313906345), (2.473, 578.393313906345), (9.07, 578.1079903169103), (9.07, 578.1079903169103)]</t>
+          <t>[(0.300000000088777, 579.0), (0.300000000088777, 578.83), (2.473, 578.853313906351), (2.473, 578.683313906351), (2.473, 578.853313906351), (2.473, 578.683313906351), (9.07, 578.4079903169162), (9.07, 578.2379903169162), (0.300000000088777, 578.83), (0.300000000088777, 578.66), (2.473, 578.683313906351), (2.473, 578.513313906351), (2.473, 578.683313906351), (2.473, 578.513313906351), (9.07, 578.2379903169162), (9.07, 578.0679903169162), (0.300000000088777, 578.66), (0.300000000088777, 578.5), (2.473, 578.513313906351), (2.473, 578.393313906351), (2.473, 578.513313906351), (2.473, 578.393313906351), (9.07, 578.0679903169162), (9.07, 577.9179903169162)]</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>[(0.3, 580.0), (0.3, 579.82), (2.681, 579.8597727648288), (2.681, 579.6797727648288), (2.681, 579.8597727648288), (2.681, 579.6197727648288), (9.233, 579.4738975674992), (9.233, 579.2338975674992), (0.3, 579.82), (0.3, 579.64), (2.681, 579.6797727648288), (2.681, 579.4997727648288), (2.681, 579.6197727648288), (2.681, 579.3797727648288), (9.233, 579.2338975674992), (9.233, 579.1138975674992), (0.3, 579.64), (0.3, 579.46), (2.681, 579.4997727648288), (2.681, 579.3797727648288), (2.681, 579.3797727648288), (2.681, 579.3797727648288), (9.233, 579.1138975674992), (9.233, 579.1138975674992)]</t>
+          <t>[(0.300000000018664, 580.0), (0.300000000018664, 579.82), (2.681, 579.8597727648299), (2.681, 579.67977276483), (2.681, 579.8597727648299), (2.681, 579.57977276483), (9.233, 579.4738975675003), (9.233, 579.1938975675004), (0.300000000018664, 579.82), (0.300000000018664, 579.64), (2.681, 579.67977276483), (2.681, 579.4997727648299), (2.681, 579.57977276483), (2.681, 579.3797727648299), (9.233, 579.1938975675004), (9.233, 578.9238975675004), (0.300000000018664, 579.64), (0.300000000018664, 579.46), (2.681, 579.4997727648299), (2.681, 579.3797727648299), (2.681, 579.3797727648299), (2.681, 579.3797727648299), (9.233, 578.9238975675004), (9.233, 578.9238975675004)]</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>[(0.3, 581.0), (0.3, 580.81), (2.791, 580.8747411435255), (2.791, 580.6847411435255), (2.791, 580.8747411435255), (2.791, 580.6147411435255), (9.376, 580.5436172696258), (9.376, 580.2836172696258), (0.3, 580.81), (0.3, 580.62), (2.791, 580.6847411435255), (2.791, 580.4947411435255), (2.791, 580.6147411435255), (2.791, 580.3647411435255), (9.376, 580.2836172696258), (9.376, 580.1236172696258), (0.3, 580.62), (0.3, 580.45), (2.791, 580.4947411435255), (2.791, 580.3647411435255), (2.791, 580.3647411435255), (2.791, 580.3647411435255), (9.376, 580.1236172696258), (9.376, 580.1236172696258)]</t>
+          <t>[(0.300000000001971, 581.0), (0.300000000001971, 580.81), (2.791, 580.8747411435256), (2.791, 580.6847411435256), (2.791, 580.8747411435256), (2.791, 580.6147411435256), (9.376, 580.5436172696259), (9.376, 580.2436172696259), (0.300000000001971, 580.81), (0.300000000001971, 580.62), (2.791, 580.6847411435256), (2.791, 580.4947411435256), (2.791, 580.6147411435256), (2.791, 580.3547411435256), (9.376, 580.2436172696259), (9.376, 579.9436172696259), (0.300000000001971, 580.62), (0.300000000001971, 580.45), (2.791, 580.4947411435256), (2.791, 580.3647411435256), (2.791, 580.3547411435256), (2.791, 580.3547411435256), (9.376, 579.9436172696259), (9.376, 579.9436172696259)]</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>[(0.3, 582.0), (0.3, 581.83), (2.886, 581.8922287779682), (2.886, 581.7222287779682), (2.886, 581.8922287779682), (2.886, 581.7322287779682), (9.415, 581.6201335310052), (9.415, 581.4601335310052), (0.3, 581.83), (0.3, 581.66), (2.886, 581.7222287779682), (2.886, 581.5522287779681), (2.886, 581.7322287779682), (2.886, 581.5722287779681), (9.415, 581.4601335310052), (9.415, 581.3001335310051), (0.3, 581.66), (0.3, 581.49), (2.886, 581.5522287779681), (2.886, 581.4122287779682), (2.886, 581.5722287779681), (2.886, 581.4122287779682), (9.415, 581.3001335310051), (9.415, 581.1501335310052)]</t>
+          <t>[(0.300000000021095, 582.0), (0.300000000021095, 581.83), (2.886, 581.892228777969), (2.886, 581.722228777969), (2.886, 581.892228777969), (2.886, 581.652228777969), (9.415, 581.6201335310061), (9.415, 581.2901335310061), (0.300000000021095, 581.83), (0.300000000021095, 581.66), (2.886, 581.722228777969), (2.886, 581.5522287779689), (2.886, 581.652228777969), (2.886, 581.412228777969), (9.415, 581.2901335310061), (9.415, 580.9601335310061), (0.300000000021095, 581.66), (0.300000000021095, 581.49), (2.886, 581.5522287779689), (2.886, 581.412228777969), (2.886, 581.412228777969), (2.886, 581.412228777969), (9.415, 580.9601335310061), (9.415, 580.9601335310061)]</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>[(0.3, 583.0), (0.3, 582.83), (2.849, 582.9157168579135), (2.849, 582.7457168579135), (2.849, 582.9157168579135), (2.849, 582.7457168579135), (9.417, 582.6985447601403), (9.417, 582.5285447601403), (0.3, 582.83), (0.3, 582.66), (2.849, 582.7457168579135), (2.849, 582.5757168579134), (2.849, 582.7457168579135), (2.849, 582.5757168579134), (9.417, 582.5285447601403), (9.417, 582.3585447601403), (0.3, 582.66), (0.3, 582.51), (2.849, 582.5757168579134), (2.849, 582.4357168579135), (2.849, 582.5757168579134), (2.849, 582.4357168579135), (9.417, 582.3585447601403), (9.417, 582.2085447601403)]</t>
+          <t>[(0.300000000101371, 583.0), (0.300000000101371, 582.83), (2.849, 582.9157168579169), (2.849, 582.7457168579169), (2.849, 582.9157168579169), (2.849, 582.6757168579169), (9.417, 582.6985447601436), (9.417, 582.3585447601436), (0.300000000101371, 582.83), (0.300000000101371, 582.66), (2.849, 582.7457168579169), (2.849, 582.5757168579169), (2.849, 582.6757168579169), (2.849, 582.4357168579169), (9.417, 582.3585447601436), (9.417, 582.0185447601436), (0.300000000101371, 582.66), (0.300000000101371, 582.51), (2.849, 582.5757168579169), (2.849, 582.4357168579169), (2.849, 582.4357168579169), (2.849, 582.4357168579169), (9.417, 582.0185447601436), (9.417, 582.0185447601436)]</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>[(0.3, 584.0), (0.3, 583.82), (2.843, 583.936425), (2.843, 583.756425), (2.843, 583.936425), (2.843, 583.756425), (9.408, 583.7723), (9.408, 583.5923), (0.3, 583.82), (0.3, 583.64), (2.843, 583.756425), (2.843, 583.576425), (2.843, 583.756425), (2.843, 583.576425), (9.408, 583.5923), (9.408, 583.4123), (0.3, 583.64), (0.3, 583.48), (2.843, 583.576425), (2.843, 583.426425), (2.843, 583.576425), (2.843, 583.426425), (9.408, 583.4123), (9.408, 583.2423)]</t>
+          <t>[(0.30000000000313, 584.0), (0.30000000000313, 583.82), (2.843, 583.9364250000001), (2.843, 583.7564250000001), (2.843, 583.9364250000001), (2.843, 583.6764250000001), (9.408, 583.7723000000001), (9.408, 583.4123000000001), (0.30000000000313, 583.82), (0.30000000000313, 583.64), (2.843, 583.7564250000001), (2.843, 583.5764250000001), (2.843, 583.6764250000001), (2.843, 583.4164250000001), (9.408, 583.4123000000001), (9.408, 583.0523000000001), (0.30000000000313, 583.64), (0.30000000000313, 583.48), (2.843, 583.5764250000001), (2.843, 583.4264250000001), (2.843, 583.4164250000001), (2.843, 583.4164250000001), (9.408, 583.0523000000001), (9.408, 583.0523000000001)]</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>[(0.3, 585.0), (0.3, 584.83), (2.894, 584.93515), (2.894, 584.7651500000001), (2.894, 584.93515), (2.894, 584.7651500000001), (9.484, 584.7704), (9.484, 584.6004), (0.3, 584.83), (0.3, 584.66), (2.894, 584.7651500000001), (2.894, 584.59515), (2.894, 584.7651500000001), (2.894, 584.59515), (9.484, 584.6004), (9.484, 584.4304), (0.3, 584.66), (0.3, 584.49), (2.894, 584.59515), (2.894, 584.47515), (2.894, 584.59515), (2.894, 584.47515), (9.484, 584.4304), (9.484, 584.2604)]</t>
+          <t>[(0.30000000000313, 585.0), (0.30000000000313, 584.83), (2.894, 584.93515), (2.894, 584.7651500000001), (2.894, 584.93515), (2.894, 584.70515), (9.484, 584.7704000000001), (9.484, 584.4204000000001), (0.30000000000313, 584.83), (0.30000000000313, 584.66), (2.894, 584.7651500000001), (2.894, 584.59515), (2.894, 584.70515), (2.894, 584.47515), (9.484, 584.4204000000001), (9.484, 584.0704000000001), (0.30000000000313, 584.66), (0.30000000000313, 584.49), (2.894, 584.59515), (2.894, 584.47515), (2.894, 584.47515), (2.894, 584.47515), (9.484, 584.0704000000001), (9.484, 584.0704000000001)]</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>[(0.3, 586.0), (0.3, 585.72), (2.904, 585.9349), (2.904, 585.6549), (2.904, 585.9349), (2.904, 585.7649), (9.624, 585.7669), (9.624, 585.5969), (0.3, 585.72), (0.3, 585.45), (2.904, 585.6549), (2.904, 585.4748999999999), (2.904, 585.7649), (2.904, 585.5948999999999), (9.624, 585.5969), (9.624, 585.4268999999999)]</t>
+          <t>[(0.300000000001494, 586.0), (0.300000000001494, 585.72), (2.904, 585.9349000000001), (2.904, 585.6549000000001), (2.904, 585.9349000000001), (2.904, 585.7049000000001), (9.624, 585.7669000000001), (9.624, 585.4169), (0.300000000001494, 585.72), (0.300000000001494, 585.45), (2.904, 585.6549000000001), (2.904, 585.4749), (2.904, 585.7049000000001), (2.904, 585.4749), (9.624, 585.4169), (9.624, 585.0669)]</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>[(0.3, 587.0), (0.3, 586.73), (2.936, 586.9341), (2.936, 586.6641), (2.936, 586.9341), (2.936, 586.7841), (9.828, 586.7618), (9.828, 586.6118), (0.3, 586.73), (0.3, 586.46), (2.936, 586.6641), (2.936, 586.5141), (2.936, 586.7841), (2.936, 586.6341), (9.828, 586.6118), (9.828, 586.4618)]</t>
+          <t>[(0.300000000004766, 587.0), (0.300000000004766, 586.73), (2.936, 586.9341000000002), (2.936, 586.6641000000002), (2.936, 586.9341000000002), (2.936, 586.7241000000001), (9.828, 586.7618000000001), (9.828, 586.4418000000001), (0.300000000004766, 586.73), (0.300000000004766, 586.46), (2.936, 586.6641000000002), (2.936, 586.5141000000002), (2.936, 586.7241000000001), (2.936, 586.5141000000002), (9.828, 586.4418000000001), (9.828, 586.1218000000001)]</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>[(0.3, 588.0), (0.3, 587.76), (2.885, 587.935375), (2.885, 587.695375), (2.885, 587.935375), (2.885, 587.725375), (9.993, 587.757675), (9.993, 587.5476749999999), (0.3, 587.76), (0.3, 587.52), (2.885, 587.695375), (2.885, 587.575375), (2.885, 587.725375), (2.885, 587.575375), (9.993, 587.5476749999999), (9.993, 587.337675)]</t>
+          <t>[(0.30000000000313, 588.0), (0.30000000000313, 587.76), (2.885, 587.935375), (2.885, 587.695375), (2.885, 587.935375), (2.885, 587.7553750000001), (9.993, 587.7576750000001), (9.993, 587.4576750000001), (0.30000000000313, 587.76), (0.30000000000313, 587.52), (2.885, 587.695375), (2.885, 587.575375), (2.885, 587.7553750000001), (2.885, 587.575375), (9.993, 587.4576750000001), (9.993, 587.157675)]</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>[(0.3, 589.0), (0.3, 588.87), (2.761, 588.938475), (2.761, 588.808475), (2.761, 588.938475), (2.761, 588.748475), (9.966, 588.75835), (9.966, 588.5683499999999), (0.3, 588.87), (0.3, 588.57), (2.761, 588.808475), (2.761, 588.618475), (2.761, 588.748475), (2.761, 588.618475), (9.966, 588.5683499999999), (9.966, 588.37835)]</t>
+          <t>[(0.299999999997534, 589.0), (0.299999999997534, 588.87), (2.761, 588.9384749999999), (2.761, 588.8084749999999), (2.761, 588.9384749999999), (2.761, 588.778475), (9.966, 588.75835), (9.966, 588.47835), (0.299999999997534, 588.87), (0.299999999997534, 588.57), (2.761, 588.8084749999999), (2.761, 588.6184749999999), (2.761, 588.778475), (2.761, 588.6184749999999), (9.966, 588.47835), (9.966, 588.19835)]</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>[(0.3, 590.0), (0.3, 589.78), (2.596, 589.9426), (2.596, 589.7225999999999), (2.596, 589.9426), (2.596, 589.7425999999999), (9.752, 589.7637), (9.752, 589.5636999999999), (0.3, 589.78), (0.3, 589.56), (2.596, 589.7225999999999), (2.596, 589.6025999999999), (2.596, 589.7425999999999), (2.596, 589.6025999999999), (9.752, 589.5636999999999), (9.752, 589.3637)]</t>
+          <t>[(0.300000000007449, 590.0), (0.300000000007449, 589.78), (2.596, 589.9426000000002), (2.596, 589.7226000000002), (2.596, 589.9426000000002), (2.596, 589.7726000000002), (9.752, 589.7637000000002), (9.752, 589.4637000000002), (0.300000000007449, 589.78), (0.300000000007449, 589.56), (2.596, 589.7226000000002), (2.596, 589.6026000000002), (2.596, 589.7726000000002), (2.596, 589.6026000000002), (9.752, 589.4637000000002), (9.752, 589.1637000000002)]</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>[(0.3, 591.0), (0.3, 590.89), (2.495, 590.945125), (2.495, 590.835125), (2.495, 590.945125), (2.495, 590.835125), (9.682, 590.76545), (9.682, 590.65545), (0.3, 590.89), (0.3, 590.61), (2.495, 590.835125), (2.495, 590.645125), (2.495, 590.835125), (2.495, 590.645125), (9.682, 590.65545), (9.682, 590.36545)]</t>
+          <t>[(0.299999999995364, 591.0), (0.299999999995364, 590.89), (2.495, 590.9451249999998), (2.495, 590.8351249999998), (2.495, 590.9451249999998), (2.495, 590.7951249999999), (9.682, 590.7654499999999), (9.682, 590.4654499999999), (0.299999999995364, 590.89), (0.299999999995364, 590.61), (2.495, 590.8351249999998), (2.495, 590.6451249999999), (2.495, 590.7951249999999), (2.495, 590.6451249999999), (9.682, 590.4654499999999), (9.682, 590.1654499999999)]</t>
         </is>
       </c>
     </row>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>[(0.3, 592.0), (0.3, 591.81), (2.43, 591.94675), (2.43, 591.7567499999999), (2.43, 591.94675), (2.43, 591.8367499999999), (9.615, 591.767125), (9.615, 591.657125), (0.3, 591.81), (0.3, 591.62), (2.43, 591.7567499999999), (2.43, 591.64675), (2.43, 591.8367499999999), (2.43, 591.64675), (9.615, 591.657125), (9.615, 591.377125)]</t>
+          <t>[(0.300000000007062, 592.0), (0.300000000007062, 591.81), (2.43, 591.9467500000002), (2.43, 591.7567500000001), (2.43, 591.9467500000002), (2.43, 591.7967500000002), (9.615, 591.7671250000002), (9.615, 591.4771250000002), (0.300000000007062, 591.81), (0.300000000007062, 591.62), (2.43, 591.7567500000001), (2.43, 591.6467500000002), (2.43, 591.7967500000002), (2.43, 591.6467500000002), (9.615, 591.4771250000002), (9.615, 591.1871250000002)]</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>[(0.3, 593.0), (0.3, 592.78), (2.355, 592.948625), (2.355, 592.728625), (2.355, 592.948625), (2.355, 592.738625), (9.557, 592.768575), (9.557, 592.558575), (0.3, 592.78), (0.3, 592.56), (2.355, 592.728625), (2.355, 592.608625), (2.355, 592.738625), (2.355, 592.608625), (9.557, 592.558575), (9.557, 592.3585750000001)]</t>
+          <t>[(0.300000000002864, 593.0), (0.300000000002864, 592.78), (2.355, 592.9486250000001), (2.355, 592.7286250000001), (2.355, 592.9486250000001), (2.355, 592.7786250000001), (9.557, 592.768575), (9.557, 592.4685750000001), (0.300000000002864, 592.78), (0.300000000002864, 592.56), (2.355, 592.7286250000001), (2.355, 592.6086250000001), (2.355, 592.7786250000001), (2.355, 592.6086250000001), (9.557, 592.4685750000001), (9.557, 592.168575)]</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>[(0.3, 594.0), (0.3, 593.77), (2.396, 593.9476), (2.396, 593.7176), (2.396, 593.9476), (2.396, 593.7176), (9.641, 593.766475), (9.641, 593.536475), (0.3, 593.77), (0.3, 593.54), (2.396, 593.7176), (2.396, 593.5576), (2.396, 593.7176), (2.396, 593.5576), (9.641, 593.536475), (9.641, 593.316475)]</t>
+          <t>[(0.299999999993936, 594.0), (0.299999999993936, 593.77), (2.396, 593.9475999999999), (2.396, 593.7175999999998), (2.396, 593.9475999999999), (2.396, 593.7475999999998), (9.641, 593.7664749999999), (9.641, 593.4464749999999), (0.299999999993936, 593.77), (0.299999999993936, 593.54), (2.396, 593.7175999999998), (2.396, 593.5575999999999), (2.396, 593.7475999999998), (2.396, 593.5475999999999), (9.641, 593.4464749999999), (9.641, 593.1264749999999)]</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>[(0.3, 595.0), (0.3, 594.75), (2.439, 594.946525), (2.439, 594.696525), (2.439, 594.946525), (2.439, 594.7165249999999), (9.588, 594.7678), (9.588, 594.5378), (0.3, 594.75), (0.3, 594.51), (2.439, 594.696525), (2.439, 594.536525), (2.439, 594.7165249999999), (2.439, 594.536525), (9.588, 594.5378), (9.588, 594.3077999999999)]</t>
+          <t>[(0.300000000005365, 595.0), (0.300000000005365, 594.75), (2.439, 594.9465250000002), (2.439, 594.6965250000002), (2.439, 594.9465250000002), (2.439, 594.7465250000001), (9.588, 594.7678000000001), (9.588, 594.4478), (0.300000000005365, 594.75), (0.300000000005365, 594.51), (2.439, 594.6965250000002), (2.439, 594.5365250000002), (2.439, 594.7465250000001), (2.439, 594.5465250000002), (9.588, 594.4478), (9.588, 594.1278000000001)]</t>
         </is>
       </c>
     </row>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>[(0.3, 596.0), (0.3, 595.89), (2.623, 595.941925), (2.623, 595.831925), (2.623, 595.941925), (2.623, 595.781925), (9.741, 595.763975), (9.741, 595.603975), (0.3, 595.89), (0.3, 595.61), (2.623, 595.831925), (2.623, 595.651925), (2.623, 595.781925), (2.623, 595.651925), (9.741, 595.603975), (9.741, 595.453975)]</t>
+          <t>[(0.299999999990689, 596.0), (0.299999999990689, 595.89), (2.623, 595.9419249999997), (2.623, 595.8319249999997), (2.623, 595.9419249999997), (2.623, 595.8019249999998), (9.741, 595.7639749999997), (9.741, 595.5139749999997), (0.299999999990689, 595.89), (0.299999999990689, 595.61), (2.623, 595.8319249999997), (2.623, 595.6519249999998), (2.623, 595.8019249999998), (2.623, 595.6619249999998), (9.741, 595.5139749999997), (9.741, 595.2639749999997)]</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>[(0.3, 597.0), (0.3, 596.8), (2.634, 596.94165), (2.634, 596.7416499999999), (2.634, 596.94165), (2.634, 596.77165), (9.74, 596.764), (9.74, 596.594), (0.3, 596.8), (0.3, 596.61), (2.634, 596.7416499999999), (2.634, 596.6216499999999), (2.634, 596.77165), (2.634, 596.6216499999999), (9.74, 596.594), (9.74, 596.434)]</t>
+          <t>[(0.299999999993936, 597.0), (0.299999999993936, 596.8), (2.634, 596.9416499999999), (2.634, 596.7416499999998), (2.634, 596.9416499999999), (2.634, 596.7816499999999), (9.74, 596.7639999999999), (9.74, 596.5039999999999), (0.299999999993936, 596.8), (0.299999999993936, 596.61), (2.634, 596.7416499999998), (2.634, 596.6216499999998), (2.634, 596.7816499999999), (2.634, 596.6216499999998), (9.74, 596.5039999999999), (9.74, 596.2439999999999)]</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>[(0.3, 598.0), (0.3, 597.76), (2.518, 597.94455), (2.518, 597.70455), (2.518, 597.94455), (2.518, 597.7945500000001), (9.64, 597.7665), (9.64, 597.6165), (0.3, 597.76), (0.3, 597.53), (2.518, 597.70455), (2.518, 597.5245500000001), (2.518, 597.7945500000001), (2.518, 597.6445500000001), (9.64, 597.6165), (9.64, 597.4665)]</t>
+          <t>[(0.299999999992312, 598.0), (0.299999999992312, 597.76), (2.518, 597.9445499999998), (2.518, 597.7045499999998), (2.518, 597.9445499999998), (2.518, 597.7345499999998), (9.64, 597.7664999999998), (9.64, 597.4664999999999), (0.299999999992312, 597.76), (0.299999999992312, 597.53), (2.518, 597.7045499999998), (2.518, 597.5245499999999), (2.518, 597.7345499999998), (2.518, 597.5245499999999), (9.64, 597.4664999999999), (9.64, 597.1664999999998)]</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>[(0.3, 599.0), (0.3, 598.74), (2.447, 598.946325), (2.447, 598.686325), (2.447, 598.946325), (2.447, 598.796325), (9.593, 598.767675), (9.593, 598.6176750000001), (0.3, 598.74), (0.3, 598.48), (2.447, 598.686325), (2.447, 598.496325), (2.447, 598.796325), (2.447, 598.646325), (9.593, 598.6176750000001), (9.593, 598.4676750000001)]</t>
+          <t>[(0.299999999993936, 599.0), (0.299999999993936, 598.74), (2.447, 598.9463249999999), (2.447, 598.6863249999999), (2.447, 598.9463249999999), (2.447, 598.7263249999999), (9.593, 598.7676749999998), (9.593, 598.4476749999998), (0.299999999993936, 598.74), (0.299999999993936, 598.48), (2.447, 598.6863249999999), (2.447, 598.4963249999998), (2.447, 598.7263249999999), (2.447, 598.5063249999998), (9.593, 598.4476749999998), (9.593, 598.1276749999998)]</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>[(0.3, 600.0), (0.3, 599.81), (2.519, 599.944525), (2.519, 599.754525), (2.519, 599.944525), (2.519, 599.774525), (9.627, 599.766825), (9.627, 599.5968250000001), (0.3, 599.81), (0.3, 599.62), (2.519, 599.754525), (2.519, 599.564525), (2.519, 599.774525), (2.519, 599.604525), (9.627, 599.5968250000001), (9.627, 599.426825), (0.3, 599.62), (0.3, 599.45), (2.519, 599.564525), (2.519, 599.434525), (2.519, 599.604525), (2.519, 599.434525), (9.627, 599.426825), (9.627, 599.306825)]</t>
+          <t>[(0.299999999990689, 600.0), (0.299999999990689, 599.81), (2.519, 599.9445249999998), (2.519, 599.7545249999997), (2.519, 599.9445249999998), (2.519, 599.6845249999998), (9.627, 599.7668249999998), (9.627, 599.4468249999998), (0.299999999990689, 599.81), (0.299999999990689, 599.62), (2.519, 599.7545249999997), (2.519, 599.5645249999998), (2.519, 599.6845249999998), (2.519, 599.4245249999998), (9.627, 599.4468249999998), (9.627, 599.1268249999998), (0.299999999990689, 599.62), (0.299999999990689, 599.45), (2.519, 599.5645249999998), (2.519, 599.4345249999998), (2.519, 599.4245249999998), (2.519, 599.4245249999998), (9.627, 599.1268249999998), (9.627, 599.1268249999998)]</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>[(0.3, 601.0), (0.3, 600.82), (2.565, 600.943375), (2.565, 600.763375), (2.565, 600.943375), (2.565, 600.773375), (9.698, 600.76505), (9.698, 600.59505), (0.3, 600.82), (0.3, 600.64), (2.565, 600.763375), (2.565, 600.5833749999999), (2.565, 600.773375), (2.565, 600.6033749999999), (9.698, 600.59505), (9.698, 600.4250499999999), (0.3, 600.64), (0.3, 600.46), (2.565, 600.5833749999999), (2.565, 600.4633749999999), (2.565, 600.6033749999999), (2.565, 600.4633749999999), (9.698, 600.4250499999999), (9.698, 600.27505)]</t>
+          <t>[(0.299999999993936, 601.0), (0.299999999993936, 600.82), (2.565, 600.9433749999998), (2.565, 600.7633749999999), (2.565, 600.9433749999998), (2.565, 600.7033749999998), (9.698, 600.7650499999999), (9.698, 600.4250499999998), (0.299999999993936, 600.82), (0.299999999993936, 600.64), (2.565, 600.7633749999999), (2.565, 600.5833749999998), (2.565, 600.7033749999998), (2.565, 600.4633749999998), (9.698, 600.4250499999998), (9.698, 600.0850499999999), (0.299999999993936, 600.64), (0.299999999993936, 600.46), (2.565, 600.5833749999998), (2.565, 600.4633749999998), (2.565, 600.4633749999998), (2.565, 600.4633749999998), (9.698, 600.0850499999999), (9.698, 600.0850499999999)]</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>[(0.3, 602.0), (0.3, 601.82), (2.607, 601.942325), (2.607, 601.762325), (2.607, 601.942325), (2.607, 601.7523249999999), (9.852, 601.7612), (9.852, 601.5712), (0.3, 601.82), (0.3, 601.64), (2.607, 601.762325), (2.607, 601.582325), (2.607, 601.7523249999999), (2.607, 601.562325), (9.852, 601.5712), (9.852, 601.3812), (0.3, 601.64), (0.3, 601.47), (2.607, 601.582325), (2.607, 601.452325), (2.607, 601.562325), (2.607, 601.452325), (9.852, 601.3812), (9.852, 601.2012000000001)]</t>
+          <t>[(0.299999999990689, 602.0), (0.299999999990689, 601.82), (2.607, 601.9423249999998), (2.607, 601.7623249999998), (2.607, 601.9423249999998), (2.607, 601.7023249999997), (9.852, 601.7611999999998), (9.852, 601.3811999999998), (0.299999999990689, 601.82), (0.299999999990689, 601.64), (2.607, 601.7623249999998), (2.607, 601.5823249999997), (2.607, 601.7023249999997), (2.607, 601.4623249999997), (9.852, 601.3811999999998), (9.852, 601.0011999999998), (0.299999999990689, 601.64), (0.299999999990689, 601.47), (2.607, 601.5823249999997), (2.607, 601.4523249999997), (2.607, 601.4623249999997), (2.607, 601.4623249999997), (9.852, 601.0011999999998), (9.852, 601.0011999999998)]</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>[(0.3, 603.0), (0.3, 602.88), (2.704, 602.9399), (2.704, 602.8199), (2.704, 602.9399), (2.704, 602.6599), (9.986, 602.75785), (9.986, 602.47785), (0.3, 602.88), (0.3, 602.76), (2.704, 602.8199), (2.704, 602.6999), (2.704, 602.6599), (2.704, 602.4698999999999), (9.986, 602.47785), (9.986, 602.19785), (0.3, 602.76), (0.3, 602.64), (2.704, 602.6999), (2.704, 602.5799), (2.704, 602.4698999999999), (2.704, 602.4698999999999), (9.986, 602.19785), (9.986, 602.19785), (0.3, 602.64), (0.3, 602.53), (2.704, 602.5799), (2.704, 602.4698999999999), (2.704, 602.4698999999999), (2.704, 602.4698999999999), (9.986, 602.19785), (9.986, 602.19785)]</t>
+          <t>[(0.300000000004595, 603.0), (0.300000000004595, 602.88), (2.704, 602.9399000000001), (2.704, 602.8199000000001), (2.704, 602.9399000000001), (2.704, 602.6999000000001), (9.986, 602.7578500000001), (9.986, 602.3778500000001), (0.300000000004595, 602.88), (0.300000000004595, 602.76), (2.704, 602.8199000000001), (2.704, 602.6999000000001), (2.704, 602.6999000000001), (2.704, 602.4599000000001), (9.986, 602.3778500000001), (9.986, 601.9978500000001), (0.300000000004595, 602.76), (0.300000000004595, 602.64), (2.704, 602.6999000000001), (2.704, 602.5799000000001), (2.704, 602.4599000000001), (2.704, 602.4599000000001), (9.986, 601.9978500000001), (9.986, 601.9978500000001), (0.300000000004595, 602.64), (0.300000000004595, 602.53), (2.704, 602.5799000000001), (2.704, 602.4699), (2.704, 602.4599000000001), (2.704, 602.4599000000001), (9.986, 601.9978500000001), (9.986, 601.9978500000001)]</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>[(0.3, 604.0), (0.3, 603.84), (2.787, 603.937825), (2.787, 603.777825), (2.787, 603.937825), (2.787, 603.657825), (10.065, 603.755875), (10.065, 603.475875), (0.3, 603.84), (0.3, 603.68), (2.787, 603.777825), (2.787, 603.6178249999999), (2.787, 603.657825), (2.787, 603.4878249999999), (10.065, 603.475875), (10.065, 603.195875), (0.3, 603.68), (0.3, 603.53), (2.787, 603.6178249999999), (2.787, 603.4878249999999), (2.787, 603.4878249999999), (2.787, 603.4878249999999), (10.065, 603.195875), (10.065, 603.195875)]</t>
+          <t>[(0.300000000001355, 604.0), (0.300000000001355, 603.84), (2.787, 603.9378250000001), (2.787, 603.7778250000001), (2.787, 603.9378250000001), (2.787, 603.7178250000001), (10.065, 603.7558750000001), (10.065, 603.3758750000001), (0.300000000001355, 603.84), (0.300000000001355, 603.68), (2.787, 603.7778250000001), (2.787, 603.617825), (2.787, 603.7178250000001), (2.787, 603.497825), (10.065, 603.3758750000001), (10.065, 602.9958750000001), (0.300000000001355, 603.68), (0.300000000001355, 603.53), (2.787, 603.617825), (2.787, 603.487825), (2.787, 603.497825), (2.787, 603.497825), (10.065, 602.9958750000001), (10.065, 602.9958750000001)]</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>[(0.3, 605.0), (0.3, 604.83), (2.917, 604.934575), (2.917, 604.764575), (2.917, 604.934575), (2.917, 604.774575), (10.061, 604.755975), (10.061, 604.5959750000001), (0.3, 604.83), (0.3, 604.66), (2.917, 604.764575), (2.917, 604.594575), (2.917, 604.774575), (2.917, 604.614575), (10.061, 604.5959750000001), (10.061, 604.435975), (0.3, 604.66), (0.3, 604.51), (2.917, 604.594575), (2.917, 604.454575), (2.917, 604.614575), (2.917, 604.454575), (10.061, 604.435975), (10.061, 604.275975)]</t>
+          <t>[(0.29999999999605, 605.0), (0.29999999999605, 604.83), (2.917, 604.9345749999999), (2.917, 604.7645749999999), (2.917, 604.9345749999999), (2.917, 604.6945749999999), (10.061, 604.7559749999999), (10.061, 604.4159749999999), (0.29999999999605, 604.83), (0.29999999999605, 604.66), (2.917, 604.7645749999999), (2.917, 604.5945749999998), (2.917, 604.6945749999999), (2.917, 604.4545749999999), (10.061, 604.4159749999999), (10.061, 604.075975), (0.29999999999605, 604.66), (0.29999999999605, 604.51), (2.917, 604.5945749999998), (2.917, 604.4545749999999), (2.917, 604.4545749999999), (2.917, 604.4545749999999), (10.061, 604.075975), (10.061, 604.075975)]</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>[(0.3, 606.0), (0.3, 605.83), (3.068, 605.9308), (3.068, 605.7608), (3.068, 605.9308), (3.068, 605.7708), (10.178, 605.75305), (10.178, 605.5930500000001), (0.3, 605.83), (0.3, 605.66), (3.068, 605.7608), (3.068, 605.5908), (3.068, 605.7708), (3.068, 605.6107999999999), (10.178, 605.5930500000001), (10.178, 605.43305), (0.3, 605.66), (0.3, 605.49), (3.068, 605.5908), (3.068, 605.4508), (3.068, 605.6107999999999), (3.068, 605.4508), (10.178, 605.43305), (10.178, 605.28305)]</t>
+          <t>[(0.300000000003633, 606.0), (0.300000000003633, 605.83), (3.068, 605.9308000000001), (3.068, 605.7608000000001), (3.068, 605.9308000000001), (3.068, 605.6908000000001), (10.178, 605.7530500000001), (10.178, 605.4230500000001), (0.300000000003633, 605.83), (0.300000000003633, 605.66), (3.068, 605.7608000000001), (3.068, 605.5908000000001), (3.068, 605.6908000000001), (3.068, 605.4508000000001), (10.178, 605.4230500000001), (10.178, 605.0930500000002), (0.300000000003633, 605.66), (0.300000000003633, 605.49), (3.068, 605.5908000000001), (3.068, 605.4508000000001), (3.068, 605.4508000000001), (3.068, 605.4508000000001), (10.178, 605.0930500000002), (10.178, 605.0930500000002)]</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>[(0.3, 607.0), (0.3, 606.82), (3.15, 606.92875), (3.15, 606.7487500000001), (3.15, 606.92875), (3.15, 606.7587500000001), (10.293, 606.750175), (10.293, 606.580175), (0.3, 606.82), (0.3, 606.64), (3.15, 606.7487500000001), (3.15, 606.56875), (3.15, 606.7587500000001), (3.15, 606.58875), (10.293, 606.580175), (10.293, 606.410175), (0.3, 606.64), (0.3, 606.48), (3.15, 606.56875), (3.15, 606.43875), (3.15, 606.58875), (3.15, 606.43875), (10.293, 606.410175), (10.293, 606.250175)]</t>
+          <t>[(0.30000000000724, 607.0), (0.30000000000724, 606.82), (3.15, 606.9287500000002), (3.15, 606.7487500000002), (3.15, 606.9287500000002), (3.15, 606.6887500000001), (10.293, 606.7501750000001), (10.293, 606.4101750000001), (0.30000000000724, 606.82), (0.30000000000724, 606.64), (3.15, 606.7487500000002), (3.15, 606.5687500000001), (3.15, 606.6887500000001), (3.15, 606.4487500000001), (10.293, 606.4101750000001), (10.293, 606.0701750000002), (0.30000000000724, 606.64), (0.30000000000724, 606.48), (3.15, 606.5687500000001), (3.15, 606.4387500000001), (3.15, 606.4487500000001), (3.15, 606.4487500000001), (10.293, 606.0701750000002), (10.293, 606.0701750000002)]</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>[(0.3, 608.0), (0.3, 607.82), (3.188, 607.9278), (3.188, 607.7478000000001), (3.188, 607.9278), (3.188, 607.7678000000001), (10.333, 607.749175), (10.333, 607.5891750000001), (0.3, 607.82), (0.3, 607.64), (3.188, 607.7478000000001), (3.188, 607.5678), (3.188, 607.7678000000001), (3.188, 607.6078), (10.333, 607.5891750000001), (10.333, 607.429175), (0.3, 607.64), (0.3, 607.47), (3.188, 607.5678), (3.188, 607.4478), (3.188, 607.6078), (3.188, 607.4478), (10.333, 607.429175), (10.333, 607.289175)]</t>
+          <t>[(0.300000000005202, 608.0), (0.300000000005202, 607.82), (3.188, 607.9278000000002), (3.188, 607.7478000000002), (3.188, 607.9278000000002), (3.188, 607.6878000000002), (10.333, 607.7491750000002), (10.333, 607.4291750000001), (0.300000000005202, 607.82), (0.300000000005202, 607.64), (3.188, 607.7478000000002), (3.188, 607.5678000000001), (3.188, 607.6878000000002), (3.188, 607.4478000000001), (10.333, 607.4291750000001), (10.333, 607.1091750000002), (0.300000000005202, 607.64), (0.300000000005202, 607.47), (3.188, 607.5678000000001), (3.188, 607.4478000000001), (3.188, 607.4478000000001), (3.188, 607.4478000000001), (10.333, 607.1091750000002), (10.333, 607.1091750000002)]</t>
         </is>
       </c>
     </row>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>[(0.3, 609.0), (0.3, 608.83), (3.187, 608.927825), (3.187, 608.757825), (3.187, 608.927825), (3.187, 608.777825), (10.277, 608.750575), (10.277, 608.600575), (0.3, 608.83), (0.3, 608.66), (3.187, 608.757825), (3.187, 608.587825), (3.187, 608.777825), (3.187, 608.627825), (10.277, 608.600575), (10.277, 608.4505750000001), (0.3, 608.66), (0.3, 608.51), (3.187, 608.587825), (3.187, 608.4778249999999), (3.187, 608.627825), (3.187, 608.4778249999999), (10.277, 608.4505750000001), (10.277, 608.300575)]</t>
+          <t>[(0.299999999996078, 609.0), (0.299999999996078, 608.83), (3.187, 608.9278249999999), (3.187, 608.7578249999999), (3.187, 608.9278249999999), (3.187, 608.7078249999998), (10.277, 608.7505749999999), (10.277, 608.4305749999999), (0.299999999996078, 608.83), (0.299999999996078, 608.66), (3.187, 608.7578249999999), (3.187, 608.5878249999998), (3.187, 608.7078249999998), (3.187, 608.4878249999998), (10.277, 608.4305749999999), (10.277, 608.1105749999999), (0.299999999996078, 608.66), (0.299999999996078, 608.51), (3.187, 608.5878249999998), (3.187, 608.4778249999998), (3.187, 608.4878249999998), (3.187, 608.4878249999998), (10.277, 608.1105749999999), (10.277, 608.1105749999999)]</t>
         </is>
       </c>
     </row>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>[(0.3, 610.0), (0.3, 609.84), (3.104, 609.9299), (3.104, 609.7699), (3.104, 609.9299), (3.104, 609.6899), (10.237, 609.751575), (10.237, 609.511575), (0.3, 609.84), (0.3, 609.68), (3.104, 609.7699), (3.104, 609.6098999999999), (3.104, 609.6899), (3.104, 609.4599), (10.237, 609.511575), (10.237, 609.331575), (0.3, 609.68), (0.3, 609.52), (3.104, 609.6098999999999), (3.104, 609.4599), (3.104, 609.4599), (3.104, 609.4599), (10.237, 609.331575), (10.237, 609.331575)]</t>
+          <t>[(0.29999999999936, 610.0), (0.29999999999936, 609.84), (3.104, 609.9299), (3.104, 609.7699), (3.104, 609.9299), (3.104, 609.6899), (10.237, 609.751575), (10.237, 609.451575), (0.29999999999936, 609.84), (0.29999999999936, 609.68), (3.104, 609.7699), (3.104, 609.6098999999999), (3.104, 609.6899), (3.104, 609.4499), (10.237, 609.451575), (10.237, 609.151575), (0.29999999999936, 609.68), (0.29999999999936, 609.52), (3.104, 609.6098999999999), (3.104, 609.4599), (3.104, 609.4499), (3.104, 609.4499), (10.237, 609.151575), (10.237, 609.151575)]</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>[(0.3, 611.0), (0.3, 610.78), (3.107, 610.929825), (3.107, 610.709825), (3.107, 610.929825), (3.107, 610.739825), (10.221, 610.751975), (10.221, 610.561975), (0.3, 610.78), (0.3, 610.56), (3.107, 610.709825), (3.107, 610.569825), (3.107, 610.739825), (3.107, 610.569825), (10.221, 610.561975), (10.221, 610.371975)]</t>
+          <t>[(0.299999999996078, 611.0), (0.299999999996078, 610.78), (3.107, 610.9298249999999), (3.107, 610.7098249999999), (3.107, 610.9298249999999), (3.107, 610.749825), (10.221, 610.7519749999999), (10.221, 610.4719749999999), (0.299999999996078, 610.78), (0.299999999996078, 610.56), (3.107, 610.7098249999999), (3.107, 610.5698249999999), (3.107, 610.749825), (3.107, 610.5698249999999), (10.221, 610.4719749999999), (10.221, 610.191975)]</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>[(0.3, 612.0), (0.3, 611.85), (3.11, 611.92975), (3.11, 611.77975), (3.11, 611.92975), (3.11, 611.76975), (10.223, 611.751925), (10.223, 611.5919250000001), (0.3, 611.85), (0.3, 611.55), (3.11, 611.77975), (3.11, 611.63975), (3.11, 611.76975), (3.11, 611.63975), (10.223, 611.5919250000001), (10.223, 611.431925)]</t>
+          <t>[(0.300000000001001, 612.0), (0.300000000001001, 611.85), (3.11, 611.92975), (3.11, 611.77975), (3.11, 611.92975), (3.11, 611.78975), (10.223, 611.751925), (10.223, 611.491925), (0.300000000001001, 611.85), (0.300000000001001, 611.55), (3.11, 611.77975), (3.11, 611.63975), (3.11, 611.78975), (3.11, 611.64975), (10.223, 611.491925), (10.223, 611.231925)]</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>[(0.3, 613.0), (0.3, 612.89), (3.053, 612.931175), (3.053, 612.821175), (3.053, 612.931175), (3.053, 612.7711750000001), (10.2, 612.7525), (10.2, 612.5925000000001), (0.3, 612.89), (0.3, 612.59), (3.053, 612.821175), (3.053, 612.6511750000001), (3.053, 612.7711750000001), (3.053, 612.6511750000001), (10.2, 612.5925000000001), (10.2, 612.4425000000001)]</t>
+          <t>[(0.299999999997719, 613.0), (0.299999999997719, 612.89), (3.053, 612.9311749999999), (3.053, 612.8211749999999), (3.053, 612.9311749999999), (3.053, 612.791175), (10.2, 612.7524999999999), (10.2, 612.5024999999999), (0.299999999997719, 612.89), (0.299999999997719, 612.59), (3.053, 612.8211749999999), (3.053, 612.651175), (3.053, 612.791175), (3.053, 612.651175), (10.2, 612.5024999999999), (10.2, 612.2524999999999)]</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>[(0.3, 614.0), (0.3, 613.89), (3.035, 613.931625), (3.035, 613.821625), (3.035, 613.931625), (3.035, 613.8016250000001), (10.152, 613.7537), (10.152, 613.6237), (0.3, 613.89), (0.3, 613.61), (3.035, 613.821625), (3.035, 613.681625), (3.035, 613.8016250000001), (3.035, 613.681625), (10.152, 613.6237), (10.152, 613.5037)]</t>
+          <t>[(0.300000000001001, 614.0), (0.300000000001001, 613.89), (3.035, 613.931625), (3.035, 613.821625), (3.035, 613.931625), (3.035, 613.8016250000001), (10.152, 613.7537), (10.152, 613.6237), (0.300000000001001, 613.89), (0.300000000001001, 613.61), (3.035, 613.821625), (3.035, 613.681625), (3.035, 613.8016250000001), (3.035, 613.681625), (10.152, 613.6237), (10.152, 613.3237)]</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>[(0.3, 615.0), (0.3, 614.89), (2.954, 614.9778924708714), (2.954, 614.8678924708714), (2.954, 614.9778924708714), (2.954, 614.8678924708714), (10.073, 614.9185919810953), (10.073, 614.8085919810953), (0.3, 614.89), (0.3, 614.65), (2.954, 614.8678924708714), (2.954, 614.7278924708714), (2.954, 614.8678924708714), (2.954, 614.7278924708714), (10.073, 614.8085919810953), (10.073, 614.5785919810953)]</t>
+          <t>[(0.299999999996078, 615.0), (0.299999999996078, 614.89), (2.954, 614.9778924708714), (2.954, 614.8678924708714), (2.954, 614.9778924708714), (2.954, 614.8578924708714), (10.073, 614.9185919810953), (10.073, 614.6585919810954), (0.299999999996078, 614.89), (0.299999999996078, 614.65), (2.954, 614.8678924708714), (2.954, 614.7278924708714), (2.954, 614.8578924708714), (2.954, 614.7378924708714), (10.073, 614.6585919810954), (10.073, 614.3985919810954)]</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>[(0.3, 616.0), (0.3, 615.85), (2.865, 616.0427588311173), (2.865, 615.8927588311174), (2.865, 616.0427588311173), (2.865, 615.9027588311174), (10.083, 616.1630836821913), (10.083, 615.8830836821913), (0.3, 615.85), (0.3, 615.72), (2.865, 615.8927588311174), (2.865, 615.7627588311174), (2.865, 615.9027588311174), (2.865, 615.7627588311174), (10.083, 615.8830836821913), (10.083, 615.6030836821914)]</t>
+          <t>[(0.300000000001001, 616.0), (0.300000000001001, 615.85), (2.865, 616.0427588311173), (2.865, 615.8927588311174), (2.865, 616.0427588311173), (2.865, 615.9027588311174), (10.083, 616.1630836821913), (10.083, 615.7830836821913), (0.300000000001001, 615.85), (0.300000000001001, 615.72), (2.865, 615.8927588311174), (2.865, 615.7627588311174), (2.865, 615.9027588311174), (2.865, 615.7627588311174), (10.083, 615.7830836821913), (10.083, 615.4030836821913)]</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>[(0.3, 617.0), (0.3, 616.84), (2.993, 617.0709813794667), (2.993, 616.9109813794668), (2.993, 617.0709813794667), (2.993, 616.9109813794668), (10.141, 617.2593864668888), (10.141, 616.9193864668888), (0.3, 616.84), (0.3, 616.69), (2.993, 616.9109813794668), (2.993, 616.7609813794668), (2.993, 616.9109813794668), (2.993, 616.7509813794667), (10.141, 616.9193864668888), (10.141, 616.5793864668889)]</t>
+          <t>[(0.300000000034722, 617.0), (0.300000000034722, 616.84), (2.993, 617.0709813794658), (2.993, 616.9109813794659), (2.993, 617.0709813794658), (2.993, 616.9109813794659), (10.141, 617.2593864668879), (10.141, 616.829386466888), (0.300000000034722, 616.84), (0.300000000034722, 616.69), (2.993, 616.9109813794659), (2.993, 616.7609813794659), (2.993, 616.9109813794659), (2.993, 616.7509813794658), (10.141, 616.829386466888), (10.141, 616.3993864668879)]</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>[(0.3, 618.0), (0.3, 617.85), (3.171, 618.081518932978), (3.171, 617.9315189329781), (3.171, 618.081518932978), (3.171, 617.941518932978), (10.282, 618.2834280700057), (10.282, 617.9834280700057), (0.3, 617.85), (0.3, 617.72), (3.171, 617.9315189329781), (3.171, 617.8015189329781), (3.171, 617.941518932978), (3.171, 617.8015189329781), (10.282, 617.9834280700057), (10.282, 617.6834280700057)]</t>
+          <t>[(0.299999999996476, 618.0), (0.299999999996476, 617.85), (3.171, 618.0815189329782), (3.171, 617.9315189329782), (3.171, 618.0815189329782), (3.171, 617.9415189329782), (10.282, 618.2834280700058), (10.282, 617.8834280700058), (0.299999999996476, 617.85), (0.299999999996476, 617.72), (3.171, 617.9315189329782), (3.171, 617.8015189329782), (3.171, 617.9415189329782), (3.171, 617.8015189329782), (10.282, 617.8834280700058), (10.282, 617.4834280700059)]</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>[(0.3, 619.0), (0.3, 618.85), (3.328, 619.0921423350144), (3.328, 618.9421423350144), (3.328, 619.0921423350144), (3.328, 618.9521423350144), (10.401, 619.3073744141282), (10.401, 619.0173744141282), (0.3, 618.85), (0.3, 618.72), (3.328, 618.9421423350144), (3.328, 618.8021423350144), (3.328, 618.9521423350144), (3.328, 618.8121423350144), (10.401, 619.0173744141282), (10.401, 618.7273744141281)]</t>
+          <t>[(0.300000000023394, 619.0), (0.300000000023394, 618.85), (3.328, 619.0921423350137), (3.328, 618.9421423350137), (3.328, 619.0921423350137), (3.328, 618.9521423350137), (10.401, 619.3073744141275), (10.401, 618.9273744141275), (0.300000000023394, 618.85), (0.300000000023394, 618.72), (3.328, 618.9421423350137), (3.328, 618.8021423350137), (3.328, 618.9521423350137), (3.328, 618.8121423350137), (10.401, 618.9273744141275), (10.401, 618.5473744141275)]</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>[(0.3, 620.0), (0.3, 619.83), (3.327, 620.0982754259521), (3.327, 619.9282754259522), (3.327, 620.0982754259521), (3.327, 619.9382754259522), (10.545, 620.3326170263891), (10.545, 620.0726170263891), (0.3, 619.83), (0.3, 619.72), (3.327, 619.9282754259522), (3.327, 619.7682754259521), (3.327, 619.9382754259522), (3.327, 619.7782754259521), (10.545, 620.0726170263891), (10.545, 619.8126170263891)]</t>
+          <t>[(0.300000000106921, 620.0), (0.300000000106921, 619.83), (3.327, 620.0982754259487), (3.327, 619.9282754259488), (3.327, 620.0982754259487), (3.327, 619.9382754259487), (10.545, 620.3326170263856), (10.545, 619.9726170263856), (0.300000000106921, 619.83), (0.300000000106921, 619.72), (3.327, 619.9282754259488), (3.327, 619.7682754259487), (3.327, 619.9382754259487), (3.327, 619.7782754259487), (10.545, 619.9726170263856), (10.545, 619.6126170263856)]</t>
         </is>
       </c>
     </row>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>[(0.3, 621.0), (0.3, 620.86), (3.256, 621.1019892723141), (3.256, 620.9619892723141), (3.256, 621.1019892723141), (3.256, 620.9919892723141), (10.519, 621.3525806406553), (10.519, 621.2425806406553), (0.3, 620.86), (0.3, 620.74), (3.256, 620.9619892723141), (3.256, 620.8319892723141), (3.256, 620.9919892723141), (3.256, 620.8319892723141), (10.519, 621.2425806406553), (10.519, 620.9425806406554)]</t>
+          <t>[(0.300000000017272, 621.0), (0.300000000017272, 620.86), (3.256, 621.1019892723134), (3.256, 620.9619892723134), (3.256, 621.1019892723134), (3.256, 620.9619892723134), (10.519, 621.3525806406548), (10.519, 621.0525806406548), (0.300000000017272, 620.86), (0.300000000017272, 620.74), (3.256, 620.9619892723134), (3.256, 620.8319892723134), (3.256, 620.9619892723134), (3.256, 620.8219892723134), (10.519, 621.0525806406548), (10.519, 620.7525806406547)]</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>[(0.3, 622.0), (0.3, 621.84), (3.134, 622.09919), (3.134, 621.93919), (3.134, 622.09919), (3.134, 621.98919), (10.307, 622.350245), (10.307, 622.240245), (0.3, 621.84), (0.3, 621.68), (3.134, 621.93919), (3.134, 621.7991900000001), (3.134, 621.98919), (3.134, 621.7991900000001), (10.307, 622.240245), (10.307, 621.960245)]</t>
+          <t>[(0.29999999999711, 622.0), (0.29999999999711, 621.84), (3.134, 622.0991900000001), (3.134, 621.9391900000002), (3.134, 622.0991900000001), (3.134, 621.9491900000002), (10.307, 622.3502450000001), (10.307, 622.0602450000001), (0.29999999999711, 621.84), (0.29999999999711, 621.68), (3.134, 621.9391900000002), (3.134, 621.7991900000002), (3.134, 621.9491900000002), (3.134, 621.7991900000002), (10.307, 622.0602450000001), (10.307, 621.770245)]</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>[(0.3, 623.0), (0.3, 622.82), (2.967, 623.093345), (2.967, 622.913345), (2.967, 623.093345), (2.967, 622.873345), (10.126, 623.34391), (10.126, 623.12391), (0.3, 622.82), (0.3, 622.67), (2.967, 622.913345), (2.967, 622.733345), (2.967, 622.873345), (2.967, 622.733345), (10.126, 623.12391), (10.126, 622.90391)]</t>
+          <t>[(0.300000000002101, 623.0), (0.300000000002101, 622.82), (2.967, 623.0933449999999), (2.967, 622.9133449999999), (2.967, 623.0933449999999), (2.967, 622.9133449999999), (10.126, 623.3439099999999), (10.126, 623.0239099999999), (0.300000000002101, 622.82), (0.300000000002101, 622.67), (2.967, 622.9133449999999), (2.967, 622.7333449999999), (2.967, 622.9133449999999), (2.967, 622.7333449999999), (10.126, 623.0239099999999), (10.126, 622.70391)]</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>[(0.3, 624.0), (0.3, 623.81), (2.848, 624.08918), (2.848, 623.89918), (2.848, 624.08918), (2.848, 623.84918), (9.971, 624.338485), (9.971, 624.098485), (0.3, 623.81), (0.3, 623.65), (2.848, 623.89918), (2.848, 623.7091800000001), (2.848, 623.84918), (2.848, 623.7091800000001), (9.971, 624.098485), (9.971, 623.858485)]</t>
+          <t>[(0.299999999995529, 624.0), (0.299999999995529, 623.81), (2.848, 624.0891800000002), (2.848, 623.8991800000001), (2.848, 624.0891800000002), (2.848, 623.8991800000001), (9.971, 624.3384850000001), (9.971, 623.9984850000001), (0.299999999995529, 623.81), (0.299999999995529, 623.65), (2.848, 623.8991800000001), (2.848, 623.7091800000002), (2.848, 623.8991800000001), (2.848, 623.7091800000002), (9.971, 623.9984850000001), (9.971, 623.6584850000002)]</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>[(0.3, 625.0), (0.3, 624.86), (2.69, 625.08365), (2.69, 624.94365), (2.69, 625.08365), (2.69, 624.82365), (9.832, 625.33362), (9.832, 625.07362), (0.3, 624.86), (0.3, 624.72), (2.69, 624.94365), (2.69, 624.8036500000001), (2.69, 624.82365), (2.69, 624.6736500000001), (9.832, 625.07362), (9.832, 624.82362), (0.3, 624.72), (0.3, 624.61), (2.69, 624.8036500000001), (2.69, 624.6736500000001), (2.69, 624.6736500000001), (2.69, 624.6736500000001), (9.832, 624.82362), (9.832, 624.82362)]</t>
+          <t>[(0.299999999997985, 625.0), (0.299999999997985, 624.86), (2.69, 625.08365), (2.69, 624.94365), (2.69, 625.08365), (2.69, 624.88365), (9.832, 625.3336200000001), (9.832, 624.9836200000001), (0.299999999997985, 624.86), (0.299999999997985, 624.72), (2.69, 624.94365), (2.69, 624.8036500000001), (2.69, 624.88365), (2.69, 624.6836500000001), (9.832, 624.9836200000001), (9.832, 624.6336200000001), (0.299999999997985, 624.72), (0.299999999997985, 624.61), (2.69, 624.8036500000001), (2.69, 624.6736500000001), (2.69, 624.6836500000001), (2.69, 624.6836500000001), (9.832, 624.6336200000001), (9.832, 624.6336200000001)]</t>
         </is>
       </c>
     </row>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>[(0.3, 626.0), (0.3, 625.85), (2.411, 626.073885), (2.411, 625.923885), (2.411, 626.073885), (2.411, 625.803885), (9.637, 626.326795), (9.637, 626.056795), (0.3, 625.85), (0.3, 625.7), (2.411, 625.923885), (2.411, 625.7738850000001), (2.411, 625.803885), (2.411, 625.633885), (9.637, 626.056795), (9.637, 625.786795), (0.3, 625.7), (0.3, 625.57), (2.411, 625.7738850000001), (2.411, 625.633885), (2.411, 625.633885), (2.411, 625.633885), (9.637, 625.786795), (9.637, 625.786795)]</t>
+          <t>[(0.300000000009295, 626.0), (0.300000000009295, 625.85), (2.411, 626.0738849999997), (2.411, 625.9238849999997), (2.411, 626.0738849999997), (2.411, 625.8538849999997), (9.637, 626.3267949999997), (9.637, 625.9667949999997), (0.300000000009295, 625.85), (0.300000000009295, 625.7), (2.411, 625.9238849999997), (2.411, 625.7738849999997), (2.411, 625.8538849999997), (2.411, 625.6338849999996), (9.637, 625.9667949999997), (9.637, 625.6067949999997), (0.300000000009295, 625.7), (0.300000000009295, 625.57), (2.411, 625.7738849999997), (2.411, 625.6338849999996), (2.411, 625.6338849999996), (2.411, 625.6338849999996), (9.637, 625.6067949999997), (9.637, 625.6067949999997)]</t>
         </is>
       </c>
     </row>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>[(0.3, 627.0), (0.3, 626.73), (9.446, 627.32011), (9.446, 627.05011), (0.3, 626.73), (0.3, 626.56), (9.446, 627.05011), (9.446, 626.78011)]</t>
+          <t>[(0.299999999994226, 627.0), (0.299999999994226, 626.78), (9.446, 627.3201100000002), (9.446, 626.9601100000002), (0.299999999994226, 626.78), (0.299999999994226, 626.56), (9.446, 626.9601100000002), (9.446, 626.6001100000002)]</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>[(0.3, 628.0), (0.3, 627.72), (9.225, 628.312375), (9.225, 628.032375), (0.3, 627.72), (0.3, 627.57), (9.225, 628.032375), (9.225, 627.752375)]</t>
+          <t>[(0.300000000007299, 628.0), (0.300000000007299, 627.78), (9.225, 628.3123749999997), (9.225, 627.9323749999998), (0.300000000007299, 627.78), (0.300000000007299, 627.56), (9.225, 627.9323749999998), (9.225, 627.5523749999998)]</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>[(0.3, 629.0), (0.3, 628.72), (9.019, 629.305165), (9.019, 629.025165), (0.3, 628.72), (0.3, 628.58), (9.019, 629.025165), (9.019, 628.755165)]</t>
+          <t>[(0.3000000000023, 629.0), (0.3000000000023, 628.79), (9.019, 629.3051649999999), (9.019, 628.9351649999999), (0.3000000000023, 628.79), (0.3000000000023, 628.58), (9.019, 628.9351649999999), (9.019, 628.5651649999999)]</t>
         </is>
       </c>
     </row>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>[(0.3, 630.0), (0.3, 629.73), (8.776, 630.29666), (8.776, 630.02666), (0.3, 629.73), (0.3, 629.54), (8.776, 630.02666), (8.776, 629.75666)]</t>
+          <t>[(0.299999999997417, 630.0), (0.299999999997417, 629.73), (8.776, 630.2966600000001), (8.776, 630.0266600000001), (0.299999999997417, 629.73), (0.299999999997417, 629.54), (8.776, 630.0266600000001), (8.776, 629.7566600000001)]</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>[(0.3, 631.0), (0.3, 630.73), (8.501, 631.287035), (8.501, 631.017035), (0.3, 630.73), (0.3, 630.62), (8.501, 631.017035), (8.501, 630.757035)]</t>
+          <t>[(0.300000000004425, 631.0), (0.300000000004425, 630.73), (8.501, 631.2870349999998), (8.501, 631.0170349999999), (0.300000000004425, 630.73), (0.300000000004425, 630.62), (8.501, 631.0170349999999), (8.501, 630.7570349999999)]</t>
         </is>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>[(0.3, 632.0), (0.3, 631.78), (8.27, 632.27895), (8.27, 632.05895), (0.3, 631.78), (0.3, 631.67), (8.27, 632.05895), (8.27, 631.8489500000001)]</t>
+          <t>[(0.299999999998719, 632.0), (0.299999999998719, 631.78), (8.27, 632.27895), (8.27, 632.05895), (0.299999999998719, 631.78), (0.299999999998719, 631.67), (8.27, 632.05895), (8.27, 631.8489500000001)]</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>[(0.3, 633.0), (0.3, 632.89), (7.948, 633.26768), (7.948, 633.15768), (0.3, 632.89), (0.3, 632.71), (7.948, 633.15768), (7.948, 632.88768)]</t>
+          <t>[(0.299999999998398, 633.0), (0.299999999998398, 632.89), (7.948, 633.26768), (7.948, 633.15768), (0.299999999998398, 632.89), (0.299999999998398, 632.71), (7.948, 633.15768), (7.948, 632.88768)]</t>
         </is>
       </c>
     </row>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>[(0.3, 634.0), (0.3, 633.89), (7.674, 634.25809), (7.674, 634.14809), (0.3, 633.89), (0.3, 633.75), (7.674, 634.14809), (7.674, 633.88809)]</t>
+          <t>[(0.29999999999636, 634.0), (0.29999999999636, 633.88), (7.674, 634.2580900000002), (7.674, 633.9780900000002), (0.29999999999636, 633.88), (0.29999999999636, 633.76), (7.674, 633.9780900000002), (7.674, 633.6980900000002)]</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>[(0.3, 635.0), (0.3, 634.89), (7.402, 635.24857), (7.402, 635.13857), (0.3, 634.89), (0.3, 634.75), (7.402, 635.13857), (7.402, 634.88857)]</t>
+          <t>[(0.299999999989947, 635.0), (0.299999999989947, 634.88), (7.402, 635.2485700000003), (7.402, 634.9685700000003), (0.299999999989947, 634.88), (0.299999999989947, 634.76), (7.402, 634.9685700000003), (7.402, 634.6885700000004)]</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>[(0.3, 636.0), (0.3, 635.89), (7.108, 636.23828), (7.108, 636.12828), (0.3, 635.89), (0.3, 635.75), (7.108, 636.12828), (7.108, 635.8282800000001)]</t>
+          <t>[(0.300000000003818, 636.0), (0.300000000003818, 635.88), (7.108, 636.2382799999999), (7.108, 635.93828), (0.300000000003818, 635.88), (0.300000000003818, 635.76), (7.108, 635.93828), (7.108, 635.6382799999999)]</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>[(0.3, 637.0), (0.3, 636.87), (6.407, 637.213745), (6.407, 637.083745), (0.3, 636.87), (0.3, 636.75), (6.407, 637.083745), (6.407, 636.963745)]</t>
+          <t>[(0.300000000006734, 637.0), (0.300000000006734, 636.87), (6.407, 637.2137449999998), (6.407, 637.0837449999998), (0.300000000006734, 636.87), (0.300000000006734, 636.75), (6.407, 637.0837449999998), (6.407, 636.7837449999998)]</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>[(0.3, 638.0), (0.3, 637.87), (5.825, 638.193375), (5.825, 638.063375), (0.3, 637.87), (0.3, 637.75), (5.825, 638.063375), (5.825, 637.943375)]</t>
+          <t>[(0.299999999993071, 638.0), (0.299999999993071, 637.88), (5.825, 638.1933750000003), (5.825, 638.0733750000003), (0.299999999993071, 637.88), (0.299999999993071, 637.75), (5.825, 638.0733750000003), (5.825, 637.7733750000003)]</t>
         </is>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>[(0.3, 639.0), (0.3, 638.87), (5.138, 639.16933), (5.138, 639.03933), (0.3, 638.87), (0.3, 638.75), (5.138, 639.03933), (5.138, 638.91933)]</t>
+          <t>[(0.300000000006646, 639.0), (0.300000000006646, 638.87), (5.138, 639.1693299999997), (5.138, 639.0393299999997), (0.300000000006646, 638.87), (0.300000000006646, 638.75), (5.138, 639.0393299999997), (5.138, 638.9193299999997)]</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>[(0.3, 640.0), (0.3, 639.87), (4.619, 640.1282743), (4.619, 639.9982743), (0.3, 639.87), (0.3, 639.75), (4.619, 639.9982743), (4.619, 639.8782743)]</t>
+          <t>[(0.299999999994159, 640.0), (0.299999999994159, 639.87), (4.619, 640.1282743000002), (4.619, 639.9982743000002), (0.299999999994159, 639.87), (0.299999999994159, 639.75), (4.619, 639.9982743000002), (4.619, 639.8782743000002)]</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>[(0.3, 641.0), (0.3, 640.87), (4.396, 641.0999424), (4.396, 640.9699424), (0.3, 640.87), (0.3, 640.75), (4.396, 640.9699424), (4.396, 640.8499424)]</t>
+          <t>[(0.300000000003692, 641.0), (0.300000000003692, 640.87), (4.396, 641.0999423999999), (4.396, 640.9699423999999), (0.300000000003692, 640.87), (0.300000000003692, 640.75), (4.396, 640.9699423999999), (4.396, 640.8499423999999)]</t>
         </is>
       </c>
     </row>

--- a/output/layerCoordinates_right.xlsx
+++ b/output/layerCoordinates_right.xlsx
@@ -667,7 +667,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[(1.1499969137986, 24.0), (1.1499969137986, 23.88), (9.715, 24.5995502160341), (9.715, 24.3495502160341), (1.1499969137986, 23.88), (1.1499969137986, 23.76), (9.715, 24.3495502160341), (9.715, 24.0995502160341)]</t>
+          <t>[(1.1499969137986, 24.0), (1.1499969137986, 23.88), (9.64999691380792, 24.595000000000653), (9.64999691380792, 24.47500000000065), (1.1499969137986, 23.88), (1.1499969137986, 23.75), (9.64999691380792, 24.47500000000065), (9.64999691380792, 24.285000000000654)]</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[(0.866561087373475, 25.0), (0.866561087373475, 24.89), (9.351, 25.593910723883855), (9.351, 25.483910723883856), (0.866561087373475, 24.89), (0.866561087373475, 24.75), (9.351, 25.483910723883856), (9.351, 25.193910723883857)]</t>
+          <t>[(0.866561087373475, 25.0), (0.866561087373475, 24.88), (9.351, 25.593910723883855), (9.351, 25.473910723883854), (0.866561087373475, 24.88), (0.866561087373475, 24.75), (9.351, 25.473910723883854), (9.351, 25.193910723883857)]</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[(0.583999999998517, 26.0), (0.583999999998517, 25.88), (9.41, 26.617820000000105), (9.41, 26.357820000000103), (0.583999999998517, 25.88), (0.583999999998517, 25.76), (9.41, 26.357820000000103), (9.41, 26.097820000000105)]</t>
+          <t>[(0.583999999998517, 26.0), (0.583999999998517, 25.88), (9.08400000000783, 26.595000000000653), (9.08400000000783, 26.47500000000065), (0.583999999998517, 25.88), (0.583999999998517, 25.75), (9.08400000000783, 26.47500000000065), (9.08400000000783, 26.275000000000652)]</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[(0.299997961464745, 27.0), (0.299997961464745, 26.87), (2.881, 27.18067014269747), (2.881, 27.05067014269747), (2.881, 27.18067014269747), (2.881, 27.060670142697468), (9.82, 27.66640014269747), (9.82, 27.42640014269747), (0.299997961464745, 26.87), (0.299997961464745, 26.75), (2.881, 27.05067014269747), (2.881, 26.93067014269747), (2.881, 27.060670142697468), (2.881, 26.94067014269747), (9.82, 27.42640014269747), (9.82, 27.18640014269747)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[(0.300000000001262, 28.0), (0.300000000001262, 27.87), (3.127, 28.197889999999912), (3.127, 28.067889999999913), (3.127, 28.197889999999912), (3.127, 28.07788999999991), (10.007, 28.679489999999912), (10.007, 28.449489999999912), (0.300000000001262, 27.87), (0.300000000001262, 27.75), (3.127, 28.067889999999913), (3.127, 27.947889999999912), (3.127, 28.07788999999991), (3.127, 27.957889999999914), (10.007, 28.449489999999912), (10.007, 28.21948999999991)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[(0.299999999998216, 29.0), (0.299999999998216, 28.87), (3.307, 29.210490000000124), (3.307, 29.080490000000125), (3.307, 29.210490000000124), (3.307, 29.090490000000123), (10.224, 29.694680000000126), (10.224, 29.454680000000128), (0.299999999998216, 28.87), (0.299999999998216, 28.75), (3.307, 29.080490000000125), (3.307, 28.960490000000124), (3.307, 29.090490000000123), (3.307, 28.970490000000126), (10.224, 29.454680000000128), (10.224, 29.214680000000126)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[(0.300000000011259, 30.0), (0.300000000011259, 29.86), (3.411, 30.19724745171957), (3.411, 30.05724745171957), (3.411, 30.19724745171957), (3.411, 30.06724745171957), (10.294, 30.633651890867974), (10.294, 30.503651890867975), (0.300000000011259, 29.86), (0.300000000011259, 29.74), (3.411, 30.05724745171957), (3.411, 29.94724745171957), (3.411, 30.06724745171957), (3.411, 29.94724745171957), (10.294, 30.503651890867975), (10.294, 30.203651890867974)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[(0.300000000097712, 31.0), (0.300000000097712, 30.86), (3.192, 31.164171403379413), (3.192, 31.024171403379412), (3.192, 31.164171403379413), (3.192, 31.024171403379412), (10.131, 31.558080590131915), (10.131, 31.418080590131915), (0.300000000097712, 30.86), (0.300000000097712, 30.73), (3.192, 31.024171403379412), (3.192, 30.914171403379413), (3.192, 31.024171403379412), (3.192, 30.914171403379413), (10.131, 31.418080590131915), (10.131, 31.118080590131914)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[(0.300000000103515, 32.0), (0.300000000103515, 31.84), (3.048, 32.137761708482465), (3.048, 31.977761708482465), (3.048, 32.137761708482465), (3.048, 31.977761708482465), (9.854, 32.47895755563202), (9.854, 32.318957555632025), (0.300000000103515, 31.84), (0.300000000103515, 31.68), (3.048, 31.977761708482465), (3.048, 31.857761708482464), (3.048, 31.977761708482465), (3.048, 31.857761708482464), (9.854, 32.318957555632025), (9.854, 32.01895755563202)]</t>
+          <t>[(0.300000000103515, 32.0), (0.300000000103515, 31.84), (3.048, 32.137761708482465), (3.048, 31.977761708482465), (3.048, 32.137761708482465), (3.048, 31.987761708482466), (8.80000000000626, 32.42611882173642), (8.80000000000626, 32.27611882173642), (0.300000000103515, 31.84), (0.300000000103515, 31.68), (3.048, 31.977761708482465), (3.048, 31.857761708482464), (3.048, 31.987761708482466), (3.048, 31.857761708482464), (8.80000000000626, 32.27611882173642), (8.80000000000626, 32.15611882173642)]</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[(0.300000000013087, 33.0), (0.300000000013087, 32.81), (3.233, 33.12757325067125), (3.233, 32.93757325067125), (3.233, 33.12757325067125), (3.233, 32.917573250671246), (9.646, 33.40651196753396), (9.646, 33.19651196753396), (0.300000000013087, 32.81), (0.300000000013087, 32.63), (3.233, 32.93757325067125), (3.233, 32.79757325067125), (3.233, 32.917573250671246), (3.233, 32.79757325067125), (9.646, 33.19651196753396), (9.646, 32.89651196753396)]</t>
+          <t>[(0.300000000013087, 33.0), (0.300000000013087, 32.81), (3.233, 33.12757325067125), (3.233, 32.93757325067125), (3.233, 33.12757325067125), (3.233, 32.957573250671246), (8.80000000000142, 33.36971450075313), (8.80000000000142, 33.19971450075313), (0.300000000013087, 32.81), (0.300000000013087, 32.63), (3.233, 32.93757325067125), (3.233, 32.79757325067125), (3.233, 32.957573250671246), (3.233, 32.79757325067125), (8.80000000000142, 33.19971450075313), (8.80000000000142, 33.04971450075313)]</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[(0.300000000000589, 34.0), (0.300000000000589, 33.89), (3.417, 34.11489268592122), (3.417, 34.00489268592122), (3.417, 34.11489268592122), (3.417, 33.97489268592122), (9.666, 34.34523095808095), (9.666, 34.065230958080946), (0.300000000000589, 33.89), (0.300000000000589, 33.62), (3.417, 34.00489268592122), (3.417, 33.84489268592122), (3.417, 33.97489268592122), (3.417, 33.83489268592122), (9.666, 34.065230958080946), (9.666, 33.785230958080945)]</t>
+          <t>[(0.300000000000589, 34.0), (0.300000000000589, 33.88), (3.417, 34.11489268592122), (3.417, 33.99489268592122), (3.417, 34.11489268592122), (3.417, 33.99489268592122), (8.80000000000165, 34.31331017976603), (8.80000000000165, 34.19331017976603), (0.300000000000589, 33.88), (0.300000000000589, 33.62), (3.417, 33.99489268592122), (3.417, 33.84489268592122), (3.417, 33.99489268592122), (3.417, 33.84489268592122), (8.80000000000165, 34.19331017976603), (8.80000000000165, 33.963310179766026)]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[(0.300000000070149, 35.0), (0.300000000070149, 34.78), (3.455, 35.09535740993266), (3.455, 34.87535740993266), (3.455, 35.09535740993266), (3.455, 34.89535740993266), (9.825, 35.28788568292301), (9.825, 34.987885682923014), (0.300000000070149, 34.78), (0.300000000070149, 34.57), (3.455, 34.87535740993266), (3.455, 34.69535740993266), (3.455, 34.89535740993266), (3.455, 34.69535740993266), (9.825, 34.987885682923014), (9.825, 34.68788568292301)]</t>
+          <t>[(0.300000000070149, 35.0), (0.300000000070149, 34.78), (3.455, 35.09535740993266), (3.455, 34.87535740993266), (3.455, 35.09535740993266), (3.455, 34.95535740993266), (8.80000000000268, 35.25690585877629), (8.80000000000268, 35.11690585877629), (0.300000000070149, 34.78), (0.300000000070149, 34.57), (3.455, 34.87535740993266), (3.455, 34.69535740993266), (3.455, 34.95535740993266), (3.455, 34.81535740993266), (8.80000000000268, 35.11690585877629), (8.80000000000268, 34.97690585877629)]</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 36.0), (0.29999999999778, 35.85), (3.501, 36.063001890396244), (3.501, 35.913001890396245), (3.501, 36.063001890396244), (3.501, 35.86300189039624), (9.912, 36.18918280864993), (9.912, 35.84918280864993), (0.29999999999778, 35.85), (0.29999999999778, 35.7), (3.501, 35.913001890396245), (3.501, 35.76300189039625), (3.501, 35.86300189039624), (3.501, 35.663001890396245), (9.912, 35.84918280864993), (9.912, 35.50918280864993), (0.29999999999778, 35.7), (0.29999999999778, 35.57), (3.501, 35.76300189039625), (3.501, 35.65300189039625), (3.501, 35.663001890396245), (3.501, 35.663001890396245), (9.912, 35.50918280864993), (9.912, 35.50918280864993)]</t>
+          <t>[(0.29999999999778, 36.0), (0.29999999999778, 35.78), (3.501, 36.063001890396244), (3.501, 35.843001890396245), (3.501, 36.063001890396244), (3.501, 35.82300189039624), (8.79999999999445, 36.167296491211346), (8.79999999999445, 35.927296491211344), (0.29999999999778, 35.78), (0.29999999999778, 35.57), (3.501, 35.843001890396245), (3.501, 35.65300189039625), (3.501, 35.82300189039624), (3.501, 35.65300189039625), (8.79999999999445, 35.927296491211344), (8.79999999999445, 35.69729649121135)]</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 37.0), (0.299999999994413, 36.78), (3.543, 36.98275353188214), (3.543, 36.76275353188214), (3.543, 36.98275353188214), (3.543, 36.782753531882136), (10.008, 36.948372274903484), (10.008, 36.74837227490348), (0.299999999994413, 36.78), (0.299999999994413, 36.56), (3.543, 36.76275353188214), (3.543, 36.63275353188214), (3.543, 36.782753531882136), (3.543, 36.63275353188214), (10.008, 36.74837227490348), (10.008, 36.448372274903484)]</t>
+          <t>[(0.299999999994413, 37.0), (0.299999999994413, 36.78), (3.543, 36.98275353188214), (3.543, 36.76275353188214), (3.543, 36.98275353188214), (3.543, 36.80275353188214), (8.79999999999445, 36.95479649121136), (8.79999999999445, 36.77479649121136), (0.299999999994413, 36.78), (0.299999999994413, 36.56), (3.543, 36.76275353188214), (3.543, 36.63275353188214), (3.543, 36.80275353188214), (3.543, 36.63275353188214), (8.79999999999445, 36.77479649121136), (8.79999999999445, 36.63479649121136)]</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 38.0), (0.29999999999778, 37.82), (3.574, 37.91814999999995), (3.574, 37.73814999999995), (3.574, 37.91814999999995), (3.574, 37.718149999999945), (10.081, 37.75547499999995), (10.081, 37.555474999999944), (0.29999999999778, 37.82), (0.29999999999778, 37.52), (3.574, 37.73814999999995), (3.574, 37.608149999999945), (3.574, 37.718149999999945), (3.574, 37.608149999999945), (10.081, 37.555474999999944), (10.081, 37.36547499999995)]</t>
+          <t>[(0.29999999999778, 38.0), (0.29999999999778, 37.82), (3.574, 37.91814999999995), (3.574, 37.73814999999995), (3.574, 37.91814999999995), (3.574, 37.79814999999995), (8.79999999999445, 37.78750000000009), (8.79999999999445, 37.66750000000009), (0.29999999999778, 37.82), (0.29999999999778, 37.52), (3.574, 37.73814999999995), (3.574, 37.608149999999945), (3.574, 37.79814999999995), (3.574, 37.608149999999945), (8.79999999999445, 37.66750000000009), (8.79999999999445, 37.53750000000009)]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 39.0), (0.29999999999778, 38.79), (3.576, 38.918099999999946), (3.576, 38.708099999999945), (3.576, 38.918099999999946), (3.576, 38.678099999999944), (10.09, 38.75524999999995), (10.09, 38.515249999999945), (0.29999999999778, 38.79), (0.29999999999778, 38.49), (3.576, 38.708099999999945), (3.576, 38.558099999999946), (3.576, 38.678099999999944), (3.576, 38.558099999999946), (10.09, 38.515249999999945), (10.09, 38.28524999999995)]</t>
+          <t>[(0.29999999999778, 39.0), (0.29999999999778, 38.79), (3.576, 38.918099999999946), (3.576, 38.708099999999945), (3.576, 38.918099999999946), (3.576, 38.738099999999946), (8.79999999999782, 38.7875), (8.79999999999782, 38.6075), (0.29999999999778, 38.79), (0.29999999999778, 38.49), (3.576, 38.708099999999945), (3.576, 38.558099999999946), (3.576, 38.738099999999946), (3.576, 38.558099999999946), (8.79999999999782, 38.6075), (8.79999999999782, 38.487500000000004)]</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[(0.299999999991045, 40.0), (0.299999999991045, 39.74), (3.615, 39.91712499999978), (3.615, 39.65712499999978), (3.615, 39.91712499999978), (3.615, 39.66712499999978), (10.036, 39.75659999999978), (10.036, 39.50659999999978), (0.299999999991045, 39.74), (0.299999999991045, 39.48), (3.615, 39.65712499999978), (3.615, 39.54712499999978), (3.615, 39.66712499999978), (3.615, 39.54712499999978), (10.036, 39.50659999999978), (10.036, 39.26659999999978)]</t>
+          <t>[(0.299999999991045, 40.0), (0.299999999991045, 39.78), (3.615, 39.91712499999978), (3.615, 39.69712499999978), (3.615, 39.91712499999978), (3.615, 39.72712499999978), (8.79999999999109, 39.7875), (8.79999999999109, 39.597500000000004), (0.299999999991045, 39.78), (0.299999999991045, 39.48), (3.615, 39.69712499999978), (3.615, 39.54712499999978), (3.615, 39.72712499999978), (3.615, 39.54712499999978), (8.79999999999109, 39.597500000000004), (8.79999999999109, 39.4775)]</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 41.0), (0.29999999999778, 40.74), (3.594, 40.917649999999945), (3.594, 40.65764999999995), (3.594, 40.917649999999945), (3.594, 40.667649999999945), (10.071, 40.75572499999994), (10.071, 40.50572499999994), (0.29999999999778, 40.74), (0.29999999999778, 40.44), (3.594, 40.65764999999995), (3.594, 40.54764999999995), (3.594, 40.667649999999945), (3.594, 40.54764999999995), (10.071, 40.50572499999994), (10.071, 40.26572499999994)]</t>
+          <t>[(0.29999999999778, 41.0), (0.29999999999778, 40.72), (3.594, 40.917649999999945), (3.594, 40.737649999999945), (3.594, 40.917649999999945), (3.594, 40.72764999999995), (8.79999999999782, 40.7875), (8.79999999999782, 40.597500000000004), (0.29999999999778, 40.72), (0.29999999999778, 40.44), (3.594, 40.737649999999945), (3.594, 40.557649999999946), (3.594, 40.72764999999995), (3.594, 40.54764999999995), (8.79999999999782, 40.597500000000004), (8.79999999999782, 40.4775)]</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 42.0), (0.29999999999778, 41.76), (3.573, 41.91817499999994), (3.573, 41.67817499999994), (3.573, 41.91817499999994), (3.573, 41.66817499999994), (10.032, 41.756699999999945), (10.032, 41.506699999999945), (0.29999999999778, 41.76), (0.29999999999778, 41.46), (3.573, 41.67817499999994), (3.573, 41.548174999999944), (3.573, 41.66817499999994), (3.573, 41.548174999999944), (10.032, 41.506699999999945), (10.032, 41.26669999999994)]</t>
+          <t>[(0.29999999999778, 42.0), (0.29999999999778, 41.76), (3.573, 41.91817499999994), (3.573, 41.67817499999994), (3.573, 41.91817499999994), (3.573, 41.72817499999994), (8.79999999999782, 41.7875), (8.79999999999782, 41.597500000000004), (0.29999999999778, 41.76), (0.29999999999778, 41.46), (3.573, 41.67817499999994), (3.573, 41.548174999999944), (3.573, 41.72817499999994), (3.573, 41.548174999999944), (8.79999999999782, 41.597500000000004), (8.79999999999782, 41.4775)]</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[(0.299999999991045, 43.0), (0.299999999991045, 42.73), (3.565, 42.91837499999978), (3.565, 42.648374999999774), (3.565, 42.91837499999978), (3.565, 42.66837499999978), (10.038, 42.75654999999978), (10.038, 42.50654999999978), (0.299999999991045, 42.73), (0.299999999991045, 42.47), (3.565, 42.648374999999774), (3.565, 42.51837499999978), (3.565, 42.66837499999978), (3.565, 42.51837499999978), (10.038, 42.50654999999978), (10.038, 42.266549999999775)]</t>
+          <t>[(0.299999999991045, 43.0), (0.299999999991045, 42.73), (3.565, 42.91837499999978), (3.565, 42.648374999999774), (3.565, 42.91837499999978), (3.565, 42.718374999999774), (8.79999999999445, 42.787499999999916), (8.79999999999445, 42.58749999999991), (0.299999999991045, 42.73), (0.299999999991045, 42.47), (3.565, 42.648374999999774), (3.565, 42.51837499999978), (3.565, 42.718374999999774), (3.565, 42.51837499999978), (8.79999999999445, 42.58749999999991), (8.79999999999445, 42.467499999999916)]</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 44.0), (0.29999999999778, 43.73), (3.569, 43.918274999999944), (3.569, 43.64827499999994), (3.569, 43.918274999999944), (3.569, 43.658274999999946), (10.025, 43.756874999999944), (10.025, 43.496874999999946), (0.29999999999778, 43.73), (0.29999999999778, 43.46), (3.569, 43.64827499999994), (3.569, 43.518274999999946), (3.569, 43.658274999999946), (3.569, 43.518274999999946), (10.025, 43.496874999999946), (10.025, 43.23687499999994)]</t>
+          <t>[(0.29999999999778, 44.0), (0.29999999999778, 43.73), (3.569, 43.918274999999944), (3.569, 43.64827499999994), (3.569, 43.918274999999944), (3.569, 43.71827499999994), (8.80000000000119, 43.787499999999916), (8.80000000000119, 43.58749999999991), (0.29999999999778, 43.73), (0.29999999999778, 43.46), (3.569, 43.64827499999994), (3.569, 43.518274999999946), (3.569, 43.71827499999994), (3.569, 43.518274999999946), (8.80000000000119, 43.58749999999991), (8.80000000000119, 43.44749999999991)]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 45.0), (0.29999999999778, 44.71), (3.578, 44.918049999999944), (3.578, 44.628049999999945), (3.578, 44.918049999999944), (3.578, 44.64804999999994), (10.008, 44.757299999999944), (10.008, 44.48729999999994), (0.29999999999778, 44.71), (0.29999999999778, 44.43), (3.578, 44.628049999999945), (3.578, 44.49804999999994), (3.578, 44.64804999999994), (3.578, 44.49804999999994), (10.008, 44.48729999999994), (10.008, 44.217299999999945)]</t>
+          <t>[(0.29999999999778, 45.0), (0.29999999999778, 44.71), (3.578, 44.918049999999944), (3.578, 44.628049999999945), (3.578, 44.918049999999944), (3.578, 44.70804999999994), (8.79999999999782, 44.7875), (8.79999999999782, 44.5775), (0.29999999999778, 44.71), (0.29999999999778, 44.43), (3.578, 44.628049999999945), (3.578, 44.49804999999994), (3.578, 44.70804999999994), (3.578, 44.49804999999994), (8.79999999999782, 44.5775), (8.79999999999782, 44.417500000000004)]</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[(0.299999999991045, 46.0), (0.299999999991045, 45.7), (3.588, 45.91779999999978), (3.588, 45.61779999999978), (3.588, 45.91779999999978), (3.588, 45.647799999999776), (10.079, 45.75552499999978), (10.079, 45.485524999999775), (0.299999999991045, 45.7), (0.299999999991045, 45.41), (3.588, 45.61779999999978), (3.588, 45.50779999999978), (3.588, 45.647799999999776), (3.588, 45.50779999999978), (10.079, 45.485524999999775), (10.079, 45.21552499999978)]</t>
+          <t>[(0.299999999991045, 46.0), (0.299999999991045, 45.71), (3.588, 45.91779999999978), (3.588, 45.62779999999978), (3.588, 45.91779999999978), (3.588, 45.70779999999978), (8.79999999999109, 45.7875), (8.79999999999109, 45.5775), (0.299999999991045, 45.71), (0.299999999991045, 45.41), (3.588, 45.62779999999978), (3.588, 45.50779999999978), (3.588, 45.70779999999978), (3.588, 45.50779999999978), (8.79999999999109, 45.5775), (8.79999999999109, 45.417500000000004)]</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 47.0), (0.299999999994413, 46.72), (3.69, 46.91524999999986), (3.69, 46.63524999999986), (3.69, 46.91524999999986), (3.69, 46.63524999999986), (10.075, 46.75562499999986), (10.075, 46.47562499999986), (0.299999999994413, 46.72), (0.299999999994413, 46.44), (3.69, 46.63524999999986), (3.69, 46.52524999999986), (3.69, 46.63524999999986), (3.69, 46.52524999999986), (10.075, 46.47562499999986), (10.075, 46.20562499999986)]</t>
+          <t>[(0.299999999994413, 47.0), (0.299999999994413, 46.74), (3.69, 46.91524999999986), (3.69, 46.65524999999986), (3.69, 46.91524999999986), (3.69, 46.715249999999855), (8.79999999999445, 46.7875), (8.79999999999445, 46.5875), (0.299999999994413, 46.74), (0.299999999994413, 46.44), (3.69, 46.65524999999986), (3.69, 46.52524999999986), (3.69, 46.715249999999855), (3.69, 46.52524999999986), (8.79999999999445, 46.5875), (8.79999999999445, 46.417500000000004)]</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 48.0), (0.299999999994413, 47.71), (3.68, 47.91549999999986), (3.68, 47.62549999999986), (3.68, 47.91549999999986), (3.68, 47.62549999999986), (10.077, 47.75557499999986), (10.077, 47.46557499999986), (0.299999999994413, 47.71), (0.299999999994413, 47.42), (3.68, 47.62549999999986), (3.68, 47.50549999999986), (3.68, 47.62549999999986), (3.68, 47.50549999999986), (10.077, 47.46557499999986), (10.077, 47.17557499999986)]</t>
+          <t>[(0.299999999994413, 48.0), (0.299999999994413, 47.71), (3.68, 47.91549999999986), (3.68, 47.62549999999986), (3.68, 47.91549999999986), (3.68, 47.70549999999986), (8.79999999999445, 47.7875), (8.79999999999445, 47.5775), (0.299999999994413, 47.71), (0.299999999994413, 47.42), (3.68, 47.62549999999986), (3.68, 47.50549999999986), (3.68, 47.70549999999986), (3.68, 47.50549999999986), (8.79999999999445, 47.5775), (8.79999999999445, 47.3975)]</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 49.0), (0.299999999994413, 48.71), (3.677, 48.91557499999986), (3.677, 48.62557499999986), (3.677, 48.91557499999986), (3.677, 48.63557499999986), (10.098, 48.75504999999986), (10.098, 48.47504999999986), (0.299999999994413, 48.71), (0.299999999994413, 48.43), (3.677, 48.62557499999986), (3.677, 48.49557499999986), (3.677, 48.63557499999986), (3.677, 48.49557499999986), (10.098, 48.47504999999986), (10.098, 48.205049999999865)]</t>
+          <t>[(0.299999999994413, 49.0), (0.299999999994413, 48.71), (3.677, 48.91557499999986), (3.677, 48.62557499999986), (3.677, 48.91557499999986), (3.677, 48.70557499999986), (8.79999999999445, 48.7875), (8.79999999999445, 48.5775), (0.299999999994413, 48.71), (0.299999999994413, 48.43), (3.677, 48.62557499999986), (3.677, 48.49557499999986), (3.677, 48.70557499999986), (3.677, 48.49557499999986), (8.79999999999445, 48.5775), (8.79999999999445, 48.4075)]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 50.0), (0.299999999994413, 49.71), (3.71, 49.91474999999986), (3.71, 49.624749999999864), (3.71, 49.91474999999986), (3.71, 49.624749999999864), (10.163, 49.75342499999986), (10.163, 49.46342499999986), (0.299999999994413, 49.71), (0.299999999994413, 49.42), (3.71, 49.624749999999864), (3.71, 49.49474999999986), (3.71, 49.624749999999864), (3.71, 49.49474999999986), (10.163, 49.46342499999986), (10.163, 49.17342499999986)]</t>
+          <t>[(0.299999999994413, 50.0), (0.299999999994413, 49.71), (3.71, 49.91474999999986), (3.71, 49.624749999999864), (3.71, 49.91474999999986), (3.71, 49.70474999999986), (8.79999999999782, 49.787499999999916), (8.79999999999782, 49.577499999999915), (0.299999999994413, 49.71), (0.299999999994413, 49.42), (3.71, 49.624749999999864), (3.71, 49.49474999999986), (3.71, 49.70474999999986), (3.71, 49.49474999999986), (8.79999999999782, 49.577499999999915), (8.79999999999782, 49.397499999999916)]</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 51.0), (0.299999999994413, 50.71), (3.725, 50.91437499999986), (3.725, 50.62437499999986), (3.725, 50.91437499999986), (3.725, 50.63437499999986), (10.161, 50.75347499999986), (10.161, 50.47347499999986), (0.299999999994413, 50.71), (0.299999999994413, 50.42), (3.725, 50.62437499999986), (3.725, 50.494374999999856), (3.725, 50.63437499999986), (3.725, 50.494374999999856), (10.161, 50.47347499999986), (10.161, 50.19347499999986)]</t>
+          <t>[(0.299999999994413, 51.0), (0.299999999994413, 50.71), (3.725, 50.91437499999986), (3.725, 50.62437499999986), (3.725, 50.91437499999986), (3.725, 50.70437499999986), (8.79999999999782, 50.787499999999916), (8.79999999999782, 50.577499999999915), (0.299999999994413, 50.71), (0.299999999994413, 50.42), (3.725, 50.62437499999986), (3.725, 50.494374999999856), (3.725, 50.70437499999986), (3.725, 50.494374999999856), (8.79999999999782, 50.577499999999915), (8.79999999999782, 50.407499999999914)]</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 52.0), (0.29999999999778, 51.7), (3.678, 51.915549999999946), (3.678, 51.61554999999995), (3.678, 51.915549999999946), (3.678, 51.64554999999994), (10.155, 51.75362499999994), (10.155, 51.48362499999994), (0.29999999999778, 51.7), (0.29999999999778, 51.41), (3.678, 51.61554999999995), (3.678, 51.50554999999995), (3.678, 51.64554999999994), (3.678, 51.50554999999995), (10.155, 51.48362499999994), (10.155, 51.22362499999994)]</t>
+          <t>[(0.29999999999778, 52.0), (0.29999999999778, 51.71), (3.678, 51.915549999999946), (3.678, 51.62554999999995), (3.678, 51.915549999999946), (3.678, 51.705549999999945), (8.79999999999445, 51.78750000000009), (8.79999999999445, 51.577500000000086), (0.29999999999778, 51.71), (0.29999999999778, 51.41), (3.678, 51.62554999999995), (3.678, 51.50554999999995), (3.678, 51.705549999999945), (3.678, 51.50554999999995), (8.79999999999445, 51.577500000000086), (8.79999999999445, 51.437500000000085)]</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 53.0), (0.29999999999778, 52.72), (3.669, 52.91577499999995), (3.669, 52.635774999999946), (3.669, 52.91577499999995), (3.669, 52.645774999999944), (10.171, 52.753224999999944), (10.171, 52.48322499999994), (0.29999999999778, 52.72), (0.29999999999778, 52.44), (3.669, 52.635774999999946), (3.669, 52.48577499999995), (3.669, 52.645774999999944), (3.669, 52.48577499999995), (10.171, 52.48322499999994), (10.171, 52.213224999999944)]</t>
+          <t>[(0.29999999999778, 53.0), (0.29999999999778, 52.72), (3.669, 52.91577499999995), (3.669, 52.635774999999946), (3.669, 52.91577499999995), (3.669, 52.69577499999995), (8.79999999999782, 52.7875), (8.79999999999782, 52.5675), (0.29999999999778, 52.72), (0.29999999999778, 52.44), (3.669, 52.635774999999946), (3.669, 52.48577499999995), (3.669, 52.69577499999995), (3.669, 52.48577499999995), (8.79999999999782, 52.5675), (8.79999999999782, 52.417500000000004)]</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[(0.299999999991045, 54.0), (0.299999999991045, 53.72), (3.737, 53.91407499999978), (3.737, 53.634074999999775), (3.737, 53.91407499999978), (3.737, 53.65407499999978), (10.21, 53.752249999999776), (10.21, 53.49224999999978), (0.299999999991045, 53.72), (0.299999999991045, 53.45), (3.737, 53.634074999999775), (3.737, 53.51407499999978), (3.737, 53.65407499999978), (3.737, 53.51407499999978), (10.21, 53.49224999999978), (10.21, 53.23224999999977)]</t>
+          <t>[(0.299999999991045, 54.0), (0.299999999991045, 53.72), (3.737, 53.91407499999978), (3.737, 53.634074999999775), (3.737, 53.91407499999978), (3.737, 53.714074999999774), (8.79999999999109, 53.7875), (8.79999999999109, 53.5875), (0.299999999991045, 53.72), (0.299999999991045, 53.45), (3.737, 53.634074999999775), (3.737, 53.51407499999978), (3.737, 53.714074999999774), (3.737, 53.51407499999978), (8.79999999999109, 53.5875), (8.79999999999109, 53.4375)]</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 55.0), (0.29999999999778, 54.72), (3.764, 54.913399999999946), (3.764, 54.633399999999945), (3.764, 54.913399999999946), (3.764, 54.633399999999945), (10.263, 54.750924999999945), (10.263, 54.470924999999944), (0.29999999999778, 54.72), (0.29999999999778, 54.45), (3.764, 54.633399999999945), (3.764, 54.50339999999995), (3.764, 54.633399999999945), (3.764, 54.50339999999995), (10.263, 54.470924999999944), (10.263, 54.20092499999995)]</t>
+          <t>[(0.29999999999778, 55.0), (0.29999999999778, 54.72), (3.764, 54.913399999999946), (3.764, 54.633399999999945), (3.764, 54.913399999999946), (3.764, 54.703399999999945), (8.79999999999782, 54.7875), (8.79999999999782, 54.5775), (0.29999999999778, 54.72), (0.29999999999778, 54.45), (3.764, 54.633399999999945), (3.764, 54.50339999999995), (3.764, 54.703399999999945), (3.764, 54.50339999999995), (8.79999999999782, 54.5775), (8.79999999999782, 54.417500000000004)]</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[(0.300000000001148, 56.0), (0.300000000001148, 55.76), (3.701, 55.91497500000003), (3.701, 55.674975000000025), (3.701, 55.91497500000003), (3.701, 55.65497500000003), (10.257, 55.75107500000003), (10.257, 55.49107500000003), (0.300000000001148, 55.76), (0.300000000001148, 55.46), (3.701, 55.674975000000025), (3.701, 55.54497500000003), (3.701, 55.65497500000003), (3.701, 55.54497500000003), (10.257, 55.49107500000003), (10.257, 55.24107500000003)]</t>
+          <t>[(0.300000000001148, 56.0), (0.300000000001148, 55.76), (3.701, 55.91497500000003), (3.701, 55.674975000000025), (3.701, 55.91497500000003), (3.701, 55.72497500000003), (8.79999999999782, 55.78750000000009), (8.79999999999782, 55.59750000000009), (0.300000000001148, 55.76), (0.300000000001148, 55.46), (3.701, 55.674975000000025), (3.701, 55.54497500000003), (3.701, 55.72497500000003), (3.701, 55.54497500000003), (8.79999999999782, 55.59750000000009), (8.79999999999782, 55.45750000000009)]</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 57.0), (0.299999999994413, 56.8), (3.712, 56.91469999999986), (3.712, 56.71469999999986), (3.712, 56.91469999999986), (3.712, 56.67469999999986), (10.244, 56.75139999999986), (10.244, 56.51139999999986), (0.299999999994413, 56.8), (0.299999999994413, 56.5), (3.712, 56.71469999999986), (3.712, 56.56469999999986), (3.712, 56.67469999999986), (3.712, 56.56469999999986), (10.244, 56.51139999999986), (10.244, 56.271399999999865)]</t>
+          <t>[(0.299999999994413, 57.0), (0.299999999994413, 56.8), (3.712, 56.91469999999986), (3.712, 56.71469999999986), (3.712, 56.91469999999986), (3.712, 56.73469999999986), (8.79999999999445, 56.7875), (8.79999999999445, 56.6075), (0.299999999994413, 56.8), (0.299999999994413, 56.5), (3.712, 56.71469999999986), (3.712, 56.56469999999986), (3.712, 56.73469999999986), (3.712, 56.56469999999986), (8.79999999999445, 56.6075), (8.79999999999445, 56.4775)]</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 58.0), (0.29999999999778, 57.75), (3.798, 57.912549999999946), (3.798, 57.662549999999946), (3.798, 57.912549999999946), (3.798, 57.672549999999944), (10.267, 57.75082499999994), (10.267, 57.51082499999994), (0.29999999999778, 57.75), (0.29999999999778, 57.5), (3.798, 57.662549999999946), (3.798, 57.55254999999995), (3.798, 57.672549999999944), (3.798, 57.55254999999995), (10.267, 57.51082499999994), (10.267, 57.28082499999994)]</t>
+          <t>[(0.29999999999778, 58.0), (0.29999999999778, 57.8), (3.798, 57.912549999999946), (3.798, 57.71254999999994), (3.798, 57.912549999999946), (3.798, 57.73254999999995), (8.79999999999445, 57.78750000000009), (8.79999999999445, 57.60750000000009), (0.29999999999778, 57.8), (0.29999999999778, 57.5), (3.798, 57.71254999999994), (3.798, 57.55254999999995), (3.798, 57.73254999999995), (3.798, 57.55254999999995), (8.79999999999445, 57.60750000000009), (8.79999999999445, 57.48750000000009)]</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 59.0), (0.29999999999778, 58.82), (3.805, 58.91237499999995), (3.805, 58.73237499999995), (3.805, 58.91237499999995), (3.805, 58.79237499999995), (10.228, 58.751799999999946), (10.228, 58.63179999999995), (0.29999999999778, 58.82), (0.29999999999778, 58.52), (3.805, 58.73237499999995), (3.805, 58.61237499999995), (3.805, 58.79237499999995), (3.805, 58.61237499999995), (10.228, 58.63179999999995), (10.228, 58.331799999999944)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 60.0), (0.299999999994413, 59.85), (3.788, 59.91279999999986), (3.788, 59.762799999999864), (3.788, 59.91279999999986), (3.788, 59.80279999999986), (10.299, 59.75002499999986), (10.299, 59.64002499999986), (0.299999999994413, 59.85), (0.299999999994413, 59.55), (3.788, 59.762799999999864), (3.788, 59.64279999999986), (3.788, 59.80279999999986), (3.788, 59.64279999999986), (10.299, 59.64002499999986), (10.299, 59.35002499999986)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 61.0), (0.29999999999778, 60.89), (3.805, 60.91237499999995), (3.805, 60.80237499999995), (3.805, 60.91237499999995), (3.805, 60.80237499999995), (10.314, 60.749649999999946), (10.314, 60.639649999999946), (0.29999999999778, 60.89), (0.29999999999778, 60.6), (3.805, 60.80237499999995), (3.805, 60.65237499999995), (3.805, 60.80237499999995), (3.805, 60.65237499999995), (10.314, 60.639649999999946), (10.314, 60.36964999999994)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 62.0), (0.299999999994413, 61.86), (3.851, 61.91122499999986), (3.851, 61.77122499999986), (3.851, 61.91122499999986), (3.851, 61.80122499999986), (10.351, 61.74872499999986), (10.351, 61.63872499999986), (0.299999999994413, 61.86), (0.299999999994413, 61.56), (3.851, 61.77122499999986), (3.851, 61.66122499999986), (3.851, 61.80122499999986), (3.851, 61.66122499999986), (10.351, 61.63872499999986), (10.351, 61.368724999999856)]</t>
+          <t>[(0.299999999994413, 62.0), (0.299999999994413, 61.78), (3.851, 61.91122499999986), (3.851, 61.79122499999986), (3.851, 61.91122499999986), (3.851, 61.78122499999986), (8.79999999999445, 61.7875), (8.79999999999445, 61.6575), (0.299999999994413, 61.78), (0.299999999994413, 61.56), (3.851, 61.79122499999986), (3.851, 61.67122499999986), (3.851, 61.78122499999986), (3.851, 61.66122499999986), (8.79999999999445, 61.6575), (8.79999999999445, 61.5375)]</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 63.0), (0.29999999999778, 62.87), (3.857, 62.91107499999995), (3.857, 62.781074999999944), (3.857, 62.91107499999995), (3.857, 62.80107499999995), (10.352, 62.74869999999994), (10.352, 62.63869999999994), (0.29999999999778, 62.87), (0.29999999999778, 62.57), (3.857, 62.781074999999944), (3.857, 62.66107499999995), (3.857, 62.80107499999995), (3.857, 62.66107499999995), (10.352, 62.63869999999994), (10.352, 62.348699999999944)]</t>
+          <t>[(0.29999999999778, 63.0), (0.29999999999778, 62.87), (3.857, 62.91107499999995), (3.857, 62.781074999999944), (3.857, 62.91107499999995), (3.857, 62.781074999999944), (8.79999999999445, 62.78750000000009), (8.79999999999445, 62.657500000000084), (0.29999999999778, 62.87), (0.29999999999778, 62.57), (3.857, 62.781074999999944), (3.857, 62.66107499999995), (3.857, 62.781074999999944), (3.857, 62.66107499999995), (8.79999999999445, 62.657500000000084), (8.79999999999445, 62.53750000000009)]</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 64.0), (0.299999999994413, 63.82), (3.848, 63.91129999999986), (3.848, 63.73129999999986), (3.848, 63.91129999999986), (3.848, 63.78129999999986), (10.313, 63.74967499999986), (10.313, 63.61967499999986), (0.299999999994413, 63.82), (0.299999999994413, 63.52), (3.848, 63.73129999999986), (3.848, 63.611299999999865), (3.848, 63.78129999999986), (3.848, 63.611299999999865), (10.313, 63.61967499999986), (10.313, 63.31967499999986)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 65.0), (0.299999999994413, 64.82), (4.012, 64.90719999999986), (4.012, 64.72719999999985), (4.012, 64.90719999999986), (4.012, 64.79719999999986), (10.294, 64.75014999999986), (10.294, 64.64014999999986), (0.299999999994413, 64.82), (0.299999999994413, 64.52), (4.012, 64.72719999999985), (4.012, 64.61719999999985), (4.012, 64.79719999999986), (4.012, 64.61719999999985), (10.294, 64.64014999999986), (10.294, 64.34014999999987)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 66.0), (0.299999999994413, 65.76), (4.182, 65.90294999999986), (4.182, 65.76294999999986), (4.182, 65.90294999999986), (4.182, 65.79294999999986), (10.244, 65.75139999999986), (10.244, 65.64139999999986), (0.299999999994413, 65.76), (0.299999999994413, 65.52), (4.182, 65.76294999999986), (4.182, 65.62294999999986), (4.182, 65.79294999999986), (4.182, 65.62294999999986), (10.244, 65.64139999999986), (10.244, 65.34139999999987)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 67.0), (0.29999999999778, 66.74), (4.448, 66.89629999999994), (4.448, 66.75629999999994), (4.448, 66.89629999999994), (4.448, 66.78629999999994), (10.189, 66.75277499999994), (10.189, 66.64277499999994), (0.29999999999778, 66.74), (0.29999999999778, 66.48), (4.448, 66.75629999999994), (4.448, 66.61629999999994), (4.448, 66.78629999999994), (4.448, 66.61629999999994), (10.189, 66.64277499999994), (10.189, 66.35277499999994)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 68.0), (0.299999999994413, 67.76), (4.625, 67.89187499999986), (4.625, 67.75187499999986), (4.625, 67.89187499999986), (4.625, 67.78187499999986), (10.135, 67.75412499999986), (10.135, 67.64412499999986), (0.299999999994413, 67.76), (0.299999999994413, 67.52), (4.625, 67.75187499999986), (4.625, 67.61187499999986), (4.625, 67.78187499999986), (4.625, 67.61187499999986), (10.135, 67.64412499999986), (10.135, 67.35412499999985)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 69.0), (0.299999999994413, 68.76), (4.781, 68.88797499999986), (4.781, 68.74797499999985), (4.781, 68.88797499999986), (4.781, 68.77797499999986), (10.02, 68.75699999999986), (10.02, 68.64699999999986), (0.299999999994413, 68.76), (0.299999999994413, 68.52), (4.781, 68.74797499999985), (4.781, 68.60797499999985), (4.781, 68.77797499999986), (4.781, 68.61797499999986), (10.02, 68.64699999999986), (10.02, 68.35699999999986)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 70.0), (0.299999999994413, 69.76), (5.027, 69.88182499999986), (5.027, 69.76182499999986), (5.027, 69.88182499999986), (5.027, 69.77182499999986), (9.937, 69.75907499999985), (9.937, 69.64907499999985), (0.299999999994413, 69.76), (0.299999999994413, 69.52), (5.027, 69.76182499999986), (5.027, 69.64182499999987), (5.027, 69.77182499999986), (5.027, 69.63182499999986), (9.937, 69.64907499999985), (9.937, 69.35907499999985)]</t>
+          <t>[(0.299999999994413, 70.0), (0.299999999994413, 69.76), (5.027, 69.88182499999986), (5.027, 69.76182499999986), (5.027, 69.88182499999986), (5.027, 69.75182499999987), (8.79999999999782, 69.78749999999991), (8.79999999999782, 69.65749999999991), (0.299999999994413, 69.76), (0.299999999994413, 69.52), (5.027, 69.76182499999986), (5.027, 69.64182499999987), (5.027, 69.75182499999987), (5.027, 69.63182499999986), (8.79999999999782, 69.65749999999991), (8.79999999999782, 69.53749999999991)]</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 71.0), (0.299999999994413, 70.76), (5.335, 70.87412499999986), (5.335, 70.75412499999986), (5.335, 70.87412499999986), (5.335, 70.76412499999986), (9.799, 70.76252499999985), (9.799, 70.65252499999986), (0.299999999994413, 70.76), (0.299999999994413, 70.52), (5.335, 70.75412499999986), (5.335, 70.63412499999987), (5.335, 70.76412499999986), (5.335, 70.62412499999986), (9.799, 70.65252499999986), (9.799, 70.38252499999986)]</t>
+          <t>[(0.299999999994413, 71.0), (0.299999999994413, 70.76), (5.335, 70.87412499999986), (5.335, 70.75412499999986), (5.335, 70.87412499999986), (5.335, 70.74412499999987), (8.79999999999782, 70.78749999999991), (8.79999999999782, 70.65749999999991), (0.299999999994413, 70.76), (0.299999999994413, 70.52), (5.335, 70.75412499999986), (5.335, 70.63412499999987), (5.335, 70.74412499999987), (5.335, 70.62412499999986), (8.79999999999782, 70.65749999999991), (8.79999999999782, 70.53749999999991)]</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 72.0), (0.29999999999778, 71.86), (5.665, 71.86587499999995), (5.665, 71.72587499999995), (5.665, 71.86587499999995), (5.665, 71.75587499999995), (9.721, 71.76447499999995), (9.721, 71.65447499999995), (0.29999999999778, 71.86), (0.29999999999778, 71.56), (5.665, 71.72587499999995), (5.665, 71.61587499999995), (5.665, 71.75587499999995), (5.665, 71.61587499999995), (9.721, 71.65447499999995), (9.721, 71.36447499999994)]</t>
+          <t>[(0.29999999999778, 72.0), (0.29999999999778, 71.78), (5.665, 71.86587499999995), (5.665, 71.74587499999994), (5.665, 71.86587499999995), (5.665, 71.73587499999995), (8.79999999999782, 71.7875), (8.79999999999782, 71.6575), (0.29999999999778, 71.78), (0.29999999999778, 71.56), (5.665, 71.74587499999994), (5.665, 71.62587499999995), (5.665, 71.73587499999995), (5.665, 71.61587499999995), (8.79999999999782, 71.6575), (8.79999999999782, 71.5375)]</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 73.0), (0.29999999999778, 72.89), (6.02, 72.88778486532196), (6.02, 72.77778486532196), (6.02, 72.88778486532196), (6.02, 72.75778486532197), (9.668, 72.81621828991892), (9.668, 72.68621828991893), (0.29999999999778, 72.89), (0.29999999999778, 72.59), (6.02, 72.77778486532196), (6.02, 72.63778486532196), (6.02, 72.75778486532197), (6.02, 72.63778486532196), (9.668, 72.68621828991893), (9.668, 72.38621828991892)]</t>
+          <t>[(0.29999999999778, 73.0), (0.29999999999778, 72.88), (6.02, 72.88778486532196), (6.02, 72.76778486532196), (6.02, 72.88778486532196), (6.02, 72.75778486532197), (8.79999999999782, 72.83324674042605), (8.79999999999782, 72.70324674042605), (0.29999999999778, 72.88), (0.29999999999778, 72.59), (6.02, 72.76778486532196), (6.02, 72.63778486532196), (6.02, 72.75778486532197), (6.02, 72.63778486532196), (8.79999999999782, 72.70324674042605), (8.79999999999782, 72.58324674042605)]</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 74.0), (0.29999999999778, 73.86), (6.342, 74.03251785948873), (6.342, 73.89251785948873), (6.342, 74.03251785948873), (6.342, 73.83251785948873), (9.862, 74.05146239199458), (9.862, 73.70146239199458), (0.29999999999778, 73.86), (0.29999999999778, 73.72), (6.342, 73.89251785948873), (6.342, 73.75251785948873), (6.342, 73.83251785948873), (6.342, 73.63251785948873), (9.862, 73.70146239199458), (9.862, 73.35146239199457), (0.29999999999778, 73.72), (0.29999999999778, 73.59), (6.342, 73.75251785948873), (6.342, 73.63251785948873), (6.342, 73.63251785948873), (6.342, 73.63251785948873), (9.862, 73.35146239199457), (9.862, 73.35146239199457)]</t>
+          <t>[(0.29999999999778, 74.0), (0.29999999999778, 73.86), (6.342, 74.03251785948873), (6.342, 73.89251785948873), (6.342, 74.03251785948873), (6.342, 73.79251785948874), (8.79999999999782, 74.04574674042604), (8.79999999999782, 73.80574674042604), (0.29999999999778, 73.86), (0.29999999999778, 73.72), (6.342, 73.89251785948873), (6.342, 73.75251785948873), (6.342, 73.79251785948874), (6.342, 73.63251785948873), (8.79999999999782, 73.80574674042604), (8.79999999999782, 73.57574674042604), (0.29999999999778, 73.72), (0.29999999999778, 73.59), (6.342, 73.75251785948873), (6.342, 73.63251785948873), (6.342, 73.63251785948873), (6.342, 73.63251785948873), (8.79999999999782, 73.57574674042604), (8.79999999999782, 73.57574674042604)]</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[(0.299999999995624, 75.0), (0.299999999995624, 74.77), (6.655, 75.16581809043396), (6.655, 74.93581809043395), (6.655, 75.16581809043396), (6.655, 74.94581809043396), (10.118, 75.256176555764), (10.118, 74.856176555764), (0.299999999995624, 74.77), (0.299999999995624, 74.65), (6.655, 74.93581809043395), (6.655, 74.71581809043396), (6.655, 74.94581809043396), (6.655, 74.72581809043396), (10.118, 74.856176555764), (10.118, 74.456176555764)]</t>
+          <t>[(0.299999999995624, 75.0), (0.299999999995624, 74.77), (6.655, 75.16581809043396), (6.655, 74.93581809043395), (6.655, 75.16581809043396), (6.655, 74.88581809043396), (8.79999999999048, 75.22178658830634), (8.79999999999048, 74.94178658830634), (0.299999999995624, 74.77), (0.299999999995624, 74.65), (6.655, 74.93581809043395), (6.655, 74.71581809043396), (6.655, 74.88581809043396), (6.655, 74.71581809043396), (8.79999999999048, 74.94178658830634), (8.79999999999048, 74.66178658830634)]</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[(0.300000000001985, 76.0), (0.300000000001985, 75.86), (6.902, 76.20576809776458), (6.902, 76.06576809776458), (6.902, 76.20576809776458), (6.902, 75.98576809776458), (10.384, 76.31429347135082), (10.384, 75.89429347135082), (0.300000000001985, 75.86), (0.300000000001985, 75.71), (6.902, 76.06576809776458), (6.902, 75.76576809776458), (6.902, 75.98576809776458), (6.902, 75.76576809776458), (10.384, 75.89429347135082), (10.384, 75.47429347135082)]</t>
+          <t>[(0.300000000001985, 76.0), (0.300000000001985, 75.86), (6.902, 76.20576809776458), (6.902, 76.06576809776458), (6.902, 76.20576809776458), (6.902, 75.92576809776457), (8.80000000000235, 76.26492408830649), (8.80000000000235, 75.98492408830649), (0.300000000001985, 75.86), (0.300000000001985, 75.71), (6.902, 76.06576809776458), (6.902, 75.76576809776458), (6.902, 75.92576809776457), (6.902, 75.76576809776458), (8.80000000000235, 75.98492408830649), (8.80000000000235, 75.70492408830648)]</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[(0.300000000035618, 77.0), (0.300000000035618, 76.89), (7.115, 77.24699290874092), (7.115, 77.13699290874092), (7.115, 77.24699290874092), (7.115, 77.04699290874092), (10.582, 77.37264579423017), (10.582, 76.99264579423017), (0.300000000035618, 76.89), (0.300000000035618, 76.74), (7.115, 77.13699290874092), (7.115, 76.83699290874092), (7.115, 77.04699290874092), (7.115, 76.84699290874092), (10.582, 76.99264579423017), (10.582, 76.61264579423016)]</t>
+          <t>[(0.300000000035618, 77.0), (0.300000000035618, 76.88), (7.115, 77.24699290874092), (7.115, 77.12699290874092), (7.115, 77.24699290874092), (7.115, 76.99699290874092), (8.7999999999966, 77.30806158830508), (8.7999999999966, 77.05806158830508), (0.300000000035618, 76.88), (0.300000000035618, 76.74), (7.115, 77.12699290874092), (7.115, 76.83699290874092), (7.115, 76.99699290874092), (7.115, 76.83699290874092), (8.7999999999966, 77.05806158830508), (8.7999999999966, 76.81806158830508)]</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[(0.300000000094991, 78.0), (0.300000000094991, 77.89), (7.277, 78.288272475186), (7.277, 78.178272475186), (7.277, 78.288272475186), (7.277, 78.088272475186), (10.758, 78.43209883123247), (10.758, 78.07209883123247), (0.300000000094991, 77.89), (0.300000000094991, 77.75), (7.277, 78.178272475186), (7.277, 77.87827247518601), (7.277, 78.088272475186), (7.277, 77.888272475186), (10.758, 78.07209883123247), (10.758, 77.71209883123247)]</t>
+          <t>[(0.300000000094991, 78.0), (0.300000000094991, 77.88), (7.277, 78.288272475186), (7.277, 78.168272475186), (7.277, 78.288272475186), (7.277, 78.04827247518601), (8.80000000000213, 78.35119908830265), (8.80000000000213, 78.11119908830266), (0.300000000094991, 77.88), (0.300000000094991, 77.75), (7.277, 78.168272475186), (7.277, 77.87827247518601), (7.277, 78.04827247518601), (7.277, 77.87827247518601), (8.80000000000213, 78.11119908830266), (8.80000000000213, 77.88119908830265)]</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[(0.300000000159503, 79.0), (0.300000000159503, 78.89), (7.361, 79.32757772352579), (7.361, 79.21757772352579), (7.361, 79.32757772352579), (7.361, 79.1675777235258), (10.8000000000098, 79.48712166790106), (10.8000000000098, 79.18712166790107), (0.300000000159503, 78.89), (0.300000000159503, 78.75), (7.361, 79.21757772352579), (7.361, 78.9975777235258), (7.361, 79.1675777235258), (7.361, 79.0075777235258), (10.8000000000098, 79.18712166790107), (10.8000000000098, 78.88712166790107)]</t>
+          <t>[(0.300000000159503, 79.0), (0.300000000159503, 78.88), (7.361, 79.32757772352579), (7.361, 79.20757772352579), (7.361, 79.32757772352579), (7.361, 79.1375777235258), (8.80000000000889, 79.3943365882995), (8.80000000000889, 79.2043365882995), (0.300000000159503, 78.88), (0.300000000159503, 78.75), (7.361, 79.20757772352579), (7.361, 78.9975777235258), (7.361, 79.1375777235258), (7.361, 78.9975777235258), (8.80000000000889, 79.2043365882995), (8.80000000000889, 79.02433658829949)]</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[(0.300000000058679, 80.0), (0.300000000058679, 79.89), (7.368, 80.36377257130877), (7.368, 80.25377257130877), (7.368, 80.36377257130877), (7.368, 80.19377257130877), (10.7999999999972, 80.54040916790484), (10.7999999999972, 80.24040916790484), (0.300000000058679, 79.89), (0.300000000058679, 79.75), (7.368, 80.25377257130877), (7.368, 80.02377257130877), (7.368, 80.19377257130877), (7.368, 80.02377257130877), (10.7999999999972, 80.24040916790484), (10.7999999999972, 79.94040916790485)]</t>
+          <t>[(0.300000000058679, 80.0), (0.300000000058679, 79.88), (7.368, 80.36377257130877), (7.368, 80.24377257130877), (7.368, 80.36377257130877), (7.368, 80.17377257130877), (8.79999999999667, 80.43747408830329), (8.79999999999667, 80.24747408830329), (0.300000000058679, 79.88), (0.300000000058679, 79.75), (7.368, 80.24377257130877), (7.368, 80.02377257130877), (7.368, 80.17377257130877), (7.368, 80.02377257130877), (8.79999999999667, 80.24747408830329), (8.79999999999667, 80.0574740883033)]</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[(0.30000000000976, 81.0), (0.30000000000976, 80.89), (7.318, 81.3968155443212), (7.318, 81.2868155443212), (7.318, 81.3968155443212), (7.318, 81.2368155443212), (10.7999999999929, 81.59369666790705), (10.7999999999929, 81.29369666790706), (0.30000000000976, 80.89), (0.30000000000976, 80.75), (7.318, 81.2868155443212), (7.318, 81.0768155443212), (7.318, 81.2368155443212), (7.318, 81.0768155443212), (10.7999999999929, 81.29369666790706), (10.7999999999929, 80.99369666790706)]</t>
+          <t>[(0.30000000000976, 81.0), (0.30000000000976, 80.88), (7.318, 81.3968155443212), (7.318, 81.2768155443212), (7.318, 81.3968155443212), (7.318, 81.2168155443212), (8.79999999999202, 81.48061158830548), (8.79999999999202, 81.30061158830547), (0.30000000000976, 80.88), (0.30000000000976, 80.75), (7.318, 81.2768155443212), (7.318, 81.0768155443212), (7.318, 81.2168155443212), (7.318, 81.0768155443212), (8.79999999999202, 81.30061158830547), (8.79999999999202, 81.12061158830548)]</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[(0.299999999996575, 82.0), (0.299999999996575, 81.89), (7.162, 82.4117200000002), (7.162, 82.3017200000002), (7.162, 82.4117200000002), (7.162, 82.2417200000002), (10.656, 82.62136000000021), (10.656, 82.29136000000021), (0.299999999996575, 81.89), (0.299999999996575, 81.75), (7.162, 82.3017200000002), (7.162, 82.0717200000002), (7.162, 82.2417200000002), (7.162, 82.0717200000002), (10.656, 82.29136000000021), (10.656, 81.96136000000021)]</t>
+          <t>[(0.299999999996575, 82.0), (0.299999999996575, 81.88), (7.162, 82.4117200000002), (7.162, 82.2917200000002), (7.162, 82.4117200000002), (7.162, 82.2117200000002), (8.80000000000147, 82.51000000000029), (8.80000000000147, 82.31000000000029), (0.299999999996575, 81.88), (0.299999999996575, 81.75), (7.162, 82.2917200000002), (7.162, 82.0717200000002), (7.162, 82.2117200000002), (7.162, 82.0717200000002), (8.80000000000147, 82.31000000000029), (8.80000000000147, 82.11000000000028)]</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[(0.300000000002671, 83.0), (0.300000000002671, 82.89), (6.907, 83.39641999999984), (6.907, 83.28641999999984), (6.907, 83.39641999999984), (6.907, 83.23641999999984), (10.419, 83.60713999999984), (10.419, 83.27713999999985), (0.300000000002671, 82.89), (0.300000000002671, 82.75), (6.907, 83.28641999999984), (6.907, 83.06641999999984), (6.907, 83.23641999999984), (6.907, 83.07641999999984), (10.419, 83.27713999999985), (10.419, 82.94713999999985)]</t>
+          <t>[(0.300000000002671, 83.0), (0.300000000002671, 82.88), (6.907, 83.39641999999984), (6.907, 83.27641999999983), (6.907, 83.39641999999984), (6.907, 83.18641999999984), (8.80000000000704, 83.51000000000026), (8.80000000000704, 83.30000000000027), (0.300000000002671, 82.88), (0.300000000002671, 82.75), (6.907, 83.27641999999983), (6.907, 83.06641999999984), (6.907, 83.18641999999984), (6.907, 83.06641999999984), (8.80000000000704, 83.30000000000027), (8.80000000000704, 83.10000000000026)]</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[(0.299999999997408, 84.0), (0.299999999997408, 83.89), (6.722, 84.38532000000015), (6.722, 84.27532000000015), (6.722, 84.38532000000015), (6.722, 84.22532000000015), (10.272, 84.59832000000016), (10.272, 84.25832000000015), (0.299999999997408, 83.89), (0.299999999997408, 83.75), (6.722, 84.27532000000015), (6.722, 84.06532000000016), (6.722, 84.22532000000015), (6.722, 84.06532000000016), (10.272, 84.25832000000015), (10.272, 83.91832000000015)]</t>
+          <t>[(0.299999999997408, 84.0), (0.299999999997408, 83.88), (6.722, 84.38532000000015), (6.722, 84.26532000000014), (6.722, 84.38532000000015), (6.722, 84.26532000000014), (8.79999999999951, 84.51000000000013), (8.79999999999951, 84.39000000000013), (0.299999999997408, 83.88), (0.299999999997408, 83.75), (6.722, 84.26532000000014), (6.722, 84.06532000000016), (6.722, 84.26532000000014), (6.722, 84.06532000000016), (8.79999999999951, 84.39000000000013), (8.79999999999951, 84.10000000000014)]</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[(0.299999999999467, 86.0), (0.299999999999467, 85.89), (6.576, 86.37656000000003), (6.576, 86.26656000000003), (6.576, 86.37656000000003), (6.576, 86.21656000000003), (10.059, 86.58554000000004), (10.059, 86.26554000000004), (0.299999999999467, 85.89), (0.299999999999467, 85.75), (6.576, 86.26656000000003), (6.576, 86.06656000000002), (6.576, 86.21656000000003), (6.576, 86.05656000000003), (10.059, 86.26554000000004), (10.059, 85.94554000000004)]</t>
+          <t>[(0.299999999999467, 86.0), (0.299999999999467, 85.88), (6.576, 86.37656000000003), (6.576, 86.25656000000002), (6.576, 86.37656000000003), (6.576, 86.25656000000002), (8.80000000000066, 86.51000000000008), (8.80000000000066, 86.39000000000007), (0.299999999999467, 85.88), (0.299999999999467, 85.75), (6.576, 86.25656000000002), (6.576, 86.06656000000002), (6.576, 86.25656000000002), (6.576, 86.06656000000002), (8.80000000000066, 86.39000000000007), (8.80000000000066, 86.12000000000008)]</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[(0.300000000002703, 87.0), (0.300000000002703, 86.86), (6.48, 87.37079999999983), (6.48, 87.23079999999983), (6.48, 87.37079999999983), (6.48, 87.23079999999983), (9.998, 87.58187999999984), (9.998, 87.29187999999984), (0.300000000002703, 86.86), (0.300000000002703, 86.75), (6.48, 87.23079999999983), (6.48, 87.10079999999984), (6.48, 87.23079999999983), (6.48, 87.09079999999983), (9.998, 87.29187999999984), (9.998, 87.00187999999984)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[(0.300000000001779, 88.0), (0.300000000001779, 87.86), (6.635, 88.3800999999999), (6.635, 88.2400999999999), (6.635, 88.3800999999999), (6.635, 88.2400999999999), (9.953, 88.5791799999999), (9.953, 88.2791799999999), (0.300000000001779, 87.86), (0.300000000001779, 87.75), (6.635, 88.2400999999999), (6.635, 88.1100999999999), (6.635, 88.2400999999999), (6.635, 88.1000999999999), (9.953, 88.2791799999999), (9.953, 87.9791799999999)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[(0.300000000000641, 90.0), (0.300000000000641, 89.87), (6.313, 90.36077999999996), (6.313, 90.23077999999997), (6.313, 90.36077999999996), (6.313, 90.24077999999996), (9.848, 90.57287999999996), (9.848, 90.29287999999995), (0.300000000000641, 89.87), (0.300000000000641, 89.75), (6.313, 90.23077999999997), (6.313, 90.11077999999996), (6.313, 90.24077999999996), (6.313, 90.12077999999997), (9.848, 90.29287999999995), (9.848, 90.01287999999995)]</t>
+          <t>[(0.300000000000641, 90.0), (0.300000000000641, 89.87), (6.313, 90.36077999999996), (6.313, 90.23077999999997), (6.313, 90.36077999999996), (6.313, 90.24077999999996), (8.79999999999656, 90.50999999999975), (8.79999999999656, 90.38999999999974), (0.300000000000641, 89.87), (0.300000000000641, 89.75), (6.313, 90.23077999999997), (6.313, 90.11077999999996), (6.313, 90.24077999999996), (6.313, 90.11077999999996), (8.79999999999656, 90.38999999999974), (8.79999999999656, 90.18999999999976)]</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[(0.299999999999156, 93.0), (0.299999999999156, 92.86), (6.389, 93.36534000000005), (6.389, 93.22534000000005), (6.389, 93.36534000000005), (6.389, 93.22534000000005), (9.862, 93.57372000000005), (9.862, 93.27372000000005), (0.299999999999156, 92.86), (0.299999999999156, 92.75), (6.389, 93.22534000000005), (6.389, 93.09534000000005), (6.389, 93.22534000000005), (6.389, 93.08534000000004), (9.862, 93.27372000000005), (9.862, 92.97372000000006)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[(0.29999999999871, 94.0), (0.29999999999871, 93.86), (6.389, 94.36534000000007), (6.389, 94.22534000000007), (6.389, 94.36534000000007), (6.389, 94.23534000000008), (9.879, 94.57474000000008), (9.879, 94.28474000000007), (0.29999999999871, 93.86), (0.29999999999871, 93.75), (6.389, 94.22534000000007), (6.389, 94.10534000000007), (6.389, 94.23534000000008), (6.389, 94.10534000000007), (9.879, 94.28474000000007), (9.879, 93.99474000000008)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[(0.300000000001064, 95.0), (0.300000000001064, 94.87), (6.432, 95.36791999999994), (6.432, 95.23791999999995), (6.432, 95.36791999999994), (6.432, 95.24791999999994), (9.887, 95.57521999999993), (9.887, 95.29521999999993), (0.300000000001064, 94.87), (0.300000000001064, 94.75), (6.432, 95.23791999999995), (6.432, 95.11791999999994), (6.432, 95.24791999999994), (6.432, 95.12791999999995), (9.887, 95.29521999999993), (9.887, 95.01521999999993)]</t>
+          <t>[(0.300000000001064, 95.0), (0.300000000001064, 94.87), (6.432, 95.36791999999994), (6.432, 95.23791999999995), (6.432, 95.36791999999994), (6.432, 95.24791999999994), (8.79999999999888, 95.50999999999986), (8.79999999999888, 95.38999999999986), (0.300000000001064, 94.87), (0.300000000001064, 94.75), (6.432, 95.23791999999995), (6.432, 95.11791999999994), (6.432, 95.24791999999994), (6.432, 95.11791999999994), (8.79999999999888, 95.38999999999986), (8.79999999999888, 95.17999999999986)]</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[(0.299999999999618, 96.0), (0.299999999999618, 95.87), (6.457, 96.36942000000002), (6.457, 96.23942000000002), (6.457, 96.36942000000002), (6.457, 96.24942000000001), (9.98, 96.58080000000002), (9.98, 96.30080000000002), (0.299999999999618, 95.87), (0.299999999999618, 95.75), (6.457, 96.23942000000002), (6.457, 96.11942000000002), (6.457, 96.24942000000001), (6.457, 96.12942000000002), (9.98, 96.30080000000002), (9.98, 96.02080000000002)]</t>
+          <t>[(0.299999999999618, 96.0), (0.299999999999618, 95.87), (6.457, 96.36942000000002), (6.457, 96.23942000000002), (6.457, 96.36942000000002), (6.457, 96.24942000000001), (8.79999999999794, 96.5099999999999), (8.79999999999794, 96.3899999999999), (0.299999999999618, 95.87), (0.299999999999618, 95.75), (6.457, 96.23942000000002), (6.457, 96.11942000000002), (6.457, 96.24942000000001), (6.457, 96.11942000000002), (8.79999999999794, 96.3899999999999), (8.79999999999794, 96.18999999999991)]</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[(0.300000000087984, 97.0), (0.300000000087984, 96.87), (6.56, 97.35607754594419), (6.56, 97.2260775459442), (6.56, 97.35607754594419), (6.56, 97.23607754594418), (10.044, 97.55425233349801), (10.044, 97.28425233349802), (0.300000000087984, 96.87), (0.300000000087984, 96.75), (6.56, 97.2260775459442), (6.56, 97.10607754594419), (6.56, 97.23607754594418), (6.56, 97.1160775459442), (10.044, 97.28425233349802), (10.044, 97.014252333498)]</t>
+          <t>[(0.300000000087984, 97.0), (0.300000000087984, 96.87), (6.56, 97.35607754594419), (6.56, 97.2260775459442), (6.56, 97.35607754594419), (6.56, 97.23607754594418), (8.79999999999993, 97.48349187548511), (8.79999999999993, 97.36349187548511), (0.300000000087984, 96.87), (0.300000000087984, 96.75), (6.56, 97.2260775459442), (6.56, 97.10607754594419), (6.56, 97.23607754594418), (6.56, 97.10607754594419), (8.79999999999993, 97.36349187548511), (8.79999999999993, 97.17349187548511)]</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[(0.30000000002776, 98.0), (0.30000000002776, 97.87), (6.652, 98.28646344144754), (6.652, 98.15646344144754), (6.652, 98.28646344144754), (6.652, 98.16646344144753), (10.169, 98.4450736309273), (10.169, 98.32507363092729), (0.30000000002776, 97.87), (0.30000000002776, 97.75), (6.652, 98.15646344144754), (6.652, 98.03646344144754), (6.652, 98.16646344144753), (6.652, 98.03646344144754), (10.169, 98.32507363092729), (10.169, 98.0250736309273)]</t>
+          <t>[(0.30000000002776, 98.0), (0.30000000002776, 97.87), (6.652, 98.28646344144754), (6.652, 98.15646344144754), (6.652, 98.28646344144754), (6.652, 98.15646344144754), (8.80000000000252, 98.38333426516176), (8.80000000000252, 98.25333426516177), (0.30000000002776, 97.87), (0.30000000002776, 97.75), (6.652, 98.15646344144754), (6.652, 98.03646344144754), (6.652, 98.15646344144754), (6.652, 98.03646344144754), (8.80000000000252, 98.25333426516177), (8.80000000000252, 98.13333426516176)]</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[(0.30000000000277, 99.0), (0.30000000000277, 98.87), (6.722, 99.2139482914534), (6.722, 99.08394829145341), (6.722, 99.2139482914534), (6.722, 99.1039482914534), (10.092, 99.3262195063706), (10.092, 99.2162195063706), (0.30000000000277, 98.87), (0.30000000000277, 98.75), (6.722, 99.08394829145341), (6.722, 98.9639482914534), (6.722, 99.1039482914534), (6.722, 98.9639482914534), (10.092, 99.2162195063706), (10.092, 98.9562195063706)]</t>
+          <t>[(0.30000000000277, 99.0), (0.30000000000277, 98.87), (6.722, 99.2139482914534), (6.722, 99.08394829145341), (6.722, 99.2139482914534), (6.722, 99.08394829145341), (8.80000000000027, 99.2831766548356), (8.80000000000027, 99.1531766548356), (0.30000000000277, 98.87), (0.30000000000277, 98.75), (6.722, 99.08394829145341), (6.722, 98.9639482914534), (6.722, 99.08394829145341), (6.722, 98.9639482914534), (8.80000000000027, 99.1531766548356), (8.80000000000027, 99.0331766548356)]</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[(0.300000000010577, 100.0), (0.300000000010577, 99.87), (6.445, 100.1636310649405), (6.445, 100.03363106494051), (6.445, 100.1636310649405), (6.445, 100.0536310649405), (9.929, 100.25640415367177), (9.929, 100.14640415367177), (0.300000000010577, 99.87), (0.300000000010577, 99.75), (6.445, 100.03363106494051), (6.445, 99.9136310649405), (6.445, 100.0536310649405), (6.445, 99.9136310649405), (9.929, 100.14640415367177), (9.929, 99.90640415367177)]</t>
+          <t>[(0.300000000010577, 100.0), (0.300000000010577, 99.87), (6.445, 100.1636310649405), (6.445, 100.03363106494051), (6.445, 100.1636310649405), (6.445, 100.03363106494051), (8.80000000000052, 100.22634077331082), (8.80000000000052, 100.09634077331083), (0.300000000010577, 99.87), (0.300000000010577, 99.75), (6.445, 100.03363106494051), (6.445, 99.9136310649405), (6.445, 100.03363106494051), (6.445, 99.9136310649405), (8.80000000000052, 100.09634077331083), (8.80000000000052, 99.97634077331082)]</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[(0.300000000055869, 101.0), (0.300000000055869, 100.87), (6.237, 101.15543056905005), (6.237, 101.02543056905006), (6.237, 101.15543056905005), (6.237, 101.03543056905005), (9.711, 101.2463798358321), (9.711, 101.1263798358321), (0.300000000055869, 100.87), (0.300000000055869, 100.75), (6.237, 101.02543056905006), (6.237, 100.90543056905005), (6.237, 101.03543056905005), (6.237, 100.90543056905005), (9.711, 101.1263798358321), (9.711, 100.8263798358321)]</t>
+          <t>[(0.300000000055869, 101.0), (0.300000000055869, 100.87), (6.237, 101.15543056905005), (6.237, 101.02543056905006), (6.237, 101.15543056905005), (6.237, 101.02543056905006), (8.80000000000165, 101.22252986978769), (8.80000000000165, 101.0925298697877), (0.300000000055869, 100.87), (0.300000000055869, 100.75), (6.237, 101.02543056905006), (6.237, 100.90543056905005), (6.237, 101.02543056905006), (6.237, 100.90543056905005), (8.80000000000165, 101.0925298697877), (8.80000000000165, 100.97252986978769)]</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[(0.300000000134832, 102.0), (0.300000000134832, 101.87), (6.118, 102.14970669949561), (6.118, 102.01970669949561), (6.118, 102.14970669949561), (6.118, 102.0297066994956), (9.615, 102.2396902553822), (9.615, 101.9796902553822), (0.300000000134832, 101.87), (0.300000000134832, 101.75), (6.118, 102.01970669949561), (6.118, 101.89970669949561), (6.118, 102.0297066994956), (6.118, 101.90970669949562), (9.615, 101.9796902553822), (9.615, 101.7196902553822)]</t>
+          <t>[(0.300000000134832, 102.0), (0.300000000134832, 101.87), (6.118, 102.14970669949561), (6.118, 102.01970669949561), (6.118, 102.14970669949561), (6.118, 102.0297066994956), (8.8000000000064, 102.21871896626382), (8.8000000000064, 102.09871896626382), (0.300000000134832, 101.87), (0.300000000134832, 101.75), (6.118, 102.01970669949561), (6.118, 101.89970669949561), (6.118, 102.0297066994956), (6.118, 101.89970669949561), (8.8000000000064, 102.09871896626382), (8.8000000000064, 101.90871896626382)]</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[(0.300000000110513, 103.0), (0.300000000110513, 102.86), (6.068, 103.14583408304591), (6.068, 103.00583408304591), (6.068, 103.14583408304591), (6.068, 103.01583408304592), (9.584, 103.2347301711179), (9.584, 102.9347301711179), (0.300000000110513, 102.86), (0.300000000110513, 102.75), (6.068, 103.00583408304591), (6.068, 102.8858340830459), (6.068, 103.01583408304592), (6.068, 102.8858340830459), (9.584, 102.9347301711179), (9.584, 102.63473017111791)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[(0.300000000000174, 106.0), (0.300000000000174, 105.89), (6.128, 105.85430000000001), (6.128, 105.74430000000001), (6.128, 105.85430000000001), (6.128, 105.74430000000001), (9.617, 105.767075), (9.617, 105.657075), (0.300000000000174, 105.89), (0.300000000000174, 105.66), (6.128, 105.74430000000001), (6.128, 105.60430000000001), (6.128, 105.74430000000001), (6.128, 105.60430000000001), (9.617, 105.657075), (9.617, 105.407075)]</t>
+          <t>[(0.300000000000174, 106.0), (0.300000000000174, 105.88), (6.128, 105.85430000000001), (6.128, 105.7343), (6.128, 105.85430000000001), (6.128, 105.72430000000001), (8.79999999999746, 105.78750000000007), (8.79999999999746, 105.65750000000007), (0.300000000000174, 105.88), (0.300000000000174, 105.66), (6.128, 105.7343), (6.128, 105.60430000000001), (6.128, 105.72430000000001), (6.128, 105.60430000000001), (8.79999999999746, 105.65750000000007), (8.79999999999746, 105.53750000000007)]</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[(0.299999999996536, 107.0), (0.299999999996536, 106.89), (6.097, 106.85507499999991), (6.097, 106.74507499999991), (6.097, 106.85507499999991), (6.097, 106.74507499999991), (9.605, 106.76737499999992), (9.605, 106.65737499999992), (0.299999999996536, 106.89), (0.299999999996536, 106.6), (6.097, 106.74507499999991), (6.097, 106.60507499999991), (6.097, 106.74507499999991), (6.097, 106.60507499999991), (9.605, 106.65737499999992), (9.605, 106.40737499999992)]</t>
+          <t>[(0.299999999996536, 107.0), (0.299999999996536, 106.88), (6.097, 106.85507499999991), (6.097, 106.73507499999991), (6.097, 106.85507499999991), (6.097, 106.72507499999992), (8.8000000000011, 106.78749999999988), (8.8000000000011, 106.65749999999989), (0.299999999996536, 106.88), (0.299999999996536, 106.6), (6.097, 106.73507499999991), (6.097, 106.60507499999991), (6.097, 106.72507499999992), (6.097, 106.60507499999991), (8.8000000000011, 106.65749999999989), (8.8000000000011, 106.53749999999988)]</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[(0.300000000000174, 108.0), (0.300000000000174, 107.86), (6.117, 107.85457500000001), (6.117, 107.71457500000001), (6.117, 107.85457500000001), (6.117, 107.74457500000001), (9.599, 107.767525), (9.599, 107.657525), (0.300000000000174, 107.86), (0.300000000000174, 107.56), (6.117, 107.71457500000001), (6.117, 107.60457500000001), (6.117, 107.74457500000001), (6.117, 107.60457500000001), (9.599, 107.657525), (9.599, 107.38752500000001)]</t>
+          <t>[(0.300000000000174, 108.0), (0.300000000000174, 107.78), (6.117, 107.85457500000001), (6.117, 107.734575), (6.117, 107.85457500000001), (6.117, 107.72457500000002), (8.8000000000011, 107.78749999999998), (8.8000000000011, 107.65749999999998), (0.300000000000174, 107.78), (0.300000000000174, 107.56), (6.117, 107.734575), (6.117, 107.61457500000002), (6.117, 107.72457500000002), (6.117, 107.60457500000001), (8.8000000000011, 107.65749999999998), (8.8000000000011, 107.53749999999998)]</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[(0.299999999996536, 109.0), (0.299999999996536, 108.89), (6.177, 108.85307499999992), (6.177, 108.74307499999992), (6.177, 108.85307499999992), (6.177, 108.70307499999991), (9.632, 108.76669999999991), (9.632, 108.61669999999991), (0.299999999996536, 108.89), (0.299999999996536, 108.6), (6.177, 108.74307499999992), (6.177, 108.57307499999992), (6.177, 108.70307499999991), (6.177, 108.57307499999992), (9.632, 108.61669999999991), (9.632, 108.31669999999991)]</t>
+          <t>[(0.299999999996536, 109.0), (0.299999999996536, 108.88), (6.177, 108.85307499999992), (6.177, 108.73307499999991), (6.177, 108.85307499999992), (6.177, 108.70307499999991), (8.79999999999746, 108.78749999999998), (8.79999999999746, 108.63749999999997), (0.299999999996536, 108.88), (0.299999999996536, 108.6), (6.177, 108.73307499999991), (6.177, 108.57307499999992), (6.177, 108.70307499999991), (6.177, 108.57307499999992), (8.79999999999746, 108.63749999999997), (8.79999999999746, 108.51749999999998)]</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[(0.300000000000174, 110.0), (0.300000000000174, 109.81), (6.137, 109.85407500000001), (6.137, 109.66407500000001), (6.137, 109.85407500000001), (6.137, 109.61407500000001), (9.692, 109.76520000000001), (9.692, 109.52520000000001), (0.300000000000174, 109.81), (0.300000000000174, 109.63), (6.137, 109.66407500000001), (6.137, 109.50407500000001), (6.137, 109.61407500000001), (6.137, 109.50407500000001), (9.692, 109.52520000000001), (9.692, 109.2252)]</t>
+          <t>[(0.300000000000174, 110.0), (0.300000000000174, 109.81), (6.137, 109.85407500000001), (6.137, 109.66407500000001), (6.137, 109.85407500000001), (6.137, 109.674075), (8.8000000000011, 109.78749999999998), (8.8000000000011, 109.60749999999997), (0.300000000000174, 109.81), (0.300000000000174, 109.63), (6.137, 109.66407500000001), (6.137, 109.50407500000001), (6.137, 109.674075), (6.137, 109.50407500000001), (8.8000000000011, 109.60749999999997), (8.8000000000011, 109.43749999999999)]</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[(0.300000000108038, 111.0), (0.300000000108038, 110.82), (6.312, 110.82593141404251), (6.312, 110.64593141404251), (6.312, 110.82593141404251), (6.312, 110.66593141404252), (9.813, 110.72456512670918), (9.813, 110.46456512670918), (0.300000000108038, 110.82), (0.300000000108038, 110.65), (6.312, 110.64593141404251), (6.312, 110.50593141404252), (6.312, 110.66593141404252), (6.312, 110.50593141404252), (9.813, 110.46456512670918), (9.813, 110.20456512670918)]</t>
+          <t>[(0.300000000108038, 111.0), (0.300000000108038, 110.82), (6.312, 110.82593141404251), (6.312, 110.64593141404251), (6.312, 110.82593141404251), (6.312, 110.65593141404251), (8.80000000000234, 110.75389504646594), (8.80000000000234, 110.58389504646594), (0.300000000108038, 110.82), (0.300000000108038, 110.65), (6.312, 110.64593141404251), (6.312, 110.50593141404252), (6.312, 110.65593141404251), (6.312, 110.50593141404252), (8.80000000000234, 110.58389504646594), (8.80000000000234, 110.41389504646594)]</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[(0.300000000002292, 112.0), (0.300000000002292, 111.81), (6.418, 111.79769728581374), (6.418, 111.60769728581374), (6.418, 111.79769728581374), (6.418, 111.62769728581374), (9.979, 111.67994639251242), (9.979, 111.40994639251242), (0.300000000002292, 111.81), (0.300000000002292, 111.62), (6.418, 111.60769728581374), (6.418, 111.45769728581374), (6.418, 111.62769728581374), (6.418, 111.45769728581374), (9.979, 111.40994639251242), (9.979, 111.13994639251241)]</t>
+          <t>[(0.300000000002292, 112.0), (0.300000000002292, 111.81), (6.418, 111.79769728581374), (6.418, 111.60769728581374), (6.418, 111.79769728581374), (6.418, 111.61769728581373), (8.7999999999953, 111.71893215583812), (8.7999999999953, 111.53893215583811), (0.300000000002292, 111.81), (0.300000000002292, 111.62), (6.418, 111.60769728581374), (6.418, 111.45769728581374), (6.418, 111.61769728581373), (6.418, 111.45769728581374), (8.7999999999953, 111.53893215583811), (8.7999999999953, 111.36893215583812)]</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[(0.300000000032186, 113.0), (0.300000000032186, 112.78), (6.512, 112.76903730300148), (6.512, 112.54903730300148), (6.512, 112.76903730300148), (6.512, 112.58903730300148), (10.147, 112.63388768877194), (10.147, 112.35388768877193), (0.300000000032186, 112.78), (0.300000000032186, 112.56), (6.512, 112.54903730300148), (6.512, 112.41903730300149), (6.512, 112.58903730300148), (6.512, 112.40903730300148), (10.147, 112.35388768877193), (10.147, 112.07388768877193)]</t>
+          <t>[(0.300000000032186, 113.0), (0.300000000032186, 112.78), (6.512, 112.76903730300148), (6.512, 112.54903730300148), (6.512, 112.76903730300148), (6.512, 112.58903730300148), (8.79999999999705, 112.68396926521419), (8.79999999999705, 112.50396926521418), (0.300000000032186, 112.78), (0.300000000032186, 112.56), (6.512, 112.54903730300148), (6.512, 112.41903730300149), (6.512, 112.58903730300148), (6.512, 112.41903730300149), (8.79999999999705, 112.50396926521418), (8.79999999999705, 112.32396926521419)]</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[(0.300000000043829, 114.0), (0.300000000043829, 113.79), (6.414, 113.74753234991127), (6.414, 113.53753234991127), (6.414, 113.74753234991127), (6.414, 113.50753234991127), (10.269, 113.58834641744494), (10.269, 113.34834641744494), (0.300000000043829, 113.79), (0.300000000043829, 113.59), (6.414, 113.53753234991127), (6.414, 113.38753234991127), (6.414, 113.50753234991127), (6.414, 113.38753234991127), (10.269, 113.34834641744494), (10.269, 113.04834641744493)]</t>
+          <t>[(0.300000000043829, 114.0), (0.300000000043829, 113.79), (6.414, 113.74753234991127), (6.414, 113.53753234991127), (6.414, 113.74753234991127), (6.414, 113.56753234991126), (8.79999999999761, 113.64900637458979), (8.79999999999761, 113.46900637458978), (0.300000000043829, 113.79), (0.300000000043829, 113.59), (6.414, 113.53753234991127), (6.414, 113.38753234991127), (6.414, 113.56753234991126), (6.414, 113.38753234991127), (8.79999999999761, 113.46900637458978), (8.79999999999761, 113.2990063745898)]</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[(0.300000000003786, 115.0), (0.300000000003786, 114.79), (6.03, 114.7398199015422), (6.03, 114.52981990154221), (6.03, 114.7398199015422), (6.03, 114.49981990154221), (10.434, 114.53984901958603), (10.434, 114.29984901958603), (0.300000000003786, 114.79), (0.300000000003786, 114.58), (6.03, 114.52981990154221), (6.03, 114.3698199015422), (6.03, 114.49981990154221), (6.03, 114.3698199015422), (10.434, 114.29984901958603), (10.434, 113.99984901958602)]</t>
+          <t>[(0.300000000003786, 115.0), (0.300000000003786, 114.79), (6.03, 114.7398199015422), (6.03, 114.52981990154221), (6.03, 114.7398199015422), (6.03, 114.54981990154221), (8.7999999999983, 114.61404348396313), (8.7999999999983, 114.42404348396313), (0.300000000003786, 114.79), (0.300000000003786, 114.58), (6.03, 114.52981990154221), (6.03, 114.3698199015422), (6.03, 114.54981990154221), (6.03, 114.3698199015422), (8.7999999999983, 114.42404348396313), (8.7999999999983, 114.25404348396313)]</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[(0.300000000101338, 116.0), (0.300000000101338, 115.79), (5.667, 115.73422653464554), (5.667, 115.52422653464555), (5.667, 115.73422653464554), (5.667, 115.47422653464554), (10.642, 115.48786488192272), (10.642, 115.22786488192271), (0.300000000101338, 115.79), (0.300000000101338, 115.58), (5.667, 115.52422653464555), (5.667, 115.35422653464555), (5.667, 115.47422653464554), (5.667, 115.35422653464555), (10.642, 115.22786488192271), (10.642, 114.92786488192272)]</t>
+          <t>[(0.300000000101338, 116.0), (0.300000000101338, 115.79), (5.667, 115.73422653464554), (5.667, 115.52422653464555), (5.667, 115.73422653464554), (5.667, 115.54422653464555), (8.79999999999987, 115.57908059334291), (8.79999999999987, 115.38908059334291), (0.300000000101338, 115.79), (0.300000000101338, 115.58), (5.667, 115.52422653464555), (5.667, 115.35422653464555), (5.667, 115.54422653464555), (5.667, 115.35422653464555), (8.79999999999987, 115.38908059334291), (8.79999999999987, 115.2090805933429)]</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[(0.300000000007032, 117.0), (0.300000000007032, 116.78), (5.54, 116.71896197202572), (5.54, 116.49896197202573), (5.54, 116.71896197202572), (5.54, 116.45896197202572), (10.72, 116.44114193673782), (10.72, 116.18114193673782), (0.300000000007032, 116.78), (0.300000000007032, 116.57), (5.54, 116.49896197202573), (5.54, 116.34896197202572), (5.54, 116.45896197202572), (5.54, 116.34896197202572), (10.72, 116.18114193673782), (10.72, 115.93114193673782)]</t>
+          <t>[(0.300000000007032, 117.0), (0.300000000007032, 116.78), (5.54, 116.71896197202572), (5.54, 116.49896197202573), (5.54, 116.71896197202572), (5.54, 116.52896197202573), (8.80000000000471, 116.54411770271301), (8.80000000000471, 116.35411770271301), (0.300000000007032, 116.78), (0.300000000007032, 116.57), (5.54, 116.49896197202573), (5.54, 116.34896197202572), (5.54, 116.52896197202573), (5.54, 116.34896197202572), (8.80000000000471, 116.35411770271301), (8.80000000000471, 116.204117702713)]</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[(0.30000000003951, 118.0), (0.30000000003951, 117.79), (5.261, 117.7135196497397), (5.261, 117.5035196497397), (5.261, 117.7135196497397), (5.261, 117.4635196497397), (10.8000000000009, 117.39366182669903), (10.8000000000009, 117.14366182669903), (0.30000000003951, 117.79), (0.30000000003951, 117.59), (5.261, 117.5035196497397), (5.261, 117.3535196497397), (5.261, 117.4635196497397), (5.261, 117.3535196497397), (10.8000000000009, 117.14366182669903), (10.8000000000009, 116.89366182669903)]</t>
+          <t>[(0.30000000003951, 118.0), (0.30000000003951, 117.79), (5.261, 117.7135196497397), (5.261, 117.5035196497397), (5.261, 117.7135196497397), (5.261, 117.53351964973969), (8.79999999999931, 117.5091548120902), (8.79999999999931, 117.3291548120902), (0.30000000003951, 117.79), (0.30000000003951, 117.59), (5.261, 117.5035196497397), (5.261, 117.3535196497397), (5.261, 117.53351964973969), (5.261, 117.3535196497397), (8.79999999999931, 117.3291548120902), (8.79999999999931, 117.18915481209021)]</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[(0.300000000046213, 119.0), (0.300000000046213, 118.78), (4.898, 118.71556875940125), (4.898, 118.49556875940125), (4.898, 118.71556875940125), (4.898, 118.52556875940125), (10.800000000003, 118.35047237357446), (10.800000000003, 118.16047237357446), (0.300000000046213, 118.78), (0.300000000046213, 118.56), (4.898, 118.49556875940125), (4.898, 118.36556875940126), (4.898, 118.52556875940125), (4.898, 118.36556875940126), (10.800000000003, 118.16047237357446), (10.800000000003, 117.86047237357447)]</t>
+          <t>[(0.300000000046213, 119.0), (0.300000000046213, 118.78), (4.898, 118.71556875940125), (4.898, 118.49556875940125), (4.898, 118.71556875940125), (4.898, 118.53556875940124), (8.80000000000765, 118.47419192146526), (8.80000000000765, 118.29419192146526), (0.300000000046213, 118.78), (0.300000000046213, 118.56), (4.898, 118.49556875940125), (4.898, 118.36556875940126), (4.898, 118.53556875940124), (4.898, 118.36556875940126), (8.80000000000765, 118.29419192146526), (8.80000000000765, 118.17419192146527)]</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[(0.30000000000698, 120.0), (0.30000000000698, 119.77), (4.833, 119.70094414079907), (4.833, 119.47094414079906), (4.833, 119.70094414079907), (4.833, 119.46094414079907), (10.8000000000025, 119.3072829204471), (10.8000000000025, 119.0672829204471), (0.30000000000698, 119.77), (0.30000000000698, 119.55), (4.833, 119.47094414079906), (4.833, 119.35094414079907), (4.833, 119.46094414079907), (4.833, 119.35094414079907), (10.8000000000025, 119.0672829204471), (10.8000000000025, 118.8372829204471)]</t>
+          <t>[(0.30000000000698, 120.0), (0.30000000000698, 119.77), (4.833, 119.70094414079907), (4.833, 119.47094414079906), (4.833, 119.70094414079907), (4.833, 119.58094414079906), (8.80000000000495, 119.43922903083802), (8.80000000000495, 119.31922903083802), (0.30000000000698, 119.77), (0.30000000000698, 119.55), (4.833, 119.47094414079906), (4.833, 119.35094414079907), (4.833, 119.58094414079906), (4.833, 119.35094414079907), (8.80000000000495, 119.31922903083802), (8.80000000000495, 119.15922903083802)]</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[(0.299999999999173, 121.0), (0.299999999999173, 120.77), (5.013, 120.67008999999995), (5.013, 120.44008999999994), (5.013, 120.67008999999995), (5.013, 120.44008999999994), (10.8000000000019, 120.26499999999982), (10.8000000000019, 120.03499999999981), (0.299999999999173, 120.77), (0.299999999999173, 120.54), (5.013, 120.44008999999994), (5.013, 120.33008999999994), (5.013, 120.44008999999994), (5.013, 120.33008999999994), (10.8000000000019, 120.03499999999981), (10.8000000000019, 119.81499999999981)]</t>
+          <t>[(0.299999999999173, 121.0), (0.299999999999173, 120.84), (5.013, 120.67008999999995), (5.013, 120.51008999999995), (5.013, 120.67008999999995), (5.013, 120.55008999999994), (8.80000000000649, 120.40499999999949), (8.80000000000649, 120.28499999999948), (0.299999999999173, 120.84), (0.299999999999173, 120.54), (5.013, 120.51008999999995), (5.013, 120.33008999999994), (5.013, 120.55008999999994), (5.013, 120.33008999999994), (8.80000000000649, 120.28499999999948), (8.80000000000649, 120.14499999999948)]</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[(0.29999999999991, 122.0), (0.29999999999991, 121.78), (5.383, 121.64419), (5.383, 121.42419), (5.383, 121.64419), (5.383, 121.39419), (10.7999999999938, 121.26500000000043), (10.7999999999938, 121.01500000000043), (0.29999999999991, 121.78), (0.29999999999991, 121.56), (5.383, 121.42419), (5.383, 121.27418999999999), (5.383, 121.39419), (5.383, 121.27418999999999), (10.7999999999938, 121.01500000000043), (10.7999999999938, 120.76500000000043)]</t>
+          <t>[(0.29999999999991, 122.0), (0.29999999999991, 121.78), (5.383, 121.64419), (5.383, 121.42419), (5.383, 121.64419), (5.383, 121.52418999999999), (8.79999999999989, 121.405), (8.79999999999989, 121.285), (0.29999999999991, 121.78), (0.29999999999991, 121.56), (5.383, 121.42419), (5.383, 121.27418999999999), (5.383, 121.52418999999999), (5.383, 121.27418999999999), (8.79999999999989, 121.285), (8.79999999999989, 121.105)]</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[(0.299999999999543, 123.0), (0.299999999999543, 122.75), (5.656, 122.62507999999997), (5.656, 122.37507999999997), (5.656, 122.62507999999997), (5.656, 122.41507999999997), (10.7999999999953, 122.2650000000003), (10.7999999999953, 122.0550000000003), (0.299999999999543, 122.75), (0.299999999999543, 122.5), (5.656, 122.37507999999997), (5.656, 122.26507999999997), (5.656, 122.41507999999997), (5.656, 122.26507999999997), (10.7999999999953, 122.0550000000003), (10.7999999999953, 121.7550000000003)]</t>
+          <t>[(0.299999999999543, 123.0), (0.299999999999543, 122.8), (5.656, 122.62507999999997), (5.656, 122.42507999999997), (5.656, 122.62507999999997), (5.656, 122.44507999999996), (8.80000000000053, 122.40499999999993), (8.80000000000053, 122.22499999999992), (0.299999999999543, 122.8), (0.299999999999543, 122.5), (5.656, 122.42507999999997), (5.656, 122.26507999999997), (5.656, 122.44507999999996), (5.656, 122.26507999999997), (8.80000000000053, 122.22499999999992), (8.80000000000053, 122.10499999999993)]</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[(0.300000000005624, 124.0), (0.300000000005624, 123.75), (5.796, 123.6152800000004), (5.796, 123.3652800000004), (5.796, 123.6152800000004), (5.796, 123.3452800000004), (10.7999999999981, 123.26500000000053), (10.7999999999981, 122.99500000000053), (0.300000000005624, 123.75), (0.300000000005624, 123.51), (5.796, 123.3652800000004), (5.796, 123.2352800000004), (5.796, 123.3452800000004), (5.796, 123.2352800000004), (10.7999999999981, 122.99500000000053), (10.7999999999981, 122.72500000000052)]</t>
+          <t>[(0.300000000005624, 124.0), (0.300000000005624, 123.75), (5.796, 123.6152800000004), (5.796, 123.3652800000004), (5.796, 123.6152800000004), (5.796, 123.4252800000004), (8.79999999999358, 123.40500000000084), (8.79999999999358, 123.21500000000084), (0.300000000005624, 123.75), (0.300000000005624, 123.51), (5.796, 123.3652800000004), (5.796, 123.2352800000004), (5.796, 123.4252800000004), (5.796, 123.2352800000004), (8.79999999999358, 123.21500000000084), (8.79999999999358, 123.08500000000085)]</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[(0.3000000000001, 125.0), (0.3000000000001, 124.74), (5.888, 124.60884), (5.888, 124.34884), (5.888, 124.60884), (5.888, 124.33884), (10.8000000000036, 124.26499999999976), (10.8000000000036, 123.99499999999976), (0.3000000000001, 124.74), (0.3000000000001, 124.49), (5.888, 124.34884), (5.888, 124.22884), (5.888, 124.33884), (5.888, 124.22884), (10.8000000000036, 123.99499999999976), (10.8000000000036, 123.73499999999976)]</t>
+          <t>[(0.3000000000001, 125.0), (0.3000000000001, 124.74), (5.888, 124.60884), (5.888, 124.34884), (5.888, 124.60884), (5.888, 124.41884), (8.79999999999662, 124.40500000000024), (8.79999999999662, 124.21500000000024), (0.3000000000001, 124.74), (0.3000000000001, 124.49), (5.888, 124.34884), (5.888, 124.22884), (5.888, 124.41884), (5.888, 124.22884), (8.79999999999662, 124.21500000000024), (8.79999999999662, 124.09500000000024)]</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[(0.299999999995223, 126.0), (0.299999999995223, 125.75), (6.036, 125.59847999999967), (6.036, 125.34847999999967), (6.036, 125.59847999999967), (6.036, 125.31847999999967), (10.8000000000064, 125.26499999999922), (10.8000000000064, 124.98499999999922), (0.299999999995223, 125.75), (0.299999999995223, 125.51), (6.036, 125.34847999999967), (6.036, 125.20847999999967), (6.036, 125.31847999999967), (6.036, 125.20847999999967), (10.8000000000064, 124.98499999999922), (10.8000000000064, 124.70499999999922)]</t>
+          <t>[(0.299999999995223, 126.0), (0.299999999995223, 125.75), (6.036, 125.59847999999967), (6.036, 125.34847999999967), (6.036, 125.59847999999967), (6.036, 125.39847999999967), (8.79999999999968, 125.40499999999969), (8.79999999999968, 125.20499999999969), (0.299999999995223, 125.75), (0.299999999995223, 125.51), (6.036, 125.34847999999967), (6.036, 125.20847999999967), (6.036, 125.39847999999967), (6.036, 125.20847999999967), (8.79999999999968, 125.20499999999969), (8.79999999999968, 125.07499999999969)]</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[(0.299999999995636, 127.0), (0.299999999995636, 126.75), (6.098, 126.5941399999997), (6.098, 126.3441399999997), (6.098, 126.5941399999997), (6.098, 126.3141399999997), (10.7999999999915, 126.26500000000028), (10.7999999999915, 125.98500000000028), (0.299999999995636, 126.75), (0.299999999995636, 126.5), (6.098, 126.3441399999997), (6.098, 126.2041399999997), (6.098, 126.3141399999997), (6.098, 126.2041399999997), (10.7999999999915, 125.98500000000028), (10.7999999999915, 125.71500000000029)]</t>
+          <t>[(0.299999999995636, 127.0), (0.299999999995636, 126.75), (6.098, 126.5941399999997), (6.098, 126.3441399999997), (6.098, 126.5941399999997), (6.098, 126.3941399999997), (8.80000000000002, 126.40499999999969), (8.80000000000002, 126.20499999999969), (0.299999999995636, 126.75), (0.299999999995636, 126.5), (6.098, 126.3441399999997), (6.098, 126.2041399999997), (6.098, 126.3941399999997), (6.098, 126.2041399999997), (8.80000000000002, 126.20499999999969), (8.80000000000002, 126.07499999999969)]</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[(0.300000000004285, 128.0), (0.300000000004285, 127.75), (6.07, 127.5961000000003), (6.07, 127.3461000000003), (6.07, 127.5961000000003), (6.07, 127.40610000000031), (10.799999999997, 127.26500000000051), (10.799999999997, 126.9750000000005), (0.300000000004285, 127.75), (0.300000000004285, 127.5), (6.07, 127.3461000000003), (6.07, 127.21610000000031), (6.07, 127.40610000000031), (6.07, 127.21610000000031), (10.799999999997, 126.9750000000005), (10.799999999997, 126.68500000000051)]</t>
+          <t>[(0.300000000004285, 128.0), (0.300000000004285, 127.75), (6.07, 127.5961000000003), (6.07, 127.3461000000003), (6.07, 127.5961000000003), (6.07, 127.40610000000031), (8.79999999999833, 127.40500000000041), (8.79999999999833, 127.21500000000042), (0.300000000004285, 127.75), (0.300000000004285, 127.5), (6.07, 127.3461000000003), (6.07, 127.21610000000031), (6.07, 127.40610000000031), (6.07, 127.21610000000031), (8.79999999999833, 127.21500000000042), (8.79999999999833, 127.06500000000041)]</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[(0.300000000004724, 129.0), (0.300000000004724, 128.74), (5.914, 128.60702000000032), (5.914, 128.34702000000033), (5.914, 128.60702000000032), (5.914, 128.32702000000032), (10.7999999999976, 128.2650000000005), (10.7999999999976, 127.9850000000005), (0.300000000004724, 128.74), (0.300000000004724, 128.48), (5.914, 128.34702000000033), (5.914, 128.21702000000033), (5.914, 128.32702000000032), (5.914, 128.21702000000033), (10.7999999999976, 127.9850000000005), (10.7999999999976, 127.68500000000049)]</t>
+          <t>[(0.300000000004724, 129.0), (0.300000000004724, 128.74), (5.914, 128.60702000000032), (5.914, 128.34702000000033), (5.914, 128.60702000000032), (5.914, 128.40702000000033), (8.80000000000532, 128.40499999999994), (8.80000000000532, 128.20499999999996), (0.300000000004724, 128.74), (0.300000000004724, 128.48), (5.914, 128.34702000000033), (5.914, 128.21702000000033), (5.914, 128.40702000000033), (5.914, 128.21702000000033), (8.80000000000532, 128.20499999999996), (8.80000000000532, 128.06499999999994)]</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[(0.300000000003322, 130.0), (0.300000000003322, 129.73), (5.846, 129.61178000000024), (5.846, 129.34178000000023), (5.846, 129.61178000000024), (5.846, 129.31178000000023), (10.8000000000072, 129.26499999999973), (10.8000000000072, 128.96499999999972), (0.300000000003322, 129.73), (0.300000000003322, 129.47), (5.846, 129.34178000000023), (5.846, 129.20178000000024), (5.846, 129.31178000000023), (5.846, 129.20178000000024), (10.8000000000072, 128.96499999999972), (10.8000000000072, 128.67499999999973)]</t>
+          <t>[(0.300000000003322, 130.0), (0.300000000003322, 129.73), (5.846, 129.61178000000024), (5.846, 129.34178000000023), (5.846, 129.61178000000024), (5.846, 129.40178000000023), (8.8000000000014, 129.40500000000014), (8.8000000000014, 129.19500000000014), (0.300000000003322, 129.73), (0.300000000003322, 129.47), (5.846, 129.34178000000023), (5.846, 129.20178000000024), (5.846, 129.40178000000023), (5.846, 129.20178000000024), (8.8000000000014, 129.19500000000014), (8.8000000000014, 129.04500000000013)]</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[(0.29999999999056, 131.0), (0.29999999999056, 130.74), (5.814, 130.61401999999933), (5.814, 130.35401999999934), (5.814, 130.61401999999933), (5.814, 130.33401999999933), (10.7999999999925, 130.26499999999987), (10.7999999999925, 129.98499999999987), (0.29999999999056, 130.74), (0.29999999999056, 130.49), (5.814, 130.35401999999934), (5.814, 130.21401999999932), (5.814, 130.33401999999933), (5.814, 130.21401999999932), (10.7999999999925, 129.98499999999987), (10.7999999999925, 129.70499999999987)]</t>
+          <t>[(0.29999999999056, 131.0), (0.29999999999056, 130.74), (5.814, 130.61401999999933), (5.814, 130.35401999999934), (5.814, 130.61401999999933), (5.814, 130.41401999999934), (8.79999999999937, 130.40499999999938), (8.79999999999937, 130.2049999999994), (0.29999999999056, 130.74), (0.29999999999056, 130.49), (5.814, 130.35401999999934), (5.814, 130.21401999999932), (5.814, 130.41401999999934), (5.814, 130.21401999999932), (8.79999999999937, 130.2049999999994), (8.79999999999937, 130.06499999999937)]</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[(0.299999999994877, 132.0), (0.299999999994877, 131.73), (5.726, 131.62017999999964), (5.726, 131.35017999999963), (5.726, 131.62017999999964), (5.726, 131.33017999999964), (10.8000000000005, 131.26499999999962), (10.8000000000005, 130.97499999999962), (0.299999999994877, 131.73), (0.299999999994877, 131.46), (5.726, 131.35017999999963), (5.726, 131.20017999999965), (5.726, 131.33017999999964), (5.726, 131.20017999999965), (10.8000000000005, 130.97499999999962), (10.8000000000005, 130.6849999999996)]</t>
+          <t>[(0.299999999994877, 132.0), (0.299999999994877, 131.73), (5.726, 131.62017999999964), (5.726, 131.35017999999963), (5.726, 131.62017999999964), (5.726, 131.41017999999963), (8.80000000000074, 131.4049999999996), (8.80000000000074, 131.1949999999996), (0.299999999994877, 131.73), (0.299999999994877, 131.46), (5.726, 131.35017999999963), (5.726, 131.20017999999965), (5.726, 131.41017999999963), (5.726, 131.20017999999965), (8.80000000000074, 131.1949999999996), (8.80000000000074, 131.0449999999996)]</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[(0.300000000007903, 133.0), (0.300000000007903, 132.72), (5.463, 132.63859000000056), (5.463, 132.35859000000056), (5.463, 132.63859000000056), (5.463, 132.40859000000057), (10.8000000000006, 132.2650000000005), (10.8000000000006, 131.9450000000005), (0.300000000007903, 132.72), (0.300000000007903, 132.44), (5.463, 132.35859000000056), (5.463, 132.17859000000055), (5.463, 132.40859000000057), (5.463, 132.17859000000055), (10.8000000000006, 131.9450000000005), (10.8000000000006, 131.6250000000005)]</t>
+          <t>[(0.300000000007903, 133.0), (0.300000000007903, 132.72), (5.463, 132.63859000000056), (5.463, 132.35859000000056), (5.463, 132.63859000000056), (5.463, 132.40859000000057), (8.80000000000391, 132.40500000000029), (8.80000000000391, 132.1750000000003), (0.300000000007903, 132.72), (0.300000000007903, 132.44), (5.463, 132.35859000000056), (5.463, 132.17859000000055), (5.463, 132.40859000000057), (5.463, 132.17859000000055), (8.80000000000391, 132.1750000000003), (8.80000000000391, 131.9950000000003)]</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[(0.299999999994272, 134.0), (0.299999999994272, 133.7), (5.311, 133.6492299999996), (5.311, 133.34922999999958), (5.311, 133.6492299999996), (5.311, 133.3592299999996), (10.7999999999911, 133.2650000000002), (10.7999999999911, 132.97500000000022), (0.299999999994272, 133.7), (0.299999999994272, 133.41), (5.311, 133.34922999999958), (5.311, 133.1692299999996), (5.311, 133.3592299999996), (5.311, 133.1692299999996), (10.7999999999911, 132.97500000000022), (10.7999999999911, 132.6850000000002)]</t>
+          <t>[(0.299999999994272, 134.0), (0.299999999994272, 133.7), (5.311, 133.6492299999996), (5.311, 133.34922999999958), (5.311, 133.6492299999996), (5.311, 133.40922999999958), (8.79999999999616, 133.40499999999986), (8.79999999999616, 133.16499999999985), (0.299999999994272, 133.7), (0.299999999994272, 133.41), (5.311, 133.34922999999958), (5.311, 133.1692299999996), (5.311, 133.40922999999958), (5.311, 133.1692299999996), (8.79999999999616, 133.16499999999985), (8.79999999999616, 133.01499999999987)]</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[(0.300000000008756, 135.0), (0.300000000008756, 134.68), (5.048, 134.6676400000006), (5.048, 134.4076400000006), (5.048, 134.6676400000006), (5.048, 134.4676400000006), (10.8000000000083, 134.26500000000004), (10.8000000000083, 134.06500000000005), (0.300000000008756, 134.68), (0.300000000008756, 134.36), (5.048, 134.4076400000006), (5.048, 134.1476400000006), (5.048, 134.4676400000006), (5.048, 134.2676400000006), (10.8000000000083, 134.06500000000005), (10.8000000000083, 133.86500000000004)]</t>
+          <t>[(0.300000000008756, 135.0), (0.300000000008756, 134.68), (5.048, 134.6676400000006), (5.048, 134.4076400000006), (5.048, 134.6676400000006), (5.048, 134.4076400000006), (8.80000000000498, 134.40500000000026), (8.80000000000498, 134.14500000000027), (0.300000000008756, 134.68), (0.300000000008756, 134.36), (5.048, 134.4076400000006), (5.048, 134.1476400000006), (5.048, 134.4076400000006), (5.048, 134.1576400000006), (8.80000000000498, 134.14500000000027), (8.80000000000498, 133.98500000000027)]</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[(0.299999999998261, 136.0), (0.299999999998261, 135.68), (4.666, 135.69437999999988), (4.666, 135.44437999999988), (4.666, 135.69437999999988), (4.666, 135.51437999999987), (10.8000000000052, 135.2649999999995), (10.8000000000052, 135.0849999999995), (0.299999999998261, 135.68), (0.299999999998261, 135.36), (4.666, 135.44437999999988), (4.666, 135.19437999999988), (4.666, 135.51437999999987), (4.666, 135.33437999999987), (10.8000000000052, 135.0849999999995), (10.8000000000052, 134.9049999999995)]</t>
+          <t>[(0.299999999998261, 136.0), (0.299999999998261, 135.68), (4.666, 135.69437999999988), (4.666, 135.44437999999988), (4.666, 135.69437999999988), (4.666, 135.44437999999988), (8.80000000000769, 135.40499999999935), (8.80000000000769, 135.15499999999935), (0.299999999998261, 135.68), (0.299999999998261, 135.36), (4.666, 135.44437999999988), (4.666, 135.19437999999988), (4.666, 135.44437999999988), (4.666, 135.19437999999988), (8.80000000000769, 135.15499999999935), (8.80000000000769, 135.01499999999936)]</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[(0.299999999996779, 137.0), (0.299999999996779, 136.69), (4.81, 136.68429999999978), (4.81, 136.4242999999998), (4.81, 136.68429999999978), (4.81, 136.49429999999978), (10.7999999999975, 136.26499999999996), (10.7999999999975, 136.07499999999996), (0.299999999996779, 136.69), (0.299999999996779, 136.38), (4.81, 136.4242999999998), (4.81, 136.16429999999977), (4.81, 136.49429999999978), (4.81, 136.30429999999978), (10.7999999999975, 136.07499999999996), (10.7999999999975, 135.88499999999996)]</t>
+          <t>[(0.299999999996779, 137.0), (0.299999999996779, 136.69), (4.81, 136.68429999999978), (4.81, 136.4242999999998), (4.81, 136.68429999999978), (4.81, 136.4242999999998), (8.79999999999767, 136.40499999999994), (8.79999999999767, 136.14499999999995), (0.299999999996779, 136.69), (0.299999999996779, 136.38), (4.81, 136.4242999999998), (4.81, 136.16429999999977), (4.81, 136.4242999999998), (4.81, 136.1742999999998), (8.79999999999767, 136.14499999999995), (8.79999999999767, 135.99499999999995)]</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[(0.299999999998572, 138.0), (0.299999999998572, 137.71), (4.784, 137.6861199999999), (4.784, 137.3961199999999), (4.784, 137.6861199999999), (4.784, 137.4161199999999), (10.8000000000055, 137.2649999999995), (10.8000000000055, 136.9949999999995), (0.299999999998572, 137.71), (0.299999999998572, 137.43), (4.784, 137.3961199999999), (4.784, 137.23611999999991), (4.784, 137.4161199999999), (4.784, 137.23611999999991), (10.8000000000055, 136.9949999999995), (10.8000000000055, 136.7349999999995)]</t>
+          <t>[(0.299999999998572, 138.0), (0.299999999998572, 137.71), (4.784, 137.6861199999999), (4.784, 137.3961199999999), (4.784, 137.6861199999999), (4.784, 137.4561199999999), (8.79999999999443, 137.40500000000029), (8.79999999999443, 137.1750000000003), (0.299999999998572, 137.71), (0.299999999998572, 137.43), (4.784, 137.3961199999999), (4.784, 137.23611999999991), (4.784, 137.4561199999999), (4.784, 137.23611999999991), (8.79999999999443, 137.1750000000003), (8.79999999999443, 137.04500000000027)]</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[(0.299999999997755, 139.0), (0.299999999997755, 138.72), (4.716, 138.69087999999985), (4.716, 138.41087999999985), (4.716, 138.69087999999985), (4.716, 138.43087999999986), (10.7999999999947, 138.2650000000002), (10.7999999999947, 138.00500000000022), (0.299999999997755, 138.72), (0.299999999997755, 138.45), (4.716, 138.41087999999985), (4.716, 138.28087999999985), (4.716, 138.43087999999986), (4.716, 138.28087999999985), (10.7999999999947, 138.00500000000022), (10.7999999999947, 137.75500000000022)]</t>
+          <t>[(0.299999999997755, 139.0), (0.299999999997755, 138.72), (4.716, 138.69087999999985), (4.716, 138.41087999999985), (4.716, 138.69087999999985), (4.716, 138.48087999999984), (8.80000000000096, 138.40499999999977), (8.80000000000096, 138.19499999999977), (0.299999999997755, 138.72), (0.299999999997755, 138.45), (4.716, 138.41087999999985), (4.716, 138.28087999999985), (4.716, 138.48087999999984), (4.716, 138.28087999999985), (8.80000000000096, 138.19499999999977), (8.80000000000096, 138.07499999999976)]</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[(0.300000000028918, 140.0), (0.300000000028918, 139.75), (4.68, 139.6953699445684), (4.68, 139.4453699445684), (4.68, 139.6953699445684), (4.68, 139.4553699445684), (10.8000000000061, 139.2697224698525), (10.8000000000061, 139.0297224698525), (0.300000000028918, 139.75), (0.300000000028918, 139.5), (4.68, 139.4453699445684), (4.68, 139.3253699445684), (4.68, 139.4553699445684), (4.68, 139.3253699445684), (10.8000000000061, 139.0297224698525), (10.8000000000061, 138.7897224698525)]</t>
+          <t>[(0.300000000028918, 140.0), (0.300000000028918, 139.75), (4.68, 139.6953699445684), (4.68, 139.4453699445684), (4.68, 139.6953699445684), (4.68, 139.5753699445684), (8.80000000000187, 139.40882295178594), (8.80000000000187, 139.28882295178593), (0.300000000028918, 139.75), (0.300000000028918, 139.5), (4.68, 139.4453699445684), (4.68, 139.3253699445684), (4.68, 139.5753699445684), (4.68, 139.3253699445684), (8.80000000000187, 139.28882295178593), (8.80000000000187, 139.10882295178592)]</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[(0.300000000048554, 141.0), (0.300000000048554, 140.77), (4.572, 140.72045330809394), (4.572, 140.49045330809395), (4.572, 140.72045330809394), (4.572, 140.47045330809394), (10.7999999999886, 140.31291192297982), (10.7999999999886, 140.06291192297982), (0.300000000048554, 140.77), (0.300000000048554, 140.54), (4.572, 140.49045330809395), (4.572, 140.36045330809392), (4.572, 140.47045330809394), (4.572, 140.36045330809392), (10.7999999999886, 140.06291192297982), (10.7999999999886, 139.8229119229798)]</t>
+          <t>[(0.300000000048554, 141.0), (0.300000000048554, 140.77), (4.572, 140.72045330809394), (4.572, 140.49045330809395), (4.572, 140.72045330809394), (4.572, 140.54045330809393), (8.79999999999265, 140.44378584241272), (8.79999999999265, 140.26378584241272), (0.300000000048554, 140.77), (0.300000000048554, 140.54), (4.572, 140.49045330809395), (4.572, 140.36045330809392), (4.572, 140.54045330809393), (4.572, 140.36045330809392), (8.79999999999265, 140.26378584241272), (8.79999999999265, 140.13378584241272)]</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[(0.300000000007764, 142.0), (0.300000000007764, 141.77), (4.473, 141.74409628975943), (4.473, 141.51409628975944), (4.473, 141.74409628975943), (4.473, 141.49409628975943), (10.800000000008, 141.3561013761009), (10.800000000008, 141.1061013761009), (0.300000000007764, 141.77), (0.300000000007764, 141.54), (4.473, 141.51409628975944), (4.473, 141.3840962897594), (4.473, 141.49409628975943), (4.473, 141.3840962897594), (10.800000000008, 141.1061013761009), (10.800000000008, 140.8661013761009)]</t>
+          <t>[(0.300000000007764, 142.0), (0.300000000007764, 141.77), (4.473, 141.74409628975943), (4.473, 141.51409628975944), (4.473, 141.74409628975943), (4.473, 141.56409628975942), (8.8000000000087, 141.478748733034), (8.8000000000087, 141.298748733034), (0.300000000007764, 141.77), (0.300000000007764, 141.54), (4.473, 141.51409628975944), (4.473, 141.3840962897594), (4.473, 141.56409628975942), (4.473, 141.3840962897594), (8.8000000000087, 141.298748733034), (8.8000000000087, 141.158748733034)]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[(0.300000000136927, 143.0), (0.300000000136927, 142.77), (4.29, 142.7717305151137), (4.29, 142.5417305151137), (4.29, 142.7717305151137), (4.29, 142.53173051511368), (10.696, 142.40524071054426), (10.696, 142.16524071054425), (0.300000000136927, 142.77), (0.300000000136927, 142.55), (4.29, 142.5417305151137), (4.29, 142.40173051511368), (4.29, 142.53173051511368), (4.29, 142.40173051511368), (10.696, 142.16524071054425), (10.696, 141.92524071054427)]</t>
+          <t>[(0.300000000136927, 143.0), (0.300000000136927, 142.77), (4.29, 142.7717305151137), (4.29, 142.5417305151137), (4.29, 142.7717305151137), (4.29, 142.5817305151137), (8.80000000001896, 142.5137116236658), (8.80000000001896, 142.32371162366582), (0.300000000136927, 142.77), (0.300000000136927, 142.55), (4.29, 142.5417305151137), (4.29, 142.40173051511368), (4.29, 142.5817305151137), (4.29, 142.40173051511368), (8.80000000001896, 142.32371162366582), (8.80000000001896, 142.2037116236658)]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[(0.300000000013215, 144.0), (0.300000000013215, 143.79), (3.859, 143.81102736427565), (3.859, 143.60102736427564), (3.859, 143.81102736427565), (3.859, 143.57102736427564), (10.272, 143.47051555958197), (10.272, 143.23051555958196), (0.300000000013215, 143.79), (0.300000000013215, 143.59), (3.859, 143.60102736427564), (3.859, 143.44102736427564), (3.859, 143.57102736427564), (3.859, 143.44102736427564), (10.272, 143.23051555958196), (10.272, 142.99051555958198)]</t>
+          <t>[(0.300000000013215, 144.0), (0.300000000013215, 143.79), (3.859, 143.81102736427565), (3.859, 143.60102736427564), (3.859, 143.81102736427565), (3.859, 143.62102736427565), (8.79999999999081, 143.54867451428527), (8.79999999999081, 143.35867451428527), (0.300000000013215, 143.79), (0.300000000013215, 143.59), (3.859, 143.60102736427564), (3.859, 143.44102736427564), (3.859, 143.62102736427565), (3.859, 143.44102736427564), (8.79999999999081, 143.35867451428527), (8.79999999999081, 143.23867451428526)]</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[(0.30000000002376, 145.0), (0.30000000002376, 144.82), (3.465, 144.8449661631232), (3.465, 144.66496616312318), (3.465, 144.8449661631232), (3.465, 144.6749661631232), (9.88, 144.5307348634163), (9.88, 144.36073486341633), (0.30000000002376, 144.82), (0.30000000002376, 144.64), (3.465, 144.66496616312318), (3.465, 144.51496616312318), (3.465, 144.6749661631232), (3.465, 144.51496616312318), (9.88, 144.36073486341633), (9.88, 144.06073486341631)]</t>
+          <t>[(0.30000000002376, 145.0), (0.30000000002376, 144.82), (3.465, 144.8449661631232), (3.465, 144.66496616312318), (3.465, 144.8449661631232), (3.465, 144.72496616312318), (8.79999999999928, 144.58363740491026), (8.79999999999928, 144.46363740491026), (0.30000000002376, 144.82), (0.30000000002376, 144.64), (3.465, 144.66496616312318), (3.465, 144.51496616312318), (3.465, 144.72496616312318), (3.465, 144.51496616312318), (8.79999999999928, 144.46363740491026), (8.79999999999928, 144.30363740491026)]</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[(0.300000000058881, 146.0), (0.300000000058881, 145.82), (3.05, 145.87660597796955), (3.05, 145.69660597796954), (3.05, 145.87660597796955), (3.05, 145.70660597796956), (9.577, 145.58373587549318), (9.577, 145.4137358754932), (0.300000000058881, 145.82), (0.300000000058881, 145.65), (3.05, 145.69660597796954), (3.05, 145.54660597796953), (3.05, 145.70660597796956), (3.05, 145.54660597796953), (9.577, 145.4137358754932), (9.577, 145.11373587549318)]</t>
+          <t>[(0.300000000058881, 146.0), (0.300000000058881, 145.82), (3.05, 145.87660597796955), (3.05, 145.69660597796954), (3.05, 145.87660597796955), (3.05, 145.75660597796954), (8.80000000000321, 145.61860029553657), (8.80000000000321, 145.49860029553656), (0.300000000058881, 145.82), (0.300000000058881, 145.65), (3.05, 145.69660597796954), (3.05, 145.54660597796953), (3.05, 145.75660597796954), (3.05, 145.54660597796953), (8.80000000000321, 145.49860029553656), (8.80000000000321, 145.33860029553657)]</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[(0.299999999998987, 147.0), (0.299999999998987, 146.8), (2.713, 146.90165270214135), (2.713, 146.70165270214136), (2.713, 146.90165270214135), (2.713, 146.65165270214135), (9.326, 146.6321248609731), (9.326, 146.3821248609731), (0.299999999998987, 146.8), (0.299999999998987, 146.61), (2.713, 146.70165270214136), (2.713, 146.52165270214135), (2.713, 146.65165270214135), (2.713, 146.52165270214135), (9.326, 146.3821248609731), (9.326, 146.0821248609731)]</t>
+          <t>[(0.299999999998987, 147.0), (0.299999999998987, 146.8), (2.713, 146.90165270214135), (2.713, 146.70165270214136), (2.713, 146.90165270214135), (2.713, 146.71165270214135), (8.79999999999521, 146.6535631861592), (8.79999999999521, 146.4635631861592), (0.299999999998987, 146.8), (0.299999999998987, 146.61), (2.713, 146.70165270214136), (2.713, 146.52165270214135), (2.713, 146.71165270214135), (2.713, 146.52165270214135), (8.79999999999521, 146.4635631861592), (8.79999999999521, 146.2935631861592)]</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[(0.300000000133495, 148.0), (0.300000000133495, 147.72), (9.052, 147.67929179106537), (9.052, 147.39929179106537), (0.300000000133495, 147.72), (0.300000000133495, 147.58), (9.052, 147.39929179106537), (9.052, 147.11929179106536)]</t>
+          <t>[(0.300000000133495, 148.0), (0.300000000133495, 147.79), (8.80000000000171, 147.6885260767889), (8.80000000000171, 147.47852607678888), (0.300000000133495, 147.79), (0.300000000133495, 147.58), (8.80000000000171, 147.47852607678888), (8.80000000000171, 147.31852607678888)]</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[(0.300000000003251, 151.0), (0.300000000003251, 150.89), (7.794, 150.81265000000008), (7.794, 150.70265000000006), (0.300000000003251, 150.89), (0.300000000003251, 150.61), (7.794, 150.70265000000006), (7.794, 150.52265000000008)]</t>
+          <t>[(0.300000000003251, 151.0), (0.300000000003251, 150.88), (7.794, 150.81265000000008), (7.794, 150.69265000000007), (0.300000000003251, 150.88), (0.300000000003251, 150.61), (7.794, 150.69265000000007), (7.794, 150.52265000000008)]</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[(0.300000000004276, 152.0), (0.300000000004276, 151.89), (7.363, 151.8234250000001), (7.363, 151.7134250000001), (0.300000000004276, 151.89), (0.300000000004276, 151.65), (7.363, 151.7134250000001), (7.363, 151.5734250000001)]</t>
+          <t>[(0.300000000004276, 152.0), (0.300000000004276, 151.88), (7.363, 151.8234250000001), (7.363, 151.7034250000001), (0.300000000004276, 151.88), (0.300000000004276, 151.65), (7.363, 151.7034250000001), (7.363, 151.5734250000001)]</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[(0.300000000003251, 155.0), (0.300000000003251, 154.86), (6.062, 154.8559500000001), (6.062, 154.7159500000001), (0.300000000003251, 154.86), (0.300000000003251, 154.73), (6.062, 154.7159500000001), (6.062, 154.6059500000001)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[(0.300000000004276, 159.0), (0.300000000004276, 158.89), (7.282, 158.8254500000001), (7.282, 158.7154500000001), (0.300000000004276, 158.89), (0.300000000004276, 158.68), (7.282, 158.7154500000001), (7.282, 158.5754500000001)]</t>
+          <t>[(0.300000000004276, 159.0), (0.300000000004276, 158.88), (7.282, 158.8254500000001), (7.282, 158.7054500000001), (0.300000000004276, 158.88), (0.300000000004276, 158.68), (7.282, 158.7054500000001), (7.282, 158.5754500000001)]</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[(0.300000000003251, 162.0), (0.300000000003251, 161.89), (4.591, 161.89272500000007), (4.591, 161.78272500000006), (0.300000000003251, 161.89), (0.300000000003251, 161.62), (4.591, 161.78272500000006), (4.591, 161.64272500000007)]</t>
+          <t>[(0.300000000003251, 162.0), (0.300000000003251, 161.88), (4.591, 161.89272500000007), (4.591, 161.77272500000007), (0.300000000003251, 161.88), (0.300000000003251, 161.62), (4.591, 161.77272500000007), (4.591, 161.64272500000007)]</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[(0.300000000015546, 163.0), (0.300000000015546, 162.89), (4.475, 162.8956250000004), (4.475, 162.78562500000038), (0.300000000015546, 162.89), (0.300000000015546, 162.62), (4.475, 162.78562500000038), (4.475, 162.6456250000004)]</t>
+          <t>[(0.300000000015546, 163.0), (0.300000000015546, 162.88), (4.475, 162.8956250000004), (4.475, 162.7756250000004), (0.300000000015546, 162.88), (0.300000000015546, 162.62), (4.475, 162.7756250000004), (4.475, 162.6456250000004)]</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[(0.299999999994399, 166.0), (0.299999999994399, 165.89), (4.405, 165.89737499999987), (4.405, 165.78737499999986), (0.299999999994399, 165.89), (0.299999999994399, 165.68), (4.405, 165.78737499999986), (4.405, 165.64737499999987)]</t>
+          <t>[(0.299999999994399, 166.0), (0.299999999994399, 165.88), (4.405, 165.89737499999987), (4.405, 165.77737499999986), (0.299999999994399, 165.88), (0.299999999994399, 165.68), (4.405, 165.77737499999986), (4.405, 165.64737499999987)]</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[(0.299999999995238, 168.0), (0.299999999995238, 167.86), (4.037, 167.9065749999999), (4.037, 167.7665749999999), (0.299999999995238, 167.86), (0.299999999995238, 167.73), (4.037, 167.7665749999999), (4.037, 167.6565749999999)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[(0.299999999992807, 171.0), (0.299999999992807, 170.89), (3.063, 170.93092499999983), (3.063, 170.82092499999982), (0.299999999992807, 170.89), (0.299999999992807, 170.67), (3.063, 170.82092499999982), (3.063, 170.68092499999983)]</t>
+          <t>[(0.299999999992807, 171.0), (0.299999999992807, 170.88), (3.063, 170.93092499999983), (3.063, 170.81092499999983), (0.299999999992807, 170.88), (0.299999999992807, 170.67), (3.063, 170.81092499999983), (3.063, 170.68092499999983)]</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[(0.299999999991723, 172.0), (0.299999999991723, 171.89), (2.669, 171.99302374191385), (2.669, 171.88302374191383), (0.299999999991723, 171.89), (0.299999999991723, 171.66), (2.669, 171.88302374191383), (2.669, 171.72302374191383)]</t>
+          <t>[(0.299999999991723, 172.0), (0.299999999991723, 171.88), (2.669, 171.99302374191385), (2.669, 171.87302374191384), (0.299999999991723, 171.88), (0.299999999991723, 171.66), (2.669, 171.87302374191384), (2.669, 171.72302374191383)]</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[(0.300000000141323, 192.0), (0.300000000141323, 191.81), (2.735, 192.12604414892795), (2.735, 191.93604414892795), (2.735, 192.12604414892795), (2.735, 191.94604414892794), (9.166, 192.45893528724528), (9.166, 192.0689352872453), (0.300000000141323, 191.81), (0.300000000141323, 191.67), (2.735, 191.93604414892795), (2.735, 191.75604414892794), (2.735, 191.94604414892794), (2.735, 191.76604414892793), (9.166, 192.0689352872453), (9.166, 191.67893528724528)]</t>
+          <t>[(0.300000000141323, 192.0), (0.300000000141323, 191.81), (2.735, 192.12604414892795), (2.735, 191.93604414892795), (2.735, 192.12604414892795), (2.735, 191.94604414892794), (8.80000000001531, 192.43998984227264), (8.80000000001531, 192.14998984227265), (0.300000000141323, 191.81), (0.300000000141323, 191.67), (2.735, 191.93604414892795), (2.735, 191.75604414892794), (2.735, 191.94604414892794), (2.735, 191.76604414892793), (8.80000000001531, 192.14998984227265), (8.80000000001531, 191.85998984227263)]</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[(0.299999999999156, 193.0), (0.299999999999156, 192.82), (3.212, 193.13447151382655), (3.212, 192.95447151382655), (3.212, 193.13447151382655), (3.212, 192.95447151382655), (9.641, 193.431352476186), (9.641, 193.051352476186), (0.299999999999156, 192.82), (0.299999999999156, 192.67), (3.212, 192.95447151382655), (3.212, 192.77447151382654), (3.212, 192.95447151382655), (3.212, 192.77447151382654), (9.641, 193.051352476186), (9.641, 192.671352476186)]</t>
+          <t>[(0.299999999999156, 193.0), (0.299999999999156, 192.82), (3.212, 193.13447151382655), (3.212, 192.95447151382655), (3.212, 193.13447151382655), (3.212, 192.89447151382655), (8.79999999998704, 193.39251643802328), (8.79999999998704, 193.15251643802327), (0.299999999999156, 192.82), (0.299999999999156, 192.67), (3.212, 192.95447151382655), (3.212, 192.77447151382654), (3.212, 192.89447151382655), (3.212, 192.77447151382654), (8.79999999998704, 193.15251643802327), (8.79999999998704, 192.8525164380233)]</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[(0.300000000036432, 194.0), (0.300000000036432, 193.8), (3.502, 194.12997974048403), (3.502, 193.92997974048404), (3.502, 194.12997974048403), (3.502, 193.92997974048404), (10.067, 194.3964747424476), (10.067, 194.0164747424476), (0.300000000036432, 193.8), (0.300000000036432, 193.63), (3.502, 193.92997974048404), (3.502, 193.73997974048405), (3.502, 193.92997974048404), (3.502, 193.72997974048403), (10.067, 194.0164747424476), (10.067, 193.6364747424476)]</t>
+          <t>[(0.300000000036432, 194.0), (0.300000000036432, 193.8), (3.502, 194.12997974048403), (3.502, 193.92997974048404), (3.502, 194.12997974048403), (3.502, 193.85997974048402), (8.80000000001269, 194.34504303376755), (8.80000000001269, 194.07504303376754), (0.300000000036432, 193.8), (0.300000000036432, 193.63), (3.502, 193.92997974048404), (3.502, 193.73997974048405), (3.502, 193.85997974048402), (3.502, 193.73997974048405), (8.80000000001269, 194.07504303376754), (8.80000000001269, 193.81504303376755)]</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[(0.300000000122004, 195.0), (0.300000000122004, 194.8), (3.889, 195.1256444000337), (3.889, 194.92564440003372), (3.889, 195.1256444000337), (3.889, 194.9456444000337), (10.2, 195.34658109789933), (10.2, 194.98658109789932), (0.300000000122004, 194.8), (0.300000000122004, 194.6), (3.889, 194.92564440003372), (3.889, 194.7556444000337), (3.889, 194.9456444000337), (3.889, 194.7656444000337), (10.2, 194.98658109789932), (10.2, 194.62658109789933)]</t>
+          <t>[(0.300000000122004, 195.0), (0.300000000122004, 194.8), (3.889, 195.1256444000337), (3.889, 194.92564440003372), (3.889, 195.1256444000337), (3.889, 194.8756444000337), (8.79999999999258, 195.29756962950867), (8.79999999999258, 195.04756962950867), (0.300000000122004, 194.8), (0.300000000122004, 194.6), (3.889, 194.92564440003372), (3.889, 194.7556444000337), (3.889, 194.8756444000337), (3.889, 194.7556444000337), (8.79999999999258, 195.04756962950867), (8.79999999999258, 194.79756962950867)]</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[(0.300000000018771, 196.0), (0.300000000018771, 195.8), (3.806, 196.103157337147), (3.806, 195.903157337147), (3.806, 196.103157337147), (3.806, 195.913157337147), (10.047, 196.2867868126569), (10.047, 195.9267868126569), (0.300000000018771, 195.8), (0.300000000018771, 195.6), (3.806, 195.903157337147), (3.806, 195.723157337147), (3.806, 195.913157337147), (3.806, 195.723157337147), (10.047, 195.9267868126569), (10.047, 195.56678681265691)]</t>
+          <t>[(0.300000000018771, 196.0), (0.300000000018771, 195.8), (3.806, 196.103157337147), (3.806, 195.903157337147), (3.806, 196.103157337147), (3.806, 195.843157337147), (8.80000000000455, 196.25009622525747), (8.80000000000455, 195.99009622525747), (0.300000000018771, 195.8), (0.300000000018771, 195.6), (3.806, 195.903157337147), (3.806, 195.723157337147), (3.806, 195.843157337147), (3.806, 195.723157337147), (8.80000000000455, 195.99009622525747), (8.80000000000455, 195.74009622525747)]</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 197.0), (0.299999999999559, 196.8), (3.768, 197.06866144909952), (3.768, 196.86866144909953), (3.768, 197.06866144909952), (3.768, 196.88866144909952), (10.031, 197.19265990807017), (10.031, 196.82265990807016), (0.299999999999559, 196.8), (0.299999999999559, 196.6), (3.768, 196.86866144909953), (3.768, 196.69866144909952), (3.768, 196.88866144909952), (3.768, 196.7086614490995), (10.031, 196.82265990807016), (10.031, 196.45265990807016)]</t>
+          <t>[(0.299999999999559, 197.0), (0.299999999999559, 196.8), (3.768, 197.06866144909952), (3.768, 196.86866144909953), (3.768, 197.06866144909952), (3.768, 196.84866144909952), (8.80000000000882, 197.16828786544016), (8.80000000000882, 196.94828786544016), (0.299999999999559, 196.8), (0.299999999999559, 196.6), (3.768, 196.86866144909953), (3.768, 196.69866144909952), (3.768, 196.84866144909952), (3.768, 196.69866144909952), (8.80000000000882, 196.94828786544016), (8.80000000000882, 196.64828786544015)]</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 198.0), (0.299999999999559, 197.89), (3.727, 197.98217470763092), (3.727, 197.8721747076309), (3.727, 197.98217470763092), (3.727, 197.84217470763093), (9.938, 197.94986864083654), (9.938, 197.66986864083654), (0.299999999999559, 197.89), (0.299999999999559, 197.62), (3.727, 197.8721747076309), (3.727, 197.70217470763092), (3.727, 197.84217470763093), (3.727, 197.70217470763092), (9.938, 197.66986864083654), (9.938, 197.38986864083654)]</t>
+          <t>[(0.299999999999559, 198.0), (0.299999999999559, 197.88), (3.727, 197.98217470763092), (3.727, 197.8621747076309), (3.727, 197.98217470763092), (3.727, 197.8621747076309), (8.80000000000882, 197.95578786543993), (8.80000000000882, 197.83578786543993), (0.299999999999559, 197.88), (0.299999999999559, 197.62), (3.727, 197.8621747076309), (3.727, 197.70217470763092), (3.727, 197.8621747076309), (3.727, 197.70217470763092), (8.80000000000882, 197.83578786543993), (8.80000000000882, 197.60578786543994)]</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[(0.299999999997471, 199.0), (0.299999999997471, 198.89), (3.683, 198.91542499999994), (3.683, 198.80542499999993), (3.683, 198.91542499999994), (3.683, 198.80542499999993), (9.911, 198.75972499999995), (9.911, 198.64972499999993), (0.299999999997471, 198.89), (0.299999999997471, 198.61), (3.683, 198.80542499999993), (3.683, 198.66542499999994), (3.683, 198.80542499999993), (3.683, 198.66542499999994), (9.911, 198.64972499999993), (9.911, 198.37972499999995)]</t>
+          <t>[(0.299999999997471, 199.0), (0.299999999997471, 198.88), (3.683, 198.91542499999994), (3.683, 198.79542499999994), (3.683, 198.91542499999994), (3.683, 198.78542499999995), (8.80000000000882, 198.7874999999997), (8.80000000000882, 198.65749999999971), (0.299999999997471, 198.88), (0.299999999997471, 198.61), (3.683, 198.79542499999994), (3.683, 198.66542499999994), (3.683, 198.78542499999995), (3.683, 198.66542499999994), (8.80000000000882, 198.65749999999971), (8.80000000000882, 198.5374999999997)]</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[(0.299999999997471, 200.0), (0.299999999997471, 199.89), (3.598, 199.91754999999995), (3.598, 199.80754999999994), (3.598, 199.91754999999995), (3.598, 199.79754999999994), (9.909, 199.75977499999993), (9.909, 199.63977499999993), (0.299999999997471, 199.89), (0.299999999997471, 199.61), (3.598, 199.80754999999994), (3.598, 199.66754999999995), (3.598, 199.79754999999994), (3.598, 199.66754999999995), (9.909, 199.63977499999993), (9.909, 199.33977499999995)]</t>
+          <t>[(0.299999999997471, 200.0), (0.299999999997471, 199.88), (3.598, 199.91754999999995), (3.598, 199.79754999999994), (3.598, 199.91754999999995), (3.598, 199.78754999999995), (8.80000000000673, 199.78749999999977), (8.80000000000673, 199.65749999999977), (0.299999999997471, 199.88), (0.299999999997471, 199.61), (3.598, 199.79754999999994), (3.598, 199.66754999999995), (3.598, 199.78754999999995), (3.598, 199.66754999999995), (8.80000000000673, 199.65749999999977), (8.80000000000673, 199.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 201.0), (0.299999999999559, 200.89), (3.606, 200.91735), (3.606, 200.80734999999999), (3.606, 200.91735), (3.606, 200.80734999999999), (9.852, 200.7612), (9.852, 200.6512), (0.299999999999559, 200.89), (0.299999999999559, 200.61), (3.606, 200.80734999999999), (3.606, 200.66735), (3.606, 200.80734999999999), (3.606, 200.66735), (9.852, 200.6512), (9.852, 200.3612)]</t>
+          <t>[(0.299999999999559, 201.0), (0.299999999999559, 200.88), (3.606, 200.91735), (3.606, 200.79735), (3.606, 200.91735), (3.606, 200.78735), (8.80000000000882, 200.78749999999977), (8.80000000000882, 200.65749999999977), (0.299999999999559, 200.88), (0.299999999999559, 200.61), (3.606, 200.79735), (3.606, 200.66735), (3.606, 200.78735), (3.606, 200.66735), (8.80000000000882, 200.65749999999977), (8.80000000000882, 200.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 202.0), (0.299999999999559, 201.89), (3.547, 201.918825), (3.547, 201.80882499999998), (3.547, 201.918825), (3.547, 201.80882499999998), (9.827, 201.761825), (9.827, 201.65182499999997), (0.299999999999559, 201.89), (0.299999999999559, 201.63), (3.547, 201.80882499999998), (3.547, 201.668825), (3.547, 201.80882499999998), (3.547, 201.668825), (9.827, 201.65182499999997), (9.827, 201.381825)]</t>
+          <t>[(0.299999999999559, 202.0), (0.299999999999559, 201.88), (3.547, 201.918825), (3.547, 201.798825), (3.547, 201.918825), (3.547, 201.788825), (8.80000000000882, 201.78749999999977), (8.80000000000882, 201.65749999999977), (0.299999999999559, 201.88), (0.299999999999559, 201.63), (3.547, 201.798825), (3.547, 201.668825), (3.547, 201.788825), (3.547, 201.668825), (8.80000000000882, 201.65749999999977), (8.80000000000882, 201.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 203.0), (0.299999999999559, 202.89), (3.538, 202.91905), (3.538, 202.80904999999998), (3.538, 202.91905), (3.538, 202.80904999999998), (9.806, 202.76235), (9.806, 202.65234999999998), (0.299999999999559, 202.89), (0.299999999999559, 202.63), (3.538, 202.80904999999998), (3.538, 202.66905), (3.538, 202.80904999999998), (3.538, 202.66905), (9.806, 202.65234999999998), (9.806, 202.37235)]</t>
+          <t>[(0.299999999999559, 203.0), (0.299999999999559, 202.88), (3.538, 202.91905), (3.538, 202.79905), (3.538, 202.91905), (3.538, 202.78905), (8.80000000000882, 202.78749999999977), (8.80000000000882, 202.65749999999977), (0.299999999999559, 202.88), (0.299999999999559, 202.63), (3.538, 202.79905), (3.538, 202.66905), (3.538, 202.78905), (3.538, 202.66905), (8.80000000000882, 202.65749999999977), (8.80000000000882, 202.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 204.0), (0.299999999999559, 203.89), (3.559, 203.918525), (3.559, 203.80852499999997), (3.559, 203.918525), (3.559, 203.80852499999997), (9.749, 203.76377499999998), (9.749, 203.65377499999997), (0.299999999999559, 203.89), (0.299999999999559, 203.64), (3.559, 203.80852499999997), (3.559, 203.668525), (3.559, 203.80852499999997), (3.559, 203.668525), (9.749, 203.65377499999997), (9.749, 203.38377499999999)]</t>
+          <t>[(0.299999999999559, 204.0), (0.299999999999559, 203.88), (3.559, 203.918525), (3.559, 203.79852499999998), (3.559, 203.918525), (3.559, 203.788525), (8.80000000000882, 203.78749999999977), (8.80000000000882, 203.65749999999977), (0.299999999999559, 203.88), (0.299999999999559, 203.64), (3.559, 203.79852499999998), (3.559, 203.668525), (3.559, 203.788525), (3.559, 203.668525), (8.80000000000882, 203.65749999999977), (8.80000000000882, 203.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 205.0), (0.299999999999559, 204.89), (3.474, 204.92065), (3.474, 204.81064999999998), (3.474, 204.92065), (3.474, 204.81064999999998), (9.705, 204.764875), (9.705, 204.65487499999998), (0.299999999999559, 204.89), (0.299999999999559, 204.65), (3.474, 204.81064999999998), (3.474, 204.67065), (3.474, 204.81064999999998), (3.474, 204.67065), (9.705, 204.65487499999998), (9.705, 204.40487499999998)]</t>
+          <t>[(0.299999999999559, 205.0), (0.299999999999559, 204.88), (3.474, 204.92065), (3.474, 204.80065), (3.474, 204.92065), (3.474, 204.79065), (8.80000000000882, 204.78749999999977), (8.80000000000882, 204.65749999999977), (0.299999999999559, 204.88), (0.299999999999559, 204.65), (3.474, 204.80065), (3.474, 204.67065), (3.474, 204.79065), (3.474, 204.67065), (8.80000000000882, 204.65749999999977), (8.80000000000882, 204.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 206.0), (0.299999999999559, 205.89), (3.407, 205.922325), (3.407, 205.812325), (3.407, 205.922325), (3.407, 205.812325), (9.622, 205.76694999999998), (9.622, 205.65694999999997), (0.299999999999559, 205.89), (0.299999999999559, 205.65), (3.407, 205.812325), (3.407, 205.672325), (3.407, 205.812325), (3.407, 205.672325), (9.622, 205.65694999999997), (9.622, 205.38694999999998)]</t>
+          <t>[(0.299999999999559, 206.0), (0.299999999999559, 205.88), (3.407, 205.922325), (3.407, 205.802325), (3.407, 205.922325), (3.407, 205.792325), (8.80000000000882, 205.78749999999977), (8.80000000000882, 205.65749999999977), (0.299999999999559, 205.88), (0.299999999999559, 205.65), (3.407, 205.802325), (3.407, 205.672325), (3.407, 205.792325), (3.407, 205.672325), (8.80000000000882, 205.65749999999977), (8.80000000000882, 205.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 207.0), (0.299999999999559, 206.89), (3.3, 206.92499999999998), (3.3, 206.81499999999997), (3.3, 206.92499999999998), (3.3, 206.81499999999997), (9.545, 206.76887499999998), (9.545, 206.65887499999997), (0.299999999999559, 206.89), (0.299999999999559, 206.64), (3.3, 206.81499999999997), (3.3, 206.67499999999998), (3.3, 206.81499999999997), (3.3, 206.67499999999998), (9.545, 206.65887499999997), (9.545, 206.35887499999998)]</t>
+          <t>[(0.299999999999559, 207.0), (0.299999999999559, 206.88), (3.3, 206.92499999999998), (3.3, 206.80499999999998), (3.3, 206.92499999999998), (3.3, 206.795), (8.80000000000882, 206.78749999999977), (8.80000000000882, 206.65749999999977), (0.299999999999559, 206.88), (0.299999999999559, 206.64), (3.3, 206.80499999999998), (3.3, 206.67499999999998), (3.3, 206.795), (3.3, 206.67499999999998), (8.80000000000882, 206.65749999999977), (8.80000000000882, 206.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 208.0), (0.299999999999559, 207.89), (3.179, 207.928025), (3.179, 207.81802499999998), (3.179, 207.928025), (3.179, 207.81802499999998), (9.411, 207.772225), (9.411, 207.66222499999998), (0.299999999999559, 207.89), (0.299999999999559, 207.65), (3.179, 207.81802499999998), (3.179, 207.678025), (3.179, 207.81802499999998), (3.179, 207.678025), (9.411, 207.66222499999998), (9.411, 207.392225)]</t>
+          <t>[(0.299999999999559, 208.0), (0.299999999999559, 207.88), (3.179, 207.928025), (3.179, 207.808025), (3.179, 207.928025), (3.179, 207.798025), (8.80000000000882, 207.78749999999977), (8.80000000000882, 207.65749999999977), (0.299999999999559, 207.88), (0.299999999999559, 207.65), (3.179, 207.808025), (3.179, 207.678025), (3.179, 207.798025), (3.179, 207.678025), (8.80000000000882, 207.65749999999977), (8.80000000000882, 207.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 209.0), (0.299999999999559, 208.89), (3.11, 208.92974999999998), (3.11, 208.81974999999997), (3.11, 208.92974999999998), (3.11, 208.81974999999997), (9.304, 208.7749), (9.304, 208.6649), (0.299999999999559, 208.89), (0.299999999999559, 208.66), (3.11, 208.81974999999997), (3.11, 208.67974999999998), (3.11, 208.81974999999997), (3.11, 208.67974999999998), (9.304, 208.6649), (9.304, 208.38490000000002)]</t>
+          <t>[(0.299999999999559, 209.0), (0.299999999999559, 208.88), (3.11, 208.92974999999998), (3.11, 208.80974999999998), (3.11, 208.92974999999998), (3.11, 208.79975), (8.80000000000882, 208.78749999999977), (8.80000000000882, 208.65749999999977), (0.299999999999559, 208.88), (0.299999999999559, 208.66), (3.11, 208.80974999999998), (3.11, 208.67974999999998), (3.11, 208.79975), (3.11, 208.67974999999998), (8.80000000000882, 208.65749999999977), (8.80000000000882, 208.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 210.0), (0.299999999999559, 209.89), (2.924, 209.93439999999998), (2.924, 209.82439999999997), (2.924, 209.93439999999998), (2.924, 209.82439999999997), (9.214, 209.77714999999998), (9.214, 209.66714999999996), (0.299999999999559, 209.89), (0.299999999999559, 209.67), (2.924, 209.82439999999997), (2.924, 209.68439999999998), (2.924, 209.82439999999997), (2.924, 209.68439999999998), (9.214, 209.66714999999996), (9.214, 209.40714999999997)]</t>
+          <t>[(0.299999999999559, 210.0), (0.299999999999559, 209.88), (2.924, 209.93439999999998), (2.924, 209.81439999999998), (2.924, 209.93439999999998), (2.924, 209.8044), (8.80000000000882, 209.78749999999977), (8.80000000000882, 209.65749999999977), (0.299999999999559, 209.88), (0.299999999999559, 209.67), (2.924, 209.81439999999998), (2.924, 209.68439999999998), (2.924, 209.8044), (2.924, 209.68439999999998), (8.80000000000882, 209.65749999999977), (8.80000000000882, 209.53749999999977)]</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[(0.300000000027713, 213.0), (0.300000000027713, 212.86), (8.976, 212.74371136169316), (8.976, 212.60371136169317), (0.300000000027713, 212.86), (0.300000000027713, 212.75), (8.976, 212.60371136169317), (8.976, 212.48371136169317)]</t>
+          <t>[(0.300000000027713, 213.0), (0.300000000027713, 212.87), (8.79999999999032, 212.74891039354478), (8.79999999999032, 212.61891039354478), (0.300000000027713, 212.87), (0.300000000027713, 212.75), (8.79999999999032, 212.61891039354478), (8.79999999999032, 212.49891039354478)]</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>[(0.300000000005366, 237.0), (0.300000000005366, 236.89), (7.587, 237.51008999999962), (7.587, 237.4000899999996), (0.300000000005366, 236.89), (0.300000000005366, 236.75), (7.587, 237.4000899999996), (7.587, 237.20008999999962)]</t>
+          <t>[(0.300000000005366, 237.0), (0.300000000005366, 236.88), (7.587, 237.51008999999962), (7.587, 237.39008999999962), (0.300000000005366, 236.88), (0.300000000005366, 236.75), (7.587, 237.39008999999962), (7.587, 237.20008999999962)]</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[(0.300000000162364, 242.0), (0.300000000162364, 241.89), (4.86, 242.1320429426627), (4.86, 242.0220429426627), (0.300000000162364, 241.89), (0.300000000162364, 241.75), (4.86, 242.0220429426627), (4.86, 241.7920429426627)]</t>
+          <t>[(0.300000000162364, 242.0), (0.300000000162364, 241.88), (4.86, 242.1320429426627), (4.86, 242.0120429426627), (0.300000000162364, 241.88), (0.300000000162364, 241.75), (4.86, 242.0120429426627), (4.86, 241.7920429426627)]</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[(0.299999999994472, 243.0), (0.299999999994472, 242.82), (5.037, 243.0388273133354), (5.037, 242.85882731333538), (0.299999999994472, 242.82), (0.299999999994472, 242.71), (5.037, 242.85882731333538), (5.037, 242.6888273133354)]</t>
+          <t>[(0.299999999994472, 243.0), (0.299999999994472, 242.88), (5.037, 243.0388273133354), (5.037, 242.91882731333538), (0.299999999994472, 242.88), (0.299999999994472, 242.71), (5.037, 242.91882731333538), (5.037, 242.6888273133354)]</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[(0.299999999999738, 250.0), (0.299999999999738, 249.86), (4.707, 249.69151), (4.707, 249.55151), (0.299999999999738, 249.86), (0.299999999999738, 249.74), (4.707, 249.55151), (4.707, 249.44151)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[(0.300000000142084, 257.0), (0.300000000142084, 256.85), (3.707, 257.0844077268599), (3.707, 256.93440772685994), (0.300000000142084, 256.85), (0.300000000142084, 256.7), (3.707, 256.93440772685994), (3.707, 256.7844077268599), (0.300000000142084, 256.7), (0.300000000142084, 256.59), (3.707, 256.7844077268599), (3.707, 256.6444077268599)]</t>
+          <t>[(0.300000000142084, 257.0), (0.300000000142084, 256.78), (3.707, 257.0844077268599), (3.707, 256.8644077268599), (0.300000000142084, 256.78), (0.300000000142084, 256.59), (3.707, 256.8644077268599), (3.707, 256.6444077268599)]</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[(0.300000000017287, 260.0), (0.300000000017287, 259.82), (2.833, 260.13895272784066), (2.833, 259.95895272784065), (0.300000000017287, 259.82), (0.300000000017287, 259.64), (2.833, 259.95895272784065), (2.833, 259.77895272784065), (0.300000000017287, 259.64), (0.300000000017287, 259.53), (2.833, 259.77895272784065), (2.833, 259.6089527278407)]</t>
+          <t>[(0.300000000017287, 260.0), (0.300000000017287, 259.73), (2.833, 260.13895272784066), (2.833, 259.8689527278407), (0.300000000017287, 259.73), (0.300000000017287, 259.53), (2.833, 259.8689527278407), (2.833, 259.6089527278407)]</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[(0.300000000044292, 275.0), (0.300000000044292, 274.74), (9.236, 275.47018868581534), (9.236, 275.21018868581535), (0.300000000044292, 274.74), (0.300000000044292, 274.63), (9.236, 275.21018868581535), (9.236, 274.95018868581536)]</t>
+          <t>[(0.300000000044292, 275.0), (0.300000000044292, 274.78), (9.236, 275.47018868581534), (9.236, 275.2501886858153), (0.300000000044292, 274.78), (0.300000000044292, 274.63), (9.236, 275.2501886858153), (9.236, 274.95018868581536)]</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[(0.300000000011987, 278.0), (0.300000000011987, 277.87), (2.621, 278.07452624854153), (2.621, 277.94452624854154), (2.621, 278.07452624854153), (2.621, 277.88452624854153), (9.83, 278.3060039416645), (9.83, 278.11600394166453), (0.300000000011987, 277.87), (0.300000000011987, 277.74), (2.621, 277.94452624854154), (2.621, 277.81452624854154), (2.621, 277.88452624854153), (2.621, 277.69452624854154), (9.83, 278.11600394166453), (9.83, 277.92600394166453), (0.300000000011987, 277.74), (0.300000000011987, 277.61), (2.621, 277.81452624854154), (2.621, 277.68452624854154), (2.621, 277.69452624854154), (2.621, 277.57452624854153), (9.83, 277.92600394166453), (9.83, 277.7560039416645), (0.300000000011987, 277.61), (0.300000000011987, 277.5), (2.621, 277.68452624854154), (2.621, 277.57452624854153), (2.621, 277.57452624854153), (2.621, 277.57452624854153), (9.83, 277.7560039416645), (9.83, 277.7560039416645)]</t>
+          <t>[(0.300000000011987, 278.0), (0.300000000011987, 277.83), (2.621, 278.07452624854153), (2.621, 277.9045262485415), (2.621, 278.07452624854153), (2.621, 277.88452624854153), (9.83, 278.3060039416645), (9.83, 278.11600394166453), (0.300000000011987, 277.83), (0.300000000011987, 277.66), (2.621, 277.9045262485415), (2.621, 277.73452624854156), (2.621, 277.88452624854153), (2.621, 277.69452624854154), (9.83, 278.11600394166453), (9.83, 277.92600394166453), (0.300000000011987, 277.66), (0.300000000011987, 277.5), (2.621, 277.73452624854156), (2.621, 277.57452624854153), (2.621, 277.69452624854154), (2.621, 277.57452624854153), (9.83, 277.92600394166453), (9.83, 277.7560039416645)]</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[(0.300000000011106, 281.0), (0.300000000011106, 280.83), (2.482, 280.9790633717505), (2.482, 280.8090633717505), (2.482, 280.9790633717505), (2.482, 280.7490633717505), (9.709, 280.9097191864343), (9.709, 280.6797191864343), (0.300000000011106, 280.83), (0.300000000011106, 280.66), (2.482, 280.8090633717505), (2.482, 280.6390633717505), (2.482, 280.7490633717505), (2.482, 280.5190633717505), (9.709, 280.6797191864343), (9.709, 280.4497191864343), (0.300000000011106, 280.66), (0.300000000011106, 280.49), (2.482, 280.6390633717505), (2.482, 280.4690633717505), (2.482, 280.5190633717505), (2.482, 280.3090633717505), (9.709, 280.4497191864343), (9.709, 280.3397191864343), (0.300000000011106, 280.49), (0.300000000011106, 280.34), (2.482, 280.4690633717505), (2.482, 280.3090633717505), (2.482, 280.3090633717505), (2.482, 280.3090633717505), (9.709, 280.3397191864343), (9.709, 280.3397191864343)]</t>
+          <t>[(0.300000000011106, 281.0), (0.300000000011106, 280.83), (2.482, 280.9790633717505), (2.482, 280.8090633717505), (2.482, 280.9790633717505), (2.482, 280.6390633717505), (9.709, 280.9097191864343), (9.709, 280.62971918643433), (0.300000000011106, 280.83), (0.300000000011106, 280.66), (2.482, 280.8090633717505), (2.482, 280.6390633717505), (2.482, 280.6390633717505), (2.482, 280.2990633717505), (9.709, 280.62971918643433), (9.709, 280.3497191864343), (0.300000000011106, 280.66), (0.300000000011106, 280.49), (2.482, 280.6390633717505), (2.482, 280.4690633717505), (2.482, 280.2990633717505), (2.482, 280.2990633717505), (9.709, 280.3497191864343), (9.709, 280.3497191864343), (0.300000000011106, 280.49), (0.300000000011106, 280.34), (2.482, 280.4690633717505), (2.482, 280.3090633717505), (2.482, 280.2990633717505), (2.482, 280.2990633717505), (9.709, 280.3497191864343), (9.709, 280.3497191864343)]</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[(0.300000000095717, 282.0), (0.300000000095717, 281.84), (2.506, 281.93702092481493), (2.506, 281.7770209248149), (2.506, 281.93702092481493), (2.506, 281.61702092481494), (9.752, 281.730154932607), (9.752, 281.480154932607), (0.300000000095717, 281.84), (0.300000000095717, 281.68), (2.506, 281.7770209248149), (2.506, 281.61702092481494), (2.506, 281.61702092481494), (2.506, 281.29702092481494), (9.752, 281.480154932607), (9.752, 281.230154932607), (0.300000000095717, 281.68), (0.300000000095717, 281.52), (2.506, 281.61702092481494), (2.506, 281.4570209248149), (2.506, 281.29702092481494), (2.506, 281.29702092481494), (9.752, 281.230154932607), (9.752, 281.230154932607), (0.300000000095717, 281.52), (0.300000000095717, 281.36), (2.506, 281.4570209248149), (2.506, 281.30702092481494), (2.506, 281.29702092481494), (2.506, 281.29702092481494), (9.752, 281.230154932607), (9.752, 281.230154932607)]</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>[(0.300000000006342, 292.0), (0.300000000006342, 291.89), (3.363, 292.21440999999953), (3.363, 292.1044099999995), (3.363, 292.21440999999953), (3.363, 292.0544099999995), (10.444, 292.71007999999955), (10.444, 292.42007999999953), (0.300000000006342, 291.89), (0.300000000006342, 291.73), (3.363, 292.1044099999995), (3.363, 291.88440999999955), (3.363, 292.0544099999995), (3.363, 291.89440999999954), (10.444, 292.42007999999953), (10.444, 292.13007999999957)]</t>
+          <t>[(0.300000000006342, 292.0), (0.300000000006342, 291.88), (3.363, 292.21440999999953), (3.363, 292.0944099999995), (3.363, 292.21440999999953), (3.363, 292.0544099999995), (10.444, 292.71007999999955), (10.444, 292.42007999999953), (0.300000000006342, 291.88), (0.300000000006342, 291.73), (3.363, 292.0944099999995), (3.363, 291.88440999999955), (3.363, 292.0544099999995), (3.363, 291.89440999999954), (10.444, 292.42007999999953), (10.444, 292.13007999999957)]</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>[(0.300000000016253, 302.0), (0.300000000016253, 301.8), (3.423, 301.84624933863284), (3.423, 301.64624933863286), (3.423, 301.84624933863284), (3.423, 301.58624933863285), (10.533, 301.49621180987015), (10.533, 301.23621180987016), (0.300000000016253, 301.8), (0.300000000016253, 301.6), (3.423, 301.64624933863286), (3.423, 301.44624933863287), (3.423, 301.58624933863285), (3.423, 301.33624933863285), (10.533, 301.23621180987016), (10.533, 301.06621180987014), (0.300000000016253, 301.6), (0.300000000016253, 301.42), (3.423, 301.44624933863287), (3.423, 301.33624933863285), (3.423, 301.33624933863285), (3.423, 301.33624933863285), (10.533, 301.06621180987014), (10.533, 301.06621180987014)]</t>
+          <t>[(0.300000000016253, 302.0), (0.300000000016253, 301.71), (3.423, 301.84624933863284), (3.423, 301.5562493386328), (3.423, 301.84624933863284), (3.423, 301.58624933863285), (10.533, 301.49621180987015), (10.533, 301.23621180987016), (0.300000000016253, 301.71), (0.300000000016253, 301.42), (3.423, 301.5562493386328), (3.423, 301.33624933863285), (3.423, 301.58624933863285), (3.423, 301.33624933863285), (10.533, 301.23621180987016), (10.533, 301.06621180987014)]</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[(0.300000000017934, 303.0), (0.300000000017934, 302.81), (3.633, 302.7906332498607), (3.633, 302.6006332498607), (3.633, 302.7906332498607), (3.633, 302.6006332498607), (10.731, 302.3447631050972), (10.731, 302.1547631050972), (0.300000000017934, 302.81), (0.300000000017934, 302.62), (3.633, 302.6006332498607), (3.633, 302.4106332498607), (3.633, 302.6006332498607), (3.633, 302.3006332498607), (10.731, 302.1547631050972), (10.731, 302.0047631050972), (0.300000000017934, 302.62), (0.300000000017934, 302.43), (3.633, 302.4106332498607), (3.633, 302.3006332498607), (3.633, 302.3006332498607), (3.633, 302.3006332498607), (10.731, 302.0047631050972), (10.731, 302.0047631050972)]</t>
+          <t>[(0.300000000017934, 303.0), (0.300000000017934, 302.71), (3.633, 302.7906332498607), (3.633, 302.5006332498607), (3.633, 302.7906332498607), (3.633, 302.6006332498607), (10.731, 302.3447631050972), (10.731, 302.1547631050972), (0.300000000017934, 302.71), (0.300000000017934, 302.43), (3.633, 302.5006332498607), (3.633, 302.3006332498607), (3.633, 302.6006332498607), (3.633, 302.3006332498607), (10.731, 302.1547631050972), (10.731, 302.0047631050972)]</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>[(0.299999999999891, 304.0), (0.299999999999891, 303.74), (3.773, 303.75689), (3.773, 303.49689), (3.773, 303.75689), (3.773, 303.64689), (10.998, 303.25113999999996), (10.998, 303.14113999999995), (0.299999999999891, 303.74), (0.299999999999891, 303.48), (3.773, 303.49689), (3.773, 303.35689), (3.773, 303.64689), (3.773, 303.35689), (10.998, 303.14113999999995), (10.998, 303.00113999999996)]</t>
+          <t>[(0.299999999999891, 304.0), (0.299999999999891, 303.74), (3.773, 303.75689), (3.773, 303.49689), (3.773, 303.75689), (3.773, 303.63689), (10.998, 303.25113999999996), (10.998, 303.13113999999996), (0.299999999999891, 303.74), (0.299999999999891, 303.48), (3.773, 303.49689), (3.773, 303.35689), (3.773, 303.63689), (3.773, 303.35689), (10.998, 303.13113999999996), (10.998, 303.00113999999996)]</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>[(0.300000000006539, 305.0), (0.300000000006539, 304.75), (3.89, 304.74870000000044), (3.89, 304.49870000000044), (3.89, 304.74870000000044), (3.89, 304.6387000000004), (11.114, 304.24302000000046), (11.114, 304.13302000000044), (0.300000000006539, 304.75), (0.300000000006539, 304.51), (3.89, 304.49870000000044), (3.89, 304.37870000000044), (3.89, 304.6387000000004), (3.89, 304.37870000000044), (11.114, 304.13302000000044), (11.114, 303.99302000000046)]</t>
+          <t>[(0.300000000006539, 305.0), (0.300000000006539, 304.75), (3.89, 304.74870000000044), (3.89, 304.49870000000044), (3.89, 304.74870000000044), (3.89, 304.62870000000044), (11.114, 304.24302000000046), (11.114, 304.12302000000045), (0.300000000006539, 304.75), (0.300000000006539, 304.51), (3.89, 304.49870000000044), (3.89, 304.37870000000044), (3.89, 304.62870000000044), (3.89, 304.37870000000044), (11.114, 304.12302000000045), (11.114, 303.99302000000046)]</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>[(0.299999999992413, 306.0), (0.299999999992413, 305.75), (3.987, 305.74190999999945), (3.987, 305.49190999999945), (3.987, 305.74190999999945), (3.987, 305.63190999999944), (11.199, 305.23706999999945), (11.199, 305.12706999999943), (0.299999999992413, 305.75), (0.299999999992413, 305.51), (3.987, 305.49190999999945), (3.987, 305.3419099999995), (3.987, 305.63190999999944), (3.987, 305.3419099999995), (11.199, 305.12706999999943), (11.199, 304.97706999999946)]</t>
+          <t>[(0.299999999992413, 306.0), (0.299999999992413, 305.75), (3.987, 305.74190999999945), (3.987, 305.49190999999945), (3.987, 305.74190999999945), (3.987, 305.62190999999945), (11.199, 305.23706999999945), (11.199, 305.11706999999944), (0.299999999992413, 305.75), (0.299999999992413, 305.51), (3.987, 305.49190999999945), (3.987, 305.3419099999995), (3.987, 305.62190999999945), (3.987, 305.3419099999995), (11.199, 305.11706999999944), (11.199, 304.97706999999946)]</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>[(0.300000000008175, 307.0), (0.300000000008175, 306.75), (4.097, 306.7342100000006), (4.097, 306.4842100000006), (4.097, 306.7342100000006), (4.097, 306.6242100000006), (11.306, 306.22958000000057), (11.306, 306.11958000000055), (0.300000000008175, 306.75), (0.300000000008175, 306.5), (4.097, 306.4842100000006), (4.097, 306.3342100000006), (4.097, 306.6242100000006), (4.097, 306.3342100000006), (11.306, 306.11958000000055), (11.306, 305.97958000000057)]</t>
+          <t>[(0.300000000008175, 307.0), (0.300000000008175, 306.75), (4.097, 306.7342100000006), (4.097, 306.4842100000006), (4.097, 306.7342100000006), (4.097, 306.6142100000006), (11.306, 306.22958000000057), (11.306, 306.10958000000056), (0.300000000008175, 306.75), (0.300000000008175, 306.5), (4.097, 306.4842100000006), (4.097, 306.3342100000006), (4.097, 306.6142100000006), (4.097, 306.3342100000006), (11.306, 306.10958000000056), (11.306, 305.97958000000057)]</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[(0.299999999997508, 308.0), (0.299999999997508, 307.74), (4.2, 307.7269999999998), (4.2, 307.4669999999998), (4.2, 307.7269999999998), (4.2, 307.6169999999998), (11.38, 307.22439999999983), (11.38, 307.1143999999998), (0.299999999997508, 307.74), (0.299999999997508, 307.49), (4.2, 307.4669999999998), (4.2, 307.3269999999998), (4.2, 307.6169999999998), (4.2, 307.3269999999998), (11.38, 307.1143999999998), (11.38, 306.94439999999986)]</t>
+          <t>[(0.299999999997508, 308.0), (0.299999999997508, 307.74), (4.2, 307.7269999999998), (4.2, 307.4669999999998), (4.2, 307.7269999999998), (4.2, 307.6069999999998), (11.38, 307.22439999999983), (11.38, 307.1043999999998), (0.299999999997508, 307.74), (0.299999999997508, 307.49), (4.2, 307.4669999999998), (4.2, 307.3269999999998), (4.2, 307.6069999999998), (4.2, 307.3269999999998), (11.38, 307.1043999999998), (11.38, 306.94439999999986)]</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>[(0.299999999995064, 310.0), (0.299999999995064, 309.77), (4.296, 309.72027999999966), (4.296, 309.49027999999964), (4.296, 309.72027999999966), (4.296, 309.61027999999965), (11.548, 309.2126399999997), (11.548, 309.10263999999967), (0.299999999995064, 309.77), (0.299999999995064, 309.47), (4.296, 309.49027999999964), (4.296, 309.36027999999965), (4.296, 309.61027999999965), (4.296, 309.36027999999965), (11.548, 309.10263999999967), (11.548, 308.9626399999997)]</t>
+          <t>[(0.299999999995064, 310.0), (0.299999999995064, 309.77), (4.296, 309.72027999999966), (4.296, 309.49027999999964), (4.296, 309.72027999999966), (4.296, 309.60027999999966), (11.548, 309.2126399999997), (11.548, 309.0926399999997), (0.299999999995064, 309.77), (0.299999999995064, 309.47), (4.296, 309.49027999999964), (4.296, 309.36027999999965), (4.296, 309.60027999999966), (4.296, 309.36027999999965), (11.548, 309.0926399999997), (11.548, 308.9626399999997)]</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>[(0.300000000001698, 311.0), (0.300000000001698, 310.72), (4.37, 310.7151000000001), (4.37, 310.43510000000015), (4.37, 310.7151000000001), (4.37, 310.6051000000001), (11.586, 310.20998000000014), (11.586, 310.09998000000013), (0.300000000001698, 310.72), (0.300000000001698, 310.44), (4.37, 310.43510000000015), (4.37, 310.3051000000001), (4.37, 310.6051000000001), (4.37, 310.3051000000001), (11.586, 310.09998000000013), (11.586, 309.95998000000014)]</t>
+          <t>[(0.300000000001698, 311.0), (0.300000000001698, 310.72), (4.37, 310.7151000000001), (4.37, 310.43510000000015), (4.37, 310.7151000000001), (4.37, 310.5951000000001), (11.586, 310.20998000000014), (11.586, 310.08998000000014), (0.300000000001698, 310.72), (0.300000000001698, 310.44), (4.37, 310.43510000000015), (4.37, 310.3051000000001), (4.37, 310.5951000000001), (4.37, 310.3051000000001), (11.586, 310.08998000000014), (11.586, 309.95998000000014)]</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[(0.299999999993275, 313.0), (0.299999999993275, 312.74), (4.512, 312.7051599999995), (4.512, 312.44515999999953), (4.512, 312.7051599999995), (4.512, 312.5951599999995), (11.664, 312.20451999999955), (11.664, 312.09451999999953), (0.299999999993275, 312.74), (0.299999999993275, 312.48), (4.512, 312.44515999999953), (4.512, 312.3251599999995), (4.512, 312.5951599999995), (4.512, 312.3251599999995), (11.664, 312.09451999999953), (11.664, 311.95451999999955)]</t>
+          <t>[(0.299999999993275, 313.0), (0.299999999993275, 312.74), (4.512, 312.7051599999995), (4.512, 312.44515999999953), (4.512, 312.7051599999995), (4.512, 312.5851599999995), (11.664, 312.20451999999955), (11.664, 312.08451999999954), (0.299999999993275, 312.74), (0.299999999993275, 312.48), (4.512, 312.44515999999953), (4.512, 312.3251599999995), (4.512, 312.5851599999995), (4.512, 312.3251599999995), (11.664, 312.08451999999954), (11.664, 311.95451999999955)]</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>[(0.300000000025836, 315.0), (0.300000000025836, 314.73), (4.155, 314.74359494560855), (4.155, 314.47359494560857), (4.155, 314.74359494560855), (4.155, 314.63359494560854), (11.354, 314.2647726404007), (11.354, 314.15477264040067), (0.300000000025836, 314.73), (0.300000000025836, 314.46), (4.155, 314.47359494560857), (4.155, 314.35359494560856), (4.155, 314.63359494560854), (4.155, 314.35359494560856), (11.354, 314.15477264040067), (11.354, 314.0147726404007)]</t>
+          <t>[(0.300000000025836, 315.0), (0.300000000025836, 314.73), (4.155, 314.74359494560855), (4.155, 314.47359494560857), (4.155, 314.74359494560855), (4.155, 314.62359494560855), (11.354, 314.2647726404007), (11.354, 314.1447726404007), (0.300000000025836, 314.73), (0.300000000025836, 314.46), (4.155, 314.47359494560857), (4.155, 314.35359494560856), (4.155, 314.62359494560855), (4.155, 314.35359494560856), (11.354, 314.1447726404007), (11.354, 314.0147726404007)]</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>[(0.300000000009593, 316.0), (0.300000000009593, 315.72), (4.129, 315.780924472949), (4.129, 315.500924472949), (4.129, 315.780924472949), (4.129, 315.55092447294896), (11.157, 315.3788187523644), (11.157, 315.1488187523644), (0.300000000009593, 315.72), (0.300000000009593, 315.45), (4.129, 315.500924472949), (4.129, 315.320924472949), (4.129, 315.55092447294896), (4.129, 315.320924472949), (11.157, 315.1488187523644), (11.157, 315.0388187523644)]</t>
+          <t>[(0.300000000009593, 316.0), (0.300000000009593, 315.72), (4.129, 315.780924472949), (4.129, 315.500924472949), (4.129, 315.780924472949), (4.129, 315.62092447294896), (11.157, 315.3788187523644), (11.157, 315.21881875236437), (0.300000000009593, 315.72), (0.300000000009593, 315.45), (4.129, 315.500924472949), (4.129, 315.320924472949), (4.129, 315.62092447294896), (4.129, 315.320924472949), (11.157, 315.21881875236437), (11.157, 315.0388187523644)]</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[(0.299999999997057, 320.0), (0.299999999997057, 319.84), (3.606, 319.91734999999994), (3.606, 319.7573499999999), (3.606, 319.91734999999994), (3.606, 319.7573499999999), (10.674, 319.7406499999999), (10.674, 319.5806499999999), (0.299999999997057, 319.84), (0.299999999997057, 319.68), (3.606, 319.7573499999999), (3.606, 319.59734999999995), (3.606, 319.7573499999999), (3.606, 319.59734999999995), (10.674, 319.5806499999999), (10.674, 319.4206499999999), (0.299999999997057, 319.68), (0.299999999997057, 319.52), (3.606, 319.59734999999995), (3.606, 319.48734999999994), (3.606, 319.59734999999995), (3.606, 319.48734999999994), (10.674, 319.4206499999999), (10.674, 319.2806499999999)]</t>
+          <t>[(0.299999999997057, 320.0), (0.299999999997057, 319.76), (3.606, 319.91734999999994), (3.606, 319.67734999999993), (3.606, 319.91734999999994), (3.606, 319.6873499999999), (10.674, 319.7406499999999), (10.674, 319.5106499999999), (0.299999999997057, 319.76), (0.299999999997057, 319.52), (3.606, 319.67734999999993), (3.606, 319.48734999999994), (3.606, 319.6873499999999), (3.606, 319.48734999999994), (10.674, 319.5106499999999), (10.674, 319.2806499999999)]</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>[(0.299999999997057, 323.0), (0.299999999997057, 322.72), (3.651, 322.91622499999994), (3.651, 322.63622499999997), (3.651, 322.91622499999994), (3.651, 322.71622499999995), (10.623, 322.7419249999999), (10.623, 322.54192499999994), (0.299999999997057, 322.72), (0.299999999997057, 322.45), (3.651, 322.63622499999997), (3.651, 322.52622499999995), (3.651, 322.71622499999995), (3.651, 322.52622499999995), (10.623, 322.54192499999994), (10.623, 322.3619249999999)]</t>
+          <t>[(0.299999999997057, 323.0), (0.299999999997057, 322.75), (3.651, 322.91622499999994), (3.651, 322.66622499999994), (3.651, 322.91622499999994), (3.651, 322.71622499999995), (10.623, 322.7419249999999), (10.623, 322.54192499999994), (0.299999999997057, 322.75), (0.299999999997057, 322.45), (3.651, 322.66622499999994), (3.651, 322.52622499999995), (3.651, 322.71622499999995), (3.651, 322.52622499999995), (10.623, 322.54192499999994), (10.623, 322.3619249999999)]</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[(0.299999999996887, 325.0), (0.299999999996887, 324.73), (3.549, 324.9187749999999), (3.549, 324.64877499999994), (3.549, 324.9187749999999), (3.549, 324.78877499999993), (10.578, 324.7430499999999), (10.578, 324.61304999999993), (0.299999999996887, 324.73), (0.299999999996887, 324.46), (3.549, 324.64877499999994), (3.549, 324.53877499999993), (3.549, 324.78877499999993), (3.549, 324.65877499999993), (10.578, 324.61304999999993), (10.578, 324.48304999999993)]</t>
+          <t>[(0.299999999996887, 325.0), (0.299999999996887, 324.76), (3.549, 324.9187749999999), (3.549, 324.6787749999999), (3.549, 324.9187749999999), (3.549, 324.78877499999993), (10.578, 324.7430499999999), (10.578, 324.61304999999993), (0.299999999996887, 324.76), (0.299999999996887, 324.46), (3.549, 324.6787749999999), (3.549, 324.53877499999993), (3.549, 324.78877499999993), (3.549, 324.65877499999993), (10.578, 324.61304999999993), (10.578, 324.48304999999993)]</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>[(0.299999999997057, 328.0), (0.299999999997057, 327.76), (3.437, 327.9215749999999), (3.437, 327.6815749999999), (3.437, 327.9215749999999), (3.437, 327.7915749999999), (10.443, 327.74642499999993), (10.443, 327.61642499999994), (0.299999999997057, 327.76), (0.299999999997057, 327.52), (3.437, 327.6815749999999), (3.437, 327.5415749999999), (3.437, 327.7915749999999), (3.437, 327.6615749999999), (10.443, 327.61642499999994), (10.443, 327.48642499999994)]</t>
+          <t>[(0.299999999997057, 328.0), (0.299999999997057, 327.76), (3.437, 327.9215749999999), (3.437, 327.6815749999999), (3.437, 327.9215749999999), (3.437, 327.7315749999999), (10.443, 327.74642499999993), (10.443, 327.55642499999993), (0.299999999997057, 327.76), (0.299999999997057, 327.52), (3.437, 327.6815749999999), (3.437, 327.5415749999999), (3.437, 327.7315749999999), (3.437, 327.5415749999999), (10.443, 327.55642499999993), (10.443, 327.3764249999999)]</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>[(0.300000000000668, 331.0), (0.300000000000668, 330.83), (3.135, 330.91246797792024), (3.135, 330.7424679779202), (3.135, 330.91246797792024), (3.135, 330.7524679779202), (10.237, 330.6931902280752), (10.237, 330.4031902280752), (0.300000000000668, 330.83), (0.300000000000668, 330.72), (3.135, 330.7424679779202), (3.135, 330.58246797792026), (3.135, 330.7524679779202), (3.135, 330.59246797792025), (10.237, 330.4031902280752), (10.237, 330.1131902280752)]</t>
+          <t>[(0.300000000000668, 331.0), (0.300000000000668, 330.88), (3.135, 330.91246797792024), (3.135, 330.79246797792024), (3.135, 330.91246797792024), (3.135, 330.72246797792025), (9.67868328152491, 330.710428531895), (9.67868328152491, 330.520428531895), (0.300000000000668, 330.88), (0.300000000000668, 330.72), (3.135, 330.79246797792024), (3.135, 330.58246797792026), (3.135, 330.72246797792025), (3.135, 330.58246797792026), (9.67868328152491, 330.520428531895), (9.67868328152491, 330.330428531895)]</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>[(0.300000000051862, 332.0), (0.300000000051862, 331.86), (3.172, 331.8832787096888), (3.172, 331.7432787096888), (3.172, 331.8832787096888), (3.172, 331.6032787096888), (10.192, 331.59797806275316), (10.192, 331.3179780627532), (0.300000000051862, 331.86), (0.300000000051862, 331.72), (3.172, 331.7432787096888), (3.172, 331.6032787096888), (3.172, 331.6032787096888), (3.172, 331.4932787096888), (10.192, 331.3179780627532), (10.192, 331.0179780627532), (0.300000000051862, 331.72), (0.300000000051862, 331.61), (3.172, 331.6032787096888), (3.172, 331.4932787096888), (3.172, 331.4932787096888), (3.172, 331.4932787096888), (10.192, 331.0179780627532), (10.192, 331.0179780627532)]</t>
+          <t>[(0.300000000051862, 332.0), (0.300000000051862, 331.8), (3.172, 331.8832787096888), (3.172, 331.6832787096888), (3.172, 331.8832787096888), (3.172, 331.6832787096888), (9.53506969075114, 331.6246764448358), (9.53506969075114, 331.4246764448358), (0.300000000051862, 331.8), (0.300000000051862, 331.61), (3.172, 331.6832787096888), (3.172, 331.4932787096888), (3.172, 331.6832787096888), (3.172, 331.4932787096888), (9.53506969075114, 331.4246764448358), (9.53506969075114, 331.2346764448358)]</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>[(0.299999999990555, 333.0), (0.299999999990555, 332.85), (3.37, 332.8452512996124), (3.37, 332.69525129961244), (3.37, 332.8452512996124), (3.37, 332.56525129961244), (10.283, 332.49678948665604), (10.283, 332.21678948665607), (0.299999999990555, 332.85), (0.299999999990555, 332.7), (3.37, 332.69525129961244), (3.37, 332.5452512996124), (3.37, 332.56525129961244), (3.37, 332.4252512996124), (10.283, 332.21678948665607), (10.283, 331.94678948665603), (0.299999999990555, 332.7), (0.299999999990555, 332.58), (3.37, 332.5452512996124), (3.37, 332.4252512996124), (3.37, 332.4252512996124), (3.37, 332.4252512996124), (10.283, 331.94678948665603), (10.283, 331.94678948665603)]</t>
+          <t>[(0.299999999990555, 333.0), (0.299999999990555, 332.85), (3.37, 332.8452512996124), (3.37, 332.69525129961244), (3.37, 332.8452512996124), (3.37, 332.63525129961243), (9.25768469899234, 332.54847229131985), (9.25768469899234, 332.3384722913199), (0.299999999990555, 332.85), (0.299999999990555, 332.7), (3.37, 332.69525129961244), (3.37, 332.5452512996124), (3.37, 332.63525129961243), (3.37, 332.4252512996124), (9.25768469899234, 332.3384722913199), (9.25768469899234, 332.17847229131985), (0.299999999990555, 332.7), (0.299999999990555, 332.58), (3.37, 332.5452512996124), (3.37, 332.4252512996124), (3.37, 332.4252512996124), (3.37, 332.4252512996124), (9.25768469899234, 332.17847229131985), (9.25768469899234, 332.17847229131985)]</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[(0.300000000065475, 334.0), (0.300000000065475, 333.84), (3.565, 333.8035372191464), (3.565, 333.64353721914637), (3.565, 333.8035372191464), (3.565, 333.5235372191464), (10.399, 333.39231925762095), (10.399, 333.112319257621), (0.300000000065475, 333.84), (0.300000000065475, 333.68), (3.565, 333.64353721914637), (3.565, 333.4835372191464), (3.565, 333.5235372191464), (3.565, 333.3735372191464), (10.399, 333.112319257621), (10.399, 332.84231925762094), (0.300000000065475, 333.68), (0.300000000065475, 333.53), (3.565, 333.4835372191464), (3.565, 333.3735372191464), (3.565, 333.3735372191464), (3.565, 333.3735372191464), (10.399, 332.84231925762094), (10.399, 332.84231925762094)]</t>
+          <t>[(0.300000000065475, 334.0), (0.300000000065475, 333.76), (3.565, 333.8035372191464), (3.565, 333.5635372191464), (3.565, 333.8035372191464), (3.565, 333.58353721914636), (8.79999999999582, 333.4885348737288), (8.79999999999582, 333.26853487372875), (0.300000000065475, 333.76), (0.300000000065475, 333.53), (3.565, 333.5635372191464), (3.565, 333.3735372191464), (3.565, 333.58353721914636), (3.565, 333.3735372191464), (8.79999999999582, 333.26853487372875), (8.79999999999582, 333.1185348737288)]</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[(0.300000000000077, 335.0), (0.300000000000077, 334.78), (3.711, 334.7614415065691), (3.711, 334.5414415065691), (3.711, 334.7614415065691), (3.711, 334.5214415065691), (10.58, 334.2810374340458), (10.58, 334.0410374340458), (0.300000000000077, 334.78), (0.300000000000077, 334.56), (3.711, 334.5414415065691), (3.711, 334.3714415065691), (3.711, 334.5214415065691), (3.711, 334.3714415065691), (10.58, 334.0410374340458), (10.58, 333.8010374340458)]</t>
+          <t>[(0.300000000000077, 335.0), (0.300000000000077, 334.78), (3.711, 334.7614415065691), (3.711, 334.5414415065691), (3.711, 334.7614415065691), (3.711, 334.5614415065691), (8.79999999999228, 334.40552706122514), (8.79999999999228, 334.20552706122515), (0.300000000000077, 334.78), (0.300000000000077, 334.56), (3.711, 334.5414415065691), (3.711, 334.3714415065691), (3.711, 334.5614415065691), (3.711, 334.3714415065691), (8.79999999999228, 334.20552706122515), (8.79999999999228, 334.08552706122515)]</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>[(0.299999999997502, 336.0), (0.299999999997502, 335.84), (3.815, 335.7539499999998), (3.815, 335.5939499999998), (3.815, 335.7539499999998), (3.815, 335.4839499999998), (10.735, 335.2695499999998), (10.735, 334.99954999999983), (0.299999999997502, 335.84), (0.299999999997502, 335.68), (3.815, 335.5939499999998), (3.815, 335.4339499999998), (3.815, 335.4839499999998), (3.815, 335.3139499999998), (10.735, 334.99954999999983), (10.735, 334.7295499999998), (0.299999999997502, 335.68), (0.299999999997502, 335.54), (3.815, 335.4339499999998), (3.815, 335.3139499999998), (3.815, 335.3139499999998), (3.815, 335.3139499999998), (10.735, 334.7295499999998), (10.735, 334.7295499999998)]</t>
+          <t>[(0.299999999997502, 336.0), (0.299999999997502, 335.84), (3.815, 335.7539499999998), (3.815, 335.5939499999998), (3.815, 335.7539499999998), (3.815, 335.5339499999998), (8.80000000000006, 335.4049999999998), (8.80000000000006, 335.1849999999998), (0.299999999997502, 335.84), (0.299999999997502, 335.68), (3.815, 335.5939499999998), (3.815, 335.4339499999998), (3.815, 335.5339499999998), (3.815, 335.3139499999998), (8.80000000000006, 335.1849999999998), (8.80000000000006, 335.0349999999998), (0.299999999997502, 335.68), (0.299999999997502, 335.54), (3.815, 335.4339499999998), (3.815, 335.3139499999998), (3.815, 335.3139499999998), (3.815, 335.3139499999998), (8.80000000000006, 335.0349999999998), (8.80000000000006, 335.0349999999998)]</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[(0.300000000001543, 337.0), (0.300000000001543, 336.84), (3.96, 336.74380000000014), (3.96, 336.5838000000001), (3.96, 336.74380000000014), (3.96, 336.46380000000016), (10.800000000004, 336.2649999999998), (10.800000000004, 335.98499999999984), (0.300000000001543, 336.84), (0.300000000001543, 336.68), (3.96, 336.5838000000001), (3.96, 336.42380000000014), (3.96, 336.46380000000016), (3.96, 336.3138000000001), (10.800000000004, 335.98499999999984), (10.800000000004, 335.7149999999998), (0.300000000001543, 336.68), (0.300000000001543, 336.52), (3.96, 336.42380000000014), (3.96, 336.3138000000001), (3.96, 336.3138000000001), (3.96, 336.3138000000001), (10.800000000004, 335.7149999999998), (10.800000000004, 335.7149999999998)]</t>
+          <t>[(0.300000000001543, 337.0), (0.300000000001543, 336.76), (3.96, 336.74380000000014), (3.96, 336.5038000000001), (3.96, 336.74380000000014), (3.96, 336.5238000000001), (8.79999999999269, 336.4050000000006), (8.79999999999269, 336.18500000000057), (0.300000000001543, 336.76), (0.300000000001543, 336.52), (3.96, 336.5038000000001), (3.96, 336.3138000000001), (3.96, 336.5238000000001), (3.96, 336.3138000000001), (8.79999999999269, 336.18500000000057), (8.79999999999269, 336.0350000000006)]</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[(0.300000000003093, 338.0), (0.300000000003093, 337.84), (4.13, 337.7319000000002), (4.13, 337.5719000000002), (4.13, 337.7319000000002), (4.13, 337.45190000000025), (10.8000000000055, 337.2649999999998), (10.8000000000055, 336.98499999999984), (0.300000000003093, 337.84), (0.300000000003093, 337.68), (4.13, 337.5719000000002), (4.13, 337.41190000000023), (4.13, 337.45190000000025), (4.13, 337.3019000000002), (10.8000000000055, 336.98499999999984), (10.8000000000055, 336.7149999999998), (0.300000000003093, 337.68), (0.300000000003093, 337.53), (4.13, 337.41190000000023), (4.13, 337.3019000000002), (4.13, 337.3019000000002), (4.13, 337.3019000000002), (10.8000000000055, 336.7149999999998), (10.8000000000055, 336.7149999999998)]</t>
+          <t>[(0.300000000003093, 338.0), (0.300000000003093, 337.76), (4.13, 337.7319000000002), (4.13, 337.4919000000002), (4.13, 337.7319000000002), (4.13, 337.5119000000002), (8.80000000000427, 337.4049999999999), (8.80000000000427, 337.1849999999999), (0.300000000003093, 337.76), (0.300000000003093, 337.53), (4.13, 337.4919000000002), (4.13, 337.3019000000002), (4.13, 337.5119000000002), (4.13, 337.3019000000002), (8.80000000000427, 337.1849999999999), (8.80000000000427, 337.0349999999999)]</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>[(0.299999999997504, 339.0), (0.299999999997504, 338.84), (4.233, 338.72468999999984), (4.233, 338.5646899999998), (4.233, 338.72468999999984), (4.233, 338.4346899999998), (10.7999999999995, 338.2649999999999), (10.7999999999995, 337.97499999999985), (0.299999999997504, 338.84), (0.299999999997504, 338.68), (4.233, 338.5646899999998), (4.233, 338.40468999999985), (4.233, 338.4346899999998), (4.233, 338.27468999999985), (10.7999999999995, 337.97499999999985), (10.7999999999995, 337.6849999999999), (0.299999999997504, 338.68), (0.299999999997504, 338.53), (4.233, 338.40468999999985), (4.233, 338.27468999999985), (4.233, 338.27468999999985), (4.233, 338.27468999999985), (10.7999999999995, 337.6849999999999), (10.7999999999995, 337.6849999999999)]</t>
+          <t>[(0.299999999997504, 339.0), (0.299999999997504, 338.84), (4.233, 338.72468999999984), (4.233, 338.5646899999998), (4.233, 338.72468999999984), (4.233, 338.4946899999998), (8.79999999999508, 338.40500000000014), (8.79999999999508, 338.1750000000001), (0.299999999997504, 338.84), (0.299999999997504, 338.68), (4.233, 338.5646899999998), (4.233, 338.40468999999985), (4.233, 338.4946899999998), (4.233, 338.27468999999985), (8.79999999999508, 338.1750000000001), (8.79999999999508, 338.01500000000016), (0.299999999997504, 338.68), (0.299999999997504, 338.53), (4.233, 338.40468999999985), (4.233, 338.27468999999985), (4.233, 338.27468999999985), (4.233, 338.27468999999985), (8.79999999999508, 338.01500000000016), (8.79999999999508, 338.01500000000016)]</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>[(0.29999999999671, 340.0), (0.29999999999671, 339.76), (4.411, 339.71222999999975), (4.411, 339.47222999999974), (4.411, 339.71222999999975), (4.411, 339.42222999999973), (10.7999999999994, 339.2649999999998), (10.7999999999994, 338.9749999999998), (0.29999999999671, 339.76), (0.29999999999671, 339.52), (4.411, 339.47222999999974), (4.411, 339.29222999999973), (4.411, 339.42222999999973), (4.411, 339.29222999999973), (10.7999999999994, 338.9749999999998), (10.7999999999994, 338.6949999999998)]</t>
+          <t>[(0.29999999999671, 340.0), (0.29999999999671, 339.76), (4.411, 339.71222999999975), (4.411, 339.47222999999974), (4.411, 339.71222999999975), (4.411, 339.50222999999977), (8.8000000000008, 339.4049999999997), (8.8000000000008, 339.1949999999997), (0.29999999999671, 339.76), (0.29999999999671, 339.52), (4.411, 339.47222999999974), (4.411, 339.29222999999973), (4.411, 339.50222999999977), (4.411, 339.29222999999973), (8.8000000000008, 339.1949999999997), (8.8000000000008, 339.0349999999997)]</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[(0.299999999996582, 341.0), (0.299999999996582, 340.74), (4.508, 340.7054399999998), (4.508, 340.4454399999998), (4.508, 340.7054399999998), (4.508, 340.4254399999998), (10.8000000000006, 340.2649999999997), (10.8000000000006, 339.98499999999973), (0.299999999996582, 340.74), (0.299999999996582, 340.49), (4.508, 340.4454399999998), (4.508, 340.3054399999998), (4.508, 340.4254399999998), (4.508, 340.3054399999998), (10.8000000000006, 339.98499999999973), (10.8000000000006, 339.7149999999997)]</t>
+          <t>[(0.299999999996582, 341.0), (0.299999999996582, 340.74), (4.508, 340.7054399999998), (4.508, 340.4454399999998), (4.508, 340.7054399999998), (4.508, 340.5054399999998), (8.80000000000574, 340.40499999999935), (8.80000000000574, 340.20499999999936), (0.299999999996582, 340.74), (0.299999999996582, 340.49), (4.508, 340.4454399999998), (4.508, 340.3054399999998), (4.508, 340.5054399999998), (4.508, 340.3054399999998), (8.80000000000574, 340.20499999999936), (8.80000000000574, 340.0549999999993)]</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>[(0.299999999997892, 342.0), (0.299999999997892, 341.79), (4.689, 341.6927699999998), (4.689, 341.48276999999985), (4.689, 341.6927699999998), (4.689, 341.48276999999985), (10.7999999999951, 341.2650000000002), (10.7999999999951, 341.05500000000023), (0.299999999997892, 341.79), (0.299999999997892, 341.59), (4.689, 341.48276999999985), (4.689, 341.3327699999998), (4.689, 341.48276999999985), (4.689, 341.3327699999998), (10.7999999999951, 341.05500000000023), (10.7999999999951, 340.7550000000002)]</t>
+          <t>[(0.299999999997892, 342.0), (0.299999999997892, 341.79), (4.689, 341.6927699999998), (4.689, 341.48276999999985), (4.689, 341.6927699999998), (4.689, 341.5127699999998), (8.80000000000652, 341.4049999999994), (8.80000000000652, 341.2249999999994), (0.299999999997892, 341.79), (0.299999999997892, 341.59), (4.689, 341.48276999999985), (4.689, 341.3327699999998), (4.689, 341.5127699999998), (4.689, 341.3327699999998), (8.80000000000652, 341.2249999999994), (8.80000000000652, 341.1049999999994)]</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>[(0.300000000078153, 343.0), (0.300000000078153, 342.8), (4.619, 342.7224780439565), (4.619, 342.52247804395654), (4.619, 342.7224780439565), (4.619, 342.5424780439565), (10.7999999999926, 342.325311290001), (10.7999999999926, 342.145311290001), (0.300000000078153, 342.8), (0.300000000078153, 342.61), (4.619, 342.52247804395654), (4.619, 342.38247804395655), (4.619, 342.5424780439565), (4.619, 342.38247804395655), (10.7999999999926, 342.145311290001), (10.7999999999926, 341.845311290001)]</t>
+          <t>[(0.300000000078153, 343.0), (0.300000000078153, 342.8), (4.619, 342.7224780439565), (4.619, 342.52247804395654), (4.619, 342.7224780439565), (4.619, 342.5524780439565), (8.80000000000144, 342.4538234252394), (8.80000000000144, 342.2838234252394), (0.300000000078153, 342.8), (0.300000000078153, 342.61), (4.619, 342.52247804395654), (4.619, 342.38247804395655), (4.619, 342.5524780439565), (4.619, 342.38247804395655), (8.80000000000144, 342.2838234252394), (8.80000000000144, 342.1638234252394)]</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>[(0.300000000003621, 344.0), (0.300000000003621, 343.77), (4.439, 343.7744640579982), (4.439, 343.5444640579982), (4.439, 343.7744640579982), (4.439, 343.50446405799823), (10.8000000000066, 343.4278503524954), (10.8000000000066, 343.1578503524954), (0.300000000003621, 343.77), (0.300000000003621, 343.54), (4.439, 343.5444640579982), (4.439, 343.38446405799823), (4.439, 343.50446405799823), (4.439, 343.38446405799823), (10.8000000000066, 343.1578503524954), (10.8000000000066, 342.8878503524954)]</t>
+          <t>[(0.300000000003621, 344.0), (0.300000000003621, 343.77), (4.439, 343.7744640579982), (4.439, 343.5444640579982), (4.439, 343.7744640579982), (4.439, 343.5744640579982), (8.80000000000111, 343.53683123773465), (8.80000000000111, 343.33683123773466), (0.300000000003621, 343.77), (0.300000000003621, 343.54), (4.439, 343.5444640579982), (4.439, 343.38446405799823), (4.439, 343.5744640579982), (4.439, 343.38446405799823), (8.80000000000111, 343.33683123773466), (8.80000000000111, 343.1868312377346)]</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[(0.300000000118611, 345.0), (0.300000000118611, 344.85), (4.277, 344.82212940033264), (4.277, 344.67212940033266), (4.277, 344.82212940033264), (4.277, 344.6021294003326), (10.8000000000109, 344.53038941500034), (10.8000000000109, 344.23038941500033), (0.300000000118611, 344.85), (0.300000000118611, 344.7), (4.277, 344.67212940033266), (4.277, 344.52212940033263), (4.277, 344.6021294003326), (4.277, 344.38212940033264), (10.8000000000109, 344.23038941500033), (10.8000000000109, 343.9303894150003), (0.300000000118611, 344.7), (0.300000000118611, 344.55), (4.277, 344.52212940033263), (4.277, 344.37212940033265), (4.277, 344.38212940033264), (4.277, 344.38212940033264), (10.8000000000109, 343.9303894150003), (10.8000000000109, 343.9303894150003)]</t>
+          <t>[(0.300000000118611, 345.0), (0.300000000118611, 344.85), (4.277, 344.82212940033264), (4.277, 344.67212940033266), (4.277, 344.82212940033264), (4.277, 344.67212940033266), (8.80000000000168, 344.6198390502397), (8.80000000000168, 344.4698390502397), (0.300000000118611, 344.85), (0.300000000118611, 344.7), (4.277, 344.67212940033266), (4.277, 344.52212940033263), (4.277, 344.67212940033266), (4.277, 344.52212940033263), (8.80000000000168, 344.4698390502397), (8.80000000000168, 344.3198390502397), (0.300000000118611, 344.7), (0.300000000118611, 344.55), (4.277, 344.52212940033263), (4.277, 344.37212940033265), (4.277, 344.52212940033263), (4.277, 344.37212940033265), (8.80000000000168, 344.3198390502397), (8.80000000000168, 344.1998390502397)]</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>[(0.300000000003649, 346.0), (0.300000000003649, 345.82), (4.095, 345.8673298640092), (4.095, 345.6873298640092), (4.095, 345.8673298640092), (4.095, 345.6073298640092), (10.799999999997, 345.6329284774958), (10.799999999997, 345.2529284774958), (0.300000000003649, 345.82), (0.300000000003649, 345.64), (4.095, 345.6873298640092), (4.095, 345.5073298640092), (4.095, 345.6073298640092), (4.095, 345.3473298640092), (10.799999999997, 345.2529284774958), (10.799999999997, 344.8729284774958), (0.300000000003649, 345.64), (0.300000000003649, 345.48), (4.095, 345.5073298640092), (4.095, 345.3473298640092), (4.095, 345.3473298640092), (4.095, 345.3473298640092), (10.799999999997, 344.8729284774958), (10.799999999997, 344.8729284774958)]</t>
+          <t>[(0.300000000003649, 346.0), (0.300000000003649, 345.82), (4.095, 345.8673298640092), (4.095, 345.6873298640092), (4.095, 345.8673298640092), (4.095, 345.6773298640092), (8.80000000000734, 345.70284686273436), (8.80000000000734, 345.51284686273436), (0.300000000003649, 345.82), (0.300000000003649, 345.64), (4.095, 345.6873298640092), (4.095, 345.5073298640092), (4.095, 345.6773298640092), (4.095, 345.4873298640092), (8.80000000000734, 345.51284686273436), (8.80000000000734, 345.32284686273437), (0.300000000003649, 345.64), (0.300000000003649, 345.48), (4.095, 345.5073298640092), (4.095, 345.3473298640092), (4.095, 345.4873298640092), (4.095, 345.3473298640092), (8.80000000000734, 345.32284686273437), (8.80000000000734, 345.15284686273435)]</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[(0.299999647942088, 347.0), (0.299999647942088, 346.85), (3.977, 346.9073632429936), (3.977, 346.7573632429936), (3.977, 346.9073632429936), (3.977, 346.6273632429936), (10.773, 346.7361477574517), (10.773, 346.3361477574517), (0.299999647942088, 346.85), (0.299999647942088, 346.7), (3.977, 346.7573632429936), (3.977, 346.6073632429936), (3.977, 346.6273632429936), (3.977, 346.3473632429936), (10.773, 346.3361477574517), (10.773, 345.9361477574517), (0.299999647942088, 346.7), (0.299999647942088, 346.55), (3.977, 346.6073632429936), (3.977, 346.4573632429936), (3.977, 346.3473632429936), (3.977, 346.3473632429936), (10.773, 345.9361477574517), (10.773, 345.9361477574517), (0.299999647942088, 346.55), (0.299999647942088, 346.42), (3.977, 346.4573632429936), (3.977, 346.3473632429936), (3.977, 346.3473632429936), (3.977, 346.3473632429936), (10.773, 345.9361477574517), (10.773, 345.9361477574517)]</t>
+          <t>[(0.299999647942088, 347.0), (0.299999647942088, 346.8), (3.977, 346.9073632429936), (3.977, 346.7073632429936), (3.977, 346.9073632429936), (3.977, 346.7073632429936), (8.79999964791539, 346.78585467523516), (8.79999964791539, 346.58585467523517), (0.299999647942088, 346.8), (0.299999647942088, 346.6), (3.977, 346.7073632429936), (3.977, 346.5073632429936), (3.977, 346.7073632429936), (3.977, 346.5073632429936), (8.79999964791539, 346.58585467523517), (8.79999964791539, 346.3858546752352), (0.299999647942088, 346.6), (0.299999647942088, 346.42), (3.977, 346.5073632429936), (3.977, 346.3473632429936), (3.977, 346.5073632429936), (3.977, 346.3473632429936), (8.79999964791539, 346.3858546752352), (8.79999964791539, 346.18585467523513)]</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 348.0), (0.300000000003108, 347.7), (3.862, 347.91095000000007), (3.862, 347.61095000000006), (3.862, 347.91095000000007), (3.862, 347.67095000000006), (10.664, 347.74090000000007), (10.664, 347.38090000000005), (0.300000000003108, 347.7), (0.300000000003108, 347.41), (3.862, 347.61095000000006), (3.862, 347.42095000000006), (3.862, 347.67095000000006), (3.862, 347.43095000000005), (10.664, 347.38090000000005), (10.664, 347.02090000000004)]</t>
+          <t>[(0.300000000003108, 348.0), (0.300000000003108, 347.7), (3.862, 347.91095000000007), (3.862, 347.61095000000006), (3.862, 347.91095000000007), (3.862, 347.74095000000005), (8.80000000000724, 347.7874999999999), (8.80000000000724, 347.6174999999999), (0.300000000003108, 347.7), (0.300000000003108, 347.41), (3.862, 347.61095000000006), (3.862, 347.42095000000006), (3.862, 347.74095000000005), (3.862, 347.5709500000001), (8.80000000000724, 347.6174999999999), (8.80000000000724, 347.44749999999993)]</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[(0.300000000005302, 349.0), (0.300000000005302, 348.69), (3.777, 348.9130750000001), (3.777, 348.6730750000001), (3.777, 348.9130750000001), (3.777, 348.6730750000001), (10.611, 348.74222500000013), (10.611, 348.41222500000015), (0.300000000005302, 348.69), (0.300000000005302, 348.38), (3.777, 348.6730750000001), (3.777, 348.4330750000001), (3.777, 348.6730750000001), (3.777, 348.4330750000001), (10.611, 348.41222500000015), (10.611, 348.0822250000001)]</t>
+          <t>[(0.300000000005302, 349.0), (0.300000000005302, 348.69), (3.777, 348.9130750000001), (3.777, 348.6730750000001), (3.777, 348.9130750000001), (3.777, 348.7530750000001), (8.80000000000724, 348.78749999999997), (8.80000000000724, 348.62749999999994), (0.300000000005302, 348.69), (0.300000000005302, 348.38), (3.777, 348.6730750000001), (3.777, 348.4330750000001), (3.777, 348.7530750000001), (3.777, 348.5930750000001), (8.80000000000724, 348.62749999999994), (8.80000000000724, 348.4675)]</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 350.0), (0.300000000003108, 349.72), (3.747, 349.9138250000001), (3.747, 349.6338250000001), (3.747, 349.9138250000001), (3.747, 349.7138250000001), (10.563, 349.74342500000006), (10.563, 349.42342500000007), (0.300000000003108, 349.72), (0.300000000003108, 349.45), (3.747, 349.6338250000001), (3.747, 349.5138250000001), (3.747, 349.7138250000001), (3.747, 349.5138250000001), (10.563, 349.42342500000007), (10.563, 349.1034250000001)]</t>
+          <t>[(0.300000000003108, 350.0), (0.300000000003108, 349.72), (3.747, 349.9138250000001), (3.747, 349.6338250000001), (3.747, 349.9138250000001), (3.747, 349.69382500000006), (8.80000000000724, 349.7874999999999), (8.80000000000724, 349.5674999999999), (0.300000000003108, 349.72), (0.300000000003108, 349.45), (3.747, 349.6338250000001), (3.747, 349.5138250000001), (3.747, 349.69382500000006), (3.747, 349.5138250000001), (8.80000000000724, 349.5674999999999), (8.80000000000724, 349.3574999999999)]</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 351.0), (0.300000000003108, 350.75), (3.731, 350.9142250000001), (3.731, 350.6642250000001), (3.731, 350.9142250000001), (3.731, 350.6842250000001), (10.501, 350.74497500000007), (10.501, 350.51497500000005), (0.300000000003108, 350.75), (0.300000000003108, 350.45), (3.731, 350.6642250000001), (3.731, 350.5542250000001), (3.731, 350.6842250000001), (3.731, 350.5542250000001), (10.501, 350.51497500000005), (10.501, 350.2149750000001)]</t>
+          <t>[(0.300000000003108, 351.0), (0.300000000003108, 350.72), (3.731, 350.9142250000001), (3.731, 350.7342250000001), (3.731, 350.9142250000001), (3.731, 350.7342250000001), (8.80000000000724, 350.7874999999999), (8.80000000000724, 350.6074999999999), (0.300000000003108, 350.72), (0.300000000003108, 350.44), (3.731, 350.7342250000001), (3.731, 350.5542250000001), (3.731, 350.7342250000001), (3.731, 350.5542250000001), (8.80000000000724, 350.6074999999999), (8.80000000000724, 350.44749999999993)]</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 352.0), (0.300000000003108, 351.76), (3.732, 351.91420000000005), (3.732, 351.67420000000004), (3.732, 351.91420000000005), (3.732, 351.65420000000006), (10.501, 351.74497500000007), (10.501, 351.4849750000001), (0.300000000003108, 351.76), (0.300000000003108, 351.46), (3.732, 351.67420000000004), (3.732, 351.54420000000005), (3.732, 351.65420000000006), (3.732, 351.54420000000005), (10.501, 351.4849750000001), (10.501, 351.2249750000001)]</t>
+          <t>[(0.300000000003108, 352.0), (0.300000000003108, 351.76), (3.732, 351.91420000000005), (3.732, 351.67420000000004), (3.732, 351.91420000000005), (3.732, 351.72420000000005), (8.80000000000724, 351.7874999999999), (8.80000000000724, 351.5974999999999), (0.300000000003108, 351.76), (0.300000000003108, 351.46), (3.732, 351.67420000000004), (3.732, 351.54420000000005), (3.732, 351.72420000000005), (3.732, 351.54420000000005), (8.80000000000724, 351.5974999999999), (8.80000000000724, 351.44749999999993)]</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 353.0), (0.300000000003108, 352.81), (3.714, 352.91465000000005), (3.714, 352.72465000000005), (3.714, 352.91465000000005), (3.714, 352.7646500000001), (10.521, 352.7444750000001), (10.521, 352.4844750000001), (0.300000000003108, 352.81), (0.300000000003108, 352.51), (3.714, 352.72465000000005), (3.714, 352.61465000000004), (3.714, 352.7646500000001), (3.714, 352.61465000000004), (10.521, 352.4844750000001), (10.521, 352.2244750000001)]</t>
+          <t>[(0.300000000003108, 353.0), (0.300000000003108, 352.76), (3.714, 352.91465000000005), (3.714, 352.7646500000001), (3.714, 352.91465000000005), (3.714, 352.75465), (8.80000000000724, 352.7874999999999), (8.80000000000724, 352.6274999999999), (0.300000000003108, 352.76), (0.300000000003108, 352.52), (3.714, 352.7646500000001), (3.714, 352.61465000000004), (3.714, 352.75465), (3.714, 352.61465000000004), (8.80000000000724, 352.6274999999999), (8.80000000000724, 352.4774999999999)]</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 354.0), (0.300000000003108, 353.8), (3.723, 353.91442500000005), (3.723, 353.71442500000006), (3.723, 353.91442500000005), (3.723, 353.754425), (10.528, 353.74430000000007), (10.528, 353.4843000000001), (0.300000000003108, 353.8), (0.300000000003108, 353.5), (3.723, 353.71442500000006), (3.723, 353.60442500000005), (3.723, 353.754425), (3.723, 353.59442500000006), (10.528, 353.4843000000001), (10.528, 353.2243000000001)]</t>
+          <t>[(0.300000000003108, 354.0), (0.300000000003108, 353.75), (3.723, 353.91442500000005), (3.723, 353.754425), (3.723, 353.91442500000005), (3.723, 353.754425), (8.80000000000724, 353.7874999999999), (8.80000000000724, 353.6274999999999), (0.300000000003108, 353.75), (0.300000000003108, 353.5), (3.723, 353.754425), (3.723, 353.59442500000006), (3.723, 353.754425), (3.723, 353.60442500000005), (8.80000000000724, 353.6274999999999), (8.80000000000724, 353.4674999999999)]</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 355.0), (0.300000000003108, 354.84), (3.728, 354.9143000000001), (3.728, 354.75430000000006), (3.728, 354.9143000000001), (3.728, 354.7843000000001), (10.515, 354.7446250000001), (10.515, 354.6146250000001), (0.300000000003108, 354.84), (0.300000000003108, 354.54), (3.728, 354.75430000000006), (3.728, 354.62430000000006), (3.728, 354.7843000000001), (3.728, 354.62430000000006), (10.515, 354.6146250000001), (10.515, 354.3146250000001)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 356.0), (0.300000000003108, 355.88), (3.724, 355.91440000000006), (3.724, 355.79440000000005), (3.724, 355.91440000000006), (3.724, 355.78440000000006), (10.546, 355.74385000000007), (10.546, 355.61385000000007), (0.300000000003108, 355.88), (0.300000000003108, 355.58), (3.724, 355.79440000000005), (3.724, 355.65440000000007), (3.724, 355.78440000000006), (3.724, 355.65440000000007), (10.546, 355.61385000000007), (10.546, 355.31385000000006)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 357.0), (0.300000000003108, 356.87), (3.758, 356.9135500000001), (3.758, 356.7835500000001), (3.758, 356.9135500000001), (3.758, 356.8035500000001), (10.506, 356.7448500000001), (10.506, 356.6348500000001), (0.300000000003108, 356.87), (0.300000000003108, 356.57), (3.758, 356.7835500000001), (3.758, 356.6535500000001), (3.758, 356.8035500000001), (3.758, 356.6535500000001), (10.506, 356.6348500000001), (10.506, 356.3448500000001)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 358.0), (0.300000000003108, 357.78), (3.715, 357.91462500000006), (3.715, 357.69462500000003), (3.715, 357.91462500000006), (3.715, 357.73462500000005), (10.462, 357.74595000000005), (10.462, 357.56595000000004), (0.300000000003108, 357.78), (0.300000000003108, 357.48), (3.715, 357.69462500000003), (3.715, 357.5746250000001), (3.715, 357.73462500000005), (3.715, 357.5746250000001), (10.462, 357.56595000000004), (10.462, 357.26595000000003)]</t>
+          <t>[(0.300000000003108, 358.0), (0.300000000003108, 357.78), (3.715, 357.91462500000006), (3.715, 357.69462500000003), (3.715, 357.91462500000006), (3.715, 357.74462500000004), (8.80000000000724, 357.7874999999999), (8.80000000000724, 357.6174999999999), (0.300000000003108, 357.78), (0.300000000003108, 357.48), (3.715, 357.69462500000003), (3.715, 357.5746250000001), (3.715, 357.74462500000004), (3.715, 357.5746250000001), (8.80000000000724, 357.6174999999999), (8.80000000000724, 357.4874999999999)]</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 359.0), (0.300000000003108, 358.7), (3.684, 358.9154000000001), (3.684, 358.69540000000006), (3.684, 358.9154000000001), (3.684, 358.6454000000001), (10.412, 358.7472000000001), (10.412, 358.4772000000001), (0.300000000003108, 358.7), (0.300000000003108, 358.4), (3.684, 358.69540000000006), (3.684, 358.4754000000001), (3.684, 358.6454000000001), (3.684, 358.4754000000001), (10.412, 358.4772000000001), (10.412, 358.20720000000006)]</t>
+          <t>[(0.300000000003108, 359.0), (0.300000000003108, 358.7), (3.684, 358.9154000000001), (3.684, 358.69540000000006), (3.684, 358.9154000000001), (3.684, 358.69540000000006), (8.80000000000724, 358.7874999999999), (8.80000000000724, 358.5674999999999), (0.300000000003108, 358.7), (0.300000000003108, 358.4), (3.684, 358.69540000000006), (3.684, 358.4754000000001), (3.684, 358.69540000000006), (3.684, 358.4754000000001), (8.80000000000724, 358.5674999999999), (8.80000000000724, 358.4174999999999)]</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 360.0), (0.300000000003108, 359.68), (3.664, 359.9159000000001), (3.664, 359.69590000000005), (3.664, 359.9159000000001), (3.664, 359.6359000000001), (10.376, 359.7481000000001), (10.376, 359.4681000000001), (0.300000000003108, 359.68), (0.300000000003108, 359.36), (3.664, 359.69590000000005), (3.664, 359.4759000000001), (3.664, 359.6359000000001), (3.664, 359.4759000000001), (10.376, 359.4681000000001), (10.376, 359.19810000000007)]</t>
+          <t>[(0.300000000003108, 360.0), (0.300000000003108, 359.68), (3.664, 359.9159000000001), (3.664, 359.69590000000005), (3.664, 359.9159000000001), (3.664, 359.69590000000005), (8.80000000000724, 359.7874999999999), (8.80000000000724, 359.5674999999999), (0.300000000003108, 359.68), (0.300000000003108, 359.36), (3.664, 359.69590000000005), (3.664, 359.4759000000001), (3.664, 359.69590000000005), (3.664, 359.4759000000001), (8.80000000000724, 359.5674999999999), (8.80000000000724, 359.4074999999999)]</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 361.0), (0.300000000003108, 360.67), (3.623, 360.9169250000001), (3.623, 360.6769250000001), (3.623, 360.9169250000001), (3.623, 360.7269250000001), (10.367, 360.7483250000001), (10.367, 360.5583250000001), (0.300000000003108, 360.67), (0.300000000003108, 360.34), (3.623, 360.6769250000001), (3.623, 360.4369250000001), (3.623, 360.7269250000001), (3.623, 360.5369250000001), (10.367, 360.5583250000001), (10.367, 360.3683250000001)]</t>
+          <t>[(0.300000000003108, 361.0), (0.300000000003108, 360.67), (3.623, 360.9169250000001), (3.623, 360.6769250000001), (3.623, 360.9169250000001), (3.623, 360.6669250000001), (8.80000000000724, 360.7874999999999), (8.80000000000724, 360.5374999999999), (0.300000000003108, 360.67), (0.300000000003108, 360.34), (3.623, 360.6769250000001), (3.623, 360.4369250000001), (3.623, 360.6669250000001), (3.623, 360.4269250000001), (8.80000000000724, 360.5374999999999), (8.80000000000724, 360.3774999999999)]</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 362.0), (0.300000000003108, 361.66), (3.568, 361.9183000000001), (3.568, 361.6583000000001), (3.568, 361.9183000000001), (3.568, 361.6583000000001), (10.35, 361.7487500000001), (10.35, 361.4487500000001), (0.300000000003108, 361.66), (0.300000000003108, 361.32), (3.568, 361.6583000000001), (3.568, 361.3983000000001), (3.568, 361.6583000000001), (3.568, 361.3983000000001), (10.35, 361.4487500000001), (10.35, 361.14875000000006)]</t>
+          <t>[(0.300000000003108, 362.0), (0.300000000003108, 361.66), (3.568, 361.9183000000001), (3.568, 361.6583000000001), (3.568, 361.9183000000001), (3.568, 361.6583000000001), (8.80000000000724, 361.7874999999999), (8.80000000000724, 361.5274999999999), (0.300000000003108, 361.66), (0.300000000003108, 361.32), (3.568, 361.6583000000001), (3.568, 361.3983000000001), (3.568, 361.6583000000001), (3.568, 361.3983000000001), (8.80000000000724, 361.5274999999999), (8.80000000000724, 361.3374999999999)]</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 363.0), (0.300000000003108, 362.7), (3.629, 362.9167750000001), (3.629, 362.6167750000001), (3.629, 362.9167750000001), (3.629, 362.6367750000001), (10.327, 362.74932500000006), (10.327, 362.4693250000001), (0.300000000003108, 362.7), (0.300000000003108, 362.41), (3.629, 362.6167750000001), (3.629, 362.4567750000001), (3.629, 362.6367750000001), (3.629, 362.4567750000001), (10.327, 362.4693250000001), (10.327, 362.18932500000005)]</t>
+          <t>[(0.300000000003108, 363.0), (0.300000000003108, 362.7), (3.629, 362.9167750000001), (3.629, 362.6167750000001), (3.629, 362.9167750000001), (3.629, 362.68677500000007), (8.80000000000724, 362.7874999999999), (8.80000000000724, 362.5574999999999), (0.300000000003108, 362.7), (0.300000000003108, 362.41), (3.629, 362.6167750000001), (3.629, 362.4567750000001), (3.629, 362.68677500000007), (3.629, 362.4567750000001), (8.80000000000724, 362.5574999999999), (8.80000000000724, 362.3974999999999)]</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 364.0), (0.300000000003108, 363.71), (3.556, 363.9186000000001), (3.556, 363.62860000000006), (3.556, 363.9186000000001), (3.556, 363.6486000000001), (10.29, 363.75025000000005), (10.29, 363.48025000000007), (0.300000000003108, 363.71), (0.300000000003108, 363.43), (3.556, 363.62860000000006), (3.556, 363.49860000000007), (3.556, 363.6486000000001), (3.556, 363.49860000000007), (10.29, 363.48025000000007), (10.29, 363.2202500000001)]</t>
+          <t>[(0.300000000003108, 364.0), (0.300000000003108, 363.71), (3.556, 363.9186000000001), (3.556, 363.62860000000006), (3.556, 363.9186000000001), (3.556, 363.7086000000001), (8.80000000000724, 363.7874999999999), (8.80000000000724, 363.57749999999993), (0.300000000003108, 363.71), (0.300000000003108, 363.43), (3.556, 363.62860000000006), (3.556, 363.49860000000007), (3.556, 363.7086000000001), (3.556, 363.49860000000007), (8.80000000000724, 363.57749999999993), (8.80000000000724, 363.4274999999999)]</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 365.0), (0.300000000003108, 364.75), (3.505, 364.9198750000001), (3.505, 364.6698750000001), (3.505, 364.9198750000001), (3.505, 364.6698750000001), (10.286, 364.7503500000001), (10.286, 364.5003500000001), (0.300000000003108, 364.75), (0.300000000003108, 364.5), (3.505, 364.6698750000001), (3.505, 364.5498750000001), (3.505, 364.6698750000001), (3.505, 364.5498750000001), (10.286, 364.5003500000001), (10.286, 364.2603500000001)]</t>
+          <t>[(0.300000000003108, 365.0), (0.300000000003108, 364.75), (3.505, 364.9198750000001), (3.505, 364.6698750000001), (3.505, 364.9198750000001), (3.505, 364.7298750000001), (8.80000000000724, 364.7874999999999), (8.80000000000724, 364.5974999999999), (0.300000000003108, 364.75), (0.300000000003108, 364.5), (3.505, 364.6698750000001), (3.505, 364.5498750000001), (3.505, 364.7298750000001), (3.505, 364.5498750000001), (8.80000000000724, 364.5974999999999), (8.80000000000724, 364.4774999999999)]</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 366.0), (0.300000000003108, 365.82), (3.474, 365.9206500000001), (3.474, 365.7406500000001), (3.474, 365.9206500000001), (3.474, 365.70065000000005), (10.255, 365.75112500000006), (10.255, 365.53112500000003), (0.300000000003108, 365.82), (0.300000000003108, 365.52), (3.474, 365.7406500000001), (3.474, 365.5806500000001), (3.474, 365.70065000000005), (3.474, 365.5806500000001), (10.255, 365.53112500000003), (10.255, 365.32112500000005)]</t>
+          <t>[(0.300000000003108, 366.0), (0.300000000003108, 365.82), (3.474, 365.9206500000001), (3.474, 365.7406500000001), (3.474, 365.9206500000001), (3.474, 365.8006500000001), (8.80000000000724, 365.7874999999999), (8.80000000000724, 365.6674999999999), (0.300000000003108, 365.82), (0.300000000003108, 365.52), (3.474, 365.7406500000001), (3.474, 365.5806500000001), (3.474, 365.8006500000001), (3.474, 365.5806500000001), (8.80000000000724, 365.6674999999999), (8.80000000000724, 365.5274999999999)]</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>[(0.300000000005302, 367.0), (0.300000000005302, 366.87), (3.43, 366.92175000000015), (3.43, 366.79175000000015), (3.43, 366.92175000000015), (3.43, 366.81175000000013), (10.231, 366.75172500000014), (10.231, 366.6417250000001), (0.300000000005302, 366.87), (0.300000000005302, 366.57), (3.43, 366.79175000000015), (3.43, 366.6417500000002), (3.43, 366.81175000000013), (3.43, 366.6417500000002), (10.231, 366.6417250000001), (10.231, 366.37172500000014)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 368.0), (0.300000000003108, 367.85), (3.452, 367.92120000000006), (3.452, 367.7712000000001), (3.452, 367.92120000000006), (3.452, 367.81120000000004), (10.242, 367.7514500000001), (10.242, 367.6414500000001), (0.300000000003108, 367.85), (0.300000000003108, 367.55), (3.452, 367.7712000000001), (3.452, 367.62120000000004), (3.452, 367.81120000000004), (3.452, 367.62120000000004), (10.242, 367.6414500000001), (10.242, 367.3614500000001)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[(0.300000000005302, 369.0), (0.300000000005302, 368.89), (3.463, 368.96659948385195), (3.463, 368.85659948385194), (3.463, 368.96659948385195), (3.463, 368.82659948385196), (10.235, 368.895088799263), (10.235, 368.63508879926303), (0.300000000005302, 368.89), (0.300000000005302, 368.64), (3.463, 368.85659948385194), (3.463, 368.686599483852), (3.463, 368.82659948385196), (3.463, 368.686599483852), (10.235, 368.63508879926303), (10.235, 368.37508879926304)]</t>
+          <t>[(0.300000000005302, 369.0), (0.300000000005302, 368.88), (3.463, 368.96659948385195), (3.463, 368.84659948385195), (3.463, 368.96659948385195), (3.463, 368.8065994838519), (8.80000000000724, 368.91024205271617), (8.80000000000724, 368.75024205271615), (0.300000000005302, 368.88), (0.300000000005302, 368.64), (3.463, 368.84659948385195), (3.463, 368.686599483852), (3.463, 368.8065994838519), (3.463, 368.686599483852), (8.80000000000724, 368.75024205271615), (8.80000000000724, 368.60024205271617)]</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>[(0.300000000003108, 370.0), (0.300000000003108, 369.84), (3.443, 370.04538567902193), (3.443, 369.8853856790219), (3.443, 370.04538567902193), (3.443, 369.8853856790219), (10.18, 370.1426695859806), (10.18, 369.80266958598065), (0.300000000003108, 369.84), (0.300000000003108, 369.7), (3.443, 369.8853856790219), (3.443, 369.72538567902194), (3.443, 369.8853856790219), (3.443, 369.72538567902194), (10.18, 369.80266958598065), (10.18, 369.4626695859806)]</t>
+          <t>[(0.300000000003108, 370.0), (0.300000000003108, 369.84), (3.443, 370.04538567902193), (3.443, 369.8853856790219), (3.443, 370.04538567902193), (3.443, 369.8853856790219), (8.80000000000724, 370.1227420527162), (8.80000000000724, 369.9627420527162), (0.300000000003108, 369.84), (0.300000000003108, 369.7), (3.443, 369.8853856790219), (3.443, 369.72538567902194), (3.443, 369.8853856790219), (3.443, 369.72538567902194), (8.80000000000724, 369.9627420527162), (8.80000000000724, 369.6627420527162)]</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>[(0.299999999986802, 371.0), (0.299999999986802, 370.84), (3.454, 371.09688563052737), (3.454, 370.93688563052734), (3.454, 371.09688563052737), (3.454, 370.93688563052734), (10.138, 371.30220698577216), (10.138, 370.98220698577217), (0.299999999986802, 370.84), (0.299999999986802, 370.68), (3.454, 370.93688563052734), (3.454, 370.78688563052737), (3.454, 370.93688563052734), (3.454, 370.7768856305274), (10.138, 370.98220698577217), (10.138, 370.6622069857722)]</t>
+          <t>[(0.299999999986802, 371.0), (0.299999999986802, 370.84), (3.454, 371.09688563052737), (3.454, 370.93688563052734), (3.454, 371.09688563052737), (3.454, 370.97688563052736), (8.79999999999007, 371.26110585272016), (8.79999999999007, 371.14110585272016), (0.299999999986802, 370.84), (0.299999999986802, 370.68), (3.454, 370.93688563052734), (3.454, 370.78688563052737), (3.454, 370.97688563052736), (3.454, 370.78688563052737), (8.79999999999007, 371.14110585272016), (8.79999999999007, 370.85110585272014)]</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>[(0.300000000070581, 373.0), (0.300000000070581, 372.86), (3.863, 373.17999682956383), (3.863, 373.03999682956385), (3.863, 373.17999682956383), (3.863, 373.05999682956383), (10.519, 373.51624687098973), (10.519, 373.2762468709897), (0.300000000070581, 372.86), (0.300000000070581, 372.74), (3.863, 373.03999682956385), (3.863, 372.92999682956383), (3.863, 373.05999682956383), (3.863, 372.9399968295638), (10.519, 373.2762468709897), (10.519, 373.0362468709897)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>[(0.300000000012383, 374.0), (0.300000000012383, 373.86), (4.464, 374.25158194910074), (4.464, 374.11158194910075), (4.464, 374.25158194910074), (4.464, 374.13158194910073), (10.8000000000135, 374.63439252295046), (10.8000000000135, 374.39439252295045), (0.300000000012383, 373.86), (0.300000000012383, 373.74), (4.464, 374.11158194910075), (4.464, 374.00158194910074), (4.464, 374.13158194910073), (4.464, 374.01158194910073), (10.8000000000135, 374.39439252295045), (10.8000000000135, 374.15439252295045)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>[(0.300000000001349, 375.0), (0.300000000001349, 374.85), (5.037, 375.3315899999999), (5.037, 375.1815899999999), (5.037, 375.3315899999999), (5.037, 375.1815899999999), (10.7999999999936, 375.73499999999945), (10.7999999999936, 375.46499999999946), (0.300000000001349, 374.85), (0.300000000001349, 374.73), (5.037, 375.1815899999999), (5.037, 375.0315899999999), (5.037, 375.1815899999999), (5.037, 375.0315899999999), (10.7999999999936, 375.46499999999946), (10.7999999999936, 375.1949999999994)]</t>
+          <t>[(0.300000000001349, 375.0), (0.300000000001349, 374.85), (5.037, 375.3315899999999), (5.037, 375.1815899999999), (5.037, 375.3315899999999), (5.037, 375.1515899999999), (8.79999999999276, 375.5949999999994), (8.79999999999276, 375.4149999999994), (0.300000000001349, 374.85), (0.300000000001349, 374.73), (5.037, 375.1815899999999), (5.037, 375.0315899999999), (5.037, 375.1515899999999), (5.037, 375.0315899999999), (8.79999999999276, 375.4149999999994), (8.79999999999276, 375.2349999999994)]</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>[(0.300000000005591, 376.0), (0.300000000005591, 375.86), (5.246, 376.3462199999996), (5.246, 376.20621999999963), (5.246, 376.3462199999996), (5.246, 376.20621999999963), (10.800000000004, 376.7349999999999), (10.800000000004, 376.4549999999999), (0.300000000005591, 375.86), (0.300000000005591, 375.73), (5.246, 376.20621999999963), (5.246, 376.07621999999964), (5.246, 376.20621999999963), (5.246, 376.06621999999965), (10.800000000004, 376.4549999999999), (10.800000000004, 376.1749999999999)]</t>
+          <t>[(0.300000000005591, 376.0), (0.300000000005591, 375.86), (5.246, 376.3462199999996), (5.246, 376.20621999999963), (5.246, 376.3462199999996), (5.246, 376.2262199999996), (8.79999999999799, 376.59499999999946), (8.79999999999799, 376.47499999999945), (0.300000000005591, 375.86), (0.300000000005591, 375.73), (5.246, 376.20621999999963), (5.246, 376.07621999999964), (5.246, 376.2262199999996), (5.246, 376.07621999999964), (8.79999999999799, 376.47499999999945), (8.79999999999799, 376.23499999999945)]</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>[(0.299999999999062, 378.0), (0.299999999999062, 377.87), (4.465, 378.2915500000001), (4.465, 378.1615500000001), (4.465, 378.2915500000001), (4.465, 378.1715500000001), (10.800000000001, 378.7350000000001), (10.800000000001, 378.41500000000013), (0.299999999999062, 377.87), (0.299999999999062, 377.75), (4.465, 378.1615500000001), (4.465, 378.0415500000001), (4.465, 378.1715500000001), (4.465, 378.0515500000001), (10.800000000001, 378.41500000000013), (10.800000000001, 378.09500000000014)]</t>
+          <t>[(0.299999999999062, 378.0), (0.299999999999062, 377.87), (4.465, 378.2915500000001), (4.465, 378.1615500000001), (4.465, 378.2915500000001), (4.465, 378.1715500000001), (8.80000000000566, 378.5950000000005), (8.80000000000566, 378.4750000000005), (0.299999999999062, 377.87), (0.299999999999062, 377.75), (4.465, 378.1615500000001), (4.465, 378.0415500000001), (4.465, 378.1715500000001), (4.465, 378.0415500000001), (8.80000000000566, 378.4750000000005), (8.80000000000566, 378.2050000000005)]</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>[(0.300000000001148, 379.0), (0.300000000001148, 378.87), (3.864, 379.2494799999999), (3.864, 379.1194799999999), (3.864, 379.2494799999999), (3.864, 379.1294799999999), (10.554, 379.71777999999995), (10.554, 379.39777999999995), (0.300000000001148, 378.87), (0.300000000001148, 378.75), (3.864, 379.1194799999999), (3.864, 378.9994799999999), (3.864, 379.1294799999999), (3.864, 379.0094799999999), (10.554, 379.39777999999995), (10.554, 379.07777999999996)]</t>
+          <t>[(0.300000000001148, 379.0), (0.300000000001148, 378.87), (3.864, 379.2494799999999), (3.864, 379.1194799999999), (3.864, 379.2494799999999), (3.864, 379.1294799999999), (8.79999999999537, 379.5949999999996), (8.79999999999537, 379.47499999999957), (0.300000000001148, 378.87), (0.300000000001148, 378.75), (3.864, 379.1194799999999), (3.864, 378.9994799999999), (3.864, 379.1294799999999), (3.864, 378.9994799999999), (8.79999999999537, 379.47499999999957), (8.79999999999537, 379.2049999999996)]</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>[(0.300000000003266, 380.0), (0.300000000003266, 379.87), (3.153, 380.19970999999975), (3.153, 380.06970999999976), (3.153, 380.19970999999975), (3.153, 380.07970999999975), (9.788, 380.66415999999975), (9.788, 380.34415999999976), (0.300000000003266, 379.87), (0.300000000003266, 379.75), (3.153, 380.06970999999976), (3.153, 379.94970999999975), (3.153, 380.07970999999975), (3.153, 379.95970999999975), (9.788, 380.34415999999976), (9.788, 380.02415999999977)]</t>
+          <t>[(0.300000000003266, 380.0), (0.300000000003266, 379.87), (3.153, 380.19970999999975), (3.153, 380.06970999999976), (3.153, 380.19970999999975), (3.153, 380.07970999999975), (8.80000000000529, 380.59500000000014), (8.80000000000529, 380.47500000000014), (0.300000000003266, 379.87), (0.300000000003266, 379.75), (3.153, 380.06970999999976), (3.153, 379.94970999999975), (3.153, 380.07970999999975), (3.153, 379.94970999999975), (8.80000000000529, 380.47500000000014), (8.80000000000529, 380.1850000000001)]</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>[(0.300000000006076, 381.0), (0.300000000006076, 380.87), (2.603, 381.1612099999996), (2.603, 381.0312099999996), (2.603, 381.1612099999996), (2.603, 381.0412099999996), (9.191, 381.6223699999996), (9.191, 381.3023699999996), (0.300000000006076, 380.87), (0.300000000006076, 380.75), (2.603, 381.0312099999996), (2.603, 380.9112099999996), (2.603, 381.0412099999996), (2.603, 380.9212099999996), (9.191, 381.3023699999996), (9.191, 380.9823699999996)]</t>
+          <t>[(0.300000000006076, 381.0), (0.300000000006076, 380.87), (2.603, 381.1612099999996), (2.603, 381.0312099999996), (2.603, 381.1612099999996), (2.603, 381.0312099999996), (8.80000000000205, 381.59499999999974), (8.80000000000205, 381.46499999999975), (0.300000000006076, 380.87), (0.300000000006076, 380.75), (2.603, 381.0312099999996), (2.603, 380.9112099999996), (2.603, 381.0312099999996), (2.603, 380.9112099999996), (8.80000000000205, 381.46499999999975), (8.80000000000205, 381.16499999999974)]</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>[(0.300000000012698, 382.0), (0.300000000012698, 381.87), (2.336, 382.1372088385729), (2.336, 382.0072088385729), (2.336, 382.1372088385729), (2.336, 382.0172088385729), (8.952, 382.58307017256305), (8.952, 382.26307017256306), (0.300000000012698, 381.87), (0.300000000012698, 381.75), (2.336, 382.0072088385729), (2.336, 381.8872088385729), (2.336, 382.0172088385729), (2.336, 381.8972088385729), (8.952, 382.26307017256306), (8.952, 381.94307017256307)]</t>
+          <t>[(0.300000000012698, 382.0), (0.300000000012698, 381.87), (2.336, 382.1372088385729), (2.336, 382.0072088385729), (2.336, 382.1372088385729), (2.336, 382.0172088385729), (8.79999999999826, 382.57282668363206), (8.79999999999826, 382.35282668363203), (0.300000000012698, 381.87), (0.300000000012698, 381.75), (2.336, 382.0072088385729), (2.336, 381.8872088385729), (2.336, 382.0172088385729), (2.336, 381.8972088385729), (8.79999999999826, 382.35282668363203), (8.79999999999826, 382.13282668363206)]</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>[(0.300000000148598, 383.0), (0.300000000148598, 382.88), (9.001, 383.50023245018366), (9.001, 383.20023245018365), (0.300000000148598, 382.88), (0.300000000148598, 382.76), (9.001, 383.20023245018365), (9.001, 382.90023245018364)]</t>
+          <t>[(0.300000000148598, 383.0), (0.300000000148598, 382.88), (8.80000000000983, 383.4886766838943), (8.80000000000983, 383.3686766838943), (0.300000000148598, 382.88), (0.300000000148598, 382.75), (8.80000000000983, 383.3686766838943), (8.80000000000983, 383.0686766838943)]</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>[(0.300000000077761, 384.0), (0.300000000077761, 383.86), (2.53, 384.10612876537306), (2.53, 383.96612876537307), (2.53, 384.10612876537306), (2.53, 383.96612876537307), (9.167, 384.42199271864916), (9.167, 384.11199271864916), (0.300000000077761, 383.86), (0.300000000077761, 383.75), (2.53, 383.96612876537307), (2.53, 383.8361287653731), (2.53, 383.96612876537307), (2.53, 383.8261287653731), (9.167, 384.11199271864916), (9.167, 383.80199271864916)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>[(0.300000000014416, 385.0), (0.300000000014416, 384.85), (2.82, 385.0949822640925), (2.82, 384.9449822640925), (2.82, 385.0949822640925), (2.82, 384.9549822640925), (9.468, 385.3455545226999), (9.468, 385.0255545226999), (0.300000000014416, 384.85), (0.300000000014416, 384.7), (2.82, 384.9449822640925), (2.82, 384.8049822640925), (2.82, 384.9549822640925), (2.82, 384.8149822640925), (9.468, 385.0255545226999), (9.468, 384.7055545226999)]</t>
+          <t>[(0.300000000014416, 385.0), (0.300000000014416, 384.85), (2.82, 385.0949822640925), (2.82, 384.9449822640925), (2.82, 385.0949822640925), (2.82, 384.9549822640925), (8.80000000000335, 385.3203766844404), (8.80000000000335, 385.18037668444043), (0.300000000014416, 384.85), (0.300000000014416, 384.7), (2.82, 384.9449822640925), (2.82, 384.8049822640925), (2.82, 384.9549822640925), (2.82, 384.8049822640925), (8.80000000000335, 385.18037668444043), (8.80000000000335, 384.8803766844404)]</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>[(0.300000000000748, 386.0), (0.300000000000748, 385.81), (3.061, 386.07673198546877), (3.061, 385.88673198546877), (3.061, 386.07673198546877), (3.061, 385.91673198546874), (9.669, 386.2603773892999), (9.669, 385.9603773892999), (0.300000000000748, 385.81), (0.300000000000748, 385.63), (3.061, 385.88673198546877), (3.061, 385.7567319854688), (3.061, 385.91673198546874), (3.061, 385.7567319854688), (9.669, 385.9603773892999), (9.669, 385.66037738929987)]</t>
+          <t>[(0.300000000000748, 386.0), (0.300000000000748, 385.81), (3.061, 386.07673198546877), (3.061, 385.88673198546877), (3.061, 386.07673198546877), (3.061, 385.8767319854688), (8.79999999999396, 386.23622668470995), (8.79999999999396, 386.03622668470996), (0.300000000000748, 385.81), (0.300000000000748, 385.63), (3.061, 385.88673198546877), (3.061, 385.7567319854688), (3.061, 385.8767319854688), (3.061, 385.7567319854688), (8.79999999999396, 386.03622668470996), (8.79999999999396, 385.83622668470997)]</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>[(0.300000000017481, 387.0), (0.300000000017481, 386.77), (3.187, 387.02035024925044), (3.187, 386.7903502492504), (3.187, 387.02035024925044), (3.187, 386.8003502492504), (9.883, 387.0675498574879), (9.883, 386.8475498574879), (0.300000000017481, 386.77), (0.300000000017481, 386.55), (3.187, 386.7903502492504), (3.187, 386.6703502492504), (3.187, 386.8003502492504), (3.187, 386.6703502492504), (9.883, 386.8475498574879), (9.883, 386.5475498574879)]</t>
+          <t>[(0.300000000017481, 387.0), (0.300000000017481, 386.77), (3.187, 387.02035024925044), (3.187, 386.7903502492504), (3.187, 387.02035024925044), (3.187, 386.84035024925043), (8.80000000001793, 387.05991587067183), (8.80000000001793, 386.8799158706718), (0.300000000017481, 386.77), (0.300000000017481, 386.55), (3.187, 386.7903502492504), (3.187, 386.6703502492504), (3.187, 386.84035024925043), (3.187, 386.6703502492504), (8.80000000001793, 386.8799158706718), (8.80000000001793, 386.72991587067185)]</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 388.0), (0.300000000003057, 387.82), (3.289, 387.94634423969865), (3.289, 387.76634423969864), (3.289, 387.94634423969865), (3.289, 387.73634423969867), (9.983, 387.82617975008424), (9.983, 387.61617975008426), (0.300000000003057, 387.82), (0.300000000003057, 387.52), (3.289, 387.76634423969864), (3.289, 387.61634423969866), (3.289, 387.73634423969867), (3.289, 387.61634423969866), (9.983, 387.61617975008426), (9.983, 387.4161797500842)]</t>
+          <t>[(0.300000000003057, 388.0), (0.300000000003057, 387.82), (3.289, 387.94634423969865), (3.289, 387.76634423969864), (3.289, 387.94634423969865), (3.289, 387.82634423969864), (8.80000000000302, 387.84741587067185), (8.80000000000302, 387.72741587067185), (0.300000000003057, 387.82), (0.300000000003057, 387.52), (3.289, 387.76634423969864), (3.289, 387.61634423969866), (3.289, 387.82634423969864), (3.289, 387.61634423969866), (8.80000000000302, 387.72741587067185), (8.80000000000302, 387.59741587067185)]</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 389.0), (0.300000000003057, 388.82), (3.318, 388.92455000000007), (3.318, 388.74455000000006), (3.318, 388.92455000000007), (3.318, 388.69455000000005), (10.06, 388.7560000000001), (10.06, 388.52600000000007), (0.300000000003057, 388.82), (0.300000000003057, 388.52), (3.318, 388.74455000000006), (3.318, 388.5845500000001), (3.318, 388.69455000000005), (3.318, 388.5845500000001), (10.06, 388.52600000000007), (10.06, 388.2960000000001)]</t>
+          <t>[(0.300000000003057, 389.0), (0.300000000003057, 388.82), (3.318, 388.92455000000007), (3.318, 388.74455000000006), (3.318, 388.92455000000007), (3.318, 388.80455000000006), (8.80000000000302, 388.7875), (8.80000000000302, 388.6675), (0.300000000003057, 388.82), (0.300000000003057, 388.52), (3.318, 388.74455000000006), (3.318, 388.5845500000001), (3.318, 388.80455000000006), (3.318, 388.5845500000001), (8.80000000000302, 388.6675), (8.80000000000302, 388.50750000000005)]</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 390.0), (0.300000000003057, 389.75), (3.391, 389.92272500000007), (3.391, 389.67272500000007), (3.391, 389.92272500000007), (3.391, 389.67272500000007), (10.114, 389.7546500000001), (10.114, 389.5046500000001), (0.300000000003057, 389.75), (0.300000000003057, 389.51), (3.391, 389.67272500000007), (3.391, 389.56272500000006), (3.391, 389.67272500000007), (3.391, 389.56272500000006), (10.114, 389.5046500000001), (10.114, 389.2646500000001)]</t>
+          <t>[(0.300000000003057, 390.0), (0.300000000003057, 389.81), (3.391, 389.92272500000007), (3.391, 389.7327250000001), (3.391, 389.92272500000007), (3.391, 389.74272500000006), (8.80000000000302, 389.7875), (8.80000000000302, 389.6075), (0.300000000003057, 389.81), (0.300000000003057, 389.51), (3.391, 389.7327250000001), (3.391, 389.56272500000006), (3.391, 389.74272500000006), (3.391, 389.56272500000006), (8.80000000000302, 389.6075), (8.80000000000302, 389.4775)]</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 391.0), (0.300000000003057, 390.79), (3.416, 390.92210000000006), (3.416, 390.7121000000001), (3.416, 390.92210000000006), (3.416, 390.70210000000003), (10.144, 390.7539000000001), (10.144, 390.5339000000001), (0.300000000003057, 390.79), (0.300000000003057, 390.49), (3.416, 390.7121000000001), (3.416, 390.56210000000004), (3.416, 390.70210000000003), (3.416, 390.56210000000004), (10.144, 390.5339000000001), (10.144, 390.2339000000001)]</t>
+          <t>[(0.300000000003057, 391.0), (0.300000000003057, 390.79), (3.416, 390.92210000000006), (3.416, 390.7121000000001), (3.416, 390.92210000000006), (3.416, 390.74210000000005), (8.80000000000302, 390.7875), (8.80000000000302, 390.6075), (0.300000000003057, 390.79), (0.300000000003057, 390.49), (3.416, 390.7121000000001), (3.416, 390.56210000000004), (3.416, 390.74210000000005), (3.416, 390.56210000000004), (8.80000000000302, 390.6075), (8.80000000000302, 390.44750000000005)]</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 392.0), (0.300000000003057, 391.75), (3.475, 391.9206250000001), (3.475, 391.6706250000001), (3.475, 391.9206250000001), (3.475, 391.6706250000001), (10.193, 391.75267500000007), (10.193, 391.50267500000007), (0.300000000003057, 391.75), (0.300000000003057, 391.5), (3.475, 391.6706250000001), (3.475, 391.5506250000001), (3.475, 391.6706250000001), (3.475, 391.5506250000001), (10.193, 391.50267500000007), (10.193, 391.25267500000007)]</t>
+          <t>[(0.300000000003057, 392.0), (0.300000000003057, 391.75), (3.475, 391.9206250000001), (3.475, 391.6706250000001), (3.475, 391.9206250000001), (3.475, 391.7306250000001), (8.80000000000302, 391.7875), (8.80000000000302, 391.5975), (0.300000000003057, 391.75), (0.300000000003057, 391.5), (3.475, 391.6706250000001), (3.475, 391.5506250000001), (3.475, 391.7306250000001), (3.475, 391.5506250000001), (8.80000000000302, 391.5975), (8.80000000000302, 391.45750000000004)]</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 393.0), (0.300000000003057, 392.79), (3.523, 392.9194250000001), (3.523, 392.7094250000001), (3.523, 392.9194250000001), (3.523, 392.7094250000001), (10.289, 392.7502750000001), (10.289, 392.5402750000001), (0.300000000003057, 392.79), (0.300000000003057, 392.49), (3.523, 392.7094250000001), (3.523, 392.5794250000001), (3.523, 392.7094250000001), (3.523, 392.5794250000001), (10.289, 392.5402750000001), (10.289, 392.2402750000001)]</t>
+          <t>[(0.300000000003057, 393.0), (0.300000000003057, 392.79), (3.523, 392.9194250000001), (3.523, 392.7094250000001), (3.523, 392.9194250000001), (3.523, 392.7494250000001), (8.80000000000302, 392.7875), (8.80000000000302, 392.6175), (0.300000000003057, 392.79), (0.300000000003057, 392.49), (3.523, 392.7094250000001), (3.523, 392.5794250000001), (3.523, 392.7494250000001), (3.523, 392.5794250000001), (8.80000000000302, 392.6175), (8.80000000000302, 392.46750000000003)]</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 394.0), (0.300000000003057, 393.71), (3.553, 393.91867500000006), (3.553, 393.62867500000004), (3.553, 393.91867500000006), (3.553, 393.6486750000001), (10.294, 393.7501500000001), (10.294, 393.4801500000001), (0.300000000003057, 393.71), (0.300000000003057, 393.43), (3.553, 393.62867500000004), (3.553, 393.47867500000007), (3.553, 393.6486750000001), (3.553, 393.47867500000007), (10.294, 393.4801500000001), (10.294, 393.21015000000006)]</t>
+          <t>[(0.300000000003057, 394.0), (0.300000000003057, 393.71), (3.553, 393.91867500000006), (3.553, 393.62867500000004), (3.553, 393.91867500000006), (3.553, 393.69867500000004), (8.80000000000302, 393.7875), (8.80000000000302, 393.5675), (0.300000000003057, 393.71), (0.300000000003057, 393.43), (3.553, 393.62867500000004), (3.553, 393.47867500000007), (3.553, 393.69867500000004), (3.553, 393.47867500000007), (8.80000000000302, 393.5675), (8.80000000000302, 393.4175)]</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 395.0), (0.300000000003057, 394.73), (3.619, 394.9170250000001), (3.619, 394.6470250000001), (3.619, 394.9170250000001), (3.619, 394.6570250000001), (10.359, 394.7485250000001), (10.359, 394.4885250000001), (0.300000000003057, 394.73), (0.300000000003057, 394.47), (3.619, 394.6470250000001), (3.619, 394.5370250000001), (3.619, 394.6570250000001), (3.619, 394.5370250000001), (10.359, 394.4885250000001), (10.359, 394.2385250000001)]</t>
+          <t>[(0.300000000003057, 395.0), (0.300000000003057, 394.77), (3.619, 394.9170250000001), (3.619, 394.68702500000006), (3.619, 394.9170250000001), (3.619, 394.7270250000001), (8.80000000000302, 394.7875), (8.80000000000302, 394.5975), (0.300000000003057, 394.77), (0.300000000003057, 394.47), (3.619, 394.68702500000006), (3.619, 394.5370250000001), (3.619, 394.7270250000001), (3.619, 394.5370250000001), (8.80000000000302, 394.5975), (8.80000000000302, 394.45750000000004)]</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 396.0), (0.300000000003057, 395.79), (3.732, 395.91420000000005), (3.732, 395.70420000000007), (3.732, 395.91420000000005), (3.732, 395.71420000000006), (10.377, 395.7480750000001), (10.377, 395.5480750000001), (0.300000000003057, 395.79), (0.300000000003057, 395.49), (3.732, 395.70420000000007), (3.732, 395.5742000000001), (3.732, 395.71420000000006), (3.732, 395.5742000000001), (10.377, 395.5480750000001), (10.377, 395.2480750000001)]</t>
+          <t>[(0.300000000003057, 396.0), (0.300000000003057, 395.79), (3.732, 395.91420000000005), (3.732, 395.70420000000007), (3.732, 395.91420000000005), (3.732, 395.74420000000003), (8.80000000000302, 395.7875), (8.80000000000302, 395.6175), (0.300000000003057, 395.79), (0.300000000003057, 395.49), (3.732, 395.70420000000007), (3.732, 395.5742000000001), (3.732, 395.74420000000003), (3.732, 395.5742000000001), (8.80000000000302, 395.6175), (8.80000000000302, 395.4775)]</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 397.0), (0.300000000003057, 396.81), (3.831, 396.9117250000001), (3.831, 396.7217250000001), (3.831, 396.9117250000001), (3.831, 396.7417250000001), (10.46, 396.7460000000001), (10.46, 396.5760000000001), (0.300000000003057, 396.81), (0.300000000003057, 396.51), (3.831, 396.7217250000001), (3.831, 396.5917250000001), (3.831, 396.7417250000001), (3.831, 396.5917250000001), (10.46, 396.5760000000001), (10.46, 396.27600000000007)]</t>
+          <t>[(0.300000000003057, 397.0), (0.300000000003057, 396.81), (3.831, 396.9117250000001), (3.831, 396.7217250000001), (3.831, 396.9117250000001), (3.831, 396.7517250000001), (8.80000000000302, 396.7875), (8.80000000000302, 396.6275), (0.300000000003057, 396.81), (0.300000000003057, 396.51), (3.831, 396.7217250000001), (3.831, 396.5917250000001), (3.831, 396.7517250000001), (3.831, 396.5917250000001), (8.80000000000302, 396.6275), (8.80000000000302, 396.4975)]</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>[(0.300000000003057, 398.0), (0.300000000003057, 397.81), (3.841, 397.91147500000005), (3.841, 397.72147500000005), (3.841, 397.91147500000005), (3.841, 397.7614750000001), (10.549, 397.7437750000001), (10.549, 397.5937750000001), (0.300000000003057, 397.81), (0.300000000003057, 397.51), (3.841, 397.72147500000005), (3.841, 397.61147500000004), (3.841, 397.7614750000001), (3.841, 397.61147500000004), (10.549, 397.5937750000001), (10.549, 397.2937750000001)]</t>
+          <t>[(0.300000000003057, 398.0), (0.300000000003057, 397.76), (3.841, 397.91147500000005), (3.841, 397.7614750000001), (3.841, 397.91147500000005), (3.841, 397.7614750000001), (8.8000000000035, 397.78749999999997), (8.8000000000035, 397.6375), (0.300000000003057, 397.76), (0.300000000003057, 397.52), (3.841, 397.7614750000001), (3.841, 397.61147500000004), (3.841, 397.7614750000001), (3.841, 397.61147500000004), (8.8000000000035, 397.6375), (8.8000000000035, 397.5175)]</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>[(0.300000000001489, 399.0), (0.300000000001489, 398.83), (3.915, 398.90962500000006), (3.915, 398.73962500000005), (3.915, 398.90962500000006), (3.915, 398.7596250000001), (10.615, 398.74212500000004), (10.615, 398.59212500000007), (0.300000000001489, 398.83), (0.300000000001489, 398.53), (3.915, 398.73962500000005), (3.915, 398.59962500000006), (3.915, 398.7596250000001), (3.915, 398.59962500000006), (10.615, 398.59212500000007), (10.615, 398.29212500000006)]</t>
+          <t>[(0.300000000001489, 399.0), (0.300000000001489, 398.83), (3.915, 398.90962500000006), (3.915, 398.73962500000005), (3.915, 398.90962500000006), (3.915, 398.78962500000006), (8.79999999999327, 398.7875000000002), (8.79999999999327, 398.6675000000002), (0.300000000001489, 398.83), (0.300000000001489, 398.53), (3.915, 398.73962500000005), (3.915, 398.59962500000006), (3.915, 398.78962500000006), (3.915, 398.59962500000006), (8.79999999999327, 398.6675000000002), (8.79999999999327, 398.5175000000002)]</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>[(0.300000000003121, 400.0), (0.300000000003121, 399.76), (3.973, 399.9081750000001), (3.973, 399.7681750000001), (3.973, 399.9081750000001), (3.973, 399.7781750000001), (10.684, 399.7404000000001), (10.684, 399.6104000000001), (0.300000000003121, 399.76), (0.300000000003121, 399.52), (3.973, 399.7681750000001), (3.973, 399.6281750000001), (3.973, 399.7781750000001), (3.973, 399.6281750000001), (10.684, 399.6104000000001), (10.684, 399.3104000000001)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>[(0.29999999999285, 401.0), (0.29999999999285, 400.8), (4.03, 400.9067499999998), (4.03, 400.70674999999983), (4.03, 400.9067499999998), (4.03, 400.7367499999998), (10.741, 400.7389749999998), (10.741, 400.5689749999998), (0.29999999999285, 400.8), (0.29999999999285, 400.5), (4.03, 400.70674999999983), (4.03, 400.5967499999998), (4.03, 400.7367499999998), (4.03, 400.5967499999998), (10.741, 400.5689749999998), (10.741, 400.2689749999998)]</t>
+          <t>[(0.29999999999285, 401.0), (0.29999999999285, 400.75), (4.03, 400.9067499999998), (4.03, 400.7467499999998), (4.03, 400.9067499999998), (4.03, 400.7467499999998), (8.80000000000431, 400.78749999999974), (8.80000000000431, 400.6274999999997), (0.29999999999285, 400.75), (0.29999999999285, 400.5), (4.03, 400.7467499999998), (4.03, 400.5867499999998), (4.03, 400.7467499999998), (4.03, 400.5967499999998), (8.80000000000431, 400.6274999999997), (8.80000000000431, 400.4974999999997)]</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>[(0.299999999999146, 402.0), (0.299999999999146, 401.7), (4.09, 401.90524999999997), (4.09, 401.60524999999996), (4.09, 401.90524999999997), (4.09, 401.63525), (10.786, 401.73785), (10.786, 401.46785), (0.299999999999146, 401.7), (0.299999999999146, 401.41), (4.09, 401.60524999999996), (4.09, 401.47524999999996), (4.09, 401.63525), (4.09, 401.47524999999996), (10.786, 401.46785), (10.786, 401.19784999999996)]</t>
+          <t>[(0.299999999999146, 402.0), (0.299999999999146, 401.7), (4.09, 401.90524999999997), (4.09, 401.60524999999996), (4.09, 401.90524999999997), (4.09, 401.68524999999994), (8.80000000000292, 401.7874999999999), (8.80000000000292, 401.5674999999999), (0.299999999999146, 401.7), (0.299999999999146, 401.41), (4.09, 401.60524999999996), (4.09, 401.47524999999996), (4.09, 401.68524999999994), (4.09, 401.47524999999996), (8.80000000000292, 401.5674999999999), (8.80000000000292, 401.4174999999999)]</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>[(0.300000000005918, 403.0), (0.300000000005918, 402.67), (4.145, 402.90387500000014), (4.145, 402.6738750000001), (4.145, 402.90387500000014), (4.145, 402.6738750000001), (10.8000000000032, 402.73750000000007), (10.8000000000032, 402.4175000000001), (0.300000000005918, 402.67), (0.300000000005918, 402.34), (4.145, 402.6738750000001), (4.145, 402.44387500000016), (4.145, 402.6738750000001), (4.145, 402.44387500000016), (10.8000000000032, 402.4175000000001), (10.8000000000032, 402.0975000000001)]</t>
+          <t>[(0.300000000005918, 403.0), (0.300000000005918, 402.67), (4.145, 402.90387500000014), (4.145, 402.6738750000001), (4.145, 402.90387500000014), (4.145, 402.7438750000001), (8.79999999999911, 402.7875000000002), (8.79999999999911, 402.62750000000017), (0.300000000005918, 402.67), (0.300000000005918, 402.34), (4.145, 402.6738750000001), (4.145, 402.44387500000016), (4.145, 402.7438750000001), (4.145, 402.58387500000015), (8.79999999999911, 402.62750000000017), (8.79999999999911, 402.4675000000002)]</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>[(0.300000000004419, 404.0), (0.300000000004419, 403.62), (4.211, 403.9022250000001), (4.211, 403.6122250000001), (4.211, 403.9022250000001), (4.211, 403.6122250000001), (10.8000000000032, 403.7375), (10.8000000000032, 403.3675), (0.300000000004419, 403.62), (0.300000000004419, 403.24), (4.211, 403.6122250000001), (4.211, 403.3222250000001), (4.211, 403.6122250000001), (4.211, 403.3222250000001), (10.8000000000032, 403.3675), (10.8000000000032, 402.9975)]</t>
+          <t>[(0.300000000004419, 404.0), (0.300000000004419, 403.62), (4.211, 403.9022250000001), (4.211, 403.6122250000001), (4.211, 403.9022250000001), (4.211, 403.7022250000001), (8.79999999999417, 403.78750000000025), (8.79999999999417, 403.58750000000026), (0.300000000004419, 403.62), (0.300000000004419, 403.24), (4.211, 403.6122250000001), (4.211, 403.3222250000001), (4.211, 403.7022250000001), (4.211, 403.5022250000001), (8.79999999999417, 403.58750000000026), (8.79999999999417, 403.3875000000003)]</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>[(0.300000000004935, 405.0), (0.300000000004935, 404.6), (4.264, 404.90090000000015), (4.264, 404.61090000000013), (4.264, 404.90090000000015), (4.264, 404.61090000000013), (10.8000000000032, 404.73750000000007), (10.8000000000032, 404.37750000000005), (0.300000000004935, 404.6), (0.300000000004935, 404.2), (4.264, 404.61090000000013), (4.264, 404.32090000000017), (4.264, 404.61090000000013), (4.264, 404.32090000000017), (10.8000000000032, 404.37750000000005), (10.8000000000032, 404.01750000000004)]</t>
+          <t>[(0.300000000004935, 405.0), (0.300000000004935, 404.6), (4.264, 404.90090000000015), (4.264, 404.61090000000013), (4.264, 404.90090000000015), (4.264, 404.70090000000016), (8.79999999999417, 404.78750000000025), (8.79999999999417, 404.58750000000026), (0.300000000004935, 404.6), (0.300000000004935, 404.2), (4.264, 404.61090000000013), (4.264, 404.32090000000017), (4.264, 404.70090000000016), (4.264, 404.5009000000002), (8.79999999999417, 404.58750000000026), (8.79999999999417, 404.3875000000003)]</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>[(0.300000000004419, 406.0), (0.300000000004419, 405.64), (4.299, 405.9000250000001), (4.299, 405.6400250000001), (4.299, 405.9000250000001), (4.299, 405.6400250000001), (10.8000000000027, 405.73750000000007), (10.8000000000027, 405.4175000000001), (0.300000000004419, 405.64), (0.300000000004419, 405.28), (4.299, 405.6400250000001), (4.299, 405.3800250000001), (4.299, 405.6400250000001), (4.299, 405.3800250000001), (10.8000000000027, 405.4175000000001), (10.8000000000027, 405.0975000000001)]</t>
+          <t>[(0.300000000004419, 406.0), (0.300000000004419, 405.64), (4.299, 405.9000250000001), (4.299, 405.6400250000001), (4.299, 405.9000250000001), (4.299, 405.73002500000007), (8.79999999999417, 405.78750000000025), (8.79999999999417, 405.61750000000023), (0.300000000004419, 405.64), (0.300000000004419, 405.28), (4.299, 405.6400250000001), (4.299, 405.3800250000001), (4.299, 405.73002500000007), (4.299, 405.5600250000001), (8.79999999999417, 405.61750000000023), (8.79999999999417, 405.4475000000003)]</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>[(0.300000000004419, 407.0), (0.300000000004419, 406.66), (4.344, 406.8989000000001), (4.344, 406.6589000000001), (4.344, 406.8989000000001), (4.344, 406.6589000000001), (10.8000000000032, 406.7375), (10.8000000000032, 406.4075), (0.300000000004419, 406.66), (0.300000000004419, 406.32), (4.344, 406.6589000000001), (4.344, 406.41890000000006), (4.344, 406.6589000000001), (4.344, 406.41890000000006), (10.8000000000032, 406.4075), (10.8000000000032, 406.0775)]</t>
+          <t>[(0.300000000004419, 407.0), (0.300000000004419, 406.66), (4.344, 406.8989000000001), (4.344, 406.6589000000001), (4.344, 406.8989000000001), (4.344, 406.73890000000006), (8.79999999999417, 406.78750000000025), (8.79999999999417, 406.6275000000002), (0.300000000004419, 406.66), (0.300000000004419, 406.32), (4.344, 406.6589000000001), (4.344, 406.41890000000006), (4.344, 406.73890000000006), (4.344, 406.5789000000001), (8.79999999999417, 406.6275000000002), (8.79999999999417, 406.46750000000026)]</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>[(0.300000000004419, 408.0), (0.300000000004419, 407.68), (4.28, 407.90050000000014), (4.28, 407.69050000000016), (4.28, 407.90050000000014), (4.28, 407.62050000000016), (10.8000000000027, 407.73750000000007), (10.8000000000027, 407.4575000000001), (0.300000000004419, 407.68), (0.300000000004419, 407.36), (4.28, 407.69050000000016), (4.28, 407.4805000000001), (4.28, 407.62050000000016), (4.28, 407.4805000000001), (10.8000000000027, 407.4575000000001), (10.8000000000027, 407.17750000000007)]</t>
+          <t>[(0.300000000004419, 408.0), (0.300000000004419, 407.68), (4.28, 407.90050000000014), (4.28, 407.69050000000016), (4.28, 407.90050000000014), (4.28, 407.69050000000016), (8.79999999999417, 407.78750000000025), (8.79999999999417, 407.57750000000027), (0.300000000004419, 407.68), (0.300000000004419, 407.36), (4.28, 407.69050000000016), (4.28, 407.4805000000001), (4.28, 407.69050000000016), (4.28, 407.4805000000001), (8.79999999999417, 407.57750000000027), (8.79999999999417, 407.40750000000025)]</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>[(0.300000000004419, 409.0), (0.300000000004419, 408.78), (4.186, 408.9028500000001), (4.186, 408.6828500000001), (4.186, 408.9028500000001), (4.186, 408.69285000000013), (10.8000000000032, 408.7375), (10.8000000000032, 408.52750000000003), (0.300000000004419, 408.78), (0.300000000004419, 408.48), (4.186, 408.6828500000001), (4.186, 408.5428500000001), (4.186, 408.69285000000013), (4.186, 408.5428500000001), (10.8000000000032, 408.52750000000003), (10.8000000000032, 408.2275)]</t>
+          <t>[(0.300000000004419, 409.0), (0.300000000004419, 408.78), (4.186, 408.9028500000001), (4.186, 408.6828500000001), (4.186, 408.9028500000001), (4.186, 408.7228500000001), (8.79999999999417, 408.78750000000025), (8.79999999999417, 408.60750000000024), (0.300000000004419, 408.78), (0.300000000004419, 408.48), (4.186, 408.6828500000001), (4.186, 408.5428500000001), (4.186, 408.7228500000001), (4.186, 408.5428500000001), (8.79999999999417, 408.60750000000024), (8.79999999999417, 408.45750000000027)]</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>[(0.300000000004419, 410.0), (0.300000000004419, 409.78), (4.012, 409.9072000000001), (4.012, 409.7872000000001), (4.012, 409.9072000000001), (4.012, 409.7872000000001), (10.748, 409.7388000000001), (10.748, 409.50880000000006), (0.300000000004419, 409.78), (0.300000000004419, 409.56), (4.012, 409.7872000000001), (4.012, 409.6672000000001), (4.012, 409.7872000000001), (4.012, 409.6672000000001), (10.748, 409.50880000000006), (10.748, 409.2788000000001)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>[(0.300000000004419, 411.0), (0.300000000004419, 410.89), (3.816, 410.9121000000001), (3.816, 410.8021000000001), (3.816, 410.9121000000001), (3.816, 410.8021000000001), (10.604, 410.7424000000001), (10.604, 410.6324000000001), (0.300000000004419, 410.89), (0.300000000004419, 410.59), (3.816, 410.8021000000001), (3.816, 410.6621000000001), (3.816, 410.8021000000001), (3.816, 410.6621000000001), (10.604, 410.6324000000001), (10.604, 410.3424000000001)]</t>
+          <t>[(0.300000000004419, 411.0), (0.300000000004419, 410.88), (3.816, 410.9121000000001), (3.816, 410.7921000000001), (3.816, 410.9121000000001), (3.816, 410.7821000000001), (8.79999999999417, 410.78750000000025), (8.79999999999417, 410.65750000000025), (0.300000000004419, 410.88), (0.300000000004419, 410.59), (3.816, 410.7921000000001), (3.816, 410.6621000000001), (3.816, 410.7821000000001), (3.816, 410.6621000000001), (8.79999999999417, 410.65750000000025), (8.79999999999417, 410.53750000000025)]</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>[(0.300000000004419, 412.0), (0.300000000004419, 411.89), (3.68, 411.9155000000001), (3.68, 411.8055000000001), (3.68, 411.9155000000001), (3.68, 411.8055000000001), (10.422, 411.7469500000001), (10.422, 411.63695000000007), (0.300000000004419, 411.89), (0.300000000004419, 411.62), (3.68, 411.8055000000001), (3.68, 411.6655000000001), (3.68, 411.8055000000001), (3.68, 411.6655000000001), (10.422, 411.63695000000007), (10.422, 411.33695000000006)]</t>
+          <t>[(0.300000000004419, 412.0), (0.300000000004419, 411.88), (3.68, 411.9155000000001), (3.68, 411.7955000000001), (3.68, 411.9155000000001), (3.68, 411.7855000000001), (8.79999999999417, 411.78750000000025), (8.79999999999417, 411.65750000000025), (0.300000000004419, 411.88), (0.300000000004419, 411.62), (3.68, 411.7955000000001), (3.68, 411.6655000000001), (3.68, 411.7855000000001), (3.68, 411.6655000000001), (8.79999999999417, 411.65750000000025), (8.79999999999417, 411.53750000000025)]</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>[(0.300000000004419, 413.0), (0.300000000004419, 412.83), (3.331, 412.9585440848818), (3.331, 412.7885440848818), (3.331, 412.9585440848818), (3.331, 412.8185440848818), (10.254, 412.8638560939996), (10.254, 412.6038560939996), (0.300000000004419, 412.83), (0.300000000004419, 412.67), (3.331, 412.7885440848818), (3.331, 412.6785440848818), (3.331, 412.8185440848818), (3.331, 412.6785440848818), (10.254, 412.6038560939996), (10.254, 412.3438560939996)]</t>
+          <t>[(0.300000000004419, 413.0), (0.300000000004419, 412.88), (3.331, 412.9585440848818), (3.331, 412.8385440848818), (3.331, 412.9585440848818), (3.331, 412.79854408488177), (8.79999999999417, 412.88374289722697), (8.79999999999417, 412.72374289722694), (0.300000000004419, 412.88), (0.300000000004419, 412.67), (3.331, 412.8385440848818), (3.331, 412.6785440848818), (3.331, 412.79854408488177), (3.331, 412.6785440848818), (8.79999999999417, 412.72374289722694), (8.79999999999417, 412.57374289722696)]</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>[(0.30000000001934, 414.0), (0.30000000001934, 413.83), (3.32, 414.0341945352498), (3.32, 413.8641945352498), (3.32, 414.0341945352498), (3.32, 413.88419453524983), (10.037, 414.1102490694466), (10.037, 413.7702490694466), (0.30000000001934, 413.83), (0.30000000001934, 413.66), (3.32, 413.8641945352498), (3.32, 413.7341945352498), (3.32, 413.88419453524983), (3.32, 413.7341945352498), (10.037, 413.7702490694466), (10.037, 413.4302490694466)]</t>
+          <t>[(0.30000000001934, 414.0), (0.30000000001934, 413.83), (3.32, 414.0341945352498), (3.32, 413.8641945352498), (3.32, 414.0341945352498), (3.32, 413.88419453524983), (8.80000000000857, 414.0962428972267), (8.80000000000857, 413.94624289722674), (0.30000000001934, 413.83), (0.30000000001934, 413.66), (3.32, 413.8641945352498), (3.32, 413.7341945352498), (3.32, 413.88419453524983), (3.32, 413.7341945352498), (8.80000000000857, 413.94624289722674), (8.80000000000857, 413.6462428972267)]</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>[(0.299999999998494, 415.0), (0.299999999998494, 414.81), (3.147, 415.07828001346167), (3.147, 414.88828001346167), (3.147, 415.07828001346167), (3.147, 414.89828001346166), (9.826, 415.2619232203146), (9.826, 414.9019232203146), (0.299999999998494, 414.81), (0.299999999998494, 414.64), (3.147, 414.88828001346167), (3.147, 414.70828001346166), (3.147, 414.89828001346166), (3.147, 414.71828001346165), (9.826, 414.9019232203146), (9.826, 414.5419232203146)]</t>
+          <t>[(0.299999999998494, 415.0), (0.299999999998494, 414.81), (3.147, 415.07828001346167), (3.147, 414.88828001346167), (3.147, 415.07828001346167), (3.147, 414.82828001346167), (8.79999999997753, 415.23371272020455), (8.79999999997753, 414.98371272020455), (0.299999999998494, 414.81), (0.299999999998494, 414.64), (3.147, 414.88828001346167), (3.147, 414.70828001346166), (3.147, 414.82828001346167), (3.147, 414.70828001346166), (8.79999999997753, 414.98371272020455), (8.79999999997753, 414.73371272020455)]</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>[(0.300000000119995, 416.0), (0.300000000119995, 415.89), (2.944, 416.08726738337873), (2.944, 415.9772673833787), (2.944, 416.08726738337873), (2.944, 415.9172673833787), (9.666, 416.3091324934765), (9.666, 415.96913249347654), (0.300000000119995, 415.89), (0.300000000119995, 415.73), (2.944, 415.9772673833787), (2.944, 415.74726738337876), (2.944, 415.9172673833787), (2.944, 415.74726738337876), (9.666, 415.96913249347654), (9.666, 415.6291324934765)]</t>
+          <t>[(0.300000000119995, 416.0), (0.300000000119995, 415.88), (2.944, 416.08726738337873), (2.944, 415.9672673833787), (2.944, 416.08726738337873), (2.944, 415.9272673833787), (8.79999999999616, 416.2805494548949), (8.79999999999616, 416.1205494548949), (0.300000000119995, 415.88), (0.300000000119995, 415.73), (2.944, 415.9672673833787), (2.944, 415.74726738337876), (2.944, 415.9272673833787), (2.944, 415.74726738337876), (8.79999999999616, 416.1205494548949), (8.79999999999616, 415.82054945489494)]</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>[(0.300000000038611, 417.0), (0.300000000038611, 416.83), (2.95, 417.1020674591069), (2.95, 416.93206745910686), (2.95, 417.1020674591069), (2.95, 416.94206745910685), (9.532, 417.35557991791865), (9.532, 417.04557991791864), (0.300000000038611, 416.83), (0.300000000038611, 416.71), (2.95, 416.93206745910686), (2.95, 416.7720674591069), (2.95, 416.94206745910685), (2.95, 416.7820674591069), (9.532, 417.04557991791864), (9.532, 416.73557991791864)]</t>
+          <t>[(0.300000000038611, 417.0), (0.300000000038611, 416.83), (2.95, 417.1020674591069), (2.95, 416.93206745910686), (2.95, 417.1020674591069), (2.95, 416.8920674591069), (8.80000000002485, 417.32738618959235), (8.80000000002485, 417.11738618959237), (0.300000000038611, 416.83), (0.300000000038611, 416.71), (2.95, 416.93206745910686), (2.95, 416.7720674591069), (2.95, 416.8920674591069), (2.95, 416.7720674591069), (8.80000000002485, 417.11738618959237), (8.80000000002485, 416.90738618959233)]</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>[(0.300000000149617, 418.0), (0.300000000149617, 417.85), (3.085, 418.1226130404803), (3.085, 417.9726130404803), (3.085, 418.1226130404803), (3.085, 417.9826130404803), (9.74, 418.4156075770836), (9.74, 418.1156075770836), (0.300000000149617, 417.85), (0.300000000149617, 417.74), (3.085, 417.9726130404803), (3.085, 417.84261304048033), (3.085, 417.9826130404803), (3.085, 417.84261304048033), (9.74, 418.1156075770836), (9.74, 417.8156075770836)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>[(0.300000000018904, 419.0), (0.300000000018904, 418.85), (3.261, 419.14667737061575), (3.261, 418.99667737061577), (3.261, 419.14667737061575), (3.261, 419.00667737061576), (9.885, 419.4748066860378), (9.885, 419.1748066860378), (0.300000000018904, 418.85), (0.300000000018904, 418.73), (3.261, 418.99667737061577), (3.261, 418.8666773706158), (3.261, 419.00667737061576), (3.261, 418.8666773706158), (9.885, 419.1748066860378), (9.885, 418.8748066860378)]</t>
+          <t>[(0.300000000018904, 419.0), (0.300000000018904, 418.85), (3.261, 419.14667737061575), (3.261, 418.99667737061577), (3.261, 419.14667737061575), (3.261, 419.02667737061574), (8.84615771009811, 419.4233461471765), (8.84615771009811, 419.3033461471765), (0.300000000018904, 418.85), (0.300000000018904, 418.73), (3.261, 418.99667737061577), (3.261, 418.8666773706158), (3.261, 419.02667737061574), (3.261, 418.8666773706158), (8.84615771009811, 419.3033461471765), (8.84615771009811, 419.03334614717653)]</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>[(0.300000000157206, 420.0), (0.300000000157206, 419.84), (3.444, 420.17306661901637), (3.444, 420.01306661901634), (3.444, 420.17306661901637), (3.444, 420.01306661901634), (10.072, 420.53791571281334), (10.072, 420.22791571281334), (0.300000000157206, 419.84), (0.300000000157206, 419.73), (3.444, 420.01306661901634), (3.444, 419.86306661901637), (3.444, 420.01306661901634), (3.444, 419.8530666190164), (10.072, 420.22791571281334), (10.072, 419.91791571281334)]</t>
+          <t>[(0.300000000157206, 420.0), (0.300000000157206, 419.88), (3.444, 420.17306661901637), (3.444, 420.05306661901636), (3.444, 420.17306661901637), (3.444, 420.0430666190164), (10.00581672433238, 420.5342725462244), (10.00581672433238, 420.4042725462244), (0.300000000157206, 419.88), (0.300000000157206, 419.73), (3.444, 420.05306661901636), (3.444, 419.86306661901637), (3.444, 420.0430666190164), (3.444, 419.86306661901637), (10.00581672433238, 420.4042725462244), (10.00581672433238, 420.10427254622437)]</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>[(0.299999999996219, 421.0), (0.299999999996219, 420.89), (3.596, 421.1995953401299), (3.596, 421.0895953401299), (3.596, 421.1995953401299), (3.596, 420.9695953401299), (10.259, 421.60308555593207), (10.259, 421.37308555593205), (0.299999999996219, 420.89), (0.299999999996219, 420.73), (3.596, 421.0895953401299), (3.596, 420.8495953401299), (3.596, 420.9695953401299), (3.596, 420.8495953401299), (10.259, 421.37308555593205), (10.259, 421.1430855559321)]</t>
+          <t>[(0.299999999996219, 421.0), (0.299999999996219, 420.88), (3.596, 421.1995953401299), (3.596, 421.0795953401299), (3.596, 421.1995953401299), (3.596, 420.9695953401299), (10.259, 421.60308555593207), (10.259, 421.37308555593205), (0.299999999996219, 420.88), (0.299999999996219, 420.73), (3.596, 421.0795953401299), (3.596, 420.8495953401299), (3.596, 420.9695953401299), (3.596, 420.8495953401299), (10.259, 421.37308555593205), (10.259, 421.1430855559321)]</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>[(0.299999999990819, 422.0), (0.299999999990819, 421.89), (3.659, 422.2219191964743), (3.659, 422.1119191964743), (3.659, 422.2219191964743), (3.659, 422.00191919647426), (10.693, 422.68663477491896), (10.693, 422.46663477491893), (0.299999999990819, 421.89), (0.299999999990819, 421.75), (3.659, 422.1119191964743), (3.659, 421.87191919647427), (3.659, 422.00191919647426), (3.659, 421.87191919647427), (10.693, 422.46663477491893), (10.693, 422.166634774919)]</t>
+          <t>[(0.299999999990819, 422.0), (0.299999999990819, 421.88), (3.659, 422.2219191964743), (3.659, 422.1019191964743), (3.659, 422.2219191964743), (3.659, 422.00191919647426), (10.693, 422.68663477491896), (10.693, 422.46663477491893), (0.299999999990819, 421.88), (0.299999999990819, 421.75), (3.659, 422.1019191964743), (3.659, 421.87191919647427), (3.659, 422.00191919647426), (3.659, 421.87191919647427), (10.693, 422.46663477491893), (10.693, 422.166634774919)]</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>[(0.299999999996281, 423.0), (0.299999999996281, 422.82), (3.71, 423.2387000000003), (3.71, 423.0587000000003), (3.71, 423.2387000000003), (3.71, 423.0587000000003), (12.723, 423.86961000000025), (12.723, 423.4696100000003), (0.299999999996281, 422.82), (0.299999999996281, 422.71), (3.71, 423.0587000000003), (3.71, 422.88870000000026), (3.71, 423.0587000000003), (3.71, 422.87870000000026), (12.723, 423.4696100000003), (12.723, 423.06961000000024)]</t>
+          <t>[(0.299999999996281, 423.0), (0.299999999996281, 422.88), (3.71, 423.2387000000003), (3.71, 423.1187000000003), (3.71, 423.2387000000003), (3.71, 423.0587000000003), (12.2999999999865, 423.8399999999993), (12.2999999999865, 423.5399999999993), (0.299999999996281, 422.88), (0.299999999996281, 422.71), (3.71, 423.1187000000003), (3.71, 422.88870000000026), (3.71, 423.0587000000003), (3.71, 422.87870000000026), (12.2999999999865, 423.5399999999993), (12.2999999999865, 423.23999999999927)]</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>[(0.299999999999207, 424.0), (0.299999999999207, 423.89), (3.875, 424.25025000000005), (3.875, 424.14025000000004), (3.875, 424.25025000000005), (3.875, 424.09025), (13.879, 424.9505300000001), (13.879, 424.53053000000006), (0.299999999999207, 423.89), (0.299999999999207, 423.75), (3.875, 424.14025000000004), (3.875, 423.92025000000007), (3.875, 424.09025), (3.875, 423.93025000000006), (13.879, 424.53053000000006), (13.879, 424.1105300000001)]</t>
+          <t>[(0.299999999999207, 424.0), (0.299999999999207, 423.88), (3.875, 424.25025000000005), (3.875, 424.13025000000005), (3.875, 424.25025000000005), (3.875, 424.09025), (12.3026616954235, 424.8401863186797), (12.3026616954235, 424.5401863186797), (0.299999999999207, 423.88), (0.299999999999207, 423.75), (3.875, 424.13025000000005), (3.875, 423.92025000000007), (3.875, 424.09025), (3.875, 423.93025000000006), (12.3026616954235, 424.5401863186797), (12.3026616954235, 424.24018631867966)]</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>[(0.300000000004089, 425.0), (0.300000000004089, 424.89), (4.003, 425.2592099999997), (4.003, 425.1492099999997), (4.003, 425.2592099999997), (4.003, 425.0992099999997), (14.6434624162476, 426.00404236913704), (14.6434624162476, 425.524042369137), (0.300000000004089, 424.89), (0.300000000004089, 424.75), (4.003, 425.1492099999997), (4.003, 424.9492099999997), (4.003, 425.0992099999997), (4.003, 424.9392099999997), (14.6434624162476, 425.524042369137), (14.6434624162476, 425.04404236913706)]</t>
+          <t>[(0.300000000004089, 425.0), (0.300000000004089, 424.88), (4.003, 425.2592099999997), (4.003, 425.1392099999997), (4.003, 425.2592099999997), (4.003, 425.0992099999997), (12.7670670695042, 425.872694694865), (12.7670670695042, 425.53269469486503), (0.300000000004089, 424.88), (0.300000000004089, 424.75), (4.003, 425.1392099999997), (4.003, 424.9492099999997), (4.003, 425.0992099999997), (4.003, 424.9392099999997), (12.7670670695042, 425.53269469486503), (12.7670670695042, 425.192694694865)]</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>[(0.299999999993094, 426.0), (0.299999999993094, 425.83), (4.12, 426.26740000000046), (4.12, 426.09740000000045), (4.12, 426.26740000000046), (4.12, 426.10740000000044), (10.7999999999948, 426.7350000000001), (10.7999999999948, 426.4350000000001), (0.299999999993094, 425.83), (0.299999999993094, 425.72), (4.12, 426.09740000000045), (4.12, 425.9374000000005), (4.12, 426.10740000000044), (4.12, 425.94740000000047), (10.7999999999948, 426.4350000000001), (10.7999999999948, 426.1350000000001)]</t>
+          <t>[(0.299999999993094, 426.0), (0.299999999993094, 425.88), (4.12, 426.26740000000046), (4.12, 426.14740000000046), (4.12, 426.26740000000046), (4.12, 426.09740000000045), (8.79999999999514, 426.59500000000014), (8.79999999999514, 426.4250000000001), (0.299999999993094, 425.88), (0.299999999993094, 425.72), (4.12, 426.14740000000046), (4.12, 425.9374000000005), (4.12, 426.09740000000045), (4.12, 425.9374000000005), (8.79999999999514, 426.4250000000001), (8.79999999999514, 426.1250000000001)]</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>[(0.29999999999805, 429.0), (0.29999999999805, 428.83), (4.525, 429.2957500000001), (4.525, 429.1257500000001), (4.525, 429.2957500000001), (4.525, 429.1257500000001), (14.3870884155753, 429.9860961890904), (14.3870884155753, 429.5460961890904), (0.29999999999805, 428.83), (0.29999999999805, 428.71), (4.525, 429.1257500000001), (4.525, 428.95575000000014), (4.525, 429.1257500000001), (4.525, 428.95575000000014), (14.3870884155753, 429.5460961890904), (14.3870884155753, 429.1060961890904)]</t>
+          <t>[(0.29999999999805, 429.0), (0.29999999999805, 428.83), (4.525, 429.2957500000001), (4.525, 429.1257500000001), (4.525, 429.2957500000001), (4.525, 429.1257500000001), (12.7042179144354, 429.8682952540106), (12.7042179144354, 429.52829525401063), (0.29999999999805, 428.83), (0.29999999999805, 428.71), (4.525, 429.1257500000001), (4.525, 428.95575000000014), (4.525, 429.1257500000001), (4.525, 428.95575000000014), (12.7042179144354, 429.52829525401063), (12.7042179144354, 429.1882952540106)]</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>[(0.300000000001445, 430.0), (0.300000000001445, 429.82), (4.498, 430.2938599999999), (4.498, 430.1138599999999), (4.498, 430.2938599999999), (4.498, 430.1138599999999), (14.3020535306136, 430.98014374714285), (14.3020535306136, 430.58014374714287), (0.300000000001445, 429.82), (0.300000000001445, 429.69), (4.498, 430.1138599999999), (4.498, 429.93385999999987), (4.498, 430.1138599999999), (4.498, 429.93385999999987), (14.3020535306136, 430.58014374714287), (14.3020535306136, 430.18014374714284)]</t>
+          <t>[(0.300000000001445, 430.0), (0.300000000001445, 429.82), (4.498, 430.2938599999999), (4.498, 430.1138599999999), (4.498, 430.2938599999999), (4.498, 430.1138599999999), (12.3020520184099, 430.8401436412886), (12.3020520184099, 430.55014364128857), (0.300000000001445, 429.82), (0.300000000001445, 429.69), (4.498, 430.1138599999999), (4.498, 429.93385999999987), (4.498, 430.1138599999999), (4.498, 429.93385999999987), (12.3020520184099, 430.55014364128857), (12.3020520184099, 430.2601436412886)]</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>[(0.300000000005125, 431.0), (0.300000000005125, 430.81), (4.508, 431.29455999999965), (4.508, 431.10455999999965), (4.508, 431.29455999999965), (4.508, 431.10455999999965), (14.299999999924, 431.97999999999433), (14.299999999924, 431.57999999999436), (0.300000000005125, 430.81), (0.300000000005125, 430.67), (4.508, 431.10455999999965), (4.508, 430.91455999999965), (4.508, 431.10455999999965), (4.508, 430.91455999999965), (14.299999999924, 431.57999999999436), (14.299999999924, 431.1799999999943)]</t>
+          <t>[(0.300000000005125, 431.0), (0.300000000005125, 430.81), (4.508, 431.29455999999965), (4.508, 431.10455999999965), (4.508, 431.29455999999965), (4.508, 431.10455999999965), (12.2999999999865, 431.8399999999987), (12.2999999999865, 431.5499999999987), (0.300000000005125, 430.81), (0.300000000005125, 430.67), (4.508, 431.10455999999965), (4.508, 430.91455999999965), (4.508, 431.10455999999965), (4.508, 430.91455999999965), (12.2999999999865, 431.5499999999987), (12.2999999999865, 431.25999999999874)]</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>[(0.300000000001729, 432.0), (0.300000000001729, 431.83), (4.454, 432.29077999999987), (4.454, 432.12077999999985), (4.454, 432.29077999999987), (4.454, 432.12077999999985), (13.86, 432.9491999999999), (13.86, 432.5391999999999), (0.300000000001729, 431.83), (0.300000000001729, 431.69), (4.454, 432.12077999999985), (4.454, 431.9507799999999), (4.454, 432.12077999999985), (4.454, 431.9507799999999), (13.86, 432.5391999999999), (13.86, 432.1291999999999)]</t>
+          <t>[(0.300000000001729, 432.0), (0.300000000001729, 431.83), (4.454, 432.29077999999987), (4.454, 432.12077999999985), (4.454, 432.29077999999987), (4.454, 432.12077999999985), (12.2999999999818, 432.8399999999986), (12.2999999999818, 432.5499999999986), (0.300000000001729, 431.83), (0.300000000001729, 431.69), (4.454, 432.12077999999985), (4.454, 431.9507799999999), (4.454, 432.12077999999985), (4.454, 431.9507799999999), (12.2999999999818, 432.5499999999986), (12.2999999999818, 432.2599999999986)]</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>[(0.30000000000466, 433.0), (0.30000000000466, 432.84), (4.298, 433.2798599999997), (4.298, 433.1198599999997), (4.298, 433.2798599999997), (4.298, 433.1098599999997), (11.103, 433.75620999999967), (11.103, 433.58620999999965), (0.30000000000466, 432.84), (0.30000000000466, 432.73), (4.298, 433.1198599999997), (4.298, 432.9598599999997), (4.298, 433.1098599999997), (4.298, 432.9598599999997), (11.103, 433.58620999999965), (11.103, 433.28620999999964)]</t>
+          <t>[(0.30000000000466, 433.0), (0.30000000000466, 432.88), (4.298, 433.2798599999997), (4.298, 433.1598599999997), (4.298, 433.2798599999997), (4.298, 433.1098599999997), (11.103, 433.75620999999967), (11.103, 433.58620999999965), (0.30000000000466, 432.88), (0.30000000000466, 432.73), (4.298, 433.1598599999997), (4.298, 432.9598599999997), (4.298, 433.1098599999997), (4.298, 432.9598599999997), (11.103, 433.58620999999965), (11.103, 433.28620999999964)]</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>[(0.300000000046146, 434.0), (0.300000000046146, 433.83), (3.992, 434.25649386343224), (3.992, 434.0864938634322), (3.992, 434.25649386343224), (3.992, 434.0264938634322), (10.131, 434.682987857915), (10.131, 434.452987857915), (0.300000000046146, 433.83), (0.300000000046146, 433.72), (3.992, 434.0864938634322), (3.992, 433.91649386343227), (3.992, 434.0264938634322), (3.992, 433.91649386343227), (10.131, 434.452987857915), (10.131, 434.232987857915)]</t>
+          <t>[(0.300000000046146, 434.0), (0.300000000046146, 433.88), (3.992, 434.25649386343224), (3.992, 434.13649386343224), (3.992, 434.25649386343224), (3.992, 434.10649386343226), (10.131, 434.682987857915), (10.131, 434.53298785791503), (0.300000000046146, 433.88), (0.300000000046146, 433.72), (3.992, 434.13649386343224), (3.992, 433.91649386343227), (3.992, 434.10649386343226), (3.992, 433.91649386343227), (10.131, 434.53298785791503), (10.131, 434.232987857915)]</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>[(0.299999999993056, 445.0), (0.299999999993056, 444.89), (6.418, 444.84704999999985), (6.418, 444.73704999999984), (0.299999999993056, 444.89), (0.299999999993056, 444.63), (6.418, 444.73704999999984), (6.418, 444.55704999999983)]</t>
+          <t>[(0.299999999993056, 445.0), (0.299999999993056, 444.88), (6.418, 444.84704999999985), (6.418, 444.72704999999985), (0.299999999993056, 444.88), (0.299999999993056, 444.63), (6.418, 444.72704999999985), (6.418, 444.55704999999983)]</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>[(0.300000000006756, 446.0), (0.300000000006756, 445.89), (6.234, 445.8516500000002), (6.234, 445.74165000000016), (0.300000000006756, 445.89), (0.300000000006756, 445.66), (6.234, 445.74165000000016), (6.234, 445.5916500000002)]</t>
+          <t>[(0.300000000006756, 446.0), (0.300000000006756, 445.88), (6.234, 445.8516500000002), (6.234, 445.7316500000002), (0.300000000006756, 445.88), (0.300000000006756, 445.66), (6.234, 445.7316500000002), (6.234, 445.5916500000002)]</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>[(0.300000000009559, 527.0), (0.300000000009559, 526.89), (4.371, 526.7649861104834), (4.371, 526.6549861104834), (0.300000000009559, 526.89), (0.300000000009559, 526.64), (4.371, 526.6549861104834), (4.371, 526.4849861104834)]</t>
+          <t>[(0.300000000009559, 527.0), (0.300000000009559, 526.88), (4.371, 526.7649861104834), (4.371, 526.6449861104834), (0.300000000009559, 526.88), (0.300000000009559, 526.64), (4.371, 526.6449861104834), (4.371, 526.4849861104834)]</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>[(0.300000000009005, 535.0), (0.300000000009005, 534.85), (7.928, 534.8093000000002), (7.928, 534.6593000000003), (0.300000000009005, 534.85), (0.300000000009005, 534.74), (7.928, 534.6593000000003), (7.928, 534.5193000000003)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>[(0.300000000007116, 536.0), (0.300000000007116, 535.89), (8.265, 535.8008750000001), (8.265, 535.6908750000001), (0.300000000007116, 535.89), (0.300000000007116, 535.75), (8.265, 535.6908750000001), (8.265, 535.4908750000002)]</t>
+          <t>[(0.300000000007116, 536.0), (0.300000000007116, 535.88), (8.265, 535.8008750000001), (8.265, 535.6808750000001), (0.300000000007116, 535.88), (0.300000000007116, 535.75), (8.265, 535.6808750000001), (8.265, 535.4908750000002)]</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>[(0.300000000007116, 537.0), (0.300000000007116, 536.89), (8.962, 536.7834500000001), (8.962, 536.6734500000001), (0.300000000007116, 536.89), (0.300000000007116, 536.74), (8.962, 536.6734500000001), (8.962, 536.4634500000001)]</t>
+          <t>[(0.300000000007116, 537.0), (0.300000000007116, 536.88), (8.962, 536.7834500000001), (8.962, 536.6634500000001), (0.300000000007116, 536.88), (0.300000000007116, 536.74), (8.962, 536.6634500000001), (8.962, 536.4634500000001)]</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>[(0.300000000008061, 538.0), (0.300000000008061, 537.83), (7.101, 537.8299750000002), (7.101, 537.6599750000003), (0.300000000008061, 537.83), (0.300000000008061, 537.72), (7.101, 537.6599750000003), (7.101, 537.4999750000002)]</t>
+          <t>[(0.300000000008061, 538.0), (0.300000000008061, 537.88), (7.101, 537.8299750000002), (7.101, 537.7099750000002), (0.300000000008061, 537.88), (0.300000000008061, 537.72), (7.101, 537.7099750000002), (7.101, 537.4999750000002)]</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>[(0.300000000008061, 540.0), (0.300000000008061, 539.86), (7.002, 539.8324500000002), (7.002, 539.6924500000002), (0.300000000008061, 539.86), (0.300000000008061, 539.74), (7.002, 539.6924500000002), (7.002, 539.5824500000002)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>[(0.299999242838936, 565.0), (0.299999242838936, 564.83), (5.49, 564.8689829981598), (5.49, 564.6989829981599), (0.299999242838936, 564.83), (0.299999242838936, 564.66), (5.49, 564.6989829981599), (5.49, 564.5289829981598), (0.299999242838936, 564.66), (0.299999242838936, 564.49), (5.49, 564.5289829981598), (5.49, 564.3589829981598), (0.299999242838936, 564.49), (0.299999242838936, 564.38), (5.49, 564.3589829981598), (5.49, 564.2089829981599)]</t>
+          <t>[(0.299999242838936, 565.0), (0.299999242838936, 564.78), (5.49, 564.8689829981598), (5.49, 564.6489829981598), (0.299999242838936, 564.78), (0.299999242838936, 564.56), (5.49, 564.6489829981598), (5.49, 564.4289829981598), (0.299999242838936, 564.56), (0.299999242838936, 564.38), (5.49, 564.4289829981598), (5.49, 564.2089829981599)]</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>[(0.300000000032854, 567.0), (0.300000000032854, 566.86), (5.588, 566.7754529712998), (5.588, 566.6354529712999), (0.300000000032854, 566.86), (0.300000000032854, 566.72), (5.588, 566.6354529712999), (5.588, 566.4954529712999), (0.300000000032854, 566.72), (0.300000000032854, 566.58), (5.588, 566.4954529712999), (5.588, 566.3554529712999), (0.300000000032854, 566.58), (0.300000000032854, 566.47), (5.588, 566.3554529712999), (5.588, 566.2454529712999)]</t>
+          <t>[(0.300000000032854, 567.0), (0.300000000032854, 566.82), (5.588, 566.7754529712998), (5.588, 566.5954529712999), (0.300000000032854, 566.82), (0.300000000032854, 566.64), (5.588, 566.5954529712999), (5.588, 566.4154529712998), (0.300000000032854, 566.64), (0.300000000032854, 566.47), (5.588, 566.4154529712998), (5.588, 566.2454529712999)]</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>[(0.299999999993189, 575.0), (0.299999999993189, 574.89), (7.986, 574.4619799999995), (7.986, 574.3519799999995), (0.299999999993189, 574.89), (0.299999999993189, 574.64), (7.986, 574.3519799999995), (7.986, 574.2119799999995)]</t>
+          <t>[(0.299999999993189, 575.0), (0.299999999993189, 574.88), (7.986, 574.4619799999995), (7.986, 574.3419799999995), (0.299999999993189, 574.88), (0.299999999993189, 574.64), (7.986, 574.3419799999995), (7.986, 574.2119799999995)]</t>
         </is>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>[(0.30000000000075, 576.0), (0.30000000000075, 575.89), (8.253, 575.44329), (8.253, 575.33329), (0.30000000000075, 575.89), (0.30000000000075, 575.64), (8.253, 575.33329), (8.253, 575.19329)]</t>
+          <t>[(0.30000000000075, 576.0), (0.30000000000075, 575.88), (8.253, 575.44329), (8.253, 575.32329), (0.30000000000075, 575.88), (0.30000000000075, 575.64), (8.253, 575.32329), (8.253, 575.19329)]</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>[(0.299999999997822, 578.0), (0.299999999997822, 577.83), (8.864, 577.4005199999998), (8.864, 577.2305199999998), (0.299999999997822, 577.83), (0.299999999997822, 577.66), (8.864, 577.2305199999998), (8.864, 577.0605199999998), (0.299999999997822, 577.66), (0.299999999997822, 577.55), (8.864, 577.0605199999998), (8.864, 576.9005199999998)]</t>
+          <t>[(0.299999999997822, 578.0), (0.299999999997822, 577.85), (8.80000000001003, 577.4049999999992), (8.80000000001003, 577.2549999999992), (0.299999999997822, 577.85), (0.299999999997822, 577.55), (8.80000000001003, 577.2549999999992), (8.80000000001003, 577.0949999999992)]</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>[(0.300000000088777, 579.0), (0.300000000088777, 578.83), (2.473, 578.853313906351), (2.473, 578.683313906351), (2.473, 578.853313906351), (2.473, 578.683313906351), (9.07, 578.4079903169162), (9.07, 578.2379903169162), (0.300000000088777, 578.83), (0.300000000088777, 578.66), (2.473, 578.683313906351), (2.473, 578.513313906351), (2.473, 578.683313906351), (2.473, 578.513313906351), (9.07, 578.2379903169162), (9.07, 578.0679903169162), (0.300000000088777, 578.66), (0.300000000088777, 578.5), (2.473, 578.513313906351), (2.473, 578.393313906351), (2.473, 578.513313906351), (2.473, 578.393313906351), (9.07, 578.0679903169162), (9.07, 577.9179903169162)]</t>
+          <t>[(0.300000000088777, 579.0), (0.300000000088777, 578.83), (2.473, 578.853313906351), (2.473, 578.683313906351), (2.473, 578.853313906351), (2.473, 578.693313906351), (8.7999999999968, 578.4262163846969), (8.7999999999968, 578.2662163846969), (0.300000000088777, 578.83), (0.300000000088777, 578.66), (2.473, 578.683313906351), (2.473, 578.513313906351), (2.473, 578.693313906351), (2.473, 578.393313906351), (8.7999999999968, 578.2662163846969), (8.7999999999968, 578.1162163846969), (0.300000000088777, 578.66), (0.300000000088777, 578.5), (2.473, 578.513313906351), (2.473, 578.393313906351), (2.473, 578.393313906351), (2.473, 578.393313906351), (8.7999999999968, 578.1162163846969), (8.7999999999968, 578.1162163846969)]</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>[(0.300000000018664, 580.0), (0.300000000018664, 579.82), (2.681, 579.8597727648299), (2.681, 579.67977276483), (2.681, 579.8597727648299), (2.681, 579.57977276483), (9.233, 579.4738975675003), (9.233, 579.1938975675004), (0.300000000018664, 579.82), (0.300000000018664, 579.64), (2.681, 579.67977276483), (2.681, 579.4997727648299), (2.681, 579.57977276483), (2.681, 579.3797727648299), (9.233, 579.1938975675004), (9.233, 578.9238975675004), (0.300000000018664, 579.64), (0.300000000018664, 579.46), (2.681, 579.4997727648299), (2.681, 579.3797727648299), (2.681, 579.3797727648299), (2.681, 579.3797727648299), (9.233, 578.9238975675004), (9.233, 578.9238975675004)]</t>
+          <t>[(0.300000000018664, 580.0), (0.300000000018664, 579.82), (2.681, 579.8597727648299), (2.681, 579.67977276483), (2.681, 579.8597727648299), (2.681, 579.6197727648299), (8.7999999999942, 579.4993987824646), (8.7999999999942, 579.2593987824646), (0.300000000018664, 579.82), (0.300000000018664, 579.64), (2.681, 579.67977276483), (2.681, 579.4997727648299), (2.681, 579.6197727648299), (2.681, 579.3797727648299), (8.7999999999942, 579.2593987824646), (8.7999999999942, 579.1293987824646), (0.300000000018664, 579.64), (0.300000000018664, 579.46), (2.681, 579.4997727648299), (2.681, 579.3797727648299), (2.681, 579.3797727648299), (2.681, 579.3797727648299), (8.7999999999942, 579.1293987824646), (8.7999999999942, 579.1293987824646)]</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>[(0.300000000001971, 581.0), (0.300000000001971, 580.81), (2.791, 580.8747411435256), (2.791, 580.6847411435256), (2.791, 580.8747411435256), (2.791, 580.6147411435256), (9.376, 580.5436172696259), (9.376, 580.2436172696259), (0.300000000001971, 580.81), (0.300000000001971, 580.62), (2.791, 580.6847411435256), (2.791, 580.4947411435256), (2.791, 580.6147411435256), (2.791, 580.3547411435256), (9.376, 580.2436172696259), (9.376, 579.9436172696259), (0.300000000001971, 580.62), (0.300000000001971, 580.45), (2.791, 580.4947411435256), (2.791, 580.3647411435256), (2.791, 580.3547411435256), (2.791, 580.3547411435256), (9.376, 579.9436172696259), (9.376, 579.9436172696259)]</t>
+          <t>[(0.300000000001971, 581.0), (0.300000000001971, 580.81), (2.791, 580.8747411435256), (2.791, 580.6847411435256), (2.791, 580.8747411435256), (2.791, 580.6147411435256), (8.79999999999784, 580.5725811802358), (8.79999999999784, 580.3125811802358), (0.300000000001971, 580.81), (0.300000000001971, 580.62), (2.791, 580.6847411435256), (2.791, 580.4947411435256), (2.791, 580.6147411435256), (2.791, 580.3647411435256), (8.79999999999784, 580.3125811802358), (8.79999999999784, 580.1425811802359), (0.300000000001971, 580.62), (0.300000000001971, 580.45), (2.791, 580.4947411435256), (2.791, 580.3647411435256), (2.791, 580.3647411435256), (2.791, 580.3647411435256), (8.79999999999784, 580.1425811802359), (8.79999999999784, 580.1425811802359)]</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>[(0.300000000021095, 582.0), (0.300000000021095, 581.83), (2.886, 581.892228777969), (2.886, 581.722228777969), (2.886, 581.892228777969), (2.886, 581.652228777969), (9.415, 581.6201335310061), (9.415, 581.2901335310061), (0.300000000021095, 581.83), (0.300000000021095, 581.66), (2.886, 581.722228777969), (2.886, 581.5522287779689), (2.886, 581.652228777969), (2.886, 581.412228777969), (9.415, 581.2901335310061), (9.415, 580.9601335310061), (0.300000000021095, 581.66), (0.300000000021095, 581.49), (2.886, 581.5522287779689), (2.886, 581.412228777969), (2.886, 581.412228777969), (2.886, 581.412228777969), (9.415, 580.9601335310061), (9.415, 580.9601335310061)]</t>
+          <t>[(0.300000000021095, 582.0), (0.300000000021095, 581.83), (2.886, 581.892228777969), (2.886, 581.722228777969), (2.886, 581.892228777969), (2.886, 581.732228777969), (8.80000000000315, 581.6457635780089), (8.80000000000315, 581.4857635780089), (0.300000000021095, 581.83), (0.300000000021095, 581.66), (2.886, 581.722228777969), (2.886, 581.5522287779689), (2.886, 581.732228777969), (2.886, 581.5722287779689), (8.80000000000315, 581.4857635780089), (8.80000000000315, 581.3257635780088), (0.300000000021095, 581.66), (0.300000000021095, 581.49), (2.886, 581.5522287779689), (2.886, 581.412228777969), (2.886, 581.5722287779689), (2.886, 581.412228777969), (8.80000000000315, 581.3257635780088), (8.80000000000315, 581.1757635780089)]</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>[(0.300000000101371, 583.0), (0.300000000101371, 582.83), (2.849, 582.9157168579169), (2.849, 582.7457168579169), (2.849, 582.9157168579169), (2.849, 582.6757168579169), (9.417, 582.6985447601436), (9.417, 582.3585447601436), (0.300000000101371, 582.83), (0.300000000101371, 582.66), (2.849, 582.7457168579169), (2.849, 582.5757168579169), (2.849, 582.6757168579169), (2.849, 582.4357168579169), (9.417, 582.3585447601436), (9.417, 582.0185447601436), (0.300000000101371, 582.66), (0.300000000101371, 582.51), (2.849, 582.5757168579169), (2.849, 582.4357168579169), (2.849, 582.4357168579169), (2.849, 582.4357168579169), (9.417, 582.0185447601436), (9.417, 582.0185447601436)]</t>
+          <t>[(0.300000000101371, 583.0), (0.300000000101371, 582.83), (2.849, 582.9157168579169), (2.849, 582.7457168579169), (2.849, 582.9157168579169), (2.849, 582.7457168579169), (8.80000000001556, 582.7189459757835), (8.80000000001556, 582.5489459757836), (0.300000000101371, 582.83), (0.300000000101371, 582.66), (2.849, 582.7457168579169), (2.849, 582.5757168579169), (2.849, 582.7457168579169), (2.849, 582.5757168579169), (8.80000000001556, 582.5489459757836), (8.80000000001556, 582.3789459757835), (0.300000000101371, 582.66), (0.300000000101371, 582.51), (2.849, 582.5757168579169), (2.849, 582.4357168579169), (2.849, 582.5757168579169), (2.849, 582.4357168579169), (8.80000000001556, 582.3789459757835), (8.80000000001556, 582.2289459757835)]</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>[(0.30000000000313, 584.0), (0.30000000000313, 583.82), (2.843, 583.9364250000001), (2.843, 583.7564250000001), (2.843, 583.9364250000001), (2.843, 583.6764250000001), (9.408, 583.7723000000001), (9.408, 583.4123000000001), (0.30000000000313, 583.82), (0.30000000000313, 583.64), (2.843, 583.7564250000001), (2.843, 583.5764250000001), (2.843, 583.6764250000001), (2.843, 583.4164250000001), (9.408, 583.4123000000001), (9.408, 583.0523000000001), (0.30000000000313, 583.64), (0.30000000000313, 583.48), (2.843, 583.5764250000001), (2.843, 583.4264250000001), (2.843, 583.4164250000001), (2.843, 583.4164250000001), (9.408, 583.0523000000001), (9.408, 583.0523000000001)]</t>
+          <t>[(0.30000000000313, 584.0), (0.30000000000313, 583.82), (2.843, 583.9364250000001), (2.843, 583.7564250000001), (2.843, 583.9364250000001), (2.843, 583.7564250000001), (8.79999999999782, 583.7875000000001), (8.79999999999782, 583.6075000000002), (0.30000000000313, 583.82), (0.30000000000313, 583.64), (2.843, 583.7564250000001), (2.843, 583.5764250000001), (2.843, 583.7564250000001), (2.843, 583.5764250000001), (8.79999999999782, 583.6075000000002), (8.79999999999782, 583.4275000000001), (0.30000000000313, 583.64), (0.30000000000313, 583.48), (2.843, 583.5764250000001), (2.843, 583.4264250000001), (2.843, 583.5764250000001), (2.843, 583.4264250000001), (8.79999999999782, 583.4275000000001), (8.79999999999782, 583.2575000000002)]</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>[(0.30000000000313, 585.0), (0.30000000000313, 584.83), (2.894, 584.93515), (2.894, 584.7651500000001), (2.894, 584.93515), (2.894, 584.70515), (9.484, 584.7704000000001), (9.484, 584.4204000000001), (0.30000000000313, 584.83), (0.30000000000313, 584.66), (2.894, 584.7651500000001), (2.894, 584.59515), (2.894, 584.70515), (2.894, 584.47515), (9.484, 584.4204000000001), (9.484, 584.0704000000001), (0.30000000000313, 584.66), (0.30000000000313, 584.49), (2.894, 584.59515), (2.894, 584.47515), (2.894, 584.47515), (2.894, 584.47515), (9.484, 584.0704000000001), (9.484, 584.0704000000001)]</t>
+          <t>[(0.30000000000313, 585.0), (0.30000000000313, 584.83), (2.894, 584.93515), (2.894, 584.7651500000001), (2.894, 584.93515), (2.894, 584.7651500000001), (8.79999999999619, 584.7875000000001), (8.79999999999619, 584.6175000000002), (0.30000000000313, 584.83), (0.30000000000313, 584.66), (2.894, 584.7651500000001), (2.894, 584.59515), (2.894, 584.7651500000001), (2.894, 584.59515), (8.79999999999619, 584.6175000000002), (8.79999999999619, 584.4475000000001), (0.30000000000313, 584.66), (0.30000000000313, 584.49), (2.894, 584.59515), (2.894, 584.47515), (2.894, 584.59515), (2.894, 584.47515), (8.79999999999619, 584.4475000000001), (8.79999999999619, 584.2775000000001)]</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>[(0.300000000001494, 586.0), (0.300000000001494, 585.72), (2.904, 585.9349000000001), (2.904, 585.6549000000001), (2.904, 585.9349000000001), (2.904, 585.7049000000001), (9.624, 585.7669000000001), (9.624, 585.4169), (0.300000000001494, 585.72), (0.300000000001494, 585.45), (2.904, 585.6549000000001), (2.904, 585.4749), (2.904, 585.7049000000001), (2.904, 585.4749), (9.624, 585.4169), (9.624, 585.0669)]</t>
+          <t>[(0.300000000001494, 586.0), (0.300000000001494, 585.72), (2.904, 585.9349000000001), (2.904, 585.6549000000001), (2.904, 585.9349000000001), (2.904, 585.7649000000001), (8.79999999999619, 585.7875000000001), (8.79999999999619, 585.6175000000002), (0.300000000001494, 585.72), (0.300000000001494, 585.45), (2.904, 585.6549000000001), (2.904, 585.4749), (2.904, 585.7649000000001), (2.904, 585.5949), (8.79999999999619, 585.6175000000002), (8.79999999999619, 585.4475000000001)]</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>[(0.300000000004766, 587.0), (0.300000000004766, 586.73), (2.936, 586.9341000000002), (2.936, 586.6641000000002), (2.936, 586.9341000000002), (2.936, 586.7241000000001), (9.828, 586.7618000000001), (9.828, 586.4418000000001), (0.300000000004766, 586.73), (0.300000000004766, 586.46), (2.936, 586.6641000000002), (2.936, 586.5141000000002), (2.936, 586.7241000000001), (2.936, 586.5141000000002), (9.828, 586.4418000000001), (9.828, 586.1218000000001)]</t>
+          <t>[(0.300000000004766, 587.0), (0.300000000004766, 586.73), (2.936, 586.9341000000002), (2.936, 586.6641000000002), (2.936, 586.9341000000002), (2.936, 586.7841000000002), (8.79999999999782, 586.7875000000001), (8.79999999999782, 586.6375000000002), (0.300000000004766, 586.73), (0.300000000004766, 586.46), (2.936, 586.6641000000002), (2.936, 586.5141000000002), (2.936, 586.7841000000002), (2.936, 586.6341000000002), (8.79999999999782, 586.6375000000002), (8.79999999999782, 586.4875000000002)]</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>[(0.30000000000313, 588.0), (0.30000000000313, 587.76), (2.885, 587.935375), (2.885, 587.695375), (2.885, 587.935375), (2.885, 587.7553750000001), (9.993, 587.7576750000001), (9.993, 587.4576750000001), (0.30000000000313, 587.76), (0.30000000000313, 587.52), (2.885, 587.695375), (2.885, 587.575375), (2.885, 587.7553750000001), (2.885, 587.575375), (9.993, 587.4576750000001), (9.993, 587.157675)]</t>
+          <t>[(0.30000000000313, 588.0), (0.30000000000313, 587.76), (2.885, 587.935375), (2.885, 587.695375), (2.885, 587.935375), (2.885, 587.725375), (8.79999999999782, 587.7875000000001), (8.79999999999782, 587.5775000000001), (0.30000000000313, 587.76), (0.30000000000313, 587.52), (2.885, 587.695375), (2.885, 587.575375), (2.885, 587.725375), (2.885, 587.575375), (8.79999999999782, 587.5775000000001), (8.79999999999782, 587.3775000000002)]</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>[(0.299999999997534, 589.0), (0.299999999997534, 588.87), (2.761, 588.9384749999999), (2.761, 588.8084749999999), (2.761, 588.9384749999999), (2.761, 588.778475), (9.966, 588.75835), (9.966, 588.47835), (0.299999999997534, 588.87), (0.299999999997534, 588.57), (2.761, 588.8084749999999), (2.761, 588.6184749999999), (2.761, 588.778475), (2.761, 588.6184749999999), (9.966, 588.47835), (9.966, 588.19835)]</t>
+          <t>[(0.299999999997534, 589.0), (0.299999999997534, 588.87), (2.761, 588.9384749999999), (2.761, 588.8084749999999), (2.761, 588.9384749999999), (2.761, 588.7484749999999), (8.7999999999921, 588.7875000000001), (8.7999999999921, 588.5975000000001), (0.299999999997534, 588.87), (0.299999999997534, 588.57), (2.761, 588.8084749999999), (2.761, 588.6184749999999), (2.761, 588.7484749999999), (2.761, 588.6184749999999), (8.7999999999921, 588.5975000000001), (8.7999999999921, 588.4175000000001)]</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>[(0.300000000007449, 590.0), (0.300000000007449, 589.78), (2.596, 589.9426000000002), (2.596, 589.7226000000002), (2.596, 589.9426000000002), (2.596, 589.7726000000002), (9.752, 589.7637000000002), (9.752, 589.4637000000002), (0.300000000007449, 589.78), (0.300000000007449, 589.56), (2.596, 589.7226000000002), (2.596, 589.6026000000002), (2.596, 589.7726000000002), (2.596, 589.6026000000002), (9.752, 589.4637000000002), (9.752, 589.1637000000002)]</t>
+          <t>[(0.300000000007449, 590.0), (0.300000000007449, 589.78), (2.596, 589.9426000000002), (2.596, 589.7226000000002), (2.596, 589.9426000000002), (2.596, 589.7426000000002), (8.80000000000051, 589.7875000000001), (8.80000000000051, 589.5875000000001), (0.300000000007449, 589.78), (0.300000000007449, 589.56), (2.596, 589.7226000000002), (2.596, 589.6026000000002), (2.596, 589.7426000000002), (2.596, 589.6026000000002), (8.80000000000051, 589.5875000000001), (8.80000000000051, 589.3975000000002)]</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>[(0.299999999995364, 591.0), (0.299999999995364, 590.89), (2.495, 590.9451249999998), (2.495, 590.8351249999998), (2.495, 590.9451249999998), (2.495, 590.7951249999999), (9.682, 590.7654499999999), (9.682, 590.4654499999999), (0.299999999995364, 590.89), (0.299999999995364, 590.61), (2.495, 590.8351249999998), (2.495, 590.6451249999999), (2.495, 590.7951249999999), (2.495, 590.6451249999999), (9.682, 590.4654499999999), (9.682, 590.1654499999999)]</t>
+          <t>[(0.299999999995364, 591.0), (0.299999999995364, 590.88), (2.495, 590.9451249999998), (2.495, 590.8251249999998), (2.495, 590.9451249999998), (2.495, 590.8251249999998), (8.80000000000615, 590.7874999999997), (8.80000000000615, 590.6674999999997), (0.299999999995364, 590.88), (0.299999999995364, 590.61), (2.495, 590.8251249999998), (2.495, 590.6451249999999), (2.495, 590.8251249999998), (2.495, 590.6451249999999), (8.80000000000615, 590.6674999999997), (8.80000000000615, 590.3974999999997)]</t>
         </is>
       </c>
     </row>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>[(0.300000000007062, 592.0), (0.300000000007062, 591.81), (2.43, 591.9467500000002), (2.43, 591.7567500000001), (2.43, 591.9467500000002), (2.43, 591.7967500000002), (9.615, 591.7671250000002), (9.615, 591.4771250000002), (0.300000000007062, 591.81), (0.300000000007062, 591.62), (2.43, 591.7567500000001), (2.43, 591.6467500000002), (2.43, 591.7967500000002), (2.43, 591.6467500000002), (9.615, 591.4771250000002), (9.615, 591.1871250000002)]</t>
+          <t>[(0.300000000007062, 592.0), (0.300000000007062, 591.88), (2.43, 591.9467500000002), (2.43, 591.8267500000002), (2.43, 591.9467500000002), (2.43, 591.8267500000002), (8.79999999999366, 591.7875000000004), (8.79999999999366, 591.6675000000004), (0.300000000007062, 591.88), (0.300000000007062, 591.62), (2.43, 591.8267500000002), (2.43, 591.6467500000002), (2.43, 591.8267500000002), (2.43, 591.6467500000002), (8.79999999999366, 591.6675000000004), (8.79999999999366, 591.4075000000004)]</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>[(0.300000000002864, 593.0), (0.300000000002864, 592.78), (2.355, 592.9486250000001), (2.355, 592.7286250000001), (2.355, 592.9486250000001), (2.355, 592.7786250000001), (9.557, 592.768575), (9.557, 592.4685750000001), (0.300000000002864, 592.78), (0.300000000002864, 592.56), (2.355, 592.7286250000001), (2.355, 592.6086250000001), (2.355, 592.7786250000001), (2.355, 592.6086250000001), (9.557, 592.4685750000001), (9.557, 592.168575)]</t>
+          <t>[(0.300000000002864, 593.0), (0.300000000002864, 592.78), (2.355, 592.9486250000001), (2.355, 592.7286250000001), (2.355, 592.9486250000001), (2.355, 592.7386250000001), (8.79999999999721, 592.7875000000001), (8.79999999999721, 592.5775000000001), (0.300000000002864, 592.78), (0.300000000002864, 592.56), (2.355, 592.7286250000001), (2.355, 592.6086250000001), (2.355, 592.7386250000001), (2.355, 592.6086250000001), (8.79999999999721, 592.5775000000001), (8.79999999999721, 592.3775000000002)]</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>[(0.299999999993936, 594.0), (0.299999999993936, 593.77), (2.396, 593.9475999999999), (2.396, 593.7175999999998), (2.396, 593.9475999999999), (2.396, 593.7475999999998), (9.641, 593.7664749999999), (9.641, 593.4464749999999), (0.299999999993936, 593.77), (0.299999999993936, 593.54), (2.396, 593.7175999999998), (2.396, 593.5575999999999), (2.396, 593.7475999999998), (2.396, 593.5475999999999), (9.641, 593.4464749999999), (9.641, 593.1264749999999)]</t>
+          <t>[(0.299999999993936, 594.0), (0.299999999993936, 593.77), (2.396, 593.9475999999999), (2.396, 593.7175999999998), (2.396, 593.9475999999999), (2.396, 593.7175999999998), (8.80000000000519, 593.7874999999997), (8.80000000000519, 593.5574999999997), (0.299999999993936, 593.77), (0.299999999993936, 593.54), (2.396, 593.7175999999998), (2.396, 593.5575999999999), (2.396, 593.7175999999998), (2.396, 593.5575999999999), (8.80000000000519, 593.5574999999997), (8.80000000000519, 593.3374999999996)]</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>[(0.300000000005365, 595.0), (0.300000000005365, 594.75), (2.439, 594.9465250000002), (2.439, 594.6965250000002), (2.439, 594.9465250000002), (2.439, 594.7465250000001), (9.588, 594.7678000000001), (9.588, 594.4478), (0.300000000005365, 594.75), (0.300000000005365, 594.51), (2.439, 594.6965250000002), (2.439, 594.5365250000002), (2.439, 594.7465250000001), (2.439, 594.5465250000002), (9.588, 594.4478), (9.588, 594.1278000000001)]</t>
+          <t>[(0.300000000005365, 595.0), (0.300000000005365, 594.75), (2.439, 594.9465250000002), (2.439, 594.6965250000002), (2.439, 594.9465250000002), (2.439, 594.7165250000002), (8.80000000000519, 594.7875), (8.80000000000519, 594.5575), (0.300000000005365, 594.75), (0.300000000005365, 594.51), (2.439, 594.6965250000002), (2.439, 594.5365250000002), (2.439, 594.7165250000002), (2.439, 594.5365250000002), (8.80000000000519, 594.5575), (8.80000000000519, 594.3275)]</t>
         </is>
       </c>
     </row>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>[(0.299999999990689, 596.0), (0.299999999990689, 595.89), (2.623, 595.9419249999997), (2.623, 595.8319249999997), (2.623, 595.9419249999997), (2.623, 595.8019249999998), (9.741, 595.7639749999997), (9.741, 595.5139749999997), (0.299999999990689, 595.89), (0.299999999990689, 595.61), (2.623, 595.8319249999997), (2.623, 595.6519249999998), (2.623, 595.8019249999998), (2.623, 595.6619249999998), (9.741, 595.5139749999997), (9.741, 595.2639749999997)]</t>
+          <t>[(0.299999999990689, 596.0), (0.299999999990689, 595.88), (2.623, 595.9419249999997), (2.623, 595.8219249999997), (2.623, 595.9419249999997), (2.623, 595.7819249999998), (8.80000000000519, 595.7874999999997), (8.80000000000519, 595.6274999999997), (0.299999999990689, 595.88), (0.299999999990689, 595.61), (2.623, 595.8219249999997), (2.623, 595.6519249999998), (2.623, 595.7819249999998), (2.623, 595.6519249999998), (8.80000000000519, 595.6274999999997), (8.80000000000519, 595.4774999999997)]</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>[(0.299999999993936, 597.0), (0.299999999993936, 596.8), (2.634, 596.9416499999999), (2.634, 596.7416499999998), (2.634, 596.9416499999999), (2.634, 596.7816499999999), (9.74, 596.7639999999999), (9.74, 596.5039999999999), (0.299999999993936, 596.8), (0.299999999993936, 596.61), (2.634, 596.7416499999998), (2.634, 596.6216499999998), (2.634, 596.7816499999999), (2.634, 596.6216499999998), (9.74, 596.5039999999999), (9.74, 596.2439999999999)]</t>
+          <t>[(0.299999999993936, 597.0), (0.299999999993936, 596.8), (2.634, 596.9416499999999), (2.634, 596.7416499999998), (2.634, 596.9416499999999), (2.634, 596.7716499999999), (8.80000000000519, 596.7874999999997), (8.80000000000519, 596.6174999999997), (0.299999999993936, 596.8), (0.299999999993936, 596.61), (2.634, 596.7416499999998), (2.634, 596.6216499999998), (2.634, 596.7716499999999), (2.634, 596.6216499999998), (8.80000000000519, 596.6174999999997), (8.80000000000519, 596.4574999999996)]</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>[(0.299999999992312, 598.0), (0.299999999992312, 597.76), (2.518, 597.9445499999998), (2.518, 597.7045499999998), (2.518, 597.9445499999998), (2.518, 597.7345499999998), (9.64, 597.7664999999998), (9.64, 597.4664999999999), (0.299999999992312, 597.76), (0.299999999992312, 597.53), (2.518, 597.7045499999998), (2.518, 597.5245499999999), (2.518, 597.7345499999998), (2.518, 597.5245499999999), (9.64, 597.4664999999999), (9.64, 597.1664999999998)]</t>
+          <t>[(0.299999999992312, 598.0), (0.299999999992312, 597.76), (2.518, 597.9445499999998), (2.518, 597.7045499999998), (2.518, 597.9445499999998), (2.518, 597.7945499999998), (8.80000000000356, 597.7874999999997), (8.80000000000356, 597.6374999999997), (0.299999999992312, 597.76), (0.299999999992312, 597.53), (2.518, 597.7045499999998), (2.518, 597.5245499999999), (2.518, 597.7945499999998), (2.518, 597.6445499999999), (8.80000000000356, 597.6374999999997), (8.80000000000356, 597.4874999999997)]</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>[(0.299999999993936, 599.0), (0.299999999993936, 598.74), (2.447, 598.9463249999999), (2.447, 598.6863249999999), (2.447, 598.9463249999999), (2.447, 598.7263249999999), (9.593, 598.7676749999998), (9.593, 598.4476749999998), (0.299999999993936, 598.74), (0.299999999993936, 598.48), (2.447, 598.6863249999999), (2.447, 598.4963249999998), (2.447, 598.7263249999999), (2.447, 598.5063249999998), (9.593, 598.4476749999998), (9.593, 598.1276749999998)]</t>
+          <t>[(0.299999999993936, 599.0), (0.299999999993936, 598.74), (2.447, 598.9463249999999), (2.447, 598.6863249999999), (2.447, 598.9463249999999), (2.447, 598.7963249999999), (8.80000000000681, 598.7874999999997), (8.80000000000681, 598.6374999999997), (0.299999999993936, 598.74), (0.299999999993936, 598.48), (2.447, 598.6863249999999), (2.447, 598.4963249999998), (2.447, 598.7963249999999), (2.447, 598.6463249999999), (8.80000000000681, 598.6374999999997), (8.80000000000681, 598.4874999999997)]</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>[(0.299999999990689, 600.0), (0.299999999990689, 599.81), (2.519, 599.9445249999998), (2.519, 599.7545249999997), (2.519, 599.9445249999998), (2.519, 599.6845249999998), (9.627, 599.7668249999998), (9.627, 599.4468249999998), (0.299999999990689, 599.81), (0.299999999990689, 599.62), (2.519, 599.7545249999997), (2.519, 599.5645249999998), (2.519, 599.6845249999998), (2.519, 599.4245249999998), (9.627, 599.4468249999998), (9.627, 599.1268249999998), (0.299999999990689, 599.62), (0.299999999990689, 599.45), (2.519, 599.5645249999998), (2.519, 599.4345249999998), (2.519, 599.4245249999998), (2.519, 599.4245249999998), (9.627, 599.1268249999998), (9.627, 599.1268249999998)]</t>
+          <t>[(0.299999999990689, 600.0), (0.299999999990689, 599.81), (2.519, 599.9445249999998), (2.519, 599.7545249999997), (2.519, 599.9445249999998), (2.519, 599.7745249999998), (8.80000000000031, 599.7874999999998), (8.80000000000031, 599.6174999999998), (0.299999999990689, 599.81), (0.299999999990689, 599.62), (2.519, 599.7545249999997), (2.519, 599.5645249999998), (2.519, 599.7745249999998), (2.519, 599.6045249999997), (8.80000000000031, 599.6174999999998), (8.80000000000031, 599.4474999999998), (0.299999999990689, 599.62), (0.299999999990689, 599.45), (2.519, 599.5645249999998), (2.519, 599.4345249999998), (2.519, 599.6045249999997), (2.519, 599.4345249999998), (8.80000000000031, 599.4474999999998), (8.80000000000031, 599.3174999999998)]</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>[(0.299999999993936, 601.0), (0.299999999993936, 600.82), (2.565, 600.9433749999998), (2.565, 600.7633749999999), (2.565, 600.9433749999998), (2.565, 600.7033749999998), (9.698, 600.7650499999999), (9.698, 600.4250499999998), (0.299999999993936, 600.82), (0.299999999993936, 600.64), (2.565, 600.7633749999999), (2.565, 600.5833749999998), (2.565, 600.7033749999998), (2.565, 600.4633749999998), (9.698, 600.4250499999998), (9.698, 600.0850499999999), (0.299999999993936, 600.64), (0.299999999993936, 600.46), (2.565, 600.5833749999998), (2.565, 600.4633749999998), (2.565, 600.4633749999998), (2.565, 600.4633749999998), (9.698, 600.0850499999999), (9.698, 600.0850499999999)]</t>
+          <t>[(0.299999999993936, 601.0), (0.299999999993936, 600.82), (2.565, 600.9433749999998), (2.565, 600.7633749999999), (2.565, 600.9433749999998), (2.565, 600.7733749999999), (8.80000000000519, 600.7874999999997), (8.80000000000519, 600.6174999999997), (0.299999999993936, 600.82), (0.299999999993936, 600.64), (2.565, 600.7633749999999), (2.565, 600.5833749999998), (2.565, 600.7733749999999), (2.565, 600.6033749999998), (8.80000000000519, 600.6174999999997), (8.80000000000519, 600.4474999999996), (0.299999999993936, 600.64), (0.299999999993936, 600.46), (2.565, 600.5833749999998), (2.565, 600.4633749999998), (2.565, 600.6033749999998), (2.565, 600.4633749999998), (8.80000000000519, 600.4474999999996), (8.80000000000519, 600.2974999999997)]</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>[(0.299999999990689, 602.0), (0.299999999990689, 601.82), (2.607, 601.9423249999998), (2.607, 601.7623249999998), (2.607, 601.9423249999998), (2.607, 601.7023249999997), (9.852, 601.7611999999998), (9.852, 601.3811999999998), (0.299999999990689, 601.82), (0.299999999990689, 601.64), (2.607, 601.7623249999998), (2.607, 601.5823249999997), (2.607, 601.7023249999997), (2.607, 601.4623249999997), (9.852, 601.3811999999998), (9.852, 601.0011999999998), (0.299999999990689, 601.64), (0.299999999990689, 601.47), (2.607, 601.5823249999997), (2.607, 601.4523249999997), (2.607, 601.4623249999997), (2.607, 601.4623249999997), (9.852, 601.0011999999998), (9.852, 601.0011999999998)]</t>
+          <t>[(0.299999999990689, 602.0), (0.299999999990689, 601.82), (2.607, 601.9423249999998), (2.607, 601.7623249999998), (2.607, 601.9423249999998), (2.607, 601.6623249999998), (8.80000000000194, 601.7874999999997), (8.80000000000194, 601.5074999999997), (0.299999999990689, 601.82), (0.299999999990689, 601.64), (2.607, 601.7623249999998), (2.607, 601.5823249999997), (2.607, 601.6623249999998), (2.607, 601.4523249999997), (8.80000000000194, 601.5074999999997), (8.80000000000194, 601.2374999999997), (0.299999999990689, 601.64), (0.299999999990689, 601.47), (2.607, 601.5823249999997), (2.607, 601.4523249999997), (2.607, 601.4523249999997), (2.607, 601.4523249999997), (8.80000000000194, 601.2374999999997), (8.80000000000194, 601.2374999999997)]</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>[(0.300000000004595, 603.0), (0.300000000004595, 602.88), (2.704, 602.9399000000001), (2.704, 602.8199000000001), (2.704, 602.9399000000001), (2.704, 602.6999000000001), (9.986, 602.7578500000001), (9.986, 602.3778500000001), (0.300000000004595, 602.88), (0.300000000004595, 602.76), (2.704, 602.8199000000001), (2.704, 602.6999000000001), (2.704, 602.6999000000001), (2.704, 602.4599000000001), (9.986, 602.3778500000001), (9.986, 601.9978500000001), (0.300000000004595, 602.76), (0.300000000004595, 602.64), (2.704, 602.6999000000001), (2.704, 602.5799000000001), (2.704, 602.4599000000001), (2.704, 602.4599000000001), (9.986, 601.9978500000001), (9.986, 601.9978500000001), (0.300000000004595, 602.64), (0.300000000004595, 602.53), (2.704, 602.5799000000001), (2.704, 602.4699), (2.704, 602.4599000000001), (2.704, 602.4599000000001), (9.986, 601.9978500000001), (9.986, 601.9978500000001)]</t>
+          <t>[(0.300000000004595, 603.0), (0.300000000004595, 602.84), (2.704, 602.9399000000001), (2.704, 602.7799000000001), (2.704, 602.9399000000001), (2.704, 602.6699000000001), (8.8000000000067, 602.7874999999999), (8.8000000000067, 602.5174999999999), (0.300000000004595, 602.84), (0.300000000004595, 602.68), (2.704, 602.7799000000001), (2.704, 602.6199), (2.704, 602.6699000000001), (2.704, 602.4699), (8.8000000000067, 602.5174999999999), (8.8000000000067, 602.2475), (0.300000000004595, 602.68), (0.300000000004595, 602.53), (2.704, 602.6199), (2.704, 602.4699), (2.704, 602.4699), (2.704, 602.4699), (8.8000000000067, 602.2475), (8.8000000000067, 602.2475)]</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>[(0.300000000001355, 604.0), (0.300000000001355, 603.84), (2.787, 603.9378250000001), (2.787, 603.7778250000001), (2.787, 603.9378250000001), (2.787, 603.7178250000001), (10.065, 603.7558750000001), (10.065, 603.3758750000001), (0.300000000001355, 603.84), (0.300000000001355, 603.68), (2.787, 603.7778250000001), (2.787, 603.617825), (2.787, 603.7178250000001), (2.787, 603.497825), (10.065, 603.3758750000001), (10.065, 602.9958750000001), (0.300000000001355, 603.68), (0.300000000001355, 603.53), (2.787, 603.617825), (2.787, 603.487825), (2.787, 603.497825), (2.787, 603.497825), (10.065, 602.9958750000001), (10.065, 602.9958750000001)]</t>
+          <t>[(0.300000000001355, 604.0), (0.300000000001355, 603.84), (2.787, 603.9378250000001), (2.787, 603.7778250000001), (2.787, 603.9378250000001), (2.787, 603.6678250000001), (8.80000000000149, 603.7875), (8.80000000000149, 603.5175), (0.300000000001355, 603.84), (0.300000000001355, 603.68), (2.787, 603.7778250000001), (2.787, 603.617825), (2.787, 603.6678250000001), (2.787, 603.487825), (8.80000000000149, 603.5175), (8.80000000000149, 603.2475000000001), (0.300000000001355, 603.68), (0.300000000001355, 603.53), (2.787, 603.617825), (2.787, 603.487825), (2.787, 603.487825), (2.787, 603.487825), (8.80000000000149, 603.2475000000001), (8.80000000000149, 603.2475000000001)]</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>[(0.29999999999605, 605.0), (0.29999999999605, 604.83), (2.917, 604.9345749999999), (2.917, 604.7645749999999), (2.917, 604.9345749999999), (2.917, 604.6945749999999), (10.061, 604.7559749999999), (10.061, 604.4159749999999), (0.29999999999605, 604.83), (0.29999999999605, 604.66), (2.917, 604.7645749999999), (2.917, 604.5945749999998), (2.917, 604.6945749999999), (2.917, 604.4545749999999), (10.061, 604.4159749999999), (10.061, 604.075975), (0.29999999999605, 604.66), (0.29999999999605, 604.51), (2.917, 604.5945749999998), (2.917, 604.4545749999999), (2.917, 604.4545749999999), (2.917, 604.4545749999999), (10.061, 604.075975), (10.061, 604.075975)]</t>
+          <t>[(0.29999999999605, 605.0), (0.29999999999605, 604.83), (2.917, 604.9345749999999), (2.917, 604.7645749999999), (2.917, 604.9345749999999), (2.917, 604.7745749999999), (8.79999999998977, 604.7875000000001), (8.79999999998977, 604.6275000000002), (0.29999999999605, 604.83), (0.29999999999605, 604.66), (2.917, 604.7645749999999), (2.917, 604.5945749999998), (2.917, 604.7745749999999), (2.917, 604.6145749999998), (8.79999999998977, 604.6275000000002), (8.79999999998977, 604.4675000000001), (0.29999999999605, 604.66), (0.29999999999605, 604.51), (2.917, 604.5945749999998), (2.917, 604.4545749999999), (2.917, 604.6145749999998), (2.917, 604.4545749999999), (8.79999999998977, 604.4675000000001), (8.79999999998977, 604.3075000000001)]</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>[(0.300000000003633, 606.0), (0.300000000003633, 605.83), (3.068, 605.9308000000001), (3.068, 605.7608000000001), (3.068, 605.9308000000001), (3.068, 605.6908000000001), (10.178, 605.7530500000001), (10.178, 605.4230500000001), (0.300000000003633, 605.83), (0.300000000003633, 605.66), (3.068, 605.7608000000001), (3.068, 605.5908000000001), (3.068, 605.6908000000001), (3.068, 605.4508000000001), (10.178, 605.4230500000001), (10.178, 605.0930500000002), (0.300000000003633, 605.66), (0.300000000003633, 605.49), (3.068, 605.5908000000001), (3.068, 605.4508000000001), (3.068, 605.4508000000001), (3.068, 605.4508000000001), (10.178, 605.0930500000002), (10.178, 605.0930500000002)]</t>
+          <t>[(0.300000000003633, 606.0), (0.300000000003633, 605.83), (3.068, 605.9308000000001), (3.068, 605.7608000000001), (3.068, 605.9308000000001), (3.068, 605.7708000000001), (8.79999999999611, 605.7875000000001), (8.79999999999611, 605.6275000000002), (0.300000000003633, 605.83), (0.300000000003633, 605.66), (3.068, 605.7608000000001), (3.068, 605.5908000000001), (3.068, 605.7708000000001), (3.068, 605.6108), (8.79999999999611, 605.6275000000002), (8.79999999999611, 605.4675000000001), (0.300000000003633, 605.66), (0.300000000003633, 605.49), (3.068, 605.5908000000001), (3.068, 605.4508000000001), (3.068, 605.6108), (3.068, 605.4508000000001), (8.79999999999611, 605.4675000000001), (8.79999999999611, 605.3175000000001)]</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>[(0.30000000000724, 607.0), (0.30000000000724, 606.82), (3.15, 606.9287500000002), (3.15, 606.7487500000002), (3.15, 606.9287500000002), (3.15, 606.6887500000001), (10.293, 606.7501750000001), (10.293, 606.4101750000001), (0.30000000000724, 606.82), (0.30000000000724, 606.64), (3.15, 606.7487500000002), (3.15, 606.5687500000001), (3.15, 606.6887500000001), (3.15, 606.4487500000001), (10.293, 606.4101750000001), (10.293, 606.0701750000002), (0.30000000000724, 606.64), (0.30000000000724, 606.48), (3.15, 606.5687500000001), (3.15, 606.4387500000001), (3.15, 606.4487500000001), (3.15, 606.4487500000001), (10.293, 606.0701750000002), (10.293, 606.0701750000002)]</t>
+          <t>[(0.30000000000724, 607.0), (0.30000000000724, 606.82), (3.15, 606.9287500000002), (3.15, 606.7487500000002), (3.15, 606.9287500000002), (3.15, 606.7587500000002), (8.80000000000842, 606.7875), (8.80000000000842, 606.6175000000001), (0.30000000000724, 606.82), (0.30000000000724, 606.64), (3.15, 606.7487500000002), (3.15, 606.5687500000001), (3.15, 606.7587500000002), (3.15, 606.5887500000001), (8.80000000000842, 606.6175000000001), (8.80000000000842, 606.4475), (0.30000000000724, 606.64), (0.30000000000724, 606.48), (3.15, 606.5687500000001), (3.15, 606.4387500000001), (3.15, 606.5887500000001), (3.15, 606.4387500000001), (8.80000000000842, 606.4475), (8.80000000000842, 606.2875)]</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>[(0.300000000005202, 608.0), (0.300000000005202, 607.82), (3.188, 607.9278000000002), (3.188, 607.7478000000002), (3.188, 607.9278000000002), (3.188, 607.6878000000002), (10.333, 607.7491750000002), (10.333, 607.4291750000001), (0.300000000005202, 607.82), (0.300000000005202, 607.64), (3.188, 607.7478000000002), (3.188, 607.5678000000001), (3.188, 607.6878000000002), (3.188, 607.4478000000001), (10.333, 607.4291750000001), (10.333, 607.1091750000002), (0.300000000005202, 607.64), (0.300000000005202, 607.47), (3.188, 607.5678000000001), (3.188, 607.4478000000001), (3.188, 607.4478000000001), (3.188, 607.4478000000001), (10.333, 607.1091750000002), (10.333, 607.1091750000002)]</t>
+          <t>[(0.300000000005202, 608.0), (0.300000000005202, 607.82), (3.188, 607.9278000000002), (3.188, 607.7478000000002), (3.188, 607.9278000000002), (3.188, 607.7678000000002), (8.79999999999286, 607.7875000000004), (8.79999999999286, 607.6275000000004), (0.300000000005202, 607.82), (0.300000000005202, 607.64), (3.188, 607.7478000000002), (3.188, 607.5678000000001), (3.188, 607.7678000000002), (3.188, 607.6078000000001), (8.79999999999286, 607.6275000000004), (8.79999999999286, 607.4675000000003), (0.300000000005202, 607.64), (0.300000000005202, 607.47), (3.188, 607.5678000000001), (3.188, 607.4478000000001), (3.188, 607.6078000000001), (3.188, 607.4478000000001), (8.79999999999286, 607.4675000000003), (8.79999999999286, 607.3275000000003)]</t>
         </is>
       </c>
     </row>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>[(0.299999999996078, 609.0), (0.299999999996078, 608.83), (3.187, 608.9278249999999), (3.187, 608.7578249999999), (3.187, 608.9278249999999), (3.187, 608.7078249999998), (10.277, 608.7505749999999), (10.277, 608.4305749999999), (0.299999999996078, 608.83), (0.299999999996078, 608.66), (3.187, 608.7578249999999), (3.187, 608.5878249999998), (3.187, 608.7078249999998), (3.187, 608.4878249999998), (10.277, 608.4305749999999), (10.277, 608.1105749999999), (0.299999999996078, 608.66), (0.299999999996078, 608.51), (3.187, 608.5878249999998), (3.187, 608.4778249999998), (3.187, 608.4878249999998), (3.187, 608.4878249999998), (10.277, 608.1105749999999), (10.277, 608.1105749999999)]</t>
+          <t>[(0.299999999996078, 609.0), (0.299999999996078, 608.75), (3.187, 608.9278249999999), (3.187, 608.6778249999999), (3.187, 608.9278249999999), (3.187, 608.7778249999999), (8.79999999999092, 608.7875000000001), (8.79999999999092, 608.6375000000002), (0.299999999996078, 608.75), (0.299999999996078, 608.51), (3.187, 608.6778249999999), (3.187, 608.4778249999998), (3.187, 608.7778249999999), (3.187, 608.6278249999999), (8.79999999999092, 608.6375000000002), (8.79999999999092, 608.4875000000002)]</t>
         </is>
       </c>
     </row>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>[(0.29999999999936, 610.0), (0.29999999999936, 609.84), (3.104, 609.9299), (3.104, 609.7699), (3.104, 609.9299), (3.104, 609.6899), (10.237, 609.751575), (10.237, 609.451575), (0.29999999999936, 609.84), (0.29999999999936, 609.68), (3.104, 609.7699), (3.104, 609.6098999999999), (3.104, 609.6899), (3.104, 609.4499), (10.237, 609.451575), (10.237, 609.151575), (0.29999999999936, 609.68), (0.29999999999936, 609.52), (3.104, 609.6098999999999), (3.104, 609.4599), (3.104, 609.4499), (3.104, 609.4499), (10.237, 609.151575), (10.237, 609.151575)]</t>
+          <t>[(0.29999999999936, 610.0), (0.29999999999936, 609.84), (3.104, 609.9299), (3.104, 609.7699), (3.104, 609.9299), (3.104, 609.6899), (8.79999999999584, 609.7875000000001), (8.79999999999584, 609.5475000000001), (0.29999999999936, 609.84), (0.29999999999936, 609.68), (3.104, 609.7699), (3.104, 609.6098999999999), (3.104, 609.6899), (3.104, 609.4599), (8.79999999999584, 609.5475000000001), (8.79999999999584, 609.3575000000002), (0.29999999999936, 609.68), (0.29999999999936, 609.52), (3.104, 609.6098999999999), (3.104, 609.4599), (3.104, 609.4599), (3.104, 609.4599), (8.79999999999584, 609.3575000000002), (8.79999999999584, 609.3575000000002)]</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>[(0.299999999996078, 611.0), (0.299999999996078, 610.78), (3.107, 610.9298249999999), (3.107, 610.7098249999999), (3.107, 610.9298249999999), (3.107, 610.749825), (10.221, 610.7519749999999), (10.221, 610.4719749999999), (0.299999999996078, 610.78), (0.299999999996078, 610.56), (3.107, 610.7098249999999), (3.107, 610.5698249999999), (3.107, 610.749825), (3.107, 610.5698249999999), (10.221, 610.4719749999999), (10.221, 610.191975)]</t>
+          <t>[(0.299999999996078, 611.0), (0.299999999996078, 610.78), (3.107, 610.9298249999999), (3.107, 610.7098249999999), (3.107, 610.9298249999999), (3.107, 610.7398249999999), (8.7999999999942, 610.7875), (8.7999999999942, 610.5975), (0.299999999996078, 610.78), (0.299999999996078, 610.56), (3.107, 610.7098249999999), (3.107, 610.5698249999999), (3.107, 610.7398249999999), (3.107, 610.5698249999999), (8.7999999999942, 610.5975), (8.7999999999942, 610.4075)]</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>[(0.300000000001001, 612.0), (0.300000000001001, 611.85), (3.11, 611.92975), (3.11, 611.77975), (3.11, 611.92975), (3.11, 611.78975), (10.223, 611.751925), (10.223, 611.491925), (0.300000000001001, 611.85), (0.300000000001001, 611.55), (3.11, 611.77975), (3.11, 611.63975), (3.11, 611.78975), (3.11, 611.64975), (10.223, 611.491925), (10.223, 611.231925)]</t>
+          <t>[(0.300000000001001, 612.0), (0.300000000001001, 611.85), (3.11, 611.92975), (3.11, 611.77975), (3.11, 611.92975), (3.11, 611.76975), (8.79999999999748, 611.7875000000001), (8.79999999999748, 611.6275000000002), (0.300000000001001, 611.85), (0.300000000001001, 611.55), (3.11, 611.77975), (3.11, 611.63975), (3.11, 611.76975), (3.11, 611.63975), (8.79999999999748, 611.6275000000002), (8.79999999999748, 611.4775000000002)]</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>[(0.299999999997719, 613.0), (0.299999999997719, 612.89), (3.053, 612.9311749999999), (3.053, 612.8211749999999), (3.053, 612.9311749999999), (3.053, 612.791175), (10.2, 612.7524999999999), (10.2, 612.5024999999999), (0.299999999997719, 612.89), (0.299999999997719, 612.59), (3.053, 612.8211749999999), (3.053, 612.651175), (3.053, 612.791175), (3.053, 612.651175), (10.2, 612.5024999999999), (10.2, 612.2524999999999)]</t>
+          <t>[(0.299999999997719, 613.0), (0.299999999997719, 612.88), (3.053, 612.9311749999999), (3.053, 612.8111749999999), (3.053, 612.9311749999999), (3.053, 612.781175), (8.79999999999584, 612.7875), (8.79999999999584, 612.6375), (0.299999999997719, 612.88), (0.299999999997719, 612.59), (3.053, 612.8111749999999), (3.053, 612.651175), (3.053, 612.781175), (3.053, 612.651175), (8.79999999999584, 612.6375), (8.79999999999584, 612.4875000000001)]</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>[(0.300000000001001, 614.0), (0.300000000001001, 613.89), (3.035, 613.931625), (3.035, 613.821625), (3.035, 613.931625), (3.035, 613.8016250000001), (10.152, 613.7537), (10.152, 613.6237), (0.300000000001001, 613.89), (0.300000000001001, 613.61), (3.035, 613.821625), (3.035, 613.681625), (3.035, 613.8016250000001), (3.035, 613.681625), (10.152, 613.6237), (10.152, 613.3237)]</t>
+          <t>[(0.300000000001001, 614.0), (0.300000000001001, 613.88), (3.035, 613.931625), (3.035, 613.811625), (3.035, 613.931625), (3.035, 613.8016250000001), (8.79999999999584, 613.7875000000001), (8.79999999999584, 613.6575000000001), (0.300000000001001, 613.88), (0.300000000001001, 613.61), (3.035, 613.811625), (3.035, 613.681625), (3.035, 613.8016250000001), (3.035, 613.681625), (8.79999999999584, 613.6575000000001), (8.79999999999584, 613.5375000000001)]</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>[(0.299999999996078, 615.0), (0.299999999996078, 614.89), (2.954, 614.9778924708714), (2.954, 614.8678924708714), (2.954, 614.9778924708714), (2.954, 614.8578924708714), (10.073, 614.9185919810953), (10.073, 614.6585919810954), (0.299999999996078, 614.89), (0.299999999996078, 614.65), (2.954, 614.8678924708714), (2.954, 614.7278924708714), (2.954, 614.8578924708714), (2.954, 614.7378924708714), (10.073, 614.6585919810954), (10.073, 614.3985919810954)]</t>
+          <t>[(0.299999999996078, 615.0), (0.299999999996078, 614.88), (2.954, 614.9778924708714), (2.954, 614.8578924708714), (2.954, 614.9778924708714), (2.954, 614.8578924708714), (8.7999999999942, 614.9291959315779), (8.7999999999942, 614.8091959315778), (0.299999999996078, 614.88), (0.299999999996078, 614.65), (2.954, 614.8578924708714), (2.954, 614.7278924708714), (2.954, 614.8578924708714), (2.954, 614.7278924708714), (8.7999999999942, 614.8091959315778), (8.7999999999942, 614.6091959315778)]</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>[(0.300000000001001, 616.0), (0.300000000001001, 615.85), (2.865, 616.0427588311173), (2.865, 615.8927588311174), (2.865, 616.0427588311173), (2.865, 615.9027588311174), (10.083, 616.1630836821913), (10.083, 615.7830836821913), (0.300000000001001, 615.85), (0.300000000001001, 615.72), (2.865, 615.8927588311174), (2.865, 615.7627588311174), (2.865, 615.9027588311174), (2.865, 615.7627588311174), (10.083, 615.7830836821913), (10.083, 615.4030836821913)]</t>
+          <t>[(0.300000000001001, 616.0), (0.300000000001001, 615.85), (2.865, 616.0427588311173), (2.865, 615.8927588311174), (2.865, 616.0427588311173), (2.865, 615.9027588311174), (8.79999999999748, 616.1416959315778), (8.79999999999748, 615.8816959315778), (0.300000000001001, 615.85), (0.300000000001001, 615.72), (2.865, 615.8927588311174), (2.865, 615.7627588311174), (2.865, 615.9027588311174), (2.865, 615.7627588311174), (8.79999999999748, 615.8816959315778), (8.79999999999748, 615.6216959315778)]</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>[(0.300000000034722, 617.0), (0.300000000034722, 616.84), (2.993, 617.0709813794658), (2.993, 616.9109813794659), (2.993, 617.0709813794658), (2.993, 616.9109813794659), (10.141, 617.2593864668879), (10.141, 616.829386466888), (0.300000000034722, 616.84), (0.300000000034722, 616.69), (2.993, 616.9109813794659), (2.993, 616.7609813794659), (2.993, 616.9109813794659), (2.993, 616.7509813794658), (10.141, 616.829386466888), (10.141, 616.3993864668879)]</t>
+          <t>[(0.300000000034722, 617.0), (0.300000000034722, 616.84), (2.993, 617.0709813794658), (2.993, 616.9109813794659), (2.993, 617.0709813794658), (2.993, 616.9109813794659), (8.7999999999962, 617.2240407446951), (8.7999999999962, 616.9240407446952), (0.300000000034722, 616.84), (0.300000000034722, 616.69), (2.993, 616.9109813794659), (2.993, 616.7609813794659), (2.993, 616.9109813794659), (2.993, 616.7509813794658), (8.7999999999962, 616.9240407446952), (8.7999999999962, 616.6240407446951)]</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>[(0.299999999996476, 618.0), (0.299999999996476, 617.85), (3.171, 618.0815189329782), (3.171, 617.9315189329782), (3.171, 618.0815189329782), (3.171, 617.9415189329782), (10.282, 618.2834280700058), (10.282, 617.8834280700058), (0.299999999996476, 617.85), (0.299999999996476, 617.72), (3.171, 617.9315189329782), (3.171, 617.8015189329782), (3.171, 617.9415189329782), (3.171, 617.8015189329782), (10.282, 617.8834280700058), (10.282, 617.4834280700059)]</t>
+          <t>[(0.299999999996476, 618.0), (0.299999999996476, 617.85), (3.171, 618.0815189329782), (3.171, 617.9315189329782), (3.171, 618.0815189329782), (3.171, 617.9415189329782), (8.8000000000012, 618.2413482864206), (8.8000000000012, 617.9713482864206), (0.299999999996476, 617.85), (0.299999999996476, 617.72), (3.171, 617.9315189329782), (3.171, 617.8015189329782), (3.171, 617.9415189329782), (3.171, 617.8015189329782), (8.8000000000012, 617.9713482864206), (8.8000000000012, 617.7013482864206)]</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>[(0.300000000023394, 619.0), (0.300000000023394, 618.85), (3.328, 619.0921423350137), (3.328, 618.9421423350137), (3.328, 619.0921423350137), (3.328, 618.9521423350137), (10.401, 619.3073744141275), (10.401, 618.9273744141275), (0.300000000023394, 618.85), (0.300000000023394, 618.72), (3.328, 618.9421423350137), (3.328, 618.8021423350137), (3.328, 618.9521423350137), (3.328, 618.8121423350137), (10.401, 618.9273744141275), (10.401, 618.5473744141275)]</t>
+          <t>[(0.300000000023394, 619.0), (0.300000000023394, 618.85), (3.328, 619.0921423350137), (3.328, 618.9421423350137), (3.328, 619.0921423350137), (3.328, 618.9521423350137), (8.80000000001178, 619.2586558281444), (8.80000000001178, 618.9986558281444), (0.300000000023394, 618.85), (0.300000000023394, 618.72), (3.328, 618.9421423350137), (3.328, 618.8021423350137), (3.328, 618.9521423350137), (3.328, 618.8121423350137), (8.80000000001178, 618.9986558281444), (8.80000000001178, 618.7386558281444)]</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>[(0.300000000106921, 620.0), (0.300000000106921, 619.83), (3.327, 620.0982754259487), (3.327, 619.9282754259488), (3.327, 620.0982754259487), (3.327, 619.9382754259487), (10.545, 620.3326170263856), (10.545, 619.9726170263856), (0.300000000106921, 619.83), (0.300000000106921, 619.72), (3.327, 619.9282754259488), (3.327, 619.7682754259487), (3.327, 619.9382754259487), (3.327, 619.7782754259487), (10.545, 619.9726170263856), (10.545, 619.6126170263856)]</t>
+          <t>[(0.300000000106921, 620.0), (0.300000000106921, 619.88), (3.327, 620.0982754259487), (3.327, 619.9782754259487), (3.327, 620.0982754259487), (3.327, 619.9182754259488), (8.80000000000856, 620.2759633698657), (8.80000000000856, 620.0959633698658), (0.300000000106921, 619.88), (0.300000000106921, 619.72), (3.327, 619.9782754259487), (3.327, 619.7682754259487), (3.327, 619.9182754259488), (3.327, 619.7682754259487), (8.80000000000856, 620.0959633698658), (8.80000000000856, 619.7959633698657)]</t>
         </is>
       </c>
     </row>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>[(0.300000000017272, 621.0), (0.300000000017272, 620.86), (3.256, 621.1019892723134), (3.256, 620.9619892723134), (3.256, 621.1019892723134), (3.256, 620.9619892723134), (10.519, 621.3525806406548), (10.519, 621.0525806406548), (0.300000000017272, 620.86), (0.300000000017272, 620.74), (3.256, 620.9619892723134), (3.256, 620.8319892723134), (3.256, 620.9619892723134), (3.256, 620.8219892723134), (10.519, 621.0525806406548), (10.519, 620.7525806406547)]</t>
+          <t>[(0.300000000017272, 621.0), (0.300000000017272, 620.86), (3.256, 621.1019892723134), (3.256, 620.9619892723134), (3.256, 621.1019892723134), (3.256, 620.9819892723134), (8.79999999999791, 621.2932709115925), (8.79999999999791, 621.1732709115925), (0.300000000017272, 620.86), (0.300000000017272, 620.74), (3.256, 620.9619892723134), (3.256, 620.8319892723134), (3.256, 620.9819892723134), (3.256, 620.8319892723134), (8.79999999999791, 621.1732709115925), (8.79999999999791, 620.9132709115925)]</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>[(0.29999999999711, 622.0), (0.29999999999711, 621.84), (3.134, 622.0991900000001), (3.134, 621.9391900000002), (3.134, 622.0991900000001), (3.134, 621.9491900000002), (10.307, 622.3502450000001), (10.307, 622.0602450000001), (0.29999999999711, 621.84), (0.29999999999711, 621.68), (3.134, 621.9391900000002), (3.134, 621.7991900000002), (3.134, 621.9491900000002), (3.134, 621.7991900000002), (10.307, 622.0602450000001), (10.307, 621.770245)]</t>
+          <t>[(0.29999999999711, 622.0), (0.29999999999711, 621.84), (3.134, 622.0991900000001), (3.134, 621.9391900000002), (3.134, 622.0991900000001), (3.134, 621.9791900000001), (8.80000000000422, 622.2975000000002), (8.80000000000422, 622.1775000000002), (0.29999999999711, 621.84), (0.29999999999711, 621.68), (3.134, 621.9391900000002), (3.134, 621.7991900000002), (3.134, 621.9791900000001), (3.134, 621.7991900000002), (8.80000000000422, 622.1775000000002), (8.80000000000422, 621.9275000000002)]</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>[(0.300000000002101, 623.0), (0.300000000002101, 622.82), (2.967, 623.0933449999999), (2.967, 622.9133449999999), (2.967, 623.0933449999999), (2.967, 622.9133449999999), (10.126, 623.3439099999999), (10.126, 623.0239099999999), (0.300000000002101, 622.82), (0.300000000002101, 622.67), (2.967, 622.9133449999999), (2.967, 622.7333449999999), (2.967, 622.9133449999999), (2.967, 622.7333449999999), (10.126, 623.0239099999999), (10.126, 622.70391)]</t>
+          <t>[(0.300000000002101, 623.0), (0.300000000002101, 622.82), (2.967, 623.0933449999999), (2.967, 622.9133449999999), (2.967, 623.0933449999999), (2.967, 622.8833449999998), (8.79999999999601, 623.2974999999998), (8.79999999999601, 623.0874999999997), (0.300000000002101, 622.82), (0.300000000002101, 622.67), (2.967, 622.9133449999999), (2.967, 622.7333449999999), (2.967, 622.8833449999998), (2.967, 622.7333449999999), (8.79999999999601, 623.0874999999997), (8.79999999999601, 622.8774999999998)]</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>[(0.299999999995529, 624.0), (0.299999999995529, 623.81), (2.848, 624.0891800000002), (2.848, 623.8991800000001), (2.848, 624.0891800000002), (2.848, 623.8991800000001), (9.971, 624.3384850000001), (9.971, 623.9984850000001), (0.299999999995529, 623.81), (0.299999999995529, 623.65), (2.848, 623.8991800000001), (2.848, 623.7091800000002), (2.848, 623.8991800000001), (2.848, 623.7091800000002), (9.971, 623.9984850000001), (9.971, 623.6584850000002)]</t>
+          <t>[(0.299999999995529, 624.0), (0.299999999995529, 623.81), (2.848, 624.0891800000002), (2.848, 623.8991800000001), (2.848, 624.0891800000002), (2.848, 623.8491800000002), (8.80000000000173, 624.2975000000002), (8.80000000000173, 624.0575000000002), (0.299999999995529, 623.81), (0.299999999995529, 623.65), (2.848, 623.8991800000001), (2.848, 623.7091800000002), (2.848, 623.8491800000002), (2.848, 623.7091800000002), (8.80000000000173, 624.0575000000002), (8.80000000000173, 623.8275000000002)]</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>[(0.299999999997985, 625.0), (0.299999999997985, 624.86), (2.69, 625.08365), (2.69, 624.94365), (2.69, 625.08365), (2.69, 624.88365), (9.832, 625.3336200000001), (9.832, 624.9836200000001), (0.299999999997985, 624.86), (0.299999999997985, 624.72), (2.69, 624.94365), (2.69, 624.8036500000001), (2.69, 624.88365), (2.69, 624.6836500000001), (9.832, 624.9836200000001), (9.832, 624.6336200000001), (0.299999999997985, 624.72), (0.299999999997985, 624.61), (2.69, 624.8036500000001), (2.69, 624.6736500000001), (2.69, 624.6836500000001), (2.69, 624.6836500000001), (9.832, 624.6336200000001), (9.832, 624.6336200000001)]</t>
+          <t>[(0.299999999997985, 625.0), (0.299999999997985, 624.79), (2.69, 625.08365), (2.69, 624.87365), (2.69, 625.08365), (2.69, 624.83365), (8.80000000000162, 625.2975000000001), (8.80000000000162, 625.0475000000001), (0.299999999997985, 624.79), (0.299999999997985, 624.61), (2.69, 624.87365), (2.69, 624.6736500000001), (2.69, 624.83365), (2.69, 624.6736500000001), (8.80000000000162, 625.0475000000001), (8.80000000000162, 624.8075000000001)]</t>
         </is>
       </c>
     </row>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>[(0.300000000009295, 626.0), (0.300000000009295, 625.85), (2.411, 626.0738849999997), (2.411, 625.9238849999997), (2.411, 626.0738849999997), (2.411, 625.8538849999997), (9.637, 626.3267949999997), (9.637, 625.9667949999997), (0.300000000009295, 625.85), (0.300000000009295, 625.7), (2.411, 625.9238849999997), (2.411, 625.7738849999997), (2.411, 625.8538849999997), (2.411, 625.6338849999996), (9.637, 625.9667949999997), (9.637, 625.6067949999997), (0.300000000009295, 625.7), (0.300000000009295, 625.57), (2.411, 625.7738849999997), (2.411, 625.6338849999996), (2.411, 625.6338849999996), (2.411, 625.6338849999996), (9.637, 625.6067949999997), (9.637, 625.6067949999997)]</t>
+          <t>[(0.300000000009295, 626.0), (0.300000000009295, 625.85), (2.411, 626.0738849999997), (2.411, 625.9238849999997), (2.411, 626.0738849999997), (2.411, 625.8038849999997), (8.79999999999705, 626.2974999999996), (8.79999999999705, 626.0274999999996), (0.300000000009295, 625.85), (0.300000000009295, 625.7), (2.411, 625.9238849999997), (2.411, 625.7738849999997), (2.411, 625.8038849999997), (2.411, 625.6338849999996), (8.79999999999705, 626.0274999999996), (8.79999999999705, 625.7674999999996), (0.300000000009295, 625.7), (0.300000000009295, 625.57), (2.411, 625.7738849999997), (2.411, 625.6338849999996), (2.411, 625.6338849999996), (2.411, 625.6338849999996), (8.79999999999705, 625.7674999999996), (8.79999999999705, 625.7674999999996)]</t>
         </is>
       </c>
     </row>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>[(0.299999999994226, 627.0), (0.299999999994226, 626.78), (9.446, 627.3201100000002), (9.446, 626.9601100000002), (0.299999999994226, 626.78), (0.299999999994226, 626.56), (9.446, 626.9601100000002), (9.446, 626.6001100000002)]</t>
+          <t>[(0.299999999994226, 627.0), (0.299999999994226, 626.73), (8.79999999999339, 627.2975), (8.79999999999339, 627.0275), (0.299999999994226, 626.73), (0.299999999994226, 626.56), (8.79999999999339, 627.0275), (8.79999999999339, 626.7675)]</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>[(0.300000000007299, 628.0), (0.300000000007299, 627.78), (9.225, 628.3123749999997), (9.225, 627.9323749999998), (0.300000000007299, 627.78), (0.300000000007299, 627.56), (9.225, 627.9323749999998), (9.225, 627.5523749999998)]</t>
+          <t>[(0.300000000007299, 628.0), (0.300000000007299, 627.72), (8.80000000000031, 628.2974999999998), (8.80000000000031, 628.0174999999998), (0.300000000007299, 627.72), (0.300000000007299, 627.57), (8.80000000000031, 628.0174999999998), (8.80000000000031, 627.7474999999998)]</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>[(0.3000000000023, 629.0), (0.3000000000023, 628.79), (9.019, 629.3051649999999), (9.019, 628.9351649999999), (0.3000000000023, 628.79), (0.3000000000023, 628.58), (9.019, 628.9351649999999), (9.019, 628.5651649999999)]</t>
+          <t>[(0.3000000000023, 629.0), (0.3000000000023, 628.73), (8.80000000000208, 629.2975), (8.80000000000208, 629.0275), (0.3000000000023, 628.73), (0.3000000000023, 628.58), (8.80000000000208, 629.0275), (8.80000000000208, 628.7575)]</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>[(0.300000000004425, 631.0), (0.300000000004425, 630.73), (8.501, 631.2870349999998), (8.501, 631.0170349999999), (0.300000000004425, 630.73), (0.300000000004425, 630.62), (8.501, 631.0170349999999), (8.501, 630.7570349999999)]</t>
+          <t>[(0.300000000004425, 631.0), (0.300000000004425, 630.77), (8.501, 631.2870349999998), (8.501, 631.0570349999998), (0.300000000004425, 630.77), (0.300000000004425, 630.62), (8.501, 631.0570349999998), (8.501, 630.7570349999999)]</t>
         </is>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>[(0.299999999998719, 632.0), (0.299999999998719, 631.78), (8.27, 632.27895), (8.27, 632.05895), (0.299999999998719, 631.78), (0.299999999998719, 631.67), (8.27, 632.05895), (8.27, 631.8489500000001)]</t>
+          <t>[(0.299999999998719, 632.0), (0.299999999998719, 631.87), (8.27, 632.27895), (8.27, 632.14895), (0.299999999998719, 631.87), (0.299999999998719, 631.67), (8.27, 632.14895), (8.27, 631.8489500000001)]</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>[(0.299999999998398, 633.0), (0.299999999998398, 632.89), (7.948, 633.26768), (7.948, 633.15768), (0.299999999998398, 632.89), (0.299999999998398, 632.71), (7.948, 633.15768), (7.948, 632.88768)]</t>
+          <t>[(0.299999999998398, 633.0), (0.299999999998398, 632.88), (7.948, 633.26768), (7.948, 633.14768), (0.299999999998398, 632.88), (0.299999999998398, 632.71), (7.948, 633.14768), (7.948, 632.88768)]</t>
         </is>
       </c>
     </row>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>[(0.29999999999636, 634.0), (0.29999999999636, 633.88), (7.674, 634.2580900000002), (7.674, 633.9780900000002), (0.29999999999636, 633.88), (0.29999999999636, 633.76), (7.674, 633.9780900000002), (7.674, 633.6980900000002)]</t>
+          <t>[(0.29999999999636, 634.0), (0.29999999999636, 633.88), (7.47713272451368, 634.2511996453582), (7.47713272451368, 634.1311996453582), (0.29999999999636, 633.88), (0.29999999999636, 633.75), (7.47713272451368, 634.1311996453582), (7.47713272451368, 633.8811996453582)]</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>[(0.299999999989947, 635.0), (0.299999999989947, 634.88), (7.402, 635.2485700000003), (7.402, 634.9685700000003), (0.299999999989947, 634.88), (0.299999999989947, 634.76), (7.402, 634.9685700000003), (7.402, 634.6885700000004)]</t>
+          <t>[(0.299999999989947, 635.0), (0.299999999989947, 634.88), (6.97179473231286, 635.2335128156313), (6.97179473231286, 635.1135128156313), (0.299999999989947, 634.88), (0.299999999989947, 634.75), (6.97179473231286, 635.1135128156313), (6.97179473231286, 634.8735128156313)]</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>[(0.300000000003818, 636.0), (0.300000000003818, 635.88), (7.108, 636.2382799999999), (7.108, 635.93828), (0.300000000003818, 635.88), (0.300000000003818, 635.76), (7.108, 635.93828), (7.108, 635.6382799999999)]</t>
+          <t>[(0.300000000003818, 636.0), (0.300000000003818, 635.88), (6.50111368756669, 636.2170389790647), (6.50111368756669, 636.0970389790647), (0.300000000003818, 635.88), (0.300000000003818, 635.75), (6.50111368756669, 636.0970389790647), (6.50111368756669, 635.8270389790647)]</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>[(0.300000000006734, 637.0), (0.300000000006734, 636.87), (6.407, 637.2137449999998), (6.407, 637.0837449999998), (0.300000000006734, 636.87), (0.300000000006734, 636.75), (6.407, 637.0837449999998), (6.407, 636.7837449999998)]</t>
+          <t>[(0.300000000006734, 637.0), (0.300000000006734, 636.87), (6.06511168276823, 637.2017789088967), (6.06511168276823, 637.0717789088967), (0.300000000006734, 636.87), (0.300000000006734, 636.75), (6.06511168276823, 637.0717789088967), (6.06511168276823, 636.9517789088967)]</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>[(0.299999999993071, 638.0), (0.299999999993071, 637.88), (5.825, 638.1933750000003), (5.825, 638.0733750000003), (0.299999999993071, 637.88), (0.299999999993071, 637.75), (5.825, 638.0733750000003), (5.825, 637.7733750000003)]</t>
+          <t>[(0.299999999993071, 638.0), (0.299999999993071, 637.87), (5.6638091570913, 638.1877333204984), (5.6638091570913, 638.0577333204984), (0.299999999993071, 637.87), (0.299999999993071, 637.75), (5.6638091570913, 638.0577333204984), (5.6638091570913, 637.9377333204984)]</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>[(0.3, 641.6355600000002), (0.3, 641.5055600000002), (4.405, 641.7137192000001), (4.405, 641.5837192000001), (0.3, 641.5055600000002), (0.3, 641.3855600000002), (4.405, 641.5837192000001), (4.405, 641.4637192000001)]</t>
+          <t>[(0.3, 641.6355600000002), (0.3, 641.5055600000002), (4.0, 641.7060080000002), (4.0, 641.5760080000002), (0.3, 641.5055600000002), (0.3, 641.3855600000002), (4.0, 641.5760080000002), (4.0, 641.4560080000002)]</t>
         </is>
       </c>
     </row>

--- a/output/layerCoordinates_right.xlsx
+++ b/output/layerCoordinates_right.xlsx
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[(0.300000000001985, 76.0), (0.300000000001985, 75.86), (6.902, 76.20576809776458), (6.902, 76.06576809776458), (6.902, 76.20576809776458), (6.902, 75.92576809776457), (8.80000000000235, 76.26492408830649), (8.80000000000235, 75.98492408830649), (0.300000000001985, 75.86), (0.300000000001985, 75.71), (6.902, 76.06576809776458), (6.902, 75.76576809776458), (6.902, 75.92576809776457), (6.902, 75.76576809776458), (8.80000000000235, 75.98492408830649), (8.80000000000235, 75.70492408830648)]</t>
+          <t>[(0.300000000001985, 76.0), (0.300000000001985, 75.88), (5.94, 76.17578492447623), (5.94, 76.05578492447623), (5.94, 76.17578492447623), (5.94, 75.91578492447623), (8.80000000000235, 76.26492408830649), (8.80000000000235, 76.00492408830648), (0.300000000001985, 75.88), (0.300000000001985, 75.71), (5.94, 76.05578492447623), (5.94, 75.78578492447623), (5.94, 75.91578492447623), (5.94, 75.78578492447623), (8.80000000000235, 76.00492408830648), (8.80000000000235, 75.70492408830648)]</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[(0.300000000035618, 77.0), (0.300000000035618, 76.88), (7.115, 77.24699290874092), (7.115, 77.12699290874092), (7.115, 77.24699290874092), (7.115, 76.99699290874092), (8.7999999999966, 77.30806158830508), (8.7999999999966, 77.05806158830508), (0.300000000035618, 76.88), (0.300000000035618, 76.74), (7.115, 77.12699290874092), (7.115, 76.83699290874092), (7.115, 76.99699290874092), (7.115, 76.83699290874092), (8.7999999999966, 77.05806158830508), (8.7999999999966, 76.81806158830508)]</t>
+          <t>[(0.300000000035618, 77.0), (0.300000000035618, 76.88), (6.085, 77.20966309274613), (6.085, 77.08966309274612), (6.085, 77.20966309274613), (6.085, 76.95966309274613), (8.7999999999966, 77.30806158830508), (8.7999999999966, 77.05806158830508), (0.300000000035618, 76.88), (0.300000000035618, 76.74), (6.085, 77.08966309274612), (6.085, 76.83966309274612), (6.085, 76.95966309274613), (6.085, 76.83966309274612), (8.7999999999966, 77.05806158830508), (8.7999999999966, 76.81806158830508)]</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[(0.300000000094991, 78.0), (0.300000000094991, 77.88), (7.277, 78.288272475186), (7.277, 78.168272475186), (7.277, 78.288272475186), (7.277, 78.04827247518601), (8.80000000000213, 78.35119908830265), (8.80000000000213, 78.11119908830266), (0.300000000094991, 77.88), (0.300000000094991, 77.75), (7.277, 78.168272475186), (7.277, 77.87827247518601), (7.277, 78.04827247518601), (7.277, 77.87827247518601), (8.80000000000213, 78.11119908830266), (8.80000000000213, 77.88119908830265)]</t>
+          <t>[(0.300000000094991, 78.0), (0.300000000094991, 77.88), (6.357, 78.2502603385693), (6.357, 78.1302603385693), (6.357, 78.2502603385693), (6.357, 78.01026033856931), (8.80000000000213, 78.35119908830265), (8.80000000000213, 78.11119908830266), (0.300000000094991, 77.88), (0.300000000094991, 77.75), (6.357, 78.1302603385693), (6.357, 77.8502603385693), (6.357, 78.01026033856931), (6.357, 77.8502603385693), (8.80000000000213, 78.11119908830266), (8.80000000000213, 77.88119908830265)]</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[(0.300000000159503, 79.0), (0.300000000159503, 78.88), (7.361, 79.32757772352579), (7.361, 79.20757772352579), (7.361, 79.32757772352579), (7.361, 79.1375777235258), (8.80000000000889, 79.3943365882995), (8.80000000000889, 79.2043365882995), (0.300000000159503, 78.88), (0.300000000159503, 78.75), (7.361, 79.20757772352579), (7.361, 78.9975777235258), (7.361, 79.1375777235258), (7.361, 78.9975777235258), (8.80000000000889, 79.2043365882995), (8.80000000000889, 79.02433658829949)]</t>
+          <t>[(0.300000000159503, 79.0), (0.300000000159503, 78.88), (6.477, 79.28656671834192), (6.477, 79.16656671834191), (6.477, 79.28656671834192), (6.477, 79.09656671834192), (8.80000000000889, 79.3943365882995), (8.80000000000889, 79.2043365882995), (0.300000000159503, 78.88), (0.300000000159503, 78.75), (6.477, 79.16656671834191), (6.477, 78.97656671834191), (6.477, 79.09656671834192), (6.477, 78.97656671834191), (8.80000000000889, 79.2043365882995), (8.80000000000889, 79.02433658829949)]</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[(0.300000000058679, 80.0), (0.300000000058679, 79.88), (7.368, 80.36377257130877), (7.368, 80.24377257130877), (7.368, 80.36377257130877), (7.368, 80.17377257130877), (8.79999999999667, 80.43747408830329), (8.79999999999667, 80.24747408830329), (0.300000000058679, 79.88), (0.300000000058679, 79.75), (7.368, 80.24377257130877), (7.368, 80.02377257130877), (7.368, 80.17377257130877), (7.368, 80.02377257130877), (8.79999999999667, 80.24747408830329), (8.79999999999667, 80.0574740883033)]</t>
+          <t>[(0.300000000058679, 80.0), (0.300000000058679, 79.88), (6.474, 80.31776059072689), (6.474, 80.19776059072689), (6.474, 80.31776059072689), (6.474, 80.1277605907269), (8.79999999999667, 80.43747408830329), (8.79999999999667, 80.24747408830329), (0.300000000058679, 79.88), (0.300000000058679, 79.75), (6.474, 80.19776059072689), (6.474, 80.00776059072689), (6.474, 80.1277605907269), (6.474, 80.00776059072689), (8.79999999999667, 80.24747408830329), (8.79999999999667, 80.0574740883033)]</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[(0.30000000000976, 81.0), (0.30000000000976, 80.88), (7.318, 81.3968155443212), (7.318, 81.2768155443212), (7.318, 81.3968155443212), (7.318, 81.2168155443212), (8.79999999999202, 81.48061158830548), (8.79999999999202, 81.30061158830547), (0.30000000000976, 80.88), (0.30000000000976, 80.75), (7.318, 81.2768155443212), (7.318, 81.0768155443212), (7.318, 81.2168155443212), (7.318, 81.0768155443212), (8.79999999999202, 81.30061158830547), (8.79999999999202, 81.12061158830548)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[(0.299999999996575, 82.0), (0.299999999996575, 81.88), (7.162, 82.4117200000002), (7.162, 82.2917200000002), (7.162, 82.4117200000002), (7.162, 82.2117200000002), (8.80000000000147, 82.51000000000029), (8.80000000000147, 82.31000000000029), (0.299999999996575, 81.88), (0.299999999996575, 81.75), (7.162, 82.2917200000002), (7.162, 82.0717200000002), (7.162, 82.2117200000002), (7.162, 82.0717200000002), (8.80000000000147, 82.31000000000029), (8.80000000000147, 82.11000000000028)]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[(0.300000000002671, 83.0), (0.300000000002671, 82.88), (6.907, 83.39641999999984), (6.907, 83.27641999999983), (6.907, 83.39641999999984), (6.907, 83.18641999999984), (8.80000000000704, 83.51000000000026), (8.80000000000704, 83.30000000000027), (0.300000000002671, 82.88), (0.300000000002671, 82.75), (6.907, 83.27641999999983), (6.907, 83.06641999999984), (6.907, 83.18641999999984), (6.907, 83.06641999999984), (8.80000000000704, 83.30000000000027), (8.80000000000704, 83.10000000000026)]</t>
+          <t>[(0.300000000002671, 83.0), (0.300000000002671, 82.88), (5.947, 83.33881999999984), (5.947, 83.21881999999984), (5.947, 83.33881999999984), (5.947, 83.21881999999984), (8.80000000000704, 83.51000000000026), (8.80000000000704, 83.39000000000026), (0.300000000002671, 82.88), (0.300000000002671, 82.75), (5.947, 83.21881999999984), (5.947, 83.02881999999984), (5.947, 83.21881999999984), (5.947, 83.02881999999984), (8.80000000000704, 83.39000000000026), (8.80000000000704, 83.10000000000026)]</t>
         </is>
       </c>
     </row>

--- a/output/layerCoordinates_right.xlsx
+++ b/output/layerCoordinates_right.xlsx
@@ -427,7 +427,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>[(1.99999999999293, 0.0), (1.99999999999293, -0.13), (12.665, -0.2636375309867865), (12.665, -0.3936375309867865), (1.99999999999293, -0.13), (1.99999999999293, -0.25), (12.665, -0.3936375309867865), (12.665, -0.5136375309867864)]</t>
+          <t>[(-26283.35938593761, 66786.9607237198), (-26283.35938593761, 66786.8307237198), (-26272.6943859376, 66786.69708618883), (-26272.6943859376, 66786.56708618882), (-26283.35938593761, 66786.8307237198), (-26283.35938593761, 66786.7107237198), (-26272.6943859376, 66786.56708618882), (-26272.6943859376, 66786.44708618883)]</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[(1.99999999999293, 1.0), (1.99999999999293, 0.87), (12.484, 0.7959973327943677), (12.484, 0.6659973327943677), (1.99999999999293, 0.87), (1.99999999999293, 0.75), (12.484, 0.6659973327943677), (12.484, 0.5459973327943677)]</t>
+          <t>[(-26278.35938593761, 66832.3328180164), (-26278.35938593761, 66832.20281801639), (-26267.8753859376, 66832.12881534919), (-26267.8753859376, 66831.99881534919), (-26278.35938593761, 66832.20281801639), (-26278.35938593761, 66832.0828180164), (-26267.8753859376, 66831.99881534919), (-26267.8753859376, 66831.87881534919)]</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[(1.99999999999412, 2.0), (1.99999999999412, 1.87), (12.61, 1.8198281889920072), (12.61, 1.6898281889920073), (1.99999999999412, 1.87), (1.99999999999412, 1.75), (12.61, 1.6898281889920073), (12.61, 1.5698281889920072)]</t>
+          <t>[(-26218.35938593761, 66793.704912313), (-26218.35938593761, 66793.574912313), (-26207.7493859376, 66793.52474050199), (-26207.7493859376, 66793.39474050199), (-26218.35938593761, 66793.574912313), (-26218.35938593761, 66793.454912313), (-26207.7493859376, 66793.39474050199), (-26207.7493859376, 66793.27474050199)]</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[(1.99999999999293, 3.0), (1.99999999999293, 2.87), (12.582, 2.827125221370891), (12.582, 2.697125221370891), (1.99999999999293, 2.87), (1.99999999999293, 2.75), (12.582, 2.697125221370891), (12.582, 2.577125221370891)]</t>
+          <t>[(-26218.35938593761, 66835.0431078244), (-26218.35938593761, 66834.9131078244), (-26207.777385937603, 66834.87023304577), (-26207.777385937603, 66834.74023304577), (-26218.35938593761, 66834.9131078244), (-26218.35938593761, 66834.7931078244), (-26207.777385937603, 66834.74023304577), (-26207.777385937603, 66834.62023304577)]</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[(1.99999999999412, 4.0), (1.99999999999412, 3.87), (12.09, 3.817961205547916), (12.09, 3.687961205547916), (1.99999999999412, 3.87), (1.99999999999412, 3.75), (12.09, 3.687961205547916), (12.09, 3.567961205547916)]</t>
+          <t>[(-26090.159385937608, 66788.3450018351), (-26090.159385937608, 66788.2150018351), (-26080.0693859376, 66788.16296304065), (-26080.0693859376, 66788.03296304065), (-26090.159385937608, 66788.2150018351), (-26090.159385937608, 66788.0950018351), (-26080.0693859376, 66788.03296304065), (-26080.0693859376, 66787.91296304065)]</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[(1.99999999999293, 5.0), (1.99999999999293, 4.87), (10.09, 4.800038200452377), (10.09, 4.670038200452377), (1.99999999999293, 4.87), (1.99999999999293, 4.75), (10.09, 4.670038200452377), (10.09, 4.550038200452377)]</t>
+          <t>[(-26090.159385937608, 66823.7200607852), (-26090.159385937608, 66823.5900607852), (-26082.0693859376, 66823.52009898565), (-26082.0693859376, 66823.39009898565), (-26090.159385937608, 66823.5900607852), (-26090.159385937608, 66823.4700607852), (-26082.0693859376, 66823.39009898565), (-26082.0693859376, 66823.27009898565)]</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[(2.00000000000788, 6.0), (2.00000000000788, 5.87), (9.535, 5.827799017514064), (9.535, 5.697799017514064), (2.00000000000788, 5.87), (2.00000000000788, 5.75), (9.535, 5.697799017514064), (9.535, 5.577799017514064)]</t>
+          <t>[(-26090.159385937593, 66861.0951197353), (-26090.159385937593, 66860.9651197353), (-26082.6243859376, 66860.92291875281), (-26082.6243859376, 66860.7929187528), (-26090.159385937593, 66860.9651197353), (-26090.159385937593, 66860.8451197353), (-26082.6243859376, 66860.7929187528), (-26082.6243859376, 66860.67291875281)]</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[(1.99999999999293, 7.0), (1.99999999999293, 6.87), (9.488, 6.870602759209097), (9.488, 6.7406027592090965), (1.99999999999293, 6.87), (1.99999999999293, 6.75), (9.488, 6.7406027592090965), (9.488, 6.620602759209097)]</t>
+          <t>[(-26030.159385937608, 66786.4450960486), (-26030.159385937608, 66786.3150960486), (-26022.6713859376, 66786.31569880781), (-26022.6713859376, 66786.1856988078), (-26030.159385937608, 66786.3150960486), (-26030.159385937608, 66786.1950960486), (-26022.6713859376, 66786.1856988078), (-26022.6713859376, 66786.06569880781)]</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[(1.99999999999293, 8.0), (1.99999999999293, 7.87), (13.004, 7.760882009632484), (13.004, 7.630882009632484), (1.99999999999293, 7.87), (1.99999999999293, 7.75), (13.004, 7.630882009632484), (13.004, 7.510882009632484)]</t>
+          <t>[(-26030.159385937608, 66821.7085864941), (-26030.159385937608, 66821.5785864941), (-26019.1553859376, 66821.46946850374), (-26019.1553859376, 66821.33946850373), (-26030.159385937608, 66821.5785864941), (-26030.159385937608, 66821.4585864941), (-26019.1553859376, 66821.33946850373), (-26019.1553859376, 66821.21946850374)]</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[(1.99999999999412, 9.0), (1.99999999999412, 8.87), (12.934, 8.758075461741294), (12.934, 8.628075461741293), (1.99999999999412, 8.87), (1.99999999999412, 8.75), (12.934, 8.628075461741293), (12.934, 8.508075461741294)]</t>
+          <t>[(-25901.959385937607, 66786.8827912253), (-25901.959385937607, 66786.7527912253), (-25891.0253859376, 66786.64086668704), (-25891.0253859376, 66786.51086668704), (-25901.959385937607, 66786.7527912253), (-25901.959385937607, 66786.6327912253), (-25891.0253859376, 66786.51086668704), (-25891.0253859376, 66786.39086668704)]</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[(1.99999999999293, 10.0), (1.99999999999293, 9.87), (12.906, 9.744376136041401), (12.906, 9.6143761360414), (1.99999999999293, 9.87), (1.99999999999293, 9.75), (12.906, 9.6143761360414), (12.906, 9.494376136041401)]</t>
+          <t>[(-25901.959385937607, 66823.9677102422), (-25901.959385937607, 66823.8377102422), (-25891.0533859376, 66823.71208637825), (-25891.0533859376, 66823.58208637824), (-25901.959385937607, 66823.8377102422), (-25901.959385937607, 66823.7177102422), (-25891.0533859376, 66823.58208637824), (-25891.0533859376, 66823.46208637825)]</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[(1.99999999999412, 11.0), (1.99999999999412, 10.87), (12.893, 10.828459932024082), (12.893, 10.69845993202408), (1.99999999999412, 10.87), (1.99999999999412, 10.75), (12.893, 10.69845993202408), (12.893, 10.578459932024082)]</t>
+          <t>[(-25841.959385937607, 66786.9633435448), (-25841.959385937607, 66786.8333435448), (-25831.0663859376, 66786.79180347682), (-25831.0663859376, 66786.66180347682), (-25841.959385937607, 66786.8333435448), (-25841.959385937607, 66786.7133435448), (-25831.0663859376, 66786.66180347682), (-25831.0663859376, 66786.54180347682)]</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[(1.99999999999412, 12.0), (1.99999999999412, 11.87), (12.828, 11.821377967064077), (12.828, 11.691377967064076), (1.99999999999412, 11.87), (1.99999999999412, 11.75), (12.828, 11.691377967064076), (12.828, 11.571377967064077)]</t>
+          <t>[(-25841.959385937607, 66823.86969113321), (-25841.959385937607, 66823.7396911332), (-25831.1313859376, 66823.69106910027), (-25831.1313859376, 66823.56106910027), (-25841.959385937607, 66823.7396911332), (-25841.959385937607, 66823.61969113321), (-25831.1313859376, 66823.56106910027), (-25831.1313859376, 66823.44106910027)]</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[(1.99999999999293, 13.0), (1.99999999999293, 12.87), (12.849, 12.9050559034326), (12.849, 12.7750559034326), (1.99999999999293, 12.87), (1.99999999999293, 12.75), (12.849, 12.7750559034326), (12.849, 12.6550559034326)]</t>
+          <t>[(-25713.759385937607, 66786.6867530073), (-25713.759385937607, 66786.5567530073), (-25702.9103859376, 66786.59180891074), (-25702.9103859376, 66786.46180891074), (-25713.759385937607, 66786.5567530073), (-25713.759385937607, 66786.4367530073), (-25702.9103859376, 66786.46180891074), (-25702.9103859376, 66786.34180891074)]</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[(1.99999999999412, 14.0), (1.99999999999412, 13.87), (12.85, 13.978326580608675), (12.85, 13.848326580608674), (1.99999999999412, 13.87), (1.99999999999412, 13.75), (12.85, 13.848326580608674), (12.85, 13.728326580608675)]</t>
+          <t>[(-25713.759385937607, 66829.4427724655), (-25713.759385937607, 66829.31277246549), (-25702.9093859376, 66829.4210990461), (-25702.9093859376, 66829.2910990461), (-25713.759385937607, 66829.31277246549), (-25713.759385937607, 66829.1927724655), (-25702.9093859376, 66829.2910990461), (-25702.9093859376, 66829.1710990461)]</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[(1.99999999999293, 15.0), (1.99999999999293, 14.87), (12.84, 15.017619353619368), (12.84, 14.887619353619368), (1.99999999999293, 14.87), (1.99999999999293, 14.75), (12.84, 14.887619353619368), (12.84, 14.767619353619368)]</t>
+          <t>[(-25653.759385937607, 66790.1969229925), (-25653.759385937607, 66790.0669229925), (-25642.9193859376, 66790.21454234612), (-25642.9193859376, 66790.08454234611), (-25653.759385937607, 66790.0669229925), (-25653.759385937607, 66789.9469229925), (-25642.9193859376, 66790.08454234611), (-25642.9193859376, 66789.96454234612)]</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[(1.99988516071667, 16.0), (1.99988516071667, 15.87), (12.775, 16.16431974055953), (12.775, 16.03431974055953), (1.99988516071667, 15.87), (1.99988516071667, 15.75), (12.775, 16.03431974055953), (12.775, 15.914319740559531)]</t>
+          <t>[(-25653.759500776883, 66836.9510735194), (-25653.759500776883, 66836.8210735194), (-25642.984385937598, 66837.11539325997), (-25642.984385937598, 66836.98539325997), (-25653.759500776883, 66836.8210735194), (-25653.759500776883, 66836.7010735194), (-25642.984385937598, 66836.98539325997), (-25642.984385937598, 66836.86539325997)]</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[(2.00039196126071, 17.0), (2.00039196126071, 16.87), (12.807, 17.288815048937703), (12.807, 17.158815048937704), (2.00039196126071, 16.87), (2.00039196126071, 16.75), (12.807, 17.158815048937704), (12.807, 17.038815048937703)]</t>
+          <t>[(-25525.558993976538, 66793.7860360079), (-25525.558993976538, 66793.6560360079), (-25514.752385937798, 66794.07485105684), (-25514.752385937798, 66793.94485105683), (-25525.558993976538, 66793.6560360079), (-25525.558993976538, 66793.5360360079), (-25514.752385937798, 66793.94485105683), (-25514.752385937798, 66793.82485105684)]</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[(2.00065094787844, 18.0), (2.00065094787844, 17.87), (13.117, 18.258556484348254), (13.117, 18.128556484348255), (2.00065094787844, 17.87), (2.00065094787844, 17.75), (13.117, 18.128556484348255), (13.117, 18.008556484348254)]</t>
+          <t>[(-25525.558734989623, 66830.7263603613), (-25525.558734989623, 66830.59636036129), (-25514.442385937502, 66830.98491684564), (-25514.442385937502, 66830.85491684564), (-25525.558734989623, 66830.59636036129), (-25525.558734989623, 66830.4763603613), (-25514.442385937502, 66830.85491684564), (-25514.442385937502, 66830.73491684564)]</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[(2.00070601933591, 19.0), (2.00070601933591, 18.87), (13.157, 19.472493085089177), (13.157, 19.342493085089178), (2.00070601933591, 18.87), (2.00070601933591, 18.75), (13.157, 19.342493085089178), (13.157, 19.222493085089177)]</t>
+          <t>[(-25465.558679918166, 66787.8144129681), (-25465.558679918166, 66787.6844129681), (-25454.4023859375, 66788.2869060532), (-25454.4023859375, 66788.15690605319), (-25465.558679918166, 66787.6844129681), (-25465.558679918166, 66787.5644129681), (-25454.4023859375, 66788.15690605319), (-25454.4023859375, 66788.0369060532)]</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[(2.00044275291547, 20.0), (2.00044275291547, 19.87), (9.729, 20.433200110823613), (9.729, 20.303200110823614), (2.00044275291547, 19.87), (2.00044275291547, 19.75), (9.729, 20.303200110823614), (9.729, 20.183200110823613)]</t>
+          <t>[(-25465.558943184784, 66829.0368619369), (-25465.558943184784, 66828.90686193689), (-25457.8303859377, 66829.47006204772), (-25457.8303859377, 66829.34006204772), (-25465.558943184784, 66828.90686193689), (-25465.558943184784, 66828.7868619369), (-25457.8303859377, 66829.34006204772), (-25457.8303859377, 66829.22006204772)]</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[(2.00000000000117, 21.0), (2.00000000000117, 20.87), (9.787, 21.487903865155403), (9.787, 21.357903865155404), (2.00000000000117, 20.87), (2.00000000000117, 20.75), (9.787, 21.357903865155404), (9.787, 21.237903865155403)]</t>
+          <t>[(-26278.3593859376, 66486.3937195079), (-26278.3593859376, 66486.2637195079), (-26270.5723859376, 66486.88162337306), (-26270.5723859376, 66486.75162337306), (-26278.3593859376, 66486.2637195079), (-26278.3593859376, 66486.1437195079), (-26270.5723859376, 66486.75162337306), (-26270.5723859376, 66486.63162337306)]</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[(1.71699625490697, 22.0), (1.71699625490697, 21.87), (9.931, 22.534731643805557), (9.931, 22.404731643805558), (1.71699625490697, 21.87), (1.71699625490697, 21.75), (9.931, 22.404731643805558), (9.931, 22.284731643805557)]</t>
+          <t>[(-26278.642389682693, 66527.884985681), (-26278.642389682693, 66527.754985681), (-26270.4283859376, 66528.4197173248), (-26270.4283859376, 66528.28971732479), (-26278.642389682693, 66527.754985681), (-26278.642389682693, 66527.634985681), (-26270.4283859376, 66528.28971732479), (-26270.4283859376, 66528.1697173248)]</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[(1.1499969137986, 24.0), (1.1499969137986, 23.88), (9.64999691380792, 24.595000000000653), (9.64999691380792, 24.47500000000065), (1.1499969137986, 23.88), (1.1499969137986, 23.75), (9.64999691380792, 24.47500000000065), (9.64999691380792, 24.285000000000654)]</t>
+          <t>[(-26219.209389023803, 66527.2707438337), (-26219.209389023803, 66527.1507438337), (-26210.709389023792, 66527.8657438337), (-26210.709389023792, 66527.7457438337), (-26219.209389023803, 66527.1507438337), (-26219.209389023803, 66527.0207438337), (-26210.709389023792, 66527.7457438337), (-26210.709389023792, 66527.5557438337)]</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[(0.866561087373475, 25.0), (0.866561087373475, 24.88), (9.351, 25.593910723883855), (9.351, 25.473910723883854), (0.866561087373475, 24.88), (0.866561087373475, 24.75), (9.351, 25.473910723883854), (9.351, 25.193910723883857)]</t>
+          <t>[(-26091.29282485023, 66489.1652358133), (-26091.29282485023, 66489.0452358133), (-26082.808385937602, 66489.75914653718), (-26082.808385937602, 66489.63914653719), (-26091.29282485023, 66489.0452358133), (-26091.29282485023, 66488.9152358133), (-26082.808385937602, 66489.63914653719), (-26082.808385937602, 66489.35914653719)]</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[(0.583999999998517, 26.0), (0.583999999998517, 25.88), (9.08400000000783, 26.595000000000653), (9.08400000000783, 26.47500000000065), (0.583999999998517, 25.88), (0.583999999998517, 25.75), (9.08400000000783, 26.47500000000065), (9.08400000000783, 26.275000000000652)]</t>
+          <t>[(-26091.5753859375, 66525.194136395), (-26091.5753859375, 66525.07413639501), (-26083.075385937493, 66525.789136395), (-26083.075385937493, 66525.66913639501), (-26091.5753859375, 66525.07413639501), (-26091.5753859375, 66524.944136395), (-26083.075385937493, 66525.66913639501), (-26083.075385937493, 66525.469136395)]</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[(0.300000000103515, 32.0), (0.300000000103515, 31.84), (3.048, 32.137761708482465), (3.048, 31.977761708482465), (3.048, 32.137761708482465), (3.048, 31.987761708482466), (8.80000000000626, 32.42611882173642), (8.80000000000626, 32.27611882173642), (0.300000000103515, 31.84), (0.300000000103515, 31.68), (3.048, 31.977761708482465), (3.048, 31.857761708482464), (3.048, 31.987761708482466), (3.048, 31.857761708482464), (8.80000000000626, 32.27611882173642), (8.80000000000626, 32.15611882173642)]</t>
+          <t>[(-25815.659385937397, 66534.1424051721), (-25815.659385937397, 66533.9824051721), (-25812.911385937503, 66534.28016688058), (-25812.911385937503, 66534.12016688057), (-25812.911385937503, 66534.28016688058), (-25812.911385937503, 66534.13016688058), (-25807.159385937495, 66534.56852399383), (-25807.159385937495, 66534.41852399384), (-25815.659385937397, 66533.9824051721), (-25815.659385937397, 66533.82240517209), (-25812.911385937503, 66534.12016688057), (-25812.911385937503, 66534.00016688058), (-25812.911385937503, 66534.13016688058), (-25812.911385937503, 66534.00016688058), (-25807.159385937495, 66534.41852399384), (-25807.159385937495, 66534.29852399383)]</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[(0.300000000013087, 33.0), (0.300000000013087, 32.81), (3.233, 33.12757325067125), (3.233, 32.93757325067125), (3.233, 33.12757325067125), (3.233, 32.957573250671246), (8.80000000000142, 33.36971450075313), (8.80000000000142, 33.19971450075313), (0.300000000013087, 32.81), (0.300000000013087, 32.63), (3.233, 32.93757325067125), (3.233, 32.79757325067125), (3.233, 32.957573250671246), (3.233, 32.79757325067125), (8.80000000000142, 33.19971450075313), (8.80000000000142, 33.04971450075313)]</t>
+          <t>[(-25715.459385937687, 66488.9317066049), (-25715.459385937687, 66488.7417066049), (-25712.5263859377, 66489.05927985557), (-25712.5263859377, 66488.86927985557), (-25712.5263859377, 66489.05927985557), (-25712.5263859377, 66488.88927985558), (-25706.9593859377, 66489.30142110564), (-25706.9593859377, 66489.13142110565), (-25715.459385937687, 66488.7417066049), (-25715.459385937687, 66488.5617066049), (-25712.5263859377, 66488.86927985557), (-25712.5263859377, 66488.72927985557), (-25712.5263859377, 66488.88927985558), (-25712.5263859377, 66488.72927985557), (-25706.9593859377, 66489.13142110565), (-25706.9593859377, 66488.98142110564)]</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[(0.300000000000589, 34.0), (0.300000000000589, 33.88), (3.417, 34.11489268592122), (3.417, 33.99489268592122), (3.417, 34.11489268592122), (3.417, 33.99489268592122), (8.80000000000165, 34.31331017976603), (8.80000000000165, 34.19331017976603), (0.300000000000589, 33.88), (0.300000000000589, 33.62), (3.417, 33.99489268592122), (3.417, 33.84489268592122), (3.417, 33.99489268592122), (3.417, 33.84489268592122), (8.80000000000165, 34.19331017976603), (8.80000000000165, 33.963310179766026)]</t>
+          <t>[(-25715.4593859376, 66529.7210080376), (-25715.4593859376, 66529.6010080376), (-25712.342385937598, 66529.83590072351), (-25712.342385937598, 66529.71590072352), (-25712.342385937598, 66529.83590072351), (-25712.342385937598, 66529.71590072352), (-25706.959385937596, 66530.03431821737), (-25706.959385937596, 66529.91431821737), (-25715.4593859376, 66529.6010080376), (-25715.4593859376, 66529.34100803759), (-25712.342385937598, 66529.71590072352), (-25712.342385937598, 66529.56590072351), (-25712.342385937598, 66529.71590072352), (-25712.342385937598, 66529.56590072351), (-25706.959385937596, 66529.91431821737), (-25706.959385937596, 66529.68431821736)]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[(0.300000000070149, 35.0), (0.300000000070149, 34.78), (3.455, 35.09535740993266), (3.455, 34.87535740993266), (3.455, 35.09535740993266), (3.455, 34.95535740993266), (8.80000000000268, 35.25690585877629), (8.80000000000268, 35.11690585877629), (0.300000000070149, 34.78), (0.300000000070149, 34.57), (3.455, 34.87535740993266), (3.455, 34.69535740993266), (3.455, 34.95535740993266), (3.455, 34.81535740993266), (8.80000000000268, 35.11690585877629), (8.80000000000268, 34.97690585877629)]</t>
+          <t>[(-25655.459385937433, 66490.5103094704), (-25655.459385937433, 66490.2903094704), (-25652.3043859375, 66490.60566688032), (-25652.3043859375, 66490.38566688032), (-25652.3043859375, 66490.60566688032), (-25652.3043859375, 66490.46566688032), (-25646.959385937498, 66490.76721532918), (-25646.959385937498, 66490.62721532918), (-25655.459385937433, 66490.2903094704), (-25655.459385937433, 66490.0803094704), (-25652.3043859375, 66490.38566688032), (-25652.3043859375, 66490.20566688033), (-25652.3043859375, 66490.46566688032), (-25652.3043859375, 66490.32566688032), (-25646.959385937498, 66490.62721532918), (-25646.959385937498, 66490.48721532918)]</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 36.0), (0.29999999999778, 35.78), (3.501, 36.063001890396244), (3.501, 35.843001890396245), (3.501, 36.063001890396244), (3.501, 35.82300189039624), (8.79999999999445, 36.167296491211346), (8.79999999999445, 35.927296491211344), (0.29999999999778, 35.78), (0.29999999999778, 35.57), (3.501, 35.843001890396245), (3.501, 35.65300189039625), (3.501, 35.82300189039624), (3.501, 35.65300189039625), (8.79999999999445, 35.927296491211344), (8.79999999999445, 35.69729649121135)]</t>
+          <t>[(-25655.4593859376, 66531.2949038108), (-25655.4593859376, 66531.0749038108), (-25652.2583859376, 66531.3579057012), (-25652.2583859376, 66531.1379057012), (-25652.2583859376, 66531.3579057012), (-25652.2583859376, 66531.11790570119), (-25646.959385937604, 66531.46220030202), (-25646.959385937604, 66531.22220030201), (-25655.4593859376, 66531.0749038108), (-25655.4593859376, 66530.86490381081), (-25652.2583859376, 66531.1379057012), (-25652.2583859376, 66530.94790570119), (-25652.2583859376, 66531.11790570119), (-25652.2583859376, 66530.94790570119), (-25646.959385937604, 66531.22220030201), (-25646.959385937604, 66530.99220030202)]</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 37.0), (0.299999999994413, 36.78), (3.543, 36.98275353188214), (3.543, 36.76275353188214), (3.543, 36.98275353188214), (3.543, 36.80275353188214), (8.79999999999445, 36.95479649121136), (8.79999999999445, 36.77479649121136), (0.299999999994413, 36.78), (0.299999999994413, 36.56), (3.543, 36.76275353188214), (3.543, 36.63275353188214), (3.543, 36.80275353188214), (3.543, 36.63275353188214), (8.79999999999445, 36.77479649121136), (8.79999999999445, 36.63479649121136)]</t>
+          <t>[(-25527.259385937505, 66492.0578690238), (-25527.259385937505, 66491.8378690238), (-25524.0163859375, 66492.04062255568), (-25524.0163859375, 66491.82062255568), (-25524.0163859375, 66492.04062255568), (-25524.0163859375, 66491.86062255569), (-25518.759385937505, 66492.01266551501), (-25518.759385937505, 66491.83266551502), (-25527.259385937505, 66491.8378690238), (-25527.259385937505, 66491.6178690238), (-25524.0163859375, 66491.82062255568), (-25524.0163859375, 66491.69062255567), (-25524.0163859375, 66491.86062255569), (-25524.0163859375, 66491.69062255567), (-25518.759385937505, 66491.83266551502), (-25518.759385937505, 66491.692665515)]</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 38.0), (0.29999999999778, 37.82), (3.574, 37.91814999999995), (3.574, 37.73814999999995), (3.574, 37.91814999999995), (3.574, 37.79814999999995), (8.79999999999445, 37.78750000000009), (8.79999999999445, 37.66750000000009), (0.29999999999778, 37.82), (0.29999999999778, 37.52), (3.574, 37.73814999999995), (3.574, 37.608149999999945), (3.574, 37.79814999999995), (3.574, 37.608149999999945), (8.79999999999445, 37.66750000000009), (8.79999999999445, 37.53750000000009)]</t>
+          <t>[(-25527.2593859376, 66530.7976860887), (-25527.2593859376, 66530.6176860887), (-25523.985385937598, 66530.7158360887), (-25523.985385937598, 66530.5358360887), (-25523.985385937598, 66530.7158360887), (-25523.985385937598, 66530.5958360887), (-25518.759385937603, 66530.5851860887), (-25518.759385937603, 66530.46518608871), (-25527.2593859376, 66530.6176860887), (-25527.2593859376, 66530.3176860887), (-25523.985385937598, 66530.5358360887), (-25523.985385937598, 66530.4058360887), (-25523.985385937598, 66530.5958360887), (-25523.985385937598, 66530.4058360887), (-25518.759385937603, 66530.46518608871), (-25518.759385937603, 66530.3351860887)]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 39.0), (0.29999999999778, 38.79), (3.576, 38.918099999999946), (3.576, 38.708099999999945), (3.576, 38.918099999999946), (3.576, 38.738099999999946), (8.79999999999782, 38.7875), (8.79999999999782, 38.6075), (0.29999999999778, 38.79), (0.29999999999778, 38.49), (3.576, 38.708099999999945), (3.576, 38.558099999999946), (3.576, 38.738099999999946), (3.576, 38.558099999999946), (8.79999999999782, 38.6075), (8.79999999999782, 38.487500000000004)]</t>
+          <t>[(-25467.2593859376, 66491.5143550054), (-25467.2593859376, 66491.3043550054), (-25463.983385937598, 66491.4324550054), (-25463.983385937598, 66491.2224550054), (-25463.983385937598, 66491.4324550054), (-25463.983385937598, 66491.25245500541), (-25458.7593859376, 66491.30185500541), (-25458.7593859376, 66491.12185500542), (-25467.2593859376, 66491.3043550054), (-25467.2593859376, 66491.00435500541), (-25463.983385937598, 66491.2224550054), (-25463.983385937598, 66491.0724550054), (-25463.983385937598, 66491.25245500541), (-25463.983385937598, 66491.0724550054), (-25458.7593859376, 66491.12185500542), (-25458.7593859376, 66491.00185500541)]</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[(0.299999999991045, 40.0), (0.299999999991045, 39.78), (3.615, 39.91712499999978), (3.615, 39.69712499999978), (3.615, 39.91712499999978), (3.615, 39.72712499999978), (8.79999999999109, 39.7875), (8.79999999999109, 39.597500000000004), (0.299999999991045, 39.78), (0.299999999991045, 39.48), (3.615, 39.69712499999978), (3.615, 39.54712499999978), (3.615, 39.72712499999978), (3.615, 39.54712499999978), (8.79999999999109, 39.597500000000004), (8.79999999999109, 39.4775)]</t>
+          <t>[(-25467.25938593751, 66530.207875774), (-25467.25938593751, 66529.987875774), (-25463.9443859375, 66530.12500077399), (-25463.9443859375, 66529.90500077399), (-25463.9443859375, 66530.12500077399), (-25463.9443859375, 66529.93500077398), (-25458.75938593751, 66529.995375774), (-25458.75938593751, 66529.805375774), (-25467.25938593751, 66529.987875774), (-25467.25938593751, 66529.68787577399), (-25463.9443859375, 66529.90500077399), (-25463.9443859375, 66529.75500077399), (-25463.9443859375, 66529.93500077398), (-25463.9443859375, 66529.75500077399), (-25458.75938593751, 66529.805375774), (-25458.75938593751, 66529.685375774)]</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 41.0), (0.29999999999778, 40.72), (3.594, 40.917649999999945), (3.594, 40.737649999999945), (3.594, 40.917649999999945), (3.594, 40.72764999999995), (8.79999999999782, 40.7875), (8.79999999999782, 40.597500000000004), (0.29999999999778, 40.72), (0.29999999999778, 40.44), (3.594, 40.737649999999945), (3.594, 40.557649999999946), (3.594, 40.72764999999995), (3.594, 40.54764999999995), (8.79999999999782, 40.597500000000004), (8.79999999999782, 40.4775)]</t>
+          <t>[(-25339.059385937602, 66490.8782483945), (-25339.059385937602, 66490.5982483945), (-25335.7653859376, 66490.7958983945), (-25335.7653859376, 66490.6158983945), (-25335.7653859376, 66490.7958983945), (-25335.7653859376, 66490.6058983945), (-25330.559385937602, 66490.6657483945), (-25330.559385937602, 66490.4757483945), (-25339.059385937602, 66490.5982483945), (-25339.059385937602, 66490.3182483945), (-25335.7653859376, 66490.6158983945), (-25335.7653859376, 66490.4358983945), (-25335.7653859376, 66490.6058983945), (-25335.7653859376, 66490.4258983945), (-25330.559385937602, 66490.4757483945), (-25330.559385937602, 66490.3557483945)]</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 42.0), (0.29999999999778, 41.76), (3.573, 41.91817499999994), (3.573, 41.67817499999994), (3.573, 41.91817499999994), (3.573, 41.72817499999994), (8.79999999999782, 41.7875), (8.79999999999782, 41.597500000000004), (0.29999999999778, 41.76), (0.29999999999778, 41.46), (3.573, 41.67817499999994), (3.573, 41.548174999999944), (3.573, 41.72817499999994), (3.573, 41.548174999999944), (8.79999999999782, 41.597500000000004), (8.79999999999782, 41.4775)]</t>
+          <t>[(-25339.0593859375, 66529.5254728667), (-25339.0593859375, 66529.2854728667), (-25335.7863859375, 66529.4436478667), (-25335.7863859375, 66529.2036478667), (-25335.7863859375, 66529.4436478667), (-25335.7863859375, 66529.2536478667), (-25330.5593859375, 66529.31297286671), (-25330.5593859375, 66529.12297286671), (-25339.0593859375, 66529.2854728667), (-25339.0593859375, 66528.98547286671), (-25335.7863859375, 66529.2036478667), (-25335.7863859375, 66529.07364786671), (-25335.7863859375, 66529.2536478667), (-25335.7863859375, 66529.07364786671), (-25330.5593859375, 66529.12297286671), (-25330.5593859375, 66529.00297286671)]</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[(0.299999999991045, 43.0), (0.299999999991045, 42.73), (3.565, 42.91837499999978), (3.565, 42.648374999999774), (3.565, 42.91837499999978), (3.565, 42.718374999999774), (8.79999999999445, 42.787499999999916), (8.79999999999445, 42.58749999999991), (0.299999999991045, 42.73), (0.299999999991045, 42.47), (3.565, 42.648374999999774), (3.565, 42.51837499999978), (3.565, 42.718374999999774), (3.565, 42.51837499999978), (8.79999999999445, 42.58749999999991), (8.79999999999445, 42.467499999999916)]</t>
+          <t>[(-25279.059385937508, 66488.1495491909), (-25279.059385937508, 66487.8795491909), (-25275.7943859375, 66488.0679241909), (-25275.7943859375, 66487.79792419089), (-25275.7943859375, 66488.0679241909), (-25275.7943859375, 66487.8679241909), (-25270.559385937504, 66487.9370491909), (-25270.559385937504, 66487.73704919091), (-25279.059385937508, 66487.8795491909), (-25279.059385937508, 66487.6195491909), (-25275.7943859375, 66487.79792419089), (-25275.7943859375, 66487.6679241909), (-25275.7943859375, 66487.8679241909), (-25275.7943859375, 66487.6679241909), (-25270.559385937504, 66487.73704919091), (-25270.559385937504, 66487.6170491909)]</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 44.0), (0.29999999999778, 43.73), (3.569, 43.918274999999944), (3.569, 43.64827499999994), (3.569, 43.918274999999944), (3.569, 43.71827499999994), (8.80000000000119, 43.787499999999916), (8.80000000000119, 43.58749999999991), (0.29999999999778, 43.73), (0.29999999999778, 43.46), (3.569, 43.64827499999994), (3.569, 43.518274999999946), (3.569, 43.71827499999994), (3.569, 43.518274999999946), (8.80000000000119, 43.58749999999991), (8.80000000000119, 43.44749999999991)]</t>
+          <t>[(-25279.059385937602, 66526.7504773669), (-25279.059385937602, 66526.4804773669), (-25275.790385937602, 66526.66875236691), (-25275.790385937602, 66526.3987523669), (-25275.790385937602, 66526.66875236691), (-25275.790385937602, 66526.46875236691), (-25270.5593859376, 66526.53797736691), (-25270.5593859376, 66526.33797736691), (-25279.059385937602, 66526.4804773669), (-25279.059385937602, 66526.21047736691), (-25275.790385937602, 66526.3987523669), (-25275.790385937602, 66526.26875236692), (-25275.790385937602, 66526.46875236691), (-25275.790385937602, 66526.26875236692), (-25270.5593859376, 66526.33797736691), (-25270.5593859376, 66526.19797736692)]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 45.0), (0.29999999999778, 44.71), (3.578, 44.918049999999944), (3.578, 44.628049999999945), (3.578, 44.918049999999944), (3.578, 44.70804999999994), (8.79999999999782, 44.7875), (8.79999999999782, 44.5775), (0.29999999999778, 44.71), (0.29999999999778, 44.43), (3.578, 44.628049999999945), (3.578, 44.49804999999994), (3.578, 44.70804999999994), (3.578, 44.49804999999994), (8.79999999999782, 44.5775), (8.79999999999782, 44.417500000000004)]</t>
+          <t>[(-25150.8593859376, 66487.3282573947), (-25150.8593859376, 66487.03825739471), (-25147.5813859376, 66487.2463073947), (-25147.5813859376, 66486.9563073947), (-25147.5813859376, 66487.2463073947), (-25147.5813859376, 66487.0363073947), (-25142.3593859376, 66487.11575739471), (-25142.3593859376, 66486.9057573947), (-25150.8593859376, 66487.03825739471), (-25150.8593859376, 66486.7582573947), (-25147.5813859376, 66486.9563073947), (-25147.5813859376, 66486.8263073947), (-25147.5813859376, 66487.0363073947), (-25147.5813859376, 66486.8263073947), (-25142.3593859376, 66486.9057573947), (-25142.3593859376, 66486.74575739472)]</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[(0.299999999991045, 46.0), (0.299999999991045, 45.71), (3.588, 45.91779999999978), (3.588, 45.62779999999978), (3.588, 45.91779999999978), (3.588, 45.70779999999978), (8.79999999999109, 45.7875), (8.79999999999109, 45.5775), (0.299999999991045, 45.71), (0.299999999991045, 45.41), (3.588, 45.62779999999978), (3.588, 45.50779999999978), (3.588, 45.70779999999978), (3.588, 45.50779999999978), (8.79999999999109, 45.5775), (8.79999999999109, 45.417500000000004)]</t>
+          <t>[(-25150.859385937507, 66529.8828892744), (-25150.859385937507, 66529.59288927441), (-25147.5713859375, 66529.8006892744), (-25147.5713859375, 66529.51068927441), (-25147.5713859375, 66529.8006892744), (-25147.5713859375, 66529.5906892744), (-25142.359385937507, 66529.67038927441), (-25142.359385937507, 66529.4603892744), (-25150.859385937507, 66529.59288927441), (-25150.859385937507, 66529.29288927441), (-25147.5713859375, 66529.51068927441), (-25147.5713859375, 66529.3906892744), (-25147.5713859375, 66529.5906892744), (-25147.5713859375, 66529.3906892744), (-25142.359385937507, 66529.4603892744), (-25142.359385937507, 66529.30038927442)]</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 47.0), (0.299999999994413, 46.74), (3.69, 46.91524999999986), (3.69, 46.65524999999986), (3.69, 46.91524999999986), (3.69, 46.715249999999855), (8.79999999999445, 46.7875), (8.79999999999445, 46.5875), (0.299999999994413, 46.74), (0.299999999994413, 46.44), (3.69, 46.65524999999986), (3.69, 46.52524999999986), (3.69, 46.715249999999855), (3.69, 46.52524999999986), (8.79999999999445, 46.5875), (8.79999999999445, 46.417500000000004)]</t>
+          <t>[(-25081.859385937503, 66486.414373006), (-25081.859385937503, 66486.15437300601), (-25078.4693859375, 66486.32962300601), (-25078.4693859375, 66486.06962300601), (-25078.4693859375, 66486.32962300601), (-25078.4693859375, 66486.12962300601), (-25073.359385937503, 66486.20187300601), (-25073.359385937503, 66486.00187300601), (-25081.859385937503, 66486.15437300601), (-25081.859385937503, 66485.854373006), (-25078.4693859375, 66486.06962300601), (-25078.4693859375, 66485.93962300601), (-25078.4693859375, 66486.12962300601), (-25078.4693859375, 66485.93962300601), (-25073.359385937503, 66486.00187300601), (-25073.359385937503, 66485.83187300601)]</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 48.0), (0.299999999994413, 47.71), (3.68, 47.91549999999986), (3.68, 47.62549999999986), (3.68, 47.91549999999986), (3.68, 47.70549999999986), (8.79999999999445, 47.7875), (8.79999999999445, 47.5775), (0.299999999994413, 47.71), (0.299999999994413, 47.42), (3.68, 47.62549999999986), (3.68, 47.50549999999986), (3.68, 47.70549999999986), (3.68, 47.50549999999986), (8.79999999999445, 47.5775), (8.79999999999445, 47.3975)]</t>
+          <t>[(-25091.859385937503, 66530.9227085893), (-25091.859385937503, 66530.63270858931), (-25088.4793859375, 66530.83820858931), (-25088.4793859375, 66530.54820858932), (-25088.4793859375, 66530.83820858931), (-25088.4793859375, 66530.6282085893), (-25083.359385937503, 66530.71020858931), (-25083.359385937503, 66530.5002085893), (-25091.859385937503, 66530.63270858931), (-25091.859385937503, 66530.3427085893), (-25088.4793859375, 66530.54820858932), (-25088.4793859375, 66530.4282085893), (-25088.4793859375, 66530.6282085893), (-25088.4793859375, 66530.4282085893), (-25083.359385937503, 66530.5002085893), (-25083.359385937503, 66530.32020858931)]</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 49.0), (0.299999999994413, 48.71), (3.677, 48.91557499999986), (3.677, 48.62557499999986), (3.677, 48.91557499999986), (3.677, 48.70557499999986), (8.79999999999445, 48.7875), (8.79999999999445, 48.5775), (0.299999999994413, 48.71), (0.299999999994413, 48.43), (3.677, 48.62557499999986), (3.677, 48.49557499999986), (3.677, 48.70557499999986), (3.677, 48.49557499999986), (8.79999999999445, 48.5775), (8.79999999999445, 48.4075)]</t>
+          <t>[(-24962.659385937506, 66487.4078960246), (-24962.659385937506, 66487.1178960246), (-24959.282385937502, 66487.3234710246), (-24959.282385937502, 66487.03347102461), (-24959.282385937502, 66487.3234710246), (-24959.282385937502, 66487.1134710246), (-24954.159385937506, 66487.1953960246), (-24954.159385937506, 66486.9853960246), (-24962.659385937506, 66487.1178960246), (-24962.659385937506, 66486.83789602459), (-24959.282385937502, 66487.03347102461), (-24959.282385937502, 66486.9034710246), (-24959.282385937502, 66487.1134710246), (-24959.282385937502, 66486.9034710246), (-24954.159385937506, 66486.9853960246), (-24954.159385937506, 66486.8153960246)]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 50.0), (0.299999999994413, 49.71), (3.71, 49.91474999999986), (3.71, 49.624749999999864), (3.71, 49.91474999999986), (3.71, 49.70474999999986), (8.79999999999782, 49.787499999999916), (8.79999999999782, 49.577499999999915), (0.299999999994413, 49.71), (0.299999999994413, 49.42), (3.71, 49.624749999999864), (3.71, 49.49474999999986), (3.71, 49.70474999999986), (3.71, 49.49474999999986), (8.79999999999782, 49.577499999999915), (8.79999999999782, 49.397499999999916)]</t>
+          <t>[(-24962.659385937506, 66525.8699353117), (-24962.659385937506, 66525.5799353117), (-24959.249385937503, 66525.7846853117), (-24959.249385937503, 66525.4946853117), (-24959.249385937503, 66525.7846853117), (-24959.249385937503, 66525.57468531169), (-24954.159385937503, 66525.6574353117), (-24954.159385937503, 66525.4474353117), (-24962.659385937506, 66525.5799353117), (-24962.659385937506, 66525.2899353117), (-24959.249385937503, 66525.4946853117), (-24959.249385937503, 66525.3646853117), (-24959.249385937503, 66525.57468531169), (-24959.249385937503, 66525.3646853117), (-24954.159385937503, 66525.4474353117), (-24954.159385937503, 66525.2674353117)]</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 51.0), (0.299999999994413, 50.71), (3.725, 50.91437499999986), (3.725, 50.62437499999986), (3.725, 50.91437499999986), (3.725, 50.70437499999986), (8.79999999999782, 50.787499999999916), (8.79999999999782, 50.577499999999915), (0.299999999994413, 50.71), (0.299999999994413, 50.42), (3.725, 50.62437499999986), (3.725, 50.494374999999856), (3.725, 50.70437499999986), (3.725, 50.494374999999856), (8.79999999999782, 50.577499999999915), (8.79999999999782, 50.407499999999914)]</t>
+          <t>[(-24902.659385937506, 66486.3088264507), (-24902.659385937506, 66486.0188264507), (-24899.234385937503, 66486.22320145069), (-24899.234385937503, 66485.9332014507), (-24899.234385937503, 66486.22320145069), (-24899.234385937503, 66486.01320145068), (-24894.159385937503, 66486.0963264507), (-24894.159385937503, 66485.8863264507), (-24902.659385937506, 66486.0188264507), (-24902.659385937506, 66485.7288264507), (-24899.234385937503, 66485.9332014507), (-24899.234385937503, 66485.80320145069), (-24899.234385937503, 66486.01320145068), (-24899.234385937503, 66485.80320145069), (-24894.159385937503, 66485.8863264507), (-24894.159385937503, 66485.7163264507)]</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 52.0), (0.29999999999778, 51.71), (3.678, 51.915549999999946), (3.678, 51.62554999999995), (3.678, 51.915549999999946), (3.678, 51.705549999999945), (8.79999999999445, 51.78750000000009), (8.79999999999445, 51.577500000000086), (0.29999999999778, 51.71), (0.29999999999778, 51.41), (3.678, 51.62554999999995), (3.678, 51.50554999999995), (3.678, 51.705549999999945), (3.678, 51.50554999999995), (8.79999999999445, 51.577500000000086), (8.79999999999445, 51.437500000000085)]</t>
+          <t>[(-24902.659385937503, 66526.7245694415), (-24902.659385937503, 66526.43456944151), (-24899.281385937502, 66526.64011944151), (-24899.281385937502, 66526.35011944151), (-24899.281385937502, 66526.64011944151), (-24899.281385937502, 66526.4301194415), (-24894.159385937506, 66526.51206944151), (-24894.159385937506, 66526.3020694415), (-24902.659385937503, 66526.43456944151), (-24902.659385937503, 66526.1345694415), (-24899.281385937502, 66526.35011944151), (-24899.281385937502, 66526.2301194415), (-24899.281385937502, 66526.4301194415), (-24899.281385937502, 66526.2301194415), (-24894.159385937506, 66526.3020694415), (-24894.159385937506, 66526.1620694415)]</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 53.0), (0.29999999999778, 52.72), (3.669, 52.91577499999995), (3.669, 52.635774999999946), (3.669, 52.91577499999995), (3.669, 52.69577499999995), (8.79999999999782, 52.7875), (8.79999999999782, 52.5675), (0.29999999999778, 52.72), (0.29999999999778, 52.44), (3.669, 52.635774999999946), (3.669, 52.48577499999995), (3.669, 52.69577499999995), (3.669, 52.48577499999995), (8.79999999999782, 52.5675), (8.79999999999782, 52.417500000000004)]</t>
+          <t>[(-24774.4593859376, 66487.1171642841), (-24774.4593859376, 66486.83716428411), (-24771.090385937598, 66487.03293928411), (-24771.090385937598, 66486.75293928411), (-24771.090385937598, 66487.03293928411), (-24771.090385937598, 66486.81293928411), (-24765.9593859376, 66486.90466428411), (-24765.9593859376, 66486.68466428411), (-24774.4593859376, 66486.83716428411), (-24774.4593859376, 66486.55716428411), (-24771.090385937598, 66486.75293928411), (-24771.090385937598, 66486.60293928412), (-24771.090385937598, 66486.81293928411), (-24771.090385937598, 66486.60293928412), (-24765.9593859376, 66486.68466428411), (-24765.9593859376, 66486.53466428412)]</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[(0.299999999991045, 54.0), (0.299999999991045, 53.72), (3.737, 53.91407499999978), (3.737, 53.634074999999775), (3.737, 53.91407499999978), (3.737, 53.714074999999774), (8.79999999999109, 53.7875), (8.79999999999109, 53.5875), (0.299999999991045, 53.72), (0.299999999991045, 53.45), (3.737, 53.634074999999775), (3.737, 53.51407499999978), (3.737, 53.714074999999774), (3.737, 53.51407499999978), (8.79999999999109, 53.5875), (8.79999999999109, 53.4375)]</t>
+          <t>[(-24774.45938593751, 66525.4866109786), (-24774.45938593751, 66525.2066109786), (-24771.0223859375, 66525.40068597859), (-24771.0223859375, 66525.12068597859), (-24771.0223859375, 66525.40068597859), (-24771.0223859375, 66525.20068597859), (-24765.95938593751, 66525.2741109786), (-24765.95938593751, 66525.0741109786), (-24774.45938593751, 66525.2066109786), (-24774.45938593751, 66524.93661097859), (-24771.0223859375, 66525.12068597859), (-24771.0223859375, 66525.0006859786), (-24771.0223859375, 66525.20068597859), (-24771.0223859375, 66525.0006859786), (-24765.95938593751, 66525.0741109786), (-24765.95938593751, 66524.9241109786)]</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 55.0), (0.29999999999778, 54.72), (3.764, 54.913399999999946), (3.764, 54.633399999999945), (3.764, 54.913399999999946), (3.764, 54.703399999999945), (8.79999999999782, 54.7875), (8.79999999999782, 54.5775), (0.29999999999778, 54.72), (0.29999999999778, 54.45), (3.764, 54.633399999999945), (3.764, 54.50339999999995), (3.764, 54.703399999999945), (3.764, 54.50339999999995), (8.79999999999782, 54.5775), (8.79999999999782, 54.417500000000004)]</t>
+          <t>[(-24714.4593859376, 66487.83290952501), (-24714.4593859376, 66487.55290952501), (-24710.9953859376, 66487.74630952501), (-24710.9953859376, 66487.46630952501), (-24710.9953859376, 66487.74630952501), (-24710.9953859376, 66487.536309525), (-24705.9593859376, 66487.62040952501), (-24705.9593859376, 66487.41040952501), (-24714.4593859376, 66487.55290952501), (-24714.4593859376, 66487.282909525), (-24710.9953859376, 66487.46630952501), (-24710.9953859376, 66487.33630952501), (-24710.9953859376, 66487.536309525), (-24710.9953859376, 66487.33630952501), (-24705.9593859376, 66487.41040952501), (-24705.9593859376, 66487.25040952502)]</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[(0.300000000001148, 56.0), (0.300000000001148, 55.76), (3.701, 55.91497500000003), (3.701, 55.674975000000025), (3.701, 55.91497500000003), (3.701, 55.72497500000003), (8.79999999999782, 55.78750000000009), (8.79999999999782, 55.59750000000009), (0.300000000001148, 55.76), (0.300000000001148, 55.46), (3.701, 55.674975000000025), (3.701, 55.54497500000003), (3.701, 55.72497500000003), (3.701, 55.54497500000003), (8.79999999999782, 55.59750000000009), (8.79999999999782, 55.45750000000009)]</t>
+          <t>[(-24714.459385937498, 66526.1560599232), (-24714.459385937498, 66525.9160599232), (-24711.0583859375, 66526.07103492321), (-24711.0583859375, 66525.8310349232), (-24711.0583859375, 66526.07103492321), (-24711.0583859375, 66525.88103492321), (-24705.9593859375, 66525.94355992321), (-24705.9593859375, 66525.7535599232), (-24714.459385937498, 66525.9160599232), (-24714.459385937498, 66525.61605992321), (-24711.0583859375, 66525.8310349232), (-24711.0583859375, 66525.70103492322), (-24711.0583859375, 66525.88103492321), (-24711.0583859375, 66525.70103492322), (-24705.9593859375, 66525.7535599232), (-24705.9593859375, 66525.61355992321)]</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 57.0), (0.299999999994413, 56.8), (3.712, 56.91469999999986), (3.712, 56.71469999999986), (3.712, 56.91469999999986), (3.712, 56.73469999999986), (8.79999999999445, 56.7875), (8.79999999999445, 56.6075), (0.299999999994413, 56.8), (0.299999999994413, 56.5), (3.712, 56.71469999999986), (3.712, 56.56469999999986), (3.712, 56.73469999999986), (3.712, 56.56469999999986), (8.79999999999445, 56.6075), (8.79999999999445, 56.4775)]</t>
+          <t>[(-24587.259385937505, 66486.4560621733), (-24587.259385937505, 66486.2560621733), (-24583.8473859375, 66486.37076217329), (-24583.8473859375, 66486.1707621733), (-24583.8473859375, 66486.37076217329), (-24583.8473859375, 66486.1907621733), (-24578.759385937505, 66486.2435621733), (-24578.759385937505, 66486.06356217331), (-24587.259385937505, 66486.2560621733), (-24587.259385937505, 66485.9560621733), (-24583.8473859375, 66486.1707621733), (-24583.8473859375, 66486.02076217328), (-24583.8473859375, 66486.1907621733), (-24583.8473859375, 66486.02076217328), (-24578.759385937505, 66486.06356217331), (-24578.759385937505, 66485.9335621733)]</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 58.0), (0.29999999999778, 57.8), (3.798, 57.912549999999946), (3.798, 57.71254999999994), (3.798, 57.912549999999946), (3.798, 57.73254999999995), (8.79999999999445, 57.78750000000009), (8.79999999999445, 57.60750000000009), (0.29999999999778, 57.8), (0.29999999999778, 57.5), (3.798, 57.71254999999994), (3.798, 57.55254999999995), (3.798, 57.73254999999995), (3.798, 57.55254999999995), (8.79999999999445, 57.60750000000009), (8.79999999999445, 57.48750000000009)]</t>
+          <t>[(-24577.2593859375, 66522.7329162752), (-24577.2593859375, 66522.5329162752), (-24573.7613859375, 66522.6454662752), (-24573.7613859375, 66522.4454662752), (-24573.7613859375, 66522.6454662752), (-24573.7613859375, 66522.4654662752), (-24568.759385937505, 66522.5204162752), (-24568.759385937505, 66522.34041627521), (-24577.2593859375, 66522.5329162752), (-24577.2593859375, 66522.2329162752), (-24573.7613859375, 66522.4454662752), (-24573.7613859375, 66522.28546627519), (-24573.7613859375, 66522.4654662752), (-24573.7613859375, 66522.28546627519), (-24568.759385937505, 66522.34041627521), (-24568.759385937505, 66522.2204162752)]</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 62.0), (0.299999999994413, 61.78), (3.851, 61.91122499999986), (3.851, 61.79122499999986), (3.851, 61.91122499999986), (3.851, 61.78122499999986), (8.79999999999445, 61.7875), (8.79999999999445, 61.6575), (0.299999999994413, 61.78), (0.299999999994413, 61.56), (3.851, 61.79122499999986), (3.851, 61.67122499999986), (3.851, 61.78122499999986), (3.851, 61.66122499999986), (8.79999999999445, 61.6575), (8.79999999999445, 61.5375)]</t>
+          <t>[(-23990.659385937506, 66539.6521245634), (-23990.659385937506, 66539.4321245634), (-23987.108385937503, 66539.56334956341), (-23987.108385937503, 66539.44334956341), (-23987.108385937503, 66539.56334956341), (-23987.108385937503, 66539.4333495634), (-23982.159385937506, 66539.43962456341), (-23982.159385937506, 66539.30962456341), (-23990.659385937506, 66539.4321245634), (-23990.659385937506, 66539.2121245634), (-23987.108385937503, 66539.44334956341), (-23987.108385937503, 66539.3233495634), (-23987.108385937503, 66539.4333495634), (-23987.108385937503, 66539.31334956341), (-23982.159385937506, 66539.30962456341), (-23982.159385937506, 66539.18962456341)]</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 63.0), (0.29999999999778, 62.87), (3.857, 62.91107499999995), (3.857, 62.781074999999944), (3.857, 62.91107499999995), (3.857, 62.781074999999944), (8.79999999999445, 62.78750000000009), (8.79999999999445, 62.657500000000084), (0.29999999999778, 62.87), (0.29999999999778, 62.57), (3.857, 62.781074999999944), (3.857, 62.66107499999995), (3.857, 62.781074999999944), (3.857, 62.66107499999995), (8.79999999999445, 62.657500000000084), (8.79999999999445, 62.53750000000009)]</t>
+          <t>[(-23802.4593859375, 66485.8587501146), (-23802.4593859375, 66485.72875011459), (-23798.9023859375, 66485.76982511459), (-23798.9023859375, 66485.63982511459), (-23798.9023859375, 66485.76982511459), (-23798.9023859375, 66485.63982511459), (-23793.959385937505, 66485.6462501146), (-23793.959385937505, 66485.5162501146), (-23802.4593859375, 66485.72875011459), (-23802.4593859375, 66485.4287501146), (-23798.9023859375, 66485.63982511459), (-23798.9023859375, 66485.51982511459), (-23798.9023859375, 66485.63982511459), (-23798.9023859375, 66485.51982511459), (-23793.959385937505, 66485.5162501146), (-23793.959385937505, 66485.3962501146)]</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 70.0), (0.299999999994413, 69.76), (5.027, 69.88182499999986), (5.027, 69.76182499999986), (5.027, 69.88182499999986), (5.027, 69.75182499999987), (8.79999999999782, 69.78749999999991), (8.79999999999782, 69.65749999999991), (0.299999999994413, 69.76), (0.299999999994413, 69.52), (5.027, 69.76182499999986), (5.027, 69.64182499999987), (5.027, 69.75182499999987), (5.027, 69.63182499999986), (8.79999999999782, 69.65749999999991), (8.79999999999782, 69.53749999999991)]</t>
+          <t>[(-23457.059385937504, 66528.6322721389), (-23457.059385937504, 66528.3922721389), (-23452.3323859375, 66528.5140971389), (-23452.3323859375, 66528.39409713891), (-23452.3323859375, 66528.5140971389), (-23452.3323859375, 66528.3840971389), (-23448.5593859375, 66528.4197721389), (-23448.5593859375, 66528.2897721389), (-23457.059385937504, 66528.3922721389), (-23457.059385937504, 66528.1522721389), (-23452.3323859375, 66528.39409713891), (-23452.3323859375, 66528.2740971389), (-23452.3323859375, 66528.3840971389), (-23452.3323859375, 66528.2640971389), (-23448.5593859375, 66528.2897721389), (-23448.5593859375, 66528.1697721389)]</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[(0.299999999994413, 71.0), (0.299999999994413, 70.76), (5.335, 70.87412499999986), (5.335, 70.75412499999986), (5.335, 70.87412499999986), (5.335, 70.74412499999987), (8.79999999999782, 70.78749999999991), (8.79999999999782, 70.65749999999991), (0.299999999994413, 70.76), (0.299999999994413, 70.52), (5.335, 70.75412499999986), (5.335, 70.63412499999987), (5.335, 70.74412499999987), (5.335, 70.62412499999986), (8.79999999999782, 70.65749999999991), (8.79999999999782, 70.53749999999991)]</t>
+          <t>[(-23397.059385937504, 66490.6466214391), (-23397.059385937504, 66490.40662143909), (-23392.0243859375, 66490.5207464391), (-23392.0243859375, 66490.4007464391), (-23392.0243859375, 66490.5207464391), (-23392.0243859375, 66490.3907464391), (-23388.5593859375, 66490.4341214391), (-23388.5593859375, 66490.3041214391), (-23397.059385937504, 66490.40662143909), (-23397.059385937504, 66490.1666214391), (-23392.0243859375, 66490.4007464391), (-23392.0243859375, 66490.2807464391), (-23392.0243859375, 66490.3907464391), (-23392.0243859375, 66490.2707464391), (-23388.5593859375, 66490.3041214391), (-23388.5593859375, 66490.1841214391)]</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 72.0), (0.29999999999778, 71.78), (5.665, 71.86587499999995), (5.665, 71.74587499999994), (5.665, 71.86587499999995), (5.665, 71.73587499999995), (8.79999999999782, 71.7875), (8.79999999999782, 71.6575), (0.29999999999778, 71.78), (0.29999999999778, 71.56), (5.665, 71.74587499999994), (5.665, 71.62587499999995), (5.665, 71.73587499999995), (5.665, 71.61587499999995), (8.79999999999782, 71.6575), (8.79999999999782, 71.5375)]</t>
+          <t>[(-23397.0593859375, 66528.6369322777), (-23397.0593859375, 66528.4169322777), (-23391.6943859375, 66528.5028072777), (-23391.6943859375, 66528.38280727771), (-23391.6943859375, 66528.5028072777), (-23391.6943859375, 66528.3728072777), (-23388.5593859375, 66528.42443227771), (-23388.5593859375, 66528.2944322777), (-23397.0593859375, 66528.4169322777), (-23397.0593859375, 66528.1969322777), (-23391.6943859375, 66528.38280727771), (-23391.6943859375, 66528.2628072777), (-23391.6943859375, 66528.3728072777), (-23391.6943859375, 66528.2528072777), (-23388.5593859375, 66528.2944322777), (-23388.5593859375, 66528.17443227771)]</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 73.0), (0.29999999999778, 72.88), (6.02, 72.88778486532196), (6.02, 72.76778486532196), (6.02, 72.88778486532196), (6.02, 72.75778486532197), (8.79999999999782, 72.83324674042605), (8.79999999999782, 72.70324674042605), (0.29999999999778, 72.88), (0.29999999999778, 72.59), (6.02, 72.76778486532196), (6.02, 72.63778486532196), (6.02, 72.75778486532197), (6.02, 72.63778486532196), (8.79999999999782, 72.70324674042605), (8.79999999999782, 72.58324674042605)]</t>
+          <t>[(-23268.8593859376, 66490.6032046548), (-23268.8593859376, 66490.48320465481), (-23263.1393859376, 66490.49098952013), (-23263.1393859376, 66490.37098952013), (-23263.1393859376, 66490.49098952013), (-23263.1393859376, 66490.36098952012), (-23260.3593859376, 66490.43645139523), (-23260.3593859376, 66490.30645139523), (-23268.8593859376, 66490.48320465481), (-23268.8593859376, 66490.1932046548), (-23263.1393859376, 66490.37098952013), (-23263.1393859376, 66490.24098952013), (-23263.1393859376, 66490.36098952012), (-23263.1393859376, 66490.24098952013), (-23260.3593859376, 66490.30645139523), (-23260.3593859376, 66490.18645139523)]</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[(0.29999999999778, 74.0), (0.29999999999778, 73.86), (6.342, 74.03251785948873), (6.342, 73.89251785948873), (6.342, 74.03251785948873), (6.342, 73.79251785948874), (8.79999999999782, 74.04574674042604), (8.79999999999782, 73.80574674042604), (0.29999999999778, 73.86), (0.29999999999778, 73.72), (6.342, 73.89251785948873), (6.342, 73.75251785948873), (6.342, 73.79251785948874), (6.342, 73.63251785948873), (8.79999999999782, 73.80574674042604), (8.79999999999782, 73.57574674042604), (0.29999999999778, 73.72), (0.29999999999778, 73.59), (6.342, 73.75251785948873), (6.342, 73.63251785948873), (6.342, 73.63251785948873), (6.342, 73.63251785948873), (8.79999999999782, 73.57574674042604), (8.79999999999782, 73.57574674042604)]</t>
+          <t>[(-23268.8593859376, 66530.5454385703), (-23268.8593859376, 66530.4054385703), (-23262.8173859376, 66530.5779564298), (-23262.8173859376, 66530.4379564298), (-23262.8173859376, 66530.5779564298), (-23262.8173859376, 66530.3379564298), (-23260.3593859376, 66530.59118531072), (-23260.3593859376, 66530.35118531072), (-23268.8593859376, 66530.4054385703), (-23268.8593859376, 66530.2654385703), (-23262.8173859376, 66530.4379564298), (-23262.8173859376, 66530.2979564298), (-23262.8173859376, 66530.3379564298), (-23262.8173859376, 66530.1779564298), (-23260.3593859376, 66530.35118531072), (-23260.3593859376, 66530.12118531072), (-23268.8593859376, 66530.2654385703), (-23268.8593859376, 66530.1354385703), (-23262.8173859376, 66530.2979564298), (-23262.8173859376, 66530.1779564298), (-23262.8173859376, 66530.1779564298), (-23262.8173859376, 66530.1779564298), (-23260.3593859376, 66530.12118531072), (-23260.3593859376, 66530.12118531072)]</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[(0.299999999995624, 75.0), (0.299999999995624, 74.77), (6.655, 75.16581809043396), (6.655, 74.93581809043395), (6.655, 75.16581809043396), (6.655, 74.88581809043396), (8.79999999999048, 75.22178658830634), (8.79999999999048, 74.94178658830634), (0.299999999995624, 74.77), (0.299999999995624, 74.65), (6.655, 74.93581809043395), (6.655, 74.71581809043396), (6.655, 74.88581809043396), (6.655, 74.71581809043396), (8.79999999999048, 74.94178658830634), (8.79999999999048, 74.66178658830634)]</t>
+          <t>[(-23199.859385937605, 66492.4636340243), (-23199.859385937605, 66492.2336340243), (-23193.504385937602, 66492.62945211474), (-23193.504385937602, 66492.39945211474), (-23193.504385937602, 66492.62945211474), (-23193.504385937602, 66492.34945211474), (-23191.35938593761, 66492.6854206126), (-23191.35938593761, 66492.4054206126), (-23199.859385937605, 66492.2336340243), (-23199.859385937605, 66492.1136340243), (-23193.504385937602, 66492.39945211474), (-23193.504385937602, 66492.17945211474), (-23193.504385937602, 66492.34945211474), (-23193.504385937602, 66492.17945211474), (-23191.35938593761, 66492.4054206126), (-23191.35938593761, 66492.1254206126)]</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[(0.300000000001985, 76.0), (0.300000000001985, 75.88), (5.94, 76.17578492447623), (5.94, 76.05578492447623), (5.94, 76.17578492447623), (5.94, 75.91578492447623), (8.80000000000235, 76.26492408830649), (8.80000000000235, 76.00492408830648), (0.300000000001985, 75.88), (0.300000000001985, 75.71), (5.94, 76.05578492447623), (5.94, 75.78578492447623), (5.94, 75.91578492447623), (5.94, 75.78578492447623), (8.80000000000235, 76.00492408830648), (8.80000000000235, 75.70492408830648)]</t>
+          <t>[(-23209.859385937496, 66530.3577910168), (-23209.859385937496, 66530.2377910168), (-23204.2193859375, 66530.53357594127), (-23204.2193859375, 66530.41357594127), (-23204.2193859375, 66530.53357594127), (-23204.2193859375, 66530.27357594128), (-23201.359385937496, 66530.6227151051), (-23201.359385937496, 66530.3627151051), (-23209.859385937496, 66530.2377910168), (-23209.859385937496, 66530.0677910168), (-23204.2193859375, 66530.41357594127), (-23204.2193859375, 66530.14357594127), (-23204.2193859375, 66530.27357594128), (-23204.2193859375, 66530.14357594127), (-23201.359385937496, 66530.3627151051), (-23201.359385937496, 66530.0627151051)]</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[(0.300000000035618, 77.0), (0.300000000035618, 76.88), (6.085, 77.20966309274613), (6.085, 77.08966309274612), (6.085, 77.20966309274613), (6.085, 76.95966309274613), (8.7999999999966, 77.30806158830508), (8.7999999999966, 77.05806158830508), (0.300000000035618, 76.88), (0.300000000035618, 76.74), (6.085, 77.08966309274612), (6.085, 76.83966309274612), (6.085, 76.95966309274613), (6.085, 76.83966309274612), (8.7999999999966, 77.05806158830508), (8.7999999999966, 76.81806158830508)]</t>
+          <t>[(-23080.659385937564, 66490.2279095478), (-23080.659385937564, 66490.1079095478), (-23074.8743859376, 66490.43757264054), (-23074.8743859376, 66490.31757264055), (-23074.8743859376, 66490.43757264054), (-23074.8743859376, 66490.18757264054), (-23072.159385937604, 66490.53597113611), (-23072.159385937604, 66490.28597113611), (-23080.659385937564, 66490.1079095478), (-23080.659385937564, 66489.9679095478), (-23074.8743859376, 66490.31757264055), (-23074.8743859376, 66490.06757264055), (-23074.8743859376, 66490.18757264054), (-23074.8743859376, 66490.06757264055), (-23072.159385937604, 66490.28597113611), (-23072.159385937604, 66490.0459711361)]</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[(0.300000000094991, 78.0), (0.300000000094991, 77.88), (6.357, 78.2502603385693), (6.357, 78.1302603385693), (6.357, 78.2502603385693), (6.357, 78.01026033856931), (8.80000000000213, 78.35119908830265), (8.80000000000213, 78.11119908830266), (0.300000000094991, 77.88), (0.300000000094991, 77.75), (6.357, 78.1302603385693), (6.357, 77.8502603385693), (6.357, 78.01026033856931), (6.357, 77.8502603385693), (8.80000000000213, 78.11119908830266), (8.80000000000213, 77.88119908830265)]</t>
+          <t>[(-23080.659385937408, 66530.0739896172), (-23080.659385937408, 66529.9539896172), (-23074.602385937502, 66530.32424995577), (-23074.602385937502, 66530.20424995577), (-23074.602385937502, 66530.32424995577), (-23074.602385937502, 66530.08424995576), (-23072.1593859375, 66530.4251887055), (-23072.1593859375, 66530.1851887055), (-23080.659385937408, 66529.9539896172), (-23080.659385937408, 66529.8239896172), (-23074.602385937502, 66530.20424995577), (-23074.602385937502, 66529.92424995577), (-23074.602385937502, 66530.08424995576), (-23074.602385937502, 66529.92424995577), (-23072.1593859375, 66530.1851887055), (-23072.1593859375, 66529.9551887055)]</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[(0.300000000159503, 79.0), (0.300000000159503, 78.88), (6.477, 79.28656671834192), (6.477, 79.16656671834191), (6.477, 79.28656671834192), (6.477, 79.09656671834192), (8.80000000000889, 79.3943365882995), (8.80000000000889, 79.2043365882995), (0.300000000159503, 78.88), (0.300000000159503, 78.75), (6.477, 79.16656671834191), (6.477, 78.97656671834191), (6.477, 79.09656671834192), (6.477, 78.97656671834191), (8.80000000000889, 79.2043365882995), (8.80000000000889, 79.02433658829949)]</t>
+          <t>[(-23020.65938593744, 66485.896031225), (-23020.65938593744, 66485.776031225), (-23014.4823859376, 66486.18259794333), (-23014.4823859376, 66486.06259794334), (-23014.4823859376, 66486.18259794333), (-23014.4823859376, 66485.99259794333), (-23012.15938593759, 66486.2903678133), (-23012.15938593759, 66486.1003678133), (-23020.65938593744, 66485.776031225), (-23020.65938593744, 66485.646031225), (-23014.4823859376, 66486.06259794334), (-23014.4823859376, 66485.87259794334), (-23014.4823859376, 66485.99259794333), (-23014.4823859376, 66485.87259794334), (-23012.15938593759, 66486.1003678133), (-23012.15938593759, 66485.9203678133)]</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[(0.300000000058679, 80.0), (0.300000000058679, 79.88), (6.474, 80.31776059072689), (6.474, 80.19776059072689), (6.474, 80.31776059072689), (6.474, 80.1277605907269), (8.79999999999667, 80.43747408830329), (8.79999999999667, 80.24747408830329), (0.300000000058679, 79.88), (0.300000000058679, 79.75), (6.474, 80.19776059072689), (6.474, 80.00776059072689), (6.474, 80.1277605907269), (6.474, 80.00776059072689), (8.79999999999667, 80.24747408830329), (8.79999999999667, 80.0574740883033)]</t>
+          <t>[(-23020.659385937543, 66529.6952312077), (-23020.659385937543, 66529.57523120771), (-23014.4853859376, 66530.01299179843), (-23014.4853859376, 66529.89299179844), (-23014.4853859376, 66530.01299179843), (-23014.4853859376, 66529.82299179843), (-23012.159385937604, 66530.13270529601), (-23012.159385937604, 66529.94270529601), (-23020.659385937543, 66529.57523120771), (-23020.659385937543, 66529.4452312077), (-23014.4853859376, 66529.89299179844), (-23014.4853859376, 66529.70299179843), (-23014.4853859376, 66529.82299179843), (-23014.4853859376, 66529.70299179843), (-23012.159385937604, 66529.94270529601), (-23012.159385937604, 66529.752705296)]</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[(0.300000000002671, 83.0), (0.300000000002671, 82.88), (5.947, 83.33881999999984), (5.947, 83.21881999999984), (5.947, 83.33881999999984), (5.947, 83.21881999999984), (8.80000000000704, 83.51000000000026), (8.80000000000704, 83.39000000000026), (0.300000000002671, 82.88), (0.300000000002671, 82.75), (5.947, 83.21881999999984), (5.947, 83.02881999999984), (5.947, 83.21881999999984), (5.947, 83.02881999999984), (8.80000000000704, 83.39000000000026), (8.80000000000704, 83.10000000000026)]</t>
+          <t>[(-22815.459385937498, 66487.0523258865), (-22815.459385937498, 66486.9323258865), (-22809.8123859375, 66487.3911458865), (-22809.8123859375, 66487.27114588651), (-22809.8123859375, 66487.3911458865), (-22809.8123859375, 66487.27114588651), (-22806.959385937495, 66487.5623258865), (-22806.959385937495, 66487.4423258865), (-22815.459385937498, 66486.9323258865), (-22815.459385937498, 66486.8023258865), (-22809.8123859375, 66487.27114588651), (-22809.8123859375, 66487.0811458865), (-22809.8123859375, 66487.27114588651), (-22809.8123859375, 66487.0811458865), (-22806.959385937495, 66487.4423258865), (-22806.959385937495, 66487.15232588649)]</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[(0.299999999997408, 84.0), (0.299999999997408, 83.88), (6.722, 84.38532000000015), (6.722, 84.26532000000014), (6.722, 84.38532000000015), (6.722, 84.26532000000014), (8.79999999999951, 84.51000000000013), (8.79999999999951, 84.39000000000013), (0.299999999997408, 83.88), (0.299999999997408, 83.75), (6.722, 84.26532000000014), (6.722, 84.06532000000016), (6.722, 84.26532000000014), (6.722, 84.06532000000016), (8.79999999999951, 84.39000000000013), (8.79999999999951, 84.10000000000014)]</t>
+          <t>[(-22815.459385937505, 66530.8032160243), (-22815.459385937505, 66530.6832160243), (-22809.0373859375, 66531.1885360243), (-22809.0373859375, 66531.06853602431), (-22809.0373859375, 66531.1885360243), (-22809.0373859375, 66531.06853602431), (-22806.9593859375, 66531.3132160243), (-22806.9593859375, 66531.1932160243), (-22815.459385937505, 66530.6832160243), (-22815.459385937505, 66530.5532160243), (-22809.0373859375, 66531.06853602431), (-22809.0373859375, 66530.8685360243), (-22809.0373859375, 66531.06853602431), (-22809.0373859375, 66530.8685360243), (-22806.9593859375, 66531.1932160243), (-22806.9593859375, 66530.9032160243)]</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[(0.299999999999467, 86.0), (0.299999999999467, 85.88), (6.576, 86.37656000000003), (6.576, 86.25656000000002), (6.576, 86.37656000000003), (6.576, 86.25656000000002), (8.80000000000066, 86.51000000000008), (8.80000000000066, 86.39000000000007), (0.299999999999467, 85.88), (0.299999999999467, 85.75), (6.576, 86.25656000000002), (6.576, 86.06656000000002), (6.576, 86.25656000000002), (6.576, 86.06656000000002), (8.80000000000066, 86.39000000000007), (8.80000000000066, 86.12000000000008)]</t>
+          <t>[(-22695.2593859375, 66532.2403411274), (-22695.2593859375, 66532.1203411274), (-22688.9833859375, 66532.6169011274), (-22688.9833859375, 66532.49690112741), (-22688.9833859375, 66532.6169011274), (-22688.9833859375, 66532.49690112741), (-22686.7593859375, 66532.7503411274), (-22686.7593859375, 66532.6303411274), (-22695.2593859375, 66532.1203411274), (-22695.2593859375, 66531.9903411274), (-22688.9833859375, 66532.49690112741), (-22688.9833859375, 66532.3069011274), (-22688.9833859375, 66532.49690112741), (-22688.9833859375, 66532.3069011274), (-22686.7593859375, 66532.6303411274), (-22686.7593859375, 66532.3603411274)]</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[(0.300000000000641, 90.0), (0.300000000000641, 89.87), (6.313, 90.36077999999996), (6.313, 90.23077999999997), (6.313, 90.36077999999996), (6.313, 90.24077999999996), (8.79999999999656, 90.50999999999975), (8.79999999999656, 90.38999999999974), (0.300000000000641, 89.87), (0.300000000000641, 89.75), (6.313, 90.23077999999997), (6.313, 90.11077999999996), (6.313, 90.24077999999996), (6.313, 90.11077999999996), (8.79999999999656, 90.38999999999974), (8.79999999999656, 90.18999999999976)]</t>
+          <t>[(-22516.0593859375, 66528.855970644), (-22516.0593859375, 66528.725970644), (-22510.0463859375, 66529.216750644), (-22510.0463859375, 66529.086750644), (-22510.0463859375, 66529.216750644), (-22510.0463859375, 66529.096750644), (-22507.559385937504, 66529.365970644), (-22507.559385937504, 66529.245970644), (-22516.0593859375, 66528.725970644), (-22516.0593859375, 66528.605970644), (-22510.0463859375, 66529.086750644), (-22510.0463859375, 66528.966750644), (-22510.0463859375, 66529.096750644), (-22510.0463859375, 66528.966750644), (-22507.559385937504, 66529.245970644), (-22507.559385937504, 66529.04597064399)]</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[(0.300000000001064, 95.0), (0.300000000001064, 94.87), (6.432, 95.36791999999994), (6.432, 95.23791999999995), (6.432, 95.36791999999994), (6.432, 95.24791999999994), (8.79999999999888, 95.50999999999986), (8.79999999999888, 95.38999999999986), (0.300000000001064, 94.87), (0.300000000001064, 94.75), (6.432, 95.23791999999995), (6.432, 95.11791999999994), (6.432, 95.24791999999994), (6.432, 95.11791999999994), (8.79999999999888, 95.38999999999986), (8.79999999999888, 95.17999999999986)]</t>
+          <t>[(-22259.8593859375, 66490.6405937467), (-22259.8593859375, 66490.5105937467), (-22253.7273859375, 66491.00851374671), (-22253.7273859375, 66490.8785137467), (-22253.7273859375, 66491.00851374671), (-22253.7273859375, 66490.88851374672), (-22251.3593859375, 66491.1505937467), (-22251.3593859375, 66491.0305937467), (-22259.8593859375, 66490.5105937467), (-22259.8593859375, 66490.3905937467), (-22253.7273859375, 66490.8785137467), (-22253.7273859375, 66490.75851374671), (-22253.7273859375, 66490.88851374672), (-22253.7273859375, 66490.75851374671), (-22251.3593859375, 66491.0305937467), (-22251.3593859375, 66490.8205937467)]</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[(0.299999999999618, 96.0), (0.299999999999618, 95.87), (6.457, 96.36942000000002), (6.457, 96.23942000000002), (6.457, 96.36942000000002), (6.457, 96.24942000000001), (8.79999999999794, 96.5099999999999), (8.79999999999794, 96.3899999999999), (0.299999999999618, 95.87), (0.299999999999618, 95.75), (6.457, 96.23942000000002), (6.457, 96.11942000000002), (6.457, 96.24942000000001), (6.457, 96.11942000000002), (8.79999999999794, 96.3899999999999), (8.79999999999794, 96.18999999999991)]</t>
+          <t>[(-22259.8593859375, 66530.1392764053), (-22259.8593859375, 66530.0092764053), (-22253.7023859375, 66530.5086964053), (-22253.7023859375, 66530.3786964053), (-22253.7023859375, 66530.5086964053), (-22253.7023859375, 66530.38869640531), (-22251.3593859375, 66530.6492764053), (-22251.3593859375, 66530.5292764053), (-22259.8593859375, 66530.0092764053), (-22259.8593859375, 66529.8892764053), (-22253.7023859375, 66530.3786964053), (-22253.7023859375, 66530.2586964053), (-22253.7023859375, 66530.38869640531), (-22253.7023859375, 66530.2586964053), (-22251.3593859375, 66530.5292764053), (-22251.3593859375, 66530.32927640529)]</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[(0.300000000087984, 97.0), (0.300000000087984, 96.87), (6.56, 97.35607754594419), (6.56, 97.2260775459442), (6.56, 97.35607754594419), (6.56, 97.23607754594418), (8.79999999999993, 97.48349187548511), (8.79999999999993, 97.36349187548511), (0.300000000087984, 96.87), (0.300000000087984, 96.75), (6.56, 97.2260775459442), (6.56, 97.10607754594419), (6.56, 97.23607754594418), (6.56, 97.10607754594419), (8.79999999999993, 97.36349187548511), (8.79999999999993, 97.17349187548511)]</t>
+          <t>[(-22139.659385937415, 66491.6373962202), (-22139.659385937415, 66491.5073962202), (-22133.3993859375, 66491.99347376615), (-22133.3993859375, 66491.86347376615), (-22133.3993859375, 66491.99347376615), (-22133.3993859375, 66491.87347376616), (-22131.159385937503, 66492.12088809568), (-22131.159385937503, 66492.00088809569), (-22139.659385937415, 66491.5073962202), (-22139.659385937415, 66491.3873962202), (-22133.3993859375, 66491.86347376615), (-22133.3993859375, 66491.74347376615), (-22133.3993859375, 66491.87347376616), (-22133.3993859375, 66491.74347376615), (-22131.159385937503, 66492.00088809569), (-22131.159385937503, 66491.81088809569)]</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[(0.30000000002776, 98.0), (0.30000000002776, 97.87), (6.652, 98.28646344144754), (6.652, 98.15646344144754), (6.652, 98.28646344144754), (6.652, 98.15646344144754), (8.80000000000252, 98.38333426516176), (8.80000000000252, 98.25333426516177), (0.30000000002776, 97.87), (0.30000000002776, 97.75), (6.652, 98.15646344144754), (6.652, 98.03646344144754), (6.652, 98.15646344144754), (6.652, 98.03646344144754), (8.80000000000252, 98.25333426516177), (8.80000000000252, 98.13333426516176)]</t>
+          <t>[(-22139.65938593767, 66531.1355160351), (-22139.65938593767, 66531.00551603509), (-22133.3073859377, 66531.42197947654), (-22133.3073859377, 66531.29197947653), (-22133.3073859377, 66531.42197947654), (-22133.3073859377, 66531.29197947653), (-22131.159385937695, 66531.51885030026), (-22131.159385937695, 66531.38885030025), (-22139.65938593767, 66531.00551603509), (-22139.65938593767, 66530.8855160351), (-22133.3073859377, 66531.29197947653), (-22133.3073859377, 66531.17197947654), (-22133.3073859377, 66531.29197947653), (-22133.3073859377, 66531.17197947654), (-22131.159385937695, 66531.38885030025), (-22131.159385937695, 66531.26885030026)]</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[(0.30000000000277, 99.0), (0.30000000000277, 98.87), (6.722, 99.2139482914534), (6.722, 99.08394829145341), (6.722, 99.2139482914534), (6.722, 99.08394829145341), (8.80000000000027, 99.2831766548356), (8.80000000000027, 99.1531766548356), (0.30000000000277, 98.87), (0.30000000000277, 98.75), (6.722, 99.08394829145341), (6.722, 98.9639482914534), (6.722, 99.08394829145341), (6.722, 98.9639482914534), (8.80000000000027, 99.1531766548356), (8.80000000000027, 99.0331766548356)]</t>
+          <t>[(-22079.6593859375, 66490.6340514997), (-22079.6593859375, 66490.5040514997), (-22073.2373859375, 66490.84799979115), (-22073.2373859375, 66490.71799979114), (-22073.2373859375, 66490.84799979115), (-22073.2373859375, 66490.71799979114), (-22071.159385937503, 66490.91722815453), (-22071.159385937503, 66490.78722815453), (-22079.6593859375, 66490.5040514997), (-22079.6593859375, 66490.3840514997), (-22073.2373859375, 66490.71799979114), (-22073.2373859375, 66490.59799979115), (-22073.2373859375, 66490.71799979114), (-22073.2373859375, 66490.59799979115), (-22071.159385937503, 66490.78722815453), (-22071.159385937503, 66490.66722815453)]</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[(0.300000000010577, 100.0), (0.300000000010577, 99.87), (6.445, 100.1636310649405), (6.445, 100.03363106494051), (6.445, 100.1636310649405), (6.445, 100.03363106494051), (8.80000000000052, 100.22634077331082), (8.80000000000052, 100.09634077331083), (0.300000000010577, 99.87), (0.300000000010577, 99.75), (6.445, 100.03363106494051), (6.445, 99.9136310649405), (6.445, 100.03363106494051), (6.445, 99.9136310649405), (8.80000000000052, 100.09634077331083), (8.80000000000052, 99.97634077331082)]</t>
+          <t>[(-22079.659385937688, 66530.1576842246), (-22079.659385937688, 66530.0276842246), (-22073.5143859377, 66530.32131528953), (-22073.5143859377, 66530.19131528953), (-22073.5143859377, 66530.32131528953), (-22073.5143859377, 66530.19131528953), (-22071.1593859377, 66530.38402499791), (-22071.1593859377, 66530.2540249979), (-22079.659385937688, 66530.0276842246), (-22079.659385937688, 66529.9076842246), (-22073.5143859377, 66530.19131528953), (-22073.5143859377, 66530.07131528953), (-22073.5143859377, 66530.19131528953), (-22073.5143859377, 66530.07131528953), (-22071.1593859377, 66530.2540249979), (-22071.1593859377, 66530.13402499791)]</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[(0.300000000055869, 101.0), (0.300000000055869, 100.87), (6.237, 101.15543056905005), (6.237, 101.02543056905006), (6.237, 101.15543056905005), (6.237, 101.02543056905006), (8.80000000000165, 101.22252986978769), (8.80000000000165, 101.0925298697877), (0.300000000055869, 100.87), (0.300000000055869, 100.75), (6.237, 101.02543056905006), (6.237, 100.90543056905005), (6.237, 101.02543056905006), (6.237, 100.90543056905005), (8.80000000000165, 101.0925298697877), (8.80000000000165, 100.97252986978769)]</t>
+          <t>[(-21951.459385937444, 66489.7208739115), (-21951.459385937444, 66489.5908739115), (-21945.5223859375, 66489.87630448055), (-21945.5223859375, 66489.74630448055), (-21945.5223859375, 66489.87630448055), (-21945.5223859375, 66489.74630448055), (-21942.959385937498, 66489.94340378129), (-21942.959385937498, 66489.81340378129), (-21951.459385937444, 66489.5908739115), (-21951.459385937444, 66489.4708739115), (-21945.5223859375, 66489.74630448055), (-21945.5223859375, 66489.62630448055), (-21945.5223859375, 66489.74630448055), (-21945.5223859375, 66489.62630448055), (-21942.959385937498, 66489.81340378129), (-21942.959385937498, 66489.69340378129)]</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[(0.300000000134832, 102.0), (0.300000000134832, 101.87), (6.118, 102.14970669949561), (6.118, 102.01970669949561), (6.118, 102.14970669949561), (6.118, 102.0297066994956), (8.8000000000064, 102.21871896626382), (8.8000000000064, 102.09871896626382), (0.300000000134832, 101.87), (0.300000000134832, 101.75), (6.118, 102.01970669949561), (6.118, 101.89970669949561), (6.118, 102.0297066994956), (6.118, 101.89970669949561), (8.8000000000064, 102.09871896626382), (8.8000000000064, 101.90871896626382)]</t>
+          <t>[(-21951.459385937567, 66525.3236205604), (-21951.459385937567, 66525.1936205604), (-21945.641385937703, 66525.4733272599), (-21945.641385937703, 66525.34332725989), (-21945.641385937703, 66525.4733272599), (-21945.641385937703, 66525.3533272599), (-21942.959385937695, 66525.54233952667), (-21942.959385937695, 66525.42233952667), (-21951.459385937567, 66525.1936205604), (-21951.459385937567, 66525.0736205604), (-21945.641385937703, 66525.34332725989), (-21945.641385937703, 66525.2233272599), (-21945.641385937703, 66525.3533272599), (-21945.641385937703, 66525.2233272599), (-21942.959385937695, 66525.42233952667), (-21942.959385937695, 66525.23233952667)]</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[(0.300000000000174, 106.0), (0.300000000000174, 105.88), (6.128, 105.85430000000001), (6.128, 105.7343), (6.128, 105.85430000000001), (6.128, 105.72430000000001), (8.79999999999746, 105.78750000000007), (8.79999999999746, 105.65750000000007), (0.300000000000174, 105.88), (0.300000000000174, 105.66), (6.128, 105.7343), (6.128, 105.60430000000001), (6.128, 105.72430000000001), (6.128, 105.60430000000001), (8.79999999999746, 105.65750000000007), (8.79999999999746, 105.53750000000007)]</t>
+          <t>[(-21763.2593859375, 66528.1301767765), (-21763.2593859375, 66528.0101767765), (-21757.4313859375, 66527.9844767765), (-21757.4313859375, 66527.8644767765), (-21757.4313859375, 66527.9844767765), (-21757.4313859375, 66527.8544767765), (-21754.7593859375, 66527.9176767765), (-21754.7593859375, 66527.7876767765), (-21763.2593859375, 66528.0101767765), (-21763.2593859375, 66527.7901767765), (-21757.4313859375, 66527.8644767765), (-21757.4313859375, 66527.7344767765), (-21757.4313859375, 66527.8544767765), (-21757.4313859375, 66527.7344767765), (-21754.7593859375, 66527.7876767765), (-21754.7593859375, 66527.6676767765)]</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[(0.299999999996536, 107.0), (0.299999999996536, 106.88), (6.097, 106.85507499999991), (6.097, 106.73507499999991), (6.097, 106.85507499999991), (6.097, 106.72507499999992), (8.8000000000011, 106.78749999999988), (8.8000000000011, 106.65749999999989), (0.299999999996536, 106.88), (0.299999999996536, 106.6), (6.097, 106.73507499999991), (6.097, 106.60507499999991), (6.097, 106.72507499999992), (6.097, 106.60507499999991), (8.8000000000011, 106.65749999999989), (8.8000000000011, 106.53749999999988)]</t>
+          <t>[(-21703.259385937505, 66487.93070823551), (-21703.259385937505, 66487.81070823551), (-21697.4623859375, 66487.78578323551), (-21697.4623859375, 66487.66578323551), (-21697.4623859375, 66487.78578323551), (-21697.4623859375, 66487.6557832355), (-21694.759385937497, 66487.71820823551), (-21694.759385937497, 66487.58820823551), (-21703.259385937505, 66487.81070823551), (-21703.259385937505, 66487.53070823551), (-21697.4623859375, 66487.66578323551), (-21697.4623859375, 66487.53578323551), (-21697.4623859375, 66487.6557832355), (-21697.4623859375, 66487.53578323551), (-21694.759385937497, 66487.58820823551), (-21694.759385937497, 66487.46820823551)]</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[(0.300000000000174, 108.0), (0.300000000000174, 107.78), (6.117, 107.85457500000001), (6.117, 107.734575), (6.117, 107.85457500000001), (6.117, 107.72457500000002), (8.8000000000011, 107.78749999999998), (8.8000000000011, 107.65749999999998), (0.300000000000174, 107.78), (0.300000000000174, 107.56), (6.117, 107.734575), (6.117, 107.61457500000002), (6.117, 107.72457500000002), (6.117, 107.60457500000001), (8.8000000000011, 107.65749999999998), (8.8000000000011, 107.53749999999998)]</t>
+          <t>[(-21703.2593859375, 66525.7707966566), (-21703.2593859375, 66525.5507966566), (-21697.442385937502, 66525.6253716566), (-21697.442385937502, 66525.5053716566), (-21697.442385937502, 66525.6253716566), (-21697.442385937502, 66525.4953716566), (-21694.759385937497, 66525.5582966566), (-21694.759385937497, 66525.4282966566), (-21703.2593859375, 66525.5507966566), (-21703.2593859375, 66525.33079665659), (-21697.442385937502, 66525.5053716566), (-21697.442385937502, 66525.3853716566), (-21697.442385937502, 66525.4953716566), (-21697.442385937502, 66525.3753716566), (-21694.759385937497, 66525.4282966566), (-21694.759385937497, 66525.3082966566)]</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[(0.299999999996536, 109.0), (0.299999999996536, 108.88), (6.177, 108.85307499999992), (6.177, 108.73307499999991), (6.177, 108.85307499999992), (6.177, 108.70307499999991), (8.79999999999746, 108.78749999999998), (8.79999999999746, 108.63749999999997), (0.299999999996536, 108.88), (0.299999999996536, 108.6), (6.177, 108.73307499999991), (6.177, 108.57307499999992), (6.177, 108.70307499999991), (6.177, 108.57307499999992), (8.79999999999746, 108.63749999999997), (8.79999999999746, 108.51749999999998)]</t>
+          <t>[(-21575.059385937606, 66487.6504420397), (-21575.059385937606, 66487.5304420397), (-21569.1823859376, 66487.5035170397), (-21569.1823859376, 66487.3835170397), (-21569.1823859376, 66487.5035170397), (-21569.1823859376, 66487.35351703971), (-21566.559385937602, 66487.4379420397), (-21566.559385937602, 66487.28794203971), (-21575.059385937606, 66487.5304420397), (-21575.059385937606, 66487.2504420397), (-21569.1823859376, 66487.3835170397), (-21569.1823859376, 66487.2235170397), (-21569.1823859376, 66487.35351703971), (-21569.1823859376, 66487.2235170397), (-21566.559385937602, 66487.28794203971), (-21566.559385937602, 66487.1679420397)]</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[(0.300000000000174, 110.0), (0.300000000000174, 109.81), (6.137, 109.85407500000001), (6.137, 109.66407500000001), (6.137, 109.85407500000001), (6.137, 109.674075), (8.8000000000011, 109.78749999999998), (8.8000000000011, 109.60749999999997), (0.300000000000174, 109.81), (0.300000000000174, 109.63), (6.137, 109.66407500000001), (6.137, 109.50407500000001), (6.137, 109.674075), (6.137, 109.50407500000001), (8.8000000000011, 109.60749999999997), (8.8000000000011, 109.43749999999999)]</t>
+          <t>[(-21575.059385937602, 66525.5696443849), (-21575.059385937602, 66525.3796443849), (-21569.222385937603, 66525.4237193849), (-21569.222385937603, 66525.2337193849), (-21569.222385937603, 66525.4237193849), (-21569.222385937603, 66525.2437193849), (-21566.5593859376, 66525.3571443849), (-21566.5593859376, 66525.17714438491), (-21575.059385937602, 66525.3796443849), (-21575.059385937602, 66525.1996443849), (-21569.222385937603, 66525.2337193849), (-21569.222385937603, 66525.07371938489), (-21569.222385937603, 66525.2437193849), (-21569.222385937603, 66525.07371938489), (-21566.5593859376, 66525.17714438491), (-21566.5593859376, 66525.0071443849)]</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[(0.300000000108038, 111.0), (0.300000000108038, 110.82), (6.312, 110.82593141404251), (6.312, 110.64593141404251), (6.312, 110.82593141404251), (6.312, 110.65593141404251), (8.80000000000234, 110.75389504646594), (8.80000000000234, 110.58389504646594), (0.300000000108038, 110.82), (0.300000000108038, 110.65), (6.312, 110.64593141404251), (6.312, 110.50593141404252), (6.312, 110.65593141404251), (6.312, 110.50593141404252), (8.80000000000234, 110.58389504646594), (8.80000000000234, 110.41389504646594)]</t>
+          <t>[(-21575.05938593739, 66561.52840369211), (-21575.05938593739, 66561.34840369211), (-21569.047385937498, 66561.35433510615), (-21569.047385937498, 66561.17433510616), (-21569.047385937498, 66561.35433510615), (-21569.047385937498, 66561.18433510615), (-21566.559385937497, 66561.28229873857), (-21566.559385937497, 66561.11229873858), (-21575.05938593739, 66561.34840369211), (-21575.05938593739, 66561.1784036921), (-21569.047385937498, 66561.17433510616), (-21569.047385937498, 66561.03433510615), (-21569.047385937498, 66561.18433510615), (-21569.047385937498, 66561.03433510615), (-21566.559385937497, 66561.11229873858), (-21566.559385937497, 66560.94229873858)]</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[(0.300000000002292, 112.0), (0.300000000002292, 111.81), (6.418, 111.79769728581374), (6.418, 111.60769728581374), (6.418, 111.79769728581374), (6.418, 111.61769728581373), (8.7999999999953, 111.71893215583812), (8.7999999999953, 111.53893215583811), (0.300000000002292, 111.81), (0.300000000002292, 111.62), (6.418, 111.60769728581374), (6.418, 111.45769728581374), (6.418, 111.61769728581373), (6.418, 111.45769728581374), (8.7999999999953, 111.53893215583811), (8.7999999999953, 111.36893215583812)]</t>
+          <t>[(-21515.059385937497, 66487.5267199613), (-21515.059385937497, 66487.3367199613), (-21508.941385937498, 66487.32441724712), (-21508.941385937498, 66487.13441724711), (-21508.941385937498, 66487.32441724712), (-21508.941385937498, 66487.14441724712), (-21506.559385937504, 66487.24565211714), (-21506.559385937504, 66487.06565211715), (-21515.059385937497, 66487.3367199613), (-21515.059385937497, 66487.1467199613), (-21508.941385937498, 66487.13441724711), (-21508.941385937498, 66486.98441724712), (-21508.941385937498, 66487.14441724712), (-21508.941385937498, 66486.98441724712), (-21506.559385937504, 66487.06565211715), (-21506.559385937504, 66486.89565211713)]</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[(0.300000000032186, 113.0), (0.300000000032186, 112.78), (6.512, 112.76903730300148), (6.512, 112.54903730300148), (6.512, 112.76903730300148), (6.512, 112.58903730300148), (8.79999999999705, 112.68396926521419), (8.79999999999705, 112.50396926521418), (0.300000000032186, 112.78), (0.300000000032186, 112.56), (6.512, 112.54903730300148), (6.512, 112.41903730300149), (6.512, 112.58903730300148), (6.512, 112.41903730300149), (8.79999999999705, 112.50396926521418), (8.79999999999705, 112.32396926521419)]</t>
+          <t>[(-21515.05938593757, 66525.5645931925), (-21515.05938593757, 66525.3445931925), (-21508.847385937603, 66525.3336304955), (-21508.847385937603, 66525.1136304955), (-21508.847385937603, 66525.3336304955), (-21508.847385937603, 66525.15363049551), (-21506.559385937606, 66525.24856245771), (-21506.559385937606, 66525.06856245772), (-21515.05938593757, 66525.3445931925), (-21515.05938593757, 66525.1245931925), (-21508.847385937603, 66525.1136304955), (-21508.847385937603, 66524.9836304955), (-21508.847385937603, 66525.15363049551), (-21508.847385937603, 66524.9836304955), (-21506.559385937606, 66525.06856245772), (-21506.559385937606, 66524.88856245771)]</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[(0.300000000043829, 114.0), (0.300000000043829, 113.79), (6.414, 113.74753234991127), (6.414, 113.53753234991127), (6.414, 113.74753234991127), (6.414, 113.56753234991126), (8.79999999999761, 113.64900637458979), (8.79999999999761, 113.46900637458978), (0.300000000043829, 113.79), (0.300000000043829, 113.59), (6.414, 113.53753234991127), (6.414, 113.38753234991127), (6.414, 113.56753234991126), (6.414, 113.38753234991127), (8.79999999999761, 113.46900637458978), (8.79999999999761, 113.2990063745898)]</t>
+          <t>[(-21515.05938593756, 66561.6420233857), (-21515.05938593756, 66561.4320233857), (-21508.9453859376, 66561.38955573562), (-21508.9453859376, 66561.17955573561), (-21508.9453859376, 66561.38955573562), (-21508.9453859376, 66561.20955573562), (-21506.559385937602, 66561.2910297603), (-21506.559385937602, 66561.1110297603), (-21515.05938593756, 66561.4320233857), (-21515.05938593756, 66561.2320233857), (-21508.9453859376, 66561.17955573561), (-21508.9453859376, 66561.02955573561), (-21508.9453859376, 66561.20955573562), (-21508.9453859376, 66561.02955573561), (-21506.559385937602, 66561.1110297603), (-21506.559385937602, 66560.94102976029)]</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[(0.300000000003786, 115.0), (0.300000000003786, 114.79), (6.03, 114.7398199015422), (6.03, 114.52981990154221), (6.03, 114.7398199015422), (6.03, 114.54981990154221), (8.7999999999983, 114.61404348396313), (8.7999999999983, 114.42404348396313), (0.300000000003786, 114.79), (0.300000000003786, 114.58), (6.03, 114.52981990154221), (6.03, 114.3698199015422), (6.03, 114.54981990154221), (6.03, 114.3698199015422), (8.7999999999983, 114.42404348396313), (8.7999999999983, 114.25404348396313)]</t>
+          <t>[(-21386.859385937496, 66487.759010541), (-21386.859385937496, 66487.549010541), (-21381.1293859375, 66487.49883044255), (-21381.1293859375, 66487.28883044254), (-21381.1293859375, 66487.49883044255), (-21381.1293859375, 66487.30883044255), (-21378.3593859375, 66487.37305402497), (-21378.3593859375, 66487.18305402496), (-21386.859385937496, 66487.549010541), (-21386.859385937496, 66487.339010541), (-21381.1293859375, 66487.28883044254), (-21381.1293859375, 66487.12883044255), (-21381.1293859375, 66487.30883044255), (-21381.1293859375, 66487.12883044255), (-21378.3593859375, 66487.18305402496), (-21378.3593859375, 66487.01305402497)]</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[(0.300000000101338, 116.0), (0.300000000101338, 115.79), (5.667, 115.73422653464554), (5.667, 115.52422653464555), (5.667, 115.73422653464554), (5.667, 115.54422653464555), (8.79999999999987, 115.57908059334291), (8.79999999999987, 115.38908059334291), (0.300000000101338, 115.79), (0.300000000101338, 115.58), (5.667, 115.52422653464555), (5.667, 115.35422653464555), (5.667, 115.54422653464555), (5.667, 115.35422653464555), (8.79999999999987, 115.38908059334291), (8.79999999999987, 115.2090805933429)]</t>
+          <t>[(-21386.859385937598, 66525.9155546583), (-21386.859385937598, 66525.7055546583), (-21381.492385937698, 66525.64978119296), (-21381.492385937698, 66525.43978119295), (-21381.492385937698, 66525.64978119296), (-21381.492385937698, 66525.45978119296), (-21378.3593859377, 66525.49463525164), (-21378.3593859377, 66525.30463525164), (-21386.859385937598, 66525.7055546583), (-21386.859385937598, 66525.49555465831), (-21381.492385937698, 66525.43978119295), (-21381.492385937698, 66525.26978119295), (-21381.492385937698, 66525.45978119296), (-21381.492385937698, 66525.26978119295), (-21378.3593859377, 66525.30463525164), (-21378.3593859377, 66525.12463525165)]</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[(0.300000000007032, 117.0), (0.300000000007032, 116.78), (5.54, 116.71896197202572), (5.54, 116.49896197202573), (5.54, 116.71896197202572), (5.54, 116.52896197202573), (8.80000000000471, 116.54411770271301), (8.80000000000471, 116.35411770271301), (0.300000000007032, 116.78), (0.300000000007032, 116.57), (5.54, 116.49896197202573), (5.54, 116.34896197202572), (5.54, 116.52896197202573), (5.54, 116.34896197202572), (8.80000000000471, 116.35411770271301), (8.80000000000471, 116.204117702713)]</t>
+          <t>[(-21326.859385937492, 66488.11165573761), (-21326.859385937492, 66487.8916557376), (-21321.619385937498, 66487.83061770964), (-21321.619385937498, 66487.61061770964), (-21321.619385937498, 66487.83061770964), (-21321.619385937498, 66487.64061770964), (-21318.359385937496, 66487.65577344032), (-21318.359385937496, 66487.46577344032), (-21326.859385937492, 66487.8916557376), (-21326.859385937492, 66487.68165573762), (-21321.619385937498, 66487.61061770964), (-21321.619385937498, 66487.46061770964), (-21321.619385937498, 66487.64061770964), (-21321.619385937498, 66487.46061770964), (-21318.359385937496, 66487.46577344032), (-21318.359385937496, 66487.31577344032)]</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[(0.30000000003951, 118.0), (0.30000000003951, 117.79), (5.261, 117.7135196497397), (5.261, 117.5035196497397), (5.261, 117.7135196497397), (5.261, 117.53351964973969), (8.79999999999931, 117.5091548120902), (8.79999999999931, 117.3291548120902), (0.30000000003951, 117.79), (0.30000000003951, 117.59), (5.261, 117.5035196497397), (5.261, 117.3535196497397), (5.261, 117.53351964973969), (5.261, 117.3535196497397), (8.79999999999931, 117.3291548120902), (8.79999999999931, 117.18915481209021)]</t>
+          <t>[(-21326.85938593756, 66526.347313779), (-21326.85938593756, 66526.13731377899), (-21321.898385937602, 66526.06083342874), (-21321.898385937602, 66525.85083342873), (-21321.898385937602, 66526.06083342874), (-21321.898385937602, 66525.88083342875), (-21318.3593859376, 66525.85646859108), (-21318.3593859376, 66525.67646859109), (-21326.85938593756, 66526.13731377899), (-21326.85938593756, 66525.937313779), (-21321.898385937602, 66525.85083342873), (-21321.898385937602, 66525.70083342874), (-21321.898385937602, 66525.88083342875), (-21321.898385937602, 66525.70083342874), (-21318.3593859376, 66525.67646859109), (-21318.3593859376, 66525.53646859108)]</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[(0.300000000046213, 119.0), (0.300000000046213, 118.78), (4.898, 118.71556875940125), (4.898, 118.49556875940125), (4.898, 118.71556875940125), (4.898, 118.53556875940124), (8.80000000000765, 118.47419192146526), (8.80000000000765, 118.29419192146526), (0.300000000046213, 118.78), (0.300000000046213, 118.56), (4.898, 118.49556875940125), (4.898, 118.36556875940126), (4.898, 118.53556875940124), (4.898, 118.36556875940126), (8.80000000000765, 118.29419192146526), (8.80000000000765, 118.17419192146527)]</t>
+          <t>[(-21198.659385937754, 66488.6225287823), (-21198.659385937754, 66488.4025287823), (-21194.0613859378, 66488.33809754171), (-21194.0613859378, 66488.11809754171), (-21194.0613859378, 66488.33809754171), (-21194.0613859378, 66488.15809754172), (-21190.159385937794, 66488.09672070378), (-21190.159385937794, 66487.91672070378), (-21198.659385937754, 66488.4025287823), (-21198.659385937754, 66488.1825287823), (-21194.0613859378, 66488.11809754171), (-21194.0613859378, 66487.9880975417), (-21194.0613859378, 66488.15809754172), (-21194.0613859378, 66487.9880975417), (-21190.159385937794, 66487.91672070378), (-21190.159385937794, 66487.79672070377)]</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[(0.30000000000698, 120.0), (0.30000000000698, 119.77), (4.833, 119.70094414079907), (4.833, 119.47094414079906), (4.833, 119.70094414079907), (4.833, 119.58094414079906), (8.80000000000495, 119.43922903083802), (8.80000000000495, 119.31922903083802), (0.30000000000698, 119.77), (0.30000000000698, 119.55), (4.833, 119.47094414079906), (4.833, 119.35094414079907), (4.833, 119.58094414079906), (4.833, 119.35094414079907), (8.80000000000495, 119.31922903083802), (8.80000000000495, 119.15922903083802)]</t>
+          <t>[(-21198.659385937495, 66528.9373007477), (-21198.659385937495, 66528.7073007477), (-21194.126385937503, 66528.6382448885), (-21194.126385937503, 66528.4082448885), (-21194.126385937503, 66528.6382448885), (-21194.126385937503, 66528.5182448885), (-21190.159385937495, 66528.37652977853), (-21190.159385937495, 66528.25652977853), (-21198.659385937495, 66528.7073007477), (-21198.659385937495, 66528.4873007477), (-21194.126385937503, 66528.4082448885), (-21194.126385937503, 66528.28824488849), (-21194.126385937503, 66528.5182448885), (-21194.126385937503, 66528.28824488849), (-21190.159385937495, 66528.25652977853), (-21190.159385937495, 66528.09652977853)]</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[(0.299999999999173, 121.0), (0.299999999999173, 120.84), (5.013, 120.67008999999995), (5.013, 120.51008999999995), (5.013, 120.67008999999995), (5.013, 120.55008999999994), (8.80000000000649, 120.40499999999949), (8.80000000000649, 120.28499999999948), (0.299999999999173, 120.84), (0.299999999999173, 120.54), (5.013, 120.51008999999995), (5.013, 120.33008999999994), (5.013, 120.55008999999994), (5.013, 120.33008999999994), (8.80000000000649, 120.28499999999948), (8.80000000000649, 120.14499999999948)]</t>
+          <t>[(-21138.659385937503, 66489.29162967521), (-21138.659385937503, 66489.1316296752), (-21133.946385937503, 66488.96171967521), (-21133.946385937503, 66488.8017196752), (-21133.946385937503, 66488.96171967521), (-21133.946385937503, 66488.84171967521), (-21130.159385937495, 66488.6966296752), (-21130.159385937495, 66488.57662967521), (-21138.659385937503, 66489.1316296752), (-21138.659385937503, 66488.8316296752), (-21133.946385937503, 66488.8017196752), (-21133.946385937503, 66488.62171967521), (-21133.946385937503, 66488.84171967521), (-21133.946385937503, 66488.62171967521), (-21130.159385937495, 66488.57662967521), (-21130.159385937495, 66488.43662967521)]</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[(0.29999999999991, 122.0), (0.29999999999991, 121.78), (5.383, 121.64419), (5.383, 121.42419), (5.383, 121.64419), (5.383, 121.52418999999999), (8.79999999999989, 121.405), (8.79999999999989, 121.285), (0.29999999999991, 121.78), (0.29999999999991, 121.56), (5.383, 121.42419), (5.383, 121.27418999999999), (5.383, 121.52418999999999), (5.383, 121.27418999999999), (8.79999999999989, 121.285), (8.79999999999989, 121.105)]</t>
+          <t>[(-21138.659385937503, 66527.6855155646), (-21138.659385937503, 66527.4655155646), (-21133.5763859375, 66527.32970556461), (-21133.5763859375, 66527.10970556461), (-21133.5763859375, 66527.32970556461), (-21133.5763859375, 66527.20970556462), (-21130.159385937503, 66527.0905155646), (-21130.159385937503, 66526.97051556461), (-21138.659385937503, 66527.4655155646), (-21138.659385937503, 66527.2455155646), (-21133.5763859375, 66527.10970556461), (-21133.5763859375, 66526.95970556462), (-21133.5763859375, 66527.20970556462), (-21133.5763859375, 66526.95970556462), (-21130.159385937503, 66526.97051556461), (-21130.159385937503, 66526.7905155646)]</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[(0.299999999999543, 123.0), (0.299999999999543, 122.8), (5.656, 122.62507999999997), (5.656, 122.42507999999997), (5.656, 122.62507999999997), (5.656, 122.44507999999996), (8.80000000000053, 122.40499999999993), (8.80000000000053, 122.22499999999992), (0.299999999999543, 122.8), (0.299999999999543, 122.5), (5.656, 122.42507999999997), (5.656, 122.26507999999997), (5.656, 122.44507999999996), (5.656, 122.26507999999997), (8.80000000000053, 122.22499999999992), (8.80000000000053, 122.10499999999993)]</t>
+          <t>[(-21010.4593859375, 66488.1189584161), (-21010.4593859375, 66487.9189584161), (-21005.103385937502, 66487.7440384161), (-21005.103385937502, 66487.5440384161), (-21005.103385937502, 66487.7440384161), (-21005.103385937502, 66487.56403841611), (-21001.9593859375, 66487.5239584161), (-21001.9593859375, 66487.34395841611), (-21010.4593859375, 66487.9189584161), (-21010.4593859375, 66487.6189584161), (-21005.103385937502, 66487.5440384161), (-21005.103385937502, 66487.3840384161), (-21005.103385937502, 66487.56403841611), (-21005.103385937502, 66487.3840384161), (-21001.9593859375, 66487.34395841611), (-21001.9593859375, 66487.2239584161)]</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[(0.300000000005624, 124.0), (0.300000000005624, 123.75), (5.796, 123.6152800000004), (5.796, 123.3652800000004), (5.796, 123.6152800000004), (5.796, 123.4252800000004), (8.79999999999358, 123.40500000000084), (8.79999999999358, 123.21500000000084), (0.300000000005624, 123.75), (0.300000000005624, 123.51), (5.796, 123.3652800000004), (5.796, 123.2352800000004), (5.796, 123.4252800000004), (5.796, 123.2352800000004), (8.79999999999358, 123.21500000000084), (8.79999999999358, 123.08500000000085)]</t>
+          <t>[(-21010.459385937495, 66526.5919582296), (-21010.459385937495, 66526.3419582296), (-21004.963385937503, 66526.2072382296), (-21004.963385937503, 66525.9572382296), (-21004.963385937503, 66526.2072382296), (-21004.963385937503, 66526.0172382296), (-21001.95938593751, 66525.9969582296), (-21001.95938593751, 66525.8069582296), (-21010.459385937495, 66526.3419582296), (-21010.459385937495, 66526.1019582296), (-21004.963385937503, 66525.9572382296), (-21004.963385937503, 66525.8272382296), (-21004.963385937503, 66526.0172382296), (-21004.963385937503, 66525.8272382296), (-21001.95938593751, 66525.8069582296), (-21001.95938593751, 66525.6769582296)]</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[(0.3000000000001, 125.0), (0.3000000000001, 124.74), (5.888, 124.60884), (5.888, 124.34884), (5.888, 124.60884), (5.888, 124.41884), (8.79999999999662, 124.40500000000024), (8.79999999999662, 124.21500000000024), (0.3000000000001, 124.74), (0.3000000000001, 124.49), (5.888, 124.34884), (5.888, 124.22884), (5.888, 124.41884), (5.888, 124.22884), (8.79999999999662, 124.21500000000024), (8.79999999999662, 124.09500000000024)]</t>
+          <t>[(-20950.4593859375, 66489.1045150051), (-20950.4593859375, 66488.84451500511), (-20944.871385937502, 66488.71335500511), (-20944.871385937502, 66488.45335500511), (-20944.871385937502, 66488.71335500511), (-20944.871385937502, 66488.5233550051), (-20941.959385937505, 66488.5095150051), (-20941.959385937505, 66488.3195150051), (-20950.4593859375, 66488.84451500511), (-20950.4593859375, 66488.59451500511), (-20944.871385937502, 66488.45335500511), (-20944.871385937502, 66488.3333550051), (-20944.871385937502, 66488.5233550051), (-20944.871385937502, 66488.3333550051), (-20941.959385937505, 66488.3195150051), (-20941.959385937505, 66488.19951500511)]</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[(0.299999999995223, 126.0), (0.299999999995223, 125.75), (6.036, 125.59847999999967), (6.036, 125.34847999999967), (6.036, 125.59847999999967), (6.036, 125.39847999999967), (8.79999999999968, 125.40499999999969), (8.79999999999968, 125.20499999999969), (0.299999999995223, 125.75), (0.299999999995223, 125.51), (6.036, 125.34847999999967), (6.036, 125.20847999999967), (6.036, 125.39847999999967), (6.036, 125.20847999999967), (8.79999999999968, 125.20499999999969), (8.79999999999968, 125.07499999999969)]</t>
+          <t>[(-20950.459385937505, 66525.6566287427), (-20950.459385937505, 66525.4066287427), (-20944.7233859375, 66525.2551087427), (-20944.7233859375, 66525.0051087427), (-20944.7233859375, 66525.2551087427), (-20944.7233859375, 66525.0551087427), (-20941.9593859375, 66525.0616287427), (-20941.9593859375, 66524.8616287427), (-20950.459385937505, 66525.4066287427), (-20950.459385937505, 66525.16662874269), (-20944.7233859375, 66525.0051087427), (-20944.7233859375, 66524.8651087427), (-20944.7233859375, 66525.0551087427), (-20944.7233859375, 66524.8651087427), (-20941.9593859375, 66524.8616287427), (-20941.9593859375, 66524.7316287427)]</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[(0.299999999995636, 127.0), (0.299999999995636, 126.75), (6.098, 126.5941399999997), (6.098, 126.3441399999997), (6.098, 126.5941399999997), (6.098, 126.3941399999997), (8.80000000000002, 126.40499999999969), (8.80000000000002, 126.20499999999969), (0.299999999995636, 126.75), (0.299999999995636, 126.5), (6.098, 126.3441399999997), (6.098, 126.2041399999997), (6.098, 126.3941399999997), (6.098, 126.2041399999997), (8.80000000000002, 126.20499999999969), (8.80000000000002, 126.07499999999969)]</t>
+          <t>[(-20822.259385937505, 66488.2482994422), (-20822.259385937505, 66487.9982994422), (-20816.4613859375, 66487.8424394422), (-20816.4613859375, 66487.5924394422), (-20816.4613859375, 66487.8424394422), (-20816.4613859375, 66487.6424394422), (-20813.7593859375, 66487.6532994422), (-20813.7593859375, 66487.4532994422), (-20822.259385937505, 66487.9982994422), (-20822.259385937505, 66487.7482994422), (-20816.4613859375, 66487.5924394422), (-20816.4613859375, 66487.4524394422), (-20816.4613859375, 66487.6424394422), (-20816.4613859375, 66487.4524394422), (-20813.7593859375, 66487.4532994422), (-20813.7593859375, 66487.3232994422)]</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[(0.300000000004285, 128.0), (0.300000000004285, 127.75), (6.07, 127.5961000000003), (6.07, 127.3461000000003), (6.07, 127.5961000000003), (6.07, 127.40610000000031), (8.79999999999833, 127.40500000000041), (8.79999999999833, 127.21500000000042), (0.300000000004285, 127.75), (0.300000000004285, 127.5), (6.07, 127.3461000000003), (6.07, 127.21610000000031), (6.07, 127.40610000000031), (6.07, 127.21610000000031), (8.79999999999833, 127.21500000000042), (8.79999999999833, 127.06500000000041)]</t>
+          <t>[(-20822.259385937497, 66526.8795271038), (-20822.259385937497, 66526.6295271038), (-20816.4893859375, 66526.47562710379), (-20816.4893859375, 66526.22562710379), (-20816.4893859375, 66526.47562710379), (-20816.4893859375, 66526.28562710379), (-20813.7593859375, 66526.2845271038), (-20813.7593859375, 66526.09452710379), (-20822.259385937497, 66526.6295271038), (-20822.259385937497, 66526.3795271038), (-20816.4893859375, 66526.22562710379), (-20816.4893859375, 66526.09562710379), (-20816.4893859375, 66526.28562710379), (-20816.4893859375, 66526.09562710379), (-20813.7593859375, 66526.09452710379), (-20813.7593859375, 66525.9445271038)]</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[(0.300000000004724, 129.0), (0.300000000004724, 128.74), (5.914, 128.60702000000032), (5.914, 128.34702000000033), (5.914, 128.60702000000032), (5.914, 128.40702000000033), (8.80000000000532, 128.40499999999994), (8.80000000000532, 128.20499999999996), (0.300000000004724, 128.74), (0.300000000004724, 128.48), (5.914, 128.34702000000033), (5.914, 128.21702000000033), (5.914, 128.40702000000033), (5.914, 128.21702000000033), (8.80000000000532, 128.20499999999996), (8.80000000000532, 128.06499999999994)]</t>
+          <t>[(-20762.259385937497, 66489.55031172751), (-20762.259385937497, 66489.29031172751), (-20756.6453859375, 66489.1573317275), (-20756.6453859375, 66488.89733172751), (-20756.6453859375, 66489.1573317275), (-20756.6453859375, 66488.9573317275), (-20753.759385937494, 66488.9553117275), (-20753.759385937494, 66488.75531172751), (-20762.259385937497, 66489.29031172751), (-20762.259385937497, 66489.0303117275), (-20756.6453859375, 66488.89733172751), (-20756.6453859375, 66488.7673317275), (-20756.6453859375, 66488.9573317275), (-20756.6453859375, 66488.7673317275), (-20753.759385937494, 66488.75531172751), (-20753.759385937494, 66488.61531172751)]</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[(0.300000000003322, 130.0), (0.300000000003322, 129.73), (5.846, 129.61178000000024), (5.846, 129.34178000000023), (5.846, 129.61178000000024), (5.846, 129.40178000000023), (8.8000000000014, 129.40500000000014), (8.8000000000014, 129.19500000000014), (0.300000000003322, 129.73), (0.300000000003322, 129.47), (5.846, 129.34178000000023), (5.846, 129.20178000000024), (5.846, 129.40178000000023), (5.846, 129.20178000000024), (8.8000000000014, 129.19500000000014), (8.8000000000014, 129.04500000000013)]</t>
+          <t>[(-20762.259385937497, 66526.2606533131), (-20762.259385937497, 66525.9906533131), (-20756.7133859375, 66525.87243331311), (-20756.7133859375, 66525.6024333131), (-20756.7133859375, 66525.87243331311), (-20756.7133859375, 66525.6624333131), (-20753.759385937497, 66525.6656533131), (-20753.759385937497, 66525.4556533131), (-20762.259385937497, 66525.9906533131), (-20762.259385937497, 66525.7306533131), (-20756.7133859375, 66525.6024333131), (-20756.7133859375, 66525.4624333131), (-20756.7133859375, 66525.6624333131), (-20756.7133859375, 66525.4624333131), (-20753.759385937497, 66525.4556533131), (-20753.759385937497, 66525.3056533131)]</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[(0.29999999999056, 131.0), (0.29999999999056, 130.74), (5.814, 130.61401999999933), (5.814, 130.35401999999934), (5.814, 130.61401999999933), (5.814, 130.41401999999934), (8.79999999999937, 130.40499999999938), (8.79999999999937, 130.2049999999994), (0.29999999999056, 130.74), (0.29999999999056, 130.49), (5.814, 130.35401999999934), (5.814, 130.21401999999932), (5.814, 130.41401999999934), (5.814, 130.21401999999932), (8.79999999999937, 130.2049999999994), (8.79999999999937, 130.06499999999937)]</t>
+          <t>[(-20625.059385937508, 66491.0105518608), (-20625.059385937508, 66490.75055186081), (-20619.5453859375, 66490.6245718608), (-20619.5453859375, 66490.3645718608), (-20619.5453859375, 66490.6245718608), (-20619.5453859375, 66490.4245718608), (-20616.5593859375, 66490.4155518608), (-20616.5593859375, 66490.2155518608), (-20625.059385937508, 66490.75055186081), (-20625.059385937508, 66490.50055186081), (-20619.5453859375, 66490.3645718608), (-20619.5453859375, 66490.2245718608), (-20619.5453859375, 66490.4245718608), (-20619.5453859375, 66490.2245718608), (-20616.5593859375, 66490.2155518608), (-20616.5593859375, 66490.0755518608)]</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[(0.299999999994877, 132.0), (0.299999999994877, 131.73), (5.726, 131.62017999999964), (5.726, 131.35017999999963), (5.726, 131.62017999999964), (5.726, 131.41017999999963), (8.80000000000074, 131.4049999999996), (8.80000000000074, 131.1949999999996), (0.299999999994877, 131.73), (0.299999999994877, 131.46), (5.726, 131.35017999999963), (5.726, 131.20017999999965), (5.726, 131.41017999999963), (5.726, 131.20017999999965), (8.80000000000074, 131.1949999999996), (8.80000000000074, 131.0449999999996)]</t>
+          <t>[(-20635.059385937504, 66531.8000073705), (-20635.059385937504, 66531.5300073705), (-20629.6333859375, 66531.4201873705), (-20629.6333859375, 66531.1501873705), (-20629.6333859375, 66531.4201873705), (-20629.6333859375, 66531.2101873705), (-20626.5593859375, 66531.2050073705), (-20626.5593859375, 66530.9950073705), (-20635.059385937504, 66531.5300073705), (-20635.059385937504, 66531.26000737051), (-20629.6333859375, 66531.1501873705), (-20629.6333859375, 66531.0001873705), (-20629.6333859375, 66531.2101873705), (-20629.6333859375, 66531.0001873705), (-20626.5593859375, 66530.9950073705), (-20626.5593859375, 66530.8450073705)]</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[(0.300000000007903, 133.0), (0.300000000007903, 132.72), (5.463, 132.63859000000056), (5.463, 132.35859000000056), (5.463, 132.63859000000056), (5.463, 132.40859000000057), (8.80000000000391, 132.40500000000029), (8.80000000000391, 132.1750000000003), (0.300000000007903, 132.72), (0.300000000007903, 132.44), (5.463, 132.35859000000056), (5.463, 132.17859000000055), (5.463, 132.40859000000057), (5.463, 132.17859000000055), (8.80000000000391, 132.1750000000003), (8.80000000000391, 131.9950000000003)]</t>
+          <t>[(-20557.059385937493, 66492.6290198422), (-20557.059385937493, 66492.34901984221), (-20551.8963859375, 66492.26760984221), (-20551.8963859375, 66491.98760984221), (-20551.8963859375, 66492.26760984221), (-20551.8963859375, 66492.03760984221), (-20548.559385937497, 66492.0340198422), (-20548.559385937497, 66491.80401984221), (-20557.059385937493, 66492.34901984221), (-20557.059385937493, 66492.06901984221), (-20551.8963859375, 66491.98760984221), (-20551.8963859375, 66491.8076098422), (-20551.8963859375, 66492.03760984221), (-20551.8963859375, 66491.8076098422), (-20548.559385937497, 66491.80401984221), (-20548.559385937497, 66491.6240198422)]</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[(0.299999999994272, 134.0), (0.299999999994272, 133.7), (5.311, 133.6492299999996), (5.311, 133.34922999999958), (5.311, 133.6492299999996), (5.311, 133.40922999999958), (8.79999999999616, 133.40499999999986), (8.79999999999616, 133.16499999999985), (0.299999999994272, 133.7), (0.299999999994272, 133.41), (5.311, 133.34922999999958), (5.311, 133.1692299999996), (5.311, 133.40922999999958), (5.311, 133.1692299999996), (8.79999999999616, 133.16499999999985), (8.79999999999616, 133.01499999999987)]</t>
+          <t>[(-20557.059385937504, 66535.4837040323), (-20557.059385937504, 66535.1837040323), (-20552.048385937498, 66535.1329340323), (-20552.048385937498, 66534.8329340323), (-20552.048385937498, 66535.1329340323), (-20552.048385937498, 66534.8929340323), (-20548.559385937504, 66534.8887040323), (-20548.559385937504, 66534.6487040323), (-20557.059385937504, 66535.1837040323), (-20557.059385937504, 66534.8937040323), (-20552.048385937498, 66534.8329340323), (-20552.048385937498, 66534.6529340323), (-20552.048385937498, 66534.8929340323), (-20552.048385937498, 66534.6529340323), (-20548.559385937504, 66534.6487040323), (-20548.559385937504, 66534.4987040323)]</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[(0.300000000008756, 135.0), (0.300000000008756, 134.68), (5.048, 134.6676400000006), (5.048, 134.4076400000006), (5.048, 134.6676400000006), (5.048, 134.4076400000006), (8.80000000000498, 134.40500000000026), (8.80000000000498, 134.14500000000027), (0.300000000008756, 134.68), (0.300000000008756, 134.36), (5.048, 134.4076400000006), (5.048, 134.1476400000006), (5.048, 134.4076400000006), (5.048, 134.1576400000006), (8.80000000000498, 134.14500000000027), (8.80000000000498, 133.98500000000027)]</t>
+          <t>[(-20436.85938593749, 66492.3389080772), (-20436.85938593749, 66492.0189080772), (-20432.1113859375, 66492.0065480772), (-20432.1113859375, 66491.74654807721), (-20432.1113859375, 66492.0065480772), (-20432.1113859375, 66491.74654807721), (-20428.359385937492, 66491.7439080772), (-20428.359385937492, 66491.4839080772), (-20436.85938593749, 66492.0189080772), (-20436.85938593749, 66491.6989080772), (-20432.1113859375, 66491.74654807721), (-20432.1113859375, 66491.4865480772), (-20432.1113859375, 66491.74654807721), (-20432.1113859375, 66491.49654807721), (-20428.359385937492, 66491.4839080772), (-20428.359385937492, 66491.3239080772)]</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[(0.299999999998261, 136.0), (0.299999999998261, 135.68), (4.666, 135.69437999999988), (4.666, 135.44437999999988), (4.666, 135.69437999999988), (4.666, 135.44437999999988), (8.80000000000769, 135.40499999999935), (8.80000000000769, 135.15499999999935), (0.299999999998261, 135.68), (0.299999999998261, 135.36), (4.666, 135.44437999999988), (4.666, 135.19437999999988), (4.666, 135.44437999999988), (4.666, 135.19437999999988), (8.80000000000769, 135.15499999999935), (8.80000000000769, 135.01499999999936)]</t>
+          <t>[(-20436.8593859375, 66533.1937771686), (-20436.8593859375, 66532.8737771686), (-20432.493385937498, 66532.8881571686), (-20432.493385937498, 66532.6381571686), (-20432.493385937498, 66532.8881571686), (-20432.493385937498, 66532.6381571686), (-20428.359385937492, 66532.5987771686), (-20428.359385937492, 66532.3487771686), (-20436.8593859375, 66532.8737771686), (-20436.8593859375, 66532.5537771686), (-20432.493385937498, 66532.6381571686), (-20432.493385937498, 66532.3881571686), (-20432.493385937498, 66532.6381571686), (-20432.493385937498, 66532.3881571686), (-20428.359385937492, 66532.3487771686), (-20428.359385937492, 66532.2087771686)]</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[(0.299999999996779, 137.0), (0.299999999996779, 136.69), (4.81, 136.68429999999978), (4.81, 136.4242999999998), (4.81, 136.68429999999978), (4.81, 136.4242999999998), (8.79999999999767, 136.40499999999994), (8.79999999999767, 136.14499999999995), (0.299999999996779, 136.69), (0.299999999996779, 136.38), (4.81, 136.4242999999998), (4.81, 136.16429999999977), (4.81, 136.4242999999998), (4.81, 136.1742999999998), (8.79999999999767, 136.14499999999995), (8.79999999999767, 135.99499999999995)]</t>
+          <t>[(-20368.859385937503, 66492.0420712558), (-20368.859385937503, 66491.7320712558), (-20364.349385937498, 66491.72637125579), (-20364.349385937498, 66491.4663712558), (-20364.349385937498, 66491.72637125579), (-20364.349385937498, 66491.4663712558), (-20360.3593859375, 66491.4470712558), (-20360.3593859375, 66491.1870712558), (-20368.859385937503, 66491.7320712558), (-20368.859385937503, 66491.4220712558), (-20364.349385937498, 66491.4663712558), (-20364.349385937498, 66491.20637125579), (-20364.349385937498, 66491.4663712558), (-20364.349385937498, 66491.2163712558), (-20360.3593859375, 66491.1870712558), (-20360.3593859375, 66491.03707125579)]</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[(0.299999999998572, 138.0), (0.299999999998572, 137.71), (4.784, 137.6861199999999), (4.784, 137.3961199999999), (4.784, 137.6861199999999), (4.784, 137.4561199999999), (8.79999999999443, 137.40500000000029), (8.79999999999443, 137.1750000000003), (0.299999999998572, 137.71), (0.299999999998572, 137.43), (4.784, 137.3961199999999), (4.784, 137.23611999999991), (4.784, 137.4561199999999), (4.784, 137.23611999999991), (8.79999999999443, 137.1750000000003), (8.79999999999443, 137.04500000000027)]</t>
+          <t>[(-20368.8593859375, 66532.8814367716), (-20368.8593859375, 66532.5914367716), (-20364.3753859375, 66532.5675567716), (-20364.3753859375, 66532.2775567716), (-20364.3753859375, 66532.5675567716), (-20364.3753859375, 66532.3375567716), (-20360.359385937503, 66532.2864367716), (-20360.359385937503, 66532.0564367716), (-20368.8593859375, 66532.5914367716), (-20368.8593859375, 66532.31143677159), (-20364.3753859375, 66532.2775567716), (-20364.3753859375, 66532.1175567716), (-20364.3753859375, 66532.3375567716), (-20364.3753859375, 66532.1175567716), (-20360.359385937503, 66532.0564367716), (-20360.359385937503, 66531.9264367716)]</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[(0.299999999997755, 139.0), (0.299999999997755, 138.72), (4.716, 138.69087999999985), (4.716, 138.41087999999985), (4.716, 138.69087999999985), (4.716, 138.48087999999984), (8.80000000000096, 138.40499999999977), (8.80000000000096, 138.19499999999977), (0.299999999997755, 138.72), (0.299999999997755, 138.45), (4.716, 138.41087999999985), (4.716, 138.28087999999985), (4.716, 138.48087999999984), (4.716, 138.28087999999985), (8.80000000000096, 138.19499999999977), (8.80000000000096, 138.07499999999976)]</t>
+          <t>[(-20248.659385937503, 66491.7118737159), (-20248.659385937503, 66491.4318737159), (-20244.2433859375, 66491.4027537159), (-20244.2433859375, 66491.1227537159), (-20244.2433859375, 66491.4027537159), (-20244.2433859375, 66491.19275371589), (-20240.159385937503, 66491.1168737159), (-20240.159385937503, 66490.9068737159), (-20248.659385937503, 66491.4318737159), (-20248.659385937503, 66491.1618737159), (-20244.2433859375, 66491.1227537159), (-20244.2433859375, 66490.9927537159), (-20244.2433859375, 66491.19275371589), (-20244.2433859375, 66490.9927537159), (-20240.159385937503, 66490.9068737159), (-20240.159385937503, 66490.7868737159)]</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[(0.300000000028918, 140.0), (0.300000000028918, 139.75), (4.68, 139.6953699445684), (4.68, 139.4453699445684), (4.68, 139.6953699445684), (4.68, 139.5753699445684), (8.80000000000187, 139.40882295178594), (8.80000000000187, 139.28882295178593), (0.300000000028918, 139.75), (0.300000000028918, 139.5), (4.68, 139.4453699445684), (4.68, 139.3253699445684), (4.68, 139.5753699445684), (4.68, 139.3253699445684), (8.80000000000187, 139.28882295178593), (8.80000000000187, 139.10882295178592)]</t>
+          <t>[(-20258.659385937473, 66530.5333820888), (-20258.659385937473, 66530.2833820888), (-20254.2793859375, 66530.22875203338), (-20254.2793859375, 66529.97875203338), (-20254.2793859375, 66530.22875203338), (-20254.2793859375, 66530.10875203338), (-20250.1593859375, 66529.94220504058), (-20250.1593859375, 66529.82220504059), (-20258.659385937473, 66530.2833820888), (-20258.659385937473, 66530.0333820888), (-20254.2793859375, 66529.97875203338), (-20254.2793859375, 66529.85875203338), (-20254.2793859375, 66530.10875203338), (-20254.2793859375, 66529.85875203338), (-20250.1593859375, 66529.82220504059), (-20250.1593859375, 66529.64220504058)]</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[(0.300000000048554, 141.0), (0.300000000048554, 140.77), (4.572, 140.72045330809394), (4.572, 140.49045330809395), (4.572, 140.72045330809394), (4.572, 140.54045330809393), (8.79999999999265, 140.44378584241272), (8.79999999999265, 140.26378584241272), (0.300000000048554, 140.77), (0.300000000048554, 140.54), (4.572, 140.49045330809395), (4.572, 140.36045330809392), (4.572, 140.54045330809393), (4.572, 140.36045330809392), (8.79999999999265, 140.26378584241272), (8.79999999999265, 140.13378584241272)]</t>
+          <t>[(-20189.65938593745, 66489.3476710649), (-20189.65938593745, 66489.1176710649), (-20185.3873859375, 66489.06812437299), (-20185.3873859375, 66488.838124373), (-20185.3873859375, 66489.06812437299), (-20185.3873859375, 66488.888124373), (-20181.15938593751, 66488.7914569073), (-20181.15938593751, 66488.61145690731), (-20189.65938593745, 66489.1176710649), (-20189.65938593745, 66488.88767106489), (-20185.3873859375, 66488.838124373), (-20185.3873859375, 66488.70812437299), (-20185.3873859375, 66488.888124373), (-20185.3873859375, 66488.70812437299), (-20181.15938593751, 66488.61145690731), (-20181.15938593751, 66488.4814569073)]</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[(0.300000000007764, 142.0), (0.300000000007764, 141.77), (4.473, 141.74409628975943), (4.473, 141.51409628975944), (4.473, 141.74409628975943), (4.473, 141.56409628975942), (8.8000000000087, 141.478748733034), (8.8000000000087, 141.298748733034), (0.300000000007764, 141.77), (0.300000000007764, 141.54), (4.473, 141.51409628975944), (4.473, 141.3840962897594), (4.473, 141.56409628975942), (4.473, 141.3840962897594), (8.8000000000087, 141.298748733034), (8.8000000000087, 141.158748733034)]</t>
+          <t>[(-20189.659385937593, 66530.1613111599), (-20189.659385937593, 66529.9313111599), (-20185.4863859376, 66529.90540744965), (-20185.4863859376, 66529.67540744966), (-20185.4863859376, 66529.90540744965), (-20185.4863859376, 66529.72540744966), (-20181.15938593759, 66529.64005989293), (-20181.15938593759, 66529.46005989294), (-20189.659385937593, 66529.9313111599), (-20189.659385937593, 66529.7013111599), (-20185.4863859376, 66529.67540744966), (-20185.4863859376, 66529.54540744965), (-20185.4863859376, 66529.72540744966), (-20185.4863859376, 66529.54540744965), (-20181.15938593759, 66529.46005989294), (-20181.15938593759, 66529.32005989293)]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[(0.300000000136927, 143.0), (0.300000000136927, 142.77), (4.29, 142.7717305151137), (4.29, 142.5417305151137), (4.29, 142.7717305151137), (4.29, 142.5817305151137), (8.80000000001896, 142.5137116236658), (8.80000000001896, 142.32371162366582), (0.300000000136927, 142.77), (0.300000000136927, 142.55), (4.29, 142.5417305151137), (4.29, 142.40173051511368), (4.29, 142.5817305151137), (4.29, 142.40173051511368), (8.80000000001896, 142.32371162366582), (8.80000000001896, 142.2037116236658)]</t>
+          <t>[(-20069.459385937364, 66488.9749512549), (-20069.459385937364, 66488.7449512549), (-20065.4693859375, 66488.74668177002), (-20065.4693859375, 66488.51668177002), (-20065.4693859375, 66488.74668177002), (-20065.4693859375, 66488.55668177002), (-20060.959385937484, 66488.48866287858), (-20060.959385937484, 66488.29866287857), (-20069.459385937364, 66488.7449512549), (-20069.459385937364, 66488.5249512549), (-20065.4693859375, 66488.51668177002), (-20065.4693859375, 66488.37668177002), (-20065.4693859375, 66488.55668177002), (-20065.4693859375, 66488.37668177002), (-20060.959385937484, 66488.29866287857), (-20060.959385937484, 66488.17866287858)]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[(0.300000000013215, 144.0), (0.300000000013215, 143.79), (3.859, 143.81102736427565), (3.859, 143.60102736427564), (3.859, 143.81102736427565), (3.859, 143.62102736427565), (8.79999999999081, 143.54867451428527), (8.79999999999081, 143.35867451428527), (0.300000000013215, 143.79), (0.300000000013215, 143.59), (3.859, 143.60102736427564), (3.859, 143.44102736427564), (3.859, 143.62102736427565), (3.859, 143.44102736427564), (8.79999999999081, 143.35867451428527), (8.79999999999081, 143.23867451428526)]</t>
+          <t>[(-20069.459385937585, 66525.7885913499), (-20069.459385937585, 66525.5785913499), (-20065.9003859376, 66525.59961871419), (-20065.9003859376, 66525.38961871418), (-20065.9003859376, 66525.59961871419), (-20065.9003859376, 66525.40961871418), (-20060.959385937607, 66525.33726586419), (-20060.959385937607, 66525.14726586419), (-20069.459385937585, 66525.5785913499), (-20069.459385937585, 66525.3785913499), (-20065.9003859376, 66525.38961871418), (-20065.9003859376, 66525.22961871419), (-20065.9003859376, 66525.40961871418), (-20065.9003859376, 66525.22961871419), (-20060.959385937607, 66525.14726586419), (-20060.959385937607, 66525.02726586419)]</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[(0.30000000002376, 145.0), (0.30000000002376, 144.82), (3.465, 144.8449661631232), (3.465, 144.66496616312318), (3.465, 144.8449661631232), (3.465, 144.72496616312318), (8.79999999999928, 144.58363740491026), (8.79999999999928, 144.46363740491026), (0.30000000002376, 144.82), (0.30000000002376, 144.64), (3.465, 144.66496616312318), (3.465, 144.51496616312318), (3.465, 144.72496616312318), (3.465, 144.51496616312318), (8.79999999999928, 144.46363740491026), (8.79999999999928, 144.30363740491026)]</t>
+          <t>[(-20009.459385937476, 66488.60223144491), (-20009.459385937476, 66488.42223144491), (-20006.2943859375, 66488.44719760802), (-20006.2943859375, 66488.26719760803), (-20006.2943859375, 66488.44719760802), (-20006.2943859375, 66488.32719760803), (-20000.9593859375, 66488.18586884982), (-20000.9593859375, 66488.06586884982), (-20009.459385937476, 66488.42223144491), (-20009.459385937476, 66488.2422314449), (-20006.2943859375, 66488.26719760803), (-20006.2943859375, 66488.11719760802), (-20006.2943859375, 66488.32719760803), (-20006.2943859375, 66488.11719760802), (-20000.9593859375, 66488.06586884982), (-20000.9593859375, 66487.90586884982)]</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[(0.300000000058881, 146.0), (0.300000000058881, 145.82), (3.05, 145.87660597796955), (3.05, 145.69660597796954), (3.05, 145.87660597796955), (3.05, 145.75660597796954), (8.80000000000321, 145.61860029553657), (8.80000000000321, 145.49860029553656), (0.300000000058881, 145.82), (0.300000000058881, 145.65), (3.05, 145.69660597796954), (3.05, 145.54660597796953), (3.05, 145.75660597796954), (3.05, 145.54660597796953), (8.80000000000321, 145.49860029553656), (8.80000000000321, 145.33860029553657)]</t>
+          <t>[(-20009.459385937444, 66525.41554088), (-20009.459385937444, 66525.23554088), (-20006.7093859375, 66525.29214685797), (-20006.7093859375, 66525.11214685798), (-20006.7093859375, 66525.29214685797), (-20006.7093859375, 66525.17214685798), (-20000.959385937498, 66525.03414117554), (-20000.959385937498, 66524.91414117554), (-20009.459385937444, 66525.23554088), (-20009.459385937444, 66525.06554088), (-20006.7093859375, 66525.11214685798), (-20006.7093859375, 66524.96214685797), (-20006.7093859375, 66525.17214685798), (-20006.7093859375, 66524.96214685797), (-20000.959385937498, 66524.91414117554), (-20000.959385937498, 66524.75414117554)]</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[(0.299999999998987, 147.0), (0.299999999998987, 146.8), (2.713, 146.90165270214135), (2.713, 146.70165270214136), (2.713, 146.90165270214135), (2.713, 146.71165270214135), (8.79999999999521, 146.6535631861592), (8.79999999999521, 146.4635631861592), (0.299999999998987, 146.8), (0.299999999998987, 146.61), (2.713, 146.70165270214136), (2.713, 146.52165270214135), (2.713, 146.71165270214135), (2.713, 146.52165270214135), (8.79999999999521, 146.4635631861592), (8.79999999999521, 146.2935631861592)]</t>
+          <t>[(-19881.2593859377, 66486.1613877525), (-19881.2593859377, 66485.9613877525), (-19878.8463859377, 66486.06304045464), (-19878.8463859377, 66485.86304045464), (-19878.8463859377, 66486.06304045464), (-19878.8463859377, 66485.87304045464), (-19872.759385937705, 66485.81495093866), (-19872.759385937705, 66485.62495093865), (-19881.2593859377, 66485.9613877525), (-19881.2593859377, 66485.7713877525), (-19878.8463859377, 66485.86304045464), (-19878.8463859377, 66485.68304045463), (-19878.8463859377, 66485.87304045464), (-19878.8463859377, 66485.68304045463), (-19872.759385937705, 66485.62495093865), (-19872.759385937705, 66485.45495093866)]</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[(0.300000000133495, 148.0), (0.300000000133495, 147.79), (8.80000000000171, 147.6885260767889), (8.80000000000171, 147.47852607678888), (0.300000000133495, 147.79), (0.300000000133495, 147.58), (8.80000000000171, 147.47852607678888), (8.80000000000171, 147.31852607678888)]</t>
+          <t>[(-19881.259385937366, 66526.7893100966), (-19881.259385937366, 66526.5793100966), (-19872.759385937497, 66526.47783617339), (-19872.759385937497, 66526.26783617339), (-19881.259385937366, 66526.5793100966), (-19881.259385937366, 66526.3693100966), (-19872.759385937497, 66526.26783617339), (-19872.759385937497, 66526.1078361734)]</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[(0.300000000016485, 149.0), (0.300000000016485, 148.85), (8.741, 148.72540827928287), (8.741, 148.57540827928287), (0.300000000016485, 148.85), (0.300000000016485, 148.7), (8.741, 148.57540827928287), (8.741, 148.42540827928286), (0.300000000016485, 148.7), (0.300000000016485, 148.57), (8.741, 148.42540827928286), (8.741, 148.29540827928287)]</t>
+          <t>[(-19821.259385937483, 66487.2993079125), (-19821.259385937483, 66487.1493079125), (-19812.8183859375, 66487.02471619178), (-19812.8183859375, 66486.87471619179), (-19821.259385937483, 66487.1493079125), (-19821.259385937483, 66486.9993079125), (-19812.8183859375, 66486.87471619179), (-19812.8183859375, 66486.72471619178), (-19821.259385937483, 66486.9993079125), (-19821.259385937483, 66486.86930791251), (-19812.8183859375, 66486.72471619178), (-19812.8183859375, 66486.59471619179)]</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[(0.300000000023411, 150.0), (0.300000000023411, 149.79), (8.223, 149.77484871425995), (8.223, 149.56484871425994), (0.300000000023411, 149.79), (0.300000000023411, 149.59), (8.223, 149.56484871425994), (8.223, 149.42484871425995)]</t>
+          <t>[(-19821.259385937574, 66525.6913812001), (-19821.259385937574, 66525.4813812001), (-19813.336385937597, 66525.46622991437), (-19813.336385937597, 66525.25622991436), (-19821.259385937574, 66525.4813812001), (-19821.259385937574, 66525.2813812001), (-19813.336385937597, 66525.25622991436), (-19813.336385937597, 66525.11622991436)]</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[(0.300000000003251, 151.0), (0.300000000003251, 150.88), (7.794, 150.81265000000008), (7.794, 150.69265000000007), (0.300000000003251, 150.88), (0.300000000003251, 150.61), (7.794, 150.69265000000007), (7.794, 150.52265000000008)]</t>
+          <t>[(-19693.059385937497, 66487.9655299594), (-19693.059385937497, 66487.8455299594), (-19685.565385937498, 66487.77817995941), (-19685.565385937498, 66487.65817995941), (-19693.059385937497, 66487.8455299594), (-19693.059385937497, 66487.5755299594), (-19685.565385937498, 66487.65817995941), (-19685.565385937498, 66487.48817995941)]</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[(0.300000000004276, 152.0), (0.300000000004276, 151.88), (7.363, 151.8234250000001), (7.363, 151.7034250000001), (0.300000000004276, 151.88), (0.300000000004276, 151.65), (7.363, 151.7034250000001), (7.363, 151.5734250000001)]</t>
+          <t>[(-19693.059385937497, 66530.1217541904), (-19693.059385937497, 66530.00175419041), (-19685.9963859375, 66529.9451791904), (-19685.9963859375, 66529.8251791904), (-19693.059385937497, 66530.00175419041), (-19693.059385937497, 66529.7717541904), (-19685.9963859375, 66529.8251791904), (-19685.9963859375, 66529.6951791904)]</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[(0.300000000003251, 158.0), (0.300000000003251, 157.87), (6.571, 157.84322500000007), (6.571, 157.71322500000008), (0.300000000003251, 157.87), (0.300000000003251, 157.75), (6.571, 157.71322500000008), (6.571, 157.59322500000007)]</t>
+          <t>[(-19438.859385937496, 66538.6376283245), (-19438.859385937496, 66538.5076283245), (-19432.5883859375, 66538.48085332451), (-19432.5883859375, 66538.3508533245), (-19438.859385937496, 66538.5076283245), (-19438.859385937496, 66538.3876283245), (-19432.5883859375, 66538.3508533245), (-19432.5883859375, 66538.23085332451)]</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[(0.300000000004276, 159.0), (0.300000000004276, 158.88), (7.282, 158.8254500000001), (7.282, 158.7054500000001), (0.300000000004276, 158.88), (0.300000000004276, 158.68), (7.282, 158.7054500000001), (7.282, 158.5754500000001)]</t>
+          <t>[(-19318.659385937597, 66498.0186824629), (-19318.659385937597, 66497.89868246291), (-19311.6773859376, 66497.84413246291), (-19311.6773859376, 66497.72413246291), (-19318.659385937597, 66497.89868246291), (-19318.659385937597, 66497.6986824629), (-19311.6773859376, 66497.72413246291), (-19311.6773859376, 66497.59413246291)]</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[(0.300000000004276, 160.0), (0.300000000004276, 159.88), (8.105, 159.8048750000001), (8.105, 159.6848750000001), (0.300000000004276, 159.88), (0.300000000004276, 159.58), (8.105, 159.6848750000001), (8.105, 159.5548750000001)]</t>
+          <t>[(-19318.6593859375, 66545.37958786241), (-19318.6593859375, 66545.25958786241), (-19310.854385937502, 66545.18446286241), (-19310.854385937502, 66545.06446286241), (-19318.6593859375, 66545.25958786241), (-19318.6593859375, 66544.95958786241), (-19310.854385937502, 66545.06446286241), (-19310.854385937502, 66544.93446286241)]</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[(0.300000000018238, 161.0), (0.300000000018238, 160.87), (4.654, 160.89115000000047), (4.654, 160.76115000000047), (0.300000000018238, 160.87), (0.300000000018238, 160.57), (4.654, 160.76115000000047), (4.654, 160.64115000000047)]</t>
+          <t>[(-19238.659385937484, 66498.6853193004), (-19238.659385937484, 66498.5553193004), (-19234.305385937503, 66498.5764693004), (-19234.305385937503, 66498.4464693004), (-19238.659385937484, 66498.5553193004), (-19238.659385937484, 66498.25531930041), (-19234.305385937503, 66498.4464693004), (-19234.305385937503, 66498.3264693004)]</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[(0.300000000003251, 162.0), (0.300000000003251, 161.88), (4.591, 161.89272500000007), (4.591, 161.77272500000007), (0.300000000003251, 161.88), (0.300000000003251, 161.62), (4.591, 161.77272500000007), (4.591, 161.64272500000007)]</t>
+          <t>[(-19238.6593859375, 66545.935247167), (-19238.6593859375, 66545.815247167), (-19234.3683859375, 66545.827972167), (-19234.3683859375, 66545.707972167), (-19238.6593859375, 66545.815247167), (-19238.6593859375, 66545.555247167), (-19234.3683859375, 66545.707972167), (-19234.3683859375, 66545.577972167)]</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[(0.300000000015546, 163.0), (0.300000000015546, 162.88), (4.475, 162.8956250000004), (4.475, 162.7756250000004), (0.300000000015546, 162.88), (0.300000000015546, 162.62), (4.475, 162.7756250000004), (4.475, 162.6456250000004)]</t>
+          <t>[(-19127.459385937487, 66499.1293714622), (-19127.459385937487, 66499.0093714622), (-19123.284385937503, 66499.0249964622), (-19123.284385937503, 66498.90499646221), (-19127.459385937487, 66499.0093714622), (-19127.459385937487, 66498.7493714622), (-19123.284385937503, 66498.90499646221), (-19123.284385937503, 66498.7749964622)]</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[(0.299999999998385, 164.0), (0.299999999998385, 163.88), (4.435, 163.89662499999997), (4.435, 163.77662499999997), (0.299999999998385, 163.88), (0.299999999998385, 163.58), (4.435, 163.77662499999997), (4.435, 163.63662499999998)]</t>
+          <t>[(-19132.4593859375, 66538.2676921859), (-19132.4593859375, 66538.1476921859), (-19128.3243859375, 66538.16431718589), (-19128.3243859375, 66538.0443171859), (-19132.4593859375, 66538.1476921859), (-19132.4593859375, 66537.8476921859), (-19128.3243859375, 66538.0443171859), (-19128.3243859375, 66537.9043171859)]</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[(0.300000000000252, 165.0), (0.300000000000252, 164.88), (4.43, 164.89675), (4.43, 164.77675), (0.300000000000252, 164.88), (0.300000000000252, 164.58), (4.43, 164.77675), (4.43, 164.64675)]</t>
+          <t>[(-19044.4593859376, 66491.3502093382), (-19044.4593859376, 66491.2302093382), (-19040.3293859376, 66491.2469593382), (-19040.3293859376, 66491.1269593382), (-19044.4593859376, 66491.2302093382), (-19044.4593859376, 66490.9302093382), (-19040.3293859376, 66491.1269593382), (-19040.3293859376, 66490.9969593382)]</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[(0.299999999994399, 166.0), (0.299999999994399, 165.88), (4.405, 165.89737499999987), (4.405, 165.77737499999986), (0.299999999994399, 165.88), (0.299999999994399, 165.68), (4.405, 165.77737499999986), (4.405, 165.64737499999987)]</t>
+          <t>[(-19044.459385937505, 66538.397876596), (-19044.459385937505, 66538.27787659601), (-19040.354385937502, 66538.295251596), (-19040.354385937502, 66538.17525159601), (-19044.459385937505, 66538.27787659601), (-19044.459385937505, 66538.077876596), (-19040.354385937502, 66538.17525159601), (-19040.354385937502, 66538.045251596)]</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[(0.29999999999931, 167.0), (0.29999999999931, 166.87), (4.303, 166.899925), (4.303, 166.769925), (0.29999999999931, 166.87), (0.29999999999931, 166.75), (4.303, 166.769925), (4.303, 166.649925)]</t>
+          <t>[(-18946.2593859375, 66491.4450472582), (-18946.2593859375, 66491.31504725819), (-18942.2563859375, 66491.3449722582), (-18942.2563859375, 66491.2149722582), (-18946.2593859375, 66491.31504725819), (-18946.2593859375, 66491.1950472582), (-18942.2563859375, 66491.2149722582), (-18942.2563859375, 66491.0949722582)]</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[(0.299999999992807, 169.0), (0.299999999992807, 168.87), (3.687, 168.91532499999983), (3.687, 168.78532499999983), (0.299999999992807, 168.87), (0.299999999992807, 168.75), (3.687, 168.78532499999983), (3.687, 168.66532499999983)]</t>
+          <t>[(-18873.25938593751, 66493.5393885825), (-18873.25938593751, 66493.4093885825), (-18869.8723859375, 66493.4547135825), (-18869.8723859375, 66493.3247135825), (-18873.25938593751, 66493.4093885825), (-18873.25938593751, 66493.2893885825), (-18869.8723859375, 66493.3247135825), (-18869.8723859375, 66493.2047135825)]</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>[(0.299999999992807, 170.0), (0.299999999992807, 169.87), (3.409, 169.92227499999981), (3.409, 169.79227499999982), (0.299999999992807, 169.87), (0.299999999992807, 169.75), (3.409, 169.79227499999982), (3.409, 169.67227499999981)]</t>
+          <t>[(-18873.259385937607, 66534.58655924471), (-18873.259385937607, 66534.4565592447), (-18870.1503859376, 66534.50883424471), (-18870.1503859376, 66534.37883424471), (-18873.259385937607, 66534.4565592447), (-18873.259385937607, 66534.33655924471), (-18870.1503859376, 66534.37883424471), (-18870.1503859376, 66534.25883424471)]</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[(0.299999999992807, 171.0), (0.299999999992807, 170.88), (3.063, 170.93092499999983), (3.063, 170.81092499999983), (0.299999999992807, 170.88), (0.299999999992807, 170.67), (3.063, 170.81092499999983), (3.063, 170.68092499999983)]</t>
+          <t>[(-18752.059385937508, 66491.6337299069), (-18752.059385937508, 66491.5137299069), (-18749.2963859375, 66491.56465490689), (-18749.2963859375, 66491.4446549069), (-18752.059385937508, 66491.5137299069), (-18752.059385937508, 66491.3037299069), (-18749.2963859375, 66491.4446549069), (-18749.2963859375, 66491.31465490689)]</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[(0.299999999991723, 172.0), (0.299999999991723, 171.88), (2.669, 171.99302374191385), (2.669, 171.87302374191384), (0.299999999991723, 171.88), (0.299999999991723, 171.66), (2.669, 171.87302374191384), (2.669, 171.72302374191383)]</t>
+          <t>[(-18752.05938593761, 66530.69025625), (-18752.05938593761, 66530.57025625001), (-18749.6903859376, 66530.68327999192), (-18749.6903859376, 66530.56327999193), (-18752.05938593761, 66530.57025625001), (-18752.05938593761, 66530.35025625), (-18749.6903859376, 66530.56327999193), (-18749.6903859376, 66530.41327999192)]</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[(0.300000000015687, 179.0), (0.300000000015687, 178.84), (6.464, 179.35660438127272), (6.464, 179.0166043812727), (0.300000000015687, 178.84), (0.300000000015687, 178.68), (6.464, 179.0166043812727), (6.464, 178.6766043812727)]</t>
+          <t>[(-18496.85938593748, 66534.2818878893), (-18496.85938593748, 66534.1218878893), (-18490.6953859375, 66534.63849227058), (-18490.6953859375, 66534.29849227058), (-18496.85938593748, 66534.1218878893), (-18496.85938593748, 66533.9618878893), (-18490.6953859375, 66534.29849227058), (-18490.6953859375, 66533.95849227058)]</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[(0.299999999998688, 180.0), (0.299999999998688, 179.84), (5.867, 180.33402000000007), (5.867, 180.07402000000008), (0.299999999998688, 179.84), (0.299999999998688, 179.68), (5.867, 180.07402000000008), (5.867, 179.81402000000006)]</t>
+          <t>[(-18376.659385937503, 66491.9767963053), (-18376.659385937503, 66491.8167963053), (-18371.092385937503, 66492.3108163053), (-18371.092385937503, 66492.0508163053), (-18376.659385937503, 66491.8167963053), (-18376.659385937503, 66491.6567963053), (-18371.092385937503, 66492.0508163053), (-18371.092385937503, 66491.79081630529)]</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[(0.299999999994209, 181.0), (0.299999999994209, 180.83), (5.663, 181.32178000000036), (5.663, 181.04178000000036), (0.299999999994209, 180.83), (0.299999999994209, 180.66), (5.663, 181.04178000000036), (5.663, 180.76178000000036)]</t>
+          <t>[(-18376.659385937506, 66533.7528735525), (-18376.659385937506, 66533.5828735525), (-18371.2963859375, 66534.0746535525), (-18371.2963859375, 66533.7946535525), (-18376.659385937506, 66533.5828735525), (-18376.659385937506, 66533.4128735525), (-18371.2963859375, 66533.7946535525), (-18371.2963859375, 66533.5146535525)]</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[(0.30000000000151, 182.0), (0.30000000000151, 181.84), (5.69, 182.3233999999999), (5.69, 182.0433999999999), (0.30000000000151, 181.84), (0.30000000000151, 181.68), (5.69, 182.0433999999999), (5.69, 181.7633999999999)]</t>
+          <t>[(-18308.6593859375, 66489.6101196308), (-18308.6593859375, 66489.4501196308), (-18303.269385937503, 66489.9335196308), (-18303.269385937503, 66489.6535196308), (-18308.6593859375, 66489.4501196308), (-18308.6593859375, 66489.2901196308), (-18303.269385937503, 66489.6535196308), (-18303.269385937503, 66489.3735196308)]</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[(0.299999999993821, 183.0), (0.299999999993821, 182.76), (5.585, 183.31710000000038), (5.585, 183.07710000000037), (0.299999999993821, 182.76), (0.299999999993821, 182.63), (5.585, 183.07710000000037), (5.585, 182.7771000000004)]</t>
+          <t>[(-18308.659385937506, 66533.5485345403), (-18308.659385937506, 66533.3085345403), (-18303.374385937503, 66533.8656345403), (-18303.374385937503, 66533.6256345403), (-18308.659385937506, 66533.3085345403), (-18308.659385937506, 66533.1785345403), (-18303.374385937503, 66533.6256345403), (-18303.374385937503, 66533.3256345403)]</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[(0.300000000001122, 184.0), (0.300000000001122, 183.8), (5.607, 184.31841999999995), (5.607, 183.99841999999995), (0.300000000001122, 183.8), (0.300000000001122, 183.6), (5.607, 183.99841999999995), (5.607, 183.67841999999996)]</t>
+          <t>[(-18188.459385937498, 66489.56811828101), (-18188.459385937498, 66489.36811828101), (-18183.1523859375, 66489.886538281), (-18183.1523859375, 66489.566538281), (-18188.459385937498, 66489.36811828101), (-18188.459385937498, 66489.16811828101), (-18183.1523859375, 66489.566538281), (-18183.1523859375, 66489.246538281)]</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[(0.299999999993799, 185.0), (0.299999999993799, 184.82), (5.812, 185.33072000000038), (5.812, 185.03072000000037), (0.299999999993799, 184.82), (0.299999999993799, 184.64), (5.812, 185.03072000000037), (5.812, 184.7307200000004)]</t>
+          <t>[(-18188.45938593751, 66529.6688708529), (-18188.45938593751, 66529.4888708529), (-18182.9473859375, 66529.9995908529), (-18182.9473859375, 66529.69959085289), (-18188.45938593751, 66529.4888708529), (-18188.45938593751, 66529.3088708529), (-18182.9473859375, 66529.69959085289), (-18182.9473859375, 66529.39959085289)]</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[(0.299999999998043, 186.0), (0.299999999998043, 185.84), (6.115, 186.34890000000013), (6.115, 186.06890000000013), (0.299999999998043, 185.84), (0.299999999998043, 185.68), (6.115, 186.06890000000013), (6.115, 185.78890000000013)]</t>
+          <t>[(-18119.4593859375, 66489.85079225591), (-18119.4593859375, 66489.6907922559), (-18113.6443859375, 66490.1996922559), (-18113.6443859375, 66489.9196922559), (-18119.4593859375, 66489.6907922559), (-18119.4593859375, 66489.5307922559), (-18113.6443859375, 66489.9196922559), (-18113.6443859375, 66489.6396922559)]</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[(0.300000000007436, 187.0), (0.300000000007436, 186.84), (6.464, 187.36983999999956), (6.464, 187.06983999999954), (0.300000000007436, 186.84), (0.300000000007436, 186.68), (6.464, 187.06983999999954), (6.464, 186.76983999999956)]</t>
+          <t>[(-18119.459385937495, 66530.1138824901), (-18119.459385937495, 66529.9538824901), (-18113.2953859375, 66530.4837224901), (-18113.2953859375, 66530.1837224901), (-18119.459385937495, 66529.9538824901), (-18119.459385937495, 66529.79388249009), (-18113.2953859375, 66530.1837224901), (-18113.2953859375, 66529.88372249009)]</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[(0.300000000002328, 188.0), (0.300000000002328, 187.84), (6.838, 188.39227999999986), (6.838, 188.05227999999985), (0.300000000002328, 187.84), (0.300000000002328, 187.68), (6.838, 188.05227999999985), (6.838, 187.71227999999985)]</t>
+          <t>[(-17999.259385937497, 66488.4581415554), (-17999.259385937497, 66488.2981415554), (-17992.7213859375, 66488.8504215554), (-17992.7213859375, 66488.5104215554), (-17999.259385937497, 66488.2981415554), (-17999.259385937497, 66488.13814155539), (-17992.7213859375, 66488.5104215554), (-17992.7213859375, 66488.1704215554)]</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[(0.300000000003006, 189.0), (0.300000000003006, 188.81), (7.264, 189.4178399999998), (7.264, 189.0778399999998), (0.300000000003006, 188.81), (0.300000000003006, 188.62), (7.264, 189.0778399999998), (7.264, 188.7378399999998)]</t>
+          <t>[(-17999.259385937497, 66528.883569452), (-17999.259385937497, 66528.69356945199), (-17992.2953859375, 66529.30140945199), (-17992.2953859375, 66528.961409452), (-17999.259385937497, 66528.69356945199), (-17999.259385937497, 66528.50356945199), (-17992.2953859375, 66528.961409452), (-17992.2953859375, 66528.621409452)]</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[(0.299999999997219, 190.0), (0.299999999997219, 189.84), (7.752, 190.44712000000015), (7.752, 190.10712000000015), (0.299999999997219, 189.84), (0.299999999997219, 189.68), (7.752, 190.10712000000015), (7.752, 189.76712000000015)]</t>
+          <t>[(-17939.259385937603, 66489.3901661796), (-17939.259385937603, 66489.2301661796), (-17931.807385937598, 66489.8372861796), (-17931.807385937598, 66489.4972861796), (-17939.259385937603, 66489.2301661796), (-17939.259385937603, 66489.07016617959), (-17931.807385937598, 66489.4972861796), (-17931.807385937598, 66489.1572861796)]</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[(0.300000000002333, 191.0), (0.300000000002333, 190.82), (8.501, 191.47031600997977), (8.501, 191.15031600997978), (0.300000000002333, 190.82), (0.300000000002333, 190.64), (8.501, 191.15031600997978), (8.501, 190.83031600997978)]</t>
+          <t>[(-17939.259385937497, 66527.9779317385), (-17939.259385937497, 66527.7979317385), (-17931.0583859375, 66528.44824774847), (-17931.0583859375, 66528.12824774846), (-17939.259385937497, 66527.7979317385), (-17939.259385937497, 66527.6179317385), (-17931.0583859375, 66528.12824774846), (-17931.0583859375, 66527.80824774847)]</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[(0.300000000141323, 192.0), (0.300000000141323, 191.81), (2.735, 192.12604414892795), (2.735, 191.93604414892795), (2.735, 192.12604414892795), (2.735, 191.94604414892794), (8.80000000001531, 192.43998984227264), (8.80000000001531, 192.14998984227265), (0.300000000141323, 191.81), (0.300000000141323, 191.67), (2.735, 191.93604414892795), (2.735, 191.75604414892794), (2.735, 191.94604414892794), (2.735, 191.76604414892793), (8.80000000001531, 192.14998984227265), (8.80000000001531, 191.85998984227263)]</t>
+          <t>[(-17811.05938593736, 66488.6468661285), (-17811.05938593736, 66488.4568661285), (-17808.6243859375, 66488.77291027743), (-17808.6243859375, 66488.58291027743), (-17808.6243859375, 66488.77291027743), (-17808.6243859375, 66488.59291027744), (-17802.559385937486, 66489.08685597077), (-17802.559385937486, 66488.79685597078), (-17811.05938593736, 66488.4568661285), (-17811.05938593736, 66488.3168661285), (-17808.6243859375, 66488.58291027743), (-17808.6243859375, 66488.40291027744), (-17808.6243859375, 66488.59291027744), (-17808.6243859375, 66488.41291027743), (-17802.559385937486, 66488.79685597078), (-17802.559385937486, 66488.50685597077)]</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[(0.299999999999156, 193.0), (0.299999999999156, 192.82), (3.212, 193.13447151382655), (3.212, 192.95447151382655), (3.212, 193.13447151382655), (3.212, 192.89447151382655), (8.79999999998704, 193.39251643802328), (8.79999999998704, 193.15251643802327), (0.299999999999156, 192.82), (0.299999999999156, 192.67), (3.212, 192.95447151382655), (3.212, 192.77447151382654), (3.212, 192.89447151382655), (3.212, 192.77447151382654), (8.79999999998704, 193.15251643802327), (8.79999999998704, 192.8525164380233)]</t>
+          <t>[(-17811.0593859375, 66529.3908430086), (-17811.0593859375, 66529.21084300861), (-17808.1473859375, 66529.52531452243), (-17808.1473859375, 66529.34531452243), (-17808.1473859375, 66529.52531452243), (-17808.1473859375, 66529.28531452242), (-17802.55938593751, 66529.78335944662), (-17802.55938593751, 66529.54335944662), (-17811.0593859375, 66529.21084300861), (-17811.0593859375, 66529.0608430086), (-17808.1473859375, 66529.34531452243), (-17808.1473859375, 66529.16531452243), (-17808.1473859375, 66529.28531452242), (-17808.1473859375, 66529.16531452243), (-17802.55938593751, 66529.54335944662), (-17802.55938593751, 66529.24335944663)]</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[(0.300000000036432, 194.0), (0.300000000036432, 193.8), (3.502, 194.12997974048403), (3.502, 193.92997974048404), (3.502, 194.12997974048403), (3.502, 193.85997974048402), (8.80000000001269, 194.34504303376755), (8.80000000001269, 194.07504303376754), (0.300000000036432, 193.8), (0.300000000036432, 193.63), (3.502, 193.92997974048404), (3.502, 193.73997974048405), (3.502, 193.85997974048402), (3.502, 193.73997974048405), (8.80000000001269, 194.07504303376754), (8.80000000001269, 193.81504303376755)]</t>
+          <t>[(-17751.059385937464, 66488.149994382), (-17751.059385937464, 66487.949994382), (-17747.8573859375, 66488.27997412247), (-17747.8573859375, 66488.07997412248), (-17747.8573859375, 66488.27997412247), (-17747.8573859375, 66488.00997412247), (-17742.559385937486, 66488.49503741576), (-17742.559385937486, 66488.22503741576), (-17751.059385937464, 66487.949994382), (-17751.059385937464, 66487.779994382), (-17747.8573859375, 66488.07997412248), (-17747.8573859375, 66487.88997412247), (-17747.8573859375, 66488.00997412247), (-17747.8573859375, 66487.88997412247), (-17742.559385937486, 66488.22503741576), (-17742.559385937486, 66487.96503741576)]</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[(0.300000000122004, 195.0), (0.300000000122004, 194.8), (3.889, 195.1256444000337), (3.889, 194.92564440003372), (3.889, 195.1256444000337), (3.889, 194.8756444000337), (8.79999999999258, 195.29756962950867), (8.79999999999258, 195.04756962950867), (0.300000000122004, 194.8), (0.300000000122004, 194.6), (3.889, 194.92564440003372), (3.889, 194.7556444000337), (3.889, 194.8756444000337), (3.889, 194.7556444000337), (8.79999999999258, 195.04756962950867), (8.79999999999258, 194.79756962950867)]</t>
+          <t>[(-17751.059385937377, 66530.9091457554), (-17751.059385937377, 66530.7091457554), (-17747.4703859375, 66531.03479015543), (-17747.4703859375, 66530.83479015544), (-17747.4703859375, 66531.03479015543), (-17747.4703859375, 66530.78479015543), (-17742.559385937508, 66531.2067153849), (-17742.559385937508, 66530.9567153849), (-17751.059385937377, 66530.7091457554), (-17751.059385937377, 66530.50914575541), (-17747.4703859375, 66530.83479015544), (-17747.4703859375, 66530.66479015544), (-17747.4703859375, 66530.78479015543), (-17747.4703859375, 66530.66479015544), (-17742.559385937508, 66530.9567153849), (-17742.559385937508, 66530.7067153849)]</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[(0.300000000018771, 196.0), (0.300000000018771, 195.8), (3.806, 196.103157337147), (3.806, 195.903157337147), (3.806, 196.103157337147), (3.806, 195.843157337147), (8.80000000000455, 196.25009622525747), (8.80000000000455, 195.99009622525747), (0.300000000018771, 195.8), (0.300000000018771, 195.6), (3.806, 195.903157337147), (3.806, 195.723157337147), (3.806, 195.843157337147), (3.806, 195.723157337147), (8.80000000000455, 195.99009622525747), (8.80000000000455, 195.74009622525747)]</t>
+          <t>[(-17622.85938593748, 66487.6682971288), (-17622.85938593748, 66487.4682971288), (-17619.3533859375, 66487.77145446594), (-17619.3533859375, 66487.57145446594), (-17619.3533859375, 66487.77145446594), (-17619.3533859375, 66487.51145446594), (-17614.359385937496, 66487.91839335405), (-17614.359385937496, 66487.65839335405), (-17622.85938593748, 66487.4682971288), (-17622.85938593748, 66487.2682971288), (-17619.3533859375, 66487.57145446594), (-17619.3533859375, 66487.39145446593), (-17619.3533859375, 66487.51145446594), (-17619.3533859375, 66487.39145446593), (-17614.359385937496, 66487.65839335405), (-17614.359385937496, 66487.40839335405)]</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 197.0), (0.299999999999559, 196.8), (3.768, 197.06866144909952), (3.768, 196.86866144909953), (3.768, 197.06866144909952), (3.768, 196.84866144909952), (8.80000000000882, 197.16828786544016), (8.80000000000882, 196.94828786544016), (0.299999999999559, 196.8), (0.299999999999559, 196.6), (3.768, 196.86866144909953), (3.768, 196.69866144909952), (3.768, 196.84866144909952), (3.768, 196.69866144909952), (8.80000000000882, 196.94828786544016), (8.80000000000882, 196.64828786544015)]</t>
+          <t>[(-17622.8593859377, 66524.4272290028), (-17622.8593859377, 66524.2272290028), (-17619.3913859377, 66524.4958904519), (-17619.3913859377, 66524.2958904519), (-17619.3913859377, 66524.4958904519), (-17619.3913859377, 66524.2758904519), (-17614.35938593769, 66524.59551686824), (-17614.35938593769, 66524.37551686824), (-17622.8593859377, 66524.2272290028), (-17622.8593859377, 66524.02722900281), (-17619.3913859377, 66524.2958904519), (-17619.3913859377, 66524.1258904519), (-17619.3913859377, 66524.2758904519), (-17619.3913859377, 66524.1258904519), (-17614.35938593769, 66524.37551686824), (-17614.35938593769, 66524.07551686824)]</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 198.0), (0.299999999999559, 197.88), (3.727, 197.98217470763092), (3.727, 197.8621747076309), (3.727, 197.98217470763092), (3.727, 197.8621747076309), (8.80000000000882, 197.95578786543993), (8.80000000000882, 197.83578786543993), (0.299999999999559, 197.88), (0.299999999999559, 197.62), (3.727, 197.8621747076309), (3.727, 197.70217470763092), (3.727, 197.8621747076309), (3.727, 197.70217470763092), (8.80000000000882, 197.83578786543993), (8.80000000000882, 197.60578786543994)]</t>
+          <t>[(-17622.8593859377, 66559.18392946631), (-17622.8593859377, 66559.06392946631), (-17619.4323859377, 66559.16610417394), (-17619.4323859377, 66559.04610417395), (-17619.4323859377, 66559.16610417394), (-17619.4323859377, 66559.04610417395), (-17614.35938593769, 66559.13971733175), (-17614.35938593769, 66559.01971733176), (-17622.8593859377, 66559.06392946631), (-17622.8593859377, 66558.8039294663), (-17619.4323859377, 66559.04610417395), (-17619.4323859377, 66558.88610417394), (-17619.4323859377, 66559.04610417395), (-17619.4323859377, 66558.88610417394), (-17614.35938593769, 66559.01971733176), (-17614.35938593769, 66558.78971733175)]</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[(0.299999999997471, 199.0), (0.299999999997471, 198.88), (3.683, 198.91542499999994), (3.683, 198.79542499999994), (3.683, 198.91542499999994), (3.683, 198.78542499999995), (8.80000000000882, 198.7874999999997), (8.80000000000882, 198.65749999999971), (0.299999999997471, 198.88), (0.299999999997471, 198.61), (3.683, 198.79542499999994), (3.683, 198.66542499999994), (3.683, 198.78542499999995), (3.683, 198.66542499999994), (8.80000000000882, 198.65749999999971), (8.80000000000882, 198.5374999999997)]</t>
+          <t>[(-17562.8593859375, 66487.9379125385), (-17562.8593859375, 66487.8179125385), (-17559.476385937498, 66487.8533375385), (-17559.476385937498, 66487.7333375385), (-17559.476385937498, 66487.8533375385), (-17559.476385937498, 66487.7233375385), (-17554.35938593749, 66487.72541253851), (-17554.35938593749, 66487.5954125385), (-17562.8593859375, 66487.8179125385), (-17562.8593859375, 66487.5479125385), (-17559.476385937498, 66487.7333375385), (-17559.476385937498, 66487.6033375385), (-17559.476385937498, 66487.7233375385), (-17559.476385937498, 66487.6033375385), (-17554.35938593749, 66487.5954125385), (-17554.35938593749, 66487.47541253851)]</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[(0.299999999997471, 200.0), (0.299999999997471, 199.88), (3.598, 199.91754999999995), (3.598, 199.79754999999994), (3.598, 199.91754999999995), (3.598, 199.78754999999995), (8.80000000000673, 199.78749999999977), (8.80000000000673, 199.65749999999977), (0.299999999997471, 199.88), (0.299999999997471, 199.61), (3.598, 199.79754999999994), (3.598, 199.66754999999995), (3.598, 199.78754999999995), (3.598, 199.66754999999995), (8.80000000000673, 199.65749999999977), (8.80000000000673, 199.53749999999977)]</t>
+          <t>[(-17562.8593859375, 66524.6891782195), (-17562.8593859375, 66524.5691782195), (-17559.561385937497, 66524.6067282195), (-17559.561385937497, 66524.4867282195), (-17559.561385937497, 66524.6067282195), (-17559.561385937497, 66524.4767282195), (-17554.359385937492, 66524.47667821951), (-17554.359385937492, 66524.3466782195), (-17562.8593859375, 66524.5691782195), (-17562.8593859375, 66524.2991782195), (-17559.561385937497, 66524.4867282195), (-17559.561385937497, 66524.3567282195), (-17559.561385937497, 66524.4767282195), (-17559.561385937497, 66524.3567282195), (-17554.359385937492, 66524.3466782195), (-17554.359385937492, 66524.22667821951)]</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 201.0), (0.299999999999559, 200.88), (3.606, 200.91735), (3.606, 200.79735), (3.606, 200.91735), (3.606, 200.78735), (8.80000000000882, 200.78749999999977), (8.80000000000882, 200.65749999999977), (0.299999999999559, 200.88), (0.299999999999559, 200.61), (3.606, 200.79735), (3.606, 200.66735), (3.606, 200.78735), (3.606, 200.66735), (8.80000000000882, 200.65749999999977), (8.80000000000882, 200.53749999999977)]</t>
+          <t>[(-17562.8593859375, 66561.4377265091), (-17562.8593859375, 66561.3177265091), (-17559.5533859375, 66561.3550765091), (-17559.5533859375, 66561.23507650911), (-17559.5533859375, 66561.3550765091), (-17559.5533859375, 66561.2250765091), (-17554.35938593749, 66561.22522650911), (-17554.35938593749, 66561.0952265091), (-17562.8593859375, 66561.3177265091), (-17562.8593859375, 66561.0477265091), (-17559.5533859375, 66561.23507650911), (-17559.5533859375, 66561.1050765091), (-17559.5533859375, 66561.2250765091), (-17559.5533859375, 66561.1050765091), (-17554.35938593749, 66561.0952265091), (-17554.35938593749, 66560.97522650911)]</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 202.0), (0.299999999999559, 201.88), (3.547, 201.918825), (3.547, 201.798825), (3.547, 201.918825), (3.547, 201.788825), (8.80000000000882, 201.78749999999977), (8.80000000000882, 201.65749999999977), (0.299999999999559, 201.88), (0.299999999999559, 201.63), (3.547, 201.798825), (3.547, 201.668825), (3.547, 201.788825), (3.547, 201.668825), (8.80000000000882, 201.65749999999977), (8.80000000000882, 201.53749999999977)]</t>
+          <t>[(-17434.659385937503, 66488.1840433883), (-17434.659385937503, 66488.06404338831), (-17431.412385937503, 66488.1028683883), (-17431.412385937503, 66487.98286838831), (-17431.412385937503, 66488.1028683883), (-17431.412385937503, 66487.9728683883), (-17426.15938593749, 66487.97154338831), (-17426.15938593749, 66487.8415433883), (-17434.659385937503, 66488.06404338831), (-17434.659385937503, 66487.81404338831), (-17431.412385937503, 66487.98286838831), (-17431.412385937503, 66487.8528683883), (-17431.412385937503, 66487.9728683883), (-17431.412385937503, 66487.8528683883), (-17426.15938593749, 66487.8415433883), (-17426.15938593749, 66487.72154338831)]</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 203.0), (0.299999999999559, 202.88), (3.538, 202.91905), (3.538, 202.79905), (3.538, 202.91905), (3.538, 202.78905), (8.80000000000882, 202.78749999999977), (8.80000000000882, 202.65749999999977), (0.299999999999559, 202.88), (0.299999999999559, 202.63), (3.538, 202.79905), (3.538, 202.66905), (3.538, 202.78905), (3.538, 202.66905), (8.80000000000882, 202.65749999999977), (8.80000000000882, 202.53749999999977)]</t>
+          <t>[(-17434.659385937503, 66522.9301407681), (-17434.659385937503, 66522.81014076811), (-17431.4213859375, 66522.8491907681), (-17431.4213859375, 66522.7291907681), (-17431.4213859375, 66522.8491907681), (-17431.4213859375, 66522.7191907681), (-17426.15938593749, 66522.71764076811), (-17426.15938593749, 66522.5876407681), (-17434.659385937503, 66522.81014076811), (-17434.659385937503, 66522.56014076811), (-17431.4213859375, 66522.7291907681), (-17431.4213859375, 66522.5991907681), (-17431.4213859375, 66522.7191907681), (-17431.4213859375, 66522.5991907681), (-17426.15938593749, 66522.5876407681), (-17426.15938593749, 66522.46764076811)]</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 204.0), (0.299999999999559, 203.88), (3.559, 203.918525), (3.559, 203.79852499999998), (3.559, 203.918525), (3.559, 203.788525), (8.80000000000882, 203.78749999999977), (8.80000000000882, 203.65749999999977), (0.299999999999559, 203.88), (0.299999999999559, 203.64), (3.559, 203.79852499999998), (3.559, 203.668525), (3.559, 203.788525), (3.559, 203.668525), (8.80000000000882, 203.65749999999977), (8.80000000000882, 203.53749999999977)]</t>
+          <t>[(-17434.659385937503, 66559.6762381479), (-17434.659385937503, 66559.55623814791), (-17431.4003859375, 66559.5947631479), (-17431.4003859375, 66559.47476314791), (-17431.4003859375, 66559.5947631479), (-17431.4003859375, 66559.4647631479), (-17426.15938593749, 66559.46373814791), (-17426.15938593749, 66559.3337381479), (-17434.659385937503, 66559.55623814791), (-17434.659385937503, 66559.3162381479), (-17431.4003859375, 66559.47476314791), (-17431.4003859375, 66559.3447631479), (-17431.4003859375, 66559.4647631479), (-17431.4003859375, 66559.3447631479), (-17426.15938593749, 66559.3337381479), (-17426.15938593749, 66559.21373814791)]</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 205.0), (0.299999999999559, 204.88), (3.474, 204.92065), (3.474, 204.80065), (3.474, 204.92065), (3.474, 204.79065), (8.80000000000882, 204.78749999999977), (8.80000000000882, 204.65749999999977), (0.299999999999559, 204.88), (0.299999999999559, 204.65), (3.474, 204.80065), (3.474, 204.67065), (3.474, 204.79065), (3.474, 204.67065), (8.80000000000882, 204.65749999999977), (8.80000000000882, 204.53749999999977)]</t>
+          <t>[(-17374.659385937503, 66486.42232673451), (-17374.659385937503, 66486.30232673451), (-17371.485385937503, 66486.34297673451), (-17371.485385937503, 66486.22297673451), (-17371.485385937503, 66486.34297673451), (-17371.485385937503, 66486.2129767345), (-17366.15938593749, 66486.20982673451), (-17366.15938593749, 66486.07982673451), (-17374.659385937503, 66486.30232673451), (-17374.659385937503, 66486.0723267345), (-17371.485385937503, 66486.22297673451), (-17371.485385937503, 66486.09297673451), (-17371.485385937503, 66486.2129767345), (-17371.485385937503, 66486.09297673451), (-17366.15938593749, 66486.07982673451), (-17366.15938593749, 66485.95982673451)]</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 206.0), (0.299999999999559, 205.88), (3.407, 205.922325), (3.407, 205.802325), (3.407, 205.922325), (3.407, 205.792325), (8.80000000000882, 205.78749999999977), (8.80000000000882, 205.65749999999977), (0.299999999999559, 205.88), (0.299999999999559, 205.65), (3.407, 205.802325), (3.407, 205.672325), (3.407, 205.792325), (3.407, 205.672325), (8.80000000000882, 205.65749999999977), (8.80000000000882, 205.53749999999977)]</t>
+          <t>[(-17374.659385937503, 66523.1467347681), (-17374.659385937503, 66523.02673476811), (-17371.552385937503, 66523.06905976811), (-17371.552385937503, 66522.94905976811), (-17371.552385937503, 66523.06905976811), (-17371.552385937503, 66522.9390597681), (-17366.15938593749, 66522.93423476811), (-17366.15938593749, 66522.8042347681), (-17374.659385937503, 66523.02673476811), (-17374.659385937503, 66522.7967347681), (-17371.552385937503, 66522.94905976811), (-17371.552385937503, 66522.81905976811), (-17371.552385937503, 66522.9390597681), (-17371.552385937503, 66522.81905976811), (-17366.15938593749, 66522.8042347681), (-17366.15938593749, 66522.68423476811)]</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 207.0), (0.299999999999559, 206.88), (3.3, 206.92499999999998), (3.3, 206.80499999999998), (3.3, 206.92499999999998), (3.3, 206.795), (8.80000000000882, 206.78749999999977), (8.80000000000882, 206.65749999999977), (0.299999999999559, 206.88), (0.299999999999559, 206.64), (3.3, 206.80499999999998), (3.3, 206.67499999999998), (3.3, 206.795), (3.3, 206.67499999999998), (8.80000000000882, 206.65749999999977), (8.80000000000882, 206.53749999999977)]</t>
+          <t>[(-17374.659385937503, 66559.8294761351), (-17374.659385937503, 66559.7094761351), (-17371.659385937503, 66559.7544761351), (-17371.659385937503, 66559.6344761351), (-17371.659385937503, 66559.7544761351), (-17371.659385937503, 66559.6244761351), (-17366.15938593749, 66559.6169761351), (-17366.15938593749, 66559.4869761351), (-17374.659385937503, 66559.7094761351), (-17374.659385937503, 66559.4694761351), (-17371.659385937503, 66559.6344761351), (-17371.659385937503, 66559.5044761351), (-17371.659385937503, 66559.6244761351), (-17371.659385937503, 66559.5044761351), (-17366.15938593749, 66559.4869761351), (-17366.15938593749, 66559.3669761351)]</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 208.0), (0.299999999999559, 207.88), (3.179, 207.928025), (3.179, 207.808025), (3.179, 207.928025), (3.179, 207.798025), (8.80000000000882, 207.78749999999977), (8.80000000000882, 207.65749999999977), (0.299999999999559, 207.88), (0.299999999999559, 207.65), (3.179, 207.808025), (3.179, 207.678025), (3.179, 207.798025), (3.179, 207.678025), (8.80000000000882, 207.65749999999977), (8.80000000000882, 207.53749999999977)]</t>
+          <t>[(-17246.4593859375, 66486.4705508354), (-17246.4593859375, 66486.3505508354), (-17243.5803859375, 66486.3985758354), (-17243.5803859375, 66486.2785758354), (-17243.5803859375, 66486.3985758354), (-17243.5803859375, 66486.26857583539), (-17237.95938593749, 66486.2580508354), (-17237.95938593749, 66486.1280508354), (-17246.4593859375, 66486.3505508354), (-17246.4593859375, 66486.12055083539), (-17243.5803859375, 66486.2785758354), (-17243.5803859375, 66486.1485758354), (-17243.5803859375, 66486.26857583539), (-17243.5803859375, 66486.1485758354), (-17237.95938593749, 66486.1280508354), (-17237.95938593749, 66486.0080508354)]</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 209.0), (0.299999999999559, 208.88), (3.11, 208.92974999999998), (3.11, 208.80974999999998), (3.11, 208.92974999999998), (3.11, 208.79975), (8.80000000000882, 208.78749999999977), (8.80000000000882, 208.65749999999977), (0.299999999999559, 208.88), (0.299999999999559, 208.66), (3.11, 208.80974999999998), (3.11, 208.67974999999998), (3.11, 208.79975), (3.11, 208.67974999999998), (8.80000000000882, 208.65749999999977), (8.80000000000882, 208.53749999999977)]</t>
+          <t>[(-17246.4593859375, 66521.069958869), (-17246.4593859375, 66520.94995886901), (-17243.6493859375, 66520.999708869), (-17243.6493859375, 66520.879708869), (-17243.6493859375, 66520.999708869), (-17243.6493859375, 66520.869708869), (-17237.95938593749, 66520.85745886901), (-17237.95938593749, 66520.727458869), (-17246.4593859375, 66520.94995886901), (-17246.4593859375, 66520.72995886901), (-17243.6493859375, 66520.879708869), (-17243.6493859375, 66520.749708869), (-17243.6493859375, 66520.869708869), (-17243.6493859375, 66520.749708869), (-17237.95938593749, 66520.727458869), (-17237.95938593749, 66520.60745886901)]</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>[(0.299999999999559, 210.0), (0.299999999999559, 209.88), (2.924, 209.93439999999998), (2.924, 209.81439999999998), (2.924, 209.93439999999998), (2.924, 209.8044), (8.80000000000882, 209.78749999999977), (8.80000000000882, 209.65749999999977), (0.299999999999559, 209.88), (0.299999999999559, 209.67), (2.924, 209.81439999999998), (2.924, 209.68439999999998), (2.924, 209.8044), (2.924, 209.68439999999998), (8.80000000000882, 209.65749999999977), (8.80000000000882, 209.53749999999977)]</t>
+          <t>[(-17246.4593859375, 66555.6277002359), (-17246.4593859375, 66555.5077002359), (-17243.835385937502, 66555.5621002359), (-17243.835385937502, 66555.4421002359), (-17243.835385937502, 66555.5621002359), (-17243.835385937502, 66555.43210023589), (-17237.95938593749, 66555.4152002359), (-17237.95938593749, 66555.2852002359), (-17246.4593859375, 66555.5077002359), (-17246.4593859375, 66555.2977002359), (-17243.835385937502, 66555.4421002359), (-17243.835385937502, 66555.3121002359), (-17243.835385937502, 66555.43210023589), (-17243.835385937502, 66555.3121002359), (-17237.95938593749, 66555.2852002359), (-17237.95938593749, 66555.1652002359)]</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[(0.300000000027713, 213.0), (0.300000000027713, 212.87), (8.79999999999032, 212.74891039354478), (8.79999999999032, 212.61891039354478), (0.300000000027713, 212.87), (0.300000000027713, 212.75), (8.79999999999032, 212.61891039354478), (8.79999999999032, 212.49891039354478)]</t>
+          <t>[(-26194.05938593747, 66187.0509243367), (-26194.05938593747, 66186.9209243367), (-26185.559385937508, 66186.79983473025), (-26185.559385937508, 66186.66983473024), (-26194.05938593747, 66186.9209243367), (-26194.05938593747, 66186.8009243367), (-26185.559385937508, 66186.66983473024), (-26185.559385937508, 66186.54983473025)]</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>[(0.300000000001953, 214.0), (0.300000000001953, 213.87), (8.512, 213.73310834283714), (8.512, 213.60310834283715), (0.300000000001953, 213.87), (0.300000000001953, 213.75), (8.512, 213.60310834283715), (8.512, 213.48310834283714)]</t>
+          <t>[(-26204.0593859374, 66237.44199903701), (-26204.0593859374, 66237.311999037), (-26195.847385937403, 66237.17510737985), (-26195.847385937403, 66237.04510737985), (-26204.0593859374, 66237.311999037), (-26204.0593859374, 66237.19199903701), (-26195.847385937403, 66237.04510737985), (-26195.847385937403, 66236.92510737985)]</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>[(0.300000000075161, 215.0), (0.300000000075161, 214.87), (7.429, 214.74720245270328), (7.429, 214.61720245270328), (0.300000000075161, 214.87), (0.300000000075161, 214.75), (7.429, 214.61720245270328), (7.429, 214.49720245270328)]</t>
+          <t>[(-26095.041365577923, 66185.7914070706), (-26095.041365577923, 66185.6614070706), (-26087.912365578, 66185.53860952331), (-26087.912365578, 66185.4086095233), (-26095.041365577923, 66185.6614070706), (-26095.041365577923, 66185.5414070706), (-26087.912365578, 66185.4086095233), (-26087.912365578, 66185.28860952331)]</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>[(0.300000000034574, 216.0), (0.300000000034574, 215.87), (5.868, 215.78882977100685), (5.868, 215.65882977100685), (0.300000000034574, 215.87), (0.300000000034574, 215.75), (5.868, 215.65882977100685), (5.868, 215.53882977100685)]</t>
+          <t>[(-26096.677406297265, 66236.1078680389), (-26096.677406297265, 66235.9778680389), (-26091.109406297302, 66235.8966978099), (-26091.109406297302, 66235.7666978099), (-26096.677406297265, 66235.9778680389), (-26096.677406297265, 66235.8578680389), (-26091.109406297302, 66235.7666978099), (-26091.109406297302, 66235.6466978099)]</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>[(0.299999999997386, 217.0), (0.299999999997386, 216.87), (4.059, 216.76995621879985), (4.059, 216.63995621879985), (0.299999999997386, 216.87), (0.299999999997386, 216.75), (4.059, 216.63995621879985), (4.059, 216.51995621879985)]</t>
+          <t>[(-26030.859385937605, 66194.4034809633), (-26030.859385937605, 66194.2734809633), (-26027.1003859376, 66194.17343718211), (-26027.1003859376, 66194.0434371821), (-26030.859385937605, 66194.2734809633), (-26030.859385937605, 66194.1534809633), (-26027.1003859376, 66194.0434371821), (-26027.1003859376, 66193.92343718211)]</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>[(0.300000000002969, 234.0), (0.300000000002969, 233.87), (2.657, 234.04652704819642), (2.657, 233.91652704819643), (0.300000000002969, 233.87), (0.300000000002969, 233.75), (2.657, 233.91652704819643), (2.657, 233.79652704819642)]</t>
+          <t>[(-24587.259385937596, 66235.4045100064), (-24587.259385937596, 66235.27451000639), (-24584.9023859376, 66235.45103705459), (-24584.9023859376, 66235.32103705459), (-24587.259385937596, 66235.27451000639), (-24587.259385937596, 66235.1545100064), (-24584.9023859376, 66235.32103705459), (-24584.9023859376, 66235.20103705459)]</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>[(0.300000000050712, 235.0), (0.300000000050712, 234.87), (3.886, 235.1521545129682), (3.886, 235.0221545129682), (0.300000000050712, 234.87), (0.300000000050712, 234.75), (3.886, 235.0221545129682), (3.886, 234.9021545129682)]</t>
+          <t>[(-24400.05938593745, 66189.570334359), (-24400.05938593745, 66189.440334359), (-24396.4733859375, 66189.72248887196), (-24396.4733859375, 66189.59248887196), (-24400.05938593745, 66189.440334359), (-24400.05938593745, 66189.320334359), (-24396.4733859375, 66189.59248887196), (-24396.4733859375, 66189.47248887196)]</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>[(0.300000000088384, 236.0), (0.300000000088384, 235.87), (5.622, 236.3375752509783), (5.622, 236.2075752509783), (0.300000000088384, 235.87), (0.300000000088384, 235.75), (5.622, 236.2075752509783), (5.622, 236.0875752509783)]</t>
+          <t>[(-24400.059385937413, 66249.7361587116), (-24400.059385937413, 66249.6061587116), (-24394.7373859375, 66250.07373396258), (-24394.7373859375, 66249.94373396257), (-24400.059385937413, 66249.6061587116), (-24400.059385937413, 66249.4861587116), (-24394.7373859375, 66249.94373396257), (-24394.7373859375, 66249.82373396258)]</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>[(0.300000000005366, 237.0), (0.300000000005366, 236.88), (7.587, 237.51008999999962), (7.587, 237.39008999999962), (0.300000000005366, 236.88), (0.300000000005366, 236.75), (7.587, 237.39008999999962), (7.587, 237.20008999999962)]</t>
+          <t>[(-24322.059385937595, 66189.90198306431), (-24322.059385937595, 66189.78198306431), (-24314.772385937602, 66190.4120730643), (-24314.772385937602, 66190.29207306431), (-24322.059385937595, 66189.78198306431), (-24322.059385937595, 66189.65198306431), (-24314.772385937602, 66190.29207306431), (-24314.772385937602, 66190.1020730643)]</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[(0.299999999999214, 238.0), (0.299999999999214, 237.87), (7.256, 238.48692000000005), (7.256, 238.35692000000006), (0.299999999999214, 237.87), (0.299999999999214, 237.75), (7.256, 238.35692000000006), (7.256, 238.23692000000005)]</t>
+          <t>[(-24322.059385937602, 66250.0678074169), (-24322.059385937602, 66249.93780741689), (-24315.1033859376, 66250.5547274169), (-24315.1033859376, 66250.42472741689), (-24322.059385937602, 66249.93780741689), (-24322.059385937602, 66249.8178074169), (-24315.1033859376, 66250.42472741689), (-24315.1033859376, 66250.3047274169)]</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>[(0.300000000003921, 239.0), (0.300000000003921, 238.87), (6.142, 239.40893999999972), (6.142, 239.27893999999972), (0.300000000003921, 238.87), (0.300000000003921, 238.75), (6.142, 239.27893999999972), (6.142, 239.15893999999972)]</t>
+          <t>[(-24211.859385937598, 66190.2336317695), (-24211.859385937598, 66190.1036317695), (-24206.0173859376, 66190.6425717695), (-24206.0173859376, 66190.51257176949), (-24211.859385937598, 66190.1036317695), (-24211.859385937598, 66189.9836317695), (-24206.0173859376, 66190.51257176949), (-24206.0173859376, 66190.3925717695)]</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>[(0.2999999999998, 240.0), (0.2999999999998, 239.87), (5.235, 240.34545000000003), (5.235, 240.21545000000003), (0.2999999999998, 239.87), (0.2999999999998, 239.75), (5.235, 240.21545000000003), (5.235, 240.09545000000003)]</t>
+          <t>[(-24211.8593859376, 66240.3994561221), (-24211.8593859376, 66240.2694561221), (-24206.9243859376, 66240.7449061221), (-24206.9243859376, 66240.6149061221), (-24211.8593859376, 66240.2694561221), (-24211.8593859376, 66240.1494561221), (-24206.9243859376, 66240.6149061221), (-24206.9243859376, 66240.4949061221)]</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>[(0.300000000003242, 241.0), (0.300000000003242, 240.87), (4.934, 241.231499744807), (4.934, 241.101499744807), (0.300000000003242, 240.87), (0.300000000003242, 240.75), (4.934, 241.101499744807), (4.934, 240.981499744807)]</t>
+          <t>[(-24022.6593859375, 66192.5652804748), (-24022.6593859375, 66192.43528047479), (-24018.0253859375, 66192.7967802196), (-24018.0253859375, 66192.6667802196), (-24022.6593859375, 66192.43528047479), (-24022.6593859375, 66192.3152804748), (-24018.0253859375, 66192.6667802196), (-24018.0253859375, 66192.5467802196)]</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[(0.300000000162364, 242.0), (0.300000000162364, 241.88), (4.86, 242.1320429426627), (4.86, 242.0120429426627), (0.300000000162364, 241.88), (0.300000000162364, 241.75), (4.86, 242.0120429426627), (4.86, 241.7920429426627)]</t>
+          <t>[(-24022.659385937437, 66246.7311048274), (-24022.659385937437, 66246.6111048274), (-24018.0993859376, 66246.86314777005), (-24018.0993859376, 66246.74314777006), (-24022.659385937437, 66246.6111048274), (-24022.659385937437, 66246.4811048274), (-24018.0993859376, 66246.74314777006), (-24018.0993859376, 66246.52314777006)]</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[(0.299999999994472, 243.0), (0.299999999994472, 242.88), (5.037, 243.0388273133354), (5.037, 242.91882731333538), (0.299999999994472, 242.88), (0.299999999994472, 242.71), (5.037, 242.91882731333538), (5.037, 242.6888273133354)]</t>
+          <t>[(-23953.659385937506, 66192.89692918), (-23953.659385937506, 66192.77692918), (-23948.9223859375, 66192.93575649333), (-23948.9223859375, 66192.81575649334), (-23953.659385937506, 66192.77692918), (-23953.659385937506, 66192.60692918001), (-23948.9223859375, 66192.81575649334), (-23948.9223859375, 66192.58575649332)]</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[(0.299999999994472, 244.0), (0.299999999994472, 243.81), (5.202, 243.93868626980435), (5.202, 243.74868626980435), (0.299999999994472, 243.81), (0.299999999994472, 243.67), (5.202, 243.74868626980435), (5.202, 243.56868626980435)]</t>
+          <t>[(-23953.659385937604, 66245.06275353271), (-23953.659385937604, 66244.8727535327), (-23948.7573859376, 66245.00143980251), (-23948.7573859376, 66244.8114398025), (-23953.659385937604, 66244.8727535327), (-23953.659385937604, 66244.7327535327), (-23948.7573859376, 66244.8114398025), (-23948.7573859376, 66244.63143980251)]</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>[(0.300000000013031, 245.0), (0.300000000013031, 244.82), (5.455, 244.84061065703978), (5.455, 244.66061065703977), (0.300000000013031, 244.82), (0.300000000013031, 244.69), (5.455, 244.66061065703977), (5.455, 244.49061065703978)]</t>
+          <t>[(-23833.459385937687, 66191.2285778853), (-23833.459385937687, 66191.0485778853), (-23828.3043859377, 66191.06918854233), (-23828.3043859377, 66190.88918854234), (-23833.459385937687, 66191.0485778853), (-23833.459385937687, 66190.9185778853), (-23828.3043859377, 66190.88918854234), (-23828.3043859377, 66190.71918854232)]</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>[(0.300000000021405, 246.0), (0.300000000021405, 245.86), (5.602, 245.75694127482055), (5.602, 245.61694127482056), (0.300000000021405, 245.86), (0.300000000021405, 245.73), (5.602, 245.61694127482056), (5.602, 245.49694127482056)]</t>
+          <t>[(-23833.45938593748, 66247.3944022379), (-23833.45938593748, 66247.2544022379), (-23828.157385937502, 66247.15134351273), (-23828.157385937502, 66247.01134351273), (-23833.45938593748, 66247.2544022379), (-23833.45938593748, 66247.1244022379), (-23828.157385937502, 66247.01134351273), (-23828.157385937502, 66246.89134351273)]</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>[(0.300000000063715, 247.0), (0.300000000063715, 246.87), (5.433, 246.68808654562685), (5.433, 246.55808654562685), (0.300000000063715, 246.87), (0.300000000063715, 246.75), (5.433, 246.55808654562685), (5.433, 246.43808654562685)]</t>
+          <t>[(-23773.459385937436, 66187.5602265906), (-23773.459385937436, 66187.4302265906), (-23768.3263859375, 66187.24831313624), (-23768.3263859375, 66187.11831313623), (-23773.459385937436, 66187.4302265906), (-23773.459385937436, 66187.3102265906), (-23768.3263859375, 66187.11831313623), (-23768.3263859375, 66186.99831313624)]</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>[(0.30000000000184, 248.0), (0.30000000000184, 247.87), (5.325, 247.64825000000013), (5.325, 247.51825000000014), (0.30000000000184, 247.87), (0.30000000000184, 247.75), (5.325, 247.51825000000014), (5.325, 247.39825000000013)]</t>
+          <t>[(-23773.459385937596, 66243.7260509432), (-23773.459385937596, 66243.59605094319), (-23768.4343859376, 66243.3743009432), (-23768.4343859376, 66243.24430094319), (-23773.459385937596, 66243.59605094319), (-23773.459385937596, 66243.4760509432), (-23768.4343859376, 66243.24430094319), (-23768.4343859376, 66243.1243009432)]</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>[(0.29999999999998, 249.0), (0.29999999999998, 248.87), (5.008, 248.67043999999999), (5.008, 248.54044), (0.29999999999998, 248.87), (0.29999999999998, 248.75), (5.008, 248.54044), (5.008, 248.42043999999999)]</t>
+          <t>[(-23645.2593859375, 66185.8918752958), (-23645.2593859375, 66185.7618752958), (-23640.5513859375, 66185.5623152958), (-23640.5513859375, 66185.4323152958), (-23645.2593859375, 66185.7618752958), (-23645.2593859375, 66185.6418752958), (-23640.5513859375, 66185.4323152958), (-23640.5513859375, 66185.3123152958)]</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[(0.299999999994727, 251.0), (0.299999999994727, 250.81), (4.418, 250.71173999999962), (4.418, 250.52173999999962), (0.299999999994727, 250.81), (0.299999999994727, 250.63), (4.418, 250.52173999999962), (4.418, 250.40173999999962)]</t>
+          <t>[(-23585.259385937505, 66186.4818981399), (-23585.259385937505, 66186.2918981399), (-23581.1413859375, 66186.1936381399), (-23581.1413859375, 66186.0036381399), (-23585.259385937505, 66186.2918981399), (-23585.259385937505, 66186.1118981399), (-23581.1413859375, 66186.0036381399), (-23581.1413859375, 66185.8836381399)]</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[(0.300000000048272, 252.0), (0.300000000048272, 251.85), (4.286, 251.79324970714555), (4.286, 251.64324970714554), (0.300000000048272, 251.85), (0.300000000048272, 251.7), (4.286, 251.64324970714554), (4.286, 251.49324970714554), (0.300000000048272, 251.7), (0.300000000048272, 251.55), (4.286, 251.49324970714554), (4.286, 251.34324970714556)]</t>
+          <t>[(-23590.259385937552, 66236.989672782), (-23590.259385937552, 66236.839672782), (-23586.2733859376, 66236.78292248915), (-23586.2733859376, 66236.63292248915), (-23590.259385937552, 66236.839672782), (-23590.259385937552, 66236.689672782), (-23586.2733859376, 66236.63292248915), (-23586.2733859376, 66236.48292248914), (-23590.259385937552, 66236.689672782), (-23590.259385937552, 66236.539672782), (-23586.2733859376, 66236.48292248914), (-23586.2733859376, 66236.33292248915)]</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[(0.30000000013711, 253.0), (0.30000000013711, 252.82), (4.114, 252.88038638176155), (4.114, 252.70038638176155), (0.30000000013711, 252.82), (0.30000000013711, 252.64), (4.114, 252.70038638176155), (4.114, 252.52038638176154), (0.30000000013711, 252.64), (0.30000000013711, 252.51), (4.114, 252.52038638176154), (4.114, 252.35038638176155)]</t>
+          <t>[(-23458.559385937464, 66187.6394928787), (-23458.559385937464, 66187.45949287871), (-23454.7453859376, 66187.51987926046), (-23454.7453859376, 66187.33987926047), (-23458.559385937464, 66187.45949287871), (-23458.559385937464, 66187.2794928787), (-23454.7453859376, 66187.33987926047), (-23454.7453859376, 66187.15987926046), (-23458.559385937464, 66187.2794928787), (-23458.559385937464, 66187.1494928787), (-23454.7453859376, 66187.15987926046), (-23454.7453859376, 66186.98987926047)]</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[(0.300000000074139, 254.0), (0.300000000074139, 253.76), (4.052, 253.95927453730533), (4.052, 253.71927453730532), (0.300000000074139, 253.76), (0.300000000074139, 253.59), (4.052, 253.71927453730532), (4.052, 253.48927453730533)]</t>
+          <t>[(-23458.559385937526, 66226.4313584299), (-23458.559385937526, 66226.19135842989), (-23454.8073859376, 66226.3906329672), (-23454.8073859376, 66226.1506329672), (-23458.559385937526, 66226.19135842989), (-23458.559385937526, 66226.02135842989), (-23454.8073859376, 66226.1506329672), (-23454.8073859376, 66225.9206329672)]</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[(0.300000000044036, 255.0), (0.300000000044036, 254.83), (4.079, 255.0178369019314), (4.079, 254.8478369019314), (0.300000000044036, 254.83), (0.300000000044036, 254.69), (4.079, 254.8478369019314), (4.079, 254.67783690193139)]</t>
+          <t>[(-23270.859385937456, 66195.3652694357), (-23270.859385937456, 66195.1952694357), (-23267.080385937497, 66195.38310633763), (-23267.080385937497, 66195.21310633763), (-23270.859385937456, 66195.1952694357), (-23270.859385937456, 66195.0552694357), (-23267.080385937497, 66195.21310633763), (-23267.080385937497, 66195.04310633763)]</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[(0.300000000078161, 256.0), (0.300000000078161, 255.84), (3.989, 256.05440316024254), (3.989, 255.89440316024255), (0.300000000078161, 255.84), (0.300000000078161, 255.69), (3.989, 255.89440316024255), (3.989, 255.73440316024255)]</t>
+          <t>[(-23270.85938593742, 66242.44122589601), (-23270.85938593742, 66242.281225896), (-23267.170385937497, 66242.49562905625), (-23267.170385937497, 66242.33562905625), (-23270.85938593742, 66242.281225896), (-23270.85938593742, 66242.13122589601), (-23267.170385937497, 66242.33562905625), (-23267.170385937497, 66242.17562905625)]</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[(0.300000000142084, 257.0), (0.300000000142084, 256.78), (3.707, 257.0844077268599), (3.707, 256.8644077268599), (0.300000000142084, 256.78), (0.300000000142084, 256.59), (3.707, 256.8644077268599), (3.707, 256.6444077268599)]</t>
+          <t>[(-23190.85938593746, 66197.6592278109), (-23190.85938593746, 66197.4392278109), (-23187.452385937602, 66197.74363553776), (-23187.452385937602, 66197.52363553776), (-23190.85938593746, 66197.4392278109), (-23190.85938593746, 66197.2492278109), (-23187.452385937602, 66197.52363553776), (-23187.452385937602, 66197.30363553776)]</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[(0.300000000095168, 258.0), (0.300000000095168, 257.73), (3.225, 258.1017964049558), (3.225, 257.8317964049558), (0.300000000095168, 257.73), (0.300000000095168, 257.57), (3.225, 257.8317964049558), (3.225, 257.5717964049558)]</t>
+          <t>[(-23190.859385937405, 66245.0192751803), (-23190.859385937405, 66244.7492751803), (-23187.9343859375, 66245.12107158525), (-23187.9343859375, 66244.85107158525), (-23190.859385937405, 66244.7492751803), (-23190.859385937405, 66244.5892751803), (-23187.9343859375, 66244.85107158525), (-23187.9343859375, 66244.59107158525)]</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[(0.300000000038944, 259.0), (0.300000000038944, 258.76), (2.933, 259.1180362956488), (2.933, 258.87803629564877), (0.300000000038944, 258.76), (0.300000000038944, 258.6), (2.933, 258.87803629564877), (2.933, 258.64803629564875)]</t>
+          <t>[(-23080.65938593736, 66202.5213680042), (-23080.65938593736, 66202.2813680042), (-23078.0263859374, 66202.63940429986), (-23078.0263859374, 66202.39940429985), (-23080.65938593736, 66202.2813680042), (-23080.65938593736, 66202.12136800421), (-23078.0263859374, 66202.39940429985), (-23078.0263859374, 66202.16940429986)]</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[(0.300000000017287, 260.0), (0.300000000017287, 259.73), (2.833, 260.13895272784066), (2.833, 259.8689527278407), (0.300000000017287, 259.73), (0.300000000017287, 259.53), (2.833, 259.8689527278407), (2.833, 259.6089527278407)]</t>
+          <t>[(-23080.659385937484, 66254.1655062827), (-23080.659385937484, 66253.8955062827), (-23078.126385937503, 66254.30445901054), (-23078.126385937503, 66254.03445901054), (-23080.659385937484, 66253.8955062827), (-23080.659385937484, 66253.6955062827), (-23078.126385937503, 66254.03445901054), (-23078.126385937503, 66253.77445901054)]</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[(0.299999999994597, 261.0), (0.299999999994597, 260.77), (2.992, 261.17466873388145), (2.992, 260.94466873388143), (0.299999999994597, 260.77), (0.299999999994597, 260.54), (2.992, 260.94466873388143), (2.992, 260.71466873388147), (0.299999999994597, 260.54), (0.299999999994597, 260.42), (2.992, 260.71466873388147), (2.992, 260.50466873388143)]</t>
+          <t>[(-22892.459385937505, 66199.9516900158), (-22892.459385937505, 66199.72169001581), (-22889.767385937503, 66200.12635874968), (-22889.767385937503, 66199.89635874968), (-22892.459385937505, 66199.72169001581), (-22892.459385937505, 66199.4916900158), (-22889.767385937503, 66199.89635874968), (-22889.767385937503, 66199.66635874967), (-22892.459385937505, 66199.4916900158), (-22892.459385937505, 66199.3716900158), (-22889.767385937503, 66199.66635874967), (-22889.767385937503, 66199.45635874968)]</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[(0.300000000003449, 262.0), (0.300000000003449, 261.75), (3.206, 262.20341999999977), (3.206, 261.95341999999977), (0.300000000003449, 261.75), (0.300000000003449, 261.5), (3.206, 261.95341999999977), (3.206, 261.70341999999977), (0.300000000003449, 261.5), (0.300000000003449, 261.34), (3.206, 261.70341999999977), (3.206, 261.45341999999977)]</t>
+          <t>[(-22892.459385937596, 66251.8363156126), (-22892.459385937596, 66251.5863156126), (-22889.5533859376, 66252.0397356126), (-22889.5533859376, 66251.7897356126), (-22892.459385937596, 66251.5863156126), (-22892.459385937596, 66251.3363156126), (-22889.5533859376, 66251.7897356126), (-22889.5533859376, 66251.5397356126), (-22892.459385937596, 66251.3363156126), (-22892.459385937596, 66251.1763156126), (-22889.5533859376, 66251.5397356126), (-22889.5533859376, 66251.2897356126)]</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[(0.300000000002442, 263.0), (0.300000000002442, 262.75), (3.452, 263.22063999999983), (3.452, 262.97063999999983), (0.300000000002442, 262.75), (0.300000000002442, 262.5), (3.452, 262.97063999999983), (3.452, 262.72063999999983), (0.300000000002442, 262.5), (0.300000000002442, 262.33), (3.452, 262.72063999999983), (3.452, 262.4906399999998)]</t>
+          <t>[(-22703.259385937497, 66195.7242689034), (-22703.259385937497, 66195.4742689034), (-22700.1073859375, 66195.9449089034), (-22700.1073859375, 66195.6949089034), (-22703.259385937497, 66195.4742689034), (-22703.259385937497, 66195.2242689034), (-22700.1073859375, 66195.6949089034), (-22700.1073859375, 66195.4449089034), (-22703.259385937497, 66195.2242689034), (-22703.259385937497, 66195.0542689034), (-22700.1073859375, 66195.4449089034), (-22700.1073859375, 66195.2149089034)]</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[(0.300000000000919, 264.0), (0.300000000000919, 263.78), (3.961, 264.2562699999999), (3.961, 264.0362699999999), (0.300000000000919, 263.78), (0.300000000000919, 263.56), (3.961, 264.0362699999999), (3.961, 263.8162699999999), (0.300000000000919, 263.56), (0.300000000000919, 263.41), (3.961, 263.8162699999999), (3.961, 263.5962699999999)]</t>
+          <t>[(-22703.2593859376, 66239.6122221941), (-22703.2593859376, 66239.3922221941), (-22699.5983859376, 66239.8684921941), (-22699.5983859376, 66239.6484921941), (-22703.2593859376, 66239.3922221941), (-22703.2593859376, 66239.1722221941), (-22699.5983859376, 66239.6484921941), (-22699.5983859376, 66239.4284921941), (-22703.2593859376, 66239.1722221941), (-22703.2593859376, 66239.02222219411), (-22699.5983859376, 66239.4284921941), (-22699.5983859376, 66239.2084921941)]</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[(0.300000000007065, 265.0), (0.300000000007065, 264.71), (4.429, 265.2890299999995), (4.429, 264.9990299999995), (0.300000000007065, 264.71), (0.300000000007065, 264.55), (4.429, 264.9990299999995), (4.429, 264.70902999999953)]</t>
+          <t>[(-22518.059385937493, 66195.5001754849), (-22518.059385937493, 66195.21017548491), (-22513.9303859375, 66195.7892054849), (-22513.9303859375, 66195.49920548491), (-22518.059385937493, 66195.21017548491), (-22518.059385937493, 66195.05017548491), (-22513.9303859375, 66195.49920548491), (-22513.9303859375, 66195.2092054849)]</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[(0.299999999999714, 266.0), (0.299999999999714, 265.75), (4.827, 266.31689), (4.827, 265.99689), (0.299999999999714, 265.75), (0.299999999999714, 265.5), (4.827, 265.99689), (4.827, 265.67689)]</t>
+          <t>[(-22518.059385937602, 66237.3455648563), (-22518.059385937602, 66237.0955648563), (-22513.5323859376, 66237.6624548563), (-22513.5323859376, 66237.34245485629), (-22518.059385937602, 66237.0955648563), (-22518.059385937602, 66236.8455648563), (-22513.5323859376, 66237.34245485629), (-22513.5323859376, 66237.0224548563)]</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[(0.300000000004976, 267.0), (0.300000000004976, 266.71), (5.255, 267.3468499999997), (5.255, 266.98684999999966), (0.300000000004976, 266.71), (0.300000000004976, 266.42), (5.255, 266.98684999999966), (5.255, 266.62684999999965)]</t>
+          <t>[(-22441.059385937493, 66191.1909542276), (-22441.059385937493, 66190.9009542276), (-22436.1043859375, 66191.5378042276), (-22436.1043859375, 66191.1778042276), (-22441.059385937493, 66190.9009542276), (-22441.059385937493, 66190.6109542276), (-22436.1043859375, 66191.1778042276), (-22436.1043859375, 66190.8178042276)]</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[(0.299999999999178, 268.0), (0.299999999999178, 267.76), (5.447, 268.3602900000001), (5.447, 268.12029000000007), (0.299999999999178, 267.76), (0.299999999999178, 267.52), (5.447, 268.12029000000007), (5.447, 267.88029000000006), (0.299999999999178, 267.52), (0.299999999999178, 267.4), (5.447, 267.88029000000006), (5.447, 267.6502900000001)]</t>
+          <t>[(-22441.0593859375, 66237.036343599), (-22441.0593859375, 66236.796343599), (-22435.9123859375, 66237.396633599), (-22435.9123859375, 66237.15663359899), (-22441.0593859375, 66236.796343599), (-22441.0593859375, 66236.556343599), (-22435.9123859375, 66237.15663359899), (-22435.9123859375, 66236.916633599), (-22441.0593859375, 66236.556343599), (-22441.0593859375, 66236.436343599), (-22435.9123859375, 66236.916633599), (-22435.9123859375, 66236.68663359899)]</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[(0.299999999996058, 269.0), (0.299999999996058, 268.73), (5.649, 269.3744300000003), (5.649, 269.0444300000003), (0.299999999996058, 268.73), (0.299999999996058, 268.46), (5.649, 269.0444300000003), (5.649, 268.7144300000003)]</t>
+          <t>[(-22328.859385937503, 66192.8817329704), (-22328.859385937503, 66192.6117329704), (-22323.510385937498, 66193.2561629704), (-22323.510385937498, 66192.9261629704), (-22328.859385937503, 66192.6117329704), (-22328.859385937503, 66192.34173297041), (-22323.510385937498, 66192.9261629704), (-22323.510385937498, 66192.5961629704)]</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[(0.300000000003499, 270.0), (0.300000000003499, 269.72), (6.125, 270.40774999999974), (6.125, 270.12774999999976), (0.300000000003499, 269.72), (0.300000000003499, 269.55), (6.125, 270.12774999999976), (6.125, 269.84774999999973)]</t>
+          <t>[(-22328.859385937496, 66232.7271223417), (-22328.859385937496, 66232.4471223417), (-22323.0343859375, 66233.1348723417), (-22323.0343859375, 66232.8548723417), (-22328.859385937496, 66232.4471223417), (-22328.859385937496, 66232.27712234171), (-22323.0343859375, 66232.8548723417), (-22323.0343859375, 66232.5748723417)]</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[(0.29999999999453, 271.0), (0.29999999999453, 270.72), (6.764, 271.4524800000004), (6.764, 271.1724800000004), (0.29999999999453, 270.72), (0.29999999999453, 270.6), (6.764, 271.1724800000004), (6.764, 270.8924800000004)]</t>
+          <t>[(-22260.859385937503, 66190.57251171311), (-22260.859385937503, 66190.29251171311), (-22254.3953859375, 66191.02499171312), (-22254.3953859375, 66190.74499171312), (-22260.859385937503, 66190.29251171311), (-22260.859385937503, 66190.17251171311), (-22254.3953859375, 66190.74499171312), (-22254.3953859375, 66190.46499171312)]</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[(0.300000000008907, 272.0), (0.300000000008907, 271.73), (7.393, 272.4965099999994), (7.393, 272.2265099999994), (0.300000000008907, 271.73), (0.300000000008907, 271.61), (7.393, 272.2265099999994), (7.393, 271.9665099999994)]</t>
+          <t>[(-22260.85938593749, 66232.4179010845), (-22260.85938593749, 66232.14790108449), (-22253.7663859375, 66232.9144110845), (-22253.7663859375, 66232.64441108449), (-22260.85938593749, 66232.14790108449), (-22260.85938593749, 66232.0279010845), (-22253.7663859375, 66232.64441108449), (-22253.7663859375, 66232.3844110845)]</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[(0.300000000114099, 273.0), (0.300000000114099, 272.83), (8.097, 273.51685712764413), (8.097, 273.3468571276441), (0.300000000114099, 272.83), (0.300000000114099, 272.66), (8.097, 273.3468571276441), (8.097, 273.0468571276441)]</t>
+          <t>[(-22140.659385937386, 66190.2632904559), (-22140.659385937386, 66190.0932904559), (-22132.8623859375, 66190.78014758354), (-22132.8623859375, 66190.61014758355), (-22140.659385937386, 66190.0932904559), (-22140.659385937386, 66189.9232904559), (-22132.8623859375, 66190.61014758355), (-22132.8623859375, 66190.31014758354)]</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[(0.300000000066429, 274.0), (0.300000000066429, 273.88), (8.776, 274.5039261086846), (8.776, 274.3839261086846), (0.300000000066429, 273.88), (0.300000000066429, 273.74), (8.776, 274.3839261086846), (8.776, 274.0839261086846)]</t>
+          <t>[(-22140.659385937437, 66230.1086798272), (-22140.659385937437, 66229.9886798272), (-22132.1833859375, 66230.61260593588), (-22132.1833859375, 66230.49260593588), (-22140.659385937437, 66229.9886798272), (-22140.659385937437, 66229.8486798272), (-22132.1833859375, 66230.49260593588), (-22132.1833859375, 66230.19260593588)]</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[(0.300000000044292, 275.0), (0.300000000044292, 274.78), (9.236, 275.47018868581534), (9.236, 275.2501886858153), (0.300000000044292, 274.78), (0.300000000044292, 274.63), (9.236, 275.2501886858153), (9.236, 274.95018868581536)]</t>
+          <t>[(-22071.659385937557, 66188.0774126936), (-22071.659385937557, 66187.8574126936), (-22062.7233859376, 66188.54760137941), (-22062.7233859376, 66188.32760137941), (-22071.659385937557, 66187.8574126936), (-22071.659385937557, 66187.7074126936), (-22062.7233859376, 66188.32760137941), (-22062.7233859376, 66188.0276013794)]</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[(0.300000000002684, 276.0), (0.300000000002684, 275.79), (2.334, 276.0931194035449), (2.334, 275.8831194035449), (2.334, 276.0931194035449), (2.334, 275.8331194035449), (9.476, 276.42009028855887), (9.476, 276.1600902885589), (0.300000000002684, 275.79), (0.300000000002684, 275.62), (2.334, 275.8831194035449), (2.334, 275.6831194035449), (2.334, 275.8331194035449), (2.334, 275.6831194035449), (9.476, 276.1600902885589), (9.476, 275.9100902885589)]</t>
+          <t>[(-22071.6593859375, 66226.04614556), (-22071.6593859375, 66225.83614556), (-22069.625385937503, 66226.13926496355), (-22069.625385937503, 66225.92926496355), (-22069.625385937503, 66226.13926496355), (-22069.625385937503, 66225.87926496356), (-22062.483385937503, 66226.46623584857), (-22062.483385937503, 66226.20623584857), (-22071.6593859375, 66225.83614556), (-22071.6593859375, 66225.66614556), (-22069.625385937503, 66225.92926496355), (-22069.625385937503, 66225.72926496355), (-22069.625385937503, 66225.87926496356), (-22069.625385937503, 66225.72926496355), (-22062.483385937503, 66226.20623584857), (-22062.483385937503, 66225.95623584857)]</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[(0.300000000003912, 277.0), (0.300000000003912, 276.84), (2.511, 277.0861084566603), (2.511, 276.9261084566603), (2.511, 277.0861084566603), (2.511, 276.81610845666034), (9.744, 277.36780111474496), (9.744, 277.097801114745), (0.300000000003912, 276.84), (0.300000000003912, 276.68), (2.511, 276.9261084566603), (2.511, 276.76610845666033), (2.511, 276.81610845666034), (2.511, 276.62610845666035), (9.744, 277.097801114745), (9.744, 276.837801114745), (0.300000000003912, 276.68), (0.300000000003912, 276.55), (2.511, 276.76610845666033), (2.511, 276.62610845666035), (2.511, 276.62610845666035), (2.511, 276.62610845666035), (9.744, 276.837801114745), (9.744, 276.837801114745)]</t>
+          <t>[(-21950.459385937596, 66186.0148784264), (-21950.459385937596, 66185.8548784264), (-21948.2483859376, 66186.10098688306), (-21948.2483859376, 66185.94098688306), (-21948.2483859376, 66186.10098688306), (-21948.2483859376, 66185.83098688305), (-21941.0153859376, 66186.38267954114), (-21941.0153859376, 66186.11267954114), (-21950.459385937596, 66185.8548784264), (-21950.459385937596, 66185.6948784264), (-21948.2483859376, 66185.94098688306), (-21948.2483859376, 66185.78098688305), (-21948.2483859376, 66185.83098688305), (-21948.2483859376, 66185.64098688305), (-21941.0153859376, 66186.11267954114), (-21941.0153859376, 66185.85267954115), (-21950.459385937596, 66185.6948784264), (-21950.459385937596, 66185.5648784264), (-21948.2483859376, 66185.78098688305), (-21948.2483859376, 66185.64098688305), (-21948.2483859376, 66185.64098688305), (-21948.2483859376, 66185.64098688305), (-21941.0153859376, 66185.85267954115), (-21941.0153859376, 66185.85267954115)]</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[(0.300000000011987, 278.0), (0.300000000011987, 277.83), (2.621, 278.07452624854153), (2.621, 277.9045262485415), (2.621, 278.07452624854153), (2.621, 277.88452624854153), (9.83, 278.3060039416645), (9.83, 278.11600394166453), (0.300000000011987, 277.83), (0.300000000011987, 277.66), (2.621, 277.9045262485415), (2.621, 277.73452624854156), (2.621, 277.88452624854153), (2.621, 277.69452624854154), (9.83, 278.11600394166453), (9.83, 277.92600394166453), (0.300000000011987, 277.66), (0.300000000011987, 277.5), (2.621, 277.73452624854156), (2.621, 277.57452624854153), (2.621, 277.69452624854154), (2.621, 277.57452624854153), (9.83, 277.92600394166453), (9.83, 277.7560039416645)]</t>
+          <t>[(-21920.45938593759, 66221.9836112928), (-21920.45938593759, 66221.8136112928), (-21918.1383859376, 66222.05813754135), (-21918.1383859376, 66221.88813754135), (-21918.1383859376, 66222.05813754135), (-21918.1383859376, 66221.86813754134), (-21910.929385937598, 66222.28961523446), (-21910.929385937598, 66222.09961523446), (-21920.45938593759, 66221.8136112928), (-21920.45938593759, 66221.6436112928), (-21918.1383859376, 66221.88813754135), (-21918.1383859376, 66221.71813754135), (-21918.1383859376, 66221.86813754134), (-21918.1383859376, 66221.67813754134), (-21910.929385937598, 66222.09961523446), (-21910.929385937598, 66221.90961523446), (-21920.45938593759, 66221.6436112928), (-21920.45938593759, 66221.4836112928), (-21918.1383859376, 66221.71813754135), (-21918.1383859376, 66221.55813754135), (-21918.1383859376, 66221.67813754134), (-21918.1383859376, 66221.55813754135), (-21910.929385937598, 66221.90961523446), (-21910.929385937598, 66221.73961523446)]</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[(0.300000000035279, 279.0), (0.300000000035279, 278.85), (2.546, 279.0567645172156), (2.546, 278.9067645172156), (2.546, 279.0567645172156), (2.546, 278.83676451721556), (9.8, 279.24009924913383), (9.8, 279.0200992491338), (0.300000000035279, 278.85), (0.300000000035279, 278.7), (2.546, 278.9067645172156), (2.546, 278.7567645172156), (2.546, 278.83676451721556), (2.546, 278.6167645172156), (9.8, 279.0200992491338), (9.8, 278.80009924913384), (0.300000000035279, 278.7), (0.300000000035279, 278.55), (2.546, 278.7567645172156), (2.546, 278.6067645172156), (2.546, 278.6167645172156), (2.546, 278.4667645172156), (9.8, 278.80009924913384), (9.8, 278.59009924913386), (0.300000000035279, 278.55), (0.300000000035279, 278.43), (2.546, 278.6067645172156), (2.546, 278.4667645172156), (2.546, 278.4667645172156), (2.546, 278.4667645172156), (9.8, 278.59009924913386), (9.8, 278.59009924913386)]</t>
+          <t>[(-21742.259385937363, 66185.9523441593), (-21742.259385937363, 66185.80234415931), (-21740.0133859374, 66186.00910867652), (-21740.0133859374, 66185.85910867652), (-21740.0133859374, 66186.00910867652), (-21740.0133859374, 66185.78910867652), (-21732.7593859374, 66186.19244340844), (-21732.7593859374, 66185.97244340843), (-21742.259385937363, 66185.80234415931), (-21742.259385937363, 66185.6523441593), (-21740.0133859374, 66185.85910867652), (-21740.0133859374, 66185.70910867651), (-21740.0133859374, 66185.78910867652), (-21740.0133859374, 66185.56910867651), (-21732.7593859374, 66185.97244340843), (-21732.7593859374, 66185.75244340843), (-21742.259385937363, 66185.6523441593), (-21742.259385937363, 66185.50234415931), (-21740.0133859374, 66185.70910867651), (-21740.0133859374, 66185.55910867652), (-21740.0133859374, 66185.56910867651), (-21740.0133859374, 66185.41910867652), (-21732.7593859374, 66185.75244340843), (-21732.7593859374, 66185.54244340844), (-21742.259385937363, 66185.50234415931), (-21742.259385937363, 66185.3823441593), (-21740.0133859374, 66185.55910867652), (-21740.0133859374, 66185.41910867652), (-21740.0133859374, 66185.41910867652), (-21740.0133859374, 66185.41910867652), (-21732.7593859374, 66185.54244340844), (-21732.7593859374, 66185.54244340844)]</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[(0.29999999999737, 280.0), (0.29999999999737, 279.83), (2.556, 280.0181735580508), (2.556, 279.8481735580508), (2.556, 280.0181735580508), (2.556, 279.8481735580508), (9.779, 280.0763595553031), (9.779, 279.9063595553031), (0.29999999999737, 279.83), (0.29999999999737, 279.66), (2.556, 279.8481735580508), (2.556, 279.67817355805084), (2.556, 279.8481735580508), (2.556, 279.67817355805084), (9.779, 279.9063595553031), (9.779, 279.7363595553031), (0.29999999999737, 279.66), (0.29999999999737, 279.49), (2.556, 279.67817355805084), (2.556, 279.5081735580508), (2.556, 279.67817355805084), (2.556, 279.5081735580508), (9.779, 279.7363595553031), (9.779, 279.5663595553031), (0.29999999999737, 279.49), (0.29999999999737, 279.36), (2.556, 279.5081735580508), (2.556, 279.36817355805084), (2.556, 279.5081735580508), (2.556, 279.36817355805084), (9.779, 279.5663595553031), (9.779, 279.4363595553031)]</t>
+          <t>[(-21742.259385937505, 66235.9210770257), (-21742.259385937505, 66235.7510770257), (-21740.0033859375, 66235.93925058376), (-21740.0033859375, 66235.76925058376), (-21740.0033859375, 66235.93925058376), (-21740.0033859375, 66235.76925058376), (-21732.7803859375, 66235.997436581), (-21732.7803859375, 66235.827436581), (-21742.259385937505, 66235.7510770257), (-21742.259385937505, 66235.58107702571), (-21740.0033859375, 66235.76925058376), (-21740.0033859375, 66235.59925058376), (-21740.0033859375, 66235.76925058376), (-21740.0033859375, 66235.59925058376), (-21732.7803859375, 66235.827436581), (-21732.7803859375, 66235.65743658101), (-21742.259385937505, 66235.58107702571), (-21742.259385937505, 66235.41107702571), (-21740.0033859375, 66235.59925058376), (-21740.0033859375, 66235.42925058377), (-21740.0033859375, 66235.59925058376), (-21740.0033859375, 66235.42925058377), (-21732.7803859375, 66235.65743658101), (-21732.7803859375, 66235.48743658101), (-21742.259385937505, 66235.41107702571), (-21742.259385937505, 66235.2810770257), (-21740.0033859375, 66235.42925058377), (-21740.0033859375, 66235.28925058377), (-21740.0033859375, 66235.42925058377), (-21740.0033859375, 66235.28925058377), (-21732.7803859375, 66235.48743658101), (-21732.7803859375, 66235.357436581)]</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[(0.300000000011106, 281.0), (0.300000000011106, 280.83), (2.482, 280.9790633717505), (2.482, 280.8090633717505), (2.482, 280.9790633717505), (2.482, 280.6390633717505), (9.709, 280.9097191864343), (9.709, 280.62971918643433), (0.300000000011106, 280.83), (0.300000000011106, 280.66), (2.482, 280.8090633717505), (2.482, 280.6390633717505), (2.482, 280.6390633717505), (2.482, 280.2990633717505), (9.709, 280.62971918643433), (9.709, 280.3497191864343), (0.300000000011106, 280.66), (0.300000000011106, 280.49), (2.482, 280.6390633717505), (2.482, 280.4690633717505), (2.482, 280.2990633717505), (2.482, 280.2990633717505), (9.709, 280.3497191864343), (9.709, 280.3497191864343), (0.300000000011106, 280.49), (0.300000000011106, 280.34), (2.482, 280.4690633717505), (2.482, 280.3090633717505), (2.482, 280.2990633717505), (2.482, 280.2990633717505), (9.709, 280.3497191864343), (9.709, 280.3497191864343)]</t>
+          <t>[(-21555.05938593759, 66185.8898098921), (-21555.05938593759, 66185.7198098921), (-21552.8773859376, 66185.86887326385), (-21552.8773859376, 66185.69887326386), (-21552.8773859376, 66185.86887326385), (-21552.8773859376, 66185.52887326386), (-21545.650385937603, 66185.79952907853), (-21545.650385937603, 66185.51952907853), (-21555.05938593759, 66185.7198098921), (-21555.05938593759, 66185.54980989211), (-21552.8773859376, 66185.69887326386), (-21552.8773859376, 66185.52887326386), (-21552.8773859376, 66185.52887326386), (-21552.8773859376, 66185.18887326386), (-21545.650385937603, 66185.51952907853), (-21545.650385937603, 66185.23952907854), (-21555.05938593759, 66185.54980989211), (-21555.05938593759, 66185.37980989211), (-21552.8773859376, 66185.52887326386), (-21552.8773859376, 66185.35887326386), (-21552.8773859376, 66185.18887326386), (-21552.8773859376, 66185.18887326386), (-21545.650385937603, 66185.23952907854), (-21545.650385937603, 66185.23952907854), (-21555.05938593759, 66185.37980989211), (-21555.05938593759, 66185.2298098921), (-21552.8773859376, 66185.35887326386), (-21552.8773859376, 66185.19887326386), (-21552.8773859376, 66185.18887326386), (-21552.8773859376, 66185.18887326386), (-21545.650385937603, 66185.23952907854), (-21545.650385937603, 66185.23952907854)]</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>[(0.300000000095717, 282.0), (0.300000000095717, 281.84), (2.506, 281.93702092481493), (2.506, 281.7770209248149), (2.506, 281.93702092481493), (2.506, 281.61702092481494), (9.752, 281.730154932607), (9.752, 281.480154932607), (0.300000000095717, 281.84), (0.300000000095717, 281.68), (2.506, 281.7770209248149), (2.506, 281.61702092481494), (2.506, 281.61702092481494), (2.506, 281.29702092481494), (9.752, 281.480154932607), (9.752, 281.230154932607), (0.300000000095717, 281.68), (0.300000000095717, 281.52), (2.506, 281.61702092481494), (2.506, 281.4570209248149), (2.506, 281.29702092481494), (2.506, 281.29702092481494), (9.752, 281.230154932607), (9.752, 281.230154932607), (0.300000000095717, 281.52), (0.300000000095717, 281.36), (2.506, 281.4570209248149), (2.506, 281.30702092481494), (2.506, 281.29702092481494), (2.506, 281.29702092481494), (9.752, 281.230154932607), (9.752, 281.230154932607)]</t>
+          <t>[(-21545.059385937402, 66237.8585427585), (-21545.059385937402, 66237.6985427585), (-21542.8533859375, 66237.79556368332), (-21542.8533859375, 66237.63556368332), (-21542.8533859375, 66237.79556368332), (-21542.8533859375, 66237.47556368331), (-21535.6073859375, 66237.58869769111), (-21535.6073859375, 66237.33869769111), (-21545.059385937402, 66237.6985427585), (-21545.059385937402, 66237.5385427585), (-21542.8533859375, 66237.63556368332), (-21542.8533859375, 66237.47556368331), (-21542.8533859375, 66237.47556368331), (-21542.8533859375, 66237.15556368332), (-21535.6073859375, 66237.33869769111), (-21535.6073859375, 66237.08869769111), (-21545.059385937402, 66237.5385427585), (-21545.059385937402, 66237.37854275851), (-21542.8533859375, 66237.47556368331), (-21542.8533859375, 66237.31556368333), (-21542.8533859375, 66237.15556368332), (-21542.8533859375, 66237.15556368332), (-21535.6073859375, 66237.08869769111), (-21535.6073859375, 66237.08869769111), (-21545.059385937402, 66237.37854275851), (-21545.059385937402, 66237.2185427585), (-21542.8533859375, 66237.31556368333), (-21542.8533859375, 66237.16556368332), (-21542.8533859375, 66237.15556368332), (-21542.8533859375, 66237.15556368332), (-21535.6073859375, 66237.08869769111), (-21535.6073859375, 66237.08869769111)]</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[(0.300000000026271, 283.0), (0.300000000026271, 282.76), (2.698, 282.86465651671784), (2.698, 282.62465651671783), (2.698, 282.86465651671784), (2.698, 282.56465651671783), (9.968, 282.45433661535327), (9.968, 282.29433661535325), (0.300000000026271, 282.76), (0.300000000026271, 282.52), (2.698, 282.62465651671783), (2.698, 282.3846565167178), (2.698, 282.56465651671783), (2.698, 282.2646565167178), (9.968, 282.29433661535325), (9.968, 282.1343366153533), (0.300000000026271, 282.52), (0.300000000026271, 282.29), (2.698, 282.3846565167178), (2.698, 282.25465651671783), (2.698, 282.2646565167178), (2.698, 282.2646565167178), (9.968, 282.1343366153533), (9.968, 282.1343366153533)]</t>
+          <t>[(-21355.859385937474, 66187.7949616644), (-21355.859385937474, 66187.5549616644), (-21353.4613859375, 66187.65961818112), (-21353.4613859375, 66187.41961818111), (-21353.4613859375, 66187.65961818112), (-21353.4613859375, 66187.35961818112), (-21346.191385937498, 66187.24929827976), (-21346.191385937498, 66187.08929827975), (-21355.859385937474, 66187.5549616644), (-21355.859385937474, 66187.31496166441), (-21353.4613859375, 66187.41961818111), (-21353.4613859375, 66187.17961818112), (-21353.4613859375, 66187.35961818112), (-21353.4613859375, 66187.05961818111), (-21346.191385937498, 66187.08929827975), (-21346.191385937498, 66186.92929827975), (-21355.859385937474, 66187.31496166441), (-21355.859385937474, 66187.0849616644), (-21353.4613859375, 66187.17961818112), (-21353.4613859375, 66187.04961818112), (-21353.4613859375, 66187.05961818111), (-21353.4613859375, 66187.05961818111), (-21346.191385937498, 66186.92929827975), (-21346.191385937498, 66186.92929827975)]</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[(0.300000000009642, 284.0), (0.300000000009642, 283.68), (3.062, 283.80666000000065), (3.062, 283.53666000000067), (3.062, 283.80666000000065), (3.062, 283.53666000000067), (10.196, 283.3072800000007), (10.196, 283.18728000000067), (0.300000000009642, 283.68), (0.300000000009642, 283.36), (3.062, 283.53666000000067), (3.062, 283.2666600000006), (3.062, 283.53666000000067), (3.062, 283.2666600000006), (10.196, 283.18728000000067), (10.196, 283.06728000000066)]</t>
+          <t>[(-21158.65938593749, 66191.7043655305), (-21158.65938593749, 66191.3843655305), (-21155.8973859375, 66191.5110255305), (-21155.8973859375, 66191.2410255305), (-21155.8973859375, 66191.5110255305), (-21155.8973859375, 66191.2410255305), (-21148.763385937502, 66191.0116455305), (-21148.763385937502, 66190.8916455305), (-21158.65938593749, 66191.3843655305), (-21158.65938593749, 66191.0643655305), (-21155.8973859375, 66191.2410255305), (-21155.8973859375, 66190.97102553051), (-21155.8973859375, 66191.2410255305), (-21155.8973859375, 66190.97102553051), (-21148.763385937502, 66190.8916455305), (-21148.763385937502, 66190.77164553049)]</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>[(0.299999999989387, 285.0), (0.299999999989387, 284.7), (3.23, 284.79489999999925), (3.23, 284.49489999999923), (3.23, 284.79489999999925), (3.23, 284.55489999999924), (10.247, 284.3037099999993), (10.247, 284.1637099999993), (0.299999999989387, 284.7), (0.299999999989387, 284.4), (3.23, 284.49489999999923), (3.23, 284.30489999999924), (3.23, 284.55489999999924), (3.23, 284.3148999999992), (10.247, 284.1637099999993), (10.247, 284.0237099999993)]</t>
+          <t>[(-20962.459385937513, 66195.6137693966), (-20962.459385937513, 66195.3137693966), (-20959.5293859375, 66195.4086693966), (-20959.5293859375, 66195.10866939659), (-20959.5293859375, 66195.4086693966), (-20959.5293859375, 66195.16866939659), (-20952.5123859375, 66194.9174793966), (-20952.5123859375, 66194.7774793966), (-20962.459385937513, 66195.3137693966), (-20962.459385937513, 66195.0137693966), (-20959.5293859375, 66195.10866939659), (-20959.5293859375, 66194.91866939659), (-20959.5293859375, 66195.16866939659), (-20959.5293859375, 66194.9286693966), (-20952.5123859375, 66194.7774793966), (-20952.5123859375, 66194.6374793966)]</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>[(0.300000000005302, 286.0), (0.300000000005302, 285.7), (3.492, 285.77656000000036), (3.492, 285.47656000000035), (3.492, 285.77656000000036), (3.492, 285.54656000000034), (10.58, 285.2804000000004), (10.58, 285.1604000000004), (0.300000000005302, 285.7), (0.300000000005302, 285.4), (3.492, 285.47656000000035), (3.492, 285.3165600000004), (3.492, 285.54656000000034), (3.492, 285.3165600000004), (10.58, 285.1604000000004), (10.58, 285.0404000000004)]</t>
+          <t>[(-20782.259385937494, 66191.5231732628), (-20782.259385937494, 66191.2231732628), (-20779.067385937502, 66191.2997332628), (-20779.067385937502, 66190.9997332628), (-20779.067385937502, 66191.2997332628), (-20779.067385937502, 66191.0697332628), (-20771.9793859375, 66190.8035732628), (-20771.9793859375, 66190.68357326281), (-20782.259385937494, 66191.2231732628), (-20782.259385937494, 66190.9231732628), (-20779.067385937502, 66190.9997332628), (-20779.067385937502, 66190.8397332628), (-20779.067385937502, 66191.0697332628), (-20779.067385937502, 66190.8397332628), (-20771.9793859375, 66190.68357326281), (-20771.9793859375, 66190.5635732628)]</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>[(0.300000000016207, 287.0), (0.300000000016207, 286.71), (3.58, 286.77040000000113), (3.58, 286.4804000000011), (3.58, 286.77040000000113), (3.58, 286.5504000000011), (10.78, 286.2664000000011), (10.78, 286.1464000000011), (0.300000000016207, 286.71), (0.300000000016207, 286.42), (3.58, 286.4804000000011), (3.58, 286.32040000000114), (3.58, 286.5504000000011), (3.58, 286.33040000000113), (10.78, 286.1464000000011), (10.78, 286.0264000000011)]</t>
+          <t>[(-20603.059385937482, 66191.4325771289), (-20603.059385937482, 66191.1425771289), (-20599.779385937498, 66191.2029771289), (-20599.779385937498, 66190.9129771289), (-20599.779385937498, 66191.2029771289), (-20599.779385937498, 66190.9829771289), (-20592.5793859375, 66190.69897712891), (-20592.5793859375, 66190.57897712891), (-20603.059385937482, 66191.1425771289), (-20603.059385937482, 66190.8525771289), (-20599.779385937498, 66190.9129771289), (-20599.779385937498, 66190.7529771289), (-20599.779385937498, 66190.9829771289), (-20599.779385937498, 66190.76297712889), (-20592.5793859375, 66190.57897712891), (-20592.5793859375, 66190.4589771289)]</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>[(0.300000000062607, 288.0), (0.300000000062607, 287.8), (3.579, 287.90542636438175), (3.579, 287.70542636438176), (3.579, 287.90542636438175), (3.579, 287.64542636438176), (10.829, 287.6963202776951), (10.829, 287.43632027769513), (0.300000000062607, 287.8), (0.300000000062607, 287.6), (3.579, 287.70542636438176), (3.579, 287.5054263643818), (3.579, 287.64542636438176), (3.579, 287.3854263643818), (10.829, 287.43632027769513), (10.829, 287.24632027769513), (0.300000000062607, 287.6), (0.300000000062607, 287.41), (3.579, 287.5054263643818), (3.579, 287.3854263643818), (3.579, 287.3854263643818), (3.579, 287.3854263643818), (10.829, 287.24632027769513), (10.829, 287.24632027769513)]</t>
+          <t>[(-20533.05938593744, 66189.2759325958), (-20533.05938593744, 66189.0759325958), (-20529.780385937498, 66189.18135896018), (-20529.780385937498, 66188.98135896018), (-20529.780385937498, 66189.18135896018), (-20529.780385937498, 66188.92135896019), (-20522.530385937498, 66188.9722528735), (-20522.530385937498, 66188.7122528735), (-20533.05938593744, 66189.0759325958), (-20533.05938593744, 66188.87593259581), (-20529.780385937498, 66188.98135896018), (-20529.780385937498, 66188.78135896019), (-20529.780385937498, 66188.92135896019), (-20529.780385937498, 66188.66135896018), (-20522.530385937498, 66188.7122528735), (-20522.530385937498, 66188.5222528735), (-20533.05938593744, 66188.87593259581), (-20533.05938593744, 66188.6859325958), (-20529.780385937498, 66188.78135896019), (-20529.780385937498, 66188.66135896018), (-20529.780385937498, 66188.66135896018), (-20529.780385937498, 66188.66135896018), (-20522.530385937498, 66188.5222528735), (-20522.530385937498, 66188.5222528735)]</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>[(0.300000000092998, 289.0), (0.300000000092998, 288.85), (3.676, 289.03055837675345), (3.676, 288.88055837675347), (3.676, 289.03055837675345), (3.676, 288.7405583767534), (10.918, 289.09611043968425), (10.918, 288.71611043968426), (0.300000000092998, 288.85), (0.300000000092998, 288.7), (3.676, 288.88055837675347), (3.676, 288.73055837675344), (3.676, 288.7405583767534), (3.676, 288.45055837675346), (10.918, 288.71611043968426), (10.918, 288.33611043968426), (0.300000000092998, 288.7), (0.300000000092998, 288.55), (3.676, 288.73055837675344), (3.676, 288.58055837675346), (3.676, 288.45055837675346), (3.676, 288.45055837675346), (10.918, 288.33611043968426), (10.918, 288.33611043968426), (0.300000000092998, 288.55), (0.300000000092998, 288.42), (3.676, 288.58055837675346), (3.676, 288.45055837675346), (3.676, 288.45055837675346), (3.676, 288.45055837675346), (10.918, 288.33611043968426), (10.918, 288.33611043968426)]</t>
+          <t>[(-20437.859385937405, 66193.1192880627), (-20437.859385937405, 66192.96928806271), (-20434.4833859375, 66193.14984643945), (-20434.4833859375, 66192.99984643946), (-20434.4833859375, 66193.14984643945), (-20434.4833859375, 66192.85984643946), (-20427.241385937497, 66193.21539850239), (-20427.241385937497, 66192.83539850239), (-20437.859385937405, 66192.96928806271), (-20437.859385937405, 66192.8192880627), (-20434.4833859375, 66192.99984643946), (-20434.4833859375, 66192.84984643945), (-20434.4833859375, 66192.85984643946), (-20434.4833859375, 66192.56984643945), (-20427.241385937497, 66192.83539850239), (-20427.241385937497, 66192.4553985024), (-20437.859385937405, 66192.8192880627), (-20437.859385937405, 66192.66928806271), (-20434.4833859375, 66192.84984643945), (-20434.4833859375, 66192.69984643946), (-20434.4833859375, 66192.56984643945), (-20434.4833859375, 66192.56984643945), (-20427.241385937497, 66192.4553985024), (-20427.241385937497, 66192.4553985024), (-20437.859385937405, 66192.66928806271), (-20437.859385937405, 66192.5392880627), (-20434.4833859375, 66192.69984643946), (-20434.4833859375, 66192.56984643945), (-20434.4833859375, 66192.56984643945), (-20434.4833859375, 66192.56984643945), (-20427.241385937497, 66192.4553985024), (-20427.241385937497, 66192.4553985024)]</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>[(0.300000000107445, 290.0), (0.300000000107445, 289.81), (3.634, 290.12020271989894), (3.634, 289.93020271989894), (3.634, 290.12020271989894), (3.634, 289.84020271989897), (10.797, 290.3784546943032), (10.797, 289.9884546943032), (0.300000000107445, 289.81), (0.300000000107445, 289.62), (3.634, 289.93020271989894), (3.634, 289.74020271989895), (3.634, 289.84020271989897), (3.634, 289.56020271989894), (10.797, 289.9884546943032), (10.797, 289.5984546943032), (0.300000000107445, 289.62), (0.300000000107445, 289.49), (3.634, 289.74020271989895), (3.634, 289.57020271989893), (3.634, 289.56020271989894), (3.634, 289.56020271989894), (10.797, 289.5984546943032), (10.797, 289.5984546943032)]</t>
+          <t>[(-20437.859385937492, 66238.9626435297), (-20437.859385937492, 66238.7726435297), (-20434.525385937603, 66239.0828462496), (-20434.525385937603, 66238.8928462496), (-20434.525385937603, 66239.0828462496), (-20434.525385937603, 66238.8028462496), (-20427.362385937602, 66239.341098224), (-20427.362385937602, 66238.951098224), (-20437.859385937492, 66238.7726435297), (-20437.859385937492, 66238.58264352969), (-20434.525385937603, 66238.8928462496), (-20434.525385937603, 66238.7028462496), (-20434.525385937603, 66238.8028462496), (-20434.525385937603, 66238.5228462496), (-20427.362385937602, 66238.951098224), (-20427.362385937602, 66238.561098224), (-20437.859385937492, 66238.58264352969), (-20437.859385937492, 66238.4526435297), (-20434.525385937603, 66238.7028462496), (-20434.525385937603, 66238.5328462496), (-20434.525385937603, 66238.5228462496), (-20434.525385937603, 66238.5228462496), (-20427.362385937602, 66238.561098224), (-20427.362385937602, 66238.561098224)]</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>[(0.300000000112641, 291.0), (0.300000000112641, 290.75), (3.47, 291.19988612081), (3.47, 290.94988612081), (3.47, 291.19988612081), (3.47, 290.94988612081), (10.586, 291.6485894759313), (10.586, 291.2885894759313), (0.300000000112641, 290.75), (0.300000000112641, 290.61), (3.47, 290.94988612081), (3.47, 290.69988612081), (3.47, 290.94988612081), (3.47, 290.69988612081), (10.586, 291.2885894759313), (10.586, 290.9285894759313)]</t>
+          <t>[(-20217.659385937488, 66190.8059989966), (-20217.659385937488, 66190.5559989966), (-20214.4893859376, 66191.00588511741), (-20214.4893859376, 66190.75588511741), (-20214.4893859376, 66191.00588511741), (-20214.4893859376, 66190.75588511741), (-20207.3733859376, 66191.45458847252), (-20207.3733859376, 66191.09458847252), (-20217.659385937488, 66190.5559989966), (-20217.659385937488, 66190.4159989966), (-20214.4893859376, 66190.75588511741), (-20214.4893859376, 66190.50588511741), (-20214.4893859376, 66190.75588511741), (-20214.4893859376, 66190.50588511741), (-20207.3733859376, 66191.09458847252), (-20207.3733859376, 66190.73458847252)]</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>[(0.300000000006342, 292.0), (0.300000000006342, 291.88), (3.363, 292.21440999999953), (3.363, 292.0944099999995), (3.363, 292.21440999999953), (3.363, 292.0544099999995), (10.444, 292.71007999999955), (10.444, 292.42007999999953), (0.300000000006342, 291.88), (0.300000000006342, 291.73), (3.363, 292.0944099999995), (3.363, 291.88440999999955), (3.363, 292.0544099999995), (3.363, 291.89440999999954), (10.444, 292.42007999999953), (10.444, 292.13007999999957)]</t>
+          <t>[(-20029.459385937495, 66190.6493544635), (-20029.459385937495, 66190.5293544635), (-20026.3963859375, 66190.8637644635), (-20026.3963859375, 66190.7437644635), (-20026.3963859375, 66190.8637644635), (-20026.3963859375, 66190.7037644635), (-20019.3153859375, 66191.3594344635), (-20019.3153859375, 66191.06943446351), (-20029.459385937495, 66190.5293544635), (-20029.459385937495, 66190.3793544635), (-20026.3963859375, 66190.7437644635), (-20026.3963859375, 66190.5337644635), (-20026.3963859375, 66190.7037644635), (-20026.3963859375, 66190.5437644635), (-20019.3153859375, 66191.06943446351), (-20019.3153859375, 66190.7794344635)]</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[(0.299999999991311, 293.0), (0.299999999991311, 292.83), (3.239, 293.2057300000006), (3.239, 293.03573000000057), (3.239, 293.2057300000006), (3.239, 293.03573000000057), (10.339, 293.7027300000006), (10.339, 293.4227300000006), (0.299999999991311, 292.83), (0.299999999991311, 292.69), (3.239, 293.03573000000057), (3.239, 292.8657300000006), (3.239, 293.03573000000057), (3.239, 292.8657300000006), (10.339, 293.4227300000006), (10.339, 293.1427300000006)]</t>
+          <t>[(-19842.25938593751, 66190.6136978306), (-19842.25938593751, 66190.4436978306), (-19839.3203859375, 66190.8194278306), (-19839.3203859375, 66190.6494278306), (-19839.3203859375, 66190.8194278306), (-19839.3203859375, 66190.6494278306), (-19832.2203859375, 66191.3164278306), (-19832.2203859375, 66191.03642783061), (-19842.25938593751, 66190.4436978306), (-19842.25938593751, 66190.3036978306), (-19839.3203859375, 66190.6494278306), (-19839.3203859375, 66190.4794278306), (-19839.3203859375, 66190.6494278306), (-19839.3203859375, 66190.4794278306), (-19832.2203859375, 66191.03642783061), (-19832.2203859375, 66190.75642783061)]</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>[(0.300000000000441, 294.0), (0.300000000000441, 293.82), (3.232, 294.20523999999995), (3.232, 294.02523999999994), (3.232, 294.20523999999995), (3.232, 294.02523999999994), (10.248, 294.69635999999997), (10.248, 294.39635999999996), (0.300000000000441, 293.82), (0.300000000000441, 293.68), (3.232, 294.02523999999994), (3.232, 293.84523999999993), (3.232, 294.02523999999994), (3.232, 293.84523999999993), (10.248, 294.39635999999996), (10.248, 294.09635999999995)]</t>
+          <t>[(-19653.0593859375, 66188.5780411977), (-19653.0593859375, 66188.39804119771), (-19650.1273859375, 66188.7832811977), (-19650.1273859375, 66188.6032811977), (-19650.1273859375, 66188.7832811977), (-19650.1273859375, 66188.6032811977), (-19643.1113859375, 66189.2744011977), (-19643.1113859375, 66188.9744011977), (-19653.0593859375, 66188.39804119771), (-19653.0593859375, 66188.2580411977), (-19650.1273859375, 66188.6032811977), (-19650.1273859375, 66188.4232811977), (-19650.1273859375, 66188.6032811977), (-19650.1273859375, 66188.4232811977), (-19643.1113859375, 66188.9744011977), (-19643.1113859375, 66188.6744011977)]</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[(0.300000000000273, 295.0), (0.300000000000273, 294.81), (3.079, 295.19453), (3.079, 295.00453), (3.079, 295.19453), (3.079, 295.00453), (10.201, 295.69307), (10.201, 295.37307), (0.300000000000273, 294.81), (0.300000000000273, 294.65), (3.079, 295.00453), (3.079, 294.81453), (3.079, 295.00453), (3.079, 294.81453), (10.201, 295.37307), (10.201, 295.05307)]</t>
+          <t>[(-19455.8593859375, 66186.5423845648), (-19455.8593859375, 66186.3523845648), (-19453.080385937497, 66186.7369145648), (-19453.080385937497, 66186.5469145648), (-19453.080385937497, 66186.7369145648), (-19453.080385937497, 66186.5469145648), (-19445.958385937498, 66187.2354545648), (-19445.958385937498, 66186.91545456479), (-19455.8593859375, 66186.3523845648), (-19455.8593859375, 66186.1923845648), (-19453.080385937497, 66186.5469145648), (-19453.080385937497, 66186.35691456479), (-19453.080385937497, 66186.5469145648), (-19453.080385937497, 66186.35691456479), (-19445.958385937498, 66186.91545456479), (-19445.958385937498, 66186.5954545648)]</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>[(0.300000000115793, 296.0), (0.300000000115793, 295.78), (3.014, 296.16372228346205), (3.014, 295.943722283462), (3.014, 296.16372228346205), (3.014, 295.943722283462), (10.132, 296.5931162457807), (10.132, 296.2731162457807), (0.300000000115793, 295.78), (0.300000000115793, 295.6), (3.014, 295.943722283462), (3.014, 295.72372228346205), (3.014, 295.943722283462), (3.014, 295.72372228346205), (10.132, 296.2731162457807), (10.132, 295.95311624578073)]</t>
+          <t>[(-19276.659385937484, 66188.5067279319), (-19276.659385937484, 66188.2867279319), (-19273.9453859376, 66188.67045021537), (-19273.9453859376, 66188.45045021537), (-19273.9453859376, 66188.67045021537), (-19273.9453859376, 66188.45045021537), (-19266.8273859376, 66189.09984417769), (-19266.8273859376, 66188.77984417768), (-19276.659385937484, 66188.2867279319), (-19276.659385937484, 66188.10672793191), (-19273.9453859376, 66188.45045021537), (-19273.9453859376, 66188.23045021537), (-19273.9453859376, 66188.45045021537), (-19273.9453859376, 66188.23045021537), (-19266.8273859376, 66188.77984417768), (-19266.8273859376, 66188.45984417769)]</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>[(0.300000000006553, 297.0), (0.300000000006553, 296.85), (2.96, 297.0929266044411), (2.96, 296.94292660444114), (2.96, 297.0929266044411), (2.96, 296.8029266044411), (10.109, 297.34267558758063), (10.109, 297.0526755875806), (0.300000000006553, 296.85), (0.300000000006553, 296.7), (2.96, 296.94292660444114), (2.96, 296.7929266044411), (2.96, 296.8029266044411), (2.96, 296.6529266044411), (10.109, 297.0526755875806), (10.109, 296.76267558758065), (0.300000000006553, 296.7), (0.300000000006553, 296.57), (2.96, 296.7929266044411), (2.96, 296.6529266044411), (2.96, 296.6529266044411), (2.96, 296.6529266044411), (10.109, 296.76267558758065), (10.109, 296.76267558758065)]</t>
+          <t>[(-19110.45